--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="927">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">Afghanistan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.emro.who.int/images/stories/coronavirus/covid-sitrep-30.pdf</t>
+    <t xml:space="preserve">http://www.emro.who.int/images/stories/coronavirus/covid-sitrep-31.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">WHO Regional Office for the Eastern Mediterranean</t>
@@ -295,7 +295,7 @@
     <t xml:space="preserve">Bahamas - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bahamas.gov.bs/wps/wcm/connect/fa6faf46-24a3-4a23-b35d-807eb4438e2b/Update+%23723-+Ministry+of+Health+%26+Wellness+-+COVID-19+Report+%282%29.pdf?MOD=AJPERES</t>
+    <t xml:space="preserve">https://www.bahamas.gov.bs/wps/wcm/connect/eab3acec-08ef-40eb-b3db-9edc1d696dbd/Update+%23727-+Ministry+of+Health+%26+Wellness+-+COVID-19+Report+%284%29.pdf?MOD=AJPERES</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Wellness</t>
@@ -357,7 +357,7 @@
     <t xml:space="preserve">Barbados - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gisbarbados.gov.bb/blog/covid-19-update-for-march-19/</t>
+    <t xml:space="preserve">https://gisbarbados.gov.bb/blog/covid-19-update-for-wednesday-march-23/</t>
   </si>
   <si>
     <t xml:space="preserve">https://gisbarbados.gov.bb/top-stories/</t>
@@ -632,7 +632,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-20-de-marco-de-2022/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-24-de-marco-de-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -886,7 +886,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://coronavirusrd.gob.do/wp-content/uploads/2022/03/Bolet%C3%ADn-especial-726-COVID-19.pdf</t>
+    <t xml:space="preserve">https://coronavirusrd.gob.do/wp-content/uploads/2022/03/Boletin-especial-734-COVID-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -1051,7 +1051,7 @@
     <t xml:space="preserve">Fiji - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.fj/21-03-2022/</t>
+    <t xml:space="preserve">https://www.health.gov.fj/25-03-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Fiji Ministry of Health &amp; Medical Services</t>
@@ -1141,7 +1141,7 @@
     <t xml:space="preserve">Georgia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://agenda.ge/en/news/2022/802</t>
+    <t xml:space="preserve">https://agenda.ge/en/news/2022/897</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Georgia</t>
@@ -1182,7 +1182,7 @@
     <t xml:space="preserve">Ghana - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">The Africa Centres for Disease Control and Prevention maintains a [dashboard]https://africacdc.maps.arcgis.com/apps/dashboards/a5603222b29c49539df3af45bac16bcc reporting the number of tests performed for every country in the continent. We query the API to produce a time series of the cumulative number of tests performed in Ghana.
+    <t xml:space="preserve">The Africa Centres for Disease Control and Prevention maintains a [dashboard](https://africacdc.maps.arcgis.com/apps/dashboards/a5603222b29c49539df3af45bac16bcc) reporting the number of tests performed for every country in the continent. We query the API to produce a time series of the cumulative number of tests performed in Ghana.
 Ghana's Outbreak Response Management provides [daily situation updates](https://www.ghanahealthservice.org/covid19/archive.php) reporting the total number of samples tested; this was our source from 2020-03-17 until 2022-01-10.
 Between 10 and 26 May 2020, the daily situation updates provide figures for both the number of samples tested and the number of persons tested. Over this period the two figures differ from one another by exactly 981 tests on each day, which is due to persons under mandatory quarantine undergoing multiple test (2,022 samples tested on 1,041 persons). This discrepancy of 981 tests is small, representing less than 1% of cumulative samples tested at the time. In contrast, the cumulative number of samples tested through routine surveillance and contact tracing are exactly equal to the cumulative number of persons tested on each day in these respective categories. 
 Prior to 10 May 2020, the daily situation updates provide testing figures using inconsistent terminology, varying between "samples tested", "persons tested", "suspected cases tested", and similar language. Nevertheless, we choose to include all of these figures within our constructed time series, since the variation in terminology does not appear to correspond to large breaks in the time series. In addition, based on the fact that the number of samples tested differs only slightly from the number of persons tested over the 10 May to 26 May 2020 period, we have no reason to believe that the variation in terminology prior to 10 May has any serious ramifications for the interpretation of the time series as the cumulative number of samples tested. From 10 May 2020 onwards, the daily situation updates consistently report the cumulative number of samples tested. 
@@ -1294,7 +1294,7 @@
     <t xml:space="preserve">Haiti - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://mspp.gouv.ht/site/downloads/Sitrep COVID-19_18-03-2022.pdf</t>
+    <t xml:space="preserve">https://mspp.gouv.ht/site/downloads/Sitrep COVID-19_19-03-2022.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Population</t>
@@ -1420,7 +1420,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://irangov.ir/detail/382842</t>
+    <t xml:space="preserve">https://irangov.ir/detail/383013</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Medical Education</t>
@@ -1518,7 +1518,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-wednesday-march-16-2022/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-wednesday-march-23-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -1622,9 +1622,6 @@
   </si>
   <si>
     <t xml:space="preserve">Kuwait - tests performed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1501951115159609344</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1837,7 +1834,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1502691632956641291</t>
+    <t xml:space="preserve">https://covid19.health.gov.mv/en</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1940,7 +1937,7 @@
     <t xml:space="preserve">Moldova - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://msmps.gov.md/comunicare/372-de-cazuri-noi-de-covid-19-raportate-pentru-18-martie-2022/</t>
+    <t xml:space="preserve">https://msmps.gov.md/comunicare/385-de-cazuri-noi-de-covid-19-raportate-pentru-24-martie-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health of the Republic of Moldova</t>
@@ -2050,7 +2047,7 @@
     <t xml:space="preserve">Nepal - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.mohp.gov.np/covid/englishSituationReport/62385bfce3967_SitRep771_COVID-19_21-03-2022_EN.pdf</t>
+    <t xml:space="preserve">https://covid19.mohp.gov.np/covid/englishSituationReport/623d885fd4936_SitRep775_COVID-19_25-03-2022_EN.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -2140,7 +2137,7 @@
     <t xml:space="preserve">North Macedonia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://koronavirus.gov.mk/vesti/223944</t>
+    <t xml:space="preserve">https://koronavirus.gov.mk/vesti/223965</t>
   </si>
   <si>
     <t xml:space="preserve">https://koronavirus.gov.mk/stat</t>
@@ -2196,7 +2193,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/315374154022887</t>
+    <t xml:space="preserve">https://web.facebook.com/mohps/posts/pfbid031YuxVi7tQ7xggCWahCNEqnu31nNwB53PrBhHqSmU8C9B1t7zDRsnNWbf2Qf93pDtl?__cft__[0]=AZVh7w_qvT6FL0hwNzWUYISLrIp7ItQaxIIiMygkitGjbhLrgGOOnnxKZP_kyWVGr66586rhPzyR9qDctKuKpbRJ35WB4x4h4cLASjAzu1r6PheQ0-tgHI4GdfH-ah_4m2ju3Ej4uB87wZQr-6v5MPR_bh3YOKkW4sD6v79L0QdmAg&amp;__tn__=%2CO%2CP-R</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -2218,7 +2215,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1504596266457747460</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1507126839071977476</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -2252,14 +2249,16 @@
     <t xml:space="preserve">https://www.mspbs.gov.py/reporte-covid19.html</t>
   </si>
   <si>
+    <t xml:space="preserve">Ministry of Public Health and Social Welfare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Paraguay Ministry of Public Health and Social Welfare</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/msaludpy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Paraguay Ministry of Public Health and Social Welfare posts daily COVID-19 updates on their official [Twitter account](https://twitter.com/msaludpy) reporting the number of new PCR tests performed. Data is available from 7 March 2020.
-Until 31 Jan 2021, our source was this [official dashboard](wttps://www.mspbs.gov.py/reporte-covid19.html), maintained by the Ministry of Health; we switched to the current source because the old source began to report weekly instead of daily testing figures.
+    <t xml:space="preserve">https://public.tableau.com/app/profile/mspbs/viz/COVID-19PYTableauPublic/COVID-19Prensa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Paraguay Ministry of Public Health and Social Welfare maintains a [dashboard](https://public.tableau.com/app/profile/mspbs/viz/COVID-19PYTableauPublic/COVID-19Prensa) reporting the cumlative number of tests performed since 7 March 2020, from which we construct a time series.
 "Muestras" and "positivos" in the current source corresponds with "pruebas realizadas" and "casos confirmados" in the old source.</t>
   </si>
   <si>
@@ -2307,22 +2306,21 @@
     <t xml:space="preserve">POL</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland - people tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1503306189312077825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland Ministry of Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Polish Ministry of Health provides daily diagnostics reports on their official Twitter account [(@MZ_GOV_PL)](https://twitter.com/MZ_GOV_PL) giving the cumulative number of samples tested and people tested, which we use to construct a daily time series. Data is available from [28 April 2020](https://twitter.com/MZ_GOV_PL/status/1255097691220201472).
-It is unclear if the cumulative number of people tested repeatedly counts people who have gone through more than one round of testing over the course of the pandemic. Since we derive a count of the daily number of people tested from the change in this cumulative number, if people undergoing multiple rounds of testing are not counted repeatedly in the cumulative testing figures, then they will not appear in our daily testing figures. It is also unclear if pending results are included in the testing figures.
-On 31 October 2020, the Ministry of Health changed the [case definition](https://www.gov.pl/web/wsse-krakow/definicja-przypadku-covid19-na-potrzeby-nadzoru-epidemiologicznego-nad-zakazeniami-wirusem-sars-cov-2-definicja-z-dnia-31102020-) to include detection with rapid antigen tests. However, we have not been able to establish whether or not rapid antigen tests are now also included in the testing figures; if not, then the true positive rate will be lower than that indicated in our figures.
-For more information about how these details may impact the time series, refer to our [FAQ](https://ourworldindata.org/coronavirus-testing#frequently-asked-questions-about-our-covid-19-testing-dataset) on our COVID-19 testing dataset.</t>
+    <t xml:space="preserve">Poland - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ecdc.europa.eu/en/publications-data/covid-19-testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Centre for Disease Prevention and Control (ECDC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Centre for Disease Prevention and Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The European Centre for Disease Prevention and Control publishes [data](https://www.ecdc.europa.eu/en/publications-data/covid-19-testing) on testing for COVID-19 by week and country, from which we construct a time series of the number of laborartory tests performed.
+The Polish Ministry of Health also provides daily diagnostics reports on their official Twitter account [(@MZ_GOV_PL)](https://twitter.com/MZ_GOV_PL) giving the cumulative number of samples tested and people tested, which was our source until 25 March 2022.Data was available from [28 April 2020](https://twitter.com/MZ_GOV_PL/status/1255097691220201472).
+On 31 October 2020, the Ministry of Health changed the [case definition](https://www.gov.pl/web/wsse-krakow/definicja-przypadku-covid19-na-potrzeby-nadzoru-epidemiologicznego-nad-zakazeniami-wirusem-sars-cov-2-definicja-z-dnia-31102020-) to include detection with rapid antigen tests. However, we have not been able to establish whether or not rapid antigen tests are now also included in the testing figures; if not, then the true positive rate will be lower than that indicated in our figures.</t>
   </si>
   <si>
     <t xml:space="preserve">PRT</t>
@@ -2373,12 +2371,6 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gov.ro/fisiere/comunicate_fisiere/07-03_BULETIN_DE_PRESA_ora_13.00.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ministry of Internal Affairs</t>
-  </si>
-  <si>
     <t xml:space="preserve">Romanian Government</t>
   </si>
   <si>
@@ -2396,7 +2388,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=20998</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=21048</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2467,7 +2459,7 @@
     <t xml:space="preserve">Saint Vincent and the Grenadines - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://health.gov.vc/health/images/PDF/stories/COVID-19_Report-_Sun_Mar_20_2022_.pdf</t>
+    <t xml:space="preserve">http://health.gov.vc/health/images/PDF/stories/COVID-19_Report-_Wed_Mar_23_2022_.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Wellness and the Environment</t>
@@ -2802,7 +2794,7 @@
     <t xml:space="preserve">https://www.moh.go.tz/en/</t>
   </si>
   <si>
-    <t xml:space="preserve">The Tanzania Ministry of Health publishes COVID-19 situation reports on its [website](https://www.moh.go.tz/en/), from which we construct a time series of the number of PCR laborartory tests performed.</t>
+    <t xml:space="preserve">The Africa Centres for Disease Control and Prevention maintains a [dashboard](https://africacdc.maps.arcgis.com/apps/dashboards/a5603222b29c49539df3af45bac16bcc) reporting the number of tests performed for every country in the continent. We query the API to produce a time series of the cumulative number of tests performed in Tanzania.</t>
   </si>
   <si>
     <t xml:space="preserve">THA</t>
@@ -2852,11 +2844,8 @@
     <t xml:space="preserve">Togo Ministry of Health</t>
   </si>
   <si>
-    <t xml:space="preserve">Unclear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Togo Ministry of Health provides daily updates on the number of samples tested via their [official government portal](https://covid19.gouv.tg/) and affiliated social media accounts on [Facebook](https://www.facebook.com/Covid19TG/) and [Twitter](https://twitter.com/Covid19TG). Data is available from 4 March 2020. 
-We are in direct contact with the MOH who provide daily updates on the number of samples tested. These figures consistently and slightly differ from those in the sources listed above due to internal MOH reporting delays. Our figures are more up-to-date. For example, for the 28 June 2020 the cumulative total of samples tested on [Twitter](https://twitter.com/Covid19TG/status/1277362183840636929) is reported to be 30,316 samples while in the internal MOH figures it is 30,333. Please see the notes for each observation where we include a link to the corresponding MOH tweet for comparison, where available.
+    <t xml:space="preserve">The Togo Ministry of Health maintains a [dashboard](https://covid19.gouv.tg/) reporting the cumulative number of tests performed.
+Previously, we constructed a time series of the daily number of tests performed from figures sent to us directly by the Togo Ministry of Health. We then derived a time series of the cumulative number of tests performed since 4 March 2020 by subtracting the daily number of tests performed from the cumulative total on the following date from 20 March 2022 retrospectively. The sum of all daily tests differed slightly from the cumulative total on 20 March 2020 due to human error in data entry and retrospective revisions. As such, the cumlative total of tests performed on 4 March 2020 does not equal 0.
 Testing figures refer to the number of PCR tests performed each day. An [article](https://www.afro.who.int/node/13866) by the WHO, published 4 January 2021, stated, "to date, 181,177 tests have been carried out throughout the territory for 3,722 positive confirmed case" ("a date, 181 177 tests ont ainsi été réalisés sur toute l’étendue du territoire pour 3 722 cas confirmés positifs"), suggesting a positive PCR test is necessary to confirm cases of COVID-19.</t>
   </si>
   <si>
@@ -3043,7 +3032,7 @@
     <t xml:space="preserve">Vanuatu - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.gov.vu/images/Surveilllance-reports/Vanuatu_COVID-19_Surveillance_Report-2022_EW7.pdf</t>
+    <t xml:space="preserve">https://covid19.gov.vu/images/Surveilllance-reports/Vanuatu_COVID-19_Surveillance_Report-2022_EW8.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Vanuatu Minsitry of Health</t>
@@ -3524,7 +3513,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>44618</v>
+        <v>44632</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -3534,27 +3523,27 @@
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>889430</v>
+        <v>904055</v>
       </c>
       <c r="I2" t="n">
-        <v>22.328</v>
+        <v>22.695</v>
       </c>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2" t="n">
-        <v>1301</v>
+        <v>1045</v>
       </c>
       <c r="M2" t="n">
-        <v>0.033</v>
+        <v>0.026</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1334</v>
+        <v>0.2335</v>
       </c>
       <c r="O2" t="n">
-        <v>7.5</v>
+        <v>4.3</v>
       </c>
       <c r="P2" t="s">
         <v>23</v>
@@ -3732,7 +3721,7 @@
         <v>48</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D6" t="s">
         <v>35</v>
@@ -3742,27 +3731,27 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="n">
-        <v>1476020</v>
+        <v>1486258</v>
       </c>
       <c r="I6" t="n">
-        <v>43.497</v>
+        <v>43.799</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="n">
-        <v>1925</v>
+        <v>2288</v>
       </c>
       <c r="M6" t="n">
-        <v>0.057</v>
+        <v>0.067</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0056</v>
+        <v>0.0049</v>
       </c>
       <c r="O6" t="n">
-        <v>177.3</v>
+        <v>205.3</v>
       </c>
       <c r="P6" t="s">
         <v>36</v>
@@ -3838,7 +3827,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44639</v>
+        <v>44643</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -3848,31 +3837,31 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="H8" t="n">
-        <v>34989101</v>
+        <v>35125296</v>
       </c>
       <c r="I8" t="n">
-        <v>767.207</v>
+        <v>770.193</v>
       </c>
       <c r="J8" t="n">
-        <v>12678</v>
+        <v>23507</v>
       </c>
       <c r="K8" t="n">
-        <v>0.278</v>
+        <v>0.515</v>
       </c>
       <c r="L8" t="n">
-        <v>28744</v>
+        <v>25012</v>
       </c>
       <c r="M8" t="n">
-        <v>0.63</v>
+        <v>0.548</v>
       </c>
       <c r="N8" t="n">
-        <v>0.042</v>
+        <v>0.04</v>
       </c>
       <c r="O8" t="n">
-        <v>23.8</v>
+        <v>25</v>
       </c>
       <c r="P8" t="s">
         <v>60</v>
@@ -3895,7 +3884,7 @@
         <v>64</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D9" t="s">
         <v>65</v>
@@ -3905,31 +3894,31 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="H9" t="n">
-        <v>2953681</v>
+        <v>2963081</v>
       </c>
       <c r="I9" t="n">
-        <v>995.133</v>
+        <v>998.3</v>
       </c>
       <c r="J9" t="n">
-        <v>1752</v>
+        <v>2430</v>
       </c>
       <c r="K9" t="n">
-        <v>0.59</v>
+        <v>0.819</v>
       </c>
       <c r="L9" t="n">
-        <v>2302</v>
+        <v>2182</v>
       </c>
       <c r="M9" t="n">
-        <v>0.776</v>
+        <v>0.735</v>
       </c>
       <c r="N9" t="n">
-        <v>0.019</v>
+        <v>0.011</v>
       </c>
       <c r="O9" t="n">
-        <v>52.6</v>
+        <v>90.9</v>
       </c>
       <c r="P9" t="s">
         <v>53</v>
@@ -3952,7 +3941,7 @@
         <v>69</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44641</v>
+        <v>44645</v>
       </c>
       <c r="D10" t="s">
         <v>70</v>
@@ -3964,25 +3953,25 @@
         <v>72</v>
       </c>
       <c r="G10" t="n">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="H10" t="n">
-        <v>65406558</v>
+        <v>65836260</v>
       </c>
       <c r="I10" t="n">
-        <v>2536.296</v>
+        <v>2552.959</v>
       </c>
       <c r="J10" t="n">
-        <v>81698</v>
+        <v>129628</v>
       </c>
       <c r="K10" t="n">
-        <v>3.168</v>
+        <v>5.027</v>
       </c>
       <c r="L10" t="n">
-        <v>99458</v>
+        <v>103429</v>
       </c>
       <c r="M10" t="n">
-        <v>3.857</v>
+        <v>4.011</v>
       </c>
       <c r="N10"/>
       <c r="O10"/>
@@ -4007,7 +3996,7 @@
         <v>76</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44641</v>
+        <v>44644</v>
       </c>
       <c r="D11" t="s">
         <v>77</v>
@@ -4017,28 +4006,32 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="H11" t="n">
-        <v>170965802</v>
+        <v>172558127</v>
       </c>
       <c r="I11" t="n">
-        <v>18905.722</v>
+        <v>19081.804</v>
       </c>
       <c r="J11" t="n">
-        <v>332573</v>
+        <v>663883</v>
       </c>
       <c r="K11" t="n">
-        <v>36.777</v>
+        <v>73.413</v>
       </c>
       <c r="L11" t="n">
-        <v>606030</v>
+        <v>494873</v>
       </c>
       <c r="M11" t="n">
-        <v>67.016</v>
-      </c>
-      <c r="N11"/>
-      <c r="O11"/>
+        <v>54.724</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0841</v>
+      </c>
+      <c r="O11" t="n">
+        <v>11.9</v>
+      </c>
       <c r="P11" t="s">
         <v>78</v>
       </c>
@@ -4060,7 +4053,7 @@
         <v>81</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D12" t="s">
         <v>82</v>
@@ -4070,27 +4063,27 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H12" t="n">
-        <v>6668546</v>
+        <v>6676788</v>
       </c>
       <c r="I12" t="n">
-        <v>652.286</v>
+        <v>653.092</v>
       </c>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12" t="n">
-        <v>4747</v>
+        <v>3212</v>
       </c>
       <c r="M12" t="n">
-        <v>0.464</v>
+        <v>0.314</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0215</v>
+        <v>0.0234</v>
       </c>
       <c r="O12" t="n">
-        <v>46.5</v>
+        <v>42.7</v>
       </c>
       <c r="P12" t="s">
         <v>83</v>
@@ -4113,7 +4106,7 @@
         <v>86</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44639</v>
+        <v>44643</v>
       </c>
       <c r="D13" t="s">
         <v>87</v>
@@ -4123,27 +4116,27 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H13" t="n">
-        <v>225365</v>
+        <v>226185</v>
       </c>
       <c r="I13" t="n">
-        <v>567.793</v>
+        <v>569.859</v>
       </c>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M13" t="n">
-        <v>0.529</v>
+        <v>0.534</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0116</v>
+        <v>0.0216</v>
       </c>
       <c r="O13" t="n">
-        <v>86.5</v>
+        <v>46.4</v>
       </c>
       <c r="P13" t="s">
         <v>89</v>
@@ -4166,7 +4159,7 @@
         <v>93</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44641</v>
+        <v>44645</v>
       </c>
       <c r="D14" t="s">
         <v>94</v>
@@ -4176,21 +4169,21 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H14" t="n">
-        <v>9545364</v>
+        <v>9569757</v>
       </c>
       <c r="I14" t="n">
-        <v>5459.813</v>
+        <v>5473.766</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14" t="n">
-        <v>5992</v>
+        <v>6053</v>
       </c>
       <c r="M14" t="n">
-        <v>3.427</v>
+        <v>3.462</v>
       </c>
       <c r="N14"/>
       <c r="O14"/>
@@ -4215,7 +4208,7 @@
         <v>100</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44641</v>
+        <v>44644</v>
       </c>
       <c r="D15" t="s">
         <v>101</v>
@@ -4225,28 +4218,32 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H15" t="n">
-        <v>13663658</v>
+        <v>13675769</v>
       </c>
       <c r="I15" t="n">
-        <v>82.161</v>
+        <v>82.234</v>
       </c>
       <c r="J15" t="n">
-        <v>10899</v>
+        <v>12111</v>
       </c>
       <c r="K15" t="n">
-        <v>0.066</v>
+        <v>0.073</v>
       </c>
       <c r="L15" t="n">
-        <v>1557</v>
+        <v>2620</v>
       </c>
       <c r="M15" t="n">
-        <v>0.009</v>
-      </c>
-      <c r="N15"/>
-      <c r="O15"/>
+        <v>0.016</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="O15" t="n">
+        <v>25.7</v>
+      </c>
       <c r="P15" t="s">
         <v>102</v>
       </c>
@@ -4268,7 +4265,7 @@
         <v>105</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>44639</v>
+        <v>44643</v>
       </c>
       <c r="D16" t="s">
         <v>106</v>
@@ -4278,27 +4275,27 @@
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H16" t="n">
-        <v>603110</v>
+        <v>606118</v>
       </c>
       <c r="I16" t="n">
-        <v>2096.257</v>
+        <v>2106.712</v>
       </c>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16" t="n">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="M16" t="n">
-        <v>2.655</v>
+        <v>2.631</v>
       </c>
       <c r="N16" t="n">
-        <v>0.138</v>
+        <v>0.1264</v>
       </c>
       <c r="O16" t="n">
-        <v>7.2</v>
+        <v>7.9</v>
       </c>
       <c r="P16" t="s">
         <v>53</v>
@@ -4321,7 +4318,7 @@
         <v>110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44641</v>
+        <v>44645</v>
       </c>
       <c r="D17" t="s">
         <v>111</v>
@@ -4331,21 +4328,21 @@
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H17" t="n">
-        <v>12737896</v>
+        <v>12790271</v>
       </c>
       <c r="I17" t="n">
-        <v>1348.944</v>
+        <v>1354.49</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17" t="n">
-        <v>13070</v>
+        <v>13084</v>
       </c>
       <c r="M17" t="n">
-        <v>1.384</v>
+        <v>1.386</v>
       </c>
       <c r="N17"/>
       <c r="O17"/>
@@ -4370,7 +4367,7 @@
         <v>117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44637</v>
+        <v>44643</v>
       </c>
       <c r="D18" t="s">
         <v>118</v>
@@ -4380,31 +4377,31 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="H18" t="n">
-        <v>32370868</v>
+        <v>32593141</v>
       </c>
       <c r="I18" t="n">
-        <v>2782.835</v>
+        <v>2801.943</v>
       </c>
       <c r="J18" t="n">
-        <v>41399</v>
+        <v>46569</v>
       </c>
       <c r="K18" t="n">
-        <v>3.559</v>
+        <v>4.003</v>
       </c>
       <c r="L18" t="n">
-        <v>37168</v>
+        <v>37636</v>
       </c>
       <c r="M18" t="n">
-        <v>3.195</v>
+        <v>3.235</v>
       </c>
       <c r="N18" t="n">
-        <v>0.28</v>
+        <v>0.302</v>
       </c>
       <c r="O18" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P18" t="s">
         <v>120</v>
@@ -4427,7 +4424,7 @@
         <v>124</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>44631</v>
+        <v>44641</v>
       </c>
       <c r="D19" t="s">
         <v>125</v>
@@ -4437,27 +4434,27 @@
       </c>
       <c r="F19"/>
       <c r="G19" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H19" t="n">
-        <v>510065</v>
+        <v>515601</v>
       </c>
       <c r="I19" t="n">
-        <v>1259.684</v>
+        <v>1273.356</v>
       </c>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19" t="n">
-        <v>800</v>
+        <v>554</v>
       </c>
       <c r="M19" t="n">
-        <v>1.976</v>
+        <v>1.368</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0282</v>
+        <v>0.025</v>
       </c>
       <c r="O19" t="n">
-        <v>35.4</v>
+        <v>40</v>
       </c>
       <c r="P19" t="s">
         <v>126</v>
@@ -4582,7 +4579,7 @@
         <v>139</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>44633</v>
+        <v>44640</v>
       </c>
       <c r="D22" t="s">
         <v>140</v>
@@ -4594,31 +4591,31 @@
         <v>142</v>
       </c>
       <c r="G22" t="n">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="H22" t="n">
-        <v>3950904</v>
+        <v>3989232</v>
       </c>
       <c r="I22" t="n">
-        <v>333.89</v>
+        <v>337.13</v>
       </c>
       <c r="J22" t="n">
-        <v>2662</v>
+        <v>2281</v>
       </c>
       <c r="K22" t="n">
-        <v>0.225</v>
+        <v>0.193</v>
       </c>
       <c r="L22" t="n">
-        <v>5910</v>
+        <v>5475</v>
       </c>
       <c r="M22" t="n">
-        <v>0.499</v>
+        <v>0.463</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0578</v>
+        <v>0.0576</v>
       </c>
       <c r="O22" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P22" t="s">
         <v>53</v>
@@ -4796,7 +4793,7 @@
         <v>161</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D26" t="s">
         <v>162</v>
@@ -4806,27 +4803,27 @@
       </c>
       <c r="F26"/>
       <c r="G26" t="n">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H26" t="n">
-        <v>9466970</v>
+        <v>9524020</v>
       </c>
       <c r="I26" t="n">
-        <v>1372.69</v>
+        <v>1380.962</v>
       </c>
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26" t="n">
-        <v>14173</v>
+        <v>14224</v>
       </c>
       <c r="M26" t="n">
-        <v>2.055</v>
+        <v>2.062</v>
       </c>
       <c r="N26" t="n">
-        <v>0.1158</v>
+        <v>0.0991</v>
       </c>
       <c r="O26" t="n">
-        <v>8.6</v>
+        <v>10.1</v>
       </c>
       <c r="P26" t="s">
         <v>164</v>
@@ -4900,7 +4897,7 @@
         <v>171</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D28" t="s">
         <v>35</v>
@@ -4910,27 +4907,27 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H28" t="n">
-        <v>1438047</v>
+        <v>1442111</v>
       </c>
       <c r="I28" t="n">
-        <v>117.34</v>
+        <v>117.671</v>
       </c>
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28" t="n">
-        <v>1144</v>
+        <v>1071</v>
       </c>
       <c r="M28" t="n">
-        <v>0.093</v>
+        <v>0.087</v>
       </c>
       <c r="N28" t="n">
-        <v>0.0075</v>
+        <v>0.0147</v>
       </c>
       <c r="O28" t="n">
-        <v>133.5</v>
+        <v>68.2</v>
       </c>
       <c r="P28" t="s">
         <v>36</v>
@@ -4953,7 +4950,7 @@
         <v>174</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44641</v>
+        <v>44645</v>
       </c>
       <c r="D29" t="s">
         <v>175</v>
@@ -4963,21 +4960,21 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H29" t="n">
-        <v>2912904</v>
+        <v>2919136</v>
       </c>
       <c r="I29" t="n">
-        <v>171.889</v>
+        <v>172.257</v>
       </c>
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29" t="n">
-        <v>1999</v>
+        <v>1747</v>
       </c>
       <c r="M29" t="n">
-        <v>0.118</v>
+        <v>0.103</v>
       </c>
       <c r="N29"/>
       <c r="O29"/>
@@ -5002,7 +4999,7 @@
         <v>179</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D30" t="s">
         <v>35</v>
@@ -5012,28 +5009,24 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>2517016</v>
+        <v>2524670</v>
       </c>
       <c r="I30" t="n">
-        <v>92.455</v>
+        <v>92.736</v>
       </c>
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30" t="n">
-        <v>696</v>
+        <v>1392</v>
       </c>
       <c r="M30" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0.0456</v>
-      </c>
-      <c r="O30" t="n">
-        <v>21.9</v>
-      </c>
+        <v>0.051</v>
+      </c>
+      <c r="N30"/>
+      <c r="O30"/>
       <c r="P30" t="s">
         <v>36</v>
       </c>
@@ -5055,7 +5048,7 @@
         <v>182</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>44639</v>
+        <v>44644</v>
       </c>
       <c r="D31" t="s">
         <v>183</v>
@@ -5065,31 +5058,31 @@
       </c>
       <c r="F31"/>
       <c r="G31" t="n">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="H31" t="n">
-        <v>58996224</v>
+        <v>59181662</v>
       </c>
       <c r="I31" t="n">
-        <v>1549.762</v>
+        <v>1554.634</v>
       </c>
       <c r="J31" t="n">
-        <v>28378</v>
+        <v>39244</v>
       </c>
       <c r="K31" t="n">
-        <v>0.745</v>
+        <v>1.031</v>
       </c>
       <c r="L31" t="n">
-        <v>37999</v>
+        <v>36709</v>
       </c>
       <c r="M31" t="n">
-        <v>0.998</v>
+        <v>0.964</v>
       </c>
       <c r="N31" t="n">
-        <v>0.1157</v>
+        <v>0.156</v>
       </c>
       <c r="O31" t="n">
-        <v>8.6</v>
+        <v>6.4</v>
       </c>
       <c r="P31" t="s">
         <v>184</v>
@@ -5112,7 +5105,7 @@
         <v>188</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44639</v>
+        <v>44643</v>
       </c>
       <c r="D32" t="s">
         <v>189</v>
@@ -5122,15 +5115,15 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32" t="n">
-        <v>198</v>
+        <v>326</v>
       </c>
       <c r="K32" t="n">
-        <v>0.352</v>
+        <v>0.58</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -5157,7 +5150,7 @@
         <v>194</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D33" t="s">
         <v>35</v>
@@ -5167,23 +5160,25 @@
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H33" t="n">
-        <v>86960</v>
+        <v>87537</v>
       </c>
       <c r="I33" t="n">
-        <v>17.675</v>
+        <v>17.792</v>
       </c>
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33" t="n">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="M33" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="N33"/>
+        <v>0.023</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
       <c r="O33"/>
       <c r="P33" t="s">
         <v>36</v>
@@ -5206,7 +5201,7 @@
         <v>197</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D34" t="s">
         <v>35</v>
@@ -5216,27 +5211,27 @@
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
-        <v>205595</v>
+        <v>206951</v>
       </c>
       <c r="I34" t="n">
-        <v>12.155</v>
+        <v>12.235</v>
       </c>
       <c r="J34"/>
       <c r="K34"/>
       <c r="L34" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M34" t="n">
         <v>0.02</v>
       </c>
       <c r="N34" t="n">
-        <v>0.0038</v>
+        <v>0.008</v>
       </c>
       <c r="O34" t="n">
-        <v>262.8</v>
+        <v>124.9</v>
       </c>
       <c r="P34" t="s">
         <v>36</v>
@@ -5259,7 +5254,7 @@
         <v>200</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44641</v>
+        <v>44644</v>
       </c>
       <c r="D35" t="s">
         <v>201</v>
@@ -5269,28 +5264,32 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="H35" t="n">
-        <v>34530373</v>
+        <v>34755620</v>
       </c>
       <c r="I35" t="n">
-        <v>1797.3</v>
+        <v>1809.024</v>
       </c>
       <c r="J35" t="n">
-        <v>68985</v>
+        <v>103581</v>
       </c>
       <c r="K35" t="n">
-        <v>3.591</v>
+        <v>5.391</v>
       </c>
       <c r="L35" t="n">
-        <v>87180</v>
+        <v>83790</v>
       </c>
       <c r="M35" t="n">
-        <v>4.538</v>
-      </c>
-      <c r="N35"/>
-      <c r="O35"/>
+        <v>4.361</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.1243</v>
+      </c>
+      <c r="O35" t="n">
+        <v>8</v>
+      </c>
       <c r="P35" t="s">
         <v>202</v>
       </c>
@@ -5365,7 +5364,7 @@
         <v>212</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D37" t="s">
         <v>213</v>
@@ -5375,31 +5374,31 @@
       </c>
       <c r="F37"/>
       <c r="G37" t="n">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="H37" t="n">
-        <v>33621330</v>
+        <v>33704034</v>
       </c>
       <c r="I37" t="n">
-        <v>655.823</v>
+        <v>657.436</v>
       </c>
       <c r="J37" t="n">
-        <v>21342</v>
+        <v>24107</v>
       </c>
       <c r="K37" t="n">
-        <v>0.416</v>
+        <v>0.47</v>
       </c>
       <c r="L37" t="n">
-        <v>23779</v>
+        <v>20422</v>
       </c>
       <c r="M37" t="n">
-        <v>0.464</v>
+        <v>0.398</v>
       </c>
       <c r="N37" t="n">
-        <v>0.034</v>
+        <v>0.026</v>
       </c>
       <c r="O37" t="n">
-        <v>29.4</v>
+        <v>38.5</v>
       </c>
       <c r="P37" t="s">
         <v>214</v>
@@ -5467,7 +5466,7 @@
         <v>221</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44633</v>
+        <v>44639</v>
       </c>
       <c r="D39" t="s">
         <v>222</v>
@@ -5477,31 +5476,31 @@
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="H39" t="n">
-        <v>3005867</v>
+        <v>3072929</v>
       </c>
       <c r="I39" t="n">
-        <v>584.907</v>
+        <v>597.956</v>
       </c>
       <c r="J39" t="n">
-        <v>4239</v>
+        <v>10452</v>
       </c>
       <c r="K39" t="n">
-        <v>0.825</v>
+        <v>2.034</v>
       </c>
       <c r="L39" t="n">
-        <v>6450</v>
+        <v>8470</v>
       </c>
       <c r="M39" t="n">
-        <v>1.255</v>
+        <v>1.648</v>
       </c>
       <c r="N39" t="n">
-        <v>0.155</v>
+        <v>0.094</v>
       </c>
       <c r="O39" t="n">
-        <v>6.5</v>
+        <v>10.6</v>
       </c>
       <c r="P39" t="s">
         <v>223</v>
@@ -5524,7 +5523,7 @@
         <v>226</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D40" t="s">
         <v>35</v>
@@ -5534,27 +5533,27 @@
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H40" t="n">
-        <v>1455273</v>
+        <v>1460727</v>
       </c>
       <c r="I40" t="n">
-        <v>53.792</v>
+        <v>53.994</v>
       </c>
       <c r="J40"/>
       <c r="K40"/>
       <c r="L40" t="n">
-        <v>1663</v>
+        <v>1492</v>
       </c>
       <c r="M40" t="n">
-        <v>0.061</v>
+        <v>0.055</v>
       </c>
       <c r="N40" t="n">
-        <v>0.005</v>
+        <v>0.0041</v>
       </c>
       <c r="O40" t="n">
-        <v>200.7</v>
+        <v>242.9</v>
       </c>
       <c r="P40" t="s">
         <v>36</v>
@@ -5577,7 +5576,7 @@
         <v>229</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44641</v>
+        <v>44645</v>
       </c>
       <c r="D41" t="s">
         <v>230</v>
@@ -5587,21 +5586,21 @@
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H41" t="n">
-        <v>4623826</v>
+        <v>4649565</v>
       </c>
       <c r="I41" t="n">
-        <v>1132.831</v>
+        <v>1139.137</v>
       </c>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41" t="n">
-        <v>5512</v>
+        <v>6039</v>
       </c>
       <c r="M41" t="n">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="N41"/>
       <c r="O41"/>
@@ -5685,7 +5684,7 @@
         <v>242</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44640</v>
+        <v>44643</v>
       </c>
       <c r="D43" t="s">
         <v>243</v>
@@ -5695,31 +5694,31 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="H43" t="n">
-        <v>27492280</v>
+        <v>27784655</v>
       </c>
       <c r="I43" t="n">
-        <v>30683.177</v>
+        <v>31009.487</v>
       </c>
       <c r="J43" t="n">
-        <v>75402</v>
+        <v>83366</v>
       </c>
       <c r="K43" t="n">
-        <v>84.154</v>
+        <v>93.042</v>
       </c>
       <c r="L43" t="n">
-        <v>90526</v>
+        <v>91139</v>
       </c>
       <c r="M43" t="n">
-        <v>101.033</v>
+        <v>101.717</v>
       </c>
       <c r="N43" t="n">
-        <v>0.0384</v>
+        <v>0.0442</v>
       </c>
       <c r="O43" t="n">
-        <v>26</v>
+        <v>22.6</v>
       </c>
       <c r="P43" t="s">
         <v>53</v>
@@ -5742,7 +5741,7 @@
         <v>246</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D44" t="s">
         <v>247</v>
@@ -5752,28 +5751,28 @@
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="H44" t="n">
-        <v>53469260</v>
+        <v>53606889</v>
       </c>
       <c r="I44" t="n">
-        <v>4985.687</v>
+        <v>4998.52</v>
       </c>
       <c r="J44" t="n">
-        <v>9394</v>
+        <v>27974</v>
       </c>
       <c r="K44" t="n">
-        <v>0.876</v>
+        <v>2.608</v>
       </c>
       <c r="L44" t="n">
-        <v>28320</v>
+        <v>27635</v>
       </c>
       <c r="M44" t="n">
-        <v>2.641</v>
+        <v>2.577</v>
       </c>
       <c r="N44" t="n">
-        <v>0.272</v>
+        <v>0.271</v>
       </c>
       <c r="O44" t="n">
         <v>3.7</v>
@@ -5852,7 +5851,7 @@
         <v>256</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>44640</v>
+        <v>44643</v>
       </c>
       <c r="D46" t="s">
         <v>257</v>
@@ -5862,31 +5861,31 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="H46" t="n">
-        <v>63672432</v>
+        <v>66405236</v>
       </c>
       <c r="I46" t="n">
-        <v>10952.886</v>
+        <v>11422.981</v>
       </c>
       <c r="J46" t="n">
-        <v>18128</v>
+        <v>22788</v>
       </c>
       <c r="K46" t="n">
-        <v>3.118</v>
+        <v>3.92</v>
       </c>
       <c r="L46" t="n">
-        <v>32821</v>
+        <v>32385</v>
       </c>
       <c r="M46" t="n">
-        <v>5.646</v>
+        <v>5.571</v>
       </c>
       <c r="N46" t="n">
-        <v>0.2364</v>
+        <v>0.202</v>
       </c>
       <c r="O46" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P46" t="s">
         <v>258</v>
@@ -5909,7 +5908,7 @@
         <v>261</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D47" t="s">
         <v>35</v>
@@ -5919,27 +5918,27 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="n">
-        <v>292778</v>
+        <v>294258</v>
       </c>
       <c r="I47" t="n">
-        <v>292.136</v>
+        <v>293.613</v>
       </c>
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47" t="n">
-        <v>425</v>
+        <v>394</v>
       </c>
       <c r="M47" t="n">
-        <v>0.424</v>
+        <v>0.393</v>
       </c>
       <c r="N47" t="n">
-        <v>0.0027</v>
+        <v>0.0029</v>
       </c>
       <c r="O47" t="n">
-        <v>371.8</v>
+        <v>344.7</v>
       </c>
       <c r="P47" t="s">
         <v>36</v>
@@ -5962,7 +5961,7 @@
         <v>264</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>44634</v>
+        <v>44642</v>
       </c>
       <c r="D48" t="s">
         <v>265</v>
@@ -5972,31 +5971,31 @@
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="H48" t="n">
-        <v>3174924</v>
+        <v>3204935</v>
       </c>
       <c r="I48" t="n">
-        <v>289.849</v>
+        <v>292.589</v>
       </c>
       <c r="J48" t="n">
-        <v>4382</v>
+        <v>2613</v>
       </c>
       <c r="K48" t="n">
-        <v>0.4</v>
+        <v>0.239</v>
       </c>
       <c r="L48" t="n">
-        <v>3258</v>
+        <v>3599</v>
       </c>
       <c r="M48" t="n">
-        <v>0.297</v>
+        <v>0.329</v>
       </c>
       <c r="N48" t="n">
-        <v>0.028</v>
+        <v>0.0273</v>
       </c>
       <c r="O48" t="n">
-        <v>35.7</v>
+        <v>36.6</v>
       </c>
       <c r="P48" t="s">
         <v>266</v>
@@ -6019,7 +6018,7 @@
         <v>270</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>44638</v>
+        <v>44642</v>
       </c>
       <c r="D49" t="s">
         <v>271</v>
@@ -6031,31 +6030,31 @@
         <v>273</v>
       </c>
       <c r="G49" t="n">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="H49" t="n">
-        <v>2602908</v>
+        <v>2614413</v>
       </c>
       <c r="I49" t="n">
-        <v>145.508</v>
+        <v>146.151</v>
       </c>
       <c r="J49" t="n">
-        <v>4192</v>
+        <v>4123</v>
       </c>
       <c r="K49" t="n">
-        <v>0.234</v>
+        <v>0.23</v>
       </c>
       <c r="L49" t="n">
-        <v>3611</v>
+        <v>3372</v>
       </c>
       <c r="M49" t="n">
-        <v>0.202</v>
+        <v>0.189</v>
       </c>
       <c r="N49" t="n">
-        <v>0.185</v>
+        <v>0.133</v>
       </c>
       <c r="O49" t="n">
-        <v>5.4</v>
+        <v>7.5</v>
       </c>
       <c r="P49" t="s">
         <v>274</v>
@@ -6078,7 +6077,7 @@
         <v>278</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D50" t="s">
         <v>35</v>
@@ -6088,25 +6087,23 @@
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H50" t="n">
-        <v>6007001</v>
+        <v>6012910</v>
       </c>
       <c r="I50" t="n">
-        <v>57.617</v>
+        <v>57.673</v>
       </c>
       <c r="J50"/>
       <c r="K50"/>
       <c r="L50" t="n">
-        <v>409</v>
+        <v>1019</v>
       </c>
       <c r="M50" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="N50"/>
       <c r="O50"/>
       <c r="P50" t="s">
         <v>36</v>
@@ -6284,7 +6281,7 @@
         <v>294</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D54" t="s">
         <v>295</v>
@@ -6294,31 +6291,31 @@
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="H54" t="n">
-        <v>3222463</v>
+        <v>3240181</v>
       </c>
       <c r="I54" t="n">
-        <v>2431.703</v>
+        <v>2445.073</v>
       </c>
       <c r="J54" t="n">
-        <v>2293</v>
+        <v>3977</v>
       </c>
       <c r="K54" t="n">
-        <v>1.73</v>
+        <v>3.001</v>
       </c>
       <c r="L54" t="n">
-        <v>4204</v>
+        <v>3730</v>
       </c>
       <c r="M54" t="n">
-        <v>3.172</v>
+        <v>2.815</v>
       </c>
       <c r="N54" t="n">
-        <v>0.3813</v>
+        <v>0.37</v>
       </c>
       <c r="O54" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P54" t="s">
         <v>296</v>
@@ -6341,7 +6338,7 @@
         <v>299</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D55" t="s">
         <v>35</v>
@@ -6351,27 +6348,27 @@
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H55" t="n">
-        <v>505698</v>
+        <v>511972</v>
       </c>
       <c r="I55" t="n">
-        <v>431.347</v>
+        <v>436.699</v>
       </c>
       <c r="J55"/>
       <c r="K55"/>
       <c r="L55" t="n">
-        <v>534</v>
+        <v>1125</v>
       </c>
       <c r="M55" t="n">
-        <v>0.455</v>
+        <v>0.96</v>
       </c>
       <c r="N55" t="n">
-        <v>0.0313</v>
+        <v>0.0135</v>
       </c>
       <c r="O55" t="n">
-        <v>31.9</v>
+        <v>74.3</v>
       </c>
       <c r="P55" t="s">
         <v>36</v>
@@ -6394,7 +6391,7 @@
         <v>302</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D56" t="s">
         <v>35</v>
@@ -6404,27 +6401,27 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H56" t="n">
-        <v>4598732</v>
+        <v>4615990</v>
       </c>
       <c r="I56" t="n">
-        <v>39.013</v>
+        <v>39.16</v>
       </c>
       <c r="J56"/>
       <c r="K56"/>
       <c r="L56" t="n">
-        <v>4844</v>
+        <v>4541</v>
       </c>
       <c r="M56" t="n">
-        <v>0.041</v>
+        <v>0.039</v>
       </c>
       <c r="N56" t="n">
-        <v>0.008</v>
+        <v>0.0048</v>
       </c>
       <c r="O56" t="n">
-        <v>125.1</v>
+        <v>210.5</v>
       </c>
       <c r="P56" t="s">
         <v>303</v>
@@ -6500,7 +6497,7 @@
         <v>314</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D58" t="s">
         <v>315</v>
@@ -6510,21 +6507,21 @@
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H58" t="n">
-        <v>503277</v>
+        <v>504187</v>
       </c>
       <c r="I58" t="n">
-        <v>557.401</v>
+        <v>558.409</v>
       </c>
       <c r="J58"/>
       <c r="K58"/>
       <c r="L58" t="n">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="M58" t="n">
-        <v>0.136</v>
+        <v>0.203</v>
       </c>
       <c r="N58"/>
       <c r="O58"/>
@@ -6549,7 +6546,7 @@
         <v>320</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44639</v>
+        <v>44643</v>
       </c>
       <c r="D59" t="s">
         <v>321</v>
@@ -6559,31 +6556,31 @@
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="H59" t="n">
-        <v>10242374</v>
+        <v>10331074</v>
       </c>
       <c r="I59" t="n">
-        <v>1846.018</v>
+        <v>1862.005</v>
       </c>
       <c r="J59" t="n">
-        <v>2987</v>
+        <v>13870</v>
       </c>
       <c r="K59" t="n">
-        <v>0.538</v>
+        <v>2.5</v>
       </c>
       <c r="L59" t="n">
-        <v>11000</v>
+        <v>13949</v>
       </c>
       <c r="M59" t="n">
-        <v>1.983</v>
+        <v>2.514</v>
       </c>
       <c r="N59" t="n">
-        <v>0.593</v>
+        <v>0.484</v>
       </c>
       <c r="O59" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="P59" t="s">
         <v>323</v>
@@ -6606,7 +6603,7 @@
         <v>327</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44637</v>
+        <v>44641</v>
       </c>
       <c r="D60" t="s">
         <v>328</v>
@@ -6616,31 +6613,31 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="H60" t="n">
-        <v>252951091</v>
+        <v>254415487</v>
       </c>
       <c r="I60" t="n">
-        <v>3751.759</v>
+        <v>3773.479</v>
       </c>
       <c r="J60" t="n">
-        <v>385521</v>
+        <v>640959</v>
       </c>
       <c r="K60" t="n">
-        <v>5.718</v>
+        <v>9.507</v>
       </c>
       <c r="L60" t="n">
-        <v>340750</v>
+        <v>376718</v>
       </c>
       <c r="M60" t="n">
-        <v>5.054</v>
+        <v>5.587</v>
       </c>
       <c r="N60" t="n">
-        <v>0.259</v>
+        <v>0.28</v>
       </c>
       <c r="O60" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="P60" t="s">
         <v>329</v>
@@ -6663,7 +6660,7 @@
         <v>332</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D61" t="s">
         <v>35</v>
@@ -6673,27 +6670,27 @@
       </c>
       <c r="F61"/>
       <c r="G61" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H61" t="n">
-        <v>1585678</v>
+        <v>1587140</v>
       </c>
       <c r="I61" t="n">
-        <v>695.83</v>
+        <v>696.472</v>
       </c>
       <c r="J61"/>
       <c r="K61"/>
       <c r="L61" t="n">
-        <v>502</v>
+        <v>424</v>
       </c>
       <c r="M61" t="n">
-        <v>0.22</v>
+        <v>0.186</v>
       </c>
       <c r="N61" t="n">
-        <v>0.0017</v>
+        <v>0.0047</v>
       </c>
       <c r="O61" t="n">
-        <v>585.8</v>
+        <v>212</v>
       </c>
       <c r="P61" t="s">
         <v>36</v>
@@ -6716,7 +6713,7 @@
         <v>336</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44632</v>
+        <v>44644</v>
       </c>
       <c r="D62" t="s">
         <v>35</v>
@@ -6726,27 +6723,27 @@
       </c>
       <c r="F62"/>
       <c r="G62" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H62" t="n">
-        <v>154873</v>
+        <v>155686</v>
       </c>
       <c r="I62" t="n">
-        <v>62.275</v>
+        <v>62.602</v>
       </c>
       <c r="J62"/>
       <c r="K62"/>
       <c r="L62" t="n">
-        <v>959</v>
+        <v>68</v>
       </c>
       <c r="M62" t="n">
-        <v>0.386</v>
+        <v>0.027</v>
       </c>
       <c r="N62" t="n">
-        <v>0.0022</v>
+        <v>0.0105</v>
       </c>
       <c r="O62" t="n">
-        <v>447.5</v>
+        <v>95.2</v>
       </c>
       <c r="P62" t="s">
         <v>337</v>
@@ -6769,7 +6766,7 @@
         <v>341</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44641</v>
+        <v>44645</v>
       </c>
       <c r="D63" t="s">
         <v>342</v>
@@ -6779,25 +6776,25 @@
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H63" t="n">
-        <v>13549723</v>
+        <v>13570641</v>
       </c>
       <c r="I63" t="n">
-        <v>3404.647</v>
+        <v>3409.903</v>
       </c>
       <c r="J63" t="n">
-        <v>5885</v>
+        <v>20918</v>
       </c>
       <c r="K63" t="n">
-        <v>1.479</v>
+        <v>5.256</v>
       </c>
       <c r="L63" t="n">
-        <v>841</v>
+        <v>3349</v>
       </c>
       <c r="M63" t="n">
-        <v>0.211</v>
+        <v>0.842</v>
       </c>
       <c r="N63"/>
       <c r="O63"/>
@@ -6822,7 +6819,7 @@
         <v>347</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44633</v>
+        <v>44640</v>
       </c>
       <c r="D64" t="s">
         <v>348</v>
@@ -6832,27 +6829,27 @@
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H64" t="n">
-        <v>115474370</v>
+        <v>117985349</v>
       </c>
       <c r="I64" t="n">
-        <v>1376.326</v>
+        <v>1406.254</v>
       </c>
       <c r="J64"/>
       <c r="K64"/>
       <c r="L64" t="n">
-        <v>325017</v>
+        <v>351505</v>
       </c>
       <c r="M64" t="n">
-        <v>3.874</v>
+        <v>4.19</v>
       </c>
       <c r="N64" t="n">
-        <v>0.531</v>
+        <v>0.557</v>
       </c>
       <c r="O64" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="P64" t="s">
         <v>349</v>
@@ -6875,7 +6872,7 @@
         <v>353</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D65" t="s">
         <v>35</v>
@@ -6885,27 +6882,27 @@
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H65" t="n">
-        <v>2384624</v>
+        <v>2401739</v>
       </c>
       <c r="I65" t="n">
-        <v>75.149</v>
+        <v>75.688</v>
       </c>
       <c r="J65"/>
       <c r="K65"/>
       <c r="L65" t="n">
-        <v>2110</v>
+        <v>3349</v>
       </c>
       <c r="M65" t="n">
-        <v>0.066</v>
+        <v>0.106</v>
       </c>
       <c r="N65" t="n">
-        <v>0.007</v>
+        <v>0.0051</v>
       </c>
       <c r="O65" t="n">
-        <v>143.4</v>
+        <v>197</v>
       </c>
       <c r="P65" t="s">
         <v>36</v>
@@ -6928,7 +6925,7 @@
         <v>356</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>44638</v>
+        <v>44644</v>
       </c>
       <c r="D66" t="s">
         <v>357</v>
@@ -6938,27 +6935,27 @@
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H66" t="n">
-        <v>525406</v>
+        <v>528926</v>
       </c>
       <c r="I66" t="n">
-        <v>15594.847</v>
+        <v>15699.326</v>
       </c>
       <c r="J66"/>
       <c r="K66"/>
       <c r="L66" t="n">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="M66" t="n">
-        <v>17.008</v>
+        <v>17.364</v>
       </c>
       <c r="N66" t="n">
-        <v>0.0785</v>
+        <v>0.1228</v>
       </c>
       <c r="O66" t="n">
-        <v>12.7</v>
+        <v>8.1</v>
       </c>
       <c r="P66" t="s">
         <v>358</v>
@@ -6981,7 +6978,7 @@
         <v>361</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>44641</v>
+        <v>44644</v>
       </c>
       <c r="D67" t="s">
         <v>362</v>
@@ -6991,24 +6988,28 @@
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H67" t="n">
-        <v>71248582</v>
+        <v>72252783</v>
       </c>
       <c r="I67" t="n">
-        <v>6870.149</v>
+        <v>6966.98</v>
       </c>
       <c r="J67"/>
       <c r="K67"/>
       <c r="L67" t="n">
-        <v>282392</v>
+        <v>304824</v>
       </c>
       <c r="M67" t="n">
-        <v>27.23</v>
-      </c>
-      <c r="N67"/>
-      <c r="O67"/>
+        <v>29.393</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.0709</v>
+      </c>
+      <c r="O67" t="n">
+        <v>14.1</v>
+      </c>
       <c r="P67" t="s">
         <v>364</v>
       </c>
@@ -7087,7 +7088,7 @@
         <v>375</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D69" t="s">
         <v>35</v>
@@ -7097,27 +7098,27 @@
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H69" t="n">
-        <v>664845</v>
+        <v>668971</v>
       </c>
       <c r="I69" t="n">
-        <v>49.258</v>
+        <v>49.564</v>
       </c>
       <c r="J69"/>
       <c r="K69"/>
       <c r="L69" t="n">
-        <v>127</v>
+        <v>644</v>
       </c>
       <c r="M69" t="n">
-        <v>0.009</v>
+        <v>0.048</v>
       </c>
       <c r="N69" t="n">
-        <v>0.009</v>
+        <v>0.0053</v>
       </c>
       <c r="O69" t="n">
-        <v>111.1</v>
+        <v>187.8</v>
       </c>
       <c r="P69" t="s">
         <v>36</v>
@@ -7140,7 +7141,7 @@
         <v>378</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D70" t="s">
         <v>35</v>
@@ -7150,27 +7151,27 @@
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H70" t="n">
-        <v>127492</v>
+        <v>127804</v>
       </c>
       <c r="I70" t="n">
-        <v>63.256</v>
+        <v>63.411</v>
       </c>
       <c r="J70"/>
       <c r="K70"/>
       <c r="L70" t="n">
-        <v>239</v>
+        <v>147</v>
       </c>
       <c r="M70" t="n">
-        <v>0.119</v>
+        <v>0.073</v>
       </c>
       <c r="N70" t="n">
-        <v>0.0269</v>
+        <v>0.0282</v>
       </c>
       <c r="O70" t="n">
-        <v>37.2</v>
+        <v>35.5</v>
       </c>
       <c r="P70" t="s">
         <v>36</v>
@@ -7246,7 +7247,7 @@
         <v>387</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>44638</v>
+        <v>44639</v>
       </c>
       <c r="D72" t="s">
         <v>388</v>
@@ -7256,27 +7257,31 @@
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H72" t="n">
-        <v>185288</v>
+        <v>185551</v>
       </c>
       <c r="I72" t="n">
-        <v>16.054</v>
-      </c>
-      <c r="J72"/>
-      <c r="K72"/>
+        <v>16.077</v>
+      </c>
+      <c r="J72" t="n">
+        <v>263</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.023</v>
+      </c>
       <c r="L72" t="n">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="M72" t="n">
-        <v>0.028</v>
+        <v>0.027</v>
       </c>
       <c r="N72" t="n">
-        <v>0.0177</v>
+        <v>0.0145</v>
       </c>
       <c r="O72" t="n">
-        <v>56.5</v>
+        <v>68.9</v>
       </c>
       <c r="P72" t="s">
         <v>390</v>
@@ -7352,7 +7357,7 @@
         <v>401</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>44638</v>
+        <v>44644</v>
       </c>
       <c r="D74" t="s">
         <v>402</v>
@@ -7364,31 +7369,31 @@
         <v>404</v>
       </c>
       <c r="G74" t="n">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="H74" t="n">
-        <v>10524649</v>
+        <v>10589437</v>
       </c>
       <c r="I74" t="n">
-        <v>1092.43</v>
+        <v>1099.155</v>
       </c>
       <c r="J74" t="n">
-        <v>9670</v>
+        <v>8686</v>
       </c>
       <c r="K74" t="n">
-        <v>1.004</v>
+        <v>0.902</v>
       </c>
       <c r="L74" t="n">
-        <v>7704</v>
+        <v>10637</v>
       </c>
       <c r="M74" t="n">
-        <v>0.8</v>
+        <v>1.104</v>
       </c>
       <c r="N74" t="n">
-        <v>0.1804</v>
+        <v>0.2169</v>
       </c>
       <c r="O74" t="n">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="P74" t="s">
         <v>403</v>
@@ -7411,7 +7416,7 @@
         <v>408</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44638</v>
+        <v>44642</v>
       </c>
       <c r="D75" t="s">
         <v>409</v>
@@ -7421,25 +7426,25 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="H75" t="n">
-        <v>1267120</v>
+        <v>1279276</v>
       </c>
       <c r="I75" t="n">
-        <v>3435.866</v>
+        <v>3468.828</v>
       </c>
       <c r="J75" t="n">
-        <v>4454</v>
+        <v>3116</v>
       </c>
       <c r="K75" t="n">
-        <v>12.077</v>
+        <v>8.449</v>
       </c>
       <c r="L75" t="n">
-        <v>4061</v>
+        <v>3581</v>
       </c>
       <c r="M75" t="n">
-        <v>11.012</v>
+        <v>9.71</v>
       </c>
       <c r="N75"/>
       <c r="O75"/>
@@ -7464,7 +7469,7 @@
         <v>413</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44641</v>
+        <v>44645</v>
       </c>
       <c r="D76" t="s">
         <v>414</v>
@@ -7476,25 +7481,25 @@
         <v>416</v>
       </c>
       <c r="G76" t="n">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="H76" t="n">
-        <v>783045157</v>
+        <v>785644225</v>
       </c>
       <c r="I76" t="n">
-        <v>561.964</v>
+        <v>563.829</v>
       </c>
       <c r="J76" t="n">
-        <v>384499</v>
+        <v>691425</v>
       </c>
       <c r="K76" t="n">
-        <v>0.276</v>
+        <v>0.496</v>
       </c>
       <c r="L76" t="n">
-        <v>570396</v>
+        <v>540865</v>
       </c>
       <c r="M76" t="n">
-        <v>0.409</v>
+        <v>0.388</v>
       </c>
       <c r="N76"/>
       <c r="O76"/>
@@ -7549,8 +7554,12 @@
       <c r="M77" t="n">
         <v>0.414</v>
       </c>
-      <c r="N77"/>
-      <c r="O77"/>
+      <c r="N77" t="n">
+        <v>0.0837</v>
+      </c>
+      <c r="O77" t="n">
+        <v>11.9</v>
+      </c>
       <c r="P77" t="s">
         <v>421</v>
       </c>
@@ -7572,7 +7581,7 @@
         <v>425</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D78" t="s">
         <v>426</v>
@@ -7582,27 +7591,27 @@
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H78" t="n">
-        <v>48735823</v>
+        <v>48991010</v>
       </c>
       <c r="I78" t="n">
-        <v>573.169</v>
+        <v>576.17</v>
       </c>
       <c r="J78"/>
       <c r="K78"/>
       <c r="L78" t="n">
-        <v>69231</v>
+        <v>65935</v>
       </c>
       <c r="M78" t="n">
-        <v>0.814</v>
+        <v>0.775</v>
       </c>
       <c r="N78" t="n">
-        <v>0.037</v>
+        <v>0.022</v>
       </c>
       <c r="O78" t="n">
-        <v>27</v>
+        <v>45.4</v>
       </c>
       <c r="P78" t="s">
         <v>428</v>
@@ -7625,7 +7634,7 @@
         <v>432</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>44618</v>
+        <v>44632</v>
       </c>
       <c r="D79" t="s">
         <v>21</v>
@@ -7635,27 +7644,27 @@
       </c>
       <c r="F79"/>
       <c r="G79" t="n">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H79" t="n">
-        <v>17948826</v>
+        <v>18137544</v>
       </c>
       <c r="I79" t="n">
-        <v>435.87</v>
+        <v>440.452</v>
       </c>
       <c r="J79"/>
       <c r="K79"/>
       <c r="L79" t="n">
-        <v>15910</v>
+        <v>13480</v>
       </c>
       <c r="M79" t="n">
-        <v>0.386</v>
+        <v>0.327</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0955</v>
+        <v>0.0502</v>
       </c>
       <c r="O79" t="n">
-        <v>10.5</v>
+        <v>19.9</v>
       </c>
       <c r="P79" t="s">
         <v>23</v>
@@ -7678,7 +7687,7 @@
         <v>434</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44641</v>
+        <v>44645</v>
       </c>
       <c r="D80" t="s">
         <v>435</v>
@@ -7688,25 +7697,25 @@
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="H80" t="n">
-        <v>11636299</v>
+        <v>11724746</v>
       </c>
       <c r="I80" t="n">
-        <v>2335.244</v>
+        <v>2352.995</v>
       </c>
       <c r="J80" t="n">
-        <v>11790</v>
+        <v>17888</v>
       </c>
       <c r="K80" t="n">
-        <v>2.366</v>
+        <v>3.59</v>
       </c>
       <c r="L80" t="n">
-        <v>12496</v>
+        <v>15351</v>
       </c>
       <c r="M80" t="n">
-        <v>2.508</v>
+        <v>3.081</v>
       </c>
       <c r="N80"/>
       <c r="O80"/>
@@ -7731,7 +7740,7 @@
         <v>440</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D81" t="s">
         <v>441</v>
@@ -7741,31 +7750,31 @@
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="H81" t="n">
-        <v>47792753</v>
+        <v>48104042</v>
       </c>
       <c r="I81" t="n">
-        <v>5143.984</v>
+        <v>5177.488</v>
       </c>
       <c r="J81" t="n">
-        <v>62852</v>
+        <v>66986</v>
       </c>
       <c r="K81" t="n">
-        <v>6.765</v>
+        <v>7.21</v>
       </c>
       <c r="L81" t="n">
-        <v>54540</v>
+        <v>64859</v>
       </c>
       <c r="M81" t="n">
-        <v>5.87</v>
+        <v>6.981</v>
       </c>
       <c r="N81" t="n">
-        <v>0.143</v>
+        <v>0.181</v>
       </c>
       <c r="O81" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="P81" t="s">
         <v>53</v>
@@ -7788,7 +7797,7 @@
         <v>446</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D82" t="s">
         <v>447</v>
@@ -7800,31 +7809,31 @@
         <v>449</v>
       </c>
       <c r="G82" t="n">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="H82" t="n">
-        <v>195712501</v>
+        <v>197631659</v>
       </c>
       <c r="I82" t="n">
-        <v>3242.019</v>
+        <v>3273.81</v>
       </c>
       <c r="J82" t="n">
-        <v>370466</v>
+        <v>545302</v>
       </c>
       <c r="K82" t="n">
-        <v>6.137</v>
+        <v>9.033</v>
       </c>
       <c r="L82" t="n">
-        <v>450269</v>
+        <v>465508</v>
       </c>
       <c r="M82" t="n">
-        <v>7.459</v>
+        <v>7.711</v>
       </c>
       <c r="N82" t="n">
-        <v>0.155</v>
+        <v>0.1557</v>
       </c>
       <c r="O82" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="P82" t="s">
         <v>450</v>
@@ -7847,7 +7856,7 @@
         <v>454</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44636</v>
+        <v>44643</v>
       </c>
       <c r="D83" t="s">
         <v>455</v>
@@ -7857,31 +7866,31 @@
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="H83" t="n">
-        <v>889955</v>
+        <v>907881</v>
       </c>
       <c r="I83" t="n">
-        <v>299.299</v>
+        <v>305.328</v>
       </c>
       <c r="J83" t="n">
-        <v>2730</v>
+        <v>2309</v>
       </c>
       <c r="K83" t="n">
-        <v>0.918</v>
+        <v>0.777</v>
       </c>
       <c r="L83" t="n">
-        <v>2349</v>
+        <v>2561</v>
       </c>
       <c r="M83" t="n">
-        <v>0.79</v>
+        <v>0.861</v>
       </c>
       <c r="N83" t="n">
-        <v>0.0109</v>
+        <v>0.0094</v>
       </c>
       <c r="O83" t="n">
-        <v>91.4</v>
+        <v>106.7</v>
       </c>
       <c r="P83" t="s">
         <v>456</v>
@@ -7904,7 +7913,7 @@
         <v>460</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D84" t="s">
         <v>461</v>
@@ -7914,31 +7923,31 @@
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="H84" t="n">
-        <v>40388920</v>
+        <v>40866280</v>
       </c>
       <c r="I84" t="n">
-        <v>320.418</v>
+        <v>324.205</v>
       </c>
       <c r="J84" t="n">
-        <v>53366</v>
+        <v>141401</v>
       </c>
       <c r="K84" t="n">
-        <v>0.423</v>
+        <v>1.122</v>
       </c>
       <c r="L84" t="n">
-        <v>134744</v>
+        <v>114635</v>
       </c>
       <c r="M84" t="n">
-        <v>1.069</v>
+        <v>0.909</v>
       </c>
       <c r="N84" t="n">
-        <v>0.3473</v>
+        <v>0.3383</v>
       </c>
       <c r="O84" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P84" t="s">
         <v>462</v>
@@ -8071,7 +8080,7 @@
         <v>477</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D87" t="s">
         <v>35</v>
@@ -8081,27 +8090,27 @@
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H87" t="n">
-        <v>3470975</v>
+        <v>3482807</v>
       </c>
       <c r="I87" t="n">
-        <v>63.125</v>
+        <v>63.34</v>
       </c>
       <c r="J87"/>
       <c r="K87"/>
       <c r="L87" t="n">
-        <v>4554</v>
+        <v>3642</v>
       </c>
       <c r="M87" t="n">
-        <v>0.083</v>
+        <v>0.066</v>
       </c>
       <c r="N87" t="n">
-        <v>0.0031</v>
+        <v>0.0038</v>
       </c>
       <c r="O87" t="n">
-        <v>325.3</v>
+        <v>265.6</v>
       </c>
       <c r="P87" t="s">
         <v>36</v>
@@ -8124,7 +8133,7 @@
         <v>480</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44640</v>
+        <v>44643</v>
       </c>
       <c r="D88" t="s">
         <v>481</v>
@@ -8134,27 +8143,27 @@
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H88" t="n">
-        <v>1788080</v>
+        <v>1792166</v>
       </c>
       <c r="I88" t="n">
-        <v>1003.347</v>
+        <v>1005.64</v>
       </c>
       <c r="J88"/>
       <c r="K88"/>
       <c r="L88" t="n">
-        <v>896</v>
+        <v>1096</v>
       </c>
       <c r="M88" t="n">
-        <v>0.503</v>
+        <v>0.615</v>
       </c>
       <c r="N88" t="n">
-        <v>0.0394</v>
+        <v>0.0343</v>
       </c>
       <c r="O88" t="n">
-        <v>25.4</v>
+        <v>29.2</v>
       </c>
       <c r="P88" t="s">
         <v>483</v>
@@ -8177,13 +8186,13 @@
         <v>487</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44630</v>
+        <v>44632</v>
       </c>
       <c r="D89" t="s">
-        <v>488</v>
+        <v>21</v>
       </c>
       <c r="E89" t="s">
-        <v>489</v>
+        <v>22</v>
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
@@ -8195,160 +8204,156 @@
       <c r="I89" t="n">
         <v>1793.512</v>
       </c>
-      <c r="J89" t="n">
-        <v>9066</v>
-      </c>
-      <c r="K89" t="n">
-        <v>2.094</v>
-      </c>
+      <c r="J89"/>
+      <c r="K89"/>
       <c r="L89" t="n">
-        <v>10251</v>
+        <v>7107</v>
       </c>
       <c r="M89" t="n">
-        <v>2.368</v>
+        <v>1.642</v>
       </c>
       <c r="N89" t="n">
-        <v>0.0482</v>
+        <v>0.0597</v>
       </c>
       <c r="O89" t="n">
-        <v>20.8</v>
+        <v>16.7</v>
       </c>
       <c r="P89" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q89" t="s">
         <v>489</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>490</v>
       </c>
       <c r="R89" t="s">
         <v>61</v>
       </c>
       <c r="S89" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>491</v>
+      </c>
+      <c r="B90" t="s">
         <v>492</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" s="1" t="n">
+        <v>44645</v>
+      </c>
+      <c r="D90" t="s">
         <v>493</v>
-      </c>
-      <c r="C90" s="1" t="n">
-        <v>44641</v>
-      </c>
-      <c r="D90" t="s">
-        <v>494</v>
       </c>
       <c r="E90" t="s">
         <v>53</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H90" t="n">
-        <v>995671</v>
+        <v>1000948</v>
       </c>
       <c r="I90" t="n">
-        <v>134.927</v>
+        <v>135.642</v>
       </c>
       <c r="J90" t="n">
-        <v>3085</v>
+        <v>5277</v>
       </c>
       <c r="K90" t="n">
-        <v>0.418</v>
+        <v>0.715</v>
       </c>
       <c r="L90" t="n">
-        <v>441</v>
+        <v>943</v>
       </c>
       <c r="M90" t="n">
-        <v>0.06</v>
+        <v>0.128</v>
       </c>
       <c r="N90"/>
       <c r="O90"/>
       <c r="P90" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q90" t="s">
         <v>495</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>496</v>
       </c>
       <c r="R90" t="s">
         <v>311</v>
       </c>
       <c r="S90" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>497</v>
+      </c>
+      <c r="B91" t="s">
         <v>498</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" s="1" t="n">
+        <v>44645</v>
+      </c>
+      <c r="D91" t="s">
         <v>499</v>
       </c>
-      <c r="C91" s="1" t="n">
-        <v>44641</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>500</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>501</v>
       </c>
-      <c r="F91" t="s">
-        <v>502</v>
-      </c>
       <c r="G91" t="n">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="H91" t="n">
-        <v>6926302</v>
+        <v>6965310</v>
       </c>
       <c r="I91" t="n">
-        <v>3709.988</v>
+        <v>3730.882</v>
       </c>
       <c r="J91" t="n">
-        <v>3967</v>
+        <v>7966</v>
       </c>
       <c r="K91" t="n">
-        <v>2.125</v>
+        <v>4.267</v>
       </c>
       <c r="L91" t="n">
-        <v>9495</v>
+        <v>8084</v>
       </c>
       <c r="M91" t="n">
-        <v>5.086</v>
+        <v>4.33</v>
       </c>
       <c r="N91"/>
       <c r="O91"/>
       <c r="P91" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="Q91" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="R91" t="s">
         <v>61</v>
       </c>
       <c r="S91" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>503</v>
+      </c>
+      <c r="B92" t="s">
         <v>504</v>
-      </c>
-      <c r="B92" t="s">
-        <v>505</v>
       </c>
       <c r="C92" s="1" t="n">
         <v>44370</v>
       </c>
       <c r="D92" t="s">
+        <v>505</v>
+      </c>
+      <c r="E92" t="s">
         <v>506</v>
-      </c>
-      <c r="E92" t="s">
-        <v>507</v>
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
@@ -8371,27 +8376,27 @@
       <c r="N92"/>
       <c r="O92"/>
       <c r="P92" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q92" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="R92" t="s">
         <v>25</v>
       </c>
       <c r="S92" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>508</v>
+      </c>
+      <c r="B93" t="s">
         <v>509</v>
       </c>
-      <c r="B93" t="s">
-        <v>510</v>
-      </c>
       <c r="C93" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D93" t="s">
         <v>35</v>
@@ -8401,28 +8406,24 @@
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H93" t="n">
-        <v>417754</v>
+        <v>422165</v>
       </c>
       <c r="I93" t="n">
-        <v>193.488</v>
+        <v>195.531</v>
       </c>
       <c r="J93"/>
       <c r="K93"/>
       <c r="L93" t="n">
-        <v>564</v>
+        <v>872</v>
       </c>
       <c r="M93" t="n">
-        <v>0.261</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0.0149</v>
-      </c>
-      <c r="O93" t="n">
-        <v>66.9</v>
-      </c>
+        <v>0.404</v>
+      </c>
+      <c r="N93"/>
+      <c r="O93"/>
       <c r="P93" t="s">
         <v>36</v>
       </c>
@@ -8433,15 +8434,15 @@
         <v>25</v>
       </c>
       <c r="S93" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>511</v>
+      </c>
+      <c r="B94" t="s">
         <v>512</v>
-      </c>
-      <c r="B94" t="s">
-        <v>513</v>
       </c>
       <c r="C94" s="1" t="n">
         <v>44632</v>
@@ -8478,69 +8479,69 @@
         <v>25</v>
       </c>
       <c r="S94" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>514</v>
+      </c>
+      <c r="B95" t="s">
         <v>515</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" s="1" t="n">
+        <v>44643</v>
+      </c>
+      <c r="D95" t="s">
         <v>516</v>
       </c>
-      <c r="C95" s="1" t="n">
-        <v>44640</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>517</v>
-      </c>
-      <c r="E95" t="s">
-        <v>518</v>
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H95"/>
       <c r="I95"/>
       <c r="J95" t="n">
-        <v>1283</v>
+        <v>1139</v>
       </c>
       <c r="K95" t="n">
-        <v>0.184</v>
+        <v>0.164</v>
       </c>
       <c r="L95"/>
       <c r="M95"/>
       <c r="N95"/>
       <c r="O95"/>
       <c r="P95" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q95" t="s">
         <v>518</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>519</v>
       </c>
       <c r="R95" t="s">
         <v>136</v>
       </c>
       <c r="S95" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>520</v>
+      </c>
+      <c r="B96" t="s">
         <v>521</v>
-      </c>
-      <c r="B96" t="s">
-        <v>522</v>
       </c>
       <c r="C96" s="1" t="n">
         <v>44571</v>
       </c>
       <c r="D96" t="s">
+        <v>522</v>
+      </c>
+      <c r="E96" t="s">
         <v>523</v>
-      </c>
-      <c r="E96" t="s">
-        <v>524</v>
       </c>
       <c r="F96"/>
       <c r="G96" t="n">
@@ -8571,138 +8572,138 @@
         <v>2.9</v>
       </c>
       <c r="P96" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q96" t="s">
         <v>524</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>525</v>
       </c>
       <c r="R96" t="s">
         <v>61</v>
       </c>
       <c r="S96" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>526</v>
+      </c>
+      <c r="B97" t="s">
         <v>527</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" s="1" t="n">
+        <v>44644</v>
+      </c>
+      <c r="D97" t="s">
         <v>528</v>
       </c>
-      <c r="C97" s="1" t="n">
-        <v>44638</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>529</v>
-      </c>
-      <c r="E97" t="s">
-        <v>530</v>
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="H97" t="n">
-        <v>8351675</v>
+        <v>8412393</v>
       </c>
       <c r="I97" t="n">
-        <v>3104.871</v>
+        <v>3127.444</v>
       </c>
       <c r="J97" t="n">
-        <v>12011</v>
+        <v>10038</v>
       </c>
       <c r="K97" t="n">
-        <v>4.465</v>
+        <v>3.732</v>
       </c>
       <c r="L97" t="n">
-        <v>11465</v>
+        <v>10389</v>
       </c>
       <c r="M97" t="n">
-        <v>4.262</v>
+        <v>3.862</v>
       </c>
       <c r="N97" t="n">
-        <v>0.459</v>
+        <v>0.421</v>
       </c>
       <c r="O97" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="P97" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q97" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="R97" t="s">
         <v>61</v>
       </c>
       <c r="S97" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>531</v>
+      </c>
+      <c r="B98" t="s">
         <v>532</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" s="1" t="n">
+        <v>44643</v>
+      </c>
+      <c r="D98" t="s">
         <v>533</v>
       </c>
-      <c r="C98" s="1" t="n">
-        <v>44637</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>534</v>
-      </c>
-      <c r="E98" t="s">
-        <v>535</v>
       </c>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="H98" t="n">
-        <v>4118924</v>
+        <v>4137106</v>
       </c>
       <c r="I98" t="n">
-        <v>6488.395</v>
+        <v>6517.036</v>
       </c>
       <c r="J98" t="n">
-        <v>4050</v>
+        <v>5258</v>
       </c>
       <c r="K98" t="n">
-        <v>6.38</v>
+        <v>8.283</v>
       </c>
       <c r="L98" t="n">
-        <v>2821</v>
+        <v>3176</v>
       </c>
       <c r="M98" t="n">
-        <v>4.444</v>
+        <v>5.003</v>
       </c>
       <c r="N98" t="n">
-        <v>0.364</v>
+        <v>0.375</v>
       </c>
       <c r="O98" t="n">
         <v>2.7</v>
       </c>
       <c r="P98" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Q98" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="R98" t="s">
         <v>61</v>
       </c>
       <c r="S98" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>536</v>
+      </c>
+      <c r="B99" t="s">
         <v>537</v>
-      </c>
-      <c r="B99" t="s">
-        <v>538</v>
       </c>
       <c r="C99" s="1" t="n">
         <v>44632</v>
@@ -8747,18 +8748,18 @@
         <v>25</v>
       </c>
       <c r="S99" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>539</v>
+      </c>
+      <c r="B100" t="s">
         <v>540</v>
       </c>
-      <c r="B100" t="s">
-        <v>541</v>
-      </c>
       <c r="C100" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D100" t="s">
         <v>35</v>
@@ -8768,27 +8769,27 @@
       </c>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H100" t="n">
-        <v>556909</v>
+        <v>558538</v>
       </c>
       <c r="I100" t="n">
-        <v>28.345</v>
+        <v>28.428</v>
       </c>
       <c r="J100"/>
       <c r="K100"/>
       <c r="L100" t="n">
-        <v>537</v>
+        <v>463</v>
       </c>
       <c r="M100" t="n">
-        <v>0.027</v>
+        <v>0.024</v>
       </c>
       <c r="N100" t="n">
-        <v>0.0165</v>
+        <v>0.0145</v>
       </c>
       <c r="O100" t="n">
-        <v>60.6</v>
+        <v>69</v>
       </c>
       <c r="P100" t="s">
         <v>36</v>
@@ -8800,134 +8801,134 @@
         <v>61</v>
       </c>
       <c r="S100" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
+        <v>542</v>
+      </c>
+      <c r="B101" t="s">
         <v>543</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" s="1" t="n">
+        <v>44642</v>
+      </c>
+      <c r="D101" t="s">
         <v>544</v>
       </c>
-      <c r="C101" s="1" t="n">
-        <v>44638</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>545</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>546</v>
       </c>
-      <c r="F101" t="s">
-        <v>547</v>
-      </c>
       <c r="G101" t="n">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="H101" t="n">
-        <v>54781337</v>
+        <v>55434131</v>
       </c>
       <c r="I101" t="n">
-        <v>1671.376</v>
+        <v>1691.292</v>
       </c>
       <c r="J101" t="n">
-        <v>156361</v>
+        <v>176245</v>
       </c>
       <c r="K101" t="n">
-        <v>4.771</v>
+        <v>5.377</v>
       </c>
       <c r="L101" t="n">
-        <v>188277</v>
+        <v>167878</v>
       </c>
       <c r="M101" t="n">
-        <v>5.744</v>
+        <v>5.122</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1342</v>
+        <v>0.1364</v>
       </c>
       <c r="O101" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="P101" t="s">
         <v>53</v>
       </c>
       <c r="Q101" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="R101" t="s">
         <v>45</v>
       </c>
       <c r="S101" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>549</v>
+      </c>
+      <c r="B102" t="s">
         <v>550</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" s="1" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D102" t="s">
         <v>551</v>
       </c>
-      <c r="C102" s="1" t="n">
-        <v>44633</v>
-      </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>552</v>
-      </c>
-      <c r="E102" t="s">
-        <v>553</v>
       </c>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="H102" t="n">
-        <v>2211577</v>
+        <v>2209010</v>
       </c>
       <c r="I102" t="n">
-        <v>4068.241</v>
+        <v>4063.519</v>
       </c>
       <c r="J102" t="n">
-        <v>1667</v>
+        <v>2103</v>
       </c>
       <c r="K102" t="n">
-        <v>3.066</v>
+        <v>3.869</v>
       </c>
       <c r="L102" t="n">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="M102" t="n">
-        <v>3.449</v>
+        <v>3.445</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1586</v>
+        <v>0.1216</v>
       </c>
       <c r="O102" t="n">
-        <v>6.3</v>
+        <v>8.2</v>
       </c>
       <c r="P102" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q102" t="s">
         <v>553</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>554</v>
       </c>
       <c r="R102" t="s">
         <v>136</v>
       </c>
       <c r="S102" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
+        <v>555</v>
+      </c>
+      <c r="B103" t="s">
         <v>556</v>
       </c>
-      <c r="B103" t="s">
-        <v>557</v>
-      </c>
       <c r="C103" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D103" t="s">
         <v>35</v>
@@ -8937,27 +8938,27 @@
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H103" t="n">
-        <v>646866</v>
+        <v>650336</v>
       </c>
       <c r="I103" t="n">
-        <v>31.016</v>
+        <v>31.183</v>
       </c>
       <c r="J103"/>
       <c r="K103"/>
       <c r="L103" t="n">
-        <v>594</v>
+        <v>750</v>
       </c>
       <c r="M103" t="n">
-        <v>0.028</v>
+        <v>0.036</v>
       </c>
       <c r="N103" t="n">
-        <v>0.0079</v>
+        <v>0.0051</v>
       </c>
       <c r="O103" t="n">
-        <v>126</v>
+        <v>194.5</v>
       </c>
       <c r="P103" t="s">
         <v>36</v>
@@ -8969,71 +8970,71 @@
         <v>25</v>
       </c>
       <c r="S103" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
+        <v>558</v>
+      </c>
+      <c r="B104" t="s">
         <v>559</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" s="1" t="n">
+        <v>44645</v>
+      </c>
+      <c r="D104" t="s">
         <v>560</v>
       </c>
-      <c r="C104" s="1" t="n">
-        <v>44641</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>561</v>
-      </c>
-      <c r="E104" t="s">
-        <v>562</v>
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="H104" t="n">
-        <v>1777546</v>
+        <v>1787992</v>
       </c>
       <c r="I104" t="n">
-        <v>3444.189</v>
+        <v>3464.429</v>
       </c>
       <c r="J104" t="n">
-        <v>1941</v>
+        <v>2679</v>
       </c>
       <c r="K104" t="n">
-        <v>3.761</v>
+        <v>5.191</v>
       </c>
       <c r="L104" t="n">
-        <v>2054</v>
+        <v>2319</v>
       </c>
       <c r="M104" t="n">
-        <v>3.98</v>
+        <v>4.493</v>
       </c>
       <c r="N104"/>
       <c r="O104"/>
       <c r="P104" t="s">
+        <v>562</v>
+      </c>
+      <c r="Q104" t="s">
         <v>563</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>564</v>
       </c>
       <c r="R104" t="s">
         <v>61</v>
       </c>
       <c r="S104" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>565</v>
+      </c>
+      <c r="B105" t="s">
         <v>566</v>
       </c>
-      <c r="B105" t="s">
-        <v>567</v>
-      </c>
       <c r="C105" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D105" t="s">
         <v>35</v>
@@ -9043,47 +9044,47 @@
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H105" t="n">
-        <v>913633</v>
+        <v>916953</v>
       </c>
       <c r="I105" t="n">
-        <v>191.332</v>
+        <v>192.028</v>
       </c>
       <c r="J105"/>
       <c r="K105"/>
       <c r="L105" t="n">
-        <v>945</v>
+        <v>879</v>
       </c>
       <c r="M105" t="n">
-        <v>0.198</v>
+        <v>0.184</v>
       </c>
       <c r="N105" t="n">
-        <v>0.0006</v>
+        <v>0.0008</v>
       </c>
       <c r="O105" t="n">
-        <v>1655</v>
+        <v>1231.1</v>
       </c>
       <c r="P105" t="s">
+        <v>567</v>
+      </c>
+      <c r="Q105" t="s">
         <v>568</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>569</v>
       </c>
       <c r="R105" t="s">
         <v>61</v>
       </c>
       <c r="S105" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
+        <v>570</v>
+      </c>
+      <c r="B106" t="s">
         <v>571</v>
-      </c>
-      <c r="B106" t="s">
-        <v>572</v>
       </c>
       <c r="C106" s="1" t="n">
         <v>44627</v>
@@ -9120,144 +9121,144 @@
         <v>25</v>
       </c>
       <c r="S106" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>573</v>
+      </c>
+      <c r="B107" t="s">
         <v>574</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" s="1" t="n">
+        <v>44642</v>
+      </c>
+      <c r="D107" t="s">
         <v>575</v>
       </c>
-      <c r="C107" s="1" t="n">
-        <v>44638</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>576</v>
-      </c>
-      <c r="E107" t="s">
-        <v>577</v>
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="H107" t="n">
-        <v>14768076</v>
+        <v>14807422</v>
       </c>
       <c r="I107" t="n">
-        <v>113.372</v>
+        <v>113.674</v>
       </c>
       <c r="J107" t="n">
-        <v>3423</v>
+        <v>7795</v>
       </c>
       <c r="K107" t="n">
-        <v>0.026</v>
+        <v>0.06</v>
       </c>
       <c r="L107" t="n">
-        <v>6310</v>
+        <v>5761</v>
       </c>
       <c r="M107" t="n">
-        <v>0.048</v>
+        <v>0.044</v>
       </c>
       <c r="N107" t="n">
-        <v>0.171</v>
+        <v>0.146</v>
       </c>
       <c r="O107" t="n">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="P107" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="Q107" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="R107" t="s">
         <v>45</v>
       </c>
       <c r="S107" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>579</v>
+      </c>
+      <c r="B108" t="s">
         <v>580</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" s="1" t="n">
+        <v>44644</v>
+      </c>
+      <c r="D108" t="s">
         <v>581</v>
       </c>
-      <c r="C108" s="1" t="n">
-        <v>44638</v>
-      </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>582</v>
-      </c>
-      <c r="E108" t="s">
-        <v>583</v>
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H108"/>
       <c r="I108"/>
       <c r="J108" t="n">
-        <v>3814</v>
+        <v>4365</v>
       </c>
       <c r="K108" t="n">
-        <v>0.948</v>
+        <v>1.085</v>
       </c>
       <c r="L108"/>
       <c r="M108"/>
       <c r="N108"/>
       <c r="O108"/>
       <c r="P108" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q108" t="s">
         <v>584</v>
-      </c>
-      <c r="Q108" t="s">
-        <v>585</v>
       </c>
       <c r="R108" t="s">
         <v>25</v>
       </c>
       <c r="S108" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>586</v>
+      </c>
+      <c r="B109" t="s">
         <v>587</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" s="1" t="n">
+        <v>44645</v>
+      </c>
+      <c r="D109" t="s">
         <v>588</v>
-      </c>
-      <c r="C109" s="1" t="n">
-        <v>44640</v>
-      </c>
-      <c r="D109" t="s">
-        <v>589</v>
       </c>
       <c r="E109" t="s">
         <v>53</v>
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H109" t="n">
-        <v>7273735</v>
+        <v>7296101</v>
       </c>
       <c r="I109" t="n">
-        <v>2184.776</v>
+        <v>2191.494</v>
       </c>
       <c r="J109"/>
       <c r="K109"/>
       <c r="L109" t="n">
-        <v>4374</v>
+        <v>4462</v>
       </c>
       <c r="M109" t="n">
-        <v>1.314</v>
+        <v>1.34</v>
       </c>
       <c r="N109"/>
       <c r="O109"/>
@@ -9265,77 +9266,77 @@
         <v>53</v>
       </c>
       <c r="Q109" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="R109" t="s">
         <v>136</v>
       </c>
       <c r="S109" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
+        <v>591</v>
+      </c>
+      <c r="B110" t="s">
         <v>592</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" s="1" t="n">
+        <v>44644</v>
+      </c>
+      <c r="D110" t="s">
         <v>593</v>
-      </c>
-      <c r="C110" s="1" t="n">
-        <v>44641</v>
-      </c>
-      <c r="D110" t="s">
-        <v>594</v>
       </c>
       <c r="E110" t="s">
         <v>53</v>
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H110" t="n">
-        <v>11215030</v>
+        <v>11236520</v>
       </c>
       <c r="I110" t="n">
-        <v>300.31</v>
-      </c>
-      <c r="J110" t="n">
-        <v>4632</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.124</v>
-      </c>
+        <v>300.886</v>
+      </c>
+      <c r="J110"/>
+      <c r="K110"/>
       <c r="L110" t="n">
-        <v>6736</v>
+        <v>6616</v>
       </c>
       <c r="M110" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="N110"/>
-      <c r="O110"/>
+        <v>0.177</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.0095</v>
+      </c>
+      <c r="O110" t="n">
+        <v>104.8</v>
+      </c>
       <c r="P110" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q110" t="s">
         <v>595</v>
-      </c>
-      <c r="Q110" t="s">
-        <v>596</v>
       </c>
       <c r="R110" t="s">
         <v>45</v>
       </c>
       <c r="S110" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>597</v>
+      </c>
+      <c r="B111" t="s">
         <v>598</v>
       </c>
-      <c r="B111" t="s">
-        <v>599</v>
-      </c>
       <c r="C111" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D111" t="s">
         <v>35</v>
@@ -9345,27 +9346,27 @@
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H111" t="n">
-        <v>1288759</v>
+        <v>1290853</v>
       </c>
       <c r="I111" t="n">
-        <v>40.07</v>
+        <v>40.135</v>
       </c>
       <c r="J111"/>
       <c r="K111"/>
       <c r="L111" t="n">
-        <v>819</v>
+        <v>650</v>
       </c>
       <c r="M111" t="n">
-        <v>0.025</v>
+        <v>0.02</v>
       </c>
       <c r="N111" t="n">
-        <v>0.0054</v>
+        <v>0.0051</v>
       </c>
       <c r="O111" t="n">
-        <v>184.9</v>
+        <v>197.8</v>
       </c>
       <c r="P111" t="s">
         <v>36</v>
@@ -9377,71 +9378,71 @@
         <v>25</v>
       </c>
       <c r="S111" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>600</v>
+      </c>
+      <c r="B112" t="s">
         <v>601</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" s="1" t="n">
+        <v>44644</v>
+      </c>
+      <c r="D112" t="s">
         <v>602</v>
-      </c>
-      <c r="C112" s="1" t="n">
-        <v>44640</v>
-      </c>
-      <c r="D112" t="s">
-        <v>603</v>
       </c>
       <c r="E112" t="s">
         <v>53</v>
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H112" t="n">
-        <v>7516838</v>
+        <v>7560882</v>
       </c>
       <c r="I112" t="n">
-        <v>137.154</v>
+        <v>137.957</v>
       </c>
       <c r="J112"/>
       <c r="K112"/>
       <c r="L112" t="n">
-        <v>14752</v>
+        <v>12614</v>
       </c>
       <c r="M112" t="n">
-        <v>0.269</v>
+        <v>0.23</v>
       </c>
       <c r="N112" t="n">
-        <v>0.0353</v>
+        <v>0.0264</v>
       </c>
       <c r="O112" t="n">
-        <v>28.3</v>
+        <v>37.9</v>
       </c>
       <c r="P112" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q112" t="s">
         <v>604</v>
-      </c>
-      <c r="Q112" t="s">
-        <v>605</v>
       </c>
       <c r="R112" t="s">
         <v>136</v>
       </c>
       <c r="S112" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>606</v>
+      </c>
+      <c r="B113" t="s">
         <v>607</v>
       </c>
-      <c r="B113" t="s">
-        <v>608</v>
-      </c>
       <c r="C113" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D113" t="s">
         <v>35</v>
@@ -9451,209 +9452,209 @@
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H113" t="n">
-        <v>974769</v>
+        <v>976453</v>
       </c>
       <c r="I113" t="n">
-        <v>376.745</v>
+        <v>377.396</v>
       </c>
       <c r="J113"/>
       <c r="K113"/>
       <c r="L113" t="n">
-        <v>1071</v>
+        <v>699</v>
       </c>
       <c r="M113" t="n">
-        <v>0.414</v>
+        <v>0.27</v>
       </c>
       <c r="N113" t="n">
-        <v>0.0113</v>
+        <v>0.0157</v>
       </c>
       <c r="O113" t="n">
-        <v>88.2</v>
+        <v>63.5</v>
       </c>
       <c r="P113" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q113" t="s">
         <v>609</v>
-      </c>
-      <c r="Q113" t="s">
-        <v>610</v>
       </c>
       <c r="R113" t="s">
         <v>136</v>
       </c>
       <c r="S113" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>611</v>
+      </c>
+      <c r="B114" t="s">
         <v>612</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" s="1" t="n">
+        <v>44645</v>
+      </c>
+      <c r="D114" t="s">
         <v>613</v>
       </c>
-      <c r="C114" s="1" t="n">
-        <v>44641</v>
-      </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>614</v>
-      </c>
-      <c r="E114" t="s">
-        <v>615</v>
       </c>
       <c r="F114"/>
       <c r="G114" t="n">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H114" t="n">
-        <v>6621923</v>
+        <v>6643503</v>
       </c>
       <c r="I114" t="n">
-        <v>223.149</v>
+        <v>223.876</v>
       </c>
       <c r="J114"/>
       <c r="K114"/>
       <c r="L114" t="n">
-        <v>5439</v>
+        <v>5414</v>
       </c>
       <c r="M114" t="n">
-        <v>0.183</v>
+        <v>0.182</v>
       </c>
       <c r="N114" t="n">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="O114" t="n">
-        <v>76.9</v>
+        <v>90.9</v>
       </c>
       <c r="P114" t="s">
+        <v>614</v>
+      </c>
+      <c r="Q114" t="s">
         <v>615</v>
-      </c>
-      <c r="Q114" t="s">
-        <v>616</v>
       </c>
       <c r="R114" t="s">
         <v>61</v>
       </c>
       <c r="S114" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
+        <v>617</v>
+      </c>
+      <c r="B115" t="s">
         <v>618</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" s="1" t="n">
+        <v>44642</v>
+      </c>
+      <c r="D115" t="s">
         <v>619</v>
       </c>
-      <c r="C115" s="1" t="n">
-        <v>44639</v>
-      </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>620</v>
-      </c>
-      <c r="E115" t="s">
-        <v>621</v>
       </c>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="H115" t="n">
-        <v>29777100</v>
+        <v>29946224</v>
       </c>
       <c r="I115" t="n">
-        <v>1733.939</v>
+        <v>1743.787</v>
       </c>
       <c r="J115" t="n">
-        <v>43853</v>
+        <v>56811</v>
       </c>
       <c r="K115" t="n">
-        <v>2.554</v>
+        <v>3.308</v>
       </c>
       <c r="L115" t="n">
-        <v>67800</v>
+        <v>57553</v>
       </c>
       <c r="M115" t="n">
-        <v>3.948</v>
+        <v>3.351</v>
       </c>
       <c r="N115" t="n">
-        <v>0.66</v>
+        <v>0.665</v>
       </c>
       <c r="O115" t="n">
         <v>1.5</v>
       </c>
       <c r="P115" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q115" t="s">
         <v>621</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>622</v>
       </c>
       <c r="R115" t="s">
         <v>45</v>
       </c>
       <c r="S115" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>623</v>
+      </c>
+      <c r="B116" t="s">
         <v>624</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" s="1" t="n">
+        <v>44645</v>
+      </c>
+      <c r="D116" t="s">
         <v>625</v>
-      </c>
-      <c r="C116" s="1" t="n">
-        <v>44641</v>
-      </c>
-      <c r="D116" t="s">
-        <v>626</v>
       </c>
       <c r="E116" t="s">
         <v>53</v>
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H116" t="n">
-        <v>6891083</v>
+        <v>6902982</v>
       </c>
       <c r="I116" t="n">
-        <v>1344.261</v>
+        <v>1346.582</v>
       </c>
       <c r="J116"/>
       <c r="K116"/>
       <c r="L116" t="n">
-        <v>7274</v>
+        <v>4817</v>
       </c>
       <c r="M116" t="n">
-        <v>1.419</v>
+        <v>0.94</v>
       </c>
       <c r="N116"/>
       <c r="O116"/>
       <c r="P116" t="s">
+        <v>626</v>
+      </c>
+      <c r="Q116" t="s">
         <v>627</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>628</v>
       </c>
       <c r="R116" t="s">
         <v>61</v>
       </c>
       <c r="S116" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>629</v>
+      </c>
+      <c r="B117" t="s">
         <v>630</v>
       </c>
-      <c r="B117" t="s">
-        <v>631</v>
-      </c>
       <c r="C117" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D117" t="s">
         <v>35</v>
@@ -9663,27 +9664,27 @@
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H117" t="n">
-        <v>235633</v>
+        <v>238395</v>
       </c>
       <c r="I117" t="n">
-        <v>9.376</v>
+        <v>9.486</v>
       </c>
       <c r="J117"/>
       <c r="K117"/>
       <c r="L117" t="n">
-        <v>278</v>
+        <v>514</v>
       </c>
       <c r="M117" t="n">
-        <v>0.011</v>
+        <v>0.02</v>
       </c>
       <c r="N117" t="n">
-        <v>0.0036</v>
+        <v>0.0031</v>
       </c>
       <c r="O117" t="n">
-        <v>278</v>
+        <v>327.2</v>
       </c>
       <c r="P117" t="s">
         <v>36</v>
@@ -9695,18 +9696,18 @@
         <v>25</v>
       </c>
       <c r="S117" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
+        <v>632</v>
+      </c>
+      <c r="B118" t="s">
         <v>633</v>
       </c>
-      <c r="B118" t="s">
-        <v>634</v>
-      </c>
       <c r="C118" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D118" t="s">
         <v>35</v>
@@ -9716,156 +9717,160 @@
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H118" t="n">
-        <v>4589725</v>
+        <v>4726096</v>
       </c>
       <c r="I118" t="n">
-        <v>21.711</v>
+        <v>22.356</v>
       </c>
       <c r="J118"/>
       <c r="K118"/>
       <c r="L118" t="n">
-        <v>5371</v>
+        <v>21783</v>
       </c>
       <c r="M118" t="n">
-        <v>0.025</v>
+        <v>0.103</v>
       </c>
       <c r="N118" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="O118" t="n">
-        <v>250.6</v>
+        <v>1003.2</v>
       </c>
       <c r="P118" t="s">
+        <v>634</v>
+      </c>
+      <c r="Q118" t="s">
         <v>635</v>
-      </c>
-      <c r="Q118" t="s">
-        <v>636</v>
       </c>
       <c r="R118" t="s">
         <v>136</v>
       </c>
       <c r="S118" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>637</v>
+      </c>
+      <c r="B119" t="s">
         <v>638</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" s="1" t="n">
+        <v>44644</v>
+      </c>
+      <c r="D119" t="s">
         <v>639</v>
-      </c>
-      <c r="C119" s="1" t="n">
-        <v>44641</v>
-      </c>
-      <c r="D119" t="s">
-        <v>640</v>
       </c>
       <c r="E119" t="s">
         <v>53</v>
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H119" t="n">
-        <v>1938935</v>
+        <v>1946588</v>
       </c>
       <c r="I119" t="n">
-        <v>930.989</v>
+        <v>934.664</v>
       </c>
       <c r="J119"/>
       <c r="K119"/>
       <c r="L119" t="n">
-        <v>2225</v>
+        <v>2365</v>
       </c>
       <c r="M119" t="n">
-        <v>1.068</v>
-      </c>
-      <c r="N119"/>
-      <c r="O119"/>
+        <v>1.136</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.1074</v>
+      </c>
+      <c r="O119" t="n">
+        <v>9.3</v>
+      </c>
       <c r="P119" t="s">
         <v>53</v>
       </c>
       <c r="Q119" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="R119" t="s">
         <v>61</v>
       </c>
       <c r="S119" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>642</v>
+      </c>
+      <c r="B120" t="s">
         <v>643</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" s="1" t="n">
+        <v>44643</v>
+      </c>
+      <c r="D120" t="s">
         <v>644</v>
       </c>
-      <c r="C120" s="1" t="n">
-        <v>44639</v>
-      </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>645</v>
-      </c>
-      <c r="E120" t="s">
-        <v>646</v>
       </c>
       <c r="F120"/>
       <c r="G120" t="n">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="H120" t="n">
-        <v>10954290</v>
+        <v>10978363</v>
       </c>
       <c r="I120" t="n">
-        <v>2004.214</v>
+        <v>2008.618</v>
       </c>
       <c r="J120" t="n">
-        <v>2325</v>
+        <v>6073</v>
       </c>
       <c r="K120" t="n">
-        <v>0.425</v>
+        <v>1.111</v>
       </c>
       <c r="L120" t="n">
-        <v>6527</v>
+        <v>5567</v>
       </c>
       <c r="M120" t="n">
-        <v>1.194</v>
+        <v>1.019</v>
       </c>
       <c r="N120" t="n">
-        <v>0.518</v>
+        <v>0.492</v>
       </c>
       <c r="O120" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="P120" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="Q120" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="R120" t="s">
         <v>45</v>
       </c>
       <c r="S120" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>647</v>
+      </c>
+      <c r="B121" t="s">
         <v>648</v>
       </c>
-      <c r="B121" t="s">
-        <v>649</v>
-      </c>
       <c r="C121" s="1" t="n">
-        <v>44618</v>
+        <v>44632</v>
       </c>
       <c r="D121" t="s">
         <v>21</v>
@@ -9875,7 +9880,7 @@
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H121" t="n">
         <v>1986264</v>
@@ -9885,8 +9890,12 @@
       </c>
       <c r="J121"/>
       <c r="K121"/>
-      <c r="L121"/>
-      <c r="M121"/>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
       <c r="N121"/>
       <c r="O121"/>
       <c r="P121" t="s">
@@ -9904,175 +9913,163 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
+        <v>649</v>
+      </c>
+      <c r="B122" t="s">
         <v>650</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" s="1" t="n">
+        <v>44645</v>
+      </c>
+      <c r="D122" t="s">
         <v>651</v>
       </c>
-      <c r="C122" s="1" t="n">
-        <v>44641</v>
-      </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>652</v>
-      </c>
-      <c r="E122" t="s">
-        <v>653</v>
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H122" t="n">
-        <v>27175808</v>
+        <v>27297869</v>
       </c>
       <c r="I122" t="n">
-        <v>120.674</v>
+        <v>121.216</v>
       </c>
       <c r="J122"/>
       <c r="K122"/>
       <c r="L122" t="n">
-        <v>35256</v>
+        <v>32547</v>
       </c>
       <c r="M122" t="n">
-        <v>0.157</v>
+        <v>0.145</v>
       </c>
       <c r="N122"/>
       <c r="O122"/>
       <c r="P122" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="Q122" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="R122" t="s">
         <v>61</v>
       </c>
       <c r="S122" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>654</v>
+      </c>
+      <c r="B123" t="s">
         <v>655</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" s="1" t="n">
+        <v>44643</v>
+      </c>
+      <c r="D123" t="s">
         <v>656</v>
-      </c>
-      <c r="C123" s="1" t="n">
-        <v>44635</v>
-      </c>
-      <c r="D123" t="s">
-        <v>657</v>
       </c>
       <c r="E123" t="s">
         <v>53</v>
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="H123"/>
       <c r="I123"/>
       <c r="J123" t="n">
-        <v>971</v>
+        <v>4471</v>
       </c>
       <c r="K123" t="n">
-        <v>0.186</v>
-      </c>
-      <c r="L123" t="n">
-        <v>1289</v>
-      </c>
-      <c r="M123" t="n">
-        <v>0.247</v>
-      </c>
-      <c r="N123" t="n">
-        <v>0.1962</v>
-      </c>
-      <c r="O123" t="n">
-        <v>5.1</v>
-      </c>
+        <v>0.856</v>
+      </c>
+      <c r="L123"/>
+      <c r="M123"/>
+      <c r="N123"/>
+      <c r="O123"/>
       <c r="P123" t="s">
+        <v>657</v>
+      </c>
+      <c r="Q123" t="s">
         <v>658</v>
-      </c>
-      <c r="Q123" t="s">
-        <v>659</v>
       </c>
       <c r="R123" t="s">
         <v>61</v>
       </c>
       <c r="S123" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>660</v>
+      </c>
+      <c r="B124" t="s">
         <v>661</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" s="1" t="n">
+        <v>44644</v>
+      </c>
+      <c r="D124" t="s">
         <v>662</v>
       </c>
-      <c r="C124" s="1" t="n">
-        <v>44637</v>
-      </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>663</v>
-      </c>
-      <c r="E124" t="s">
-        <v>664</v>
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="H124" t="n">
-        <v>5612864</v>
+        <v>5656308</v>
       </c>
       <c r="I124" t="n">
-        <v>1281.013</v>
-      </c>
-      <c r="J124" t="n">
-        <v>6480</v>
-      </c>
-      <c r="K124" t="n">
-        <v>1.479</v>
-      </c>
+        <v>1290.928</v>
+      </c>
+      <c r="J124"/>
+      <c r="K124"/>
       <c r="L124" t="n">
-        <v>5637</v>
+        <v>6206</v>
       </c>
       <c r="M124" t="n">
-        <v>1.287</v>
+        <v>1.416</v>
       </c>
       <c r="N124" t="n">
-        <v>0.0459</v>
+        <v>0.046</v>
       </c>
       <c r="O124" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="P124" t="s">
+        <v>663</v>
+      </c>
+      <c r="Q124" t="s">
         <v>664</v>
-      </c>
-      <c r="Q124" t="s">
-        <v>665</v>
       </c>
       <c r="R124" t="s">
         <v>61</v>
       </c>
       <c r="S124" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
+        <v>666</v>
+      </c>
+      <c r="B125" t="s">
         <v>667</v>
-      </c>
-      <c r="B125" t="s">
-        <v>668</v>
       </c>
       <c r="C125" s="1" t="n">
         <v>44609</v>
       </c>
       <c r="D125" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E125" t="s">
         <v>53</v>
@@ -10097,58 +10094,54 @@
         <v>396</v>
       </c>
       <c r="Q125" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="R125" t="s">
         <v>311</v>
       </c>
       <c r="S125" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
+        <v>670</v>
+      </c>
+      <c r="B126" t="s">
         <v>671</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" s="1" t="n">
+        <v>44643</v>
+      </c>
+      <c r="D126" t="s">
         <v>672</v>
       </c>
-      <c r="C126" s="1" t="n">
-        <v>44637</v>
-      </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
         <v>673</v>
-      </c>
-      <c r="E126" t="s">
-        <v>674</v>
       </c>
       <c r="F126"/>
       <c r="G126" t="n">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="H126" t="n">
-        <v>2585118</v>
+        <v>2602634</v>
       </c>
       <c r="I126" t="n">
-        <v>358.067</v>
-      </c>
-      <c r="J126" t="n">
-        <v>2102</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.291</v>
-      </c>
+        <v>360.494</v>
+      </c>
+      <c r="J126"/>
+      <c r="K126"/>
       <c r="L126" t="n">
-        <v>1947</v>
+        <v>1899</v>
       </c>
       <c r="M126" t="n">
-        <v>0.27</v>
+        <v>0.263</v>
       </c>
       <c r="N126" t="n">
-        <v>0.0915</v>
+        <v>0.0785</v>
       </c>
       <c r="O126" t="n">
-        <v>10.9</v>
+        <v>12.7</v>
       </c>
       <c r="P126" t="s">
         <v>674</v>
@@ -10171,7 +10164,7 @@
         <v>678</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44639</v>
+        <v>44642</v>
       </c>
       <c r="D127" t="s">
         <v>679</v>
@@ -10183,21 +10176,21 @@
         <v>680</v>
       </c>
       <c r="G127" t="n">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="H127" t="n">
-        <v>28199031</v>
+        <v>28300965</v>
       </c>
       <c r="I127" t="n">
-        <v>845.31</v>
+        <v>848.365</v>
       </c>
       <c r="J127"/>
       <c r="K127"/>
       <c r="L127" t="n">
-        <v>42975</v>
+        <v>42753</v>
       </c>
       <c r="M127" t="n">
-        <v>1.288</v>
+        <v>1.282</v>
       </c>
       <c r="N127" t="n">
         <v>0.017</v>
@@ -10279,7 +10272,7 @@
         <v>690</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>44634</v>
+        <v>44630</v>
       </c>
       <c r="D129" t="s">
         <v>691</v>
@@ -10289,40 +10282,36 @@
       </c>
       <c r="F129"/>
       <c r="G129" t="n">
-        <v>680</v>
+        <v>105</v>
       </c>
       <c r="H129" t="n">
-        <v>33796147</v>
+        <v>35118188</v>
       </c>
       <c r="I129" t="n">
-        <v>894.149</v>
-      </c>
-      <c r="J129" t="n">
-        <v>37403</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.99</v>
-      </c>
+        <v>929.126</v>
+      </c>
+      <c r="J129"/>
+      <c r="K129"/>
       <c r="L129" t="n">
-        <v>64972</v>
+        <v>68193</v>
       </c>
       <c r="M129" t="n">
-        <v>1.719</v>
+        <v>1.804</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1686</v>
+        <v>0.1666</v>
       </c>
       <c r="O129" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="P129" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="Q129" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="R129" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="S129" t="s">
         <v>694</v>
@@ -10336,7 +10325,7 @@
         <v>696</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D130" t="s">
         <v>697</v>
@@ -10346,25 +10335,25 @@
       </c>
       <c r="F130"/>
       <c r="G130" t="n">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="H130" t="n">
-        <v>39497750</v>
+        <v>39734174</v>
       </c>
       <c r="I130" t="n">
-        <v>3884.545</v>
+        <v>3907.797</v>
       </c>
       <c r="J130" t="n">
-        <v>21931</v>
+        <v>54134</v>
       </c>
       <c r="K130" t="n">
-        <v>2.157</v>
+        <v>5.324</v>
       </c>
       <c r="L130" t="n">
-        <v>53775</v>
+        <v>51318</v>
       </c>
       <c r="M130" t="n">
-        <v>5.289</v>
+        <v>5.047</v>
       </c>
       <c r="N130"/>
       <c r="O130"/>
@@ -10389,7 +10378,7 @@
         <v>701</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D131" t="s">
         <v>702</v>
@@ -10399,25 +10388,25 @@
       </c>
       <c r="F131"/>
       <c r="G131" t="n">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H131" t="n">
-        <v>6200172</v>
+        <v>6277771</v>
       </c>
       <c r="I131" t="n">
-        <v>2115.721</v>
+        <v>2142.201</v>
       </c>
       <c r="J131" t="n">
-        <v>23653</v>
+        <v>17133</v>
       </c>
       <c r="K131" t="n">
-        <v>8.071</v>
+        <v>5.846</v>
       </c>
       <c r="L131" t="n">
-        <v>18147</v>
+        <v>20360</v>
       </c>
       <c r="M131" t="n">
-        <v>6.192</v>
+        <v>6.948</v>
       </c>
       <c r="N131"/>
       <c r="O131"/>
@@ -10442,190 +10431,190 @@
         <v>708</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>44627</v>
+        <v>44630</v>
       </c>
       <c r="D132" t="s">
-        <v>709</v>
+        <v>691</v>
       </c>
       <c r="E132" t="s">
-        <v>710</v>
+        <v>692</v>
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>430</v>
+        <v>104</v>
       </c>
       <c r="H132" t="n">
-        <v>21341417</v>
+        <v>21260367</v>
       </c>
       <c r="I132" t="n">
-        <v>1115.729</v>
-      </c>
-      <c r="J132" t="n">
-        <v>25065</v>
-      </c>
-      <c r="K132" t="n">
-        <v>1.31</v>
-      </c>
+        <v>1111.492</v>
+      </c>
+      <c r="J132"/>
+      <c r="K132"/>
       <c r="L132" t="n">
-        <v>42939</v>
+        <v>75700</v>
       </c>
       <c r="M132" t="n">
-        <v>2.245</v>
+        <v>3.958</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1263</v>
+        <v>0.0565</v>
       </c>
       <c r="O132" t="n">
-        <v>7.9</v>
+        <v>17.7</v>
       </c>
       <c r="P132" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="Q132" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="R132" t="s">
         <v>61</v>
       </c>
       <c r="S132" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
+        <v>712</v>
+      </c>
+      <c r="B133" t="s">
+        <v>713</v>
+      </c>
+      <c r="C133" s="1" t="n">
+        <v>44644</v>
+      </c>
+      <c r="D133" t="s">
         <v>714</v>
       </c>
-      <c r="B133" t="s">
+      <c r="E133" t="s">
         <v>715</v>
-      </c>
-      <c r="C133" s="1" t="n">
-        <v>44641</v>
-      </c>
-      <c r="D133" t="s">
-        <v>716</v>
-      </c>
-      <c r="E133" t="s">
-        <v>717</v>
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H133" t="n">
-        <v>282587552</v>
+        <v>283219566</v>
       </c>
       <c r="I133" t="n">
-        <v>1936.698</v>
+        <v>1941.03</v>
       </c>
       <c r="J133"/>
       <c r="K133"/>
       <c r="L133" t="n">
-        <v>257135</v>
+        <v>237222</v>
       </c>
       <c r="M133" t="n">
-        <v>1.762</v>
-      </c>
-      <c r="N133"/>
-      <c r="O133"/>
+        <v>1.626</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0.1219</v>
+      </c>
+      <c r="O133" t="n">
+        <v>8.2</v>
+      </c>
       <c r="P133" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="Q133" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="R133" t="s">
         <v>61</v>
       </c>
       <c r="S133" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
+        <v>718</v>
+      </c>
+      <c r="B134" t="s">
+        <v>719</v>
+      </c>
+      <c r="C134" s="1" t="n">
+        <v>44645</v>
+      </c>
+      <c r="D134" t="s">
         <v>720</v>
       </c>
-      <c r="B134" t="s">
+      <c r="E134" t="s">
         <v>721</v>
-      </c>
-      <c r="C134" s="1" t="n">
-        <v>44641</v>
-      </c>
-      <c r="D134" t="s">
-        <v>722</v>
-      </c>
-      <c r="E134" t="s">
-        <v>723</v>
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="H134" t="n">
-        <v>5024291</v>
+        <v>5052845</v>
       </c>
       <c r="I134" t="n">
-        <v>378.434</v>
+        <v>380.585</v>
       </c>
       <c r="J134" t="n">
-        <v>9210</v>
+        <v>7755</v>
       </c>
       <c r="K134" t="n">
-        <v>0.694</v>
+        <v>0.584</v>
       </c>
       <c r="L134" t="n">
-        <v>7385</v>
+        <v>7881</v>
       </c>
       <c r="M134" t="n">
-        <v>0.556</v>
+        <v>0.594</v>
       </c>
       <c r="N134"/>
       <c r="O134"/>
       <c r="P134" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="Q134" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="R134" t="s">
         <v>136</v>
       </c>
       <c r="S134" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
+        <v>724</v>
+      </c>
+      <c r="B135" t="s">
+        <v>725</v>
+      </c>
+      <c r="C135" s="1" t="n">
+        <v>44645</v>
+      </c>
+      <c r="D135" t="s">
         <v>726</v>
-      </c>
-      <c r="B135" t="s">
-        <v>727</v>
-      </c>
-      <c r="C135" s="1" t="n">
-        <v>44641</v>
-      </c>
-      <c r="D135" t="s">
-        <v>728</v>
       </c>
       <c r="E135" t="s">
         <v>53</v>
       </c>
       <c r="F135"/>
       <c r="G135" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H135" t="n">
-        <v>67516</v>
+        <v>67727</v>
       </c>
       <c r="I135" t="n">
-        <v>1260.897</v>
+        <v>1264.838</v>
       </c>
       <c r="J135"/>
       <c r="K135"/>
       <c r="L135" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="M135" t="n">
-        <v>0.616</v>
+        <v>0.822</v>
       </c>
       <c r="N135"/>
       <c r="O135"/>
@@ -10633,296 +10622,296 @@
         <v>53</v>
       </c>
       <c r="Q135" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="R135" t="s">
         <v>311</v>
       </c>
       <c r="S135" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
+        <v>729</v>
+      </c>
+      <c r="B136" t="s">
+        <v>730</v>
+      </c>
+      <c r="C136" s="1" t="n">
+        <v>44644</v>
+      </c>
+      <c r="D136" t="s">
         <v>731</v>
-      </c>
-      <c r="B136" t="s">
-        <v>732</v>
-      </c>
-      <c r="C136" s="1" t="n">
-        <v>44640</v>
-      </c>
-      <c r="D136" t="s">
-        <v>733</v>
       </c>
       <c r="E136" t="s">
         <v>88</v>
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H136" t="n">
-        <v>139116</v>
+        <v>139789</v>
       </c>
       <c r="I136" t="n">
-        <v>754.421</v>
+        <v>758.071</v>
       </c>
       <c r="J136"/>
       <c r="K136"/>
       <c r="L136" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="M136" t="n">
-        <v>0.868</v>
+        <v>0.922</v>
       </c>
       <c r="N136" t="n">
-        <v>0.033</v>
+        <v>0.0311</v>
       </c>
       <c r="O136" t="n">
-        <v>30.3</v>
+        <v>32.2</v>
       </c>
       <c r="P136" t="s">
         <v>88</v>
       </c>
       <c r="Q136" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="R136" t="s">
         <v>25</v>
       </c>
       <c r="S136" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
+        <v>733</v>
+      </c>
+      <c r="B137" t="s">
+        <v>734</v>
+      </c>
+      <c r="C137" s="1" t="n">
+        <v>44643</v>
+      </c>
+      <c r="D137" t="s">
         <v>735</v>
       </c>
-      <c r="B137" t="s">
+      <c r="E137" t="s">
         <v>736</v>
-      </c>
-      <c r="C137" s="1" t="n">
-        <v>44640</v>
-      </c>
-      <c r="D137" t="s">
-        <v>737</v>
-      </c>
-      <c r="E137" t="s">
-        <v>738</v>
       </c>
       <c r="F137"/>
       <c r="G137" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H137" t="n">
-        <v>103927</v>
+        <v>104040</v>
       </c>
       <c r="I137" t="n">
-        <v>934.016</v>
+        <v>935.031</v>
       </c>
       <c r="J137"/>
       <c r="K137"/>
       <c r="L137" t="n">
-        <v>303</v>
+        <v>61</v>
       </c>
       <c r="M137" t="n">
-        <v>2.723</v>
+        <v>0.548</v>
       </c>
       <c r="N137" t="n">
-        <v>0.0014</v>
+        <v>0.0094</v>
       </c>
       <c r="O137" t="n">
-        <v>706.3</v>
+        <v>106.8</v>
       </c>
       <c r="P137" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="Q137" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="R137" t="s">
         <v>25</v>
       </c>
       <c r="S137" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
+        <v>740</v>
+      </c>
+      <c r="B138" t="s">
+        <v>741</v>
+      </c>
+      <c r="C138" s="1" t="n">
+        <v>44644</v>
+      </c>
+      <c r="D138" t="s">
         <v>742</v>
-      </c>
-      <c r="B138" t="s">
-        <v>743</v>
-      </c>
-      <c r="C138" s="1" t="n">
-        <v>44640</v>
-      </c>
-      <c r="D138" t="s">
-        <v>744</v>
       </c>
       <c r="E138" t="s">
         <v>53</v>
       </c>
       <c r="F138"/>
       <c r="G138" t="n">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="H138" t="n">
-        <v>41387358</v>
+        <v>41451248</v>
       </c>
       <c r="I138" t="n">
-        <v>1171.097</v>
+        <v>1172.905</v>
       </c>
       <c r="J138" t="n">
-        <v>17220</v>
+        <v>14960</v>
       </c>
       <c r="K138" t="n">
-        <v>0.487</v>
+        <v>0.423</v>
       </c>
       <c r="L138" t="n">
-        <v>17685</v>
+        <v>16170</v>
       </c>
       <c r="M138" t="n">
-        <v>0.5</v>
+        <v>0.458</v>
       </c>
       <c r="N138" t="n">
-        <v>0.0067</v>
+        <v>0.0072</v>
       </c>
       <c r="O138" t="n">
-        <v>149.5</v>
+        <v>139.4</v>
       </c>
       <c r="P138" t="s">
         <v>53</v>
       </c>
       <c r="Q138" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="R138" t="s">
         <v>61</v>
       </c>
       <c r="S138" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
+        <v>744</v>
+      </c>
+      <c r="B139" t="s">
+        <v>745</v>
+      </c>
+      <c r="C139" s="1" t="n">
+        <v>44645</v>
+      </c>
+      <c r="D139" t="s">
         <v>746</v>
       </c>
-      <c r="B139" t="s">
+      <c r="E139" t="s">
         <v>747</v>
-      </c>
-      <c r="C139" s="1" t="n">
-        <v>44641</v>
-      </c>
-      <c r="D139" t="s">
-        <v>748</v>
-      </c>
-      <c r="E139" t="s">
-        <v>749</v>
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="H139" t="n">
-        <v>1059287</v>
+        <v>1063456</v>
       </c>
       <c r="I139" t="n">
-        <v>61.6</v>
+        <v>61.842</v>
       </c>
       <c r="J139" t="n">
-        <v>1342</v>
+        <v>1178</v>
       </c>
       <c r="K139" t="n">
-        <v>0.078</v>
+        <v>0.069</v>
       </c>
       <c r="L139" t="n">
-        <v>1227</v>
+        <v>1200</v>
       </c>
       <c r="M139" t="n">
-        <v>0.071</v>
+        <v>0.07</v>
       </c>
       <c r="N139"/>
       <c r="O139"/>
       <c r="P139" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="Q139" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="R139" t="s">
         <v>61</v>
       </c>
       <c r="S139" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
+        <v>749</v>
+      </c>
+      <c r="B140" t="s">
+        <v>750</v>
+      </c>
+      <c r="C140" s="1" t="n">
+        <v>44644</v>
+      </c>
+      <c r="D140" t="s">
         <v>751</v>
-      </c>
-      <c r="B140" t="s">
-        <v>752</v>
-      </c>
-      <c r="C140" s="1" t="n">
-        <v>44640</v>
-      </c>
-      <c r="D140" t="s">
-        <v>753</v>
       </c>
       <c r="E140" t="s">
         <v>53</v>
       </c>
       <c r="F140" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="G140" t="n">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="H140" t="n">
-        <v>9026652</v>
+        <v>9093179</v>
       </c>
       <c r="I140" t="n">
-        <v>1313.627</v>
+        <v>1323.309</v>
       </c>
       <c r="J140" t="n">
-        <v>9093</v>
+        <v>16445</v>
       </c>
       <c r="K140" t="n">
-        <v>1.323</v>
+        <v>2.393</v>
       </c>
       <c r="L140" t="n">
-        <v>14664</v>
+        <v>14761</v>
       </c>
       <c r="M140" t="n">
-        <v>2.134</v>
+        <v>2.148</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1438</v>
+        <v>0.1372</v>
       </c>
       <c r="O140" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="P140" t="s">
         <v>53</v>
       </c>
       <c r="Q140" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="R140" t="s">
         <v>45</v>
       </c>
       <c r="S140" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B141" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C141" s="1" t="n">
         <v>44640</v>
@@ -10967,24 +10956,24 @@
         <v>25</v>
       </c>
       <c r="S141" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
+        <v>758</v>
+      </c>
+      <c r="B142" t="s">
+        <v>759</v>
+      </c>
+      <c r="C142" s="1" t="n">
+        <v>44641</v>
+      </c>
+      <c r="D142" t="s">
         <v>760</v>
       </c>
-      <c r="B142" t="s">
+      <c r="E142" t="s">
         <v>761</v>
-      </c>
-      <c r="C142" s="1" t="n">
-        <v>44634</v>
-      </c>
-      <c r="D142" t="s">
-        <v>762</v>
-      </c>
-      <c r="E142" t="s">
-        <v>763</v>
       </c>
       <c r="F142"/>
       <c r="G142" t="n">
@@ -10993,160 +10982,160 @@
       <c r="H142"/>
       <c r="I142"/>
       <c r="J142" t="n">
-        <v>96200</v>
+        <v>89400</v>
       </c>
       <c r="K142" t="n">
-        <v>17.64</v>
+        <v>16.393</v>
       </c>
       <c r="L142" t="n">
-        <v>96200</v>
+        <v>89400</v>
       </c>
       <c r="M142" t="n">
-        <v>17.64</v>
+        <v>16.393</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1517</v>
+        <v>0.1184</v>
       </c>
       <c r="O142" t="n">
-        <v>6.6</v>
+        <v>8.4</v>
       </c>
       <c r="P142" t="s">
         <v>53</v>
       </c>
       <c r="Q142" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="R142" t="s">
         <v>136</v>
       </c>
       <c r="S142" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
+        <v>764</v>
+      </c>
+      <c r="B143" t="s">
+        <v>765</v>
+      </c>
+      <c r="C143" s="1" t="n">
+        <v>44642</v>
+      </c>
+      <c r="D143" t="s">
         <v>766</v>
-      </c>
-      <c r="B143" t="s">
-        <v>767</v>
-      </c>
-      <c r="C143" s="1" t="n">
-        <v>44637</v>
-      </c>
-      <c r="D143" t="s">
-        <v>768</v>
       </c>
       <c r="E143" t="s">
         <v>53</v>
       </c>
       <c r="F143" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="G143" t="n">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="H143" t="n">
-        <v>50175982</v>
+        <v>50293280</v>
       </c>
       <c r="I143" t="n">
-        <v>9207.836</v>
+        <v>9229.361</v>
       </c>
       <c r="J143" t="n">
-        <v>16934</v>
+        <v>19512</v>
       </c>
       <c r="K143" t="n">
-        <v>3.108</v>
+        <v>3.581</v>
       </c>
       <c r="L143" t="n">
-        <v>28411</v>
+        <v>23529</v>
       </c>
       <c r="M143" t="n">
-        <v>5.214</v>
+        <v>4.318</v>
       </c>
       <c r="N143" t="n">
-        <v>0.366</v>
+        <v>0.396</v>
       </c>
       <c r="O143" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="P143" t="s">
         <v>53</v>
       </c>
       <c r="Q143" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="R143" t="s">
         <v>61</v>
       </c>
       <c r="S143" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
+        <v>769</v>
+      </c>
+      <c r="B144" t="s">
+        <v>770</v>
+      </c>
+      <c r="C144" s="1" t="n">
+        <v>44644</v>
+      </c>
+      <c r="D144" t="s">
         <v>771</v>
       </c>
-      <c r="B144" t="s">
+      <c r="E144" t="s">
         <v>772</v>
       </c>
-      <c r="C144" s="1" t="n">
-        <v>44640</v>
-      </c>
-      <c r="D144" t="s">
+      <c r="F144" t="s">
         <v>773</v>
       </c>
-      <c r="E144" t="s">
+      <c r="G144" t="n">
+        <v>764</v>
+      </c>
+      <c r="H144" t="n">
+        <v>4717375</v>
+      </c>
+      <c r="I144" t="n">
+        <v>2269.362</v>
+      </c>
+      <c r="J144" t="n">
+        <v>12987</v>
+      </c>
+      <c r="K144" t="n">
+        <v>6.248</v>
+      </c>
+      <c r="L144" t="n">
+        <v>13393</v>
+      </c>
+      <c r="M144" t="n">
+        <v>6.443</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="O144" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="P144" t="s">
         <v>774</v>
       </c>
-      <c r="F144" t="s">
-        <v>775</v>
-      </c>
-      <c r="G144" t="n">
-        <v>760</v>
-      </c>
-      <c r="H144" t="n">
-        <v>4649646</v>
-      </c>
-      <c r="I144" t="n">
-        <v>2236.78</v>
-      </c>
-      <c r="J144" t="n">
-        <v>5191</v>
-      </c>
-      <c r="K144" t="n">
-        <v>2.497</v>
-      </c>
-      <c r="L144" t="n">
-        <v>12744</v>
-      </c>
-      <c r="M144" t="n">
-        <v>6.131</v>
-      </c>
-      <c r="N144" t="n">
-        <v>0.212</v>
-      </c>
-      <c r="O144" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="P144" t="s">
-        <v>776</v>
-      </c>
       <c r="Q144" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="R144" t="s">
         <v>61</v>
       </c>
       <c r="S144" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B145" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C145" s="1" t="n">
         <v>44632</v>
@@ -11183,136 +11172,136 @@
         <v>25</v>
       </c>
       <c r="S145" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
+        <v>779</v>
+      </c>
+      <c r="B146" t="s">
+        <v>780</v>
+      </c>
+      <c r="C146" s="1" t="n">
+        <v>44644</v>
+      </c>
+      <c r="D146" t="s">
         <v>781</v>
       </c>
-      <c r="B146" t="s">
+      <c r="E146" t="s">
         <v>782</v>
       </c>
-      <c r="C146" s="1" t="n">
-        <v>44640</v>
-      </c>
-      <c r="D146" t="s">
+      <c r="F146" t="s">
         <v>783</v>
       </c>
-      <c r="E146" t="s">
+      <c r="G146" t="n">
+        <v>744</v>
+      </c>
+      <c r="H146" t="n">
+        <v>23676087</v>
+      </c>
+      <c r="I146" t="n">
+        <v>394.325</v>
+      </c>
+      <c r="J146" t="n">
+        <v>32294</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="L146" t="n">
+        <v>23111</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0.0539</v>
+      </c>
+      <c r="O146" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="P146" t="s">
         <v>784</v>
       </c>
-      <c r="F146" t="s">
-        <v>785</v>
-      </c>
-      <c r="G146" t="n">
-        <v>740</v>
-      </c>
-      <c r="H146" t="n">
-        <v>23585561</v>
-      </c>
-      <c r="I146" t="n">
-        <v>392.818</v>
-      </c>
-      <c r="J146" t="n">
-        <v>16436</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.274</v>
-      </c>
-      <c r="L146" t="n">
-        <v>25052</v>
-      </c>
-      <c r="M146" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="N146" t="n">
-        <v>0.0554</v>
-      </c>
-      <c r="O146" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="P146" t="s">
-        <v>786</v>
-      </c>
       <c r="Q146" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="R146" t="s">
         <v>45</v>
       </c>
       <c r="S146" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
+        <v>786</v>
+      </c>
+      <c r="B147" t="s">
+        <v>787</v>
+      </c>
+      <c r="C147" s="1" t="n">
+        <v>44644</v>
+      </c>
+      <c r="D147" t="s">
         <v>788</v>
       </c>
-      <c r="B147" t="s">
+      <c r="E147" t="s">
         <v>789</v>
       </c>
-      <c r="C147" s="1" t="n">
-        <v>44640</v>
-      </c>
-      <c r="D147" t="s">
+      <c r="F147" t="s">
         <v>790</v>
       </c>
-      <c r="E147" t="s">
+      <c r="G147" t="n">
+        <v>775</v>
+      </c>
+      <c r="H147" t="n">
+        <v>73628781</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1435.114</v>
+      </c>
+      <c r="J147" t="n">
+        <v>401183</v>
+      </c>
+      <c r="K147" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="L147" t="n">
+        <v>404030</v>
+      </c>
+      <c r="M147" t="n">
+        <v>7.875</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0.8856</v>
+      </c>
+      <c r="O147" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P147" t="s">
         <v>791</v>
       </c>
-      <c r="F147" t="s">
+      <c r="Q147" t="s">
         <v>792</v>
-      </c>
-      <c r="G147" t="n">
-        <v>771</v>
-      </c>
-      <c r="H147" t="n">
-        <v>71965394</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1402.692</v>
-      </c>
-      <c r="J147" t="n">
-        <v>278704</v>
-      </c>
-      <c r="K147" t="n">
-        <v>5.432</v>
-      </c>
-      <c r="L147" t="n">
-        <v>452430</v>
-      </c>
-      <c r="M147" t="n">
-        <v>8.818</v>
-      </c>
-      <c r="N147" t="n">
-        <v>0.8578</v>
-      </c>
-      <c r="O147" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P147" t="s">
-        <v>793</v>
-      </c>
-      <c r="Q147" t="s">
-        <v>794</v>
       </c>
       <c r="R147" t="s">
         <v>45</v>
       </c>
       <c r="S147" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B148" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D148" t="s">
         <v>35</v>
@@ -11322,27 +11311,27 @@
       </c>
       <c r="F148"/>
       <c r="G148" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H148" t="n">
-        <v>351224</v>
+        <v>354647</v>
       </c>
       <c r="I148" t="n">
-        <v>30.86</v>
+        <v>31.16</v>
       </c>
       <c r="J148"/>
       <c r="K148"/>
       <c r="L148" t="n">
-        <v>460</v>
+        <v>686</v>
       </c>
       <c r="M148" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="N148" t="n">
-        <v>0.0099</v>
+        <v>0.0208</v>
       </c>
       <c r="O148" t="n">
-        <v>100.6</v>
+        <v>48</v>
       </c>
       <c r="P148" t="s">
         <v>36</v>
@@ -11354,129 +11343,129 @@
         <v>25</v>
       </c>
       <c r="S148" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
+        <v>797</v>
+      </c>
+      <c r="B149" t="s">
+        <v>798</v>
+      </c>
+      <c r="C149" s="1" t="n">
+        <v>44642</v>
+      </c>
+      <c r="D149" t="s">
         <v>799</v>
-      </c>
-      <c r="B149" t="s">
-        <v>800</v>
-      </c>
-      <c r="C149" s="1" t="n">
-        <v>44638</v>
-      </c>
-      <c r="D149" t="s">
-        <v>801</v>
       </c>
       <c r="E149" t="s">
         <v>53</v>
       </c>
       <c r="F149"/>
       <c r="G149" t="n">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="H149" t="n">
-        <v>87448625</v>
+        <v>87825816</v>
       </c>
       <c r="I149" t="n">
-        <v>1870.75</v>
+        <v>1878.82</v>
       </c>
       <c r="J149" t="n">
-        <v>60323</v>
+        <v>92752</v>
       </c>
       <c r="K149" t="n">
-        <v>1.29</v>
+        <v>1.984</v>
       </c>
       <c r="L149" t="n">
-        <v>83291</v>
+        <v>84464</v>
       </c>
       <c r="M149" t="n">
-        <v>1.782</v>
+        <v>1.807</v>
       </c>
       <c r="N149" t="n">
-        <v>0.182</v>
+        <v>0.184</v>
       </c>
       <c r="O149" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="P149" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="Q149" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="R149" t="s">
         <v>61</v>
       </c>
       <c r="S149" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
+        <v>802</v>
+      </c>
+      <c r="B150" t="s">
+        <v>803</v>
+      </c>
+      <c r="C150" s="1" t="n">
+        <v>44644</v>
+      </c>
+      <c r="D150" t="s">
         <v>804</v>
       </c>
-      <c r="B150" t="s">
+      <c r="E150" t="s">
         <v>805</v>
-      </c>
-      <c r="C150" s="1" t="n">
-        <v>44640</v>
-      </c>
-      <c r="D150" t="s">
-        <v>806</v>
-      </c>
-      <c r="E150" t="s">
-        <v>807</v>
       </c>
       <c r="F150"/>
       <c r="G150" t="n">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="H150" t="n">
-        <v>7503719</v>
+        <v>7525154</v>
       </c>
       <c r="I150" t="n">
-        <v>349.054</v>
+        <v>350.051</v>
       </c>
       <c r="J150" t="n">
-        <v>5001</v>
+        <v>4749</v>
       </c>
       <c r="K150" t="n">
-        <v>0.233</v>
+        <v>0.221</v>
       </c>
       <c r="L150" t="n">
-        <v>5500</v>
+        <v>5257</v>
       </c>
       <c r="M150" t="n">
-        <v>0.256</v>
+        <v>0.245</v>
       </c>
       <c r="N150" t="n">
-        <v>0.056</v>
+        <v>0.0805</v>
       </c>
       <c r="O150" t="n">
-        <v>17.9</v>
+        <v>12.4</v>
       </c>
       <c r="P150" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="Q150" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="R150" t="s">
         <v>61</v>
       </c>
       <c r="S150" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B151" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C151" s="1" t="n">
         <v>44605</v>
@@ -11513,189 +11502,189 @@
         <v>25</v>
       </c>
       <c r="S151" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
+        <v>810</v>
+      </c>
+      <c r="B152" t="s">
+        <v>811</v>
+      </c>
+      <c r="C152" s="1" t="n">
+        <v>44644</v>
+      </c>
+      <c r="D152" t="s">
         <v>812</v>
       </c>
-      <c r="B152" t="s">
+      <c r="E152" t="s">
         <v>813</v>
-      </c>
-      <c r="C152" s="1" t="n">
-        <v>44640</v>
-      </c>
-      <c r="D152" t="s">
-        <v>814</v>
-      </c>
-      <c r="E152" t="s">
-        <v>815</v>
       </c>
       <c r="F152"/>
       <c r="G152" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H152" t="n">
-        <v>81470</v>
+        <v>81647</v>
       </c>
       <c r="I152" t="n">
-        <v>137.665</v>
+        <v>137.964</v>
       </c>
       <c r="J152" t="n">
-        <v>93</v>
+        <v>177</v>
       </c>
       <c r="K152" t="n">
-        <v>0.157</v>
+        <v>0.299</v>
       </c>
       <c r="L152" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M152" t="n">
-        <v>0.022</v>
+        <v>0.052</v>
       </c>
       <c r="N152" t="n">
-        <v>0.149</v>
+        <v>0.137</v>
       </c>
       <c r="O152" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="P152" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="Q152" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="R152" t="s">
         <v>25</v>
       </c>
       <c r="S152" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
+        <v>815</v>
+      </c>
+      <c r="B153" t="s">
+        <v>816</v>
+      </c>
+      <c r="C153" s="1" t="n">
+        <v>44640</v>
+      </c>
+      <c r="D153" t="s">
         <v>817</v>
       </c>
-      <c r="B153" t="s">
+      <c r="E153" t="s">
         <v>818</v>
-      </c>
-      <c r="C153" s="1" t="n">
-        <v>44633</v>
-      </c>
-      <c r="D153" t="s">
-        <v>819</v>
-      </c>
-      <c r="E153" t="s">
-        <v>820</v>
       </c>
       <c r="F153"/>
       <c r="G153" t="n">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="H153" t="n">
-        <v>18081511</v>
+        <v>18121775</v>
       </c>
       <c r="I153" t="n">
-        <v>1779.648</v>
+        <v>1783.611</v>
       </c>
       <c r="J153" t="n">
-        <v>6051</v>
+        <v>5752</v>
       </c>
       <c r="K153" t="n">
-        <v>0.596</v>
+        <v>0.566</v>
       </c>
       <c r="L153" t="n">
-        <v>6051</v>
+        <v>5752</v>
       </c>
       <c r="M153" t="n">
-        <v>0.596</v>
+        <v>0.566</v>
       </c>
       <c r="N153" t="n">
-        <v>0.2505</v>
+        <v>0.2263</v>
       </c>
       <c r="O153" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="P153" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="Q153" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="R153" t="s">
         <v>61</v>
       </c>
       <c r="S153" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B154" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>44640</v>
+        <v>44643</v>
       </c>
       <c r="D154" t="s">
+        <v>522</v>
+      </c>
+      <c r="E154" t="s">
         <v>523</v>
-      </c>
-      <c r="E154" t="s">
-        <v>524</v>
       </c>
       <c r="F154"/>
       <c r="G154" t="n">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="H154" t="n">
-        <v>19832321</v>
+        <v>20013935</v>
       </c>
       <c r="I154" t="n">
-        <v>2275.525</v>
+        <v>2296.363</v>
       </c>
       <c r="J154" t="n">
-        <v>21138</v>
+        <v>44888</v>
       </c>
       <c r="K154" t="n">
-        <v>2.425</v>
+        <v>5.15</v>
       </c>
       <c r="L154" t="n">
-        <v>58840</v>
+        <v>51840</v>
       </c>
       <c r="M154" t="n">
-        <v>6.751</v>
+        <v>5.948</v>
       </c>
       <c r="N154" t="n">
-        <v>0.498</v>
+        <v>0.477</v>
       </c>
       <c r="O154" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P154" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q154" t="s">
         <v>524</v>
-      </c>
-      <c r="Q154" t="s">
-        <v>525</v>
       </c>
       <c r="R154" t="s">
         <v>61</v>
       </c>
       <c r="S154" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B155" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>44618</v>
+        <v>44632</v>
       </c>
       <c r="D155" t="s">
         <v>21</v>
@@ -11705,20 +11694,28 @@
       </c>
       <c r="F155"/>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H155" t="n">
-        <v>156185</v>
+        <v>158382</v>
       </c>
       <c r="I155" t="n">
-        <v>8.546</v>
+        <v>8.666</v>
       </c>
       <c r="J155"/>
       <c r="K155"/>
-      <c r="L155"/>
-      <c r="M155"/>
-      <c r="N155"/>
-      <c r="O155"/>
+      <c r="L155" t="n">
+        <v>157</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="O155" t="n">
+        <v>3</v>
+      </c>
       <c r="P155" t="s">
         <v>23</v>
       </c>
@@ -11734,69 +11731,73 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
+        <v>827</v>
+      </c>
+      <c r="B156" t="s">
+        <v>828</v>
+      </c>
+      <c r="C156" s="1" t="n">
+        <v>44644</v>
+      </c>
+      <c r="D156" t="s">
         <v>829</v>
       </c>
-      <c r="B156" t="s">
+      <c r="E156" t="s">
         <v>830</v>
-      </c>
-      <c r="C156" s="1" t="n">
-        <v>44641</v>
-      </c>
-      <c r="D156" t="s">
-        <v>831</v>
-      </c>
-      <c r="E156" t="s">
-        <v>832</v>
       </c>
       <c r="F156"/>
       <c r="G156" t="n">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="H156" t="n">
-        <v>6770235</v>
+        <v>6836408</v>
       </c>
       <c r="I156" t="n">
-        <v>283.808</v>
+        <v>286.582</v>
       </c>
       <c r="J156" t="n">
-        <v>16924</v>
+        <v>12468</v>
       </c>
       <c r="K156" t="n">
-        <v>0.709</v>
+        <v>0.523</v>
       </c>
       <c r="L156" t="n">
-        <v>18933</v>
+        <v>19343</v>
       </c>
       <c r="M156" t="n">
-        <v>0.794</v>
-      </c>
-      <c r="N156"/>
-      <c r="O156"/>
+        <v>0.811</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0.0055</v>
+      </c>
+      <c r="O156" t="n">
+        <v>182</v>
+      </c>
       <c r="P156" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="Q156" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="R156" t="s">
         <v>45</v>
       </c>
       <c r="S156" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B157" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C157" s="1" t="n">
         <v>44610</v>
       </c>
       <c r="D157" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E157" t="s">
         <v>53</v>
@@ -11826,33 +11827,33 @@
         <v>62.2</v>
       </c>
       <c r="P157" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="Q157" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="R157" t="s">
         <v>25</v>
       </c>
       <c r="S157" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B158" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C158" s="1" t="n">
         <v>44625</v>
       </c>
       <c r="D158" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E158" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="F158"/>
       <c r="G158" t="n">
@@ -11883,30 +11884,30 @@
         <v>2.7</v>
       </c>
       <c r="P158" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="Q158" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="R158" t="s">
         <v>61</v>
       </c>
       <c r="S158" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B159" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C159" s="1" t="n">
         <v>44632</v>
       </c>
       <c r="D159" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E159" t="s">
         <v>53</v>
@@ -11939,252 +11940,244 @@
         <v>53</v>
       </c>
       <c r="Q159" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="R159" t="s">
         <v>25</v>
       </c>
       <c r="S159" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
+        <v>848</v>
+      </c>
+      <c r="B160" t="s">
+        <v>849</v>
+      </c>
+      <c r="C160" s="1" t="n">
+        <v>44644</v>
+      </c>
+      <c r="D160" t="s">
         <v>850</v>
       </c>
-      <c r="B160" t="s">
-        <v>851</v>
-      </c>
-      <c r="C160" s="1" t="n">
-        <v>44640</v>
-      </c>
-      <c r="D160" t="s">
-        <v>852</v>
-      </c>
       <c r="E160" t="s">
-        <v>853</v>
+        <v>53</v>
       </c>
       <c r="F160"/>
       <c r="G160" t="n">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H160" t="n">
-        <v>709830</v>
+        <v>713359</v>
       </c>
       <c r="I160" t="n">
-        <v>83.724</v>
-      </c>
-      <c r="J160" t="n">
-        <v>877</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.103</v>
-      </c>
+        <v>84.14</v>
+      </c>
+      <c r="J160"/>
+      <c r="K160"/>
       <c r="L160" t="n">
-        <v>927</v>
+        <v>901</v>
       </c>
       <c r="M160" t="n">
-        <v>0.109</v>
+        <v>0.106</v>
       </c>
       <c r="N160" t="n">
-        <v>0.0037</v>
+        <v>0.0057</v>
       </c>
       <c r="O160" t="n">
-        <v>270.3</v>
+        <v>175.2</v>
       </c>
       <c r="P160" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="Q160" t="s">
+        <v>850</v>
+      </c>
+      <c r="R160" t="s">
+        <v>61</v>
+      </c>
+      <c r="S160" t="s">
         <v>852</v>
-      </c>
-      <c r="R160" t="s">
-        <v>854</v>
-      </c>
-      <c r="S160" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B161" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>44640</v>
+        <v>44643</v>
       </c>
       <c r="D161" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="E161" t="s">
         <v>53</v>
       </c>
       <c r="F161"/>
       <c r="G161" t="n">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="H161" t="n">
-        <v>660159</v>
+        <v>665489</v>
       </c>
       <c r="I161" t="n">
-        <v>470.408</v>
+        <v>474.206</v>
       </c>
       <c r="J161" t="n">
-        <v>741</v>
+        <v>3769</v>
       </c>
       <c r="K161" t="n">
-        <v>0.528</v>
+        <v>2.686</v>
       </c>
       <c r="L161" t="n">
-        <v>1437</v>
+        <v>1302</v>
       </c>
       <c r="M161" t="n">
-        <v>1.024</v>
+        <v>0.928</v>
       </c>
       <c r="N161" t="n">
-        <v>0.215</v>
+        <v>0.227</v>
       </c>
       <c r="O161" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="P161" t="s">
         <v>53</v>
       </c>
       <c r="Q161" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="R161" t="s">
         <v>45</v>
       </c>
       <c r="S161" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
+        <v>858</v>
+      </c>
+      <c r="B162" t="s">
+        <v>859</v>
+      </c>
+      <c r="C162" s="1" t="n">
+        <v>44640</v>
+      </c>
+      <c r="D162" t="s">
+        <v>860</v>
+      </c>
+      <c r="E162" t="s">
         <v>861</v>
-      </c>
-      <c r="B162" t="s">
-        <v>862</v>
-      </c>
-      <c r="C162" s="1" t="n">
-        <v>44633</v>
-      </c>
-      <c r="D162" t="s">
-        <v>863</v>
-      </c>
-      <c r="E162" t="s">
-        <v>864</v>
       </c>
       <c r="F162"/>
       <c r="G162" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H162" t="n">
-        <v>4475031</v>
+        <v>4500701</v>
       </c>
       <c r="I162" t="n">
-        <v>374.926</v>
-      </c>
-      <c r="J162" t="n">
-        <v>1722</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.144</v>
-      </c>
+        <v>377.077</v>
+      </c>
+      <c r="J162"/>
+      <c r="K162"/>
       <c r="L162" t="n">
-        <v>8901</v>
+        <v>3667</v>
       </c>
       <c r="M162" t="n">
-        <v>0.746</v>
+        <v>0.307</v>
       </c>
       <c r="N162" t="n">
-        <v>0.3862</v>
+        <v>0.0208</v>
       </c>
       <c r="O162" t="n">
-        <v>2.6</v>
+        <v>48.1</v>
       </c>
       <c r="P162" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="Q162" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="R162" t="s">
         <v>45</v>
       </c>
       <c r="S162" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
+        <v>865</v>
+      </c>
+      <c r="B163" t="s">
+        <v>866</v>
+      </c>
+      <c r="C163" s="1" t="n">
+        <v>44644</v>
+      </c>
+      <c r="D163" t="s">
+        <v>867</v>
+      </c>
+      <c r="E163" t="s">
         <v>868</v>
-      </c>
-      <c r="B163" t="s">
-        <v>869</v>
-      </c>
-      <c r="C163" s="1" t="n">
-        <v>44640</v>
-      </c>
-      <c r="D163" t="s">
-        <v>870</v>
-      </c>
-      <c r="E163" t="s">
-        <v>871</v>
       </c>
       <c r="F163"/>
       <c r="G163" t="n">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="H163" t="n">
-        <v>150972421</v>
+        <v>152150004</v>
       </c>
       <c r="I163" t="n">
-        <v>1775.254</v>
+        <v>1789.101</v>
       </c>
       <c r="J163" t="n">
-        <v>262116</v>
+        <v>298461</v>
       </c>
       <c r="K163" t="n">
-        <v>3.082</v>
+        <v>3.51</v>
       </c>
       <c r="L163" t="n">
-        <v>309343</v>
+        <v>292403</v>
       </c>
       <c r="M163" t="n">
-        <v>3.638</v>
+        <v>3.438</v>
       </c>
       <c r="N163" t="n">
-        <v>0.0657</v>
+        <v>0.0566</v>
       </c>
       <c r="O163" t="n">
-        <v>15.2</v>
+        <v>17.7</v>
       </c>
       <c r="P163" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="Q163" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="R163" t="s">
         <v>61</v>
       </c>
       <c r="S163" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B164" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D164" t="s">
         <v>35</v>
@@ -12194,27 +12187,27 @@
       </c>
       <c r="F164"/>
       <c r="G164" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H164" t="n">
-        <v>2513469</v>
+        <v>2529930</v>
       </c>
       <c r="I164" t="n">
-        <v>53.338</v>
+        <v>53.687</v>
       </c>
       <c r="J164"/>
       <c r="K164"/>
       <c r="L164" t="n">
-        <v>2188</v>
+        <v>3289</v>
       </c>
       <c r="M164" t="n">
-        <v>0.046</v>
+        <v>0.07</v>
       </c>
       <c r="N164" t="n">
-        <v>0.0104</v>
+        <v>0.0083</v>
       </c>
       <c r="O164" t="n">
-        <v>96.3</v>
+        <v>121.2</v>
       </c>
       <c r="P164" t="s">
         <v>36</v>
@@ -12226,24 +12219,24 @@
         <v>61</v>
       </c>
       <c r="S164" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B165" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C165" s="1" t="n">
         <v>44610</v>
       </c>
       <c r="D165" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="E165" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="F165"/>
       <c r="G165" t="n">
@@ -12270,161 +12263,165 @@
         <v>1.7</v>
       </c>
       <c r="P165" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="Q165" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="R165" t="s">
         <v>61</v>
       </c>
       <c r="S165" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
+        <v>880</v>
+      </c>
+      <c r="B166" t="s">
+        <v>881</v>
+      </c>
+      <c r="C166" s="1" t="n">
+        <v>44645</v>
+      </c>
+      <c r="D166" t="s">
+        <v>882</v>
+      </c>
+      <c r="E166" t="s">
         <v>883</v>
-      </c>
-      <c r="B166" t="s">
-        <v>884</v>
-      </c>
-      <c r="C166" s="1" t="n">
-        <v>44641</v>
-      </c>
-      <c r="D166" t="s">
-        <v>885</v>
-      </c>
-      <c r="E166" t="s">
-        <v>886</v>
       </c>
       <c r="F166"/>
       <c r="G166" t="n">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="H166" t="n">
-        <v>145043674</v>
+        <v>146281326</v>
       </c>
       <c r="I166" t="n">
-        <v>14517.312</v>
+        <v>14641.188</v>
       </c>
       <c r="J166" t="n">
-        <v>251465</v>
+        <v>275579</v>
       </c>
       <c r="K166" t="n">
-        <v>25.169</v>
+        <v>27.582</v>
       </c>
       <c r="L166" t="n">
-        <v>330924</v>
+        <v>303760</v>
       </c>
       <c r="M166" t="n">
-        <v>33.122</v>
+        <v>30.403</v>
       </c>
       <c r="N166"/>
       <c r="O166"/>
       <c r="P166" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="Q166" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="R166" t="s">
         <v>61</v>
       </c>
       <c r="S166" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
+        <v>886</v>
+      </c>
+      <c r="B167" t="s">
+        <v>887</v>
+      </c>
+      <c r="C167" s="1" t="n">
+        <v>44643</v>
+      </c>
+      <c r="D167" t="s">
+        <v>888</v>
+      </c>
+      <c r="E167" t="s">
         <v>889</v>
-      </c>
-      <c r="B167" t="s">
-        <v>890</v>
-      </c>
-      <c r="C167" s="1" t="n">
-        <v>44640</v>
-      </c>
-      <c r="D167" t="s">
-        <v>891</v>
-      </c>
-      <c r="E167" t="s">
-        <v>892</v>
       </c>
       <c r="F167"/>
       <c r="G167" t="n">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="H167" t="n">
-        <v>478578610</v>
+        <v>481085739</v>
       </c>
       <c r="I167" t="n">
-        <v>7016.55</v>
+        <v>7053.307</v>
       </c>
       <c r="J167" t="n">
-        <v>628106</v>
+        <v>836203</v>
       </c>
       <c r="K167" t="n">
-        <v>9.209</v>
+        <v>12.26</v>
       </c>
       <c r="L167" t="n">
-        <v>762420</v>
+        <v>758199</v>
       </c>
       <c r="M167" t="n">
-        <v>11.178</v>
-      </c>
-      <c r="N167"/>
-      <c r="O167"/>
+        <v>11.116</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0.1144</v>
+      </c>
+      <c r="O167" t="n">
+        <v>8.7</v>
+      </c>
       <c r="P167" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="Q167" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="R167" t="s">
         <v>61</v>
       </c>
       <c r="S167" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
+        <v>893</v>
+      </c>
+      <c r="B168" t="s">
+        <v>894</v>
+      </c>
+      <c r="C168" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="D168" t="s">
+        <v>895</v>
+      </c>
+      <c r="E168" t="s">
         <v>896</v>
-      </c>
-      <c r="B168" t="s">
-        <v>897</v>
-      </c>
-      <c r="C168" s="1" t="n">
-        <v>44635</v>
-      </c>
-      <c r="D168" t="s">
-        <v>898</v>
-      </c>
-      <c r="E168" t="s">
-        <v>899</v>
       </c>
       <c r="F168"/>
       <c r="G168" t="n">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="H168" t="n">
-        <v>835895735</v>
+        <v>839971477</v>
       </c>
       <c r="I168" t="n">
-        <v>2510.838</v>
+        <v>2523.08</v>
       </c>
       <c r="J168" t="n">
-        <v>850558</v>
+        <v>440767</v>
       </c>
       <c r="K168" t="n">
-        <v>2.555</v>
+        <v>1.324</v>
       </c>
       <c r="L168" t="n">
-        <v>784323</v>
+        <v>818363</v>
       </c>
       <c r="M168" t="n">
-        <v>2.356</v>
+        <v>2.458</v>
       </c>
       <c r="N168" t="n">
         <v>0.022</v>
@@ -12433,135 +12430,143 @@
         <v>45.5</v>
       </c>
       <c r="P168" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="Q168" t="s">
+        <v>895</v>
+      </c>
+      <c r="R168" t="s">
+        <v>897</v>
+      </c>
+      <c r="S168" t="s">
         <v>898</v>
-      </c>
-      <c r="R168" t="s">
-        <v>900</v>
-      </c>
-      <c r="S168" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="B169" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D169" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="E169" t="s">
         <v>237</v>
       </c>
       <c r="F169"/>
       <c r="G169" t="n">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="H169" t="n">
-        <v>5884520</v>
+        <v>5933925</v>
       </c>
       <c r="I169" t="n">
-        <v>1688.454</v>
+        <v>1702.63</v>
       </c>
       <c r="J169" t="n">
-        <v>7598</v>
+        <v>13851</v>
       </c>
       <c r="K169" t="n">
-        <v>2.18</v>
+        <v>3.974</v>
       </c>
       <c r="L169" t="n">
-        <v>10420</v>
+        <v>11361</v>
       </c>
       <c r="M169" t="n">
-        <v>2.99</v>
+        <v>3.26</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1499</v>
+        <v>0.1266</v>
       </c>
       <c r="O169" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="P169" t="s">
         <v>237</v>
       </c>
       <c r="Q169" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="R169" t="s">
         <v>61</v>
       </c>
       <c r="S169" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="B170" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>44612</v>
+        <v>44619</v>
       </c>
       <c r="D170" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="E170" t="s">
         <v>53</v>
       </c>
       <c r="F170"/>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H170" t="n">
-        <v>11457</v>
+        <v>11989</v>
       </c>
       <c r="I170" t="n">
-        <v>36.433</v>
+        <v>38.125</v>
       </c>
       <c r="J170"/>
       <c r="K170"/>
-      <c r="L170"/>
-      <c r="M170"/>
-      <c r="N170"/>
-      <c r="O170"/>
+      <c r="L170" t="n">
+        <v>76</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="N170" t="n">
+        <v>0.0132</v>
+      </c>
+      <c r="O170" t="n">
+        <v>76</v>
+      </c>
       <c r="P170" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="Q170" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="R170" t="s">
         <v>311</v>
       </c>
       <c r="S170" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B171" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C171" s="1" t="n">
         <v>44641</v>
       </c>
       <c r="D171" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="E171" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="F171"/>
       <c r="G171" t="n">
@@ -12584,27 +12589,27 @@
       <c r="N171"/>
       <c r="O171"/>
       <c r="P171" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="Q171" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="R171" t="s">
         <v>45</v>
       </c>
       <c r="S171" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B172" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>44618</v>
+        <v>44632</v>
       </c>
       <c r="D172" t="s">
         <v>21</v>
@@ -12614,7 +12619,7 @@
       </c>
       <c r="F172"/>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H172" t="n">
         <v>329592</v>
@@ -12624,8 +12629,12 @@
       </c>
       <c r="J172"/>
       <c r="K172"/>
-      <c r="L172"/>
-      <c r="M172"/>
+      <c r="L172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0</v>
+      </c>
       <c r="N172"/>
       <c r="O172"/>
       <c r="P172" t="s">
@@ -12643,70 +12652,70 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
+        <v>918</v>
+      </c>
+      <c r="B173" t="s">
+        <v>919</v>
+      </c>
+      <c r="C173" s="1" t="n">
+        <v>44641</v>
+      </c>
+      <c r="D173" t="s">
+        <v>920</v>
+      </c>
+      <c r="E173" t="s">
         <v>921</v>
-      </c>
-      <c r="B173" t="s">
-        <v>922</v>
-      </c>
-      <c r="C173" s="1" t="n">
-        <v>44637</v>
-      </c>
-      <c r="D173" t="s">
-        <v>923</v>
-      </c>
-      <c r="E173" t="s">
-        <v>924</v>
       </c>
       <c r="F173"/>
       <c r="G173" t="n">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="H173" t="n">
-        <v>3322571</v>
+        <v>3331691</v>
       </c>
       <c r="I173" t="n">
-        <v>175.605</v>
+        <v>176.087</v>
       </c>
       <c r="J173" t="n">
-        <v>3417</v>
+        <v>1752</v>
       </c>
       <c r="K173" t="n">
-        <v>0.181</v>
+        <v>0.093</v>
       </c>
       <c r="L173" t="n">
-        <v>2959</v>
+        <v>2767</v>
       </c>
       <c r="M173" t="n">
-        <v>0.156</v>
+        <v>0.146</v>
       </c>
       <c r="N173" t="n">
-        <v>0.0373</v>
+        <v>0.0356</v>
       </c>
       <c r="O173" t="n">
-        <v>26.8</v>
+        <v>28.1</v>
       </c>
       <c r="P173" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="Q173" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="R173" t="s">
         <v>61</v>
       </c>
       <c r="S173" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B174" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D174" t="s">
         <v>35</v>
@@ -12716,24 +12725,28 @@
       </c>
       <c r="F174"/>
       <c r="G174" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H174" t="n">
-        <v>2155125</v>
+        <v>2164528</v>
       </c>
       <c r="I174" t="n">
-        <v>142.798</v>
+        <v>143.421</v>
       </c>
       <c r="J174"/>
       <c r="K174"/>
       <c r="L174" t="n">
-        <v>3282</v>
+        <v>2750</v>
       </c>
       <c r="M174" t="n">
-        <v>0.217</v>
-      </c>
-      <c r="N174"/>
-      <c r="O174"/>
+        <v>0.182</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0.0802</v>
+      </c>
+      <c r="O174" t="n">
+        <v>12.5</v>
+      </c>
       <c r="P174" t="s">
         <v>36</v>
       </c>
@@ -12744,7 +12757,7 @@
         <v>61</v>
       </c>
       <c r="S174" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="925">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">Albania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-1107-testime-93-qytetare-te-infektuar-nje-humbje-jete-dhe-99-te-sheruar-ne-24-oret-e-fundit/</t>
+    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-646-testime-45-qytetare-te-infektuar-asnje-humbje-jete-dhe-26-te-sheruar-ne-24-oret-e-fundit/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Protection</t>
@@ -295,7 +295,7 @@
     <t xml:space="preserve">Bahamas - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bahamas.gov.bs/wps/wcm/connect/eab3acec-08ef-40eb-b3db-9edc1d696dbd/Update+%23727-+Ministry+of+Health+%26+Wellness+-+COVID-19+Report+%284%29.pdf?MOD=AJPERES</t>
+    <t xml:space="preserve">https://www.bahamas.gov.bs/wps/wcm/connect/1f198d4d-83cf-4865-9777-09d835a791f5/Update+%23731+-+Ministry+of+Health+%26+Wellness+-+COVID-19+Report+%281%29.pdf?MOD=AJPERES</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Wellness</t>
@@ -357,7 +357,7 @@
     <t xml:space="preserve">Barbados - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gisbarbados.gov.bb/blog/covid-19-update-for-wednesday-march-23/</t>
+    <t xml:space="preserve">https://gisbarbados.gov.bb/blog/covid-19-update-for-march-26/</t>
   </si>
   <si>
     <t xml:space="preserve">https://gisbarbados.gov.bb/top-stories/</t>
@@ -1051,7 +1051,7 @@
     <t xml:space="preserve">Fiji - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.fj/25-03-2022/</t>
+    <t xml:space="preserve">https://www.health.gov.fj/28-03-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Fiji Ministry of Health &amp; Medical Services</t>
@@ -1294,7 +1294,7 @@
     <t xml:space="preserve">Haiti - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://mspp.gouv.ht/site/downloads/Sitrep COVID-19_19-03-2022.pdf</t>
+    <t xml:space="preserve">https://mspp.gouv.ht/site/downloads/Sitrep COVID-19_23-03-2022.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Population</t>
@@ -1420,7 +1420,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://irangov.ir/detail/383013</t>
+    <t xml:space="preserve">https://irangov.ir/detail/383259</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Medical Education</t>
@@ -2047,7 +2047,7 @@
     <t xml:space="preserve">Nepal - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.mohp.gov.np/covid/englishSituationReport/623d885fd4936_SitRep775_COVID-19_25-03-2022_EN.pdf</t>
+    <t xml:space="preserve">https://covid19.mohp.gov.np/covid/englishSituationReport/624188f67d0be_SitRep778_COVID-19_28-03-2022_EN.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -2137,7 +2137,7 @@
     <t xml:space="preserve">North Macedonia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://koronavirus.gov.mk/vesti/223965</t>
+    <t xml:space="preserve">https://koronavirus.gov.mk/vesti/223977</t>
   </si>
   <si>
     <t xml:space="preserve">https://koronavirus.gov.mk/stat</t>
@@ -2371,14 +2371,8 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">Romanian Government</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://gov.ro/ro/media/comunicate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We construct a time series from daily press releases on the [Romanian Government website](https://gov.ro/ro/media/comunicate) which includes a cumulative figure of the number of tests processed to date (e.g. "Până la această dată, la nivel național, au fost prelucrate 484.782 de teste."). No other information is provided. 
-Where unavailable at this main source, some earlier observations were sourced from the press office of the [Ministry of Internal Affairs](https://www.mai.gov.ro/category/comunicate-de-presa/).
+    <t xml:space="preserve">The European Centre for Disease Prevention and Control publishes [data](https://www.ecdc.europa.eu/en/publications-data/covid-19-testing) on testing for COVID-19 by week and country, from which we construct a time series of the number of laborartory tests performed.
+Previously, we constructed a time series from daily press releases on the [Romanian Government website](https://gov.ro/ro/media/comunicate) which includes a cumulative figure of the number of tests processed to date (e.g. "Până la această dată, la nivel național, au fost prelucrate 484.782 de teste"). Where unavailable at this main source, some earlier observations were sourced from the press office of the [Ministry of Internal Affairs](https://www.mai.gov.ro/category/comunicate-de-presa/).
 The Health System Response Monitor [notes that](https://www.covid19healthsystem.org/countries/romania/livinghit.aspx?Section=3.2%20Managing%20cases&amp;Type=Section) "since October 2020, as the number of cases increased, RT-PCR tests administered in the hospital emergency rooms have been combined with rapid antigen testing for symptomatic cases."</t>
   </si>
   <si>
@@ -2388,7 +2382,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=21048</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=21074</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -3051,7 +3045,7 @@
     <t xml:space="preserve">Vietnam - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.gov.vn/ngay-21-3-ca-mac-moi-covid-19-tiep-tuc-giam-con-131713-so-f0-khoi-la-179640-nguoi-171220321185728062.htm</t>
+    <t xml:space="preserve">https://covid19.gov.vn/ngay-28-3-so-mac-covid-19-tiep-tuc-giam-xuong-con-83376-ca-ha-noi-bo-sung-180000-f0-171220328184459603.htm</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health of Vietnam</t>
@@ -3566,7 +3560,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>44636</v>
+        <v>44647</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
@@ -3576,31 +3570,31 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="H3" t="n">
-        <v>1597084</v>
+        <v>1598280</v>
       </c>
       <c r="I3" t="n">
-        <v>555.907</v>
+        <v>556.323</v>
       </c>
       <c r="J3" t="n">
-        <v>1107</v>
+        <v>646</v>
       </c>
       <c r="K3" t="n">
-        <v>0.385</v>
+        <v>0.225</v>
       </c>
       <c r="L3" t="n">
-        <v>341</v>
+        <v>126</v>
       </c>
       <c r="M3" t="n">
-        <v>0.119</v>
+        <v>0.044</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1642</v>
+        <v>0.39</v>
       </c>
       <c r="O3" t="n">
-        <v>6.1</v>
+        <v>2.6</v>
       </c>
       <c r="P3" t="s">
         <v>30</v>
@@ -3721,7 +3715,7 @@
         <v>48</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44644</v>
+        <v>44648</v>
       </c>
       <c r="D6" t="s">
         <v>35</v>
@@ -3731,28 +3725,24 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" t="n">
-        <v>1486258</v>
+        <v>1491179</v>
       </c>
       <c r="I6" t="n">
-        <v>43.799</v>
+        <v>43.944</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="n">
-        <v>2288</v>
+        <v>1800</v>
       </c>
       <c r="M6" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.0049</v>
-      </c>
-      <c r="O6" t="n">
-        <v>205.3</v>
-      </c>
+        <v>0.053</v>
+      </c>
+      <c r="N6"/>
+      <c r="O6"/>
       <c r="P6" t="s">
         <v>36</v>
       </c>
@@ -3827,7 +3817,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44643</v>
+        <v>44646</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -3837,25 +3827,25 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="H8" t="n">
-        <v>35125296</v>
+        <v>35186417</v>
       </c>
       <c r="I8" t="n">
-        <v>770.193</v>
+        <v>771.533</v>
       </c>
       <c r="J8" t="n">
-        <v>23507</v>
+        <v>10292</v>
       </c>
       <c r="K8" t="n">
-        <v>0.515</v>
+        <v>0.226</v>
       </c>
       <c r="L8" t="n">
-        <v>25012</v>
+        <v>20869</v>
       </c>
       <c r="M8" t="n">
-        <v>0.548</v>
+        <v>0.458</v>
       </c>
       <c r="N8" t="n">
         <v>0.04</v>
@@ -3884,7 +3874,7 @@
         <v>64</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44644</v>
+        <v>44647</v>
       </c>
       <c r="D9" t="s">
         <v>65</v>
@@ -3894,31 +3884,31 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="H9" t="n">
-        <v>2963081</v>
+        <v>2969876</v>
       </c>
       <c r="I9" t="n">
-        <v>998.3</v>
+        <v>1000.589</v>
       </c>
       <c r="J9" t="n">
-        <v>2430</v>
+        <v>2397</v>
       </c>
       <c r="K9" t="n">
-        <v>0.819</v>
+        <v>0.808</v>
       </c>
       <c r="L9" t="n">
-        <v>2182</v>
+        <v>2314</v>
       </c>
       <c r="M9" t="n">
-        <v>0.735</v>
+        <v>0.78</v>
       </c>
       <c r="N9" t="n">
-        <v>0.011</v>
+        <v>0.009</v>
       </c>
       <c r="O9" t="n">
-        <v>90.9</v>
+        <v>111.1</v>
       </c>
       <c r="P9" t="s">
         <v>53</v>
@@ -3941,7 +3931,7 @@
         <v>69</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44645</v>
+        <v>44648</v>
       </c>
       <c r="D10" t="s">
         <v>70</v>
@@ -3953,25 +3943,25 @@
         <v>72</v>
       </c>
       <c r="G10" t="n">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="H10" t="n">
-        <v>65836260</v>
+        <v>66168140</v>
       </c>
       <c r="I10" t="n">
-        <v>2552.959</v>
+        <v>2565.828</v>
       </c>
       <c r="J10" t="n">
-        <v>129628</v>
+        <v>98564</v>
       </c>
       <c r="K10" t="n">
-        <v>5.027</v>
+        <v>3.822</v>
       </c>
       <c r="L10" t="n">
-        <v>103429</v>
+        <v>108797</v>
       </c>
       <c r="M10" t="n">
-        <v>4.011</v>
+        <v>4.219</v>
       </c>
       <c r="N10"/>
       <c r="O10"/>
@@ -3996,7 +3986,7 @@
         <v>76</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44644</v>
+        <v>44648</v>
       </c>
       <c r="D11" t="s">
         <v>77</v>
@@ -4006,32 +3996,28 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="H11" t="n">
-        <v>172558127</v>
+        <v>173915134</v>
       </c>
       <c r="I11" t="n">
-        <v>19081.804</v>
+        <v>19231.864</v>
       </c>
       <c r="J11" t="n">
-        <v>663883</v>
+        <v>222096</v>
       </c>
       <c r="K11" t="n">
-        <v>73.413</v>
+        <v>24.56</v>
       </c>
       <c r="L11" t="n">
-        <v>494873</v>
+        <v>421333</v>
       </c>
       <c r="M11" t="n">
-        <v>54.724</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.0841</v>
-      </c>
-      <c r="O11" t="n">
-        <v>11.9</v>
-      </c>
+        <v>46.592</v>
+      </c>
+      <c r="N11"/>
+      <c r="O11"/>
       <c r="P11" t="s">
         <v>78</v>
       </c>
@@ -4053,7 +4039,7 @@
         <v>81</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44644</v>
+        <v>44648</v>
       </c>
       <c r="D12" t="s">
         <v>82</v>
@@ -4063,28 +4049,24 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H12" t="n">
-        <v>6676788</v>
+        <v>6687581</v>
       </c>
       <c r="I12" t="n">
-        <v>653.092</v>
+        <v>654.148</v>
       </c>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12" t="n">
-        <v>3212</v>
+        <v>2425</v>
       </c>
       <c r="M12" t="n">
-        <v>0.314</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.0234</v>
-      </c>
-      <c r="O12" t="n">
-        <v>42.7</v>
-      </c>
+        <v>0.237</v>
+      </c>
+      <c r="N12"/>
+      <c r="O12"/>
       <c r="P12" t="s">
         <v>83</v>
       </c>
@@ -4106,7 +4088,7 @@
         <v>86</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44643</v>
+        <v>44647</v>
       </c>
       <c r="D13" t="s">
         <v>87</v>
@@ -4116,27 +4098,27 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H13" t="n">
-        <v>226185</v>
+        <v>226957</v>
       </c>
       <c r="I13" t="n">
-        <v>569.859</v>
+        <v>571.804</v>
       </c>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13" t="n">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="M13" t="n">
-        <v>0.534</v>
+        <v>0.499</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0216</v>
+        <v>0.0253</v>
       </c>
       <c r="O13" t="n">
-        <v>46.4</v>
+        <v>39.6</v>
       </c>
       <c r="P13" t="s">
         <v>89</v>
@@ -4159,7 +4141,7 @@
         <v>93</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44645</v>
+        <v>44648</v>
       </c>
       <c r="D14" t="s">
         <v>94</v>
@@ -4169,21 +4151,21 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H14" t="n">
-        <v>9569757</v>
+        <v>9585397</v>
       </c>
       <c r="I14" t="n">
-        <v>5473.766</v>
+        <v>5482.711</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14" t="n">
-        <v>6053</v>
+        <v>5719</v>
       </c>
       <c r="M14" t="n">
-        <v>3.462</v>
+        <v>3.271</v>
       </c>
       <c r="N14"/>
       <c r="O14"/>
@@ -4208,7 +4190,7 @@
         <v>100</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44644</v>
+        <v>44648</v>
       </c>
       <c r="D15" t="s">
         <v>101</v>
@@ -4218,32 +4200,28 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H15" t="n">
-        <v>13675769</v>
+        <v>13685166</v>
       </c>
       <c r="I15" t="n">
-        <v>82.234</v>
+        <v>82.29</v>
       </c>
       <c r="J15" t="n">
-        <v>12111</v>
+        <v>9397</v>
       </c>
       <c r="K15" t="n">
-        <v>0.073</v>
+        <v>0.057</v>
       </c>
       <c r="L15" t="n">
-        <v>2620</v>
+        <v>3073</v>
       </c>
       <c r="M15" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.039</v>
-      </c>
-      <c r="O15" t="n">
-        <v>25.7</v>
-      </c>
+        <v>0.018</v>
+      </c>
+      <c r="N15"/>
+      <c r="O15"/>
       <c r="P15" t="s">
         <v>102</v>
       </c>
@@ -4265,7 +4243,7 @@
         <v>105</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>44643</v>
+        <v>44646</v>
       </c>
       <c r="D16" t="s">
         <v>106</v>
@@ -4275,27 +4253,27 @@
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="n">
-        <v>606118</v>
+        <v>608599</v>
       </c>
       <c r="I16" t="n">
-        <v>2106.712</v>
+        <v>2115.336</v>
       </c>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16" t="n">
-        <v>757</v>
+        <v>784</v>
       </c>
       <c r="M16" t="n">
-        <v>2.631</v>
+        <v>2.725</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1264</v>
+        <v>0.1112</v>
       </c>
       <c r="O16" t="n">
-        <v>7.9</v>
+        <v>9</v>
       </c>
       <c r="P16" t="s">
         <v>53</v>
@@ -4318,7 +4296,7 @@
         <v>110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44645</v>
+        <v>44648</v>
       </c>
       <c r="D17" t="s">
         <v>111</v>
@@ -4328,21 +4306,21 @@
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H17" t="n">
-        <v>12790271</v>
+        <v>12822145</v>
       </c>
       <c r="I17" t="n">
-        <v>1354.49</v>
+        <v>1357.866</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17" t="n">
-        <v>13084</v>
+        <v>12036</v>
       </c>
       <c r="M17" t="n">
-        <v>1.386</v>
+        <v>1.275</v>
       </c>
       <c r="N17"/>
       <c r="O17"/>
@@ -4367,7 +4345,7 @@
         <v>117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="D18" t="s">
         <v>118</v>
@@ -4377,28 +4355,28 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H18" t="n">
-        <v>32593141</v>
+        <v>32629336</v>
       </c>
       <c r="I18" t="n">
-        <v>2801.943</v>
+        <v>2805.055</v>
       </c>
       <c r="J18" t="n">
-        <v>46569</v>
+        <v>36061</v>
       </c>
       <c r="K18" t="n">
-        <v>4.003</v>
+        <v>3.1</v>
       </c>
       <c r="L18" t="n">
-        <v>37636</v>
+        <v>36861</v>
       </c>
       <c r="M18" t="n">
-        <v>3.235</v>
+        <v>3.169</v>
       </c>
       <c r="N18" t="n">
-        <v>0.302</v>
+        <v>0.305</v>
       </c>
       <c r="O18" t="n">
         <v>3.3</v>
@@ -4793,7 +4771,7 @@
         <v>161</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>44644</v>
+        <v>44647</v>
       </c>
       <c r="D26" t="s">
         <v>162</v>
@@ -4803,27 +4781,27 @@
       </c>
       <c r="F26"/>
       <c r="G26" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H26" t="n">
-        <v>9524020</v>
+        <v>9549663</v>
       </c>
       <c r="I26" t="n">
-        <v>1380.962</v>
+        <v>1384.68</v>
       </c>
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26" t="n">
-        <v>14224</v>
+        <v>11813</v>
       </c>
       <c r="M26" t="n">
-        <v>2.062</v>
+        <v>1.713</v>
       </c>
       <c r="N26" t="n">
-        <v>0.0991</v>
+        <v>0.1122</v>
       </c>
       <c r="O26" t="n">
-        <v>10.1</v>
+        <v>8.9</v>
       </c>
       <c r="P26" t="s">
         <v>164</v>
@@ -4897,7 +4875,7 @@
         <v>171</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44644</v>
+        <v>44648</v>
       </c>
       <c r="D28" t="s">
         <v>35</v>
@@ -4907,28 +4885,24 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H28" t="n">
-        <v>1442111</v>
+        <v>1454420</v>
       </c>
       <c r="I28" t="n">
-        <v>117.671</v>
+        <v>118.676</v>
       </c>
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28" t="n">
-        <v>1071</v>
+        <v>2194</v>
       </c>
       <c r="M28" t="n">
-        <v>0.087</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0.0147</v>
-      </c>
-      <c r="O28" t="n">
-        <v>68.2</v>
-      </c>
+        <v>0.179</v>
+      </c>
+      <c r="N28"/>
+      <c r="O28"/>
       <c r="P28" t="s">
         <v>36</v>
       </c>
@@ -4950,7 +4924,7 @@
         <v>174</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44645</v>
+        <v>44648</v>
       </c>
       <c r="D29" t="s">
         <v>175</v>
@@ -4960,21 +4934,21 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H29" t="n">
-        <v>2919136</v>
+        <v>2921472</v>
       </c>
       <c r="I29" t="n">
-        <v>172.257</v>
+        <v>172.394</v>
       </c>
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29" t="n">
-        <v>1747</v>
+        <v>1224</v>
       </c>
       <c r="M29" t="n">
-        <v>0.103</v>
+        <v>0.072</v>
       </c>
       <c r="N29"/>
       <c r="O29"/>
@@ -5025,8 +4999,12 @@
       <c r="M30" t="n">
         <v>0.051</v>
       </c>
-      <c r="N30"/>
-      <c r="O30"/>
+      <c r="N30" t="n">
+        <v>0.0133</v>
+      </c>
+      <c r="O30" t="n">
+        <v>75</v>
+      </c>
       <c r="P30" t="s">
         <v>36</v>
       </c>
@@ -5048,7 +5026,7 @@
         <v>182</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>44644</v>
+        <v>44646</v>
       </c>
       <c r="D31" t="s">
         <v>183</v>
@@ -5058,31 +5036,31 @@
       </c>
       <c r="F31"/>
       <c r="G31" t="n">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="H31" t="n">
-        <v>59181662</v>
+        <v>59248866</v>
       </c>
       <c r="I31" t="n">
-        <v>1554.634</v>
+        <v>1556.399</v>
       </c>
       <c r="J31" t="n">
-        <v>39244</v>
+        <v>24100</v>
       </c>
       <c r="K31" t="n">
-        <v>1.031</v>
+        <v>0.633</v>
       </c>
       <c r="L31" t="n">
-        <v>36709</v>
+        <v>36092</v>
       </c>
       <c r="M31" t="n">
-        <v>0.964</v>
+        <v>0.948</v>
       </c>
       <c r="N31" t="n">
-        <v>0.156</v>
+        <v>0.1863</v>
       </c>
       <c r="O31" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="P31" t="s">
         <v>184</v>
@@ -5254,7 +5232,7 @@
         <v>200</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44644</v>
+        <v>44648</v>
       </c>
       <c r="D35" t="s">
         <v>201</v>
@@ -5264,32 +5242,28 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="H35" t="n">
-        <v>34755620</v>
+        <v>35072725</v>
       </c>
       <c r="I35" t="n">
-        <v>1809.024</v>
+        <v>1825.529</v>
       </c>
       <c r="J35" t="n">
-        <v>103581</v>
+        <v>56395</v>
       </c>
       <c r="K35" t="n">
-        <v>5.391</v>
+        <v>2.935</v>
       </c>
       <c r="L35" t="n">
-        <v>83790</v>
+        <v>77479</v>
       </c>
       <c r="M35" t="n">
-        <v>4.361</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0.1243</v>
-      </c>
-      <c r="O35" t="n">
-        <v>8</v>
-      </c>
+        <v>4.033</v>
+      </c>
+      <c r="N35"/>
+      <c r="O35"/>
       <c r="P35" t="s">
         <v>202</v>
       </c>
@@ -5364,7 +5338,7 @@
         <v>212</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>44644</v>
+        <v>44648</v>
       </c>
       <c r="D37" t="s">
         <v>213</v>
@@ -5374,31 +5348,31 @@
       </c>
       <c r="F37"/>
       <c r="G37" t="n">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="H37" t="n">
-        <v>33704034</v>
+        <v>33790938</v>
       </c>
       <c r="I37" t="n">
-        <v>657.436</v>
+        <v>659.132</v>
       </c>
       <c r="J37" t="n">
-        <v>24107</v>
+        <v>23840</v>
       </c>
       <c r="K37" t="n">
-        <v>0.47</v>
+        <v>0.465</v>
       </c>
       <c r="L37" t="n">
-        <v>20422</v>
+        <v>21095</v>
       </c>
       <c r="M37" t="n">
-        <v>0.398</v>
+        <v>0.411</v>
       </c>
       <c r="N37" t="n">
-        <v>0.026</v>
+        <v>0.019</v>
       </c>
       <c r="O37" t="n">
-        <v>38.5</v>
+        <v>52.6</v>
       </c>
       <c r="P37" t="s">
         <v>214</v>
@@ -5466,7 +5440,7 @@
         <v>221</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="D39" t="s">
         <v>222</v>
@@ -5476,31 +5450,31 @@
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H39" t="n">
-        <v>3072929</v>
+        <v>3079807</v>
       </c>
       <c r="I39" t="n">
-        <v>597.956</v>
+        <v>599.295</v>
       </c>
       <c r="J39" t="n">
-        <v>10452</v>
+        <v>6878</v>
       </c>
       <c r="K39" t="n">
-        <v>2.034</v>
+        <v>1.338</v>
       </c>
       <c r="L39" t="n">
-        <v>8470</v>
+        <v>8464</v>
       </c>
       <c r="M39" t="n">
-        <v>1.648</v>
+        <v>1.647</v>
       </c>
       <c r="N39" t="n">
-        <v>0.094</v>
+        <v>0.088</v>
       </c>
       <c r="O39" t="n">
-        <v>10.6</v>
+        <v>11.4</v>
       </c>
       <c r="P39" t="s">
         <v>223</v>
@@ -5523,7 +5497,7 @@
         <v>226</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>44644</v>
+        <v>44648</v>
       </c>
       <c r="D40" t="s">
         <v>35</v>
@@ -5533,28 +5507,24 @@
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H40" t="n">
-        <v>1460727</v>
+        <v>1467139</v>
       </c>
       <c r="I40" t="n">
-        <v>53.994</v>
+        <v>54.231</v>
       </c>
       <c r="J40"/>
       <c r="K40"/>
       <c r="L40" t="n">
-        <v>1492</v>
+        <v>1500</v>
       </c>
       <c r="M40" t="n">
         <v>0.055</v>
       </c>
-      <c r="N40" t="n">
-        <v>0.0041</v>
-      </c>
-      <c r="O40" t="n">
-        <v>242.9</v>
-      </c>
+      <c r="N40"/>
+      <c r="O40"/>
       <c r="P40" t="s">
         <v>36</v>
       </c>
@@ -5576,7 +5546,7 @@
         <v>229</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44645</v>
+        <v>44648</v>
       </c>
       <c r="D41" t="s">
         <v>230</v>
@@ -5586,21 +5556,21 @@
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H41" t="n">
-        <v>4649565</v>
+        <v>4660113</v>
       </c>
       <c r="I41" t="n">
-        <v>1139.137</v>
+        <v>1141.721</v>
       </c>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41" t="n">
-        <v>6039</v>
+        <v>5184</v>
       </c>
       <c r="M41" t="n">
-        <v>1.48</v>
+        <v>1.27</v>
       </c>
       <c r="N41"/>
       <c r="O41"/>
@@ -5684,7 +5654,7 @@
         <v>242</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44643</v>
+        <v>44647</v>
       </c>
       <c r="D43" t="s">
         <v>243</v>
@@ -5694,31 +5664,31 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="H43" t="n">
-        <v>27784655</v>
+        <v>28098844</v>
       </c>
       <c r="I43" t="n">
-        <v>31009.487</v>
+        <v>31360.142</v>
       </c>
       <c r="J43" t="n">
-        <v>83366</v>
+        <v>82650</v>
       </c>
       <c r="K43" t="n">
-        <v>93.042</v>
+        <v>92.243</v>
       </c>
       <c r="L43" t="n">
-        <v>91139</v>
+        <v>86652</v>
       </c>
       <c r="M43" t="n">
-        <v>101.717</v>
+        <v>96.709</v>
       </c>
       <c r="N43" t="n">
-        <v>0.0442</v>
+        <v>0.0539</v>
       </c>
       <c r="O43" t="n">
-        <v>22.6</v>
+        <v>18.6</v>
       </c>
       <c r="P43" t="s">
         <v>53</v>
@@ -5741,7 +5711,7 @@
         <v>246</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>44644</v>
+        <v>44647</v>
       </c>
       <c r="D44" t="s">
         <v>247</v>
@@ -5751,31 +5721,31 @@
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="H44" t="n">
-        <v>53606889</v>
+        <v>53664763</v>
       </c>
       <c r="I44" t="n">
-        <v>4998.52</v>
+        <v>5003.916</v>
       </c>
       <c r="J44" t="n">
-        <v>27974</v>
+        <v>8814</v>
       </c>
       <c r="K44" t="n">
-        <v>2.608</v>
+        <v>0.822</v>
       </c>
       <c r="L44" t="n">
-        <v>27635</v>
+        <v>27049</v>
       </c>
       <c r="M44" t="n">
-        <v>2.577</v>
+        <v>2.522</v>
       </c>
       <c r="N44" t="n">
-        <v>0.271</v>
+        <v>0.263</v>
       </c>
       <c r="O44" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="P44" t="s">
         <v>53</v>
@@ -5851,7 +5821,7 @@
         <v>256</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>44643</v>
+        <v>44647</v>
       </c>
       <c r="D46" t="s">
         <v>257</v>
@@ -5861,31 +5831,31 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="H46" t="n">
-        <v>66405236</v>
+        <v>66506365</v>
       </c>
       <c r="I46" t="n">
-        <v>11422.981</v>
+        <v>11440.377</v>
       </c>
       <c r="J46" t="n">
-        <v>22788</v>
+        <v>15939</v>
       </c>
       <c r="K46" t="n">
-        <v>3.92</v>
+        <v>2.742</v>
       </c>
       <c r="L46" t="n">
-        <v>32385</v>
+        <v>29062</v>
       </c>
       <c r="M46" t="n">
-        <v>5.571</v>
+        <v>4.999</v>
       </c>
       <c r="N46" t="n">
-        <v>0.202</v>
+        <v>0.1851</v>
       </c>
       <c r="O46" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="P46" t="s">
         <v>258</v>
@@ -5908,7 +5878,7 @@
         <v>261</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44644</v>
+        <v>44648</v>
       </c>
       <c r="D47" t="s">
         <v>35</v>
@@ -5918,28 +5888,24 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H47" t="n">
-        <v>294258</v>
+        <v>296053</v>
       </c>
       <c r="I47" t="n">
-        <v>293.613</v>
+        <v>295.404</v>
       </c>
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47" t="n">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="M47" t="n">
-        <v>0.393</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0.0029</v>
-      </c>
-      <c r="O47" t="n">
-        <v>344.7</v>
-      </c>
+        <v>0.414</v>
+      </c>
+      <c r="N47"/>
+      <c r="O47"/>
       <c r="P47" t="s">
         <v>36</v>
       </c>
@@ -6018,7 +5984,7 @@
         <v>270</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="D49" t="s">
         <v>271</v>
@@ -6030,28 +5996,28 @@
         <v>273</v>
       </c>
       <c r="G49" t="n">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H49" t="n">
-        <v>2614413</v>
+        <v>2621582</v>
       </c>
       <c r="I49" t="n">
-        <v>146.151</v>
+        <v>146.551</v>
       </c>
       <c r="J49" t="n">
-        <v>4123</v>
+        <v>7169</v>
       </c>
       <c r="K49" t="n">
-        <v>0.23</v>
+        <v>0.401</v>
       </c>
       <c r="L49" t="n">
-        <v>3372</v>
+        <v>3770</v>
       </c>
       <c r="M49" t="n">
-        <v>0.189</v>
+        <v>0.211</v>
       </c>
       <c r="N49" t="n">
-        <v>0.133</v>
+        <v>0.134</v>
       </c>
       <c r="O49" t="n">
         <v>7.5</v>
@@ -6281,7 +6247,7 @@
         <v>294</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>44644</v>
+        <v>44647</v>
       </c>
       <c r="D54" t="s">
         <v>295</v>
@@ -6291,28 +6257,28 @@
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="H54" t="n">
-        <v>3240181</v>
+        <v>3247815</v>
       </c>
       <c r="I54" t="n">
-        <v>2445.073</v>
+        <v>2450.833</v>
       </c>
       <c r="J54" t="n">
-        <v>3977</v>
+        <v>2149</v>
       </c>
       <c r="K54" t="n">
-        <v>3.001</v>
+        <v>1.622</v>
       </c>
       <c r="L54" t="n">
-        <v>3730</v>
+        <v>3622</v>
       </c>
       <c r="M54" t="n">
-        <v>2.815</v>
+        <v>2.733</v>
       </c>
       <c r="N54" t="n">
-        <v>0.37</v>
+        <v>0.3679</v>
       </c>
       <c r="O54" t="n">
         <v>2.7</v>
@@ -6338,7 +6304,7 @@
         <v>299</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44644</v>
+        <v>44648</v>
       </c>
       <c r="D55" t="s">
         <v>35</v>
@@ -6348,28 +6314,24 @@
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H55" t="n">
-        <v>511972</v>
+        <v>514794</v>
       </c>
       <c r="I55" t="n">
-        <v>436.699</v>
+        <v>439.106</v>
       </c>
       <c r="J55"/>
       <c r="K55"/>
       <c r="L55" t="n">
-        <v>1125</v>
+        <v>1075</v>
       </c>
       <c r="M55" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0.0135</v>
-      </c>
-      <c r="O55" t="n">
-        <v>74.3</v>
-      </c>
+        <v>0.917</v>
+      </c>
+      <c r="N55"/>
+      <c r="O55"/>
       <c r="P55" t="s">
         <v>36</v>
       </c>
@@ -6391,7 +6353,7 @@
         <v>302</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44644</v>
+        <v>44648</v>
       </c>
       <c r="D56" t="s">
         <v>35</v>
@@ -6401,28 +6363,24 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H56" t="n">
-        <v>4615990</v>
+        <v>4637343</v>
       </c>
       <c r="I56" t="n">
-        <v>39.16</v>
+        <v>39.341</v>
       </c>
       <c r="J56"/>
       <c r="K56"/>
       <c r="L56" t="n">
-        <v>4541</v>
+        <v>4900</v>
       </c>
       <c r="M56" t="n">
-        <v>0.039</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0.0048</v>
-      </c>
-      <c r="O56" t="n">
-        <v>210.5</v>
-      </c>
+        <v>0.042</v>
+      </c>
+      <c r="N56"/>
+      <c r="O56"/>
       <c r="P56" t="s">
         <v>303</v>
       </c>
@@ -6497,7 +6455,7 @@
         <v>314</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44644</v>
+        <v>44647</v>
       </c>
       <c r="D58" t="s">
         <v>315</v>
@@ -6507,21 +6465,21 @@
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H58" t="n">
-        <v>504187</v>
+        <v>504466</v>
       </c>
       <c r="I58" t="n">
-        <v>558.409</v>
+        <v>558.718</v>
       </c>
       <c r="J58"/>
       <c r="K58"/>
       <c r="L58" t="n">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="M58" t="n">
-        <v>0.203</v>
+        <v>0.188</v>
       </c>
       <c r="N58"/>
       <c r="O58"/>
@@ -6546,7 +6504,7 @@
         <v>320</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44643</v>
+        <v>44646</v>
       </c>
       <c r="D59" t="s">
         <v>321</v>
@@ -6556,31 +6514,31 @@
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="H59" t="n">
-        <v>10331074</v>
+        <v>10353668</v>
       </c>
       <c r="I59" t="n">
-        <v>1862.005</v>
+        <v>1866.077</v>
       </c>
       <c r="J59" t="n">
-        <v>13870</v>
+        <v>2831</v>
       </c>
       <c r="K59" t="n">
-        <v>2.5</v>
+        <v>0.51</v>
       </c>
       <c r="L59" t="n">
-        <v>13949</v>
+        <v>10720</v>
       </c>
       <c r="M59" t="n">
-        <v>2.514</v>
+        <v>1.932</v>
       </c>
       <c r="N59" t="n">
-        <v>0.484</v>
+        <v>0.619</v>
       </c>
       <c r="O59" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="P59" t="s">
         <v>323</v>
@@ -6603,7 +6561,7 @@
         <v>327</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44641</v>
+        <v>44645</v>
       </c>
       <c r="D60" t="s">
         <v>328</v>
@@ -6613,31 +6571,31 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="H60" t="n">
-        <v>254415487</v>
+        <v>256431950</v>
       </c>
       <c r="I60" t="n">
-        <v>3773.479</v>
+        <v>3803.387</v>
       </c>
       <c r="J60" t="n">
-        <v>640959</v>
+        <v>494954</v>
       </c>
       <c r="K60" t="n">
-        <v>9.507</v>
+        <v>7.341</v>
       </c>
       <c r="L60" t="n">
-        <v>376718</v>
+        <v>440289</v>
       </c>
       <c r="M60" t="n">
-        <v>5.587</v>
+        <v>6.53</v>
       </c>
       <c r="N60" t="n">
-        <v>0.28</v>
+        <v>0.301</v>
       </c>
       <c r="O60" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P60" t="s">
         <v>329</v>
@@ -6796,8 +6754,12 @@
       <c r="M63" t="n">
         <v>0.842</v>
       </c>
-      <c r="N63"/>
-      <c r="O63"/>
+      <c r="N63" t="n">
+        <v>0.2027</v>
+      </c>
+      <c r="O63" t="n">
+        <v>4.9</v>
+      </c>
       <c r="P63" t="s">
         <v>343</v>
       </c>
@@ -6872,7 +6834,7 @@
         <v>353</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44644</v>
+        <v>44648</v>
       </c>
       <c r="D65" t="s">
         <v>35</v>
@@ -6882,28 +6844,24 @@
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H65" t="n">
-        <v>2401739</v>
+        <v>2410734</v>
       </c>
       <c r="I65" t="n">
-        <v>75.688</v>
+        <v>75.971</v>
       </c>
       <c r="J65"/>
       <c r="K65"/>
       <c r="L65" t="n">
-        <v>3349</v>
+        <v>3119</v>
       </c>
       <c r="M65" t="n">
-        <v>0.106</v>
-      </c>
-      <c r="N65" t="n">
-        <v>0.0051</v>
-      </c>
-      <c r="O65" t="n">
-        <v>197</v>
-      </c>
+        <v>0.098</v>
+      </c>
+      <c r="N65"/>
+      <c r="O65"/>
       <c r="P65" t="s">
         <v>36</v>
       </c>
@@ -6925,7 +6883,7 @@
         <v>356</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>44644</v>
+        <v>44648</v>
       </c>
       <c r="D66" t="s">
         <v>357</v>
@@ -6935,28 +6893,24 @@
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H66" t="n">
-        <v>528926</v>
+        <v>530813</v>
       </c>
       <c r="I66" t="n">
-        <v>15699.326</v>
+        <v>15755.335</v>
       </c>
       <c r="J66"/>
       <c r="K66"/>
       <c r="L66" t="n">
-        <v>585</v>
+        <v>521</v>
       </c>
       <c r="M66" t="n">
-        <v>17.364</v>
-      </c>
-      <c r="N66" t="n">
-        <v>0.1228</v>
-      </c>
-      <c r="O66" t="n">
-        <v>8.1</v>
-      </c>
+        <v>15.464</v>
+      </c>
+      <c r="N66"/>
+      <c r="O66"/>
       <c r="P66" t="s">
         <v>358</v>
       </c>
@@ -6978,7 +6932,7 @@
         <v>361</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>44644</v>
+        <v>44648</v>
       </c>
       <c r="D67" t="s">
         <v>362</v>
@@ -6988,28 +6942,24 @@
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H67" t="n">
-        <v>72252783</v>
+        <v>73051999</v>
       </c>
       <c r="I67" t="n">
-        <v>6966.98</v>
+        <v>7044.044</v>
       </c>
       <c r="J67"/>
       <c r="K67"/>
       <c r="L67" t="n">
-        <v>304824</v>
+        <v>257631</v>
       </c>
       <c r="M67" t="n">
-        <v>29.393</v>
-      </c>
-      <c r="N67" t="n">
-        <v>0.0709</v>
-      </c>
-      <c r="O67" t="n">
-        <v>14.1</v>
-      </c>
+        <v>24.842</v>
+      </c>
+      <c r="N67"/>
+      <c r="O67"/>
       <c r="P67" t="s">
         <v>364</v>
       </c>
@@ -7141,7 +7091,7 @@
         <v>378</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44644</v>
+        <v>44648</v>
       </c>
       <c r="D70" t="s">
         <v>35</v>
@@ -7151,28 +7101,24 @@
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H70" t="n">
-        <v>127804</v>
+        <v>128552</v>
       </c>
       <c r="I70" t="n">
-        <v>63.411</v>
+        <v>63.782</v>
       </c>
       <c r="J70"/>
       <c r="K70"/>
       <c r="L70" t="n">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="M70" t="n">
-        <v>0.073</v>
-      </c>
-      <c r="N70" t="n">
-        <v>0.0282</v>
-      </c>
-      <c r="O70" t="n">
-        <v>35.5</v>
-      </c>
+        <v>0.069</v>
+      </c>
+      <c r="N70"/>
+      <c r="O70"/>
       <c r="P70" t="s">
         <v>36</v>
       </c>
@@ -7247,7 +7193,7 @@
         <v>387</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>44639</v>
+        <v>44643</v>
       </c>
       <c r="D72" t="s">
         <v>388</v>
@@ -7257,31 +7203,27 @@
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H72" t="n">
-        <v>185551</v>
+        <v>187092</v>
       </c>
       <c r="I72" t="n">
-        <v>16.077</v>
-      </c>
-      <c r="J72" t="n">
-        <v>263</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.023</v>
-      </c>
+        <v>16.21</v>
+      </c>
+      <c r="J72"/>
+      <c r="K72"/>
       <c r="L72" t="n">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="M72" t="n">
-        <v>0.027</v>
+        <v>0.03</v>
       </c>
       <c r="N72" t="n">
-        <v>0.0145</v>
+        <v>0.0135</v>
       </c>
       <c r="O72" t="n">
-        <v>68.9</v>
+        <v>74.2</v>
       </c>
       <c r="P72" t="s">
         <v>390</v>
@@ -7357,7 +7299,7 @@
         <v>401</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>44644</v>
+        <v>44648</v>
       </c>
       <c r="D74" t="s">
         <v>402</v>
@@ -7369,32 +7311,28 @@
         <v>404</v>
       </c>
       <c r="G74" t="n">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="H74" t="n">
-        <v>10589437</v>
+        <v>10635698</v>
       </c>
       <c r="I74" t="n">
-        <v>1099.155</v>
+        <v>1103.957</v>
       </c>
       <c r="J74" t="n">
-        <v>8686</v>
+        <v>33422</v>
       </c>
       <c r="K74" t="n">
-        <v>0.902</v>
+        <v>3.469</v>
       </c>
       <c r="L74" t="n">
-        <v>10637</v>
+        <v>9729</v>
       </c>
       <c r="M74" t="n">
-        <v>1.104</v>
-      </c>
-      <c r="N74" t="n">
-        <v>0.2169</v>
-      </c>
-      <c r="O74" t="n">
-        <v>4.6</v>
-      </c>
+        <v>1.01</v>
+      </c>
+      <c r="N74"/>
+      <c r="O74"/>
       <c r="P74" t="s">
         <v>403</v>
       </c>
@@ -7416,7 +7354,7 @@
         <v>408</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44642</v>
+        <v>44647</v>
       </c>
       <c r="D75" t="s">
         <v>409</v>
@@ -7426,25 +7364,25 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="H75" t="n">
-        <v>1279276</v>
+        <v>1285516</v>
       </c>
       <c r="I75" t="n">
-        <v>3468.828</v>
+        <v>3485.748</v>
       </c>
       <c r="J75" t="n">
-        <v>3116</v>
+        <v>1929</v>
       </c>
       <c r="K75" t="n">
-        <v>8.449</v>
+        <v>5.231</v>
       </c>
       <c r="L75" t="n">
-        <v>3581</v>
+        <v>1914</v>
       </c>
       <c r="M75" t="n">
-        <v>9.71</v>
+        <v>5.19</v>
       </c>
       <c r="N75"/>
       <c r="O75"/>
@@ -7469,7 +7407,7 @@
         <v>413</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="D76" t="s">
         <v>414</v>
@@ -7481,28 +7419,32 @@
         <v>416</v>
       </c>
       <c r="G76" t="n">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H76" t="n">
-        <v>785644225</v>
+        <v>786302714</v>
       </c>
       <c r="I76" t="n">
-        <v>563.829</v>
+        <v>564.301</v>
       </c>
       <c r="J76" t="n">
-        <v>691425</v>
+        <v>658489</v>
       </c>
       <c r="K76" t="n">
-        <v>0.496</v>
+        <v>0.473</v>
       </c>
       <c r="L76" t="n">
-        <v>540865</v>
+        <v>582004</v>
       </c>
       <c r="M76" t="n">
-        <v>0.388</v>
-      </c>
-      <c r="N76"/>
-      <c r="O76"/>
+        <v>0.418</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.0029</v>
+      </c>
+      <c r="O76" t="n">
+        <v>350.8</v>
+      </c>
       <c r="P76" t="s">
         <v>415</v>
       </c>
@@ -7581,7 +7523,7 @@
         <v>425</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>44644</v>
+        <v>44648</v>
       </c>
       <c r="D78" t="s">
         <v>426</v>
@@ -7591,28 +7533,24 @@
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H78" t="n">
-        <v>48991010</v>
+        <v>49236429</v>
       </c>
       <c r="I78" t="n">
-        <v>576.17</v>
+        <v>579.056</v>
       </c>
       <c r="J78"/>
       <c r="K78"/>
       <c r="L78" t="n">
-        <v>65935</v>
+        <v>62401</v>
       </c>
       <c r="M78" t="n">
-        <v>0.775</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0.022</v>
-      </c>
-      <c r="O78" t="n">
-        <v>45.4</v>
-      </c>
+        <v>0.734</v>
+      </c>
+      <c r="N78"/>
+      <c r="O78"/>
       <c r="P78" t="s">
         <v>428</v>
       </c>
@@ -7687,7 +7625,7 @@
         <v>434</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44645</v>
+        <v>44648</v>
       </c>
       <c r="D80" t="s">
         <v>435</v>
@@ -7697,25 +7635,25 @@
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="H80" t="n">
-        <v>11724746</v>
+        <v>11770347</v>
       </c>
       <c r="I80" t="n">
-        <v>2352.995</v>
+        <v>2362.146</v>
       </c>
       <c r="J80" t="n">
-        <v>17888</v>
+        <v>12490</v>
       </c>
       <c r="K80" t="n">
-        <v>3.59</v>
+        <v>2.507</v>
       </c>
       <c r="L80" t="n">
-        <v>15351</v>
+        <v>17124</v>
       </c>
       <c r="M80" t="n">
-        <v>3.081</v>
+        <v>3.437</v>
       </c>
       <c r="N80"/>
       <c r="O80"/>
@@ -7740,7 +7678,7 @@
         <v>440</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>44644</v>
+        <v>44648</v>
       </c>
       <c r="D81" t="s">
         <v>441</v>
@@ -7750,31 +7688,31 @@
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="H81" t="n">
-        <v>48104042</v>
+        <v>48323268</v>
       </c>
       <c r="I81" t="n">
-        <v>5177.488</v>
+        <v>5201.084</v>
       </c>
       <c r="J81" t="n">
-        <v>66986</v>
+        <v>47597</v>
       </c>
       <c r="K81" t="n">
-        <v>7.21</v>
+        <v>5.123</v>
       </c>
       <c r="L81" t="n">
-        <v>64859</v>
+        <v>62858</v>
       </c>
       <c r="M81" t="n">
-        <v>6.981</v>
+        <v>6.765</v>
       </c>
       <c r="N81" t="n">
-        <v>0.181</v>
+        <v>0.195</v>
       </c>
       <c r="O81" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="P81" t="s">
         <v>53</v>
@@ -7797,7 +7735,7 @@
         <v>446</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>44644</v>
+        <v>44648</v>
       </c>
       <c r="D82" t="s">
         <v>447</v>
@@ -7809,32 +7747,28 @@
         <v>449</v>
       </c>
       <c r="G82" t="n">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="H82" t="n">
-        <v>197631659</v>
+        <v>199235675</v>
       </c>
       <c r="I82" t="n">
-        <v>3273.81</v>
+        <v>3300.381</v>
       </c>
       <c r="J82" t="n">
-        <v>545302</v>
+        <v>211535</v>
       </c>
       <c r="K82" t="n">
-        <v>9.033</v>
+        <v>3.504</v>
       </c>
       <c r="L82" t="n">
-        <v>465508</v>
+        <v>472137</v>
       </c>
       <c r="M82" t="n">
-        <v>7.711</v>
-      </c>
-      <c r="N82" t="n">
-        <v>0.1557</v>
-      </c>
-      <c r="O82" t="n">
-        <v>6.4</v>
-      </c>
+        <v>7.821</v>
+      </c>
+      <c r="N82"/>
+      <c r="O82"/>
       <c r="P82" t="s">
         <v>450</v>
       </c>
@@ -7913,7 +7847,7 @@
         <v>460</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44644</v>
+        <v>44647</v>
       </c>
       <c r="D84" t="s">
         <v>461</v>
@@ -7923,31 +7857,31 @@
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="H84" t="n">
-        <v>40866280</v>
+        <v>41185177</v>
       </c>
       <c r="I84" t="n">
-        <v>324.205</v>
+        <v>326.735</v>
       </c>
       <c r="J84" t="n">
-        <v>141401</v>
+        <v>66749</v>
       </c>
       <c r="K84" t="n">
-        <v>1.122</v>
+        <v>0.53</v>
       </c>
       <c r="L84" t="n">
-        <v>114635</v>
+        <v>113751</v>
       </c>
       <c r="M84" t="n">
-        <v>0.909</v>
+        <v>0.902</v>
       </c>
       <c r="N84" t="n">
-        <v>0.3383</v>
+        <v>0.3466</v>
       </c>
       <c r="O84" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P84" t="s">
         <v>462</v>
@@ -8080,7 +8014,7 @@
         <v>477</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44644</v>
+        <v>44648</v>
       </c>
       <c r="D87" t="s">
         <v>35</v>
@@ -8090,28 +8024,24 @@
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H87" t="n">
-        <v>3482807</v>
+        <v>3499532</v>
       </c>
       <c r="I87" t="n">
-        <v>63.34</v>
+        <v>63.644</v>
       </c>
       <c r="J87"/>
       <c r="K87"/>
       <c r="L87" t="n">
-        <v>3642</v>
+        <v>3657</v>
       </c>
       <c r="M87" t="n">
-        <v>0.066</v>
-      </c>
-      <c r="N87" t="n">
-        <v>0.0038</v>
-      </c>
-      <c r="O87" t="n">
-        <v>265.6</v>
-      </c>
+        <v>0.067</v>
+      </c>
+      <c r="N87"/>
+      <c r="O87"/>
       <c r="P87" t="s">
         <v>36</v>
       </c>
@@ -8133,7 +8063,7 @@
         <v>480</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44643</v>
+        <v>44647</v>
       </c>
       <c r="D88" t="s">
         <v>481</v>
@@ -8143,27 +8073,27 @@
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H88" t="n">
-        <v>1792166</v>
+        <v>1795375</v>
       </c>
       <c r="I88" t="n">
-        <v>1005.64</v>
+        <v>1007.441</v>
       </c>
       <c r="J88"/>
       <c r="K88"/>
       <c r="L88" t="n">
-        <v>1096</v>
+        <v>1042</v>
       </c>
       <c r="M88" t="n">
-        <v>0.615</v>
+        <v>0.585</v>
       </c>
       <c r="N88" t="n">
-        <v>0.0343</v>
+        <v>0.0325</v>
       </c>
       <c r="O88" t="n">
-        <v>29.2</v>
+        <v>30.8</v>
       </c>
       <c r="P88" t="s">
         <v>483</v>
@@ -8239,7 +8169,7 @@
         <v>492</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44645</v>
+        <v>44648</v>
       </c>
       <c r="D90" t="s">
         <v>493</v>
@@ -8249,25 +8179,25 @@
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H90" t="n">
-        <v>1000948</v>
+        <v>1004082</v>
       </c>
       <c r="I90" t="n">
-        <v>135.642</v>
+        <v>136.066</v>
       </c>
       <c r="J90" t="n">
-        <v>5277</v>
+        <v>3134</v>
       </c>
       <c r="K90" t="n">
-        <v>0.715</v>
+        <v>0.425</v>
       </c>
       <c r="L90" t="n">
-        <v>943</v>
+        <v>1202</v>
       </c>
       <c r="M90" t="n">
-        <v>0.128</v>
+        <v>0.163</v>
       </c>
       <c r="N90"/>
       <c r="O90"/>
@@ -8292,7 +8222,7 @@
         <v>498</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>44645</v>
+        <v>44648</v>
       </c>
       <c r="D91" t="s">
         <v>499</v>
@@ -8304,25 +8234,25 @@
         <v>501</v>
       </c>
       <c r="G91" t="n">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="H91" t="n">
-        <v>6965310</v>
+        <v>6978938</v>
       </c>
       <c r="I91" t="n">
-        <v>3730.882</v>
+        <v>3738.181</v>
       </c>
       <c r="J91" t="n">
-        <v>7966</v>
+        <v>3202</v>
       </c>
       <c r="K91" t="n">
-        <v>4.267</v>
+        <v>1.715</v>
       </c>
       <c r="L91" t="n">
-        <v>8084</v>
+        <v>7519</v>
       </c>
       <c r="M91" t="n">
-        <v>4.33</v>
+        <v>4.027</v>
       </c>
       <c r="N91"/>
       <c r="O91"/>
@@ -8396,7 +8326,7 @@
         <v>509</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>44644</v>
+        <v>44648</v>
       </c>
       <c r="D93" t="s">
         <v>35</v>
@@ -8406,21 +8336,21 @@
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H93" t="n">
-        <v>422165</v>
+        <v>427372</v>
       </c>
       <c r="I93" t="n">
-        <v>195.531</v>
+        <v>197.943</v>
       </c>
       <c r="J93"/>
       <c r="K93"/>
       <c r="L93" t="n">
-        <v>872</v>
+        <v>1216</v>
       </c>
       <c r="M93" t="n">
-        <v>0.404</v>
+        <v>0.563</v>
       </c>
       <c r="N93"/>
       <c r="O93"/>
@@ -8490,7 +8420,7 @@
         <v>515</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44643</v>
+        <v>44647</v>
       </c>
       <c r="D95" t="s">
         <v>516</v>
@@ -8500,15 +8430,15 @@
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H95"/>
       <c r="I95"/>
       <c r="J95" t="n">
-        <v>1139</v>
+        <v>809</v>
       </c>
       <c r="K95" t="n">
-        <v>0.164</v>
+        <v>0.116</v>
       </c>
       <c r="L95"/>
       <c r="M95"/>
@@ -8592,7 +8522,7 @@
         <v>527</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44644</v>
+        <v>44647</v>
       </c>
       <c r="D97" t="s">
         <v>528</v>
@@ -8602,31 +8532,31 @@
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="H97" t="n">
-        <v>8412393</v>
+        <v>8433342</v>
       </c>
       <c r="I97" t="n">
-        <v>3127.444</v>
+        <v>3135.232</v>
       </c>
       <c r="J97" t="n">
-        <v>10038</v>
+        <v>3686</v>
       </c>
       <c r="K97" t="n">
-        <v>3.732</v>
+        <v>1.37</v>
       </c>
       <c r="L97" t="n">
-        <v>10389</v>
+        <v>9721</v>
       </c>
       <c r="M97" t="n">
-        <v>3.862</v>
+        <v>3.614</v>
       </c>
       <c r="N97" t="n">
-        <v>0.421</v>
+        <v>0.401</v>
       </c>
       <c r="O97" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P97" t="s">
         <v>529</v>
@@ -8649,7 +8579,7 @@
         <v>532</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>44643</v>
+        <v>44646</v>
       </c>
       <c r="D98" t="s">
         <v>533</v>
@@ -8659,31 +8589,31 @@
       </c>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="H98" t="n">
-        <v>4137106</v>
+        <v>4149044</v>
       </c>
       <c r="I98" t="n">
-        <v>6517.036</v>
+        <v>6535.842</v>
       </c>
       <c r="J98" t="n">
-        <v>5258</v>
+        <v>3466</v>
       </c>
       <c r="K98" t="n">
-        <v>8.283</v>
+        <v>5.46</v>
       </c>
       <c r="L98" t="n">
-        <v>3176</v>
+        <v>3572</v>
       </c>
       <c r="M98" t="n">
-        <v>5.003</v>
+        <v>5.627</v>
       </c>
       <c r="N98" t="n">
-        <v>0.375</v>
+        <v>0.391</v>
       </c>
       <c r="O98" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="P98" t="s">
         <v>534</v>
@@ -8759,7 +8689,7 @@
         <v>540</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>44644</v>
+        <v>44648</v>
       </c>
       <c r="D100" t="s">
         <v>35</v>
@@ -8769,28 +8699,24 @@
       </c>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H100" t="n">
-        <v>558538</v>
+        <v>560213</v>
       </c>
       <c r="I100" t="n">
-        <v>28.428</v>
+        <v>28.513</v>
       </c>
       <c r="J100"/>
       <c r="K100"/>
       <c r="L100" t="n">
-        <v>463</v>
+        <v>414</v>
       </c>
       <c r="M100" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="N100" t="n">
-        <v>0.0145</v>
-      </c>
-      <c r="O100" t="n">
-        <v>69</v>
-      </c>
+        <v>0.021</v>
+      </c>
+      <c r="N100"/>
+      <c r="O100"/>
       <c r="P100" t="s">
         <v>36</v>
       </c>
@@ -8812,7 +8738,7 @@
         <v>543</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="D101" t="s">
         <v>544</v>
@@ -8824,31 +8750,31 @@
         <v>546</v>
       </c>
       <c r="G101" t="n">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H101" t="n">
-        <v>55434131</v>
+        <v>55592018</v>
       </c>
       <c r="I101" t="n">
-        <v>1691.292</v>
+        <v>1696.11</v>
       </c>
       <c r="J101" t="n">
-        <v>176245</v>
+        <v>157887</v>
       </c>
       <c r="K101" t="n">
-        <v>5.377</v>
+        <v>4.817</v>
       </c>
       <c r="L101" t="n">
-        <v>167878</v>
+        <v>163506</v>
       </c>
       <c r="M101" t="n">
-        <v>5.122</v>
+        <v>4.989</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1364</v>
+        <v>0.135</v>
       </c>
       <c r="O101" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="P101" t="s">
         <v>53</v>
@@ -8928,7 +8854,7 @@
         <v>556</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44644</v>
+        <v>44648</v>
       </c>
       <c r="D103" t="s">
         <v>35</v>
@@ -8938,28 +8864,24 @@
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H103" t="n">
-        <v>650336</v>
+        <v>654550</v>
       </c>
       <c r="I103" t="n">
-        <v>31.183</v>
+        <v>31.385</v>
       </c>
       <c r="J103"/>
       <c r="K103"/>
       <c r="L103" t="n">
-        <v>750</v>
+        <v>974</v>
       </c>
       <c r="M103" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="N103" t="n">
-        <v>0.0051</v>
-      </c>
-      <c r="O103" t="n">
-        <v>194.5</v>
-      </c>
+        <v>0.047</v>
+      </c>
+      <c r="N103"/>
+      <c r="O103"/>
       <c r="P103" t="s">
         <v>36</v>
       </c>
@@ -8981,7 +8903,7 @@
         <v>559</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>44645</v>
+        <v>44648</v>
       </c>
       <c r="D104" t="s">
         <v>560</v>
@@ -8991,25 +8913,25 @@
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="H104" t="n">
-        <v>1787992</v>
+        <v>1795093</v>
       </c>
       <c r="I104" t="n">
-        <v>3464.429</v>
+        <v>3478.188</v>
       </c>
       <c r="J104" t="n">
-        <v>2679</v>
+        <v>2349</v>
       </c>
       <c r="K104" t="n">
-        <v>5.191</v>
+        <v>4.551</v>
       </c>
       <c r="L104" t="n">
-        <v>2319</v>
+        <v>2507</v>
       </c>
       <c r="M104" t="n">
-        <v>4.493</v>
+        <v>4.858</v>
       </c>
       <c r="N104"/>
       <c r="O104"/>
@@ -9132,7 +9054,7 @@
         <v>574</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44642</v>
+        <v>44646</v>
       </c>
       <c r="D107" t="s">
         <v>575</v>
@@ -9142,31 +9064,31 @@
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="H107" t="n">
-        <v>14807422</v>
+        <v>14843802</v>
       </c>
       <c r="I107" t="n">
-        <v>113.674</v>
+        <v>113.953</v>
       </c>
       <c r="J107" t="n">
-        <v>7795</v>
+        <v>789</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06</v>
+        <v>0.006</v>
       </c>
       <c r="L107" t="n">
-        <v>5761</v>
+        <v>5143</v>
       </c>
       <c r="M107" t="n">
-        <v>0.044</v>
+        <v>0.039</v>
       </c>
       <c r="N107" t="n">
-        <v>0.146</v>
+        <v>0.134</v>
       </c>
       <c r="O107" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="P107" t="s">
         <v>577</v>
@@ -9234,7 +9156,7 @@
         <v>587</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44645</v>
+        <v>44648</v>
       </c>
       <c r="D109" t="s">
         <v>588</v>
@@ -9244,21 +9166,21 @@
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H109" t="n">
-        <v>7296101</v>
+        <v>7302839</v>
       </c>
       <c r="I109" t="n">
-        <v>2191.494</v>
+        <v>2193.518</v>
       </c>
       <c r="J109"/>
       <c r="K109"/>
       <c r="L109" t="n">
-        <v>4462</v>
+        <v>3519</v>
       </c>
       <c r="M109" t="n">
-        <v>1.34</v>
+        <v>1.057</v>
       </c>
       <c r="N109"/>
       <c r="O109"/>
@@ -9283,7 +9205,7 @@
         <v>592</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>44644</v>
+        <v>44648</v>
       </c>
       <c r="D110" t="s">
         <v>593</v>
@@ -9293,28 +9215,24 @@
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H110" t="n">
-        <v>11236520</v>
+        <v>11261781</v>
       </c>
       <c r="I110" t="n">
-        <v>300.886</v>
+        <v>301.562</v>
       </c>
       <c r="J110"/>
       <c r="K110"/>
       <c r="L110" t="n">
-        <v>6616</v>
+        <v>6679</v>
       </c>
       <c r="M110" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="N110" t="n">
-        <v>0.0095</v>
-      </c>
-      <c r="O110" t="n">
-        <v>104.8</v>
-      </c>
+        <v>0.179</v>
+      </c>
+      <c r="N110"/>
+      <c r="O110"/>
       <c r="P110" t="s">
         <v>594</v>
       </c>
@@ -9336,7 +9254,7 @@
         <v>598</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44644</v>
+        <v>44648</v>
       </c>
       <c r="D111" t="s">
         <v>35</v>
@@ -9346,28 +9264,24 @@
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H111" t="n">
-        <v>1290853</v>
+        <v>1293982</v>
       </c>
       <c r="I111" t="n">
-        <v>40.135</v>
+        <v>40.232</v>
       </c>
       <c r="J111"/>
       <c r="K111"/>
       <c r="L111" t="n">
-        <v>650</v>
+        <v>671</v>
       </c>
       <c r="M111" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="N111" t="n">
-        <v>0.0051</v>
-      </c>
-      <c r="O111" t="n">
-        <v>197.8</v>
-      </c>
+        <v>0.021</v>
+      </c>
+      <c r="N111"/>
+      <c r="O111"/>
       <c r="P111" t="s">
         <v>36</v>
       </c>
@@ -9389,7 +9303,7 @@
         <v>601</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44644</v>
+        <v>44647</v>
       </c>
       <c r="D112" t="s">
         <v>602</v>
@@ -9399,27 +9313,27 @@
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H112" t="n">
-        <v>7560882</v>
+        <v>7614334</v>
       </c>
       <c r="I112" t="n">
-        <v>137.957</v>
+        <v>138.932</v>
       </c>
       <c r="J112"/>
       <c r="K112"/>
       <c r="L112" t="n">
-        <v>12614</v>
+        <v>13928</v>
       </c>
       <c r="M112" t="n">
-        <v>0.23</v>
+        <v>0.254</v>
       </c>
       <c r="N112" t="n">
-        <v>0.0264</v>
+        <v>0.0192</v>
       </c>
       <c r="O112" t="n">
-        <v>37.9</v>
+        <v>52.2</v>
       </c>
       <c r="P112" t="s">
         <v>603</v>
@@ -9442,7 +9356,7 @@
         <v>607</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44644</v>
+        <v>44648</v>
       </c>
       <c r="D113" t="s">
         <v>35</v>
@@ -9452,28 +9366,24 @@
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H113" t="n">
-        <v>976453</v>
+        <v>981047</v>
       </c>
       <c r="I113" t="n">
-        <v>377.396</v>
+        <v>379.171</v>
       </c>
       <c r="J113"/>
       <c r="K113"/>
       <c r="L113" t="n">
-        <v>699</v>
+        <v>837</v>
       </c>
       <c r="M113" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="N113" t="n">
-        <v>0.0157</v>
-      </c>
-      <c r="O113" t="n">
-        <v>63.5</v>
-      </c>
+        <v>0.323</v>
+      </c>
+      <c r="N113"/>
+      <c r="O113"/>
       <c r="P113" t="s">
         <v>608</v>
       </c>
@@ -9495,7 +9405,7 @@
         <v>612</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44645</v>
+        <v>44648</v>
       </c>
       <c r="D114" t="s">
         <v>613</v>
@@ -9505,21 +9415,21 @@
       </c>
       <c r="F114"/>
       <c r="G114" t="n">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H114" t="n">
-        <v>6643503</v>
+        <v>6657689</v>
       </c>
       <c r="I114" t="n">
-        <v>223.876</v>
+        <v>224.354</v>
       </c>
       <c r="J114"/>
       <c r="K114"/>
       <c r="L114" t="n">
-        <v>5414</v>
+        <v>5109</v>
       </c>
       <c r="M114" t="n">
-        <v>0.182</v>
+        <v>0.172</v>
       </c>
       <c r="N114" t="n">
         <v>0.011</v>
@@ -9548,7 +9458,7 @@
         <v>618</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>44642</v>
+        <v>44646</v>
       </c>
       <c r="D115" t="s">
         <v>619</v>
@@ -9558,28 +9468,28 @@
       </c>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="H115" t="n">
-        <v>29946224</v>
+        <v>30122886</v>
       </c>
       <c r="I115" t="n">
-        <v>1743.787</v>
+        <v>1754.074</v>
       </c>
       <c r="J115" t="n">
-        <v>56811</v>
+        <v>33007</v>
       </c>
       <c r="K115" t="n">
-        <v>3.308</v>
+        <v>1.922</v>
       </c>
       <c r="L115" t="n">
-        <v>57553</v>
+        <v>49397</v>
       </c>
       <c r="M115" t="n">
-        <v>3.351</v>
+        <v>2.876</v>
       </c>
       <c r="N115" t="n">
-        <v>0.665</v>
+        <v>0.657</v>
       </c>
       <c r="O115" t="n">
         <v>1.5</v>
@@ -9605,7 +9515,7 @@
         <v>624</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44645</v>
+        <v>44648</v>
       </c>
       <c r="D116" t="s">
         <v>625</v>
@@ -9615,21 +9525,21 @@
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H116" t="n">
-        <v>6902982</v>
+        <v>6909758</v>
       </c>
       <c r="I116" t="n">
-        <v>1346.582</v>
+        <v>1347.904</v>
       </c>
       <c r="J116"/>
       <c r="K116"/>
       <c r="L116" t="n">
-        <v>4817</v>
+        <v>2668</v>
       </c>
       <c r="M116" t="n">
-        <v>0.94</v>
+        <v>0.52</v>
       </c>
       <c r="N116"/>
       <c r="O116"/>
@@ -9654,7 +9564,7 @@
         <v>630</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44644</v>
+        <v>44648</v>
       </c>
       <c r="D117" t="s">
         <v>35</v>
@@ -9664,28 +9574,24 @@
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H117" t="n">
-        <v>238395</v>
+        <v>239644</v>
       </c>
       <c r="I117" t="n">
-        <v>9.486</v>
+        <v>9.536</v>
       </c>
       <c r="J117"/>
       <c r="K117"/>
       <c r="L117" t="n">
-        <v>514</v>
+        <v>474</v>
       </c>
       <c r="M117" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="N117" t="n">
-        <v>0.0031</v>
-      </c>
-      <c r="O117" t="n">
-        <v>327.2</v>
-      </c>
+        <v>0.019</v>
+      </c>
+      <c r="N117"/>
+      <c r="O117"/>
       <c r="P117" t="s">
         <v>36</v>
       </c>
@@ -9760,7 +9666,7 @@
         <v>638</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44644</v>
+        <v>44648</v>
       </c>
       <c r="D119" t="s">
         <v>639</v>
@@ -9770,28 +9676,24 @@
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H119" t="n">
-        <v>1946588</v>
+        <v>1955058</v>
       </c>
       <c r="I119" t="n">
-        <v>934.664</v>
+        <v>938.731</v>
       </c>
       <c r="J119"/>
       <c r="K119"/>
       <c r="L119" t="n">
-        <v>2365</v>
+        <v>2303</v>
       </c>
       <c r="M119" t="n">
-        <v>1.136</v>
-      </c>
-      <c r="N119" t="n">
-        <v>0.1074</v>
-      </c>
-      <c r="O119" t="n">
-        <v>9.3</v>
-      </c>
+        <v>1.106</v>
+      </c>
+      <c r="N119"/>
+      <c r="O119"/>
       <c r="P119" t="s">
         <v>53</v>
       </c>
@@ -9813,7 +9715,7 @@
         <v>643</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>44643</v>
+        <v>44646</v>
       </c>
       <c r="D120" t="s">
         <v>644</v>
@@ -9823,31 +9725,31 @@
       </c>
       <c r="F120"/>
       <c r="G120" t="n">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="H120" t="n">
-        <v>10978363</v>
+        <v>10990078</v>
       </c>
       <c r="I120" t="n">
-        <v>2008.618</v>
+        <v>2010.762</v>
       </c>
       <c r="J120" t="n">
-        <v>6073</v>
+        <v>1679</v>
       </c>
       <c r="K120" t="n">
-        <v>1.111</v>
+        <v>0.307</v>
       </c>
       <c r="L120" t="n">
-        <v>5567</v>
+        <v>4968</v>
       </c>
       <c r="M120" t="n">
-        <v>1.019</v>
+        <v>0.909</v>
       </c>
       <c r="N120" t="n">
-        <v>0.492</v>
+        <v>0.394</v>
       </c>
       <c r="O120" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="P120" t="s">
         <v>645</v>
@@ -9919,7 +9821,7 @@
         <v>650</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44645</v>
+        <v>44648</v>
       </c>
       <c r="D122" t="s">
         <v>651</v>
@@ -9929,21 +9831,21 @@
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H122" t="n">
-        <v>27297869</v>
+        <v>27388407</v>
       </c>
       <c r="I122" t="n">
-        <v>121.216</v>
+        <v>121.618</v>
       </c>
       <c r="J122"/>
       <c r="K122"/>
       <c r="L122" t="n">
-        <v>32547</v>
+        <v>30371</v>
       </c>
       <c r="M122" t="n">
-        <v>0.145</v>
+        <v>0.135</v>
       </c>
       <c r="N122"/>
       <c r="O122"/>
@@ -10111,7 +10013,7 @@
         <v>671</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>44643</v>
+        <v>44647</v>
       </c>
       <c r="D126" t="s">
         <v>672</v>
@@ -10121,27 +10023,27 @@
       </c>
       <c r="F126"/>
       <c r="G126" t="n">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H126" t="n">
-        <v>2602634</v>
+        <v>2609819</v>
       </c>
       <c r="I126" t="n">
-        <v>360.494</v>
+        <v>361.489</v>
       </c>
       <c r="J126"/>
       <c r="K126"/>
       <c r="L126" t="n">
-        <v>1899</v>
+        <v>1763</v>
       </c>
       <c r="M126" t="n">
-        <v>0.263</v>
+        <v>0.244</v>
       </c>
       <c r="N126" t="n">
-        <v>0.0785</v>
+        <v>0.0654</v>
       </c>
       <c r="O126" t="n">
-        <v>12.7</v>
+        <v>15.3</v>
       </c>
       <c r="P126" t="s">
         <v>674</v>
@@ -10164,7 +10066,7 @@
         <v>678</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44642</v>
+        <v>44646</v>
       </c>
       <c r="D127" t="s">
         <v>679</v>
@@ -10176,27 +10078,27 @@
         <v>680</v>
       </c>
       <c r="G127" t="n">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="H127" t="n">
-        <v>28300965</v>
+        <v>28511805</v>
       </c>
       <c r="I127" t="n">
-        <v>848.365</v>
+        <v>854.685</v>
       </c>
       <c r="J127"/>
       <c r="K127"/>
       <c r="L127" t="n">
-        <v>42753</v>
+        <v>44682</v>
       </c>
       <c r="M127" t="n">
-        <v>1.282</v>
+        <v>1.339</v>
       </c>
       <c r="N127" t="n">
-        <v>0.017</v>
+        <v>0.013</v>
       </c>
       <c r="O127" t="n">
-        <v>58.8</v>
+        <v>76.9</v>
       </c>
       <c r="P127" t="s">
         <v>214</v>
@@ -10219,7 +10121,7 @@
         <v>684</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44631</v>
+        <v>44638</v>
       </c>
       <c r="D128" t="s">
         <v>685</v>
@@ -10229,28 +10131,32 @@
       </c>
       <c r="F128"/>
       <c r="G128" t="n">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="H128" t="n">
-        <v>26834835</v>
+        <v>26992200</v>
       </c>
       <c r="I128" t="n">
-        <v>241.653</v>
+        <v>243.07</v>
       </c>
       <c r="J128" t="n">
-        <v>23523</v>
+        <v>21848</v>
       </c>
       <c r="K128" t="n">
-        <v>0.212</v>
+        <v>0.197</v>
       </c>
       <c r="L128" t="n">
-        <v>22659</v>
+        <v>21846</v>
       </c>
       <c r="M128" t="n">
-        <v>0.204</v>
-      </c>
-      <c r="N128"/>
-      <c r="O128"/>
+        <v>0.197</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.0241</v>
+      </c>
+      <c r="O128" t="n">
+        <v>41.6</v>
+      </c>
       <c r="P128" t="s">
         <v>396</v>
       </c>
@@ -10272,7 +10178,7 @@
         <v>690</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>44630</v>
+        <v>44637</v>
       </c>
       <c r="D129" t="s">
         <v>691</v>
@@ -10282,27 +10188,27 @@
       </c>
       <c r="F129"/>
       <c r="G129" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H129" t="n">
-        <v>35118188</v>
+        <v>35583635</v>
       </c>
       <c r="I129" t="n">
-        <v>929.126</v>
+        <v>941.441</v>
       </c>
       <c r="J129"/>
       <c r="K129"/>
       <c r="L129" t="n">
-        <v>68193</v>
+        <v>66492</v>
       </c>
       <c r="M129" t="n">
-        <v>1.804</v>
+        <v>1.759</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1666</v>
+        <v>0.1612</v>
       </c>
       <c r="O129" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="P129" t="s">
         <v>693</v>
@@ -10325,7 +10231,7 @@
         <v>696</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>44644</v>
+        <v>44647</v>
       </c>
       <c r="D130" t="s">
         <v>697</v>
@@ -10335,25 +10241,25 @@
       </c>
       <c r="F130"/>
       <c r="G130" t="n">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="H130" t="n">
-        <v>39734174</v>
+        <v>39851361</v>
       </c>
       <c r="I130" t="n">
-        <v>3907.797</v>
+        <v>3919.322</v>
       </c>
       <c r="J130" t="n">
-        <v>54134</v>
+        <v>21878</v>
       </c>
       <c r="K130" t="n">
-        <v>5.324</v>
+        <v>2.152</v>
       </c>
       <c r="L130" t="n">
-        <v>51318</v>
+        <v>50516</v>
       </c>
       <c r="M130" t="n">
-        <v>5.047</v>
+        <v>4.968</v>
       </c>
       <c r="N130"/>
       <c r="O130"/>
@@ -10378,7 +10284,7 @@
         <v>701</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>44644</v>
+        <v>44647</v>
       </c>
       <c r="D131" t="s">
         <v>702</v>
@@ -10388,25 +10294,25 @@
       </c>
       <c r="F131"/>
       <c r="G131" t="n">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H131" t="n">
-        <v>6277771</v>
+        <v>6333416</v>
       </c>
       <c r="I131" t="n">
-        <v>2142.201</v>
+        <v>2161.189</v>
       </c>
       <c r="J131" t="n">
-        <v>17133</v>
+        <v>21316</v>
       </c>
       <c r="K131" t="n">
-        <v>5.846</v>
+        <v>7.274</v>
       </c>
       <c r="L131" t="n">
-        <v>20360</v>
+        <v>19035</v>
       </c>
       <c r="M131" t="n">
-        <v>6.948</v>
+        <v>6.495</v>
       </c>
       <c r="N131"/>
       <c r="O131"/>
@@ -10464,149 +10370,149 @@
         <v>17.7</v>
       </c>
       <c r="P132" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="Q132" t="s">
-        <v>710</v>
+        <v>691</v>
       </c>
       <c r="R132" t="s">
         <v>61</v>
       </c>
       <c r="S132" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
+        <v>710</v>
+      </c>
+      <c r="B133" t="s">
+        <v>711</v>
+      </c>
+      <c r="C133" s="1" t="n">
+        <v>44647</v>
+      </c>
+      <c r="D133" t="s">
         <v>712</v>
       </c>
-      <c r="B133" t="s">
+      <c r="E133" t="s">
         <v>713</v>
-      </c>
-      <c r="C133" s="1" t="n">
-        <v>44644</v>
-      </c>
-      <c r="D133" t="s">
-        <v>714</v>
-      </c>
-      <c r="E133" t="s">
-        <v>715</v>
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H133" t="n">
-        <v>283219566</v>
+        <v>283967438</v>
       </c>
       <c r="I133" t="n">
-        <v>1941.03</v>
+        <v>1946.155</v>
       </c>
       <c r="J133"/>
       <c r="K133"/>
       <c r="L133" t="n">
-        <v>237222</v>
+        <v>233860</v>
       </c>
       <c r="M133" t="n">
-        <v>1.626</v>
+        <v>1.603</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1219</v>
+        <v>0.108</v>
       </c>
       <c r="O133" t="n">
-        <v>8.2</v>
+        <v>9.3</v>
       </c>
       <c r="P133" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="Q133" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="R133" t="s">
         <v>61</v>
       </c>
       <c r="S133" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
+        <v>716</v>
+      </c>
+      <c r="B134" t="s">
+        <v>717</v>
+      </c>
+      <c r="C134" s="1" t="n">
+        <v>44648</v>
+      </c>
+      <c r="D134" t="s">
         <v>718</v>
       </c>
-      <c r="B134" t="s">
+      <c r="E134" t="s">
         <v>719</v>
-      </c>
-      <c r="C134" s="1" t="n">
-        <v>44645</v>
-      </c>
-      <c r="D134" t="s">
-        <v>720</v>
-      </c>
-      <c r="E134" t="s">
-        <v>721</v>
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="H134" t="n">
-        <v>5052845</v>
+        <v>5081757</v>
       </c>
       <c r="I134" t="n">
-        <v>380.585</v>
+        <v>382.763</v>
       </c>
       <c r="J134" t="n">
-        <v>7755</v>
+        <v>7798</v>
       </c>
       <c r="K134" t="n">
-        <v>0.584</v>
+        <v>0.587</v>
       </c>
       <c r="L134" t="n">
-        <v>7881</v>
+        <v>8209</v>
       </c>
       <c r="M134" t="n">
-        <v>0.594</v>
+        <v>0.618</v>
       </c>
       <c r="N134"/>
       <c r="O134"/>
       <c r="P134" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="Q134" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="R134" t="s">
         <v>136</v>
       </c>
       <c r="S134" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
+        <v>722</v>
+      </c>
+      <c r="B135" t="s">
+        <v>723</v>
+      </c>
+      <c r="C135" s="1" t="n">
+        <v>44648</v>
+      </c>
+      <c r="D135" t="s">
         <v>724</v>
-      </c>
-      <c r="B135" t="s">
-        <v>725</v>
-      </c>
-      <c r="C135" s="1" t="n">
-        <v>44645</v>
-      </c>
-      <c r="D135" t="s">
-        <v>726</v>
       </c>
       <c r="E135" t="s">
         <v>53</v>
       </c>
       <c r="F135"/>
       <c r="G135" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H135" t="n">
-        <v>67727</v>
+        <v>67821</v>
       </c>
       <c r="I135" t="n">
-        <v>1264.838</v>
+        <v>1266.593</v>
       </c>
       <c r="J135"/>
       <c r="K135"/>
@@ -10622,83 +10528,79 @@
         <v>53</v>
       </c>
       <c r="Q135" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="R135" t="s">
         <v>311</v>
       </c>
       <c r="S135" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
+        <v>727</v>
+      </c>
+      <c r="B136" t="s">
+        <v>728</v>
+      </c>
+      <c r="C136" s="1" t="n">
+        <v>44648</v>
+      </c>
+      <c r="D136" t="s">
         <v>729</v>
-      </c>
-      <c r="B136" t="s">
-        <v>730</v>
-      </c>
-      <c r="C136" s="1" t="n">
-        <v>44644</v>
-      </c>
-      <c r="D136" t="s">
-        <v>731</v>
       </c>
       <c r="E136" t="s">
         <v>88</v>
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H136" t="n">
-        <v>139789</v>
+        <v>140271</v>
       </c>
       <c r="I136" t="n">
-        <v>758.071</v>
+        <v>760.685</v>
       </c>
       <c r="J136"/>
       <c r="K136"/>
       <c r="L136" t="n">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="M136" t="n">
-        <v>0.922</v>
-      </c>
-      <c r="N136" t="n">
-        <v>0.0311</v>
-      </c>
-      <c r="O136" t="n">
-        <v>32.2</v>
-      </c>
+        <v>0.765</v>
+      </c>
+      <c r="N136"/>
+      <c r="O136"/>
       <c r="P136" t="s">
         <v>88</v>
       </c>
       <c r="Q136" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="R136" t="s">
         <v>25</v>
       </c>
       <c r="S136" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B137" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C137" s="1" t="n">
         <v>44643</v>
       </c>
       <c r="D137" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E137" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F137"/>
       <c r="G137" t="n">
@@ -10725,193 +10627,189 @@
         <v>106.8</v>
       </c>
       <c r="P137" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="Q137" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="R137" t="s">
         <v>25</v>
       </c>
       <c r="S137" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
+        <v>738</v>
+      </c>
+      <c r="B138" t="s">
+        <v>739</v>
+      </c>
+      <c r="C138" s="1" t="n">
+        <v>44647</v>
+      </c>
+      <c r="D138" t="s">
         <v>740</v>
-      </c>
-      <c r="B138" t="s">
-        <v>741</v>
-      </c>
-      <c r="C138" s="1" t="n">
-        <v>44644</v>
-      </c>
-      <c r="D138" t="s">
-        <v>742</v>
       </c>
       <c r="E138" t="s">
         <v>53</v>
       </c>
       <c r="F138"/>
       <c r="G138" t="n">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="H138" t="n">
-        <v>41451248</v>
+        <v>41492799</v>
       </c>
       <c r="I138" t="n">
-        <v>1172.905</v>
+        <v>1174.08</v>
       </c>
       <c r="J138" t="n">
-        <v>14960</v>
+        <v>16463</v>
       </c>
       <c r="K138" t="n">
-        <v>0.423</v>
+        <v>0.466</v>
       </c>
       <c r="L138" t="n">
-        <v>16170</v>
+        <v>15063</v>
       </c>
       <c r="M138" t="n">
-        <v>0.458</v>
+        <v>0.426</v>
       </c>
       <c r="N138" t="n">
         <v>0.0072</v>
       </c>
       <c r="O138" t="n">
-        <v>139.4</v>
+        <v>138.9</v>
       </c>
       <c r="P138" t="s">
         <v>53</v>
       </c>
       <c r="Q138" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="R138" t="s">
         <v>61</v>
       </c>
       <c r="S138" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
+        <v>742</v>
+      </c>
+      <c r="B139" t="s">
+        <v>743</v>
+      </c>
+      <c r="C139" s="1" t="n">
+        <v>44648</v>
+      </c>
+      <c r="D139" t="s">
         <v>744</v>
       </c>
-      <c r="B139" t="s">
+      <c r="E139" t="s">
         <v>745</v>
-      </c>
-      <c r="C139" s="1" t="n">
-        <v>44645</v>
-      </c>
-      <c r="D139" t="s">
-        <v>746</v>
-      </c>
-      <c r="E139" t="s">
-        <v>747</v>
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="H139" t="n">
-        <v>1063456</v>
+        <v>1068046</v>
       </c>
       <c r="I139" t="n">
-        <v>61.842</v>
+        <v>62.109</v>
       </c>
       <c r="J139" t="n">
-        <v>1178</v>
+        <v>1246</v>
       </c>
       <c r="K139" t="n">
-        <v>0.069</v>
+        <v>0.072</v>
       </c>
       <c r="L139" t="n">
-        <v>1200</v>
+        <v>1251</v>
       </c>
       <c r="M139" t="n">
-        <v>0.07</v>
+        <v>0.073</v>
       </c>
       <c r="N139"/>
       <c r="O139"/>
       <c r="P139" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="Q139" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="R139" t="s">
         <v>61</v>
       </c>
       <c r="S139" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
+        <v>747</v>
+      </c>
+      <c r="B140" t="s">
+        <v>748</v>
+      </c>
+      <c r="C140" s="1" t="n">
+        <v>44648</v>
+      </c>
+      <c r="D140" t="s">
         <v>749</v>
-      </c>
-      <c r="B140" t="s">
-        <v>750</v>
-      </c>
-      <c r="C140" s="1" t="n">
-        <v>44644</v>
-      </c>
-      <c r="D140" t="s">
-        <v>751</v>
       </c>
       <c r="E140" t="s">
         <v>53</v>
       </c>
       <c r="F140" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G140" t="n">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="H140" t="n">
-        <v>9093179</v>
+        <v>9142320</v>
       </c>
       <c r="I140" t="n">
-        <v>1323.309</v>
+        <v>1330.46</v>
       </c>
       <c r="J140" t="n">
-        <v>16445</v>
+        <v>14076</v>
       </c>
       <c r="K140" t="n">
-        <v>2.393</v>
+        <v>2.048</v>
       </c>
       <c r="L140" t="n">
-        <v>14761</v>
+        <v>14284</v>
       </c>
       <c r="M140" t="n">
-        <v>2.148</v>
-      </c>
-      <c r="N140" t="n">
-        <v>0.1372</v>
-      </c>
-      <c r="O140" t="n">
-        <v>7.3</v>
-      </c>
+        <v>2.079</v>
+      </c>
+      <c r="N140"/>
+      <c r="O140"/>
       <c r="P140" t="s">
         <v>53</v>
       </c>
       <c r="Q140" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="R140" t="s">
         <v>45</v>
       </c>
       <c r="S140" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B141" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C141" s="1" t="n">
         <v>44640</v>
@@ -10956,24 +10854,24 @@
         <v>25</v>
       </c>
       <c r="S141" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B142" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C142" s="1" t="n">
         <v>44641</v>
       </c>
       <c r="D142" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E142" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F142"/>
       <c r="G142" t="n">
@@ -11003,139 +10901,139 @@
         <v>53</v>
       </c>
       <c r="Q142" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="R142" t="s">
         <v>136</v>
       </c>
       <c r="S142" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
+        <v>762</v>
+      </c>
+      <c r="B143" t="s">
+        <v>763</v>
+      </c>
+      <c r="C143" s="1" t="n">
+        <v>44647</v>
+      </c>
+      <c r="D143" t="s">
         <v>764</v>
-      </c>
-      <c r="B143" t="s">
-        <v>765</v>
-      </c>
-      <c r="C143" s="1" t="n">
-        <v>44642</v>
-      </c>
-      <c r="D143" t="s">
-        <v>766</v>
       </c>
       <c r="E143" t="s">
         <v>53</v>
       </c>
       <c r="F143" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="G143" t="n">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="H143" t="n">
-        <v>50293280</v>
+        <v>50453548</v>
       </c>
       <c r="I143" t="n">
-        <v>9229.361</v>
+        <v>9258.772</v>
       </c>
       <c r="J143" t="n">
-        <v>19512</v>
+        <v>9306</v>
       </c>
       <c r="K143" t="n">
-        <v>3.581</v>
+        <v>1.708</v>
       </c>
       <c r="L143" t="n">
-        <v>23529</v>
+        <v>26902</v>
       </c>
       <c r="M143" t="n">
-        <v>4.318</v>
+        <v>4.937</v>
       </c>
       <c r="N143" t="n">
-        <v>0.396</v>
+        <v>0.328</v>
       </c>
       <c r="O143" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P143" t="s">
         <v>53</v>
       </c>
       <c r="Q143" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="R143" t="s">
         <v>61</v>
       </c>
       <c r="S143" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
+        <v>767</v>
+      </c>
+      <c r="B144" t="s">
+        <v>768</v>
+      </c>
+      <c r="C144" s="1" t="n">
+        <v>44647</v>
+      </c>
+      <c r="D144" t="s">
         <v>769</v>
       </c>
-      <c r="B144" t="s">
+      <c r="E144" t="s">
         <v>770</v>
       </c>
-      <c r="C144" s="1" t="n">
-        <v>44644</v>
-      </c>
-      <c r="D144" t="s">
+      <c r="F144" t="s">
         <v>771</v>
       </c>
-      <c r="E144" t="s">
+      <c r="G144" t="n">
+        <v>767</v>
+      </c>
+      <c r="H144" t="n">
+        <v>4746660</v>
+      </c>
+      <c r="I144" t="n">
+        <v>2283.45</v>
+      </c>
+      <c r="J144" t="n">
+        <v>5466</v>
+      </c>
+      <c r="K144" t="n">
+        <v>2.629</v>
+      </c>
+      <c r="L144" t="n">
+        <v>13366</v>
+      </c>
+      <c r="M144" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="O144" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="P144" t="s">
         <v>772</v>
       </c>
-      <c r="F144" t="s">
-        <v>773</v>
-      </c>
-      <c r="G144" t="n">
-        <v>764</v>
-      </c>
-      <c r="H144" t="n">
-        <v>4717375</v>
-      </c>
-      <c r="I144" t="n">
-        <v>2269.362</v>
-      </c>
-      <c r="J144" t="n">
-        <v>12987</v>
-      </c>
-      <c r="K144" t="n">
-        <v>6.248</v>
-      </c>
-      <c r="L144" t="n">
-        <v>13393</v>
-      </c>
-      <c r="M144" t="n">
-        <v>6.443</v>
-      </c>
-      <c r="N144" t="n">
-        <v>0.216</v>
-      </c>
-      <c r="O144" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="P144" t="s">
-        <v>774</v>
-      </c>
       <c r="Q144" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="R144" t="s">
         <v>61</v>
       </c>
       <c r="S144" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B145" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C145" s="1" t="n">
         <v>44632</v>
@@ -11172,136 +11070,132 @@
         <v>25</v>
       </c>
       <c r="S145" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
+        <v>777</v>
+      </c>
+      <c r="B146" t="s">
+        <v>778</v>
+      </c>
+      <c r="C146" s="1" t="n">
+        <v>44648</v>
+      </c>
+      <c r="D146" t="s">
         <v>779</v>
       </c>
-      <c r="B146" t="s">
+      <c r="E146" t="s">
         <v>780</v>
       </c>
-      <c r="C146" s="1" t="n">
-        <v>44644</v>
-      </c>
-      <c r="D146" t="s">
+      <c r="F146" t="s">
         <v>781</v>
       </c>
-      <c r="E146" t="s">
+      <c r="G146" t="n">
+        <v>748</v>
+      </c>
+      <c r="H146" t="n">
+        <v>23757304</v>
+      </c>
+      <c r="I146" t="n">
+        <v>395.678</v>
+      </c>
+      <c r="J146" t="n">
+        <v>12942</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="L146" t="n">
+        <v>22477</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0.374</v>
+      </c>
+      <c r="N146"/>
+      <c r="O146"/>
+      <c r="P146" t="s">
         <v>782</v>
       </c>
-      <c r="F146" t="s">
-        <v>783</v>
-      </c>
-      <c r="G146" t="n">
-        <v>744</v>
-      </c>
-      <c r="H146" t="n">
-        <v>23676087</v>
-      </c>
-      <c r="I146" t="n">
-        <v>394.325</v>
-      </c>
-      <c r="J146" t="n">
-        <v>32294</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.538</v>
-      </c>
-      <c r="L146" t="n">
-        <v>23111</v>
-      </c>
-      <c r="M146" t="n">
-        <v>0.385</v>
-      </c>
-      <c r="N146" t="n">
-        <v>0.0539</v>
-      </c>
-      <c r="O146" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="P146" t="s">
-        <v>784</v>
-      </c>
       <c r="Q146" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="R146" t="s">
         <v>45</v>
       </c>
       <c r="S146" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
+        <v>784</v>
+      </c>
+      <c r="B147" t="s">
+        <v>785</v>
+      </c>
+      <c r="C147" s="1" t="n">
+        <v>44647</v>
+      </c>
+      <c r="D147" t="s">
         <v>786</v>
       </c>
-      <c r="B147" t="s">
+      <c r="E147" t="s">
         <v>787</v>
       </c>
-      <c r="C147" s="1" t="n">
-        <v>44644</v>
-      </c>
-      <c r="D147" t="s">
+      <c r="F147" t="s">
         <v>788</v>
       </c>
-      <c r="E147" t="s">
+      <c r="G147" t="n">
+        <v>779</v>
+      </c>
+      <c r="H147" t="n">
+        <v>85330343</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1663.191</v>
+      </c>
+      <c r="J147" t="n">
+        <v>334483</v>
+      </c>
+      <c r="K147" t="n">
+        <v>6.519</v>
+      </c>
+      <c r="L147" t="n">
+        <v>539005</v>
+      </c>
+      <c r="M147" t="n">
+        <v>10.506</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0.6415</v>
+      </c>
+      <c r="O147" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P147" t="s">
         <v>789</v>
       </c>
-      <c r="F147" t="s">
+      <c r="Q147" t="s">
         <v>790</v>
-      </c>
-      <c r="G147" t="n">
-        <v>775</v>
-      </c>
-      <c r="H147" t="n">
-        <v>73628781</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1435.114</v>
-      </c>
-      <c r="J147" t="n">
-        <v>401183</v>
-      </c>
-      <c r="K147" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="L147" t="n">
-        <v>404030</v>
-      </c>
-      <c r="M147" t="n">
-        <v>7.875</v>
-      </c>
-      <c r="N147" t="n">
-        <v>0.8856</v>
-      </c>
-      <c r="O147" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P147" t="s">
-        <v>791</v>
-      </c>
-      <c r="Q147" t="s">
-        <v>792</v>
       </c>
       <c r="R147" t="s">
         <v>45</v>
       </c>
       <c r="S147" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B148" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>44644</v>
+        <v>44648</v>
       </c>
       <c r="D148" t="s">
         <v>35</v>
@@ -11311,28 +11205,24 @@
       </c>
       <c r="F148"/>
       <c r="G148" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H148" t="n">
-        <v>354647</v>
+        <v>358442</v>
       </c>
       <c r="I148" t="n">
-        <v>31.16</v>
+        <v>31.494</v>
       </c>
       <c r="J148"/>
       <c r="K148"/>
       <c r="L148" t="n">
-        <v>686</v>
+        <v>909</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="N148" t="n">
-        <v>0.0208</v>
-      </c>
-      <c r="O148" t="n">
-        <v>48</v>
-      </c>
+        <v>0.08</v>
+      </c>
+      <c r="N148"/>
+      <c r="O148"/>
       <c r="P148" t="s">
         <v>36</v>
       </c>
@@ -11343,129 +11233,129 @@
         <v>25</v>
       </c>
       <c r="S148" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
+        <v>795</v>
+      </c>
+      <c r="B149" t="s">
+        <v>796</v>
+      </c>
+      <c r="C149" s="1" t="n">
+        <v>44645</v>
+      </c>
+      <c r="D149" t="s">
         <v>797</v>
-      </c>
-      <c r="B149" t="s">
-        <v>798</v>
-      </c>
-      <c r="C149" s="1" t="n">
-        <v>44642</v>
-      </c>
-      <c r="D149" t="s">
-        <v>799</v>
       </c>
       <c r="E149" t="s">
         <v>53</v>
       </c>
       <c r="F149"/>
       <c r="G149" t="n">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="H149" t="n">
-        <v>87825816</v>
+        <v>88147343</v>
       </c>
       <c r="I149" t="n">
-        <v>1878.82</v>
+        <v>1885.698</v>
       </c>
       <c r="J149" t="n">
-        <v>92752</v>
+        <v>60487</v>
       </c>
       <c r="K149" t="n">
-        <v>1.984</v>
+        <v>1.294</v>
       </c>
       <c r="L149" t="n">
-        <v>84464</v>
+        <v>83657</v>
       </c>
       <c r="M149" t="n">
-        <v>1.807</v>
+        <v>1.79</v>
       </c>
       <c r="N149" t="n">
-        <v>0.184</v>
+        <v>0.191</v>
       </c>
       <c r="O149" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="P149" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="Q149" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="R149" t="s">
         <v>61</v>
       </c>
       <c r="S149" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
+        <v>800</v>
+      </c>
+      <c r="B150" t="s">
+        <v>801</v>
+      </c>
+      <c r="C150" s="1" t="n">
+        <v>44647</v>
+      </c>
+      <c r="D150" t="s">
         <v>802</v>
       </c>
-      <c r="B150" t="s">
+      <c r="E150" t="s">
         <v>803</v>
-      </c>
-      <c r="C150" s="1" t="n">
-        <v>44644</v>
-      </c>
-      <c r="D150" t="s">
-        <v>804</v>
-      </c>
-      <c r="E150" t="s">
-        <v>805</v>
       </c>
       <c r="F150"/>
       <c r="G150" t="n">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="H150" t="n">
-        <v>7525154</v>
+        <v>7535729</v>
       </c>
       <c r="I150" t="n">
-        <v>350.051</v>
+        <v>350.543</v>
       </c>
       <c r="J150" t="n">
-        <v>4749</v>
+        <v>5048</v>
       </c>
       <c r="K150" t="n">
-        <v>0.221</v>
+        <v>0.235</v>
       </c>
       <c r="L150" t="n">
-        <v>5257</v>
+        <v>4573</v>
       </c>
       <c r="M150" t="n">
-        <v>0.245</v>
+        <v>0.213</v>
       </c>
       <c r="N150" t="n">
-        <v>0.0805</v>
+        <v>0.0841</v>
       </c>
       <c r="O150" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="P150" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="Q150" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="R150" t="s">
         <v>61</v>
       </c>
       <c r="S150" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B151" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C151" s="1" t="n">
         <v>44605</v>
@@ -11502,24 +11392,24 @@
         <v>25</v>
       </c>
       <c r="S151" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B152" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C152" s="1" t="n">
         <v>44644</v>
       </c>
       <c r="D152" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E152" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F152"/>
       <c r="G152" t="n">
@@ -11550,33 +11440,33 @@
         <v>7.3</v>
       </c>
       <c r="P152" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="Q152" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="R152" t="s">
         <v>25</v>
       </c>
       <c r="S152" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B153" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C153" s="1" t="n">
         <v>44640</v>
       </c>
       <c r="D153" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E153" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F153"/>
       <c r="G153" t="n">
@@ -11607,27 +11497,27 @@
         <v>4.4</v>
       </c>
       <c r="P153" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="Q153" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="R153" t="s">
         <v>61</v>
       </c>
       <c r="S153" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B154" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>44643</v>
+        <v>44647</v>
       </c>
       <c r="D154" t="s">
         <v>522</v>
@@ -11637,31 +11527,31 @@
       </c>
       <c r="F154"/>
       <c r="G154" t="n">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="H154" t="n">
-        <v>20013935</v>
+        <v>20157569</v>
       </c>
       <c r="I154" t="n">
-        <v>2296.363</v>
+        <v>2312.843</v>
       </c>
       <c r="J154" t="n">
-        <v>44888</v>
+        <v>13353</v>
       </c>
       <c r="K154" t="n">
-        <v>5.15</v>
+        <v>1.532</v>
       </c>
       <c r="L154" t="n">
-        <v>51840</v>
+        <v>45374</v>
       </c>
       <c r="M154" t="n">
-        <v>5.948</v>
+        <v>5.206</v>
       </c>
       <c r="N154" t="n">
-        <v>0.477</v>
+        <v>0.44</v>
       </c>
       <c r="O154" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="P154" t="s">
         <v>523</v>
@@ -11673,15 +11563,15 @@
         <v>61</v>
       </c>
       <c r="S154" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B155" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C155" s="1" t="n">
         <v>44632</v>
@@ -11731,73 +11621,69 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
+        <v>825</v>
+      </c>
+      <c r="B156" t="s">
+        <v>826</v>
+      </c>
+      <c r="C156" s="1" t="n">
+        <v>44648</v>
+      </c>
+      <c r="D156" t="s">
         <v>827</v>
       </c>
-      <c r="B156" t="s">
+      <c r="E156" t="s">
         <v>828</v>
-      </c>
-      <c r="C156" s="1" t="n">
-        <v>44644</v>
-      </c>
-      <c r="D156" t="s">
-        <v>829</v>
-      </c>
-      <c r="E156" t="s">
-        <v>830</v>
       </c>
       <c r="F156"/>
       <c r="G156" t="n">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="H156" t="n">
-        <v>6836408</v>
+        <v>6931880</v>
       </c>
       <c r="I156" t="n">
-        <v>286.582</v>
+        <v>290.584</v>
       </c>
       <c r="J156" t="n">
-        <v>12468</v>
+        <v>20974</v>
       </c>
       <c r="K156" t="n">
-        <v>0.523</v>
+        <v>0.879</v>
       </c>
       <c r="L156" t="n">
-        <v>19343</v>
+        <v>21321</v>
       </c>
       <c r="M156" t="n">
-        <v>0.811</v>
-      </c>
-      <c r="N156" t="n">
-        <v>0.0055</v>
-      </c>
-      <c r="O156" t="n">
-        <v>182</v>
-      </c>
+        <v>0.894</v>
+      </c>
+      <c r="N156"/>
+      <c r="O156"/>
       <c r="P156" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="Q156" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="R156" t="s">
         <v>45</v>
       </c>
       <c r="S156" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B157" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C157" s="1" t="n">
         <v>44610</v>
       </c>
       <c r="D157" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E157" t="s">
         <v>53</v>
@@ -11830,30 +11716,30 @@
         <v>36</v>
       </c>
       <c r="Q157" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="R157" t="s">
         <v>25</v>
       </c>
       <c r="S157" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B158" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C158" s="1" t="n">
         <v>44625</v>
       </c>
       <c r="D158" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E158" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="F158"/>
       <c r="G158" t="n">
@@ -11884,30 +11770,30 @@
         <v>2.7</v>
       </c>
       <c r="P158" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="Q158" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="R158" t="s">
         <v>61</v>
       </c>
       <c r="S158" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B159" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C159" s="1" t="n">
         <v>44632</v>
       </c>
       <c r="D159" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E159" t="s">
         <v>53</v>
@@ -11940,140 +11826,140 @@
         <v>53</v>
       </c>
       <c r="Q159" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="R159" t="s">
         <v>25</v>
       </c>
       <c r="S159" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
+        <v>846</v>
+      </c>
+      <c r="B160" t="s">
+        <v>847</v>
+      </c>
+      <c r="C160" s="1" t="n">
+        <v>44647</v>
+      </c>
+      <c r="D160" t="s">
         <v>848</v>
-      </c>
-      <c r="B160" t="s">
-        <v>849</v>
-      </c>
-      <c r="C160" s="1" t="n">
-        <v>44644</v>
-      </c>
-      <c r="D160" t="s">
-        <v>850</v>
       </c>
       <c r="E160" t="s">
         <v>53</v>
       </c>
       <c r="F160"/>
       <c r="G160" t="n">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H160" t="n">
-        <v>713359</v>
+        <v>716349</v>
       </c>
       <c r="I160" t="n">
-        <v>84.14</v>
+        <v>84.493</v>
       </c>
       <c r="J160"/>
       <c r="K160"/>
       <c r="L160" t="n">
-        <v>901</v>
+        <v>931</v>
       </c>
       <c r="M160" t="n">
-        <v>0.106</v>
+        <v>0.11</v>
       </c>
       <c r="N160" t="n">
-        <v>0.0057</v>
+        <v>0.006</v>
       </c>
       <c r="O160" t="n">
-        <v>175.2</v>
+        <v>167.1</v>
       </c>
       <c r="P160" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="Q160" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="R160" t="s">
         <v>61</v>
       </c>
       <c r="S160" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
+        <v>851</v>
+      </c>
+      <c r="B161" t="s">
+        <v>852</v>
+      </c>
+      <c r="C161" s="1" t="n">
+        <v>44647</v>
+      </c>
+      <c r="D161" t="s">
         <v>853</v>
-      </c>
-      <c r="B161" t="s">
-        <v>854</v>
-      </c>
-      <c r="C161" s="1" t="n">
-        <v>44643</v>
-      </c>
-      <c r="D161" t="s">
-        <v>855</v>
       </c>
       <c r="E161" t="s">
         <v>53</v>
       </c>
       <c r="F161"/>
       <c r="G161" t="n">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="H161" t="n">
-        <v>665489</v>
+        <v>668817</v>
       </c>
       <c r="I161" t="n">
-        <v>474.206</v>
+        <v>476.578</v>
       </c>
       <c r="J161" t="n">
-        <v>3769</v>
+        <v>630</v>
       </c>
       <c r="K161" t="n">
-        <v>2.686</v>
+        <v>0.449</v>
       </c>
       <c r="L161" t="n">
-        <v>1302</v>
+        <v>1237</v>
       </c>
       <c r="M161" t="n">
-        <v>0.928</v>
+        <v>0.881</v>
       </c>
       <c r="N161" t="n">
-        <v>0.227</v>
+        <v>0.233</v>
       </c>
       <c r="O161" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="P161" t="s">
         <v>53</v>
       </c>
       <c r="Q161" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="R161" t="s">
         <v>45</v>
       </c>
       <c r="S161" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B162" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C162" s="1" t="n">
         <v>44640</v>
       </c>
       <c r="D162" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E162" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F162"/>
       <c r="G162" t="n">
@@ -12100,84 +11986,84 @@
         <v>48.1</v>
       </c>
       <c r="P162" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="Q162" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="R162" t="s">
         <v>45</v>
       </c>
       <c r="S162" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
+        <v>863</v>
+      </c>
+      <c r="B163" t="s">
+        <v>864</v>
+      </c>
+      <c r="C163" s="1" t="n">
+        <v>44643</v>
+      </c>
+      <c r="D163" t="s">
         <v>865</v>
       </c>
-      <c r="B163" t="s">
+      <c r="E163" t="s">
         <v>866</v>
-      </c>
-      <c r="C163" s="1" t="n">
-        <v>44644</v>
-      </c>
-      <c r="D163" t="s">
-        <v>867</v>
-      </c>
-      <c r="E163" t="s">
-        <v>868</v>
       </c>
       <c r="F163"/>
       <c r="G163" t="n">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H163" t="n">
-        <v>152150004</v>
+        <v>151851543</v>
       </c>
       <c r="I163" t="n">
-        <v>1789.101</v>
+        <v>1785.591</v>
       </c>
       <c r="J163" t="n">
-        <v>298461</v>
+        <v>301014</v>
       </c>
       <c r="K163" t="n">
-        <v>3.51</v>
+        <v>3.54</v>
       </c>
       <c r="L163" t="n">
-        <v>292403</v>
+        <v>295374</v>
       </c>
       <c r="M163" t="n">
-        <v>3.438</v>
+        <v>3.473</v>
       </c>
       <c r="N163" t="n">
-        <v>0.0566</v>
+        <v>0.0582</v>
       </c>
       <c r="O163" t="n">
-        <v>17.7</v>
+        <v>17.2</v>
       </c>
       <c r="P163" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="Q163" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="R163" t="s">
         <v>61</v>
       </c>
       <c r="S163" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B164" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>44644</v>
+        <v>44648</v>
       </c>
       <c r="D164" t="s">
         <v>35</v>
@@ -12187,28 +12073,24 @@
       </c>
       <c r="F164"/>
       <c r="G164" t="n">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H164" t="n">
-        <v>2529930</v>
+        <v>2542633</v>
       </c>
       <c r="I164" t="n">
-        <v>53.687</v>
+        <v>53.957</v>
       </c>
       <c r="J164"/>
       <c r="K164"/>
       <c r="L164" t="n">
-        <v>3289</v>
+        <v>3578</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="N164" t="n">
-        <v>0.0083</v>
-      </c>
-      <c r="O164" t="n">
-        <v>121.2</v>
-      </c>
+        <v>0.076</v>
+      </c>
+      <c r="N164"/>
+      <c r="O164"/>
       <c r="P164" t="s">
         <v>36</v>
       </c>
@@ -12219,24 +12101,24 @@
         <v>61</v>
       </c>
       <c r="S164" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B165" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C165" s="1" t="n">
         <v>44610</v>
       </c>
       <c r="D165" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E165" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F165"/>
       <c r="G165" t="n">
@@ -12263,165 +12145,161 @@
         <v>1.7</v>
       </c>
       <c r="P165" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="Q165" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="R165" t="s">
         <v>61</v>
       </c>
       <c r="S165" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
+        <v>878</v>
+      </c>
+      <c r="B166" t="s">
+        <v>879</v>
+      </c>
+      <c r="C166" s="1" t="n">
+        <v>44648</v>
+      </c>
+      <c r="D166" t="s">
         <v>880</v>
       </c>
-      <c r="B166" t="s">
+      <c r="E166" t="s">
         <v>881</v>
-      </c>
-      <c r="C166" s="1" t="n">
-        <v>44645</v>
-      </c>
-      <c r="D166" t="s">
-        <v>882</v>
-      </c>
-      <c r="E166" t="s">
-        <v>883</v>
       </c>
       <c r="F166"/>
       <c r="G166" t="n">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="H166" t="n">
-        <v>146281326</v>
+        <v>147145013</v>
       </c>
       <c r="I166" t="n">
-        <v>14641.188</v>
+        <v>14727.634</v>
       </c>
       <c r="J166" t="n">
-        <v>275579</v>
+        <v>229355</v>
       </c>
       <c r="K166" t="n">
-        <v>27.582</v>
+        <v>22.956</v>
       </c>
       <c r="L166" t="n">
-        <v>303760</v>
+        <v>300191</v>
       </c>
       <c r="M166" t="n">
-        <v>30.403</v>
+        <v>30.046</v>
       </c>
       <c r="N166"/>
       <c r="O166"/>
       <c r="P166" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="Q166" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="R166" t="s">
         <v>61</v>
       </c>
       <c r="S166" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
+        <v>884</v>
+      </c>
+      <c r="B167" t="s">
+        <v>885</v>
+      </c>
+      <c r="C167" s="1" t="n">
+        <v>44647</v>
+      </c>
+      <c r="D167" t="s">
         <v>886</v>
       </c>
-      <c r="B167" t="s">
+      <c r="E167" t="s">
         <v>887</v>
-      </c>
-      <c r="C167" s="1" t="n">
-        <v>44643</v>
-      </c>
-      <c r="D167" t="s">
-        <v>888</v>
-      </c>
-      <c r="E167" t="s">
-        <v>889</v>
       </c>
       <c r="F167"/>
       <c r="G167" t="n">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="H167" t="n">
-        <v>481085739</v>
+        <v>483762402</v>
       </c>
       <c r="I167" t="n">
-        <v>7053.307</v>
+        <v>7092.551</v>
       </c>
       <c r="J167" t="n">
-        <v>836203</v>
+        <v>617522</v>
       </c>
       <c r="K167" t="n">
-        <v>12.26</v>
+        <v>9.054</v>
       </c>
       <c r="L167" t="n">
-        <v>758199</v>
+        <v>740542</v>
       </c>
       <c r="M167" t="n">
-        <v>11.116</v>
-      </c>
-      <c r="N167" t="n">
-        <v>0.1144</v>
-      </c>
-      <c r="O167" t="n">
-        <v>8.7</v>
-      </c>
+        <v>10.857</v>
+      </c>
+      <c r="N167"/>
+      <c r="O167"/>
       <c r="P167" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="Q167" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="R167" t="s">
         <v>61</v>
       </c>
       <c r="S167" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
+        <v>891</v>
+      </c>
+      <c r="B168" t="s">
+        <v>892</v>
+      </c>
+      <c r="C168" s="1" t="n">
+        <v>44642</v>
+      </c>
+      <c r="D168" t="s">
         <v>893</v>
       </c>
-      <c r="B168" t="s">
+      <c r="E168" t="s">
         <v>894</v>
-      </c>
-      <c r="C168" s="1" t="n">
-        <v>44639</v>
-      </c>
-      <c r="D168" t="s">
-        <v>895</v>
-      </c>
-      <c r="E168" t="s">
-        <v>896</v>
       </c>
       <c r="F168"/>
       <c r="G168" t="n">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="H168" t="n">
-        <v>839971477</v>
+        <v>842683453</v>
       </c>
       <c r="I168" t="n">
-        <v>2523.08</v>
+        <v>2531.226</v>
       </c>
       <c r="J168" t="n">
-        <v>440767</v>
+        <v>958496</v>
       </c>
       <c r="K168" t="n">
-        <v>1.324</v>
+        <v>2.879</v>
       </c>
       <c r="L168" t="n">
-        <v>818363</v>
+        <v>834280</v>
       </c>
       <c r="M168" t="n">
-        <v>2.458</v>
+        <v>2.506</v>
       </c>
       <c r="N168" t="n">
         <v>0.022</v>
@@ -12430,87 +12308,87 @@
         <v>45.5</v>
       </c>
       <c r="P168" t="s">
+        <v>894</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>893</v>
+      </c>
+      <c r="R168" t="s">
+        <v>895</v>
+      </c>
+      <c r="S168" t="s">
         <v>896</v>
-      </c>
-      <c r="Q168" t="s">
-        <v>895</v>
-      </c>
-      <c r="R168" t="s">
-        <v>897</v>
-      </c>
-      <c r="S168" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
+        <v>897</v>
+      </c>
+      <c r="B169" t="s">
+        <v>898</v>
+      </c>
+      <c r="C169" s="1" t="n">
+        <v>44647</v>
+      </c>
+      <c r="D169" t="s">
         <v>899</v>
-      </c>
-      <c r="B169" t="s">
-        <v>900</v>
-      </c>
-      <c r="C169" s="1" t="n">
-        <v>44644</v>
-      </c>
-      <c r="D169" t="s">
-        <v>901</v>
       </c>
       <c r="E169" t="s">
         <v>237</v>
       </c>
       <c r="F169"/>
       <c r="G169" t="n">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="H169" t="n">
-        <v>5933925</v>
+        <v>5962401</v>
       </c>
       <c r="I169" t="n">
-        <v>1702.63</v>
+        <v>1710.801</v>
       </c>
       <c r="J169" t="n">
-        <v>13851</v>
+        <v>7244</v>
       </c>
       <c r="K169" t="n">
-        <v>3.974</v>
+        <v>2.079</v>
       </c>
       <c r="L169" t="n">
-        <v>11361</v>
+        <v>11126</v>
       </c>
       <c r="M169" t="n">
-        <v>3.26</v>
+        <v>3.192</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1266</v>
+        <v>0.1126</v>
       </c>
       <c r="O169" t="n">
-        <v>7.9</v>
+        <v>8.9</v>
       </c>
       <c r="P169" t="s">
         <v>237</v>
       </c>
       <c r="Q169" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="R169" t="s">
         <v>61</v>
       </c>
       <c r="S169" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B170" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C170" s="1" t="n">
         <v>44619</v>
       </c>
       <c r="D170" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E170" t="s">
         <v>53</v>
@@ -12540,73 +12418,73 @@
         <v>76</v>
       </c>
       <c r="P170" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="Q170" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="R170" t="s">
         <v>311</v>
       </c>
       <c r="S170" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
+        <v>907</v>
+      </c>
+      <c r="B171" t="s">
+        <v>908</v>
+      </c>
+      <c r="C171" s="1" t="n">
+        <v>44648</v>
+      </c>
+      <c r="D171" t="s">
         <v>909</v>
       </c>
-      <c r="B171" t="s">
+      <c r="E171" t="s">
         <v>910</v>
-      </c>
-      <c r="C171" s="1" t="n">
-        <v>44641</v>
-      </c>
-      <c r="D171" t="s">
-        <v>911</v>
-      </c>
-      <c r="E171" t="s">
-        <v>912</v>
       </c>
       <c r="F171"/>
       <c r="G171" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H171" t="n">
-        <v>83048614</v>
+        <v>84027988</v>
       </c>
       <c r="I171" t="n">
-        <v>845.977</v>
+        <v>855.954</v>
       </c>
       <c r="J171"/>
       <c r="K171"/>
       <c r="L171" t="n">
-        <v>187122</v>
+        <v>139911</v>
       </c>
       <c r="M171" t="n">
-        <v>1.906</v>
+        <v>1.425</v>
       </c>
       <c r="N171"/>
       <c r="O171"/>
       <c r="P171" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="Q171" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="R171" t="s">
         <v>45</v>
       </c>
       <c r="S171" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B172" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C172" s="1" t="n">
         <v>44632</v>
@@ -12652,70 +12530,70 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
+        <v>916</v>
+      </c>
+      <c r="B173" t="s">
+        <v>917</v>
+      </c>
+      <c r="C173" s="1" t="n">
+        <v>44646</v>
+      </c>
+      <c r="D173" t="s">
         <v>918</v>
       </c>
-      <c r="B173" t="s">
+      <c r="E173" t="s">
         <v>919</v>
-      </c>
-      <c r="C173" s="1" t="n">
-        <v>44641</v>
-      </c>
-      <c r="D173" t="s">
-        <v>920</v>
-      </c>
-      <c r="E173" t="s">
-        <v>921</v>
       </c>
       <c r="F173"/>
       <c r="G173" t="n">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="H173" t="n">
-        <v>3331691</v>
+        <v>3346905</v>
       </c>
       <c r="I173" t="n">
-        <v>176.087</v>
+        <v>176.892</v>
       </c>
       <c r="J173" t="n">
-        <v>1752</v>
+        <v>2364</v>
       </c>
       <c r="K173" t="n">
-        <v>0.093</v>
+        <v>0.125</v>
       </c>
       <c r="L173" t="n">
-        <v>2767</v>
+        <v>2674</v>
       </c>
       <c r="M173" t="n">
-        <v>0.146</v>
+        <v>0.141</v>
       </c>
       <c r="N173" t="n">
-        <v>0.0356</v>
+        <v>0.0469</v>
       </c>
       <c r="O173" t="n">
-        <v>28.1</v>
+        <v>21.3</v>
       </c>
       <c r="P173" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="Q173" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="R173" t="s">
         <v>61</v>
       </c>
       <c r="S173" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B174" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>44644</v>
+        <v>44648</v>
       </c>
       <c r="D174" t="s">
         <v>35</v>
@@ -12725,28 +12603,24 @@
       </c>
       <c r="F174"/>
       <c r="G174" t="n">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H174" t="n">
-        <v>2164528</v>
+        <v>2176708</v>
       </c>
       <c r="I174" t="n">
-        <v>143.421</v>
+        <v>144.228</v>
       </c>
       <c r="J174"/>
       <c r="K174"/>
       <c r="L174" t="n">
-        <v>2750</v>
+        <v>2747</v>
       </c>
       <c r="M174" t="n">
         <v>0.182</v>
       </c>
-      <c r="N174" t="n">
-        <v>0.0802</v>
-      </c>
-      <c r="O174" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="N174"/>
+      <c r="O174"/>
       <c r="P174" t="s">
         <v>36</v>
       </c>
@@ -12757,7 +12631,7 @@
         <v>61</v>
       </c>
       <c r="S174" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="928">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -1518,7 +1518,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-wednesday-march-23-2022/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-monday-march-28-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -2193,7 +2193,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.facebook.com/mohps/posts/pfbid031YuxVi7tQ7xggCWahCNEqnu31nNwB53PrBhHqSmU8C9B1t7zDRsnNWbf2Qf93pDtl?__cft__[0]=AZVh7w_qvT6FL0hwNzWUYISLrIp7ItQaxIIiMygkitGjbhLrgGOOnnxKZP_kyWVGr66586rhPzyR9qDctKuKpbRJ35WB4x4h4cLASjAzu1r6PheQ0-tgHI4GdfH-ah_4m2ju3Ej4uB87wZQr-6v5MPR_bh3YOKkW4sD6v79L0QdmAg&amp;__tn__=%2CO%2CP-R</t>
+    <t xml:space="preserve">https://web.facebook.com/mohps/posts/322661553294147</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -2215,7 +2215,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1507126839071977476</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1508968977707544578</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -2338,6 +2338,27 @@
     <t xml:space="preserve">The dashboard provides figures for the number of samples processed, both as daily figures and as cumulative figure since 1 March 2020.
 Up until 29 April 2020 we had reported a figure of the number of people tested, obtained as the sum of confirmed and unconfirmed cases in the Portugal Ministry of Health (MOH) [daily updates](https://covid19.min-saude.pt/relatorio-de-situacao/). We were alerted by a Technical Advisor within the Cabinet of the Secretary of Health to the fact that these figures only captures people who were reported through the National System of Epidemiological Surveillance which does not include many of the people that get tested but are never entered into the surveillance system (because they do not meet the criteria and go on to test negatively). For this reason we have now switched to the current series. The advisor confirmed to us that this series: includes all the public, private and university labs performing SARS-CoV-2 diagnosis in Portugal; does not include tests pending results.
 Since October 2020, rapid antigen tests are also being performed for the diagnosis of COVID-19 in Portugal. Since positive results from these antigen tests are notified and counted in daily national figures for confirmed cases, we include them in the number of tests performed in the country. Some laboratories are performing PCR confirmatory tests on both negative and positive antigen tests.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puerto Rico - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://healthdata.gov/dataset/COVID-19-Diagnostic-Laboratory-Testing-PCR-Testing/j8mb-icvb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Health &amp; Human Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of tests performed. The figures are the sum across states, some of which may include serology and antigen tests in addition to PCR tests.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our principal time series for Puerto Rico is based on the CSV file made available by the Department of Health &amp; Human Services on HealthData.gov.
+According to the metadata, the data "is representative of diagnostic specimens being tested - not individual people (...). Data presented might not represent the most current counts for the most recent 3 days due to the time it takes to report testing information. The data may also not include results from all potential testing sites within the jurisdiction (e.g., non-laboratory or point of care test sites)."
+It is also explained in the description that the data "excludes serology tests where possible", which may indicate that not 100% of the tests included in the time series are PCR tests.
+Note that due to the great diversity of counting methods across US states for both cases and tests, calculating an accurate positive rate for the entire country can be very challenging. The volunteer-led COVID Tracking Project has a very useful blog post summarizing these obstacles: '[Test Positivity in the US Is a Mess](https://covidtracking.com/analysis-updates/test-positivity-in-the-us-is-a-mess)'.</t>
   </si>
   <si>
     <t xml:space="preserve">QAT</t>
@@ -2987,15 +3008,6 @@
   </si>
   <si>
     <t xml:space="preserve">United States - tests performed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://healthdata.gov/dataset/COVID-19-Diagnostic-Laboratory-Testing-PCR-Testing/j8mb-icvb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Department of Health &amp; Human Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of tests performed. The figures are the sum across states, some of which may include serology tests in addition to PCR tests.</t>
   </si>
   <si>
     <t xml:space="preserve">Since August 2020, our principal time series for the United States is based on the CSV file made available by the Department of Health &amp; Human Services on HealthData.gov.
@@ -3741,8 +3753,12 @@
       <c r="M6" t="n">
         <v>0.053</v>
       </c>
-      <c r="N6"/>
-      <c r="O6"/>
+      <c r="N6" t="n">
+        <v>0.0083</v>
+      </c>
+      <c r="O6" t="n">
+        <v>120</v>
+      </c>
       <c r="P6" t="s">
         <v>36</v>
       </c>
@@ -3963,8 +3979,12 @@
       <c r="M10" t="n">
         <v>4.219</v>
       </c>
-      <c r="N10"/>
-      <c r="O10"/>
+      <c r="N10" t="n">
+        <v>0.5062</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
       <c r="P10" t="s">
         <v>71</v>
       </c>
@@ -4016,8 +4036,12 @@
       <c r="M11" t="n">
         <v>46.592</v>
       </c>
-      <c r="N11"/>
-      <c r="O11"/>
+      <c r="N11" t="n">
+        <v>0.0846</v>
+      </c>
+      <c r="O11" t="n">
+        <v>11.8</v>
+      </c>
       <c r="P11" t="s">
         <v>78</v>
       </c>
@@ -4065,8 +4089,12 @@
       <c r="M12" t="n">
         <v>0.237</v>
       </c>
-      <c r="N12"/>
-      <c r="O12"/>
+      <c r="N12" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="O12" t="n">
+        <v>66.6</v>
+      </c>
       <c r="P12" t="s">
         <v>83</v>
       </c>
@@ -4167,8 +4195,12 @@
       <c r="M14" t="n">
         <v>3.271</v>
       </c>
-      <c r="N14"/>
-      <c r="O14"/>
+      <c r="N14" t="n">
+        <v>0.1597</v>
+      </c>
+      <c r="O14" t="n">
+        <v>6.3</v>
+      </c>
       <c r="P14" t="s">
         <v>95</v>
       </c>
@@ -4220,8 +4252,12 @@
       <c r="M15" t="n">
         <v>0.018</v>
       </c>
-      <c r="N15"/>
-      <c r="O15"/>
+      <c r="N15" t="n">
+        <v>0.0297</v>
+      </c>
+      <c r="O15" t="n">
+        <v>33.7</v>
+      </c>
       <c r="P15" t="s">
         <v>102</v>
       </c>
@@ -4322,8 +4358,12 @@
       <c r="M17" t="n">
         <v>1.275</v>
       </c>
-      <c r="N17"/>
-      <c r="O17"/>
+      <c r="N17" t="n">
+        <v>0.0955</v>
+      </c>
+      <c r="O17" t="n">
+        <v>10.5</v>
+      </c>
       <c r="P17" t="s">
         <v>113</v>
       </c>
@@ -4901,8 +4941,12 @@
       <c r="M28" t="n">
         <v>0.179</v>
       </c>
-      <c r="N28"/>
-      <c r="O28"/>
+      <c r="N28" t="n">
+        <v>0.0059</v>
+      </c>
+      <c r="O28" t="n">
+        <v>168.8</v>
+      </c>
       <c r="P28" t="s">
         <v>36</v>
       </c>
@@ -4950,8 +4994,12 @@
       <c r="M29" t="n">
         <v>0.072</v>
       </c>
-      <c r="N29"/>
-      <c r="O29"/>
+      <c r="N29" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O29" t="n">
+        <v>20</v>
+      </c>
       <c r="P29" t="s">
         <v>176</v>
       </c>
@@ -5262,8 +5310,12 @@
       <c r="M35" t="n">
         <v>4.033</v>
       </c>
-      <c r="N35"/>
-      <c r="O35"/>
+      <c r="N35" t="n">
+        <v>0.0994</v>
+      </c>
+      <c r="O35" t="n">
+        <v>10.1</v>
+      </c>
       <c r="P35" t="s">
         <v>202</v>
       </c>
@@ -5523,8 +5575,12 @@
       <c r="M40" t="n">
         <v>0.055</v>
       </c>
-      <c r="N40"/>
-      <c r="O40"/>
+      <c r="N40" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="O40" t="n">
+        <v>223.4</v>
+      </c>
       <c r="P40" t="s">
         <v>36</v>
       </c>
@@ -5572,8 +5628,12 @@
       <c r="M41" t="n">
         <v>1.27</v>
       </c>
-      <c r="N41"/>
-      <c r="O41"/>
+      <c r="N41" t="n">
+        <v>0.2728</v>
+      </c>
+      <c r="O41" t="n">
+        <v>3.7</v>
+      </c>
       <c r="P41" t="s">
         <v>231</v>
       </c>
@@ -5904,8 +5964,12 @@
       <c r="M47" t="n">
         <v>0.414</v>
       </c>
-      <c r="N47"/>
-      <c r="O47"/>
+      <c r="N47" t="n">
+        <v>0.0041</v>
+      </c>
+      <c r="O47" t="n">
+        <v>242.1</v>
+      </c>
       <c r="P47" t="s">
         <v>36</v>
       </c>
@@ -6069,8 +6133,12 @@
       <c r="M50" t="n">
         <v>0.01</v>
       </c>
-      <c r="N50"/>
-      <c r="O50"/>
+      <c r="N50" t="n">
+        <v>0.7733</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.3</v>
+      </c>
       <c r="P50" t="s">
         <v>36</v>
       </c>
@@ -6330,8 +6398,12 @@
       <c r="M55" t="n">
         <v>0.917</v>
       </c>
-      <c r="N55"/>
-      <c r="O55"/>
+      <c r="N55" t="n">
+        <v>0.0145</v>
+      </c>
+      <c r="O55" t="n">
+        <v>69</v>
+      </c>
       <c r="P55" t="s">
         <v>36</v>
       </c>
@@ -6379,8 +6451,12 @@
       <c r="M56" t="n">
         <v>0.042</v>
       </c>
-      <c r="N56"/>
-      <c r="O56"/>
+      <c r="N56" t="n">
+        <v>0.0055</v>
+      </c>
+      <c r="O56" t="n">
+        <v>183.4</v>
+      </c>
       <c r="P56" t="s">
         <v>303</v>
       </c>
@@ -6860,8 +6936,12 @@
       <c r="M65" t="n">
         <v>0.098</v>
       </c>
-      <c r="N65"/>
-      <c r="O65"/>
+      <c r="N65" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="O65" t="n">
+        <v>352.2</v>
+      </c>
       <c r="P65" t="s">
         <v>36</v>
       </c>
@@ -6909,8 +6989,12 @@
       <c r="M66" t="n">
         <v>15.464</v>
       </c>
-      <c r="N66"/>
-      <c r="O66"/>
+      <c r="N66" t="n">
+        <v>0.1481</v>
+      </c>
+      <c r="O66" t="n">
+        <v>6.8</v>
+      </c>
       <c r="P66" t="s">
         <v>358</v>
       </c>
@@ -6958,8 +7042,12 @@
       <c r="M67" t="n">
         <v>24.842</v>
       </c>
-      <c r="N67"/>
-      <c r="O67"/>
+      <c r="N67" t="n">
+        <v>0.0808</v>
+      </c>
+      <c r="O67" t="n">
+        <v>12.4</v>
+      </c>
       <c r="P67" t="s">
         <v>364</v>
       </c>
@@ -7117,8 +7205,12 @@
       <c r="M70" t="n">
         <v>0.069</v>
       </c>
-      <c r="N70"/>
-      <c r="O70"/>
+      <c r="N70" t="n">
+        <v>0.0276</v>
+      </c>
+      <c r="O70" t="n">
+        <v>36.3</v>
+      </c>
       <c r="P70" t="s">
         <v>36</v>
       </c>
@@ -7331,8 +7423,12 @@
       <c r="M74" t="n">
         <v>1.01</v>
       </c>
-      <c r="N74"/>
-      <c r="O74"/>
+      <c r="N74" t="n">
+        <v>0.2152</v>
+      </c>
+      <c r="O74" t="n">
+        <v>4.6</v>
+      </c>
       <c r="P74" t="s">
         <v>403</v>
       </c>
@@ -7549,8 +7645,12 @@
       <c r="M78" t="n">
         <v>0.734</v>
       </c>
-      <c r="N78"/>
-      <c r="O78"/>
+      <c r="N78" t="n">
+        <v>0.0268</v>
+      </c>
+      <c r="O78" t="n">
+        <v>37.3</v>
+      </c>
       <c r="P78" t="s">
         <v>428</v>
       </c>
@@ -7655,8 +7755,12 @@
       <c r="M80" t="n">
         <v>3.437</v>
       </c>
-      <c r="N80"/>
-      <c r="O80"/>
+      <c r="N80" t="n">
+        <v>0.4397</v>
+      </c>
+      <c r="O80" t="n">
+        <v>2.3</v>
+      </c>
       <c r="P80" t="s">
         <v>436</v>
       </c>
@@ -7767,8 +7871,12 @@
       <c r="M82" t="n">
         <v>7.821</v>
       </c>
-      <c r="N82"/>
-      <c r="O82"/>
+      <c r="N82" t="n">
+        <v>0.1516</v>
+      </c>
+      <c r="O82" t="n">
+        <v>6.6</v>
+      </c>
       <c r="P82" t="s">
         <v>450</v>
       </c>
@@ -7790,7 +7898,7 @@
         <v>454</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44643</v>
+        <v>44648</v>
       </c>
       <c r="D83" t="s">
         <v>455</v>
@@ -7800,31 +7908,31 @@
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="H83" t="n">
-        <v>907881</v>
+        <v>922458</v>
       </c>
       <c r="I83" t="n">
-        <v>305.328</v>
+        <v>310.23</v>
       </c>
       <c r="J83" t="n">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="K83" t="n">
         <v>0.777</v>
       </c>
       <c r="L83" t="n">
-        <v>2561</v>
+        <v>2712</v>
       </c>
       <c r="M83" t="n">
-        <v>0.861</v>
+        <v>0.912</v>
       </c>
       <c r="N83" t="n">
-        <v>0.0094</v>
+        <v>0.0073</v>
       </c>
       <c r="O83" t="n">
-        <v>106.7</v>
+        <v>136.6</v>
       </c>
       <c r="P83" t="s">
         <v>456</v>
@@ -8040,8 +8148,12 @@
       <c r="M87" t="n">
         <v>0.067</v>
       </c>
-      <c r="N87"/>
-      <c r="O87"/>
+      <c r="N87" t="n">
+        <v>0.0037</v>
+      </c>
+      <c r="O87" t="n">
+        <v>272.3</v>
+      </c>
       <c r="P87" t="s">
         <v>36</v>
       </c>
@@ -8254,8 +8366,12 @@
       <c r="M91" t="n">
         <v>4.027</v>
       </c>
-      <c r="N91"/>
-      <c r="O91"/>
+      <c r="N91" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="O91" t="n">
+        <v>2.7</v>
+      </c>
       <c r="P91" t="s">
         <v>500</v>
       </c>
@@ -8352,8 +8468,12 @@
       <c r="M93" t="n">
         <v>0.563</v>
       </c>
-      <c r="N93"/>
-      <c r="O93"/>
+      <c r="N93" t="n">
+        <v>0.0123</v>
+      </c>
+      <c r="O93" t="n">
+        <v>81.1</v>
+      </c>
       <c r="P93" t="s">
         <v>36</v>
       </c>
@@ -8715,8 +8835,12 @@
       <c r="M100" t="n">
         <v>0.021</v>
       </c>
-      <c r="N100"/>
-      <c r="O100"/>
+      <c r="N100" t="n">
+        <v>0.0197</v>
+      </c>
+      <c r="O100" t="n">
+        <v>50.8</v>
+      </c>
       <c r="P100" t="s">
         <v>36</v>
       </c>
@@ -8880,8 +9004,12 @@
       <c r="M103" t="n">
         <v>0.047</v>
       </c>
-      <c r="N103"/>
-      <c r="O103"/>
+      <c r="N103" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="O103" t="n">
+        <v>358.9</v>
+      </c>
       <c r="P103" t="s">
         <v>36</v>
       </c>
@@ -9182,8 +9310,12 @@
       <c r="M109" t="n">
         <v>1.057</v>
       </c>
-      <c r="N109"/>
-      <c r="O109"/>
+      <c r="N109" t="n">
+        <v>0.0671</v>
+      </c>
+      <c r="O109" t="n">
+        <v>14.9</v>
+      </c>
       <c r="P109" t="s">
         <v>53</v>
       </c>
@@ -9231,8 +9363,12 @@
       <c r="M110" t="n">
         <v>0.179</v>
       </c>
-      <c r="N110"/>
-      <c r="O110"/>
+      <c r="N110" t="n">
+        <v>0.0101</v>
+      </c>
+      <c r="O110" t="n">
+        <v>98.8</v>
+      </c>
       <c r="P110" t="s">
         <v>594</v>
       </c>
@@ -9280,8 +9416,12 @@
       <c r="M111" t="n">
         <v>0.021</v>
       </c>
-      <c r="N111"/>
-      <c r="O111"/>
+      <c r="N111" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="O111" t="n">
+        <v>167.8</v>
+      </c>
       <c r="P111" t="s">
         <v>36</v>
       </c>
@@ -9382,8 +9522,12 @@
       <c r="M113" t="n">
         <v>0.323</v>
       </c>
-      <c r="N113"/>
-      <c r="O113"/>
+      <c r="N113" t="n">
+        <v>0.0157</v>
+      </c>
+      <c r="O113" t="n">
+        <v>63.7</v>
+      </c>
       <c r="P113" t="s">
         <v>608</v>
       </c>
@@ -9590,8 +9734,12 @@
       <c r="M117" t="n">
         <v>0.019</v>
       </c>
-      <c r="N117"/>
-      <c r="O117"/>
+      <c r="N117" t="n">
+        <v>0.0021</v>
+      </c>
+      <c r="O117" t="n">
+        <v>474</v>
+      </c>
       <c r="P117" t="s">
         <v>36</v>
       </c>
@@ -9692,8 +9840,12 @@
       <c r="M119" t="n">
         <v>1.106</v>
       </c>
-      <c r="N119"/>
-      <c r="O119"/>
+      <c r="N119" t="n">
+        <v>0.1052</v>
+      </c>
+      <c r="O119" t="n">
+        <v>9.5</v>
+      </c>
       <c r="P119" t="s">
         <v>53</v>
       </c>
@@ -9847,8 +9999,12 @@
       <c r="M122" t="n">
         <v>0.135</v>
       </c>
-      <c r="N122"/>
-      <c r="O122"/>
+      <c r="N122" t="n">
+        <v>0.0091</v>
+      </c>
+      <c r="O122" t="n">
+        <v>109.8</v>
+      </c>
       <c r="P122" t="s">
         <v>652</v>
       </c>
@@ -9870,7 +10026,7 @@
         <v>655</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>44643</v>
+        <v>44647</v>
       </c>
       <c r="D123" t="s">
         <v>656</v>
@@ -9880,15 +10036,15 @@
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H123"/>
       <c r="I123"/>
       <c r="J123" t="n">
-        <v>4471</v>
+        <v>3815</v>
       </c>
       <c r="K123" t="n">
-        <v>0.856</v>
+        <v>0.73</v>
       </c>
       <c r="L123"/>
       <c r="M123"/>
@@ -9915,7 +10071,7 @@
         <v>661</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>44644</v>
+        <v>44649</v>
       </c>
       <c r="D124" t="s">
         <v>662</v>
@@ -9925,27 +10081,31 @@
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="H124" t="n">
-        <v>5656308</v>
+        <v>5686445</v>
       </c>
       <c r="I124" t="n">
-        <v>1290.928</v>
-      </c>
-      <c r="J124"/>
-      <c r="K124"/>
+        <v>1297.806</v>
+      </c>
+      <c r="J124" t="n">
+        <v>7696</v>
+      </c>
+      <c r="K124" t="n">
+        <v>1.756</v>
+      </c>
       <c r="L124" t="n">
-        <v>6206</v>
+        <v>6322</v>
       </c>
       <c r="M124" t="n">
-        <v>1.416</v>
+        <v>1.443</v>
       </c>
       <c r="N124" t="n">
-        <v>0.046</v>
+        <v>0.0435</v>
       </c>
       <c r="O124" t="n">
-        <v>21.7</v>
+        <v>23</v>
       </c>
       <c r="P124" t="s">
         <v>663</v>
@@ -10284,7 +10444,7 @@
         <v>701</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>44647</v>
+        <v>44646</v>
       </c>
       <c r="D131" t="s">
         <v>702</v>
@@ -10294,139 +10454,139 @@
       </c>
       <c r="F131"/>
       <c r="G131" t="n">
-        <v>281</v>
+        <v>755</v>
       </c>
       <c r="H131" t="n">
-        <v>6333416</v>
+        <v>2622514</v>
       </c>
       <c r="I131" t="n">
-        <v>2161.189</v>
+        <v>927.258</v>
       </c>
       <c r="J131" t="n">
-        <v>21316</v>
+        <v>998</v>
       </c>
       <c r="K131" t="n">
-        <v>7.274</v>
+        <v>0.353</v>
       </c>
       <c r="L131" t="n">
-        <v>19035</v>
+        <v>1866</v>
       </c>
       <c r="M131" t="n">
-        <v>6.495</v>
+        <v>0.66</v>
       </c>
       <c r="N131"/>
       <c r="O131"/>
       <c r="P131" t="s">
+        <v>703</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>702</v>
+      </c>
+      <c r="R131" t="s">
         <v>704</v>
       </c>
-      <c r="Q131" t="s">
+      <c r="S131" t="s">
         <v>705</v>
-      </c>
-      <c r="R131" t="s">
-        <v>45</v>
-      </c>
-      <c r="S131" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
+        <v>706</v>
+      </c>
+      <c r="B132" t="s">
         <v>707</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" s="1" t="n">
+        <v>44647</v>
+      </c>
+      <c r="D132" t="s">
         <v>708</v>
       </c>
-      <c r="C132" s="1" t="n">
-        <v>44630</v>
-      </c>
-      <c r="D132" t="s">
-        <v>691</v>
-      </c>
       <c r="E132" t="s">
-        <v>692</v>
+        <v>709</v>
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>104</v>
+        <v>281</v>
       </c>
       <c r="H132" t="n">
-        <v>21260367</v>
+        <v>6333416</v>
       </c>
       <c r="I132" t="n">
-        <v>1111.492</v>
-      </c>
-      <c r="J132"/>
-      <c r="K132"/>
+        <v>2161.189</v>
+      </c>
+      <c r="J132" t="n">
+        <v>21316</v>
+      </c>
+      <c r="K132" t="n">
+        <v>7.274</v>
+      </c>
       <c r="L132" t="n">
-        <v>75700</v>
+        <v>19035</v>
       </c>
       <c r="M132" t="n">
-        <v>3.958</v>
-      </c>
-      <c r="N132" t="n">
-        <v>0.0565</v>
-      </c>
-      <c r="O132" t="n">
-        <v>17.7</v>
-      </c>
+        <v>6.495</v>
+      </c>
+      <c r="N132"/>
+      <c r="O132"/>
       <c r="P132" t="s">
-        <v>693</v>
+        <v>710</v>
       </c>
       <c r="Q132" t="s">
-        <v>691</v>
+        <v>711</v>
       </c>
       <c r="R132" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="S132" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="B133" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>44647</v>
+        <v>44630</v>
       </c>
       <c r="D133" t="s">
-        <v>712</v>
+        <v>691</v>
       </c>
       <c r="E133" t="s">
-        <v>713</v>
+        <v>692</v>
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>562</v>
+        <v>104</v>
       </c>
       <c r="H133" t="n">
-        <v>283967438</v>
+        <v>21260367</v>
       </c>
       <c r="I133" t="n">
-        <v>1946.155</v>
+        <v>1111.492</v>
       </c>
       <c r="J133"/>
       <c r="K133"/>
       <c r="L133" t="n">
-        <v>233860</v>
+        <v>75700</v>
       </c>
       <c r="M133" t="n">
-        <v>1.603</v>
+        <v>3.958</v>
       </c>
       <c r="N133" t="n">
-        <v>0.108</v>
+        <v>0.0565</v>
       </c>
       <c r="O133" t="n">
-        <v>9.3</v>
+        <v>17.7</v>
       </c>
       <c r="P133" t="s">
-        <v>713</v>
+        <v>693</v>
       </c>
       <c r="Q133" t="s">
-        <v>714</v>
+        <v>691</v>
       </c>
       <c r="R133" t="s">
         <v>61</v>
@@ -10443,7 +10603,7 @@
         <v>717</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>44648</v>
+        <v>44647</v>
       </c>
       <c r="D134" t="s">
         <v>718</v>
@@ -10453,28 +10613,28 @@
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>598</v>
+        <v>562</v>
       </c>
       <c r="H134" t="n">
-        <v>5081757</v>
+        <v>283967438</v>
       </c>
       <c r="I134" t="n">
-        <v>382.763</v>
-      </c>
-      <c r="J134" t="n">
-        <v>7798</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.587</v>
-      </c>
+        <v>1946.155</v>
+      </c>
+      <c r="J134"/>
+      <c r="K134"/>
       <c r="L134" t="n">
-        <v>8209</v>
+        <v>233860</v>
       </c>
       <c r="M134" t="n">
-        <v>0.618</v>
-      </c>
-      <c r="N134"/>
-      <c r="O134"/>
+        <v>1.603</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="O134" t="n">
+        <v>9.3</v>
+      </c>
       <c r="P134" t="s">
         <v>719</v>
       </c>
@@ -10482,7 +10642,7 @@
         <v>720</v>
       </c>
       <c r="R134" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="S134" t="s">
         <v>721</v>
@@ -10502,303 +10662,317 @@
         <v>724</v>
       </c>
       <c r="E135" t="s">
-        <v>53</v>
+        <v>725</v>
       </c>
       <c r="F135"/>
       <c r="G135" t="n">
-        <v>134</v>
+        <v>598</v>
       </c>
       <c r="H135" t="n">
-        <v>67821</v>
+        <v>5081757</v>
       </c>
       <c r="I135" t="n">
-        <v>1266.593</v>
-      </c>
-      <c r="J135"/>
-      <c r="K135"/>
+        <v>382.763</v>
+      </c>
+      <c r="J135" t="n">
+        <v>7798</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.587</v>
+      </c>
       <c r="L135" t="n">
-        <v>44</v>
+        <v>8209</v>
       </c>
       <c r="M135" t="n">
-        <v>0.822</v>
-      </c>
-      <c r="N135"/>
-      <c r="O135"/>
+        <v>0.618</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="O135" t="n">
+        <v>1064.2</v>
+      </c>
       <c r="P135" t="s">
-        <v>53</v>
+        <v>725</v>
       </c>
       <c r="Q135" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="R135" t="s">
-        <v>311</v>
+        <v>136</v>
       </c>
       <c r="S135" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B136" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C136" s="1" t="n">
         <v>44648</v>
       </c>
       <c r="D136" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="E136" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="H136" t="n">
-        <v>140271</v>
+        <v>67821</v>
       </c>
       <c r="I136" t="n">
-        <v>760.685</v>
+        <v>1266.593</v>
       </c>
       <c r="J136"/>
       <c r="K136"/>
       <c r="L136" t="n">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="M136" t="n">
-        <v>0.765</v>
-      </c>
-      <c r="N136"/>
-      <c r="O136"/>
+        <v>0.822</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0.0032</v>
+      </c>
+      <c r="O136" t="n">
+        <v>307.7</v>
+      </c>
       <c r="P136" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="Q136" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="R136" t="s">
-        <v>25</v>
+        <v>311</v>
       </c>
       <c r="S136" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B137" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>44643</v>
+        <v>44648</v>
       </c>
       <c r="D137" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="E137" t="s">
-        <v>734</v>
+        <v>88</v>
       </c>
       <c r="F137"/>
       <c r="G137" t="n">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H137" t="n">
-        <v>104040</v>
+        <v>140271</v>
       </c>
       <c r="I137" t="n">
-        <v>935.031</v>
+        <v>760.685</v>
       </c>
       <c r="J137"/>
       <c r="K137"/>
       <c r="L137" t="n">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="M137" t="n">
-        <v>0.548</v>
+        <v>0.765</v>
       </c>
       <c r="N137" t="n">
-        <v>0.0094</v>
+        <v>0.0507</v>
       </c>
       <c r="O137" t="n">
-        <v>106.8</v>
+        <v>19.7</v>
       </c>
       <c r="P137" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q137" t="s">
         <v>735</v>
-      </c>
-      <c r="Q137" t="s">
-        <v>736</v>
       </c>
       <c r="R137" t="s">
         <v>25</v>
       </c>
       <c r="S137" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
+        <v>737</v>
+      </c>
+      <c r="B138" t="s">
         <v>738</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" s="1" t="n">
+        <v>44643</v>
+      </c>
+      <c r="D138" t="s">
         <v>739</v>
       </c>
-      <c r="C138" s="1" t="n">
-        <v>44647</v>
-      </c>
-      <c r="D138" t="s">
+      <c r="E138" t="s">
         <v>740</v>
-      </c>
-      <c r="E138" t="s">
-        <v>53</v>
       </c>
       <c r="F138"/>
       <c r="G138" t="n">
-        <v>756</v>
+        <v>61</v>
       </c>
       <c r="H138" t="n">
-        <v>41492799</v>
+        <v>104040</v>
       </c>
       <c r="I138" t="n">
-        <v>1174.08</v>
-      </c>
-      <c r="J138" t="n">
-        <v>16463</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.466</v>
-      </c>
+        <v>935.031</v>
+      </c>
+      <c r="J138"/>
+      <c r="K138"/>
       <c r="L138" t="n">
-        <v>15063</v>
+        <v>61</v>
       </c>
       <c r="M138" t="n">
-        <v>0.426</v>
+        <v>0.548</v>
       </c>
       <c r="N138" t="n">
-        <v>0.0072</v>
+        <v>0.0094</v>
       </c>
       <c r="O138" t="n">
-        <v>138.9</v>
+        <v>106.8</v>
       </c>
       <c r="P138" t="s">
-        <v>53</v>
+        <v>741</v>
       </c>
       <c r="Q138" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="R138" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S138" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B139" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>44648</v>
+        <v>44647</v>
       </c>
       <c r="D139" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="E139" t="s">
-        <v>745</v>
+        <v>53</v>
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
         <v>756</v>
       </c>
       <c r="H139" t="n">
-        <v>1068046</v>
+        <v>41492799</v>
       </c>
       <c r="I139" t="n">
-        <v>62.109</v>
+        <v>1174.08</v>
       </c>
       <c r="J139" t="n">
-        <v>1246</v>
+        <v>16463</v>
       </c>
       <c r="K139" t="n">
-        <v>0.072</v>
+        <v>0.466</v>
       </c>
       <c r="L139" t="n">
-        <v>1251</v>
+        <v>15063</v>
       </c>
       <c r="M139" t="n">
-        <v>0.073</v>
-      </c>
-      <c r="N139"/>
-      <c r="O139"/>
+        <v>0.426</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0.0072</v>
+      </c>
+      <c r="O139" t="n">
+        <v>138.9</v>
+      </c>
       <c r="P139" t="s">
-        <v>745</v>
+        <v>53</v>
       </c>
       <c r="Q139" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="R139" t="s">
         <v>61</v>
       </c>
       <c r="S139" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B140" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C140" s="1" t="n">
         <v>44648</v>
       </c>
       <c r="D140" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E140" t="s">
-        <v>53</v>
-      </c>
-      <c r="F140" t="s">
+        <v>751</v>
+      </c>
+      <c r="F140"/>
+      <c r="G140" t="n">
+        <v>756</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1068046</v>
+      </c>
+      <c r="I140" t="n">
+        <v>62.109</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1246</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.072</v>
+      </c>
+      <c r="L140" t="n">
+        <v>1251</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0.0051</v>
+      </c>
+      <c r="O140" t="n">
+        <v>194.6</v>
+      </c>
+      <c r="P140" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q140" t="s">
         <v>750</v>
       </c>
-      <c r="G140" t="n">
-        <v>761</v>
-      </c>
-      <c r="H140" t="n">
-        <v>9142320</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1330.46</v>
-      </c>
-      <c r="J140" t="n">
-        <v>14076</v>
-      </c>
-      <c r="K140" t="n">
-        <v>2.048</v>
-      </c>
-      <c r="L140" t="n">
-        <v>14284</v>
-      </c>
-      <c r="M140" t="n">
-        <v>2.079</v>
-      </c>
-      <c r="N140"/>
-      <c r="O140"/>
-      <c r="P140" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q140" t="s">
-        <v>751</v>
-      </c>
       <c r="R140" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="S140" t="s">
         <v>752</v>
@@ -10812,99 +10986,105 @@
         <v>754</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>44640</v>
+        <v>44648</v>
       </c>
       <c r="D141" t="s">
-        <v>35</v>
+        <v>755</v>
       </c>
       <c r="E141" t="s">
-        <v>36</v>
-      </c>
-      <c r="F141"/>
+        <v>53</v>
+      </c>
+      <c r="F141" t="s">
+        <v>756</v>
+      </c>
       <c r="G141" t="n">
-        <v>2</v>
+        <v>761</v>
       </c>
       <c r="H141" t="n">
-        <v>390698</v>
+        <v>9142320</v>
       </c>
       <c r="I141" t="n">
-        <v>47.989</v>
-      </c>
-      <c r="J141"/>
-      <c r="K141"/>
+        <v>1330.46</v>
+      </c>
+      <c r="J141" t="n">
+        <v>14076</v>
+      </c>
+      <c r="K141" t="n">
+        <v>2.048</v>
+      </c>
       <c r="L141" t="n">
-        <v>710</v>
+        <v>14284</v>
       </c>
       <c r="M141" t="n">
-        <v>0.087</v>
+        <v>2.079</v>
       </c>
       <c r="N141" t="n">
-        <v>0.0014</v>
+        <v>0.1338</v>
       </c>
       <c r="O141" t="n">
-        <v>710</v>
+        <v>7.5</v>
       </c>
       <c r="P141" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="Q141" t="s">
-        <v>37</v>
+        <v>757</v>
       </c>
       <c r="R141" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="S141" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="B142" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>44641</v>
+        <v>44640</v>
       </c>
       <c r="D142" t="s">
-        <v>758</v>
+        <v>35</v>
       </c>
       <c r="E142" t="s">
-        <v>759</v>
+        <v>36</v>
       </c>
       <c r="F142"/>
       <c r="G142" t="n">
-        <v>70</v>
-      </c>
-      <c r="H142"/>
-      <c r="I142"/>
-      <c r="J142" t="n">
-        <v>89400</v>
-      </c>
-      <c r="K142" t="n">
-        <v>16.393</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H142" t="n">
+        <v>390698</v>
+      </c>
+      <c r="I142" t="n">
+        <v>47.989</v>
+      </c>
+      <c r="J142"/>
+      <c r="K142"/>
       <c r="L142" t="n">
-        <v>89400</v>
+        <v>710</v>
       </c>
       <c r="M142" t="n">
-        <v>16.393</v>
+        <v>0.087</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1184</v>
+        <v>0.0014</v>
       </c>
       <c r="O142" t="n">
-        <v>8.4</v>
+        <v>710</v>
       </c>
       <c r="P142" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="Q142" t="s">
-        <v>760</v>
+        <v>37</v>
       </c>
       <c r="R142" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="S142" t="s">
         <v>761</v>
@@ -10918,1129 +11098,1137 @@
         <v>763</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>44647</v>
+        <v>44641</v>
       </c>
       <c r="D143" t="s">
         <v>764</v>
       </c>
       <c r="E143" t="s">
-        <v>53</v>
-      </c>
-      <c r="F143" t="s">
         <v>765</v>
       </c>
+      <c r="F143"/>
       <c r="G143" t="n">
-        <v>752</v>
-      </c>
-      <c r="H143" t="n">
-        <v>50453548</v>
-      </c>
-      <c r="I143" t="n">
-        <v>9258.772</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="H143"/>
+      <c r="I143"/>
       <c r="J143" t="n">
-        <v>9306</v>
+        <v>89400</v>
       </c>
       <c r="K143" t="n">
-        <v>1.708</v>
+        <v>16.393</v>
       </c>
       <c r="L143" t="n">
-        <v>26902</v>
+        <v>89400</v>
       </c>
       <c r="M143" t="n">
-        <v>4.937</v>
+        <v>16.393</v>
       </c>
       <c r="N143" t="n">
-        <v>0.328</v>
+        <v>0.1184</v>
       </c>
       <c r="O143" t="n">
-        <v>3</v>
+        <v>8.4</v>
       </c>
       <c r="P143" t="s">
         <v>53</v>
       </c>
       <c r="Q143" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="R143" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="S143" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B144" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C144" s="1" t="n">
         <v>44647</v>
       </c>
       <c r="D144" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E144" t="s">
-        <v>770</v>
+        <v>53</v>
       </c>
       <c r="F144" t="s">
         <v>771</v>
       </c>
       <c r="G144" t="n">
-        <v>767</v>
+        <v>752</v>
       </c>
       <c r="H144" t="n">
-        <v>4746660</v>
+        <v>50453548</v>
       </c>
       <c r="I144" t="n">
-        <v>2283.45</v>
+        <v>9258.772</v>
       </c>
       <c r="J144" t="n">
-        <v>5466</v>
+        <v>9306</v>
       </c>
       <c r="K144" t="n">
-        <v>2.629</v>
+        <v>1.708</v>
       </c>
       <c r="L144" t="n">
-        <v>13366</v>
+        <v>26902</v>
       </c>
       <c r="M144" t="n">
-        <v>6.43</v>
+        <v>4.937</v>
       </c>
       <c r="N144" t="n">
-        <v>0.21</v>
+        <v>0.328</v>
       </c>
       <c r="O144" t="n">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="P144" t="s">
-        <v>772</v>
+        <v>53</v>
       </c>
       <c r="Q144" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="R144" t="s">
         <v>61</v>
       </c>
       <c r="S144" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
+        <v>773</v>
+      </c>
+      <c r="B145" t="s">
         <v>774</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C145" s="1" t="n">
+        <v>44647</v>
+      </c>
+      <c r="D145" t="s">
         <v>775</v>
       </c>
-      <c r="C145" s="1" t="n">
-        <v>44632</v>
-      </c>
-      <c r="D145" t="s">
-        <v>35</v>
-      </c>
       <c r="E145" t="s">
-        <v>36</v>
-      </c>
-      <c r="F145"/>
+        <v>776</v>
+      </c>
+      <c r="F145" t="s">
+        <v>777</v>
+      </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>767</v>
       </c>
       <c r="H145" t="n">
-        <v>400466</v>
+        <v>4746660</v>
       </c>
       <c r="I145" t="n">
-        <v>24.479</v>
-      </c>
-      <c r="J145"/>
-      <c r="K145"/>
-      <c r="L145"/>
-      <c r="M145"/>
-      <c r="N145"/>
-      <c r="O145"/>
+        <v>2283.45</v>
+      </c>
+      <c r="J145" t="n">
+        <v>5466</v>
+      </c>
+      <c r="K145" t="n">
+        <v>2.629</v>
+      </c>
+      <c r="L145" t="n">
+        <v>13366</v>
+      </c>
+      <c r="M145" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="O145" t="n">
+        <v>4.8</v>
+      </c>
       <c r="P145" t="s">
-        <v>36</v>
+        <v>778</v>
       </c>
       <c r="Q145" t="s">
-        <v>37</v>
+        <v>775</v>
       </c>
       <c r="R145" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="S145" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="B146" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>44648</v>
+        <v>44632</v>
       </c>
       <c r="D146" t="s">
-        <v>779</v>
+        <v>35</v>
       </c>
       <c r="E146" t="s">
-        <v>780</v>
-      </c>
-      <c r="F146" t="s">
-        <v>781</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F146"/>
       <c r="G146" t="n">
-        <v>748</v>
+        <v>1</v>
       </c>
       <c r="H146" t="n">
-        <v>23757304</v>
+        <v>400466</v>
       </c>
       <c r="I146" t="n">
-        <v>395.678</v>
-      </c>
-      <c r="J146" t="n">
-        <v>12942</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.216</v>
-      </c>
-      <c r="L146" t="n">
-        <v>22477</v>
-      </c>
-      <c r="M146" t="n">
-        <v>0.374</v>
-      </c>
+        <v>24.479</v>
+      </c>
+      <c r="J146"/>
+      <c r="K146"/>
+      <c r="L146"/>
+      <c r="M146"/>
       <c r="N146"/>
       <c r="O146"/>
       <c r="P146" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>37</v>
+      </c>
+      <c r="R146" t="s">
+        <v>25</v>
+      </c>
+      <c r="S146" t="s">
         <v>782</v>
-      </c>
-      <c r="Q146" t="s">
-        <v>779</v>
-      </c>
-      <c r="R146" t="s">
-        <v>45</v>
-      </c>
-      <c r="S146" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
+        <v>783</v>
+      </c>
+      <c r="B147" t="s">
         <v>784</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" s="1" t="n">
+        <v>44648</v>
+      </c>
+      <c r="D147" t="s">
         <v>785</v>
       </c>
-      <c r="C147" s="1" t="n">
-        <v>44647</v>
-      </c>
-      <c r="D147" t="s">
+      <c r="E147" t="s">
         <v>786</v>
       </c>
-      <c r="E147" t="s">
+      <c r="F147" t="s">
         <v>787</v>
       </c>
-      <c r="F147" t="s">
+      <c r="G147" t="n">
+        <v>748</v>
+      </c>
+      <c r="H147" t="n">
+        <v>23757304</v>
+      </c>
+      <c r="I147" t="n">
+        <v>395.678</v>
+      </c>
+      <c r="J147" t="n">
+        <v>12942</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="L147" t="n">
+        <v>22477</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0.374</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0.0575</v>
+      </c>
+      <c r="O147" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="P147" t="s">
         <v>788</v>
       </c>
-      <c r="G147" t="n">
-        <v>779</v>
-      </c>
-      <c r="H147" t="n">
-        <v>85330343</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1663.191</v>
-      </c>
-      <c r="J147" t="n">
-        <v>334483</v>
-      </c>
-      <c r="K147" t="n">
-        <v>6.519</v>
-      </c>
-      <c r="L147" t="n">
-        <v>539005</v>
-      </c>
-      <c r="M147" t="n">
-        <v>10.506</v>
-      </c>
-      <c r="N147" t="n">
-        <v>0.6415</v>
-      </c>
-      <c r="O147" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P147" t="s">
-        <v>789</v>
-      </c>
       <c r="Q147" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="R147" t="s">
         <v>45</v>
       </c>
       <c r="S147" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
+        <v>790</v>
+      </c>
+      <c r="B148" t="s">
+        <v>791</v>
+      </c>
+      <c r="C148" s="1" t="n">
+        <v>44647</v>
+      </c>
+      <c r="D148" t="s">
         <v>792</v>
       </c>
-      <c r="B148" t="s">
+      <c r="E148" t="s">
         <v>793</v>
       </c>
-      <c r="C148" s="1" t="n">
-        <v>44648</v>
-      </c>
-      <c r="D148" t="s">
-        <v>35</v>
-      </c>
-      <c r="E148" t="s">
-        <v>36</v>
-      </c>
-      <c r="F148"/>
+      <c r="F148" t="s">
+        <v>794</v>
+      </c>
       <c r="G148" t="n">
-        <v>162</v>
+        <v>779</v>
       </c>
       <c r="H148" t="n">
-        <v>358442</v>
+        <v>85330343</v>
       </c>
       <c r="I148" t="n">
-        <v>31.494</v>
-      </c>
-      <c r="J148"/>
-      <c r="K148"/>
+        <v>1663.191</v>
+      </c>
+      <c r="J148" t="n">
+        <v>334483</v>
+      </c>
+      <c r="K148" t="n">
+        <v>6.519</v>
+      </c>
       <c r="L148" t="n">
-        <v>909</v>
+        <v>539005</v>
       </c>
       <c r="M148" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="N148"/>
-      <c r="O148"/>
+        <v>10.506</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0.6415</v>
+      </c>
+      <c r="O148" t="n">
+        <v>1.6</v>
+      </c>
       <c r="P148" t="s">
-        <v>36</v>
+        <v>795</v>
       </c>
       <c r="Q148" t="s">
-        <v>37</v>
+        <v>796</v>
       </c>
       <c r="R148" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="S148" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="B149" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>44645</v>
+        <v>44648</v>
       </c>
       <c r="D149" t="s">
-        <v>797</v>
+        <v>35</v>
       </c>
       <c r="E149" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F149"/>
       <c r="G149" t="n">
-        <v>741</v>
+        <v>162</v>
       </c>
       <c r="H149" t="n">
-        <v>88147343</v>
+        <v>358442</v>
       </c>
       <c r="I149" t="n">
-        <v>1885.698</v>
-      </c>
-      <c r="J149" t="n">
-        <v>60487</v>
-      </c>
-      <c r="K149" t="n">
-        <v>1.294</v>
-      </c>
+        <v>31.494</v>
+      </c>
+      <c r="J149"/>
+      <c r="K149"/>
       <c r="L149" t="n">
-        <v>83657</v>
+        <v>909</v>
       </c>
       <c r="M149" t="n">
-        <v>1.79</v>
+        <v>0.08</v>
       </c>
       <c r="N149" t="n">
-        <v>0.191</v>
+        <v>0.0134</v>
       </c>
       <c r="O149" t="n">
-        <v>5.2</v>
+        <v>74.9</v>
       </c>
       <c r="P149" t="s">
-        <v>798</v>
+        <v>36</v>
       </c>
       <c r="Q149" t="s">
-        <v>797</v>
+        <v>37</v>
       </c>
       <c r="R149" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S149" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B150" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>44647</v>
+        <v>44645</v>
       </c>
       <c r="D150" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E150" t="s">
-        <v>803</v>
+        <v>53</v>
       </c>
       <c r="F150"/>
       <c r="G150" t="n">
-        <v>762</v>
+        <v>741</v>
       </c>
       <c r="H150" t="n">
-        <v>7535729</v>
+        <v>88147343</v>
       </c>
       <c r="I150" t="n">
-        <v>350.543</v>
+        <v>1885.698</v>
       </c>
       <c r="J150" t="n">
-        <v>5048</v>
+        <v>60487</v>
       </c>
       <c r="K150" t="n">
-        <v>0.235</v>
+        <v>1.294</v>
       </c>
       <c r="L150" t="n">
-        <v>4573</v>
+        <v>83657</v>
       </c>
       <c r="M150" t="n">
-        <v>0.213</v>
+        <v>1.79</v>
       </c>
       <c r="N150" t="n">
-        <v>0.0841</v>
+        <v>0.191</v>
       </c>
       <c r="O150" t="n">
-        <v>11.9</v>
+        <v>5.2</v>
       </c>
       <c r="P150" t="s">
+        <v>804</v>
+      </c>
+      <c r="Q150" t="s">
         <v>803</v>
-      </c>
-      <c r="Q150" t="s">
-        <v>802</v>
       </c>
       <c r="R150" t="s">
         <v>61</v>
       </c>
       <c r="S150" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B151" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>44605</v>
+        <v>44647</v>
       </c>
       <c r="D151" t="s">
-        <v>35</v>
+        <v>808</v>
       </c>
       <c r="E151" t="s">
-        <v>36</v>
+        <v>809</v>
       </c>
       <c r="F151"/>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>762</v>
       </c>
       <c r="H151" t="n">
-        <v>562941</v>
+        <v>7535729</v>
       </c>
       <c r="I151" t="n">
-        <v>12.535</v>
-      </c>
-      <c r="J151"/>
-      <c r="K151"/>
-      <c r="L151"/>
-      <c r="M151"/>
-      <c r="N151"/>
-      <c r="O151"/>
+        <v>350.543</v>
+      </c>
+      <c r="J151" t="n">
+        <v>5048</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="L151" t="n">
+        <v>4573</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0.0841</v>
+      </c>
+      <c r="O151" t="n">
+        <v>11.9</v>
+      </c>
       <c r="P151" t="s">
-        <v>36</v>
+        <v>809</v>
       </c>
       <c r="Q151" t="s">
-        <v>37</v>
+        <v>808</v>
       </c>
       <c r="R151" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="S151" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="B152" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>44644</v>
+        <v>44605</v>
       </c>
       <c r="D152" t="s">
-        <v>810</v>
+        <v>35</v>
       </c>
       <c r="E152" t="s">
-        <v>811</v>
+        <v>36</v>
       </c>
       <c r="F152"/>
       <c r="G152" t="n">
-        <v>206</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
-        <v>81647</v>
+        <v>562941</v>
       </c>
       <c r="I152" t="n">
-        <v>137.964</v>
-      </c>
-      <c r="J152" t="n">
-        <v>177</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.299</v>
-      </c>
-      <c r="L152" t="n">
-        <v>31</v>
-      </c>
-      <c r="M152" t="n">
-        <v>0.052</v>
-      </c>
-      <c r="N152" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="O152" t="n">
-        <v>7.3</v>
-      </c>
+        <v>12.535</v>
+      </c>
+      <c r="J152"/>
+      <c r="K152"/>
+      <c r="L152"/>
+      <c r="M152"/>
+      <c r="N152"/>
+      <c r="O152"/>
       <c r="P152" t="s">
-        <v>811</v>
+        <v>36</v>
       </c>
       <c r="Q152" t="s">
-        <v>810</v>
+        <v>37</v>
       </c>
       <c r="R152" t="s">
         <v>25</v>
       </c>
       <c r="S152" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B153" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="D153" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="E153" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F153"/>
       <c r="G153" t="n">
-        <v>630</v>
+        <v>206</v>
       </c>
       <c r="H153" t="n">
-        <v>18121775</v>
+        <v>81647</v>
       </c>
       <c r="I153" t="n">
-        <v>1783.611</v>
+        <v>137.964</v>
       </c>
       <c r="J153" t="n">
-        <v>5752</v>
+        <v>177</v>
       </c>
       <c r="K153" t="n">
-        <v>0.566</v>
+        <v>0.299</v>
       </c>
       <c r="L153" t="n">
-        <v>5752</v>
+        <v>31</v>
       </c>
       <c r="M153" t="n">
-        <v>0.566</v>
+        <v>0.052</v>
       </c>
       <c r="N153" t="n">
-        <v>0.2263</v>
+        <v>0.137</v>
       </c>
       <c r="O153" t="n">
-        <v>4.4</v>
+        <v>7.3</v>
       </c>
       <c r="P153" t="s">
         <v>817</v>
       </c>
       <c r="Q153" t="s">
+        <v>816</v>
+      </c>
+      <c r="R153" t="s">
+        <v>25</v>
+      </c>
+      <c r="S153" t="s">
         <v>818</v>
-      </c>
-      <c r="R153" t="s">
-        <v>61</v>
-      </c>
-      <c r="S153" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
+        <v>819</v>
+      </c>
+      <c r="B154" t="s">
         <v>820</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" s="1" t="n">
+        <v>44640</v>
+      </c>
+      <c r="D154" t="s">
         <v>821</v>
       </c>
-      <c r="C154" s="1" t="n">
-        <v>44647</v>
-      </c>
-      <c r="D154" t="s">
-        <v>522</v>
-      </c>
       <c r="E154" t="s">
-        <v>523</v>
+        <v>822</v>
       </c>
       <c r="F154"/>
       <c r="G154" t="n">
-        <v>674</v>
+        <v>630</v>
       </c>
       <c r="H154" t="n">
-        <v>20157569</v>
+        <v>18121775</v>
       </c>
       <c r="I154" t="n">
-        <v>2312.843</v>
+        <v>1783.611</v>
       </c>
       <c r="J154" t="n">
-        <v>13353</v>
+        <v>5752</v>
       </c>
       <c r="K154" t="n">
-        <v>1.532</v>
+        <v>0.566</v>
       </c>
       <c r="L154" t="n">
-        <v>45374</v>
+        <v>5752</v>
       </c>
       <c r="M154" t="n">
-        <v>5.206</v>
+        <v>0.566</v>
       </c>
       <c r="N154" t="n">
-        <v>0.44</v>
+        <v>0.2263</v>
       </c>
       <c r="O154" t="n">
-        <v>2.3</v>
+        <v>4.4</v>
       </c>
       <c r="P154" t="s">
-        <v>523</v>
+        <v>823</v>
       </c>
       <c r="Q154" t="s">
-        <v>524</v>
+        <v>824</v>
       </c>
       <c r="R154" t="s">
         <v>61</v>
       </c>
       <c r="S154" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="B155" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>44632</v>
+        <v>44647</v>
       </c>
       <c r="D155" t="s">
-        <v>21</v>
+        <v>522</v>
       </c>
       <c r="E155" t="s">
-        <v>22</v>
+        <v>523</v>
       </c>
       <c r="F155"/>
       <c r="G155" t="n">
-        <v>2</v>
+        <v>674</v>
       </c>
       <c r="H155" t="n">
-        <v>158382</v>
+        <v>20157569</v>
       </c>
       <c r="I155" t="n">
-        <v>8.666</v>
-      </c>
-      <c r="J155"/>
-      <c r="K155"/>
+        <v>2312.843</v>
+      </c>
+      <c r="J155" t="n">
+        <v>13353</v>
+      </c>
+      <c r="K155" t="n">
+        <v>1.532</v>
+      </c>
       <c r="L155" t="n">
-        <v>157</v>
+        <v>45374</v>
       </c>
       <c r="M155" t="n">
-        <v>0.009</v>
+        <v>5.206</v>
       </c>
       <c r="N155" t="n">
-        <v>0.333</v>
+        <v>0.44</v>
       </c>
       <c r="O155" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="P155" t="s">
-        <v>23</v>
+        <v>523</v>
       </c>
       <c r="Q155" t="s">
-        <v>24</v>
+        <v>524</v>
       </c>
       <c r="R155" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="S155" t="s">
-        <v>26</v>
+        <v>828</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="B156" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>44648</v>
+        <v>44632</v>
       </c>
       <c r="D156" t="s">
-        <v>827</v>
+        <v>21</v>
       </c>
       <c r="E156" t="s">
-        <v>828</v>
+        <v>22</v>
       </c>
       <c r="F156"/>
       <c r="G156" t="n">
-        <v>802</v>
+        <v>2</v>
       </c>
       <c r="H156" t="n">
-        <v>6931880</v>
+        <v>158382</v>
       </c>
       <c r="I156" t="n">
-        <v>290.584</v>
-      </c>
-      <c r="J156" t="n">
-        <v>20974</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.879</v>
-      </c>
+        <v>8.666</v>
+      </c>
+      <c r="J156"/>
+      <c r="K156"/>
       <c r="L156" t="n">
-        <v>21321</v>
+        <v>157</v>
       </c>
       <c r="M156" t="n">
-        <v>0.894</v>
-      </c>
-      <c r="N156"/>
-      <c r="O156"/>
+        <v>0.009</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="O156" t="n">
+        <v>3</v>
+      </c>
       <c r="P156" t="s">
-        <v>828</v>
+        <v>23</v>
       </c>
       <c r="Q156" t="s">
-        <v>827</v>
+        <v>24</v>
       </c>
       <c r="R156" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="S156" t="s">
-        <v>829</v>
+        <v>26</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B157" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>44610</v>
+        <v>44648</v>
       </c>
       <c r="D157" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E157" t="s">
-        <v>53</v>
+        <v>834</v>
       </c>
       <c r="F157"/>
       <c r="G157" t="n">
-        <v>2</v>
+        <v>802</v>
       </c>
       <c r="H157" t="n">
-        <v>455776</v>
+        <v>6931880</v>
       </c>
       <c r="I157" t="n">
-        <v>7.411</v>
-      </c>
-      <c r="J157"/>
-      <c r="K157"/>
+        <v>290.584</v>
+      </c>
+      <c r="J157" t="n">
+        <v>20974</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0.879</v>
+      </c>
       <c r="L157" t="n">
-        <v>1004</v>
+        <v>21321</v>
       </c>
       <c r="M157" t="n">
-        <v>0.016</v>
+        <v>0.894</v>
       </c>
       <c r="N157" t="n">
-        <v>0.0161</v>
+        <v>0.006</v>
       </c>
       <c r="O157" t="n">
-        <v>62.2</v>
+        <v>167.1</v>
       </c>
       <c r="P157" t="s">
-        <v>36</v>
+        <v>834</v>
       </c>
       <c r="Q157" t="s">
         <v>833</v>
       </c>
       <c r="R157" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="S157" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B158" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>44625</v>
+        <v>44610</v>
       </c>
       <c r="D158" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E158" t="s">
-        <v>838</v>
+        <v>53</v>
       </c>
       <c r="F158"/>
       <c r="G158" t="n">
-        <v>791</v>
+        <v>2</v>
       </c>
       <c r="H158" t="n">
-        <v>21377196</v>
+        <v>455776</v>
       </c>
       <c r="I158" t="n">
-        <v>305.603</v>
-      </c>
-      <c r="J158" t="n">
-        <v>40281</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.576</v>
-      </c>
+        <v>7.411</v>
+      </c>
+      <c r="J158"/>
+      <c r="K158"/>
       <c r="L158" t="n">
-        <v>61456</v>
+        <v>1004</v>
       </c>
       <c r="M158" t="n">
-        <v>0.879</v>
+        <v>0.016</v>
       </c>
       <c r="N158" t="n">
-        <v>0.3651</v>
+        <v>0.0161</v>
       </c>
       <c r="O158" t="n">
-        <v>2.7</v>
+        <v>62.2</v>
       </c>
       <c r="P158" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q158" t="s">
         <v>839</v>
       </c>
-      <c r="Q158" t="s">
+      <c r="R158" t="s">
+        <v>25</v>
+      </c>
+      <c r="S158" t="s">
         <v>840</v>
-      </c>
-      <c r="R158" t="s">
-        <v>61</v>
-      </c>
-      <c r="S158" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
+        <v>841</v>
+      </c>
+      <c r="B159" t="s">
         <v>842</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" s="1" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D159" t="s">
         <v>843</v>
       </c>
-      <c r="C159" s="1" t="n">
-        <v>44632</v>
-      </c>
-      <c r="D159" t="s">
+      <c r="E159" t="s">
         <v>844</v>
-      </c>
-      <c r="E159" t="s">
-        <v>53</v>
       </c>
       <c r="F159"/>
       <c r="G159" t="n">
-        <v>32</v>
+        <v>791</v>
       </c>
       <c r="H159" t="n">
-        <v>252951</v>
+        <v>21377196</v>
       </c>
       <c r="I159" t="n">
-        <v>188.225</v>
-      </c>
-      <c r="J159"/>
-      <c r="K159"/>
+        <v>305.603</v>
+      </c>
+      <c r="J159" t="n">
+        <v>40281</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0.576</v>
+      </c>
       <c r="L159" t="n">
-        <v>314</v>
+        <v>61456</v>
       </c>
       <c r="M159" t="n">
-        <v>0.234</v>
+        <v>0.879</v>
       </c>
       <c r="N159" t="n">
-        <v>0.0218</v>
+        <v>0.3651</v>
       </c>
       <c r="O159" t="n">
-        <v>45.8</v>
+        <v>2.7</v>
       </c>
       <c r="P159" t="s">
-        <v>53</v>
+        <v>845</v>
       </c>
       <c r="Q159" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="R159" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="S159" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B160" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>44647</v>
+        <v>44632</v>
       </c>
       <c r="D160" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="E160" t="s">
         <v>53</v>
       </c>
       <c r="F160"/>
       <c r="G160" t="n">
-        <v>743</v>
+        <v>32</v>
       </c>
       <c r="H160" t="n">
-        <v>716349</v>
+        <v>252951</v>
       </c>
       <c r="I160" t="n">
-        <v>84.493</v>
+        <v>188.225</v>
       </c>
       <c r="J160"/>
       <c r="K160"/>
       <c r="L160" t="n">
-        <v>931</v>
+        <v>314</v>
       </c>
       <c r="M160" t="n">
-        <v>0.11</v>
+        <v>0.234</v>
       </c>
       <c r="N160" t="n">
-        <v>0.006</v>
+        <v>0.0218</v>
       </c>
       <c r="O160" t="n">
-        <v>167.1</v>
+        <v>45.8</v>
       </c>
       <c r="P160" t="s">
-        <v>849</v>
+        <v>53</v>
       </c>
       <c r="Q160" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="R160" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S160" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B161" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C161" s="1" t="n">
         <v>44647</v>
       </c>
       <c r="D161" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="E161" t="s">
         <v>53</v>
       </c>
       <c r="F161"/>
       <c r="G161" t="n">
-        <v>435</v>
+        <v>743</v>
       </c>
       <c r="H161" t="n">
-        <v>668817</v>
+        <v>716349</v>
       </c>
       <c r="I161" t="n">
-        <v>476.578</v>
-      </c>
-      <c r="J161" t="n">
-        <v>630</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.449</v>
-      </c>
+        <v>84.493</v>
+      </c>
+      <c r="J161"/>
+      <c r="K161"/>
       <c r="L161" t="n">
-        <v>1237</v>
+        <v>931</v>
       </c>
       <c r="M161" t="n">
-        <v>0.881</v>
+        <v>0.11</v>
       </c>
       <c r="N161" t="n">
-        <v>0.233</v>
+        <v>0.006</v>
       </c>
       <c r="O161" t="n">
-        <v>4.3</v>
+        <v>167.1</v>
       </c>
       <c r="P161" t="s">
-        <v>53</v>
+        <v>855</v>
       </c>
       <c r="Q161" t="s">
         <v>854</v>
       </c>
       <c r="R161" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="S161" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B162" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>44640</v>
+        <v>44647</v>
       </c>
       <c r="D162" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E162" t="s">
-        <v>859</v>
+        <v>53</v>
       </c>
       <c r="F162"/>
       <c r="G162" t="n">
-        <v>176</v>
+        <v>435</v>
       </c>
       <c r="H162" t="n">
-        <v>4500701</v>
+        <v>668817</v>
       </c>
       <c r="I162" t="n">
-        <v>377.077</v>
-      </c>
-      <c r="J162"/>
-      <c r="K162"/>
+        <v>476.578</v>
+      </c>
+      <c r="J162" t="n">
+        <v>630</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0.449</v>
+      </c>
       <c r="L162" t="n">
-        <v>3667</v>
+        <v>1237</v>
       </c>
       <c r="M162" t="n">
-        <v>0.307</v>
+        <v>0.881</v>
       </c>
       <c r="N162" t="n">
-        <v>0.0208</v>
+        <v>0.233</v>
       </c>
       <c r="O162" t="n">
-        <v>48.1</v>
+        <v>4.3</v>
       </c>
       <c r="P162" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q162" t="s">
         <v>860</v>
-      </c>
-      <c r="Q162" t="s">
-        <v>861</v>
       </c>
       <c r="R162" t="s">
         <v>45</v>
       </c>
       <c r="S162" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
+        <v>862</v>
+      </c>
+      <c r="B163" t="s">
         <v>863</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" s="1" t="n">
+        <v>44640</v>
+      </c>
+      <c r="D163" t="s">
         <v>864</v>
       </c>
-      <c r="C163" s="1" t="n">
-        <v>44643</v>
-      </c>
-      <c r="D163" t="s">
+      <c r="E163" t="s">
         <v>865</v>
-      </c>
-      <c r="E163" t="s">
-        <v>866</v>
       </c>
       <c r="F163"/>
       <c r="G163" t="n">
-        <v>727</v>
+        <v>176</v>
       </c>
       <c r="H163" t="n">
-        <v>151851543</v>
+        <v>4500701</v>
       </c>
       <c r="I163" t="n">
-        <v>1785.591</v>
-      </c>
-      <c r="J163" t="n">
-        <v>301014</v>
-      </c>
-      <c r="K163" t="n">
-        <v>3.54</v>
-      </c>
+        <v>377.077</v>
+      </c>
+      <c r="J163"/>
+      <c r="K163"/>
       <c r="L163" t="n">
-        <v>295374</v>
+        <v>3667</v>
       </c>
       <c r="M163" t="n">
-        <v>3.473</v>
+        <v>0.307</v>
       </c>
       <c r="N163" t="n">
-        <v>0.0582</v>
+        <v>0.0208</v>
       </c>
       <c r="O163" t="n">
-        <v>17.2</v>
+        <v>48.1</v>
       </c>
       <c r="P163" t="s">
         <v>866</v>
@@ -12049,7 +12237,7 @@
         <v>867</v>
       </c>
       <c r="R163" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="S163" t="s">
         <v>868</v>
@@ -12063,92 +12251,100 @@
         <v>870</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>44648</v>
+        <v>44643</v>
       </c>
       <c r="D164" t="s">
-        <v>35</v>
+        <v>871</v>
       </c>
       <c r="E164" t="s">
-        <v>36</v>
+        <v>872</v>
       </c>
       <c r="F164"/>
       <c r="G164" t="n">
-        <v>632</v>
+        <v>727</v>
       </c>
       <c r="H164" t="n">
-        <v>2542633</v>
+        <v>151851543</v>
       </c>
       <c r="I164" t="n">
-        <v>53.957</v>
-      </c>
-      <c r="J164"/>
-      <c r="K164"/>
+        <v>1785.591</v>
+      </c>
+      <c r="J164" t="n">
+        <v>301014</v>
+      </c>
+      <c r="K164" t="n">
+        <v>3.54</v>
+      </c>
       <c r="L164" t="n">
-        <v>3578</v>
+        <v>295374</v>
       </c>
       <c r="M164" t="n">
-        <v>0.076</v>
-      </c>
-      <c r="N164"/>
-      <c r="O164"/>
+        <v>3.473</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0.0582</v>
+      </c>
+      <c r="O164" t="n">
+        <v>17.2</v>
+      </c>
       <c r="P164" t="s">
-        <v>36</v>
+        <v>872</v>
       </c>
       <c r="Q164" t="s">
-        <v>37</v>
+        <v>873</v>
       </c>
       <c r="R164" t="s">
         <v>61</v>
       </c>
       <c r="S164" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="B165" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>44610</v>
+        <v>44648</v>
       </c>
       <c r="D165" t="s">
-        <v>874</v>
+        <v>35</v>
       </c>
       <c r="E165" t="s">
-        <v>875</v>
+        <v>36</v>
       </c>
       <c r="F165"/>
       <c r="G165" t="n">
-        <v>556</v>
+        <v>632</v>
       </c>
       <c r="H165" t="n">
-        <v>19288823</v>
+        <v>2542633</v>
       </c>
       <c r="I165" t="n">
-        <v>443.76</v>
+        <v>53.957</v>
       </c>
       <c r="J165"/>
       <c r="K165"/>
       <c r="L165" t="n">
-        <v>52561</v>
+        <v>3578</v>
       </c>
       <c r="M165" t="n">
-        <v>1.209</v>
+        <v>0.076</v>
       </c>
       <c r="N165" t="n">
-        <v>0.6027</v>
+        <v>0.004</v>
       </c>
       <c r="O165" t="n">
-        <v>1.7</v>
+        <v>248</v>
       </c>
       <c r="P165" t="s">
-        <v>875</v>
+        <v>36</v>
       </c>
       <c r="Q165" t="s">
-        <v>876</v>
+        <v>37</v>
       </c>
       <c r="R165" t="s">
         <v>61</v>
@@ -12165,7 +12361,7 @@
         <v>879</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>44648</v>
+        <v>44610</v>
       </c>
       <c r="D166" t="s">
         <v>880</v>
@@ -12175,28 +12371,28 @@
       </c>
       <c r="F166"/>
       <c r="G166" t="n">
-        <v>759</v>
+        <v>556</v>
       </c>
       <c r="H166" t="n">
-        <v>147145013</v>
+        <v>19288823</v>
       </c>
       <c r="I166" t="n">
-        <v>14727.634</v>
-      </c>
-      <c r="J166" t="n">
-        <v>229355</v>
-      </c>
-      <c r="K166" t="n">
-        <v>22.956</v>
-      </c>
+        <v>443.76</v>
+      </c>
+      <c r="J166"/>
+      <c r="K166"/>
       <c r="L166" t="n">
-        <v>300191</v>
+        <v>52561</v>
       </c>
       <c r="M166" t="n">
-        <v>30.046</v>
-      </c>
-      <c r="N166"/>
-      <c r="O166"/>
+        <v>1.209</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0.6027</v>
+      </c>
+      <c r="O166" t="n">
+        <v>1.7</v>
+      </c>
       <c r="P166" t="s">
         <v>881</v>
       </c>
@@ -12218,7 +12414,7 @@
         <v>885</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="D167" t="s">
         <v>886</v>
@@ -12228,93 +12424,97 @@
       </c>
       <c r="F167"/>
       <c r="G167" t="n">
-        <v>725</v>
+        <v>759</v>
       </c>
       <c r="H167" t="n">
-        <v>483762402</v>
+        <v>147145013</v>
       </c>
       <c r="I167" t="n">
-        <v>7092.551</v>
+        <v>14727.634</v>
       </c>
       <c r="J167" t="n">
-        <v>617522</v>
+        <v>229355</v>
       </c>
       <c r="K167" t="n">
-        <v>9.054</v>
+        <v>22.956</v>
       </c>
       <c r="L167" t="n">
-        <v>740542</v>
+        <v>300191</v>
       </c>
       <c r="M167" t="n">
-        <v>10.857</v>
-      </c>
-      <c r="N167"/>
-      <c r="O167"/>
+        <v>30.046</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="O167" t="n">
+        <v>902.6</v>
+      </c>
       <c r="P167" t="s">
+        <v>887</v>
+      </c>
+      <c r="Q167" t="s">
         <v>888</v>
-      </c>
-      <c r="Q167" t="s">
-        <v>889</v>
       </c>
       <c r="R167" t="s">
         <v>61</v>
       </c>
       <c r="S167" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
+        <v>890</v>
+      </c>
+      <c r="B168" t="s">
         <v>891</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" s="1" t="n">
+        <v>44647</v>
+      </c>
+      <c r="D168" t="s">
         <v>892</v>
       </c>
-      <c r="C168" s="1" t="n">
-        <v>44642</v>
-      </c>
-      <c r="D168" t="s">
+      <c r="E168" t="s">
         <v>893</v>
-      </c>
-      <c r="E168" t="s">
-        <v>894</v>
       </c>
       <c r="F168"/>
       <c r="G168" t="n">
-        <v>752</v>
+        <v>725</v>
       </c>
       <c r="H168" t="n">
-        <v>842683453</v>
+        <v>483762402</v>
       </c>
       <c r="I168" t="n">
-        <v>2531.226</v>
+        <v>7092.551</v>
       </c>
       <c r="J168" t="n">
-        <v>958496</v>
+        <v>617522</v>
       </c>
       <c r="K168" t="n">
-        <v>2.879</v>
+        <v>9.054</v>
       </c>
       <c r="L168" t="n">
-        <v>834280</v>
+        <v>740542</v>
       </c>
       <c r="M168" t="n">
-        <v>2.506</v>
+        <v>10.857</v>
       </c>
       <c r="N168" t="n">
-        <v>0.022</v>
+        <v>0.1162</v>
       </c>
       <c r="O168" t="n">
-        <v>45.5</v>
+        <v>8.6</v>
       </c>
       <c r="P168" t="s">
         <v>894</v>
       </c>
       <c r="Q168" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="R168" t="s">
-        <v>895</v>
+        <v>61</v>
       </c>
       <c r="S168" t="s">
         <v>896</v>
@@ -12328,310 +12528,371 @@
         <v>898</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>44647</v>
+        <v>44644</v>
       </c>
       <c r="D169" t="s">
-        <v>899</v>
+        <v>702</v>
       </c>
       <c r="E169" t="s">
-        <v>237</v>
+        <v>703</v>
       </c>
       <c r="F169"/>
       <c r="G169" t="n">
-        <v>736</v>
+        <v>754</v>
       </c>
       <c r="H169" t="n">
-        <v>5962401</v>
+        <v>844026814</v>
       </c>
       <c r="I169" t="n">
-        <v>1710.801</v>
+        <v>2535.262</v>
       </c>
       <c r="J169" t="n">
-        <v>7244</v>
+        <v>544070</v>
       </c>
       <c r="K169" t="n">
-        <v>2.079</v>
+        <v>1.634</v>
       </c>
       <c r="L169" t="n">
-        <v>11126</v>
+        <v>705786</v>
       </c>
       <c r="M169" t="n">
-        <v>3.192</v>
+        <v>2.12</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1126</v>
+        <v>0.024</v>
       </c>
       <c r="O169" t="n">
-        <v>8.9</v>
+        <v>41.7</v>
       </c>
       <c r="P169" t="s">
-        <v>237</v>
+        <v>703</v>
       </c>
       <c r="Q169" t="s">
+        <v>702</v>
+      </c>
+      <c r="R169" t="s">
+        <v>704</v>
+      </c>
+      <c r="S169" t="s">
         <v>899</v>
-      </c>
-      <c r="R169" t="s">
-        <v>61</v>
-      </c>
-      <c r="S169" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
+        <v>900</v>
+      </c>
+      <c r="B170" t="s">
         <v>901</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" s="1" t="n">
+        <v>44647</v>
+      </c>
+      <c r="D170" t="s">
         <v>902</v>
       </c>
-      <c r="C170" s="1" t="n">
-        <v>44619</v>
-      </c>
-      <c r="D170" t="s">
-        <v>903</v>
-      </c>
       <c r="E170" t="s">
-        <v>53</v>
+        <v>237</v>
       </c>
       <c r="F170"/>
       <c r="G170" t="n">
-        <v>2</v>
+        <v>736</v>
       </c>
       <c r="H170" t="n">
-        <v>11989</v>
+        <v>5962401</v>
       </c>
       <c r="I170" t="n">
-        <v>38.125</v>
-      </c>
-      <c r="J170"/>
-      <c r="K170"/>
+        <v>1710.801</v>
+      </c>
+      <c r="J170" t="n">
+        <v>7244</v>
+      </c>
+      <c r="K170" t="n">
+        <v>2.079</v>
+      </c>
       <c r="L170" t="n">
-        <v>76</v>
+        <v>11126</v>
       </c>
       <c r="M170" t="n">
-        <v>0.242</v>
+        <v>3.192</v>
       </c>
       <c r="N170" t="n">
-        <v>0.0132</v>
+        <v>0.1126</v>
       </c>
       <c r="O170" t="n">
-        <v>76</v>
+        <v>8.9</v>
       </c>
       <c r="P170" t="s">
-        <v>904</v>
+        <v>237</v>
       </c>
       <c r="Q170" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="R170" t="s">
-        <v>311</v>
+        <v>61</v>
       </c>
       <c r="S170" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B171" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>44648</v>
+        <v>44619</v>
       </c>
       <c r="D171" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="E171" t="s">
-        <v>910</v>
+        <v>53</v>
       </c>
       <c r="F171"/>
       <c r="G171" t="n">
-        <v>152</v>
+        <v>2</v>
       </c>
       <c r="H171" t="n">
-        <v>84027988</v>
+        <v>11989</v>
       </c>
       <c r="I171" t="n">
-        <v>855.954</v>
+        <v>38.125</v>
       </c>
       <c r="J171"/>
       <c r="K171"/>
       <c r="L171" t="n">
-        <v>139911</v>
+        <v>76</v>
       </c>
       <c r="M171" t="n">
-        <v>1.425</v>
-      </c>
-      <c r="N171"/>
-      <c r="O171"/>
+        <v>0.242</v>
+      </c>
+      <c r="N171" t="n">
+        <v>0.0132</v>
+      </c>
+      <c r="O171" t="n">
+        <v>76</v>
+      </c>
       <c r="P171" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="Q171" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="R171" t="s">
-        <v>45</v>
+        <v>311</v>
       </c>
       <c r="S171" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="B172" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>44632</v>
+        <v>44648</v>
       </c>
       <c r="D172" t="s">
-        <v>21</v>
+        <v>912</v>
       </c>
       <c r="E172" t="s">
-        <v>22</v>
+        <v>913</v>
       </c>
       <c r="F172"/>
       <c r="G172" t="n">
-        <v>2</v>
+        <v>152</v>
       </c>
       <c r="H172" t="n">
-        <v>329592</v>
+        <v>84027988</v>
       </c>
       <c r="I172" t="n">
-        <v>10.81</v>
+        <v>855.954</v>
       </c>
       <c r="J172"/>
       <c r="K172"/>
       <c r="L172" t="n">
-        <v>0</v>
+        <v>139911</v>
       </c>
       <c r="M172" t="n">
-        <v>0</v>
+        <v>1.425</v>
       </c>
       <c r="N172"/>
       <c r="O172"/>
       <c r="P172" t="s">
-        <v>23</v>
+        <v>914</v>
       </c>
       <c r="Q172" t="s">
-        <v>24</v>
+        <v>915</v>
       </c>
       <c r="R172" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="S172" t="s">
-        <v>26</v>
+        <v>916</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B173" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>44646</v>
+        <v>44632</v>
       </c>
       <c r="D173" t="s">
-        <v>918</v>
+        <v>21</v>
       </c>
       <c r="E173" t="s">
-        <v>919</v>
+        <v>22</v>
       </c>
       <c r="F173"/>
       <c r="G173" t="n">
-        <v>710</v>
+        <v>2</v>
       </c>
       <c r="H173" t="n">
-        <v>3346905</v>
+        <v>329592</v>
       </c>
       <c r="I173" t="n">
-        <v>176.892</v>
-      </c>
-      <c r="J173" t="n">
-        <v>2364</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.125</v>
-      </c>
+        <v>10.81</v>
+      </c>
+      <c r="J173"/>
+      <c r="K173"/>
       <c r="L173" t="n">
-        <v>2674</v>
+        <v>0</v>
       </c>
       <c r="M173" t="n">
-        <v>0.141</v>
-      </c>
-      <c r="N173" t="n">
-        <v>0.0469</v>
-      </c>
-      <c r="O173" t="n">
-        <v>21.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N173"/>
+      <c r="O173"/>
       <c r="P173" t="s">
-        <v>920</v>
+        <v>23</v>
       </c>
       <c r="Q173" t="s">
-        <v>918</v>
+        <v>24</v>
       </c>
       <c r="R173" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S173" t="s">
-        <v>921</v>
+        <v>26</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
+        <v>919</v>
+      </c>
+      <c r="B174" t="s">
+        <v>920</v>
+      </c>
+      <c r="C174" s="1" t="n">
+        <v>44646</v>
+      </c>
+      <c r="D174" t="s">
+        <v>921</v>
+      </c>
+      <c r="E174" t="s">
         <v>922</v>
-      </c>
-      <c r="B174" t="s">
-        <v>923</v>
-      </c>
-      <c r="C174" s="1" t="n">
-        <v>44648</v>
-      </c>
-      <c r="D174" t="s">
-        <v>35</v>
-      </c>
-      <c r="E174" t="s">
-        <v>36</v>
       </c>
       <c r="F174"/>
       <c r="G174" t="n">
-        <v>654</v>
+        <v>710</v>
       </c>
       <c r="H174" t="n">
-        <v>2176708</v>
+        <v>3346905</v>
       </c>
       <c r="I174" t="n">
-        <v>144.228</v>
-      </c>
-      <c r="J174"/>
-      <c r="K174"/>
+        <v>176.892</v>
+      </c>
+      <c r="J174" t="n">
+        <v>2364</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0.125</v>
+      </c>
       <c r="L174" t="n">
-        <v>2747</v>
+        <v>2674</v>
       </c>
       <c r="M174" t="n">
-        <v>0.182</v>
-      </c>
-      <c r="N174"/>
-      <c r="O174"/>
+        <v>0.141</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0.0469</v>
+      </c>
+      <c r="O174" t="n">
+        <v>21.3</v>
+      </c>
       <c r="P174" t="s">
-        <v>36</v>
+        <v>923</v>
       </c>
       <c r="Q174" t="s">
-        <v>37</v>
+        <v>921</v>
       </c>
       <c r="R174" t="s">
         <v>61</v>
       </c>
       <c r="S174" t="s">
         <v>924</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>925</v>
+      </c>
+      <c r="B175" t="s">
+        <v>926</v>
+      </c>
+      <c r="C175" s="1" t="n">
+        <v>44648</v>
+      </c>
+      <c r="D175" t="s">
+        <v>35</v>
+      </c>
+      <c r="E175" t="s">
+        <v>36</v>
+      </c>
+      <c r="F175"/>
+      <c r="G175" t="n">
+        <v>654</v>
+      </c>
+      <c r="H175" t="n">
+        <v>2176708</v>
+      </c>
+      <c r="I175" t="n">
+        <v>144.228</v>
+      </c>
+      <c r="J175"/>
+      <c r="K175"/>
+      <c r="L175" t="n">
+        <v>2747</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0.0646</v>
+      </c>
+      <c r="O175" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="P175" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>37</v>
+      </c>
+      <c r="R175" t="s">
+        <v>61</v>
+      </c>
+      <c r="S175" t="s">
+        <v>927</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -101,7 +101,7 @@
     <t xml:space="preserve">Albania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-646-testime-45-qytetare-te-infektuar-asnje-humbje-jete-dhe-26-te-sheruar-ne-24-oret-e-fundit/</t>
+    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-986-testime-69-qytetare-te-infektuar-asnje-humbje-jete-dhe-63-te-sheruar-ne-24-oret-e-fundit/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Protection</t>
@@ -295,7 +295,7 @@
     <t xml:space="preserve">Bahamas - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bahamas.gov.bs/wps/wcm/connect/1f198d4d-83cf-4865-9777-09d835a791f5/Update+%23731+-+Ministry+of+Health+%26+Wellness+-+COVID-19+Report+%281%29.pdf?MOD=AJPERES</t>
+    <t xml:space="preserve">https://www.bahamas.gov.bs/wps/wcm/connect/ea1a604d-064a-42e0-9790-6e8d11bcf269/Update+%23734+-+Ministry+of+Health+%26+Wellness+-+COVID-19+Report+%285%29.pdf?MOD=AJPERES</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Wellness</t>
@@ -357,7 +357,7 @@
     <t xml:space="preserve">Barbados - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gisbarbados.gov.bb/blog/covid-19-update-for-march-26/</t>
+    <t xml:space="preserve">https://gisbarbados.gov.bb/blog/covid-19-update-for-wednesday-march-30/</t>
   </si>
   <si>
     <t xml:space="preserve">https://gisbarbados.gov.bb/top-stories/</t>
@@ -632,7 +632,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-24-de-marco-de-2022/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-31-de-marco-de-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -1051,7 +1051,7 @@
     <t xml:space="preserve">Fiji - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.fj/28-03-2022/</t>
+    <t xml:space="preserve">https://www.health.gov.fj/01-04-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Fiji Ministry of Health &amp; Medical Services</t>
@@ -1141,7 +1141,7 @@
     <t xml:space="preserve">Georgia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://agenda.ge/en/news/2022/897</t>
+    <t xml:space="preserve">https://agenda.ge/en/news/2022/1041</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Georgia</t>
@@ -1294,7 +1294,7 @@
     <t xml:space="preserve">Haiti - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://mspp.gouv.ht/site/downloads/Sitrep COVID-19_23-03-2022.pdf</t>
+    <t xml:space="preserve">https://mspp.gouv.ht/site/downloads/Sitrep COVID-19_26-03-2022.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Population</t>
@@ -1420,7 +1420,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://irangov.ir/detail/383259</t>
+    <t xml:space="preserve">https://irangov.ir/detail/383613</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Medical Education</t>
@@ -1937,7 +1937,7 @@
     <t xml:space="preserve">Moldova - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://msmps.gov.md/comunicare/385-de-cazuri-noi-de-covid-19-raportate-pentru-24-martie-2022/</t>
+    <t xml:space="preserve">https://msmps.gov.md/comunicare/315-cazuri-noi-de-covid-19-raportate-pentru-31-martie-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health of the Republic of Moldova</t>
@@ -2047,7 +2047,7 @@
     <t xml:space="preserve">Nepal - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.mohp.gov.np/covid/englishSituationReport/624188f67d0be_SitRep778_COVID-19_28-03-2022_EN.pdf</t>
+    <t xml:space="preserve">https://covid19.mohp.gov.np/covid/englishSituationReport/6246d5e9bd15a_SitRep782_COVID-19_01-04-2022_EN.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -2137,7 +2137,7 @@
     <t xml:space="preserve">North Macedonia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://koronavirus.gov.mk/vesti/223977</t>
+    <t xml:space="preserve">https://koronavirus.gov.mk/vesti/223988</t>
   </si>
   <si>
     <t xml:space="preserve">https://koronavirus.gov.mk/stat</t>
@@ -2403,7 +2403,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=21074</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=21134</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -3057,7 +3057,7 @@
     <t xml:space="preserve">Vietnam - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.gov.vn/ngay-28-3-so-mac-covid-19-tiep-tuc-giam-xuong-con-83376-ca-ha-noi-bo-sung-180000-f0-171220328184459603.htm</t>
+    <t xml:space="preserve">https://covid19.gov.vn/ngay-1-4-so-mac-moi-covid-19-giam-sau-con-72556-ca-vinh-phuc-bo-sung-hon-13000-f0-171220401180935971.htm</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health of Vietnam</t>
@@ -3572,7 +3572,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>44647</v>
+        <v>44651</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
@@ -3582,31 +3582,31 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H3" t="n">
-        <v>1598280</v>
+        <v>1599266</v>
       </c>
       <c r="I3" t="n">
-        <v>556.323</v>
+        <v>556.666</v>
       </c>
       <c r="J3" t="n">
-        <v>646</v>
+        <v>986</v>
       </c>
       <c r="K3" t="n">
-        <v>0.225</v>
+        <v>0.343</v>
       </c>
       <c r="L3" t="n">
-        <v>126</v>
+        <v>210</v>
       </c>
       <c r="M3" t="n">
-        <v>0.044</v>
+        <v>0.073</v>
       </c>
       <c r="N3" t="n">
-        <v>0.39</v>
+        <v>0.2857</v>
       </c>
       <c r="O3" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="P3" t="s">
         <v>30</v>
@@ -3727,7 +3727,7 @@
         <v>48</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D6" t="s">
         <v>35</v>
@@ -3737,28 +3737,24 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H6" t="n">
-        <v>1491179</v>
+        <v>1495572</v>
       </c>
       <c r="I6" t="n">
-        <v>43.944</v>
+        <v>44.073</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="n">
-        <v>1800</v>
+        <v>1155</v>
       </c>
       <c r="M6" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.0083</v>
-      </c>
-      <c r="O6" t="n">
-        <v>120</v>
-      </c>
+        <v>0.034</v>
+      </c>
+      <c r="N6"/>
+      <c r="O6"/>
       <c r="P6" t="s">
         <v>36</v>
       </c>
@@ -3833,7 +3829,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44646</v>
+        <v>44650</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -3843,31 +3839,31 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="H8" t="n">
-        <v>35186417</v>
+        <v>35307883</v>
       </c>
       <c r="I8" t="n">
-        <v>771.533</v>
+        <v>774.197</v>
       </c>
       <c r="J8" t="n">
-        <v>10292</v>
+        <v>20725</v>
       </c>
       <c r="K8" t="n">
-        <v>0.226</v>
+        <v>0.454</v>
       </c>
       <c r="L8" t="n">
-        <v>20869</v>
+        <v>19824</v>
       </c>
       <c r="M8" t="n">
-        <v>0.458</v>
+        <v>0.435</v>
       </c>
       <c r="N8" t="n">
-        <v>0.04</v>
+        <v>0.043</v>
       </c>
       <c r="O8" t="n">
-        <v>25</v>
+        <v>23.3</v>
       </c>
       <c r="P8" t="s">
         <v>60</v>
@@ -3890,7 +3886,7 @@
         <v>64</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44647</v>
+        <v>44651</v>
       </c>
       <c r="D9" t="s">
         <v>65</v>
@@ -3900,31 +3896,31 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="H9" t="n">
-        <v>2969876</v>
+        <v>2978377</v>
       </c>
       <c r="I9" t="n">
-        <v>1000.589</v>
+        <v>1003.453</v>
       </c>
       <c r="J9" t="n">
-        <v>2397</v>
+        <v>2063</v>
       </c>
       <c r="K9" t="n">
-        <v>0.808</v>
+        <v>0.695</v>
       </c>
       <c r="L9" t="n">
-        <v>2314</v>
+        <v>2185</v>
       </c>
       <c r="M9" t="n">
-        <v>0.78</v>
+        <v>0.736</v>
       </c>
       <c r="N9" t="n">
-        <v>0.009</v>
+        <v>0.008</v>
       </c>
       <c r="O9" t="n">
-        <v>111.1</v>
+        <v>125</v>
       </c>
       <c r="P9" t="s">
         <v>53</v>
@@ -3947,7 +3943,7 @@
         <v>69</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D10" t="s">
         <v>70</v>
@@ -3959,32 +3955,28 @@
         <v>72</v>
       </c>
       <c r="G10" t="n">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="H10" t="n">
-        <v>66168140</v>
+        <v>66680026</v>
       </c>
       <c r="I10" t="n">
-        <v>2565.828</v>
+        <v>2585.678</v>
       </c>
       <c r="J10" t="n">
-        <v>98564</v>
+        <v>133814</v>
       </c>
       <c r="K10" t="n">
-        <v>3.822</v>
+        <v>5.189</v>
       </c>
       <c r="L10" t="n">
-        <v>108797</v>
+        <v>120538</v>
       </c>
       <c r="M10" t="n">
-        <v>4.219</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.5062</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2</v>
-      </c>
+        <v>4.674</v>
+      </c>
+      <c r="N10"/>
+      <c r="O10"/>
       <c r="P10" t="s">
         <v>71</v>
       </c>
@@ -4006,7 +3998,7 @@
         <v>76</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D11" t="s">
         <v>77</v>
@@ -4016,32 +4008,24 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="H11" t="n">
-        <v>173915134</v>
+        <v>176169662</v>
       </c>
       <c r="I11" t="n">
-        <v>19231.864</v>
-      </c>
-      <c r="J11" t="n">
-        <v>222096</v>
-      </c>
-      <c r="K11" t="n">
-        <v>24.56</v>
-      </c>
+        <v>19481.174</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11"/>
       <c r="L11" t="n">
-        <v>421333</v>
+        <v>466401</v>
       </c>
       <c r="M11" t="n">
-        <v>46.592</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.0846</v>
-      </c>
-      <c r="O11" t="n">
-        <v>11.8</v>
-      </c>
+        <v>51.576</v>
+      </c>
+      <c r="N11"/>
+      <c r="O11"/>
       <c r="P11" t="s">
         <v>78</v>
       </c>
@@ -4063,7 +4047,7 @@
         <v>81</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44648</v>
+        <v>44651</v>
       </c>
       <c r="D12" t="s">
         <v>82</v>
@@ -4073,27 +4057,27 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H12" t="n">
-        <v>6687581</v>
+        <v>6706012</v>
       </c>
       <c r="I12" t="n">
-        <v>654.148</v>
+        <v>655.951</v>
       </c>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12" t="n">
-        <v>2425</v>
+        <v>4175</v>
       </c>
       <c r="M12" t="n">
-        <v>0.237</v>
+        <v>0.408</v>
       </c>
       <c r="N12" t="n">
-        <v>0.015</v>
+        <v>0.0112</v>
       </c>
       <c r="O12" t="n">
-        <v>66.6</v>
+        <v>89.1</v>
       </c>
       <c r="P12" t="s">
         <v>83</v>
@@ -4116,7 +4100,7 @@
         <v>86</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44647</v>
+        <v>44650</v>
       </c>
       <c r="D13" t="s">
         <v>87</v>
@@ -4126,27 +4110,27 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H13" t="n">
-        <v>226957</v>
+        <v>227658</v>
       </c>
       <c r="I13" t="n">
-        <v>571.804</v>
+        <v>573.57</v>
       </c>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13" t="n">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="M13" t="n">
-        <v>0.499</v>
+        <v>0.529</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0253</v>
+        <v>0.0136</v>
       </c>
       <c r="O13" t="n">
-        <v>39.6</v>
+        <v>73.5</v>
       </c>
       <c r="P13" t="s">
         <v>89</v>
@@ -4169,7 +4153,7 @@
         <v>93</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D14" t="s">
         <v>94</v>
@@ -4179,28 +4163,24 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H14" t="n">
-        <v>9585397</v>
+        <v>9608542</v>
       </c>
       <c r="I14" t="n">
-        <v>5482.711</v>
+        <v>5495.95</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14" t="n">
-        <v>5719</v>
+        <v>5541</v>
       </c>
       <c r="M14" t="n">
-        <v>3.271</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.1597</v>
-      </c>
-      <c r="O14" t="n">
-        <v>6.3</v>
-      </c>
+        <v>3.169</v>
+      </c>
+      <c r="N14"/>
+      <c r="O14"/>
       <c r="P14" t="s">
         <v>95</v>
       </c>
@@ -4222,7 +4202,7 @@
         <v>100</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D15" t="s">
         <v>101</v>
@@ -4232,32 +4212,28 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H15" t="n">
-        <v>13685166</v>
+        <v>13692579</v>
       </c>
       <c r="I15" t="n">
-        <v>82.29</v>
+        <v>82.335</v>
       </c>
       <c r="J15" t="n">
-        <v>9397</v>
+        <v>7413</v>
       </c>
       <c r="K15" t="n">
-        <v>0.057</v>
+        <v>0.045</v>
       </c>
       <c r="L15" t="n">
-        <v>3073</v>
+        <v>2066</v>
       </c>
       <c r="M15" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.0297</v>
-      </c>
-      <c r="O15" t="n">
-        <v>33.7</v>
-      </c>
+        <v>0.012</v>
+      </c>
+      <c r="N15"/>
+      <c r="O15"/>
       <c r="P15" t="s">
         <v>102</v>
       </c>
@@ -4279,7 +4255,7 @@
         <v>105</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>44646</v>
+        <v>44650</v>
       </c>
       <c r="D16" t="s">
         <v>106</v>
@@ -4289,27 +4265,27 @@
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H16" t="n">
-        <v>608599</v>
+        <v>612282</v>
       </c>
       <c r="I16" t="n">
-        <v>2115.336</v>
+        <v>2128.137</v>
       </c>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16" t="n">
-        <v>784</v>
+        <v>881</v>
       </c>
       <c r="M16" t="n">
-        <v>2.725</v>
+        <v>3.062</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1112</v>
+        <v>0.1722</v>
       </c>
       <c r="O16" t="n">
-        <v>9</v>
+        <v>5.8</v>
       </c>
       <c r="P16" t="s">
         <v>53</v>
@@ -4332,7 +4308,7 @@
         <v>110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D17" t="s">
         <v>111</v>
@@ -4342,28 +4318,24 @@
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H17" t="n">
-        <v>12822145</v>
+        <v>12868991</v>
       </c>
       <c r="I17" t="n">
-        <v>1357.866</v>
+        <v>1362.827</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17" t="n">
-        <v>12036</v>
+        <v>11246</v>
       </c>
       <c r="M17" t="n">
-        <v>1.275</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.0955</v>
-      </c>
-      <c r="O17" t="n">
-        <v>10.5</v>
-      </c>
+        <v>1.191</v>
+      </c>
+      <c r="N17"/>
+      <c r="O17"/>
       <c r="P17" t="s">
         <v>113</v>
       </c>
@@ -4385,7 +4357,7 @@
         <v>117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44644</v>
+        <v>44650</v>
       </c>
       <c r="D18" t="s">
         <v>118</v>
@@ -4395,31 +4367,31 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="H18" t="n">
-        <v>32629336</v>
+        <v>32871172</v>
       </c>
       <c r="I18" t="n">
-        <v>2805.055</v>
+        <v>2825.845</v>
       </c>
       <c r="J18" t="n">
-        <v>36061</v>
+        <v>46099</v>
       </c>
       <c r="K18" t="n">
-        <v>3.1</v>
+        <v>3.963</v>
       </c>
       <c r="L18" t="n">
-        <v>36861</v>
+        <v>38567</v>
       </c>
       <c r="M18" t="n">
-        <v>3.169</v>
+        <v>3.315</v>
       </c>
       <c r="N18" t="n">
-        <v>0.305</v>
+        <v>0.308</v>
       </c>
       <c r="O18" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P18" t="s">
         <v>120</v>
@@ -4442,7 +4414,7 @@
         <v>124</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>44641</v>
+        <v>44648</v>
       </c>
       <c r="D19" t="s">
         <v>125</v>
@@ -4452,27 +4424,27 @@
       </c>
       <c r="F19"/>
       <c r="G19" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H19" t="n">
-        <v>515601</v>
+        <v>520220</v>
       </c>
       <c r="I19" t="n">
-        <v>1273.356</v>
+        <v>1284.763</v>
       </c>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19" t="n">
-        <v>554</v>
+        <v>660</v>
       </c>
       <c r="M19" t="n">
-        <v>1.368</v>
+        <v>1.63</v>
       </c>
       <c r="N19" t="n">
-        <v>0.025</v>
+        <v>0.0184</v>
       </c>
       <c r="O19" t="n">
-        <v>40</v>
+        <v>54.4</v>
       </c>
       <c r="P19" t="s">
         <v>126</v>
@@ -4597,7 +4569,7 @@
         <v>139</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>44640</v>
+        <v>44647</v>
       </c>
       <c r="D22" t="s">
         <v>140</v>
@@ -4609,31 +4581,31 @@
         <v>142</v>
       </c>
       <c r="G22" t="n">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="H22" t="n">
-        <v>3989232</v>
+        <v>4027180</v>
       </c>
       <c r="I22" t="n">
-        <v>337.13</v>
+        <v>340.336</v>
       </c>
       <c r="J22" t="n">
-        <v>2281</v>
+        <v>2500</v>
       </c>
       <c r="K22" t="n">
-        <v>0.193</v>
+        <v>0.211</v>
       </c>
       <c r="L22" t="n">
-        <v>5475</v>
+        <v>5421</v>
       </c>
       <c r="M22" t="n">
-        <v>0.463</v>
+        <v>0.458</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0576</v>
+        <v>0.044</v>
       </c>
       <c r="O22" t="n">
-        <v>17.4</v>
+        <v>22.7</v>
       </c>
       <c r="P22" t="s">
         <v>53</v>
@@ -4811,7 +4783,7 @@
         <v>161</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>44647</v>
+        <v>44651</v>
       </c>
       <c r="D26" t="s">
         <v>162</v>
@@ -4821,27 +4793,27 @@
       </c>
       <c r="F26"/>
       <c r="G26" t="n">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H26" t="n">
-        <v>9549663</v>
+        <v>9602987</v>
       </c>
       <c r="I26" t="n">
-        <v>1384.68</v>
+        <v>1392.412</v>
       </c>
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26" t="n">
-        <v>11813</v>
+        <v>11281</v>
       </c>
       <c r="M26" t="n">
-        <v>1.713</v>
+        <v>1.636</v>
       </c>
       <c r="N26" t="n">
-        <v>0.1122</v>
+        <v>0.0995</v>
       </c>
       <c r="O26" t="n">
-        <v>8.9</v>
+        <v>10</v>
       </c>
       <c r="P26" t="s">
         <v>164</v>
@@ -4915,7 +4887,7 @@
         <v>171</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D28" t="s">
         <v>35</v>
@@ -4925,28 +4897,24 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H28" t="n">
-        <v>1454420</v>
+        <v>1456655</v>
       </c>
       <c r="I28" t="n">
-        <v>118.676</v>
+        <v>118.858</v>
       </c>
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28" t="n">
-        <v>2194</v>
+        <v>1638</v>
       </c>
       <c r="M28" t="n">
-        <v>0.179</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0.0059</v>
-      </c>
-      <c r="O28" t="n">
-        <v>168.8</v>
-      </c>
+        <v>0.134</v>
+      </c>
+      <c r="N28"/>
+      <c r="O28"/>
       <c r="P28" t="s">
         <v>36</v>
       </c>
@@ -4968,7 +4936,7 @@
         <v>174</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D29" t="s">
         <v>175</v>
@@ -4978,28 +4946,24 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H29" t="n">
-        <v>2921472</v>
+        <v>2928118</v>
       </c>
       <c r="I29" t="n">
-        <v>172.394</v>
+        <v>172.787</v>
       </c>
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29" t="n">
-        <v>1224</v>
+        <v>1283</v>
       </c>
       <c r="M29" t="n">
-        <v>0.072</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="O29" t="n">
-        <v>20</v>
-      </c>
+        <v>0.076</v>
+      </c>
+      <c r="N29"/>
+      <c r="O29"/>
       <c r="P29" t="s">
         <v>176</v>
       </c>
@@ -5074,7 +5038,7 @@
         <v>182</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>44646</v>
+        <v>44651</v>
       </c>
       <c r="D31" t="s">
         <v>183</v>
@@ -5084,31 +5048,31 @@
       </c>
       <c r="F31"/>
       <c r="G31" t="n">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="H31" t="n">
-        <v>59248866</v>
+        <v>59464465</v>
       </c>
       <c r="I31" t="n">
-        <v>1556.399</v>
+        <v>1562.063</v>
       </c>
       <c r="J31" t="n">
-        <v>24100</v>
+        <v>48573</v>
       </c>
       <c r="K31" t="n">
-        <v>0.633</v>
+        <v>1.276</v>
       </c>
       <c r="L31" t="n">
-        <v>36092</v>
+        <v>40400</v>
       </c>
       <c r="M31" t="n">
-        <v>0.948</v>
+        <v>1.061</v>
       </c>
       <c r="N31" t="n">
-        <v>0.1863</v>
+        <v>0.189</v>
       </c>
       <c r="O31" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="P31" t="s">
         <v>184</v>
@@ -5131,7 +5095,7 @@
         <v>188</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44643</v>
+        <v>44650</v>
       </c>
       <c r="D32" t="s">
         <v>189</v>
@@ -5141,15 +5105,15 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32" t="n">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="K32" t="n">
-        <v>0.58</v>
+        <v>0.625</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -5227,7 +5191,7 @@
         <v>197</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>44644</v>
+        <v>44652</v>
       </c>
       <c r="D34" t="s">
         <v>35</v>
@@ -5237,28 +5201,24 @@
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H34" t="n">
-        <v>206951</v>
+        <v>209345</v>
       </c>
       <c r="I34" t="n">
-        <v>12.235</v>
+        <v>12.376</v>
       </c>
       <c r="J34"/>
       <c r="K34"/>
       <c r="L34" t="n">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="M34" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="O34" t="n">
-        <v>124.9</v>
-      </c>
+        <v>0.018</v>
+      </c>
+      <c r="N34"/>
+      <c r="O34"/>
       <c r="P34" t="s">
         <v>36</v>
       </c>
@@ -5280,7 +5240,7 @@
         <v>200</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D35" t="s">
         <v>201</v>
@@ -5290,32 +5250,28 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="H35" t="n">
-        <v>35072725</v>
+        <v>35336336</v>
       </c>
       <c r="I35" t="n">
-        <v>1825.529</v>
+        <v>1839.25</v>
       </c>
       <c r="J35" t="n">
-        <v>56395</v>
+        <v>77032</v>
       </c>
       <c r="K35" t="n">
-        <v>2.935</v>
+        <v>4.01</v>
       </c>
       <c r="L35" t="n">
-        <v>77479</v>
+        <v>69235</v>
       </c>
       <c r="M35" t="n">
-        <v>4.033</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0.0994</v>
-      </c>
-      <c r="O35" t="n">
-        <v>10.1</v>
-      </c>
+        <v>3.604</v>
+      </c>
+      <c r="N35"/>
+      <c r="O35"/>
       <c r="P35" t="s">
         <v>202</v>
       </c>
@@ -5367,7 +5323,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>41741.2</v>
+        <v>29369.2</v>
       </c>
       <c r="P36" t="s">
         <v>208</v>
@@ -5390,7 +5346,7 @@
         <v>212</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>44648</v>
+        <v>44651</v>
       </c>
       <c r="D37" t="s">
         <v>213</v>
@@ -5400,31 +5356,31 @@
       </c>
       <c r="F37"/>
       <c r="G37" t="n">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="H37" t="n">
-        <v>33790938</v>
+        <v>33860289</v>
       </c>
       <c r="I37" t="n">
-        <v>659.132</v>
+        <v>660.484</v>
       </c>
       <c r="J37" t="n">
-        <v>23840</v>
+        <v>23099</v>
       </c>
       <c r="K37" t="n">
-        <v>0.465</v>
+        <v>0.451</v>
       </c>
       <c r="L37" t="n">
-        <v>21095</v>
+        <v>22322</v>
       </c>
       <c r="M37" t="n">
-        <v>0.411</v>
+        <v>0.435</v>
       </c>
       <c r="N37" t="n">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="O37" t="n">
-        <v>52.6</v>
+        <v>50</v>
       </c>
       <c r="P37" t="s">
         <v>214</v>
@@ -5492,7 +5448,7 @@
         <v>221</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44640</v>
+        <v>44646</v>
       </c>
       <c r="D39" t="s">
         <v>222</v>
@@ -5502,31 +5458,31 @@
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="H39" t="n">
-        <v>3079807</v>
+        <v>3132380</v>
       </c>
       <c r="I39" t="n">
-        <v>599.295</v>
+        <v>609.525</v>
       </c>
       <c r="J39" t="n">
-        <v>6878</v>
+        <v>9349</v>
       </c>
       <c r="K39" t="n">
-        <v>1.338</v>
+        <v>1.819</v>
       </c>
       <c r="L39" t="n">
-        <v>8464</v>
+        <v>8493</v>
       </c>
       <c r="M39" t="n">
-        <v>1.647</v>
+        <v>1.653</v>
       </c>
       <c r="N39" t="n">
-        <v>0.088</v>
+        <v>0.076</v>
       </c>
       <c r="O39" t="n">
-        <v>11.4</v>
+        <v>13.2</v>
       </c>
       <c r="P39" t="s">
         <v>223</v>
@@ -5549,7 +5505,7 @@
         <v>226</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D40" t="s">
         <v>35</v>
@@ -5559,28 +5515,24 @@
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H40" t="n">
-        <v>1467139</v>
+        <v>1471872</v>
       </c>
       <c r="I40" t="n">
-        <v>54.231</v>
+        <v>54.406</v>
       </c>
       <c r="J40"/>
       <c r="K40"/>
       <c r="L40" t="n">
-        <v>1500</v>
+        <v>1363</v>
       </c>
       <c r="M40" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0.0045</v>
-      </c>
-      <c r="O40" t="n">
-        <v>223.4</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="N40"/>
+      <c r="O40"/>
       <c r="P40" t="s">
         <v>36</v>
       </c>
@@ -5602,7 +5554,7 @@
         <v>229</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D41" t="s">
         <v>230</v>
@@ -5612,28 +5564,24 @@
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H41" t="n">
-        <v>4660113</v>
+        <v>4683210</v>
       </c>
       <c r="I41" t="n">
-        <v>1141.721</v>
+        <v>1147.38</v>
       </c>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41" t="n">
-        <v>5184</v>
+        <v>4806</v>
       </c>
       <c r="M41" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0.2728</v>
-      </c>
-      <c r="O41" t="n">
-        <v>3.7</v>
-      </c>
+        <v>1.177</v>
+      </c>
+      <c r="N41"/>
+      <c r="O41"/>
       <c r="P41" t="s">
         <v>231</v>
       </c>
@@ -5714,7 +5662,7 @@
         <v>242</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44647</v>
+        <v>44650</v>
       </c>
       <c r="D43" t="s">
         <v>243</v>
@@ -5724,31 +5672,31 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="H43" t="n">
-        <v>28098844</v>
+        <v>28393478</v>
       </c>
       <c r="I43" t="n">
-        <v>31360.142</v>
+        <v>31688.973</v>
       </c>
       <c r="J43" t="n">
-        <v>82650</v>
+        <v>83389</v>
       </c>
       <c r="K43" t="n">
-        <v>92.243</v>
+        <v>93.068</v>
       </c>
       <c r="L43" t="n">
-        <v>86652</v>
+        <v>86975</v>
       </c>
       <c r="M43" t="n">
-        <v>96.709</v>
+        <v>97.07</v>
       </c>
       <c r="N43" t="n">
-        <v>0.0539</v>
+        <v>0.0564</v>
       </c>
       <c r="O43" t="n">
-        <v>18.6</v>
+        <v>17.7</v>
       </c>
       <c r="P43" t="s">
         <v>53</v>
@@ -5771,7 +5719,7 @@
         <v>246</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>44647</v>
+        <v>44651</v>
       </c>
       <c r="D44" t="s">
         <v>247</v>
@@ -5781,31 +5729,31 @@
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="H44" t="n">
-        <v>53664763</v>
+        <v>53795867</v>
       </c>
       <c r="I44" t="n">
-        <v>5003.916</v>
+        <v>5016.141</v>
       </c>
       <c r="J44" t="n">
-        <v>8814</v>
+        <v>26417</v>
       </c>
       <c r="K44" t="n">
-        <v>0.822</v>
+        <v>2.463</v>
       </c>
       <c r="L44" t="n">
-        <v>27049</v>
+        <v>26186</v>
       </c>
       <c r="M44" t="n">
-        <v>2.522</v>
+        <v>2.442</v>
       </c>
       <c r="N44" t="n">
-        <v>0.263</v>
+        <v>0.245</v>
       </c>
       <c r="O44" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="P44" t="s">
         <v>53</v>
@@ -5881,7 +5829,7 @@
         <v>256</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>44647</v>
+        <v>44651</v>
       </c>
       <c r="D46" t="s">
         <v>257</v>
@@ -5891,31 +5839,31 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="H46" t="n">
-        <v>66506365</v>
+        <v>66615672</v>
       </c>
       <c r="I46" t="n">
-        <v>11440.377</v>
+        <v>11459.18</v>
       </c>
       <c r="J46" t="n">
-        <v>15939</v>
+        <v>18970</v>
       </c>
       <c r="K46" t="n">
-        <v>2.742</v>
+        <v>3.263</v>
       </c>
       <c r="L46" t="n">
-        <v>29062</v>
+        <v>23904</v>
       </c>
       <c r="M46" t="n">
-        <v>4.999</v>
+        <v>4.112</v>
       </c>
       <c r="N46" t="n">
-        <v>0.1851</v>
+        <v>0.1766</v>
       </c>
       <c r="O46" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="P46" t="s">
         <v>258</v>
@@ -5938,7 +5886,7 @@
         <v>261</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D47" t="s">
         <v>35</v>
@@ -5948,28 +5896,24 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H47" t="n">
-        <v>296053</v>
+        <v>297955</v>
       </c>
       <c r="I47" t="n">
-        <v>295.404</v>
+        <v>297.302</v>
       </c>
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47" t="n">
-        <v>415</v>
+        <v>464</v>
       </c>
       <c r="M47" t="n">
-        <v>0.414</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0.0041</v>
-      </c>
-      <c r="O47" t="n">
-        <v>242.1</v>
-      </c>
+        <v>0.463</v>
+      </c>
+      <c r="N47"/>
+      <c r="O47"/>
       <c r="P47" t="s">
         <v>36</v>
       </c>
@@ -6048,7 +5992,7 @@
         <v>270</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>44643</v>
+        <v>44649</v>
       </c>
       <c r="D49" t="s">
         <v>271</v>
@@ -6060,31 +6004,31 @@
         <v>273</v>
       </c>
       <c r="G49" t="n">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="H49" t="n">
-        <v>2621582</v>
+        <v>2644855</v>
       </c>
       <c r="I49" t="n">
-        <v>146.551</v>
+        <v>147.852</v>
       </c>
       <c r="J49" t="n">
-        <v>7169</v>
+        <v>4236</v>
       </c>
       <c r="K49" t="n">
-        <v>0.401</v>
+        <v>0.237</v>
       </c>
       <c r="L49" t="n">
-        <v>3770</v>
+        <v>4349</v>
       </c>
       <c r="M49" t="n">
-        <v>0.211</v>
+        <v>0.243</v>
       </c>
       <c r="N49" t="n">
-        <v>0.134</v>
+        <v>0.172</v>
       </c>
       <c r="O49" t="n">
-        <v>7.5</v>
+        <v>5.8</v>
       </c>
       <c r="P49" t="s">
         <v>274</v>
@@ -6107,7 +6051,7 @@
         <v>278</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44644</v>
+        <v>44652</v>
       </c>
       <c r="D50" t="s">
         <v>35</v>
@@ -6117,28 +6061,24 @@
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H50" t="n">
-        <v>6012910</v>
+        <v>6122287</v>
       </c>
       <c r="I50" t="n">
-        <v>57.673</v>
+        <v>58.722</v>
       </c>
       <c r="J50"/>
       <c r="K50"/>
       <c r="L50" t="n">
-        <v>1019</v>
+        <v>13672</v>
       </c>
       <c r="M50" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0.7733</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1.3</v>
-      </c>
+        <v>0.131</v>
+      </c>
+      <c r="N50"/>
+      <c r="O50"/>
       <c r="P50" t="s">
         <v>36</v>
       </c>
@@ -6217,7 +6157,7 @@
         <v>286</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44628</v>
+        <v>44652</v>
       </c>
       <c r="D52" t="s">
         <v>287</v>
@@ -6227,28 +6167,24 @@
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H52" t="n">
-        <v>467504</v>
+        <v>473409</v>
       </c>
       <c r="I52" t="n">
-        <v>322.441</v>
+        <v>326.514</v>
       </c>
       <c r="J52"/>
       <c r="K52"/>
       <c r="L52" t="n">
-        <v>494</v>
+        <v>246</v>
       </c>
       <c r="M52" t="n">
-        <v>0.341</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0.0029</v>
-      </c>
-      <c r="O52" t="n">
-        <v>345.7</v>
-      </c>
+        <v>0.17</v>
+      </c>
+      <c r="N52"/>
+      <c r="O52"/>
       <c r="P52" t="s">
         <v>36</v>
       </c>
@@ -6315,7 +6251,7 @@
         <v>294</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>44647</v>
+        <v>44651</v>
       </c>
       <c r="D54" t="s">
         <v>295</v>
@@ -6325,31 +6261,31 @@
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="H54" t="n">
-        <v>3247815</v>
+        <v>3264295</v>
       </c>
       <c r="I54" t="n">
-        <v>2450.833</v>
+        <v>2463.269</v>
       </c>
       <c r="J54" t="n">
-        <v>2149</v>
+        <v>3797</v>
       </c>
       <c r="K54" t="n">
-        <v>1.622</v>
+        <v>2.865</v>
       </c>
       <c r="L54" t="n">
-        <v>3622</v>
+        <v>3445</v>
       </c>
       <c r="M54" t="n">
-        <v>2.733</v>
+        <v>2.6</v>
       </c>
       <c r="N54" t="n">
-        <v>0.3679</v>
+        <v>0.3305</v>
       </c>
       <c r="O54" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="P54" t="s">
         <v>296</v>
@@ -6372,7 +6308,7 @@
         <v>299</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D55" t="s">
         <v>35</v>
@@ -6382,28 +6318,24 @@
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H55" t="n">
-        <v>514794</v>
+        <v>517095</v>
       </c>
       <c r="I55" t="n">
-        <v>439.106</v>
+        <v>441.068</v>
       </c>
       <c r="J55"/>
       <c r="K55"/>
       <c r="L55" t="n">
-        <v>1075</v>
+        <v>631</v>
       </c>
       <c r="M55" t="n">
-        <v>0.917</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0.0145</v>
-      </c>
-      <c r="O55" t="n">
-        <v>69</v>
-      </c>
+        <v>0.538</v>
+      </c>
+      <c r="N55"/>
+      <c r="O55"/>
       <c r="P55" t="s">
         <v>36</v>
       </c>
@@ -6425,7 +6357,7 @@
         <v>302</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D56" t="s">
         <v>35</v>
@@ -6435,28 +6367,24 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H56" t="n">
-        <v>4637343</v>
+        <v>4658482</v>
       </c>
       <c r="I56" t="n">
-        <v>39.341</v>
+        <v>39.52</v>
       </c>
       <c r="J56"/>
       <c r="K56"/>
       <c r="L56" t="n">
-        <v>4900</v>
+        <v>5308</v>
       </c>
       <c r="M56" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0.0055</v>
-      </c>
-      <c r="O56" t="n">
-        <v>183.4</v>
-      </c>
+        <v>0.045</v>
+      </c>
+      <c r="N56"/>
+      <c r="O56"/>
       <c r="P56" t="s">
         <v>303</v>
       </c>
@@ -6531,7 +6459,7 @@
         <v>314</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44647</v>
+        <v>44651</v>
       </c>
       <c r="D58" t="s">
         <v>315</v>
@@ -6541,21 +6469,21 @@
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H58" t="n">
-        <v>504466</v>
+        <v>505020</v>
       </c>
       <c r="I58" t="n">
-        <v>558.718</v>
+        <v>559.332</v>
       </c>
       <c r="J58"/>
       <c r="K58"/>
       <c r="L58" t="n">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="M58" t="n">
-        <v>0.188</v>
+        <v>0.132</v>
       </c>
       <c r="N58"/>
       <c r="O58"/>
@@ -6580,7 +6508,7 @@
         <v>320</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44646</v>
+        <v>44650</v>
       </c>
       <c r="D59" t="s">
         <v>321</v>
@@ -6590,31 +6518,31 @@
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="H59" t="n">
-        <v>10353668</v>
+        <v>10437148</v>
       </c>
       <c r="I59" t="n">
-        <v>1866.077</v>
+        <v>1881.123</v>
       </c>
       <c r="J59" t="n">
-        <v>2831</v>
+        <v>12692</v>
       </c>
       <c r="K59" t="n">
-        <v>0.51</v>
+        <v>2.288</v>
       </c>
       <c r="L59" t="n">
-        <v>10720</v>
+        <v>13770</v>
       </c>
       <c r="M59" t="n">
-        <v>1.932</v>
+        <v>2.482</v>
       </c>
       <c r="N59" t="n">
-        <v>0.619</v>
+        <v>0.443</v>
       </c>
       <c r="O59" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="P59" t="s">
         <v>323</v>
@@ -6637,7 +6565,7 @@
         <v>327</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44645</v>
+        <v>44649</v>
       </c>
       <c r="D60" t="s">
         <v>328</v>
@@ -6647,31 +6575,31 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="H60" t="n">
-        <v>256431950</v>
+        <v>258271204</v>
       </c>
       <c r="I60" t="n">
-        <v>3803.387</v>
+        <v>3830.667</v>
       </c>
       <c r="J60" t="n">
-        <v>494954</v>
+        <v>578887</v>
       </c>
       <c r="K60" t="n">
-        <v>7.341</v>
+        <v>8.586</v>
       </c>
       <c r="L60" t="n">
-        <v>440289</v>
+        <v>478081</v>
       </c>
       <c r="M60" t="n">
-        <v>6.53</v>
+        <v>7.091</v>
       </c>
       <c r="N60" t="n">
-        <v>0.301</v>
+        <v>0.309</v>
       </c>
       <c r="O60" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P60" t="s">
         <v>329</v>
@@ -6694,7 +6622,7 @@
         <v>332</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>44644</v>
+        <v>44652</v>
       </c>
       <c r="D61" t="s">
         <v>35</v>
@@ -6704,28 +6632,24 @@
       </c>
       <c r="F61"/>
       <c r="G61" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H61" t="n">
-        <v>1587140</v>
+        <v>1588441</v>
       </c>
       <c r="I61" t="n">
-        <v>696.472</v>
+        <v>697.043</v>
       </c>
       <c r="J61"/>
       <c r="K61"/>
       <c r="L61" t="n">
-        <v>424</v>
+        <v>163</v>
       </c>
       <c r="M61" t="n">
-        <v>0.186</v>
-      </c>
-      <c r="N61" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="O61" t="n">
-        <v>212</v>
-      </c>
+        <v>0.072</v>
+      </c>
+      <c r="N61"/>
+      <c r="O61"/>
       <c r="P61" t="s">
         <v>36</v>
       </c>
@@ -6800,7 +6724,7 @@
         <v>341</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44645</v>
+        <v>44652</v>
       </c>
       <c r="D63" t="s">
         <v>342</v>
@@ -6810,32 +6734,28 @@
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H63" t="n">
-        <v>13570641</v>
+        <v>13598889</v>
       </c>
       <c r="I63" t="n">
-        <v>3409.903</v>
+        <v>3417.001</v>
       </c>
       <c r="J63" t="n">
-        <v>20918</v>
+        <v>22788</v>
       </c>
       <c r="K63" t="n">
-        <v>5.256</v>
+        <v>5.726</v>
       </c>
       <c r="L63" t="n">
-        <v>3349</v>
+        <v>4035</v>
       </c>
       <c r="M63" t="n">
-        <v>0.842</v>
-      </c>
-      <c r="N63" t="n">
-        <v>0.2027</v>
-      </c>
-      <c r="O63" t="n">
-        <v>4.9</v>
-      </c>
+        <v>1.014</v>
+      </c>
+      <c r="N63"/>
+      <c r="O63"/>
       <c r="P63" t="s">
         <v>343</v>
       </c>
@@ -6857,7 +6777,7 @@
         <v>347</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44640</v>
+        <v>44647</v>
       </c>
       <c r="D64" t="s">
         <v>348</v>
@@ -6867,24 +6787,24 @@
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H64" t="n">
-        <v>117985349</v>
+        <v>120301349</v>
       </c>
       <c r="I64" t="n">
-        <v>1406.254</v>
+        <v>1433.858</v>
       </c>
       <c r="J64"/>
       <c r="K64"/>
       <c r="L64" t="n">
-        <v>351505</v>
+        <v>328655</v>
       </c>
       <c r="M64" t="n">
-        <v>4.19</v>
+        <v>3.917</v>
       </c>
       <c r="N64" t="n">
-        <v>0.557</v>
+        <v>0.554</v>
       </c>
       <c r="O64" t="n">
         <v>1.8</v>
@@ -6910,7 +6830,7 @@
         <v>353</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D65" t="s">
         <v>35</v>
@@ -6920,28 +6840,24 @@
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H65" t="n">
-        <v>2410734</v>
+        <v>2419852</v>
       </c>
       <c r="I65" t="n">
-        <v>75.971</v>
+        <v>76.259</v>
       </c>
       <c r="J65"/>
       <c r="K65"/>
       <c r="L65" t="n">
-        <v>3119</v>
+        <v>2266</v>
       </c>
       <c r="M65" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="N65" t="n">
-        <v>0.0028</v>
-      </c>
-      <c r="O65" t="n">
-        <v>352.2</v>
-      </c>
+        <v>0.071</v>
+      </c>
+      <c r="N65"/>
+      <c r="O65"/>
       <c r="P65" t="s">
         <v>36</v>
       </c>
@@ -6963,7 +6879,7 @@
         <v>356</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D66" t="s">
         <v>357</v>
@@ -6973,28 +6889,24 @@
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H66" t="n">
-        <v>530813</v>
+        <v>533268</v>
       </c>
       <c r="I66" t="n">
-        <v>15755.335</v>
+        <v>15828.203</v>
       </c>
       <c r="J66"/>
       <c r="K66"/>
       <c r="L66" t="n">
-        <v>521</v>
+        <v>553</v>
       </c>
       <c r="M66" t="n">
-        <v>15.464</v>
-      </c>
-      <c r="N66" t="n">
-        <v>0.1481</v>
-      </c>
-      <c r="O66" t="n">
-        <v>6.8</v>
-      </c>
+        <v>16.414</v>
+      </c>
+      <c r="N66"/>
+      <c r="O66"/>
       <c r="P66" t="s">
         <v>358</v>
       </c>
@@ -7016,7 +6928,7 @@
         <v>361</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D67" t="s">
         <v>362</v>
@@ -7026,28 +6938,24 @@
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H67" t="n">
-        <v>73051999</v>
+        <v>74389472</v>
       </c>
       <c r="I67" t="n">
-        <v>7044.044</v>
+        <v>7173.01</v>
       </c>
       <c r="J67"/>
       <c r="K67"/>
       <c r="L67" t="n">
-        <v>257631</v>
+        <v>276698</v>
       </c>
       <c r="M67" t="n">
-        <v>24.842</v>
-      </c>
-      <c r="N67" t="n">
-        <v>0.0808</v>
-      </c>
-      <c r="O67" t="n">
-        <v>12.4</v>
-      </c>
+        <v>26.681</v>
+      </c>
+      <c r="N67"/>
+      <c r="O67"/>
       <c r="P67" t="s">
         <v>364</v>
       </c>
@@ -7179,7 +7087,7 @@
         <v>378</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D70" t="s">
         <v>35</v>
@@ -7189,28 +7097,24 @@
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H70" t="n">
-        <v>128552</v>
+        <v>128876</v>
       </c>
       <c r="I70" t="n">
-        <v>63.782</v>
+        <v>63.943</v>
       </c>
       <c r="J70"/>
       <c r="K70"/>
       <c r="L70" t="n">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="M70" t="n">
-        <v>0.069</v>
-      </c>
-      <c r="N70" t="n">
-        <v>0.0276</v>
-      </c>
-      <c r="O70" t="n">
-        <v>36.3</v>
-      </c>
+        <v>0.063</v>
+      </c>
+      <c r="N70"/>
+      <c r="O70"/>
       <c r="P70" t="s">
         <v>36</v>
       </c>
@@ -7285,7 +7189,7 @@
         <v>387</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>44643</v>
+        <v>44646</v>
       </c>
       <c r="D72" t="s">
         <v>388</v>
@@ -7295,27 +7199,27 @@
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H72" t="n">
-        <v>187092</v>
+        <v>188012</v>
       </c>
       <c r="I72" t="n">
-        <v>16.21</v>
+        <v>16.29</v>
       </c>
       <c r="J72"/>
       <c r="K72"/>
       <c r="L72" t="n">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M72" t="n">
         <v>0.03</v>
       </c>
       <c r="N72" t="n">
-        <v>0.0135</v>
+        <v>0.0134</v>
       </c>
       <c r="O72" t="n">
-        <v>74.2</v>
+        <v>74.7</v>
       </c>
       <c r="P72" t="s">
         <v>390</v>
@@ -7338,7 +7242,7 @@
         <v>394</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44600</v>
+        <v>44649</v>
       </c>
       <c r="D73" t="s">
         <v>395</v>
@@ -7348,27 +7252,27 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H73" t="n">
-        <v>36260319</v>
+        <v>44972952</v>
       </c>
       <c r="I73" t="n">
-        <v>4800.911</v>
+        <v>5954.474</v>
       </c>
       <c r="J73"/>
       <c r="K73"/>
       <c r="L73" t="n">
-        <v>208443</v>
+        <v>124703</v>
       </c>
       <c r="M73" t="n">
-        <v>27.598</v>
+        <v>16.511</v>
       </c>
       <c r="N73" t="n">
-        <v>0.0015</v>
+        <v>0.24</v>
       </c>
       <c r="O73" t="n">
-        <v>680.3</v>
+        <v>4.2</v>
       </c>
       <c r="P73" t="s">
         <v>397</v>
@@ -7391,7 +7295,7 @@
         <v>401</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>44648</v>
+        <v>44651</v>
       </c>
       <c r="D74" t="s">
         <v>402</v>
@@ -7403,31 +7307,31 @@
         <v>404</v>
       </c>
       <c r="G74" t="n">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="H74" t="n">
-        <v>10635698</v>
+        <v>10664846</v>
       </c>
       <c r="I74" t="n">
-        <v>1103.957</v>
+        <v>1106.982</v>
       </c>
       <c r="J74" t="n">
-        <v>33422</v>
+        <v>12622</v>
       </c>
       <c r="K74" t="n">
-        <v>3.469</v>
+        <v>1.31</v>
       </c>
       <c r="L74" t="n">
-        <v>9729</v>
+        <v>10773</v>
       </c>
       <c r="M74" t="n">
-        <v>1.01</v>
+        <v>1.118</v>
       </c>
       <c r="N74" t="n">
-        <v>0.2152</v>
+        <v>0.1983</v>
       </c>
       <c r="O74" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="P74" t="s">
         <v>403</v>
@@ -7450,7 +7354,7 @@
         <v>408</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44647</v>
+        <v>44651</v>
       </c>
       <c r="D75" t="s">
         <v>409</v>
@@ -7460,25 +7364,25 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="H75" t="n">
-        <v>1285516</v>
+        <v>1293769</v>
       </c>
       <c r="I75" t="n">
-        <v>3485.748</v>
+        <v>3508.127</v>
       </c>
       <c r="J75" t="n">
-        <v>1929</v>
+        <v>2167</v>
       </c>
       <c r="K75" t="n">
-        <v>5.231</v>
+        <v>5.876</v>
       </c>
       <c r="L75" t="n">
-        <v>1914</v>
+        <v>1838</v>
       </c>
       <c r="M75" t="n">
-        <v>5.19</v>
+        <v>4.984</v>
       </c>
       <c r="N75"/>
       <c r="O75"/>
@@ -7503,7 +7407,7 @@
         <v>413</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44646</v>
+        <v>44650</v>
       </c>
       <c r="D76" t="s">
         <v>414</v>
@@ -7515,31 +7419,31 @@
         <v>416</v>
       </c>
       <c r="G76" t="n">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="H76" t="n">
-        <v>786302714</v>
+        <v>788556935</v>
       </c>
       <c r="I76" t="n">
-        <v>564.301</v>
+        <v>565.919</v>
       </c>
       <c r="J76" t="n">
-        <v>658489</v>
+        <v>624022</v>
       </c>
       <c r="K76" t="n">
-        <v>0.473</v>
+        <v>0.448</v>
       </c>
       <c r="L76" t="n">
-        <v>582004</v>
+        <v>609441</v>
       </c>
       <c r="M76" t="n">
-        <v>0.418</v>
+        <v>0.437</v>
       </c>
       <c r="N76" t="n">
-        <v>0.0029</v>
+        <v>0.0023</v>
       </c>
       <c r="O76" t="n">
-        <v>350.8</v>
+        <v>437.4</v>
       </c>
       <c r="P76" t="s">
         <v>415</v>
@@ -7619,7 +7523,7 @@
         <v>425</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D78" t="s">
         <v>426</v>
@@ -7629,28 +7533,24 @@
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H78" t="n">
-        <v>49236429</v>
+        <v>49478466</v>
       </c>
       <c r="I78" t="n">
-        <v>579.056</v>
+        <v>581.903</v>
       </c>
       <c r="J78"/>
       <c r="K78"/>
       <c r="L78" t="n">
-        <v>62401</v>
+        <v>60872</v>
       </c>
       <c r="M78" t="n">
-        <v>0.734</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0.0268</v>
-      </c>
-      <c r="O78" t="n">
-        <v>37.3</v>
-      </c>
+        <v>0.716</v>
+      </c>
+      <c r="N78"/>
+      <c r="O78"/>
       <c r="P78" t="s">
         <v>428</v>
       </c>
@@ -7725,7 +7625,7 @@
         <v>434</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D80" t="s">
         <v>435</v>
@@ -7735,32 +7635,28 @@
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="H80" t="n">
-        <v>11770347</v>
+        <v>11833422</v>
       </c>
       <c r="I80" t="n">
-        <v>2362.146</v>
+        <v>2374.804</v>
       </c>
       <c r="J80" t="n">
-        <v>12490</v>
+        <v>13346</v>
       </c>
       <c r="K80" t="n">
-        <v>2.507</v>
+        <v>2.678</v>
       </c>
       <c r="L80" t="n">
-        <v>17124</v>
+        <v>15363</v>
       </c>
       <c r="M80" t="n">
-        <v>3.437</v>
-      </c>
-      <c r="N80" t="n">
-        <v>0.4397</v>
-      </c>
-      <c r="O80" t="n">
-        <v>2.3</v>
-      </c>
+        <v>3.083</v>
+      </c>
+      <c r="N80"/>
+      <c r="O80"/>
       <c r="P80" t="s">
         <v>436</v>
       </c>
@@ -7782,7 +7678,7 @@
         <v>440</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D81" t="s">
         <v>441</v>
@@ -7792,31 +7688,31 @@
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="H81" t="n">
-        <v>48323268</v>
+        <v>48612106</v>
       </c>
       <c r="I81" t="n">
-        <v>5201.084</v>
+        <v>5232.172</v>
       </c>
       <c r="J81" t="n">
-        <v>47597</v>
+        <v>36322</v>
       </c>
       <c r="K81" t="n">
-        <v>5.123</v>
+        <v>3.909</v>
       </c>
       <c r="L81" t="n">
-        <v>62858</v>
+        <v>63970</v>
       </c>
       <c r="M81" t="n">
-        <v>6.765</v>
+        <v>6.885</v>
       </c>
       <c r="N81" t="n">
-        <v>0.195</v>
+        <v>0.19</v>
       </c>
       <c r="O81" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="P81" t="s">
         <v>53</v>
@@ -7839,7 +7735,7 @@
         <v>446</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D82" t="s">
         <v>447</v>
@@ -7851,32 +7747,28 @@
         <v>449</v>
       </c>
       <c r="G82" t="n">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="H82" t="n">
-        <v>199235675</v>
+        <v>201422918</v>
       </c>
       <c r="I82" t="n">
-        <v>3300.381</v>
+        <v>3336.613</v>
       </c>
       <c r="J82" t="n">
-        <v>211535</v>
+        <v>514823</v>
       </c>
       <c r="K82" t="n">
-        <v>3.504</v>
+        <v>8.528</v>
       </c>
       <c r="L82" t="n">
-        <v>472137</v>
+        <v>469612</v>
       </c>
       <c r="M82" t="n">
-        <v>7.821</v>
-      </c>
-      <c r="N82" t="n">
-        <v>0.1516</v>
-      </c>
-      <c r="O82" t="n">
-        <v>6.6</v>
-      </c>
+        <v>7.779</v>
+      </c>
+      <c r="N82"/>
+      <c r="O82"/>
       <c r="P82" t="s">
         <v>450</v>
       </c>
@@ -7955,7 +7847,7 @@
         <v>460</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44647</v>
+        <v>44651</v>
       </c>
       <c r="D84" t="s">
         <v>461</v>
@@ -7965,31 +7857,31 @@
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="H84" t="n">
-        <v>41185177</v>
+        <v>41703363</v>
       </c>
       <c r="I84" t="n">
-        <v>326.735</v>
+        <v>330.846</v>
       </c>
       <c r="J84" t="n">
-        <v>66749</v>
+        <v>138984</v>
       </c>
       <c r="K84" t="n">
-        <v>0.53</v>
+        <v>1.103</v>
       </c>
       <c r="L84" t="n">
-        <v>113751</v>
+        <v>119583</v>
       </c>
       <c r="M84" t="n">
-        <v>0.902</v>
+        <v>0.949</v>
       </c>
       <c r="N84" t="n">
-        <v>0.3466</v>
+        <v>0.3788</v>
       </c>
       <c r="O84" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="P84" t="s">
         <v>462</v>
@@ -8122,7 +8014,7 @@
         <v>477</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D87" t="s">
         <v>35</v>
@@ -8132,28 +8024,24 @@
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H87" t="n">
-        <v>3499532</v>
+        <v>3515875</v>
       </c>
       <c r="I87" t="n">
-        <v>63.644</v>
+        <v>63.942</v>
       </c>
       <c r="J87"/>
       <c r="K87"/>
       <c r="L87" t="n">
-        <v>3657</v>
+        <v>4127</v>
       </c>
       <c r="M87" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="N87" t="n">
-        <v>0.0037</v>
-      </c>
-      <c r="O87" t="n">
-        <v>272.3</v>
-      </c>
+        <v>0.075</v>
+      </c>
+      <c r="N87"/>
+      <c r="O87"/>
       <c r="P87" t="s">
         <v>36</v>
       </c>
@@ -8175,7 +8063,7 @@
         <v>480</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44647</v>
+        <v>44651</v>
       </c>
       <c r="D88" t="s">
         <v>481</v>
@@ -8185,27 +8073,27 @@
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H88" t="n">
-        <v>1795375</v>
+        <v>1799157</v>
       </c>
       <c r="I88" t="n">
-        <v>1007.441</v>
+        <v>1009.563</v>
       </c>
       <c r="J88"/>
       <c r="K88"/>
       <c r="L88" t="n">
-        <v>1042</v>
+        <v>884</v>
       </c>
       <c r="M88" t="n">
-        <v>0.585</v>
+        <v>0.496</v>
       </c>
       <c r="N88" t="n">
-        <v>0.0325</v>
+        <v>0.0333</v>
       </c>
       <c r="O88" t="n">
-        <v>30.8</v>
+        <v>30</v>
       </c>
       <c r="P88" t="s">
         <v>483</v>
@@ -8281,7 +8169,7 @@
         <v>492</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44648</v>
+        <v>44651</v>
       </c>
       <c r="D90" t="s">
         <v>493</v>
@@ -8291,25 +8179,25 @@
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H90" t="n">
-        <v>1004082</v>
+        <v>1009770</v>
       </c>
       <c r="I90" t="n">
-        <v>136.066</v>
+        <v>136.837</v>
       </c>
       <c r="J90" t="n">
-        <v>3134</v>
+        <v>5688</v>
       </c>
       <c r="K90" t="n">
-        <v>0.425</v>
+        <v>0.771</v>
       </c>
       <c r="L90" t="n">
-        <v>1202</v>
+        <v>1449</v>
       </c>
       <c r="M90" t="n">
-        <v>0.163</v>
+        <v>0.196</v>
       </c>
       <c r="N90"/>
       <c r="O90"/>
@@ -8334,7 +8222,7 @@
         <v>498</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D91" t="s">
         <v>499</v>
@@ -8346,32 +8234,28 @@
         <v>501</v>
       </c>
       <c r="G91" t="n">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="H91" t="n">
-        <v>6978938</v>
+        <v>7011107</v>
       </c>
       <c r="I91" t="n">
-        <v>3738.181</v>
+        <v>3755.412</v>
       </c>
       <c r="J91" t="n">
-        <v>3202</v>
+        <v>6966</v>
       </c>
       <c r="K91" t="n">
-        <v>1.715</v>
+        <v>3.731</v>
       </c>
       <c r="L91" t="n">
-        <v>7519</v>
+        <v>6542</v>
       </c>
       <c r="M91" t="n">
-        <v>4.027</v>
-      </c>
-      <c r="N91" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="O91" t="n">
-        <v>2.7</v>
-      </c>
+        <v>3.504</v>
+      </c>
+      <c r="N91"/>
+      <c r="O91"/>
       <c r="P91" t="s">
         <v>500</v>
       </c>
@@ -8442,7 +8326,7 @@
         <v>509</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D93" t="s">
         <v>35</v>
@@ -8452,28 +8336,24 @@
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H93" t="n">
-        <v>427372</v>
+        <v>431221</v>
       </c>
       <c r="I93" t="n">
-        <v>197.943</v>
+        <v>199.726</v>
       </c>
       <c r="J93"/>
       <c r="K93"/>
       <c r="L93" t="n">
-        <v>1216</v>
+        <v>1108</v>
       </c>
       <c r="M93" t="n">
-        <v>0.563</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0.0123</v>
-      </c>
-      <c r="O93" t="n">
-        <v>81.1</v>
-      </c>
+        <v>0.513</v>
+      </c>
+      <c r="N93"/>
+      <c r="O93"/>
       <c r="P93" t="s">
         <v>36</v>
       </c>
@@ -8540,7 +8420,7 @@
         <v>515</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44647</v>
+        <v>44651</v>
       </c>
       <c r="D95" t="s">
         <v>516</v>
@@ -8550,15 +8430,15 @@
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H95"/>
       <c r="I95"/>
       <c r="J95" t="n">
-        <v>809</v>
+        <v>582</v>
       </c>
       <c r="K95" t="n">
-        <v>0.116</v>
+        <v>0.084</v>
       </c>
       <c r="L95"/>
       <c r="M95"/>
@@ -8699,7 +8579,7 @@
         <v>532</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>44646</v>
+        <v>44651</v>
       </c>
       <c r="D98" t="s">
         <v>533</v>
@@ -8709,31 +8589,31 @@
       </c>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="H98" t="n">
-        <v>4149044</v>
+        <v>4165411</v>
       </c>
       <c r="I98" t="n">
-        <v>6535.842</v>
+        <v>6561.624</v>
       </c>
       <c r="J98" t="n">
-        <v>3466</v>
+        <v>3795</v>
       </c>
       <c r="K98" t="n">
-        <v>5.46</v>
+        <v>5.978</v>
       </c>
       <c r="L98" t="n">
-        <v>3572</v>
+        <v>3333</v>
       </c>
       <c r="M98" t="n">
-        <v>5.627</v>
+        <v>5.25</v>
       </c>
       <c r="N98" t="n">
-        <v>0.391</v>
+        <v>0.375</v>
       </c>
       <c r="O98" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P98" t="s">
         <v>534</v>
@@ -8809,7 +8689,7 @@
         <v>540</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D100" t="s">
         <v>35</v>
@@ -8819,28 +8699,24 @@
       </c>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H100" t="n">
-        <v>560213</v>
+        <v>562051</v>
       </c>
       <c r="I100" t="n">
-        <v>28.513</v>
+        <v>28.606</v>
       </c>
       <c r="J100"/>
       <c r="K100"/>
       <c r="L100" t="n">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="M100" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="N100" t="n">
-        <v>0.0197</v>
-      </c>
-      <c r="O100" t="n">
-        <v>50.8</v>
-      </c>
+        <v>0.022</v>
+      </c>
+      <c r="N100"/>
+      <c r="O100"/>
       <c r="P100" t="s">
         <v>36</v>
       </c>
@@ -8862,7 +8738,7 @@
         <v>543</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44643</v>
+        <v>44649</v>
       </c>
       <c r="D101" t="s">
         <v>544</v>
@@ -8874,31 +8750,31 @@
         <v>546</v>
       </c>
       <c r="G101" t="n">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="H101" t="n">
-        <v>55592018</v>
+        <v>56361721</v>
       </c>
       <c r="I101" t="n">
-        <v>1696.11</v>
+        <v>1719.593</v>
       </c>
       <c r="J101" t="n">
-        <v>157887</v>
+        <v>129444</v>
       </c>
       <c r="K101" t="n">
-        <v>4.817</v>
+        <v>3.949</v>
       </c>
       <c r="L101" t="n">
-        <v>163506</v>
+        <v>132513</v>
       </c>
       <c r="M101" t="n">
-        <v>4.989</v>
+        <v>4.043</v>
       </c>
       <c r="N101" t="n">
-        <v>0.135</v>
+        <v>0.1455</v>
       </c>
       <c r="O101" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="P101" t="s">
         <v>53</v>
@@ -8978,7 +8854,7 @@
         <v>556</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D103" t="s">
         <v>35</v>
@@ -8988,28 +8864,24 @@
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H103" t="n">
-        <v>654550</v>
+        <v>658196</v>
       </c>
       <c r="I103" t="n">
-        <v>31.385</v>
+        <v>31.559</v>
       </c>
       <c r="J103"/>
       <c r="K103"/>
       <c r="L103" t="n">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="M103" t="n">
         <v>0.047</v>
       </c>
-      <c r="N103" t="n">
-        <v>0.0028</v>
-      </c>
-      <c r="O103" t="n">
-        <v>358.9</v>
-      </c>
+      <c r="N103"/>
+      <c r="O103"/>
       <c r="P103" t="s">
         <v>36</v>
       </c>
@@ -9031,7 +8903,7 @@
         <v>559</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D104" t="s">
         <v>560</v>
@@ -9041,25 +8913,25 @@
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="H104" t="n">
-        <v>1795093</v>
+        <v>1807898</v>
       </c>
       <c r="I104" t="n">
-        <v>3478.188</v>
+        <v>3502.999</v>
       </c>
       <c r="J104" t="n">
-        <v>2349</v>
+        <v>3121</v>
       </c>
       <c r="K104" t="n">
-        <v>4.551</v>
+        <v>6.047</v>
       </c>
       <c r="L104" t="n">
-        <v>2507</v>
+        <v>2844</v>
       </c>
       <c r="M104" t="n">
-        <v>4.858</v>
+        <v>5.511</v>
       </c>
       <c r="N104"/>
       <c r="O104"/>
@@ -9084,7 +8956,7 @@
         <v>566</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44644</v>
+        <v>44652</v>
       </c>
       <c r="D105" t="s">
         <v>35</v>
@@ -9094,28 +8966,24 @@
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H105" t="n">
-        <v>916953</v>
+        <v>917329</v>
       </c>
       <c r="I105" t="n">
-        <v>192.028</v>
+        <v>192.106</v>
       </c>
       <c r="J105"/>
       <c r="K105"/>
       <c r="L105" t="n">
-        <v>879</v>
+        <v>47</v>
       </c>
       <c r="M105" t="n">
-        <v>0.184</v>
-      </c>
-      <c r="N105" t="n">
-        <v>0.0008</v>
-      </c>
-      <c r="O105" t="n">
-        <v>1231.1</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="N105"/>
+      <c r="O105"/>
       <c r="P105" t="s">
         <v>567</v>
       </c>
@@ -9182,7 +9050,7 @@
         <v>574</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44646</v>
+        <v>44650</v>
       </c>
       <c r="D107" t="s">
         <v>575</v>
@@ -9192,31 +9060,31 @@
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="H107" t="n">
-        <v>14843802</v>
+        <v>14886876</v>
       </c>
       <c r="I107" t="n">
-        <v>113.953</v>
+        <v>114.284</v>
       </c>
       <c r="J107" t="n">
-        <v>789</v>
+        <v>3346</v>
       </c>
       <c r="K107" t="n">
-        <v>0.006</v>
+        <v>0.026</v>
       </c>
       <c r="L107" t="n">
-        <v>5143</v>
+        <v>5712</v>
       </c>
       <c r="M107" t="n">
-        <v>0.039</v>
+        <v>0.044</v>
       </c>
       <c r="N107" t="n">
-        <v>0.134</v>
+        <v>0.131</v>
       </c>
       <c r="O107" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="P107" t="s">
         <v>577</v>
@@ -9239,7 +9107,7 @@
         <v>580</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44644</v>
+        <v>44651</v>
       </c>
       <c r="D108" t="s">
         <v>581</v>
@@ -9249,15 +9117,15 @@
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H108"/>
       <c r="I108"/>
       <c r="J108" t="n">
-        <v>4365</v>
+        <v>4264</v>
       </c>
       <c r="K108" t="n">
-        <v>1.085</v>
+        <v>1.06</v>
       </c>
       <c r="L108"/>
       <c r="M108"/>
@@ -9284,7 +9152,7 @@
         <v>587</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="D109" t="s">
         <v>588</v>
@@ -9294,28 +9162,28 @@
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H109" t="n">
-        <v>7302839</v>
+        <v>7306957</v>
       </c>
       <c r="I109" t="n">
-        <v>2193.518</v>
-      </c>
-      <c r="J109"/>
-      <c r="K109"/>
+        <v>2194.755</v>
+      </c>
+      <c r="J109" t="n">
+        <v>4118</v>
+      </c>
+      <c r="K109" t="n">
+        <v>1.237</v>
+      </c>
       <c r="L109" t="n">
-        <v>3519</v>
+        <v>3468</v>
       </c>
       <c r="M109" t="n">
-        <v>1.057</v>
-      </c>
-      <c r="N109" t="n">
-        <v>0.0671</v>
-      </c>
-      <c r="O109" t="n">
-        <v>14.9</v>
-      </c>
+        <v>1.042</v>
+      </c>
+      <c r="N109"/>
+      <c r="O109"/>
       <c r="P109" t="s">
         <v>53</v>
       </c>
@@ -9337,7 +9205,7 @@
         <v>592</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D110" t="s">
         <v>593</v>
@@ -9347,28 +9215,24 @@
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H110" t="n">
-        <v>11261781</v>
+        <v>11289112</v>
       </c>
       <c r="I110" t="n">
-        <v>301.562</v>
+        <v>302.294</v>
       </c>
       <c r="J110"/>
       <c r="K110"/>
       <c r="L110" t="n">
-        <v>6679</v>
+        <v>6611</v>
       </c>
       <c r="M110" t="n">
-        <v>0.179</v>
-      </c>
-      <c r="N110" t="n">
-        <v>0.0101</v>
-      </c>
-      <c r="O110" t="n">
-        <v>98.8</v>
-      </c>
+        <v>0.177</v>
+      </c>
+      <c r="N110"/>
+      <c r="O110"/>
       <c r="P110" t="s">
         <v>594</v>
       </c>
@@ -9390,7 +9254,7 @@
         <v>598</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D111" t="s">
         <v>35</v>
@@ -9400,28 +9264,24 @@
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H111" t="n">
-        <v>1293982</v>
+        <v>1296402</v>
       </c>
       <c r="I111" t="n">
-        <v>40.232</v>
+        <v>40.307</v>
       </c>
       <c r="J111"/>
       <c r="K111"/>
       <c r="L111" t="n">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="M111" t="n">
         <v>0.021</v>
       </c>
-      <c r="N111" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="O111" t="n">
-        <v>167.8</v>
-      </c>
+      <c r="N111"/>
+      <c r="O111"/>
       <c r="P111" t="s">
         <v>36</v>
       </c>
@@ -9443,7 +9303,7 @@
         <v>601</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44647</v>
+        <v>44652</v>
       </c>
       <c r="D112" t="s">
         <v>602</v>
@@ -9453,28 +9313,24 @@
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H112" t="n">
-        <v>7614334</v>
+        <v>7669100</v>
       </c>
       <c r="I112" t="n">
-        <v>138.932</v>
+        <v>139.932</v>
       </c>
       <c r="J112"/>
       <c r="K112"/>
       <c r="L112" t="n">
-        <v>13928</v>
+        <v>12914</v>
       </c>
       <c r="M112" t="n">
-        <v>0.254</v>
-      </c>
-      <c r="N112" t="n">
-        <v>0.0192</v>
-      </c>
-      <c r="O112" t="n">
-        <v>52.2</v>
-      </c>
+        <v>0.236</v>
+      </c>
+      <c r="N112"/>
+      <c r="O112"/>
       <c r="P112" t="s">
         <v>603</v>
       </c>
@@ -9496,7 +9352,7 @@
         <v>607</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D113" t="s">
         <v>35</v>
@@ -9506,28 +9362,24 @@
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H113" t="n">
-        <v>981047</v>
+        <v>983850</v>
       </c>
       <c r="I113" t="n">
-        <v>379.171</v>
+        <v>380.255</v>
       </c>
       <c r="J113"/>
       <c r="K113"/>
       <c r="L113" t="n">
-        <v>837</v>
+        <v>893</v>
       </c>
       <c r="M113" t="n">
-        <v>0.323</v>
-      </c>
-      <c r="N113" t="n">
-        <v>0.0157</v>
-      </c>
-      <c r="O113" t="n">
-        <v>63.7</v>
-      </c>
+        <v>0.345</v>
+      </c>
+      <c r="N113"/>
+      <c r="O113"/>
       <c r="P113" t="s">
         <v>608</v>
       </c>
@@ -9549,7 +9401,7 @@
         <v>612</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D114" t="s">
         <v>613</v>
@@ -9559,27 +9411,27 @@
       </c>
       <c r="F114"/>
       <c r="G114" t="n">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H114" t="n">
-        <v>6657689</v>
+        <v>6677138</v>
       </c>
       <c r="I114" t="n">
-        <v>224.354</v>
+        <v>225.009</v>
       </c>
       <c r="J114"/>
       <c r="K114"/>
       <c r="L114" t="n">
-        <v>5109</v>
+        <v>4805</v>
       </c>
       <c r="M114" t="n">
-        <v>0.172</v>
+        <v>0.162</v>
       </c>
       <c r="N114" t="n">
-        <v>0.011</v>
+        <v>0.009</v>
       </c>
       <c r="O114" t="n">
-        <v>90.9</v>
+        <v>111.1</v>
       </c>
       <c r="P114" t="s">
         <v>614</v>
@@ -9602,7 +9454,7 @@
         <v>618</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>44646</v>
+        <v>44650</v>
       </c>
       <c r="D115" t="s">
         <v>619</v>
@@ -9612,31 +9464,31 @@
       </c>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="H115" t="n">
-        <v>30122886</v>
+        <v>30283503</v>
       </c>
       <c r="I115" t="n">
-        <v>1754.074</v>
+        <v>1763.427</v>
       </c>
       <c r="J115" t="n">
-        <v>33007</v>
+        <v>39001</v>
       </c>
       <c r="K115" t="n">
-        <v>1.922</v>
+        <v>2.271</v>
       </c>
       <c r="L115" t="n">
-        <v>49397</v>
+        <v>40275</v>
       </c>
       <c r="M115" t="n">
-        <v>2.876</v>
+        <v>2.345</v>
       </c>
       <c r="N115" t="n">
-        <v>0.657</v>
+        <v>0.634</v>
       </c>
       <c r="O115" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="P115" t="s">
         <v>620</v>
@@ -9659,7 +9511,7 @@
         <v>624</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D116" t="s">
         <v>625</v>
@@ -9669,21 +9521,21 @@
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H116" t="n">
-        <v>6909758</v>
+        <v>6922367</v>
       </c>
       <c r="I116" t="n">
-        <v>1347.904</v>
+        <v>1350.363</v>
       </c>
       <c r="J116"/>
       <c r="K116"/>
       <c r="L116" t="n">
-        <v>2668</v>
+        <v>2769</v>
       </c>
       <c r="M116" t="n">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="N116"/>
       <c r="O116"/>
@@ -9708,7 +9560,7 @@
         <v>630</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D117" t="s">
         <v>35</v>
@@ -9718,28 +9570,24 @@
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H117" t="n">
-        <v>239644</v>
+        <v>240394</v>
       </c>
       <c r="I117" t="n">
-        <v>9.536</v>
+        <v>9.566</v>
       </c>
       <c r="J117"/>
       <c r="K117"/>
       <c r="L117" t="n">
-        <v>474</v>
+        <v>241</v>
       </c>
       <c r="M117" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="N117" t="n">
-        <v>0.0021</v>
-      </c>
-      <c r="O117" t="n">
-        <v>474</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="N117"/>
+      <c r="O117"/>
       <c r="P117" t="s">
         <v>36</v>
       </c>
@@ -9761,7 +9609,7 @@
         <v>633</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44644</v>
+        <v>44652</v>
       </c>
       <c r="D118" t="s">
         <v>35</v>
@@ -9771,28 +9619,24 @@
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H118" t="n">
-        <v>4726096</v>
+        <v>4841764</v>
       </c>
       <c r="I118" t="n">
-        <v>22.356</v>
+        <v>22.903</v>
       </c>
       <c r="J118"/>
       <c r="K118"/>
       <c r="L118" t="n">
-        <v>21783</v>
+        <v>14458</v>
       </c>
       <c r="M118" t="n">
-        <v>0.103</v>
-      </c>
-      <c r="N118" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="O118" t="n">
-        <v>1003.2</v>
-      </c>
+        <v>0.068</v>
+      </c>
+      <c r="N118"/>
+      <c r="O118"/>
       <c r="P118" t="s">
         <v>634</v>
       </c>
@@ -9814,7 +9658,7 @@
         <v>638</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D119" t="s">
         <v>639</v>
@@ -9824,28 +9668,24 @@
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H119" t="n">
-        <v>1955058</v>
+        <v>1964475</v>
       </c>
       <c r="I119" t="n">
-        <v>938.731</v>
+        <v>943.252</v>
       </c>
       <c r="J119"/>
       <c r="K119"/>
       <c r="L119" t="n">
-        <v>2303</v>
+        <v>2253</v>
       </c>
       <c r="M119" t="n">
-        <v>1.106</v>
-      </c>
-      <c r="N119" t="n">
-        <v>0.1052</v>
-      </c>
-      <c r="O119" t="n">
-        <v>9.5</v>
-      </c>
+        <v>1.082</v>
+      </c>
+      <c r="N119"/>
+      <c r="O119"/>
       <c r="P119" t="s">
         <v>53</v>
       </c>
@@ -9867,7 +9707,7 @@
         <v>643</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>44646</v>
+        <v>44650</v>
       </c>
       <c r="D120" t="s">
         <v>644</v>
@@ -9877,31 +9717,31 @@
       </c>
       <c r="F120"/>
       <c r="G120" t="n">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="H120" t="n">
-        <v>10990078</v>
+        <v>11009085</v>
       </c>
       <c r="I120" t="n">
-        <v>2010.762</v>
+        <v>2014.239</v>
       </c>
       <c r="J120" t="n">
-        <v>1679</v>
+        <v>4606</v>
       </c>
       <c r="K120" t="n">
-        <v>0.307</v>
+        <v>0.843</v>
       </c>
       <c r="L120" t="n">
-        <v>4968</v>
+        <v>4329</v>
       </c>
       <c r="M120" t="n">
-        <v>0.909</v>
+        <v>0.792</v>
       </c>
       <c r="N120" t="n">
-        <v>0.394</v>
+        <v>0.389</v>
       </c>
       <c r="O120" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P120" t="s">
         <v>645</v>
@@ -9973,7 +9813,7 @@
         <v>650</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D122" t="s">
         <v>651</v>
@@ -9983,28 +9823,24 @@
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H122" t="n">
-        <v>27388407</v>
+        <v>27501885</v>
       </c>
       <c r="I122" t="n">
-        <v>121.618</v>
+        <v>122.122</v>
       </c>
       <c r="J122"/>
       <c r="K122"/>
       <c r="L122" t="n">
-        <v>30371</v>
+        <v>29145</v>
       </c>
       <c r="M122" t="n">
-        <v>0.135</v>
-      </c>
-      <c r="N122" t="n">
-        <v>0.0091</v>
-      </c>
-      <c r="O122" t="n">
-        <v>109.8</v>
-      </c>
+        <v>0.129</v>
+      </c>
+      <c r="N122"/>
+      <c r="O122"/>
       <c r="P122" t="s">
         <v>652</v>
       </c>
@@ -10226,7 +10062,7 @@
         <v>678</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44646</v>
+        <v>44651</v>
       </c>
       <c r="D127" t="s">
         <v>679</v>
@@ -10238,27 +10074,27 @@
         <v>680</v>
       </c>
       <c r="G127" t="n">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="H127" t="n">
-        <v>28511805</v>
+        <v>28736342</v>
       </c>
       <c r="I127" t="n">
-        <v>854.685</v>
+        <v>861.416</v>
       </c>
       <c r="J127"/>
       <c r="K127"/>
       <c r="L127" t="n">
-        <v>44682</v>
+        <v>48159</v>
       </c>
       <c r="M127" t="n">
-        <v>1.339</v>
+        <v>1.444</v>
       </c>
       <c r="N127" t="n">
-        <v>0.013</v>
+        <v>0.01</v>
       </c>
       <c r="O127" t="n">
-        <v>76.9</v>
+        <v>100</v>
       </c>
       <c r="P127" t="s">
         <v>214</v>
@@ -10338,7 +10174,7 @@
         <v>690</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>44637</v>
+        <v>44644</v>
       </c>
       <c r="D129" t="s">
         <v>691</v>
@@ -10348,27 +10184,27 @@
       </c>
       <c r="F129"/>
       <c r="G129" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H129" t="n">
-        <v>35583635</v>
+        <v>35991767</v>
       </c>
       <c r="I129" t="n">
-        <v>941.441</v>
+        <v>952.239</v>
       </c>
       <c r="J129"/>
       <c r="K129"/>
       <c r="L129" t="n">
-        <v>66492</v>
+        <v>58305</v>
       </c>
       <c r="M129" t="n">
-        <v>1.759</v>
+        <v>1.543</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1612</v>
+        <v>0.1506</v>
       </c>
       <c r="O129" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="P129" t="s">
         <v>693</v>
@@ -10391,7 +10227,7 @@
         <v>696</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>44647</v>
+        <v>44651</v>
       </c>
       <c r="D130" t="s">
         <v>697</v>
@@ -10401,28 +10237,32 @@
       </c>
       <c r="F130"/>
       <c r="G130" t="n">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="H130" t="n">
-        <v>39851361</v>
+        <v>40088192</v>
       </c>
       <c r="I130" t="n">
-        <v>3919.322</v>
+        <v>3942.614</v>
       </c>
       <c r="J130" t="n">
-        <v>21878</v>
+        <v>61424</v>
       </c>
       <c r="K130" t="n">
-        <v>2.152</v>
+        <v>6.041</v>
       </c>
       <c r="L130" t="n">
-        <v>50516</v>
+        <v>50574</v>
       </c>
       <c r="M130" t="n">
-        <v>4.968</v>
-      </c>
-      <c r="N130"/>
-      <c r="O130"/>
+        <v>4.974</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0.3674</v>
+      </c>
+      <c r="O130" t="n">
+        <v>2.7</v>
+      </c>
       <c r="P130" t="s">
         <v>698</v>
       </c>
@@ -10444,7 +10284,7 @@
         <v>701</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>44646</v>
+        <v>44649</v>
       </c>
       <c r="D131" t="s">
         <v>702</v>
@@ -10454,25 +10294,25 @@
       </c>
       <c r="F131"/>
       <c r="G131" t="n">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="H131" t="n">
-        <v>2622514</v>
+        <v>2628644</v>
       </c>
       <c r="I131" t="n">
-        <v>927.258</v>
+        <v>929.426</v>
       </c>
       <c r="J131" t="n">
-        <v>998</v>
+        <v>1795</v>
       </c>
       <c r="K131" t="n">
-        <v>0.353</v>
+        <v>0.635</v>
       </c>
       <c r="L131" t="n">
-        <v>1866</v>
+        <v>1964</v>
       </c>
       <c r="M131" t="n">
-        <v>0.66</v>
+        <v>0.694</v>
       </c>
       <c r="N131"/>
       <c r="O131"/>
@@ -10497,7 +10337,7 @@
         <v>707</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>44647</v>
+        <v>44651</v>
       </c>
       <c r="D132" t="s">
         <v>708</v>
@@ -10507,25 +10347,25 @@
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="H132" t="n">
-        <v>6333416</v>
+        <v>6407170</v>
       </c>
       <c r="I132" t="n">
-        <v>2161.189</v>
+        <v>2186.356</v>
       </c>
       <c r="J132" t="n">
-        <v>21316</v>
+        <v>18542</v>
       </c>
       <c r="K132" t="n">
-        <v>7.274</v>
+        <v>6.327</v>
       </c>
       <c r="L132" t="n">
-        <v>19035</v>
+        <v>18486</v>
       </c>
       <c r="M132" t="n">
-        <v>6.495</v>
+        <v>6.308</v>
       </c>
       <c r="N132"/>
       <c r="O132"/>
@@ -10603,7 +10443,7 @@
         <v>717</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>44647</v>
+        <v>44652</v>
       </c>
       <c r="D134" t="s">
         <v>718</v>
@@ -10613,28 +10453,24 @@
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H134" t="n">
-        <v>283967438</v>
+        <v>284995665</v>
       </c>
       <c r="I134" t="n">
-        <v>1946.155</v>
+        <v>1953.202</v>
       </c>
       <c r="J134"/>
       <c r="K134"/>
       <c r="L134" t="n">
-        <v>233860</v>
+        <v>218115</v>
       </c>
       <c r="M134" t="n">
-        <v>1.603</v>
-      </c>
-      <c r="N134" t="n">
-        <v>0.108</v>
-      </c>
-      <c r="O134" t="n">
-        <v>9.3</v>
-      </c>
+        <v>1.495</v>
+      </c>
+      <c r="N134"/>
+      <c r="O134"/>
       <c r="P134" t="s">
         <v>719</v>
       </c>
@@ -10656,7 +10492,7 @@
         <v>723</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D135" t="s">
         <v>724</v>
@@ -10666,32 +10502,28 @@
       </c>
       <c r="F135"/>
       <c r="G135" t="n">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="H135" t="n">
-        <v>5081757</v>
+        <v>5111329</v>
       </c>
       <c r="I135" t="n">
-        <v>382.763</v>
+        <v>384.99</v>
       </c>
       <c r="J135" t="n">
-        <v>7798</v>
+        <v>8364</v>
       </c>
       <c r="K135" t="n">
-        <v>0.587</v>
+        <v>0.63</v>
       </c>
       <c r="L135" t="n">
-        <v>8209</v>
+        <v>8355</v>
       </c>
       <c r="M135" t="n">
-        <v>0.618</v>
-      </c>
-      <c r="N135" t="n">
-        <v>0.0009</v>
-      </c>
-      <c r="O135" t="n">
-        <v>1064.2</v>
-      </c>
+        <v>0.629</v>
+      </c>
+      <c r="N135"/>
+      <c r="O135"/>
       <c r="P135" t="s">
         <v>725</v>
       </c>
@@ -10713,7 +10545,7 @@
         <v>729</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D136" t="s">
         <v>730</v>
@@ -10723,28 +10555,24 @@
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H136" t="n">
-        <v>67821</v>
+        <v>68041</v>
       </c>
       <c r="I136" t="n">
-        <v>1266.593</v>
+        <v>1270.702</v>
       </c>
       <c r="J136"/>
       <c r="K136"/>
       <c r="L136" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M136" t="n">
-        <v>0.822</v>
-      </c>
-      <c r="N136" t="n">
-        <v>0.0032</v>
-      </c>
-      <c r="O136" t="n">
-        <v>307.7</v>
-      </c>
+        <v>0.84</v>
+      </c>
+      <c r="N136"/>
+      <c r="O136"/>
       <c r="P136" t="s">
         <v>53</v>
       </c>
@@ -10766,7 +10594,7 @@
         <v>734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>44648</v>
+        <v>44650</v>
       </c>
       <c r="D137" t="s">
         <v>735</v>
@@ -10776,27 +10604,27 @@
       </c>
       <c r="F137"/>
       <c r="G137" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H137" t="n">
-        <v>140271</v>
+        <v>140589</v>
       </c>
       <c r="I137" t="n">
-        <v>760.685</v>
+        <v>762.409</v>
       </c>
       <c r="J137"/>
       <c r="K137"/>
       <c r="L137" t="n">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M137" t="n">
-        <v>0.765</v>
+        <v>0.748</v>
       </c>
       <c r="N137" t="n">
-        <v>0.0507</v>
+        <v>0.0497</v>
       </c>
       <c r="O137" t="n">
-        <v>19.7</v>
+        <v>20.1</v>
       </c>
       <c r="P137" t="s">
         <v>88</v>
@@ -10872,7 +10700,7 @@
         <v>745</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>44647</v>
+        <v>44651</v>
       </c>
       <c r="D139" t="s">
         <v>746</v>
@@ -10882,31 +10710,31 @@
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="H139" t="n">
-        <v>41492799</v>
+        <v>41558711</v>
       </c>
       <c r="I139" t="n">
-        <v>1174.08</v>
+        <v>1175.945</v>
       </c>
       <c r="J139" t="n">
-        <v>16463</v>
+        <v>16137</v>
       </c>
       <c r="K139" t="n">
-        <v>0.466</v>
+        <v>0.457</v>
       </c>
       <c r="L139" t="n">
-        <v>15063</v>
+        <v>15352</v>
       </c>
       <c r="M139" t="n">
-        <v>0.426</v>
+        <v>0.434</v>
       </c>
       <c r="N139" t="n">
-        <v>0.0072</v>
+        <v>0.0068</v>
       </c>
       <c r="O139" t="n">
-        <v>138.9</v>
+        <v>146.4</v>
       </c>
       <c r="P139" t="s">
         <v>53</v>
@@ -10929,7 +10757,7 @@
         <v>749</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>44648</v>
+        <v>44651</v>
       </c>
       <c r="D140" t="s">
         <v>750</v>
@@ -10939,31 +10767,31 @@
       </c>
       <c r="F140"/>
       <c r="G140" t="n">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="H140" t="n">
-        <v>1068046</v>
+        <v>1071738</v>
       </c>
       <c r="I140" t="n">
-        <v>62.109</v>
+        <v>62.324</v>
       </c>
       <c r="J140" t="n">
-        <v>1246</v>
+        <v>1260</v>
       </c>
       <c r="K140" t="n">
-        <v>0.072</v>
+        <v>0.073</v>
       </c>
       <c r="L140" t="n">
-        <v>1251</v>
+        <v>1351</v>
       </c>
       <c r="M140" t="n">
-        <v>0.073</v>
+        <v>0.079</v>
       </c>
       <c r="N140" t="n">
-        <v>0.0051</v>
+        <v>0.0056</v>
       </c>
       <c r="O140" t="n">
-        <v>194.6</v>
+        <v>178.4</v>
       </c>
       <c r="P140" t="s">
         <v>751</v>
@@ -10986,7 +10814,7 @@
         <v>754</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D141" t="s">
         <v>755</v>
@@ -10998,32 +10826,28 @@
         <v>756</v>
       </c>
       <c r="G141" t="n">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="H141" t="n">
-        <v>9142320</v>
+        <v>9203251</v>
       </c>
       <c r="I141" t="n">
-        <v>1330.46</v>
+        <v>1339.327</v>
       </c>
       <c r="J141" t="n">
-        <v>14076</v>
+        <v>13554</v>
       </c>
       <c r="K141" t="n">
-        <v>2.048</v>
+        <v>1.972</v>
       </c>
       <c r="L141" t="n">
-        <v>14284</v>
+        <v>13587</v>
       </c>
       <c r="M141" t="n">
-        <v>2.079</v>
-      </c>
-      <c r="N141" t="n">
-        <v>0.1338</v>
-      </c>
-      <c r="O141" t="n">
-        <v>7.5</v>
-      </c>
+        <v>1.977</v>
+      </c>
+      <c r="N141"/>
+      <c r="O141"/>
       <c r="P141" t="s">
         <v>53</v>
       </c>
@@ -11098,7 +10922,7 @@
         <v>763</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>44641</v>
+        <v>44648</v>
       </c>
       <c r="D143" t="s">
         <v>764</v>
@@ -11113,22 +10937,22 @@
       <c r="H143"/>
       <c r="I143"/>
       <c r="J143" t="n">
-        <v>89400</v>
+        <v>70600</v>
       </c>
       <c r="K143" t="n">
-        <v>16.393</v>
+        <v>12.946</v>
       </c>
       <c r="L143" t="n">
-        <v>89400</v>
+        <v>70600</v>
       </c>
       <c r="M143" t="n">
-        <v>16.393</v>
+        <v>12.946</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1184</v>
+        <v>0.1001</v>
       </c>
       <c r="O143" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="P143" t="s">
         <v>53</v>
@@ -11151,7 +10975,7 @@
         <v>769</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>44647</v>
+        <v>44649</v>
       </c>
       <c r="D144" t="s">
         <v>770</v>
@@ -11163,31 +10987,31 @@
         <v>771</v>
       </c>
       <c r="G144" t="n">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="H144" t="n">
-        <v>50453548</v>
+        <v>50483583</v>
       </c>
       <c r="I144" t="n">
-        <v>9258.772</v>
+        <v>9264.284</v>
       </c>
       <c r="J144" t="n">
-        <v>9306</v>
+        <v>14738</v>
       </c>
       <c r="K144" t="n">
-        <v>1.708</v>
+        <v>2.705</v>
       </c>
       <c r="L144" t="n">
-        <v>26902</v>
+        <v>20248</v>
       </c>
       <c r="M144" t="n">
-        <v>4.937</v>
+        <v>3.716</v>
       </c>
       <c r="N144" t="n">
-        <v>0.328</v>
+        <v>0.367</v>
       </c>
       <c r="O144" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="P144" t="s">
         <v>53</v>
@@ -11210,7 +11034,7 @@
         <v>774</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>44647</v>
+        <v>44651</v>
       </c>
       <c r="D145" t="s">
         <v>775</v>
@@ -11222,31 +11046,31 @@
         <v>777</v>
       </c>
       <c r="G145" t="n">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="H145" t="n">
-        <v>4746660</v>
+        <v>4813287</v>
       </c>
       <c r="I145" t="n">
-        <v>2283.45</v>
+        <v>2315.502</v>
       </c>
       <c r="J145" t="n">
-        <v>5466</v>
+        <v>12279</v>
       </c>
       <c r="K145" t="n">
-        <v>2.629</v>
+        <v>5.907</v>
       </c>
       <c r="L145" t="n">
-        <v>13366</v>
+        <v>13218</v>
       </c>
       <c r="M145" t="n">
-        <v>6.43</v>
+        <v>6.359</v>
       </c>
       <c r="N145" t="n">
-        <v>0.21</v>
+        <v>0.192</v>
       </c>
       <c r="O145" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="P145" t="s">
         <v>778</v>
@@ -11314,7 +11138,7 @@
         <v>784</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D147" t="s">
         <v>785</v>
@@ -11326,32 +11150,28 @@
         <v>787</v>
       </c>
       <c r="G147" t="n">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="H147" t="n">
-        <v>23757304</v>
+        <v>23866743</v>
       </c>
       <c r="I147" t="n">
-        <v>395.678</v>
+        <v>397.501</v>
       </c>
       <c r="J147" t="n">
-        <v>12942</v>
+        <v>27832</v>
       </c>
       <c r="K147" t="n">
-        <v>0.216</v>
+        <v>0.464</v>
       </c>
       <c r="L147" t="n">
-        <v>22477</v>
+        <v>23668</v>
       </c>
       <c r="M147" t="n">
-        <v>0.374</v>
-      </c>
-      <c r="N147" t="n">
-        <v>0.0575</v>
-      </c>
-      <c r="O147" t="n">
-        <v>17.4</v>
-      </c>
+        <v>0.394</v>
+      </c>
+      <c r="N147"/>
+      <c r="O147"/>
       <c r="P147" t="s">
         <v>788</v>
       </c>
@@ -11373,7 +11193,7 @@
         <v>791</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>44647</v>
+        <v>44651</v>
       </c>
       <c r="D148" t="s">
         <v>792</v>
@@ -11385,31 +11205,31 @@
         <v>794</v>
       </c>
       <c r="G148" t="n">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="H148" t="n">
-        <v>85330343</v>
+        <v>87269613</v>
       </c>
       <c r="I148" t="n">
-        <v>1663.191</v>
+        <v>1700.99</v>
       </c>
       <c r="J148" t="n">
-        <v>334483</v>
+        <v>410288</v>
       </c>
       <c r="K148" t="n">
-        <v>6.519</v>
+        <v>7.997</v>
       </c>
       <c r="L148" t="n">
-        <v>539005</v>
+        <v>482642</v>
       </c>
       <c r="M148" t="n">
-        <v>10.506</v>
+        <v>9.407</v>
       </c>
       <c r="N148" t="n">
-        <v>0.6415</v>
+        <v>0.6552</v>
       </c>
       <c r="O148" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="P148" t="s">
         <v>795</v>
@@ -11432,7 +11252,7 @@
         <v>799</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D149" t="s">
         <v>35</v>
@@ -11442,28 +11262,24 @@
       </c>
       <c r="F149"/>
       <c r="G149" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H149" t="n">
-        <v>358442</v>
+        <v>360619</v>
       </c>
       <c r="I149" t="n">
-        <v>31.494</v>
+        <v>31.685</v>
       </c>
       <c r="J149"/>
       <c r="K149"/>
       <c r="L149" t="n">
-        <v>909</v>
+        <v>718</v>
       </c>
       <c r="M149" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="N149" t="n">
-        <v>0.0134</v>
-      </c>
-      <c r="O149" t="n">
-        <v>74.9</v>
-      </c>
+        <v>0.063</v>
+      </c>
+      <c r="N149"/>
+      <c r="O149"/>
       <c r="P149" t="s">
         <v>36</v>
       </c>
@@ -11485,7 +11301,7 @@
         <v>802</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>44645</v>
+        <v>44650</v>
       </c>
       <c r="D150" t="s">
         <v>803</v>
@@ -11495,31 +11311,31 @@
       </c>
       <c r="F150"/>
       <c r="G150" t="n">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="H150" t="n">
-        <v>88147343</v>
+        <v>88507675</v>
       </c>
       <c r="I150" t="n">
-        <v>1885.698</v>
+        <v>1893.406</v>
       </c>
       <c r="J150" t="n">
-        <v>60487</v>
+        <v>59686</v>
       </c>
       <c r="K150" t="n">
-        <v>1.294</v>
+        <v>1.277</v>
       </c>
       <c r="L150" t="n">
-        <v>83657</v>
+        <v>69260</v>
       </c>
       <c r="M150" t="n">
-        <v>1.79</v>
+        <v>1.482</v>
       </c>
       <c r="N150" t="n">
-        <v>0.191</v>
+        <v>0.182</v>
       </c>
       <c r="O150" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="P150" t="s">
         <v>804</v>
@@ -11542,7 +11358,7 @@
         <v>807</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>44647</v>
+        <v>44650</v>
       </c>
       <c r="D151" t="s">
         <v>808</v>
@@ -11552,31 +11368,31 @@
       </c>
       <c r="F151"/>
       <c r="G151" t="n">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="H151" t="n">
-        <v>7535729</v>
+        <v>7551021</v>
       </c>
       <c r="I151" t="n">
-        <v>350.543</v>
+        <v>351.254</v>
       </c>
       <c r="J151" t="n">
-        <v>5048</v>
+        <v>6156</v>
       </c>
       <c r="K151" t="n">
-        <v>0.235</v>
+        <v>0.286</v>
       </c>
       <c r="L151" t="n">
-        <v>4573</v>
+        <v>4374</v>
       </c>
       <c r="M151" t="n">
-        <v>0.213</v>
+        <v>0.203</v>
       </c>
       <c r="N151" t="n">
-        <v>0.0841</v>
+        <v>0.0425</v>
       </c>
       <c r="O151" t="n">
-        <v>11.9</v>
+        <v>23.5</v>
       </c>
       <c r="P151" t="s">
         <v>809</v>
@@ -11644,7 +11460,7 @@
         <v>815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>44644</v>
+        <v>44651</v>
       </c>
       <c r="D153" t="s">
         <v>816</v>
@@ -11654,31 +11470,31 @@
       </c>
       <c r="F153"/>
       <c r="G153" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H153" t="n">
-        <v>81647</v>
+        <v>81763</v>
       </c>
       <c r="I153" t="n">
-        <v>137.964</v>
+        <v>138.16</v>
       </c>
       <c r="J153" t="n">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="K153" t="n">
-        <v>0.299</v>
+        <v>0.147</v>
       </c>
       <c r="L153" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M153" t="n">
-        <v>0.052</v>
+        <v>0.029</v>
       </c>
       <c r="N153" t="n">
-        <v>0.137</v>
+        <v>0.141</v>
       </c>
       <c r="O153" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="P153" t="s">
         <v>817</v>
@@ -11701,7 +11517,7 @@
         <v>820</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>44640</v>
+        <v>44647</v>
       </c>
       <c r="D154" t="s">
         <v>821</v>
@@ -11711,31 +11527,31 @@
       </c>
       <c r="F154"/>
       <c r="G154" t="n">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="H154" t="n">
-        <v>18121775</v>
+        <v>18159015</v>
       </c>
       <c r="I154" t="n">
-        <v>1783.611</v>
+        <v>1787.277</v>
       </c>
       <c r="J154" t="n">
-        <v>5752</v>
+        <v>5320</v>
       </c>
       <c r="K154" t="n">
-        <v>0.566</v>
+        <v>0.524</v>
       </c>
       <c r="L154" t="n">
-        <v>5752</v>
+        <v>5320</v>
       </c>
       <c r="M154" t="n">
-        <v>0.566</v>
+        <v>0.524</v>
       </c>
       <c r="N154" t="n">
-        <v>0.2263</v>
+        <v>0.1624</v>
       </c>
       <c r="O154" t="n">
-        <v>4.4</v>
+        <v>6.2</v>
       </c>
       <c r="P154" t="s">
         <v>823</v>
@@ -11758,7 +11574,7 @@
         <v>827</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>44647</v>
+        <v>44651</v>
       </c>
       <c r="D155" t="s">
         <v>522</v>
@@ -11768,31 +11584,31 @@
       </c>
       <c r="F155"/>
       <c r="G155" t="n">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="H155" t="n">
-        <v>20157569</v>
+        <v>20324729</v>
       </c>
       <c r="I155" t="n">
-        <v>2312.843</v>
+        <v>2332.023</v>
       </c>
       <c r="J155" t="n">
-        <v>13353</v>
+        <v>27204</v>
       </c>
       <c r="K155" t="n">
-        <v>1.532</v>
+        <v>3.121</v>
       </c>
       <c r="L155" t="n">
-        <v>45374</v>
+        <v>35700</v>
       </c>
       <c r="M155" t="n">
-        <v>5.206</v>
+        <v>4.096</v>
       </c>
       <c r="N155" t="n">
-        <v>0.44</v>
+        <v>0.393</v>
       </c>
       <c r="O155" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="P155" t="s">
         <v>523</v>
@@ -11868,7 +11684,7 @@
         <v>832</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D157" t="s">
         <v>833</v>
@@ -11878,32 +11694,28 @@
       </c>
       <c r="F157"/>
       <c r="G157" t="n">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="H157" t="n">
-        <v>6931880</v>
+        <v>7070119</v>
       </c>
       <c r="I157" t="n">
-        <v>290.584</v>
+        <v>296.379</v>
       </c>
       <c r="J157" t="n">
-        <v>20974</v>
+        <v>19854</v>
       </c>
       <c r="K157" t="n">
-        <v>0.879</v>
+        <v>0.832</v>
       </c>
       <c r="L157" t="n">
-        <v>21321</v>
+        <v>27395</v>
       </c>
       <c r="M157" t="n">
-        <v>0.894</v>
-      </c>
-      <c r="N157" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="O157" t="n">
-        <v>167.1</v>
-      </c>
+        <v>1.148</v>
+      </c>
+      <c r="N157"/>
+      <c r="O157"/>
       <c r="P157" t="s">
         <v>834</v>
       </c>
@@ -12088,7 +11900,7 @@
         <v>853</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>44647</v>
+        <v>44652</v>
       </c>
       <c r="D161" t="s">
         <v>854</v>
@@ -12098,28 +11910,24 @@
       </c>
       <c r="F161"/>
       <c r="G161" t="n">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H161" t="n">
-        <v>716349</v>
+        <v>719140</v>
       </c>
       <c r="I161" t="n">
-        <v>84.493</v>
+        <v>84.822</v>
       </c>
       <c r="J161"/>
       <c r="K161"/>
       <c r="L161" t="n">
-        <v>931</v>
+        <v>683</v>
       </c>
       <c r="M161" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="N161" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="O161" t="n">
-        <v>167.1</v>
-      </c>
+        <v>0.081</v>
+      </c>
+      <c r="N161"/>
+      <c r="O161"/>
       <c r="P161" t="s">
         <v>855</v>
       </c>
@@ -12141,7 +11949,7 @@
         <v>858</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>44647</v>
+        <v>44650</v>
       </c>
       <c r="D162" t="s">
         <v>859</v>
@@ -12151,28 +11959,28 @@
       </c>
       <c r="F162"/>
       <c r="G162" t="n">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="H162" t="n">
-        <v>668817</v>
+        <v>673601</v>
       </c>
       <c r="I162" t="n">
-        <v>476.578</v>
+        <v>479.987</v>
       </c>
       <c r="J162" t="n">
-        <v>630</v>
+        <v>3460</v>
       </c>
       <c r="K162" t="n">
-        <v>0.449</v>
+        <v>2.465</v>
       </c>
       <c r="L162" t="n">
-        <v>1237</v>
+        <v>1159</v>
       </c>
       <c r="M162" t="n">
-        <v>0.881</v>
+        <v>0.826</v>
       </c>
       <c r="N162" t="n">
-        <v>0.233</v>
+        <v>0.235</v>
       </c>
       <c r="O162" t="n">
         <v>4.3</v>
@@ -12198,7 +12006,7 @@
         <v>863</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>44640</v>
+        <v>44647</v>
       </c>
       <c r="D163" t="s">
         <v>864</v>
@@ -12208,27 +12016,27 @@
       </c>
       <c r="F163"/>
       <c r="G163" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H163" t="n">
-        <v>4500701</v>
+        <v>4521880</v>
       </c>
       <c r="I163" t="n">
-        <v>377.077</v>
+        <v>378.851</v>
       </c>
       <c r="J163"/>
       <c r="K163"/>
       <c r="L163" t="n">
-        <v>3667</v>
+        <v>3026</v>
       </c>
       <c r="M163" t="n">
-        <v>0.307</v>
+        <v>0.254</v>
       </c>
       <c r="N163" t="n">
-        <v>0.0208</v>
+        <v>0.1874</v>
       </c>
       <c r="O163" t="n">
-        <v>48.1</v>
+        <v>5.3</v>
       </c>
       <c r="P163" t="s">
         <v>866</v>
@@ -12251,7 +12059,7 @@
         <v>870</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>44643</v>
+        <v>44652</v>
       </c>
       <c r="D164" t="s">
         <v>871</v>
@@ -12261,32 +12069,28 @@
       </c>
       <c r="F164"/>
       <c r="G164" t="n">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="H164" t="n">
-        <v>151851543</v>
+        <v>154333732</v>
       </c>
       <c r="I164" t="n">
-        <v>1785.591</v>
+        <v>1814.779</v>
       </c>
       <c r="J164" t="n">
-        <v>301014</v>
+        <v>265362</v>
       </c>
       <c r="K164" t="n">
-        <v>3.54</v>
+        <v>3.12</v>
       </c>
       <c r="L164" t="n">
-        <v>295374</v>
+        <v>270798</v>
       </c>
       <c r="M164" t="n">
-        <v>3.473</v>
-      </c>
-      <c r="N164" t="n">
-        <v>0.0582</v>
-      </c>
-      <c r="O164" t="n">
-        <v>17.2</v>
-      </c>
+        <v>3.184</v>
+      </c>
+      <c r="N164"/>
+      <c r="O164"/>
       <c r="P164" t="s">
         <v>872</v>
       </c>
@@ -12308,7 +12112,7 @@
         <v>876</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D165" t="s">
         <v>35</v>
@@ -12318,28 +12122,24 @@
       </c>
       <c r="F165"/>
       <c r="G165" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H165" t="n">
-        <v>2542633</v>
+        <v>2555603</v>
       </c>
       <c r="I165" t="n">
-        <v>53.957</v>
+        <v>54.232</v>
       </c>
       <c r="J165"/>
       <c r="K165"/>
       <c r="L165" t="n">
-        <v>3578</v>
+        <v>3214</v>
       </c>
       <c r="M165" t="n">
-        <v>0.076</v>
-      </c>
-      <c r="N165" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="O165" t="n">
-        <v>248</v>
-      </c>
+        <v>0.068</v>
+      </c>
+      <c r="N165"/>
+      <c r="O165"/>
       <c r="P165" t="s">
         <v>36</v>
       </c>
@@ -12414,7 +12214,7 @@
         <v>885</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D167" t="s">
         <v>886</v>
@@ -12424,32 +12224,28 @@
       </c>
       <c r="F167"/>
       <c r="G167" t="n">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="H167" t="n">
-        <v>147145013</v>
+        <v>148373071</v>
       </c>
       <c r="I167" t="n">
-        <v>14727.634</v>
+        <v>14850.549</v>
       </c>
       <c r="J167" t="n">
-        <v>229355</v>
+        <v>295915</v>
       </c>
       <c r="K167" t="n">
-        <v>22.956</v>
+        <v>29.618</v>
       </c>
       <c r="L167" t="n">
-        <v>300191</v>
+        <v>298821</v>
       </c>
       <c r="M167" t="n">
-        <v>30.046</v>
-      </c>
-      <c r="N167" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="O167" t="n">
-        <v>902.6</v>
-      </c>
+        <v>29.909</v>
+      </c>
+      <c r="N167"/>
+      <c r="O167"/>
       <c r="P167" t="s">
         <v>887</v>
       </c>
@@ -12471,7 +12267,7 @@
         <v>891</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>44647</v>
+        <v>44651</v>
       </c>
       <c r="D168" t="s">
         <v>892</v>
@@ -12481,31 +12277,31 @@
       </c>
       <c r="F168"/>
       <c r="G168" t="n">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="H168" t="n">
-        <v>483762402</v>
+        <v>486720814</v>
       </c>
       <c r="I168" t="n">
-        <v>7092.551</v>
+        <v>7135.924</v>
       </c>
       <c r="J168" t="n">
-        <v>617522</v>
+        <v>683867</v>
       </c>
       <c r="K168" t="n">
-        <v>9.054</v>
+        <v>10.026</v>
       </c>
       <c r="L168" t="n">
-        <v>740542</v>
+        <v>689608</v>
       </c>
       <c r="M168" t="n">
-        <v>10.857</v>
+        <v>10.11</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1162</v>
+        <v>0.1112</v>
       </c>
       <c r="O168" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="P168" t="s">
         <v>894</v>
@@ -12528,7 +12324,7 @@
         <v>898</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>44644</v>
+        <v>44646</v>
       </c>
       <c r="D169" t="s">
         <v>702</v>
@@ -12538,25 +12334,25 @@
       </c>
       <c r="F169"/>
       <c r="G169" t="n">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="H169" t="n">
-        <v>844026814</v>
+        <v>846489784</v>
       </c>
       <c r="I169" t="n">
-        <v>2535.262</v>
+        <v>2542.66</v>
       </c>
       <c r="J169" t="n">
-        <v>544070</v>
+        <v>489770</v>
       </c>
       <c r="K169" t="n">
-        <v>1.634</v>
+        <v>1.471</v>
       </c>
       <c r="L169" t="n">
-        <v>705786</v>
+        <v>789570</v>
       </c>
       <c r="M169" t="n">
-        <v>2.12</v>
+        <v>2.372</v>
       </c>
       <c r="N169" t="n">
         <v>0.024</v>
@@ -12585,7 +12381,7 @@
         <v>901</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>44647</v>
+        <v>44651</v>
       </c>
       <c r="D170" t="s">
         <v>902</v>
@@ -12595,31 +12391,31 @@
       </c>
       <c r="F170"/>
       <c r="G170" t="n">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="H170" t="n">
-        <v>5962401</v>
+        <v>5999792</v>
       </c>
       <c r="I170" t="n">
-        <v>1710.801</v>
+        <v>1721.53</v>
       </c>
       <c r="J170" t="n">
-        <v>7244</v>
+        <v>8607</v>
       </c>
       <c r="K170" t="n">
-        <v>2.079</v>
+        <v>2.47</v>
       </c>
       <c r="L170" t="n">
-        <v>11126</v>
+        <v>9410</v>
       </c>
       <c r="M170" t="n">
-        <v>3.192</v>
+        <v>2.7</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1126</v>
+        <v>0.103</v>
       </c>
       <c r="O170" t="n">
-        <v>8.9</v>
+        <v>9.7</v>
       </c>
       <c r="P170" t="s">
         <v>237</v>
@@ -12695,7 +12491,7 @@
         <v>911</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D172" t="s">
         <v>912</v>
@@ -12705,21 +12501,21 @@
       </c>
       <c r="F172"/>
       <c r="G172" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H172" t="n">
-        <v>84027988</v>
+        <v>84412291</v>
       </c>
       <c r="I172" t="n">
-        <v>855.954</v>
+        <v>859.869</v>
       </c>
       <c r="J172"/>
       <c r="K172"/>
       <c r="L172" t="n">
-        <v>139911</v>
+        <v>114862</v>
       </c>
       <c r="M172" t="n">
-        <v>1.425</v>
+        <v>1.17</v>
       </c>
       <c r="N172"/>
       <c r="O172"/>
@@ -12793,7 +12589,7 @@
         <v>920</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>44646</v>
+        <v>44651</v>
       </c>
       <c r="D174" t="s">
         <v>921</v>
@@ -12803,31 +12599,31 @@
       </c>
       <c r="F174"/>
       <c r="G174" t="n">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="H174" t="n">
-        <v>3346905</v>
+        <v>3357511</v>
       </c>
       <c r="I174" t="n">
-        <v>176.892</v>
+        <v>177.452</v>
       </c>
       <c r="J174" t="n">
-        <v>2364</v>
+        <v>2830</v>
       </c>
       <c r="K174" t="n">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="L174" t="n">
-        <v>2674</v>
+        <v>2309</v>
       </c>
       <c r="M174" t="n">
-        <v>0.141</v>
+        <v>0.122</v>
       </c>
       <c r="N174" t="n">
-        <v>0.0469</v>
+        <v>0.0333</v>
       </c>
       <c r="O174" t="n">
-        <v>21.3</v>
+        <v>30</v>
       </c>
       <c r="P174" t="s">
         <v>923</v>
@@ -12850,7 +12646,7 @@
         <v>926</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D175" t="s">
         <v>35</v>
@@ -12860,28 +12656,24 @@
       </c>
       <c r="F175"/>
       <c r="G175" t="n">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H175" t="n">
-        <v>2176708</v>
+        <v>2185767</v>
       </c>
       <c r="I175" t="n">
-        <v>144.228</v>
+        <v>144.828</v>
       </c>
       <c r="J175"/>
       <c r="K175"/>
       <c r="L175" t="n">
-        <v>2747</v>
+        <v>2599</v>
       </c>
       <c r="M175" t="n">
-        <v>0.182</v>
-      </c>
-      <c r="N175" t="n">
-        <v>0.0646</v>
-      </c>
-      <c r="O175" t="n">
-        <v>15.5</v>
-      </c>
+        <v>0.172</v>
+      </c>
+      <c r="N175"/>
+      <c r="O175"/>
       <c r="P175" t="s">
         <v>36</v>
       </c>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="940">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -1228,6 +1228,27 @@
 According to Oxford University's [Coronavirus Government Response Tracker](https://github.com/OxCGRT/covid-policy-tracker/tree/master/data), government policy currently covers "testing of anyone showing COVID-19 symptoms": "COVID-19 tests are available at many major hospitals in Greece, as well as the Athens Eleftherios Venizelos Airport (at Arrivals level between entrances 2-3). Testing is paid by the individual being tested. The average cost for COVID-19 testing is 100-120 euros".</t>
   </si>
   <si>
+    <t xml:space="preserve">GUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guam - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://healthdata.gov/dataset/COVID-19-Diagnostic-Laboratory-Testing-PCR-Testing/j8mb-icvb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Health &amp; Human Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of tests performed. The figures are the sum across states, some of which may include serology and antigen tests in addition to PCR tests.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our principal time series for Guam is based on the CSV file made available by the Department of Health &amp; Human Services on HealthData.gov.
+According to the metadata, the data "is representative of diagnostic specimens being tested - not individual people (...). Data presented might not represent the most current counts for the most recent 3 days due to the time it takes to report testing information. The data may also not include results from all potential testing sites within the jurisdiction (e.g., non-laboratory or point of care test sites)."
+It is also explained in the description that the data "excludes serology tests where possible", which may indicate that not 100% of the tests included in the time series are PCR tests.
+Note that due to the great diversity of counting methods across US states for both cases and tests, calculating an accurate positive rate for the entire country can be very challenging. The volunteer-led COVID Tracking Project has a very useful blog post summarizing these obstacles: '[Test Positivity in the US Is a Mess](https://covidtracking.com/analysis-updates/test-positivity-in-the-us-is-a-mess)'.</t>
+  </si>
+  <si>
     <t xml:space="preserve">GTM</t>
   </si>
   <si>
@@ -1881,6 +1902,18 @@
 According to [this notice](https://web.archive.org/web/20210225220853/https://deputyprimeminister.gov.mt/en/health-promotion/covid-19/Pages/rapid-antigen-testing.aspx) on the Ministry of Health's website, "on the 12th February 2021, Legal Notice 49 of 2021 - MEDICINES ACT (CAP. 458) - Delivery and Testing of COVID-19 using Point-of-Care Rapid Testing, Regulations 2021) - was published", which states that "all RAT [Rapid Antigen Test] results must be submitted to the Superintendent of Public Health". This notice was accompanied by [this document](https://web.archive.org/web/20210225222525/https://deputyprimeminister.gov.mt/en/health-promotion/covid-19/Documents/rapid-antigen-tests/Standards-on-Use-of-POC-Rapid-Antigen-Tests-for-SARS-CoV-2_120221.pdf), which states that under certain circumstances, positive results from antigen tests can be used to confirm cases of COVID-19.</t>
   </si>
   <si>
+    <t xml:space="preserve">MHL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marshall Islands - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our principal time series for the Marshall Islands is based on the CSV file made available by the Department of Health &amp; Human Services on HealthData.gov.
+According to the metadata, the data "is representative of diagnostic specimens being tested - not individual people (...). Data presented might not represent the most current counts for the most recent 3 days due to the time it takes to report testing information. The data may also not include results from all potential testing sites within the jurisdiction (e.g., non-laboratory or point of care test sites)."
+It is also explained in the description that the data "excludes serology tests where possible", which may indicate that not 100% of the tests included in the time series are PCR tests.
+Note that due to the great diversity of counting methods across US states for both cases and tests, calculating an accurate positive rate for the entire country can be very challenging. The volunteer-led COVID Tracking Project has a very useful blog post summarizing these obstacles: '[Test Positivity in the US Is a Mess](https://covidtracking.com/analysis-updates/test-positivity-in-the-us-is-a-mess)'.</t>
+  </si>
+  <si>
     <t xml:space="preserve">MRT</t>
   </si>
   <si>
@@ -2146,6 +2179,18 @@
     <t xml:space="preserve">The Republic of North Macedonia's Ministry of Health publishes COVID-19 updates on [their website](https://koronavirus.gov.mk/stat) and [Google Data Studio](https://datastudio.google.com/embed/u/0/reporting/9f5104d0-12fd-4e16-9a11-993685cfd40f/page/1M), reporting the daily and cumulative number of tests performed, which we use to construct a daily time series. The time series goes back to 30 March 2020. The datasets currently lack descriptions and so many of the details are unclear; we will add further detail as it becomes available.</t>
   </si>
   <si>
+    <t xml:space="preserve">MNP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern Mariana Islands - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our principal time series for the Northern Mariana Islands is based on the CSV file made available by the Department of Health &amp; Human Services on HealthData.gov.
+According to the metadata, the data "is representative of diagnostic specimens being tested - not individual people (...). Data presented might not represent the most current counts for the most recent 3 days due to the time it takes to report testing information. The data may also not include results from all potential testing sites within the jurisdiction (e.g., non-laboratory or point of care test sites)."
+It is also explained in the description that the data "excludes serology tests where possible", which may indicate that not 100% of the tests included in the time series are PCR tests.
+Note that due to the great diversity of counting methods across US states for both cases and tests, calculating an accurate positive rate for the entire country can be very challenging. The volunteer-led COVID Tracking Project has a very useful blog post summarizing these obstacles: '[Test Positivity in the US Is a Mess](https://covidtracking.com/analysis-updates/test-positivity-in-the-us-is-a-mess)'.</t>
+  </si>
+  <si>
     <t xml:space="preserve">NOR</t>
   </si>
   <si>
@@ -2344,15 +2389,6 @@
   </si>
   <si>
     <t xml:space="preserve">Puerto Rico - tests performed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://healthdata.gov/dataset/COVID-19-Diagnostic-Laboratory-Testing-PCR-Testing/j8mb-icvb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Department of Health &amp; Human Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of tests performed. The figures are the sum across states, some of which may include serology and antigen tests in addition to PCR tests.</t>
   </si>
   <si>
     <t xml:space="preserve">Our principal time series for Puerto Rico is based on the CSV file made available by the Department of Health &amp; Human Services on HealthData.gov.
@@ -3013,6 +3049,18 @@
     <t xml:space="preserve">Since August 2020, our principal time series for the United States is based on the CSV file made available by the Department of Health &amp; Human Services on HealthData.gov.
 It "includes viral COVID-19 laboratory test (PCR) results from over 1,000 U.S. laboratories and testing locations including commercial and reference laboratories, public health laboratories, hospital laboratories, and other testing locations."
 The source notes that "data presented here is representative of diagnostic specimens being tested - not individual people (...). Data presented might not represent the most current counts for the most recent 3 days due to the time it takes to report testing information. The data may also not include results from all potential testing sites within the jurisdiction (e.g., non-laboratory or point of care test sites) and therefore reflect the majority, but not all, of COVID-19 testing being conducted in the United States."
+It is also explained in the description that the data "excludes serology tests where possible", which may indicate that not 100% of the tests included in the time series are PCR tests.
+Note that due to the great diversity of counting methods across US states for both cases and tests, calculating an accurate positive rate for the entire country can be very challenging. The volunteer-led COVID Tracking Project has a very useful blog post summarizing these obstacles: '[Test Positivity in the US Is a Mess](https://covidtracking.com/analysis-updates/test-positivity-in-the-us-is-a-mess)'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States Virgin Islands - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our principal time series for the United States Virgin Islands is based on the CSV file made available by the Department of Health &amp; Human Services on HealthData.gov.
+According to the metadata, the data "is representative of diagnostic specimens being tested - not individual people (...). Data presented might not represent the most current counts for the most recent 3 days due to the time it takes to report testing information. The data may also not include results from all potential testing sites within the jurisdiction (e.g., non-laboratory or point of care test sites)."
 It is also explained in the description that the data "excludes serology tests where possible", which may indicate that not 100% of the tests included in the time series are PCR tests.
 Note that due to the great diversity of counting methods across US states for both cases and tests, calculating an accurate positive rate for the entire country can be very challenging. The volunteer-led COVID Tracking Project has a very useful blog post summarizing these obstacles: '[Test Positivity in the US Is a Mess](https://covidtracking.com/analysis-updates/test-positivity-in-the-us-is-a-mess)'.</t>
   </si>
@@ -3753,8 +3801,12 @@
       <c r="M6" t="n">
         <v>0.034</v>
       </c>
-      <c r="N6"/>
-      <c r="O6"/>
+      <c r="N6" t="n">
+        <v>0.0114</v>
+      </c>
+      <c r="O6" t="n">
+        <v>87.9</v>
+      </c>
       <c r="P6" t="s">
         <v>36</v>
       </c>
@@ -3975,8 +4027,12 @@
       <c r="M10" t="n">
         <v>4.674</v>
       </c>
-      <c r="N10"/>
-      <c r="O10"/>
+      <c r="N10" t="n">
+        <v>0.4737</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.1</v>
+      </c>
       <c r="P10" t="s">
         <v>71</v>
       </c>
@@ -4024,8 +4080,12 @@
       <c r="M11" t="n">
         <v>51.576</v>
       </c>
-      <c r="N11"/>
-      <c r="O11"/>
+      <c r="N11" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="O11" t="n">
+        <v>17.2</v>
+      </c>
       <c r="P11" t="s">
         <v>78</v>
       </c>
@@ -4179,8 +4239,12 @@
       <c r="M14" t="n">
         <v>3.169</v>
       </c>
-      <c r="N14"/>
-      <c r="O14"/>
+      <c r="N14" t="n">
+        <v>0.1363</v>
+      </c>
+      <c r="O14" t="n">
+        <v>7.3</v>
+      </c>
       <c r="P14" t="s">
         <v>95</v>
       </c>
@@ -4232,8 +4296,12 @@
       <c r="M15" t="n">
         <v>0.012</v>
       </c>
-      <c r="N15"/>
-      <c r="O15"/>
+      <c r="N15" t="n">
+        <v>0.0335</v>
+      </c>
+      <c r="O15" t="n">
+        <v>29.9</v>
+      </c>
       <c r="P15" t="s">
         <v>102</v>
       </c>
@@ -4334,8 +4402,12 @@
       <c r="M17" t="n">
         <v>1.191</v>
       </c>
-      <c r="N17"/>
-      <c r="O17"/>
+      <c r="N17" t="n">
+        <v>0.0847</v>
+      </c>
+      <c r="O17" t="n">
+        <v>11.8</v>
+      </c>
       <c r="P17" t="s">
         <v>113</v>
       </c>
@@ -4913,8 +4985,12 @@
       <c r="M28" t="n">
         <v>0.134</v>
       </c>
-      <c r="N28"/>
-      <c r="O28"/>
+      <c r="N28" t="n">
+        <v>0.0069</v>
+      </c>
+      <c r="O28" t="n">
+        <v>145.1</v>
+      </c>
       <c r="P28" t="s">
         <v>36</v>
       </c>
@@ -4962,8 +5038,12 @@
       <c r="M29" t="n">
         <v>0.076</v>
       </c>
-      <c r="N29"/>
-      <c r="O29"/>
+      <c r="N29" t="n">
+        <v>0.0376</v>
+      </c>
+      <c r="O29" t="n">
+        <v>26.6</v>
+      </c>
       <c r="P29" t="s">
         <v>176</v>
       </c>
@@ -5217,8 +5297,12 @@
       <c r="M34" t="n">
         <v>0.018</v>
       </c>
-      <c r="N34"/>
-      <c r="O34"/>
+      <c r="N34" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="O34" t="n">
+        <v>95.1</v>
+      </c>
       <c r="P34" t="s">
         <v>36</v>
       </c>
@@ -5270,8 +5354,12 @@
       <c r="M35" t="n">
         <v>3.604</v>
       </c>
-      <c r="N35"/>
-      <c r="O35"/>
+      <c r="N35" t="n">
+        <v>0.0867</v>
+      </c>
+      <c r="O35" t="n">
+        <v>11.5</v>
+      </c>
       <c r="P35" t="s">
         <v>202</v>
       </c>
@@ -5531,8 +5619,12 @@
       <c r="M40" t="n">
         <v>0.05</v>
       </c>
-      <c r="N40"/>
-      <c r="O40"/>
+      <c r="N40" t="n">
+        <v>0.0053</v>
+      </c>
+      <c r="O40" t="n">
+        <v>187.1</v>
+      </c>
       <c r="P40" t="s">
         <v>36</v>
       </c>
@@ -5580,8 +5672,12 @@
       <c r="M41" t="n">
         <v>1.177</v>
       </c>
-      <c r="N41"/>
-      <c r="O41"/>
+      <c r="N41" t="n">
+        <v>0.2707</v>
+      </c>
+      <c r="O41" t="n">
+        <v>3.7</v>
+      </c>
       <c r="P41" t="s">
         <v>231</v>
       </c>
@@ -5912,8 +6008,12 @@
       <c r="M47" t="n">
         <v>0.463</v>
       </c>
-      <c r="N47"/>
-      <c r="O47"/>
+      <c r="N47" t="n">
+        <v>0.0022</v>
+      </c>
+      <c r="O47" t="n">
+        <v>464</v>
+      </c>
       <c r="P47" t="s">
         <v>36</v>
       </c>
@@ -6183,8 +6283,12 @@
       <c r="M52" t="n">
         <v>0.17</v>
       </c>
-      <c r="N52"/>
-      <c r="O52"/>
+      <c r="N52" t="n">
+        <v>0.0006</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1720.3</v>
+      </c>
       <c r="P52" t="s">
         <v>36</v>
       </c>
@@ -6334,8 +6438,12 @@
       <c r="M55" t="n">
         <v>0.538</v>
       </c>
-      <c r="N55"/>
-      <c r="O55"/>
+      <c r="N55" t="n">
+        <v>0.0394</v>
+      </c>
+      <c r="O55" t="n">
+        <v>25.4</v>
+      </c>
       <c r="P55" t="s">
         <v>36</v>
       </c>
@@ -6383,8 +6491,12 @@
       <c r="M56" t="n">
         <v>0.045</v>
       </c>
-      <c r="N56"/>
-      <c r="O56"/>
+      <c r="N56" t="n">
+        <v>0.0048</v>
+      </c>
+      <c r="O56" t="n">
+        <v>206.4</v>
+      </c>
       <c r="P56" t="s">
         <v>303</v>
       </c>
@@ -6648,8 +6760,12 @@
       <c r="M61" t="n">
         <v>0.072</v>
       </c>
-      <c r="N61"/>
-      <c r="O61"/>
+      <c r="N61" t="n">
+        <v>0.0018</v>
+      </c>
+      <c r="O61" t="n">
+        <v>569.9</v>
+      </c>
       <c r="P61" t="s">
         <v>36</v>
       </c>
@@ -6754,8 +6870,12 @@
       <c r="M63" t="n">
         <v>1.014</v>
       </c>
-      <c r="N63"/>
-      <c r="O63"/>
+      <c r="N63" t="n">
+        <v>0.1187</v>
+      </c>
+      <c r="O63" t="n">
+        <v>8.4</v>
+      </c>
       <c r="P63" t="s">
         <v>343</v>
       </c>
@@ -6856,8 +6976,12 @@
       <c r="M65" t="n">
         <v>0.071</v>
       </c>
-      <c r="N65"/>
-      <c r="O65"/>
+      <c r="N65" t="n">
+        <v>0.0049</v>
+      </c>
+      <c r="O65" t="n">
+        <v>206</v>
+      </c>
       <c r="P65" t="s">
         <v>36</v>
       </c>
@@ -6905,8 +7029,12 @@
       <c r="M66" t="n">
         <v>16.414</v>
       </c>
-      <c r="N66"/>
-      <c r="O66"/>
+      <c r="N66" t="n">
+        <v>0.0858</v>
+      </c>
+      <c r="O66" t="n">
+        <v>11.7</v>
+      </c>
       <c r="P66" t="s">
         <v>358</v>
       </c>
@@ -6954,8 +7082,12 @@
       <c r="M67" t="n">
         <v>26.681</v>
       </c>
-      <c r="N67"/>
-      <c r="O67"/>
+      <c r="N67" t="n">
+        <v>0.0781</v>
+      </c>
+      <c r="O67" t="n">
+        <v>12.8</v>
+      </c>
       <c r="P67" t="s">
         <v>364</v>
       </c>
@@ -6977,7 +7109,7 @@
         <v>368</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>44631</v>
+        <v>44651</v>
       </c>
       <c r="D68" t="s">
         <v>369</v>
@@ -6987,107 +7119,111 @@
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="H68" t="n">
-        <v>4067775</v>
+        <v>277744</v>
       </c>
       <c r="I68" t="n">
-        <v>222.893</v>
+        <v>1632.022</v>
       </c>
       <c r="J68" t="n">
-        <v>10381</v>
+        <v>1171</v>
       </c>
       <c r="K68" t="n">
-        <v>0.569</v>
+        <v>6.881</v>
       </c>
       <c r="L68" t="n">
-        <v>10008</v>
+        <v>404</v>
       </c>
       <c r="M68" t="n">
-        <v>0.548</v>
+        <v>2.374</v>
       </c>
       <c r="N68" t="n">
-        <v>0.1911</v>
+        <v>0.054</v>
       </c>
       <c r="O68" t="n">
-        <v>5.2</v>
+        <v>18.5</v>
       </c>
       <c r="P68" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>369</v>
+      </c>
+      <c r="R68" t="s">
         <v>371</v>
       </c>
-      <c r="Q68" t="s">
+      <c r="S68" t="s">
         <v>372</v>
-      </c>
-      <c r="R68" t="s">
-        <v>45</v>
-      </c>
-      <c r="S68" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>373</v>
+      </c>
+      <c r="B69" t="s">
         <v>374</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" s="1" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D69" t="s">
         <v>375</v>
       </c>
-      <c r="C69" s="1" t="n">
-        <v>44644</v>
-      </c>
-      <c r="D69" t="s">
-        <v>35</v>
-      </c>
       <c r="E69" t="s">
-        <v>36</v>
+        <v>376</v>
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>5</v>
+        <v>740</v>
       </c>
       <c r="H69" t="n">
-        <v>668971</v>
+        <v>4067775</v>
       </c>
       <c r="I69" t="n">
-        <v>49.564</v>
-      </c>
-      <c r="J69"/>
-      <c r="K69"/>
+        <v>222.893</v>
+      </c>
+      <c r="J69" t="n">
+        <v>10381</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.569</v>
+      </c>
       <c r="L69" t="n">
-        <v>644</v>
+        <v>10008</v>
       </c>
       <c r="M69" t="n">
-        <v>0.048</v>
+        <v>0.548</v>
       </c>
       <c r="N69" t="n">
-        <v>0.0053</v>
+        <v>0.1911</v>
       </c>
       <c r="O69" t="n">
-        <v>187.8</v>
+        <v>5.2</v>
       </c>
       <c r="P69" t="s">
-        <v>36</v>
+        <v>377</v>
       </c>
       <c r="Q69" t="s">
-        <v>37</v>
+        <v>378</v>
       </c>
       <c r="R69" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="S69" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B70" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44652</v>
+        <v>44644</v>
       </c>
       <c r="D70" t="s">
         <v>35</v>
@@ -7100,21 +7236,25 @@
         <v>5</v>
       </c>
       <c r="H70" t="n">
-        <v>128876</v>
+        <v>668971</v>
       </c>
       <c r="I70" t="n">
-        <v>63.943</v>
+        <v>49.564</v>
       </c>
       <c r="J70"/>
       <c r="K70"/>
       <c r="L70" t="n">
-        <v>126</v>
+        <v>644</v>
       </c>
       <c r="M70" t="n">
-        <v>0.063</v>
-      </c>
-      <c r="N70"/>
-      <c r="O70"/>
+        <v>0.048</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.0053</v>
+      </c>
+      <c r="O70" t="n">
+        <v>187.8</v>
+      </c>
       <c r="P70" t="s">
         <v>36</v>
       </c>
@@ -7125,54 +7265,54 @@
         <v>25</v>
       </c>
       <c r="S70" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B71" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44582</v>
+        <v>44652</v>
       </c>
       <c r="D71" t="s">
-        <v>382</v>
+        <v>35</v>
       </c>
       <c r="E71" t="s">
-        <v>383</v>
+        <v>36</v>
       </c>
       <c r="F71"/>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H71" t="n">
-        <v>442695</v>
+        <v>128876</v>
       </c>
       <c r="I71" t="n">
-        <v>560.14</v>
+        <v>63.943</v>
       </c>
       <c r="J71"/>
       <c r="K71"/>
       <c r="L71" t="n">
-        <v>2771</v>
+        <v>126</v>
       </c>
       <c r="M71" t="n">
-        <v>3.506</v>
+        <v>0.063</v>
       </c>
       <c r="N71" t="n">
-        <v>0.3388</v>
+        <v>0.0261</v>
       </c>
       <c r="O71" t="n">
-        <v>3</v>
+        <v>38.3</v>
       </c>
       <c r="P71" t="s">
-        <v>383</v>
+        <v>36</v>
       </c>
       <c r="Q71" t="s">
-        <v>384</v>
+        <v>37</v>
       </c>
       <c r="R71" t="s">
         <v>25</v>
@@ -7189,7 +7329,7 @@
         <v>387</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>44646</v>
+        <v>44582</v>
       </c>
       <c r="D72" t="s">
         <v>388</v>
@@ -7199,260 +7339,254 @@
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H72" t="n">
-        <v>188012</v>
+        <v>442695</v>
       </c>
       <c r="I72" t="n">
-        <v>16.29</v>
+        <v>560.14</v>
       </c>
       <c r="J72"/>
       <c r="K72"/>
       <c r="L72" t="n">
-        <v>352</v>
+        <v>2771</v>
       </c>
       <c r="M72" t="n">
-        <v>0.03</v>
+        <v>3.506</v>
       </c>
       <c r="N72" t="n">
-        <v>0.0134</v>
+        <v>0.3388</v>
       </c>
       <c r="O72" t="n">
-        <v>74.7</v>
+        <v>3</v>
       </c>
       <c r="P72" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q72" t="s">
         <v>390</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>391</v>
       </c>
       <c r="R72" t="s">
         <v>25</v>
       </c>
       <c r="S72" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>392</v>
+      </c>
+      <c r="B73" t="s">
         <v>393</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" s="1" t="n">
+        <v>44646</v>
+      </c>
+      <c r="D73" t="s">
         <v>394</v>
       </c>
-      <c r="C73" s="1" t="n">
-        <v>44649</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>395</v>
-      </c>
-      <c r="E73" t="s">
-        <v>396</v>
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="H73" t="n">
-        <v>44972952</v>
+        <v>188012</v>
       </c>
       <c r="I73" t="n">
-        <v>5954.474</v>
+        <v>16.29</v>
       </c>
       <c r="J73"/>
       <c r="K73"/>
       <c r="L73" t="n">
-        <v>124703</v>
+        <v>352</v>
       </c>
       <c r="M73" t="n">
-        <v>16.511</v>
+        <v>0.03</v>
       </c>
       <c r="N73" t="n">
-        <v>0.24</v>
+        <v>0.0134</v>
       </c>
       <c r="O73" t="n">
-        <v>4.2</v>
+        <v>74.7</v>
       </c>
       <c r="P73" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q73" t="s">
         <v>397</v>
       </c>
-      <c r="Q73" t="s">
+      <c r="R73" t="s">
+        <v>25</v>
+      </c>
+      <c r="S73" t="s">
         <v>398</v>
-      </c>
-      <c r="R73" t="s">
-        <v>61</v>
-      </c>
-      <c r="S73" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>399</v>
+      </c>
+      <c r="B74" t="s">
         <v>400</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" s="1" t="n">
+        <v>44649</v>
+      </c>
+      <c r="D74" t="s">
         <v>401</v>
       </c>
-      <c r="C74" s="1" t="n">
-        <v>44651</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>402</v>
       </c>
-      <c r="E74" t="s">
-        <v>403</v>
-      </c>
-      <c r="F74" t="s">
-        <v>404</v>
-      </c>
+      <c r="F74"/>
       <c r="G74" t="n">
-        <v>667</v>
+        <v>29</v>
       </c>
       <c r="H74" t="n">
-        <v>10664846</v>
+        <v>44972952</v>
       </c>
       <c r="I74" t="n">
-        <v>1106.982</v>
-      </c>
-      <c r="J74" t="n">
-        <v>12622</v>
-      </c>
-      <c r="K74" t="n">
-        <v>1.31</v>
-      </c>
+        <v>5954.474</v>
+      </c>
+      <c r="J74"/>
+      <c r="K74"/>
       <c r="L74" t="n">
-        <v>10773</v>
+        <v>124703</v>
       </c>
       <c r="M74" t="n">
-        <v>1.118</v>
+        <v>16.511</v>
       </c>
       <c r="N74" t="n">
-        <v>0.1983</v>
+        <v>0.24</v>
       </c>
       <c r="O74" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P74" t="s">
         <v>403</v>
       </c>
       <c r="Q74" t="s">
+        <v>404</v>
+      </c>
+      <c r="R74" t="s">
+        <v>61</v>
+      </c>
+      <c r="S74" t="s">
         <v>405</v>
-      </c>
-      <c r="R74" t="s">
-        <v>136</v>
-      </c>
-      <c r="S74" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>406</v>
+      </c>
+      <c r="B75" t="s">
         <v>407</v>
-      </c>
-      <c r="B75" t="s">
-        <v>408</v>
       </c>
       <c r="C75" s="1" t="n">
         <v>44651</v>
       </c>
       <c r="D75" t="s">
+        <v>408</v>
+      </c>
+      <c r="E75" t="s">
         <v>409</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>410</v>
       </c>
-      <c r="F75"/>
       <c r="G75" t="n">
-        <v>760</v>
+        <v>667</v>
       </c>
       <c r="H75" t="n">
-        <v>1293769</v>
+        <v>10664846</v>
       </c>
       <c r="I75" t="n">
-        <v>3508.127</v>
+        <v>1106.982</v>
       </c>
       <c r="J75" t="n">
-        <v>2167</v>
+        <v>12622</v>
       </c>
       <c r="K75" t="n">
-        <v>5.876</v>
+        <v>1.31</v>
       </c>
       <c r="L75" t="n">
-        <v>1838</v>
+        <v>10773</v>
       </c>
       <c r="M75" t="n">
-        <v>4.984</v>
-      </c>
-      <c r="N75"/>
-      <c r="O75"/>
+        <v>1.118</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.1983</v>
+      </c>
+      <c r="O75" t="n">
+        <v>5</v>
+      </c>
       <c r="P75" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="Q75" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="R75" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="S75" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B76" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="D76" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E76" t="s">
+        <v>416</v>
+      </c>
+      <c r="F76"/>
+      <c r="G76" t="n">
+        <v>760</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1293769</v>
+      </c>
+      <c r="I76" t="n">
+        <v>3508.127</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2167</v>
+      </c>
+      <c r="K76" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1838</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4.984</v>
+      </c>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q76" t="s">
         <v>415</v>
       </c>
-      <c r="F76" t="s">
-        <v>416</v>
-      </c>
-      <c r="G76" t="n">
-        <v>729</v>
-      </c>
-      <c r="H76" t="n">
-        <v>788556935</v>
-      </c>
-      <c r="I76" t="n">
-        <v>565.919</v>
-      </c>
-      <c r="J76" t="n">
-        <v>624022</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.448</v>
-      </c>
-      <c r="L76" t="n">
-        <v>609441</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.437</v>
-      </c>
-      <c r="N76" t="n">
-        <v>0.0023</v>
-      </c>
-      <c r="O76" t="n">
-        <v>437.4</v>
-      </c>
-      <c r="P76" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>414</v>
-      </c>
       <c r="R76" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="S76" t="s">
         <v>417</v>
@@ -7466,7 +7600,7 @@
         <v>419</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>44641</v>
+        <v>44650</v>
       </c>
       <c r="D77" t="s">
         <v>420</v>
@@ -7474,42 +7608,44 @@
       <c r="E77" t="s">
         <v>421</v>
       </c>
-      <c r="F77"/>
+      <c r="F77" t="s">
+        <v>422</v>
+      </c>
       <c r="G77" t="n">
-        <v>371</v>
+        <v>729</v>
       </c>
       <c r="H77" t="n">
-        <v>59503735</v>
+        <v>788556935</v>
       </c>
       <c r="I77" t="n">
-        <v>215.311</v>
+        <v>565.919</v>
       </c>
       <c r="J77" t="n">
-        <v>103179</v>
+        <v>624022</v>
       </c>
       <c r="K77" t="n">
-        <v>0.373</v>
+        <v>0.448</v>
       </c>
       <c r="L77" t="n">
-        <v>114413</v>
+        <v>609441</v>
       </c>
       <c r="M77" t="n">
-        <v>0.414</v>
+        <v>0.437</v>
       </c>
       <c r="N77" t="n">
-        <v>0.0837</v>
+        <v>0.0023</v>
       </c>
       <c r="O77" t="n">
-        <v>11.9</v>
+        <v>437.4</v>
       </c>
       <c r="P77" t="s">
         <v>421</v>
       </c>
       <c r="Q77" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="R77" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="S77" t="s">
         <v>423</v>
@@ -7523,7 +7659,7 @@
         <v>425</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>44652</v>
+        <v>44641</v>
       </c>
       <c r="D78" t="s">
         <v>426</v>
@@ -7533,141 +7669,149 @@
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>453</v>
+        <v>371</v>
       </c>
       <c r="H78" t="n">
-        <v>49478466</v>
+        <v>59503735</v>
       </c>
       <c r="I78" t="n">
-        <v>581.903</v>
-      </c>
-      <c r="J78"/>
-      <c r="K78"/>
+        <v>215.311</v>
+      </c>
+      <c r="J78" t="n">
+        <v>103179</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.373</v>
+      </c>
       <c r="L78" t="n">
-        <v>60872</v>
+        <v>114413</v>
       </c>
       <c r="M78" t="n">
-        <v>0.716</v>
-      </c>
-      <c r="N78"/>
-      <c r="O78"/>
+        <v>0.414</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.0837</v>
+      </c>
+      <c r="O78" t="n">
+        <v>11.9</v>
+      </c>
       <c r="P78" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q78" t="s">
         <v>428</v>
       </c>
-      <c r="Q78" t="s">
+      <c r="R78" t="s">
+        <v>45</v>
+      </c>
+      <c r="S78" t="s">
         <v>429</v>
-      </c>
-      <c r="R78" t="s">
-        <v>61</v>
-      </c>
-      <c r="S78" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>430</v>
+      </c>
+      <c r="B79" t="s">
         <v>431</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="D79" t="s">
         <v>432</v>
       </c>
-      <c r="C79" s="1" t="n">
-        <v>44632</v>
-      </c>
-      <c r="D79" t="s">
-        <v>21</v>
-      </c>
       <c r="E79" t="s">
-        <v>22</v>
+        <v>433</v>
       </c>
       <c r="F79"/>
       <c r="G79" t="n">
-        <v>562</v>
+        <v>453</v>
       </c>
       <c r="H79" t="n">
-        <v>18137544</v>
+        <v>49478466</v>
       </c>
       <c r="I79" t="n">
-        <v>440.452</v>
+        <v>581.903</v>
       </c>
       <c r="J79"/>
       <c r="K79"/>
       <c r="L79" t="n">
-        <v>13480</v>
+        <v>60872</v>
       </c>
       <c r="M79" t="n">
-        <v>0.327</v>
+        <v>0.716</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0502</v>
+        <v>0.0401</v>
       </c>
       <c r="O79" t="n">
-        <v>19.9</v>
+        <v>25</v>
       </c>
       <c r="P79" t="s">
-        <v>23</v>
+        <v>434</v>
       </c>
       <c r="Q79" t="s">
-        <v>24</v>
+        <v>435</v>
       </c>
       <c r="R79" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="S79" t="s">
-        <v>26</v>
+        <v>436</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B80" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44652</v>
+        <v>44632</v>
       </c>
       <c r="D80" t="s">
-        <v>435</v>
+        <v>21</v>
       </c>
       <c r="E80" t="s">
-        <v>436</v>
+        <v>22</v>
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>745</v>
+        <v>562</v>
       </c>
       <c r="H80" t="n">
-        <v>11833422</v>
+        <v>18137544</v>
       </c>
       <c r="I80" t="n">
-        <v>2374.804</v>
-      </c>
-      <c r="J80" t="n">
-        <v>13346</v>
-      </c>
-      <c r="K80" t="n">
-        <v>2.678</v>
-      </c>
+        <v>440.452</v>
+      </c>
+      <c r="J80"/>
+      <c r="K80"/>
       <c r="L80" t="n">
-        <v>15363</v>
+        <v>13480</v>
       </c>
       <c r="M80" t="n">
-        <v>3.083</v>
-      </c>
-      <c r="N80"/>
-      <c r="O80"/>
+        <v>0.327</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.0502</v>
+      </c>
+      <c r="O80" t="n">
+        <v>19.9</v>
+      </c>
       <c r="P80" t="s">
-        <v>436</v>
+        <v>23</v>
       </c>
       <c r="Q80" t="s">
-        <v>437</v>
+        <v>24</v>
       </c>
       <c r="R80" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S80" t="s">
-        <v>438</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81">
@@ -7688,34 +7832,34 @@
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>772</v>
+        <v>745</v>
       </c>
       <c r="H81" t="n">
-        <v>48612106</v>
+        <v>11833422</v>
       </c>
       <c r="I81" t="n">
-        <v>5232.172</v>
+        <v>2374.804</v>
       </c>
       <c r="J81" t="n">
-        <v>36322</v>
+        <v>13346</v>
       </c>
       <c r="K81" t="n">
-        <v>3.909</v>
+        <v>2.678</v>
       </c>
       <c r="L81" t="n">
-        <v>63970</v>
+        <v>15363</v>
       </c>
       <c r="M81" t="n">
-        <v>6.885</v>
+        <v>3.083</v>
       </c>
       <c r="N81" t="n">
-        <v>0.19</v>
+        <v>0.3925</v>
       </c>
       <c r="O81" t="n">
-        <v>5.3</v>
+        <v>2.5</v>
       </c>
       <c r="P81" t="s">
-        <v>53</v>
+        <v>442</v>
       </c>
       <c r="Q81" t="s">
         <v>443</v>
@@ -7743,88 +7887,92 @@
       <c r="E82" t="s">
         <v>448</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82"/>
+      <c r="G82" t="n">
+        <v>772</v>
+      </c>
+      <c r="H82" t="n">
+        <v>48612106</v>
+      </c>
+      <c r="I82" t="n">
+        <v>5232.172</v>
+      </c>
+      <c r="J82" t="n">
+        <v>36322</v>
+      </c>
+      <c r="K82" t="n">
+        <v>3.909</v>
+      </c>
+      <c r="L82" t="n">
+        <v>63970</v>
+      </c>
+      <c r="M82" t="n">
+        <v>6.885</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="O82" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="P82" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q82" t="s">
         <v>449</v>
-      </c>
-      <c r="G82" t="n">
-        <v>767</v>
-      </c>
-      <c r="H82" t="n">
-        <v>201422918</v>
-      </c>
-      <c r="I82" t="n">
-        <v>3336.613</v>
-      </c>
-      <c r="J82" t="n">
-        <v>514823</v>
-      </c>
-      <c r="K82" t="n">
-        <v>8.528</v>
-      </c>
-      <c r="L82" t="n">
-        <v>469612</v>
-      </c>
-      <c r="M82" t="n">
-        <v>7.779</v>
-      </c>
-      <c r="N82"/>
-      <c r="O82"/>
-      <c r="P82" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>451</v>
       </c>
       <c r="R82" t="s">
         <v>61</v>
       </c>
       <c r="S82" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>451</v>
+      </c>
+      <c r="B83" t="s">
+        <v>452</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="D83" t="s">
         <v>453</v>
       </c>
-      <c r="B83" t="s">
+      <c r="E83" t="s">
         <v>454</v>
       </c>
-      <c r="C83" s="1" t="n">
-        <v>44648</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="F83" t="s">
         <v>455</v>
       </c>
-      <c r="E83" t="s">
-        <v>456</v>
-      </c>
-      <c r="F83"/>
       <c r="G83" t="n">
-        <v>528</v>
+        <v>767</v>
       </c>
       <c r="H83" t="n">
-        <v>922458</v>
+        <v>201422918</v>
       </c>
       <c r="I83" t="n">
-        <v>310.23</v>
+        <v>3336.613</v>
       </c>
       <c r="J83" t="n">
-        <v>2310</v>
+        <v>514823</v>
       </c>
       <c r="K83" t="n">
-        <v>0.777</v>
+        <v>8.528</v>
       </c>
       <c r="L83" t="n">
-        <v>2712</v>
+        <v>469612</v>
       </c>
       <c r="M83" t="n">
-        <v>0.912</v>
+        <v>7.779</v>
       </c>
       <c r="N83" t="n">
-        <v>0.0073</v>
+        <v>0.149</v>
       </c>
       <c r="O83" t="n">
-        <v>136.6</v>
+        <v>6.7</v>
       </c>
       <c r="P83" t="s">
         <v>456</v>
@@ -7833,7 +7981,7 @@
         <v>457</v>
       </c>
       <c r="R83" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="S83" t="s">
         <v>458</v>
@@ -7847,7 +7995,7 @@
         <v>460</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44651</v>
+        <v>44648</v>
       </c>
       <c r="D84" t="s">
         <v>461</v>
@@ -7857,31 +8005,31 @@
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>783</v>
+        <v>528</v>
       </c>
       <c r="H84" t="n">
-        <v>41703363</v>
+        <v>922458</v>
       </c>
       <c r="I84" t="n">
-        <v>330.846</v>
+        <v>310.23</v>
       </c>
       <c r="J84" t="n">
-        <v>138984</v>
+        <v>2310</v>
       </c>
       <c r="K84" t="n">
-        <v>1.103</v>
+        <v>0.777</v>
       </c>
       <c r="L84" t="n">
-        <v>119583</v>
+        <v>2712</v>
       </c>
       <c r="M84" t="n">
-        <v>0.949</v>
+        <v>0.912</v>
       </c>
       <c r="N84" t="n">
-        <v>0.3788</v>
+        <v>0.0073</v>
       </c>
       <c r="O84" t="n">
-        <v>2.6</v>
+        <v>136.6</v>
       </c>
       <c r="P84" t="s">
         <v>462</v>
@@ -7890,7 +8038,7 @@
         <v>463</v>
       </c>
       <c r="R84" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="S84" t="s">
         <v>464</v>
@@ -7904,37 +8052,41 @@
         <v>466</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44631</v>
+        <v>44651</v>
       </c>
       <c r="D85" t="s">
         <v>467</v>
       </c>
       <c r="E85" t="s">
-        <v>53</v>
+        <v>468</v>
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>331</v>
+        <v>783</v>
       </c>
       <c r="H85" t="n">
-        <v>16499905</v>
+        <v>41703363</v>
       </c>
       <c r="I85" t="n">
-        <v>1606.765</v>
-      </c>
-      <c r="J85"/>
-      <c r="K85"/>
+        <v>330.846</v>
+      </c>
+      <c r="J85" t="n">
+        <v>138984</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1.103</v>
+      </c>
       <c r="L85" t="n">
-        <v>18061</v>
+        <v>119583</v>
       </c>
       <c r="M85" t="n">
-        <v>1.759</v>
+        <v>0.949</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1301</v>
+        <v>0.3788</v>
       </c>
       <c r="O85" t="n">
-        <v>7.7</v>
+        <v>2.6</v>
       </c>
       <c r="P85" t="s">
         <v>468</v>
@@ -7943,7 +8095,7 @@
         <v>469</v>
       </c>
       <c r="R85" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="S85" t="s">
         <v>470</v>
@@ -7957,250 +8109,254 @@
         <v>472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44355</v>
+        <v>44631</v>
       </c>
       <c r="D86" t="s">
         <v>473</v>
       </c>
       <c r="E86" t="s">
-        <v>474</v>
+        <v>53</v>
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>447</v>
+        <v>331</v>
       </c>
       <c r="H86" t="n">
-        <v>11965068</v>
+        <v>16499905</v>
       </c>
       <c r="I86" t="n">
-        <v>629.908</v>
-      </c>
-      <c r="J86" t="n">
-        <v>52729</v>
-      </c>
-      <c r="K86" t="n">
-        <v>2.776</v>
-      </c>
+        <v>1606.765</v>
+      </c>
+      <c r="J86"/>
+      <c r="K86"/>
       <c r="L86" t="n">
-        <v>39955</v>
+        <v>18061</v>
       </c>
       <c r="M86" t="n">
-        <v>2.103</v>
+        <v>1.759</v>
       </c>
       <c r="N86" t="n">
-        <v>0.03</v>
+        <v>0.1301</v>
       </c>
       <c r="O86" t="n">
-        <v>33.4</v>
+        <v>7.7</v>
       </c>
       <c r="P86" t="s">
         <v>474</v>
       </c>
       <c r="Q86" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="R86" t="s">
         <v>61</v>
       </c>
       <c r="S86" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B87" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44652</v>
+        <v>44355</v>
       </c>
       <c r="D87" t="s">
-        <v>35</v>
+        <v>479</v>
       </c>
       <c r="E87" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>253</v>
+        <v>447</v>
       </c>
       <c r="H87" t="n">
-        <v>3515875</v>
+        <v>11965068</v>
       </c>
       <c r="I87" t="n">
-        <v>63.942</v>
-      </c>
-      <c r="J87"/>
-      <c r="K87"/>
+        <v>629.908</v>
+      </c>
+      <c r="J87" t="n">
+        <v>52729</v>
+      </c>
+      <c r="K87" t="n">
+        <v>2.776</v>
+      </c>
       <c r="L87" t="n">
-        <v>4127</v>
+        <v>39955</v>
       </c>
       <c r="M87" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="N87"/>
-      <c r="O87"/>
+        <v>2.103</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O87" t="n">
+        <v>33.4</v>
+      </c>
       <c r="P87" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="Q87" t="s">
-        <v>37</v>
+        <v>479</v>
       </c>
       <c r="R87" t="s">
         <v>61</v>
       </c>
       <c r="S87" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B88" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="D88" t="s">
-        <v>481</v>
+        <v>35</v>
       </c>
       <c r="E88" t="s">
-        <v>482</v>
+        <v>36</v>
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="H88" t="n">
-        <v>1799157</v>
+        <v>3515875</v>
       </c>
       <c r="I88" t="n">
-        <v>1009.563</v>
+        <v>63.942</v>
       </c>
       <c r="J88"/>
       <c r="K88"/>
       <c r="L88" t="n">
-        <v>884</v>
+        <v>4127</v>
       </c>
       <c r="M88" t="n">
-        <v>0.496</v>
+        <v>0.075</v>
       </c>
       <c r="N88" t="n">
-        <v>0.0333</v>
+        <v>0.003</v>
       </c>
       <c r="O88" t="n">
-        <v>30</v>
+        <v>335.9</v>
       </c>
       <c r="P88" t="s">
-        <v>483</v>
+        <v>36</v>
       </c>
       <c r="Q88" t="s">
+        <v>37</v>
+      </c>
+      <c r="R88" t="s">
+        <v>61</v>
+      </c>
+      <c r="S88" t="s">
         <v>484</v>
-      </c>
-      <c r="R88" t="s">
-        <v>25</v>
-      </c>
-      <c r="S88" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>485</v>
+      </c>
+      <c r="B89" t="s">
         <v>486</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" s="1" t="n">
+        <v>44651</v>
+      </c>
+      <c r="D89" t="s">
         <v>487</v>
       </c>
-      <c r="C89" s="1" t="n">
-        <v>44632</v>
-      </c>
-      <c r="D89" t="s">
-        <v>21</v>
-      </c>
       <c r="E89" t="s">
-        <v>22</v>
+        <v>488</v>
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>662</v>
+        <v>169</v>
       </c>
       <c r="H89" t="n">
-        <v>7763313</v>
+        <v>1799157</v>
       </c>
       <c r="I89" t="n">
-        <v>1793.512</v>
+        <v>1009.563</v>
       </c>
       <c r="J89"/>
       <c r="K89"/>
       <c r="L89" t="n">
-        <v>7107</v>
+        <v>884</v>
       </c>
       <c r="M89" t="n">
-        <v>1.642</v>
+        <v>0.496</v>
       </c>
       <c r="N89" t="n">
-        <v>0.0597</v>
+        <v>0.0333</v>
       </c>
       <c r="O89" t="n">
-        <v>16.7</v>
+        <v>30</v>
       </c>
       <c r="P89" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q89" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="R89" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S89" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B90" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44651</v>
+        <v>44632</v>
       </c>
       <c r="D90" t="s">
-        <v>493</v>
+        <v>21</v>
       </c>
       <c r="E90" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>254</v>
+        <v>662</v>
       </c>
       <c r="H90" t="n">
-        <v>1009770</v>
+        <v>7763313</v>
       </c>
       <c r="I90" t="n">
-        <v>136.837</v>
-      </c>
-      <c r="J90" t="n">
-        <v>5688</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.771</v>
-      </c>
+        <v>1793.512</v>
+      </c>
+      <c r="J90"/>
+      <c r="K90"/>
       <c r="L90" t="n">
-        <v>1449</v>
+        <v>7107</v>
       </c>
       <c r="M90" t="n">
-        <v>0.196</v>
-      </c>
-      <c r="N90"/>
-      <c r="O90"/>
+        <v>1.642</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.0597</v>
+      </c>
+      <c r="O90" t="n">
+        <v>16.7</v>
+      </c>
       <c r="P90" t="s">
         <v>494</v>
       </c>
@@ -8208,7 +8364,7 @@
         <v>495</v>
       </c>
       <c r="R90" t="s">
-        <v>311</v>
+        <v>61</v>
       </c>
       <c r="S90" t="s">
         <v>496</v>
@@ -8222,37 +8378,35 @@
         <v>498</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>44652</v>
+        <v>44651</v>
       </c>
       <c r="D91" t="s">
         <v>499</v>
       </c>
       <c r="E91" t="s">
-        <v>500</v>
-      </c>
-      <c r="F91" t="s">
-        <v>501</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F91"/>
       <c r="G91" t="n">
-        <v>763</v>
+        <v>254</v>
       </c>
       <c r="H91" t="n">
-        <v>7011107</v>
+        <v>1009770</v>
       </c>
       <c r="I91" t="n">
-        <v>3755.412</v>
+        <v>136.837</v>
       </c>
       <c r="J91" t="n">
-        <v>6966</v>
+        <v>5688</v>
       </c>
       <c r="K91" t="n">
-        <v>3.731</v>
+        <v>0.771</v>
       </c>
       <c r="L91" t="n">
-        <v>6542</v>
+        <v>1449</v>
       </c>
       <c r="M91" t="n">
-        <v>3.504</v>
+        <v>0.196</v>
       </c>
       <c r="N91"/>
       <c r="O91"/>
@@ -8260,10 +8414,10 @@
         <v>500</v>
       </c>
       <c r="Q91" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="R91" t="s">
-        <v>61</v>
+        <v>311</v>
       </c>
       <c r="S91" t="s">
         <v>502</v>
@@ -8277,7 +8431,7 @@
         <v>504</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44370</v>
+        <v>44652</v>
       </c>
       <c r="D92" t="s">
         <v>505</v>
@@ -8285,26 +8439,36 @@
       <c r="E92" t="s">
         <v>506</v>
       </c>
-      <c r="F92"/>
+      <c r="F92" t="s">
+        <v>507</v>
+      </c>
       <c r="G92" t="n">
-        <v>26</v>
+        <v>763</v>
       </c>
       <c r="H92" t="n">
-        <v>4731376</v>
+        <v>7011107</v>
       </c>
       <c r="I92" t="n">
-        <v>698.962</v>
-      </c>
-      <c r="J92"/>
-      <c r="K92"/>
+        <v>3755.412</v>
+      </c>
+      <c r="J92" t="n">
+        <v>6966</v>
+      </c>
+      <c r="K92" t="n">
+        <v>3.731</v>
+      </c>
       <c r="L92" t="n">
-        <v>14688</v>
+        <v>6542</v>
       </c>
       <c r="M92" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="N92"/>
-      <c r="O92"/>
+        <v>3.504</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.2994</v>
+      </c>
+      <c r="O92" t="n">
+        <v>3.3</v>
+      </c>
       <c r="P92" t="s">
         <v>506</v>
       </c>
@@ -8312,70 +8476,70 @@
         <v>505</v>
       </c>
       <c r="R92" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="S92" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B93" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>44652</v>
+        <v>44370</v>
       </c>
       <c r="D93" t="s">
-        <v>35</v>
+        <v>511</v>
       </c>
       <c r="E93" t="s">
-        <v>36</v>
+        <v>512</v>
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="H93" t="n">
-        <v>431221</v>
+        <v>4731376</v>
       </c>
       <c r="I93" t="n">
-        <v>199.726</v>
+        <v>698.962</v>
       </c>
       <c r="J93"/>
       <c r="K93"/>
       <c r="L93" t="n">
-        <v>1108</v>
+        <v>14688</v>
       </c>
       <c r="M93" t="n">
-        <v>0.513</v>
+        <v>2.17</v>
       </c>
       <c r="N93"/>
       <c r="O93"/>
       <c r="P93" t="s">
-        <v>36</v>
+        <v>512</v>
       </c>
       <c r="Q93" t="s">
-        <v>37</v>
+        <v>511</v>
       </c>
       <c r="R93" t="s">
         <v>25</v>
       </c>
       <c r="S93" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B94" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44632</v>
+        <v>44652</v>
       </c>
       <c r="D94" t="s">
         <v>35</v>
@@ -8385,20 +8549,28 @@
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H94" t="n">
-        <v>139824</v>
+        <v>431221</v>
       </c>
       <c r="I94" t="n">
-        <v>26.992</v>
+        <v>199.726</v>
       </c>
       <c r="J94"/>
       <c r="K94"/>
-      <c r="L94"/>
-      <c r="M94"/>
-      <c r="N94"/>
-      <c r="O94"/>
+      <c r="L94" t="n">
+        <v>1108</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.0039</v>
+      </c>
+      <c r="O94" t="n">
+        <v>258.5</v>
+      </c>
       <c r="P94" t="s">
         <v>36</v>
       </c>
@@ -8409,49 +8581,49 @@
         <v>25</v>
       </c>
       <c r="S94" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B95" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44651</v>
+        <v>44632</v>
       </c>
       <c r="D95" t="s">
-        <v>516</v>
+        <v>35</v>
       </c>
       <c r="E95" t="s">
-        <v>517</v>
+        <v>36</v>
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>559</v>
-      </c>
-      <c r="H95"/>
-      <c r="I95"/>
-      <c r="J95" t="n">
-        <v>582</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.084</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H95" t="n">
+        <v>139824</v>
+      </c>
+      <c r="I95" t="n">
+        <v>26.992</v>
+      </c>
+      <c r="J95"/>
+      <c r="K95"/>
       <c r="L95"/>
       <c r="M95"/>
       <c r="N95"/>
       <c r="O95"/>
       <c r="P95" t="s">
-        <v>517</v>
+        <v>36</v>
       </c>
       <c r="Q95" t="s">
-        <v>518</v>
+        <v>37</v>
       </c>
       <c r="R95" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="S95" t="s">
         <v>519</v>
@@ -8465,7 +8637,7 @@
         <v>521</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>44571</v>
+        <v>44651</v>
       </c>
       <c r="D96" t="s">
         <v>522</v>
@@ -8475,32 +8647,20 @@
       </c>
       <c r="F96"/>
       <c r="G96" t="n">
-        <v>598</v>
-      </c>
-      <c r="H96" t="n">
-        <v>90632</v>
-      </c>
-      <c r="I96" t="n">
-        <v>2369.216</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="H96"/>
+      <c r="I96"/>
       <c r="J96" t="n">
-        <v>248</v>
+        <v>582</v>
       </c>
       <c r="K96" t="n">
-        <v>6.483</v>
-      </c>
-      <c r="L96" t="n">
-        <v>220</v>
-      </c>
-      <c r="M96" t="n">
-        <v>5.751</v>
-      </c>
-      <c r="N96" t="n">
-        <v>0.344</v>
-      </c>
-      <c r="O96" t="n">
-        <v>2.9</v>
-      </c>
+        <v>0.084</v>
+      </c>
+      <c r="L96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+      <c r="O96"/>
       <c r="P96" t="s">
         <v>523</v>
       </c>
@@ -8508,7 +8668,7 @@
         <v>524</v>
       </c>
       <c r="R96" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="S96" t="s">
         <v>525</v>
@@ -8522,7 +8682,7 @@
         <v>527</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44647</v>
+        <v>44571</v>
       </c>
       <c r="D97" t="s">
         <v>528</v>
@@ -8532,164 +8692,168 @@
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>738</v>
+        <v>598</v>
       </c>
       <c r="H97" t="n">
-        <v>8433342</v>
+        <v>90632</v>
       </c>
       <c r="I97" t="n">
-        <v>3135.232</v>
+        <v>2369.216</v>
       </c>
       <c r="J97" t="n">
-        <v>3686</v>
+        <v>248</v>
       </c>
       <c r="K97" t="n">
-        <v>1.37</v>
+        <v>6.483</v>
       </c>
       <c r="L97" t="n">
-        <v>9721</v>
+        <v>220</v>
       </c>
       <c r="M97" t="n">
-        <v>3.614</v>
+        <v>5.751</v>
       </c>
       <c r="N97" t="n">
-        <v>0.401</v>
+        <v>0.344</v>
       </c>
       <c r="O97" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="P97" t="s">
         <v>529</v>
       </c>
       <c r="Q97" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="R97" t="s">
         <v>61</v>
       </c>
       <c r="S97" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B98" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>44651</v>
+        <v>44647</v>
       </c>
       <c r="D98" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E98" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>765</v>
+        <v>738</v>
       </c>
       <c r="H98" t="n">
-        <v>4165411</v>
+        <v>8433342</v>
       </c>
       <c r="I98" t="n">
-        <v>6561.624</v>
+        <v>3135.232</v>
       </c>
       <c r="J98" t="n">
-        <v>3795</v>
+        <v>3686</v>
       </c>
       <c r="K98" t="n">
-        <v>5.978</v>
+        <v>1.37</v>
       </c>
       <c r="L98" t="n">
-        <v>3333</v>
+        <v>9721</v>
       </c>
       <c r="M98" t="n">
-        <v>5.25</v>
+        <v>3.614</v>
       </c>
       <c r="N98" t="n">
-        <v>0.375</v>
+        <v>0.401</v>
       </c>
       <c r="O98" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="P98" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q98" t="s">
         <v>534</v>
-      </c>
-      <c r="Q98" t="s">
-        <v>533</v>
       </c>
       <c r="R98" t="s">
         <v>61</v>
       </c>
       <c r="S98" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B99" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44632</v>
+        <v>44651</v>
       </c>
       <c r="D99" t="s">
-        <v>35</v>
+        <v>539</v>
       </c>
       <c r="E99" t="s">
-        <v>36</v>
+        <v>540</v>
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>275</v>
+        <v>765</v>
       </c>
       <c r="H99" t="n">
-        <v>404843</v>
+        <v>4165411</v>
       </c>
       <c r="I99" t="n">
-        <v>14.241</v>
-      </c>
-      <c r="J99"/>
-      <c r="K99"/>
+        <v>6561.624</v>
+      </c>
+      <c r="J99" t="n">
+        <v>3795</v>
+      </c>
+      <c r="K99" t="n">
+        <v>5.978</v>
+      </c>
       <c r="L99" t="n">
-        <v>427</v>
+        <v>3333</v>
       </c>
       <c r="M99" t="n">
-        <v>0.015</v>
+        <v>5.25</v>
       </c>
       <c r="N99" t="n">
-        <v>0.0264</v>
+        <v>0.375</v>
       </c>
       <c r="O99" t="n">
-        <v>37.8</v>
+        <v>2.7</v>
       </c>
       <c r="P99" t="s">
-        <v>36</v>
+        <v>540</v>
       </c>
       <c r="Q99" t="s">
-        <v>37</v>
+        <v>539</v>
       </c>
       <c r="R99" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="S99" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B100" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>44652</v>
+        <v>44632</v>
       </c>
       <c r="D100" t="s">
         <v>35</v>
@@ -8699,24 +8863,28 @@
       </c>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="H100" t="n">
-        <v>562051</v>
+        <v>404843</v>
       </c>
       <c r="I100" t="n">
-        <v>28.606</v>
+        <v>14.241</v>
       </c>
       <c r="J100"/>
       <c r="K100"/>
       <c r="L100" t="n">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="M100" t="n">
-        <v>0.022</v>
-      </c>
-      <c r="N100"/>
-      <c r="O100"/>
+        <v>0.015</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.0264</v>
+      </c>
+      <c r="O100" t="n">
+        <v>37.8</v>
+      </c>
       <c r="P100" t="s">
         <v>36</v>
       </c>
@@ -8724,123 +8892,119 @@
         <v>37</v>
       </c>
       <c r="R100" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S100" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B101" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44649</v>
+        <v>44652</v>
       </c>
       <c r="D101" t="s">
-        <v>544</v>
+        <v>35</v>
       </c>
       <c r="E101" t="s">
-        <v>545</v>
-      </c>
-      <c r="F101" t="s">
-        <v>546</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F101"/>
       <c r="G101" t="n">
-        <v>796</v>
+        <v>291</v>
       </c>
       <c r="H101" t="n">
-        <v>56361721</v>
+        <v>562051</v>
       </c>
       <c r="I101" t="n">
-        <v>1719.593</v>
-      </c>
-      <c r="J101" t="n">
-        <v>129444</v>
-      </c>
-      <c r="K101" t="n">
-        <v>3.949</v>
-      </c>
+        <v>28.606</v>
+      </c>
+      <c r="J101"/>
+      <c r="K101"/>
       <c r="L101" t="n">
-        <v>132513</v>
+        <v>442</v>
       </c>
       <c r="M101" t="n">
-        <v>4.043</v>
+        <v>0.022</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1455</v>
+        <v>0.0175</v>
       </c>
       <c r="O101" t="n">
-        <v>6.9</v>
+        <v>57.3</v>
       </c>
       <c r="P101" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="Q101" t="s">
+        <v>37</v>
+      </c>
+      <c r="R101" t="s">
+        <v>61</v>
+      </c>
+      <c r="S101" t="s">
         <v>547</v>
-      </c>
-      <c r="R101" t="s">
-        <v>45</v>
-      </c>
-      <c r="S101" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>548</v>
+      </c>
+      <c r="B102" t="s">
         <v>549</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" s="1" t="n">
+        <v>44649</v>
+      </c>
+      <c r="D102" t="s">
         <v>550</v>
       </c>
-      <c r="C102" s="1" t="n">
-        <v>44634</v>
-      </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>551</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>552</v>
       </c>
-      <c r="F102"/>
       <c r="G102" t="n">
-        <v>701</v>
+        <v>796</v>
       </c>
       <c r="H102" t="n">
-        <v>2209010</v>
+        <v>56361721</v>
       </c>
       <c r="I102" t="n">
-        <v>4063.519</v>
+        <v>1719.593</v>
       </c>
       <c r="J102" t="n">
-        <v>2103</v>
+        <v>129444</v>
       </c>
       <c r="K102" t="n">
-        <v>3.869</v>
+        <v>3.949</v>
       </c>
       <c r="L102" t="n">
-        <v>1873</v>
+        <v>132513</v>
       </c>
       <c r="M102" t="n">
-        <v>3.445</v>
+        <v>4.043</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1216</v>
+        <v>0.1455</v>
       </c>
       <c r="O102" t="n">
-        <v>8.2</v>
+        <v>6.9</v>
       </c>
       <c r="P102" t="s">
-        <v>552</v>
+        <v>53</v>
       </c>
       <c r="Q102" t="s">
         <v>553</v>
       </c>
       <c r="R102" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="S102" t="s">
         <v>554</v>
@@ -8854,246 +9018,268 @@
         <v>556</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44652</v>
+        <v>44634</v>
       </c>
       <c r="D103" t="s">
-        <v>35</v>
+        <v>557</v>
       </c>
       <c r="E103" t="s">
-        <v>36</v>
+        <v>558</v>
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>5</v>
+        <v>701</v>
       </c>
       <c r="H103" t="n">
-        <v>658196</v>
+        <v>2209010</v>
       </c>
       <c r="I103" t="n">
-        <v>31.559</v>
-      </c>
-      <c r="J103"/>
-      <c r="K103"/>
+        <v>4063.519</v>
+      </c>
+      <c r="J103" t="n">
+        <v>2103</v>
+      </c>
+      <c r="K103" t="n">
+        <v>3.869</v>
+      </c>
       <c r="L103" t="n">
-        <v>972</v>
+        <v>1873</v>
       </c>
       <c r="M103" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="N103"/>
-      <c r="O103"/>
+        <v>3.445</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.1216</v>
+      </c>
+      <c r="O103" t="n">
+        <v>8.2</v>
+      </c>
       <c r="P103" t="s">
-        <v>36</v>
+        <v>558</v>
       </c>
       <c r="Q103" t="s">
-        <v>37</v>
+        <v>559</v>
       </c>
       <c r="R103" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="S103" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B104" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C104" s="1" t="n">
         <v>44652</v>
       </c>
       <c r="D104" t="s">
-        <v>560</v>
+        <v>35</v>
       </c>
       <c r="E104" t="s">
-        <v>561</v>
+        <v>36</v>
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>621</v>
+        <v>5</v>
       </c>
       <c r="H104" t="n">
-        <v>1807898</v>
+        <v>658196</v>
       </c>
       <c r="I104" t="n">
-        <v>3502.999</v>
-      </c>
-      <c r="J104" t="n">
-        <v>3121</v>
-      </c>
-      <c r="K104" t="n">
-        <v>6.047</v>
-      </c>
+        <v>31.559</v>
+      </c>
+      <c r="J104"/>
+      <c r="K104"/>
       <c r="L104" t="n">
-        <v>2844</v>
+        <v>972</v>
       </c>
       <c r="M104" t="n">
-        <v>5.511</v>
-      </c>
-      <c r="N104"/>
-      <c r="O104"/>
+        <v>0.047</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.0031</v>
+      </c>
+      <c r="O104" t="n">
+        <v>324</v>
+      </c>
       <c r="P104" t="s">
-        <v>562</v>
+        <v>36</v>
       </c>
       <c r="Q104" t="s">
+        <v>37</v>
+      </c>
+      <c r="R104" t="s">
+        <v>25</v>
+      </c>
+      <c r="S104" t="s">
         <v>563</v>
-      </c>
-      <c r="R104" t="s">
-        <v>61</v>
-      </c>
-      <c r="S104" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>564</v>
+      </c>
+      <c r="B105" t="s">
         <v>565</v>
-      </c>
-      <c r="B105" t="s">
-        <v>566</v>
       </c>
       <c r="C105" s="1" t="n">
         <v>44652</v>
       </c>
       <c r="D105" t="s">
-        <v>35</v>
+        <v>566</v>
       </c>
       <c r="E105" t="s">
-        <v>36</v>
+        <v>567</v>
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>157</v>
+        <v>621</v>
       </c>
       <c r="H105" t="n">
-        <v>917329</v>
+        <v>1807898</v>
       </c>
       <c r="I105" t="n">
-        <v>192.106</v>
-      </c>
-      <c r="J105"/>
-      <c r="K105"/>
+        <v>3502.999</v>
+      </c>
+      <c r="J105" t="n">
+        <v>3121</v>
+      </c>
+      <c r="K105" t="n">
+        <v>6.047</v>
+      </c>
       <c r="L105" t="n">
-        <v>47</v>
+        <v>2844</v>
       </c>
       <c r="M105" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="N105"/>
-      <c r="O105"/>
+        <v>5.511</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.1929</v>
+      </c>
+      <c r="O105" t="n">
+        <v>5.2</v>
+      </c>
       <c r="P105" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="Q105" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="R105" t="s">
         <v>61</v>
       </c>
       <c r="S105" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B106" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44627</v>
+        <v>44343</v>
       </c>
       <c r="D106" t="s">
-        <v>35</v>
+        <v>369</v>
       </c>
       <c r="E106" t="s">
-        <v>36</v>
+        <v>370</v>
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="H106" t="n">
-        <v>359627</v>
+        <v>1639</v>
       </c>
       <c r="I106" t="n">
-        <v>282.409</v>
-      </c>
-      <c r="J106"/>
-      <c r="K106"/>
-      <c r="L106"/>
-      <c r="M106"/>
-      <c r="N106"/>
+        <v>27.492</v>
+      </c>
+      <c r="J106" t="n">
+        <v>196</v>
+      </c>
+      <c r="K106" t="n">
+        <v>3.288</v>
+      </c>
+      <c r="L106" t="n">
+        <v>7</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
       <c r="O106"/>
       <c r="P106" t="s">
-        <v>36</v>
+        <v>370</v>
       </c>
       <c r="Q106" t="s">
-        <v>37</v>
+        <v>369</v>
       </c>
       <c r="R106" t="s">
-        <v>25</v>
+        <v>371</v>
       </c>
       <c r="S106" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B107" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44650</v>
+        <v>44652</v>
       </c>
       <c r="D107" t="s">
-        <v>575</v>
+        <v>35</v>
       </c>
       <c r="E107" t="s">
-        <v>576</v>
+        <v>36</v>
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>820</v>
+        <v>157</v>
       </c>
       <c r="H107" t="n">
-        <v>14886876</v>
+        <v>917329</v>
       </c>
       <c r="I107" t="n">
-        <v>114.284</v>
-      </c>
-      <c r="J107" t="n">
-        <v>3346</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.026</v>
-      </c>
+        <v>192.106</v>
+      </c>
+      <c r="J107"/>
+      <c r="K107"/>
       <c r="L107" t="n">
-        <v>5712</v>
+        <v>47</v>
       </c>
       <c r="M107" t="n">
-        <v>0.044</v>
+        <v>0.01</v>
       </c>
       <c r="N107" t="n">
-        <v>0.131</v>
+        <v>0.0152</v>
       </c>
       <c r="O107" t="n">
-        <v>7.6</v>
+        <v>65.8</v>
       </c>
       <c r="P107" t="s">
+        <v>576</v>
+      </c>
+      <c r="Q107" t="s">
         <v>577</v>
       </c>
-      <c r="Q107" t="s">
-        <v>575</v>
-      </c>
       <c r="R107" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="S107" t="s">
         <v>578</v>
@@ -9107,189 +9293,193 @@
         <v>580</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44651</v>
+        <v>44627</v>
       </c>
       <c r="D108" t="s">
-        <v>581</v>
+        <v>35</v>
       </c>
       <c r="E108" t="s">
-        <v>582</v>
+        <v>36</v>
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>488</v>
-      </c>
-      <c r="H108"/>
-      <c r="I108"/>
-      <c r="J108" t="n">
-        <v>4264</v>
-      </c>
-      <c r="K108" t="n">
-        <v>1.06</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H108" t="n">
+        <v>359627</v>
+      </c>
+      <c r="I108" t="n">
+        <v>282.409</v>
+      </c>
+      <c r="J108"/>
+      <c r="K108"/>
       <c r="L108"/>
       <c r="M108"/>
       <c r="N108"/>
       <c r="O108"/>
       <c r="P108" t="s">
-        <v>583</v>
+        <v>36</v>
       </c>
       <c r="Q108" t="s">
-        <v>584</v>
+        <v>37</v>
       </c>
       <c r="R108" t="s">
         <v>25</v>
       </c>
       <c r="S108" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B109" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="D109" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E109" t="s">
-        <v>53</v>
+        <v>585</v>
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>353</v>
+        <v>820</v>
       </c>
       <c r="H109" t="n">
-        <v>7306957</v>
+        <v>14886876</v>
       </c>
       <c r="I109" t="n">
-        <v>2194.755</v>
+        <v>114.284</v>
       </c>
       <c r="J109" t="n">
-        <v>4118</v>
+        <v>3346</v>
       </c>
       <c r="K109" t="n">
-        <v>1.237</v>
+        <v>0.026</v>
       </c>
       <c r="L109" t="n">
-        <v>3468</v>
+        <v>5712</v>
       </c>
       <c r="M109" t="n">
-        <v>1.042</v>
-      </c>
-      <c r="N109"/>
-      <c r="O109"/>
+        <v>0.044</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="O109" t="n">
+        <v>7.6</v>
+      </c>
       <c r="P109" t="s">
-        <v>53</v>
+        <v>586</v>
       </c>
       <c r="Q109" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="R109" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="S109" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
+        <v>588</v>
+      </c>
+      <c r="B110" t="s">
+        <v>589</v>
+      </c>
+      <c r="C110" s="1" t="n">
+        <v>44651</v>
+      </c>
+      <c r="D110" t="s">
+        <v>590</v>
+      </c>
+      <c r="E110" t="s">
         <v>591</v>
-      </c>
-      <c r="B110" t="s">
-        <v>592</v>
-      </c>
-      <c r="C110" s="1" t="n">
-        <v>44652</v>
-      </c>
-      <c r="D110" t="s">
-        <v>593</v>
-      </c>
-      <c r="E110" t="s">
-        <v>53</v>
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>734</v>
-      </c>
-      <c r="H110" t="n">
-        <v>11289112</v>
-      </c>
-      <c r="I110" t="n">
-        <v>302.294</v>
-      </c>
-      <c r="J110"/>
-      <c r="K110"/>
-      <c r="L110" t="n">
-        <v>6611</v>
-      </c>
-      <c r="M110" t="n">
-        <v>0.177</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110" t="n">
+        <v>4264</v>
+      </c>
+      <c r="K110" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="L110"/>
+      <c r="M110"/>
       <c r="N110"/>
       <c r="O110"/>
       <c r="P110" t="s">
+        <v>592</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>593</v>
+      </c>
+      <c r="R110" t="s">
+        <v>25</v>
+      </c>
+      <c r="S110" t="s">
         <v>594</v>
-      </c>
-      <c r="Q110" t="s">
-        <v>595</v>
-      </c>
-      <c r="R110" t="s">
-        <v>45</v>
-      </c>
-      <c r="S110" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>595</v>
+      </c>
+      <c r="B111" t="s">
+        <v>596</v>
+      </c>
+      <c r="C111" s="1" t="n">
+        <v>44649</v>
+      </c>
+      <c r="D111" t="s">
         <v>597</v>
       </c>
-      <c r="B111" t="s">
-        <v>598</v>
-      </c>
-      <c r="C111" s="1" t="n">
-        <v>44652</v>
-      </c>
-      <c r="D111" t="s">
-        <v>35</v>
-      </c>
       <c r="E111" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>596</v>
+        <v>353</v>
       </c>
       <c r="H111" t="n">
-        <v>1296402</v>
+        <v>7306957</v>
       </c>
       <c r="I111" t="n">
-        <v>40.307</v>
-      </c>
-      <c r="J111"/>
-      <c r="K111"/>
+        <v>2194.755</v>
+      </c>
+      <c r="J111" t="n">
+        <v>4118</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1.237</v>
+      </c>
       <c r="L111" t="n">
-        <v>681</v>
+        <v>3468</v>
       </c>
       <c r="M111" t="n">
-        <v>0.021</v>
+        <v>1.042</v>
       </c>
       <c r="N111"/>
       <c r="O111"/>
       <c r="P111" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="Q111" t="s">
-        <v>37</v>
+        <v>598</v>
       </c>
       <c r="R111" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="S111" t="s">
         <v>599</v>
@@ -9313,24 +9503,28 @@
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>520</v>
+        <v>734</v>
       </c>
       <c r="H112" t="n">
-        <v>7669100</v>
+        <v>11289112</v>
       </c>
       <c r="I112" t="n">
-        <v>139.932</v>
+        <v>302.294</v>
       </c>
       <c r="J112"/>
       <c r="K112"/>
       <c r="L112" t="n">
-        <v>12914</v>
+        <v>6611</v>
       </c>
       <c r="M112" t="n">
-        <v>0.236</v>
-      </c>
-      <c r="N112"/>
-      <c r="O112"/>
+        <v>0.177</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.0112</v>
+      </c>
+      <c r="O112" t="n">
+        <v>89.3</v>
+      </c>
       <c r="P112" t="s">
         <v>603</v>
       </c>
@@ -9338,7 +9532,7 @@
         <v>604</v>
       </c>
       <c r="R112" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="S112" t="s">
         <v>605</v>
@@ -9362,240 +9556,252 @@
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>628</v>
+        <v>596</v>
       </c>
       <c r="H113" t="n">
-        <v>983850</v>
+        <v>1296402</v>
       </c>
       <c r="I113" t="n">
-        <v>380.255</v>
+        <v>40.307</v>
       </c>
       <c r="J113"/>
       <c r="K113"/>
       <c r="L113" t="n">
-        <v>893</v>
+        <v>681</v>
       </c>
       <c r="M113" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="N113"/>
-      <c r="O113"/>
+        <v>0.021</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.0063</v>
+      </c>
+      <c r="O113" t="n">
+        <v>158.9</v>
+      </c>
       <c r="P113" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>37</v>
+      </c>
+      <c r="R113" t="s">
+        <v>25</v>
+      </c>
+      <c r="S113" t="s">
         <v>608</v>
-      </c>
-      <c r="Q113" t="s">
-        <v>609</v>
-      </c>
-      <c r="R113" t="s">
-        <v>136</v>
-      </c>
-      <c r="S113" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B114" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C114" s="1" t="n">
         <v>44652</v>
       </c>
       <c r="D114" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E114" t="s">
-        <v>614</v>
+        <v>53</v>
       </c>
       <c r="F114"/>
       <c r="G114" t="n">
-        <v>746</v>
+        <v>520</v>
       </c>
       <c r="H114" t="n">
-        <v>6677138</v>
+        <v>7669100</v>
       </c>
       <c r="I114" t="n">
-        <v>225.009</v>
+        <v>139.932</v>
       </c>
       <c r="J114"/>
       <c r="K114"/>
       <c r="L114" t="n">
-        <v>4805</v>
+        <v>12914</v>
       </c>
       <c r="M114" t="n">
-        <v>0.162</v>
+        <v>0.236</v>
       </c>
       <c r="N114" t="n">
-        <v>0.009</v>
+        <v>0.0131</v>
       </c>
       <c r="O114" t="n">
-        <v>111.1</v>
+        <v>76.5</v>
       </c>
       <c r="P114" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>613</v>
+      </c>
+      <c r="R114" t="s">
+        <v>136</v>
+      </c>
+      <c r="S114" t="s">
         <v>614</v>
-      </c>
-      <c r="Q114" t="s">
-        <v>615</v>
-      </c>
-      <c r="R114" t="s">
-        <v>61</v>
-      </c>
-      <c r="S114" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B115" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>44650</v>
+        <v>44652</v>
       </c>
       <c r="D115" t="s">
-        <v>619</v>
+        <v>35</v>
       </c>
       <c r="E115" t="s">
-        <v>620</v>
+        <v>36</v>
       </c>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>668</v>
+        <v>628</v>
       </c>
       <c r="H115" t="n">
-        <v>30283503</v>
+        <v>983850</v>
       </c>
       <c r="I115" t="n">
-        <v>1763.427</v>
-      </c>
-      <c r="J115" t="n">
-        <v>39001</v>
-      </c>
-      <c r="K115" t="n">
-        <v>2.271</v>
-      </c>
+        <v>380.255</v>
+      </c>
+      <c r="J115"/>
+      <c r="K115"/>
       <c r="L115" t="n">
-        <v>40275</v>
+        <v>893</v>
       </c>
       <c r="M115" t="n">
-        <v>2.345</v>
+        <v>0.345</v>
       </c>
       <c r="N115" t="n">
-        <v>0.634</v>
+        <v>0.0112</v>
       </c>
       <c r="O115" t="n">
-        <v>1.6</v>
+        <v>89.3</v>
       </c>
       <c r="P115" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="Q115" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="R115" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="S115" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B116" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C116" s="1" t="n">
         <v>44652</v>
       </c>
       <c r="D116" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E116" t="s">
-        <v>53</v>
+        <v>623</v>
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>611</v>
+        <v>746</v>
       </c>
       <c r="H116" t="n">
-        <v>6922367</v>
+        <v>6677138</v>
       </c>
       <c r="I116" t="n">
-        <v>1350.363</v>
+        <v>225.009</v>
       </c>
       <c r="J116"/>
       <c r="K116"/>
       <c r="L116" t="n">
-        <v>2769</v>
+        <v>4805</v>
       </c>
       <c r="M116" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="N116"/>
-      <c r="O116"/>
+        <v>0.162</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="O116" t="n">
+        <v>111.1</v>
+      </c>
       <c r="P116" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="Q116" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="R116" t="s">
         <v>61</v>
       </c>
       <c r="S116" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>626</v>
+      </c>
+      <c r="B117" t="s">
+        <v>627</v>
+      </c>
+      <c r="C117" s="1" t="n">
+        <v>44650</v>
+      </c>
+      <c r="D117" t="s">
+        <v>628</v>
+      </c>
+      <c r="E117" t="s">
         <v>629</v>
-      </c>
-      <c r="B117" t="s">
-        <v>630</v>
-      </c>
-      <c r="C117" s="1" t="n">
-        <v>44652</v>
-      </c>
-      <c r="D117" t="s">
-        <v>35</v>
-      </c>
-      <c r="E117" t="s">
-        <v>36</v>
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>18</v>
+        <v>668</v>
       </c>
       <c r="H117" t="n">
-        <v>240394</v>
+        <v>30283503</v>
       </c>
       <c r="I117" t="n">
-        <v>9.566</v>
-      </c>
-      <c r="J117"/>
-      <c r="K117"/>
+        <v>1763.427</v>
+      </c>
+      <c r="J117" t="n">
+        <v>39001</v>
+      </c>
+      <c r="K117" t="n">
+        <v>2.271</v>
+      </c>
       <c r="L117" t="n">
-        <v>241</v>
+        <v>40275</v>
       </c>
       <c r="M117" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="N117"/>
-      <c r="O117"/>
+        <v>2.345</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="O117" t="n">
+        <v>1.6</v>
+      </c>
       <c r="P117" t="s">
-        <v>36</v>
+        <v>629</v>
       </c>
       <c r="Q117" t="s">
-        <v>37</v>
+        <v>630</v>
       </c>
       <c r="R117" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="S117" t="s">
         <v>631</v>
@@ -9612,243 +9818,255 @@
         <v>44652</v>
       </c>
       <c r="D118" t="s">
-        <v>35</v>
+        <v>634</v>
       </c>
       <c r="E118" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>276</v>
+        <v>611</v>
       </c>
       <c r="H118" t="n">
-        <v>4841764</v>
+        <v>6922367</v>
       </c>
       <c r="I118" t="n">
-        <v>22.903</v>
+        <v>1350.363</v>
       </c>
       <c r="J118"/>
       <c r="K118"/>
       <c r="L118" t="n">
-        <v>14458</v>
+        <v>2769</v>
       </c>
       <c r="M118" t="n">
-        <v>0.068</v>
+        <v>0.54</v>
       </c>
       <c r="N118"/>
       <c r="O118"/>
       <c r="P118" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="Q118" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="R118" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="S118" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B119" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C119" s="1" t="n">
         <v>44652</v>
       </c>
       <c r="D119" t="s">
-        <v>639</v>
+        <v>35</v>
       </c>
       <c r="E119" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>464</v>
+        <v>18</v>
       </c>
       <c r="H119" t="n">
-        <v>1964475</v>
+        <v>240394</v>
       </c>
       <c r="I119" t="n">
-        <v>943.252</v>
+        <v>9.566</v>
       </c>
       <c r="J119"/>
       <c r="K119"/>
       <c r="L119" t="n">
-        <v>2253</v>
+        <v>241</v>
       </c>
       <c r="M119" t="n">
-        <v>1.082</v>
-      </c>
-      <c r="N119"/>
-      <c r="O119"/>
+        <v>0.01</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="O119" t="n">
+        <v>842.7</v>
+      </c>
       <c r="P119" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="Q119" t="s">
+        <v>37</v>
+      </c>
+      <c r="R119" t="s">
+        <v>25</v>
+      </c>
+      <c r="S119" t="s">
         <v>640</v>
-      </c>
-      <c r="R119" t="s">
-        <v>61</v>
-      </c>
-      <c r="S119" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>641</v>
+      </c>
+      <c r="B120" t="s">
         <v>642</v>
       </c>
-      <c r="B120" t="s">
-        <v>643</v>
-      </c>
       <c r="C120" s="1" t="n">
-        <v>44650</v>
+        <v>44652</v>
       </c>
       <c r="D120" t="s">
-        <v>644</v>
+        <v>35</v>
       </c>
       <c r="E120" t="s">
-        <v>645</v>
+        <v>36</v>
       </c>
       <c r="F120"/>
       <c r="G120" t="n">
-        <v>728</v>
+        <v>276</v>
       </c>
       <c r="H120" t="n">
-        <v>11009085</v>
+        <v>4841764</v>
       </c>
       <c r="I120" t="n">
-        <v>2014.239</v>
-      </c>
-      <c r="J120" t="n">
-        <v>4606</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.843</v>
-      </c>
+        <v>22.903</v>
+      </c>
+      <c r="J120"/>
+      <c r="K120"/>
       <c r="L120" t="n">
-        <v>4329</v>
+        <v>14458</v>
       </c>
       <c r="M120" t="n">
-        <v>0.792</v>
+        <v>0.068</v>
       </c>
       <c r="N120" t="n">
-        <v>0.389</v>
+        <v>0.0022</v>
       </c>
       <c r="O120" t="n">
-        <v>2.6</v>
+        <v>451.8</v>
       </c>
       <c r="P120" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="Q120" t="s">
         <v>644</v>
       </c>
       <c r="R120" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="S120" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>646</v>
+      </c>
+      <c r="B121" t="s">
         <v>647</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="D121" t="s">
         <v>648</v>
       </c>
-      <c r="C121" s="1" t="n">
-        <v>44632</v>
-      </c>
-      <c r="D121" t="s">
-        <v>21</v>
-      </c>
       <c r="E121" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>2</v>
+        <v>464</v>
       </c>
       <c r="H121" t="n">
-        <v>1986264</v>
+        <v>1964475</v>
       </c>
       <c r="I121" t="n">
-        <v>380.264</v>
+        <v>943.252</v>
       </c>
       <c r="J121"/>
       <c r="K121"/>
       <c r="L121" t="n">
-        <v>0</v>
+        <v>2253</v>
       </c>
       <c r="M121" t="n">
-        <v>0</v>
-      </c>
-      <c r="N121"/>
-      <c r="O121"/>
+        <v>1.082</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="O121" t="n">
+        <v>10.3</v>
+      </c>
       <c r="P121" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="Q121" t="s">
-        <v>24</v>
+        <v>649</v>
       </c>
       <c r="R121" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="S121" t="s">
-        <v>26</v>
+        <v>650</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B122" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44652</v>
+        <v>44534</v>
       </c>
       <c r="D122" t="s">
-        <v>651</v>
+        <v>369</v>
       </c>
       <c r="E122" t="s">
-        <v>652</v>
+        <v>370</v>
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>660</v>
+        <v>603</v>
       </c>
       <c r="H122" t="n">
-        <v>27501885</v>
+        <v>59109</v>
       </c>
       <c r="I122" t="n">
-        <v>122.122</v>
-      </c>
-      <c r="J122"/>
-      <c r="K122"/>
+        <v>1020.705</v>
+      </c>
+      <c r="J122" t="n">
+        <v>7</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.121</v>
+      </c>
       <c r="L122" t="n">
-        <v>29145</v>
+        <v>23</v>
       </c>
       <c r="M122" t="n">
-        <v>0.129</v>
-      </c>
-      <c r="N122"/>
-      <c r="O122"/>
+        <v>0.397</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.701</v>
+      </c>
+      <c r="O122" t="n">
+        <v>1.4</v>
+      </c>
       <c r="P122" t="s">
-        <v>652</v>
+        <v>370</v>
       </c>
       <c r="Q122" t="s">
-        <v>651</v>
+        <v>369</v>
       </c>
       <c r="R122" t="s">
-        <v>61</v>
+        <v>371</v>
       </c>
       <c r="S122" t="s">
         <v>653</v>
@@ -9862,1397 +10080,1413 @@
         <v>655</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>44647</v>
+        <v>44650</v>
       </c>
       <c r="D123" t="s">
         <v>656</v>
       </c>
       <c r="E123" t="s">
-        <v>53</v>
+        <v>657</v>
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
-        <v>554</v>
-      </c>
-      <c r="H123"/>
-      <c r="I123"/>
+        <v>728</v>
+      </c>
+      <c r="H123" t="n">
+        <v>11009085</v>
+      </c>
+      <c r="I123" t="n">
+        <v>2014.239</v>
+      </c>
       <c r="J123" t="n">
-        <v>3815</v>
+        <v>4606</v>
       </c>
       <c r="K123" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="L123"/>
-      <c r="M123"/>
-      <c r="N123"/>
-      <c r="O123"/>
+        <v>0.843</v>
+      </c>
+      <c r="L123" t="n">
+        <v>4329</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0.792</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.389</v>
+      </c>
+      <c r="O123" t="n">
+        <v>2.6</v>
+      </c>
       <c r="P123" t="s">
         <v>657</v>
       </c>
       <c r="Q123" t="s">
+        <v>656</v>
+      </c>
+      <c r="R123" t="s">
+        <v>45</v>
+      </c>
+      <c r="S123" t="s">
         <v>658</v>
-      </c>
-      <c r="R123" t="s">
-        <v>61</v>
-      </c>
-      <c r="S123" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>659</v>
+      </c>
+      <c r="B124" t="s">
         <v>660</v>
       </c>
-      <c r="B124" t="s">
-        <v>661</v>
-      </c>
       <c r="C124" s="1" t="n">
-        <v>44649</v>
+        <v>44632</v>
       </c>
       <c r="D124" t="s">
-        <v>662</v>
+        <v>21</v>
       </c>
       <c r="E124" t="s">
-        <v>663</v>
+        <v>22</v>
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>733</v>
+        <v>2</v>
       </c>
       <c r="H124" t="n">
-        <v>5686445</v>
+        <v>1986264</v>
       </c>
       <c r="I124" t="n">
-        <v>1297.806</v>
-      </c>
-      <c r="J124" t="n">
-        <v>7696</v>
-      </c>
-      <c r="K124" t="n">
-        <v>1.756</v>
-      </c>
+        <v>380.264</v>
+      </c>
+      <c r="J124"/>
+      <c r="K124"/>
       <c r="L124" t="n">
-        <v>6322</v>
+        <v>0</v>
       </c>
       <c r="M124" t="n">
-        <v>1.443</v>
-      </c>
-      <c r="N124" t="n">
-        <v>0.0435</v>
-      </c>
-      <c r="O124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124"/>
+      <c r="O124"/>
+      <c r="P124" t="s">
         <v>23</v>
       </c>
-      <c r="P124" t="s">
-        <v>663</v>
-      </c>
       <c r="Q124" t="s">
-        <v>664</v>
+        <v>24</v>
       </c>
       <c r="R124" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S124" t="s">
-        <v>665</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="B125" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44609</v>
+        <v>44652</v>
       </c>
       <c r="D125" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="E125" t="s">
-        <v>53</v>
+        <v>664</v>
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>660</v>
       </c>
       <c r="H125" t="n">
-        <v>249149</v>
+        <v>27501885</v>
       </c>
       <c r="I125" t="n">
-        <v>27.322</v>
+        <v>122.122</v>
       </c>
       <c r="J125"/>
       <c r="K125"/>
-      <c r="L125"/>
-      <c r="M125"/>
-      <c r="N125"/>
-      <c r="O125"/>
+      <c r="L125" t="n">
+        <v>29145</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.0078</v>
+      </c>
+      <c r="O125" t="n">
+        <v>128.2</v>
+      </c>
       <c r="P125" t="s">
-        <v>396</v>
+        <v>664</v>
       </c>
       <c r="Q125" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="R125" t="s">
-        <v>311</v>
+        <v>61</v>
       </c>
       <c r="S125" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B126" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C126" s="1" t="n">
         <v>44647</v>
       </c>
       <c r="D126" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E126" t="s">
-        <v>673</v>
+        <v>53</v>
       </c>
       <c r="F126"/>
       <c r="G126" t="n">
-        <v>744</v>
-      </c>
-      <c r="H126" t="n">
-        <v>2609819</v>
-      </c>
-      <c r="I126" t="n">
-        <v>361.489</v>
-      </c>
-      <c r="J126"/>
-      <c r="K126"/>
-      <c r="L126" t="n">
-        <v>1763</v>
-      </c>
-      <c r="M126" t="n">
-        <v>0.244</v>
-      </c>
-      <c r="N126" t="n">
-        <v>0.0654</v>
-      </c>
-      <c r="O126" t="n">
-        <v>15.3</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="H126"/>
+      <c r="I126"/>
+      <c r="J126" t="n">
+        <v>3815</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="L126"/>
+      <c r="M126"/>
+      <c r="N126"/>
+      <c r="O126"/>
       <c r="P126" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Q126" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="R126" t="s">
         <v>61</v>
       </c>
       <c r="S126" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B127" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44651</v>
+        <v>44649</v>
       </c>
       <c r="D127" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="E127" t="s">
-        <v>214</v>
-      </c>
-      <c r="F127" t="s">
-        <v>680</v>
-      </c>
+        <v>675</v>
+      </c>
+      <c r="F127"/>
       <c r="G127" t="n">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="H127" t="n">
-        <v>28736342</v>
+        <v>5686445</v>
       </c>
       <c r="I127" t="n">
-        <v>861.416</v>
-      </c>
-      <c r="J127"/>
-      <c r="K127"/>
+        <v>1297.806</v>
+      </c>
+      <c r="J127" t="n">
+        <v>7696</v>
+      </c>
+      <c r="K127" t="n">
+        <v>1.756</v>
+      </c>
       <c r="L127" t="n">
-        <v>48159</v>
+        <v>6322</v>
       </c>
       <c r="M127" t="n">
-        <v>1.444</v>
+        <v>1.443</v>
       </c>
       <c r="N127" t="n">
-        <v>0.01</v>
+        <v>0.0435</v>
       </c>
       <c r="O127" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="P127" t="s">
-        <v>214</v>
+        <v>675</v>
       </c>
       <c r="Q127" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="R127" t="s">
         <v>61</v>
       </c>
       <c r="S127" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B128" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44638</v>
+        <v>44609</v>
       </c>
       <c r="D128" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="E128" t="s">
-        <v>686</v>
+        <v>53</v>
       </c>
       <c r="F128"/>
       <c r="G128" t="n">
-        <v>715</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>26992200</v>
+        <v>249149</v>
       </c>
       <c r="I128" t="n">
-        <v>243.07</v>
-      </c>
-      <c r="J128" t="n">
-        <v>21848</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.197</v>
-      </c>
-      <c r="L128" t="n">
-        <v>21846</v>
-      </c>
-      <c r="M128" t="n">
-        <v>0.197</v>
-      </c>
-      <c r="N128" t="n">
-        <v>0.0241</v>
-      </c>
-      <c r="O128" t="n">
-        <v>41.6</v>
-      </c>
+        <v>27.322</v>
+      </c>
+      <c r="J128"/>
+      <c r="K128"/>
+      <c r="L128"/>
+      <c r="M128"/>
+      <c r="N128"/>
+      <c r="O128"/>
       <c r="P128" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="Q128" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="R128" t="s">
-        <v>45</v>
+        <v>311</v>
       </c>
       <c r="S128" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="B129" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>44644</v>
+        <v>44647</v>
       </c>
       <c r="D129" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="E129" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="F129"/>
       <c r="G129" t="n">
-        <v>107</v>
+        <v>744</v>
       </c>
       <c r="H129" t="n">
-        <v>35991767</v>
+        <v>2609819</v>
       </c>
       <c r="I129" t="n">
-        <v>952.239</v>
+        <v>361.489</v>
       </c>
       <c r="J129"/>
       <c r="K129"/>
       <c r="L129" t="n">
-        <v>58305</v>
+        <v>1763</v>
       </c>
       <c r="M129" t="n">
-        <v>1.543</v>
+        <v>0.244</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1506</v>
+        <v>0.0654</v>
       </c>
       <c r="O129" t="n">
-        <v>6.6</v>
+        <v>15.3</v>
       </c>
       <c r="P129" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="Q129" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="R129" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="S129" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="B130" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="C130" s="1" t="n">
         <v>44651</v>
       </c>
       <c r="D130" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="E130" t="s">
-        <v>53</v>
-      </c>
-      <c r="F130"/>
+        <v>214</v>
+      </c>
+      <c r="F130" t="s">
+        <v>692</v>
+      </c>
       <c r="G130" t="n">
-        <v>761</v>
+        <v>721</v>
       </c>
       <c r="H130" t="n">
-        <v>40088192</v>
+        <v>28736342</v>
       </c>
       <c r="I130" t="n">
-        <v>3942.614</v>
-      </c>
-      <c r="J130" t="n">
-        <v>61424</v>
-      </c>
-      <c r="K130" t="n">
-        <v>6.041</v>
-      </c>
+        <v>861.416</v>
+      </c>
+      <c r="J130"/>
+      <c r="K130"/>
       <c r="L130" t="n">
-        <v>50574</v>
+        <v>48159</v>
       </c>
       <c r="M130" t="n">
-        <v>4.974</v>
+        <v>1.444</v>
       </c>
       <c r="N130" t="n">
-        <v>0.3674</v>
+        <v>0.01</v>
       </c>
       <c r="O130" t="n">
-        <v>2.7</v>
+        <v>100</v>
       </c>
       <c r="P130" t="s">
-        <v>698</v>
+        <v>214</v>
       </c>
       <c r="Q130" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="R130" t="s">
         <v>61</v>
       </c>
       <c r="S130" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="B131" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>44649</v>
+        <v>44638</v>
       </c>
       <c r="D131" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="E131" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="F131"/>
       <c r="G131" t="n">
-        <v>758</v>
+        <v>715</v>
       </c>
       <c r="H131" t="n">
-        <v>2628644</v>
+        <v>26992200</v>
       </c>
       <c r="I131" t="n">
-        <v>929.426</v>
+        <v>243.07</v>
       </c>
       <c r="J131" t="n">
-        <v>1795</v>
+        <v>21848</v>
       </c>
       <c r="K131" t="n">
-        <v>0.635</v>
+        <v>0.197</v>
       </c>
       <c r="L131" t="n">
-        <v>1964</v>
+        <v>21846</v>
       </c>
       <c r="M131" t="n">
-        <v>0.694</v>
-      </c>
-      <c r="N131"/>
-      <c r="O131"/>
+        <v>0.197</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0.0241</v>
+      </c>
+      <c r="O131" t="n">
+        <v>41.6</v>
+      </c>
       <c r="P131" t="s">
-        <v>703</v>
+        <v>402</v>
       </c>
       <c r="Q131" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="R131" t="s">
-        <v>704</v>
+        <v>45</v>
       </c>
       <c r="S131" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="B132" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>44651</v>
+        <v>44644</v>
       </c>
       <c r="D132" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="E132" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>285</v>
+        <v>107</v>
       </c>
       <c r="H132" t="n">
-        <v>6407170</v>
+        <v>35991767</v>
       </c>
       <c r="I132" t="n">
-        <v>2186.356</v>
-      </c>
-      <c r="J132" t="n">
-        <v>18542</v>
-      </c>
-      <c r="K132" t="n">
-        <v>6.327</v>
-      </c>
+        <v>952.239</v>
+      </c>
+      <c r="J132"/>
+      <c r="K132"/>
       <c r="L132" t="n">
-        <v>18486</v>
+        <v>58305</v>
       </c>
       <c r="M132" t="n">
-        <v>6.308</v>
-      </c>
-      <c r="N132"/>
-      <c r="O132"/>
+        <v>1.543</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0.1506</v>
+      </c>
+      <c r="O132" t="n">
+        <v>6.6</v>
+      </c>
       <c r="P132" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="Q132" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="R132" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="S132" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="B133" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>44630</v>
+        <v>44651</v>
       </c>
       <c r="D133" t="s">
-        <v>691</v>
+        <v>709</v>
       </c>
       <c r="E133" t="s">
-        <v>692</v>
+        <v>53</v>
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>104</v>
+        <v>761</v>
       </c>
       <c r="H133" t="n">
-        <v>21260367</v>
+        <v>40088192</v>
       </c>
       <c r="I133" t="n">
-        <v>1111.492</v>
-      </c>
-      <c r="J133"/>
-      <c r="K133"/>
+        <v>3942.614</v>
+      </c>
+      <c r="J133" t="n">
+        <v>61424</v>
+      </c>
+      <c r="K133" t="n">
+        <v>6.041</v>
+      </c>
       <c r="L133" t="n">
-        <v>75700</v>
+        <v>50574</v>
       </c>
       <c r="M133" t="n">
-        <v>3.958</v>
+        <v>4.974</v>
       </c>
       <c r="N133" t="n">
-        <v>0.0565</v>
+        <v>0.3674</v>
       </c>
       <c r="O133" t="n">
-        <v>17.7</v>
+        <v>2.7</v>
       </c>
       <c r="P133" t="s">
-        <v>693</v>
+        <v>710</v>
       </c>
       <c r="Q133" t="s">
-        <v>691</v>
+        <v>709</v>
       </c>
       <c r="R133" t="s">
         <v>61</v>
       </c>
       <c r="S133" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B134" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>44652</v>
+        <v>44649</v>
       </c>
       <c r="D134" t="s">
-        <v>718</v>
+        <v>369</v>
       </c>
       <c r="E134" t="s">
-        <v>719</v>
+        <v>370</v>
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>563</v>
+        <v>758</v>
       </c>
       <c r="H134" t="n">
-        <v>284995665</v>
+        <v>2628644</v>
       </c>
       <c r="I134" t="n">
-        <v>1953.202</v>
-      </c>
-      <c r="J134"/>
-      <c r="K134"/>
+        <v>929.426</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1795</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.635</v>
+      </c>
       <c r="L134" t="n">
-        <v>218115</v>
+        <v>1964</v>
       </c>
       <c r="M134" t="n">
-        <v>1.495</v>
+        <v>0.694</v>
       </c>
       <c r="N134"/>
       <c r="O134"/>
       <c r="P134" t="s">
-        <v>719</v>
+        <v>370</v>
       </c>
       <c r="Q134" t="s">
-        <v>720</v>
+        <v>369</v>
       </c>
       <c r="R134" t="s">
-        <v>61</v>
+        <v>371</v>
       </c>
       <c r="S134" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="B135" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>44652</v>
+        <v>44651</v>
       </c>
       <c r="D135" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="E135" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="F135"/>
       <c r="G135" t="n">
-        <v>602</v>
+        <v>285</v>
       </c>
       <c r="H135" t="n">
-        <v>5111329</v>
+        <v>6407170</v>
       </c>
       <c r="I135" t="n">
-        <v>384.99</v>
+        <v>2186.356</v>
       </c>
       <c r="J135" t="n">
-        <v>8364</v>
+        <v>18542</v>
       </c>
       <c r="K135" t="n">
-        <v>0.63</v>
+        <v>6.327</v>
       </c>
       <c r="L135" t="n">
-        <v>8355</v>
+        <v>18486</v>
       </c>
       <c r="M135" t="n">
-        <v>0.629</v>
+        <v>6.308</v>
       </c>
       <c r="N135"/>
       <c r="O135"/>
       <c r="P135" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="Q135" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="R135" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="S135" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="B136" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>44652</v>
+        <v>44630</v>
       </c>
       <c r="D136" t="s">
-        <v>730</v>
+        <v>703</v>
       </c>
       <c r="E136" t="s">
-        <v>53</v>
+        <v>704</v>
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="H136" t="n">
-        <v>68041</v>
+        <v>21260367</v>
       </c>
       <c r="I136" t="n">
-        <v>1270.702</v>
+        <v>1111.492</v>
       </c>
       <c r="J136"/>
       <c r="K136"/>
       <c r="L136" t="n">
-        <v>45</v>
+        <v>75700</v>
       </c>
       <c r="M136" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="N136"/>
-      <c r="O136"/>
+        <v>3.958</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0.0565</v>
+      </c>
+      <c r="O136" t="n">
+        <v>17.7</v>
+      </c>
       <c r="P136" t="s">
-        <v>53</v>
+        <v>705</v>
       </c>
       <c r="Q136" t="s">
-        <v>731</v>
+        <v>703</v>
       </c>
       <c r="R136" t="s">
-        <v>311</v>
+        <v>61</v>
       </c>
       <c r="S136" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="B137" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>44650</v>
+        <v>44652</v>
       </c>
       <c r="D137" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="E137" t="s">
-        <v>88</v>
+        <v>728</v>
       </c>
       <c r="F137"/>
       <c r="G137" t="n">
-        <v>16</v>
+        <v>563</v>
       </c>
       <c r="H137" t="n">
-        <v>140589</v>
+        <v>284995665</v>
       </c>
       <c r="I137" t="n">
-        <v>762.409</v>
+        <v>1953.202</v>
       </c>
       <c r="J137"/>
       <c r="K137"/>
       <c r="L137" t="n">
-        <v>138</v>
+        <v>218115</v>
       </c>
       <c r="M137" t="n">
-        <v>0.748</v>
+        <v>1.495</v>
       </c>
       <c r="N137" t="n">
-        <v>0.0497</v>
+        <v>0.0941</v>
       </c>
       <c r="O137" t="n">
-        <v>20.1</v>
+        <v>10.6</v>
       </c>
       <c r="P137" t="s">
-        <v>88</v>
+        <v>728</v>
       </c>
       <c r="Q137" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="R137" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="S137" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B138" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>44643</v>
+        <v>44652</v>
       </c>
       <c r="D138" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="E138" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="F138"/>
       <c r="G138" t="n">
-        <v>61</v>
+        <v>602</v>
       </c>
       <c r="H138" t="n">
-        <v>104040</v>
+        <v>5111329</v>
       </c>
       <c r="I138" t="n">
-        <v>935.031</v>
-      </c>
-      <c r="J138"/>
-      <c r="K138"/>
+        <v>384.99</v>
+      </c>
+      <c r="J138" t="n">
+        <v>8364</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.63</v>
+      </c>
       <c r="L138" t="n">
-        <v>61</v>
+        <v>8355</v>
       </c>
       <c r="M138" t="n">
-        <v>0.548</v>
+        <v>0.629</v>
       </c>
       <c r="N138" t="n">
-        <v>0.0094</v>
+        <v>0.0003</v>
       </c>
       <c r="O138" t="n">
-        <v>106.8</v>
+        <v>2924.4</v>
       </c>
       <c r="P138" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="Q138" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="R138" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="S138" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="B139" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="D139" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="E139" t="s">
         <v>53</v>
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
-        <v>760</v>
+        <v>135</v>
       </c>
       <c r="H139" t="n">
-        <v>41558711</v>
+        <v>68041</v>
       </c>
       <c r="I139" t="n">
-        <v>1175.945</v>
-      </c>
-      <c r="J139" t="n">
-        <v>16137</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.457</v>
-      </c>
+        <v>1270.702</v>
+      </c>
+      <c r="J139"/>
+      <c r="K139"/>
       <c r="L139" t="n">
-        <v>15352</v>
+        <v>45</v>
       </c>
       <c r="M139" t="n">
-        <v>0.434</v>
+        <v>0.84</v>
       </c>
       <c r="N139" t="n">
-        <v>0.0068</v>
+        <v>0.0032</v>
       </c>
       <c r="O139" t="n">
-        <v>146.4</v>
+        <v>314.7</v>
       </c>
       <c r="P139" t="s">
         <v>53</v>
       </c>
       <c r="Q139" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="R139" t="s">
-        <v>61</v>
+        <v>311</v>
       </c>
       <c r="S139" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="B140" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>44651</v>
+        <v>44650</v>
       </c>
       <c r="D140" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="E140" t="s">
-        <v>751</v>
+        <v>88</v>
       </c>
       <c r="F140"/>
       <c r="G140" t="n">
-        <v>759</v>
+        <v>16</v>
       </c>
       <c r="H140" t="n">
-        <v>1071738</v>
+        <v>140589</v>
       </c>
       <c r="I140" t="n">
-        <v>62.324</v>
-      </c>
-      <c r="J140" t="n">
-        <v>1260</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.073</v>
-      </c>
+        <v>762.409</v>
+      </c>
+      <c r="J140"/>
+      <c r="K140"/>
       <c r="L140" t="n">
-        <v>1351</v>
+        <v>138</v>
       </c>
       <c r="M140" t="n">
-        <v>0.079</v>
+        <v>0.748</v>
       </c>
       <c r="N140" t="n">
-        <v>0.0056</v>
+        <v>0.0497</v>
       </c>
       <c r="O140" t="n">
-        <v>178.4</v>
+        <v>20.1</v>
       </c>
       <c r="P140" t="s">
-        <v>751</v>
+        <v>88</v>
       </c>
       <c r="Q140" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="R140" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S140" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="B141" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>44652</v>
+        <v>44643</v>
       </c>
       <c r="D141" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="E141" t="s">
-        <v>53</v>
-      </c>
-      <c r="F141" t="s">
-        <v>756</v>
-      </c>
+        <v>749</v>
+      </c>
+      <c r="F141"/>
       <c r="G141" t="n">
-        <v>765</v>
+        <v>61</v>
       </c>
       <c r="H141" t="n">
-        <v>9203251</v>
+        <v>104040</v>
       </c>
       <c r="I141" t="n">
-        <v>1339.327</v>
-      </c>
-      <c r="J141" t="n">
-        <v>13554</v>
-      </c>
-      <c r="K141" t="n">
-        <v>1.972</v>
-      </c>
+        <v>935.031</v>
+      </c>
+      <c r="J141"/>
+      <c r="K141"/>
       <c r="L141" t="n">
-        <v>13587</v>
+        <v>61</v>
       </c>
       <c r="M141" t="n">
-        <v>1.977</v>
-      </c>
-      <c r="N141"/>
-      <c r="O141"/>
+        <v>0.548</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0.0094</v>
+      </c>
+      <c r="O141" t="n">
+        <v>106.8</v>
+      </c>
       <c r="P141" t="s">
-        <v>53</v>
+        <v>750</v>
       </c>
       <c r="Q141" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="R141" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="S141" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B142" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>44640</v>
+        <v>44651</v>
       </c>
       <c r="D142" t="s">
-        <v>35</v>
+        <v>755</v>
       </c>
       <c r="E142" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F142"/>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>760</v>
       </c>
       <c r="H142" t="n">
-        <v>390698</v>
+        <v>41558711</v>
       </c>
       <c r="I142" t="n">
-        <v>47.989</v>
-      </c>
-      <c r="J142"/>
-      <c r="K142"/>
+        <v>1175.945</v>
+      </c>
+      <c r="J142" t="n">
+        <v>16137</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0.457</v>
+      </c>
       <c r="L142" t="n">
-        <v>710</v>
+        <v>15352</v>
       </c>
       <c r="M142" t="n">
-        <v>0.087</v>
+        <v>0.434</v>
       </c>
       <c r="N142" t="n">
-        <v>0.0014</v>
+        <v>0.0068</v>
       </c>
       <c r="O142" t="n">
-        <v>710</v>
+        <v>146.4</v>
       </c>
       <c r="P142" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="Q142" t="s">
-        <v>37</v>
+        <v>755</v>
       </c>
       <c r="R142" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="S142" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="B143" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>44648</v>
+        <v>44651</v>
       </c>
       <c r="D143" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="E143" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="F143"/>
       <c r="G143" t="n">
-        <v>70</v>
-      </c>
-      <c r="H143"/>
-      <c r="I143"/>
+        <v>759</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1071738</v>
+      </c>
+      <c r="I143" t="n">
+        <v>62.324</v>
+      </c>
       <c r="J143" t="n">
-        <v>70600</v>
+        <v>1260</v>
       </c>
       <c r="K143" t="n">
-        <v>12.946</v>
+        <v>0.073</v>
       </c>
       <c r="L143" t="n">
-        <v>70600</v>
+        <v>1351</v>
       </c>
       <c r="M143" t="n">
-        <v>12.946</v>
+        <v>0.079</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1001</v>
+        <v>0.0056</v>
       </c>
       <c r="O143" t="n">
-        <v>10</v>
+        <v>178.4</v>
       </c>
       <c r="P143" t="s">
-        <v>53</v>
+        <v>760</v>
       </c>
       <c r="Q143" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="R143" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="S143" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="B144" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>44649</v>
+        <v>44652</v>
       </c>
       <c r="D144" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="E144" t="s">
         <v>53</v>
       </c>
       <c r="F144" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="G144" t="n">
-        <v>754</v>
+        <v>765</v>
       </c>
       <c r="H144" t="n">
-        <v>50483583</v>
+        <v>9203251</v>
       </c>
       <c r="I144" t="n">
-        <v>9264.284</v>
+        <v>1339.327</v>
       </c>
       <c r="J144" t="n">
-        <v>14738</v>
+        <v>13554</v>
       </c>
       <c r="K144" t="n">
-        <v>2.705</v>
+        <v>1.972</v>
       </c>
       <c r="L144" t="n">
-        <v>20248</v>
+        <v>13587</v>
       </c>
       <c r="M144" t="n">
-        <v>3.716</v>
+        <v>1.977</v>
       </c>
       <c r="N144" t="n">
-        <v>0.367</v>
+        <v>0.1277</v>
       </c>
       <c r="O144" t="n">
-        <v>2.7</v>
+        <v>7.8</v>
       </c>
       <c r="P144" t="s">
         <v>53</v>
       </c>
       <c r="Q144" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="R144" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="S144" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="B145" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>44651</v>
+        <v>44640</v>
       </c>
       <c r="D145" t="s">
-        <v>775</v>
+        <v>35</v>
       </c>
       <c r="E145" t="s">
-        <v>776</v>
-      </c>
-      <c r="F145" t="s">
-        <v>777</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F145"/>
       <c r="G145" t="n">
-        <v>771</v>
+        <v>2</v>
       </c>
       <c r="H145" t="n">
-        <v>4813287</v>
+        <v>390698</v>
       </c>
       <c r="I145" t="n">
-        <v>2315.502</v>
-      </c>
-      <c r="J145" t="n">
-        <v>12279</v>
-      </c>
-      <c r="K145" t="n">
-        <v>5.907</v>
-      </c>
+        <v>47.989</v>
+      </c>
+      <c r="J145"/>
+      <c r="K145"/>
       <c r="L145" t="n">
-        <v>13218</v>
+        <v>710</v>
       </c>
       <c r="M145" t="n">
-        <v>6.359</v>
+        <v>0.087</v>
       </c>
       <c r="N145" t="n">
-        <v>0.192</v>
+        <v>0.0014</v>
       </c>
       <c r="O145" t="n">
-        <v>5.2</v>
+        <v>710</v>
       </c>
       <c r="P145" t="s">
-        <v>778</v>
+        <v>36</v>
       </c>
       <c r="Q145" t="s">
-        <v>775</v>
+        <v>37</v>
       </c>
       <c r="R145" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S145" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="B146" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>44632</v>
+        <v>44648</v>
       </c>
       <c r="D146" t="s">
-        <v>35</v>
+        <v>773</v>
       </c>
       <c r="E146" t="s">
-        <v>36</v>
+        <v>774</v>
       </c>
       <c r="F146"/>
       <c r="G146" t="n">
-        <v>1</v>
-      </c>
-      <c r="H146" t="n">
-        <v>400466</v>
-      </c>
-      <c r="I146" t="n">
-        <v>24.479</v>
-      </c>
-      <c r="J146"/>
-      <c r="K146"/>
-      <c r="L146"/>
-      <c r="M146"/>
-      <c r="N146"/>
-      <c r="O146"/>
+        <v>70</v>
+      </c>
+      <c r="H146"/>
+      <c r="I146"/>
+      <c r="J146" t="n">
+        <v>70600</v>
+      </c>
+      <c r="K146" t="n">
+        <v>12.946</v>
+      </c>
+      <c r="L146" t="n">
+        <v>70600</v>
+      </c>
+      <c r="M146" t="n">
+        <v>12.946</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0.1001</v>
+      </c>
+      <c r="O146" t="n">
+        <v>10</v>
+      </c>
       <c r="P146" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="Q146" t="s">
-        <v>37</v>
+        <v>775</v>
       </c>
       <c r="R146" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="S146" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="B147" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>44652</v>
+        <v>44649</v>
       </c>
       <c r="D147" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="E147" t="s">
-        <v>786</v>
+        <v>53</v>
       </c>
       <c r="F147" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="G147" t="n">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="H147" t="n">
-        <v>23866743</v>
+        <v>50483583</v>
       </c>
       <c r="I147" t="n">
-        <v>397.501</v>
+        <v>9264.284</v>
       </c>
       <c r="J147" t="n">
-        <v>27832</v>
+        <v>14738</v>
       </c>
       <c r="K147" t="n">
-        <v>0.464</v>
+        <v>2.705</v>
       </c>
       <c r="L147" t="n">
-        <v>23668</v>
+        <v>20248</v>
       </c>
       <c r="M147" t="n">
-        <v>0.394</v>
-      </c>
-      <c r="N147"/>
-      <c r="O147"/>
+        <v>3.716</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="O147" t="n">
+        <v>2.7</v>
+      </c>
       <c r="P147" t="s">
-        <v>788</v>
+        <v>53</v>
       </c>
       <c r="Q147" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="R147" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="S147" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="B148" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="C148" s="1" t="n">
         <v>44651</v>
       </c>
       <c r="D148" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="E148" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="F148" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="G148" t="n">
-        <v>783</v>
+        <v>771</v>
       </c>
       <c r="H148" t="n">
-        <v>87269613</v>
+        <v>4813287</v>
       </c>
       <c r="I148" t="n">
-        <v>1700.99</v>
+        <v>2315.502</v>
       </c>
       <c r="J148" t="n">
-        <v>410288</v>
+        <v>12279</v>
       </c>
       <c r="K148" t="n">
-        <v>7.997</v>
+        <v>5.907</v>
       </c>
       <c r="L148" t="n">
-        <v>482642</v>
+        <v>13218</v>
       </c>
       <c r="M148" t="n">
-        <v>9.407</v>
+        <v>6.359</v>
       </c>
       <c r="N148" t="n">
-        <v>0.6552</v>
+        <v>0.192</v>
       </c>
       <c r="O148" t="n">
-        <v>1.5</v>
+        <v>5.2</v>
       </c>
       <c r="P148" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="Q148" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="R148" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="S148" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="B149" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>44652</v>
+        <v>44632</v>
       </c>
       <c r="D149" t="s">
         <v>35</v>
@@ -11262,22 +11496,18 @@
       </c>
       <c r="F149"/>
       <c r="G149" t="n">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>360619</v>
+        <v>400466</v>
       </c>
       <c r="I149" t="n">
-        <v>31.685</v>
+        <v>24.479</v>
       </c>
       <c r="J149"/>
       <c r="K149"/>
-      <c r="L149" t="n">
-        <v>718</v>
-      </c>
-      <c r="M149" t="n">
-        <v>0.063</v>
-      </c>
+      <c r="L149"/>
+      <c r="M149"/>
       <c r="N149"/>
       <c r="O149"/>
       <c r="P149" t="s">
@@ -11290,132 +11520,132 @@
         <v>25</v>
       </c>
       <c r="S149" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="B150" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>44650</v>
+        <v>44652</v>
       </c>
       <c r="D150" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="E150" t="s">
-        <v>53</v>
-      </c>
-      <c r="F150"/>
+        <v>795</v>
+      </c>
+      <c r="F150" t="s">
+        <v>796</v>
+      </c>
       <c r="G150" t="n">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="H150" t="n">
-        <v>88507675</v>
+        <v>23866743</v>
       </c>
       <c r="I150" t="n">
-        <v>1893.406</v>
+        <v>397.501</v>
       </c>
       <c r="J150" t="n">
-        <v>59686</v>
+        <v>27832</v>
       </c>
       <c r="K150" t="n">
-        <v>1.277</v>
+        <v>0.464</v>
       </c>
       <c r="L150" t="n">
-        <v>69260</v>
+        <v>23668</v>
       </c>
       <c r="M150" t="n">
-        <v>1.482</v>
-      </c>
-      <c r="N150" t="n">
-        <v>0.182</v>
-      </c>
-      <c r="O150" t="n">
-        <v>5.5</v>
-      </c>
+        <v>0.394</v>
+      </c>
+      <c r="N150"/>
+      <c r="O150"/>
       <c r="P150" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="Q150" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="R150" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="S150" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
+        <v>799</v>
+      </c>
+      <c r="B151" t="s">
+        <v>800</v>
+      </c>
+      <c r="C151" s="1" t="n">
+        <v>44651</v>
+      </c>
+      <c r="D151" t="s">
+        <v>801</v>
+      </c>
+      <c r="E151" t="s">
+        <v>802</v>
+      </c>
+      <c r="F151" t="s">
+        <v>803</v>
+      </c>
+      <c r="G151" t="n">
+        <v>783</v>
+      </c>
+      <c r="H151" t="n">
+        <v>87269613</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1700.99</v>
+      </c>
+      <c r="J151" t="n">
+        <v>410288</v>
+      </c>
+      <c r="K151" t="n">
+        <v>7.997</v>
+      </c>
+      <c r="L151" t="n">
+        <v>482642</v>
+      </c>
+      <c r="M151" t="n">
+        <v>9.407</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0.6552</v>
+      </c>
+      <c r="O151" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P151" t="s">
+        <v>804</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>805</v>
+      </c>
+      <c r="R151" t="s">
+        <v>45</v>
+      </c>
+      <c r="S151" t="s">
         <v>806</v>
-      </c>
-      <c r="B151" t="s">
-        <v>807</v>
-      </c>
-      <c r="C151" s="1" t="n">
-        <v>44650</v>
-      </c>
-      <c r="D151" t="s">
-        <v>808</v>
-      </c>
-      <c r="E151" t="s">
-        <v>809</v>
-      </c>
-      <c r="F151"/>
-      <c r="G151" t="n">
-        <v>765</v>
-      </c>
-      <c r="H151" t="n">
-        <v>7551021</v>
-      </c>
-      <c r="I151" t="n">
-        <v>351.254</v>
-      </c>
-      <c r="J151" t="n">
-        <v>6156</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="L151" t="n">
-        <v>4374</v>
-      </c>
-      <c r="M151" t="n">
-        <v>0.203</v>
-      </c>
-      <c r="N151" t="n">
-        <v>0.0425</v>
-      </c>
-      <c r="O151" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="P151" t="s">
-        <v>809</v>
-      </c>
-      <c r="Q151" t="s">
-        <v>808</v>
-      </c>
-      <c r="R151" t="s">
-        <v>61</v>
-      </c>
-      <c r="S151" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="B152" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>44605</v>
+        <v>44652</v>
       </c>
       <c r="D152" t="s">
         <v>35</v>
@@ -11425,20 +11655,28 @@
       </c>
       <c r="F152"/>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>163</v>
       </c>
       <c r="H152" t="n">
-        <v>562941</v>
+        <v>360619</v>
       </c>
       <c r="I152" t="n">
-        <v>12.535</v>
+        <v>31.685</v>
       </c>
       <c r="J152"/>
       <c r="K152"/>
-      <c r="L152"/>
-      <c r="M152"/>
-      <c r="N152"/>
-      <c r="O152"/>
+      <c r="L152" t="n">
+        <v>718</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0.0187</v>
+      </c>
+      <c r="O152" t="n">
+        <v>53.5</v>
+      </c>
       <c r="P152" t="s">
         <v>36</v>
       </c>
@@ -11449,1242 +11687,1482 @@
         <v>25</v>
       </c>
       <c r="S152" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B153" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>44651</v>
+        <v>44650</v>
       </c>
       <c r="D153" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="E153" t="s">
-        <v>817</v>
+        <v>53</v>
       </c>
       <c r="F153"/>
       <c r="G153" t="n">
-        <v>208</v>
+        <v>746</v>
       </c>
       <c r="H153" t="n">
-        <v>81763</v>
+        <v>88507675</v>
       </c>
       <c r="I153" t="n">
-        <v>138.16</v>
+        <v>1893.406</v>
       </c>
       <c r="J153" t="n">
-        <v>87</v>
+        <v>59686</v>
       </c>
       <c r="K153" t="n">
-        <v>0.147</v>
+        <v>1.277</v>
       </c>
       <c r="L153" t="n">
-        <v>17</v>
+        <v>69260</v>
       </c>
       <c r="M153" t="n">
-        <v>0.029</v>
+        <v>1.482</v>
       </c>
       <c r="N153" t="n">
-        <v>0.141</v>
+        <v>0.182</v>
       </c>
       <c r="O153" t="n">
-        <v>7.1</v>
+        <v>5.5</v>
       </c>
       <c r="P153" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="Q153" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="R153" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="S153" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="B154" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>44647</v>
+        <v>44650</v>
       </c>
       <c r="D154" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="E154" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="F154"/>
       <c r="G154" t="n">
-        <v>637</v>
+        <v>765</v>
       </c>
       <c r="H154" t="n">
-        <v>18159015</v>
+        <v>7551021</v>
       </c>
       <c r="I154" t="n">
-        <v>1787.277</v>
+        <v>351.254</v>
       </c>
       <c r="J154" t="n">
-        <v>5320</v>
+        <v>6156</v>
       </c>
       <c r="K154" t="n">
-        <v>0.524</v>
+        <v>0.286</v>
       </c>
       <c r="L154" t="n">
-        <v>5320</v>
+        <v>4374</v>
       </c>
       <c r="M154" t="n">
-        <v>0.524</v>
+        <v>0.203</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1624</v>
+        <v>0.0425</v>
       </c>
       <c r="O154" t="n">
-        <v>6.2</v>
+        <v>23.5</v>
       </c>
       <c r="P154" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="Q154" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="R154" t="s">
         <v>61</v>
       </c>
       <c r="S154" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="B155" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>44651</v>
+        <v>44605</v>
       </c>
       <c r="D155" t="s">
-        <v>522</v>
+        <v>35</v>
       </c>
       <c r="E155" t="s">
-        <v>523</v>
+        <v>36</v>
       </c>
       <c r="F155"/>
       <c r="G155" t="n">
-        <v>678</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
-        <v>20324729</v>
+        <v>562941</v>
       </c>
       <c r="I155" t="n">
-        <v>2332.023</v>
-      </c>
-      <c r="J155" t="n">
-        <v>27204</v>
-      </c>
-      <c r="K155" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="L155" t="n">
-        <v>35700</v>
-      </c>
-      <c r="M155" t="n">
-        <v>4.096</v>
-      </c>
-      <c r="N155" t="n">
-        <v>0.393</v>
-      </c>
-      <c r="O155" t="n">
-        <v>2.5</v>
-      </c>
+        <v>12.535</v>
+      </c>
+      <c r="J155"/>
+      <c r="K155"/>
+      <c r="L155"/>
+      <c r="M155"/>
+      <c r="N155"/>
+      <c r="O155"/>
       <c r="P155" t="s">
-        <v>523</v>
+        <v>36</v>
       </c>
       <c r="Q155" t="s">
-        <v>524</v>
+        <v>37</v>
       </c>
       <c r="R155" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S155" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="B156" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>44632</v>
+        <v>44651</v>
       </c>
       <c r="D156" t="s">
-        <v>21</v>
+        <v>825</v>
       </c>
       <c r="E156" t="s">
-        <v>22</v>
+        <v>826</v>
       </c>
       <c r="F156"/>
       <c r="G156" t="n">
-        <v>2</v>
+        <v>208</v>
       </c>
       <c r="H156" t="n">
-        <v>158382</v>
+        <v>81763</v>
       </c>
       <c r="I156" t="n">
-        <v>8.666</v>
-      </c>
-      <c r="J156"/>
-      <c r="K156"/>
+        <v>138.16</v>
+      </c>
+      <c r="J156" t="n">
+        <v>87</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0.147</v>
+      </c>
       <c r="L156" t="n">
-        <v>157</v>
+        <v>17</v>
       </c>
       <c r="M156" t="n">
-        <v>0.009</v>
+        <v>0.029</v>
       </c>
       <c r="N156" t="n">
-        <v>0.333</v>
+        <v>0.141</v>
       </c>
       <c r="O156" t="n">
-        <v>3</v>
+        <v>7.1</v>
       </c>
       <c r="P156" t="s">
-        <v>23</v>
+        <v>826</v>
       </c>
       <c r="Q156" t="s">
-        <v>24</v>
+        <v>825</v>
       </c>
       <c r="R156" t="s">
         <v>25</v>
       </c>
       <c r="S156" t="s">
-        <v>26</v>
+        <v>827</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
+        <v>828</v>
+      </c>
+      <c r="B157" t="s">
+        <v>829</v>
+      </c>
+      <c r="C157" s="1" t="n">
+        <v>44647</v>
+      </c>
+      <c r="D157" t="s">
+        <v>830</v>
+      </c>
+      <c r="E157" t="s">
         <v>831</v>
-      </c>
-      <c r="B157" t="s">
-        <v>832</v>
-      </c>
-      <c r="C157" s="1" t="n">
-        <v>44652</v>
-      </c>
-      <c r="D157" t="s">
-        <v>833</v>
-      </c>
-      <c r="E157" t="s">
-        <v>834</v>
       </c>
       <c r="F157"/>
       <c r="G157" t="n">
-        <v>806</v>
+        <v>637</v>
       </c>
       <c r="H157" t="n">
-        <v>7070119</v>
+        <v>18159015</v>
       </c>
       <c r="I157" t="n">
-        <v>296.379</v>
+        <v>1787.277</v>
       </c>
       <c r="J157" t="n">
-        <v>19854</v>
+        <v>5320</v>
       </c>
       <c r="K157" t="n">
-        <v>0.832</v>
+        <v>0.524</v>
       </c>
       <c r="L157" t="n">
-        <v>27395</v>
+        <v>5320</v>
       </c>
       <c r="M157" t="n">
-        <v>1.148</v>
-      </c>
-      <c r="N157"/>
-      <c r="O157"/>
+        <v>0.524</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0.1624</v>
+      </c>
+      <c r="O157" t="n">
+        <v>6.2</v>
+      </c>
       <c r="P157" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="Q157" t="s">
         <v>833</v>
       </c>
       <c r="R157" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="S157" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
+        <v>835</v>
+      </c>
+      <c r="B158" t="s">
         <v>836</v>
       </c>
-      <c r="B158" t="s">
-        <v>837</v>
-      </c>
       <c r="C158" s="1" t="n">
-        <v>44610</v>
+        <v>44651</v>
       </c>
       <c r="D158" t="s">
-        <v>838</v>
+        <v>528</v>
       </c>
       <c r="E158" t="s">
-        <v>53</v>
+        <v>529</v>
       </c>
       <c r="F158"/>
       <c r="G158" t="n">
-        <v>2</v>
+        <v>678</v>
       </c>
       <c r="H158" t="n">
-        <v>455776</v>
+        <v>20324729</v>
       </c>
       <c r="I158" t="n">
-        <v>7.411</v>
-      </c>
-      <c r="J158"/>
-      <c r="K158"/>
+        <v>2332.023</v>
+      </c>
+      <c r="J158" t="n">
+        <v>27204</v>
+      </c>
+      <c r="K158" t="n">
+        <v>3.121</v>
+      </c>
       <c r="L158" t="n">
-        <v>1004</v>
+        <v>35700</v>
       </c>
       <c r="M158" t="n">
-        <v>0.016</v>
+        <v>4.096</v>
       </c>
       <c r="N158" t="n">
-        <v>0.0161</v>
+        <v>0.393</v>
       </c>
       <c r="O158" t="n">
-        <v>62.2</v>
+        <v>2.5</v>
       </c>
       <c r="P158" t="s">
-        <v>36</v>
+        <v>529</v>
       </c>
       <c r="Q158" t="s">
-        <v>839</v>
+        <v>530</v>
       </c>
       <c r="R158" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="S158" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B159" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>44625</v>
+        <v>44632</v>
       </c>
       <c r="D159" t="s">
-        <v>843</v>
+        <v>21</v>
       </c>
       <c r="E159" t="s">
-        <v>844</v>
+        <v>22</v>
       </c>
       <c r="F159"/>
       <c r="G159" t="n">
-        <v>791</v>
+        <v>2</v>
       </c>
       <c r="H159" t="n">
-        <v>21377196</v>
+        <v>158382</v>
       </c>
       <c r="I159" t="n">
-        <v>305.603</v>
-      </c>
-      <c r="J159" t="n">
-        <v>40281</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.576</v>
-      </c>
+        <v>8.666</v>
+      </c>
+      <c r="J159"/>
+      <c r="K159"/>
       <c r="L159" t="n">
-        <v>61456</v>
+        <v>157</v>
       </c>
       <c r="M159" t="n">
-        <v>0.879</v>
+        <v>0.009</v>
       </c>
       <c r="N159" t="n">
-        <v>0.3651</v>
+        <v>0.333</v>
       </c>
       <c r="O159" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="P159" t="s">
-        <v>845</v>
+        <v>23</v>
       </c>
       <c r="Q159" t="s">
-        <v>846</v>
+        <v>24</v>
       </c>
       <c r="R159" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S159" t="s">
-        <v>847</v>
+        <v>26</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="B160" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>44632</v>
+        <v>44652</v>
       </c>
       <c r="D160" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="E160" t="s">
-        <v>53</v>
+        <v>843</v>
       </c>
       <c r="F160"/>
       <c r="G160" t="n">
-        <v>32</v>
+        <v>806</v>
       </c>
       <c r="H160" t="n">
-        <v>252951</v>
+        <v>7070119</v>
       </c>
       <c r="I160" t="n">
-        <v>188.225</v>
-      </c>
-      <c r="J160"/>
-      <c r="K160"/>
+        <v>296.379</v>
+      </c>
+      <c r="J160" t="n">
+        <v>19854</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0.832</v>
+      </c>
       <c r="L160" t="n">
-        <v>314</v>
+        <v>27395</v>
       </c>
       <c r="M160" t="n">
-        <v>0.234</v>
+        <v>1.148</v>
       </c>
       <c r="N160" t="n">
-        <v>0.0218</v>
+        <v>0.0061</v>
       </c>
       <c r="O160" t="n">
-        <v>45.8</v>
+        <v>164.5</v>
       </c>
       <c r="P160" t="s">
-        <v>53</v>
+        <v>843</v>
       </c>
       <c r="Q160" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="R160" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="S160" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="B161" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>44652</v>
+        <v>44610</v>
       </c>
       <c r="D161" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="E161" t="s">
         <v>53</v>
       </c>
       <c r="F161"/>
       <c r="G161" t="n">
-        <v>744</v>
+        <v>2</v>
       </c>
       <c r="H161" t="n">
-        <v>719140</v>
+        <v>455776</v>
       </c>
       <c r="I161" t="n">
-        <v>84.822</v>
+        <v>7.411</v>
       </c>
       <c r="J161"/>
       <c r="K161"/>
       <c r="L161" t="n">
-        <v>683</v>
+        <v>1004</v>
       </c>
       <c r="M161" t="n">
-        <v>0.081</v>
-      </c>
-      <c r="N161"/>
-      <c r="O161"/>
+        <v>0.016</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0.0161</v>
+      </c>
+      <c r="O161" t="n">
+        <v>62.2</v>
+      </c>
       <c r="P161" t="s">
-        <v>855</v>
+        <v>36</v>
       </c>
       <c r="Q161" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="R161" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S161" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="B162" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>44650</v>
+        <v>44625</v>
       </c>
       <c r="D162" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="E162" t="s">
-        <v>53</v>
+        <v>853</v>
       </c>
       <c r="F162"/>
       <c r="G162" t="n">
-        <v>438</v>
+        <v>791</v>
       </c>
       <c r="H162" t="n">
-        <v>673601</v>
+        <v>21377196</v>
       </c>
       <c r="I162" t="n">
-        <v>479.987</v>
+        <v>305.603</v>
       </c>
       <c r="J162" t="n">
-        <v>3460</v>
+        <v>40281</v>
       </c>
       <c r="K162" t="n">
-        <v>2.465</v>
+        <v>0.576</v>
       </c>
       <c r="L162" t="n">
-        <v>1159</v>
+        <v>61456</v>
       </c>
       <c r="M162" t="n">
-        <v>0.826</v>
+        <v>0.879</v>
       </c>
       <c r="N162" t="n">
-        <v>0.235</v>
+        <v>0.3651</v>
       </c>
       <c r="O162" t="n">
-        <v>4.3</v>
+        <v>2.7</v>
       </c>
       <c r="P162" t="s">
-        <v>53</v>
+        <v>854</v>
       </c>
       <c r="Q162" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="R162" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="S162" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="B163" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>44647</v>
+        <v>44632</v>
       </c>
       <c r="D163" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="E163" t="s">
-        <v>865</v>
+        <v>53</v>
       </c>
       <c r="F163"/>
       <c r="G163" t="n">
-        <v>177</v>
+        <v>32</v>
       </c>
       <c r="H163" t="n">
-        <v>4521880</v>
+        <v>252951</v>
       </c>
       <c r="I163" t="n">
-        <v>378.851</v>
+        <v>188.225</v>
       </c>
       <c r="J163"/>
       <c r="K163"/>
       <c r="L163" t="n">
-        <v>3026</v>
+        <v>314</v>
       </c>
       <c r="M163" t="n">
-        <v>0.254</v>
+        <v>0.234</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1874</v>
+        <v>0.0218</v>
       </c>
       <c r="O163" t="n">
-        <v>5.3</v>
+        <v>45.8</v>
       </c>
       <c r="P163" t="s">
-        <v>866</v>
+        <v>53</v>
       </c>
       <c r="Q163" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="R163" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="S163" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="B164" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="C164" s="1" t="n">
         <v>44652</v>
       </c>
       <c r="D164" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="E164" t="s">
-        <v>872</v>
+        <v>53</v>
       </c>
       <c r="F164"/>
       <c r="G164" t="n">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H164" t="n">
-        <v>154333732</v>
+        <v>719140</v>
       </c>
       <c r="I164" t="n">
-        <v>1814.779</v>
-      </c>
-      <c r="J164" t="n">
-        <v>265362</v>
-      </c>
-      <c r="K164" t="n">
-        <v>3.12</v>
-      </c>
+        <v>84.822</v>
+      </c>
+      <c r="J164"/>
+      <c r="K164"/>
       <c r="L164" t="n">
-        <v>270798</v>
+        <v>683</v>
       </c>
       <c r="M164" t="n">
-        <v>3.184</v>
-      </c>
-      <c r="N164"/>
-      <c r="O164"/>
+        <v>0.081</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="O164" t="n">
+        <v>132.8</v>
+      </c>
       <c r="P164" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="Q164" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="R164" t="s">
         <v>61</v>
       </c>
       <c r="S164" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="B165" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>44652</v>
+        <v>44650</v>
       </c>
       <c r="D165" t="s">
-        <v>35</v>
+        <v>868</v>
       </c>
       <c r="E165" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F165"/>
       <c r="G165" t="n">
-        <v>633</v>
+        <v>438</v>
       </c>
       <c r="H165" t="n">
-        <v>2555603</v>
+        <v>673601</v>
       </c>
       <c r="I165" t="n">
-        <v>54.232</v>
-      </c>
-      <c r="J165"/>
-      <c r="K165"/>
+        <v>479.987</v>
+      </c>
+      <c r="J165" t="n">
+        <v>3460</v>
+      </c>
+      <c r="K165" t="n">
+        <v>2.465</v>
+      </c>
       <c r="L165" t="n">
-        <v>3214</v>
+        <v>1159</v>
       </c>
       <c r="M165" t="n">
-        <v>0.068</v>
-      </c>
-      <c r="N165"/>
-      <c r="O165"/>
+        <v>0.826</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="O165" t="n">
+        <v>4.3</v>
+      </c>
       <c r="P165" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="Q165" t="s">
-        <v>37</v>
+        <v>869</v>
       </c>
       <c r="R165" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="S165" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="B166" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>44610</v>
+        <v>44647</v>
       </c>
       <c r="D166" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="E166" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="F166"/>
       <c r="G166" t="n">
-        <v>556</v>
+        <v>177</v>
       </c>
       <c r="H166" t="n">
-        <v>19288823</v>
+        <v>4521880</v>
       </c>
       <c r="I166" t="n">
-        <v>443.76</v>
+        <v>378.851</v>
       </c>
       <c r="J166"/>
       <c r="K166"/>
       <c r="L166" t="n">
-        <v>52561</v>
+        <v>3026</v>
       </c>
       <c r="M166" t="n">
-        <v>1.209</v>
+        <v>0.254</v>
       </c>
       <c r="N166" t="n">
-        <v>0.6027</v>
+        <v>0.1874</v>
       </c>
       <c r="O166" t="n">
-        <v>1.7</v>
+        <v>5.3</v>
       </c>
       <c r="P166" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="Q166" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="R166" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="S166" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="B167" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="C167" s="1" t="n">
         <v>44652</v>
       </c>
       <c r="D167" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="E167" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="F167"/>
       <c r="G167" t="n">
-        <v>763</v>
+        <v>736</v>
       </c>
       <c r="H167" t="n">
-        <v>148373071</v>
+        <v>154333732</v>
       </c>
       <c r="I167" t="n">
-        <v>14850.549</v>
+        <v>1814.779</v>
       </c>
       <c r="J167" t="n">
-        <v>295915</v>
+        <v>265362</v>
       </c>
       <c r="K167" t="n">
-        <v>29.618</v>
+        <v>3.12</v>
       </c>
       <c r="L167" t="n">
-        <v>298821</v>
+        <v>270798</v>
       </c>
       <c r="M167" t="n">
-        <v>29.909</v>
-      </c>
-      <c r="N167"/>
-      <c r="O167"/>
+        <v>3.184</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0.0519</v>
+      </c>
+      <c r="O167" t="n">
+        <v>19.3</v>
+      </c>
       <c r="P167" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="Q167" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="R167" t="s">
         <v>61</v>
       </c>
       <c r="S167" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="B168" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="D168" t="s">
-        <v>892</v>
+        <v>35</v>
       </c>
       <c r="E168" t="s">
-        <v>893</v>
+        <v>36</v>
       </c>
       <c r="F168"/>
       <c r="G168" t="n">
-        <v>729</v>
+        <v>633</v>
       </c>
       <c r="H168" t="n">
-        <v>486720814</v>
+        <v>2555603</v>
       </c>
       <c r="I168" t="n">
-        <v>7135.924</v>
-      </c>
-      <c r="J168" t="n">
-        <v>683867</v>
-      </c>
-      <c r="K168" t="n">
-        <v>10.026</v>
-      </c>
+        <v>54.232</v>
+      </c>
+      <c r="J168"/>
+      <c r="K168"/>
       <c r="L168" t="n">
-        <v>689608</v>
+        <v>3214</v>
       </c>
       <c r="M168" t="n">
-        <v>10.11</v>
+        <v>0.068</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1112</v>
+        <v>0.004</v>
       </c>
       <c r="O168" t="n">
-        <v>9</v>
+        <v>252.8</v>
       </c>
       <c r="P168" t="s">
-        <v>894</v>
+        <v>36</v>
       </c>
       <c r="Q168" t="s">
-        <v>895</v>
+        <v>37</v>
       </c>
       <c r="R168" t="s">
         <v>61</v>
       </c>
       <c r="S168" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="B169" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>44646</v>
+        <v>44610</v>
       </c>
       <c r="D169" t="s">
-        <v>702</v>
+        <v>889</v>
       </c>
       <c r="E169" t="s">
-        <v>703</v>
+        <v>890</v>
       </c>
       <c r="F169"/>
       <c r="G169" t="n">
-        <v>756</v>
+        <v>556</v>
       </c>
       <c r="H169" t="n">
-        <v>846489784</v>
+        <v>19288823</v>
       </c>
       <c r="I169" t="n">
-        <v>2542.66</v>
-      </c>
-      <c r="J169" t="n">
-        <v>489770</v>
-      </c>
-      <c r="K169" t="n">
-        <v>1.471</v>
-      </c>
+        <v>443.76</v>
+      </c>
+      <c r="J169"/>
+      <c r="K169"/>
       <c r="L169" t="n">
-        <v>789570</v>
+        <v>52561</v>
       </c>
       <c r="M169" t="n">
-        <v>2.372</v>
+        <v>1.209</v>
       </c>
       <c r="N169" t="n">
-        <v>0.024</v>
+        <v>0.6027</v>
       </c>
       <c r="O169" t="n">
-        <v>41.7</v>
+        <v>1.7</v>
       </c>
       <c r="P169" t="s">
-        <v>703</v>
+        <v>890</v>
       </c>
       <c r="Q169" t="s">
-        <v>702</v>
+        <v>891</v>
       </c>
       <c r="R169" t="s">
-        <v>704</v>
+        <v>61</v>
       </c>
       <c r="S169" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="B170" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="D170" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="E170" t="s">
-        <v>237</v>
+        <v>896</v>
       </c>
       <c r="F170"/>
       <c r="G170" t="n">
-        <v>740</v>
+        <v>763</v>
       </c>
       <c r="H170" t="n">
-        <v>5999792</v>
+        <v>148373071</v>
       </c>
       <c r="I170" t="n">
-        <v>1721.53</v>
+        <v>14850.549</v>
       </c>
       <c r="J170" t="n">
-        <v>8607</v>
+        <v>295915</v>
       </c>
       <c r="K170" t="n">
-        <v>2.47</v>
+        <v>29.618</v>
       </c>
       <c r="L170" t="n">
-        <v>9410</v>
+        <v>298821</v>
       </c>
       <c r="M170" t="n">
-        <v>2.7</v>
+        <v>29.909</v>
       </c>
       <c r="N170" t="n">
-        <v>0.103</v>
+        <v>0.001</v>
       </c>
       <c r="O170" t="n">
-        <v>9.7</v>
+        <v>981.1</v>
       </c>
       <c r="P170" t="s">
-        <v>237</v>
+        <v>896</v>
       </c>
       <c r="Q170" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="R170" t="s">
         <v>61</v>
       </c>
       <c r="S170" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="B171" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>44619</v>
+        <v>44651</v>
       </c>
       <c r="D171" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="E171" t="s">
-        <v>53</v>
+        <v>902</v>
       </c>
       <c r="F171"/>
       <c r="G171" t="n">
-        <v>2</v>
+        <v>729</v>
       </c>
       <c r="H171" t="n">
-        <v>11989</v>
+        <v>486720814</v>
       </c>
       <c r="I171" t="n">
-        <v>38.125</v>
-      </c>
-      <c r="J171"/>
-      <c r="K171"/>
+        <v>7135.924</v>
+      </c>
+      <c r="J171" t="n">
+        <v>683867</v>
+      </c>
+      <c r="K171" t="n">
+        <v>10.026</v>
+      </c>
       <c r="L171" t="n">
-        <v>76</v>
+        <v>689608</v>
       </c>
       <c r="M171" t="n">
-        <v>0.242</v>
+        <v>10.11</v>
       </c>
       <c r="N171" t="n">
-        <v>0.0132</v>
+        <v>0.1112</v>
       </c>
       <c r="O171" t="n">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="P171" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="Q171" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="R171" t="s">
-        <v>311</v>
+        <v>61</v>
       </c>
       <c r="S171" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="B172" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>44652</v>
+        <v>44648</v>
       </c>
       <c r="D172" t="s">
-        <v>912</v>
+        <v>369</v>
       </c>
       <c r="E172" t="s">
-        <v>913</v>
+        <v>370</v>
       </c>
       <c r="F172"/>
       <c r="G172" t="n">
-        <v>153</v>
+        <v>758</v>
       </c>
       <c r="H172" t="n">
-        <v>84412291</v>
+        <v>847109806</v>
       </c>
       <c r="I172" t="n">
-        <v>859.869</v>
-      </c>
-      <c r="J172"/>
-      <c r="K172"/>
+        <v>2544.522</v>
+      </c>
+      <c r="J172" t="n">
+        <v>379179</v>
+      </c>
+      <c r="K172" t="n">
+        <v>1.139</v>
+      </c>
       <c r="L172" t="n">
-        <v>114862</v>
+        <v>720517</v>
       </c>
       <c r="M172" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N172"/>
-      <c r="O172"/>
+        <v>2.164</v>
+      </c>
+      <c r="N172" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="O172" t="n">
+        <v>41.7</v>
+      </c>
       <c r="P172" t="s">
-        <v>914</v>
+        <v>370</v>
       </c>
       <c r="Q172" t="s">
-        <v>915</v>
+        <v>369</v>
       </c>
       <c r="R172" t="s">
-        <v>45</v>
+        <v>371</v>
       </c>
       <c r="S172" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="B173" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>44632</v>
+        <v>44651</v>
       </c>
       <c r="D173" t="s">
-        <v>21</v>
+        <v>369</v>
       </c>
       <c r="E173" t="s">
-        <v>22</v>
+        <v>370</v>
       </c>
       <c r="F173"/>
       <c r="G173" t="n">
-        <v>2</v>
+        <v>722</v>
       </c>
       <c r="H173" t="n">
-        <v>329592</v>
+        <v>109120</v>
       </c>
       <c r="I173" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="J173"/>
-      <c r="K173"/>
+        <v>1047.036</v>
+      </c>
+      <c r="J173" t="n">
+        <v>72</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0.691</v>
+      </c>
       <c r="L173" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="M173" t="n">
-        <v>0</v>
-      </c>
-      <c r="N173"/>
-      <c r="O173"/>
+        <v>0.643</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O173" t="n">
+        <v>33.3</v>
+      </c>
       <c r="P173" t="s">
-        <v>23</v>
+        <v>370</v>
       </c>
       <c r="Q173" t="s">
-        <v>24</v>
+        <v>369</v>
       </c>
       <c r="R173" t="s">
-        <v>25</v>
+        <v>371</v>
       </c>
       <c r="S173" t="s">
-        <v>26</v>
+        <v>911</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="B174" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="C174" s="1" t="n">
         <v>44651</v>
       </c>
       <c r="D174" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="E174" t="s">
-        <v>922</v>
+        <v>237</v>
       </c>
       <c r="F174"/>
       <c r="G174" t="n">
-        <v>715</v>
+        <v>740</v>
       </c>
       <c r="H174" t="n">
-        <v>3357511</v>
+        <v>5999792</v>
       </c>
       <c r="I174" t="n">
-        <v>177.452</v>
+        <v>1721.53</v>
       </c>
       <c r="J174" t="n">
-        <v>2830</v>
+        <v>8607</v>
       </c>
       <c r="K174" t="n">
-        <v>0.15</v>
+        <v>2.47</v>
       </c>
       <c r="L174" t="n">
-        <v>2309</v>
+        <v>9410</v>
       </c>
       <c r="M174" t="n">
-        <v>0.122</v>
+        <v>2.7</v>
       </c>
       <c r="N174" t="n">
-        <v>0.0333</v>
+        <v>0.103</v>
       </c>
       <c r="O174" t="n">
-        <v>30</v>
+        <v>9.7</v>
       </c>
       <c r="P174" t="s">
-        <v>923</v>
+        <v>237</v>
       </c>
       <c r="Q174" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="R174" t="s">
         <v>61</v>
       </c>
       <c r="S174" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="B175" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>44652</v>
+        <v>44619</v>
       </c>
       <c r="D175" t="s">
-        <v>35</v>
+        <v>918</v>
       </c>
       <c r="E175" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F175"/>
       <c r="G175" t="n">
-        <v>655</v>
+        <v>2</v>
       </c>
       <c r="H175" t="n">
-        <v>2185767</v>
+        <v>11989</v>
       </c>
       <c r="I175" t="n">
-        <v>144.828</v>
+        <v>38.125</v>
       </c>
       <c r="J175"/>
       <c r="K175"/>
       <c r="L175" t="n">
+        <v>76</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0.0132</v>
+      </c>
+      <c r="O175" t="n">
+        <v>76</v>
+      </c>
+      <c r="P175" t="s">
+        <v>919</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>920</v>
+      </c>
+      <c r="R175" t="s">
+        <v>311</v>
+      </c>
+      <c r="S175" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>922</v>
+      </c>
+      <c r="B176" t="s">
+        <v>923</v>
+      </c>
+      <c r="C176" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="D176" t="s">
+        <v>924</v>
+      </c>
+      <c r="E176" t="s">
+        <v>925</v>
+      </c>
+      <c r="F176"/>
+      <c r="G176" t="n">
+        <v>153</v>
+      </c>
+      <c r="H176" t="n">
+        <v>84412291</v>
+      </c>
+      <c r="I176" t="n">
+        <v>859.869</v>
+      </c>
+      <c r="J176"/>
+      <c r="K176"/>
+      <c r="L176" t="n">
+        <v>114862</v>
+      </c>
+      <c r="M176" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N176"/>
+      <c r="O176"/>
+      <c r="P176" t="s">
+        <v>926</v>
+      </c>
+      <c r="Q176" t="s">
+        <v>927</v>
+      </c>
+      <c r="R176" t="s">
+        <v>45</v>
+      </c>
+      <c r="S176" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>929</v>
+      </c>
+      <c r="B177" t="s">
+        <v>930</v>
+      </c>
+      <c r="C177" s="1" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D177" t="s">
+        <v>21</v>
+      </c>
+      <c r="E177" t="s">
+        <v>22</v>
+      </c>
+      <c r="F177"/>
+      <c r="G177" t="n">
+        <v>2</v>
+      </c>
+      <c r="H177" t="n">
+        <v>329592</v>
+      </c>
+      <c r="I177" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="J177"/>
+      <c r="K177"/>
+      <c r="L177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N177"/>
+      <c r="O177"/>
+      <c r="P177" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>24</v>
+      </c>
+      <c r="R177" t="s">
+        <v>25</v>
+      </c>
+      <c r="S177" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>931</v>
+      </c>
+      <c r="B178" t="s">
+        <v>932</v>
+      </c>
+      <c r="C178" s="1" t="n">
+        <v>44651</v>
+      </c>
+      <c r="D178" t="s">
+        <v>933</v>
+      </c>
+      <c r="E178" t="s">
+        <v>934</v>
+      </c>
+      <c r="F178"/>
+      <c r="G178" t="n">
+        <v>715</v>
+      </c>
+      <c r="H178" t="n">
+        <v>3357511</v>
+      </c>
+      <c r="I178" t="n">
+        <v>177.452</v>
+      </c>
+      <c r="J178" t="n">
+        <v>2830</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L178" t="n">
+        <v>2309</v>
+      </c>
+      <c r="M178" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="N178" t="n">
+        <v>0.0333</v>
+      </c>
+      <c r="O178" t="n">
+        <v>30</v>
+      </c>
+      <c r="P178" t="s">
+        <v>935</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>933</v>
+      </c>
+      <c r="R178" t="s">
+        <v>61</v>
+      </c>
+      <c r="S178" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>937</v>
+      </c>
+      <c r="B179" t="s">
+        <v>938</v>
+      </c>
+      <c r="C179" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="D179" t="s">
+        <v>35</v>
+      </c>
+      <c r="E179" t="s">
+        <v>36</v>
+      </c>
+      <c r="F179"/>
+      <c r="G179" t="n">
+        <v>655</v>
+      </c>
+      <c r="H179" t="n">
+        <v>2185767</v>
+      </c>
+      <c r="I179" t="n">
+        <v>144.828</v>
+      </c>
+      <c r="J179"/>
+      <c r="K179"/>
+      <c r="L179" t="n">
         <v>2599</v>
       </c>
-      <c r="M175" t="n">
+      <c r="M179" t="n">
         <v>0.172</v>
       </c>
-      <c r="N175"/>
-      <c r="O175"/>
-      <c r="P175" t="s">
+      <c r="N179" t="n">
+        <v>0.0423</v>
+      </c>
+      <c r="O179" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="P179" t="s">
         <v>36</v>
       </c>
-      <c r="Q175" t="s">
+      <c r="Q179" t="s">
         <v>37</v>
       </c>
-      <c r="R175" t="s">
+      <c r="R179" t="s">
         <v>61</v>
       </c>
-      <c r="S175" t="s">
-        <v>927</v>
+      <c r="S179" t="s">
+        <v>939</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -101,7 +101,7 @@
     <t xml:space="preserve">Albania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-986-testime-69-qytetare-te-infektuar-asnje-humbje-jete-dhe-63-te-sheruar-ne-24-oret-e-fundit/</t>
+    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-1227-testime-64-qytetare-te-infektuar-asnje-humbje-jete-dhe-41-te-sheruar-ne-24-oret-e-fundit/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Protection</t>
@@ -295,7 +295,7 @@
     <t xml:space="preserve">Bahamas - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bahamas.gov.bs/wps/wcm/connect/ea1a604d-064a-42e0-9790-6e8d11bcf269/Update+%23734+-+Ministry+of+Health+%26+Wellness+-+COVID-19+Report+%285%29.pdf?MOD=AJPERES</t>
+    <t xml:space="preserve">https://www.bahamas.gov.bs/wps/wcm/connect/c93307cf-31a2-4631-9f3e-9dd85e1c17de/Update+%23737+-+Ministry+of+Health+%26+Wellness+-+COVID-19+Report+%2814%29.pdf?MOD=AJPERES</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Wellness</t>
@@ -357,7 +357,7 @@
     <t xml:space="preserve">Barbados - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gisbarbados.gov.bb/blog/covid-19-update-for-wednesday-march-30/</t>
+    <t xml:space="preserve">https://gisbarbados.gov.bb/blog/covid-19-update-for-april-2%ef%bf%bc/</t>
   </si>
   <si>
     <t xml:space="preserve">https://gisbarbados.gov.bb/top-stories/</t>
@@ -886,7 +886,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://coronavirusrd.gob.do/wp-content/uploads/2022/03/Boletin-especial-734-COVID-19.pdf</t>
+    <t xml:space="preserve">https://coronavirusrd.gob.do/wp-content/uploads/2022/04/Boletin-especial-743-COVID-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -1051,7 +1051,7 @@
     <t xml:space="preserve">Fiji - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.fj/01-04-2022/</t>
+    <t xml:space="preserve">https://www.health.gov.fj/04-04-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Fiji Ministry of Health &amp; Medical Services</t>
@@ -1539,7 +1539,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-monday-march-28-2022/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-friday-april-1-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -2238,7 +2238,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.facebook.com/mohps/posts/322661553294147</t>
+    <t xml:space="preserve">https://web.facebook.com/mohps/posts/327243026169333</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -2260,7 +2260,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1508968977707544578</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1510782598871662606</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -3620,7 +3620,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>44651</v>
+        <v>44653</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
@@ -3630,31 +3630,31 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H3" t="n">
-        <v>1599266</v>
+        <v>1600493</v>
       </c>
       <c r="I3" t="n">
-        <v>556.666</v>
+        <v>557.094</v>
       </c>
       <c r="J3" t="n">
-        <v>986</v>
+        <v>1227</v>
       </c>
       <c r="K3" t="n">
-        <v>0.343</v>
+        <v>0.427</v>
       </c>
       <c r="L3" t="n">
-        <v>210</v>
+        <v>339</v>
       </c>
       <c r="M3" t="n">
-        <v>0.073</v>
+        <v>0.118</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2857</v>
+        <v>0.1837</v>
       </c>
       <c r="O3" t="n">
-        <v>3.5</v>
+        <v>5.4</v>
       </c>
       <c r="P3" t="s">
         <v>30</v>
@@ -3881,7 +3881,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44650</v>
+        <v>44653</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -3891,25 +3891,25 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="H8" t="n">
-        <v>35307883</v>
+        <v>35365799</v>
       </c>
       <c r="I8" t="n">
-        <v>774.197</v>
+        <v>775.467</v>
       </c>
       <c r="J8" t="n">
-        <v>20725</v>
+        <v>8130</v>
       </c>
       <c r="K8" t="n">
-        <v>0.454</v>
+        <v>0.178</v>
       </c>
       <c r="L8" t="n">
-        <v>19824</v>
+        <v>19162</v>
       </c>
       <c r="M8" t="n">
-        <v>0.435</v>
+        <v>0.42</v>
       </c>
       <c r="N8" t="n">
         <v>0.043</v>
@@ -3938,7 +3938,7 @@
         <v>64</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44651</v>
+        <v>44654</v>
       </c>
       <c r="D9" t="s">
         <v>65</v>
@@ -3948,25 +3948,25 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="H9" t="n">
-        <v>2978377</v>
+        <v>2984354</v>
       </c>
       <c r="I9" t="n">
-        <v>1003.453</v>
+        <v>1005.467</v>
       </c>
       <c r="J9" t="n">
-        <v>2063</v>
+        <v>2048</v>
       </c>
       <c r="K9" t="n">
-        <v>0.695</v>
+        <v>0.69</v>
       </c>
       <c r="L9" t="n">
-        <v>2185</v>
+        <v>2068</v>
       </c>
       <c r="M9" t="n">
-        <v>0.736</v>
+        <v>0.697</v>
       </c>
       <c r="N9" t="n">
         <v>0.008</v>
@@ -3995,7 +3995,7 @@
         <v>69</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44652</v>
+        <v>44655</v>
       </c>
       <c r="D10" t="s">
         <v>70</v>
@@ -4007,32 +4007,28 @@
         <v>72</v>
       </c>
       <c r="G10" t="n">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="H10" t="n">
-        <v>66680026</v>
+        <v>66984863</v>
       </c>
       <c r="I10" t="n">
-        <v>2585.678</v>
+        <v>2597.499</v>
       </c>
       <c r="J10" t="n">
-        <v>133814</v>
+        <v>97613</v>
       </c>
       <c r="K10" t="n">
-        <v>5.189</v>
+        <v>3.785</v>
       </c>
       <c r="L10" t="n">
-        <v>120538</v>
+        <v>116675</v>
       </c>
       <c r="M10" t="n">
-        <v>4.674</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.4737</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2.1</v>
-      </c>
+        <v>4.524</v>
+      </c>
+      <c r="N10"/>
+      <c r="O10"/>
       <c r="P10" t="s">
         <v>71</v>
       </c>
@@ -4054,7 +4050,7 @@
         <v>76</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44652</v>
+        <v>44655</v>
       </c>
       <c r="D11" t="s">
         <v>77</v>
@@ -4064,28 +4060,28 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="H11" t="n">
-        <v>176169662</v>
+        <v>177031676</v>
       </c>
       <c r="I11" t="n">
-        <v>19481.174</v>
-      </c>
-      <c r="J11"/>
-      <c r="K11"/>
+        <v>19576.497</v>
+      </c>
+      <c r="J11" t="n">
+        <v>188046</v>
+      </c>
+      <c r="K11" t="n">
+        <v>20.794</v>
+      </c>
       <c r="L11" t="n">
-        <v>466401</v>
+        <v>445220</v>
       </c>
       <c r="M11" t="n">
-        <v>51.576</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="O11" t="n">
-        <v>17.2</v>
-      </c>
+        <v>49.233</v>
+      </c>
+      <c r="N11"/>
+      <c r="O11"/>
       <c r="P11" t="s">
         <v>78</v>
       </c>
@@ -4107,7 +4103,7 @@
         <v>81</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44651</v>
+        <v>44654</v>
       </c>
       <c r="D12" t="s">
         <v>82</v>
@@ -4117,27 +4113,27 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H12" t="n">
-        <v>6706012</v>
+        <v>6716463</v>
       </c>
       <c r="I12" t="n">
-        <v>655.951</v>
+        <v>656.973</v>
       </c>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12" t="n">
-        <v>4175</v>
+        <v>4511</v>
       </c>
       <c r="M12" t="n">
-        <v>0.408</v>
+        <v>0.441</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0112</v>
+        <v>0.0098</v>
       </c>
       <c r="O12" t="n">
-        <v>89.1</v>
+        <v>101.5</v>
       </c>
       <c r="P12" t="s">
         <v>83</v>
@@ -4160,7 +4156,7 @@
         <v>86</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="D13" t="s">
         <v>87</v>
@@ -4170,27 +4166,31 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H13" t="n">
-        <v>227658</v>
+        <v>228225</v>
       </c>
       <c r="I13" t="n">
-        <v>573.57</v>
-      </c>
-      <c r="J13"/>
-      <c r="K13"/>
+        <v>574.999</v>
+      </c>
+      <c r="J13" t="n">
+        <v>567</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.429</v>
+      </c>
       <c r="L13" t="n">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="M13" t="n">
-        <v>0.529</v>
+        <v>0.665</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0136</v>
+        <v>0.0222</v>
       </c>
       <c r="O13" t="n">
-        <v>73.5</v>
+        <v>45.1</v>
       </c>
       <c r="P13" t="s">
         <v>89</v>
@@ -4213,7 +4213,7 @@
         <v>93</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44652</v>
+        <v>44655</v>
       </c>
       <c r="D14" t="s">
         <v>94</v>
@@ -4223,28 +4223,24 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H14" t="n">
-        <v>9608542</v>
+        <v>9620989</v>
       </c>
       <c r="I14" t="n">
-        <v>5495.95</v>
+        <v>5503.07</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14" t="n">
-        <v>5541</v>
+        <v>5085</v>
       </c>
       <c r="M14" t="n">
-        <v>3.169</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.1363</v>
-      </c>
-      <c r="O14" t="n">
-        <v>7.3</v>
-      </c>
+        <v>2.909</v>
+      </c>
+      <c r="N14"/>
+      <c r="O14"/>
       <c r="P14" t="s">
         <v>95</v>
       </c>
@@ -4266,7 +4262,7 @@
         <v>100</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44652</v>
+        <v>44655</v>
       </c>
       <c r="D15" t="s">
         <v>101</v>
@@ -4276,32 +4272,28 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H15" t="n">
-        <v>13692579</v>
+        <v>13699666</v>
       </c>
       <c r="I15" t="n">
-        <v>82.335</v>
+        <v>82.377</v>
       </c>
       <c r="J15" t="n">
-        <v>7413</v>
+        <v>7087</v>
       </c>
       <c r="K15" t="n">
-        <v>0.045</v>
+        <v>0.043</v>
       </c>
       <c r="L15" t="n">
-        <v>2066</v>
+        <v>2071</v>
       </c>
       <c r="M15" t="n">
         <v>0.012</v>
       </c>
-      <c r="N15" t="n">
-        <v>0.0335</v>
-      </c>
-      <c r="O15" t="n">
-        <v>29.9</v>
-      </c>
+      <c r="N15"/>
+      <c r="O15"/>
       <c r="P15" t="s">
         <v>102</v>
       </c>
@@ -4323,7 +4315,7 @@
         <v>105</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>44650</v>
+        <v>44653</v>
       </c>
       <c r="D16" t="s">
         <v>106</v>
@@ -4333,27 +4325,27 @@
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H16" t="n">
-        <v>612282</v>
+        <v>615321</v>
       </c>
       <c r="I16" t="n">
-        <v>2128.137</v>
+        <v>2138.7</v>
       </c>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16" t="n">
-        <v>881</v>
+        <v>960</v>
       </c>
       <c r="M16" t="n">
-        <v>3.062</v>
+        <v>3.337</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1722</v>
+        <v>0.2179</v>
       </c>
       <c r="O16" t="n">
-        <v>5.8</v>
+        <v>4.6</v>
       </c>
       <c r="P16" t="s">
         <v>53</v>
@@ -4376,7 +4368,7 @@
         <v>110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44652</v>
+        <v>44655</v>
       </c>
       <c r="D17" t="s">
         <v>111</v>
@@ -4386,28 +4378,24 @@
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H17" t="n">
-        <v>12868991</v>
+        <v>12897334</v>
       </c>
       <c r="I17" t="n">
-        <v>1362.827</v>
+        <v>1365.828</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17" t="n">
-        <v>11246</v>
+        <v>10741</v>
       </c>
       <c r="M17" t="n">
-        <v>1.191</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.0847</v>
-      </c>
-      <c r="O17" t="n">
-        <v>11.8</v>
-      </c>
+        <v>1.137</v>
+      </c>
+      <c r="N17"/>
+      <c r="O17"/>
       <c r="P17" t="s">
         <v>113</v>
       </c>
@@ -4855,7 +4843,7 @@
         <v>161</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>44651</v>
+        <v>44654</v>
       </c>
       <c r="D26" t="s">
         <v>162</v>
@@ -4865,27 +4853,27 @@
       </c>
       <c r="F26"/>
       <c r="G26" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H26" t="n">
-        <v>9602987</v>
+        <v>9627296</v>
       </c>
       <c r="I26" t="n">
-        <v>1392.412</v>
+        <v>1395.937</v>
       </c>
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26" t="n">
-        <v>11281</v>
+        <v>11090</v>
       </c>
       <c r="M26" t="n">
-        <v>1.636</v>
+        <v>1.608</v>
       </c>
       <c r="N26" t="n">
-        <v>0.0995</v>
+        <v>0.0929</v>
       </c>
       <c r="O26" t="n">
-        <v>10</v>
+        <v>10.8</v>
       </c>
       <c r="P26" t="s">
         <v>164</v>
@@ -5118,7 +5106,7 @@
         <v>182</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>44651</v>
+        <v>44653</v>
       </c>
       <c r="D31" t="s">
         <v>183</v>
@@ -5128,31 +5116,31 @@
       </c>
       <c r="F31"/>
       <c r="G31" t="n">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="H31" t="n">
-        <v>59464465</v>
+        <v>59543792</v>
       </c>
       <c r="I31" t="n">
-        <v>1562.063</v>
+        <v>1564.146</v>
       </c>
       <c r="J31" t="n">
-        <v>48573</v>
+        <v>28857</v>
       </c>
       <c r="K31" t="n">
-        <v>1.276</v>
+        <v>0.758</v>
       </c>
       <c r="L31" t="n">
-        <v>40400</v>
+        <v>42132</v>
       </c>
       <c r="M31" t="n">
-        <v>1.061</v>
+        <v>1.107</v>
       </c>
       <c r="N31" t="n">
-        <v>0.189</v>
+        <v>0.1916</v>
       </c>
       <c r="O31" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="P31" t="s">
         <v>184</v>
@@ -5324,7 +5312,7 @@
         <v>200</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44652</v>
+        <v>44655</v>
       </c>
       <c r="D35" t="s">
         <v>201</v>
@@ -5334,32 +5322,28 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="H35" t="n">
-        <v>35336336</v>
+        <v>35516119</v>
       </c>
       <c r="I35" t="n">
-        <v>1839.25</v>
+        <v>1848.608</v>
       </c>
       <c r="J35" t="n">
-        <v>77032</v>
+        <v>43541</v>
       </c>
       <c r="K35" t="n">
-        <v>4.01</v>
+        <v>2.266</v>
       </c>
       <c r="L35" t="n">
-        <v>69235</v>
+        <v>63342</v>
       </c>
       <c r="M35" t="n">
-        <v>3.604</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0.0867</v>
-      </c>
-      <c r="O35" t="n">
-        <v>11.5</v>
-      </c>
+        <v>3.297</v>
+      </c>
+      <c r="N35"/>
+      <c r="O35"/>
       <c r="P35" t="s">
         <v>202</v>
       </c>
@@ -5434,7 +5418,7 @@
         <v>212</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>44651</v>
+        <v>44654</v>
       </c>
       <c r="D37" t="s">
         <v>213</v>
@@ -5444,25 +5428,25 @@
       </c>
       <c r="F37"/>
       <c r="G37" t="n">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="H37" t="n">
-        <v>33860289</v>
+        <v>33911412</v>
       </c>
       <c r="I37" t="n">
-        <v>660.484</v>
+        <v>661.482</v>
       </c>
       <c r="J37" t="n">
-        <v>23099</v>
+        <v>19223</v>
       </c>
       <c r="K37" t="n">
-        <v>0.451</v>
+        <v>0.375</v>
       </c>
       <c r="L37" t="n">
-        <v>22322</v>
+        <v>20616</v>
       </c>
       <c r="M37" t="n">
-        <v>0.435</v>
+        <v>0.402</v>
       </c>
       <c r="N37" t="n">
         <v>0.02</v>
@@ -5646,7 +5630,7 @@
         <v>229</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44652</v>
+        <v>44655</v>
       </c>
       <c r="D41" t="s">
         <v>230</v>
@@ -5656,28 +5640,24 @@
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H41" t="n">
-        <v>4683210</v>
+        <v>4692868</v>
       </c>
       <c r="I41" t="n">
-        <v>1147.38</v>
+        <v>1149.746</v>
       </c>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41" t="n">
-        <v>4806</v>
+        <v>4679</v>
       </c>
       <c r="M41" t="n">
-        <v>1.177</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0.2707</v>
-      </c>
-      <c r="O41" t="n">
-        <v>3.7</v>
-      </c>
+        <v>1.146</v>
+      </c>
+      <c r="N41"/>
+      <c r="O41"/>
       <c r="P41" t="s">
         <v>231</v>
       </c>
@@ -5758,7 +5738,7 @@
         <v>242</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44650</v>
+        <v>44654</v>
       </c>
       <c r="D43" t="s">
         <v>243</v>
@@ -5768,31 +5748,31 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="H43" t="n">
-        <v>28393478</v>
+        <v>28689374</v>
       </c>
       <c r="I43" t="n">
-        <v>31688.973</v>
+        <v>32019.212</v>
       </c>
       <c r="J43" t="n">
-        <v>83389</v>
+        <v>78818</v>
       </c>
       <c r="K43" t="n">
-        <v>93.068</v>
+        <v>87.966</v>
       </c>
       <c r="L43" t="n">
-        <v>86975</v>
+        <v>84361</v>
       </c>
       <c r="M43" t="n">
-        <v>97.07</v>
+        <v>94.152</v>
       </c>
       <c r="N43" t="n">
-        <v>0.0564</v>
+        <v>0.0507</v>
       </c>
       <c r="O43" t="n">
-        <v>17.7</v>
+        <v>19.7</v>
       </c>
       <c r="P43" t="s">
         <v>53</v>
@@ -5815,7 +5795,7 @@
         <v>246</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>44651</v>
+        <v>44654</v>
       </c>
       <c r="D44" t="s">
         <v>247</v>
@@ -5825,31 +5805,31 @@
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="H44" t="n">
-        <v>53795867</v>
+        <v>53847350</v>
       </c>
       <c r="I44" t="n">
-        <v>5016.141</v>
+        <v>5020.941</v>
       </c>
       <c r="J44" t="n">
-        <v>26417</v>
+        <v>8569</v>
       </c>
       <c r="K44" t="n">
-        <v>2.463</v>
+        <v>0.799</v>
       </c>
       <c r="L44" t="n">
-        <v>26186</v>
+        <v>25452</v>
       </c>
       <c r="M44" t="n">
-        <v>2.442</v>
+        <v>2.373</v>
       </c>
       <c r="N44" t="n">
-        <v>0.245</v>
+        <v>0.235</v>
       </c>
       <c r="O44" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="P44" t="s">
         <v>53</v>
@@ -5925,7 +5905,7 @@
         <v>256</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>44651</v>
+        <v>44654</v>
       </c>
       <c r="D46" t="s">
         <v>257</v>
@@ -5935,31 +5915,31 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="H46" t="n">
-        <v>66615672</v>
+        <v>66668770</v>
       </c>
       <c r="I46" t="n">
-        <v>11459.18</v>
+        <v>11468.314</v>
       </c>
       <c r="J46" t="n">
-        <v>18970</v>
+        <v>13660</v>
       </c>
       <c r="K46" t="n">
-        <v>3.263</v>
+        <v>2.35</v>
       </c>
       <c r="L46" t="n">
-        <v>23904</v>
+        <v>22710</v>
       </c>
       <c r="M46" t="n">
-        <v>4.112</v>
+        <v>3.907</v>
       </c>
       <c r="N46" t="n">
-        <v>0.1766</v>
+        <v>0.1519</v>
       </c>
       <c r="O46" t="n">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="P46" t="s">
         <v>258</v>
@@ -6035,7 +6015,7 @@
         <v>264</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>44642</v>
+        <v>44652</v>
       </c>
       <c r="D48" t="s">
         <v>265</v>
@@ -6045,31 +6025,31 @@
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="H48" t="n">
-        <v>3204935</v>
+        <v>3228620</v>
       </c>
       <c r="I48" t="n">
-        <v>292.589</v>
+        <v>294.751</v>
       </c>
       <c r="J48" t="n">
-        <v>2613</v>
+        <v>3418</v>
       </c>
       <c r="K48" t="n">
-        <v>0.239</v>
+        <v>0.312</v>
       </c>
       <c r="L48" t="n">
-        <v>3599</v>
+        <v>2810</v>
       </c>
       <c r="M48" t="n">
-        <v>0.329</v>
+        <v>0.257</v>
       </c>
       <c r="N48" t="n">
-        <v>0.0273</v>
+        <v>0.0232</v>
       </c>
       <c r="O48" t="n">
-        <v>36.6</v>
+        <v>43</v>
       </c>
       <c r="P48" t="s">
         <v>266</v>
@@ -6200,7 +6180,7 @@
         <v>281</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>44638</v>
+        <v>44644</v>
       </c>
       <c r="D51" t="s">
         <v>282</v>
@@ -6210,31 +6190,31 @@
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="H51" t="n">
-        <v>1484613</v>
+        <v>1512537</v>
       </c>
       <c r="I51" t="n">
-        <v>227.754</v>
+        <v>232.038</v>
       </c>
       <c r="J51" t="n">
-        <v>4637</v>
+        <v>4695</v>
       </c>
       <c r="K51" t="n">
-        <v>0.711</v>
+        <v>0.72</v>
       </c>
       <c r="L51" t="n">
-        <v>4673</v>
+        <v>4652</v>
       </c>
       <c r="M51" t="n">
-        <v>0.717</v>
+        <v>0.714</v>
       </c>
       <c r="N51" t="n">
-        <v>0.034</v>
+        <v>0.019</v>
       </c>
       <c r="O51" t="n">
-        <v>29.4</v>
+        <v>52.6</v>
       </c>
       <c r="P51" t="s">
         <v>283</v>
@@ -6355,7 +6335,7 @@
         <v>294</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>44651</v>
+        <v>44654</v>
       </c>
       <c r="D54" t="s">
         <v>295</v>
@@ -6365,31 +6345,31 @@
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="H54" t="n">
-        <v>3264295</v>
+        <v>3271452</v>
       </c>
       <c r="I54" t="n">
-        <v>2463.269</v>
+        <v>2468.67</v>
       </c>
       <c r="J54" t="n">
-        <v>3797</v>
+        <v>1980</v>
       </c>
       <c r="K54" t="n">
-        <v>2.865</v>
+        <v>1.494</v>
       </c>
       <c r="L54" t="n">
-        <v>3445</v>
+        <v>3375</v>
       </c>
       <c r="M54" t="n">
-        <v>2.6</v>
+        <v>2.547</v>
       </c>
       <c r="N54" t="n">
-        <v>0.3305</v>
+        <v>0.296</v>
       </c>
       <c r="O54" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P54" t="s">
         <v>296</v>
@@ -6571,7 +6551,7 @@
         <v>314</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44651</v>
+        <v>44654</v>
       </c>
       <c r="D58" t="s">
         <v>315</v>
@@ -6581,21 +6561,21 @@
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H58" t="n">
-        <v>505020</v>
+        <v>505211</v>
       </c>
       <c r="I58" t="n">
-        <v>559.332</v>
+        <v>559.543</v>
       </c>
       <c r="J58"/>
       <c r="K58"/>
       <c r="L58" t="n">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="M58" t="n">
-        <v>0.132</v>
+        <v>0.117</v>
       </c>
       <c r="N58"/>
       <c r="O58"/>
@@ -6620,7 +6600,7 @@
         <v>320</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44650</v>
+        <v>44653</v>
       </c>
       <c r="D59" t="s">
         <v>321</v>
@@ -6630,31 +6610,31 @@
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="H59" t="n">
-        <v>10437148</v>
+        <v>10456910</v>
       </c>
       <c r="I59" t="n">
-        <v>1881.123</v>
+        <v>1884.685</v>
       </c>
       <c r="J59" t="n">
-        <v>12692</v>
+        <v>2255</v>
       </c>
       <c r="K59" t="n">
-        <v>2.288</v>
+        <v>0.406</v>
       </c>
       <c r="L59" t="n">
-        <v>13770</v>
+        <v>9918</v>
       </c>
       <c r="M59" t="n">
-        <v>2.482</v>
+        <v>1.788</v>
       </c>
       <c r="N59" t="n">
-        <v>0.443</v>
+        <v>0.561</v>
       </c>
       <c r="O59" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="P59" t="s">
         <v>323</v>
@@ -6677,7 +6657,7 @@
         <v>327</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44649</v>
+        <v>44651</v>
       </c>
       <c r="D60" t="s">
         <v>328</v>
@@ -6687,25 +6667,25 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="H60" t="n">
-        <v>258271204</v>
+        <v>259347009</v>
       </c>
       <c r="I60" t="n">
-        <v>3830.667</v>
+        <v>3846.623</v>
       </c>
       <c r="J60" t="n">
-        <v>578887</v>
+        <v>503561</v>
       </c>
       <c r="K60" t="n">
-        <v>8.586</v>
+        <v>7.469</v>
       </c>
       <c r="L60" t="n">
-        <v>478081</v>
+        <v>486062</v>
       </c>
       <c r="M60" t="n">
-        <v>7.091</v>
+        <v>7.209</v>
       </c>
       <c r="N60" t="n">
         <v>0.309</v>
@@ -7056,7 +7036,7 @@
         <v>361</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>44652</v>
+        <v>44655</v>
       </c>
       <c r="D67" t="s">
         <v>362</v>
@@ -7066,28 +7046,24 @@
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H67" t="n">
-        <v>74389472</v>
+        <v>74953491</v>
       </c>
       <c r="I67" t="n">
-        <v>7173.01</v>
+        <v>7227.396</v>
       </c>
       <c r="J67"/>
       <c r="K67"/>
       <c r="L67" t="n">
-        <v>276698</v>
+        <v>271642</v>
       </c>
       <c r="M67" t="n">
-        <v>26.681</v>
-      </c>
-      <c r="N67" t="n">
-        <v>0.0781</v>
-      </c>
-      <c r="O67" t="n">
-        <v>12.8</v>
-      </c>
+        <v>26.193</v>
+      </c>
+      <c r="N67"/>
+      <c r="O67"/>
       <c r="P67" t="s">
         <v>364</v>
       </c>
@@ -7488,7 +7464,7 @@
         <v>407</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="D75" t="s">
         <v>408</v>
@@ -7500,28 +7476,28 @@
         <v>410</v>
       </c>
       <c r="G75" t="n">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H75" t="n">
-        <v>10664846</v>
+        <v>10676546</v>
       </c>
       <c r="I75" t="n">
-        <v>1106.982</v>
+        <v>1108.197</v>
       </c>
       <c r="J75" t="n">
-        <v>12622</v>
+        <v>11700</v>
       </c>
       <c r="K75" t="n">
-        <v>1.31</v>
+        <v>1.214</v>
       </c>
       <c r="L75" t="n">
-        <v>10773</v>
+        <v>10610</v>
       </c>
       <c r="M75" t="n">
-        <v>1.118</v>
+        <v>1.101</v>
       </c>
       <c r="N75" t="n">
-        <v>0.1983</v>
+        <v>0.1998</v>
       </c>
       <c r="O75" t="n">
         <v>5</v>
@@ -7600,7 +7576,7 @@
         <v>419</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>44650</v>
+        <v>44655</v>
       </c>
       <c r="D77" t="s">
         <v>420</v>
@@ -7612,32 +7588,28 @@
         <v>422</v>
       </c>
       <c r="G77" t="n">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="H77" t="n">
-        <v>788556935</v>
+        <v>791079706</v>
       </c>
       <c r="I77" t="n">
-        <v>565.919</v>
+        <v>567.73</v>
       </c>
       <c r="J77" t="n">
-        <v>624022</v>
+        <v>314823</v>
       </c>
       <c r="K77" t="n">
-        <v>0.448</v>
+        <v>0.226</v>
       </c>
       <c r="L77" t="n">
-        <v>609441</v>
+        <v>532050</v>
       </c>
       <c r="M77" t="n">
-        <v>0.437</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0.0023</v>
-      </c>
-      <c r="O77" t="n">
-        <v>437.4</v>
-      </c>
+        <v>0.382</v>
+      </c>
+      <c r="N77"/>
+      <c r="O77"/>
       <c r="P77" t="s">
         <v>421</v>
       </c>
@@ -7822,7 +7794,7 @@
         <v>440</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>44652</v>
+        <v>44655</v>
       </c>
       <c r="D81" t="s">
         <v>441</v>
@@ -7832,32 +7804,28 @@
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="H81" t="n">
-        <v>11833422</v>
+        <v>11863308</v>
       </c>
       <c r="I81" t="n">
-        <v>2374.804</v>
+        <v>2380.802</v>
       </c>
       <c r="J81" t="n">
-        <v>13346</v>
+        <v>7985</v>
       </c>
       <c r="K81" t="n">
-        <v>2.678</v>
+        <v>1.602</v>
       </c>
       <c r="L81" t="n">
-        <v>15363</v>
+        <v>12901</v>
       </c>
       <c r="M81" t="n">
-        <v>3.083</v>
-      </c>
-      <c r="N81" t="n">
-        <v>0.3925</v>
-      </c>
-      <c r="O81" t="n">
-        <v>2.5</v>
-      </c>
+        <v>2.589</v>
+      </c>
+      <c r="N81"/>
+      <c r="O81"/>
       <c r="P81" t="s">
         <v>442</v>
       </c>
@@ -7879,7 +7847,7 @@
         <v>446</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>44652</v>
+        <v>44655</v>
       </c>
       <c r="D82" t="s">
         <v>447</v>
@@ -7889,31 +7857,31 @@
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="H82" t="n">
-        <v>48612106</v>
+        <v>48760806</v>
       </c>
       <c r="I82" t="n">
-        <v>5232.172</v>
+        <v>5248.176</v>
       </c>
       <c r="J82" t="n">
-        <v>36322</v>
+        <v>36055</v>
       </c>
       <c r="K82" t="n">
-        <v>3.909</v>
+        <v>3.881</v>
       </c>
       <c r="L82" t="n">
-        <v>63970</v>
+        <v>56732</v>
       </c>
       <c r="M82" t="n">
-        <v>6.885</v>
+        <v>6.106</v>
       </c>
       <c r="N82" t="n">
-        <v>0.19</v>
+        <v>0.182</v>
       </c>
       <c r="O82" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="P82" t="s">
         <v>53</v>
@@ -7936,7 +7904,7 @@
         <v>452</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44652</v>
+        <v>44655</v>
       </c>
       <c r="D83" t="s">
         <v>453</v>
@@ -7948,32 +7916,28 @@
         <v>455</v>
       </c>
       <c r="G83" t="n">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="H83" t="n">
-        <v>201422918</v>
+        <v>203647359</v>
       </c>
       <c r="I83" t="n">
-        <v>3336.613</v>
+        <v>3373.462</v>
       </c>
       <c r="J83" t="n">
-        <v>514823</v>
+        <v>1383218</v>
       </c>
       <c r="K83" t="n">
-        <v>8.528</v>
+        <v>22.913</v>
       </c>
       <c r="L83" t="n">
-        <v>469612</v>
+        <v>630241</v>
       </c>
       <c r="M83" t="n">
-        <v>7.779</v>
-      </c>
-      <c r="N83" t="n">
-        <v>0.149</v>
-      </c>
-      <c r="O83" t="n">
-        <v>6.7</v>
-      </c>
+        <v>10.44</v>
+      </c>
+      <c r="N83"/>
+      <c r="O83"/>
       <c r="P83" t="s">
         <v>456</v>
       </c>
@@ -7995,7 +7959,7 @@
         <v>460</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="D84" t="s">
         <v>461</v>
@@ -8005,31 +7969,31 @@
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="H84" t="n">
-        <v>922458</v>
+        <v>931763</v>
       </c>
       <c r="I84" t="n">
-        <v>310.23</v>
+        <v>313.36</v>
       </c>
       <c r="J84" t="n">
-        <v>2310</v>
+        <v>2463</v>
       </c>
       <c r="K84" t="n">
-        <v>0.777</v>
+        <v>0.828</v>
       </c>
       <c r="L84" t="n">
-        <v>2712</v>
+        <v>2521</v>
       </c>
       <c r="M84" t="n">
-        <v>0.912</v>
+        <v>0.848</v>
       </c>
       <c r="N84" t="n">
-        <v>0.0073</v>
+        <v>0.009</v>
       </c>
       <c r="O84" t="n">
-        <v>136.6</v>
+        <v>111.7</v>
       </c>
       <c r="P84" t="s">
         <v>462</v>
@@ -8052,7 +8016,7 @@
         <v>466</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44651</v>
+        <v>44653</v>
       </c>
       <c r="D85" t="s">
         <v>467</v>
@@ -8062,31 +8026,31 @@
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="H85" t="n">
-        <v>41703363</v>
+        <v>41988189</v>
       </c>
       <c r="I85" t="n">
-        <v>330.846</v>
+        <v>333.105</v>
       </c>
       <c r="J85" t="n">
-        <v>138984</v>
+        <v>100759</v>
       </c>
       <c r="K85" t="n">
-        <v>1.103</v>
+        <v>0.799</v>
       </c>
       <c r="L85" t="n">
-        <v>119583</v>
+        <v>124252</v>
       </c>
       <c r="M85" t="n">
-        <v>0.949</v>
+        <v>0.986</v>
       </c>
       <c r="N85" t="n">
-        <v>0.3788</v>
+        <v>0.3683</v>
       </c>
       <c r="O85" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P85" t="s">
         <v>468</v>
@@ -8431,7 +8395,7 @@
         <v>504</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44652</v>
+        <v>44655</v>
       </c>
       <c r="D92" t="s">
         <v>505</v>
@@ -8443,32 +8407,28 @@
         <v>507</v>
       </c>
       <c r="G92" t="n">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="H92" t="n">
-        <v>7011107</v>
+        <v>7020967</v>
       </c>
       <c r="I92" t="n">
-        <v>3755.412</v>
+        <v>3760.694</v>
       </c>
       <c r="J92" t="n">
-        <v>6966</v>
+        <v>2357</v>
       </c>
       <c r="K92" t="n">
-        <v>3.731</v>
+        <v>1.262</v>
       </c>
       <c r="L92" t="n">
-        <v>6542</v>
+        <v>6004</v>
       </c>
       <c r="M92" t="n">
-        <v>3.504</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0.2994</v>
-      </c>
-      <c r="O92" t="n">
-        <v>3.3</v>
-      </c>
+        <v>3.216</v>
+      </c>
+      <c r="N92"/>
+      <c r="O92"/>
       <c r="P92" t="s">
         <v>506</v>
       </c>
@@ -8739,7 +8699,7 @@
         <v>533</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>44647</v>
+        <v>44654</v>
       </c>
       <c r="D98" t="s">
         <v>534</v>
@@ -8749,31 +8709,31 @@
       </c>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="H98" t="n">
-        <v>8433342</v>
+        <v>8492111</v>
       </c>
       <c r="I98" t="n">
-        <v>3135.232</v>
+        <v>3157.081</v>
       </c>
       <c r="J98" t="n">
-        <v>3686</v>
+        <v>3331</v>
       </c>
       <c r="K98" t="n">
-        <v>1.37</v>
+        <v>1.238</v>
       </c>
       <c r="L98" t="n">
-        <v>9721</v>
+        <v>8328</v>
       </c>
       <c r="M98" t="n">
-        <v>3.614</v>
+        <v>3.096</v>
       </c>
       <c r="N98" t="n">
-        <v>0.401</v>
+        <v>0.33</v>
       </c>
       <c r="O98" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P98" t="s">
         <v>535</v>
@@ -8796,7 +8756,7 @@
         <v>538</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44651</v>
+        <v>44653</v>
       </c>
       <c r="D99" t="s">
         <v>539</v>
@@ -8806,28 +8766,28 @@
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="H99" t="n">
-        <v>4165411</v>
+        <v>4171417</v>
       </c>
       <c r="I99" t="n">
-        <v>6561.624</v>
+        <v>6571.085</v>
       </c>
       <c r="J99" t="n">
-        <v>3795</v>
+        <v>2681</v>
       </c>
       <c r="K99" t="n">
-        <v>5.978</v>
+        <v>4.223</v>
       </c>
       <c r="L99" t="n">
-        <v>3333</v>
+        <v>3196</v>
       </c>
       <c r="M99" t="n">
-        <v>5.25</v>
+        <v>5.035</v>
       </c>
       <c r="N99" t="n">
-        <v>0.375</v>
+        <v>0.364</v>
       </c>
       <c r="O99" t="n">
         <v>2.7</v>
@@ -8959,7 +8919,7 @@
         <v>549</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>44649</v>
+        <v>44653</v>
       </c>
       <c r="D102" t="s">
         <v>550</v>
@@ -8971,31 +8931,31 @@
         <v>552</v>
       </c>
       <c r="G102" t="n">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="H102" t="n">
-        <v>56361721</v>
+        <v>56788458</v>
       </c>
       <c r="I102" t="n">
-        <v>1719.593</v>
+        <v>1732.613</v>
       </c>
       <c r="J102" t="n">
-        <v>129444</v>
+        <v>95406</v>
       </c>
       <c r="K102" t="n">
-        <v>3.949</v>
+        <v>2.911</v>
       </c>
       <c r="L102" t="n">
-        <v>132513</v>
+        <v>118415</v>
       </c>
       <c r="M102" t="n">
-        <v>4.043</v>
+        <v>3.613</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1455</v>
+        <v>0.1352</v>
       </c>
       <c r="O102" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="P102" t="s">
         <v>53</v>
@@ -9128,7 +9088,7 @@
         <v>565</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44652</v>
+        <v>44655</v>
       </c>
       <c r="D105" t="s">
         <v>566</v>
@@ -9138,32 +9098,28 @@
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="H105" t="n">
-        <v>1807898</v>
+        <v>1817184</v>
       </c>
       <c r="I105" t="n">
-        <v>3502.999</v>
+        <v>3520.992</v>
       </c>
       <c r="J105" t="n">
-        <v>3121</v>
+        <v>2886</v>
       </c>
       <c r="K105" t="n">
-        <v>6.047</v>
+        <v>5.592</v>
       </c>
       <c r="L105" t="n">
-        <v>2844</v>
+        <v>3156</v>
       </c>
       <c r="M105" t="n">
-        <v>5.511</v>
-      </c>
-      <c r="N105" t="n">
-        <v>0.1929</v>
-      </c>
-      <c r="O105" t="n">
-        <v>5.2</v>
-      </c>
+        <v>6.115</v>
+      </c>
+      <c r="N105"/>
+      <c r="O105"/>
       <c r="P105" t="s">
         <v>568</v>
       </c>
@@ -9338,7 +9294,7 @@
         <v>583</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44650</v>
+        <v>44653</v>
       </c>
       <c r="D109" t="s">
         <v>584</v>
@@ -9348,31 +9304,31 @@
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="H109" t="n">
-        <v>14886876</v>
+        <v>14916038</v>
       </c>
       <c r="I109" t="n">
-        <v>114.284</v>
+        <v>114.508</v>
       </c>
       <c r="J109" t="n">
-        <v>3346</v>
+        <v>798</v>
       </c>
       <c r="K109" t="n">
-        <v>0.026</v>
+        <v>0.006</v>
       </c>
       <c r="L109" t="n">
-        <v>5712</v>
+        <v>5690</v>
       </c>
       <c r="M109" t="n">
         <v>0.044</v>
       </c>
       <c r="N109" t="n">
-        <v>0.131</v>
+        <v>0.123</v>
       </c>
       <c r="O109" t="n">
-        <v>7.6</v>
+        <v>8.1</v>
       </c>
       <c r="P109" t="s">
         <v>586</v>
@@ -9758,7 +9714,7 @@
         <v>627</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44650</v>
+        <v>44653</v>
       </c>
       <c r="D117" t="s">
         <v>628</v>
@@ -9768,28 +9724,28 @@
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="H117" t="n">
-        <v>30283503</v>
+        <v>30358789</v>
       </c>
       <c r="I117" t="n">
-        <v>1763.427</v>
+        <v>1767.811</v>
       </c>
       <c r="J117" t="n">
-        <v>39001</v>
+        <v>16667</v>
       </c>
       <c r="K117" t="n">
-        <v>2.271</v>
+        <v>0.971</v>
       </c>
       <c r="L117" t="n">
-        <v>40275</v>
+        <v>33699</v>
       </c>
       <c r="M117" t="n">
-        <v>2.345</v>
+        <v>1.962</v>
       </c>
       <c r="N117" t="n">
-        <v>0.634</v>
+        <v>0.617</v>
       </c>
       <c r="O117" t="n">
         <v>1.6</v>
@@ -10080,7 +10036,7 @@
         <v>655</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>44650</v>
+        <v>44654</v>
       </c>
       <c r="D123" t="s">
         <v>656</v>
@@ -10090,31 +10046,31 @@
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="H123" t="n">
-        <v>11009085</v>
+        <v>11019427</v>
       </c>
       <c r="I123" t="n">
-        <v>2014.239</v>
+        <v>2016.132</v>
       </c>
       <c r="J123" t="n">
-        <v>4606</v>
+        <v>896</v>
       </c>
       <c r="K123" t="n">
-        <v>0.843</v>
+        <v>0.164</v>
       </c>
       <c r="L123" t="n">
-        <v>4329</v>
+        <v>3742</v>
       </c>
       <c r="M123" t="n">
-        <v>0.792</v>
+        <v>0.685</v>
       </c>
       <c r="N123" t="n">
-        <v>0.389</v>
+        <v>0.176</v>
       </c>
       <c r="O123" t="n">
-        <v>2.6</v>
+        <v>5.7</v>
       </c>
       <c r="P123" t="s">
         <v>657</v>
@@ -10239,7 +10195,7 @@
         <v>667</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>44647</v>
+        <v>44654</v>
       </c>
       <c r="D126" t="s">
         <v>668</v>
@@ -10249,15 +10205,15 @@
       </c>
       <c r="F126"/>
       <c r="G126" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H126"/>
       <c r="I126"/>
       <c r="J126" t="n">
-        <v>3815</v>
+        <v>6367</v>
       </c>
       <c r="K126" t="n">
-        <v>0.73</v>
+        <v>1.219</v>
       </c>
       <c r="L126"/>
       <c r="M126"/>
@@ -10284,7 +10240,7 @@
         <v>673</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44649</v>
+        <v>44654</v>
       </c>
       <c r="D127" t="s">
         <v>674</v>
@@ -10294,31 +10250,31 @@
       </c>
       <c r="F127"/>
       <c r="G127" t="n">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="H127" t="n">
-        <v>5686445</v>
+        <v>5715767</v>
       </c>
       <c r="I127" t="n">
-        <v>1297.806</v>
+        <v>1304.498</v>
       </c>
       <c r="J127" t="n">
-        <v>7696</v>
+        <v>4641</v>
       </c>
       <c r="K127" t="n">
-        <v>1.756</v>
+        <v>1.059</v>
       </c>
       <c r="L127" t="n">
-        <v>6322</v>
+        <v>5811</v>
       </c>
       <c r="M127" t="n">
-        <v>1.443</v>
+        <v>1.326</v>
       </c>
       <c r="N127" t="n">
-        <v>0.0435</v>
+        <v>0.0425</v>
       </c>
       <c r="O127" t="n">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="P127" t="s">
         <v>675</v>
@@ -10604,7 +10560,7 @@
         <v>708</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>44651</v>
+        <v>44654</v>
       </c>
       <c r="D133" t="s">
         <v>709</v>
@@ -10614,32 +10570,28 @@
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="H133" t="n">
-        <v>40088192</v>
+        <v>40188779</v>
       </c>
       <c r="I133" t="n">
-        <v>3942.614</v>
+        <v>3952.506</v>
       </c>
       <c r="J133" t="n">
-        <v>61424</v>
+        <v>18649</v>
       </c>
       <c r="K133" t="n">
-        <v>6.041</v>
+        <v>1.834</v>
       </c>
       <c r="L133" t="n">
-        <v>50574</v>
+        <v>48203</v>
       </c>
       <c r="M133" t="n">
-        <v>4.974</v>
-      </c>
-      <c r="N133" t="n">
-        <v>0.3674</v>
-      </c>
-      <c r="O133" t="n">
-        <v>2.7</v>
-      </c>
+        <v>4.741</v>
+      </c>
+      <c r="N133"/>
+      <c r="O133"/>
       <c r="P133" t="s">
         <v>710</v>
       </c>
@@ -10661,7 +10613,7 @@
         <v>713</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>44649</v>
+        <v>44652</v>
       </c>
       <c r="D134" t="s">
         <v>369</v>
@@ -10671,25 +10623,25 @@
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="H134" t="n">
-        <v>2628644</v>
+        <v>2640840</v>
       </c>
       <c r="I134" t="n">
-        <v>929.426</v>
+        <v>933.738</v>
       </c>
       <c r="J134" t="n">
-        <v>1795</v>
+        <v>1918</v>
       </c>
       <c r="K134" t="n">
-        <v>0.635</v>
+        <v>0.678</v>
       </c>
       <c r="L134" t="n">
-        <v>1964</v>
+        <v>2173</v>
       </c>
       <c r="M134" t="n">
-        <v>0.694</v>
+        <v>0.768</v>
       </c>
       <c r="N134"/>
       <c r="O134"/>
@@ -10714,7 +10666,7 @@
         <v>716</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>44651</v>
+        <v>44654</v>
       </c>
       <c r="D135" t="s">
         <v>717</v>
@@ -10724,25 +10676,25 @@
       </c>
       <c r="F135"/>
       <c r="G135" t="n">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H135" t="n">
-        <v>6407170</v>
+        <v>6457632</v>
       </c>
       <c r="I135" t="n">
-        <v>2186.356</v>
+        <v>2203.576</v>
       </c>
       <c r="J135" t="n">
-        <v>18542</v>
+        <v>17224</v>
       </c>
       <c r="K135" t="n">
-        <v>6.327</v>
+        <v>5.877</v>
       </c>
       <c r="L135" t="n">
-        <v>18486</v>
+        <v>17745</v>
       </c>
       <c r="M135" t="n">
-        <v>6.308</v>
+        <v>6.055</v>
       </c>
       <c r="N135"/>
       <c r="O135"/>
@@ -10873,7 +10825,7 @@
         <v>732</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>44652</v>
+        <v>44655</v>
       </c>
       <c r="D138" t="s">
         <v>733</v>
@@ -10883,32 +10835,28 @@
       </c>
       <c r="F138"/>
       <c r="G138" t="n">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="H138" t="n">
-        <v>5111329</v>
+        <v>5133903</v>
       </c>
       <c r="I138" t="n">
-        <v>384.99</v>
+        <v>386.691</v>
       </c>
       <c r="J138" t="n">
-        <v>8364</v>
+        <v>6113</v>
       </c>
       <c r="K138" t="n">
-        <v>0.63</v>
+        <v>0.46</v>
       </c>
       <c r="L138" t="n">
-        <v>8355</v>
+        <v>7449</v>
       </c>
       <c r="M138" t="n">
-        <v>0.629</v>
-      </c>
-      <c r="N138" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="O138" t="n">
-        <v>2924.4</v>
-      </c>
+        <v>0.561</v>
+      </c>
+      <c r="N138"/>
+      <c r="O138"/>
       <c r="P138" t="s">
         <v>734</v>
       </c>
@@ -11089,7 +11037,7 @@
         <v>754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>44651</v>
+        <v>44654</v>
       </c>
       <c r="D142" t="s">
         <v>755</v>
@@ -11099,31 +11047,31 @@
       </c>
       <c r="F142"/>
       <c r="G142" t="n">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="H142" t="n">
-        <v>41558711</v>
+        <v>41592046</v>
       </c>
       <c r="I142" t="n">
-        <v>1175.945</v>
+        <v>1176.889</v>
       </c>
       <c r="J142" t="n">
-        <v>16137</v>
+        <v>12125</v>
       </c>
       <c r="K142" t="n">
-        <v>0.457</v>
+        <v>0.343</v>
       </c>
       <c r="L142" t="n">
-        <v>15352</v>
+        <v>14178</v>
       </c>
       <c r="M142" t="n">
-        <v>0.434</v>
+        <v>0.401</v>
       </c>
       <c r="N142" t="n">
-        <v>0.0068</v>
+        <v>0.0073</v>
       </c>
       <c r="O142" t="n">
-        <v>146.4</v>
+        <v>137.8</v>
       </c>
       <c r="P142" t="s">
         <v>53</v>
@@ -11146,7 +11094,7 @@
         <v>758</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>44651</v>
+        <v>44655</v>
       </c>
       <c r="D143" t="s">
         <v>759</v>
@@ -11156,32 +11104,28 @@
       </c>
       <c r="F143"/>
       <c r="G143" t="n">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="H143" t="n">
-        <v>1071738</v>
+        <v>1076533</v>
       </c>
       <c r="I143" t="n">
-        <v>62.324</v>
+        <v>62.603</v>
       </c>
       <c r="J143" t="n">
-        <v>1260</v>
+        <v>1072</v>
       </c>
       <c r="K143" t="n">
-        <v>0.073</v>
+        <v>0.062</v>
       </c>
       <c r="L143" t="n">
-        <v>1351</v>
+        <v>1212</v>
       </c>
       <c r="M143" t="n">
-        <v>0.079</v>
-      </c>
-      <c r="N143" t="n">
-        <v>0.0056</v>
-      </c>
-      <c r="O143" t="n">
-        <v>178.4</v>
-      </c>
+        <v>0.07</v>
+      </c>
+      <c r="N143"/>
+      <c r="O143"/>
       <c r="P143" t="s">
         <v>760</v>
       </c>
@@ -11203,7 +11147,7 @@
         <v>763</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>44652</v>
+        <v>44654</v>
       </c>
       <c r="D144" t="s">
         <v>764</v>
@@ -11215,31 +11159,31 @@
         <v>765</v>
       </c>
       <c r="G144" t="n">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="H144" t="n">
-        <v>9203251</v>
+        <v>9221892</v>
       </c>
       <c r="I144" t="n">
-        <v>1339.327</v>
+        <v>1342.04</v>
       </c>
       <c r="J144" t="n">
-        <v>13554</v>
+        <v>7726</v>
       </c>
       <c r="K144" t="n">
-        <v>1.972</v>
+        <v>1.124</v>
       </c>
       <c r="L144" t="n">
-        <v>13587</v>
+        <v>13378</v>
       </c>
       <c r="M144" t="n">
-        <v>1.977</v>
+        <v>1.947</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1277</v>
+        <v>0.1247</v>
       </c>
       <c r="O144" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="P144" t="s">
         <v>53</v>
@@ -11368,7 +11312,7 @@
         <v>778</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>44649</v>
+        <v>44654</v>
       </c>
       <c r="D147" t="s">
         <v>779</v>
@@ -11380,31 +11324,31 @@
         <v>780</v>
       </c>
       <c r="G147" t="n">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="H147" t="n">
-        <v>50483583</v>
+        <v>50620300</v>
       </c>
       <c r="I147" t="n">
-        <v>9264.284</v>
+        <v>9289.373</v>
       </c>
       <c r="J147" t="n">
-        <v>14738</v>
+        <v>7111</v>
       </c>
       <c r="K147" t="n">
-        <v>2.705</v>
+        <v>1.305</v>
       </c>
       <c r="L147" t="n">
-        <v>20248</v>
+        <v>22593</v>
       </c>
       <c r="M147" t="n">
-        <v>3.716</v>
+        <v>4.146</v>
       </c>
       <c r="N147" t="n">
-        <v>0.367</v>
+        <v>0.275</v>
       </c>
       <c r="O147" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="P147" t="s">
         <v>53</v>
@@ -11427,7 +11371,7 @@
         <v>783</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>44651</v>
+        <v>44654</v>
       </c>
       <c r="D148" t="s">
         <v>784</v>
@@ -11439,25 +11383,25 @@
         <v>786</v>
       </c>
       <c r="G148" t="n">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="H148" t="n">
-        <v>4813287</v>
+        <v>4837782</v>
       </c>
       <c r="I148" t="n">
-        <v>2315.502</v>
+        <v>2327.286</v>
       </c>
       <c r="J148" t="n">
-        <v>12279</v>
+        <v>4895</v>
       </c>
       <c r="K148" t="n">
-        <v>5.907</v>
+        <v>2.355</v>
       </c>
       <c r="L148" t="n">
-        <v>13218</v>
+        <v>12422</v>
       </c>
       <c r="M148" t="n">
-        <v>6.359</v>
+        <v>5.976</v>
       </c>
       <c r="N148" t="n">
         <v>0.192</v>
@@ -11531,7 +11475,7 @@
         <v>793</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>44652</v>
+        <v>44655</v>
       </c>
       <c r="D150" t="s">
         <v>794</v>
@@ -11543,25 +11487,25 @@
         <v>796</v>
       </c>
       <c r="G150" t="n">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="H150" t="n">
-        <v>23866743</v>
+        <v>23922395</v>
       </c>
       <c r="I150" t="n">
-        <v>397.501</v>
+        <v>398.428</v>
       </c>
       <c r="J150" t="n">
-        <v>27832</v>
+        <v>12697</v>
       </c>
       <c r="K150" t="n">
-        <v>0.464</v>
+        <v>0.211</v>
       </c>
       <c r="L150" t="n">
-        <v>23668</v>
+        <v>23584</v>
       </c>
       <c r="M150" t="n">
-        <v>0.394</v>
+        <v>0.393</v>
       </c>
       <c r="N150"/>
       <c r="O150"/>
@@ -11586,7 +11530,7 @@
         <v>800</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>44651</v>
+        <v>44654</v>
       </c>
       <c r="D151" t="s">
         <v>801</v>
@@ -11598,28 +11542,28 @@
         <v>803</v>
       </c>
       <c r="G151" t="n">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="H151" t="n">
-        <v>87269613</v>
+        <v>88349046</v>
       </c>
       <c r="I151" t="n">
-        <v>1700.99</v>
+        <v>1722.03</v>
       </c>
       <c r="J151" t="n">
-        <v>410288</v>
+        <v>229629</v>
       </c>
       <c r="K151" t="n">
-        <v>7.997</v>
+        <v>4.476</v>
       </c>
       <c r="L151" t="n">
-        <v>482642</v>
+        <v>429300</v>
       </c>
       <c r="M151" t="n">
-        <v>9.407</v>
+        <v>8.368</v>
       </c>
       <c r="N151" t="n">
-        <v>0.6552</v>
+        <v>0.665</v>
       </c>
       <c r="O151" t="n">
         <v>1.5</v>
@@ -11698,7 +11642,7 @@
         <v>811</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>44650</v>
+        <v>44652</v>
       </c>
       <c r="D153" t="s">
         <v>812</v>
@@ -11708,31 +11652,31 @@
       </c>
       <c r="F153"/>
       <c r="G153" t="n">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="H153" t="n">
-        <v>88507675</v>
+        <v>88634064</v>
       </c>
       <c r="I153" t="n">
-        <v>1893.406</v>
+        <v>1896.11</v>
       </c>
       <c r="J153" t="n">
-        <v>59686</v>
+        <v>41599</v>
       </c>
       <c r="K153" t="n">
-        <v>1.277</v>
+        <v>0.89</v>
       </c>
       <c r="L153" t="n">
-        <v>69260</v>
+        <v>60527</v>
       </c>
       <c r="M153" t="n">
-        <v>1.482</v>
+        <v>1.295</v>
       </c>
       <c r="N153" t="n">
-        <v>0.182</v>
+        <v>0.174</v>
       </c>
       <c r="O153" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="P153" t="s">
         <v>813</v>
@@ -11755,7 +11699,7 @@
         <v>816</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>44650</v>
+        <v>44654</v>
       </c>
       <c r="D154" t="s">
         <v>817</v>
@@ -11765,31 +11709,31 @@
       </c>
       <c r="F154"/>
       <c r="G154" t="n">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="H154" t="n">
-        <v>7551021</v>
+        <v>7563556</v>
       </c>
       <c r="I154" t="n">
-        <v>351.254</v>
+        <v>351.837</v>
       </c>
       <c r="J154" t="n">
-        <v>6156</v>
+        <v>3550</v>
       </c>
       <c r="K154" t="n">
-        <v>0.286</v>
+        <v>0.165</v>
       </c>
       <c r="L154" t="n">
-        <v>4374</v>
+        <v>3975</v>
       </c>
       <c r="M154" t="n">
-        <v>0.203</v>
+        <v>0.185</v>
       </c>
       <c r="N154" t="n">
-        <v>0.0425</v>
+        <v>0.0396</v>
       </c>
       <c r="O154" t="n">
-        <v>23.5</v>
+        <v>25.3</v>
       </c>
       <c r="P154" t="s">
         <v>818</v>
@@ -12081,7 +12025,7 @@
         <v>841</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>44652</v>
+        <v>44655</v>
       </c>
       <c r="D160" t="s">
         <v>842</v>
@@ -12091,32 +12035,28 @@
       </c>
       <c r="F160"/>
       <c r="G160" t="n">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="H160" t="n">
-        <v>7070119</v>
+        <v>7144956</v>
       </c>
       <c r="I160" t="n">
-        <v>296.379</v>
+        <v>299.516</v>
       </c>
       <c r="J160" t="n">
-        <v>19854</v>
+        <v>16198</v>
       </c>
       <c r="K160" t="n">
-        <v>0.832</v>
+        <v>0.679</v>
       </c>
       <c r="L160" t="n">
-        <v>27395</v>
+        <v>27608</v>
       </c>
       <c r="M160" t="n">
-        <v>1.148</v>
-      </c>
-      <c r="N160" t="n">
-        <v>0.0061</v>
-      </c>
-      <c r="O160" t="n">
-        <v>164.5</v>
-      </c>
+        <v>1.157</v>
+      </c>
+      <c r="N160"/>
+      <c r="O160"/>
       <c r="P160" t="s">
         <v>843</v>
       </c>
@@ -12354,7 +12294,7 @@
         <v>867</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>44650</v>
+        <v>44655</v>
       </c>
       <c r="D165" t="s">
         <v>868</v>
@@ -12364,31 +12304,31 @@
       </c>
       <c r="F165"/>
       <c r="G165" t="n">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="H165" t="n">
-        <v>673601</v>
+        <v>676412</v>
       </c>
       <c r="I165" t="n">
-        <v>479.987</v>
+        <v>481.99</v>
       </c>
       <c r="J165" t="n">
-        <v>3460</v>
+        <v>738</v>
       </c>
       <c r="K165" t="n">
-        <v>2.465</v>
+        <v>0.526</v>
       </c>
       <c r="L165" t="n">
-        <v>1159</v>
+        <v>1016</v>
       </c>
       <c r="M165" t="n">
-        <v>0.826</v>
+        <v>0.724</v>
       </c>
       <c r="N165" t="n">
-        <v>0.235</v>
+        <v>0.202</v>
       </c>
       <c r="O165" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="P165" t="s">
         <v>53</v>
@@ -12464,7 +12404,7 @@
         <v>879</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>44652</v>
+        <v>44654</v>
       </c>
       <c r="D167" t="s">
         <v>880</v>
@@ -12474,31 +12414,31 @@
       </c>
       <c r="F167"/>
       <c r="G167" t="n">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="H167" t="n">
-        <v>154333732</v>
+        <v>154786986</v>
       </c>
       <c r="I167" t="n">
-        <v>1814.779</v>
+        <v>1820.108</v>
       </c>
       <c r="J167" t="n">
-        <v>265362</v>
+        <v>211068</v>
       </c>
       <c r="K167" t="n">
-        <v>3.12</v>
+        <v>2.482</v>
       </c>
       <c r="L167" t="n">
-        <v>270798</v>
+        <v>261393</v>
       </c>
       <c r="M167" t="n">
-        <v>3.184</v>
+        <v>3.074</v>
       </c>
       <c r="N167" t="n">
-        <v>0.0519</v>
+        <v>0.0514</v>
       </c>
       <c r="O167" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="P167" t="s">
         <v>881</v>
@@ -12627,7 +12567,7 @@
         <v>894</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>44652</v>
+        <v>44655</v>
       </c>
       <c r="D170" t="s">
         <v>895</v>
@@ -12637,32 +12577,28 @@
       </c>
       <c r="F170"/>
       <c r="G170" t="n">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="H170" t="n">
-        <v>148373071</v>
+        <v>149137507</v>
       </c>
       <c r="I170" t="n">
-        <v>14850.549</v>
+        <v>14927.061</v>
       </c>
       <c r="J170" t="n">
-        <v>295915</v>
+        <v>183491</v>
       </c>
       <c r="K170" t="n">
-        <v>29.618</v>
+        <v>18.365</v>
       </c>
       <c r="L170" t="n">
-        <v>298821</v>
+        <v>284642</v>
       </c>
       <c r="M170" t="n">
-        <v>29.909</v>
-      </c>
-      <c r="N170" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="O170" t="n">
-        <v>981.1</v>
-      </c>
+        <v>28.49</v>
+      </c>
+      <c r="N170"/>
+      <c r="O170"/>
       <c r="P170" t="s">
         <v>896</v>
       </c>
@@ -12684,7 +12620,7 @@
         <v>900</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>44651</v>
+        <v>44654</v>
       </c>
       <c r="D171" t="s">
         <v>901</v>
@@ -12694,32 +12630,28 @@
       </c>
       <c r="F171"/>
       <c r="G171" t="n">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="H171" t="n">
-        <v>486720814</v>
+        <v>488230394</v>
       </c>
       <c r="I171" t="n">
-        <v>7135.924</v>
+        <v>7158.057</v>
       </c>
       <c r="J171" t="n">
-        <v>683867</v>
+        <v>484632</v>
       </c>
       <c r="K171" t="n">
-        <v>10.026</v>
+        <v>7.105</v>
       </c>
       <c r="L171" t="n">
-        <v>689608</v>
+        <v>638285</v>
       </c>
       <c r="M171" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="N171" t="n">
-        <v>0.1112</v>
-      </c>
-      <c r="O171" t="n">
-        <v>9</v>
-      </c>
+        <v>9.358</v>
+      </c>
+      <c r="N171"/>
+      <c r="O171"/>
       <c r="P171" t="s">
         <v>903</v>
       </c>
@@ -12741,7 +12673,7 @@
         <v>907</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="D172" t="s">
         <v>369</v>
@@ -12751,31 +12683,31 @@
       </c>
       <c r="F172"/>
       <c r="G172" t="n">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H172" t="n">
-        <v>847109806</v>
+        <v>847359696</v>
       </c>
       <c r="I172" t="n">
-        <v>2544.522</v>
+        <v>2545.273</v>
       </c>
       <c r="J172" t="n">
-        <v>379179</v>
+        <v>249890</v>
       </c>
       <c r="K172" t="n">
-        <v>1.139</v>
+        <v>0.751</v>
       </c>
       <c r="L172" t="n">
-        <v>720517</v>
+        <v>597515</v>
       </c>
       <c r="M172" t="n">
-        <v>2.164</v>
+        <v>1.795</v>
       </c>
       <c r="N172" t="n">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
       <c r="O172" t="n">
-        <v>41.7</v>
+        <v>40</v>
       </c>
       <c r="P172" t="s">
         <v>370</v>
@@ -12855,7 +12787,7 @@
         <v>913</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>44651</v>
+        <v>44654</v>
       </c>
       <c r="D174" t="s">
         <v>914</v>
@@ -12865,31 +12797,31 @@
       </c>
       <c r="F174"/>
       <c r="G174" t="n">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="H174" t="n">
-        <v>5999792</v>
+        <v>6018019</v>
       </c>
       <c r="I174" t="n">
-        <v>1721.53</v>
+        <v>1726.759</v>
       </c>
       <c r="J174" t="n">
-        <v>8607</v>
+        <v>4111</v>
       </c>
       <c r="K174" t="n">
-        <v>2.47</v>
+        <v>1.18</v>
       </c>
       <c r="L174" t="n">
-        <v>9410</v>
+        <v>7945</v>
       </c>
       <c r="M174" t="n">
-        <v>2.7</v>
+        <v>2.28</v>
       </c>
       <c r="N174" t="n">
-        <v>0.103</v>
+        <v>0.0977</v>
       </c>
       <c r="O174" t="n">
-        <v>9.7</v>
+        <v>10.2</v>
       </c>
       <c r="P174" t="s">
         <v>237</v>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -357,7 +357,7 @@
     <t xml:space="preserve">Barbados - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gisbarbados.gov.bb/blog/covid-19-update-for-wednesday-april-6/</t>
+    <t xml:space="preserve">https://gisbarbados.gov.bb/blog/covid-19-update-for-april-9/</t>
   </si>
   <si>
     <t xml:space="preserve">https://gisbarbados.gov.bb/top-stories/</t>
@@ -632,7 +632,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-07-de-abril-de-2022/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-10-de-abril-de-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -1066,7 +1066,7 @@
     <t xml:space="preserve">Fiji - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.fj/08-04-2022/</t>
+    <t xml:space="preserve">https://www.health.gov.fj/11-04-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Fiji Ministry of Health &amp; Medical Services</t>
@@ -1456,7 +1456,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://irangov.ir/detail/383915</t>
+    <t xml:space="preserve">https://irangov.ir/detail/384220</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Medical Education</t>
@@ -1554,7 +1554,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-tuesday-april-5-2022/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-thursday-april-7-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -2095,7 +2095,7 @@
     <t xml:space="preserve">Nepal - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.mohp.gov.np/covid/englishSituationReport/625001fd8b6eb_SitRep789_COVID-19_08-04-2022_EN.pdf</t>
+    <t xml:space="preserve">https://covid19.mohp.gov.np/covid/englishSituationReport/6253fde5175d9_SitRep792_COVID-19_11-04-2022_EN.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -2185,7 +2185,7 @@
     <t xml:space="preserve">North Macedonia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://koronavirus.gov.mk/vesti/224031</t>
+    <t xml:space="preserve">https://koronavirus.gov.mk/vesti/224039</t>
   </si>
   <si>
     <t xml:space="preserve">https://koronavirus.gov.mk/stat</t>
@@ -2253,7 +2253,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.facebook.com/mohps/posts/327243026169333</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/332559642304338</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -2275,7 +2275,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1511854780804734979</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1513008907228221445</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -2454,7 +2454,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=21210</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=21224</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -3120,7 +3120,7 @@
     <t xml:space="preserve">Vietnam - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.gov.vn/ngay-7-4-so-mac-covid-19-moi-tiep-tuc-giam-con-45886-ca-2-tinh-bo-sung-hon-44300-f0-17122040722062587.htm</t>
+    <t xml:space="preserve">https://covid19.gov.vn/ngay-10-4-so-mac-moi-covid-19-thap-nhat-trong-gan-2-thang-nay-con-28307-ca-17122041022021028.htm</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health of Vietnam</t>
@@ -3896,7 +3896,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44657</v>
+        <v>44660</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -3906,31 +3906,31 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="H8" t="n">
-        <v>35465739</v>
+        <v>35518753</v>
       </c>
       <c r="I8" t="n">
-        <v>777.658</v>
+        <v>778.821</v>
       </c>
       <c r="J8" t="n">
-        <v>17763</v>
+        <v>7489</v>
       </c>
       <c r="K8" t="n">
-        <v>0.389</v>
+        <v>0.164</v>
       </c>
       <c r="L8" t="n">
-        <v>17204</v>
+        <v>15757</v>
       </c>
       <c r="M8" t="n">
-        <v>0.377</v>
+        <v>0.346</v>
       </c>
       <c r="N8" t="n">
-        <v>0.043</v>
+        <v>0.045</v>
       </c>
       <c r="O8" t="n">
-        <v>23.3</v>
+        <v>22.2</v>
       </c>
       <c r="P8" t="s">
         <v>60</v>
@@ -3953,7 +3953,7 @@
         <v>64</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D9" t="s">
         <v>65</v>
@@ -3963,25 +3963,25 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="H9" t="n">
-        <v>2994295</v>
+        <v>3001424</v>
       </c>
       <c r="I9" t="n">
-        <v>1008.816</v>
+        <v>1011.218</v>
       </c>
       <c r="J9" t="n">
-        <v>2046</v>
+        <v>1921</v>
       </c>
       <c r="K9" t="n">
-        <v>0.689</v>
+        <v>0.647</v>
       </c>
       <c r="L9" t="n">
-        <v>2274</v>
+        <v>2439</v>
       </c>
       <c r="M9" t="n">
-        <v>0.766</v>
+        <v>0.822</v>
       </c>
       <c r="N9" t="n">
         <v>0.006</v>
@@ -4010,7 +4010,7 @@
         <v>69</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44659</v>
+        <v>44662</v>
       </c>
       <c r="D10" t="s">
         <v>70</v>
@@ -4022,25 +4022,25 @@
         <v>72</v>
       </c>
       <c r="G10" t="n">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="H10" t="n">
-        <v>67478280</v>
+        <v>67762200</v>
       </c>
       <c r="I10" t="n">
-        <v>2616.632</v>
+        <v>2627.642</v>
       </c>
       <c r="J10" t="n">
-        <v>126606</v>
+        <v>81557</v>
       </c>
       <c r="K10" t="n">
-        <v>4.909</v>
+        <v>3.163</v>
       </c>
       <c r="L10" t="n">
-        <v>114036</v>
+        <v>111048</v>
       </c>
       <c r="M10" t="n">
-        <v>4.422</v>
+        <v>4.306</v>
       </c>
       <c r="N10"/>
       <c r="O10"/>
@@ -4065,7 +4065,7 @@
         <v>76</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44658</v>
+        <v>44662</v>
       </c>
       <c r="D11" t="s">
         <v>77</v>
@@ -4075,32 +4075,28 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="H11" t="n">
-        <v>178486429</v>
+        <v>179465832</v>
       </c>
       <c r="I11" t="n">
-        <v>19737.367</v>
+        <v>19845.671</v>
       </c>
       <c r="J11" t="n">
-        <v>721020</v>
+        <v>100077</v>
       </c>
       <c r="K11" t="n">
-        <v>79.732</v>
+        <v>11.067</v>
       </c>
       <c r="L11" t="n">
-        <v>396844</v>
+        <v>347737</v>
       </c>
       <c r="M11" t="n">
-        <v>43.884</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.0429</v>
-      </c>
-      <c r="O11" t="n">
-        <v>23.3</v>
-      </c>
+        <v>38.453</v>
+      </c>
+      <c r="N11"/>
+      <c r="O11"/>
       <c r="P11" t="s">
         <v>78</v>
       </c>
@@ -4122,7 +4118,7 @@
         <v>81</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D12" t="s">
         <v>82</v>
@@ -4132,27 +4128,27 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H12" t="n">
-        <v>6735182</v>
+        <v>6746085</v>
       </c>
       <c r="I12" t="n">
-        <v>658.804</v>
+        <v>659.871</v>
       </c>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12" t="n">
-        <v>4167</v>
+        <v>4232</v>
       </c>
       <c r="M12" t="n">
-        <v>0.408</v>
+        <v>0.414</v>
       </c>
       <c r="N12" t="n">
-        <v>0.008</v>
+        <v>0.0059</v>
       </c>
       <c r="O12" t="n">
-        <v>124.7</v>
+        <v>168.3</v>
       </c>
       <c r="P12" t="s">
         <v>83</v>
@@ -4228,7 +4224,7 @@
         <v>93</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44659</v>
+        <v>44662</v>
       </c>
       <c r="D14" t="s">
         <v>94</v>
@@ -4238,21 +4234,21 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H14" t="n">
-        <v>9637979</v>
+        <v>9649168</v>
       </c>
       <c r="I14" t="n">
-        <v>5512.788</v>
+        <v>5519.188</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14" t="n">
-        <v>4205</v>
+        <v>4026</v>
       </c>
       <c r="M14" t="n">
-        <v>2.405</v>
+        <v>2.303</v>
       </c>
       <c r="N14"/>
       <c r="O14"/>
@@ -4277,7 +4273,7 @@
         <v>100</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D15" t="s">
         <v>101</v>
@@ -4287,31 +4283,31 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H15" t="n">
-        <v>13706410</v>
+        <v>13711654</v>
       </c>
       <c r="I15" t="n">
-        <v>82.418</v>
+        <v>82.45</v>
       </c>
       <c r="J15" t="n">
-        <v>6744</v>
+        <v>5244</v>
       </c>
       <c r="K15" t="n">
-        <v>0.041</v>
+        <v>0.032</v>
       </c>
       <c r="L15" t="n">
-        <v>2241</v>
+        <v>2050</v>
       </c>
       <c r="M15" t="n">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0236</v>
+        <v>0.0206</v>
       </c>
       <c r="O15" t="n">
-        <v>42.4</v>
+        <v>48.6</v>
       </c>
       <c r="P15" t="s">
         <v>102</v>
@@ -4334,7 +4330,7 @@
         <v>105</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>44657</v>
+        <v>44660</v>
       </c>
       <c r="D16" t="s">
         <v>106</v>
@@ -4344,27 +4340,27 @@
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H16" t="n">
-        <v>620629</v>
+        <v>624286</v>
       </c>
       <c r="I16" t="n">
-        <v>2157.149</v>
+        <v>2169.86</v>
       </c>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16" t="n">
-        <v>1192</v>
+        <v>1281</v>
       </c>
       <c r="M16" t="n">
-        <v>4.143</v>
+        <v>4.452</v>
       </c>
       <c r="N16" t="n">
-        <v>0.2169</v>
+        <v>0.2475</v>
       </c>
       <c r="O16" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="P16" t="s">
         <v>53</v>
@@ -4387,7 +4383,7 @@
         <v>110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44659</v>
+        <v>44661</v>
       </c>
       <c r="D17" t="s">
         <v>111</v>
@@ -4397,21 +4393,21 @@
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H17" t="n">
-        <v>12941335</v>
+        <v>12964077</v>
       </c>
       <c r="I17" t="n">
-        <v>1370.488</v>
+        <v>1372.896</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17" t="n">
-        <v>10335</v>
+        <v>10884</v>
       </c>
       <c r="M17" t="n">
-        <v>1.094</v>
+        <v>1.153</v>
       </c>
       <c r="N17"/>
       <c r="O17"/>
@@ -4436,7 +4432,7 @@
         <v>117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44650</v>
+        <v>44657</v>
       </c>
       <c r="D18" t="s">
         <v>118</v>
@@ -4446,31 +4442,31 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>760</v>
+        <v>767</v>
       </c>
       <c r="H18" t="n">
-        <v>32871172</v>
+        <v>33118946</v>
       </c>
       <c r="I18" t="n">
-        <v>2825.845</v>
+        <v>2847.145</v>
       </c>
       <c r="J18" t="n">
-        <v>46099</v>
+        <v>37816</v>
       </c>
       <c r="K18" t="n">
-        <v>3.963</v>
+        <v>3.251</v>
       </c>
       <c r="L18" t="n">
-        <v>38567</v>
+        <v>35199</v>
       </c>
       <c r="M18" t="n">
-        <v>3.315</v>
+        <v>3.026</v>
       </c>
       <c r="N18" t="n">
-        <v>0.308</v>
+        <v>0.283</v>
       </c>
       <c r="O18" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P18" t="s">
         <v>120</v>
@@ -4862,7 +4858,7 @@
         <v>161</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D26" t="s">
         <v>162</v>
@@ -4872,27 +4868,27 @@
       </c>
       <c r="F26"/>
       <c r="G26" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H26" t="n">
-        <v>9671105</v>
+        <v>9692112</v>
       </c>
       <c r="I26" t="n">
-        <v>1402.289</v>
+        <v>1405.335</v>
       </c>
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26" t="n">
-        <v>9731</v>
+        <v>9259</v>
       </c>
       <c r="M26" t="n">
-        <v>1.411</v>
+        <v>1.343</v>
       </c>
       <c r="N26" t="n">
-        <v>0.0761</v>
+        <v>0.073</v>
       </c>
       <c r="O26" t="n">
-        <v>13.1</v>
+        <v>13.7</v>
       </c>
       <c r="P26" t="s">
         <v>164</v>
@@ -5019,7 +5015,7 @@
         <v>174</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44659</v>
+        <v>44662</v>
       </c>
       <c r="D29" t="s">
         <v>175</v>
@@ -5029,21 +5025,21 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H29" t="n">
-        <v>2936343</v>
+        <v>2939061</v>
       </c>
       <c r="I29" t="n">
-        <v>173.272</v>
+        <v>173.432</v>
       </c>
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29" t="n">
-        <v>1175</v>
+        <v>1060</v>
       </c>
       <c r="M29" t="n">
-        <v>0.069</v>
+        <v>0.063</v>
       </c>
       <c r="N29"/>
       <c r="O29"/>
@@ -5121,7 +5117,7 @@
         <v>182</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>44658</v>
+        <v>44660</v>
       </c>
       <c r="D31" t="s">
         <v>183</v>
@@ -5131,31 +5127,31 @@
       </c>
       <c r="F31"/>
       <c r="G31" t="n">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="H31" t="n">
-        <v>59839826</v>
+        <v>59932998</v>
       </c>
       <c r="I31" t="n">
-        <v>1571.923</v>
+        <v>1574.37</v>
       </c>
       <c r="J31" t="n">
-        <v>51615</v>
+        <v>33047</v>
       </c>
       <c r="K31" t="n">
-        <v>1.356</v>
+        <v>0.868</v>
       </c>
       <c r="L31" t="n">
-        <v>53623</v>
+        <v>55601</v>
       </c>
       <c r="M31" t="n">
-        <v>1.409</v>
+        <v>1.461</v>
       </c>
       <c r="N31" t="n">
-        <v>0.1172</v>
+        <v>0.1008</v>
       </c>
       <c r="O31" t="n">
-        <v>8.5</v>
+        <v>9.9</v>
       </c>
       <c r="P31" t="s">
         <v>184</v>
@@ -5178,7 +5174,7 @@
         <v>188</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44657</v>
+        <v>44660</v>
       </c>
       <c r="D32" t="s">
         <v>189</v>
@@ -5188,15 +5184,15 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32" t="n">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="K32" t="n">
-        <v>0.278</v>
+        <v>0.206</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -5223,7 +5219,7 @@
         <v>194</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44644</v>
+        <v>44661</v>
       </c>
       <c r="D33" t="s">
         <v>35</v>
@@ -5233,21 +5229,21 @@
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H33" t="n">
-        <v>87537</v>
+        <v>88886</v>
       </c>
       <c r="I33" t="n">
-        <v>17.792</v>
+        <v>18.066</v>
       </c>
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33" t="n">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="M33" t="n">
-        <v>0.023</v>
+        <v>0.016</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -5327,7 +5323,7 @@
         <v>200</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D35" t="s">
         <v>201</v>
@@ -5337,31 +5333,31 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="H35" t="n">
-        <v>35682768</v>
+        <v>35874692</v>
       </c>
       <c r="I35" t="n">
-        <v>1857.282</v>
+        <v>1867.271</v>
       </c>
       <c r="J35" t="n">
-        <v>73277</v>
+        <v>62442</v>
       </c>
       <c r="K35" t="n">
-        <v>3.814</v>
+        <v>3.25</v>
       </c>
       <c r="L35" t="n">
-        <v>60495</v>
+        <v>57445</v>
       </c>
       <c r="M35" t="n">
-        <v>3.149</v>
+        <v>2.99</v>
       </c>
       <c r="N35" t="n">
-        <v>0.0702</v>
+        <v>0.0631</v>
       </c>
       <c r="O35" t="n">
-        <v>14.2</v>
+        <v>15.9</v>
       </c>
       <c r="P35" t="s">
         <v>202</v>
@@ -5437,7 +5433,7 @@
         <v>212</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D37" t="s">
         <v>213</v>
@@ -5447,25 +5443,25 @@
       </c>
       <c r="F37"/>
       <c r="G37" t="n">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="H37" t="n">
-        <v>34011923</v>
+        <v>34072763</v>
       </c>
       <c r="I37" t="n">
-        <v>663.442</v>
+        <v>664.629</v>
       </c>
       <c r="J37" t="n">
-        <v>25786</v>
+        <v>22109</v>
       </c>
       <c r="K37" t="n">
-        <v>0.503</v>
+        <v>0.431</v>
       </c>
       <c r="L37" t="n">
-        <v>21662</v>
+        <v>23050</v>
       </c>
       <c r="M37" t="n">
-        <v>0.423</v>
+        <v>0.45</v>
       </c>
       <c r="N37" t="n">
         <v>0.019</v>
@@ -5539,7 +5535,7 @@
         <v>221</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44653</v>
+        <v>44656</v>
       </c>
       <c r="D39" t="s">
         <v>222</v>
@@ -5549,31 +5545,31 @@
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="H39" t="n">
-        <v>3190259</v>
+        <v>3209253</v>
       </c>
       <c r="I39" t="n">
-        <v>620.787</v>
+        <v>624.483</v>
       </c>
       <c r="J39" t="n">
-        <v>9493</v>
+        <v>6708</v>
       </c>
       <c r="K39" t="n">
-        <v>1.847</v>
+        <v>1.305</v>
       </c>
       <c r="L39" t="n">
-        <v>8268</v>
+        <v>8033</v>
       </c>
       <c r="M39" t="n">
-        <v>1.609</v>
+        <v>1.563</v>
       </c>
       <c r="N39" t="n">
-        <v>0.07</v>
+        <v>0.067</v>
       </c>
       <c r="O39" t="n">
-        <v>14.3</v>
+        <v>14.9</v>
       </c>
       <c r="P39" t="s">
         <v>223</v>
@@ -5596,7 +5592,7 @@
         <v>226</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D40" t="s">
         <v>35</v>
@@ -5606,27 +5602,27 @@
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H40" t="n">
-        <v>1478480</v>
+        <v>1481474</v>
       </c>
       <c r="I40" t="n">
-        <v>54.65</v>
+        <v>54.761</v>
       </c>
       <c r="J40"/>
       <c r="K40"/>
       <c r="L40" t="n">
-        <v>1113</v>
+        <v>1057</v>
       </c>
       <c r="M40" t="n">
-        <v>0.041</v>
+        <v>0.039</v>
       </c>
       <c r="N40" t="n">
-        <v>0.0076</v>
+        <v>0.0091</v>
       </c>
       <c r="O40" t="n">
-        <v>132</v>
+        <v>110.4</v>
       </c>
       <c r="P40" t="s">
         <v>36</v>
@@ -5649,7 +5645,7 @@
         <v>229</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44659</v>
+        <v>44662</v>
       </c>
       <c r="D41" t="s">
         <v>230</v>
@@ -5659,21 +5655,21 @@
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H41" t="n">
-        <v>4713967</v>
+        <v>4722099</v>
       </c>
       <c r="I41" t="n">
-        <v>1154.915</v>
+        <v>1156.907</v>
       </c>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41" t="n">
-        <v>4394</v>
+        <v>4176</v>
       </c>
       <c r="M41" t="n">
-        <v>1.077</v>
+        <v>1.023</v>
       </c>
       <c r="N41"/>
       <c r="O41"/>
@@ -5757,7 +5753,7 @@
         <v>242</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D43" t="s">
         <v>243</v>
@@ -5767,31 +5763,31 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="H43" t="n">
-        <v>29031364</v>
+        <v>29230119</v>
       </c>
       <c r="I43" t="n">
-        <v>32400.895</v>
+        <v>32622.719</v>
       </c>
       <c r="J43" t="n">
-        <v>79334</v>
+        <v>57728</v>
       </c>
       <c r="K43" t="n">
-        <v>88.542</v>
+        <v>64.428</v>
       </c>
       <c r="L43" t="n">
-        <v>77396</v>
+        <v>77249</v>
       </c>
       <c r="M43" t="n">
-        <v>86.379</v>
+        <v>86.215</v>
       </c>
       <c r="N43" t="n">
-        <v>0.0399</v>
+        <v>0.0326</v>
       </c>
       <c r="O43" t="n">
-        <v>25.1</v>
+        <v>30.7</v>
       </c>
       <c r="P43" t="s">
         <v>53</v>
@@ -5814,7 +5810,7 @@
         <v>246</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D44" t="s">
         <v>247</v>
@@ -5824,31 +5820,31 @@
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="H44" t="n">
-        <v>53956821</v>
+        <v>53999351</v>
       </c>
       <c r="I44" t="n">
-        <v>5031.149</v>
+        <v>5035.114</v>
       </c>
       <c r="J44" t="n">
-        <v>22633</v>
+        <v>7658</v>
       </c>
       <c r="K44" t="n">
-        <v>2.11</v>
+        <v>0.714</v>
       </c>
       <c r="L44" t="n">
-        <v>22327</v>
+        <v>21329</v>
       </c>
       <c r="M44" t="n">
-        <v>2.082</v>
+        <v>1.989</v>
       </c>
       <c r="N44" t="n">
-        <v>0.216</v>
+        <v>0.21</v>
       </c>
       <c r="O44" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="P44" t="s">
         <v>53</v>
@@ -5924,7 +5920,7 @@
         <v>256</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D46" t="s">
         <v>257</v>
@@ -5934,31 +5930,31 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="H46" t="n">
-        <v>66763612</v>
+        <v>66812606</v>
       </c>
       <c r="I46" t="n">
-        <v>11484.628</v>
+        <v>11493.056</v>
       </c>
       <c r="J46" t="n">
-        <v>19015</v>
+        <v>11776</v>
       </c>
       <c r="K46" t="n">
-        <v>3.271</v>
+        <v>2.026</v>
       </c>
       <c r="L46" t="n">
-        <v>20122</v>
+        <v>20173</v>
       </c>
       <c r="M46" t="n">
-        <v>3.461</v>
+        <v>3.47</v>
       </c>
       <c r="N46" t="n">
-        <v>0.1386</v>
+        <v>0.1306</v>
       </c>
       <c r="O46" t="n">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="P46" t="s">
         <v>258</v>
@@ -5981,7 +5977,7 @@
         <v>261</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D47" t="s">
         <v>35</v>
@@ -5991,27 +5987,27 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H47" t="n">
-        <v>299614</v>
+        <v>300468</v>
       </c>
       <c r="I47" t="n">
-        <v>298.957</v>
+        <v>299.809</v>
       </c>
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47" t="n">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="M47" t="n">
-        <v>0.304</v>
+        <v>0.279</v>
       </c>
       <c r="N47" t="n">
-        <v>0.0028</v>
+        <v>0.002</v>
       </c>
       <c r="O47" t="n">
-        <v>355.9</v>
+        <v>490.4</v>
       </c>
       <c r="P47" t="s">
         <v>36</v>
@@ -6142,7 +6138,7 @@
         <v>275</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44655</v>
+        <v>44657</v>
       </c>
       <c r="D50" t="s">
         <v>276</v>
@@ -6154,31 +6150,31 @@
         <v>278</v>
       </c>
       <c r="G50" t="n">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="H50" t="n">
-        <v>2661321</v>
+        <v>2668484</v>
       </c>
       <c r="I50" t="n">
-        <v>148.773</v>
+        <v>149.173</v>
       </c>
       <c r="J50" t="n">
-        <v>3766</v>
+        <v>3173</v>
       </c>
       <c r="K50" t="n">
-        <v>0.211</v>
+        <v>0.177</v>
       </c>
       <c r="L50" t="n">
-        <v>2957</v>
+        <v>2745</v>
       </c>
       <c r="M50" t="n">
-        <v>0.165</v>
+        <v>0.153</v>
       </c>
       <c r="N50" t="n">
-        <v>0.144</v>
+        <v>0.127</v>
       </c>
       <c r="O50" t="n">
-        <v>6.9</v>
+        <v>7.9</v>
       </c>
       <c r="P50" t="s">
         <v>279</v>
@@ -6254,7 +6250,7 @@
         <v>286</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44644</v>
+        <v>44660</v>
       </c>
       <c r="D52" t="s">
         <v>287</v>
@@ -6264,31 +6260,31 @@
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>567</v>
+        <v>583</v>
       </c>
       <c r="H52" t="n">
-        <v>1512537</v>
+        <v>1587200</v>
       </c>
       <c r="I52" t="n">
-        <v>232.038</v>
+        <v>243.492</v>
       </c>
       <c r="J52" t="n">
-        <v>4695</v>
+        <v>4644</v>
       </c>
       <c r="K52" t="n">
-        <v>0.72</v>
+        <v>0.712</v>
       </c>
       <c r="L52" t="n">
-        <v>4652</v>
+        <v>4654</v>
       </c>
       <c r="M52" t="n">
         <v>0.714</v>
       </c>
       <c r="N52" t="n">
-        <v>0.019</v>
+        <v>0.004</v>
       </c>
       <c r="O52" t="n">
-        <v>52.6</v>
+        <v>250</v>
       </c>
       <c r="P52" t="s">
         <v>288</v>
@@ -6409,7 +6405,7 @@
         <v>299</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D55" t="s">
         <v>300</v>
@@ -6419,31 +6415,31 @@
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="H55" t="n">
-        <v>3287995</v>
+        <v>3294987</v>
       </c>
       <c r="I55" t="n">
-        <v>2481.154</v>
+        <v>2486.43</v>
       </c>
       <c r="J55" t="n">
-        <v>3926</v>
+        <v>1973</v>
       </c>
       <c r="K55" t="n">
-        <v>2.963</v>
+        <v>1.489</v>
       </c>
       <c r="L55" t="n">
-        <v>3391</v>
+        <v>3372</v>
       </c>
       <c r="M55" t="n">
-        <v>2.559</v>
+        <v>2.545</v>
       </c>
       <c r="N55" t="n">
-        <v>0.2448</v>
+        <v>0.2256</v>
       </c>
       <c r="O55" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="P55" t="s">
         <v>301</v>
@@ -6466,7 +6462,7 @@
         <v>304</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D56" t="s">
         <v>35</v>
@@ -6476,27 +6472,27 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H56" t="n">
-        <v>521379</v>
+        <v>522740</v>
       </c>
       <c r="I56" t="n">
-        <v>444.723</v>
+        <v>445.884</v>
       </c>
       <c r="J56"/>
       <c r="K56"/>
       <c r="L56" t="n">
-        <v>694</v>
+        <v>602</v>
       </c>
       <c r="M56" t="n">
-        <v>0.592</v>
+        <v>0.513</v>
       </c>
       <c r="N56" t="n">
-        <v>0.0362</v>
+        <v>0.0278</v>
       </c>
       <c r="O56" t="n">
-        <v>27.6</v>
+        <v>36</v>
       </c>
       <c r="P56" t="s">
         <v>36</v>
@@ -6519,7 +6515,7 @@
         <v>307</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D57" t="s">
         <v>35</v>
@@ -6529,27 +6525,27 @@
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H57" t="n">
-        <v>4688120</v>
+        <v>4701084</v>
       </c>
       <c r="I57" t="n">
-        <v>39.772</v>
+        <v>39.882</v>
       </c>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57" t="n">
-        <v>4989</v>
+        <v>4675</v>
       </c>
       <c r="M57" t="n">
-        <v>0.042</v>
+        <v>0.04</v>
       </c>
       <c r="N57" t="n">
-        <v>0.0063</v>
+        <v>0.0071</v>
       </c>
       <c r="O57" t="n">
-        <v>158</v>
+        <v>141.7</v>
       </c>
       <c r="P57" t="s">
         <v>308</v>
@@ -6625,7 +6621,7 @@
         <v>319</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D59" t="s">
         <v>320</v>
@@ -6635,21 +6631,21 @@
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H59" t="n">
-        <v>505760</v>
+        <v>505948</v>
       </c>
       <c r="I59" t="n">
-        <v>560.151</v>
+        <v>560.359</v>
       </c>
       <c r="J59"/>
       <c r="K59"/>
       <c r="L59" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M59" t="n">
-        <v>0.117</v>
+        <v>0.116</v>
       </c>
       <c r="N59"/>
       <c r="O59"/>
@@ -6731,7 +6727,7 @@
         <v>332</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>44655</v>
+        <v>44658</v>
       </c>
       <c r="D61" t="s">
         <v>333</v>
@@ -6741,28 +6737,28 @@
       </c>
       <c r="F61"/>
       <c r="G61" t="n">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="H61" t="n">
-        <v>260952567</v>
+        <v>262493786</v>
       </c>
       <c r="I61" t="n">
-        <v>3870.436</v>
+        <v>3893.296</v>
       </c>
       <c r="J61" t="n">
-        <v>671170</v>
+        <v>485933</v>
       </c>
       <c r="K61" t="n">
-        <v>9.955</v>
+        <v>7.207</v>
       </c>
       <c r="L61" t="n">
-        <v>465179</v>
+        <v>448467</v>
       </c>
       <c r="M61" t="n">
-        <v>6.9</v>
+        <v>6.652</v>
       </c>
       <c r="N61" t="n">
-        <v>0.312</v>
+        <v>0.316</v>
       </c>
       <c r="O61" t="n">
         <v>3.2</v>
@@ -6788,7 +6784,7 @@
         <v>337</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D62" t="s">
         <v>35</v>
@@ -6798,27 +6794,27 @@
       </c>
       <c r="F62"/>
       <c r="G62" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H62" t="n">
-        <v>1589113</v>
+        <v>1589815</v>
       </c>
       <c r="I62" t="n">
-        <v>697.338</v>
+        <v>697.646</v>
       </c>
       <c r="J62"/>
       <c r="K62"/>
       <c r="L62" t="n">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="M62" t="n">
-        <v>0.052</v>
+        <v>0.072</v>
       </c>
       <c r="N62" t="n">
-        <v>0.0048</v>
+        <v>0.0017</v>
       </c>
       <c r="O62" t="n">
-        <v>208.4</v>
+        <v>573.4</v>
       </c>
       <c r="P62" t="s">
         <v>36</v>
@@ -7004,7 +7000,7 @@
         <v>358</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D66" t="s">
         <v>35</v>
@@ -7014,27 +7010,27 @@
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H66" t="n">
-        <v>2424907</v>
+        <v>2426051</v>
       </c>
       <c r="I66" t="n">
-        <v>76.418</v>
+        <v>76.454</v>
       </c>
       <c r="J66"/>
       <c r="K66"/>
       <c r="L66" t="n">
-        <v>1048</v>
+        <v>645</v>
       </c>
       <c r="M66" t="n">
-        <v>0.033</v>
+        <v>0.02</v>
       </c>
       <c r="N66" t="n">
-        <v>0.0086</v>
+        <v>0.0171</v>
       </c>
       <c r="O66" t="n">
-        <v>116.4</v>
+        <v>58.6</v>
       </c>
       <c r="P66" t="s">
         <v>36</v>
@@ -7110,7 +7106,7 @@
         <v>366</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D68" t="s">
         <v>367</v>
@@ -7120,27 +7116,27 @@
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H68" t="n">
-        <v>75846164</v>
+        <v>76515099</v>
       </c>
       <c r="I68" t="n">
-        <v>7313.472</v>
+        <v>7377.974</v>
       </c>
       <c r="J68"/>
       <c r="K68"/>
       <c r="L68" t="n">
-        <v>255866</v>
+        <v>249945</v>
       </c>
       <c r="M68" t="n">
-        <v>24.672</v>
+        <v>24.101</v>
       </c>
       <c r="N68" t="n">
-        <v>0.0599</v>
+        <v>0.0548</v>
       </c>
       <c r="O68" t="n">
-        <v>16.7</v>
+        <v>18.2</v>
       </c>
       <c r="P68" t="s">
         <v>369</v>
@@ -7163,7 +7159,7 @@
         <v>373</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>44654</v>
+        <v>44657</v>
       </c>
       <c r="D69" t="s">
         <v>374</v>
@@ -7173,31 +7169,31 @@
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="H69" t="n">
-        <v>278759</v>
+        <v>279991</v>
       </c>
       <c r="I69" t="n">
-        <v>1637.986</v>
+        <v>1645.225</v>
       </c>
       <c r="J69" t="n">
-        <v>89</v>
+        <v>397</v>
       </c>
       <c r="K69" t="n">
-        <v>0.523</v>
+        <v>2.333</v>
       </c>
       <c r="L69" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M69" t="n">
-        <v>2.65</v>
+        <v>2.656</v>
       </c>
       <c r="N69" t="n">
-        <v>0.054</v>
+        <v>0.053</v>
       </c>
       <c r="O69" t="n">
-        <v>18.5</v>
+        <v>18.9</v>
       </c>
       <c r="P69" t="s">
         <v>375</v>
@@ -7330,7 +7326,7 @@
         <v>389</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D72" t="s">
         <v>35</v>
@@ -7340,27 +7336,27 @@
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H72" t="n">
-        <v>130258</v>
+        <v>130662</v>
       </c>
       <c r="I72" t="n">
-        <v>64.628</v>
+        <v>64.829</v>
       </c>
       <c r="J72"/>
       <c r="K72"/>
       <c r="L72" t="n">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="M72" t="n">
-        <v>0.104</v>
+        <v>0.094</v>
       </c>
       <c r="N72" t="n">
-        <v>0.0157</v>
+        <v>0.0166</v>
       </c>
       <c r="O72" t="n">
-        <v>63.6</v>
+        <v>60.1</v>
       </c>
       <c r="P72" t="s">
         <v>36</v>
@@ -7542,7 +7538,7 @@
         <v>412</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44659</v>
+        <v>44662</v>
       </c>
       <c r="D76" t="s">
         <v>413</v>
@@ -7554,25 +7550,25 @@
         <v>415</v>
       </c>
       <c r="G76" t="n">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="H76" t="n">
-        <v>10729655</v>
+        <v>10770194</v>
       </c>
       <c r="I76" t="n">
-        <v>1113.709</v>
+        <v>1117.917</v>
       </c>
       <c r="J76" t="n">
-        <v>11817</v>
+        <v>29137</v>
       </c>
       <c r="K76" t="n">
-        <v>1.227</v>
+        <v>3.024</v>
       </c>
       <c r="L76" t="n">
-        <v>7587</v>
+        <v>9998</v>
       </c>
       <c r="M76" t="n">
-        <v>0.788</v>
+        <v>1.038</v>
       </c>
       <c r="N76"/>
       <c r="O76"/>
@@ -7597,7 +7593,7 @@
         <v>419</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>44655</v>
+        <v>44658</v>
       </c>
       <c r="D77" t="s">
         <v>420</v>
@@ -7607,25 +7603,25 @@
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="H77" t="n">
-        <v>1298271</v>
+        <v>1301870</v>
       </c>
       <c r="I77" t="n">
-        <v>3520.334</v>
+        <v>3530.093</v>
       </c>
       <c r="J77" t="n">
-        <v>1426</v>
+        <v>1295</v>
       </c>
       <c r="K77" t="n">
-        <v>3.867</v>
+        <v>3.511</v>
       </c>
       <c r="L77" t="n">
-        <v>1489</v>
+        <v>1157</v>
       </c>
       <c r="M77" t="n">
-        <v>4.038</v>
+        <v>3.137</v>
       </c>
       <c r="N77"/>
       <c r="O77"/>
@@ -7650,7 +7646,7 @@
         <v>424</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D78" t="s">
         <v>425</v>
@@ -7662,31 +7658,31 @@
         <v>427</v>
       </c>
       <c r="G78" t="n">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="H78" t="n">
-        <v>792509451</v>
+        <v>793847740</v>
       </c>
       <c r="I78" t="n">
-        <v>568.756</v>
+        <v>569.716</v>
       </c>
       <c r="J78" t="n">
-        <v>482039</v>
+        <v>418345</v>
       </c>
       <c r="K78" t="n">
-        <v>0.346</v>
+        <v>0.3</v>
       </c>
       <c r="L78" t="n">
-        <v>477790</v>
+        <v>440408</v>
       </c>
       <c r="M78" t="n">
-        <v>0.343</v>
+        <v>0.316</v>
       </c>
       <c r="N78" t="n">
-        <v>0.0022</v>
+        <v>0.0023</v>
       </c>
       <c r="O78" t="n">
-        <v>458.7</v>
+        <v>434.9</v>
       </c>
       <c r="P78" t="s">
         <v>426</v>
@@ -7766,7 +7762,7 @@
         <v>436</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44657</v>
+        <v>44662</v>
       </c>
       <c r="D80" t="s">
         <v>437</v>
@@ -7776,28 +7772,24 @@
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H80" t="n">
-        <v>49779243</v>
+        <v>50079995</v>
       </c>
       <c r="I80" t="n">
-        <v>585.44</v>
+        <v>588.977</v>
       </c>
       <c r="J80"/>
       <c r="K80"/>
       <c r="L80" t="n">
-        <v>60256</v>
+        <v>60152</v>
       </c>
       <c r="M80" t="n">
-        <v>0.709</v>
-      </c>
-      <c r="N80" t="n">
-        <v>0.0481</v>
-      </c>
-      <c r="O80" t="n">
-        <v>20.8</v>
-      </c>
+        <v>0.707</v>
+      </c>
+      <c r="N80"/>
+      <c r="O80"/>
       <c r="P80" t="s">
         <v>439</v>
       </c>
@@ -7872,7 +7864,7 @@
         <v>445</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>44659</v>
+        <v>44662</v>
       </c>
       <c r="D82" t="s">
         <v>446</v>
@@ -7882,25 +7874,25 @@
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="H82" t="n">
-        <v>11910682</v>
+        <v>11933915</v>
       </c>
       <c r="I82" t="n">
-        <v>2390.309</v>
+        <v>2394.972</v>
       </c>
       <c r="J82" t="n">
-        <v>9675</v>
+        <v>6587</v>
       </c>
       <c r="K82" t="n">
-        <v>1.942</v>
+        <v>1.322</v>
       </c>
       <c r="L82" t="n">
-        <v>10770</v>
+        <v>9813</v>
       </c>
       <c r="M82" t="n">
-        <v>2.161</v>
+        <v>1.969</v>
       </c>
       <c r="N82"/>
       <c r="O82"/>
@@ -7925,7 +7917,7 @@
         <v>451</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D83" t="s">
         <v>452</v>
@@ -7935,31 +7927,31 @@
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="H83" t="n">
-        <v>48961203</v>
+        <v>49085339</v>
       </c>
       <c r="I83" t="n">
-        <v>5269.745</v>
+        <v>5283.106</v>
       </c>
       <c r="J83" t="n">
-        <v>52112</v>
+        <v>47377</v>
       </c>
       <c r="K83" t="n">
-        <v>5.609</v>
+        <v>5.099</v>
       </c>
       <c r="L83" t="n">
-        <v>54851</v>
+        <v>51414</v>
       </c>
       <c r="M83" t="n">
-        <v>5.904</v>
+        <v>5.534</v>
       </c>
       <c r="N83" t="n">
-        <v>0.165</v>
+        <v>0.14</v>
       </c>
       <c r="O83" t="n">
-        <v>6.1</v>
+        <v>7.1</v>
       </c>
       <c r="P83" t="s">
         <v>53</v>
@@ -7982,7 +7974,7 @@
         <v>457</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D84" t="s">
         <v>458</v>
@@ -7994,31 +7986,31 @@
         <v>460</v>
       </c>
       <c r="G84" t="n">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="H84" t="n">
-        <v>205167186</v>
+        <v>206399929</v>
       </c>
       <c r="I84" t="n">
-        <v>3398.638</v>
+        <v>3419.059</v>
       </c>
       <c r="J84" t="n">
-        <v>469803</v>
+        <v>352265</v>
       </c>
       <c r="K84" t="n">
-        <v>7.782</v>
+        <v>5.835</v>
       </c>
       <c r="L84" t="n">
-        <v>608442</v>
+        <v>590827</v>
       </c>
       <c r="M84" t="n">
-        <v>10.079</v>
+        <v>9.787</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1089</v>
+        <v>0.1079</v>
       </c>
       <c r="O84" t="n">
-        <v>9.2</v>
+        <v>9.3</v>
       </c>
       <c r="P84" t="s">
         <v>461</v>
@@ -8041,7 +8033,7 @@
         <v>465</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44656</v>
+        <v>44658</v>
       </c>
       <c r="D85" t="s">
         <v>466</v>
@@ -8051,27 +8043,31 @@
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H85" t="n">
-        <v>941163</v>
+        <v>945271</v>
       </c>
       <c r="I85" t="n">
-        <v>316.521</v>
-      </c>
-      <c r="J85"/>
-      <c r="K85"/>
+        <v>317.902</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1968</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.662</v>
+      </c>
       <c r="L85" t="n">
-        <v>2365</v>
+        <v>2282</v>
       </c>
       <c r="M85" t="n">
-        <v>0.795</v>
+        <v>0.767</v>
       </c>
       <c r="N85" t="n">
-        <v>0.0086</v>
+        <v>0.0121</v>
       </c>
       <c r="O85" t="n">
-        <v>116.6</v>
+        <v>82.8</v>
       </c>
       <c r="P85" t="s">
         <v>467</v>
@@ -8094,7 +8090,7 @@
         <v>471</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D86" t="s">
         <v>472</v>
@@ -8104,28 +8100,28 @@
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="H86" t="n">
-        <v>42605604</v>
+        <v>42936789</v>
       </c>
       <c r="I86" t="n">
-        <v>338.003</v>
+        <v>340.631</v>
       </c>
       <c r="J86" t="n">
-        <v>144404</v>
+        <v>56863</v>
       </c>
       <c r="K86" t="n">
-        <v>1.146</v>
+        <v>0.451</v>
       </c>
       <c r="L86" t="n">
-        <v>128892</v>
+        <v>129866</v>
       </c>
       <c r="M86" t="n">
-        <v>1.023</v>
+        <v>1.03</v>
       </c>
       <c r="N86" t="n">
-        <v>0.3661</v>
+        <v>0.3726</v>
       </c>
       <c r="O86" t="n">
         <v>2.7</v>
@@ -8261,7 +8257,7 @@
         <v>488</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D89" t="s">
         <v>35</v>
@@ -8271,27 +8267,27 @@
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H89" t="n">
-        <v>3537473</v>
+        <v>3547755</v>
       </c>
       <c r="I89" t="n">
-        <v>64.334</v>
+        <v>64.521</v>
       </c>
       <c r="J89"/>
       <c r="K89"/>
       <c r="L89" t="n">
-        <v>3669</v>
+        <v>3526</v>
       </c>
       <c r="M89" t="n">
-        <v>0.067</v>
+        <v>0.064</v>
       </c>
       <c r="N89" t="n">
-        <v>0.0039</v>
+        <v>0.0035</v>
       </c>
       <c r="O89" t="n">
-        <v>254.3</v>
+        <v>283.7</v>
       </c>
       <c r="P89" t="s">
         <v>36</v>
@@ -8314,7 +8310,7 @@
         <v>491</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44657</v>
+        <v>44660</v>
       </c>
       <c r="D90" t="s">
         <v>492</v>
@@ -8324,27 +8320,27 @@
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H90" t="n">
-        <v>1805577</v>
+        <v>1808495</v>
       </c>
       <c r="I90" t="n">
-        <v>1013.165</v>
+        <v>1014.803</v>
       </c>
       <c r="J90"/>
       <c r="K90"/>
       <c r="L90" t="n">
-        <v>1052</v>
+        <v>1028</v>
       </c>
       <c r="M90" t="n">
-        <v>0.59</v>
+        <v>0.577</v>
       </c>
       <c r="N90" t="n">
-        <v>0.0257</v>
+        <v>0.0245</v>
       </c>
       <c r="O90" t="n">
-        <v>39</v>
+        <v>40.9</v>
       </c>
       <c r="P90" t="s">
         <v>494</v>
@@ -8473,7 +8469,7 @@
         <v>509</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>44659</v>
+        <v>44662</v>
       </c>
       <c r="D93" t="s">
         <v>510</v>
@@ -8485,25 +8481,25 @@
         <v>512</v>
       </c>
       <c r="G93" t="n">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="H93" t="n">
-        <v>7043630</v>
+        <v>7052074</v>
       </c>
       <c r="I93" t="n">
-        <v>3772.833</v>
+        <v>3777.356</v>
       </c>
       <c r="J93" t="n">
-        <v>5259</v>
+        <v>2050</v>
       </c>
       <c r="K93" t="n">
-        <v>2.817</v>
+        <v>1.098</v>
       </c>
       <c r="L93" t="n">
-        <v>4646</v>
+        <v>4444</v>
       </c>
       <c r="M93" t="n">
-        <v>2.489</v>
+        <v>2.38</v>
       </c>
       <c r="N93"/>
       <c r="O93"/>
@@ -8673,7 +8669,7 @@
         <v>526</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44651</v>
+        <v>44658</v>
       </c>
       <c r="D97" t="s">
         <v>527</v>
@@ -8683,15 +8679,15 @@
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H97"/>
       <c r="I97"/>
       <c r="J97" t="n">
-        <v>582</v>
+        <v>1845</v>
       </c>
       <c r="K97" t="n">
-        <v>0.084</v>
+        <v>0.265</v>
       </c>
       <c r="L97"/>
       <c r="M97"/>
@@ -8775,7 +8771,7 @@
         <v>538</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44654</v>
+        <v>44658</v>
       </c>
       <c r="D99" t="s">
         <v>539</v>
@@ -8785,31 +8781,31 @@
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="H99" t="n">
-        <v>8492111</v>
+        <v>8527334</v>
       </c>
       <c r="I99" t="n">
-        <v>3157.081</v>
+        <v>3170.175</v>
       </c>
       <c r="J99" t="n">
-        <v>3331</v>
+        <v>7210</v>
       </c>
       <c r="K99" t="n">
-        <v>1.238</v>
+        <v>2.68</v>
       </c>
       <c r="L99" t="n">
-        <v>8328</v>
+        <v>7475</v>
       </c>
       <c r="M99" t="n">
-        <v>3.096</v>
+        <v>2.779</v>
       </c>
       <c r="N99" t="n">
-        <v>0.33</v>
+        <v>0.272</v>
       </c>
       <c r="O99" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="P99" t="s">
         <v>540</v>
@@ -8832,7 +8828,7 @@
         <v>543</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="D100" t="s">
         <v>544</v>
@@ -8842,28 +8838,28 @@
       </c>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H100" t="n">
-        <v>4181654</v>
+        <v>4184582</v>
       </c>
       <c r="I100" t="n">
-        <v>6587.211</v>
+        <v>6591.824</v>
       </c>
       <c r="J100" t="n">
-        <v>3201</v>
+        <v>2928</v>
       </c>
       <c r="K100" t="n">
-        <v>5.042</v>
+        <v>4.612</v>
       </c>
       <c r="L100" t="n">
-        <v>2860</v>
+        <v>2736</v>
       </c>
       <c r="M100" t="n">
-        <v>4.505</v>
+        <v>4.31</v>
       </c>
       <c r="N100" t="n">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="O100" t="n">
         <v>2.9</v>
@@ -8942,7 +8938,7 @@
         <v>551</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D102" t="s">
         <v>35</v>
@@ -8952,27 +8948,27 @@
       </c>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H102" t="n">
-        <v>564374</v>
+        <v>566101</v>
       </c>
       <c r="I102" t="n">
-        <v>28.725</v>
+        <v>28.813</v>
       </c>
       <c r="J102"/>
       <c r="K102"/>
       <c r="L102" t="n">
-        <v>398</v>
+        <v>468</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02</v>
+        <v>0.024</v>
       </c>
       <c r="N102" t="n">
-        <v>0.0154</v>
+        <v>0.0119</v>
       </c>
       <c r="O102" t="n">
-        <v>64.8</v>
+        <v>84</v>
       </c>
       <c r="P102" t="s">
         <v>36</v>
@@ -8995,7 +8991,7 @@
         <v>554</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44656</v>
+        <v>44659</v>
       </c>
       <c r="D103" t="s">
         <v>555</v>
@@ -9007,31 +9003,31 @@
         <v>557</v>
       </c>
       <c r="G103" t="n">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="H103" t="n">
-        <v>57075133</v>
+        <v>57337556</v>
       </c>
       <c r="I103" t="n">
-        <v>1741.359</v>
+        <v>1749.366</v>
       </c>
       <c r="J103" t="n">
-        <v>105148</v>
+        <v>77406</v>
       </c>
       <c r="K103" t="n">
-        <v>3.208</v>
+        <v>2.362</v>
       </c>
       <c r="L103" t="n">
-        <v>101916</v>
+        <v>93516</v>
       </c>
       <c r="M103" t="n">
-        <v>3.109</v>
+        <v>2.853</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1417</v>
+        <v>0.1346</v>
       </c>
       <c r="O103" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="P103" t="s">
         <v>53</v>
@@ -9111,7 +9107,7 @@
         <v>567</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D105" t="s">
         <v>35</v>
@@ -9121,27 +9117,27 @@
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H105" t="n">
-        <v>663705</v>
+        <v>666071</v>
       </c>
       <c r="I105" t="n">
-        <v>31.824</v>
+        <v>31.937</v>
       </c>
       <c r="J105"/>
       <c r="K105"/>
       <c r="L105" t="n">
-        <v>917</v>
+        <v>863</v>
       </c>
       <c r="M105" t="n">
-        <v>0.044</v>
+        <v>0.041</v>
       </c>
       <c r="N105" t="n">
-        <v>0.0065</v>
+        <v>0.0118</v>
       </c>
       <c r="O105" t="n">
-        <v>152.8</v>
+        <v>85.1</v>
       </c>
       <c r="P105" t="s">
         <v>36</v>
@@ -9164,7 +9160,7 @@
         <v>570</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44659</v>
+        <v>44662</v>
       </c>
       <c r="D106" t="s">
         <v>571</v>
@@ -9174,25 +9170,25 @@
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="H106" t="n">
-        <v>1832027</v>
+        <v>1841246</v>
       </c>
       <c r="I106" t="n">
-        <v>3549.752</v>
+        <v>3567.615</v>
       </c>
       <c r="J106" t="n">
-        <v>3672</v>
+        <v>2886</v>
       </c>
       <c r="K106" t="n">
-        <v>7.115</v>
+        <v>5.592</v>
       </c>
       <c r="L106" t="n">
-        <v>3447</v>
+        <v>3437</v>
       </c>
       <c r="M106" t="n">
-        <v>6.679</v>
+        <v>6.66</v>
       </c>
       <c r="N106"/>
       <c r="O106"/>
@@ -9272,7 +9268,7 @@
         <v>580</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44652</v>
+        <v>44661</v>
       </c>
       <c r="D108" t="s">
         <v>35</v>
@@ -9282,27 +9278,27 @@
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H108" t="n">
-        <v>917329</v>
+        <v>918770</v>
       </c>
       <c r="I108" t="n">
-        <v>192.106</v>
+        <v>192.408</v>
       </c>
       <c r="J108"/>
       <c r="K108"/>
       <c r="L108" t="n">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="M108" t="n">
-        <v>0.01</v>
+        <v>0.034</v>
       </c>
       <c r="N108" t="n">
-        <v>0.0152</v>
+        <v>0.0357</v>
       </c>
       <c r="O108" t="n">
-        <v>65.8</v>
+        <v>28</v>
       </c>
       <c r="P108" t="s">
         <v>581</v>
@@ -9370,7 +9366,7 @@
         <v>588</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>44656</v>
+        <v>44660</v>
       </c>
       <c r="D110" t="s">
         <v>589</v>
@@ -9380,31 +9376,31 @@
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="H110" t="n">
-        <v>14957250</v>
+        <v>14988078</v>
       </c>
       <c r="I110" t="n">
-        <v>114.824</v>
+        <v>115.061</v>
       </c>
       <c r="J110" t="n">
-        <v>5835</v>
+        <v>457</v>
       </c>
       <c r="K110" t="n">
-        <v>0.045</v>
+        <v>0.004</v>
       </c>
       <c r="L110" t="n">
-        <v>5846</v>
+        <v>4955</v>
       </c>
       <c r="M110" t="n">
-        <v>0.045</v>
+        <v>0.038</v>
       </c>
       <c r="N110" t="n">
-        <v>0.109</v>
+        <v>0.096</v>
       </c>
       <c r="O110" t="n">
-        <v>9.2</v>
+        <v>10.4</v>
       </c>
       <c r="P110" t="s">
         <v>591</v>
@@ -9472,7 +9468,7 @@
         <v>601</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44659</v>
+        <v>44662</v>
       </c>
       <c r="D112" t="s">
         <v>602</v>
@@ -9482,21 +9478,21 @@
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H112" t="n">
-        <v>7345700</v>
+        <v>7356002</v>
       </c>
       <c r="I112" t="n">
-        <v>2206.392</v>
+        <v>2209.486</v>
       </c>
       <c r="J112"/>
       <c r="K112"/>
       <c r="L112" t="n">
-        <v>3874</v>
+        <v>3686</v>
       </c>
       <c r="M112" t="n">
-        <v>1.164</v>
+        <v>1.107</v>
       </c>
       <c r="N112"/>
       <c r="O112"/>
@@ -9521,7 +9517,7 @@
         <v>606</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D113" t="s">
         <v>607</v>
@@ -9531,27 +9527,27 @@
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H113" t="n">
-        <v>11320441</v>
+        <v>11337119</v>
       </c>
       <c r="I113" t="n">
-        <v>303.133</v>
+        <v>303.58</v>
       </c>
       <c r="J113"/>
       <c r="K113"/>
       <c r="L113" t="n">
-        <v>5452</v>
+        <v>5366</v>
       </c>
       <c r="M113" t="n">
-        <v>0.146</v>
+        <v>0.144</v>
       </c>
       <c r="N113" t="n">
-        <v>0.0139</v>
+        <v>0.0134</v>
       </c>
       <c r="O113" t="n">
-        <v>71.7</v>
+        <v>74.5</v>
       </c>
       <c r="P113" t="s">
         <v>608</v>
@@ -9574,7 +9570,7 @@
         <v>612</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D114" t="s">
         <v>35</v>
@@ -9584,27 +9580,27 @@
       </c>
       <c r="F114"/>
       <c r="G114" t="n">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H114" t="n">
-        <v>1299735</v>
+        <v>1301946</v>
       </c>
       <c r="I114" t="n">
-        <v>40.411</v>
+        <v>40.48</v>
       </c>
       <c r="J114"/>
       <c r="K114"/>
       <c r="L114" t="n">
-        <v>563</v>
+        <v>633</v>
       </c>
       <c r="M114" t="n">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
       <c r="N114" t="n">
-        <v>0.0048</v>
+        <v>0.0061</v>
       </c>
       <c r="O114" t="n">
-        <v>207.4</v>
+        <v>164.1</v>
       </c>
       <c r="P114" t="s">
         <v>36</v>
@@ -9627,7 +9623,7 @@
         <v>615</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D115" t="s">
         <v>616</v>
@@ -9637,27 +9633,27 @@
       </c>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H115" t="n">
-        <v>7746452</v>
+        <v>7782033</v>
       </c>
       <c r="I115" t="n">
-        <v>141.343</v>
+        <v>141.992</v>
       </c>
       <c r="J115"/>
       <c r="K115"/>
       <c r="L115" t="n">
-        <v>12615</v>
+        <v>12450</v>
       </c>
       <c r="M115" t="n">
-        <v>0.23</v>
+        <v>0.227</v>
       </c>
       <c r="N115" t="n">
-        <v>0.0062</v>
+        <v>0.0053</v>
       </c>
       <c r="O115" t="n">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="P115" t="s">
         <v>617</v>
@@ -9680,7 +9676,7 @@
         <v>621</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D116" t="s">
         <v>35</v>
@@ -9690,27 +9686,27 @@
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H116" t="n">
-        <v>988005</v>
+        <v>990120</v>
       </c>
       <c r="I116" t="n">
-        <v>381.861</v>
+        <v>382.678</v>
       </c>
       <c r="J116"/>
       <c r="K116"/>
       <c r="L116" t="n">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="M116" t="n">
-        <v>0.268</v>
+        <v>0.27</v>
       </c>
       <c r="N116" t="n">
-        <v>0.0368</v>
+        <v>0.0512</v>
       </c>
       <c r="O116" t="n">
-        <v>27.1</v>
+        <v>19.5</v>
       </c>
       <c r="P116" t="s">
         <v>622</v>
@@ -9733,7 +9729,7 @@
         <v>626</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44659</v>
+        <v>44662</v>
       </c>
       <c r="D117" t="s">
         <v>627</v>
@@ -9743,27 +9739,27 @@
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H117" t="n">
-        <v>6711877</v>
+        <v>6723916</v>
       </c>
       <c r="I117" t="n">
-        <v>226.18</v>
+        <v>226.586</v>
       </c>
       <c r="J117"/>
       <c r="K117"/>
       <c r="L117" t="n">
-        <v>4963</v>
+        <v>4556</v>
       </c>
       <c r="M117" t="n">
-        <v>0.167</v>
+        <v>0.154</v>
       </c>
       <c r="N117" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="O117" t="n">
-        <v>142.9</v>
+        <v>166.7</v>
       </c>
       <c r="P117" t="s">
         <v>628</v>
@@ -9786,7 +9782,7 @@
         <v>632</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="D118" t="s">
         <v>633</v>
@@ -9796,28 +9792,28 @@
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H118" t="n">
-        <v>30416587</v>
+        <v>30435369</v>
       </c>
       <c r="I118" t="n">
-        <v>1771.177</v>
+        <v>1772.271</v>
       </c>
       <c r="J118" t="n">
-        <v>20064</v>
+        <v>18781</v>
       </c>
       <c r="K118" t="n">
-        <v>1.168</v>
+        <v>1.094</v>
       </c>
       <c r="L118" t="n">
-        <v>24584</v>
+        <v>21695</v>
       </c>
       <c r="M118" t="n">
-        <v>1.432</v>
+        <v>1.263</v>
       </c>
       <c r="N118" t="n">
-        <v>0.61</v>
+        <v>0.612</v>
       </c>
       <c r="O118" t="n">
         <v>1.6</v>
@@ -9843,7 +9839,7 @@
         <v>638</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44659</v>
+        <v>44662</v>
       </c>
       <c r="D119" t="s">
         <v>639</v>
@@ -9853,21 +9849,21 @@
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H119" t="n">
-        <v>6948958</v>
+        <v>6954369</v>
       </c>
       <c r="I119" t="n">
-        <v>1355.55</v>
+        <v>1356.606</v>
       </c>
       <c r="J119"/>
       <c r="K119"/>
       <c r="L119" t="n">
-        <v>3799</v>
+        <v>2944</v>
       </c>
       <c r="M119" t="n">
-        <v>0.741</v>
+        <v>0.574</v>
       </c>
       <c r="N119"/>
       <c r="O119"/>
@@ -9892,7 +9888,7 @@
         <v>644</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D120" t="s">
         <v>35</v>
@@ -9902,27 +9898,27 @@
       </c>
       <c r="F120"/>
       <c r="G120" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H120" t="n">
-        <v>243063</v>
+        <v>243301</v>
       </c>
       <c r="I120" t="n">
-        <v>9.672</v>
+        <v>9.681</v>
       </c>
       <c r="J120"/>
       <c r="K120"/>
       <c r="L120" t="n">
-        <v>408</v>
+        <v>288</v>
       </c>
       <c r="M120" t="n">
-        <v>0.016</v>
+        <v>0.011</v>
       </c>
       <c r="N120" t="n">
-        <v>0.0074</v>
+        <v>0.0055</v>
       </c>
       <c r="O120" t="n">
-        <v>136</v>
+        <v>183.3</v>
       </c>
       <c r="P120" t="s">
         <v>36</v>
@@ -9998,7 +9994,7 @@
         <v>652</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44659</v>
+        <v>44662</v>
       </c>
       <c r="D122" t="s">
         <v>653</v>
@@ -10008,21 +10004,21 @@
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H122" t="n">
-        <v>1978825</v>
+        <v>1984493</v>
       </c>
       <c r="I122" t="n">
-        <v>950.143</v>
+        <v>952.864</v>
       </c>
       <c r="J122"/>
       <c r="K122"/>
       <c r="L122" t="n">
-        <v>2050</v>
+        <v>1981</v>
       </c>
       <c r="M122" t="n">
-        <v>0.984</v>
+        <v>0.951</v>
       </c>
       <c r="N122"/>
       <c r="O122"/>
@@ -10060,10 +10056,10 @@
         <v>603</v>
       </c>
       <c r="H123" t="n">
-        <v>59109</v>
+        <v>59110</v>
       </c>
       <c r="I123" t="n">
-        <v>1020.705</v>
+        <v>1020.722</v>
       </c>
       <c r="J123" t="n">
         <v>7</v>
@@ -10104,7 +10100,7 @@
         <v>660</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>44657</v>
+        <v>44661</v>
       </c>
       <c r="D124" t="s">
         <v>661</v>
@@ -10114,31 +10110,31 @@
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="H124" t="n">
-        <v>11034444</v>
+        <v>11043714</v>
       </c>
       <c r="I124" t="n">
-        <v>2018.879</v>
+        <v>2020.575</v>
       </c>
       <c r="J124" t="n">
-        <v>3729</v>
+        <v>673</v>
       </c>
       <c r="K124" t="n">
-        <v>0.682</v>
+        <v>0.123</v>
       </c>
       <c r="L124" t="n">
-        <v>3557</v>
+        <v>3239</v>
       </c>
       <c r="M124" t="n">
-        <v>0.651</v>
+        <v>0.593</v>
       </c>
       <c r="N124" t="n">
-        <v>0.28</v>
+        <v>0.156</v>
       </c>
       <c r="O124" t="n">
-        <v>3.6</v>
+        <v>6.4</v>
       </c>
       <c r="P124" t="s">
         <v>662</v>
@@ -10210,7 +10206,7 @@
         <v>667</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>44659</v>
+        <v>44662</v>
       </c>
       <c r="D126" t="s">
         <v>668</v>
@@ -10220,21 +10216,21 @@
       </c>
       <c r="F126"/>
       <c r="G126" t="n">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H126" t="n">
-        <v>27689870</v>
+        <v>27763120</v>
       </c>
       <c r="I126" t="n">
-        <v>122.957</v>
+        <v>123.282</v>
       </c>
       <c r="J126"/>
       <c r="K126"/>
       <c r="L126" t="n">
-        <v>26855</v>
+        <v>25810</v>
       </c>
       <c r="M126" t="n">
-        <v>0.119</v>
+        <v>0.115</v>
       </c>
       <c r="N126"/>
       <c r="O126"/>
@@ -10259,7 +10255,7 @@
         <v>672</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44654</v>
+        <v>44661</v>
       </c>
       <c r="D127" t="s">
         <v>673</v>
@@ -10269,15 +10265,15 @@
       </c>
       <c r="F127"/>
       <c r="G127" t="n">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H127"/>
       <c r="I127"/>
       <c r="J127" t="n">
-        <v>6367</v>
+        <v>4237</v>
       </c>
       <c r="K127" t="n">
-        <v>1.219</v>
+        <v>0.811</v>
       </c>
       <c r="L127"/>
       <c r="M127"/>
@@ -10304,7 +10300,7 @@
         <v>678</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44657</v>
+        <v>44660</v>
       </c>
       <c r="D128" t="s">
         <v>679</v>
@@ -10314,31 +10310,31 @@
       </c>
       <c r="F128"/>
       <c r="G128" t="n">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="H128" t="n">
-        <v>5732263</v>
+        <v>5749354</v>
       </c>
       <c r="I128" t="n">
-        <v>1308.263</v>
+        <v>1312.164</v>
       </c>
       <c r="J128" t="n">
-        <v>6220</v>
+        <v>5283</v>
       </c>
       <c r="K128" t="n">
-        <v>1.42</v>
+        <v>1.206</v>
       </c>
       <c r="L128" t="n">
-        <v>5564</v>
+        <v>5461</v>
       </c>
       <c r="M128" t="n">
-        <v>1.27</v>
+        <v>1.246</v>
       </c>
       <c r="N128" t="n">
-        <v>0.0433</v>
+        <v>0.0438</v>
       </c>
       <c r="O128" t="n">
-        <v>23.1</v>
+        <v>22.8</v>
       </c>
       <c r="P128" t="s">
         <v>680</v>
@@ -10514,7 +10510,7 @@
         <v>701</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>44645</v>
+        <v>44652</v>
       </c>
       <c r="D132" t="s">
         <v>702</v>
@@ -10524,31 +10520,31 @@
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="H132" t="n">
-        <v>27142945</v>
+        <v>27289560</v>
       </c>
       <c r="I132" t="n">
-        <v>244.428</v>
+        <v>245.748</v>
       </c>
       <c r="J132" t="n">
-        <v>22362</v>
+        <v>20030</v>
       </c>
       <c r="K132" t="n">
-        <v>0.201</v>
+        <v>0.18</v>
       </c>
       <c r="L132" t="n">
-        <v>21339</v>
+        <v>20857</v>
       </c>
       <c r="M132" t="n">
-        <v>0.192</v>
+        <v>0.188</v>
       </c>
       <c r="N132" t="n">
-        <v>0.0203</v>
+        <v>0.0162</v>
       </c>
       <c r="O132" t="n">
-        <v>49.3</v>
+        <v>61.7</v>
       </c>
       <c r="P132" t="s">
         <v>407</v>
@@ -10624,7 +10620,7 @@
         <v>713</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>44657</v>
+        <v>44660</v>
       </c>
       <c r="D134" t="s">
         <v>714</v>
@@ -10634,32 +10630,28 @@
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="H134" t="n">
-        <v>40338322</v>
+        <v>40464651</v>
       </c>
       <c r="I134" t="n">
-        <v>3967.214</v>
+        <v>3979.638</v>
       </c>
       <c r="J134" t="n">
-        <v>49125</v>
+        <v>31384</v>
       </c>
       <c r="K134" t="n">
-        <v>4.831</v>
+        <v>3.087</v>
       </c>
       <c r="L134" t="n">
-        <v>44508</v>
+        <v>42074</v>
       </c>
       <c r="M134" t="n">
-        <v>4.377</v>
-      </c>
-      <c r="N134" t="n">
-        <v>0.3363</v>
-      </c>
-      <c r="O134" t="n">
-        <v>3</v>
-      </c>
+        <v>4.138</v>
+      </c>
+      <c r="N134"/>
+      <c r="O134"/>
       <c r="P134" t="s">
         <v>715</v>
       </c>
@@ -10681,7 +10673,7 @@
         <v>718</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>44655</v>
+        <v>44658</v>
       </c>
       <c r="D135" t="s">
         <v>374</v>
@@ -10691,25 +10683,25 @@
       </c>
       <c r="F135"/>
       <c r="G135" t="n">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="H135" t="n">
-        <v>2644842</v>
+        <v>2658071</v>
       </c>
       <c r="I135" t="n">
-        <v>935.153</v>
+        <v>939.83</v>
       </c>
       <c r="J135" t="n">
-        <v>771</v>
+        <v>1825</v>
       </c>
       <c r="K135" t="n">
-        <v>0.273</v>
+        <v>0.645</v>
       </c>
       <c r="L135" t="n">
-        <v>2070</v>
+        <v>2451</v>
       </c>
       <c r="M135" t="n">
-        <v>0.732</v>
+        <v>0.867</v>
       </c>
       <c r="N135"/>
       <c r="O135"/>
@@ -10734,7 +10726,7 @@
         <v>721</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D136" t="s">
         <v>722</v>
@@ -10744,25 +10736,25 @@
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H136" t="n">
-        <v>6516705</v>
+        <v>6557297</v>
       </c>
       <c r="I136" t="n">
-        <v>2223.734</v>
+        <v>2237.585</v>
       </c>
       <c r="J136" t="n">
-        <v>13626</v>
+        <v>15907</v>
       </c>
       <c r="K136" t="n">
-        <v>4.65</v>
+        <v>5.428</v>
       </c>
       <c r="L136" t="n">
-        <v>15648</v>
+        <v>14238</v>
       </c>
       <c r="M136" t="n">
-        <v>5.34</v>
+        <v>4.859</v>
       </c>
       <c r="N136"/>
       <c r="O136"/>
@@ -10840,7 +10832,7 @@
         <v>731</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>44659</v>
+        <v>44661</v>
       </c>
       <c r="D138" t="s">
         <v>732</v>
@@ -10850,24 +10842,28 @@
       </c>
       <c r="F138"/>
       <c r="G138" t="n">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H138" t="n">
-        <v>286410344</v>
+        <v>286845263</v>
       </c>
       <c r="I138" t="n">
-        <v>1962.898</v>
+        <v>1965.878</v>
       </c>
       <c r="J138"/>
       <c r="K138"/>
       <c r="L138" t="n">
-        <v>202097</v>
+        <v>206486</v>
       </c>
       <c r="M138" t="n">
-        <v>1.385</v>
-      </c>
-      <c r="N138"/>
-      <c r="O138"/>
+        <v>1.415</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0.0677</v>
+      </c>
+      <c r="O138" t="n">
+        <v>14.8</v>
+      </c>
       <c r="P138" t="s">
         <v>733</v>
       </c>
@@ -10889,7 +10885,7 @@
         <v>737</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>44659</v>
+        <v>44662</v>
       </c>
       <c r="D139" t="s">
         <v>738</v>
@@ -10899,25 +10895,25 @@
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="H139" t="n">
-        <v>5156746</v>
+        <v>5166836</v>
       </c>
       <c r="I139" t="n">
-        <v>388.411</v>
+        <v>389.171</v>
       </c>
       <c r="J139" t="n">
-        <v>4922</v>
+        <v>3823</v>
       </c>
       <c r="K139" t="n">
-        <v>0.371</v>
+        <v>0.288</v>
       </c>
       <c r="L139" t="n">
-        <v>6488</v>
+        <v>4705</v>
       </c>
       <c r="M139" t="n">
-        <v>0.489</v>
+        <v>0.354</v>
       </c>
       <c r="N139"/>
       <c r="O139"/>
@@ -10942,7 +10938,7 @@
         <v>743</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>44659</v>
+        <v>44662</v>
       </c>
       <c r="D140" t="s">
         <v>744</v>
@@ -10952,21 +10948,21 @@
       </c>
       <c r="F140"/>
       <c r="G140" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H140" t="n">
-        <v>68509</v>
+        <v>68733</v>
       </c>
       <c r="I140" t="n">
-        <v>1279.442</v>
+        <v>1283.625</v>
       </c>
       <c r="J140"/>
       <c r="K140"/>
       <c r="L140" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M140" t="n">
-        <v>1.251</v>
+        <v>1.307</v>
       </c>
       <c r="N140"/>
       <c r="O140"/>
@@ -10991,7 +10987,7 @@
         <v>748</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D141" t="s">
         <v>749</v>
@@ -11001,27 +10997,27 @@
       </c>
       <c r="F141"/>
       <c r="G141" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H141" t="n">
-        <v>140771</v>
+        <v>141215</v>
       </c>
       <c r="I141" t="n">
-        <v>763.396</v>
+        <v>765.804</v>
       </c>
       <c r="J141"/>
       <c r="K141"/>
       <c r="L141" t="n">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="M141" t="n">
-        <v>0.125</v>
+        <v>0.412</v>
       </c>
       <c r="N141" t="n">
-        <v>0.2795</v>
+        <v>0.1372</v>
       </c>
       <c r="O141" t="n">
-        <v>3.6</v>
+        <v>7.3</v>
       </c>
       <c r="P141" t="s">
         <v>88</v>
@@ -11097,7 +11093,7 @@
         <v>759</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D143" t="s">
         <v>760</v>
@@ -11107,31 +11103,31 @@
       </c>
       <c r="F143"/>
       <c r="G143" t="n">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="H143" t="n">
-        <v>41643842</v>
+        <v>41680662</v>
       </c>
       <c r="I143" t="n">
-        <v>1178.354</v>
+        <v>1179.396</v>
       </c>
       <c r="J143" t="n">
-        <v>12401</v>
+        <v>15836</v>
       </c>
       <c r="K143" t="n">
-        <v>0.351</v>
+        <v>0.448</v>
       </c>
       <c r="L143" t="n">
-        <v>12162</v>
+        <v>12659</v>
       </c>
       <c r="M143" t="n">
-        <v>0.344</v>
+        <v>0.358</v>
       </c>
       <c r="N143" t="n">
         <v>0.0083</v>
       </c>
       <c r="O143" t="n">
-        <v>120.9</v>
+        <v>120.2</v>
       </c>
       <c r="P143" t="s">
         <v>53</v>
@@ -11154,7 +11150,7 @@
         <v>763</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>44658</v>
+        <v>44662</v>
       </c>
       <c r="D144" t="s">
         <v>764</v>
@@ -11164,32 +11160,28 @@
       </c>
       <c r="F144"/>
       <c r="G144" t="n">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="H144" t="n">
-        <v>1079259</v>
+        <v>1083008</v>
       </c>
       <c r="I144" t="n">
-        <v>62.761</v>
+        <v>62.979</v>
       </c>
       <c r="J144" t="n">
-        <v>960</v>
+        <v>918</v>
       </c>
       <c r="K144" t="n">
-        <v>0.056</v>
+        <v>0.053</v>
       </c>
       <c r="L144" t="n">
-        <v>1074</v>
+        <v>925</v>
       </c>
       <c r="M144" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="N144" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="O144" t="n">
-        <v>167.1</v>
-      </c>
+        <v>0.054</v>
+      </c>
+      <c r="N144"/>
+      <c r="O144"/>
       <c r="P144" t="s">
         <v>765</v>
       </c>
@@ -11211,7 +11203,7 @@
         <v>768</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D145" t="s">
         <v>769</v>
@@ -11223,31 +11215,31 @@
         <v>770</v>
       </c>
       <c r="G145" t="n">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="H145" t="n">
-        <v>9275301</v>
+        <v>9302535</v>
       </c>
       <c r="I145" t="n">
-        <v>1349.813</v>
+        <v>1353.776</v>
       </c>
       <c r="J145" t="n">
-        <v>12677</v>
+        <v>7027</v>
       </c>
       <c r="K145" t="n">
-        <v>1.845</v>
+        <v>1.023</v>
       </c>
       <c r="L145" t="n">
-        <v>12229</v>
+        <v>11520</v>
       </c>
       <c r="M145" t="n">
-        <v>1.78</v>
+        <v>1.676</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1153</v>
+        <v>0.1078</v>
       </c>
       <c r="O145" t="n">
-        <v>8.7</v>
+        <v>9.3</v>
       </c>
       <c r="P145" t="s">
         <v>53</v>
@@ -11435,7 +11427,7 @@
         <v>788</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D149" t="s">
         <v>789</v>
@@ -11447,31 +11439,31 @@
         <v>791</v>
       </c>
       <c r="G149" t="n">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="H149" t="n">
-        <v>4898511</v>
+        <v>4920100</v>
       </c>
       <c r="I149" t="n">
-        <v>2356.5</v>
+        <v>2366.886</v>
       </c>
       <c r="J149" t="n">
-        <v>11462</v>
+        <v>3790</v>
       </c>
       <c r="K149" t="n">
-        <v>5.514</v>
+        <v>1.823</v>
       </c>
       <c r="L149" t="n">
-        <v>11712</v>
+        <v>11168</v>
       </c>
       <c r="M149" t="n">
-        <v>5.634</v>
+        <v>5.373</v>
       </c>
       <c r="N149" t="n">
-        <v>0.169</v>
+        <v>0.165</v>
       </c>
       <c r="O149" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="P149" t="s">
         <v>792</v>
@@ -11539,7 +11531,7 @@
         <v>798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D151" t="s">
         <v>799</v>
@@ -11551,31 +11543,31 @@
         <v>801</v>
       </c>
       <c r="G151" t="n">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="H151" t="n">
-        <v>23996380</v>
+        <v>24060151</v>
       </c>
       <c r="I151" t="n">
-        <v>399.66</v>
+        <v>400.722</v>
       </c>
       <c r="J151" t="n">
-        <v>25340</v>
+        <v>15739</v>
       </c>
       <c r="K151" t="n">
-        <v>0.422</v>
+        <v>0.262</v>
       </c>
       <c r="L151" t="n">
-        <v>22496</v>
+        <v>21493</v>
       </c>
       <c r="M151" t="n">
-        <v>0.375</v>
+        <v>0.358</v>
       </c>
       <c r="N151" t="n">
-        <v>0.0618</v>
+        <v>0.0606</v>
       </c>
       <c r="O151" t="n">
-        <v>16.2</v>
+        <v>16.5</v>
       </c>
       <c r="P151" t="s">
         <v>802</v>
@@ -11598,7 +11590,7 @@
         <v>805</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D152" t="s">
         <v>806</v>
@@ -11610,28 +11602,28 @@
         <v>808</v>
       </c>
       <c r="G152" t="n">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="H152" t="n">
-        <v>89842443</v>
+        <v>90672850</v>
       </c>
       <c r="I152" t="n">
-        <v>1751.138</v>
+        <v>1767.323</v>
       </c>
       <c r="J152" t="n">
-        <v>304310</v>
+        <v>181012</v>
       </c>
       <c r="K152" t="n">
-        <v>5.931</v>
+        <v>3.528</v>
       </c>
       <c r="L152" t="n">
-        <v>366826</v>
+        <v>324795</v>
       </c>
       <c r="M152" t="n">
-        <v>7.15</v>
+        <v>6.331</v>
       </c>
       <c r="N152" t="n">
-        <v>0.6262</v>
+        <v>0.626</v>
       </c>
       <c r="O152" t="n">
         <v>1.6</v>
@@ -11767,7 +11759,7 @@
         <v>821</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D155" t="s">
         <v>822</v>
@@ -11777,31 +11769,31 @@
       </c>
       <c r="F155"/>
       <c r="G155" t="n">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="H155" t="n">
-        <v>7578083</v>
+        <v>7589396</v>
       </c>
       <c r="I155" t="n">
-        <v>352.513</v>
+        <v>353.039</v>
       </c>
       <c r="J155" t="n">
-        <v>4388</v>
+        <v>3140</v>
       </c>
       <c r="K155" t="n">
-        <v>0.204</v>
+        <v>0.146</v>
       </c>
       <c r="L155" t="n">
-        <v>3696</v>
+        <v>3691</v>
       </c>
       <c r="M155" t="n">
         <v>0.172</v>
       </c>
       <c r="N155" t="n">
-        <v>0.0307</v>
+        <v>0.0233</v>
       </c>
       <c r="O155" t="n">
-        <v>32.6</v>
+        <v>43</v>
       </c>
       <c r="P155" t="s">
         <v>823</v>
@@ -12093,7 +12085,7 @@
         <v>846</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>44658</v>
+        <v>44660</v>
       </c>
       <c r="D161" t="s">
         <v>847</v>
@@ -12103,31 +12095,31 @@
       </c>
       <c r="F161"/>
       <c r="G161" t="n">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="H161" t="n">
-        <v>7269750</v>
+        <v>7378410</v>
       </c>
       <c r="I161" t="n">
-        <v>304.747</v>
+        <v>309.302</v>
       </c>
       <c r="J161" t="n">
-        <v>26324</v>
+        <v>36618</v>
       </c>
       <c r="K161" t="n">
-        <v>1.103</v>
+        <v>1.535</v>
       </c>
       <c r="L161" t="n">
-        <v>30780</v>
+        <v>37396</v>
       </c>
       <c r="M161" t="n">
-        <v>1.29</v>
+        <v>1.568</v>
       </c>
       <c r="N161" t="n">
-        <v>0.011</v>
+        <v>0.0107</v>
       </c>
       <c r="O161" t="n">
-        <v>91.2</v>
+        <v>93.4</v>
       </c>
       <c r="P161" t="s">
         <v>848</v>
@@ -12260,7 +12252,7 @@
         <v>863</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>44654</v>
+        <v>44660</v>
       </c>
       <c r="D164" t="s">
         <v>864</v>
@@ -12270,27 +12262,27 @@
       </c>
       <c r="F164"/>
       <c r="G164" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H164" t="n">
-        <v>257486</v>
+        <v>258938</v>
       </c>
       <c r="I164" t="n">
-        <v>191.6</v>
+        <v>192.68</v>
       </c>
       <c r="J164"/>
       <c r="K164"/>
       <c r="L164" t="n">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="M164" t="n">
-        <v>0.153</v>
+        <v>0.176</v>
       </c>
       <c r="N164" t="n">
-        <v>0.0076</v>
+        <v>0.006</v>
       </c>
       <c r="O164" t="n">
-        <v>131.1</v>
+        <v>165.9</v>
       </c>
       <c r="P164" t="s">
         <v>53</v>
@@ -12313,7 +12305,7 @@
         <v>867</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>44658</v>
+        <v>44662</v>
       </c>
       <c r="D165" t="s">
         <v>868</v>
@@ -12323,28 +12315,24 @@
       </c>
       <c r="F165"/>
       <c r="G165" t="n">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H165" t="n">
-        <v>722147</v>
+        <v>723325</v>
       </c>
       <c r="I165" t="n">
-        <v>85.177</v>
+        <v>85.315</v>
       </c>
       <c r="J165"/>
       <c r="K165"/>
       <c r="L165" t="n">
-        <v>509</v>
+        <v>383</v>
       </c>
       <c r="M165" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="N165" t="n">
-        <v>0.0045</v>
-      </c>
-      <c r="O165" t="n">
-        <v>222.7</v>
-      </c>
+        <v>0.045</v>
+      </c>
+      <c r="N165"/>
+      <c r="O165"/>
       <c r="P165" t="s">
         <v>869</v>
       </c>
@@ -12366,7 +12354,7 @@
         <v>872</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>44657</v>
+        <v>44661</v>
       </c>
       <c r="D166" t="s">
         <v>873</v>
@@ -12376,31 +12364,27 @@
       </c>
       <c r="F166"/>
       <c r="G166" t="n">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="H166" t="n">
-        <v>680114</v>
+        <v>682170</v>
       </c>
       <c r="I166" t="n">
-        <v>484.628</v>
-      </c>
-      <c r="J166" t="n">
-        <v>2499</v>
-      </c>
-      <c r="K166" t="n">
-        <v>1.781</v>
-      </c>
+        <v>486.093</v>
+      </c>
+      <c r="J166"/>
+      <c r="K166"/>
       <c r="L166" t="n">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="M166" t="n">
-        <v>0.663</v>
+        <v>0.661</v>
       </c>
       <c r="N166" t="n">
-        <v>0.252</v>
+        <v>0.28</v>
       </c>
       <c r="O166" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P166" t="s">
         <v>53</v>
@@ -12476,7 +12460,7 @@
         <v>884</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>44659</v>
+        <v>44661</v>
       </c>
       <c r="D168" t="s">
         <v>885</v>
@@ -12486,28 +12470,32 @@
       </c>
       <c r="F168"/>
       <c r="G168" t="n">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="H168" t="n">
-        <v>155888783</v>
+        <v>156247470</v>
       </c>
       <c r="I168" t="n">
-        <v>1833.064</v>
+        <v>1837.282</v>
       </c>
       <c r="J168" t="n">
-        <v>197554</v>
+        <v>172461</v>
       </c>
       <c r="K168" t="n">
-        <v>2.323</v>
+        <v>2.028</v>
       </c>
       <c r="L168" t="n">
-        <v>222150</v>
+        <v>208641</v>
       </c>
       <c r="M168" t="n">
-        <v>2.612</v>
-      </c>
-      <c r="N168"/>
-      <c r="O168"/>
+        <v>2.453</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="O168" t="n">
+        <v>22.7</v>
+      </c>
       <c r="P168" t="s">
         <v>886</v>
       </c>
@@ -12529,7 +12517,7 @@
         <v>890</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D169" t="s">
         <v>35</v>
@@ -12539,27 +12527,27 @@
       </c>
       <c r="F169"/>
       <c r="G169" t="n">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H169" t="n">
-        <v>2573530</v>
+        <v>2577730</v>
       </c>
       <c r="I169" t="n">
-        <v>54.612</v>
+        <v>54.702</v>
       </c>
       <c r="J169"/>
       <c r="K169"/>
       <c r="L169" t="n">
-        <v>3024</v>
+        <v>2307</v>
       </c>
       <c r="M169" t="n">
-        <v>0.064</v>
+        <v>0.049</v>
       </c>
       <c r="N169" t="n">
-        <v>0.0023</v>
+        <v>0.0035</v>
       </c>
       <c r="O169" t="n">
-        <v>432</v>
+        <v>283.3</v>
       </c>
       <c r="P169" t="s">
         <v>36</v>
@@ -12635,7 +12623,7 @@
         <v>899</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>44658</v>
+        <v>44662</v>
       </c>
       <c r="D171" t="s">
         <v>900</v>
@@ -12645,32 +12633,28 @@
       </c>
       <c r="F171"/>
       <c r="G171" t="n">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="H171" t="n">
-        <v>149824485</v>
+        <v>150750667</v>
       </c>
       <c r="I171" t="n">
-        <v>14995.82</v>
+        <v>15088.521</v>
       </c>
       <c r="J171" t="n">
-        <v>264300</v>
+        <v>207875</v>
       </c>
       <c r="K171" t="n">
-        <v>26.454</v>
+        <v>20.806</v>
       </c>
       <c r="L171" t="n">
-        <v>249618</v>
+        <v>230451</v>
       </c>
       <c r="M171" t="n">
-        <v>24.984</v>
-      </c>
-      <c r="N171" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="O171" t="n">
-        <v>986.1</v>
-      </c>
+        <v>23.066</v>
+      </c>
+      <c r="N171"/>
+      <c r="O171"/>
       <c r="P171" t="s">
         <v>901</v>
       </c>
@@ -12692,7 +12676,7 @@
         <v>905</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="D172" t="s">
         <v>906</v>
@@ -12702,31 +12686,31 @@
       </c>
       <c r="F172"/>
       <c r="G172" t="n">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H172" t="n">
-        <v>489964469</v>
+        <v>490482056</v>
       </c>
       <c r="I172" t="n">
-        <v>7183.48</v>
+        <v>7191.069</v>
       </c>
       <c r="J172" t="n">
-        <v>572302</v>
+        <v>517587</v>
       </c>
       <c r="K172" t="n">
-        <v>8.391</v>
+        <v>7.588</v>
       </c>
       <c r="L172" t="n">
-        <v>561075</v>
+        <v>537320</v>
       </c>
       <c r="M172" t="n">
-        <v>8.226</v>
+        <v>7.878</v>
       </c>
       <c r="N172" t="n">
-        <v>0.0992</v>
+        <v>0.0963</v>
       </c>
       <c r="O172" t="n">
-        <v>10.1</v>
+        <v>10.4</v>
       </c>
       <c r="P172" t="s">
         <v>908</v>
@@ -12749,7 +12733,7 @@
         <v>912</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>44653</v>
+        <v>44656</v>
       </c>
       <c r="D173" t="s">
         <v>374</v>
@@ -12759,31 +12743,31 @@
       </c>
       <c r="F173"/>
       <c r="G173" t="n">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="H173" t="n">
-        <v>851410086</v>
+        <v>853759606</v>
       </c>
       <c r="I173" t="n">
-        <v>2557.439</v>
+        <v>2564.497</v>
       </c>
       <c r="J173" t="n">
-        <v>361477</v>
+        <v>609381</v>
       </c>
       <c r="K173" t="n">
-        <v>1.086</v>
+        <v>1.83</v>
       </c>
       <c r="L173" t="n">
-        <v>631842</v>
+        <v>635271</v>
       </c>
       <c r="M173" t="n">
-        <v>1.898</v>
+        <v>1.908</v>
       </c>
       <c r="N173" t="n">
-        <v>0.03</v>
+        <v>0.031</v>
       </c>
       <c r="O173" t="n">
-        <v>33.3</v>
+        <v>32.3</v>
       </c>
       <c r="P173" t="s">
         <v>375</v>
@@ -12806,7 +12790,7 @@
         <v>915</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>44655</v>
+        <v>44658</v>
       </c>
       <c r="D174" t="s">
         <v>374</v>
@@ -12816,31 +12800,31 @@
       </c>
       <c r="F174"/>
       <c r="G174" t="n">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="H174" t="n">
-        <v>109284</v>
+        <v>109525</v>
       </c>
       <c r="I174" t="n">
-        <v>1048.61</v>
+        <v>1050.922</v>
       </c>
       <c r="J174" t="n">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="K174" t="n">
-        <v>0.47</v>
+        <v>0.595</v>
       </c>
       <c r="L174" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M174" t="n">
-        <v>0.566</v>
+        <v>0.518</v>
       </c>
       <c r="N174" t="n">
-        <v>0.043</v>
+        <v>0.053</v>
       </c>
       <c r="O174" t="n">
-        <v>23.3</v>
+        <v>18.9</v>
       </c>
       <c r="P174" t="s">
         <v>375</v>
@@ -12863,7 +12847,7 @@
         <v>918</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D175" t="s">
         <v>919</v>
@@ -12873,31 +12857,31 @@
       </c>
       <c r="F175"/>
       <c r="G175" t="n">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="H175" t="n">
-        <v>6048640</v>
+        <v>6064516</v>
       </c>
       <c r="I175" t="n">
-        <v>1735.546</v>
+        <v>1740.101</v>
       </c>
       <c r="J175" t="n">
-        <v>7348</v>
+        <v>3466</v>
       </c>
       <c r="K175" t="n">
-        <v>2.108</v>
+        <v>0.995</v>
       </c>
       <c r="L175" t="n">
-        <v>6978</v>
+        <v>6642</v>
       </c>
       <c r="M175" t="n">
-        <v>2.002</v>
+        <v>1.906</v>
       </c>
       <c r="N175" t="n">
-        <v>0.0925</v>
+        <v>0.0945</v>
       </c>
       <c r="O175" t="n">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="P175" t="s">
         <v>237</v>
@@ -12973,7 +12957,7 @@
         <v>928</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D177" t="s">
         <v>929</v>
@@ -12983,31 +12967,27 @@
       </c>
       <c r="F177"/>
       <c r="G177" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H177" t="n">
-        <v>84845790</v>
+        <v>85007902</v>
       </c>
       <c r="I177" t="n">
-        <v>864.284</v>
-      </c>
-      <c r="J177" t="n">
-        <v>56715</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.578</v>
-      </c>
+        <v>865.936</v>
+      </c>
+      <c r="J177"/>
+      <c r="K177"/>
       <c r="L177" t="n">
-        <v>75654</v>
+        <v>62196</v>
       </c>
       <c r="M177" t="n">
-        <v>0.771</v>
+        <v>0.634</v>
       </c>
       <c r="N177" t="n">
-        <v>0.9556</v>
+        <v>0.8726</v>
       </c>
       <c r="O177" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="P177" t="s">
         <v>931</v>
@@ -13079,7 +13059,7 @@
         <v>937</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>44657</v>
+        <v>44659</v>
       </c>
       <c r="D179" t="s">
         <v>938</v>
@@ -13089,32 +13069,28 @@
       </c>
       <c r="F179"/>
       <c r="G179" t="n">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="H179" t="n">
-        <v>3371058</v>
+        <v>3376838</v>
       </c>
       <c r="I179" t="n">
-        <v>178.168</v>
+        <v>178.474</v>
       </c>
       <c r="J179" t="n">
-        <v>2813</v>
+        <v>2861</v>
       </c>
       <c r="K179" t="n">
-        <v>0.149</v>
+        <v>0.151</v>
       </c>
       <c r="L179" t="n">
-        <v>2340</v>
+        <v>2404</v>
       </c>
       <c r="M179" t="n">
-        <v>0.124</v>
-      </c>
-      <c r="N179" t="n">
-        <v>0.0493</v>
-      </c>
-      <c r="O179" t="n">
-        <v>20.3</v>
-      </c>
+        <v>0.127</v>
+      </c>
+      <c r="N179"/>
+      <c r="O179"/>
       <c r="P179" t="s">
         <v>940</v>
       </c>
@@ -13136,7 +13112,7 @@
         <v>943</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D180" t="s">
         <v>35</v>
@@ -13146,27 +13122,27 @@
       </c>
       <c r="F180"/>
       <c r="G180" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H180" t="n">
-        <v>2206280</v>
+        <v>2213383</v>
       </c>
       <c r="I180" t="n">
-        <v>146.187</v>
+        <v>146.658</v>
       </c>
       <c r="J180"/>
       <c r="K180"/>
       <c r="L180" t="n">
-        <v>3254</v>
+        <v>2968</v>
       </c>
       <c r="M180" t="n">
-        <v>0.216</v>
+        <v>0.197</v>
       </c>
       <c r="N180" t="n">
-        <v>0.0256</v>
+        <v>0.0208</v>
       </c>
       <c r="O180" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="P180" t="s">
         <v>36</v>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="952">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -895,6 +895,9 @@
     <t xml:space="preserve">https://covid19.dominica.gov.dm/index.php/updates</t>
   </si>
   <si>
+    <t xml:space="preserve">The Dominica Ministry of Health publishes situation reports on its [website](https://covid19.dominica.gov.dm/index.php/updates), from which we construct a time series of the number of laborartory tests performed.</t>
+  </si>
+  <si>
     <t xml:space="preserve">DOM</t>
   </si>
   <si>
@@ -1241,6 +1244,24 @@
 The source states that the testing figures refer to the number of samples tested, "including more than one sample per person tested" ("συμπεριλαμβάνονται και περισσότερα από ένα δείγματα ανά άτομο που ελέγχθηκε"), in all "labotories that declare to the EODY" ("δηλώνουν συστηματικά στον ΕΟΔΥ"). Pending and indeterminate tests are excluded from testing figures. 
 Since [26 September 2020](https://eody.gov.gr/wp-content/uploads/2020/09/covid-gr-daily-report-26-09-2020.pdf), the number of antigen tests performed to date are also reported in the press releases, separately from the number of PCR tests. We combine these two figures to determine the total number of samples tested, because our [source](https://coronavirus.jhu.edu/region/greece) for the number of confirmed cases includes positive results from both PCR and antigen tests.
 According to Oxford University's [Coronavirus Government Response Tracker](https://github.com/OxCGRT/covid-policy-tracker/tree/master/data), government policy currently covers "testing of anyone showing COVID-19 symptoms": "COVID-19 tests are available at many major hospitals in Greece, as well as the Athens Eleftherios Venizelos Airport (at Arrivals level between entrances 2-3). Testing is paid by the individual being tested. The average cost for COVID-19 testing is 100-120 euros".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenada - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/gisgrenada/posts/287727500215670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government Information Service of Grenada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/gisgrenada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Government Information Service of Grenada publishes situation reports on its official Facebook [page](https://www.facebook.com/gisgrenada), from which we construct a time series of the number of laborartory tests performed.</t>
   </si>
   <si>
     <t xml:space="preserve">GUM</t>
@@ -6071,23 +6092,25 @@
       <c r="R48" t="s">
         <v>25</v>
       </c>
-      <c r="S48"/>
+      <c r="S48" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B49" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C49" s="1" t="n">
         <v>44652</v>
       </c>
       <c r="D49" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E49" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F49"/>
       <c r="G49" t="n">
@@ -6118,36 +6141,36 @@
         <v>43</v>
       </c>
       <c r="P49" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q49" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="R49" t="s">
         <v>136</v>
       </c>
       <c r="S49" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B50" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C50" s="1" t="n">
         <v>44657</v>
       </c>
       <c r="D50" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E50" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F50" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G50" t="n">
         <v>745</v>
@@ -6177,24 +6200,24 @@
         <v>7.9</v>
       </c>
       <c r="P50" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q50" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="R50" t="s">
         <v>45</v>
       </c>
       <c r="S50" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B51" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C51" s="1" t="n">
         <v>44652</v>
@@ -6239,24 +6262,24 @@
         <v>25</v>
       </c>
       <c r="S51" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B52" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C52" s="1" t="n">
         <v>44660</v>
       </c>
       <c r="D52" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E52" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
@@ -6287,33 +6310,33 @@
         <v>250</v>
       </c>
       <c r="P52" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q52" t="s">
         <v>288</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>287</v>
       </c>
       <c r="R52" t="s">
         <v>61</v>
       </c>
       <c r="S52" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B53" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C53" s="1" t="n">
         <v>44652</v>
       </c>
       <c r="D53" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E53" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
@@ -6343,21 +6366,21 @@
         <v>36</v>
       </c>
       <c r="Q53" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="R53" t="s">
         <v>25</v>
       </c>
       <c r="S53" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B54" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C54" s="1" t="n">
         <v>44627</v>
@@ -6394,24 +6417,24 @@
         <v>25</v>
       </c>
       <c r="S54" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B55" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C55" s="1" t="n">
         <v>44661</v>
       </c>
       <c r="D55" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E55" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
@@ -6442,24 +6465,24 @@
         <v>4.4</v>
       </c>
       <c r="P55" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q55" t="s">
         <v>301</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>300</v>
       </c>
       <c r="R55" t="s">
         <v>61</v>
       </c>
       <c r="S55" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B56" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C56" s="1" t="n">
         <v>44661</v>
@@ -6504,15 +6527,15 @@
         <v>25</v>
       </c>
       <c r="S56" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B57" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C57" s="1" t="n">
         <v>44661</v>
@@ -6548,33 +6571,33 @@
         <v>141.7</v>
       </c>
       <c r="P57" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q57" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R57" t="s">
         <v>61</v>
       </c>
       <c r="S57" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B58" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C58" s="1" t="n">
         <v>44618</v>
       </c>
       <c r="D58" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E58" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
@@ -6601,33 +6624,33 @@
         <v>1.5</v>
       </c>
       <c r="P58" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q58" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="R58" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="S58" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B59" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C59" s="1" t="n">
         <v>44661</v>
       </c>
       <c r="D59" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E59" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
@@ -6650,33 +6673,33 @@
       <c r="N59"/>
       <c r="O59"/>
       <c r="P59" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q59" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="R59" t="s">
         <v>61</v>
       </c>
       <c r="S59" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B60" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C60" s="1" t="n">
         <v>44656</v>
       </c>
       <c r="D60" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E60" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
@@ -6707,33 +6730,33 @@
         <v>2.5</v>
       </c>
       <c r="P60" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q60" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="R60" t="s">
         <v>61</v>
       </c>
       <c r="S60" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B61" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C61" s="1" t="n">
         <v>44658</v>
       </c>
       <c r="D61" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F61"/>
       <c r="G61" t="n">
@@ -6764,24 +6787,24 @@
         <v>3.2</v>
       </c>
       <c r="P61" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q61" t="s">
         <v>334</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>333</v>
       </c>
       <c r="R61" t="s">
         <v>45</v>
       </c>
       <c r="S61" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B62" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C62" s="1" t="n">
         <v>44661</v>
@@ -6820,21 +6843,21 @@
         <v>36</v>
       </c>
       <c r="Q62" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="R62" t="s">
         <v>25</v>
       </c>
       <c r="S62" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B63" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C63" s="1" t="n">
         <v>44644</v>
@@ -6870,33 +6893,33 @@
         <v>95.2</v>
       </c>
       <c r="P63" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q63" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="R63" t="s">
         <v>136</v>
       </c>
       <c r="S63" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B64" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C64" s="1" t="n">
         <v>44658</v>
       </c>
       <c r="D64" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E64" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
@@ -6927,33 +6950,33 @@
         <v>13.7</v>
       </c>
       <c r="P64" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q64" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="R64" t="s">
         <v>25</v>
       </c>
       <c r="S64" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B65" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C65" s="1" t="n">
         <v>44654</v>
       </c>
       <c r="D65" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E65" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
@@ -6980,24 +7003,24 @@
         <v>1.9</v>
       </c>
       <c r="P65" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q65" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="R65" t="s">
         <v>61</v>
       </c>
       <c r="S65" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B66" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C66" s="1" t="n">
         <v>44661</v>
@@ -7042,24 +7065,24 @@
         <v>25</v>
       </c>
       <c r="S66" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B67" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C67" s="1" t="n">
         <v>44652</v>
       </c>
       <c r="D67" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E67" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
@@ -7086,33 +7109,33 @@
         <v>11.7</v>
       </c>
       <c r="P67" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q67" t="s">
         <v>363</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>362</v>
       </c>
       <c r="R67" t="s">
         <v>25</v>
       </c>
       <c r="S67" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B68" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C68" s="1" t="n">
         <v>44661</v>
       </c>
       <c r="D68" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E68" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
@@ -7139,127 +7162,123 @@
         <v>18.2</v>
       </c>
       <c r="P68" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q68" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="R68" t="s">
         <v>136</v>
       </c>
       <c r="S68" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B69" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>44657</v>
+        <v>44659</v>
       </c>
       <c r="D69" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E69" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>756</v>
+        <v>2</v>
       </c>
       <c r="H69" t="n">
-        <v>279991</v>
+        <v>145445</v>
       </c>
       <c r="I69" t="n">
-        <v>1645.225</v>
-      </c>
-      <c r="J69" t="n">
-        <v>397</v>
-      </c>
-      <c r="K69" t="n">
-        <v>2.333</v>
-      </c>
+        <v>1286.953</v>
+      </c>
+      <c r="J69"/>
+      <c r="K69"/>
       <c r="L69" t="n">
-        <v>452</v>
+        <v>185</v>
       </c>
       <c r="M69" t="n">
-        <v>2.656</v>
+        <v>1.637</v>
       </c>
       <c r="N69" t="n">
-        <v>0.053</v>
+        <v>0.0093</v>
       </c>
       <c r="O69" t="n">
-        <v>18.9</v>
+        <v>107.9</v>
       </c>
       <c r="P69" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q69" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="R69" t="s">
-        <v>376</v>
+        <v>25</v>
       </c>
       <c r="S69" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B70" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44631</v>
+        <v>44657</v>
       </c>
       <c r="D70" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E70" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>740</v>
+        <v>756</v>
       </c>
       <c r="H70" t="n">
-        <v>4067775</v>
+        <v>279991</v>
       </c>
       <c r="I70" t="n">
-        <v>222.893</v>
+        <v>1645.225</v>
       </c>
       <c r="J70" t="n">
-        <v>10381</v>
+        <v>397</v>
       </c>
       <c r="K70" t="n">
-        <v>0.569</v>
+        <v>2.333</v>
       </c>
       <c r="L70" t="n">
-        <v>10008</v>
+        <v>452</v>
       </c>
       <c r="M70" t="n">
-        <v>0.548</v>
+        <v>2.656</v>
       </c>
       <c r="N70" t="n">
-        <v>0.1911</v>
+        <v>0.053</v>
       </c>
       <c r="O70" t="n">
-        <v>5.2</v>
+        <v>18.9</v>
       </c>
       <c r="P70" t="s">
         <v>382</v>
       </c>
       <c r="Q70" t="s">
+        <v>381</v>
+      </c>
+      <c r="R70" t="s">
         <v>383</v>
-      </c>
-      <c r="R70" t="s">
-        <v>45</v>
       </c>
       <c r="S70" t="s">
         <v>384</v>
@@ -7273,60 +7292,64 @@
         <v>386</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44644</v>
+        <v>44631</v>
       </c>
       <c r="D71" t="s">
-        <v>35</v>
+        <v>387</v>
       </c>
       <c r="E71" t="s">
-        <v>36</v>
+        <v>388</v>
       </c>
       <c r="F71"/>
       <c r="G71" t="n">
-        <v>5</v>
+        <v>740</v>
       </c>
       <c r="H71" t="n">
-        <v>668971</v>
+        <v>4067775</v>
       </c>
       <c r="I71" t="n">
-        <v>49.564</v>
-      </c>
-      <c r="J71"/>
-      <c r="K71"/>
+        <v>222.893</v>
+      </c>
+      <c r="J71" t="n">
+        <v>10381</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.569</v>
+      </c>
       <c r="L71" t="n">
-        <v>644</v>
+        <v>10008</v>
       </c>
       <c r="M71" t="n">
-        <v>0.048</v>
+        <v>0.548</v>
       </c>
       <c r="N71" t="n">
-        <v>0.0053</v>
+        <v>0.1911</v>
       </c>
       <c r="O71" t="n">
-        <v>187.8</v>
+        <v>5.2</v>
       </c>
       <c r="P71" t="s">
-        <v>36</v>
+        <v>389</v>
       </c>
       <c r="Q71" t="s">
-        <v>37</v>
+        <v>390</v>
       </c>
       <c r="R71" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="S71" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B72" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>44661</v>
+        <v>44644</v>
       </c>
       <c r="D72" t="s">
         <v>35</v>
@@ -7336,27 +7359,27 @@
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H72" t="n">
-        <v>130662</v>
+        <v>668971</v>
       </c>
       <c r="I72" t="n">
-        <v>64.829</v>
+        <v>49.564</v>
       </c>
       <c r="J72"/>
       <c r="K72"/>
       <c r="L72" t="n">
-        <v>189</v>
+        <v>644</v>
       </c>
       <c r="M72" t="n">
-        <v>0.094</v>
+        <v>0.048</v>
       </c>
       <c r="N72" t="n">
-        <v>0.0166</v>
+        <v>0.0053</v>
       </c>
       <c r="O72" t="n">
-        <v>60.1</v>
+        <v>187.8</v>
       </c>
       <c r="P72" t="s">
         <v>36</v>
@@ -7368,101 +7391,101 @@
         <v>25</v>
       </c>
       <c r="S72" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B73" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44582</v>
+        <v>44661</v>
       </c>
       <c r="D73" t="s">
-        <v>393</v>
+        <v>35</v>
       </c>
       <c r="E73" t="s">
-        <v>394</v>
+        <v>36</v>
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H73" t="n">
-        <v>442695</v>
+        <v>130662</v>
       </c>
       <c r="I73" t="n">
-        <v>560.14</v>
+        <v>64.829</v>
       </c>
       <c r="J73"/>
       <c r="K73"/>
       <c r="L73" t="n">
-        <v>2771</v>
+        <v>189</v>
       </c>
       <c r="M73" t="n">
-        <v>3.506</v>
+        <v>0.094</v>
       </c>
       <c r="N73" t="n">
-        <v>0.3388</v>
+        <v>0.0166</v>
       </c>
       <c r="O73" t="n">
-        <v>3</v>
+        <v>60.1</v>
       </c>
       <c r="P73" t="s">
-        <v>394</v>
+        <v>36</v>
       </c>
       <c r="Q73" t="s">
-        <v>395</v>
+        <v>37</v>
       </c>
       <c r="R73" t="s">
         <v>25</v>
       </c>
       <c r="S73" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B74" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>44653</v>
+        <v>44582</v>
       </c>
       <c r="D74" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E74" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H74" t="n">
-        <v>190236</v>
+        <v>442695</v>
       </c>
       <c r="I74" t="n">
-        <v>16.483</v>
+        <v>560.14</v>
       </c>
       <c r="J74"/>
       <c r="K74"/>
       <c r="L74" t="n">
-        <v>318</v>
+        <v>2771</v>
       </c>
       <c r="M74" t="n">
-        <v>0.028</v>
+        <v>3.506</v>
       </c>
       <c r="N74" t="n">
-        <v>0.0171</v>
+        <v>0.3388</v>
       </c>
       <c r="O74" t="n">
-        <v>58.6</v>
+        <v>3</v>
       </c>
       <c r="P74" t="s">
         <v>401</v>
@@ -7485,7 +7508,7 @@
         <v>405</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44649</v>
+        <v>44653</v>
       </c>
       <c r="D75" t="s">
         <v>406</v>
@@ -7495,27 +7518,27 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H75" t="n">
-        <v>44972952</v>
+        <v>190236</v>
       </c>
       <c r="I75" t="n">
-        <v>5954.474</v>
+        <v>16.483</v>
       </c>
       <c r="J75"/>
       <c r="K75"/>
       <c r="L75" t="n">
-        <v>124703</v>
+        <v>318</v>
       </c>
       <c r="M75" t="n">
-        <v>16.511</v>
+        <v>0.028</v>
       </c>
       <c r="N75" t="n">
-        <v>0.24</v>
+        <v>0.0171</v>
       </c>
       <c r="O75" t="n">
-        <v>4.2</v>
+        <v>58.6</v>
       </c>
       <c r="P75" t="s">
         <v>408</v>
@@ -7524,7 +7547,7 @@
         <v>409</v>
       </c>
       <c r="R75" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S75" t="s">
         <v>410</v>
@@ -7538,7 +7561,7 @@
         <v>412</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44662</v>
+        <v>44649</v>
       </c>
       <c r="D76" t="s">
         <v>413</v>
@@ -7546,40 +7569,38 @@
       <c r="E76" t="s">
         <v>414</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76"/>
+      <c r="G76" t="n">
+        <v>29</v>
+      </c>
+      <c r="H76" t="n">
+        <v>44972952</v>
+      </c>
+      <c r="I76" t="n">
+        <v>5954.474</v>
+      </c>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76" t="n">
+        <v>124703</v>
+      </c>
+      <c r="M76" t="n">
+        <v>16.511</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="O76" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="P76" t="s">
         <v>415</v>
-      </c>
-      <c r="G76" t="n">
-        <v>673</v>
-      </c>
-      <c r="H76" t="n">
-        <v>10770194</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1117.917</v>
-      </c>
-      <c r="J76" t="n">
-        <v>29137</v>
-      </c>
-      <c r="K76" t="n">
-        <v>3.024</v>
-      </c>
-      <c r="L76" t="n">
-        <v>9998</v>
-      </c>
-      <c r="M76" t="n">
-        <v>1.038</v>
-      </c>
-      <c r="N76"/>
-      <c r="O76"/>
-      <c r="P76" t="s">
-        <v>414</v>
       </c>
       <c r="Q76" t="s">
         <v>416</v>
       </c>
       <c r="R76" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="S76" t="s">
         <v>417</v>
@@ -7593,7 +7614,7 @@
         <v>419</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>44658</v>
+        <v>44662</v>
       </c>
       <c r="D77" t="s">
         <v>420</v>
@@ -7601,27 +7622,29 @@
       <c r="E77" t="s">
         <v>421</v>
       </c>
-      <c r="F77"/>
+      <c r="F77" t="s">
+        <v>422</v>
+      </c>
       <c r="G77" t="n">
-        <v>767</v>
+        <v>673</v>
       </c>
       <c r="H77" t="n">
-        <v>1301870</v>
+        <v>10770194</v>
       </c>
       <c r="I77" t="n">
-        <v>3530.093</v>
+        <v>1117.917</v>
       </c>
       <c r="J77" t="n">
-        <v>1295</v>
+        <v>29137</v>
       </c>
       <c r="K77" t="n">
-        <v>3.511</v>
+        <v>3.024</v>
       </c>
       <c r="L77" t="n">
-        <v>1157</v>
+        <v>9998</v>
       </c>
       <c r="M77" t="n">
-        <v>3.137</v>
+        <v>1.038</v>
       </c>
       <c r="N77"/>
       <c r="O77"/>
@@ -7629,167 +7652,171 @@
         <v>421</v>
       </c>
       <c r="Q77" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="R77" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="S77" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B78" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>44661</v>
+        <v>44658</v>
       </c>
       <c r="D78" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E78" t="s">
-        <v>426</v>
-      </c>
-      <c r="F78" t="s">
+        <v>428</v>
+      </c>
+      <c r="F78"/>
+      <c r="G78" t="n">
+        <v>767</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1301870</v>
+      </c>
+      <c r="I78" t="n">
+        <v>3530.093</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1295</v>
+      </c>
+      <c r="K78" t="n">
+        <v>3.511</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1157</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3.137</v>
+      </c>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q78" t="s">
         <v>427</v>
       </c>
-      <c r="G78" t="n">
-        <v>740</v>
-      </c>
-      <c r="H78" t="n">
-        <v>793847740</v>
-      </c>
-      <c r="I78" t="n">
-        <v>569.716</v>
-      </c>
-      <c r="J78" t="n">
-        <v>418345</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L78" t="n">
-        <v>440408</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.316</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0.0023</v>
-      </c>
-      <c r="O78" t="n">
-        <v>434.9</v>
-      </c>
-      <c r="P78" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>425</v>
-      </c>
       <c r="R78" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="S78" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B79" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>44641</v>
+        <v>44661</v>
       </c>
       <c r="D79" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E79" t="s">
+        <v>433</v>
+      </c>
+      <c r="F79" t="s">
+        <v>434</v>
+      </c>
+      <c r="G79" t="n">
+        <v>740</v>
+      </c>
+      <c r="H79" t="n">
+        <v>793847740</v>
+      </c>
+      <c r="I79" t="n">
+        <v>569.716</v>
+      </c>
+      <c r="J79" t="n">
+        <v>418345</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L79" t="n">
+        <v>440408</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="O79" t="n">
+        <v>434.9</v>
+      </c>
+      <c r="P79" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q79" t="s">
         <v>432</v>
       </c>
-      <c r="F79"/>
-      <c r="G79" t="n">
-        <v>371</v>
-      </c>
-      <c r="H79" t="n">
-        <v>59503735</v>
-      </c>
-      <c r="I79" t="n">
-        <v>215.311</v>
-      </c>
-      <c r="J79" t="n">
-        <v>103179</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.373</v>
-      </c>
-      <c r="L79" t="n">
-        <v>114413</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.414</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0.0837</v>
-      </c>
-      <c r="O79" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="P79" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>433</v>
-      </c>
       <c r="R79" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="S79" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B80" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44662</v>
+        <v>44641</v>
       </c>
       <c r="D80" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E80" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>455</v>
+        <v>371</v>
       </c>
       <c r="H80" t="n">
-        <v>50079995</v>
+        <v>59503735</v>
       </c>
       <c r="I80" t="n">
-        <v>588.977</v>
-      </c>
-      <c r="J80"/>
-      <c r="K80"/>
+        <v>215.311</v>
+      </c>
+      <c r="J80" t="n">
+        <v>103179</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.373</v>
+      </c>
       <c r="L80" t="n">
-        <v>60152</v>
+        <v>114413</v>
       </c>
       <c r="M80" t="n">
-        <v>0.707</v>
-      </c>
-      <c r="N80"/>
-      <c r="O80"/>
+        <v>0.414</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.0837</v>
+      </c>
+      <c r="O80" t="n">
+        <v>11.9</v>
+      </c>
       <c r="P80" t="s">
         <v>439</v>
       </c>
@@ -7797,7 +7824,7 @@
         <v>440</v>
       </c>
       <c r="R80" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="S80" t="s">
         <v>441</v>
@@ -7811,545 +7838,541 @@
         <v>443</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>44632</v>
+        <v>44662</v>
       </c>
       <c r="D81" t="s">
-        <v>21</v>
+        <v>444</v>
       </c>
       <c r="E81" t="s">
-        <v>22</v>
+        <v>445</v>
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>562</v>
+        <v>455</v>
       </c>
       <c r="H81" t="n">
-        <v>18137544</v>
+        <v>50079995</v>
       </c>
       <c r="I81" t="n">
-        <v>440.452</v>
+        <v>588.977</v>
       </c>
       <c r="J81"/>
       <c r="K81"/>
       <c r="L81" t="n">
-        <v>13480</v>
+        <v>60152</v>
       </c>
       <c r="M81" t="n">
-        <v>0.327</v>
-      </c>
-      <c r="N81" t="n">
-        <v>0.0502</v>
-      </c>
-      <c r="O81" t="n">
-        <v>19.9</v>
-      </c>
+        <v>0.707</v>
+      </c>
+      <c r="N81"/>
+      <c r="O81"/>
       <c r="P81" t="s">
-        <v>23</v>
+        <v>446</v>
       </c>
       <c r="Q81" t="s">
-        <v>24</v>
+        <v>447</v>
       </c>
       <c r="R81" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="S81" t="s">
-        <v>26</v>
+        <v>448</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="B82" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>44662</v>
+        <v>44632</v>
       </c>
       <c r="D82" t="s">
-        <v>446</v>
+        <v>21</v>
       </c>
       <c r="E82" t="s">
-        <v>447</v>
+        <v>22</v>
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
-        <v>755</v>
+        <v>562</v>
       </c>
       <c r="H82" t="n">
-        <v>11933915</v>
+        <v>18137544</v>
       </c>
       <c r="I82" t="n">
-        <v>2394.972</v>
-      </c>
-      <c r="J82" t="n">
-        <v>6587</v>
-      </c>
-      <c r="K82" t="n">
-        <v>1.322</v>
-      </c>
+        <v>440.452</v>
+      </c>
+      <c r="J82"/>
+      <c r="K82"/>
       <c r="L82" t="n">
-        <v>9813</v>
+        <v>13480</v>
       </c>
       <c r="M82" t="n">
-        <v>1.969</v>
-      </c>
-      <c r="N82"/>
-      <c r="O82"/>
+        <v>0.327</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.0502</v>
+      </c>
+      <c r="O82" t="n">
+        <v>19.9</v>
+      </c>
       <c r="P82" t="s">
-        <v>447</v>
+        <v>23</v>
       </c>
       <c r="Q82" t="s">
-        <v>448</v>
+        <v>24</v>
       </c>
       <c r="R82" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S82" t="s">
-        <v>449</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B83" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44661</v>
+        <v>44662</v>
       </c>
       <c r="D83" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E83" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>781</v>
+        <v>755</v>
       </c>
       <c r="H83" t="n">
-        <v>49085339</v>
+        <v>11933915</v>
       </c>
       <c r="I83" t="n">
-        <v>5283.106</v>
+        <v>2394.972</v>
       </c>
       <c r="J83" t="n">
-        <v>47377</v>
+        <v>6587</v>
       </c>
       <c r="K83" t="n">
-        <v>5.099</v>
+        <v>1.322</v>
       </c>
       <c r="L83" t="n">
-        <v>51414</v>
+        <v>9813</v>
       </c>
       <c r="M83" t="n">
-        <v>5.534</v>
-      </c>
-      <c r="N83" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="O83" t="n">
-        <v>7.1</v>
-      </c>
+        <v>1.969</v>
+      </c>
+      <c r="N83"/>
+      <c r="O83"/>
       <c r="P83" t="s">
-        <v>53</v>
+        <v>454</v>
       </c>
       <c r="Q83" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="R83" t="s">
         <v>61</v>
       </c>
       <c r="S83" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B84" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C84" s="1" t="n">
         <v>44661</v>
       </c>
       <c r="D84" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E84" t="s">
-        <v>459</v>
-      </c>
-      <c r="F84" t="s">
         <v>460</v>
       </c>
+      <c r="F84"/>
       <c r="G84" t="n">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="H84" t="n">
-        <v>206399929</v>
+        <v>49085339</v>
       </c>
       <c r="I84" t="n">
-        <v>3419.059</v>
+        <v>5283.106</v>
       </c>
       <c r="J84" t="n">
-        <v>352265</v>
+        <v>47377</v>
       </c>
       <c r="K84" t="n">
-        <v>5.835</v>
+        <v>5.099</v>
       </c>
       <c r="L84" t="n">
-        <v>590827</v>
+        <v>51414</v>
       </c>
       <c r="M84" t="n">
-        <v>9.787</v>
+        <v>5.534</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1079</v>
+        <v>0.14</v>
       </c>
       <c r="O84" t="n">
-        <v>9.3</v>
+        <v>7.1</v>
       </c>
       <c r="P84" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q84" t="s">
         <v>461</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>462</v>
       </c>
       <c r="R84" t="s">
         <v>61</v>
       </c>
       <c r="S84" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>463</v>
+      </c>
+      <c r="B85" t="s">
         <v>464</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" s="1" t="n">
+        <v>44661</v>
+      </c>
+      <c r="D85" t="s">
         <v>465</v>
       </c>
-      <c r="C85" s="1" t="n">
-        <v>44658</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>466</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>467</v>
       </c>
-      <c r="F85"/>
       <c r="G85" t="n">
-        <v>535</v>
+        <v>776</v>
       </c>
       <c r="H85" t="n">
-        <v>945271</v>
+        <v>206399929</v>
       </c>
       <c r="I85" t="n">
-        <v>317.902</v>
+        <v>3419.059</v>
       </c>
       <c r="J85" t="n">
-        <v>1968</v>
+        <v>352265</v>
       </c>
       <c r="K85" t="n">
-        <v>0.662</v>
+        <v>5.835</v>
       </c>
       <c r="L85" t="n">
-        <v>2282</v>
+        <v>590827</v>
       </c>
       <c r="M85" t="n">
-        <v>0.767</v>
+        <v>9.787</v>
       </c>
       <c r="N85" t="n">
-        <v>0.0121</v>
+        <v>0.1079</v>
       </c>
       <c r="O85" t="n">
-        <v>82.8</v>
+        <v>9.3</v>
       </c>
       <c r="P85" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q85" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="R85" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="S85" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B86" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44661</v>
+        <v>44658</v>
       </c>
       <c r="D86" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E86" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>793</v>
+        <v>535</v>
       </c>
       <c r="H86" t="n">
-        <v>42936789</v>
+        <v>945271</v>
       </c>
       <c r="I86" t="n">
-        <v>340.631</v>
+        <v>317.902</v>
       </c>
       <c r="J86" t="n">
-        <v>56863</v>
+        <v>1968</v>
       </c>
       <c r="K86" t="n">
-        <v>0.451</v>
+        <v>0.662</v>
       </c>
       <c r="L86" t="n">
-        <v>129866</v>
+        <v>2282</v>
       </c>
       <c r="M86" t="n">
-        <v>1.03</v>
+        <v>0.767</v>
       </c>
       <c r="N86" t="n">
-        <v>0.3726</v>
+        <v>0.0121</v>
       </c>
       <c r="O86" t="n">
-        <v>2.7</v>
+        <v>82.8</v>
       </c>
       <c r="P86" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q86" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="R86" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="S86" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B87" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44631</v>
+        <v>44661</v>
       </c>
       <c r="D87" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E87" t="s">
-        <v>53</v>
+        <v>480</v>
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>331</v>
+        <v>793</v>
       </c>
       <c r="H87" t="n">
-        <v>16499905</v>
+        <v>42936789</v>
       </c>
       <c r="I87" t="n">
-        <v>1606.765</v>
-      </c>
-      <c r="J87"/>
-      <c r="K87"/>
+        <v>340.631</v>
+      </c>
+      <c r="J87" t="n">
+        <v>56863</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.451</v>
+      </c>
       <c r="L87" t="n">
-        <v>18061</v>
+        <v>129866</v>
       </c>
       <c r="M87" t="n">
-        <v>1.759</v>
+        <v>1.03</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1301</v>
+        <v>0.3726</v>
       </c>
       <c r="O87" t="n">
-        <v>7.7</v>
+        <v>2.7</v>
       </c>
       <c r="P87" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q87" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="R87" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="S87" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B88" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44355</v>
+        <v>44631</v>
       </c>
       <c r="D88" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E88" t="s">
-        <v>485</v>
+        <v>53</v>
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>447</v>
+        <v>331</v>
       </c>
       <c r="H88" t="n">
-        <v>11965068</v>
+        <v>16499905</v>
       </c>
       <c r="I88" t="n">
-        <v>629.908</v>
-      </c>
-      <c r="J88" t="n">
-        <v>52729</v>
-      </c>
-      <c r="K88" t="n">
-        <v>2.776</v>
-      </c>
+        <v>1606.765</v>
+      </c>
+      <c r="J88"/>
+      <c r="K88"/>
       <c r="L88" t="n">
-        <v>39955</v>
+        <v>18061</v>
       </c>
       <c r="M88" t="n">
-        <v>2.103</v>
+        <v>1.759</v>
       </c>
       <c r="N88" t="n">
-        <v>0.03</v>
+        <v>0.1301</v>
       </c>
       <c r="O88" t="n">
-        <v>33.4</v>
+        <v>7.7</v>
       </c>
       <c r="P88" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Q88" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="R88" t="s">
         <v>61</v>
       </c>
       <c r="S88" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B89" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44661</v>
+        <v>44355</v>
       </c>
       <c r="D89" t="s">
-        <v>35</v>
+        <v>491</v>
       </c>
       <c r="E89" t="s">
-        <v>36</v>
+        <v>492</v>
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>255</v>
+        <v>447</v>
       </c>
       <c r="H89" t="n">
-        <v>3547755</v>
+        <v>11965068</v>
       </c>
       <c r="I89" t="n">
-        <v>64.521</v>
-      </c>
-      <c r="J89"/>
-      <c r="K89"/>
+        <v>629.908</v>
+      </c>
+      <c r="J89" t="n">
+        <v>52729</v>
+      </c>
+      <c r="K89" t="n">
+        <v>2.776</v>
+      </c>
       <c r="L89" t="n">
-        <v>3526</v>
+        <v>39955</v>
       </c>
       <c r="M89" t="n">
-        <v>0.064</v>
+        <v>2.103</v>
       </c>
       <c r="N89" t="n">
-        <v>0.0035</v>
+        <v>0.03</v>
       </c>
       <c r="O89" t="n">
-        <v>283.7</v>
+        <v>33.4</v>
       </c>
       <c r="P89" t="s">
-        <v>36</v>
+        <v>492</v>
       </c>
       <c r="Q89" t="s">
-        <v>37</v>
+        <v>491</v>
       </c>
       <c r="R89" t="s">
         <v>61</v>
       </c>
       <c r="S89" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B90" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44660</v>
+        <v>44661</v>
       </c>
       <c r="D90" t="s">
-        <v>492</v>
+        <v>35</v>
       </c>
       <c r="E90" t="s">
-        <v>493</v>
+        <v>36</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>171</v>
+        <v>255</v>
       </c>
       <c r="H90" t="n">
-        <v>1808495</v>
+        <v>3547755</v>
       </c>
       <c r="I90" t="n">
-        <v>1014.803</v>
+        <v>64.521</v>
       </c>
       <c r="J90"/>
       <c r="K90"/>
       <c r="L90" t="n">
-        <v>1028</v>
+        <v>3526</v>
       </c>
       <c r="M90" t="n">
-        <v>0.577</v>
+        <v>0.064</v>
       </c>
       <c r="N90" t="n">
-        <v>0.0245</v>
+        <v>0.0035</v>
       </c>
       <c r="O90" t="n">
-        <v>40.9</v>
+        <v>283.7</v>
       </c>
       <c r="P90" t="s">
-        <v>494</v>
+        <v>36</v>
       </c>
       <c r="Q90" t="s">
-        <v>495</v>
+        <v>37</v>
       </c>
       <c r="R90" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="S90" t="s">
         <v>496</v>
@@ -8363,268 +8386,270 @@
         <v>498</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>44632</v>
+        <v>44660</v>
       </c>
       <c r="D91" t="s">
-        <v>21</v>
+        <v>499</v>
       </c>
       <c r="E91" t="s">
-        <v>22</v>
+        <v>500</v>
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>662</v>
+        <v>171</v>
       </c>
       <c r="H91" t="n">
-        <v>7763313</v>
+        <v>1808495</v>
       </c>
       <c r="I91" t="n">
-        <v>1793.512</v>
+        <v>1014.803</v>
       </c>
       <c r="J91"/>
       <c r="K91"/>
       <c r="L91" t="n">
-        <v>7107</v>
+        <v>1028</v>
       </c>
       <c r="M91" t="n">
-        <v>1.642</v>
+        <v>0.577</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0597</v>
+        <v>0.0245</v>
       </c>
       <c r="O91" t="n">
-        <v>16.7</v>
+        <v>40.9</v>
       </c>
       <c r="P91" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="Q91" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="R91" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S91" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B92" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44658</v>
+        <v>44632</v>
       </c>
       <c r="D92" t="s">
-        <v>504</v>
+        <v>21</v>
       </c>
       <c r="E92" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>255</v>
+        <v>662</v>
       </c>
       <c r="H92" t="n">
-        <v>1014597</v>
+        <v>7763313</v>
       </c>
       <c r="I92" t="n">
-        <v>137.491</v>
-      </c>
-      <c r="J92" t="n">
-        <v>4827</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.654</v>
-      </c>
+        <v>1793.512</v>
+      </c>
+      <c r="J92"/>
+      <c r="K92"/>
       <c r="L92" t="n">
-        <v>690</v>
+        <v>7107</v>
       </c>
       <c r="M92" t="n">
-        <v>0.094</v>
-      </c>
-      <c r="N92"/>
-      <c r="O92"/>
+        <v>1.642</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.0597</v>
+      </c>
+      <c r="O92" t="n">
+        <v>16.7</v>
+      </c>
       <c r="P92" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Q92" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="R92" t="s">
-        <v>316</v>
+        <v>61</v>
       </c>
       <c r="S92" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B93" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>44662</v>
+        <v>44658</v>
       </c>
       <c r="D93" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E93" t="s">
-        <v>511</v>
-      </c>
-      <c r="F93" t="s">
-        <v>512</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F93"/>
       <c r="G93" t="n">
-        <v>773</v>
+        <v>255</v>
       </c>
       <c r="H93" t="n">
-        <v>7052074</v>
+        <v>1014597</v>
       </c>
       <c r="I93" t="n">
-        <v>3777.356</v>
+        <v>137.491</v>
       </c>
       <c r="J93" t="n">
-        <v>2050</v>
+        <v>4827</v>
       </c>
       <c r="K93" t="n">
-        <v>1.098</v>
+        <v>0.654</v>
       </c>
       <c r="L93" t="n">
-        <v>4444</v>
+        <v>690</v>
       </c>
       <c r="M93" t="n">
-        <v>2.38</v>
+        <v>0.094</v>
       </c>
       <c r="N93"/>
       <c r="O93"/>
       <c r="P93" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Q93" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="R93" t="s">
-        <v>61</v>
+        <v>317</v>
       </c>
       <c r="S93" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B94" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44370</v>
+        <v>44662</v>
       </c>
       <c r="D94" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E94" t="s">
-        <v>517</v>
-      </c>
-      <c r="F94"/>
+        <v>518</v>
+      </c>
+      <c r="F94" t="s">
+        <v>519</v>
+      </c>
       <c r="G94" t="n">
-        <v>26</v>
+        <v>773</v>
       </c>
       <c r="H94" t="n">
-        <v>4731376</v>
+        <v>7052074</v>
       </c>
       <c r="I94" t="n">
-        <v>698.962</v>
-      </c>
-      <c r="J94"/>
-      <c r="K94"/>
+        <v>3777.356</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2050</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1.098</v>
+      </c>
       <c r="L94" t="n">
-        <v>14688</v>
+        <v>4444</v>
       </c>
       <c r="M94" t="n">
-        <v>2.17</v>
+        <v>2.38</v>
       </c>
       <c r="N94"/>
       <c r="O94"/>
       <c r="P94" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q94" t="s">
         <v>517</v>
       </c>
-      <c r="Q94" t="s">
-        <v>516</v>
-      </c>
       <c r="R94" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="S94" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B95" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44658</v>
+        <v>44370</v>
       </c>
       <c r="D95" t="s">
-        <v>35</v>
+        <v>523</v>
       </c>
       <c r="E95" t="s">
-        <v>36</v>
+        <v>524</v>
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="H95" t="n">
-        <v>435274</v>
+        <v>4731376</v>
       </c>
       <c r="I95" t="n">
-        <v>201.603</v>
+        <v>698.962</v>
       </c>
       <c r="J95"/>
       <c r="K95"/>
       <c r="L95" t="n">
-        <v>716</v>
+        <v>14688</v>
       </c>
       <c r="M95" t="n">
-        <v>0.332</v>
-      </c>
-      <c r="N95" t="n">
-        <v>0</v>
-      </c>
+        <v>2.17</v>
+      </c>
+      <c r="N95"/>
       <c r="O95"/>
       <c r="P95" t="s">
-        <v>36</v>
+        <v>524</v>
       </c>
       <c r="Q95" t="s">
-        <v>37</v>
+        <v>523</v>
       </c>
       <c r="R95" t="s">
         <v>25</v>
       </c>
       <c r="S95" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B96" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>44632</v>
+        <v>44658</v>
       </c>
       <c r="D96" t="s">
         <v>35</v>
@@ -8634,19 +8659,25 @@
       </c>
       <c r="F96"/>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H96" t="n">
-        <v>139824</v>
+        <v>435274</v>
       </c>
       <c r="I96" t="n">
-        <v>26.992</v>
+        <v>201.603</v>
       </c>
       <c r="J96"/>
       <c r="K96"/>
-      <c r="L96"/>
-      <c r="M96"/>
-      <c r="N96"/>
+      <c r="L96" t="n">
+        <v>716</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
       <c r="O96"/>
       <c r="P96" t="s">
         <v>36</v>
@@ -8658,287 +8689,279 @@
         <v>25</v>
       </c>
       <c r="S96" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B97" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44658</v>
+        <v>44632</v>
       </c>
       <c r="D97" t="s">
-        <v>527</v>
+        <v>35</v>
       </c>
       <c r="E97" t="s">
-        <v>528</v>
+        <v>36</v>
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>560</v>
-      </c>
-      <c r="H97"/>
-      <c r="I97"/>
-      <c r="J97" t="n">
-        <v>1845</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.265</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H97" t="n">
+        <v>139824</v>
+      </c>
+      <c r="I97" t="n">
+        <v>26.992</v>
+      </c>
+      <c r="J97"/>
+      <c r="K97"/>
       <c r="L97"/>
       <c r="M97"/>
       <c r="N97"/>
       <c r="O97"/>
       <c r="P97" t="s">
-        <v>528</v>
+        <v>36</v>
       </c>
       <c r="Q97" t="s">
-        <v>529</v>
+        <v>37</v>
       </c>
       <c r="R97" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="S97" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B98" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>44571</v>
+        <v>44658</v>
       </c>
       <c r="D98" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E98" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>598</v>
-      </c>
-      <c r="H98" t="n">
-        <v>90632</v>
-      </c>
-      <c r="I98" t="n">
-        <v>2369.216</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="H98"/>
+      <c r="I98"/>
       <c r="J98" t="n">
-        <v>248</v>
+        <v>1845</v>
       </c>
       <c r="K98" t="n">
-        <v>6.483</v>
-      </c>
-      <c r="L98" t="n">
-        <v>220</v>
-      </c>
-      <c r="M98" t="n">
-        <v>5.751</v>
-      </c>
-      <c r="N98" t="n">
-        <v>0.344</v>
-      </c>
-      <c r="O98" t="n">
-        <v>2.9</v>
-      </c>
+        <v>0.265</v>
+      </c>
+      <c r="L98"/>
+      <c r="M98"/>
+      <c r="N98"/>
+      <c r="O98"/>
       <c r="P98" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="Q98" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="R98" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="S98" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B99" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44658</v>
+        <v>44571</v>
       </c>
       <c r="D99" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E99" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>749</v>
+        <v>598</v>
       </c>
       <c r="H99" t="n">
-        <v>8527334</v>
+        <v>90632</v>
       </c>
       <c r="I99" t="n">
-        <v>3170.175</v>
+        <v>2369.216</v>
       </c>
       <c r="J99" t="n">
-        <v>7210</v>
+        <v>248</v>
       </c>
       <c r="K99" t="n">
-        <v>2.68</v>
+        <v>6.483</v>
       </c>
       <c r="L99" t="n">
-        <v>7475</v>
+        <v>220</v>
       </c>
       <c r="M99" t="n">
-        <v>2.779</v>
+        <v>5.751</v>
       </c>
       <c r="N99" t="n">
-        <v>0.272</v>
+        <v>0.344</v>
       </c>
       <c r="O99" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="P99" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Q99" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="R99" t="s">
         <v>61</v>
       </c>
       <c r="S99" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B100" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C100" s="1" t="n">
         <v>44658</v>
       </c>
       <c r="D100" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E100" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>772</v>
+        <v>749</v>
       </c>
       <c r="H100" t="n">
-        <v>4184582</v>
+        <v>8527334</v>
       </c>
       <c r="I100" t="n">
-        <v>6591.824</v>
+        <v>3170.175</v>
       </c>
       <c r="J100" t="n">
-        <v>2928</v>
+        <v>7210</v>
       </c>
       <c r="K100" t="n">
-        <v>4.612</v>
+        <v>2.68</v>
       </c>
       <c r="L100" t="n">
-        <v>2736</v>
+        <v>7475</v>
       </c>
       <c r="M100" t="n">
-        <v>4.31</v>
+        <v>2.779</v>
       </c>
       <c r="N100" t="n">
-        <v>0.349</v>
+        <v>0.272</v>
       </c>
       <c r="O100" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="P100" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="Q100" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="R100" t="s">
         <v>61</v>
       </c>
       <c r="S100" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B101" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44632</v>
+        <v>44658</v>
       </c>
       <c r="D101" t="s">
-        <v>35</v>
+        <v>551</v>
       </c>
       <c r="E101" t="s">
-        <v>36</v>
+        <v>552</v>
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>275</v>
+        <v>772</v>
       </c>
       <c r="H101" t="n">
-        <v>404843</v>
+        <v>4184582</v>
       </c>
       <c r="I101" t="n">
-        <v>14.241</v>
-      </c>
-      <c r="J101"/>
-      <c r="K101"/>
+        <v>6591.824</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2928</v>
+      </c>
+      <c r="K101" t="n">
+        <v>4.612</v>
+      </c>
       <c r="L101" t="n">
-        <v>427</v>
+        <v>2736</v>
       </c>
       <c r="M101" t="n">
-        <v>0.015</v>
+        <v>4.31</v>
       </c>
       <c r="N101" t="n">
-        <v>0.0264</v>
+        <v>0.349</v>
       </c>
       <c r="O101" t="n">
-        <v>37.8</v>
+        <v>2.9</v>
       </c>
       <c r="P101" t="s">
-        <v>36</v>
+        <v>552</v>
       </c>
       <c r="Q101" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="R101" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="S101" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="B102" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>44661</v>
+        <v>44632</v>
       </c>
       <c r="D102" t="s">
         <v>35</v>
@@ -8948,27 +8971,27 @@
       </c>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="H102" t="n">
-        <v>566101</v>
+        <v>404843</v>
       </c>
       <c r="I102" t="n">
-        <v>28.813</v>
+        <v>14.241</v>
       </c>
       <c r="J102"/>
       <c r="K102"/>
       <c r="L102" t="n">
-        <v>468</v>
+        <v>427</v>
       </c>
       <c r="M102" t="n">
-        <v>0.024</v>
+        <v>0.015</v>
       </c>
       <c r="N102" t="n">
-        <v>0.0119</v>
+        <v>0.0264</v>
       </c>
       <c r="O102" t="n">
-        <v>84</v>
+        <v>37.8</v>
       </c>
       <c r="P102" t="s">
         <v>36</v>
@@ -8977,66 +9000,60 @@
         <v>37</v>
       </c>
       <c r="R102" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S102" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B103" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44659</v>
+        <v>44661</v>
       </c>
       <c r="D103" t="s">
-        <v>555</v>
+        <v>35</v>
       </c>
       <c r="E103" t="s">
-        <v>556</v>
-      </c>
-      <c r="F103" t="s">
-        <v>557</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F103"/>
       <c r="G103" t="n">
-        <v>806</v>
+        <v>293</v>
       </c>
       <c r="H103" t="n">
-        <v>57337556</v>
+        <v>566101</v>
       </c>
       <c r="I103" t="n">
-        <v>1749.366</v>
-      </c>
-      <c r="J103" t="n">
-        <v>77406</v>
-      </c>
-      <c r="K103" t="n">
-        <v>2.362</v>
-      </c>
+        <v>28.813</v>
+      </c>
+      <c r="J103"/>
+      <c r="K103"/>
       <c r="L103" t="n">
-        <v>93516</v>
+        <v>468</v>
       </c>
       <c r="M103" t="n">
-        <v>2.853</v>
+        <v>0.024</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1346</v>
+        <v>0.0119</v>
       </c>
       <c r="O103" t="n">
-        <v>7.4</v>
+        <v>84</v>
       </c>
       <c r="P103" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="Q103" t="s">
-        <v>558</v>
+        <v>37</v>
       </c>
       <c r="R103" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="S103" t="s">
         <v>559</v>
@@ -9050,7 +9067,7 @@
         <v>561</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>44634</v>
+        <v>44659</v>
       </c>
       <c r="D104" t="s">
         <v>562</v>
@@ -9058,148 +9075,154 @@
       <c r="E104" t="s">
         <v>563</v>
       </c>
-      <c r="F104"/>
+      <c r="F104" t="s">
+        <v>564</v>
+      </c>
       <c r="G104" t="n">
-        <v>701</v>
+        <v>806</v>
       </c>
       <c r="H104" t="n">
-        <v>2209010</v>
+        <v>57337556</v>
       </c>
       <c r="I104" t="n">
-        <v>4063.519</v>
+        <v>1749.366</v>
       </c>
       <c r="J104" t="n">
-        <v>2103</v>
+        <v>77406</v>
       </c>
       <c r="K104" t="n">
-        <v>3.869</v>
+        <v>2.362</v>
       </c>
       <c r="L104" t="n">
-        <v>1873</v>
+        <v>93516</v>
       </c>
       <c r="M104" t="n">
-        <v>3.445</v>
+        <v>2.853</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1216</v>
+        <v>0.1346</v>
       </c>
       <c r="O104" t="n">
-        <v>8.2</v>
+        <v>7.4</v>
       </c>
       <c r="P104" t="s">
-        <v>563</v>
+        <v>53</v>
       </c>
       <c r="Q104" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="R104" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="S104" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B105" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44661</v>
+        <v>44634</v>
       </c>
       <c r="D105" t="s">
-        <v>35</v>
+        <v>569</v>
       </c>
       <c r="E105" t="s">
-        <v>36</v>
+        <v>570</v>
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>7</v>
+        <v>701</v>
       </c>
       <c r="H105" t="n">
-        <v>666071</v>
+        <v>2209010</v>
       </c>
       <c r="I105" t="n">
-        <v>31.937</v>
-      </c>
-      <c r="J105"/>
-      <c r="K105"/>
+        <v>4063.519</v>
+      </c>
+      <c r="J105" t="n">
+        <v>2103</v>
+      </c>
+      <c r="K105" t="n">
+        <v>3.869</v>
+      </c>
       <c r="L105" t="n">
-        <v>863</v>
+        <v>1873</v>
       </c>
       <c r="M105" t="n">
-        <v>0.041</v>
+        <v>3.445</v>
       </c>
       <c r="N105" t="n">
-        <v>0.0118</v>
+        <v>0.1216</v>
       </c>
       <c r="O105" t="n">
-        <v>85.1</v>
+        <v>8.2</v>
       </c>
       <c r="P105" t="s">
-        <v>36</v>
+        <v>570</v>
       </c>
       <c r="Q105" t="s">
-        <v>37</v>
+        <v>571</v>
       </c>
       <c r="R105" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="S105" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B106" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44662</v>
+        <v>44661</v>
       </c>
       <c r="D106" t="s">
-        <v>571</v>
+        <v>35</v>
       </c>
       <c r="E106" t="s">
-        <v>572</v>
+        <v>36</v>
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>631</v>
+        <v>7</v>
       </c>
       <c r="H106" t="n">
-        <v>1841246</v>
+        <v>666071</v>
       </c>
       <c r="I106" t="n">
-        <v>3567.615</v>
-      </c>
-      <c r="J106" t="n">
-        <v>2886</v>
-      </c>
-      <c r="K106" t="n">
-        <v>5.592</v>
-      </c>
+        <v>31.937</v>
+      </c>
+      <c r="J106"/>
+      <c r="K106"/>
       <c r="L106" t="n">
-        <v>3437</v>
+        <v>863</v>
       </c>
       <c r="M106" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="N106"/>
-      <c r="O106"/>
+        <v>0.041</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.0118</v>
+      </c>
+      <c r="O106" t="n">
+        <v>85.1</v>
+      </c>
       <c r="P106" t="s">
-        <v>573</v>
+        <v>36</v>
       </c>
       <c r="Q106" t="s">
-        <v>574</v>
+        <v>37</v>
       </c>
       <c r="R106" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S106" t="s">
         <v>575</v>
@@ -9213,115 +9236,115 @@
         <v>577</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44343</v>
+        <v>44662</v>
       </c>
       <c r="D107" t="s">
-        <v>374</v>
+        <v>578</v>
       </c>
       <c r="E107" t="s">
-        <v>375</v>
+        <v>579</v>
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>22</v>
+        <v>631</v>
       </c>
       <c r="H107" t="n">
-        <v>1639</v>
+        <v>1841246</v>
       </c>
       <c r="I107" t="n">
-        <v>27.492</v>
+        <v>3567.615</v>
       </c>
       <c r="J107" t="n">
-        <v>196</v>
+        <v>2886</v>
       </c>
       <c r="K107" t="n">
-        <v>3.288</v>
+        <v>5.592</v>
       </c>
       <c r="L107" t="n">
-        <v>7</v>
+        <v>3437</v>
       </c>
       <c r="M107" t="n">
-        <v>0.117</v>
-      </c>
-      <c r="N107" t="n">
-        <v>0</v>
-      </c>
+        <v>6.66</v>
+      </c>
+      <c r="N107"/>
       <c r="O107"/>
       <c r="P107" t="s">
-        <v>375</v>
+        <v>580</v>
       </c>
       <c r="Q107" t="s">
-        <v>374</v>
+        <v>581</v>
       </c>
       <c r="R107" t="s">
-        <v>376</v>
+        <v>61</v>
       </c>
       <c r="S107" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B108" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44661</v>
+        <v>44343</v>
       </c>
       <c r="D108" t="s">
-        <v>35</v>
+        <v>381</v>
       </c>
       <c r="E108" t="s">
-        <v>36</v>
+        <v>382</v>
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>158</v>
+        <v>22</v>
       </c>
       <c r="H108" t="n">
-        <v>918770</v>
+        <v>1639</v>
       </c>
       <c r="I108" t="n">
-        <v>192.408</v>
-      </c>
-      <c r="J108"/>
-      <c r="K108"/>
+        <v>27.492</v>
+      </c>
+      <c r="J108" t="n">
+        <v>196</v>
+      </c>
+      <c r="K108" t="n">
+        <v>3.288</v>
+      </c>
       <c r="L108" t="n">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="M108" t="n">
-        <v>0.034</v>
+        <v>0.117</v>
       </c>
       <c r="N108" t="n">
-        <v>0.0357</v>
-      </c>
-      <c r="O108" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O108"/>
       <c r="P108" t="s">
-        <v>581</v>
+        <v>382</v>
       </c>
       <c r="Q108" t="s">
-        <v>582</v>
+        <v>381</v>
       </c>
       <c r="R108" t="s">
-        <v>61</v>
+        <v>383</v>
       </c>
       <c r="S108" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B109" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44627</v>
+        <v>44661</v>
       </c>
       <c r="D109" t="s">
         <v>35</v>
@@ -9331,130 +9354,138 @@
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="H109" t="n">
-        <v>359627</v>
+        <v>918770</v>
       </c>
       <c r="I109" t="n">
-        <v>282.409</v>
+        <v>192.408</v>
       </c>
       <c r="J109"/>
       <c r="K109"/>
-      <c r="L109"/>
-      <c r="M109"/>
-      <c r="N109"/>
-      <c r="O109"/>
+      <c r="L109" t="n">
+        <v>160</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.0357</v>
+      </c>
+      <c r="O109" t="n">
+        <v>28</v>
+      </c>
       <c r="P109" t="s">
-        <v>36</v>
+        <v>588</v>
       </c>
       <c r="Q109" t="s">
-        <v>37</v>
+        <v>589</v>
       </c>
       <c r="R109" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="S109" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B110" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>44660</v>
+        <v>44627</v>
       </c>
       <c r="D110" t="s">
-        <v>589</v>
+        <v>35</v>
       </c>
       <c r="E110" t="s">
-        <v>590</v>
+        <v>36</v>
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>830</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>14988078</v>
+        <v>359627</v>
       </c>
       <c r="I110" t="n">
-        <v>115.061</v>
-      </c>
-      <c r="J110" t="n">
-        <v>457</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="L110" t="n">
-        <v>4955</v>
-      </c>
-      <c r="M110" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="N110" t="n">
-        <v>0.096</v>
-      </c>
-      <c r="O110" t="n">
-        <v>10.4</v>
-      </c>
+        <v>282.409</v>
+      </c>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
       <c r="P110" t="s">
-        <v>591</v>
+        <v>36</v>
       </c>
       <c r="Q110" t="s">
-        <v>589</v>
+        <v>37</v>
       </c>
       <c r="R110" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="S110" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B111" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44658</v>
+        <v>44660</v>
       </c>
       <c r="D111" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E111" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>489</v>
-      </c>
-      <c r="H111"/>
-      <c r="I111"/>
+        <v>830</v>
+      </c>
+      <c r="H111" t="n">
+        <v>14988078</v>
+      </c>
+      <c r="I111" t="n">
+        <v>115.061</v>
+      </c>
       <c r="J111" t="n">
-        <v>3359</v>
+        <v>457</v>
       </c>
       <c r="K111" t="n">
-        <v>0.835</v>
-      </c>
-      <c r="L111"/>
-      <c r="M111"/>
-      <c r="N111"/>
-      <c r="O111"/>
+        <v>0.004</v>
+      </c>
+      <c r="L111" t="n">
+        <v>4955</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="O111" t="n">
+        <v>10.4</v>
+      </c>
       <c r="P111" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Q111" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="R111" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="S111" t="s">
         <v>599</v>
@@ -9468,480 +9499,472 @@
         <v>601</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44662</v>
+        <v>44658</v>
       </c>
       <c r="D112" t="s">
         <v>602</v>
       </c>
       <c r="E112" t="s">
-        <v>53</v>
+        <v>603</v>
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>355</v>
-      </c>
-      <c r="H112" t="n">
-        <v>7356002</v>
-      </c>
-      <c r="I112" t="n">
-        <v>2209.486</v>
-      </c>
-      <c r="J112"/>
-      <c r="K112"/>
-      <c r="L112" t="n">
-        <v>3686</v>
-      </c>
-      <c r="M112" t="n">
-        <v>1.107</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112" t="n">
+        <v>3359</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="L112"/>
+      <c r="M112"/>
       <c r="N112"/>
       <c r="O112"/>
       <c r="P112" t="s">
-        <v>53</v>
+        <v>604</v>
       </c>
       <c r="Q112" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="R112" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="S112" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B113" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44661</v>
+        <v>44662</v>
       </c>
       <c r="D113" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E113" t="s">
         <v>53</v>
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>736</v>
+        <v>355</v>
       </c>
       <c r="H113" t="n">
-        <v>11337119</v>
+        <v>7356002</v>
       </c>
       <c r="I113" t="n">
-        <v>303.58</v>
+        <v>2209.486</v>
       </c>
       <c r="J113"/>
       <c r="K113"/>
       <c r="L113" t="n">
-        <v>5366</v>
+        <v>3686</v>
       </c>
       <c r="M113" t="n">
-        <v>0.144</v>
-      </c>
-      <c r="N113" t="n">
-        <v>0.0134</v>
-      </c>
-      <c r="O113" t="n">
-        <v>74.5</v>
-      </c>
+        <v>1.107</v>
+      </c>
+      <c r="N113"/>
+      <c r="O113"/>
       <c r="P113" t="s">
-        <v>608</v>
+        <v>53</v>
       </c>
       <c r="Q113" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="R113" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="S113" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B114" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C114" s="1" t="n">
         <v>44661</v>
       </c>
       <c r="D114" t="s">
-        <v>35</v>
+        <v>614</v>
       </c>
       <c r="E114" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F114"/>
       <c r="G114" t="n">
-        <v>598</v>
+        <v>736</v>
       </c>
       <c r="H114" t="n">
-        <v>1301946</v>
+        <v>11337119</v>
       </c>
       <c r="I114" t="n">
-        <v>40.48</v>
+        <v>303.58</v>
       </c>
       <c r="J114"/>
       <c r="K114"/>
       <c r="L114" t="n">
-        <v>633</v>
+        <v>5366</v>
       </c>
       <c r="M114" t="n">
-        <v>0.02</v>
+        <v>0.144</v>
       </c>
       <c r="N114" t="n">
-        <v>0.0061</v>
+        <v>0.0134</v>
       </c>
       <c r="O114" t="n">
-        <v>164.1</v>
+        <v>74.5</v>
       </c>
       <c r="P114" t="s">
-        <v>36</v>
+        <v>615</v>
       </c>
       <c r="Q114" t="s">
-        <v>37</v>
+        <v>616</v>
       </c>
       <c r="R114" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="S114" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B115" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C115" s="1" t="n">
         <v>44661</v>
       </c>
       <c r="D115" t="s">
-        <v>616</v>
+        <v>35</v>
       </c>
       <c r="E115" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>522</v>
+        <v>598</v>
       </c>
       <c r="H115" t="n">
-        <v>7782033</v>
+        <v>1301946</v>
       </c>
       <c r="I115" t="n">
-        <v>141.992</v>
+        <v>40.48</v>
       </c>
       <c r="J115"/>
       <c r="K115"/>
       <c r="L115" t="n">
-        <v>12450</v>
+        <v>633</v>
       </c>
       <c r="M115" t="n">
-        <v>0.227</v>
+        <v>0.02</v>
       </c>
       <c r="N115" t="n">
-        <v>0.0053</v>
+        <v>0.0061</v>
       </c>
       <c r="O115" t="n">
-        <v>187</v>
+        <v>164.1</v>
       </c>
       <c r="P115" t="s">
-        <v>617</v>
+        <v>36</v>
       </c>
       <c r="Q115" t="s">
-        <v>618</v>
+        <v>37</v>
       </c>
       <c r="R115" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="S115" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B116" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C116" s="1" t="n">
         <v>44661</v>
       </c>
       <c r="D116" t="s">
-        <v>35</v>
+        <v>623</v>
       </c>
       <c r="E116" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>630</v>
+        <v>522</v>
       </c>
       <c r="H116" t="n">
-        <v>990120</v>
+        <v>7782033</v>
       </c>
       <c r="I116" t="n">
-        <v>382.678</v>
+        <v>141.992</v>
       </c>
       <c r="J116"/>
       <c r="K116"/>
       <c r="L116" t="n">
-        <v>698</v>
+        <v>12450</v>
       </c>
       <c r="M116" t="n">
-        <v>0.27</v>
+        <v>0.227</v>
       </c>
       <c r="N116" t="n">
-        <v>0.0512</v>
+        <v>0.0053</v>
       </c>
       <c r="O116" t="n">
-        <v>19.5</v>
+        <v>187</v>
       </c>
       <c r="P116" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="Q116" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="R116" t="s">
         <v>136</v>
       </c>
       <c r="S116" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B117" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44662</v>
+        <v>44661</v>
       </c>
       <c r="D117" t="s">
-        <v>627</v>
+        <v>35</v>
       </c>
       <c r="E117" t="s">
-        <v>628</v>
+        <v>36</v>
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>748</v>
+        <v>630</v>
       </c>
       <c r="H117" t="n">
-        <v>6723916</v>
+        <v>990120</v>
       </c>
       <c r="I117" t="n">
-        <v>226.586</v>
+        <v>382.678</v>
       </c>
       <c r="J117"/>
       <c r="K117"/>
       <c r="L117" t="n">
-        <v>4556</v>
+        <v>698</v>
       </c>
       <c r="M117" t="n">
-        <v>0.154</v>
+        <v>0.27</v>
       </c>
       <c r="N117" t="n">
-        <v>0.006</v>
+        <v>0.0512</v>
       </c>
       <c r="O117" t="n">
-        <v>166.7</v>
+        <v>19.5</v>
       </c>
       <c r="P117" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="Q117" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="R117" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="S117" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B118" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44657</v>
+        <v>44662</v>
       </c>
       <c r="D118" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E118" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>675</v>
+        <v>748</v>
       </c>
       <c r="H118" t="n">
-        <v>30435369</v>
+        <v>6723916</v>
       </c>
       <c r="I118" t="n">
-        <v>1772.271</v>
-      </c>
-      <c r="J118" t="n">
-        <v>18781</v>
-      </c>
-      <c r="K118" t="n">
-        <v>1.094</v>
-      </c>
+        <v>226.586</v>
+      </c>
+      <c r="J118"/>
+      <c r="K118"/>
       <c r="L118" t="n">
-        <v>21695</v>
+        <v>4556</v>
       </c>
       <c r="M118" t="n">
-        <v>1.263</v>
+        <v>0.154</v>
       </c>
       <c r="N118" t="n">
-        <v>0.612</v>
+        <v>0.006</v>
       </c>
       <c r="O118" t="n">
-        <v>1.6</v>
+        <v>166.7</v>
       </c>
       <c r="P118" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="Q118" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="R118" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="S118" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B119" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44662</v>
+        <v>44657</v>
       </c>
       <c r="D119" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E119" t="s">
-        <v>53</v>
+        <v>641</v>
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>613</v>
+        <v>675</v>
       </c>
       <c r="H119" t="n">
-        <v>6954369</v>
+        <v>30435369</v>
       </c>
       <c r="I119" t="n">
-        <v>1356.606</v>
-      </c>
-      <c r="J119"/>
-      <c r="K119"/>
+        <v>1772.271</v>
+      </c>
+      <c r="J119" t="n">
+        <v>18781</v>
+      </c>
+      <c r="K119" t="n">
+        <v>1.094</v>
+      </c>
       <c r="L119" t="n">
-        <v>2944</v>
+        <v>21695</v>
       </c>
       <c r="M119" t="n">
-        <v>0.574</v>
-      </c>
-      <c r="N119"/>
-      <c r="O119"/>
+        <v>1.263</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="O119" t="n">
+        <v>1.6</v>
+      </c>
       <c r="P119" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="Q119" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="R119" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="S119" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B120" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>44661</v>
+        <v>44662</v>
       </c>
       <c r="D120" t="s">
-        <v>35</v>
+        <v>646</v>
       </c>
       <c r="E120" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F120"/>
       <c r="G120" t="n">
-        <v>20</v>
+        <v>613</v>
       </c>
       <c r="H120" t="n">
-        <v>243301</v>
+        <v>6954369</v>
       </c>
       <c r="I120" t="n">
-        <v>9.681</v>
+        <v>1356.606</v>
       </c>
       <c r="J120"/>
       <c r="K120"/>
       <c r="L120" t="n">
-        <v>288</v>
+        <v>2944</v>
       </c>
       <c r="M120" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="N120" t="n">
-        <v>0.0055</v>
-      </c>
-      <c r="O120" t="n">
-        <v>183.3</v>
-      </c>
+        <v>0.574</v>
+      </c>
+      <c r="N120"/>
+      <c r="O120"/>
       <c r="P120" t="s">
-        <v>36</v>
+        <v>647</v>
       </c>
       <c r="Q120" t="s">
-        <v>37</v>
+        <v>648</v>
       </c>
       <c r="R120" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="S120" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="B121" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D121" t="s">
         <v>35</v>
@@ -9951,336 +9974,344 @@
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>277</v>
+        <v>20</v>
       </c>
       <c r="H121" t="n">
-        <v>4906535</v>
+        <v>243301</v>
       </c>
       <c r="I121" t="n">
-        <v>23.21</v>
+        <v>9.681</v>
       </c>
       <c r="J121"/>
       <c r="K121"/>
       <c r="L121" t="n">
-        <v>11318</v>
+        <v>288</v>
       </c>
       <c r="M121" t="n">
-        <v>0.054</v>
+        <v>0.011</v>
       </c>
       <c r="N121" t="n">
-        <v>0.002</v>
+        <v>0.0055</v>
       </c>
       <c r="O121" t="n">
-        <v>495.2</v>
+        <v>183.3</v>
       </c>
       <c r="P121" t="s">
-        <v>648</v>
+        <v>36</v>
       </c>
       <c r="Q121" t="s">
-        <v>649</v>
+        <v>37</v>
       </c>
       <c r="R121" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="S121" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B122" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44662</v>
+        <v>44658</v>
       </c>
       <c r="D122" t="s">
-        <v>653</v>
+        <v>35</v>
       </c>
       <c r="E122" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>466</v>
+        <v>277</v>
       </c>
       <c r="H122" t="n">
-        <v>1984493</v>
+        <v>4906535</v>
       </c>
       <c r="I122" t="n">
-        <v>952.864</v>
+        <v>23.21</v>
       </c>
       <c r="J122"/>
       <c r="K122"/>
       <c r="L122" t="n">
-        <v>1981</v>
+        <v>11318</v>
       </c>
       <c r="M122" t="n">
-        <v>0.951</v>
-      </c>
-      <c r="N122"/>
-      <c r="O122"/>
+        <v>0.054</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="O122" t="n">
+        <v>495.2</v>
+      </c>
       <c r="P122" t="s">
-        <v>53</v>
+        <v>655</v>
       </c>
       <c r="Q122" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="R122" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="S122" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B123" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>44534</v>
+        <v>44662</v>
       </c>
       <c r="D123" t="s">
-        <v>374</v>
+        <v>660</v>
       </c>
       <c r="E123" t="s">
-        <v>375</v>
+        <v>53</v>
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
-        <v>603</v>
+        <v>466</v>
       </c>
       <c r="H123" t="n">
-        <v>59110</v>
+        <v>1984493</v>
       </c>
       <c r="I123" t="n">
-        <v>1020.722</v>
-      </c>
-      <c r="J123" t="n">
-        <v>7</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.121</v>
-      </c>
+        <v>952.864</v>
+      </c>
+      <c r="J123"/>
+      <c r="K123"/>
       <c r="L123" t="n">
-        <v>23</v>
+        <v>1981</v>
       </c>
       <c r="M123" t="n">
-        <v>0.397</v>
-      </c>
-      <c r="N123" t="n">
-        <v>0.701</v>
-      </c>
-      <c r="O123" t="n">
-        <v>1.4</v>
-      </c>
+        <v>0.951</v>
+      </c>
+      <c r="N123"/>
+      <c r="O123"/>
       <c r="P123" t="s">
-        <v>375</v>
+        <v>53</v>
       </c>
       <c r="Q123" t="s">
-        <v>374</v>
+        <v>661</v>
       </c>
       <c r="R123" t="s">
-        <v>376</v>
+        <v>61</v>
       </c>
       <c r="S123" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="B124" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>44661</v>
+        <v>44534</v>
       </c>
       <c r="D124" t="s">
-        <v>661</v>
+        <v>381</v>
       </c>
       <c r="E124" t="s">
-        <v>662</v>
+        <v>382</v>
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>739</v>
+        <v>603</v>
       </c>
       <c r="H124" t="n">
-        <v>11043714</v>
+        <v>59110</v>
       </c>
       <c r="I124" t="n">
-        <v>2020.575</v>
+        <v>1020.722</v>
       </c>
       <c r="J124" t="n">
-        <v>673</v>
+        <v>7</v>
       </c>
       <c r="K124" t="n">
-        <v>0.123</v>
+        <v>0.121</v>
       </c>
       <c r="L124" t="n">
-        <v>3239</v>
+        <v>23</v>
       </c>
       <c r="M124" t="n">
-        <v>0.593</v>
+        <v>0.397</v>
       </c>
       <c r="N124" t="n">
-        <v>0.156</v>
+        <v>0.701</v>
       </c>
       <c r="O124" t="n">
-        <v>6.4</v>
+        <v>1.4</v>
       </c>
       <c r="P124" t="s">
-        <v>662</v>
+        <v>382</v>
       </c>
       <c r="Q124" t="s">
-        <v>661</v>
+        <v>381</v>
       </c>
       <c r="R124" t="s">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="S124" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B125" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44632</v>
+        <v>44661</v>
       </c>
       <c r="D125" t="s">
-        <v>21</v>
+        <v>668</v>
       </c>
       <c r="E125" t="s">
-        <v>22</v>
+        <v>669</v>
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>2</v>
+        <v>739</v>
       </c>
       <c r="H125" t="n">
-        <v>1986264</v>
+        <v>11043714</v>
       </c>
       <c r="I125" t="n">
-        <v>380.264</v>
-      </c>
-      <c r="J125"/>
-      <c r="K125"/>
+        <v>2020.575</v>
+      </c>
+      <c r="J125" t="n">
+        <v>673</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.123</v>
+      </c>
       <c r="L125" t="n">
-        <v>0</v>
+        <v>3239</v>
       </c>
       <c r="M125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N125"/>
-      <c r="O125"/>
+        <v>0.593</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="O125" t="n">
+        <v>6.4</v>
+      </c>
       <c r="P125" t="s">
-        <v>23</v>
+        <v>669</v>
       </c>
       <c r="Q125" t="s">
-        <v>24</v>
+        <v>668</v>
       </c>
       <c r="R125" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="S125" t="s">
-        <v>26</v>
+        <v>670</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="B126" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>44662</v>
+        <v>44632</v>
       </c>
       <c r="D126" t="s">
-        <v>668</v>
+        <v>21</v>
       </c>
       <c r="E126" t="s">
-        <v>669</v>
+        <v>22</v>
       </c>
       <c r="F126"/>
       <c r="G126" t="n">
-        <v>662</v>
+        <v>2</v>
       </c>
       <c r="H126" t="n">
-        <v>27763120</v>
+        <v>1986264</v>
       </c>
       <c r="I126" t="n">
-        <v>123.282</v>
+        <v>380.264</v>
       </c>
       <c r="J126"/>
       <c r="K126"/>
       <c r="L126" t="n">
-        <v>25810</v>
+        <v>0</v>
       </c>
       <c r="M126" t="n">
-        <v>0.115</v>
+        <v>0</v>
       </c>
       <c r="N126"/>
       <c r="O126"/>
       <c r="P126" t="s">
-        <v>669</v>
+        <v>23</v>
       </c>
       <c r="Q126" t="s">
-        <v>668</v>
+        <v>24</v>
       </c>
       <c r="R126" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S126" t="s">
-        <v>670</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B127" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44661</v>
+        <v>44662</v>
       </c>
       <c r="D127" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="E127" t="s">
-        <v>53</v>
+        <v>676</v>
       </c>
       <c r="F127"/>
       <c r="G127" t="n">
-        <v>556</v>
-      </c>
-      <c r="H127"/>
-      <c r="I127"/>
-      <c r="J127" t="n">
-        <v>4237</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.811</v>
-      </c>
-      <c r="L127"/>
-      <c r="M127"/>
+        <v>662</v>
+      </c>
+      <c r="H127" t="n">
+        <v>27763120</v>
+      </c>
+      <c r="I127" t="n">
+        <v>123.282</v>
+      </c>
+      <c r="J127"/>
+      <c r="K127"/>
+      <c r="L127" t="n">
+        <v>25810</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0.115</v>
+      </c>
       <c r="N127"/>
       <c r="O127"/>
       <c r="P127" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="Q127" t="s">
         <v>675</v>
@@ -10289,159 +10320,151 @@
         <v>61</v>
       </c>
       <c r="S127" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B128" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44660</v>
+        <v>44661</v>
       </c>
       <c r="D128" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E128" t="s">
-        <v>680</v>
+        <v>53</v>
       </c>
       <c r="F128"/>
       <c r="G128" t="n">
-        <v>744</v>
-      </c>
-      <c r="H128" t="n">
-        <v>5749354</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1312.164</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="H128"/>
+      <c r="I128"/>
       <c r="J128" t="n">
-        <v>5283</v>
+        <v>4237</v>
       </c>
       <c r="K128" t="n">
-        <v>1.206</v>
-      </c>
-      <c r="L128" t="n">
-        <v>5461</v>
-      </c>
-      <c r="M128" t="n">
-        <v>1.246</v>
-      </c>
-      <c r="N128" t="n">
-        <v>0.0438</v>
-      </c>
-      <c r="O128" t="n">
-        <v>22.8</v>
-      </c>
+        <v>0.811</v>
+      </c>
+      <c r="L128"/>
+      <c r="M128"/>
+      <c r="N128"/>
+      <c r="O128"/>
       <c r="P128" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="Q128" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R128" t="s">
         <v>61</v>
       </c>
       <c r="S128" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B129" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>44609</v>
+        <v>44660</v>
       </c>
       <c r="D129" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E129" t="s">
-        <v>53</v>
+        <v>687</v>
       </c>
       <c r="F129"/>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>744</v>
       </c>
       <c r="H129" t="n">
-        <v>249149</v>
+        <v>5749354</v>
       </c>
       <c r="I129" t="n">
-        <v>27.322</v>
-      </c>
-      <c r="J129"/>
-      <c r="K129"/>
-      <c r="L129"/>
-      <c r="M129"/>
-      <c r="N129"/>
-      <c r="O129"/>
+        <v>1312.164</v>
+      </c>
+      <c r="J129" t="n">
+        <v>5283</v>
+      </c>
+      <c r="K129" t="n">
+        <v>1.206</v>
+      </c>
+      <c r="L129" t="n">
+        <v>5461</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1.246</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.0438</v>
+      </c>
+      <c r="O129" t="n">
+        <v>22.8</v>
+      </c>
       <c r="P129" t="s">
-        <v>407</v>
+        <v>687</v>
       </c>
       <c r="Q129" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="R129" t="s">
-        <v>316</v>
+        <v>61</v>
       </c>
       <c r="S129" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="B130" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>44647</v>
+        <v>44609</v>
       </c>
       <c r="D130" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="E130" t="s">
-        <v>690</v>
+        <v>53</v>
       </c>
       <c r="F130"/>
       <c r="G130" t="n">
-        <v>744</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>2609819</v>
+        <v>249149</v>
       </c>
       <c r="I130" t="n">
-        <v>361.489</v>
+        <v>27.322</v>
       </c>
       <c r="J130"/>
       <c r="K130"/>
-      <c r="L130" t="n">
-        <v>1763</v>
-      </c>
-      <c r="M130" t="n">
-        <v>0.244</v>
-      </c>
-      <c r="N130" t="n">
-        <v>0.0654</v>
-      </c>
-      <c r="O130" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="L130"/>
+      <c r="M130"/>
+      <c r="N130"/>
+      <c r="O130"/>
       <c r="P130" t="s">
-        <v>691</v>
+        <v>414</v>
       </c>
       <c r="Q130" t="s">
         <v>692</v>
       </c>
       <c r="R130" t="s">
-        <v>61</v>
+        <v>317</v>
       </c>
       <c r="S130" t="s">
         <v>693</v>
@@ -10455,317 +10478,317 @@
         <v>695</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>44651</v>
+        <v>44647</v>
       </c>
       <c r="D131" t="s">
         <v>696</v>
       </c>
       <c r="E131" t="s">
-        <v>214</v>
-      </c>
-      <c r="F131" t="s">
         <v>697</v>
       </c>
+      <c r="F131"/>
       <c r="G131" t="n">
-        <v>721</v>
+        <v>744</v>
       </c>
       <c r="H131" t="n">
-        <v>28736342</v>
+        <v>2609819</v>
       </c>
       <c r="I131" t="n">
-        <v>861.416</v>
+        <v>361.489</v>
       </c>
       <c r="J131"/>
       <c r="K131"/>
       <c r="L131" t="n">
-        <v>48159</v>
+        <v>1763</v>
       </c>
       <c r="M131" t="n">
-        <v>1.444</v>
+        <v>0.244</v>
       </c>
       <c r="N131" t="n">
-        <v>0.01</v>
+        <v>0.0654</v>
       </c>
       <c r="O131" t="n">
-        <v>100</v>
+        <v>15.3</v>
       </c>
       <c r="P131" t="s">
-        <v>214</v>
+        <v>698</v>
       </c>
       <c r="Q131" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="R131" t="s">
         <v>61</v>
       </c>
       <c r="S131" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B132" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>44652</v>
+        <v>44651</v>
       </c>
       <c r="D132" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E132" t="s">
-        <v>703</v>
-      </c>
-      <c r="F132"/>
+        <v>214</v>
+      </c>
+      <c r="F132" t="s">
+        <v>704</v>
+      </c>
       <c r="G132" t="n">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="H132" t="n">
-        <v>27289560</v>
+        <v>28736342</v>
       </c>
       <c r="I132" t="n">
-        <v>245.748</v>
-      </c>
-      <c r="J132" t="n">
-        <v>20030</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.18</v>
-      </c>
+        <v>861.416</v>
+      </c>
+      <c r="J132"/>
+      <c r="K132"/>
       <c r="L132" t="n">
-        <v>20857</v>
+        <v>48159</v>
       </c>
       <c r="M132" t="n">
-        <v>0.188</v>
+        <v>1.444</v>
       </c>
       <c r="N132" t="n">
-        <v>0.0162</v>
+        <v>0.01</v>
       </c>
       <c r="O132" t="n">
-        <v>61.7</v>
+        <v>100</v>
       </c>
       <c r="P132" t="s">
-        <v>407</v>
+        <v>214</v>
       </c>
       <c r="Q132" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="R132" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="S132" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B133" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="D133" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E133" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>108</v>
+        <v>729</v>
       </c>
       <c r="H133" t="n">
-        <v>36290058</v>
+        <v>27289560</v>
       </c>
       <c r="I133" t="n">
-        <v>960.131</v>
-      </c>
-      <c r="J133"/>
-      <c r="K133"/>
+        <v>245.748</v>
+      </c>
+      <c r="J133" t="n">
+        <v>20030</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.18</v>
+      </c>
       <c r="L133" t="n">
-        <v>42613</v>
+        <v>20857</v>
       </c>
       <c r="M133" t="n">
-        <v>1.127</v>
+        <v>0.188</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1276</v>
+        <v>0.0162</v>
       </c>
       <c r="O133" t="n">
-        <v>7.8</v>
+        <v>61.7</v>
       </c>
       <c r="P133" t="s">
-        <v>710</v>
+        <v>414</v>
       </c>
       <c r="Q133" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="R133" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="S133" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B134" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>44660</v>
+        <v>44651</v>
       </c>
       <c r="D134" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E134" t="s">
-        <v>53</v>
+        <v>716</v>
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>770</v>
+        <v>108</v>
       </c>
       <c r="H134" t="n">
-        <v>40464651</v>
+        <v>36290058</v>
       </c>
       <c r="I134" t="n">
-        <v>3979.638</v>
-      </c>
-      <c r="J134" t="n">
-        <v>31384</v>
-      </c>
-      <c r="K134" t="n">
-        <v>3.087</v>
-      </c>
+        <v>960.131</v>
+      </c>
+      <c r="J134"/>
+      <c r="K134"/>
       <c r="L134" t="n">
-        <v>42074</v>
+        <v>42613</v>
       </c>
       <c r="M134" t="n">
-        <v>4.138</v>
-      </c>
-      <c r="N134"/>
-      <c r="O134"/>
+        <v>1.127</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0.1276</v>
+      </c>
+      <c r="O134" t="n">
+        <v>7.8</v>
+      </c>
       <c r="P134" t="s">
+        <v>717</v>
+      </c>
+      <c r="Q134" t="s">
         <v>715</v>
       </c>
-      <c r="Q134" t="s">
-        <v>714</v>
-      </c>
       <c r="R134" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S134" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B135" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>44658</v>
+        <v>44660</v>
       </c>
       <c r="D135" t="s">
-        <v>374</v>
+        <v>721</v>
       </c>
       <c r="E135" t="s">
-        <v>375</v>
+        <v>53</v>
       </c>
       <c r="F135"/>
       <c r="G135" t="n">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="H135" t="n">
-        <v>2658071</v>
+        <v>40464651</v>
       </c>
       <c r="I135" t="n">
-        <v>939.83</v>
+        <v>3979.638</v>
       </c>
       <c r="J135" t="n">
-        <v>1825</v>
+        <v>31384</v>
       </c>
       <c r="K135" t="n">
-        <v>0.645</v>
+        <v>3.087</v>
       </c>
       <c r="L135" t="n">
-        <v>2451</v>
+        <v>42074</v>
       </c>
       <c r="M135" t="n">
-        <v>0.867</v>
+        <v>4.138</v>
       </c>
       <c r="N135"/>
       <c r="O135"/>
       <c r="P135" t="s">
-        <v>375</v>
+        <v>722</v>
       </c>
       <c r="Q135" t="s">
-        <v>374</v>
+        <v>721</v>
       </c>
       <c r="R135" t="s">
-        <v>376</v>
+        <v>61</v>
       </c>
       <c r="S135" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="B136" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>44661</v>
+        <v>44658</v>
       </c>
       <c r="D136" t="s">
-        <v>722</v>
+        <v>381</v>
       </c>
       <c r="E136" t="s">
-        <v>723</v>
+        <v>382</v>
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>295</v>
+        <v>767</v>
       </c>
       <c r="H136" t="n">
-        <v>6557297</v>
+        <v>2658071</v>
       </c>
       <c r="I136" t="n">
-        <v>2237.585</v>
+        <v>939.83</v>
       </c>
       <c r="J136" t="n">
-        <v>15907</v>
+        <v>1825</v>
       </c>
       <c r="K136" t="n">
-        <v>5.428</v>
+        <v>0.645</v>
       </c>
       <c r="L136" t="n">
-        <v>14238</v>
+        <v>2451</v>
       </c>
       <c r="M136" t="n">
-        <v>4.859</v>
+        <v>0.867</v>
       </c>
       <c r="N136"/>
       <c r="O136"/>
       <c r="P136" t="s">
-        <v>724</v>
+        <v>382</v>
       </c>
       <c r="Q136" t="s">
-        <v>725</v>
+        <v>381</v>
       </c>
       <c r="R136" t="s">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="S136" t="s">
         <v>726</v>
@@ -10779,301 +10802,301 @@
         <v>728</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>44630</v>
+        <v>44661</v>
       </c>
       <c r="D137" t="s">
-        <v>708</v>
+        <v>729</v>
       </c>
       <c r="E137" t="s">
-        <v>709</v>
+        <v>730</v>
       </c>
       <c r="F137"/>
       <c r="G137" t="n">
-        <v>104</v>
+        <v>295</v>
       </c>
       <c r="H137" t="n">
-        <v>21260367</v>
+        <v>6557297</v>
       </c>
       <c r="I137" t="n">
-        <v>1111.492</v>
-      </c>
-      <c r="J137"/>
-      <c r="K137"/>
+        <v>2237.585</v>
+      </c>
+      <c r="J137" t="n">
+        <v>15907</v>
+      </c>
+      <c r="K137" t="n">
+        <v>5.428</v>
+      </c>
       <c r="L137" t="n">
-        <v>75700</v>
+        <v>14238</v>
       </c>
       <c r="M137" t="n">
-        <v>3.958</v>
-      </c>
-      <c r="N137" t="n">
-        <v>0.0565</v>
-      </c>
-      <c r="O137" t="n">
-        <v>17.7</v>
-      </c>
+        <v>4.859</v>
+      </c>
+      <c r="N137"/>
+      <c r="O137"/>
       <c r="P137" t="s">
-        <v>710</v>
+        <v>731</v>
       </c>
       <c r="Q137" t="s">
-        <v>708</v>
+        <v>732</v>
       </c>
       <c r="R137" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="S137" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="B138" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>44661</v>
+        <v>44630</v>
       </c>
       <c r="D138" t="s">
-        <v>732</v>
+        <v>715</v>
       </c>
       <c r="E138" t="s">
-        <v>733</v>
+        <v>716</v>
       </c>
       <c r="F138"/>
       <c r="G138" t="n">
-        <v>565</v>
+        <v>104</v>
       </c>
       <c r="H138" t="n">
-        <v>286845263</v>
+        <v>21260367</v>
       </c>
       <c r="I138" t="n">
-        <v>1965.878</v>
+        <v>1111.492</v>
       </c>
       <c r="J138"/>
       <c r="K138"/>
       <c r="L138" t="n">
-        <v>206486</v>
+        <v>75700</v>
       </c>
       <c r="M138" t="n">
-        <v>1.415</v>
+        <v>3.958</v>
       </c>
       <c r="N138" t="n">
-        <v>0.0677</v>
+        <v>0.0565</v>
       </c>
       <c r="O138" t="n">
-        <v>14.8</v>
+        <v>17.7</v>
       </c>
       <c r="P138" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="Q138" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="R138" t="s">
         <v>61</v>
       </c>
       <c r="S138" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B139" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>44662</v>
+        <v>44661</v>
       </c>
       <c r="D139" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="E139" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
-        <v>612</v>
+        <v>565</v>
       </c>
       <c r="H139" t="n">
-        <v>5166836</v>
+        <v>286845263</v>
       </c>
       <c r="I139" t="n">
-        <v>389.171</v>
-      </c>
-      <c r="J139" t="n">
-        <v>3823</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.288</v>
-      </c>
+        <v>1965.878</v>
+      </c>
+      <c r="J139"/>
+      <c r="K139"/>
       <c r="L139" t="n">
-        <v>4705</v>
+        <v>206486</v>
       </c>
       <c r="M139" t="n">
-        <v>0.354</v>
-      </c>
-      <c r="N139"/>
-      <c r="O139"/>
+        <v>1.415</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0.0677</v>
+      </c>
+      <c r="O139" t="n">
+        <v>14.8</v>
+      </c>
       <c r="P139" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="Q139" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="R139" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="S139" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B140" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C140" s="1" t="n">
         <v>44662</v>
       </c>
       <c r="D140" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="E140" t="s">
-        <v>53</v>
+        <v>746</v>
       </c>
       <c r="F140"/>
       <c r="G140" t="n">
-        <v>137</v>
+        <v>612</v>
       </c>
       <c r="H140" t="n">
-        <v>68733</v>
+        <v>5166836</v>
       </c>
       <c r="I140" t="n">
-        <v>1283.625</v>
-      </c>
-      <c r="J140"/>
-      <c r="K140"/>
+        <v>389.171</v>
+      </c>
+      <c r="J140" t="n">
+        <v>3823</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.288</v>
+      </c>
       <c r="L140" t="n">
-        <v>70</v>
+        <v>4705</v>
       </c>
       <c r="M140" t="n">
-        <v>1.307</v>
+        <v>0.354</v>
       </c>
       <c r="N140"/>
       <c r="O140"/>
       <c r="P140" t="s">
-        <v>53</v>
+        <v>746</v>
       </c>
       <c r="Q140" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="R140" t="s">
-        <v>316</v>
+        <v>136</v>
       </c>
       <c r="S140" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B141" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>44661</v>
+        <v>44662</v>
       </c>
       <c r="D141" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="E141" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="F141"/>
       <c r="G141" t="n">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="H141" t="n">
-        <v>141215</v>
+        <v>68733</v>
       </c>
       <c r="I141" t="n">
-        <v>765.804</v>
+        <v>1283.625</v>
       </c>
       <c r="J141"/>
       <c r="K141"/>
       <c r="L141" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="M141" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="N141" t="n">
-        <v>0.1372</v>
-      </c>
-      <c r="O141" t="n">
-        <v>7.3</v>
-      </c>
+        <v>1.307</v>
+      </c>
+      <c r="N141"/>
+      <c r="O141"/>
       <c r="P141" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="Q141" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="R141" t="s">
-        <v>25</v>
+        <v>317</v>
       </c>
       <c r="S141" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="B142" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D142" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="E142" t="s">
-        <v>754</v>
+        <v>88</v>
       </c>
       <c r="F142"/>
       <c r="G142" t="n">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="H142" t="n">
-        <v>104547</v>
+        <v>141215</v>
       </c>
       <c r="I142" t="n">
-        <v>939.588</v>
+        <v>765.804</v>
       </c>
       <c r="J142"/>
       <c r="K142"/>
       <c r="L142" t="n">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="M142" t="n">
-        <v>0.306</v>
+        <v>0.412</v>
       </c>
       <c r="N142" t="n">
-        <v>0.0168</v>
+        <v>0.1372</v>
       </c>
       <c r="O142" t="n">
-        <v>59.5</v>
+        <v>7.3</v>
       </c>
       <c r="P142" t="s">
-        <v>755</v>
+        <v>88</v>
       </c>
       <c r="Q142" t="s">
         <v>756</v>
@@ -11093,383 +11116,377 @@
         <v>759</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>44661</v>
+        <v>44658</v>
       </c>
       <c r="D143" t="s">
         <v>760</v>
       </c>
       <c r="E143" t="s">
-        <v>53</v>
+        <v>761</v>
       </c>
       <c r="F143"/>
       <c r="G143" t="n">
-        <v>770</v>
+        <v>62</v>
       </c>
       <c r="H143" t="n">
-        <v>41680662</v>
+        <v>104547</v>
       </c>
       <c r="I143" t="n">
-        <v>1179.396</v>
-      </c>
-      <c r="J143" t="n">
-        <v>15836</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.448</v>
-      </c>
+        <v>939.588</v>
+      </c>
+      <c r="J143"/>
+      <c r="K143"/>
       <c r="L143" t="n">
-        <v>12659</v>
+        <v>34</v>
       </c>
       <c r="M143" t="n">
-        <v>0.358</v>
+        <v>0.306</v>
       </c>
       <c r="N143" t="n">
-        <v>0.0083</v>
+        <v>0.0168</v>
       </c>
       <c r="O143" t="n">
-        <v>120.2</v>
+        <v>59.5</v>
       </c>
       <c r="P143" t="s">
-        <v>53</v>
+        <v>762</v>
       </c>
       <c r="Q143" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="R143" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S143" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B144" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>44662</v>
+        <v>44661</v>
       </c>
       <c r="D144" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="E144" t="s">
-        <v>765</v>
+        <v>53</v>
       </c>
       <c r="F144"/>
       <c r="G144" t="n">
         <v>770</v>
       </c>
       <c r="H144" t="n">
-        <v>1083008</v>
+        <v>41680662</v>
       </c>
       <c r="I144" t="n">
-        <v>62.979</v>
+        <v>1179.396</v>
       </c>
       <c r="J144" t="n">
-        <v>918</v>
+        <v>15836</v>
       </c>
       <c r="K144" t="n">
-        <v>0.053</v>
+        <v>0.448</v>
       </c>
       <c r="L144" t="n">
-        <v>925</v>
+        <v>12659</v>
       </c>
       <c r="M144" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="N144"/>
-      <c r="O144"/>
+        <v>0.358</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0.0083</v>
+      </c>
+      <c r="O144" t="n">
+        <v>120.2</v>
+      </c>
       <c r="P144" t="s">
-        <v>765</v>
+        <v>53</v>
       </c>
       <c r="Q144" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="R144" t="s">
         <v>61</v>
       </c>
       <c r="S144" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B145" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>44661</v>
+        <v>44662</v>
       </c>
       <c r="D145" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="E145" t="s">
-        <v>53</v>
-      </c>
-      <c r="F145" t="s">
+        <v>772</v>
+      </c>
+      <c r="F145"/>
+      <c r="G145" t="n">
         <v>770</v>
       </c>
-      <c r="G145" t="n">
-        <v>774</v>
-      </c>
       <c r="H145" t="n">
-        <v>9302535</v>
+        <v>1083008</v>
       </c>
       <c r="I145" t="n">
-        <v>1353.776</v>
+        <v>62.979</v>
       </c>
       <c r="J145" t="n">
-        <v>7027</v>
+        <v>918</v>
       </c>
       <c r="K145" t="n">
-        <v>1.023</v>
+        <v>0.053</v>
       </c>
       <c r="L145" t="n">
-        <v>11520</v>
+        <v>925</v>
       </c>
       <c r="M145" t="n">
-        <v>1.676</v>
-      </c>
-      <c r="N145" t="n">
-        <v>0.1078</v>
-      </c>
-      <c r="O145" t="n">
-        <v>9.3</v>
-      </c>
+        <v>0.054</v>
+      </c>
+      <c r="N145"/>
+      <c r="O145"/>
       <c r="P145" t="s">
-        <v>53</v>
+        <v>772</v>
       </c>
       <c r="Q145" t="s">
         <v>771</v>
       </c>
       <c r="R145" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="S145" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B146" t="s">
+        <v>775</v>
+      </c>
+      <c r="C146" s="1" t="n">
+        <v>44661</v>
+      </c>
+      <c r="D146" t="s">
+        <v>776</v>
+      </c>
+      <c r="E146" t="s">
+        <v>53</v>
+      </c>
+      <c r="F146" t="s">
+        <v>777</v>
+      </c>
+      <c r="G146" t="n">
         <v>774</v>
       </c>
-      <c r="C146" s="1" t="n">
-        <v>44658</v>
-      </c>
-      <c r="D146" t="s">
-        <v>35</v>
-      </c>
-      <c r="E146" t="s">
-        <v>36</v>
-      </c>
-      <c r="F146"/>
-      <c r="G146" t="n">
-        <v>3</v>
-      </c>
       <c r="H146" t="n">
-        <v>405779</v>
+        <v>9302535</v>
       </c>
       <c r="I146" t="n">
-        <v>49.842</v>
-      </c>
-      <c r="J146"/>
-      <c r="K146"/>
+        <v>1353.776</v>
+      </c>
+      <c r="J146" t="n">
+        <v>7027</v>
+      </c>
+      <c r="K146" t="n">
+        <v>1.023</v>
+      </c>
       <c r="L146" t="n">
-        <v>838</v>
+        <v>11520</v>
       </c>
       <c r="M146" t="n">
-        <v>0.103</v>
+        <v>1.676</v>
       </c>
       <c r="N146" t="n">
-        <v>0.0002</v>
+        <v>0.1078</v>
       </c>
       <c r="O146" t="n">
-        <v>5860.1</v>
+        <v>9.3</v>
       </c>
       <c r="P146" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="Q146" t="s">
-        <v>37</v>
+        <v>778</v>
       </c>
       <c r="R146" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="S146" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="B147" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>44655</v>
+        <v>44658</v>
       </c>
       <c r="D147" t="s">
-        <v>778</v>
+        <v>35</v>
       </c>
       <c r="E147" t="s">
-        <v>779</v>
+        <v>36</v>
       </c>
       <c r="F147"/>
       <c r="G147" t="n">
-        <v>77</v>
-      </c>
-      <c r="H147"/>
-      <c r="I147"/>
-      <c r="J147" t="n">
-        <v>45800</v>
-      </c>
-      <c r="K147" t="n">
-        <v>8.398</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H147" t="n">
+        <v>405779</v>
+      </c>
+      <c r="I147" t="n">
+        <v>49.842</v>
+      </c>
+      <c r="J147"/>
+      <c r="K147"/>
       <c r="L147" t="n">
-        <v>45800</v>
+        <v>838</v>
       </c>
       <c r="M147" t="n">
-        <v>8.398</v>
+        <v>0.103</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1177</v>
+        <v>0.0002</v>
       </c>
       <c r="O147" t="n">
-        <v>8.5</v>
+        <v>5860.1</v>
       </c>
       <c r="P147" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="Q147" t="s">
-        <v>780</v>
+        <v>37</v>
       </c>
       <c r="R147" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="S147" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B148" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>44658</v>
+        <v>44655</v>
       </c>
       <c r="D148" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E148" t="s">
-        <v>53</v>
-      </c>
-      <c r="F148" t="s">
-        <v>785</v>
-      </c>
+        <v>786</v>
+      </c>
+      <c r="F148"/>
       <c r="G148" t="n">
-        <v>763</v>
-      </c>
-      <c r="H148" t="n">
-        <v>50707732</v>
-      </c>
-      <c r="I148" t="n">
-        <v>9305.417</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H148"/>
+      <c r="I148"/>
       <c r="J148" t="n">
-        <v>9037</v>
+        <v>45800</v>
       </c>
       <c r="K148" t="n">
-        <v>1.658</v>
+        <v>8.398</v>
       </c>
       <c r="L148" t="n">
-        <v>17955</v>
+        <v>45800</v>
       </c>
       <c r="M148" t="n">
-        <v>3.295</v>
+        <v>8.398</v>
       </c>
       <c r="N148" t="n">
-        <v>0.263</v>
+        <v>0.1177</v>
       </c>
       <c r="O148" t="n">
-        <v>3.8</v>
+        <v>8.5</v>
       </c>
       <c r="P148" t="s">
         <v>53</v>
       </c>
       <c r="Q148" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="R148" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="S148" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B149" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>44661</v>
+        <v>44658</v>
       </c>
       <c r="D149" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="E149" t="s">
-        <v>790</v>
+        <v>53</v>
       </c>
       <c r="F149" t="s">
+        <v>792</v>
+      </c>
+      <c r="G149" t="n">
+        <v>763</v>
+      </c>
+      <c r="H149" t="n">
+        <v>50707732</v>
+      </c>
+      <c r="I149" t="n">
+        <v>9305.417</v>
+      </c>
+      <c r="J149" t="n">
+        <v>9037</v>
+      </c>
+      <c r="K149" t="n">
+        <v>1.658</v>
+      </c>
+      <c r="L149" t="n">
+        <v>17955</v>
+      </c>
+      <c r="M149" t="n">
+        <v>3.295</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="O149" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="P149" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q149" t="s">
         <v>791</v>
-      </c>
-      <c r="G149" t="n">
-        <v>781</v>
-      </c>
-      <c r="H149" t="n">
-        <v>4920100</v>
-      </c>
-      <c r="I149" t="n">
-        <v>2366.886</v>
-      </c>
-      <c r="J149" t="n">
-        <v>3790</v>
-      </c>
-      <c r="K149" t="n">
-        <v>1.823</v>
-      </c>
-      <c r="L149" t="n">
-        <v>11168</v>
-      </c>
-      <c r="M149" t="n">
-        <v>5.373</v>
-      </c>
-      <c r="N149" t="n">
-        <v>0.165</v>
-      </c>
-      <c r="O149" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="P149" t="s">
-        <v>792</v>
-      </c>
-      <c r="Q149" t="s">
-        <v>789</v>
       </c>
       <c r="R149" t="s">
         <v>61</v>
@@ -11486,97 +11503,97 @@
         <v>795</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>44632</v>
+        <v>44661</v>
       </c>
       <c r="D150" t="s">
-        <v>35</v>
+        <v>796</v>
       </c>
       <c r="E150" t="s">
-        <v>36</v>
-      </c>
-      <c r="F150"/>
+        <v>797</v>
+      </c>
+      <c r="F150" t="s">
+        <v>798</v>
+      </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>781</v>
       </c>
       <c r="H150" t="n">
-        <v>400466</v>
+        <v>4920100</v>
       </c>
       <c r="I150" t="n">
-        <v>24.479</v>
-      </c>
-      <c r="J150"/>
-      <c r="K150"/>
-      <c r="L150"/>
-      <c r="M150"/>
-      <c r="N150"/>
-      <c r="O150"/>
+        <v>2366.886</v>
+      </c>
+      <c r="J150" t="n">
+        <v>3790</v>
+      </c>
+      <c r="K150" t="n">
+        <v>1.823</v>
+      </c>
+      <c r="L150" t="n">
+        <v>11168</v>
+      </c>
+      <c r="M150" t="n">
+        <v>5.373</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="O150" t="n">
+        <v>6.1</v>
+      </c>
       <c r="P150" t="s">
-        <v>36</v>
+        <v>799</v>
       </c>
       <c r="Q150" t="s">
-        <v>37</v>
+        <v>796</v>
       </c>
       <c r="R150" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="S150" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="B151" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>44661</v>
+        <v>44632</v>
       </c>
       <c r="D151" t="s">
-        <v>799</v>
+        <v>35</v>
       </c>
       <c r="E151" t="s">
-        <v>800</v>
-      </c>
-      <c r="F151" t="s">
-        <v>801</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F151"/>
       <c r="G151" t="n">
-        <v>761</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
-        <v>24060151</v>
+        <v>400466</v>
       </c>
       <c r="I151" t="n">
-        <v>400.722</v>
-      </c>
-      <c r="J151" t="n">
-        <v>15739</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.262</v>
-      </c>
-      <c r="L151" t="n">
-        <v>21493</v>
-      </c>
-      <c r="M151" t="n">
-        <v>0.358</v>
-      </c>
-      <c r="N151" t="n">
-        <v>0.0606</v>
-      </c>
-      <c r="O151" t="n">
-        <v>16.5</v>
-      </c>
+        <v>24.479</v>
+      </c>
+      <c r="J151"/>
+      <c r="K151"/>
+      <c r="L151"/>
+      <c r="M151"/>
+      <c r="N151"/>
+      <c r="O151"/>
       <c r="P151" t="s">
-        <v>802</v>
+        <v>36</v>
       </c>
       <c r="Q151" t="s">
-        <v>799</v>
+        <v>37</v>
       </c>
       <c r="R151" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="S151" t="s">
         <v>803</v>
@@ -11602,366 +11619,368 @@
         <v>808</v>
       </c>
       <c r="G152" t="n">
-        <v>793</v>
+        <v>761</v>
       </c>
       <c r="H152" t="n">
-        <v>90672850</v>
+        <v>24060151</v>
       </c>
       <c r="I152" t="n">
-        <v>1767.323</v>
+        <v>400.722</v>
       </c>
       <c r="J152" t="n">
-        <v>181012</v>
+        <v>15739</v>
       </c>
       <c r="K152" t="n">
-        <v>3.528</v>
+        <v>0.262</v>
       </c>
       <c r="L152" t="n">
-        <v>324795</v>
+        <v>21493</v>
       </c>
       <c r="M152" t="n">
-        <v>6.331</v>
+        <v>0.358</v>
       </c>
       <c r="N152" t="n">
-        <v>0.626</v>
+        <v>0.0606</v>
       </c>
       <c r="O152" t="n">
-        <v>1.6</v>
+        <v>16.5</v>
       </c>
       <c r="P152" t="s">
         <v>809</v>
       </c>
       <c r="Q152" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="R152" t="s">
         <v>45</v>
       </c>
       <c r="S152" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
+        <v>811</v>
+      </c>
+      <c r="B153" t="s">
         <v>812</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C153" s="1" t="n">
+        <v>44661</v>
+      </c>
+      <c r="D153" t="s">
         <v>813</v>
       </c>
-      <c r="C153" s="1" t="n">
-        <v>44658</v>
-      </c>
-      <c r="D153" t="s">
-        <v>35</v>
-      </c>
       <c r="E153" t="s">
-        <v>36</v>
-      </c>
-      <c r="F153"/>
+        <v>814</v>
+      </c>
+      <c r="F153" t="s">
+        <v>815</v>
+      </c>
       <c r="G153" t="n">
-        <v>164</v>
+        <v>793</v>
       </c>
       <c r="H153" t="n">
-        <v>364018</v>
+        <v>90672850</v>
       </c>
       <c r="I153" t="n">
-        <v>31.984</v>
-      </c>
-      <c r="J153"/>
-      <c r="K153"/>
+        <v>1767.323</v>
+      </c>
+      <c r="J153" t="n">
+        <v>181012</v>
+      </c>
+      <c r="K153" t="n">
+        <v>3.528</v>
+      </c>
       <c r="L153" t="n">
-        <v>563</v>
+        <v>324795</v>
       </c>
       <c r="M153" t="n">
-        <v>0.049</v>
+        <v>6.331</v>
       </c>
       <c r="N153" t="n">
-        <v>0.015</v>
+        <v>0.626</v>
       </c>
       <c r="O153" t="n">
-        <v>66.8</v>
+        <v>1.6</v>
       </c>
       <c r="P153" t="s">
-        <v>36</v>
+        <v>816</v>
       </c>
       <c r="Q153" t="s">
-        <v>37</v>
+        <v>817</v>
       </c>
       <c r="R153" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="S153" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="B154" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="D154" t="s">
-        <v>817</v>
+        <v>35</v>
       </c>
       <c r="E154" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F154"/>
       <c r="G154" t="n">
-        <v>753</v>
+        <v>164</v>
       </c>
       <c r="H154" t="n">
-        <v>88940700</v>
+        <v>364018</v>
       </c>
       <c r="I154" t="n">
-        <v>1902.67</v>
-      </c>
-      <c r="J154" t="n">
-        <v>56587</v>
-      </c>
-      <c r="K154" t="n">
-        <v>1.211</v>
-      </c>
+        <v>31.984</v>
+      </c>
+      <c r="J154"/>
+      <c r="K154"/>
       <c r="L154" t="n">
-        <v>55317</v>
+        <v>563</v>
       </c>
       <c r="M154" t="n">
-        <v>1.183</v>
+        <v>0.049</v>
       </c>
       <c r="N154" t="n">
-        <v>0.181</v>
+        <v>0.015</v>
       </c>
       <c r="O154" t="n">
-        <v>5.5</v>
+        <v>66.8</v>
       </c>
       <c r="P154" t="s">
-        <v>818</v>
+        <v>36</v>
       </c>
       <c r="Q154" t="s">
-        <v>817</v>
+        <v>37</v>
       </c>
       <c r="R154" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S154" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B155" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>44661</v>
+        <v>44657</v>
       </c>
       <c r="D155" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="E155" t="s">
-        <v>823</v>
+        <v>53</v>
       </c>
       <c r="F155"/>
       <c r="G155" t="n">
-        <v>775</v>
+        <v>753</v>
       </c>
       <c r="H155" t="n">
-        <v>7589396</v>
+        <v>88940700</v>
       </c>
       <c r="I155" t="n">
-        <v>353.039</v>
+        <v>1902.67</v>
       </c>
       <c r="J155" t="n">
-        <v>3140</v>
+        <v>56587</v>
       </c>
       <c r="K155" t="n">
-        <v>0.146</v>
+        <v>1.211</v>
       </c>
       <c r="L155" t="n">
-        <v>3691</v>
+        <v>55317</v>
       </c>
       <c r="M155" t="n">
-        <v>0.172</v>
+        <v>1.183</v>
       </c>
       <c r="N155" t="n">
-        <v>0.0233</v>
+        <v>0.181</v>
       </c>
       <c r="O155" t="n">
-        <v>43</v>
+        <v>5.5</v>
       </c>
       <c r="P155" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="Q155" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="R155" t="s">
         <v>61</v>
       </c>
       <c r="S155" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B156" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>44605</v>
+        <v>44661</v>
       </c>
       <c r="D156" t="s">
-        <v>35</v>
+        <v>829</v>
       </c>
       <c r="E156" t="s">
-        <v>36</v>
+        <v>830</v>
       </c>
       <c r="F156"/>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>775</v>
       </c>
       <c r="H156" t="n">
-        <v>562941</v>
+        <v>7589396</v>
       </c>
       <c r="I156" t="n">
-        <v>12.535</v>
-      </c>
-      <c r="J156"/>
-      <c r="K156"/>
-      <c r="L156"/>
-      <c r="M156"/>
-      <c r="N156"/>
-      <c r="O156"/>
+        <v>353.039</v>
+      </c>
+      <c r="J156" t="n">
+        <v>3140</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="L156" t="n">
+        <v>3691</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0.0233</v>
+      </c>
+      <c r="O156" t="n">
+        <v>43</v>
+      </c>
       <c r="P156" t="s">
-        <v>36</v>
+        <v>830</v>
       </c>
       <c r="Q156" t="s">
-        <v>37</v>
+        <v>829</v>
       </c>
       <c r="R156" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="S156" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="B157" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>44658</v>
+        <v>44605</v>
       </c>
       <c r="D157" t="s">
-        <v>830</v>
+        <v>35</v>
       </c>
       <c r="E157" t="s">
-        <v>831</v>
+        <v>36</v>
       </c>
       <c r="F157"/>
       <c r="G157" t="n">
-        <v>209</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
-        <v>81866</v>
+        <v>562941</v>
       </c>
       <c r="I157" t="n">
-        <v>138.334</v>
-      </c>
-      <c r="J157" t="n">
-        <v>103</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.174</v>
-      </c>
-      <c r="L157" t="n">
-        <v>15</v>
-      </c>
-      <c r="M157" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="N157" t="n">
-        <v>0.141</v>
-      </c>
-      <c r="O157" t="n">
-        <v>7.1</v>
-      </c>
+        <v>12.535</v>
+      </c>
+      <c r="J157"/>
+      <c r="K157"/>
+      <c r="L157"/>
+      <c r="M157"/>
+      <c r="N157"/>
+      <c r="O157"/>
       <c r="P157" t="s">
-        <v>831</v>
+        <v>36</v>
       </c>
       <c r="Q157" t="s">
-        <v>830</v>
+        <v>37</v>
       </c>
       <c r="R157" t="s">
         <v>25</v>
       </c>
       <c r="S157" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B158" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>44654</v>
+        <v>44658</v>
       </c>
       <c r="D158" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E158" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="F158"/>
       <c r="G158" t="n">
-        <v>644</v>
+        <v>209</v>
       </c>
       <c r="H158" t="n">
-        <v>18188429</v>
+        <v>81866</v>
       </c>
       <c r="I158" t="n">
-        <v>1790.172</v>
+        <v>138.334</v>
       </c>
       <c r="J158" t="n">
-        <v>4202</v>
+        <v>103</v>
       </c>
       <c r="K158" t="n">
-        <v>0.414</v>
+        <v>0.174</v>
       </c>
       <c r="L158" t="n">
-        <v>4202</v>
+        <v>15</v>
       </c>
       <c r="M158" t="n">
-        <v>0.414</v>
+        <v>0.025</v>
       </c>
       <c r="N158" t="n">
-        <v>0.2079</v>
+        <v>0.141</v>
       </c>
       <c r="O158" t="n">
-        <v>4.8</v>
+        <v>7.1</v>
       </c>
       <c r="P158" t="s">
+        <v>838</v>
+      </c>
+      <c r="Q158" t="s">
         <v>837</v>
       </c>
-      <c r="Q158" t="s">
-        <v>838</v>
-      </c>
       <c r="R158" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S158" t="s">
         <v>839</v>
@@ -11975,270 +11994,270 @@
         <v>841</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>44655</v>
+        <v>44654</v>
       </c>
       <c r="D159" t="s">
-        <v>533</v>
+        <v>842</v>
       </c>
       <c r="E159" t="s">
-        <v>534</v>
+        <v>843</v>
       </c>
       <c r="F159"/>
       <c r="G159" t="n">
-        <v>682</v>
+        <v>644</v>
       </c>
       <c r="H159" t="n">
-        <v>20400357</v>
+        <v>18188429</v>
       </c>
       <c r="I159" t="n">
-        <v>2340.7</v>
+        <v>1790.172</v>
       </c>
       <c r="J159" t="n">
-        <v>20562</v>
+        <v>4202</v>
       </c>
       <c r="K159" t="n">
-        <v>2.359</v>
+        <v>0.414</v>
       </c>
       <c r="L159" t="n">
-        <v>26985</v>
+        <v>4202</v>
       </c>
       <c r="M159" t="n">
-        <v>3.096</v>
+        <v>0.414</v>
       </c>
       <c r="N159" t="n">
-        <v>0.352</v>
+        <v>0.2079</v>
       </c>
       <c r="O159" t="n">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="P159" t="s">
-        <v>534</v>
+        <v>844</v>
       </c>
       <c r="Q159" t="s">
-        <v>535</v>
+        <v>845</v>
       </c>
       <c r="R159" t="s">
         <v>61</v>
       </c>
       <c r="S159" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="B160" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>44632</v>
+        <v>44655</v>
       </c>
       <c r="D160" t="s">
-        <v>21</v>
+        <v>540</v>
       </c>
       <c r="E160" t="s">
-        <v>22</v>
+        <v>541</v>
       </c>
       <c r="F160"/>
       <c r="G160" t="n">
-        <v>2</v>
+        <v>682</v>
       </c>
       <c r="H160" t="n">
-        <v>158382</v>
+        <v>20400357</v>
       </c>
       <c r="I160" t="n">
-        <v>8.666</v>
-      </c>
-      <c r="J160"/>
-      <c r="K160"/>
+        <v>2340.7</v>
+      </c>
+      <c r="J160" t="n">
+        <v>20562</v>
+      </c>
+      <c r="K160" t="n">
+        <v>2.359</v>
+      </c>
       <c r="L160" t="n">
-        <v>157</v>
+        <v>26985</v>
       </c>
       <c r="M160" t="n">
-        <v>0.009</v>
+        <v>3.096</v>
       </c>
       <c r="N160" t="n">
-        <v>0.333</v>
+        <v>0.352</v>
       </c>
       <c r="O160" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P160" t="s">
-        <v>23</v>
+        <v>541</v>
       </c>
       <c r="Q160" t="s">
-        <v>24</v>
+        <v>542</v>
       </c>
       <c r="R160" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="S160" t="s">
-        <v>26</v>
+        <v>849</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="B161" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>44660</v>
+        <v>44632</v>
       </c>
       <c r="D161" t="s">
-        <v>847</v>
+        <v>21</v>
       </c>
       <c r="E161" t="s">
-        <v>848</v>
+        <v>22</v>
       </c>
       <c r="F161"/>
       <c r="G161" t="n">
-        <v>814</v>
+        <v>2</v>
       </c>
       <c r="H161" t="n">
-        <v>7378410</v>
+        <v>158382</v>
       </c>
       <c r="I161" t="n">
-        <v>309.302</v>
-      </c>
-      <c r="J161" t="n">
-        <v>36618</v>
-      </c>
-      <c r="K161" t="n">
-        <v>1.535</v>
-      </c>
+        <v>8.666</v>
+      </c>
+      <c r="J161"/>
+      <c r="K161"/>
       <c r="L161" t="n">
-        <v>37396</v>
+        <v>157</v>
       </c>
       <c r="M161" t="n">
-        <v>1.568</v>
+        <v>0.009</v>
       </c>
       <c r="N161" t="n">
-        <v>0.0107</v>
+        <v>0.333</v>
       </c>
       <c r="O161" t="n">
-        <v>93.4</v>
+        <v>3</v>
       </c>
       <c r="P161" t="s">
-        <v>848</v>
+        <v>23</v>
       </c>
       <c r="Q161" t="s">
-        <v>847</v>
+        <v>24</v>
       </c>
       <c r="R161" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="S161" t="s">
-        <v>849</v>
+        <v>26</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B162" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>44610</v>
+        <v>44660</v>
       </c>
       <c r="D162" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="E162" t="s">
-        <v>53</v>
+        <v>855</v>
       </c>
       <c r="F162"/>
       <c r="G162" t="n">
-        <v>2</v>
+        <v>814</v>
       </c>
       <c r="H162" t="n">
-        <v>455776</v>
+        <v>7378410</v>
       </c>
       <c r="I162" t="n">
-        <v>7.411</v>
-      </c>
-      <c r="J162"/>
-      <c r="K162"/>
+        <v>309.302</v>
+      </c>
+      <c r="J162" t="n">
+        <v>36618</v>
+      </c>
+      <c r="K162" t="n">
+        <v>1.535</v>
+      </c>
       <c r="L162" t="n">
-        <v>1004</v>
+        <v>37396</v>
       </c>
       <c r="M162" t="n">
-        <v>0.016</v>
+        <v>1.568</v>
       </c>
       <c r="N162" t="n">
-        <v>0.0161</v>
+        <v>0.0107</v>
       </c>
       <c r="O162" t="n">
-        <v>62.2</v>
+        <v>93.4</v>
       </c>
       <c r="P162" t="s">
-        <v>36</v>
+        <v>855</v>
       </c>
       <c r="Q162" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="R162" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="S162" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B163" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>44653</v>
+        <v>44610</v>
       </c>
       <c r="D163" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="E163" t="s">
-        <v>858</v>
+        <v>53</v>
       </c>
       <c r="F163"/>
       <c r="G163" t="n">
-        <v>819</v>
+        <v>2</v>
       </c>
       <c r="H163" t="n">
-        <v>22978475</v>
+        <v>455776</v>
       </c>
       <c r="I163" t="n">
-        <v>328.495</v>
-      </c>
-      <c r="J163" t="n">
-        <v>42568</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.609</v>
-      </c>
+        <v>7.411</v>
+      </c>
+      <c r="J163"/>
+      <c r="K163"/>
       <c r="L163" t="n">
-        <v>58781</v>
+        <v>1004</v>
       </c>
       <c r="M163" t="n">
-        <v>0.84</v>
+        <v>0.016</v>
       </c>
       <c r="N163" t="n">
-        <v>0.4436</v>
+        <v>0.0161</v>
       </c>
       <c r="O163" t="n">
-        <v>2.3</v>
+        <v>62.2</v>
       </c>
       <c r="P163" t="s">
-        <v>859</v>
+        <v>36</v>
       </c>
       <c r="Q163" t="s">
         <v>860</v>
       </c>
       <c r="R163" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S163" t="s">
         <v>861</v>
@@ -12252,195 +12271,199 @@
         <v>863</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>44660</v>
+        <v>44653</v>
       </c>
       <c r="D164" t="s">
         <v>864</v>
       </c>
       <c r="E164" t="s">
-        <v>53</v>
+        <v>865</v>
       </c>
       <c r="F164"/>
       <c r="G164" t="n">
-        <v>34</v>
+        <v>819</v>
       </c>
       <c r="H164" t="n">
-        <v>258938</v>
+        <v>22978475</v>
       </c>
       <c r="I164" t="n">
-        <v>192.68</v>
-      </c>
-      <c r="J164"/>
-      <c r="K164"/>
+        <v>328.495</v>
+      </c>
+      <c r="J164" t="n">
+        <v>42568</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0.609</v>
+      </c>
       <c r="L164" t="n">
-        <v>237</v>
+        <v>58781</v>
       </c>
       <c r="M164" t="n">
-        <v>0.176</v>
+        <v>0.84</v>
       </c>
       <c r="N164" t="n">
-        <v>0.006</v>
+        <v>0.4436</v>
       </c>
       <c r="O164" t="n">
-        <v>165.9</v>
+        <v>2.3</v>
       </c>
       <c r="P164" t="s">
-        <v>53</v>
+        <v>866</v>
       </c>
       <c r="Q164" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="R164" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="S164" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="B165" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>44662</v>
+        <v>44660</v>
       </c>
       <c r="D165" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="E165" t="s">
         <v>53</v>
       </c>
       <c r="F165"/>
       <c r="G165" t="n">
-        <v>746</v>
+        <v>34</v>
       </c>
       <c r="H165" t="n">
-        <v>723325</v>
+        <v>258938</v>
       </c>
       <c r="I165" t="n">
-        <v>85.315</v>
+        <v>192.68</v>
       </c>
       <c r="J165"/>
       <c r="K165"/>
       <c r="L165" t="n">
-        <v>383</v>
+        <v>237</v>
       </c>
       <c r="M165" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="N165"/>
-      <c r="O165"/>
+        <v>0.176</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="O165" t="n">
+        <v>165.9</v>
+      </c>
       <c r="P165" t="s">
-        <v>869</v>
+        <v>53</v>
       </c>
       <c r="Q165" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="R165" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S165" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="B166" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>44661</v>
+        <v>44662</v>
       </c>
       <c r="D166" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="E166" t="s">
         <v>53</v>
       </c>
       <c r="F166"/>
       <c r="G166" t="n">
-        <v>447</v>
+        <v>746</v>
       </c>
       <c r="H166" t="n">
-        <v>682170</v>
+        <v>723325</v>
       </c>
       <c r="I166" t="n">
-        <v>486.093</v>
+        <v>85.315</v>
       </c>
       <c r="J166"/>
       <c r="K166"/>
       <c r="L166" t="n">
-        <v>928</v>
+        <v>383</v>
       </c>
       <c r="M166" t="n">
-        <v>0.661</v>
-      </c>
-      <c r="N166" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="O166" t="n">
-        <v>3.6</v>
-      </c>
+        <v>0.045</v>
+      </c>
+      <c r="N166"/>
+      <c r="O166"/>
       <c r="P166" t="s">
-        <v>53</v>
+        <v>876</v>
       </c>
       <c r="Q166" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="R166" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="S166" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B167" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>44654</v>
+        <v>44661</v>
       </c>
       <c r="D167" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="E167" t="s">
-        <v>879</v>
+        <v>53</v>
       </c>
       <c r="F167"/>
       <c r="G167" t="n">
-        <v>178</v>
+        <v>447</v>
       </c>
       <c r="H167" t="n">
-        <v>4537900</v>
+        <v>682170</v>
       </c>
       <c r="I167" t="n">
-        <v>380.194</v>
+        <v>486.093</v>
       </c>
       <c r="J167"/>
       <c r="K167"/>
       <c r="L167" t="n">
-        <v>2289</v>
+        <v>928</v>
       </c>
       <c r="M167" t="n">
-        <v>0.192</v>
+        <v>0.661</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1344</v>
+        <v>0.28</v>
       </c>
       <c r="O167" t="n">
-        <v>7.4</v>
+        <v>3.6</v>
       </c>
       <c r="P167" t="s">
-        <v>880</v>
+        <v>53</v>
       </c>
       <c r="Q167" t="s">
         <v>881</v>
@@ -12460,7 +12483,7 @@
         <v>884</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>44661</v>
+        <v>44654</v>
       </c>
       <c r="D168" t="s">
         <v>885</v>
@@ -12470,248 +12493,244 @@
       </c>
       <c r="F168"/>
       <c r="G168" t="n">
-        <v>745</v>
+        <v>178</v>
       </c>
       <c r="H168" t="n">
-        <v>156247470</v>
+        <v>4537900</v>
       </c>
       <c r="I168" t="n">
-        <v>1837.282</v>
-      </c>
-      <c r="J168" t="n">
-        <v>172461</v>
-      </c>
-      <c r="K168" t="n">
-        <v>2.028</v>
-      </c>
+        <v>380.194</v>
+      </c>
+      <c r="J168"/>
+      <c r="K168"/>
       <c r="L168" t="n">
-        <v>208641</v>
+        <v>2289</v>
       </c>
       <c r="M168" t="n">
-        <v>2.453</v>
+        <v>0.192</v>
       </c>
       <c r="N168" t="n">
-        <v>0.044</v>
+        <v>0.1344</v>
       </c>
       <c r="O168" t="n">
-        <v>22.7</v>
+        <v>7.4</v>
       </c>
       <c r="P168" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="Q168" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="R168" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="S168" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B169" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C169" s="1" t="n">
         <v>44661</v>
       </c>
       <c r="D169" t="s">
-        <v>35</v>
+        <v>892</v>
       </c>
       <c r="E169" t="s">
-        <v>36</v>
+        <v>893</v>
       </c>
       <c r="F169"/>
       <c r="G169" t="n">
-        <v>635</v>
+        <v>745</v>
       </c>
       <c r="H169" t="n">
-        <v>2577730</v>
+        <v>156247470</v>
       </c>
       <c r="I169" t="n">
-        <v>54.702</v>
-      </c>
-      <c r="J169"/>
-      <c r="K169"/>
+        <v>1837.282</v>
+      </c>
+      <c r="J169" t="n">
+        <v>172461</v>
+      </c>
+      <c r="K169" t="n">
+        <v>2.028</v>
+      </c>
       <c r="L169" t="n">
-        <v>2307</v>
+        <v>208641</v>
       </c>
       <c r="M169" t="n">
-        <v>0.049</v>
+        <v>2.453</v>
       </c>
       <c r="N169" t="n">
-        <v>0.0035</v>
+        <v>0.044</v>
       </c>
       <c r="O169" t="n">
-        <v>283.3</v>
+        <v>22.7</v>
       </c>
       <c r="P169" t="s">
-        <v>36</v>
+        <v>893</v>
       </c>
       <c r="Q169" t="s">
-        <v>37</v>
+        <v>894</v>
       </c>
       <c r="R169" t="s">
         <v>61</v>
       </c>
       <c r="S169" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="B170" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>44610</v>
+        <v>44661</v>
       </c>
       <c r="D170" t="s">
-        <v>894</v>
+        <v>35</v>
       </c>
       <c r="E170" t="s">
-        <v>895</v>
+        <v>36</v>
       </c>
       <c r="F170"/>
       <c r="G170" t="n">
-        <v>556</v>
+        <v>635</v>
       </c>
       <c r="H170" t="n">
-        <v>19288823</v>
+        <v>2577730</v>
       </c>
       <c r="I170" t="n">
-        <v>443.76</v>
+        <v>54.702</v>
       </c>
       <c r="J170"/>
       <c r="K170"/>
       <c r="L170" t="n">
-        <v>52561</v>
+        <v>2307</v>
       </c>
       <c r="M170" t="n">
-        <v>1.209</v>
+        <v>0.049</v>
       </c>
       <c r="N170" t="n">
-        <v>0.6027</v>
+        <v>0.0035</v>
       </c>
       <c r="O170" t="n">
-        <v>1.7</v>
+        <v>283.3</v>
       </c>
       <c r="P170" t="s">
-        <v>895</v>
+        <v>36</v>
       </c>
       <c r="Q170" t="s">
-        <v>896</v>
+        <v>37</v>
       </c>
       <c r="R170" t="s">
         <v>61</v>
       </c>
       <c r="S170" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B171" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>44662</v>
+        <v>44610</v>
       </c>
       <c r="D171" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E171" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="F171"/>
       <c r="G171" t="n">
-        <v>773</v>
+        <v>556</v>
       </c>
       <c r="H171" t="n">
-        <v>150750667</v>
+        <v>19288823</v>
       </c>
       <c r="I171" t="n">
-        <v>15088.521</v>
-      </c>
-      <c r="J171" t="n">
-        <v>207875</v>
-      </c>
-      <c r="K171" t="n">
-        <v>20.806</v>
-      </c>
+        <v>443.76</v>
+      </c>
+      <c r="J171"/>
+      <c r="K171"/>
       <c r="L171" t="n">
-        <v>230451</v>
+        <v>52561</v>
       </c>
       <c r="M171" t="n">
-        <v>23.066</v>
-      </c>
-      <c r="N171"/>
-      <c r="O171"/>
+        <v>1.209</v>
+      </c>
+      <c r="N171" t="n">
+        <v>0.6027</v>
+      </c>
+      <c r="O171" t="n">
+        <v>1.7</v>
+      </c>
       <c r="P171" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="Q171" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="R171" t="s">
         <v>61</v>
       </c>
       <c r="S171" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B172" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>44658</v>
+        <v>44662</v>
       </c>
       <c r="D172" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E172" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="F172"/>
       <c r="G172" t="n">
-        <v>736</v>
+        <v>773</v>
       </c>
       <c r="H172" t="n">
-        <v>490482056</v>
+        <v>150750667</v>
       </c>
       <c r="I172" t="n">
-        <v>7191.069</v>
+        <v>15088.521</v>
       </c>
       <c r="J172" t="n">
-        <v>517587</v>
+        <v>207875</v>
       </c>
       <c r="K172" t="n">
-        <v>7.588</v>
+        <v>20.806</v>
       </c>
       <c r="L172" t="n">
-        <v>537320</v>
+        <v>230451</v>
       </c>
       <c r="M172" t="n">
-        <v>7.878</v>
-      </c>
-      <c r="N172" t="n">
-        <v>0.0963</v>
-      </c>
-      <c r="O172" t="n">
-        <v>10.4</v>
-      </c>
+        <v>23.066</v>
+      </c>
+      <c r="N172"/>
+      <c r="O172"/>
       <c r="P172" t="s">
         <v>908</v>
       </c>
@@ -12733,261 +12752,265 @@
         <v>912</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>44656</v>
+        <v>44658</v>
       </c>
       <c r="D173" t="s">
-        <v>374</v>
+        <v>913</v>
       </c>
       <c r="E173" t="s">
-        <v>375</v>
+        <v>914</v>
       </c>
       <c r="F173"/>
       <c r="G173" t="n">
-        <v>766</v>
+        <v>736</v>
       </c>
       <c r="H173" t="n">
-        <v>853759606</v>
+        <v>490482056</v>
       </c>
       <c r="I173" t="n">
-        <v>2564.497</v>
+        <v>7191.069</v>
       </c>
       <c r="J173" t="n">
-        <v>609381</v>
+        <v>517587</v>
       </c>
       <c r="K173" t="n">
-        <v>1.83</v>
+        <v>7.588</v>
       </c>
       <c r="L173" t="n">
-        <v>635271</v>
+        <v>537320</v>
       </c>
       <c r="M173" t="n">
-        <v>1.908</v>
+        <v>7.878</v>
       </c>
       <c r="N173" t="n">
-        <v>0.031</v>
+        <v>0.0963</v>
       </c>
       <c r="O173" t="n">
-        <v>32.3</v>
+        <v>10.4</v>
       </c>
       <c r="P173" t="s">
-        <v>375</v>
+        <v>915</v>
       </c>
       <c r="Q173" t="s">
-        <v>374</v>
+        <v>916</v>
       </c>
       <c r="R173" t="s">
-        <v>376</v>
+        <v>61</v>
       </c>
       <c r="S173" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="B174" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>44658</v>
+        <v>44656</v>
       </c>
       <c r="D174" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="E174" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="F174"/>
       <c r="G174" t="n">
-        <v>729</v>
+        <v>766</v>
       </c>
       <c r="H174" t="n">
-        <v>109525</v>
+        <v>853759606</v>
       </c>
       <c r="I174" t="n">
-        <v>1050.922</v>
+        <v>2564.497</v>
       </c>
       <c r="J174" t="n">
-        <v>62</v>
+        <v>609381</v>
       </c>
       <c r="K174" t="n">
-        <v>0.595</v>
+        <v>1.83</v>
       </c>
       <c r="L174" t="n">
-        <v>54</v>
+        <v>635271</v>
       </c>
       <c r="M174" t="n">
-        <v>0.518</v>
+        <v>1.908</v>
       </c>
       <c r="N174" t="n">
-        <v>0.053</v>
+        <v>0.031</v>
       </c>
       <c r="O174" t="n">
-        <v>18.9</v>
+        <v>32.3</v>
       </c>
       <c r="P174" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="Q174" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="R174" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="S174" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="B175" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>44661</v>
+        <v>44658</v>
       </c>
       <c r="D175" t="s">
-        <v>919</v>
+        <v>381</v>
       </c>
       <c r="E175" t="s">
-        <v>237</v>
+        <v>382</v>
       </c>
       <c r="F175"/>
       <c r="G175" t="n">
-        <v>750</v>
+        <v>729</v>
       </c>
       <c r="H175" t="n">
-        <v>6064516</v>
+        <v>109525</v>
       </c>
       <c r="I175" t="n">
-        <v>1740.101</v>
+        <v>1050.922</v>
       </c>
       <c r="J175" t="n">
-        <v>3466</v>
+        <v>62</v>
       </c>
       <c r="K175" t="n">
-        <v>0.995</v>
+        <v>0.595</v>
       </c>
       <c r="L175" t="n">
-        <v>6642</v>
+        <v>54</v>
       </c>
       <c r="M175" t="n">
-        <v>1.906</v>
+        <v>0.518</v>
       </c>
       <c r="N175" t="n">
-        <v>0.0945</v>
+        <v>0.053</v>
       </c>
       <c r="O175" t="n">
-        <v>10.6</v>
+        <v>18.9</v>
       </c>
       <c r="P175" t="s">
-        <v>237</v>
+        <v>382</v>
       </c>
       <c r="Q175" t="s">
-        <v>919</v>
+        <v>381</v>
       </c>
       <c r="R175" t="s">
-        <v>61</v>
+        <v>383</v>
       </c>
       <c r="S175" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="B176" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>44619</v>
+        <v>44661</v>
       </c>
       <c r="D176" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="E176" t="s">
-        <v>53</v>
+        <v>237</v>
       </c>
       <c r="F176"/>
       <c r="G176" t="n">
-        <v>2</v>
+        <v>750</v>
       </c>
       <c r="H176" t="n">
-        <v>11989</v>
+        <v>6064516</v>
       </c>
       <c r="I176" t="n">
-        <v>38.125</v>
-      </c>
-      <c r="J176"/>
-      <c r="K176"/>
+        <v>1740.101</v>
+      </c>
+      <c r="J176" t="n">
+        <v>3466</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0.995</v>
+      </c>
       <c r="L176" t="n">
-        <v>76</v>
+        <v>6642</v>
       </c>
       <c r="M176" t="n">
-        <v>0.242</v>
+        <v>1.906</v>
       </c>
       <c r="N176" t="n">
-        <v>0.0132</v>
+        <v>0.0945</v>
       </c>
       <c r="O176" t="n">
-        <v>76</v>
+        <v>10.6</v>
       </c>
       <c r="P176" t="s">
-        <v>924</v>
+        <v>237</v>
       </c>
       <c r="Q176" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="R176" t="s">
-        <v>316</v>
+        <v>61</v>
       </c>
       <c r="S176" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B177" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>44661</v>
+        <v>44619</v>
       </c>
       <c r="D177" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E177" t="s">
-        <v>930</v>
+        <v>53</v>
       </c>
       <c r="F177"/>
       <c r="G177" t="n">
-        <v>161</v>
+        <v>2</v>
       </c>
       <c r="H177" t="n">
-        <v>85007902</v>
+        <v>11989</v>
       </c>
       <c r="I177" t="n">
-        <v>865.936</v>
+        <v>38.125</v>
       </c>
       <c r="J177"/>
       <c r="K177"/>
       <c r="L177" t="n">
-        <v>62196</v>
+        <v>76</v>
       </c>
       <c r="M177" t="n">
-        <v>0.634</v>
+        <v>0.242</v>
       </c>
       <c r="N177" t="n">
-        <v>0.8726</v>
+        <v>0.0132</v>
       </c>
       <c r="O177" t="n">
-        <v>1.1</v>
+        <v>76</v>
       </c>
       <c r="P177" t="s">
         <v>931</v>
@@ -12996,7 +13019,7 @@
         <v>932</v>
       </c>
       <c r="R177" t="s">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="S177" t="s">
         <v>933</v>
@@ -13010,151 +13033,204 @@
         <v>935</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>44632</v>
+        <v>44661</v>
       </c>
       <c r="D178" t="s">
-        <v>21</v>
+        <v>936</v>
       </c>
       <c r="E178" t="s">
-        <v>22</v>
+        <v>937</v>
       </c>
       <c r="F178"/>
       <c r="G178" t="n">
-        <v>2</v>
+        <v>161</v>
       </c>
       <c r="H178" t="n">
-        <v>329592</v>
+        <v>85007902</v>
       </c>
       <c r="I178" t="n">
-        <v>10.81</v>
+        <v>865.936</v>
       </c>
       <c r="J178"/>
       <c r="K178"/>
       <c r="L178" t="n">
-        <v>0</v>
+        <v>62196</v>
       </c>
       <c r="M178" t="n">
-        <v>0</v>
-      </c>
-      <c r="N178"/>
-      <c r="O178"/>
+        <v>0.634</v>
+      </c>
+      <c r="N178" t="n">
+        <v>0.8726</v>
+      </c>
+      <c r="O178" t="n">
+        <v>1.1</v>
+      </c>
       <c r="P178" t="s">
-        <v>23</v>
+        <v>938</v>
       </c>
       <c r="Q178" t="s">
-        <v>24</v>
+        <v>939</v>
       </c>
       <c r="R178" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="S178" t="s">
-        <v>26</v>
+        <v>940</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="B179" t="s">
-        <v>937</v>
+        <v>942</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>44659</v>
+        <v>44632</v>
       </c>
       <c r="D179" t="s">
-        <v>938</v>
+        <v>21</v>
       </c>
       <c r="E179" t="s">
-        <v>939</v>
+        <v>22</v>
       </c>
       <c r="F179"/>
       <c r="G179" t="n">
-        <v>722</v>
+        <v>2</v>
       </c>
       <c r="H179" t="n">
-        <v>3376838</v>
+        <v>329592</v>
       </c>
       <c r="I179" t="n">
-        <v>178.474</v>
-      </c>
-      <c r="J179" t="n">
-        <v>2861</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.151</v>
-      </c>
+        <v>10.81</v>
+      </c>
+      <c r="J179"/>
+      <c r="K179"/>
       <c r="L179" t="n">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="M179" t="n">
-        <v>0.127</v>
+        <v>0</v>
       </c>
       <c r="N179"/>
       <c r="O179"/>
       <c r="P179" t="s">
-        <v>940</v>
+        <v>23</v>
       </c>
       <c r="Q179" t="s">
-        <v>938</v>
+        <v>24</v>
       </c>
       <c r="R179" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S179" t="s">
-        <v>941</v>
+        <v>26</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B180" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>44661</v>
+        <v>44659</v>
       </c>
       <c r="D180" t="s">
-        <v>35</v>
+        <v>945</v>
       </c>
       <c r="E180" t="s">
-        <v>36</v>
+        <v>946</v>
       </c>
       <c r="F180"/>
       <c r="G180" t="n">
-        <v>657</v>
+        <v>722</v>
       </c>
       <c r="H180" t="n">
-        <v>2213383</v>
+        <v>3376838</v>
       </c>
       <c r="I180" t="n">
-        <v>146.658</v>
-      </c>
-      <c r="J180"/>
-      <c r="K180"/>
+        <v>178.474</v>
+      </c>
+      <c r="J180" t="n">
+        <v>2861</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0.151</v>
+      </c>
       <c r="L180" t="n">
-        <v>2968</v>
+        <v>2404</v>
       </c>
       <c r="M180" t="n">
-        <v>0.197</v>
-      </c>
-      <c r="N180" t="n">
-        <v>0.0208</v>
-      </c>
-      <c r="O180" t="n">
-        <v>48</v>
-      </c>
+        <v>0.127</v>
+      </c>
+      <c r="N180"/>
+      <c r="O180"/>
       <c r="P180" t="s">
-        <v>36</v>
+        <v>947</v>
       </c>
       <c r="Q180" t="s">
-        <v>37</v>
+        <v>945</v>
       </c>
       <c r="R180" t="s">
         <v>61</v>
       </c>
       <c r="S180" t="s">
-        <v>944</v>
+        <v>948</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>949</v>
+      </c>
+      <c r="B181" t="s">
+        <v>950</v>
+      </c>
+      <c r="C181" s="1" t="n">
+        <v>44661</v>
+      </c>
+      <c r="D181" t="s">
+        <v>35</v>
+      </c>
+      <c r="E181" t="s">
+        <v>36</v>
+      </c>
+      <c r="F181"/>
+      <c r="G181" t="n">
+        <v>657</v>
+      </c>
+      <c r="H181" t="n">
+        <v>2213383</v>
+      </c>
+      <c r="I181" t="n">
+        <v>146.658</v>
+      </c>
+      <c r="J181"/>
+      <c r="K181"/>
+      <c r="L181" t="n">
+        <v>2968</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="N181" t="n">
+        <v>0.0208</v>
+      </c>
+      <c r="O181" t="n">
+        <v>48</v>
+      </c>
+      <c r="P181" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>37</v>
+      </c>
+      <c r="R181" t="s">
+        <v>61</v>
+      </c>
+      <c r="S181" t="s">
+        <v>951</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="958">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -806,6 +806,24 @@
 Antigen tests cannot be used to confirm cases of COVID-19, according to an [article](http://en.granma.cu/cuba/2021-01-26/antigen-testing-of-suspected-covid-19-patients-in-havana) published by the Communist Party of Cuba Central Committee: "patients whose antigen test is negative are referred to hospitals specialized in treating non-COVID related respiratory illnesses, while those testing positive are transferred to isolation centers for suspected cases, where they will be given a PCR test, to definitively confirm whether or not they have been infected with the SARS-COV-2 virus"'. Testing figures refer to the number of PCR tests, according to our [source](https://covid19cubadata.github.io/#cuba). This is corroborated by the fact that the number of cases is equal to the number of positive test results reported by the [Ministry of Health](https://salud.msp.gob.cu/category/covid-19/).
 The context in which the figures are published suggests that the number of tests performed may be equivalent to the number of individuals tested. A breakdown into positive and negative results is given, along with a positive test rate. It is also unclear whether the reported figures include tests for which the results are pending.
 Our data for this series is sourced from a non-official repository of official data. As explained in our [FAQ here](https://ourworldindata.org/coronavirus-testing#do-you-rely-on-any-non-official-sources) we regularly audit the accuracy of this repository against direct official channels.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curacao - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/MinistryofHealthCuracao/posts/3102830756634939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Health Curacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/MinistryofHealthCuracao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Curacao Ministry of Health publishes situation reports on its official Facebook [page](https://www.facebook.com/MinistryofHealthCuracao), from which we construct a time series of the number of laborartory tests performed.</t>
   </si>
   <si>
     <t xml:space="preserve">CYP</t>
@@ -5774,160 +5792,160 @@
         <v>242</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44661</v>
+        <v>44659</v>
       </c>
       <c r="D43" t="s">
         <v>243</v>
       </c>
       <c r="E43" t="s">
-        <v>53</v>
+        <v>244</v>
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>744</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
-        <v>29230119</v>
+        <v>4642</v>
       </c>
       <c r="I43" t="n">
-        <v>32622.719</v>
+        <v>28.168</v>
       </c>
       <c r="J43" t="n">
-        <v>57728</v>
+        <v>3300</v>
       </c>
       <c r="K43" t="n">
-        <v>64.428</v>
+        <v>20.025</v>
       </c>
       <c r="L43" t="n">
-        <v>77249</v>
+        <v>13</v>
       </c>
       <c r="M43" t="n">
-        <v>86.215</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0.0326</v>
-      </c>
-      <c r="O43" t="n">
-        <v>30.7</v>
-      </c>
+        <v>0.079</v>
+      </c>
+      <c r="N43"/>
+      <c r="O43"/>
       <c r="P43" t="s">
         <v>53</v>
       </c>
       <c r="Q43" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="R43" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S43" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B44" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>44661</v>
       </c>
       <c r="D44" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E44" t="s">
         <v>53</v>
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>679</v>
+        <v>744</v>
       </c>
       <c r="H44" t="n">
-        <v>53999351</v>
+        <v>29230119</v>
       </c>
       <c r="I44" t="n">
-        <v>5035.114</v>
+        <v>32622.719</v>
       </c>
       <c r="J44" t="n">
-        <v>7658</v>
+        <v>57728</v>
       </c>
       <c r="K44" t="n">
-        <v>0.714</v>
+        <v>64.428</v>
       </c>
       <c r="L44" t="n">
-        <v>21329</v>
+        <v>77249</v>
       </c>
       <c r="M44" t="n">
-        <v>1.989</v>
+        <v>86.215</v>
       </c>
       <c r="N44" t="n">
-        <v>0.21</v>
+        <v>0.0326</v>
       </c>
       <c r="O44" t="n">
-        <v>4.8</v>
+        <v>30.7</v>
       </c>
       <c r="P44" t="s">
         <v>53</v>
       </c>
       <c r="Q44" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="R44" t="s">
         <v>61</v>
       </c>
       <c r="S44" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B45" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>44428</v>
+        <v>44661</v>
       </c>
       <c r="D45" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E45" t="s">
-        <v>252</v>
+        <v>53</v>
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>466</v>
-      </c>
-      <c r="H45"/>
-      <c r="I45"/>
+        <v>679</v>
+      </c>
+      <c r="H45" t="n">
+        <v>53999351</v>
+      </c>
+      <c r="I45" t="n">
+        <v>5035.114</v>
+      </c>
       <c r="J45" t="n">
-        <v>2098</v>
+        <v>7658</v>
       </c>
       <c r="K45" t="n">
-        <v>0.023</v>
+        <v>0.714</v>
       </c>
       <c r="L45" t="n">
-        <v>2085</v>
+        <v>21329</v>
       </c>
       <c r="M45" t="n">
-        <v>0.023</v>
+        <v>1.989</v>
       </c>
       <c r="N45" t="n">
-        <v>0.0636</v>
+        <v>0.21</v>
       </c>
       <c r="O45" t="n">
-        <v>15.7</v>
+        <v>4.8</v>
       </c>
       <c r="P45" t="s">
-        <v>252</v>
+        <v>53</v>
       </c>
       <c r="Q45" t="s">
         <v>253</v>
       </c>
       <c r="R45" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="S45" t="s">
         <v>254</v>
@@ -5941,7 +5959,7 @@
         <v>256</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>44661</v>
+        <v>44428</v>
       </c>
       <c r="D46" t="s">
         <v>257</v>
@@ -5951,143 +5969,143 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>783</v>
-      </c>
-      <c r="H46" t="n">
-        <v>66812606</v>
-      </c>
-      <c r="I46" t="n">
-        <v>11493.056</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="H46"/>
+      <c r="I46"/>
       <c r="J46" t="n">
-        <v>11776</v>
+        <v>2098</v>
       </c>
       <c r="K46" t="n">
-        <v>2.026</v>
+        <v>0.023</v>
       </c>
       <c r="L46" t="n">
-        <v>20173</v>
+        <v>2085</v>
       </c>
       <c r="M46" t="n">
-        <v>3.47</v>
+        <v>0.023</v>
       </c>
       <c r="N46" t="n">
-        <v>0.1306</v>
+        <v>0.0636</v>
       </c>
       <c r="O46" t="n">
-        <v>7.7</v>
+        <v>15.7</v>
       </c>
       <c r="P46" t="s">
         <v>258</v>
       </c>
       <c r="Q46" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="R46" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="S46" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B47" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>44661</v>
       </c>
       <c r="D47" t="s">
-        <v>35</v>
+        <v>263</v>
       </c>
       <c r="E47" t="s">
-        <v>36</v>
+        <v>264</v>
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>18</v>
+        <v>783</v>
       </c>
       <c r="H47" t="n">
-        <v>300468</v>
+        <v>66812606</v>
       </c>
       <c r="I47" t="n">
-        <v>299.809</v>
-      </c>
-      <c r="J47"/>
-      <c r="K47"/>
+        <v>11493.056</v>
+      </c>
+      <c r="J47" t="n">
+        <v>11776</v>
+      </c>
+      <c r="K47" t="n">
+        <v>2.026</v>
+      </c>
       <c r="L47" t="n">
-        <v>280</v>
+        <v>20173</v>
       </c>
       <c r="M47" t="n">
-        <v>0.279</v>
+        <v>3.47</v>
       </c>
       <c r="N47" t="n">
-        <v>0.002</v>
+        <v>0.1306</v>
       </c>
       <c r="O47" t="n">
-        <v>490.4</v>
+        <v>7.7</v>
       </c>
       <c r="P47" t="s">
-        <v>36</v>
+        <v>264</v>
       </c>
       <c r="Q47" t="s">
-        <v>37</v>
+        <v>263</v>
       </c>
       <c r="R47" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="S47" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B48" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>44657</v>
+        <v>44661</v>
       </c>
       <c r="D48" t="s">
-        <v>265</v>
+        <v>35</v>
       </c>
       <c r="E48" t="s">
-        <v>266</v>
+        <v>36</v>
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H48" t="n">
-        <v>185863</v>
+        <v>300468</v>
       </c>
       <c r="I48" t="n">
-        <v>2575.279</v>
+        <v>299.809</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M48" t="n">
-        <v>3.838</v>
+        <v>0.279</v>
       </c>
       <c r="N48" t="n">
-        <v>0.0299</v>
+        <v>0.002</v>
       </c>
       <c r="O48" t="n">
-        <v>33.4</v>
+        <v>490.4</v>
       </c>
       <c r="P48" t="s">
-        <v>266</v>
+        <v>36</v>
       </c>
       <c r="Q48" t="s">
-        <v>267</v>
+        <v>37</v>
       </c>
       <c r="R48" t="s">
         <v>25</v>
@@ -6104,7 +6122,7 @@
         <v>270</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>44652</v>
+        <v>44657</v>
       </c>
       <c r="D49" t="s">
         <v>271</v>
@@ -6114,31 +6132,27 @@
       </c>
       <c r="F49"/>
       <c r="G49" t="n">
-        <v>481</v>
+        <v>4</v>
       </c>
       <c r="H49" t="n">
-        <v>3228620</v>
+        <v>185863</v>
       </c>
       <c r="I49" t="n">
-        <v>294.751</v>
-      </c>
-      <c r="J49" t="n">
-        <v>3418</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.312</v>
-      </c>
+        <v>2575.279</v>
+      </c>
+      <c r="J49"/>
+      <c r="K49"/>
       <c r="L49" t="n">
-        <v>2810</v>
+        <v>277</v>
       </c>
       <c r="M49" t="n">
-        <v>0.257</v>
+        <v>3.838</v>
       </c>
       <c r="N49" t="n">
-        <v>0.0232</v>
+        <v>0.0299</v>
       </c>
       <c r="O49" t="n">
-        <v>43</v>
+        <v>33.4</v>
       </c>
       <c r="P49" t="s">
         <v>272</v>
@@ -6147,7 +6161,7 @@
         <v>273</v>
       </c>
       <c r="R49" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="S49" t="s">
         <v>274</v>
@@ -6161,7 +6175,7 @@
         <v>276</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44657</v>
+        <v>44652</v>
       </c>
       <c r="D50" t="s">
         <v>277</v>
@@ -6169,373 +6183,377 @@
       <c r="E50" t="s">
         <v>278</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50"/>
+      <c r="G50" t="n">
+        <v>481</v>
+      </c>
+      <c r="H50" t="n">
+        <v>3228620</v>
+      </c>
+      <c r="I50" t="n">
+        <v>294.751</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3418</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.312</v>
+      </c>
+      <c r="L50" t="n">
+        <v>2810</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.0232</v>
+      </c>
+      <c r="O50" t="n">
+        <v>43</v>
+      </c>
+      <c r="P50" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q50" t="s">
         <v>279</v>
       </c>
-      <c r="G50" t="n">
-        <v>745</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2668484</v>
-      </c>
-      <c r="I50" t="n">
-        <v>149.173</v>
-      </c>
-      <c r="J50" t="n">
-        <v>3173</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="L50" t="n">
-        <v>2745</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.153</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0.127</v>
-      </c>
-      <c r="O50" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="P50" t="s">
+      <c r="R50" t="s">
+        <v>136</v>
+      </c>
+      <c r="S50" t="s">
         <v>280</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>281</v>
-      </c>
-      <c r="R50" t="s">
-        <v>45</v>
-      </c>
-      <c r="S50" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>281</v>
+      </c>
+      <c r="B51" t="s">
+        <v>282</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>44657</v>
+      </c>
+      <c r="D51" t="s">
         <v>283</v>
       </c>
-      <c r="B51" t="s">
+      <c r="E51" t="s">
         <v>284</v>
       </c>
-      <c r="C51" s="1" t="n">
-        <v>44652</v>
-      </c>
-      <c r="D51" t="s">
-        <v>35</v>
-      </c>
-      <c r="E51" t="s">
-        <v>36</v>
-      </c>
-      <c r="F51"/>
+      <c r="F51" t="s">
+        <v>285</v>
+      </c>
       <c r="G51" t="n">
-        <v>5</v>
+        <v>745</v>
       </c>
       <c r="H51" t="n">
-        <v>6122287</v>
+        <v>2668484</v>
       </c>
       <c r="I51" t="n">
-        <v>58.722</v>
-      </c>
-      <c r="J51"/>
-      <c r="K51"/>
+        <v>149.173</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3173</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.177</v>
+      </c>
       <c r="L51" t="n">
-        <v>13672</v>
+        <v>2745</v>
       </c>
       <c r="M51" t="n">
-        <v>0.131</v>
+        <v>0.153</v>
       </c>
       <c r="N51" t="n">
-        <v>0.0457</v>
+        <v>0.127</v>
       </c>
       <c r="O51" t="n">
-        <v>21.9</v>
+        <v>7.9</v>
       </c>
       <c r="P51" t="s">
-        <v>36</v>
+        <v>286</v>
       </c>
       <c r="Q51" t="s">
-        <v>37</v>
+        <v>287</v>
       </c>
       <c r="R51" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="S51" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B52" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44660</v>
+        <v>44652</v>
       </c>
       <c r="D52" t="s">
-        <v>288</v>
+        <v>35</v>
       </c>
       <c r="E52" t="s">
-        <v>289</v>
+        <v>36</v>
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>583</v>
+        <v>5</v>
       </c>
       <c r="H52" t="n">
-        <v>1587200</v>
+        <v>6122287</v>
       </c>
       <c r="I52" t="n">
-        <v>243.492</v>
-      </c>
-      <c r="J52" t="n">
-        <v>4644</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.712</v>
-      </c>
+        <v>58.722</v>
+      </c>
+      <c r="J52"/>
+      <c r="K52"/>
       <c r="L52" t="n">
-        <v>4654</v>
+        <v>13672</v>
       </c>
       <c r="M52" t="n">
-        <v>0.714</v>
+        <v>0.131</v>
       </c>
       <c r="N52" t="n">
-        <v>0.004</v>
+        <v>0.0457</v>
       </c>
       <c r="O52" t="n">
-        <v>250</v>
+        <v>21.9</v>
       </c>
       <c r="P52" t="s">
-        <v>289</v>
+        <v>36</v>
       </c>
       <c r="Q52" t="s">
-        <v>288</v>
+        <v>37</v>
       </c>
       <c r="R52" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S52" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B53" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44652</v>
+        <v>44660</v>
       </c>
       <c r="D53" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E53" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>75</v>
+        <v>583</v>
       </c>
       <c r="H53" t="n">
-        <v>473409</v>
+        <v>1587200</v>
       </c>
       <c r="I53" t="n">
-        <v>326.514</v>
-      </c>
-      <c r="J53"/>
-      <c r="K53"/>
+        <v>243.492</v>
+      </c>
+      <c r="J53" t="n">
+        <v>4644</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.712</v>
+      </c>
       <c r="L53" t="n">
-        <v>246</v>
+        <v>4654</v>
       </c>
       <c r="M53" t="n">
-        <v>0.17</v>
+        <v>0.714</v>
       </c>
       <c r="N53" t="n">
-        <v>0.0006</v>
+        <v>0.004</v>
       </c>
       <c r="O53" t="n">
-        <v>1720.3</v>
+        <v>250</v>
       </c>
       <c r="P53" t="s">
-        <v>36</v>
+        <v>295</v>
       </c>
       <c r="Q53" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R53" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="S53" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B54" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>44627</v>
+        <v>44652</v>
       </c>
       <c r="D54" t="s">
-        <v>35</v>
+        <v>299</v>
       </c>
       <c r="E54" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="H54" t="n">
-        <v>23693</v>
+        <v>473409</v>
       </c>
       <c r="I54" t="n">
-        <v>6.579</v>
+        <v>326.514</v>
       </c>
       <c r="J54"/>
       <c r="K54"/>
-      <c r="L54"/>
-      <c r="M54"/>
-      <c r="N54"/>
-      <c r="O54"/>
+      <c r="L54" t="n">
+        <v>246</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.0006</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1720.3</v>
+      </c>
       <c r="P54" t="s">
         <v>36</v>
       </c>
       <c r="Q54" t="s">
-        <v>37</v>
+        <v>299</v>
       </c>
       <c r="R54" t="s">
         <v>25</v>
       </c>
       <c r="S54" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B55" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44661</v>
+        <v>44627</v>
       </c>
       <c r="D55" t="s">
-        <v>301</v>
+        <v>35</v>
       </c>
       <c r="E55" t="s">
-        <v>302</v>
+        <v>36</v>
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>780</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>3294987</v>
+        <v>23693</v>
       </c>
       <c r="I55" t="n">
-        <v>2486.43</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1973</v>
-      </c>
-      <c r="K55" t="n">
-        <v>1.489</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3372</v>
-      </c>
-      <c r="M55" t="n">
-        <v>2.545</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0.2256</v>
-      </c>
-      <c r="O55" t="n">
-        <v>4.4</v>
-      </c>
+        <v>6.579</v>
+      </c>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
       <c r="P55" t="s">
-        <v>302</v>
+        <v>36</v>
       </c>
       <c r="Q55" t="s">
-        <v>301</v>
+        <v>37</v>
       </c>
       <c r="R55" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S55" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B56" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C56" s="1" t="n">
         <v>44661</v>
       </c>
       <c r="D56" t="s">
-        <v>35</v>
+        <v>307</v>
       </c>
       <c r="E56" t="s">
-        <v>36</v>
+        <v>308</v>
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>7</v>
+        <v>780</v>
       </c>
       <c r="H56" t="n">
-        <v>522740</v>
+        <v>3294987</v>
       </c>
       <c r="I56" t="n">
-        <v>445.884</v>
-      </c>
-      <c r="J56"/>
-      <c r="K56"/>
+        <v>2486.43</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1973</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1.489</v>
+      </c>
       <c r="L56" t="n">
-        <v>602</v>
+        <v>3372</v>
       </c>
       <c r="M56" t="n">
-        <v>0.513</v>
+        <v>2.545</v>
       </c>
       <c r="N56" t="n">
-        <v>0.0278</v>
+        <v>0.2256</v>
       </c>
       <c r="O56" t="n">
-        <v>36</v>
+        <v>4.4</v>
       </c>
       <c r="P56" t="s">
-        <v>36</v>
+        <v>308</v>
       </c>
       <c r="Q56" t="s">
-        <v>37</v>
+        <v>307</v>
       </c>
       <c r="R56" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="S56" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B57" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C57" s="1" t="n">
         <v>44661</v>
@@ -6548,80 +6566,80 @@
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>612</v>
+        <v>7</v>
       </c>
       <c r="H57" t="n">
-        <v>4701084</v>
+        <v>522740</v>
       </c>
       <c r="I57" t="n">
-        <v>39.882</v>
+        <v>445.884</v>
       </c>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57" t="n">
-        <v>4675</v>
+        <v>602</v>
       </c>
       <c r="M57" t="n">
-        <v>0.04</v>
+        <v>0.513</v>
       </c>
       <c r="N57" t="n">
-        <v>0.0071</v>
+        <v>0.0278</v>
       </c>
       <c r="O57" t="n">
-        <v>141.7</v>
+        <v>36</v>
       </c>
       <c r="P57" t="s">
-        <v>309</v>
+        <v>36</v>
       </c>
       <c r="Q57" t="s">
-        <v>310</v>
+        <v>37</v>
       </c>
       <c r="R57" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S57" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B58" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44618</v>
+        <v>44661</v>
       </c>
       <c r="D58" t="s">
-        <v>314</v>
+        <v>35</v>
       </c>
       <c r="E58" t="s">
-        <v>315</v>
+        <v>36</v>
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>31</v>
+        <v>612</v>
       </c>
       <c r="H58" t="n">
-        <v>777845</v>
+        <v>4701084</v>
       </c>
       <c r="I58" t="n">
-        <v>15857.236</v>
+        <v>39.882</v>
       </c>
       <c r="J58"/>
       <c r="K58"/>
       <c r="L58" t="n">
-        <v>539</v>
+        <v>4675</v>
       </c>
       <c r="M58" t="n">
-        <v>10.988</v>
+        <v>0.04</v>
       </c>
       <c r="N58" t="n">
-        <v>0.6621</v>
+        <v>0.0071</v>
       </c>
       <c r="O58" t="n">
-        <v>1.5</v>
+        <v>141.7</v>
       </c>
       <c r="P58" t="s">
         <v>315</v>
@@ -6630,56 +6648,60 @@
         <v>316</v>
       </c>
       <c r="R58" t="s">
+        <v>61</v>
+      </c>
+      <c r="S58" t="s">
         <v>317</v>
-      </c>
-      <c r="S58" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>318</v>
+      </c>
+      <c r="B59" t="s">
         <v>319</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" s="1" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D59" t="s">
         <v>320</v>
       </c>
-      <c r="C59" s="1" t="n">
-        <v>44661</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>321</v>
-      </c>
-      <c r="E59" t="s">
-        <v>322</v>
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>565</v>
+        <v>31</v>
       </c>
       <c r="H59" t="n">
-        <v>505948</v>
+        <v>777845</v>
       </c>
       <c r="I59" t="n">
-        <v>560.359</v>
+        <v>15857.236</v>
       </c>
       <c r="J59"/>
       <c r="K59"/>
       <c r="L59" t="n">
-        <v>105</v>
+        <v>539</v>
       </c>
       <c r="M59" t="n">
-        <v>0.116</v>
-      </c>
-      <c r="N59"/>
-      <c r="O59"/>
+        <v>10.988</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.6621</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.5</v>
+      </c>
       <c r="P59" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q59" t="s">
         <v>322</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="R59" t="s">
         <v>323</v>
-      </c>
-      <c r="R59" t="s">
-        <v>61</v>
       </c>
       <c r="S59" t="s">
         <v>324</v>
@@ -6693,7 +6715,7 @@
         <v>326</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44656</v>
+        <v>44661</v>
       </c>
       <c r="D60" t="s">
         <v>327</v>
@@ -6703,164 +6725,160 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>769</v>
+        <v>565</v>
       </c>
       <c r="H60" t="n">
-        <v>10512836</v>
+        <v>505948</v>
       </c>
       <c r="I60" t="n">
-        <v>1894.764</v>
-      </c>
-      <c r="J60" t="n">
-        <v>13100</v>
-      </c>
-      <c r="K60" t="n">
-        <v>2.361</v>
-      </c>
+        <v>560.359</v>
+      </c>
+      <c r="J60"/>
+      <c r="K60"/>
       <c r="L60" t="n">
-        <v>12208</v>
+        <v>105</v>
       </c>
       <c r="M60" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="N60" t="n">
-        <v>0.407</v>
-      </c>
-      <c r="O60" t="n">
-        <v>2.5</v>
-      </c>
+        <v>0.116</v>
+      </c>
+      <c r="N60"/>
+      <c r="O60"/>
       <c r="P60" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q60" t="s">
         <v>329</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>330</v>
       </c>
       <c r="R60" t="s">
         <v>61</v>
       </c>
       <c r="S60" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>331</v>
+      </c>
+      <c r="B61" t="s">
         <v>332</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" s="1" t="n">
+        <v>44656</v>
+      </c>
+      <c r="D61" t="s">
         <v>333</v>
       </c>
-      <c r="C61" s="1" t="n">
-        <v>44658</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>334</v>
-      </c>
-      <c r="E61" t="s">
-        <v>335</v>
       </c>
       <c r="F61"/>
       <c r="G61" t="n">
-        <v>695</v>
+        <v>769</v>
       </c>
       <c r="H61" t="n">
-        <v>262493786</v>
+        <v>10512836</v>
       </c>
       <c r="I61" t="n">
-        <v>3893.296</v>
+        <v>1894.764</v>
       </c>
       <c r="J61" t="n">
-        <v>485933</v>
+        <v>13100</v>
       </c>
       <c r="K61" t="n">
-        <v>7.207</v>
+        <v>2.361</v>
       </c>
       <c r="L61" t="n">
-        <v>448467</v>
+        <v>12208</v>
       </c>
       <c r="M61" t="n">
-        <v>6.652</v>
+        <v>2.2</v>
       </c>
       <c r="N61" t="n">
-        <v>0.316</v>
+        <v>0.407</v>
       </c>
       <c r="O61" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="P61" t="s">
         <v>335</v>
       </c>
       <c r="Q61" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="R61" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="S61" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B62" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44661</v>
+        <v>44658</v>
       </c>
       <c r="D62" t="s">
-        <v>35</v>
+        <v>340</v>
       </c>
       <c r="E62" t="s">
-        <v>36</v>
+        <v>341</v>
       </c>
       <c r="F62"/>
       <c r="G62" t="n">
-        <v>65</v>
+        <v>695</v>
       </c>
       <c r="H62" t="n">
-        <v>1589815</v>
+        <v>262493786</v>
       </c>
       <c r="I62" t="n">
-        <v>697.646</v>
-      </c>
-      <c r="J62"/>
-      <c r="K62"/>
+        <v>3893.296</v>
+      </c>
+      <c r="J62" t="n">
+        <v>485933</v>
+      </c>
+      <c r="K62" t="n">
+        <v>7.207</v>
+      </c>
       <c r="L62" t="n">
-        <v>164</v>
+        <v>448467</v>
       </c>
       <c r="M62" t="n">
-        <v>0.072</v>
+        <v>6.652</v>
       </c>
       <c r="N62" t="n">
-        <v>0.0017</v>
+        <v>0.316</v>
       </c>
       <c r="O62" t="n">
-        <v>573.4</v>
+        <v>3.2</v>
       </c>
       <c r="P62" t="s">
-        <v>36</v>
+        <v>341</v>
       </c>
       <c r="Q62" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="R62" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="S62" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B63" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44644</v>
+        <v>44661</v>
       </c>
       <c r="D63" t="s">
         <v>35</v>
@@ -6870,84 +6888,80 @@
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="H63" t="n">
-        <v>155686</v>
+        <v>1589815</v>
       </c>
       <c r="I63" t="n">
-        <v>62.602</v>
+        <v>697.646</v>
       </c>
       <c r="J63"/>
       <c r="K63"/>
       <c r="L63" t="n">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="M63" t="n">
-        <v>0.027</v>
+        <v>0.072</v>
       </c>
       <c r="N63" t="n">
-        <v>0.0105</v>
+        <v>0.0017</v>
       </c>
       <c r="O63" t="n">
-        <v>95.2</v>
+        <v>573.4</v>
       </c>
       <c r="P63" t="s">
-        <v>343</v>
+        <v>36</v>
       </c>
       <c r="Q63" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="R63" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="S63" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B64" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44658</v>
+        <v>44644</v>
       </c>
       <c r="D64" t="s">
-        <v>348</v>
+        <v>35</v>
       </c>
       <c r="E64" t="s">
-        <v>349</v>
+        <v>36</v>
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>441</v>
+        <v>77</v>
       </c>
       <c r="H64" t="n">
-        <v>13626698</v>
+        <v>155686</v>
       </c>
       <c r="I64" t="n">
-        <v>3423.989</v>
-      </c>
-      <c r="J64" t="n">
-        <v>22625</v>
-      </c>
-      <c r="K64" t="n">
-        <v>5.685</v>
-      </c>
+        <v>62.602</v>
+      </c>
+      <c r="J64"/>
+      <c r="K64"/>
       <c r="L64" t="n">
-        <v>4787</v>
+        <v>68</v>
       </c>
       <c r="M64" t="n">
-        <v>1.203</v>
+        <v>0.027</v>
       </c>
       <c r="N64" t="n">
-        <v>0.0729</v>
+        <v>0.0105</v>
       </c>
       <c r="O64" t="n">
-        <v>13.7</v>
+        <v>95.2</v>
       </c>
       <c r="P64" t="s">
         <v>349</v>
@@ -6956,7 +6970,7 @@
         <v>350</v>
       </c>
       <c r="R64" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="S64" t="s">
         <v>351</v>
@@ -6970,7 +6984,7 @@
         <v>353</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44654</v>
+        <v>44658</v>
       </c>
       <c r="D65" t="s">
         <v>354</v>
@@ -6980,27 +6994,31 @@
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>108</v>
+        <v>441</v>
       </c>
       <c r="H65" t="n">
-        <v>122262891</v>
+        <v>13626698</v>
       </c>
       <c r="I65" t="n">
-        <v>1457.237</v>
-      </c>
-      <c r="J65"/>
-      <c r="K65"/>
+        <v>3423.989</v>
+      </c>
+      <c r="J65" t="n">
+        <v>22625</v>
+      </c>
+      <c r="K65" t="n">
+        <v>5.685</v>
+      </c>
       <c r="L65" t="n">
-        <v>277585</v>
+        <v>4787</v>
       </c>
       <c r="M65" t="n">
-        <v>3.309</v>
+        <v>1.203</v>
       </c>
       <c r="N65" t="n">
-        <v>0.519</v>
+        <v>0.0729</v>
       </c>
       <c r="O65" t="n">
-        <v>1.9</v>
+        <v>13.7</v>
       </c>
       <c r="P65" t="s">
         <v>355</v>
@@ -7009,7 +7027,7 @@
         <v>356</v>
       </c>
       <c r="R65" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S65" t="s">
         <v>357</v>
@@ -7023,196 +7041,196 @@
         <v>359</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>44661</v>
+        <v>44654</v>
       </c>
       <c r="D66" t="s">
-        <v>35</v>
+        <v>360</v>
       </c>
       <c r="E66" t="s">
-        <v>36</v>
+        <v>361</v>
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>507</v>
+        <v>108</v>
       </c>
       <c r="H66" t="n">
-        <v>2426051</v>
+        <v>122262891</v>
       </c>
       <c r="I66" t="n">
-        <v>76.454</v>
+        <v>1457.237</v>
       </c>
       <c r="J66"/>
       <c r="K66"/>
       <c r="L66" t="n">
-        <v>645</v>
+        <v>277585</v>
       </c>
       <c r="M66" t="n">
-        <v>0.02</v>
+        <v>3.309</v>
       </c>
       <c r="N66" t="n">
-        <v>0.0171</v>
+        <v>0.519</v>
       </c>
       <c r="O66" t="n">
-        <v>58.6</v>
+        <v>1.9</v>
       </c>
       <c r="P66" t="s">
-        <v>36</v>
+        <v>361</v>
       </c>
       <c r="Q66" t="s">
-        <v>37</v>
+        <v>362</v>
       </c>
       <c r="R66" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="S66" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B67" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>44652</v>
+        <v>44661</v>
       </c>
       <c r="D67" t="s">
-        <v>363</v>
+        <v>35</v>
       </c>
       <c r="E67" t="s">
-        <v>364</v>
+        <v>36</v>
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>8</v>
+        <v>507</v>
       </c>
       <c r="H67" t="n">
-        <v>533268</v>
+        <v>2426051</v>
       </c>
       <c r="I67" t="n">
-        <v>15828.203</v>
+        <v>76.454</v>
       </c>
       <c r="J67"/>
       <c r="K67"/>
       <c r="L67" t="n">
-        <v>553</v>
+        <v>645</v>
       </c>
       <c r="M67" t="n">
-        <v>16.414</v>
+        <v>0.02</v>
       </c>
       <c r="N67" t="n">
-        <v>0.0858</v>
+        <v>0.0171</v>
       </c>
       <c r="O67" t="n">
-        <v>11.7</v>
+        <v>58.6</v>
       </c>
       <c r="P67" t="s">
-        <v>364</v>
+        <v>36</v>
       </c>
       <c r="Q67" t="s">
-        <v>363</v>
+        <v>37</v>
       </c>
       <c r="R67" t="s">
         <v>25</v>
       </c>
       <c r="S67" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B68" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>44661</v>
+        <v>44652</v>
       </c>
       <c r="D68" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E68" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>661</v>
+        <v>8</v>
       </c>
       <c r="H68" t="n">
-        <v>76515099</v>
+        <v>533268</v>
       </c>
       <c r="I68" t="n">
-        <v>7377.974</v>
+        <v>15828.203</v>
       </c>
       <c r="J68"/>
       <c r="K68"/>
       <c r="L68" t="n">
-        <v>249945</v>
+        <v>553</v>
       </c>
       <c r="M68" t="n">
-        <v>24.101</v>
+        <v>16.414</v>
       </c>
       <c r="N68" t="n">
-        <v>0.0548</v>
+        <v>0.0858</v>
       </c>
       <c r="O68" t="n">
-        <v>18.2</v>
+        <v>11.7</v>
       </c>
       <c r="P68" t="s">
         <v>370</v>
       </c>
       <c r="Q68" t="s">
+        <v>369</v>
+      </c>
+      <c r="R68" t="s">
+        <v>25</v>
+      </c>
+      <c r="S68" t="s">
         <v>371</v>
-      </c>
-      <c r="R68" t="s">
-        <v>136</v>
-      </c>
-      <c r="S68" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>372</v>
+      </c>
+      <c r="B69" t="s">
         <v>373</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" s="1" t="n">
+        <v>44661</v>
+      </c>
+      <c r="D69" t="s">
         <v>374</v>
       </c>
-      <c r="C69" s="1" t="n">
-        <v>44659</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>375</v>
-      </c>
-      <c r="E69" t="s">
-        <v>376</v>
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>661</v>
       </c>
       <c r="H69" t="n">
-        <v>145445</v>
+        <v>76515099</v>
       </c>
       <c r="I69" t="n">
-        <v>1286.953</v>
+        <v>7377.974</v>
       </c>
       <c r="J69"/>
       <c r="K69"/>
       <c r="L69" t="n">
-        <v>185</v>
+        <v>249945</v>
       </c>
       <c r="M69" t="n">
-        <v>1.637</v>
+        <v>24.101</v>
       </c>
       <c r="N69" t="n">
-        <v>0.0093</v>
+        <v>0.0548</v>
       </c>
       <c r="O69" t="n">
-        <v>107.9</v>
+        <v>18.2</v>
       </c>
       <c r="P69" t="s">
         <v>376</v>
@@ -7221,7 +7239,7 @@
         <v>377</v>
       </c>
       <c r="R69" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="S69" t="s">
         <v>378</v>
@@ -7235,7 +7253,7 @@
         <v>380</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44657</v>
+        <v>44659</v>
       </c>
       <c r="D70" t="s">
         <v>381</v>
@@ -7245,40 +7263,36 @@
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>756</v>
+        <v>2</v>
       </c>
       <c r="H70" t="n">
-        <v>279991</v>
+        <v>145445</v>
       </c>
       <c r="I70" t="n">
-        <v>1645.225</v>
-      </c>
-      <c r="J70" t="n">
-        <v>397</v>
-      </c>
-      <c r="K70" t="n">
-        <v>2.333</v>
-      </c>
+        <v>1286.953</v>
+      </c>
+      <c r="J70"/>
+      <c r="K70"/>
       <c r="L70" t="n">
-        <v>452</v>
+        <v>185</v>
       </c>
       <c r="M70" t="n">
-        <v>2.656</v>
+        <v>1.637</v>
       </c>
       <c r="N70" t="n">
-        <v>0.053</v>
+        <v>0.0093</v>
       </c>
       <c r="O70" t="n">
-        <v>18.9</v>
+        <v>107.9</v>
       </c>
       <c r="P70" t="s">
         <v>382</v>
       </c>
       <c r="Q70" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="R70" t="s">
-        <v>383</v>
+        <v>25</v>
       </c>
       <c r="S70" t="s">
         <v>384</v>
@@ -7292,7 +7306,7 @@
         <v>386</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44631</v>
+        <v>44657</v>
       </c>
       <c r="D71" t="s">
         <v>387</v>
@@ -7302,107 +7316,111 @@
       </c>
       <c r="F71"/>
       <c r="G71" t="n">
-        <v>740</v>
+        <v>756</v>
       </c>
       <c r="H71" t="n">
-        <v>4067775</v>
+        <v>279991</v>
       </c>
       <c r="I71" t="n">
-        <v>222.893</v>
+        <v>1645.225</v>
       </c>
       <c r="J71" t="n">
-        <v>10381</v>
+        <v>397</v>
       </c>
       <c r="K71" t="n">
-        <v>0.569</v>
+        <v>2.333</v>
       </c>
       <c r="L71" t="n">
-        <v>10008</v>
+        <v>452</v>
       </c>
       <c r="M71" t="n">
-        <v>0.548</v>
+        <v>2.656</v>
       </c>
       <c r="N71" t="n">
-        <v>0.1911</v>
+        <v>0.053</v>
       </c>
       <c r="O71" t="n">
-        <v>5.2</v>
+        <v>18.9</v>
       </c>
       <c r="P71" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>387</v>
+      </c>
+      <c r="R71" t="s">
         <v>389</v>
       </c>
-      <c r="Q71" t="s">
+      <c r="S71" t="s">
         <v>390</v>
-      </c>
-      <c r="R71" t="s">
-        <v>45</v>
-      </c>
-      <c r="S71" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>391</v>
+      </c>
+      <c r="B72" t="s">
         <v>392</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" s="1" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D72" t="s">
         <v>393</v>
       </c>
-      <c r="C72" s="1" t="n">
-        <v>44644</v>
-      </c>
-      <c r="D72" t="s">
-        <v>35</v>
-      </c>
       <c r="E72" t="s">
-        <v>36</v>
+        <v>394</v>
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>5</v>
+        <v>740</v>
       </c>
       <c r="H72" t="n">
-        <v>668971</v>
+        <v>4067775</v>
       </c>
       <c r="I72" t="n">
-        <v>49.564</v>
-      </c>
-      <c r="J72"/>
-      <c r="K72"/>
+        <v>222.893</v>
+      </c>
+      <c r="J72" t="n">
+        <v>10381</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.569</v>
+      </c>
       <c r="L72" t="n">
-        <v>644</v>
+        <v>10008</v>
       </c>
       <c r="M72" t="n">
-        <v>0.048</v>
+        <v>0.548</v>
       </c>
       <c r="N72" t="n">
-        <v>0.0053</v>
+        <v>0.1911</v>
       </c>
       <c r="O72" t="n">
-        <v>187.8</v>
+        <v>5.2</v>
       </c>
       <c r="P72" t="s">
-        <v>36</v>
+        <v>395</v>
       </c>
       <c r="Q72" t="s">
-        <v>37</v>
+        <v>396</v>
       </c>
       <c r="R72" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="S72" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B73" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44661</v>
+        <v>44644</v>
       </c>
       <c r="D73" t="s">
         <v>35</v>
@@ -7412,27 +7430,27 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H73" t="n">
-        <v>130662</v>
+        <v>668971</v>
       </c>
       <c r="I73" t="n">
-        <v>64.829</v>
+        <v>49.564</v>
       </c>
       <c r="J73"/>
       <c r="K73"/>
       <c r="L73" t="n">
-        <v>189</v>
+        <v>644</v>
       </c>
       <c r="M73" t="n">
-        <v>0.094</v>
+        <v>0.048</v>
       </c>
       <c r="N73" t="n">
-        <v>0.0166</v>
+        <v>0.0053</v>
       </c>
       <c r="O73" t="n">
-        <v>60.1</v>
+        <v>187.8</v>
       </c>
       <c r="P73" t="s">
         <v>36</v>
@@ -7444,54 +7462,54 @@
         <v>25</v>
       </c>
       <c r="S73" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B74" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>44582</v>
+        <v>44661</v>
       </c>
       <c r="D74" t="s">
-        <v>400</v>
+        <v>35</v>
       </c>
       <c r="E74" t="s">
-        <v>401</v>
+        <v>36</v>
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H74" t="n">
-        <v>442695</v>
+        <v>130662</v>
       </c>
       <c r="I74" t="n">
-        <v>560.14</v>
+        <v>64.829</v>
       </c>
       <c r="J74"/>
       <c r="K74"/>
       <c r="L74" t="n">
-        <v>2771</v>
+        <v>189</v>
       </c>
       <c r="M74" t="n">
-        <v>3.506</v>
+        <v>0.094</v>
       </c>
       <c r="N74" t="n">
-        <v>0.3388</v>
+        <v>0.0166</v>
       </c>
       <c r="O74" t="n">
-        <v>3</v>
+        <v>60.1</v>
       </c>
       <c r="P74" t="s">
-        <v>401</v>
+        <v>36</v>
       </c>
       <c r="Q74" t="s">
-        <v>402</v>
+        <v>37</v>
       </c>
       <c r="R74" t="s">
         <v>25</v>
@@ -7508,7 +7526,7 @@
         <v>405</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44653</v>
+        <v>44582</v>
       </c>
       <c r="D75" t="s">
         <v>406</v>
@@ -7518,256 +7536,250 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H75" t="n">
-        <v>190236</v>
+        <v>442695</v>
       </c>
       <c r="I75" t="n">
-        <v>16.483</v>
+        <v>560.14</v>
       </c>
       <c r="J75"/>
       <c r="K75"/>
       <c r="L75" t="n">
-        <v>318</v>
+        <v>2771</v>
       </c>
       <c r="M75" t="n">
-        <v>0.028</v>
+        <v>3.506</v>
       </c>
       <c r="N75" t="n">
-        <v>0.0171</v>
+        <v>0.3388</v>
       </c>
       <c r="O75" t="n">
-        <v>58.6</v>
+        <v>3</v>
       </c>
       <c r="P75" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q75" t="s">
         <v>408</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>409</v>
       </c>
       <c r="R75" t="s">
         <v>25</v>
       </c>
       <c r="S75" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>410</v>
+      </c>
+      <c r="B76" t="s">
         <v>411</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="D76" t="s">
         <v>412</v>
       </c>
-      <c r="C76" s="1" t="n">
-        <v>44649</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>413</v>
-      </c>
-      <c r="E76" t="s">
-        <v>414</v>
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H76" t="n">
-        <v>44972952</v>
+        <v>190236</v>
       </c>
       <c r="I76" t="n">
-        <v>5954.474</v>
+        <v>16.483</v>
       </c>
       <c r="J76"/>
       <c r="K76"/>
       <c r="L76" t="n">
-        <v>124703</v>
+        <v>318</v>
       </c>
       <c r="M76" t="n">
-        <v>16.511</v>
+        <v>0.028</v>
       </c>
       <c r="N76" t="n">
-        <v>0.24</v>
+        <v>0.0171</v>
       </c>
       <c r="O76" t="n">
-        <v>4.2</v>
+        <v>58.6</v>
       </c>
       <c r="P76" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q76" t="s">
         <v>415</v>
       </c>
-      <c r="Q76" t="s">
+      <c r="R76" t="s">
+        <v>25</v>
+      </c>
+      <c r="S76" t="s">
         <v>416</v>
-      </c>
-      <c r="R76" t="s">
-        <v>61</v>
-      </c>
-      <c r="S76" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>417</v>
+      </c>
+      <c r="B77" t="s">
         <v>418</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" s="1" t="n">
+        <v>44649</v>
+      </c>
+      <c r="D77" t="s">
         <v>419</v>
       </c>
-      <c r="C77" s="1" t="n">
-        <v>44662</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>420</v>
       </c>
-      <c r="E77" t="s">
-        <v>421</v>
-      </c>
-      <c r="F77" t="s">
-        <v>422</v>
-      </c>
+      <c r="F77"/>
       <c r="G77" t="n">
-        <v>673</v>
+        <v>29</v>
       </c>
       <c r="H77" t="n">
-        <v>10770194</v>
+        <v>44972952</v>
       </c>
       <c r="I77" t="n">
-        <v>1117.917</v>
-      </c>
-      <c r="J77" t="n">
-        <v>29137</v>
-      </c>
-      <c r="K77" t="n">
-        <v>3.024</v>
-      </c>
+        <v>5954.474</v>
+      </c>
+      <c r="J77"/>
+      <c r="K77"/>
       <c r="L77" t="n">
-        <v>9998</v>
+        <v>124703</v>
       </c>
       <c r="M77" t="n">
-        <v>1.038</v>
-      </c>
-      <c r="N77"/>
-      <c r="O77"/>
+        <v>16.511</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="O77" t="n">
+        <v>4.2</v>
+      </c>
       <c r="P77" t="s">
         <v>421</v>
       </c>
       <c r="Q77" t="s">
+        <v>422</v>
+      </c>
+      <c r="R77" t="s">
+        <v>61</v>
+      </c>
+      <c r="S77" t="s">
         <v>423</v>
-      </c>
-      <c r="R77" t="s">
-        <v>136</v>
-      </c>
-      <c r="S77" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>424</v>
+      </c>
+      <c r="B78" t="s">
         <v>425</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" s="1" t="n">
+        <v>44662</v>
+      </c>
+      <c r="D78" t="s">
         <v>426</v>
       </c>
-      <c r="C78" s="1" t="n">
-        <v>44658</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>427</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>428</v>
       </c>
-      <c r="F78"/>
       <c r="G78" t="n">
-        <v>767</v>
+        <v>673</v>
       </c>
       <c r="H78" t="n">
-        <v>1301870</v>
+        <v>10770194</v>
       </c>
       <c r="I78" t="n">
-        <v>3530.093</v>
+        <v>1117.917</v>
       </c>
       <c r="J78" t="n">
-        <v>1295</v>
+        <v>29137</v>
       </c>
       <c r="K78" t="n">
-        <v>3.511</v>
+        <v>3.024</v>
       </c>
       <c r="L78" t="n">
-        <v>1157</v>
+        <v>9998</v>
       </c>
       <c r="M78" t="n">
-        <v>3.137</v>
+        <v>1.038</v>
       </c>
       <c r="N78"/>
       <c r="O78"/>
       <c r="P78" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Q78" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="R78" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="S78" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B79" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>44661</v>
+        <v>44658</v>
       </c>
       <c r="D79" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E79" t="s">
+        <v>434</v>
+      </c>
+      <c r="F79"/>
+      <c r="G79" t="n">
+        <v>767</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1301870</v>
+      </c>
+      <c r="I79" t="n">
+        <v>3530.093</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1295</v>
+      </c>
+      <c r="K79" t="n">
+        <v>3.511</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1157</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3.137</v>
+      </c>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q79" t="s">
         <v>433</v>
       </c>
-      <c r="F79" t="s">
-        <v>434</v>
-      </c>
-      <c r="G79" t="n">
-        <v>740</v>
-      </c>
-      <c r="H79" t="n">
-        <v>793847740</v>
-      </c>
-      <c r="I79" t="n">
-        <v>569.716</v>
-      </c>
-      <c r="J79" t="n">
-        <v>418345</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L79" t="n">
-        <v>440408</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.316</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0.0023</v>
-      </c>
-      <c r="O79" t="n">
-        <v>434.9</v>
-      </c>
-      <c r="P79" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>432</v>
-      </c>
       <c r="R79" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="S79" t="s">
         <v>435</v>
@@ -7781,7 +7793,7 @@
         <v>437</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44641</v>
+        <v>44661</v>
       </c>
       <c r="D80" t="s">
         <v>438</v>
@@ -7789,42 +7801,44 @@
       <c r="E80" t="s">
         <v>439</v>
       </c>
-      <c r="F80"/>
+      <c r="F80" t="s">
+        <v>440</v>
+      </c>
       <c r="G80" t="n">
-        <v>371</v>
+        <v>740</v>
       </c>
       <c r="H80" t="n">
-        <v>59503735</v>
+        <v>793847740</v>
       </c>
       <c r="I80" t="n">
-        <v>215.311</v>
+        <v>569.716</v>
       </c>
       <c r="J80" t="n">
-        <v>103179</v>
+        <v>418345</v>
       </c>
       <c r="K80" t="n">
-        <v>0.373</v>
+        <v>0.3</v>
       </c>
       <c r="L80" t="n">
-        <v>114413</v>
+        <v>440408</v>
       </c>
       <c r="M80" t="n">
-        <v>0.414</v>
+        <v>0.316</v>
       </c>
       <c r="N80" t="n">
-        <v>0.0837</v>
+        <v>0.0023</v>
       </c>
       <c r="O80" t="n">
-        <v>11.9</v>
+        <v>434.9</v>
       </c>
       <c r="P80" t="s">
         <v>439</v>
       </c>
       <c r="Q80" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="R80" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="S80" t="s">
         <v>441</v>
@@ -7838,7 +7852,7 @@
         <v>443</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>44662</v>
+        <v>44641</v>
       </c>
       <c r="D81" t="s">
         <v>444</v>
@@ -7848,141 +7862,145 @@
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>455</v>
+        <v>371</v>
       </c>
       <c r="H81" t="n">
-        <v>50079995</v>
+        <v>59503735</v>
       </c>
       <c r="I81" t="n">
-        <v>588.977</v>
-      </c>
-      <c r="J81"/>
-      <c r="K81"/>
+        <v>215.311</v>
+      </c>
+      <c r="J81" t="n">
+        <v>103179</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.373</v>
+      </c>
       <c r="L81" t="n">
-        <v>60152</v>
+        <v>114413</v>
       </c>
       <c r="M81" t="n">
-        <v>0.707</v>
-      </c>
-      <c r="N81"/>
-      <c r="O81"/>
+        <v>0.414</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.0837</v>
+      </c>
+      <c r="O81" t="n">
+        <v>11.9</v>
+      </c>
       <c r="P81" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q81" t="s">
         <v>446</v>
       </c>
-      <c r="Q81" t="s">
+      <c r="R81" t="s">
+        <v>45</v>
+      </c>
+      <c r="S81" t="s">
         <v>447</v>
-      </c>
-      <c r="R81" t="s">
-        <v>61</v>
-      </c>
-      <c r="S81" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>448</v>
+      </c>
+      <c r="B82" t="s">
         <v>449</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" s="1" t="n">
+        <v>44662</v>
+      </c>
+      <c r="D82" t="s">
         <v>450</v>
       </c>
-      <c r="C82" s="1" t="n">
-        <v>44632</v>
-      </c>
-      <c r="D82" t="s">
-        <v>21</v>
-      </c>
       <c r="E82" t="s">
-        <v>22</v>
+        <v>451</v>
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
-        <v>562</v>
+        <v>455</v>
       </c>
       <c r="H82" t="n">
-        <v>18137544</v>
+        <v>50079995</v>
       </c>
       <c r="I82" t="n">
-        <v>440.452</v>
+        <v>588.977</v>
       </c>
       <c r="J82"/>
       <c r="K82"/>
       <c r="L82" t="n">
-        <v>13480</v>
+        <v>60152</v>
       </c>
       <c r="M82" t="n">
-        <v>0.327</v>
-      </c>
-      <c r="N82" t="n">
-        <v>0.0502</v>
-      </c>
-      <c r="O82" t="n">
-        <v>19.9</v>
-      </c>
+        <v>0.707</v>
+      </c>
+      <c r="N82"/>
+      <c r="O82"/>
       <c r="P82" t="s">
-        <v>23</v>
+        <v>452</v>
       </c>
       <c r="Q82" t="s">
-        <v>24</v>
+        <v>453</v>
       </c>
       <c r="R82" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="S82" t="s">
-        <v>26</v>
+        <v>454</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B83" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44662</v>
+        <v>44632</v>
       </c>
       <c r="D83" t="s">
-        <v>453</v>
+        <v>21</v>
       </c>
       <c r="E83" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>755</v>
+        <v>562</v>
       </c>
       <c r="H83" t="n">
-        <v>11933915</v>
+        <v>18137544</v>
       </c>
       <c r="I83" t="n">
-        <v>2394.972</v>
-      </c>
-      <c r="J83" t="n">
-        <v>6587</v>
-      </c>
-      <c r="K83" t="n">
-        <v>1.322</v>
-      </c>
+        <v>440.452</v>
+      </c>
+      <c r="J83"/>
+      <c r="K83"/>
       <c r="L83" t="n">
-        <v>9813</v>
+        <v>13480</v>
       </c>
       <c r="M83" t="n">
-        <v>1.969</v>
-      </c>
-      <c r="N83"/>
-      <c r="O83"/>
+        <v>0.327</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.0502</v>
+      </c>
+      <c r="O83" t="n">
+        <v>19.9</v>
+      </c>
       <c r="P83" t="s">
-        <v>454</v>
+        <v>23</v>
       </c>
       <c r="Q83" t="s">
-        <v>455</v>
+        <v>24</v>
       </c>
       <c r="R83" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S83" t="s">
-        <v>456</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84">
@@ -7993,7 +8011,7 @@
         <v>458</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44661</v>
+        <v>44662</v>
       </c>
       <c r="D84" t="s">
         <v>459</v>
@@ -8003,34 +8021,30 @@
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>781</v>
+        <v>755</v>
       </c>
       <c r="H84" t="n">
-        <v>49085339</v>
+        <v>11933915</v>
       </c>
       <c r="I84" t="n">
-        <v>5283.106</v>
+        <v>2394.972</v>
       </c>
       <c r="J84" t="n">
-        <v>47377</v>
+        <v>6587</v>
       </c>
       <c r="K84" t="n">
-        <v>5.099</v>
+        <v>1.322</v>
       </c>
       <c r="L84" t="n">
-        <v>51414</v>
+        <v>9813</v>
       </c>
       <c r="M84" t="n">
-        <v>5.534</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="O84" t="n">
-        <v>7.1</v>
-      </c>
+        <v>1.969</v>
+      </c>
+      <c r="N84"/>
+      <c r="O84"/>
       <c r="P84" t="s">
-        <v>53</v>
+        <v>460</v>
       </c>
       <c r="Q84" t="s">
         <v>461</v>
@@ -8058,92 +8072,92 @@
       <c r="E85" t="s">
         <v>466</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85"/>
+      <c r="G85" t="n">
+        <v>781</v>
+      </c>
+      <c r="H85" t="n">
+        <v>49085339</v>
+      </c>
+      <c r="I85" t="n">
+        <v>5283.106</v>
+      </c>
+      <c r="J85" t="n">
+        <v>47377</v>
+      </c>
+      <c r="K85" t="n">
+        <v>5.099</v>
+      </c>
+      <c r="L85" t="n">
+        <v>51414</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5.534</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="O85" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="P85" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q85" t="s">
         <v>467</v>
-      </c>
-      <c r="G85" t="n">
-        <v>776</v>
-      </c>
-      <c r="H85" t="n">
-        <v>206399929</v>
-      </c>
-      <c r="I85" t="n">
-        <v>3419.059</v>
-      </c>
-      <c r="J85" t="n">
-        <v>352265</v>
-      </c>
-      <c r="K85" t="n">
-        <v>5.835</v>
-      </c>
-      <c r="L85" t="n">
-        <v>590827</v>
-      </c>
-      <c r="M85" t="n">
-        <v>9.787</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0.1079</v>
-      </c>
-      <c r="O85" t="n">
-        <v>9.3</v>
-      </c>
-      <c r="P85" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>469</v>
       </c>
       <c r="R85" t="s">
         <v>61</v>
       </c>
       <c r="S85" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>469</v>
+      </c>
+      <c r="B86" t="s">
+        <v>470</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>44661</v>
+      </c>
+      <c r="D86" t="s">
         <v>471</v>
       </c>
-      <c r="B86" t="s">
+      <c r="E86" t="s">
         <v>472</v>
       </c>
-      <c r="C86" s="1" t="n">
-        <v>44658</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="F86" t="s">
         <v>473</v>
       </c>
-      <c r="E86" t="s">
-        <v>474</v>
-      </c>
-      <c r="F86"/>
       <c r="G86" t="n">
-        <v>535</v>
+        <v>776</v>
       </c>
       <c r="H86" t="n">
-        <v>945271</v>
+        <v>206399929</v>
       </c>
       <c r="I86" t="n">
-        <v>317.902</v>
+        <v>3419.059</v>
       </c>
       <c r="J86" t="n">
-        <v>1968</v>
+        <v>352265</v>
       </c>
       <c r="K86" t="n">
-        <v>0.662</v>
+        <v>5.835</v>
       </c>
       <c r="L86" t="n">
-        <v>2282</v>
+        <v>590827</v>
       </c>
       <c r="M86" t="n">
-        <v>0.767</v>
+        <v>9.787</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0121</v>
+        <v>0.1079</v>
       </c>
       <c r="O86" t="n">
-        <v>82.8</v>
+        <v>9.3</v>
       </c>
       <c r="P86" t="s">
         <v>474</v>
@@ -8152,7 +8166,7 @@
         <v>475</v>
       </c>
       <c r="R86" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="S86" t="s">
         <v>476</v>
@@ -8166,7 +8180,7 @@
         <v>478</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44661</v>
+        <v>44658</v>
       </c>
       <c r="D87" t="s">
         <v>479</v>
@@ -8176,31 +8190,31 @@
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>793</v>
+        <v>535</v>
       </c>
       <c r="H87" t="n">
-        <v>42936789</v>
+        <v>945271</v>
       </c>
       <c r="I87" t="n">
-        <v>340.631</v>
+        <v>317.902</v>
       </c>
       <c r="J87" t="n">
-        <v>56863</v>
+        <v>1968</v>
       </c>
       <c r="K87" t="n">
-        <v>0.451</v>
+        <v>0.662</v>
       </c>
       <c r="L87" t="n">
-        <v>129866</v>
+        <v>2282</v>
       </c>
       <c r="M87" t="n">
-        <v>1.03</v>
+        <v>0.767</v>
       </c>
       <c r="N87" t="n">
-        <v>0.3726</v>
+        <v>0.0121</v>
       </c>
       <c r="O87" t="n">
-        <v>2.7</v>
+        <v>82.8</v>
       </c>
       <c r="P87" t="s">
         <v>480</v>
@@ -8209,7 +8223,7 @@
         <v>481</v>
       </c>
       <c r="R87" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="S87" t="s">
         <v>482</v>
@@ -8223,37 +8237,41 @@
         <v>484</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44631</v>
+        <v>44661</v>
       </c>
       <c r="D88" t="s">
         <v>485</v>
       </c>
       <c r="E88" t="s">
-        <v>53</v>
+        <v>486</v>
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>331</v>
+        <v>793</v>
       </c>
       <c r="H88" t="n">
-        <v>16499905</v>
+        <v>42936789</v>
       </c>
       <c r="I88" t="n">
-        <v>1606.765</v>
-      </c>
-      <c r="J88"/>
-      <c r="K88"/>
+        <v>340.631</v>
+      </c>
+      <c r="J88" t="n">
+        <v>56863</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.451</v>
+      </c>
       <c r="L88" t="n">
-        <v>18061</v>
+        <v>129866</v>
       </c>
       <c r="M88" t="n">
-        <v>1.759</v>
+        <v>1.03</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1301</v>
+        <v>0.3726</v>
       </c>
       <c r="O88" t="n">
-        <v>7.7</v>
+        <v>2.7</v>
       </c>
       <c r="P88" t="s">
         <v>486</v>
@@ -8262,7 +8280,7 @@
         <v>487</v>
       </c>
       <c r="R88" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="S88" t="s">
         <v>488</v>
@@ -8276,254 +8294,254 @@
         <v>490</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44355</v>
+        <v>44631</v>
       </c>
       <c r="D89" t="s">
         <v>491</v>
       </c>
       <c r="E89" t="s">
-        <v>492</v>
+        <v>53</v>
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>447</v>
+        <v>331</v>
       </c>
       <c r="H89" t="n">
-        <v>11965068</v>
+        <v>16499905</v>
       </c>
       <c r="I89" t="n">
-        <v>629.908</v>
-      </c>
-      <c r="J89" t="n">
-        <v>52729</v>
-      </c>
-      <c r="K89" t="n">
-        <v>2.776</v>
-      </c>
+        <v>1606.765</v>
+      </c>
+      <c r="J89"/>
+      <c r="K89"/>
       <c r="L89" t="n">
-        <v>39955</v>
+        <v>18061</v>
       </c>
       <c r="M89" t="n">
-        <v>2.103</v>
+        <v>1.759</v>
       </c>
       <c r="N89" t="n">
-        <v>0.03</v>
+        <v>0.1301</v>
       </c>
       <c r="O89" t="n">
-        <v>33.4</v>
+        <v>7.7</v>
       </c>
       <c r="P89" t="s">
         <v>492</v>
       </c>
       <c r="Q89" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="R89" t="s">
         <v>61</v>
       </c>
       <c r="S89" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B90" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44661</v>
+        <v>44355</v>
       </c>
       <c r="D90" t="s">
-        <v>35</v>
+        <v>497</v>
       </c>
       <c r="E90" t="s">
-        <v>36</v>
+        <v>498</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>255</v>
+        <v>447</v>
       </c>
       <c r="H90" t="n">
-        <v>3547755</v>
+        <v>11965068</v>
       </c>
       <c r="I90" t="n">
-        <v>64.521</v>
-      </c>
-      <c r="J90"/>
-      <c r="K90"/>
+        <v>629.908</v>
+      </c>
+      <c r="J90" t="n">
+        <v>52729</v>
+      </c>
+      <c r="K90" t="n">
+        <v>2.776</v>
+      </c>
       <c r="L90" t="n">
-        <v>3526</v>
+        <v>39955</v>
       </c>
       <c r="M90" t="n">
-        <v>0.064</v>
+        <v>2.103</v>
       </c>
       <c r="N90" t="n">
-        <v>0.0035</v>
+        <v>0.03</v>
       </c>
       <c r="O90" t="n">
-        <v>283.7</v>
+        <v>33.4</v>
       </c>
       <c r="P90" t="s">
-        <v>36</v>
+        <v>498</v>
       </c>
       <c r="Q90" t="s">
-        <v>37</v>
+        <v>497</v>
       </c>
       <c r="R90" t="s">
         <v>61</v>
       </c>
       <c r="S90" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B91" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>44660</v>
+        <v>44661</v>
       </c>
       <c r="D91" t="s">
-        <v>499</v>
+        <v>35</v>
       </c>
       <c r="E91" t="s">
-        <v>500</v>
+        <v>36</v>
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>171</v>
+        <v>255</v>
       </c>
       <c r="H91" t="n">
-        <v>1808495</v>
+        <v>3547755</v>
       </c>
       <c r="I91" t="n">
-        <v>1014.803</v>
+        <v>64.521</v>
       </c>
       <c r="J91"/>
       <c r="K91"/>
       <c r="L91" t="n">
-        <v>1028</v>
+        <v>3526</v>
       </c>
       <c r="M91" t="n">
-        <v>0.577</v>
+        <v>0.064</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0245</v>
+        <v>0.0035</v>
       </c>
       <c r="O91" t="n">
-        <v>40.9</v>
+        <v>283.7</v>
       </c>
       <c r="P91" t="s">
-        <v>501</v>
+        <v>36</v>
       </c>
       <c r="Q91" t="s">
+        <v>37</v>
+      </c>
+      <c r="R91" t="s">
+        <v>61</v>
+      </c>
+      <c r="S91" t="s">
         <v>502</v>
-      </c>
-      <c r="R91" t="s">
-        <v>25</v>
-      </c>
-      <c r="S91" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>503</v>
+      </c>
+      <c r="B92" t="s">
         <v>504</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" s="1" t="n">
+        <v>44660</v>
+      </c>
+      <c r="D92" t="s">
         <v>505</v>
       </c>
-      <c r="C92" s="1" t="n">
-        <v>44632</v>
-      </c>
-      <c r="D92" t="s">
-        <v>21</v>
-      </c>
       <c r="E92" t="s">
-        <v>22</v>
+        <v>506</v>
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>662</v>
+        <v>171</v>
       </c>
       <c r="H92" t="n">
-        <v>7763313</v>
+        <v>1808495</v>
       </c>
       <c r="I92" t="n">
-        <v>1793.512</v>
+        <v>1014.803</v>
       </c>
       <c r="J92"/>
       <c r="K92"/>
       <c r="L92" t="n">
-        <v>7107</v>
+        <v>1028</v>
       </c>
       <c r="M92" t="n">
-        <v>1.642</v>
+        <v>0.577</v>
       </c>
       <c r="N92" t="n">
-        <v>0.0597</v>
+        <v>0.0245</v>
       </c>
       <c r="O92" t="n">
-        <v>16.7</v>
+        <v>40.9</v>
       </c>
       <c r="P92" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Q92" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="R92" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S92" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B93" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>44658</v>
+        <v>44632</v>
       </c>
       <c r="D93" t="s">
-        <v>511</v>
+        <v>21</v>
       </c>
       <c r="E93" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
-        <v>255</v>
+        <v>662</v>
       </c>
       <c r="H93" t="n">
-        <v>1014597</v>
+        <v>7763313</v>
       </c>
       <c r="I93" t="n">
-        <v>137.491</v>
-      </c>
-      <c r="J93" t="n">
-        <v>4827</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.654</v>
-      </c>
+        <v>1793.512</v>
+      </c>
+      <c r="J93"/>
+      <c r="K93"/>
       <c r="L93" t="n">
-        <v>690</v>
+        <v>7107</v>
       </c>
       <c r="M93" t="n">
-        <v>0.094</v>
-      </c>
-      <c r="N93"/>
-      <c r="O93"/>
+        <v>1.642</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.0597</v>
+      </c>
+      <c r="O93" t="n">
+        <v>16.7</v>
+      </c>
       <c r="P93" t="s">
         <v>512</v>
       </c>
@@ -8531,7 +8549,7 @@
         <v>513</v>
       </c>
       <c r="R93" t="s">
-        <v>317</v>
+        <v>61</v>
       </c>
       <c r="S93" t="s">
         <v>514</v>
@@ -8545,37 +8563,35 @@
         <v>516</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44662</v>
+        <v>44658</v>
       </c>
       <c r="D94" t="s">
         <v>517</v>
       </c>
       <c r="E94" t="s">
-        <v>518</v>
-      </c>
-      <c r="F94" t="s">
-        <v>519</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F94"/>
       <c r="G94" t="n">
-        <v>773</v>
+        <v>255</v>
       </c>
       <c r="H94" t="n">
-        <v>7052074</v>
+        <v>1014597</v>
       </c>
       <c r="I94" t="n">
-        <v>3777.356</v>
+        <v>137.491</v>
       </c>
       <c r="J94" t="n">
-        <v>2050</v>
+        <v>4827</v>
       </c>
       <c r="K94" t="n">
-        <v>1.098</v>
+        <v>0.654</v>
       </c>
       <c r="L94" t="n">
-        <v>4444</v>
+        <v>690</v>
       </c>
       <c r="M94" t="n">
-        <v>2.38</v>
+        <v>0.094</v>
       </c>
       <c r="N94"/>
       <c r="O94"/>
@@ -8583,10 +8599,10 @@
         <v>518</v>
       </c>
       <c r="Q94" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="R94" t="s">
-        <v>61</v>
+        <v>323</v>
       </c>
       <c r="S94" t="s">
         <v>520</v>
@@ -8600,7 +8616,7 @@
         <v>522</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44370</v>
+        <v>44662</v>
       </c>
       <c r="D95" t="s">
         <v>523</v>
@@ -8608,23 +8624,29 @@
       <c r="E95" t="s">
         <v>524</v>
       </c>
-      <c r="F95"/>
+      <c r="F95" t="s">
+        <v>525</v>
+      </c>
       <c r="G95" t="n">
-        <v>26</v>
+        <v>773</v>
       </c>
       <c r="H95" t="n">
-        <v>4731376</v>
+        <v>7052074</v>
       </c>
       <c r="I95" t="n">
-        <v>698.962</v>
-      </c>
-      <c r="J95"/>
-      <c r="K95"/>
+        <v>3777.356</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2050</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1.098</v>
+      </c>
       <c r="L95" t="n">
-        <v>14688</v>
+        <v>4444</v>
       </c>
       <c r="M95" t="n">
-        <v>2.17</v>
+        <v>2.38</v>
       </c>
       <c r="N95"/>
       <c r="O95"/>
@@ -8635,72 +8657,70 @@
         <v>523</v>
       </c>
       <c r="R95" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="S95" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B96" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>44658</v>
+        <v>44370</v>
       </c>
       <c r="D96" t="s">
-        <v>35</v>
+        <v>529</v>
       </c>
       <c r="E96" t="s">
-        <v>36</v>
+        <v>530</v>
       </c>
       <c r="F96"/>
       <c r="G96" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="H96" t="n">
-        <v>435274</v>
+        <v>4731376</v>
       </c>
       <c r="I96" t="n">
-        <v>201.603</v>
+        <v>698.962</v>
       </c>
       <c r="J96"/>
       <c r="K96"/>
       <c r="L96" t="n">
-        <v>716</v>
+        <v>14688</v>
       </c>
       <c r="M96" t="n">
-        <v>0.332</v>
-      </c>
-      <c r="N96" t="n">
-        <v>0</v>
-      </c>
+        <v>2.17</v>
+      </c>
+      <c r="N96"/>
       <c r="O96"/>
       <c r="P96" t="s">
-        <v>36</v>
+        <v>530</v>
       </c>
       <c r="Q96" t="s">
-        <v>37</v>
+        <v>529</v>
       </c>
       <c r="R96" t="s">
         <v>25</v>
       </c>
       <c r="S96" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B97" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44632</v>
+        <v>44658</v>
       </c>
       <c r="D97" t="s">
         <v>35</v>
@@ -8710,19 +8730,25 @@
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H97" t="n">
-        <v>139824</v>
+        <v>435274</v>
       </c>
       <c r="I97" t="n">
-        <v>26.992</v>
+        <v>201.603</v>
       </c>
       <c r="J97"/>
       <c r="K97"/>
-      <c r="L97"/>
-      <c r="M97"/>
-      <c r="N97"/>
+      <c r="L97" t="n">
+        <v>716</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
       <c r="O97"/>
       <c r="P97" t="s">
         <v>36</v>
@@ -8734,49 +8760,49 @@
         <v>25</v>
       </c>
       <c r="S97" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B98" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>44658</v>
+        <v>44632</v>
       </c>
       <c r="D98" t="s">
-        <v>534</v>
+        <v>35</v>
       </c>
       <c r="E98" t="s">
-        <v>535</v>
+        <v>36</v>
       </c>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>560</v>
-      </c>
-      <c r="H98"/>
-      <c r="I98"/>
-      <c r="J98" t="n">
-        <v>1845</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.265</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H98" t="n">
+        <v>139824</v>
+      </c>
+      <c r="I98" t="n">
+        <v>26.992</v>
+      </c>
+      <c r="J98"/>
+      <c r="K98"/>
       <c r="L98"/>
       <c r="M98"/>
       <c r="N98"/>
       <c r="O98"/>
       <c r="P98" t="s">
-        <v>535</v>
+        <v>36</v>
       </c>
       <c r="Q98" t="s">
-        <v>536</v>
+        <v>37</v>
       </c>
       <c r="R98" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="S98" t="s">
         <v>537</v>
@@ -8790,7 +8816,7 @@
         <v>539</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44571</v>
+        <v>44658</v>
       </c>
       <c r="D99" t="s">
         <v>540</v>
@@ -8800,32 +8826,20 @@
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>598</v>
-      </c>
-      <c r="H99" t="n">
-        <v>90632</v>
-      </c>
-      <c r="I99" t="n">
-        <v>2369.216</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="H99"/>
+      <c r="I99"/>
       <c r="J99" t="n">
-        <v>248</v>
+        <v>1845</v>
       </c>
       <c r="K99" t="n">
-        <v>6.483</v>
-      </c>
-      <c r="L99" t="n">
-        <v>220</v>
-      </c>
-      <c r="M99" t="n">
-        <v>5.751</v>
-      </c>
-      <c r="N99" t="n">
-        <v>0.344</v>
-      </c>
-      <c r="O99" t="n">
-        <v>2.9</v>
-      </c>
+        <v>0.265</v>
+      </c>
+      <c r="L99"/>
+      <c r="M99"/>
+      <c r="N99"/>
+      <c r="O99"/>
       <c r="P99" t="s">
         <v>541</v>
       </c>
@@ -8833,7 +8847,7 @@
         <v>542</v>
       </c>
       <c r="R99" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="S99" t="s">
         <v>543</v>
@@ -8847,7 +8861,7 @@
         <v>545</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>44658</v>
+        <v>44571</v>
       </c>
       <c r="D100" t="s">
         <v>546</v>
@@ -8857,164 +8871,168 @@
       </c>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>749</v>
+        <v>598</v>
       </c>
       <c r="H100" t="n">
-        <v>8527334</v>
+        <v>90632</v>
       </c>
       <c r="I100" t="n">
-        <v>3170.175</v>
+        <v>2369.216</v>
       </c>
       <c r="J100" t="n">
-        <v>7210</v>
+        <v>248</v>
       </c>
       <c r="K100" t="n">
-        <v>2.68</v>
+        <v>6.483</v>
       </c>
       <c r="L100" t="n">
-        <v>7475</v>
+        <v>220</v>
       </c>
       <c r="M100" t="n">
-        <v>2.779</v>
+        <v>5.751</v>
       </c>
       <c r="N100" t="n">
-        <v>0.272</v>
+        <v>0.344</v>
       </c>
       <c r="O100" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="P100" t="s">
         <v>547</v>
       </c>
       <c r="Q100" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="R100" t="s">
         <v>61</v>
       </c>
       <c r="S100" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B101" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C101" s="1" t="n">
         <v>44658</v>
       </c>
       <c r="D101" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E101" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>772</v>
+        <v>749</v>
       </c>
       <c r="H101" t="n">
-        <v>4184582</v>
+        <v>8527334</v>
       </c>
       <c r="I101" t="n">
-        <v>6591.824</v>
+        <v>3170.175</v>
       </c>
       <c r="J101" t="n">
-        <v>2928</v>
+        <v>7210</v>
       </c>
       <c r="K101" t="n">
-        <v>4.612</v>
+        <v>2.68</v>
       </c>
       <c r="L101" t="n">
-        <v>2736</v>
+        <v>7475</v>
       </c>
       <c r="M101" t="n">
-        <v>4.31</v>
+        <v>2.779</v>
       </c>
       <c r="N101" t="n">
-        <v>0.349</v>
+        <v>0.272</v>
       </c>
       <c r="O101" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="P101" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q101" t="s">
         <v>552</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>551</v>
       </c>
       <c r="R101" t="s">
         <v>61</v>
       </c>
       <c r="S101" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B102" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>44632</v>
+        <v>44658</v>
       </c>
       <c r="D102" t="s">
-        <v>35</v>
+        <v>557</v>
       </c>
       <c r="E102" t="s">
-        <v>36</v>
+        <v>558</v>
       </c>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>275</v>
+        <v>772</v>
       </c>
       <c r="H102" t="n">
-        <v>404843</v>
+        <v>4184582</v>
       </c>
       <c r="I102" t="n">
-        <v>14.241</v>
-      </c>
-      <c r="J102"/>
-      <c r="K102"/>
+        <v>6591.824</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2928</v>
+      </c>
+      <c r="K102" t="n">
+        <v>4.612</v>
+      </c>
       <c r="L102" t="n">
-        <v>427</v>
+        <v>2736</v>
       </c>
       <c r="M102" t="n">
-        <v>0.015</v>
+        <v>4.31</v>
       </c>
       <c r="N102" t="n">
-        <v>0.0264</v>
+        <v>0.349</v>
       </c>
       <c r="O102" t="n">
-        <v>37.8</v>
+        <v>2.9</v>
       </c>
       <c r="P102" t="s">
-        <v>36</v>
+        <v>558</v>
       </c>
       <c r="Q102" t="s">
-        <v>37</v>
+        <v>557</v>
       </c>
       <c r="R102" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="S102" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B103" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44661</v>
+        <v>44632</v>
       </c>
       <c r="D103" t="s">
         <v>35</v>
@@ -9024,27 +9042,27 @@
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="H103" t="n">
-        <v>566101</v>
+        <v>404843</v>
       </c>
       <c r="I103" t="n">
-        <v>28.813</v>
+        <v>14.241</v>
       </c>
       <c r="J103"/>
       <c r="K103"/>
       <c r="L103" t="n">
-        <v>468</v>
+        <v>427</v>
       </c>
       <c r="M103" t="n">
-        <v>0.024</v>
+        <v>0.015</v>
       </c>
       <c r="N103" t="n">
-        <v>0.0119</v>
+        <v>0.0264</v>
       </c>
       <c r="O103" t="n">
-        <v>84</v>
+        <v>37.8</v>
       </c>
       <c r="P103" t="s">
         <v>36</v>
@@ -9053,123 +9071,119 @@
         <v>37</v>
       </c>
       <c r="R103" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S103" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B104" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>44659</v>
+        <v>44661</v>
       </c>
       <c r="D104" t="s">
-        <v>562</v>
+        <v>35</v>
       </c>
       <c r="E104" t="s">
-        <v>563</v>
-      </c>
-      <c r="F104" t="s">
-        <v>564</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F104"/>
       <c r="G104" t="n">
-        <v>806</v>
+        <v>293</v>
       </c>
       <c r="H104" t="n">
-        <v>57337556</v>
+        <v>566101</v>
       </c>
       <c r="I104" t="n">
-        <v>1749.366</v>
-      </c>
-      <c r="J104" t="n">
-        <v>77406</v>
-      </c>
-      <c r="K104" t="n">
-        <v>2.362</v>
-      </c>
+        <v>28.813</v>
+      </c>
+      <c r="J104"/>
+      <c r="K104"/>
       <c r="L104" t="n">
-        <v>93516</v>
+        <v>468</v>
       </c>
       <c r="M104" t="n">
-        <v>2.853</v>
+        <v>0.024</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1346</v>
+        <v>0.0119</v>
       </c>
       <c r="O104" t="n">
-        <v>7.4</v>
+        <v>84</v>
       </c>
       <c r="P104" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="Q104" t="s">
+        <v>37</v>
+      </c>
+      <c r="R104" t="s">
+        <v>61</v>
+      </c>
+      <c r="S104" t="s">
         <v>565</v>
-      </c>
-      <c r="R104" t="s">
-        <v>45</v>
-      </c>
-      <c r="S104" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>566</v>
+      </c>
+      <c r="B105" t="s">
         <v>567</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" s="1" t="n">
+        <v>44659</v>
+      </c>
+      <c r="D105" t="s">
         <v>568</v>
       </c>
-      <c r="C105" s="1" t="n">
-        <v>44634</v>
-      </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>569</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>570</v>
       </c>
-      <c r="F105"/>
       <c r="G105" t="n">
-        <v>701</v>
+        <v>806</v>
       </c>
       <c r="H105" t="n">
-        <v>2209010</v>
+        <v>57337556</v>
       </c>
       <c r="I105" t="n">
-        <v>4063.519</v>
+        <v>1749.366</v>
       </c>
       <c r="J105" t="n">
-        <v>2103</v>
+        <v>77406</v>
       </c>
       <c r="K105" t="n">
-        <v>3.869</v>
+        <v>2.362</v>
       </c>
       <c r="L105" t="n">
-        <v>1873</v>
+        <v>93516</v>
       </c>
       <c r="M105" t="n">
-        <v>3.445</v>
+        <v>2.853</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1216</v>
+        <v>0.1346</v>
       </c>
       <c r="O105" t="n">
-        <v>8.2</v>
+        <v>7.4</v>
       </c>
       <c r="P105" t="s">
-        <v>570</v>
+        <v>53</v>
       </c>
       <c r="Q105" t="s">
         <v>571</v>
       </c>
       <c r="R105" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="S105" t="s">
         <v>572</v>
@@ -9183,221 +9197,225 @@
         <v>574</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44661</v>
+        <v>44634</v>
       </c>
       <c r="D106" t="s">
-        <v>35</v>
+        <v>575</v>
       </c>
       <c r="E106" t="s">
-        <v>36</v>
+        <v>576</v>
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>7</v>
+        <v>701</v>
       </c>
       <c r="H106" t="n">
-        <v>666071</v>
+        <v>2209010</v>
       </c>
       <c r="I106" t="n">
-        <v>31.937</v>
-      </c>
-      <c r="J106"/>
-      <c r="K106"/>
+        <v>4063.519</v>
+      </c>
+      <c r="J106" t="n">
+        <v>2103</v>
+      </c>
+      <c r="K106" t="n">
+        <v>3.869</v>
+      </c>
       <c r="L106" t="n">
-        <v>863</v>
+        <v>1873</v>
       </c>
       <c r="M106" t="n">
-        <v>0.041</v>
+        <v>3.445</v>
       </c>
       <c r="N106" t="n">
-        <v>0.0118</v>
+        <v>0.1216</v>
       </c>
       <c r="O106" t="n">
-        <v>85.1</v>
+        <v>8.2</v>
       </c>
       <c r="P106" t="s">
-        <v>36</v>
+        <v>576</v>
       </c>
       <c r="Q106" t="s">
-        <v>37</v>
+        <v>577</v>
       </c>
       <c r="R106" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="S106" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="B107" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44662</v>
+        <v>44661</v>
       </c>
       <c r="D107" t="s">
-        <v>578</v>
+        <v>35</v>
       </c>
       <c r="E107" t="s">
-        <v>579</v>
+        <v>36</v>
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>631</v>
+        <v>7</v>
       </c>
       <c r="H107" t="n">
-        <v>1841246</v>
+        <v>666071</v>
       </c>
       <c r="I107" t="n">
-        <v>3567.615</v>
-      </c>
-      <c r="J107" t="n">
-        <v>2886</v>
-      </c>
-      <c r="K107" t="n">
-        <v>5.592</v>
-      </c>
+        <v>31.937</v>
+      </c>
+      <c r="J107"/>
+      <c r="K107"/>
       <c r="L107" t="n">
-        <v>3437</v>
+        <v>863</v>
       </c>
       <c r="M107" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="N107"/>
-      <c r="O107"/>
+        <v>0.041</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.0118</v>
+      </c>
+      <c r="O107" t="n">
+        <v>85.1</v>
+      </c>
       <c r="P107" t="s">
-        <v>580</v>
+        <v>36</v>
       </c>
       <c r="Q107" t="s">
+        <v>37</v>
+      </c>
+      <c r="R107" t="s">
+        <v>25</v>
+      </c>
+      <c r="S107" t="s">
         <v>581</v>
-      </c>
-      <c r="R107" t="s">
-        <v>61</v>
-      </c>
-      <c r="S107" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>582</v>
+      </c>
+      <c r="B108" t="s">
         <v>583</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" s="1" t="n">
+        <v>44662</v>
+      </c>
+      <c r="D108" t="s">
         <v>584</v>
       </c>
-      <c r="C108" s="1" t="n">
-        <v>44343</v>
-      </c>
-      <c r="D108" t="s">
-        <v>381</v>
-      </c>
       <c r="E108" t="s">
-        <v>382</v>
+        <v>585</v>
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>22</v>
+        <v>631</v>
       </c>
       <c r="H108" t="n">
-        <v>1639</v>
+        <v>1841246</v>
       </c>
       <c r="I108" t="n">
-        <v>27.492</v>
+        <v>3567.615</v>
       </c>
       <c r="J108" t="n">
-        <v>196</v>
+        <v>2886</v>
       </c>
       <c r="K108" t="n">
-        <v>3.288</v>
+        <v>5.592</v>
       </c>
       <c r="L108" t="n">
-        <v>7</v>
+        <v>3437</v>
       </c>
       <c r="M108" t="n">
-        <v>0.117</v>
-      </c>
-      <c r="N108" t="n">
-        <v>0</v>
-      </c>
+        <v>6.66</v>
+      </c>
+      <c r="N108"/>
       <c r="O108"/>
       <c r="P108" t="s">
-        <v>382</v>
+        <v>586</v>
       </c>
       <c r="Q108" t="s">
-        <v>381</v>
+        <v>587</v>
       </c>
       <c r="R108" t="s">
-        <v>383</v>
+        <v>61</v>
       </c>
       <c r="S108" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B109" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44661</v>
+        <v>44343</v>
       </c>
       <c r="D109" t="s">
-        <v>35</v>
+        <v>387</v>
       </c>
       <c r="E109" t="s">
-        <v>36</v>
+        <v>388</v>
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>158</v>
+        <v>22</v>
       </c>
       <c r="H109" t="n">
-        <v>918770</v>
+        <v>1639</v>
       </c>
       <c r="I109" t="n">
-        <v>192.408</v>
-      </c>
-      <c r="J109"/>
-      <c r="K109"/>
+        <v>27.492</v>
+      </c>
+      <c r="J109" t="n">
+        <v>196</v>
+      </c>
+      <c r="K109" t="n">
+        <v>3.288</v>
+      </c>
       <c r="L109" t="n">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="M109" t="n">
-        <v>0.034</v>
+        <v>0.117</v>
       </c>
       <c r="N109" t="n">
-        <v>0.0357</v>
-      </c>
-      <c r="O109" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O109"/>
       <c r="P109" t="s">
-        <v>588</v>
+        <v>388</v>
       </c>
       <c r="Q109" t="s">
-        <v>589</v>
+        <v>387</v>
       </c>
       <c r="R109" t="s">
-        <v>61</v>
+        <v>389</v>
       </c>
       <c r="S109" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B110" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>44627</v>
+        <v>44661</v>
       </c>
       <c r="D110" t="s">
         <v>35</v>
@@ -9407,85 +9425,81 @@
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="H110" t="n">
-        <v>359627</v>
+        <v>918770</v>
       </c>
       <c r="I110" t="n">
-        <v>282.409</v>
+        <v>192.408</v>
       </c>
       <c r="J110"/>
       <c r="K110"/>
-      <c r="L110"/>
-      <c r="M110"/>
-      <c r="N110"/>
-      <c r="O110"/>
+      <c r="L110" t="n">
+        <v>160</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.0357</v>
+      </c>
+      <c r="O110" t="n">
+        <v>28</v>
+      </c>
       <c r="P110" t="s">
-        <v>36</v>
+        <v>594</v>
       </c>
       <c r="Q110" t="s">
-        <v>37</v>
+        <v>595</v>
       </c>
       <c r="R110" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="S110" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B111" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44660</v>
+        <v>44627</v>
       </c>
       <c r="D111" t="s">
-        <v>596</v>
+        <v>35</v>
       </c>
       <c r="E111" t="s">
-        <v>597</v>
+        <v>36</v>
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>830</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>14988078</v>
+        <v>359627</v>
       </c>
       <c r="I111" t="n">
-        <v>115.061</v>
-      </c>
-      <c r="J111" t="n">
-        <v>457</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="L111" t="n">
-        <v>4955</v>
-      </c>
-      <c r="M111" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="N111" t="n">
-        <v>0.096</v>
-      </c>
-      <c r="O111" t="n">
-        <v>10.4</v>
-      </c>
+        <v>282.409</v>
+      </c>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111"/>
       <c r="P111" t="s">
-        <v>598</v>
+        <v>36</v>
       </c>
       <c r="Q111" t="s">
-        <v>596</v>
+        <v>37</v>
       </c>
       <c r="R111" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="S111" t="s">
         <v>599</v>
@@ -9499,7 +9513,7 @@
         <v>601</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44658</v>
+        <v>44660</v>
       </c>
       <c r="D112" t="s">
         <v>602</v>
@@ -9509,130 +9523,134 @@
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>489</v>
-      </c>
-      <c r="H112"/>
-      <c r="I112"/>
+        <v>830</v>
+      </c>
+      <c r="H112" t="n">
+        <v>14988078</v>
+      </c>
+      <c r="I112" t="n">
+        <v>115.061</v>
+      </c>
       <c r="J112" t="n">
-        <v>3359</v>
+        <v>457</v>
       </c>
       <c r="K112" t="n">
-        <v>0.835</v>
-      </c>
-      <c r="L112"/>
-      <c r="M112"/>
-      <c r="N112"/>
-      <c r="O112"/>
+        <v>0.004</v>
+      </c>
+      <c r="L112" t="n">
+        <v>4955</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="O112" t="n">
+        <v>10.4</v>
+      </c>
       <c r="P112" t="s">
         <v>604</v>
       </c>
       <c r="Q112" t="s">
+        <v>602</v>
+      </c>
+      <c r="R112" t="s">
+        <v>45</v>
+      </c>
+      <c r="S112" t="s">
         <v>605</v>
-      </c>
-      <c r="R112" t="s">
-        <v>25</v>
-      </c>
-      <c r="S112" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>606</v>
+      </c>
+      <c r="B113" t="s">
         <v>607</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" s="1" t="n">
+        <v>44658</v>
+      </c>
+      <c r="D113" t="s">
         <v>608</v>
       </c>
-      <c r="C113" s="1" t="n">
-        <v>44662</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>609</v>
-      </c>
-      <c r="E113" t="s">
-        <v>53</v>
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>355</v>
-      </c>
-      <c r="H113" t="n">
-        <v>7356002</v>
-      </c>
-      <c r="I113" t="n">
-        <v>2209.486</v>
-      </c>
-      <c r="J113"/>
-      <c r="K113"/>
-      <c r="L113" t="n">
-        <v>3686</v>
-      </c>
-      <c r="M113" t="n">
-        <v>1.107</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113" t="n">
+        <v>3359</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="L113"/>
+      <c r="M113"/>
       <c r="N113"/>
       <c r="O113"/>
       <c r="P113" t="s">
-        <v>53</v>
+        <v>610</v>
       </c>
       <c r="Q113" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="R113" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="S113" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B114" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44661</v>
+        <v>44662</v>
       </c>
       <c r="D114" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E114" t="s">
         <v>53</v>
       </c>
       <c r="F114"/>
       <c r="G114" t="n">
-        <v>736</v>
+        <v>355</v>
       </c>
       <c r="H114" t="n">
-        <v>11337119</v>
+        <v>7356002</v>
       </c>
       <c r="I114" t="n">
-        <v>303.58</v>
+        <v>2209.486</v>
       </c>
       <c r="J114"/>
       <c r="K114"/>
       <c r="L114" t="n">
-        <v>5366</v>
+        <v>3686</v>
       </c>
       <c r="M114" t="n">
-        <v>0.144</v>
-      </c>
-      <c r="N114" t="n">
-        <v>0.0134</v>
-      </c>
-      <c r="O114" t="n">
-        <v>74.5</v>
-      </c>
+        <v>1.107</v>
+      </c>
+      <c r="N114"/>
+      <c r="O114"/>
       <c r="P114" t="s">
-        <v>615</v>
+        <v>53</v>
       </c>
       <c r="Q114" t="s">
         <v>616</v>
       </c>
       <c r="R114" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="S114" t="s">
         <v>617</v>
@@ -9649,96 +9667,96 @@
         <v>44661</v>
       </c>
       <c r="D115" t="s">
-        <v>35</v>
+        <v>620</v>
       </c>
       <c r="E115" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>598</v>
+        <v>736</v>
       </c>
       <c r="H115" t="n">
-        <v>1301946</v>
+        <v>11337119</v>
       </c>
       <c r="I115" t="n">
-        <v>40.48</v>
+        <v>303.58</v>
       </c>
       <c r="J115"/>
       <c r="K115"/>
       <c r="L115" t="n">
-        <v>633</v>
+        <v>5366</v>
       </c>
       <c r="M115" t="n">
-        <v>0.02</v>
+        <v>0.144</v>
       </c>
       <c r="N115" t="n">
-        <v>0.0061</v>
+        <v>0.0134</v>
       </c>
       <c r="O115" t="n">
-        <v>164.1</v>
+        <v>74.5</v>
       </c>
       <c r="P115" t="s">
-        <v>36</v>
+        <v>621</v>
       </c>
       <c r="Q115" t="s">
-        <v>37</v>
+        <v>622</v>
       </c>
       <c r="R115" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="S115" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B116" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C116" s="1" t="n">
         <v>44661</v>
       </c>
       <c r="D116" t="s">
-        <v>623</v>
+        <v>35</v>
       </c>
       <c r="E116" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>522</v>
+        <v>598</v>
       </c>
       <c r="H116" t="n">
-        <v>7782033</v>
+        <v>1301946</v>
       </c>
       <c r="I116" t="n">
-        <v>141.992</v>
+        <v>40.48</v>
       </c>
       <c r="J116"/>
       <c r="K116"/>
       <c r="L116" t="n">
-        <v>12450</v>
+        <v>633</v>
       </c>
       <c r="M116" t="n">
-        <v>0.227</v>
+        <v>0.02</v>
       </c>
       <c r="N116" t="n">
-        <v>0.0053</v>
+        <v>0.0061</v>
       </c>
       <c r="O116" t="n">
-        <v>187</v>
+        <v>164.1</v>
       </c>
       <c r="P116" t="s">
-        <v>624</v>
+        <v>36</v>
       </c>
       <c r="Q116" t="s">
-        <v>625</v>
+        <v>37</v>
       </c>
       <c r="R116" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="S116" t="s">
         <v>626</v>
@@ -9755,87 +9773,87 @@
         <v>44661</v>
       </c>
       <c r="D117" t="s">
-        <v>35</v>
+        <v>629</v>
       </c>
       <c r="E117" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>630</v>
+        <v>522</v>
       </c>
       <c r="H117" t="n">
-        <v>990120</v>
+        <v>7782033</v>
       </c>
       <c r="I117" t="n">
-        <v>382.678</v>
+        <v>141.992</v>
       </c>
       <c r="J117"/>
       <c r="K117"/>
       <c r="L117" t="n">
-        <v>698</v>
+        <v>12450</v>
       </c>
       <c r="M117" t="n">
-        <v>0.27</v>
+        <v>0.227</v>
       </c>
       <c r="N117" t="n">
-        <v>0.0512</v>
+        <v>0.0053</v>
       </c>
       <c r="O117" t="n">
-        <v>19.5</v>
+        <v>187</v>
       </c>
       <c r="P117" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Q117" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="R117" t="s">
         <v>136</v>
       </c>
       <c r="S117" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B118" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44662</v>
+        <v>44661</v>
       </c>
       <c r="D118" t="s">
-        <v>634</v>
+        <v>35</v>
       </c>
       <c r="E118" t="s">
-        <v>635</v>
+        <v>36</v>
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>748</v>
+        <v>630</v>
       </c>
       <c r="H118" t="n">
-        <v>6723916</v>
+        <v>990120</v>
       </c>
       <c r="I118" t="n">
-        <v>226.586</v>
+        <v>382.678</v>
       </c>
       <c r="J118"/>
       <c r="K118"/>
       <c r="L118" t="n">
-        <v>4556</v>
+        <v>698</v>
       </c>
       <c r="M118" t="n">
-        <v>0.154</v>
+        <v>0.27</v>
       </c>
       <c r="N118" t="n">
-        <v>0.006</v>
+        <v>0.0512</v>
       </c>
       <c r="O118" t="n">
-        <v>166.7</v>
+        <v>19.5</v>
       </c>
       <c r="P118" t="s">
         <v>635</v>
@@ -9844,7 +9862,7 @@
         <v>636</v>
       </c>
       <c r="R118" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="S118" t="s">
         <v>637</v>
@@ -9858,7 +9876,7 @@
         <v>639</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44657</v>
+        <v>44662</v>
       </c>
       <c r="D119" t="s">
         <v>640</v>
@@ -9868,31 +9886,27 @@
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>675</v>
+        <v>748</v>
       </c>
       <c r="H119" t="n">
-        <v>30435369</v>
+        <v>6723916</v>
       </c>
       <c r="I119" t="n">
-        <v>1772.271</v>
-      </c>
-      <c r="J119" t="n">
-        <v>18781</v>
-      </c>
-      <c r="K119" t="n">
-        <v>1.094</v>
-      </c>
+        <v>226.586</v>
+      </c>
+      <c r="J119"/>
+      <c r="K119"/>
       <c r="L119" t="n">
-        <v>21695</v>
+        <v>4556</v>
       </c>
       <c r="M119" t="n">
-        <v>1.263</v>
+        <v>0.154</v>
       </c>
       <c r="N119" t="n">
-        <v>0.612</v>
+        <v>0.006</v>
       </c>
       <c r="O119" t="n">
-        <v>1.6</v>
+        <v>166.7</v>
       </c>
       <c r="P119" t="s">
         <v>641</v>
@@ -9901,7 +9915,7 @@
         <v>642</v>
       </c>
       <c r="R119" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="S119" t="s">
         <v>643</v>
@@ -9915,34 +9929,42 @@
         <v>645</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>44662</v>
+        <v>44657</v>
       </c>
       <c r="D120" t="s">
         <v>646</v>
       </c>
       <c r="E120" t="s">
-        <v>53</v>
+        <v>647</v>
       </c>
       <c r="F120"/>
       <c r="G120" t="n">
-        <v>613</v>
+        <v>675</v>
       </c>
       <c r="H120" t="n">
-        <v>6954369</v>
+        <v>30435369</v>
       </c>
       <c r="I120" t="n">
-        <v>1356.606</v>
-      </c>
-      <c r="J120"/>
-      <c r="K120"/>
+        <v>1772.271</v>
+      </c>
+      <c r="J120" t="n">
+        <v>18781</v>
+      </c>
+      <c r="K120" t="n">
+        <v>1.094</v>
+      </c>
       <c r="L120" t="n">
-        <v>2944</v>
+        <v>21695</v>
       </c>
       <c r="M120" t="n">
-        <v>0.574</v>
-      </c>
-      <c r="N120"/>
-      <c r="O120"/>
+        <v>1.263</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="O120" t="n">
+        <v>1.6</v>
+      </c>
       <c r="P120" t="s">
         <v>647</v>
       </c>
@@ -9950,7 +9972,7 @@
         <v>648</v>
       </c>
       <c r="R120" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="S120" t="s">
         <v>649</v>
@@ -9964,60 +9986,56 @@
         <v>651</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>44661</v>
+        <v>44662</v>
       </c>
       <c r="D121" t="s">
-        <v>35</v>
+        <v>652</v>
       </c>
       <c r="E121" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>20</v>
+        <v>613</v>
       </c>
       <c r="H121" t="n">
-        <v>243301</v>
+        <v>6954369</v>
       </c>
       <c r="I121" t="n">
-        <v>9.681</v>
+        <v>1356.606</v>
       </c>
       <c r="J121"/>
       <c r="K121"/>
       <c r="L121" t="n">
-        <v>288</v>
+        <v>2944</v>
       </c>
       <c r="M121" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="N121" t="n">
-        <v>0.0055</v>
-      </c>
-      <c r="O121" t="n">
-        <v>183.3</v>
-      </c>
+        <v>0.574</v>
+      </c>
+      <c r="N121"/>
+      <c r="O121"/>
       <c r="P121" t="s">
-        <v>36</v>
+        <v>653</v>
       </c>
       <c r="Q121" t="s">
-        <v>37</v>
+        <v>654</v>
       </c>
       <c r="R121" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="S121" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="B122" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D122" t="s">
         <v>35</v>
@@ -10027,339 +10045,347 @@
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>277</v>
+        <v>20</v>
       </c>
       <c r="H122" t="n">
-        <v>4906535</v>
+        <v>243301</v>
       </c>
       <c r="I122" t="n">
-        <v>23.21</v>
+        <v>9.681</v>
       </c>
       <c r="J122"/>
       <c r="K122"/>
       <c r="L122" t="n">
-        <v>11318</v>
+        <v>288</v>
       </c>
       <c r="M122" t="n">
-        <v>0.054</v>
+        <v>0.011</v>
       </c>
       <c r="N122" t="n">
-        <v>0.002</v>
+        <v>0.0055</v>
       </c>
       <c r="O122" t="n">
-        <v>495.2</v>
+        <v>183.3</v>
       </c>
       <c r="P122" t="s">
-        <v>655</v>
+        <v>36</v>
       </c>
       <c r="Q122" t="s">
-        <v>656</v>
+        <v>37</v>
       </c>
       <c r="R122" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="S122" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B123" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>44662</v>
+        <v>44658</v>
       </c>
       <c r="D123" t="s">
-        <v>660</v>
+        <v>35</v>
       </c>
       <c r="E123" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
-        <v>466</v>
+        <v>277</v>
       </c>
       <c r="H123" t="n">
-        <v>1984493</v>
+        <v>4906535</v>
       </c>
       <c r="I123" t="n">
-        <v>952.864</v>
+        <v>23.21</v>
       </c>
       <c r="J123"/>
       <c r="K123"/>
       <c r="L123" t="n">
-        <v>1981</v>
+        <v>11318</v>
       </c>
       <c r="M123" t="n">
-        <v>0.951</v>
-      </c>
-      <c r="N123"/>
-      <c r="O123"/>
+        <v>0.054</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="O123" t="n">
+        <v>495.2</v>
+      </c>
       <c r="P123" t="s">
-        <v>53</v>
+        <v>661</v>
       </c>
       <c r="Q123" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="R123" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="S123" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B124" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>44534</v>
+        <v>44662</v>
       </c>
       <c r="D124" t="s">
-        <v>381</v>
+        <v>666</v>
       </c>
       <c r="E124" t="s">
-        <v>382</v>
+        <v>53</v>
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>603</v>
+        <v>466</v>
       </c>
       <c r="H124" t="n">
-        <v>59110</v>
+        <v>1984493</v>
       </c>
       <c r="I124" t="n">
-        <v>1020.722</v>
-      </c>
-      <c r="J124" t="n">
-        <v>7</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.121</v>
-      </c>
+        <v>952.864</v>
+      </c>
+      <c r="J124"/>
+      <c r="K124"/>
       <c r="L124" t="n">
-        <v>23</v>
+        <v>1981</v>
       </c>
       <c r="M124" t="n">
-        <v>0.397</v>
-      </c>
-      <c r="N124" t="n">
-        <v>0.701</v>
-      </c>
-      <c r="O124" t="n">
-        <v>1.4</v>
-      </c>
+        <v>0.951</v>
+      </c>
+      <c r="N124"/>
+      <c r="O124"/>
       <c r="P124" t="s">
-        <v>382</v>
+        <v>53</v>
       </c>
       <c r="Q124" t="s">
-        <v>381</v>
+        <v>667</v>
       </c>
       <c r="R124" t="s">
-        <v>383</v>
+        <v>61</v>
       </c>
       <c r="S124" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B125" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44661</v>
+        <v>44534</v>
       </c>
       <c r="D125" t="s">
-        <v>668</v>
+        <v>387</v>
       </c>
       <c r="E125" t="s">
-        <v>669</v>
+        <v>388</v>
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>739</v>
+        <v>603</v>
       </c>
       <c r="H125" t="n">
-        <v>11043714</v>
+        <v>59110</v>
       </c>
       <c r="I125" t="n">
-        <v>2020.575</v>
+        <v>1020.722</v>
       </c>
       <c r="J125" t="n">
-        <v>673</v>
+        <v>7</v>
       </c>
       <c r="K125" t="n">
-        <v>0.123</v>
+        <v>0.121</v>
       </c>
       <c r="L125" t="n">
-        <v>3239</v>
+        <v>23</v>
       </c>
       <c r="M125" t="n">
-        <v>0.593</v>
+        <v>0.397</v>
       </c>
       <c r="N125" t="n">
-        <v>0.156</v>
+        <v>0.701</v>
       </c>
       <c r="O125" t="n">
-        <v>6.4</v>
+        <v>1.4</v>
       </c>
       <c r="P125" t="s">
-        <v>669</v>
+        <v>388</v>
       </c>
       <c r="Q125" t="s">
-        <v>668</v>
+        <v>387</v>
       </c>
       <c r="R125" t="s">
-        <v>45</v>
+        <v>389</v>
       </c>
       <c r="S125" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B126" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>44632</v>
+        <v>44661</v>
       </c>
       <c r="D126" t="s">
-        <v>21</v>
+        <v>674</v>
       </c>
       <c r="E126" t="s">
-        <v>22</v>
+        <v>675</v>
       </c>
       <c r="F126"/>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>739</v>
       </c>
       <c r="H126" t="n">
-        <v>1986264</v>
+        <v>11043714</v>
       </c>
       <c r="I126" t="n">
-        <v>380.264</v>
-      </c>
-      <c r="J126"/>
-      <c r="K126"/>
+        <v>2020.575</v>
+      </c>
+      <c r="J126" t="n">
+        <v>673</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.123</v>
+      </c>
       <c r="L126" t="n">
-        <v>0</v>
+        <v>3239</v>
       </c>
       <c r="M126" t="n">
-        <v>0</v>
-      </c>
-      <c r="N126"/>
-      <c r="O126"/>
+        <v>0.593</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="O126" t="n">
+        <v>6.4</v>
+      </c>
       <c r="P126" t="s">
-        <v>23</v>
+        <v>675</v>
       </c>
       <c r="Q126" t="s">
-        <v>24</v>
+        <v>674</v>
       </c>
       <c r="R126" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="S126" t="s">
-        <v>26</v>
+        <v>676</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="B127" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44662</v>
+        <v>44632</v>
       </c>
       <c r="D127" t="s">
-        <v>675</v>
+        <v>21</v>
       </c>
       <c r="E127" t="s">
-        <v>676</v>
+        <v>22</v>
       </c>
       <c r="F127"/>
       <c r="G127" t="n">
-        <v>662</v>
+        <v>2</v>
       </c>
       <c r="H127" t="n">
-        <v>27763120</v>
+        <v>1986264</v>
       </c>
       <c r="I127" t="n">
-        <v>123.282</v>
+        <v>380.264</v>
       </c>
       <c r="J127"/>
       <c r="K127"/>
       <c r="L127" t="n">
-        <v>25810</v>
+        <v>0</v>
       </c>
       <c r="M127" t="n">
-        <v>0.115</v>
+        <v>0</v>
       </c>
       <c r="N127"/>
       <c r="O127"/>
       <c r="P127" t="s">
-        <v>676</v>
+        <v>23</v>
       </c>
       <c r="Q127" t="s">
-        <v>675</v>
+        <v>24</v>
       </c>
       <c r="R127" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S127" t="s">
-        <v>677</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B128" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44661</v>
+        <v>44662</v>
       </c>
       <c r="D128" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E128" t="s">
-        <v>53</v>
+        <v>682</v>
       </c>
       <c r="F128"/>
       <c r="G128" t="n">
-        <v>556</v>
-      </c>
-      <c r="H128"/>
-      <c r="I128"/>
-      <c r="J128" t="n">
-        <v>4237</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.811</v>
-      </c>
-      <c r="L128"/>
-      <c r="M128"/>
+        <v>662</v>
+      </c>
+      <c r="H128" t="n">
+        <v>27763120</v>
+      </c>
+      <c r="I128" t="n">
+        <v>123.282</v>
+      </c>
+      <c r="J128"/>
+      <c r="K128"/>
+      <c r="L128" t="n">
+        <v>25810</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0.115</v>
+      </c>
       <c r="N128"/>
       <c r="O128"/>
       <c r="P128" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q128" t="s">
         <v>681</v>
-      </c>
-      <c r="Q128" t="s">
-        <v>682</v>
       </c>
       <c r="R128" t="s">
         <v>61</v>
@@ -10376,42 +10402,30 @@
         <v>685</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>44660</v>
+        <v>44661</v>
       </c>
       <c r="D129" t="s">
         <v>686</v>
       </c>
       <c r="E129" t="s">
-        <v>687</v>
+        <v>53</v>
       </c>
       <c r="F129"/>
       <c r="G129" t="n">
-        <v>744</v>
-      </c>
-      <c r="H129" t="n">
-        <v>5749354</v>
-      </c>
-      <c r="I129" t="n">
-        <v>1312.164</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="H129"/>
+      <c r="I129"/>
       <c r="J129" t="n">
-        <v>5283</v>
+        <v>4237</v>
       </c>
       <c r="K129" t="n">
-        <v>1.206</v>
-      </c>
-      <c r="L129" t="n">
-        <v>5461</v>
-      </c>
-      <c r="M129" t="n">
-        <v>1.246</v>
-      </c>
-      <c r="N129" t="n">
-        <v>0.0438</v>
-      </c>
-      <c r="O129" t="n">
-        <v>22.8</v>
-      </c>
+        <v>0.811</v>
+      </c>
+      <c r="L129"/>
+      <c r="M129"/>
+      <c r="N129"/>
+      <c r="O129"/>
       <c r="P129" t="s">
         <v>687</v>
       </c>
@@ -10433,140 +10447,142 @@
         <v>691</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>44609</v>
+        <v>44660</v>
       </c>
       <c r="D130" t="s">
         <v>692</v>
       </c>
       <c r="E130" t="s">
-        <v>53</v>
+        <v>693</v>
       </c>
       <c r="F130"/>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>744</v>
       </c>
       <c r="H130" t="n">
-        <v>249149</v>
+        <v>5749354</v>
       </c>
       <c r="I130" t="n">
-        <v>27.322</v>
-      </c>
-      <c r="J130"/>
-      <c r="K130"/>
-      <c r="L130"/>
-      <c r="M130"/>
-      <c r="N130"/>
-      <c r="O130"/>
+        <v>1312.164</v>
+      </c>
+      <c r="J130" t="n">
+        <v>5283</v>
+      </c>
+      <c r="K130" t="n">
+        <v>1.206</v>
+      </c>
+      <c r="L130" t="n">
+        <v>5461</v>
+      </c>
+      <c r="M130" t="n">
+        <v>1.246</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0.0438</v>
+      </c>
+      <c r="O130" t="n">
+        <v>22.8</v>
+      </c>
       <c r="P130" t="s">
-        <v>414</v>
+        <v>693</v>
       </c>
       <c r="Q130" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="R130" t="s">
-        <v>317</v>
+        <v>61</v>
       </c>
       <c r="S130" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B131" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>44647</v>
+        <v>44609</v>
       </c>
       <c r="D131" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="E131" t="s">
-        <v>697</v>
+        <v>53</v>
       </c>
       <c r="F131"/>
       <c r="G131" t="n">
-        <v>744</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>2609819</v>
+        <v>249149</v>
       </c>
       <c r="I131" t="n">
-        <v>361.489</v>
+        <v>27.322</v>
       </c>
       <c r="J131"/>
       <c r="K131"/>
-      <c r="L131" t="n">
-        <v>1763</v>
-      </c>
-      <c r="M131" t="n">
-        <v>0.244</v>
-      </c>
-      <c r="N131" t="n">
-        <v>0.0654</v>
-      </c>
-      <c r="O131" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="L131"/>
+      <c r="M131"/>
+      <c r="N131"/>
+      <c r="O131"/>
       <c r="P131" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q131" t="s">
         <v>698</v>
       </c>
-      <c r="Q131" t="s">
+      <c r="R131" t="s">
+        <v>323</v>
+      </c>
+      <c r="S131" t="s">
         <v>699</v>
-      </c>
-      <c r="R131" t="s">
-        <v>61</v>
-      </c>
-      <c r="S131" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
+        <v>700</v>
+      </c>
+      <c r="B132" t="s">
         <v>701</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" s="1" t="n">
+        <v>44647</v>
+      </c>
+      <c r="D132" t="s">
         <v>702</v>
       </c>
-      <c r="C132" s="1" t="n">
-        <v>44651</v>
-      </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
         <v>703</v>
       </c>
-      <c r="E132" t="s">
-        <v>214</v>
-      </c>
-      <c r="F132" t="s">
-        <v>704</v>
-      </c>
+      <c r="F132"/>
       <c r="G132" t="n">
-        <v>721</v>
+        <v>744</v>
       </c>
       <c r="H132" t="n">
-        <v>28736342</v>
+        <v>2609819</v>
       </c>
       <c r="I132" t="n">
-        <v>861.416</v>
+        <v>361.489</v>
       </c>
       <c r="J132"/>
       <c r="K132"/>
       <c r="L132" t="n">
-        <v>48159</v>
+        <v>1763</v>
       </c>
       <c r="M132" t="n">
-        <v>1.444</v>
+        <v>0.244</v>
       </c>
       <c r="N132" t="n">
-        <v>0.01</v>
+        <v>0.0654</v>
       </c>
       <c r="O132" t="n">
-        <v>100</v>
+        <v>15.3</v>
       </c>
       <c r="P132" t="s">
-        <v>214</v>
+        <v>704</v>
       </c>
       <c r="Q132" t="s">
         <v>705</v>
@@ -10586,50 +10602,48 @@
         <v>708</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>44652</v>
+        <v>44651</v>
       </c>
       <c r="D133" t="s">
         <v>709</v>
       </c>
       <c r="E133" t="s">
+        <v>214</v>
+      </c>
+      <c r="F133" t="s">
         <v>710</v>
       </c>
-      <c r="F133"/>
       <c r="G133" t="n">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="H133" t="n">
-        <v>27289560</v>
+        <v>28736342</v>
       </c>
       <c r="I133" t="n">
-        <v>245.748</v>
-      </c>
-      <c r="J133" t="n">
-        <v>20030</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.18</v>
-      </c>
+        <v>861.416</v>
+      </c>
+      <c r="J133"/>
+      <c r="K133"/>
       <c r="L133" t="n">
-        <v>20857</v>
+        <v>48159</v>
       </c>
       <c r="M133" t="n">
-        <v>0.188</v>
+        <v>1.444</v>
       </c>
       <c r="N133" t="n">
-        <v>0.0162</v>
+        <v>0.01</v>
       </c>
       <c r="O133" t="n">
-        <v>61.7</v>
+        <v>100</v>
       </c>
       <c r="P133" t="s">
-        <v>414</v>
+        <v>214</v>
       </c>
       <c r="Q133" t="s">
         <v>711</v>
       </c>
       <c r="R133" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="S133" t="s">
         <v>712</v>
@@ -10643,7 +10657,7 @@
         <v>714</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="D134" t="s">
         <v>715</v>
@@ -10653,36 +10667,40 @@
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>108</v>
+        <v>729</v>
       </c>
       <c r="H134" t="n">
-        <v>36290058</v>
+        <v>27289560</v>
       </c>
       <c r="I134" t="n">
-        <v>960.131</v>
-      </c>
-      <c r="J134"/>
-      <c r="K134"/>
+        <v>245.748</v>
+      </c>
+      <c r="J134" t="n">
+        <v>20030</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.18</v>
+      </c>
       <c r="L134" t="n">
-        <v>42613</v>
+        <v>20857</v>
       </c>
       <c r="M134" t="n">
-        <v>1.127</v>
+        <v>0.188</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1276</v>
+        <v>0.0162</v>
       </c>
       <c r="O134" t="n">
-        <v>7.8</v>
+        <v>61.7</v>
       </c>
       <c r="P134" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q134" t="s">
         <v>717</v>
       </c>
-      <c r="Q134" t="s">
-        <v>715</v>
-      </c>
       <c r="R134" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="S134" t="s">
         <v>718</v>
@@ -10696,255 +10714,255 @@
         <v>720</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>44660</v>
+        <v>44651</v>
       </c>
       <c r="D135" t="s">
         <v>721</v>
       </c>
       <c r="E135" t="s">
-        <v>53</v>
+        <v>722</v>
       </c>
       <c r="F135"/>
       <c r="G135" t="n">
-        <v>770</v>
+        <v>108</v>
       </c>
       <c r="H135" t="n">
-        <v>40464651</v>
+        <v>36290058</v>
       </c>
       <c r="I135" t="n">
-        <v>3979.638</v>
-      </c>
-      <c r="J135" t="n">
-        <v>31384</v>
-      </c>
-      <c r="K135" t="n">
-        <v>3.087</v>
-      </c>
+        <v>960.131</v>
+      </c>
+      <c r="J135"/>
+      <c r="K135"/>
       <c r="L135" t="n">
-        <v>42074</v>
+        <v>42613</v>
       </c>
       <c r="M135" t="n">
-        <v>4.138</v>
-      </c>
-      <c r="N135"/>
-      <c r="O135"/>
+        <v>1.127</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0.1276</v>
+      </c>
+      <c r="O135" t="n">
+        <v>7.8</v>
+      </c>
       <c r="P135" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="Q135" t="s">
         <v>721</v>
       </c>
       <c r="R135" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S135" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B136" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>44658</v>
+        <v>44660</v>
       </c>
       <c r="D136" t="s">
-        <v>381</v>
+        <v>727</v>
       </c>
       <c r="E136" t="s">
-        <v>382</v>
+        <v>53</v>
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="H136" t="n">
-        <v>2658071</v>
+        <v>40464651</v>
       </c>
       <c r="I136" t="n">
-        <v>939.83</v>
+        <v>3979.638</v>
       </c>
       <c r="J136" t="n">
-        <v>1825</v>
+        <v>31384</v>
       </c>
       <c r="K136" t="n">
-        <v>0.645</v>
+        <v>3.087</v>
       </c>
       <c r="L136" t="n">
-        <v>2451</v>
+        <v>42074</v>
       </c>
       <c r="M136" t="n">
-        <v>0.867</v>
+        <v>4.138</v>
       </c>
       <c r="N136"/>
       <c r="O136"/>
       <c r="P136" t="s">
-        <v>382</v>
+        <v>728</v>
       </c>
       <c r="Q136" t="s">
-        <v>381</v>
+        <v>727</v>
       </c>
       <c r="R136" t="s">
-        <v>383</v>
+        <v>61</v>
       </c>
       <c r="S136" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="B137" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>44661</v>
+        <v>44658</v>
       </c>
       <c r="D137" t="s">
-        <v>729</v>
+        <v>387</v>
       </c>
       <c r="E137" t="s">
-        <v>730</v>
+        <v>388</v>
       </c>
       <c r="F137"/>
       <c r="G137" t="n">
-        <v>295</v>
+        <v>767</v>
       </c>
       <c r="H137" t="n">
-        <v>6557297</v>
+        <v>2658071</v>
       </c>
       <c r="I137" t="n">
-        <v>2237.585</v>
+        <v>939.83</v>
       </c>
       <c r="J137" t="n">
-        <v>15907</v>
+        <v>1825</v>
       </c>
       <c r="K137" t="n">
-        <v>5.428</v>
+        <v>0.645</v>
       </c>
       <c r="L137" t="n">
-        <v>14238</v>
+        <v>2451</v>
       </c>
       <c r="M137" t="n">
-        <v>4.859</v>
+        <v>0.867</v>
       </c>
       <c r="N137"/>
       <c r="O137"/>
       <c r="P137" t="s">
-        <v>731</v>
+        <v>388</v>
       </c>
       <c r="Q137" t="s">
+        <v>387</v>
+      </c>
+      <c r="R137" t="s">
+        <v>389</v>
+      </c>
+      <c r="S137" t="s">
         <v>732</v>
-      </c>
-      <c r="R137" t="s">
-        <v>45</v>
-      </c>
-      <c r="S137" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
+        <v>733</v>
+      </c>
+      <c r="B138" t="s">
         <v>734</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" s="1" t="n">
+        <v>44661</v>
+      </c>
+      <c r="D138" t="s">
         <v>735</v>
       </c>
-      <c r="C138" s="1" t="n">
-        <v>44630</v>
-      </c>
-      <c r="D138" t="s">
-        <v>715</v>
-      </c>
       <c r="E138" t="s">
-        <v>716</v>
+        <v>736</v>
       </c>
       <c r="F138"/>
       <c r="G138" t="n">
-        <v>104</v>
+        <v>295</v>
       </c>
       <c r="H138" t="n">
-        <v>21260367</v>
+        <v>6557297</v>
       </c>
       <c r="I138" t="n">
-        <v>1111.492</v>
-      </c>
-      <c r="J138"/>
-      <c r="K138"/>
+        <v>2237.585</v>
+      </c>
+      <c r="J138" t="n">
+        <v>15907</v>
+      </c>
+      <c r="K138" t="n">
+        <v>5.428</v>
+      </c>
       <c r="L138" t="n">
-        <v>75700</v>
+        <v>14238</v>
       </c>
       <c r="M138" t="n">
-        <v>3.958</v>
-      </c>
-      <c r="N138" t="n">
-        <v>0.0565</v>
-      </c>
-      <c r="O138" t="n">
-        <v>17.7</v>
-      </c>
+        <v>4.859</v>
+      </c>
+      <c r="N138"/>
+      <c r="O138"/>
       <c r="P138" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="Q138" t="s">
-        <v>715</v>
+        <v>738</v>
       </c>
       <c r="R138" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="S138" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="B139" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>44661</v>
+        <v>44630</v>
       </c>
       <c r="D139" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
       <c r="E139" t="s">
-        <v>740</v>
+        <v>722</v>
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
-        <v>565</v>
+        <v>104</v>
       </c>
       <c r="H139" t="n">
-        <v>286845263</v>
+        <v>21260367</v>
       </c>
       <c r="I139" t="n">
-        <v>1965.878</v>
+        <v>1111.492</v>
       </c>
       <c r="J139"/>
       <c r="K139"/>
       <c r="L139" t="n">
-        <v>206486</v>
+        <v>75700</v>
       </c>
       <c r="M139" t="n">
-        <v>1.415</v>
+        <v>3.958</v>
       </c>
       <c r="N139" t="n">
-        <v>0.0677</v>
+        <v>0.0565</v>
       </c>
       <c r="O139" t="n">
-        <v>14.8</v>
+        <v>17.7</v>
       </c>
       <c r="P139" t="s">
-        <v>740</v>
+        <v>723</v>
       </c>
       <c r="Q139" t="s">
-        <v>741</v>
+        <v>721</v>
       </c>
       <c r="R139" t="s">
         <v>61</v>
@@ -10961,7 +10979,7 @@
         <v>744</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>44662</v>
+        <v>44661</v>
       </c>
       <c r="D140" t="s">
         <v>745</v>
@@ -10971,28 +10989,28 @@
       </c>
       <c r="F140"/>
       <c r="G140" t="n">
-        <v>612</v>
+        <v>565</v>
       </c>
       <c r="H140" t="n">
-        <v>5166836</v>
+        <v>286845263</v>
       </c>
       <c r="I140" t="n">
-        <v>389.171</v>
-      </c>
-      <c r="J140" t="n">
-        <v>3823</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.288</v>
-      </c>
+        <v>1965.878</v>
+      </c>
+      <c r="J140"/>
+      <c r="K140"/>
       <c r="L140" t="n">
-        <v>4705</v>
+        <v>206486</v>
       </c>
       <c r="M140" t="n">
-        <v>0.354</v>
-      </c>
-      <c r="N140"/>
-      <c r="O140"/>
+        <v>1.415</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0.0677</v>
+      </c>
+      <c r="O140" t="n">
+        <v>14.8</v>
+      </c>
       <c r="P140" t="s">
         <v>746</v>
       </c>
@@ -11000,7 +11018,7 @@
         <v>747</v>
       </c>
       <c r="R140" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="S140" t="s">
         <v>748</v>
@@ -11020,311 +11038,305 @@
         <v>751</v>
       </c>
       <c r="E141" t="s">
-        <v>53</v>
+        <v>752</v>
       </c>
       <c r="F141"/>
       <c r="G141" t="n">
-        <v>137</v>
+        <v>612</v>
       </c>
       <c r="H141" t="n">
-        <v>68733</v>
+        <v>5166836</v>
       </c>
       <c r="I141" t="n">
-        <v>1283.625</v>
-      </c>
-      <c r="J141"/>
-      <c r="K141"/>
+        <v>389.171</v>
+      </c>
+      <c r="J141" t="n">
+        <v>3823</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0.288</v>
+      </c>
       <c r="L141" t="n">
-        <v>70</v>
+        <v>4705</v>
       </c>
       <c r="M141" t="n">
-        <v>1.307</v>
+        <v>0.354</v>
       </c>
       <c r="N141"/>
       <c r="O141"/>
       <c r="P141" t="s">
-        <v>53</v>
+        <v>752</v>
       </c>
       <c r="Q141" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="R141" t="s">
-        <v>317</v>
+        <v>136</v>
       </c>
       <c r="S141" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B142" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>44661</v>
+        <v>44662</v>
       </c>
       <c r="D142" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E142" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="F142"/>
       <c r="G142" t="n">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="H142" t="n">
-        <v>141215</v>
+        <v>68733</v>
       </c>
       <c r="I142" t="n">
-        <v>765.804</v>
+        <v>1283.625</v>
       </c>
       <c r="J142"/>
       <c r="K142"/>
       <c r="L142" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="M142" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="N142" t="n">
-        <v>0.1372</v>
-      </c>
-      <c r="O142" t="n">
-        <v>7.3</v>
-      </c>
+        <v>1.307</v>
+      </c>
+      <c r="N142"/>
+      <c r="O142"/>
       <c r="P142" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="Q142" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="R142" t="s">
-        <v>25</v>
+        <v>323</v>
       </c>
       <c r="S142" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B143" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D143" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="E143" t="s">
-        <v>761</v>
+        <v>88</v>
       </c>
       <c r="F143"/>
       <c r="G143" t="n">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="H143" t="n">
-        <v>104547</v>
+        <v>141215</v>
       </c>
       <c r="I143" t="n">
-        <v>939.588</v>
+        <v>765.804</v>
       </c>
       <c r="J143"/>
       <c r="K143"/>
       <c r="L143" t="n">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="M143" t="n">
-        <v>0.306</v>
+        <v>0.412</v>
       </c>
       <c r="N143" t="n">
-        <v>0.0168</v>
+        <v>0.1372</v>
       </c>
       <c r="O143" t="n">
-        <v>59.5</v>
+        <v>7.3</v>
       </c>
       <c r="P143" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q143" t="s">
         <v>762</v>
-      </c>
-      <c r="Q143" t="s">
-        <v>763</v>
       </c>
       <c r="R143" t="s">
         <v>25</v>
       </c>
       <c r="S143" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
+        <v>764</v>
+      </c>
+      <c r="B144" t="s">
         <v>765</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" s="1" t="n">
+        <v>44658</v>
+      </c>
+      <c r="D144" t="s">
         <v>766</v>
       </c>
-      <c r="C144" s="1" t="n">
-        <v>44661</v>
-      </c>
-      <c r="D144" t="s">
+      <c r="E144" t="s">
         <v>767</v>
-      </c>
-      <c r="E144" t="s">
-        <v>53</v>
       </c>
       <c r="F144"/>
       <c r="G144" t="n">
+        <v>62</v>
+      </c>
+      <c r="H144" t="n">
+        <v>104547</v>
+      </c>
+      <c r="I144" t="n">
+        <v>939.588</v>
+      </c>
+      <c r="J144"/>
+      <c r="K144"/>
+      <c r="L144" t="n">
+        <v>34</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0.0168</v>
+      </c>
+      <c r="O144" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="P144" t="s">
+        <v>768</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>769</v>
+      </c>
+      <c r="R144" t="s">
+        <v>25</v>
+      </c>
+      <c r="S144" t="s">
         <v>770</v>
-      </c>
-      <c r="H144" t="n">
-        <v>41680662</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1179.396</v>
-      </c>
-      <c r="J144" t="n">
-        <v>15836</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.448</v>
-      </c>
-      <c r="L144" t="n">
-        <v>12659</v>
-      </c>
-      <c r="M144" t="n">
-        <v>0.358</v>
-      </c>
-      <c r="N144" t="n">
-        <v>0.0083</v>
-      </c>
-      <c r="O144" t="n">
-        <v>120.2</v>
-      </c>
-      <c r="P144" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q144" t="s">
-        <v>767</v>
-      </c>
-      <c r="R144" t="s">
-        <v>61</v>
-      </c>
-      <c r="S144" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B145" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>44662</v>
+        <v>44661</v>
       </c>
       <c r="D145" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="E145" t="s">
-        <v>772</v>
+        <v>53</v>
       </c>
       <c r="F145"/>
       <c r="G145" t="n">
         <v>770</v>
       </c>
       <c r="H145" t="n">
-        <v>1083008</v>
+        <v>41680662</v>
       </c>
       <c r="I145" t="n">
-        <v>62.979</v>
+        <v>1179.396</v>
       </c>
       <c r="J145" t="n">
-        <v>918</v>
+        <v>15836</v>
       </c>
       <c r="K145" t="n">
-        <v>0.053</v>
+        <v>0.448</v>
       </c>
       <c r="L145" t="n">
-        <v>925</v>
+        <v>12659</v>
       </c>
       <c r="M145" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="N145"/>
-      <c r="O145"/>
+        <v>0.358</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0.0083</v>
+      </c>
+      <c r="O145" t="n">
+        <v>120.2</v>
+      </c>
       <c r="P145" t="s">
-        <v>772</v>
+        <v>53</v>
       </c>
       <c r="Q145" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="R145" t="s">
         <v>61</v>
       </c>
       <c r="S145" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B146" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>44661</v>
+        <v>44662</v>
       </c>
       <c r="D146" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E146" t="s">
-        <v>53</v>
-      </c>
-      <c r="F146" t="s">
+        <v>778</v>
+      </c>
+      <c r="F146"/>
+      <c r="G146" t="n">
+        <v>770</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1083008</v>
+      </c>
+      <c r="I146" t="n">
+        <v>62.979</v>
+      </c>
+      <c r="J146" t="n">
+        <v>918</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="L146" t="n">
+        <v>925</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="N146"/>
+      <c r="O146"/>
+      <c r="P146" t="s">
+        <v>778</v>
+      </c>
+      <c r="Q146" t="s">
         <v>777</v>
       </c>
-      <c r="G146" t="n">
-        <v>774</v>
-      </c>
-      <c r="H146" t="n">
-        <v>9302535</v>
-      </c>
-      <c r="I146" t="n">
-        <v>1353.776</v>
-      </c>
-      <c r="J146" t="n">
-        <v>7027</v>
-      </c>
-      <c r="K146" t="n">
-        <v>1.023</v>
-      </c>
-      <c r="L146" t="n">
-        <v>11520</v>
-      </c>
-      <c r="M146" t="n">
-        <v>1.676</v>
-      </c>
-      <c r="N146" t="n">
-        <v>0.1078</v>
-      </c>
-      <c r="O146" t="n">
-        <v>9.3</v>
-      </c>
-      <c r="P146" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q146" t="s">
-        <v>778</v>
-      </c>
       <c r="R146" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="S146" t="s">
         <v>779</v>
@@ -11338,99 +11350,105 @@
         <v>781</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D147" t="s">
-        <v>35</v>
+        <v>782</v>
       </c>
       <c r="E147" t="s">
-        <v>36</v>
-      </c>
-      <c r="F147"/>
+        <v>53</v>
+      </c>
+      <c r="F147" t="s">
+        <v>783</v>
+      </c>
       <c r="G147" t="n">
-        <v>3</v>
+        <v>774</v>
       </c>
       <c r="H147" t="n">
-        <v>405779</v>
+        <v>9302535</v>
       </c>
       <c r="I147" t="n">
-        <v>49.842</v>
-      </c>
-      <c r="J147"/>
-      <c r="K147"/>
+        <v>1353.776</v>
+      </c>
+      <c r="J147" t="n">
+        <v>7027</v>
+      </c>
+      <c r="K147" t="n">
+        <v>1.023</v>
+      </c>
       <c r="L147" t="n">
-        <v>838</v>
+        <v>11520</v>
       </c>
       <c r="M147" t="n">
-        <v>0.103</v>
+        <v>1.676</v>
       </c>
       <c r="N147" t="n">
-        <v>0.0002</v>
+        <v>0.1078</v>
       </c>
       <c r="O147" t="n">
-        <v>5860.1</v>
+        <v>9.3</v>
       </c>
       <c r="P147" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="Q147" t="s">
-        <v>37</v>
+        <v>784</v>
       </c>
       <c r="R147" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="S147" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="B148" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>44655</v>
+        <v>44658</v>
       </c>
       <c r="D148" t="s">
-        <v>785</v>
+        <v>35</v>
       </c>
       <c r="E148" t="s">
-        <v>786</v>
+        <v>36</v>
       </c>
       <c r="F148"/>
       <c r="G148" t="n">
-        <v>77</v>
-      </c>
-      <c r="H148"/>
-      <c r="I148"/>
-      <c r="J148" t="n">
-        <v>45800</v>
-      </c>
-      <c r="K148" t="n">
-        <v>8.398</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H148" t="n">
+        <v>405779</v>
+      </c>
+      <c r="I148" t="n">
+        <v>49.842</v>
+      </c>
+      <c r="J148"/>
+      <c r="K148"/>
       <c r="L148" t="n">
-        <v>45800</v>
+        <v>838</v>
       </c>
       <c r="M148" t="n">
-        <v>8.398</v>
+        <v>0.103</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1177</v>
+        <v>0.0002</v>
       </c>
       <c r="O148" t="n">
-        <v>8.5</v>
+        <v>5860.1</v>
       </c>
       <c r="P148" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="Q148" t="s">
-        <v>787</v>
+        <v>37</v>
       </c>
       <c r="R148" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="S148" t="s">
         <v>788</v>
@@ -11444,1133 +11462,1129 @@
         <v>790</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>44658</v>
+        <v>44655</v>
       </c>
       <c r="D149" t="s">
         <v>791</v>
       </c>
       <c r="E149" t="s">
-        <v>53</v>
-      </c>
-      <c r="F149" t="s">
         <v>792</v>
       </c>
+      <c r="F149"/>
       <c r="G149" t="n">
-        <v>763</v>
-      </c>
-      <c r="H149" t="n">
-        <v>50707732</v>
-      </c>
-      <c r="I149" t="n">
-        <v>9305.417</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H149"/>
+      <c r="I149"/>
       <c r="J149" t="n">
-        <v>9037</v>
+        <v>45800</v>
       </c>
       <c r="K149" t="n">
-        <v>1.658</v>
+        <v>8.398</v>
       </c>
       <c r="L149" t="n">
-        <v>17955</v>
+        <v>45800</v>
       </c>
       <c r="M149" t="n">
-        <v>3.295</v>
+        <v>8.398</v>
       </c>
       <c r="N149" t="n">
-        <v>0.263</v>
+        <v>0.1177</v>
       </c>
       <c r="O149" t="n">
-        <v>3.8</v>
+        <v>8.5</v>
       </c>
       <c r="P149" t="s">
         <v>53</v>
       </c>
       <c r="Q149" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="R149" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="S149" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B150" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>44661</v>
+        <v>44658</v>
       </c>
       <c r="D150" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E150" t="s">
-        <v>797</v>
+        <v>53</v>
       </c>
       <c r="F150" t="s">
         <v>798</v>
       </c>
       <c r="G150" t="n">
-        <v>781</v>
+        <v>763</v>
       </c>
       <c r="H150" t="n">
-        <v>4920100</v>
+        <v>50707732</v>
       </c>
       <c r="I150" t="n">
-        <v>2366.886</v>
+        <v>9305.417</v>
       </c>
       <c r="J150" t="n">
-        <v>3790</v>
+        <v>9037</v>
       </c>
       <c r="K150" t="n">
-        <v>1.823</v>
+        <v>1.658</v>
       </c>
       <c r="L150" t="n">
-        <v>11168</v>
+        <v>17955</v>
       </c>
       <c r="M150" t="n">
-        <v>5.373</v>
+        <v>3.295</v>
       </c>
       <c r="N150" t="n">
-        <v>0.165</v>
+        <v>0.263</v>
       </c>
       <c r="O150" t="n">
-        <v>6.1</v>
+        <v>3.8</v>
       </c>
       <c r="P150" t="s">
-        <v>799</v>
+        <v>53</v>
       </c>
       <c r="Q150" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="R150" t="s">
         <v>61</v>
       </c>
       <c r="S150" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
+        <v>800</v>
+      </c>
+      <c r="B151" t="s">
         <v>801</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C151" s="1" t="n">
+        <v>44661</v>
+      </c>
+      <c r="D151" t="s">
         <v>802</v>
       </c>
-      <c r="C151" s="1" t="n">
-        <v>44632</v>
-      </c>
-      <c r="D151" t="s">
-        <v>35</v>
-      </c>
       <c r="E151" t="s">
-        <v>36</v>
-      </c>
-      <c r="F151"/>
+        <v>803</v>
+      </c>
+      <c r="F151" t="s">
+        <v>804</v>
+      </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>781</v>
       </c>
       <c r="H151" t="n">
-        <v>400466</v>
+        <v>4920100</v>
       </c>
       <c r="I151" t="n">
-        <v>24.479</v>
-      </c>
-      <c r="J151"/>
-      <c r="K151"/>
-      <c r="L151"/>
-      <c r="M151"/>
-      <c r="N151"/>
-      <c r="O151"/>
+        <v>2366.886</v>
+      </c>
+      <c r="J151" t="n">
+        <v>3790</v>
+      </c>
+      <c r="K151" t="n">
+        <v>1.823</v>
+      </c>
+      <c r="L151" t="n">
+        <v>11168</v>
+      </c>
+      <c r="M151" t="n">
+        <v>5.373</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="O151" t="n">
+        <v>6.1</v>
+      </c>
       <c r="P151" t="s">
-        <v>36</v>
+        <v>805</v>
       </c>
       <c r="Q151" t="s">
-        <v>37</v>
+        <v>802</v>
       </c>
       <c r="R151" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="S151" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B152" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>44661</v>
+        <v>44632</v>
       </c>
       <c r="D152" t="s">
-        <v>806</v>
+        <v>35</v>
       </c>
       <c r="E152" t="s">
-        <v>807</v>
-      </c>
-      <c r="F152" t="s">
-        <v>808</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F152"/>
       <c r="G152" t="n">
-        <v>761</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
-        <v>24060151</v>
+        <v>400466</v>
       </c>
       <c r="I152" t="n">
-        <v>400.722</v>
-      </c>
-      <c r="J152" t="n">
-        <v>15739</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.262</v>
-      </c>
-      <c r="L152" t="n">
-        <v>21493</v>
-      </c>
-      <c r="M152" t="n">
-        <v>0.358</v>
-      </c>
-      <c r="N152" t="n">
-        <v>0.0606</v>
-      </c>
-      <c r="O152" t="n">
-        <v>16.5</v>
-      </c>
+        <v>24.479</v>
+      </c>
+      <c r="J152"/>
+      <c r="K152"/>
+      <c r="L152"/>
+      <c r="M152"/>
+      <c r="N152"/>
+      <c r="O152"/>
       <c r="P152" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>37</v>
+      </c>
+      <c r="R152" t="s">
+        <v>25</v>
+      </c>
+      <c r="S152" t="s">
         <v>809</v>
-      </c>
-      <c r="Q152" t="s">
-        <v>806</v>
-      </c>
-      <c r="R152" t="s">
-        <v>45</v>
-      </c>
-      <c r="S152" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
+        <v>810</v>
+      </c>
+      <c r="B153" t="s">
         <v>811</v>
-      </c>
-      <c r="B153" t="s">
-        <v>812</v>
       </c>
       <c r="C153" s="1" t="n">
         <v>44661</v>
       </c>
       <c r="D153" t="s">
+        <v>812</v>
+      </c>
+      <c r="E153" t="s">
         <v>813</v>
       </c>
-      <c r="E153" t="s">
+      <c r="F153" t="s">
         <v>814</v>
       </c>
-      <c r="F153" t="s">
+      <c r="G153" t="n">
+        <v>761</v>
+      </c>
+      <c r="H153" t="n">
+        <v>24060151</v>
+      </c>
+      <c r="I153" t="n">
+        <v>400.722</v>
+      </c>
+      <c r="J153" t="n">
+        <v>15739</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0.262</v>
+      </c>
+      <c r="L153" t="n">
+        <v>21493</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0.0606</v>
+      </c>
+      <c r="O153" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="P153" t="s">
         <v>815</v>
       </c>
-      <c r="G153" t="n">
-        <v>793</v>
-      </c>
-      <c r="H153" t="n">
-        <v>90672850</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1767.323</v>
-      </c>
-      <c r="J153" t="n">
-        <v>181012</v>
-      </c>
-      <c r="K153" t="n">
-        <v>3.528</v>
-      </c>
-      <c r="L153" t="n">
-        <v>324795</v>
-      </c>
-      <c r="M153" t="n">
-        <v>6.331</v>
-      </c>
-      <c r="N153" t="n">
-        <v>0.626</v>
-      </c>
-      <c r="O153" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P153" t="s">
-        <v>816</v>
-      </c>
       <c r="Q153" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="R153" t="s">
         <v>45</v>
       </c>
       <c r="S153" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
+        <v>817</v>
+      </c>
+      <c r="B154" t="s">
+        <v>818</v>
+      </c>
+      <c r="C154" s="1" t="n">
+        <v>44661</v>
+      </c>
+      <c r="D154" t="s">
         <v>819</v>
       </c>
-      <c r="B154" t="s">
+      <c r="E154" t="s">
         <v>820</v>
       </c>
-      <c r="C154" s="1" t="n">
-        <v>44658</v>
-      </c>
-      <c r="D154" t="s">
-        <v>35</v>
-      </c>
-      <c r="E154" t="s">
-        <v>36</v>
-      </c>
-      <c r="F154"/>
+      <c r="F154" t="s">
+        <v>821</v>
+      </c>
       <c r="G154" t="n">
-        <v>164</v>
+        <v>793</v>
       </c>
       <c r="H154" t="n">
-        <v>364018</v>
+        <v>90672850</v>
       </c>
       <c r="I154" t="n">
-        <v>31.984</v>
-      </c>
-      <c r="J154"/>
-      <c r="K154"/>
+        <v>1767.323</v>
+      </c>
+      <c r="J154" t="n">
+        <v>181012</v>
+      </c>
+      <c r="K154" t="n">
+        <v>3.528</v>
+      </c>
       <c r="L154" t="n">
-        <v>563</v>
+        <v>324795</v>
       </c>
       <c r="M154" t="n">
-        <v>0.049</v>
+        <v>6.331</v>
       </c>
       <c r="N154" t="n">
-        <v>0.015</v>
+        <v>0.626</v>
       </c>
       <c r="O154" t="n">
-        <v>66.8</v>
+        <v>1.6</v>
       </c>
       <c r="P154" t="s">
-        <v>36</v>
+        <v>822</v>
       </c>
       <c r="Q154" t="s">
-        <v>37</v>
+        <v>823</v>
       </c>
       <c r="R154" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="S154" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="B155" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="D155" t="s">
-        <v>824</v>
+        <v>35</v>
       </c>
       <c r="E155" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F155"/>
       <c r="G155" t="n">
-        <v>753</v>
+        <v>164</v>
       </c>
       <c r="H155" t="n">
-        <v>88940700</v>
+        <v>364018</v>
       </c>
       <c r="I155" t="n">
-        <v>1902.67</v>
-      </c>
-      <c r="J155" t="n">
-        <v>56587</v>
-      </c>
-      <c r="K155" t="n">
-        <v>1.211</v>
-      </c>
+        <v>31.984</v>
+      </c>
+      <c r="J155"/>
+      <c r="K155"/>
       <c r="L155" t="n">
-        <v>55317</v>
+        <v>563</v>
       </c>
       <c r="M155" t="n">
-        <v>1.183</v>
+        <v>0.049</v>
       </c>
       <c r="N155" t="n">
-        <v>0.181</v>
+        <v>0.015</v>
       </c>
       <c r="O155" t="n">
-        <v>5.5</v>
+        <v>66.8</v>
       </c>
       <c r="P155" t="s">
-        <v>825</v>
+        <v>36</v>
       </c>
       <c r="Q155" t="s">
-        <v>824</v>
+        <v>37</v>
       </c>
       <c r="R155" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S155" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B156" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>44661</v>
+        <v>44657</v>
       </c>
       <c r="D156" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E156" t="s">
-        <v>830</v>
+        <v>53</v>
       </c>
       <c r="F156"/>
       <c r="G156" t="n">
-        <v>775</v>
+        <v>753</v>
       </c>
       <c r="H156" t="n">
-        <v>7589396</v>
+        <v>88940700</v>
       </c>
       <c r="I156" t="n">
-        <v>353.039</v>
+        <v>1902.67</v>
       </c>
       <c r="J156" t="n">
-        <v>3140</v>
+        <v>56587</v>
       </c>
       <c r="K156" t="n">
-        <v>0.146</v>
+        <v>1.211</v>
       </c>
       <c r="L156" t="n">
-        <v>3691</v>
+        <v>55317</v>
       </c>
       <c r="M156" t="n">
-        <v>0.172</v>
+        <v>1.183</v>
       </c>
       <c r="N156" t="n">
-        <v>0.0233</v>
+        <v>0.181</v>
       </c>
       <c r="O156" t="n">
-        <v>43</v>
+        <v>5.5</v>
       </c>
       <c r="P156" t="s">
+        <v>831</v>
+      </c>
+      <c r="Q156" t="s">
         <v>830</v>
-      </c>
-      <c r="Q156" t="s">
-        <v>829</v>
       </c>
       <c r="R156" t="s">
         <v>61</v>
       </c>
       <c r="S156" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B157" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>44605</v>
+        <v>44661</v>
       </c>
       <c r="D157" t="s">
-        <v>35</v>
+        <v>835</v>
       </c>
       <c r="E157" t="s">
-        <v>36</v>
+        <v>836</v>
       </c>
       <c r="F157"/>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>775</v>
       </c>
       <c r="H157" t="n">
-        <v>562941</v>
+        <v>7589396</v>
       </c>
       <c r="I157" t="n">
-        <v>12.535</v>
-      </c>
-      <c r="J157"/>
-      <c r="K157"/>
-      <c r="L157"/>
-      <c r="M157"/>
-      <c r="N157"/>
-      <c r="O157"/>
+        <v>353.039</v>
+      </c>
+      <c r="J157" t="n">
+        <v>3140</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="L157" t="n">
+        <v>3691</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0.0233</v>
+      </c>
+      <c r="O157" t="n">
+        <v>43</v>
+      </c>
       <c r="P157" t="s">
-        <v>36</v>
+        <v>836</v>
       </c>
       <c r="Q157" t="s">
-        <v>37</v>
+        <v>835</v>
       </c>
       <c r="R157" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="S157" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="B158" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>44658</v>
+        <v>44605</v>
       </c>
       <c r="D158" t="s">
-        <v>837</v>
+        <v>35</v>
       </c>
       <c r="E158" t="s">
-        <v>838</v>
+        <v>36</v>
       </c>
       <c r="F158"/>
       <c r="G158" t="n">
-        <v>209</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
-        <v>81866</v>
+        <v>562941</v>
       </c>
       <c r="I158" t="n">
-        <v>138.334</v>
-      </c>
-      <c r="J158" t="n">
-        <v>103</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.174</v>
-      </c>
-      <c r="L158" t="n">
-        <v>15</v>
-      </c>
-      <c r="M158" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="N158" t="n">
-        <v>0.141</v>
-      </c>
-      <c r="O158" t="n">
-        <v>7.1</v>
-      </c>
+        <v>12.535</v>
+      </c>
+      <c r="J158"/>
+      <c r="K158"/>
+      <c r="L158"/>
+      <c r="M158"/>
+      <c r="N158"/>
+      <c r="O158"/>
       <c r="P158" t="s">
-        <v>838</v>
+        <v>36</v>
       </c>
       <c r="Q158" t="s">
-        <v>837</v>
+        <v>37</v>
       </c>
       <c r="R158" t="s">
         <v>25</v>
       </c>
       <c r="S158" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B159" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>44654</v>
+        <v>44658</v>
       </c>
       <c r="D159" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E159" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F159"/>
       <c r="G159" t="n">
-        <v>644</v>
+        <v>209</v>
       </c>
       <c r="H159" t="n">
-        <v>18188429</v>
+        <v>81866</v>
       </c>
       <c r="I159" t="n">
-        <v>1790.172</v>
+        <v>138.334</v>
       </c>
       <c r="J159" t="n">
-        <v>4202</v>
+        <v>103</v>
       </c>
       <c r="K159" t="n">
-        <v>0.414</v>
+        <v>0.174</v>
       </c>
       <c r="L159" t="n">
-        <v>4202</v>
+        <v>15</v>
       </c>
       <c r="M159" t="n">
-        <v>0.414</v>
+        <v>0.025</v>
       </c>
       <c r="N159" t="n">
-        <v>0.2079</v>
+        <v>0.141</v>
       </c>
       <c r="O159" t="n">
-        <v>4.8</v>
+        <v>7.1</v>
       </c>
       <c r="P159" t="s">
         <v>844</v>
       </c>
       <c r="Q159" t="s">
+        <v>843</v>
+      </c>
+      <c r="R159" t="s">
+        <v>25</v>
+      </c>
+      <c r="S159" t="s">
         <v>845</v>
-      </c>
-      <c r="R159" t="s">
-        <v>61</v>
-      </c>
-      <c r="S159" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
+        <v>846</v>
+      </c>
+      <c r="B160" t="s">
         <v>847</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" s="1" t="n">
+        <v>44654</v>
+      </c>
+      <c r="D160" t="s">
         <v>848</v>
       </c>
-      <c r="C160" s="1" t="n">
-        <v>44655</v>
-      </c>
-      <c r="D160" t="s">
-        <v>540</v>
-      </c>
       <c r="E160" t="s">
-        <v>541</v>
+        <v>849</v>
       </c>
       <c r="F160"/>
       <c r="G160" t="n">
-        <v>682</v>
+        <v>644</v>
       </c>
       <c r="H160" t="n">
-        <v>20400357</v>
+        <v>18188429</v>
       </c>
       <c r="I160" t="n">
-        <v>2340.7</v>
+        <v>1790.172</v>
       </c>
       <c r="J160" t="n">
-        <v>20562</v>
+        <v>4202</v>
       </c>
       <c r="K160" t="n">
-        <v>2.359</v>
+        <v>0.414</v>
       </c>
       <c r="L160" t="n">
-        <v>26985</v>
+        <v>4202</v>
       </c>
       <c r="M160" t="n">
-        <v>3.096</v>
+        <v>0.414</v>
       </c>
       <c r="N160" t="n">
-        <v>0.352</v>
+        <v>0.2079</v>
       </c>
       <c r="O160" t="n">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="P160" t="s">
-        <v>541</v>
+        <v>850</v>
       </c>
       <c r="Q160" t="s">
-        <v>542</v>
+        <v>851</v>
       </c>
       <c r="R160" t="s">
         <v>61</v>
       </c>
       <c r="S160" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B161" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>44632</v>
+        <v>44655</v>
       </c>
       <c r="D161" t="s">
-        <v>21</v>
+        <v>546</v>
       </c>
       <c r="E161" t="s">
-        <v>22</v>
+        <v>547</v>
       </c>
       <c r="F161"/>
       <c r="G161" t="n">
-        <v>2</v>
+        <v>682</v>
       </c>
       <c r="H161" t="n">
-        <v>158382</v>
+        <v>20400357</v>
       </c>
       <c r="I161" t="n">
-        <v>8.666</v>
-      </c>
-      <c r="J161"/>
-      <c r="K161"/>
+        <v>2340.7</v>
+      </c>
+      <c r="J161" t="n">
+        <v>20562</v>
+      </c>
+      <c r="K161" t="n">
+        <v>2.359</v>
+      </c>
       <c r="L161" t="n">
-        <v>157</v>
+        <v>26985</v>
       </c>
       <c r="M161" t="n">
-        <v>0.009</v>
+        <v>3.096</v>
       </c>
       <c r="N161" t="n">
-        <v>0.333</v>
+        <v>0.352</v>
       </c>
       <c r="O161" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P161" t="s">
-        <v>23</v>
+        <v>547</v>
       </c>
       <c r="Q161" t="s">
-        <v>24</v>
+        <v>548</v>
       </c>
       <c r="R161" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="S161" t="s">
-        <v>26</v>
+        <v>855</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="B162" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>44660</v>
+        <v>44632</v>
       </c>
       <c r="D162" t="s">
-        <v>854</v>
+        <v>21</v>
       </c>
       <c r="E162" t="s">
-        <v>855</v>
+        <v>22</v>
       </c>
       <c r="F162"/>
       <c r="G162" t="n">
-        <v>814</v>
+        <v>2</v>
       </c>
       <c r="H162" t="n">
-        <v>7378410</v>
+        <v>158382</v>
       </c>
       <c r="I162" t="n">
-        <v>309.302</v>
-      </c>
-      <c r="J162" t="n">
-        <v>36618</v>
-      </c>
-      <c r="K162" t="n">
-        <v>1.535</v>
-      </c>
+        <v>8.666</v>
+      </c>
+      <c r="J162"/>
+      <c r="K162"/>
       <c r="L162" t="n">
-        <v>37396</v>
+        <v>157</v>
       </c>
       <c r="M162" t="n">
-        <v>1.568</v>
+        <v>0.009</v>
       </c>
       <c r="N162" t="n">
-        <v>0.0107</v>
+        <v>0.333</v>
       </c>
       <c r="O162" t="n">
-        <v>93.4</v>
+        <v>3</v>
       </c>
       <c r="P162" t="s">
-        <v>855</v>
+        <v>23</v>
       </c>
       <c r="Q162" t="s">
-        <v>854</v>
+        <v>24</v>
       </c>
       <c r="R162" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="S162" t="s">
-        <v>856</v>
+        <v>26</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B163" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>44610</v>
+        <v>44660</v>
       </c>
       <c r="D163" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E163" t="s">
-        <v>53</v>
+        <v>861</v>
       </c>
       <c r="F163"/>
       <c r="G163" t="n">
-        <v>2</v>
+        <v>814</v>
       </c>
       <c r="H163" t="n">
-        <v>455776</v>
+        <v>7378410</v>
       </c>
       <c r="I163" t="n">
-        <v>7.411</v>
-      </c>
-      <c r="J163"/>
-      <c r="K163"/>
+        <v>309.302</v>
+      </c>
+      <c r="J163" t="n">
+        <v>36618</v>
+      </c>
+      <c r="K163" t="n">
+        <v>1.535</v>
+      </c>
       <c r="L163" t="n">
-        <v>1004</v>
+        <v>37396</v>
       </c>
       <c r="M163" t="n">
-        <v>0.016</v>
+        <v>1.568</v>
       </c>
       <c r="N163" t="n">
-        <v>0.0161</v>
+        <v>0.0107</v>
       </c>
       <c r="O163" t="n">
-        <v>62.2</v>
+        <v>93.4</v>
       </c>
       <c r="P163" t="s">
-        <v>36</v>
+        <v>861</v>
       </c>
       <c r="Q163" t="s">
         <v>860</v>
       </c>
       <c r="R163" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="S163" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B164" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>44653</v>
+        <v>44610</v>
       </c>
       <c r="D164" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="E164" t="s">
-        <v>865</v>
+        <v>53</v>
       </c>
       <c r="F164"/>
       <c r="G164" t="n">
-        <v>819</v>
+        <v>2</v>
       </c>
       <c r="H164" t="n">
-        <v>22978475</v>
+        <v>455776</v>
       </c>
       <c r="I164" t="n">
-        <v>328.495</v>
-      </c>
-      <c r="J164" t="n">
-        <v>42568</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.609</v>
-      </c>
+        <v>7.411</v>
+      </c>
+      <c r="J164"/>
+      <c r="K164"/>
       <c r="L164" t="n">
-        <v>58781</v>
+        <v>1004</v>
       </c>
       <c r="M164" t="n">
-        <v>0.84</v>
+        <v>0.016</v>
       </c>
       <c r="N164" t="n">
-        <v>0.4436</v>
+        <v>0.0161</v>
       </c>
       <c r="O164" t="n">
-        <v>2.3</v>
+        <v>62.2</v>
       </c>
       <c r="P164" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q164" t="s">
         <v>866</v>
       </c>
-      <c r="Q164" t="s">
+      <c r="R164" t="s">
+        <v>25</v>
+      </c>
+      <c r="S164" t="s">
         <v>867</v>
-      </c>
-      <c r="R164" t="s">
-        <v>61</v>
-      </c>
-      <c r="S164" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
+        <v>868</v>
+      </c>
+      <c r="B165" t="s">
         <v>869</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C165" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="D165" t="s">
         <v>870</v>
       </c>
-      <c r="C165" s="1" t="n">
-        <v>44660</v>
-      </c>
-      <c r="D165" t="s">
+      <c r="E165" t="s">
         <v>871</v>
-      </c>
-      <c r="E165" t="s">
-        <v>53</v>
       </c>
       <c r="F165"/>
       <c r="G165" t="n">
-        <v>34</v>
+        <v>819</v>
       </c>
       <c r="H165" t="n">
-        <v>258938</v>
+        <v>22978475</v>
       </c>
       <c r="I165" t="n">
-        <v>192.68</v>
-      </c>
-      <c r="J165"/>
-      <c r="K165"/>
+        <v>328.495</v>
+      </c>
+      <c r="J165" t="n">
+        <v>42568</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0.609</v>
+      </c>
       <c r="L165" t="n">
-        <v>237</v>
+        <v>58781</v>
       </c>
       <c r="M165" t="n">
-        <v>0.176</v>
+        <v>0.84</v>
       </c>
       <c r="N165" t="n">
-        <v>0.006</v>
+        <v>0.4436</v>
       </c>
       <c r="O165" t="n">
-        <v>165.9</v>
+        <v>2.3</v>
       </c>
       <c r="P165" t="s">
-        <v>53</v>
+        <v>872</v>
       </c>
       <c r="Q165" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="R165" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="S165" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B166" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>44662</v>
+        <v>44660</v>
       </c>
       <c r="D166" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="E166" t="s">
         <v>53</v>
       </c>
       <c r="F166"/>
       <c r="G166" t="n">
-        <v>746</v>
+        <v>34</v>
       </c>
       <c r="H166" t="n">
-        <v>723325</v>
+        <v>258938</v>
       </c>
       <c r="I166" t="n">
-        <v>85.315</v>
+        <v>192.68</v>
       </c>
       <c r="J166"/>
       <c r="K166"/>
       <c r="L166" t="n">
-        <v>383</v>
+        <v>237</v>
       </c>
       <c r="M166" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="N166"/>
-      <c r="O166"/>
+        <v>0.176</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="O166" t="n">
+        <v>165.9</v>
+      </c>
       <c r="P166" t="s">
-        <v>876</v>
+        <v>53</v>
       </c>
       <c r="Q166" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="R166" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S166" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B167" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>44661</v>
+        <v>44662</v>
       </c>
       <c r="D167" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="E167" t="s">
         <v>53</v>
       </c>
       <c r="F167"/>
       <c r="G167" t="n">
-        <v>447</v>
+        <v>746</v>
       </c>
       <c r="H167" t="n">
-        <v>682170</v>
+        <v>723325</v>
       </c>
       <c r="I167" t="n">
-        <v>486.093</v>
+        <v>85.315</v>
       </c>
       <c r="J167"/>
       <c r="K167"/>
       <c r="L167" t="n">
-        <v>928</v>
+        <v>383</v>
       </c>
       <c r="M167" t="n">
-        <v>0.661</v>
-      </c>
-      <c r="N167" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="O167" t="n">
-        <v>3.6</v>
-      </c>
+        <v>0.045</v>
+      </c>
+      <c r="N167"/>
+      <c r="O167"/>
       <c r="P167" t="s">
-        <v>53</v>
+        <v>882</v>
       </c>
       <c r="Q167" t="s">
         <v>881</v>
       </c>
       <c r="R167" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="S167" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B168" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>44654</v>
+        <v>44661</v>
       </c>
       <c r="D168" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="E168" t="s">
-        <v>886</v>
+        <v>53</v>
       </c>
       <c r="F168"/>
       <c r="G168" t="n">
-        <v>178</v>
+        <v>447</v>
       </c>
       <c r="H168" t="n">
-        <v>4537900</v>
+        <v>682170</v>
       </c>
       <c r="I168" t="n">
-        <v>380.194</v>
+        <v>486.093</v>
       </c>
       <c r="J168"/>
       <c r="K168"/>
       <c r="L168" t="n">
-        <v>2289</v>
+        <v>928</v>
       </c>
       <c r="M168" t="n">
-        <v>0.192</v>
+        <v>0.661</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1344</v>
+        <v>0.28</v>
       </c>
       <c r="O168" t="n">
-        <v>7.4</v>
+        <v>3.6</v>
       </c>
       <c r="P168" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q168" t="s">
         <v>887</v>
-      </c>
-      <c r="Q168" t="s">
-        <v>888</v>
       </c>
       <c r="R168" t="s">
         <v>45</v>
       </c>
       <c r="S168" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
+        <v>889</v>
+      </c>
+      <c r="B169" t="s">
         <v>890</v>
       </c>
-      <c r="B169" t="s">
+      <c r="C169" s="1" t="n">
+        <v>44654</v>
+      </c>
+      <c r="D169" t="s">
         <v>891</v>
       </c>
-      <c r="C169" s="1" t="n">
-        <v>44661</v>
-      </c>
-      <c r="D169" t="s">
+      <c r="E169" t="s">
         <v>892</v>
-      </c>
-      <c r="E169" t="s">
-        <v>893</v>
       </c>
       <c r="F169"/>
       <c r="G169" t="n">
-        <v>745</v>
+        <v>178</v>
       </c>
       <c r="H169" t="n">
-        <v>156247470</v>
+        <v>4537900</v>
       </c>
       <c r="I169" t="n">
-        <v>1837.282</v>
-      </c>
-      <c r="J169" t="n">
-        <v>172461</v>
-      </c>
-      <c r="K169" t="n">
-        <v>2.028</v>
-      </c>
+        <v>380.194</v>
+      </c>
+      <c r="J169"/>
+      <c r="K169"/>
       <c r="L169" t="n">
-        <v>208641</v>
+        <v>2289</v>
       </c>
       <c r="M169" t="n">
-        <v>2.453</v>
+        <v>0.192</v>
       </c>
       <c r="N169" t="n">
-        <v>0.044</v>
+        <v>0.1344</v>
       </c>
       <c r="O169" t="n">
-        <v>22.7</v>
+        <v>7.4</v>
       </c>
       <c r="P169" t="s">
         <v>893</v>
@@ -12579,7 +12593,7 @@
         <v>894</v>
       </c>
       <c r="R169" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="S169" t="s">
         <v>895</v>
@@ -12596,93 +12610,97 @@
         <v>44661</v>
       </c>
       <c r="D170" t="s">
-        <v>35</v>
+        <v>898</v>
       </c>
       <c r="E170" t="s">
-        <v>36</v>
+        <v>899</v>
       </c>
       <c r="F170"/>
       <c r="G170" t="n">
-        <v>635</v>
+        <v>745</v>
       </c>
       <c r="H170" t="n">
-        <v>2577730</v>
+        <v>156247470</v>
       </c>
       <c r="I170" t="n">
-        <v>54.702</v>
-      </c>
-      <c r="J170"/>
-      <c r="K170"/>
+        <v>1837.282</v>
+      </c>
+      <c r="J170" t="n">
+        <v>172461</v>
+      </c>
+      <c r="K170" t="n">
+        <v>2.028</v>
+      </c>
       <c r="L170" t="n">
-        <v>2307</v>
+        <v>208641</v>
       </c>
       <c r="M170" t="n">
-        <v>0.049</v>
+        <v>2.453</v>
       </c>
       <c r="N170" t="n">
-        <v>0.0035</v>
+        <v>0.044</v>
       </c>
       <c r="O170" t="n">
-        <v>283.3</v>
+        <v>22.7</v>
       </c>
       <c r="P170" t="s">
-        <v>36</v>
+        <v>899</v>
       </c>
       <c r="Q170" t="s">
-        <v>37</v>
+        <v>900</v>
       </c>
       <c r="R170" t="s">
         <v>61</v>
       </c>
       <c r="S170" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="B171" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>44610</v>
+        <v>44661</v>
       </c>
       <c r="D171" t="s">
-        <v>901</v>
+        <v>35</v>
       </c>
       <c r="E171" t="s">
-        <v>902</v>
+        <v>36</v>
       </c>
       <c r="F171"/>
       <c r="G171" t="n">
-        <v>556</v>
+        <v>635</v>
       </c>
       <c r="H171" t="n">
-        <v>19288823</v>
+        <v>2577730</v>
       </c>
       <c r="I171" t="n">
-        <v>443.76</v>
+        <v>54.702</v>
       </c>
       <c r="J171"/>
       <c r="K171"/>
       <c r="L171" t="n">
-        <v>52561</v>
+        <v>2307</v>
       </c>
       <c r="M171" t="n">
-        <v>1.209</v>
+        <v>0.049</v>
       </c>
       <c r="N171" t="n">
-        <v>0.6027</v>
+        <v>0.0035</v>
       </c>
       <c r="O171" t="n">
-        <v>1.7</v>
+        <v>283.3</v>
       </c>
       <c r="P171" t="s">
-        <v>902</v>
+        <v>36</v>
       </c>
       <c r="Q171" t="s">
-        <v>903</v>
+        <v>37</v>
       </c>
       <c r="R171" t="s">
         <v>61</v>
@@ -12699,7 +12717,7 @@
         <v>906</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>44662</v>
+        <v>44610</v>
       </c>
       <c r="D172" t="s">
         <v>907</v>
@@ -12709,28 +12727,28 @@
       </c>
       <c r="F172"/>
       <c r="G172" t="n">
-        <v>773</v>
+        <v>556</v>
       </c>
       <c r="H172" t="n">
-        <v>150750667</v>
+        <v>19288823</v>
       </c>
       <c r="I172" t="n">
-        <v>15088.521</v>
-      </c>
-      <c r="J172" t="n">
-        <v>207875</v>
-      </c>
-      <c r="K172" t="n">
-        <v>20.806</v>
-      </c>
+        <v>443.76</v>
+      </c>
+      <c r="J172"/>
+      <c r="K172"/>
       <c r="L172" t="n">
-        <v>230451</v>
+        <v>52561</v>
       </c>
       <c r="M172" t="n">
-        <v>23.066</v>
-      </c>
-      <c r="N172"/>
-      <c r="O172"/>
+        <v>1.209</v>
+      </c>
+      <c r="N172" t="n">
+        <v>0.6027</v>
+      </c>
+      <c r="O172" t="n">
+        <v>1.7</v>
+      </c>
       <c r="P172" t="s">
         <v>908</v>
       </c>
@@ -12752,7 +12770,7 @@
         <v>912</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>44658</v>
+        <v>44662</v>
       </c>
       <c r="D173" t="s">
         <v>913</v>
@@ -12762,264 +12780,264 @@
       </c>
       <c r="F173"/>
       <c r="G173" t="n">
-        <v>736</v>
+        <v>773</v>
       </c>
       <c r="H173" t="n">
-        <v>490482056</v>
+        <v>150750667</v>
       </c>
       <c r="I173" t="n">
-        <v>7191.069</v>
+        <v>15088.521</v>
       </c>
       <c r="J173" t="n">
-        <v>517587</v>
+        <v>207875</v>
       </c>
       <c r="K173" t="n">
-        <v>7.588</v>
+        <v>20.806</v>
       </c>
       <c r="L173" t="n">
-        <v>537320</v>
+        <v>230451</v>
       </c>
       <c r="M173" t="n">
-        <v>7.878</v>
-      </c>
-      <c r="N173" t="n">
-        <v>0.0963</v>
-      </c>
-      <c r="O173" t="n">
-        <v>10.4</v>
-      </c>
+        <v>23.066</v>
+      </c>
+      <c r="N173"/>
+      <c r="O173"/>
       <c r="P173" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q173" t="s">
         <v>915</v>
-      </c>
-      <c r="Q173" t="s">
-        <v>916</v>
       </c>
       <c r="R173" t="s">
         <v>61</v>
       </c>
       <c r="S173" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
+        <v>917</v>
+      </c>
+      <c r="B174" t="s">
         <v>918</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C174" s="1" t="n">
+        <v>44658</v>
+      </c>
+      <c r="D174" t="s">
         <v>919</v>
       </c>
-      <c r="C174" s="1" t="n">
-        <v>44656</v>
-      </c>
-      <c r="D174" t="s">
-        <v>381</v>
-      </c>
       <c r="E174" t="s">
-        <v>382</v>
+        <v>920</v>
       </c>
       <c r="F174"/>
       <c r="G174" t="n">
-        <v>766</v>
+        <v>736</v>
       </c>
       <c r="H174" t="n">
-        <v>853759606</v>
+        <v>490482056</v>
       </c>
       <c r="I174" t="n">
-        <v>2564.497</v>
+        <v>7191.069</v>
       </c>
       <c r="J174" t="n">
-        <v>609381</v>
+        <v>517587</v>
       </c>
       <c r="K174" t="n">
-        <v>1.83</v>
+        <v>7.588</v>
       </c>
       <c r="L174" t="n">
-        <v>635271</v>
+        <v>537320</v>
       </c>
       <c r="M174" t="n">
-        <v>1.908</v>
+        <v>7.878</v>
       </c>
       <c r="N174" t="n">
-        <v>0.031</v>
+        <v>0.0963</v>
       </c>
       <c r="O174" t="n">
-        <v>32.3</v>
+        <v>10.4</v>
       </c>
       <c r="P174" t="s">
-        <v>382</v>
+        <v>921</v>
       </c>
       <c r="Q174" t="s">
-        <v>381</v>
+        <v>922</v>
       </c>
       <c r="R174" t="s">
-        <v>383</v>
+        <v>61</v>
       </c>
       <c r="S174" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="B175" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>44658</v>
+        <v>44656</v>
       </c>
       <c r="D175" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="E175" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="F175"/>
       <c r="G175" t="n">
-        <v>729</v>
+        <v>766</v>
       </c>
       <c r="H175" t="n">
-        <v>109525</v>
+        <v>853759606</v>
       </c>
       <c r="I175" t="n">
-        <v>1050.922</v>
+        <v>2564.497</v>
       </c>
       <c r="J175" t="n">
-        <v>62</v>
+        <v>609381</v>
       </c>
       <c r="K175" t="n">
-        <v>0.595</v>
+        <v>1.83</v>
       </c>
       <c r="L175" t="n">
-        <v>54</v>
+        <v>635271</v>
       </c>
       <c r="M175" t="n">
-        <v>0.518</v>
+        <v>1.908</v>
       </c>
       <c r="N175" t="n">
-        <v>0.053</v>
+        <v>0.031</v>
       </c>
       <c r="O175" t="n">
-        <v>18.9</v>
+        <v>32.3</v>
       </c>
       <c r="P175" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="Q175" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="R175" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="S175" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="B176" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>44661</v>
+        <v>44658</v>
       </c>
       <c r="D176" t="s">
-        <v>926</v>
+        <v>387</v>
       </c>
       <c r="E176" t="s">
-        <v>237</v>
+        <v>388</v>
       </c>
       <c r="F176"/>
       <c r="G176" t="n">
-        <v>750</v>
+        <v>729</v>
       </c>
       <c r="H176" t="n">
-        <v>6064516</v>
+        <v>109525</v>
       </c>
       <c r="I176" t="n">
-        <v>1740.101</v>
+        <v>1050.922</v>
       </c>
       <c r="J176" t="n">
-        <v>3466</v>
+        <v>62</v>
       </c>
       <c r="K176" t="n">
-        <v>0.995</v>
+        <v>0.595</v>
       </c>
       <c r="L176" t="n">
-        <v>6642</v>
+        <v>54</v>
       </c>
       <c r="M176" t="n">
-        <v>1.906</v>
+        <v>0.518</v>
       </c>
       <c r="N176" t="n">
-        <v>0.0945</v>
+        <v>0.053</v>
       </c>
       <c r="O176" t="n">
-        <v>10.6</v>
+        <v>18.9</v>
       </c>
       <c r="P176" t="s">
-        <v>237</v>
+        <v>388</v>
       </c>
       <c r="Q176" t="s">
-        <v>926</v>
+        <v>387</v>
       </c>
       <c r="R176" t="s">
-        <v>61</v>
+        <v>389</v>
       </c>
       <c r="S176" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B177" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>44619</v>
+        <v>44661</v>
       </c>
       <c r="D177" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E177" t="s">
-        <v>53</v>
+        <v>237</v>
       </c>
       <c r="F177"/>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>750</v>
       </c>
       <c r="H177" t="n">
-        <v>11989</v>
+        <v>6064516</v>
       </c>
       <c r="I177" t="n">
-        <v>38.125</v>
-      </c>
-      <c r="J177"/>
-      <c r="K177"/>
+        <v>1740.101</v>
+      </c>
+      <c r="J177" t="n">
+        <v>3466</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0.995</v>
+      </c>
       <c r="L177" t="n">
-        <v>76</v>
+        <v>6642</v>
       </c>
       <c r="M177" t="n">
-        <v>0.242</v>
+        <v>1.906</v>
       </c>
       <c r="N177" t="n">
-        <v>0.0132</v>
+        <v>0.0945</v>
       </c>
       <c r="O177" t="n">
-        <v>76</v>
+        <v>10.6</v>
       </c>
       <c r="P177" t="s">
-        <v>931</v>
+        <v>237</v>
       </c>
       <c r="Q177" t="s">
         <v>932</v>
       </c>
       <c r="R177" t="s">
-        <v>317</v>
+        <v>61</v>
       </c>
       <c r="S177" t="s">
         <v>933</v>
@@ -13033,151 +13051,151 @@
         <v>935</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>44661</v>
+        <v>44619</v>
       </c>
       <c r="D178" t="s">
         <v>936</v>
       </c>
       <c r="E178" t="s">
-        <v>937</v>
+        <v>53</v>
       </c>
       <c r="F178"/>
       <c r="G178" t="n">
-        <v>161</v>
+        <v>2</v>
       </c>
       <c r="H178" t="n">
-        <v>85007902</v>
+        <v>11989</v>
       </c>
       <c r="I178" t="n">
-        <v>865.936</v>
+        <v>38.125</v>
       </c>
       <c r="J178"/>
       <c r="K178"/>
       <c r="L178" t="n">
-        <v>62196</v>
+        <v>76</v>
       </c>
       <c r="M178" t="n">
-        <v>0.634</v>
+        <v>0.242</v>
       </c>
       <c r="N178" t="n">
-        <v>0.8726</v>
+        <v>0.0132</v>
       </c>
       <c r="O178" t="n">
-        <v>1.1</v>
+        <v>76</v>
       </c>
       <c r="P178" t="s">
+        <v>937</v>
+      </c>
+      <c r="Q178" t="s">
         <v>938</v>
       </c>
-      <c r="Q178" t="s">
+      <c r="R178" t="s">
+        <v>323</v>
+      </c>
+      <c r="S178" t="s">
         <v>939</v>
-      </c>
-      <c r="R178" t="s">
-        <v>45</v>
-      </c>
-      <c r="S178" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
+        <v>940</v>
+      </c>
+      <c r="B179" t="s">
         <v>941</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C179" s="1" t="n">
+        <v>44661</v>
+      </c>
+      <c r="D179" t="s">
         <v>942</v>
       </c>
-      <c r="C179" s="1" t="n">
-        <v>44632</v>
-      </c>
-      <c r="D179" t="s">
-        <v>21</v>
-      </c>
       <c r="E179" t="s">
-        <v>22</v>
+        <v>943</v>
       </c>
       <c r="F179"/>
       <c r="G179" t="n">
-        <v>2</v>
+        <v>161</v>
       </c>
       <c r="H179" t="n">
-        <v>329592</v>
+        <v>85007902</v>
       </c>
       <c r="I179" t="n">
-        <v>10.81</v>
+        <v>865.936</v>
       </c>
       <c r="J179"/>
       <c r="K179"/>
       <c r="L179" t="n">
-        <v>0</v>
+        <v>62196</v>
       </c>
       <c r="M179" t="n">
-        <v>0</v>
-      </c>
-      <c r="N179"/>
-      <c r="O179"/>
+        <v>0.634</v>
+      </c>
+      <c r="N179" t="n">
+        <v>0.8726</v>
+      </c>
+      <c r="O179" t="n">
+        <v>1.1</v>
+      </c>
       <c r="P179" t="s">
-        <v>23</v>
+        <v>944</v>
       </c>
       <c r="Q179" t="s">
-        <v>24</v>
+        <v>945</v>
       </c>
       <c r="R179" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="S179" t="s">
-        <v>26</v>
+        <v>946</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="B180" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>44659</v>
+        <v>44632</v>
       </c>
       <c r="D180" t="s">
-        <v>945</v>
+        <v>21</v>
       </c>
       <c r="E180" t="s">
-        <v>946</v>
+        <v>22</v>
       </c>
       <c r="F180"/>
       <c r="G180" t="n">
-        <v>722</v>
+        <v>2</v>
       </c>
       <c r="H180" t="n">
-        <v>3376838</v>
+        <v>329592</v>
       </c>
       <c r="I180" t="n">
-        <v>178.474</v>
-      </c>
-      <c r="J180" t="n">
-        <v>2861</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.151</v>
-      </c>
+        <v>10.81</v>
+      </c>
+      <c r="J180"/>
+      <c r="K180"/>
       <c r="L180" t="n">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="M180" t="n">
-        <v>0.127</v>
+        <v>0</v>
       </c>
       <c r="N180"/>
       <c r="O180"/>
       <c r="P180" t="s">
-        <v>947</v>
+        <v>23</v>
       </c>
       <c r="Q180" t="s">
-        <v>945</v>
+        <v>24</v>
       </c>
       <c r="R180" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S180" t="s">
-        <v>948</v>
+        <v>26</v>
       </c>
     </row>
     <row r="181">
@@ -13188,49 +13206,102 @@
         <v>950</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>44661</v>
+        <v>44659</v>
       </c>
       <c r="D181" t="s">
-        <v>35</v>
+        <v>951</v>
       </c>
       <c r="E181" t="s">
-        <v>36</v>
+        <v>952</v>
       </c>
       <c r="F181"/>
       <c r="G181" t="n">
-        <v>657</v>
+        <v>722</v>
       </c>
       <c r="H181" t="n">
-        <v>2213383</v>
+        <v>3376838</v>
       </c>
       <c r="I181" t="n">
-        <v>146.658</v>
-      </c>
-      <c r="J181"/>
-      <c r="K181"/>
+        <v>178.474</v>
+      </c>
+      <c r="J181" t="n">
+        <v>2861</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0.151</v>
+      </c>
       <c r="L181" t="n">
-        <v>2968</v>
+        <v>2404</v>
       </c>
       <c r="M181" t="n">
-        <v>0.197</v>
-      </c>
-      <c r="N181" t="n">
-        <v>0.0208</v>
-      </c>
-      <c r="O181" t="n">
-        <v>48</v>
-      </c>
+        <v>0.127</v>
+      </c>
+      <c r="N181"/>
+      <c r="O181"/>
       <c r="P181" t="s">
-        <v>36</v>
+        <v>953</v>
       </c>
       <c r="Q181" t="s">
-        <v>37</v>
+        <v>951</v>
       </c>
       <c r="R181" t="s">
         <v>61</v>
       </c>
       <c r="S181" t="s">
-        <v>951</v>
+        <v>954</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>955</v>
+      </c>
+      <c r="B182" t="s">
+        <v>956</v>
+      </c>
+      <c r="C182" s="1" t="n">
+        <v>44661</v>
+      </c>
+      <c r="D182" t="s">
+        <v>35</v>
+      </c>
+      <c r="E182" t="s">
+        <v>36</v>
+      </c>
+      <c r="F182"/>
+      <c r="G182" t="n">
+        <v>657</v>
+      </c>
+      <c r="H182" t="n">
+        <v>2213383</v>
+      </c>
+      <c r="I182" t="n">
+        <v>146.658</v>
+      </c>
+      <c r="J182"/>
+      <c r="K182"/>
+      <c r="L182" t="n">
+        <v>2968</v>
+      </c>
+      <c r="M182" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="N182" t="n">
+        <v>0.0208</v>
+      </c>
+      <c r="O182" t="n">
+        <v>48</v>
+      </c>
+      <c r="P182" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>37</v>
+      </c>
+      <c r="R182" t="s">
+        <v>61</v>
+      </c>
+      <c r="S182" t="s">
+        <v>957</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="966">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">Albania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-1075-testime-53-qytetare-te-infektuar-asnje-humbje-jete-dhe-53-te-sheruar-ne-24-oret-e-fundit/</t>
+    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-1110-testime-48-qytetare-te-infektuar-asnje-humbje-jete-dhe-33-te-sheruar-ne-24-oret-e-fundit/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Protection</t>
@@ -644,7 +644,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-10-de-abril-de-2022/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-13-de-abril-de-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -1099,7 +1099,7 @@
     <t xml:space="preserve">Fiji - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.fj/11-04-2022/</t>
+    <t xml:space="preserve">https://www.health.gov.fj/15-04-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Fiji Ministry of Health &amp; Medical Services</t>
@@ -1189,7 +1189,7 @@
     <t xml:space="preserve">Georgia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://agenda.ge/en/news/2022/1153</t>
+    <t xml:space="preserve">https://agenda.ge/en/news/2022/1292</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Georgia</t>
@@ -1282,7 +1282,7 @@
     <t xml:space="preserve">Grenada - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/gisgrenada/posts/287727500215670</t>
+    <t xml:space="preserve">https://www.facebook.com/gisgrenada/posts/290094169979003</t>
   </si>
   <si>
     <t xml:space="preserve">Government Information Service of Grenada</t>
@@ -1381,7 +1381,7 @@
     <t xml:space="preserve">Haiti - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://mspp.gouv.ht/site/downloads/Sitrep COVID-19_02-04-2022.pdf</t>
+    <t xml:space="preserve">https://mspp.gouv.ht/site/downloads/Sitrep COVID-19_09-04-2022.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Population</t>
@@ -1507,7 +1507,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://irangov.ir/detail/384220</t>
+    <t xml:space="preserve">https://irangov.ir/detail/384390</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Medical Education</t>
@@ -1605,7 +1605,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-thursday-april-7-2022/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-wednesday-april-13-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -2036,7 +2036,7 @@
     <t xml:space="preserve">Moldova - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://msmps.gov.md/comunicare/239-de-cazuri-noi-de-covid-19-raportate-pentru-7-aprilie-2022/</t>
+    <t xml:space="preserve">https://msmps.gov.md/comunicare/160-de-cazuri-noi-de-covid-19-raportate-pentru-14-aprilie-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health of the Republic of Moldova</t>
@@ -2146,7 +2146,7 @@
     <t xml:space="preserve">Nepal - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.mohp.gov.np/covid/englishSituationReport/6253fde5175d9_SitRep792_COVID-19_11-04-2022_EN.pdf</t>
+    <t xml:space="preserve">https://covid19.mohp.gov.np/covid/englishSituationReport/625952d445592_SitRep796_COVID-19_15-04-2022_EN.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -2204,6 +2204,18 @@
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source. See our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
+    <t xml:space="preserve">NIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicaragua - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.minsa.gob.ni/index.php/repository/Descargas-MINSA/COVID-19/Boletines-Epidemiol%C3%B3gico/Boletines-2022/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of tests performed unclear unclear The Nicaragua Ministry of Health publishes situation reports on its [website](http://www.minsa.gob.ni/index.php/repository/Descargas-MINSA/COVID-19/Boletines-Epidemiol%C3%B3gico/Boletines-2022/), from which we construct a time series of the number of laborartory tests performed.</t>
+  </si>
+  <si>
     <t xml:space="preserve">NER</t>
   </si>
   <si>
@@ -2236,7 +2248,7 @@
     <t xml:space="preserve">North Macedonia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://koronavirus.gov.mk/vesti/224039</t>
+    <t xml:space="preserve">https://koronavirus.gov.mk/vesti/224048</t>
   </si>
   <si>
     <t xml:space="preserve">https://koronavirus.gov.mk/stat</t>
@@ -2326,7 +2338,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1513008907228221445</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1514392149743349760</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -2505,7 +2517,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=21224</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=21260</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -3171,7 +3183,7 @@
     <t xml:space="preserve">Vietnam - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.gov.vn/ngay-10-4-so-mac-moi-covid-19-thap-nhat-trong-gan-2-thang-nay-con-28307-ca-17122041022021028.htm</t>
+    <t xml:space="preserve">https://covid19.gov.vn/ngay-14-4-co-23012-ca-covid-19-moi-so-khoi-benh-gap-gan-4-lan-so-mac-171220414210736063.htm</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health of Vietnam</t>
@@ -3686,7 +3698,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>44658</v>
+        <v>44664</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
@@ -3696,31 +3708,31 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="H3" t="n">
-        <v>1601568</v>
+        <v>1603120</v>
       </c>
       <c r="I3" t="n">
-        <v>557.468</v>
+        <v>558.008</v>
       </c>
       <c r="J3" t="n">
-        <v>1075</v>
+        <v>1110</v>
       </c>
       <c r="K3" t="n">
-        <v>0.374</v>
+        <v>0.386</v>
       </c>
       <c r="L3" t="n">
-        <v>329</v>
+        <v>252</v>
       </c>
       <c r="M3" t="n">
-        <v>0.115</v>
+        <v>0.088</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1871</v>
+        <v>0.1502</v>
       </c>
       <c r="O3" t="n">
-        <v>5.3</v>
+        <v>6.7</v>
       </c>
       <c r="P3" t="s">
         <v>30</v>
@@ -4000,7 +4012,7 @@
         <v>62</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44660</v>
+        <v>44664</v>
       </c>
       <c r="D9" t="s">
         <v>63</v>
@@ -4010,31 +4022,31 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="H9" t="n">
-        <v>35518753</v>
+        <v>35601172</v>
       </c>
       <c r="I9" t="n">
-        <v>778.821</v>
+        <v>780.628</v>
       </c>
       <c r="J9" t="n">
-        <v>7489</v>
+        <v>11709</v>
       </c>
       <c r="K9" t="n">
-        <v>0.164</v>
+        <v>0.257</v>
       </c>
       <c r="L9" t="n">
-        <v>15757</v>
+        <v>14154</v>
       </c>
       <c r="M9" t="n">
-        <v>0.346</v>
+        <v>0.31</v>
       </c>
       <c r="N9" t="n">
-        <v>0.045</v>
+        <v>0.051</v>
       </c>
       <c r="O9" t="n">
-        <v>22.2</v>
+        <v>19.6</v>
       </c>
       <c r="P9" t="s">
         <v>64</v>
@@ -4057,7 +4069,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44661</v>
+        <v>44665</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
@@ -4067,31 +4079,31 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="H10" t="n">
-        <v>3001424</v>
+        <v>3012103</v>
       </c>
       <c r="I10" t="n">
-        <v>1011.218</v>
+        <v>1014.816</v>
       </c>
       <c r="J10" t="n">
-        <v>1921</v>
+        <v>3171</v>
       </c>
       <c r="K10" t="n">
-        <v>0.647</v>
+        <v>1.068</v>
       </c>
       <c r="L10" t="n">
-        <v>2439</v>
+        <v>2544</v>
       </c>
       <c r="M10" t="n">
-        <v>0.822</v>
+        <v>0.857</v>
       </c>
       <c r="N10" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="O10" t="n">
-        <v>166.7</v>
+        <v>200</v>
       </c>
       <c r="P10" t="s">
         <v>53</v>
@@ -4114,7 +4126,7 @@
         <v>73</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44662</v>
+        <v>44666</v>
       </c>
       <c r="D11" t="s">
         <v>74</v>
@@ -4126,25 +4138,25 @@
         <v>76</v>
       </c>
       <c r="G11" t="n">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="H11" t="n">
-        <v>67762200</v>
+        <v>68170496</v>
       </c>
       <c r="I11" t="n">
-        <v>2627.642</v>
+        <v>2643.475</v>
       </c>
       <c r="J11" t="n">
-        <v>81557</v>
+        <v>97573</v>
       </c>
       <c r="K11" t="n">
-        <v>3.163</v>
+        <v>3.784</v>
       </c>
       <c r="L11" t="n">
-        <v>111048</v>
+        <v>98888</v>
       </c>
       <c r="M11" t="n">
-        <v>4.306</v>
+        <v>3.835</v>
       </c>
       <c r="N11"/>
       <c r="O11"/>
@@ -4169,7 +4181,7 @@
         <v>80</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44662</v>
+        <v>44664</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -4179,28 +4191,32 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="H12" t="n">
-        <v>179465832</v>
+        <v>179853312</v>
       </c>
       <c r="I12" t="n">
-        <v>19845.671</v>
+        <v>19888.519</v>
       </c>
       <c r="J12" t="n">
-        <v>100077</v>
+        <v>185952</v>
       </c>
       <c r="K12" t="n">
-        <v>11.067</v>
+        <v>20.563</v>
       </c>
       <c r="L12" t="n">
-        <v>347737</v>
+        <v>298272</v>
       </c>
       <c r="M12" t="n">
-        <v>38.453</v>
-      </c>
-      <c r="N12"/>
-      <c r="O12"/>
+        <v>32.983</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.0397</v>
+      </c>
+      <c r="O12" t="n">
+        <v>25.2</v>
+      </c>
       <c r="P12" t="s">
         <v>82</v>
       </c>
@@ -4222,7 +4238,7 @@
         <v>85</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44661</v>
+        <v>44665</v>
       </c>
       <c r="D13" t="s">
         <v>86</v>
@@ -4232,28 +4248,24 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H13" t="n">
-        <v>6746085</v>
+        <v>6759211</v>
       </c>
       <c r="I13" t="n">
-        <v>659.871</v>
+        <v>661.155</v>
       </c>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13" t="n">
-        <v>4232</v>
+        <v>3433</v>
       </c>
       <c r="M13" t="n">
-        <v>0.414</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.0059</v>
-      </c>
-      <c r="O13" t="n">
-        <v>168.3</v>
-      </c>
+        <v>0.336</v>
+      </c>
+      <c r="N13"/>
+      <c r="O13"/>
       <c r="P13" t="s">
         <v>87</v>
       </c>
@@ -4328,7 +4340,7 @@
         <v>97</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44662</v>
+        <v>44666</v>
       </c>
       <c r="D15" t="s">
         <v>98</v>
@@ -4338,21 +4350,21 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H15" t="n">
-        <v>9649168</v>
+        <v>9666687</v>
       </c>
       <c r="I15" t="n">
-        <v>5519.188</v>
+        <v>5529.208</v>
       </c>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15" t="n">
-        <v>4026</v>
+        <v>4101</v>
       </c>
       <c r="M15" t="n">
-        <v>2.303</v>
+        <v>2.346</v>
       </c>
       <c r="N15"/>
       <c r="O15"/>
@@ -4377,7 +4389,7 @@
         <v>104</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>44661</v>
+        <v>44665</v>
       </c>
       <c r="D16" t="s">
         <v>105</v>
@@ -4387,32 +4399,28 @@
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H16" t="n">
-        <v>13711654</v>
+        <v>13718358</v>
       </c>
       <c r="I16" t="n">
-        <v>82.45</v>
+        <v>82.49</v>
       </c>
       <c r="J16" t="n">
-        <v>5244</v>
+        <v>6704</v>
       </c>
       <c r="K16" t="n">
-        <v>0.032</v>
+        <v>0.04</v>
       </c>
       <c r="L16" t="n">
-        <v>2050</v>
+        <v>1707</v>
       </c>
       <c r="M16" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.0206</v>
-      </c>
-      <c r="O16" t="n">
-        <v>48.6</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="N16"/>
+      <c r="O16"/>
       <c r="P16" t="s">
         <v>106</v>
       </c>
@@ -4487,7 +4495,7 @@
         <v>114</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44661</v>
+        <v>44666</v>
       </c>
       <c r="D18" t="s">
         <v>115</v>
@@ -4497,21 +4505,21 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H18" t="n">
-        <v>12964077</v>
+        <v>13013839</v>
       </c>
       <c r="I18" t="n">
-        <v>1372.896</v>
+        <v>1378.166</v>
       </c>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18" t="n">
-        <v>10884</v>
+        <v>10358</v>
       </c>
       <c r="M18" t="n">
-        <v>1.153</v>
+        <v>1.097</v>
       </c>
       <c r="N18"/>
       <c r="O18"/>
@@ -4536,7 +4544,7 @@
         <v>121</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>44657</v>
+        <v>44664</v>
       </c>
       <c r="D19" t="s">
         <v>122</v>
@@ -4546,31 +4554,31 @@
       </c>
       <c r="F19"/>
       <c r="G19" t="n">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="H19" t="n">
-        <v>33118946</v>
+        <v>33313021</v>
       </c>
       <c r="I19" t="n">
-        <v>2847.145</v>
+        <v>2863.829</v>
       </c>
       <c r="J19" t="n">
-        <v>37816</v>
+        <v>28800</v>
       </c>
       <c r="K19" t="n">
-        <v>3.251</v>
+        <v>2.476</v>
       </c>
       <c r="L19" t="n">
-        <v>35199</v>
+        <v>27653</v>
       </c>
       <c r="M19" t="n">
-        <v>3.026</v>
+        <v>2.377</v>
       </c>
       <c r="N19" t="n">
-        <v>0.283</v>
+        <v>0.319</v>
       </c>
       <c r="O19" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P19" t="s">
         <v>124</v>
@@ -4748,7 +4756,7 @@
         <v>143</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44653</v>
+        <v>44662</v>
       </c>
       <c r="D23" t="s">
         <v>144</v>
@@ -4760,31 +4768,31 @@
         <v>146</v>
       </c>
       <c r="G23" t="n">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="H23" t="n">
-        <v>4061129</v>
+        <v>4101672</v>
       </c>
       <c r="I23" t="n">
-        <v>343.206</v>
+        <v>346.632</v>
       </c>
       <c r="J23" t="n">
-        <v>4989</v>
+        <v>4612</v>
       </c>
       <c r="K23" t="n">
-        <v>0.422</v>
+        <v>0.39</v>
       </c>
       <c r="L23" t="n">
-        <v>5207</v>
+        <v>4840</v>
       </c>
       <c r="M23" t="n">
-        <v>0.44</v>
+        <v>0.409</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0368</v>
+        <v>0.0289</v>
       </c>
       <c r="O23" t="n">
-        <v>27.2</v>
+        <v>34.6</v>
       </c>
       <c r="P23" t="s">
         <v>53</v>
@@ -4962,7 +4970,7 @@
         <v>165</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44661</v>
+        <v>44665</v>
       </c>
       <c r="D27" t="s">
         <v>166</v>
@@ -4972,28 +4980,24 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H27" t="n">
-        <v>9692112</v>
+        <v>9732779</v>
       </c>
       <c r="I27" t="n">
-        <v>1405.335</v>
+        <v>1411.232</v>
       </c>
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27" t="n">
-        <v>9259</v>
+        <v>8811</v>
       </c>
       <c r="M27" t="n">
-        <v>1.343</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0.073</v>
-      </c>
-      <c r="O27" t="n">
-        <v>13.7</v>
-      </c>
+        <v>1.278</v>
+      </c>
+      <c r="N27"/>
+      <c r="O27"/>
       <c r="P27" t="s">
         <v>168</v>
       </c>
@@ -5119,7 +5123,7 @@
         <v>178</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44662</v>
+        <v>44666</v>
       </c>
       <c r="D30" t="s">
         <v>179</v>
@@ -5129,21 +5133,21 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H30" t="n">
-        <v>2939061</v>
+        <v>2942234</v>
       </c>
       <c r="I30" t="n">
-        <v>173.432</v>
+        <v>173.62</v>
       </c>
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30" t="n">
-        <v>1060</v>
+        <v>842</v>
       </c>
       <c r="M30" t="n">
-        <v>0.063</v>
+        <v>0.05</v>
       </c>
       <c r="N30"/>
       <c r="O30"/>
@@ -5221,7 +5225,7 @@
         <v>186</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44660</v>
+        <v>44664</v>
       </c>
       <c r="D32" t="s">
         <v>187</v>
@@ -5231,31 +5235,31 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="H32" t="n">
-        <v>59932998</v>
+        <v>60149136</v>
       </c>
       <c r="I32" t="n">
-        <v>1574.37</v>
+        <v>1580.048</v>
       </c>
       <c r="J32" t="n">
-        <v>33047</v>
+        <v>66100</v>
       </c>
       <c r="K32" t="n">
-        <v>0.868</v>
+        <v>1.736</v>
       </c>
       <c r="L32" t="n">
-        <v>55601</v>
+        <v>51561</v>
       </c>
       <c r="M32" t="n">
-        <v>1.461</v>
+        <v>1.354</v>
       </c>
       <c r="N32" t="n">
-        <v>0.1008</v>
+        <v>0.2256</v>
       </c>
       <c r="O32" t="n">
-        <v>9.9</v>
+        <v>4.4</v>
       </c>
       <c r="P32" t="s">
         <v>188</v>
@@ -5278,7 +5282,7 @@
         <v>192</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44660</v>
+        <v>44663</v>
       </c>
       <c r="D33" t="s">
         <v>193</v>
@@ -5288,15 +5292,15 @@
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33" t="n">
-        <v>116</v>
+        <v>234</v>
       </c>
       <c r="K33" t="n">
-        <v>0.206</v>
+        <v>0.416</v>
       </c>
       <c r="L33"/>
       <c r="M33"/>
@@ -5427,7 +5431,7 @@
         <v>204</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44661</v>
+        <v>44665</v>
       </c>
       <c r="D36" t="s">
         <v>205</v>
@@ -5437,32 +5441,28 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="H36" t="n">
-        <v>35874692</v>
+        <v>36067535</v>
       </c>
       <c r="I36" t="n">
-        <v>1867.271</v>
+        <v>1877.309</v>
       </c>
       <c r="J36" t="n">
-        <v>62442</v>
+        <v>64038</v>
       </c>
       <c r="K36" t="n">
-        <v>3.25</v>
+        <v>3.333</v>
       </c>
       <c r="L36" t="n">
-        <v>57445</v>
+        <v>54967</v>
       </c>
       <c r="M36" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0.0631</v>
-      </c>
-      <c r="O36" t="n">
-        <v>15.9</v>
-      </c>
+        <v>2.861</v>
+      </c>
+      <c r="N36"/>
+      <c r="O36"/>
       <c r="P36" t="s">
         <v>206</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>216</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>44661</v>
+        <v>44665</v>
       </c>
       <c r="D38" t="s">
         <v>217</v>
@@ -5547,25 +5547,25 @@
       </c>
       <c r="F38"/>
       <c r="G38" t="n">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="H38" t="n">
-        <v>34072763</v>
+        <v>34163815</v>
       </c>
       <c r="I38" t="n">
-        <v>664.629</v>
+        <v>666.405</v>
       </c>
       <c r="J38" t="n">
-        <v>22109</v>
+        <v>21943</v>
       </c>
       <c r="K38" t="n">
-        <v>0.431</v>
+        <v>0.428</v>
       </c>
       <c r="L38" t="n">
-        <v>23050</v>
+        <v>21699</v>
       </c>
       <c r="M38" t="n">
-        <v>0.45</v>
+        <v>0.423</v>
       </c>
       <c r="N38" t="n">
         <v>0.019</v>
@@ -5639,7 +5639,7 @@
         <v>225</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>44656</v>
+        <v>44659</v>
       </c>
       <c r="D40" t="s">
         <v>226</v>
@@ -5649,31 +5649,31 @@
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="H40" t="n">
-        <v>3209253</v>
+        <v>3233070</v>
       </c>
       <c r="I40" t="n">
-        <v>624.483</v>
+        <v>629.118</v>
       </c>
       <c r="J40" t="n">
-        <v>6708</v>
+        <v>6051</v>
       </c>
       <c r="K40" t="n">
-        <v>1.305</v>
+        <v>1.177</v>
       </c>
       <c r="L40" t="n">
-        <v>8033</v>
+        <v>7472</v>
       </c>
       <c r="M40" t="n">
-        <v>1.563</v>
+        <v>1.454</v>
       </c>
       <c r="N40" t="n">
-        <v>0.067</v>
+        <v>0.07</v>
       </c>
       <c r="O40" t="n">
-        <v>14.9</v>
+        <v>14.3</v>
       </c>
       <c r="P40" t="s">
         <v>227</v>
@@ -5749,7 +5749,7 @@
         <v>233</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>44662</v>
+        <v>44666</v>
       </c>
       <c r="D42" t="s">
         <v>234</v>
@@ -5759,21 +5759,21 @@
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H42" t="n">
-        <v>4722099</v>
+        <v>4738252</v>
       </c>
       <c r="I42" t="n">
-        <v>1156.907</v>
+        <v>1160.865</v>
       </c>
       <c r="J42"/>
       <c r="K42"/>
       <c r="L42" t="n">
-        <v>4176</v>
+        <v>3469</v>
       </c>
       <c r="M42" t="n">
-        <v>1.023</v>
+        <v>0.85</v>
       </c>
       <c r="N42"/>
       <c r="O42"/>
@@ -5910,7 +5910,7 @@
         <v>252</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>44661</v>
+        <v>44665</v>
       </c>
       <c r="D45" t="s">
         <v>253</v>
@@ -5920,32 +5920,28 @@
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="H45" t="n">
-        <v>29230119</v>
+        <v>29501771</v>
       </c>
       <c r="I45" t="n">
-        <v>32622.719</v>
+        <v>32925.9</v>
       </c>
       <c r="J45" t="n">
-        <v>57728</v>
+        <v>67206</v>
       </c>
       <c r="K45" t="n">
-        <v>64.428</v>
+        <v>75.006</v>
       </c>
       <c r="L45" t="n">
-        <v>77249</v>
+        <v>67201</v>
       </c>
       <c r="M45" t="n">
-        <v>86.215</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0.0326</v>
-      </c>
-      <c r="O45" t="n">
-        <v>30.7</v>
-      </c>
+        <v>75.001</v>
+      </c>
+      <c r="N45"/>
+      <c r="O45"/>
       <c r="P45" t="s">
         <v>53</v>
       </c>
@@ -5967,7 +5963,7 @@
         <v>256</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>44661</v>
+        <v>44665</v>
       </c>
       <c r="D46" t="s">
         <v>257</v>
@@ -5977,31 +5973,31 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="H46" t="n">
-        <v>53999351</v>
+        <v>54089706</v>
       </c>
       <c r="I46" t="n">
-        <v>5035.114</v>
+        <v>5043.539</v>
       </c>
       <c r="J46" t="n">
-        <v>7658</v>
+        <v>19019</v>
       </c>
       <c r="K46" t="n">
-        <v>0.714</v>
+        <v>1.773</v>
       </c>
       <c r="L46" t="n">
-        <v>21329</v>
+        <v>18749</v>
       </c>
       <c r="M46" t="n">
-        <v>1.989</v>
+        <v>1.748</v>
       </c>
       <c r="N46" t="n">
-        <v>0.21</v>
+        <v>0.178</v>
       </c>
       <c r="O46" t="n">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="P46" t="s">
         <v>53</v>
@@ -6077,7 +6073,7 @@
         <v>266</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>44661</v>
+        <v>44663</v>
       </c>
       <c r="D48" t="s">
         <v>267</v>
@@ -6087,31 +6083,31 @@
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="H48" t="n">
-        <v>66812606</v>
+        <v>66852397</v>
       </c>
       <c r="I48" t="n">
-        <v>11493.056</v>
+        <v>11499.901</v>
       </c>
       <c r="J48" t="n">
-        <v>11776</v>
+        <v>15782</v>
       </c>
       <c r="K48" t="n">
-        <v>2.026</v>
+        <v>2.715</v>
       </c>
       <c r="L48" t="n">
-        <v>20173</v>
+        <v>18575</v>
       </c>
       <c r="M48" t="n">
-        <v>3.47</v>
+        <v>3.195</v>
       </c>
       <c r="N48" t="n">
-        <v>0.1306</v>
+        <v>0.1331</v>
       </c>
       <c r="O48" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="P48" t="s">
         <v>268</v>
@@ -6297,7 +6293,7 @@
         <v>286</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44657</v>
+        <v>44661</v>
       </c>
       <c r="D52" t="s">
         <v>287</v>
@@ -6309,31 +6305,31 @@
         <v>289</v>
       </c>
       <c r="G52" t="n">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="H52" t="n">
-        <v>2668484</v>
+        <v>2680089</v>
       </c>
       <c r="I52" t="n">
-        <v>149.173</v>
+        <v>149.822</v>
       </c>
       <c r="J52" t="n">
-        <v>3173</v>
+        <v>884</v>
       </c>
       <c r="K52" t="n">
-        <v>0.177</v>
+        <v>0.049</v>
       </c>
       <c r="L52" t="n">
-        <v>2745</v>
+        <v>3219</v>
       </c>
       <c r="M52" t="n">
-        <v>0.153</v>
+        <v>0.18</v>
       </c>
       <c r="N52" t="n">
-        <v>0.127</v>
+        <v>0.136</v>
       </c>
       <c r="O52" t="n">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="P52" t="s">
         <v>290</v>
@@ -6564,7 +6560,7 @@
         <v>310</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44661</v>
+        <v>44665</v>
       </c>
       <c r="D57" t="s">
         <v>311</v>
@@ -6574,32 +6570,28 @@
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="H57" t="n">
-        <v>3294987</v>
+        <v>3308458</v>
       </c>
       <c r="I57" t="n">
-        <v>2486.43</v>
+        <v>2496.595</v>
       </c>
       <c r="J57" t="n">
-        <v>1973</v>
+        <v>2762</v>
       </c>
       <c r="K57" t="n">
-        <v>1.489</v>
+        <v>2.084</v>
       </c>
       <c r="L57" t="n">
-        <v>3372</v>
+        <v>2925</v>
       </c>
       <c r="M57" t="n">
-        <v>2.545</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0.2256</v>
-      </c>
-      <c r="O57" t="n">
-        <v>4.4</v>
-      </c>
+        <v>2.207</v>
+      </c>
+      <c r="N57"/>
+      <c r="O57"/>
       <c r="P57" t="s">
         <v>312</v>
       </c>
@@ -6780,7 +6772,7 @@
         <v>330</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>44661</v>
+        <v>44665</v>
       </c>
       <c r="D61" t="s">
         <v>331</v>
@@ -6790,21 +6782,21 @@
       </c>
       <c r="F61"/>
       <c r="G61" t="n">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H61" t="n">
-        <v>505948</v>
+        <v>506199</v>
       </c>
       <c r="I61" t="n">
-        <v>560.359</v>
+        <v>560.637</v>
       </c>
       <c r="J61"/>
       <c r="K61"/>
       <c r="L61" t="n">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="M61" t="n">
-        <v>0.116</v>
+        <v>0.07</v>
       </c>
       <c r="N61"/>
       <c r="O61"/>
@@ -6829,7 +6821,7 @@
         <v>336</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44656</v>
+        <v>44663</v>
       </c>
       <c r="D62" t="s">
         <v>337</v>
@@ -6839,31 +6831,31 @@
       </c>
       <c r="F62"/>
       <c r="G62" t="n">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="H62" t="n">
-        <v>10512836</v>
+        <v>10591036</v>
       </c>
       <c r="I62" t="n">
-        <v>1894.764</v>
+        <v>1908.858</v>
       </c>
       <c r="J62" t="n">
-        <v>13100</v>
+        <v>12203</v>
       </c>
       <c r="K62" t="n">
-        <v>2.361</v>
+        <v>2.199</v>
       </c>
       <c r="L62" t="n">
-        <v>12208</v>
+        <v>10693</v>
       </c>
       <c r="M62" t="n">
-        <v>2.2</v>
+        <v>1.927</v>
       </c>
       <c r="N62" t="n">
-        <v>0.407</v>
+        <v>0.388</v>
       </c>
       <c r="O62" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P62" t="s">
         <v>339</v>
@@ -6886,7 +6878,7 @@
         <v>343</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44658</v>
+        <v>44662</v>
       </c>
       <c r="D63" t="s">
         <v>344</v>
@@ -6896,31 +6888,31 @@
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="H63" t="n">
-        <v>262493786</v>
+        <v>264038488</v>
       </c>
       <c r="I63" t="n">
-        <v>3893.296</v>
+        <v>3916.207</v>
       </c>
       <c r="J63" t="n">
-        <v>485933</v>
+        <v>612734</v>
       </c>
       <c r="K63" t="n">
-        <v>7.207</v>
+        <v>9.088</v>
       </c>
       <c r="L63" t="n">
-        <v>448467</v>
+        <v>439723</v>
       </c>
       <c r="M63" t="n">
-        <v>6.652</v>
+        <v>6.522</v>
       </c>
       <c r="N63" t="n">
-        <v>0.316</v>
+        <v>0.322</v>
       </c>
       <c r="O63" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P63" t="s">
         <v>345</v>
@@ -7049,7 +7041,7 @@
         <v>357</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>44658</v>
+        <v>44666</v>
       </c>
       <c r="D66" t="s">
         <v>358</v>
@@ -7059,32 +7051,28 @@
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H66" t="n">
-        <v>13626698</v>
+        <v>13652505</v>
       </c>
       <c r="I66" t="n">
-        <v>3423.989</v>
+        <v>3430.473</v>
       </c>
       <c r="J66" t="n">
-        <v>22625</v>
+        <v>20318</v>
       </c>
       <c r="K66" t="n">
-        <v>5.685</v>
+        <v>5.105</v>
       </c>
       <c r="L66" t="n">
-        <v>4787</v>
+        <v>3491</v>
       </c>
       <c r="M66" t="n">
-        <v>1.203</v>
-      </c>
-      <c r="N66" t="n">
-        <v>0.0729</v>
-      </c>
-      <c r="O66" t="n">
-        <v>13.7</v>
-      </c>
+        <v>0.877</v>
+      </c>
+      <c r="N66"/>
+      <c r="O66"/>
       <c r="P66" t="s">
         <v>359</v>
       </c>
@@ -7265,7 +7253,7 @@
         <v>377</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44661</v>
+        <v>44665</v>
       </c>
       <c r="D70" t="s">
         <v>378</v>
@@ -7275,28 +7263,24 @@
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H70" t="n">
-        <v>76515099</v>
+        <v>77364430</v>
       </c>
       <c r="I70" t="n">
-        <v>7377.974</v>
+        <v>7459.871</v>
       </c>
       <c r="J70"/>
       <c r="K70"/>
       <c r="L70" t="n">
-        <v>249945</v>
+        <v>216895</v>
       </c>
       <c r="M70" t="n">
-        <v>24.101</v>
-      </c>
-      <c r="N70" t="n">
-        <v>0.0548</v>
-      </c>
-      <c r="O70" t="n">
-        <v>18.2</v>
-      </c>
+        <v>20.914</v>
+      </c>
+      <c r="N70"/>
+      <c r="O70"/>
       <c r="P70" t="s">
         <v>380</v>
       </c>
@@ -7318,7 +7302,7 @@
         <v>384</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44659</v>
+        <v>44664</v>
       </c>
       <c r="D71" t="s">
         <v>385</v>
@@ -7328,27 +7312,27 @@
       </c>
       <c r="F71"/>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H71" t="n">
-        <v>145445</v>
+        <v>146475</v>
       </c>
       <c r="I71" t="n">
-        <v>1286.953</v>
+        <v>1296.067</v>
       </c>
       <c r="J71"/>
       <c r="K71"/>
       <c r="L71" t="n">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="M71" t="n">
-        <v>1.637</v>
+        <v>1.77</v>
       </c>
       <c r="N71" t="n">
-        <v>0.0093</v>
+        <v>0.0486</v>
       </c>
       <c r="O71" t="n">
-        <v>107.9</v>
+        <v>20.6</v>
       </c>
       <c r="P71" t="s">
         <v>386</v>
@@ -7371,7 +7355,7 @@
         <v>390</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>44657</v>
+        <v>44661</v>
       </c>
       <c r="D72" t="s">
         <v>391</v>
@@ -7381,31 +7365,31 @@
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="H72" t="n">
-        <v>279991</v>
+        <v>281316</v>
       </c>
       <c r="I72" t="n">
-        <v>1645.225</v>
+        <v>1653.011</v>
       </c>
       <c r="J72" t="n">
-        <v>397</v>
+        <v>100</v>
       </c>
       <c r="K72" t="n">
-        <v>2.333</v>
+        <v>0.588</v>
       </c>
       <c r="L72" t="n">
-        <v>452</v>
+        <v>320</v>
       </c>
       <c r="M72" t="n">
-        <v>2.656</v>
+        <v>1.88</v>
       </c>
       <c r="N72" t="n">
-        <v>0.053</v>
+        <v>0.076</v>
       </c>
       <c r="O72" t="n">
-        <v>18.9</v>
+        <v>13.2</v>
       </c>
       <c r="P72" t="s">
         <v>392</v>
@@ -7644,7 +7628,7 @@
         <v>415</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>44653</v>
+        <v>44660</v>
       </c>
       <c r="D77" t="s">
         <v>416</v>
@@ -7654,27 +7638,27 @@
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H77" t="n">
-        <v>190236</v>
+        <v>191744</v>
       </c>
       <c r="I77" t="n">
-        <v>16.483</v>
+        <v>16.613</v>
       </c>
       <c r="J77"/>
       <c r="K77"/>
       <c r="L77" t="n">
-        <v>318</v>
+        <v>215</v>
       </c>
       <c r="M77" t="n">
-        <v>0.028</v>
+        <v>0.019</v>
       </c>
       <c r="N77" t="n">
-        <v>0.0171</v>
+        <v>0.0239</v>
       </c>
       <c r="O77" t="n">
-        <v>58.6</v>
+        <v>41.8</v>
       </c>
       <c r="P77" t="s">
         <v>418</v>
@@ -7750,7 +7734,7 @@
         <v>429</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>44662</v>
+        <v>44665</v>
       </c>
       <c r="D79" t="s">
         <v>430</v>
@@ -7762,25 +7746,25 @@
         <v>432</v>
       </c>
       <c r="G79" t="n">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="H79" t="n">
-        <v>10770194</v>
+        <v>10793737</v>
       </c>
       <c r="I79" t="n">
-        <v>1117.917</v>
+        <v>1120.361</v>
       </c>
       <c r="J79" t="n">
-        <v>29137</v>
+        <v>11211</v>
       </c>
       <c r="K79" t="n">
-        <v>3.024</v>
+        <v>1.164</v>
       </c>
       <c r="L79" t="n">
-        <v>9998</v>
+        <v>9214</v>
       </c>
       <c r="M79" t="n">
-        <v>1.038</v>
+        <v>0.956</v>
       </c>
       <c r="N79"/>
       <c r="O79"/>
@@ -7805,7 +7789,7 @@
         <v>436</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44658</v>
+        <v>44662</v>
       </c>
       <c r="D80" t="s">
         <v>437</v>
@@ -7815,25 +7799,25 @@
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="H80" t="n">
-        <v>1301870</v>
+        <v>1306152</v>
       </c>
       <c r="I80" t="n">
-        <v>3530.093</v>
+        <v>3541.704</v>
       </c>
       <c r="J80" t="n">
-        <v>1295</v>
+        <v>1048</v>
       </c>
       <c r="K80" t="n">
-        <v>3.511</v>
+        <v>2.842</v>
       </c>
       <c r="L80" t="n">
-        <v>1157</v>
+        <v>1126</v>
       </c>
       <c r="M80" t="n">
-        <v>3.137</v>
+        <v>3.053</v>
       </c>
       <c r="N80"/>
       <c r="O80"/>
@@ -7858,7 +7842,7 @@
         <v>441</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>44661</v>
+        <v>44665</v>
       </c>
       <c r="D81" t="s">
         <v>442</v>
@@ -7870,32 +7854,28 @@
         <v>444</v>
       </c>
       <c r="G81" t="n">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="H81" t="n">
-        <v>793847740</v>
+        <v>830810157</v>
       </c>
       <c r="I81" t="n">
-        <v>569.716</v>
+        <v>596.243</v>
       </c>
       <c r="J81" t="n">
-        <v>418345</v>
+        <v>35855632</v>
       </c>
       <c r="K81" t="n">
-        <v>0.3</v>
+        <v>25.732</v>
       </c>
       <c r="L81" t="n">
-        <v>440408</v>
+        <v>5471529</v>
       </c>
       <c r="M81" t="n">
-        <v>0.316</v>
-      </c>
-      <c r="N81" t="n">
-        <v>0.0023</v>
-      </c>
-      <c r="O81" t="n">
-        <v>434.9</v>
-      </c>
+        <v>3.927</v>
+      </c>
+      <c r="N81"/>
+      <c r="O81"/>
       <c r="P81" t="s">
         <v>443</v>
       </c>
@@ -7974,7 +7954,7 @@
         <v>453</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44662</v>
+        <v>44664</v>
       </c>
       <c r="D83" t="s">
         <v>454</v>
@@ -7984,24 +7964,28 @@
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H83" t="n">
-        <v>50079995</v>
+        <v>50195632</v>
       </c>
       <c r="I83" t="n">
-        <v>588.977</v>
+        <v>590.337</v>
       </c>
       <c r="J83"/>
       <c r="K83"/>
       <c r="L83" t="n">
-        <v>60152</v>
+        <v>59484</v>
       </c>
       <c r="M83" t="n">
-        <v>0.707</v>
-      </c>
-      <c r="N83"/>
-      <c r="O83"/>
+        <v>0.7</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.0477</v>
+      </c>
+      <c r="O83" t="n">
+        <v>21</v>
+      </c>
       <c r="P83" t="s">
         <v>456</v>
       </c>
@@ -8076,7 +8060,7 @@
         <v>462</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44662</v>
+        <v>44666</v>
       </c>
       <c r="D85" t="s">
         <v>463</v>
@@ -8086,25 +8070,25 @@
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="H85" t="n">
-        <v>11933915</v>
+        <v>11971043</v>
       </c>
       <c r="I85" t="n">
-        <v>2394.972</v>
+        <v>2402.423</v>
       </c>
       <c r="J85" t="n">
-        <v>6587</v>
+        <v>7260</v>
       </c>
       <c r="K85" t="n">
-        <v>1.322</v>
+        <v>1.457</v>
       </c>
       <c r="L85" t="n">
-        <v>9813</v>
+        <v>8446</v>
       </c>
       <c r="M85" t="n">
-        <v>1.969</v>
+        <v>1.695</v>
       </c>
       <c r="N85"/>
       <c r="O85"/>
@@ -8129,7 +8113,7 @@
         <v>468</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44661</v>
+        <v>44665</v>
       </c>
       <c r="D86" t="s">
         <v>469</v>
@@ -8139,31 +8123,31 @@
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="H86" t="n">
-        <v>49085339</v>
+        <v>49321915</v>
       </c>
       <c r="I86" t="n">
-        <v>5283.106</v>
+        <v>5308.569</v>
       </c>
       <c r="J86" t="n">
-        <v>47377</v>
+        <v>55973</v>
       </c>
       <c r="K86" t="n">
-        <v>5.099</v>
+        <v>6.024</v>
       </c>
       <c r="L86" t="n">
-        <v>51414</v>
+        <v>51318</v>
       </c>
       <c r="M86" t="n">
-        <v>5.534</v>
+        <v>5.523</v>
       </c>
       <c r="N86" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="O86" t="n">
-        <v>7.1</v>
+        <v>9.1</v>
       </c>
       <c r="P86" t="s">
         <v>53</v>
@@ -8186,7 +8170,7 @@
         <v>474</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44661</v>
+        <v>44665</v>
       </c>
       <c r="D87" t="s">
         <v>475</v>
@@ -8198,32 +8182,28 @@
         <v>477</v>
       </c>
       <c r="G87" t="n">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="H87" t="n">
-        <v>206399929</v>
+        <v>208014099</v>
       </c>
       <c r="I87" t="n">
-        <v>3419.059</v>
+        <v>3445.798</v>
       </c>
       <c r="J87" t="n">
-        <v>352265</v>
+        <v>438375</v>
       </c>
       <c r="K87" t="n">
-        <v>5.835</v>
+        <v>7.262</v>
       </c>
       <c r="L87" t="n">
-        <v>590827</v>
+        <v>406702</v>
       </c>
       <c r="M87" t="n">
-        <v>9.787</v>
-      </c>
-      <c r="N87" t="n">
-        <v>0.1079</v>
-      </c>
-      <c r="O87" t="n">
-        <v>9.3</v>
-      </c>
+        <v>6.737</v>
+      </c>
+      <c r="N87"/>
+      <c r="O87"/>
       <c r="P87" t="s">
         <v>478</v>
       </c>
@@ -8245,7 +8225,7 @@
         <v>482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44658</v>
+        <v>44664</v>
       </c>
       <c r="D88" t="s">
         <v>483</v>
@@ -8255,31 +8235,31 @@
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="H88" t="n">
-        <v>945271</v>
+        <v>959221</v>
       </c>
       <c r="I88" t="n">
-        <v>317.902</v>
+        <v>322.594</v>
       </c>
       <c r="J88" t="n">
-        <v>1968</v>
+        <v>2064</v>
       </c>
       <c r="K88" t="n">
-        <v>0.662</v>
+        <v>0.694</v>
       </c>
       <c r="L88" t="n">
-        <v>2282</v>
+        <v>2274</v>
       </c>
       <c r="M88" t="n">
-        <v>0.767</v>
+        <v>0.765</v>
       </c>
       <c r="N88" t="n">
-        <v>0.0121</v>
+        <v>0.0116</v>
       </c>
       <c r="O88" t="n">
-        <v>82.8</v>
+        <v>86.5</v>
       </c>
       <c r="P88" t="s">
         <v>484</v>
@@ -8302,7 +8282,7 @@
         <v>488</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44661</v>
+        <v>44665</v>
       </c>
       <c r="D89" t="s">
         <v>489</v>
@@ -8312,32 +8292,28 @@
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="H89" t="n">
-        <v>42936789</v>
+        <v>43513239</v>
       </c>
       <c r="I89" t="n">
-        <v>340.631</v>
+        <v>345.204</v>
       </c>
       <c r="J89" t="n">
-        <v>56863</v>
+        <v>169524</v>
       </c>
       <c r="K89" t="n">
-        <v>0.451</v>
+        <v>1.345</v>
       </c>
       <c r="L89" t="n">
-        <v>129866</v>
+        <v>129662</v>
       </c>
       <c r="M89" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N89" t="n">
-        <v>0.3726</v>
-      </c>
-      <c r="O89" t="n">
-        <v>2.7</v>
-      </c>
+        <v>1.029</v>
+      </c>
+      <c r="N89"/>
+      <c r="O89"/>
       <c r="P89" t="s">
         <v>490</v>
       </c>
@@ -8628,7 +8604,7 @@
         <v>520</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44658</v>
+        <v>44666</v>
       </c>
       <c r="D95" t="s">
         <v>521</v>
@@ -8638,25 +8614,25 @@
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H95" t="n">
-        <v>1014597</v>
+        <v>1017987</v>
       </c>
       <c r="I95" t="n">
-        <v>137.491</v>
+        <v>137.951</v>
       </c>
       <c r="J95" t="n">
-        <v>4827</v>
+        <v>1350</v>
       </c>
       <c r="K95" t="n">
-        <v>0.654</v>
+        <v>0.183</v>
       </c>
       <c r="L95" t="n">
-        <v>690</v>
+        <v>411</v>
       </c>
       <c r="M95" t="n">
-        <v>0.094</v>
+        <v>0.056</v>
       </c>
       <c r="N95"/>
       <c r="O95"/>
@@ -8681,7 +8657,7 @@
         <v>526</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>44662</v>
+        <v>44666</v>
       </c>
       <c r="D96" t="s">
         <v>527</v>
@@ -8693,25 +8669,25 @@
         <v>529</v>
       </c>
       <c r="G96" t="n">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="H96" t="n">
-        <v>7052074</v>
+        <v>7071932</v>
       </c>
       <c r="I96" t="n">
-        <v>3777.356</v>
+        <v>3787.993</v>
       </c>
       <c r="J96" t="n">
-        <v>2050</v>
+        <v>4268</v>
       </c>
       <c r="K96" t="n">
-        <v>1.098</v>
+        <v>2.286</v>
       </c>
       <c r="L96" t="n">
-        <v>4444</v>
+        <v>4043</v>
       </c>
       <c r="M96" t="n">
-        <v>2.38</v>
+        <v>2.166</v>
       </c>
       <c r="N96"/>
       <c r="O96"/>
@@ -8983,7 +8959,7 @@
         <v>555</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D102" t="s">
         <v>556</v>
@@ -8993,31 +8969,31 @@
       </c>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="H102" t="n">
-        <v>8527334</v>
+        <v>8543357</v>
       </c>
       <c r="I102" t="n">
-        <v>3170.175</v>
+        <v>3176.132</v>
       </c>
       <c r="J102" t="n">
-        <v>7210</v>
+        <v>3388</v>
       </c>
       <c r="K102" t="n">
-        <v>2.68</v>
+        <v>1.26</v>
       </c>
       <c r="L102" t="n">
-        <v>7475</v>
+        <v>7171</v>
       </c>
       <c r="M102" t="n">
-        <v>2.779</v>
+        <v>2.666</v>
       </c>
       <c r="N102" t="n">
-        <v>0.272</v>
+        <v>0.254</v>
       </c>
       <c r="O102" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="P102" t="s">
         <v>557</v>
@@ -9040,7 +9016,7 @@
         <v>560</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44658</v>
+        <v>44664</v>
       </c>
       <c r="D103" t="s">
         <v>561</v>
@@ -9050,28 +9026,28 @@
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="H103" t="n">
-        <v>4184582</v>
+        <v>4198150</v>
       </c>
       <c r="I103" t="n">
-        <v>6591.824</v>
+        <v>6613.197</v>
       </c>
       <c r="J103" t="n">
-        <v>2928</v>
+        <v>2750</v>
       </c>
       <c r="K103" t="n">
-        <v>4.612</v>
+        <v>4.332</v>
       </c>
       <c r="L103" t="n">
-        <v>2736</v>
+        <v>2357</v>
       </c>
       <c r="M103" t="n">
-        <v>4.31</v>
+        <v>3.713</v>
       </c>
       <c r="N103" t="n">
-        <v>0.349</v>
+        <v>0.347</v>
       </c>
       <c r="O103" t="n">
         <v>2.9</v>
@@ -9203,7 +9179,7 @@
         <v>571</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44659</v>
+        <v>44663</v>
       </c>
       <c r="D106" t="s">
         <v>572</v>
@@ -9215,31 +9191,31 @@
         <v>574</v>
       </c>
       <c r="G106" t="n">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="H106" t="n">
-        <v>57337556</v>
+        <v>57647844</v>
       </c>
       <c r="I106" t="n">
-        <v>1749.366</v>
+        <v>1758.833</v>
       </c>
       <c r="J106" t="n">
-        <v>77406</v>
+        <v>80374</v>
       </c>
       <c r="K106" t="n">
-        <v>2.362</v>
+        <v>2.452</v>
       </c>
       <c r="L106" t="n">
-        <v>93516</v>
+        <v>81816</v>
       </c>
       <c r="M106" t="n">
-        <v>2.853</v>
+        <v>2.496</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1346</v>
+        <v>0.1293</v>
       </c>
       <c r="O106" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="P106" t="s">
         <v>53</v>
@@ -9372,7 +9348,7 @@
         <v>587</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44662</v>
+        <v>44666</v>
       </c>
       <c r="D109" t="s">
         <v>588</v>
@@ -9382,25 +9358,25 @@
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="H109" t="n">
-        <v>1841246</v>
+        <v>1853069</v>
       </c>
       <c r="I109" t="n">
-        <v>3567.615</v>
+        <v>3590.523</v>
       </c>
       <c r="J109" t="n">
-        <v>2886</v>
+        <v>2706</v>
       </c>
       <c r="K109" t="n">
-        <v>5.592</v>
+        <v>5.243</v>
       </c>
       <c r="L109" t="n">
-        <v>3437</v>
+        <v>3006</v>
       </c>
       <c r="M109" t="n">
-        <v>6.66</v>
+        <v>5.824</v>
       </c>
       <c r="N109"/>
       <c r="O109"/>
@@ -9578,7 +9554,7 @@
         <v>605</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44660</v>
+        <v>44663</v>
       </c>
       <c r="D113" t="s">
         <v>606</v>
@@ -9588,31 +9564,31 @@
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="H113" t="n">
-        <v>14988078</v>
+        <v>15009676</v>
       </c>
       <c r="I113" t="n">
-        <v>115.061</v>
+        <v>115.227</v>
       </c>
       <c r="J113" t="n">
-        <v>457</v>
+        <v>3233</v>
       </c>
       <c r="K113" t="n">
-        <v>0.004</v>
+        <v>0.025</v>
       </c>
       <c r="L113" t="n">
-        <v>4955</v>
+        <v>4198</v>
       </c>
       <c r="M113" t="n">
-        <v>0.038</v>
+        <v>0.032</v>
       </c>
       <c r="N113" t="n">
-        <v>0.096</v>
+        <v>0.08</v>
       </c>
       <c r="O113" t="n">
-        <v>10.4</v>
+        <v>12.5</v>
       </c>
       <c r="P113" t="s">
         <v>608</v>
@@ -9635,7 +9611,7 @@
         <v>611</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44658</v>
+        <v>44665</v>
       </c>
       <c r="D114" t="s">
         <v>612</v>
@@ -9645,15 +9621,15 @@
       </c>
       <c r="F114"/>
       <c r="G114" t="n">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H114"/>
       <c r="I114"/>
       <c r="J114" t="n">
-        <v>3359</v>
+        <v>3091</v>
       </c>
       <c r="K114" t="n">
-        <v>0.835</v>
+        <v>0.768</v>
       </c>
       <c r="L114"/>
       <c r="M114"/>
@@ -9680,7 +9656,7 @@
         <v>618</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>44662</v>
+        <v>44666</v>
       </c>
       <c r="D115" t="s">
         <v>619</v>
@@ -9690,21 +9666,21 @@
       </c>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H115" t="n">
-        <v>7356002</v>
+        <v>7368559</v>
       </c>
       <c r="I115" t="n">
-        <v>2209.486</v>
+        <v>2213.258</v>
       </c>
       <c r="J115"/>
       <c r="K115"/>
       <c r="L115" t="n">
-        <v>3686</v>
+        <v>3266</v>
       </c>
       <c r="M115" t="n">
-        <v>1.107</v>
+        <v>0.981</v>
       </c>
       <c r="N115"/>
       <c r="O115"/>
@@ -9729,7 +9705,7 @@
         <v>623</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44661</v>
+        <v>44665</v>
       </c>
       <c r="D116" t="s">
         <v>624</v>
@@ -9739,28 +9715,24 @@
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H116" t="n">
-        <v>11337119</v>
+        <v>11359870</v>
       </c>
       <c r="I116" t="n">
-        <v>303.58</v>
+        <v>304.189</v>
       </c>
       <c r="J116"/>
       <c r="K116"/>
       <c r="L116" t="n">
-        <v>5366</v>
+        <v>5633</v>
       </c>
       <c r="M116" t="n">
-        <v>0.144</v>
-      </c>
-      <c r="N116" t="n">
-        <v>0.0134</v>
-      </c>
-      <c r="O116" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0.151</v>
+      </c>
+      <c r="N116"/>
+      <c r="O116"/>
       <c r="P116" t="s">
         <v>625</v>
       </c>
@@ -9835,7 +9807,7 @@
         <v>632</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44661</v>
+        <v>44665</v>
       </c>
       <c r="D118" t="s">
         <v>633</v>
@@ -9845,28 +9817,24 @@
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H118" t="n">
-        <v>7782033</v>
+        <v>7811554</v>
       </c>
       <c r="I118" t="n">
-        <v>141.992</v>
+        <v>142.531</v>
       </c>
       <c r="J118"/>
       <c r="K118"/>
       <c r="L118" t="n">
-        <v>12450</v>
+        <v>9300</v>
       </c>
       <c r="M118" t="n">
-        <v>0.227</v>
-      </c>
-      <c r="N118" t="n">
-        <v>0.0053</v>
-      </c>
-      <c r="O118" t="n">
-        <v>187</v>
-      </c>
+        <v>0.17</v>
+      </c>
+      <c r="N118"/>
+      <c r="O118"/>
       <c r="P118" t="s">
         <v>634</v>
       </c>
@@ -9941,7 +9909,7 @@
         <v>643</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>44662</v>
+        <v>44666</v>
       </c>
       <c r="D120" t="s">
         <v>644</v>
@@ -9951,21 +9919,21 @@
       </c>
       <c r="F120"/>
       <c r="G120" t="n">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H120" t="n">
-        <v>6723916</v>
+        <v>6739954</v>
       </c>
       <c r="I120" t="n">
-        <v>226.586</v>
+        <v>227.126</v>
       </c>
       <c r="J120"/>
       <c r="K120"/>
       <c r="L120" t="n">
-        <v>4556</v>
+        <v>4011</v>
       </c>
       <c r="M120" t="n">
-        <v>0.154</v>
+        <v>0.135</v>
       </c>
       <c r="N120" t="n">
         <v>0.006</v>
@@ -9994,7 +9962,7 @@
         <v>649</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>44657</v>
+        <v>44663</v>
       </c>
       <c r="D121" t="s">
         <v>650</v>
@@ -10004,28 +9972,28 @@
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="H121" t="n">
-        <v>30435369</v>
+        <v>30502136</v>
       </c>
       <c r="I121" t="n">
-        <v>1772.271</v>
+        <v>1776.158</v>
       </c>
       <c r="J121" t="n">
-        <v>18781</v>
+        <v>7175</v>
       </c>
       <c r="K121" t="n">
-        <v>1.094</v>
+        <v>0.418</v>
       </c>
       <c r="L121" t="n">
-        <v>21695</v>
+        <v>12221</v>
       </c>
       <c r="M121" t="n">
-        <v>1.263</v>
+        <v>0.712</v>
       </c>
       <c r="N121" t="n">
-        <v>0.612</v>
+        <v>0.607</v>
       </c>
       <c r="O121" t="n">
         <v>1.6</v>
@@ -10051,7 +10019,7 @@
         <v>655</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44662</v>
+        <v>44666</v>
       </c>
       <c r="D122" t="s">
         <v>656</v>
@@ -10061,21 +10029,21 @@
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H122" t="n">
-        <v>6954369</v>
+        <v>6966982</v>
       </c>
       <c r="I122" t="n">
-        <v>1356.606</v>
+        <v>1359.066</v>
       </c>
       <c r="J122"/>
       <c r="K122"/>
       <c r="L122" t="n">
-        <v>2944</v>
+        <v>2575</v>
       </c>
       <c r="M122" t="n">
-        <v>0.574</v>
+        <v>0.502</v>
       </c>
       <c r="N122"/>
       <c r="O122"/>
@@ -10100,60 +10068,60 @@
         <v>661</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>44661</v>
+        <v>44626</v>
       </c>
       <c r="D123" t="s">
-        <v>35</v>
+        <v>662</v>
       </c>
       <c r="E123" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H123" t="n">
-        <v>243301</v>
+        <v>181097</v>
       </c>
       <c r="I123" t="n">
-        <v>9.681</v>
+        <v>27.02</v>
       </c>
       <c r="J123"/>
       <c r="K123"/>
       <c r="L123" t="n">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="M123" t="n">
-        <v>0.011</v>
+        <v>0.049</v>
       </c>
       <c r="N123" t="n">
-        <v>0.0055</v>
+        <v>0.044</v>
       </c>
       <c r="O123" t="n">
-        <v>183.3</v>
+        <v>22.7</v>
       </c>
       <c r="P123" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="Q123" t="s">
-        <v>37</v>
+        <v>662</v>
       </c>
       <c r="R123" t="s">
         <v>25</v>
       </c>
       <c r="S123" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B124" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="D124" t="s">
         <v>35</v>
@@ -10163,444 +10131,452 @@
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>277</v>
+        <v>20</v>
       </c>
       <c r="H124" t="n">
-        <v>4906535</v>
+        <v>243301</v>
       </c>
       <c r="I124" t="n">
-        <v>23.21</v>
+        <v>9.681</v>
       </c>
       <c r="J124"/>
       <c r="K124"/>
       <c r="L124" t="n">
-        <v>11318</v>
+        <v>288</v>
       </c>
       <c r="M124" t="n">
-        <v>0.054</v>
+        <v>0.011</v>
       </c>
       <c r="N124" t="n">
-        <v>0.002</v>
+        <v>0.0055</v>
       </c>
       <c r="O124" t="n">
-        <v>495.2</v>
+        <v>183.3</v>
       </c>
       <c r="P124" t="s">
-        <v>665</v>
+        <v>36</v>
       </c>
       <c r="Q124" t="s">
+        <v>37</v>
+      </c>
+      <c r="R124" t="s">
+        <v>25</v>
+      </c>
+      <c r="S124" t="s">
         <v>666</v>
-      </c>
-      <c r="R124" t="s">
-        <v>140</v>
-      </c>
-      <c r="S124" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
+        <v>667</v>
+      </c>
+      <c r="B125" t="s">
         <v>668</v>
       </c>
-      <c r="B125" t="s">
-        <v>669</v>
-      </c>
       <c r="C125" s="1" t="n">
-        <v>44662</v>
+        <v>44658</v>
       </c>
       <c r="D125" t="s">
-        <v>670</v>
+        <v>35</v>
       </c>
       <c r="E125" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>466</v>
+        <v>277</v>
       </c>
       <c r="H125" t="n">
-        <v>1984493</v>
+        <v>4906535</v>
       </c>
       <c r="I125" t="n">
-        <v>952.864</v>
+        <v>23.21</v>
       </c>
       <c r="J125"/>
       <c r="K125"/>
       <c r="L125" t="n">
-        <v>1981</v>
+        <v>11318</v>
       </c>
       <c r="M125" t="n">
-        <v>0.951</v>
-      </c>
-      <c r="N125"/>
-      <c r="O125"/>
+        <v>0.054</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="O125" t="n">
+        <v>495.2</v>
+      </c>
       <c r="P125" t="s">
-        <v>53</v>
+        <v>669</v>
       </c>
       <c r="Q125" t="s">
+        <v>670</v>
+      </c>
+      <c r="R125" t="s">
+        <v>140</v>
+      </c>
+      <c r="S125" t="s">
         <v>671</v>
-      </c>
-      <c r="R125" t="s">
-        <v>65</v>
-      </c>
-      <c r="S125" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
+        <v>672</v>
+      </c>
+      <c r="B126" t="s">
         <v>673</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" s="1" t="n">
+        <v>44665</v>
+      </c>
+      <c r="D126" t="s">
         <v>674</v>
       </c>
-      <c r="C126" s="1" t="n">
-        <v>44534</v>
-      </c>
-      <c r="D126" t="s">
-        <v>391</v>
-      </c>
       <c r="E126" t="s">
-        <v>392</v>
+        <v>53</v>
       </c>
       <c r="F126"/>
       <c r="G126" t="n">
-        <v>603</v>
+        <v>467</v>
       </c>
       <c r="H126" t="n">
-        <v>59110</v>
+        <v>1990996</v>
       </c>
       <c r="I126" t="n">
-        <v>1020.722</v>
-      </c>
-      <c r="J126" t="n">
-        <v>7</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.121</v>
-      </c>
+        <v>955.987</v>
+      </c>
+      <c r="J126"/>
+      <c r="K126"/>
       <c r="L126" t="n">
-        <v>23</v>
+        <v>2032</v>
       </c>
       <c r="M126" t="n">
-        <v>0.397</v>
-      </c>
-      <c r="N126" t="n">
-        <v>0.701</v>
-      </c>
-      <c r="O126" t="n">
-        <v>1.4</v>
-      </c>
+        <v>0.976</v>
+      </c>
+      <c r="N126"/>
+      <c r="O126"/>
       <c r="P126" t="s">
-        <v>392</v>
+        <v>53</v>
       </c>
       <c r="Q126" t="s">
-        <v>391</v>
+        <v>675</v>
       </c>
       <c r="R126" t="s">
-        <v>393</v>
+        <v>65</v>
       </c>
       <c r="S126" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B127" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44661</v>
+        <v>44534</v>
       </c>
       <c r="D127" t="s">
-        <v>678</v>
+        <v>391</v>
       </c>
       <c r="E127" t="s">
-        <v>679</v>
+        <v>392</v>
       </c>
       <c r="F127"/>
       <c r="G127" t="n">
-        <v>739</v>
+        <v>603</v>
       </c>
       <c r="H127" t="n">
-        <v>11043714</v>
+        <v>59110</v>
       </c>
       <c r="I127" t="n">
-        <v>2020.575</v>
+        <v>1020.722</v>
       </c>
       <c r="J127" t="n">
-        <v>673</v>
+        <v>7</v>
       </c>
       <c r="K127" t="n">
-        <v>0.123</v>
+        <v>0.121</v>
       </c>
       <c r="L127" t="n">
-        <v>3239</v>
+        <v>23</v>
       </c>
       <c r="M127" t="n">
-        <v>0.593</v>
+        <v>0.397</v>
       </c>
       <c r="N127" t="n">
-        <v>0.156</v>
+        <v>0.701</v>
       </c>
       <c r="O127" t="n">
-        <v>6.4</v>
+        <v>1.4</v>
       </c>
       <c r="P127" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>391</v>
+      </c>
+      <c r="R127" t="s">
+        <v>393</v>
+      </c>
+      <c r="S127" t="s">
         <v>679</v>
-      </c>
-      <c r="Q127" t="s">
-        <v>678</v>
-      </c>
-      <c r="R127" t="s">
-        <v>45</v>
-      </c>
-      <c r="S127" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
+        <v>680</v>
+      </c>
+      <c r="B128" t="s">
         <v>681</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" s="1" t="n">
+        <v>44664</v>
+      </c>
+      <c r="D128" t="s">
         <v>682</v>
       </c>
-      <c r="C128" s="1" t="n">
-        <v>44632</v>
-      </c>
-      <c r="D128" t="s">
-        <v>21</v>
-      </c>
       <c r="E128" t="s">
-        <v>22</v>
+        <v>683</v>
       </c>
       <c r="F128"/>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>742</v>
       </c>
       <c r="H128" t="n">
-        <v>1986264</v>
+        <v>11052826</v>
       </c>
       <c r="I128" t="n">
-        <v>380.264</v>
-      </c>
-      <c r="J128"/>
-      <c r="K128"/>
+        <v>2022.242</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1625</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.297</v>
+      </c>
       <c r="L128" t="n">
-        <v>0</v>
+        <v>2541</v>
       </c>
       <c r="M128" t="n">
-        <v>0</v>
-      </c>
-      <c r="N128"/>
-      <c r="O128"/>
+        <v>0.465</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.262</v>
+      </c>
+      <c r="O128" t="n">
+        <v>3.8</v>
+      </c>
       <c r="P128" t="s">
-        <v>23</v>
+        <v>683</v>
       </c>
       <c r="Q128" t="s">
-        <v>24</v>
+        <v>682</v>
       </c>
       <c r="R128" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="S128" t="s">
-        <v>26</v>
+        <v>684</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B129" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>44662</v>
+        <v>44632</v>
       </c>
       <c r="D129" t="s">
-        <v>685</v>
+        <v>21</v>
       </c>
       <c r="E129" t="s">
-        <v>686</v>
+        <v>22</v>
       </c>
       <c r="F129"/>
       <c r="G129" t="n">
-        <v>662</v>
+        <v>2</v>
       </c>
       <c r="H129" t="n">
-        <v>27763120</v>
+        <v>1986264</v>
       </c>
       <c r="I129" t="n">
-        <v>123.282</v>
+        <v>380.264</v>
       </c>
       <c r="J129"/>
       <c r="K129"/>
       <c r="L129" t="n">
-        <v>25810</v>
+        <v>0</v>
       </c>
       <c r="M129" t="n">
-        <v>0.115</v>
+        <v>0</v>
       </c>
       <c r="N129"/>
       <c r="O129"/>
       <c r="P129" t="s">
-        <v>686</v>
+        <v>23</v>
       </c>
       <c r="Q129" t="s">
-        <v>685</v>
+        <v>24</v>
       </c>
       <c r="R129" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="S129" t="s">
-        <v>687</v>
+        <v>26</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
+        <v>687</v>
+      </c>
+      <c r="B130" t="s">
         <v>688</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" s="1" t="n">
+        <v>44666</v>
+      </c>
+      <c r="D130" t="s">
         <v>689</v>
       </c>
-      <c r="C130" s="1" t="n">
-        <v>44661</v>
-      </c>
-      <c r="D130" t="s">
+      <c r="E130" t="s">
         <v>690</v>
-      </c>
-      <c r="E130" t="s">
-        <v>53</v>
       </c>
       <c r="F130"/>
       <c r="G130" t="n">
-        <v>556</v>
-      </c>
-      <c r="H130"/>
-      <c r="I130"/>
-      <c r="J130" t="n">
-        <v>4237</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.811</v>
-      </c>
-      <c r="L130"/>
-      <c r="M130"/>
+        <v>663</v>
+      </c>
+      <c r="H130" t="n">
+        <v>27830633</v>
+      </c>
+      <c r="I130" t="n">
+        <v>123.582</v>
+      </c>
+      <c r="J130"/>
+      <c r="K130"/>
+      <c r="L130" t="n">
+        <v>20109</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0.089</v>
+      </c>
       <c r="N130"/>
       <c r="O130"/>
       <c r="P130" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="Q130" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="R130" t="s">
         <v>65</v>
       </c>
       <c r="S130" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
+        <v>692</v>
+      </c>
+      <c r="B131" t="s">
+        <v>693</v>
+      </c>
+      <c r="C131" s="1" t="n">
+        <v>44661</v>
+      </c>
+      <c r="D131" t="s">
         <v>694</v>
       </c>
-      <c r="B131" t="s">
-        <v>695</v>
-      </c>
-      <c r="C131" s="1" t="n">
-        <v>44660</v>
-      </c>
-      <c r="D131" t="s">
-        <v>696</v>
-      </c>
       <c r="E131" t="s">
-        <v>697</v>
+        <v>53</v>
       </c>
       <c r="F131"/>
       <c r="G131" t="n">
-        <v>744</v>
-      </c>
-      <c r="H131" t="n">
-        <v>5749354</v>
-      </c>
-      <c r="I131" t="n">
-        <v>1312.164</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="H131"/>
+      <c r="I131"/>
       <c r="J131" t="n">
-        <v>5283</v>
+        <v>4237</v>
       </c>
       <c r="K131" t="n">
-        <v>1.206</v>
-      </c>
-      <c r="L131" t="n">
-        <v>5461</v>
-      </c>
-      <c r="M131" t="n">
-        <v>1.246</v>
-      </c>
-      <c r="N131" t="n">
-        <v>0.0438</v>
-      </c>
-      <c r="O131" t="n">
-        <v>22.8</v>
-      </c>
+        <v>0.811</v>
+      </c>
+      <c r="L131"/>
+      <c r="M131"/>
+      <c r="N131"/>
+      <c r="O131"/>
       <c r="P131" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="Q131" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="R131" t="s">
         <v>65</v>
       </c>
       <c r="S131" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
+        <v>698</v>
+      </c>
+      <c r="B132" t="s">
+        <v>699</v>
+      </c>
+      <c r="C132" s="1" t="n">
+        <v>44664</v>
+      </c>
+      <c r="D132" t="s">
         <v>700</v>
       </c>
-      <c r="B132" t="s">
+      <c r="E132" t="s">
         <v>701</v>
-      </c>
-      <c r="C132" s="1" t="n">
-        <v>44609</v>
-      </c>
-      <c r="D132" t="s">
-        <v>702</v>
-      </c>
-      <c r="E132" t="s">
-        <v>53</v>
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>748</v>
       </c>
       <c r="H132" t="n">
-        <v>249149</v>
+        <v>5770197</v>
       </c>
       <c r="I132" t="n">
-        <v>27.322</v>
-      </c>
-      <c r="J132"/>
-      <c r="K132"/>
-      <c r="L132"/>
-      <c r="M132"/>
-      <c r="N132"/>
-      <c r="O132"/>
+        <v>1316.921</v>
+      </c>
+      <c r="J132" t="n">
+        <v>6554</v>
+      </c>
+      <c r="K132" t="n">
+        <v>1.496</v>
+      </c>
+      <c r="L132" t="n">
+        <v>5419</v>
+      </c>
+      <c r="M132" t="n">
+        <v>1.237</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0.0502</v>
+      </c>
+      <c r="O132" t="n">
+        <v>19.9</v>
+      </c>
       <c r="P132" t="s">
-        <v>424</v>
+        <v>701</v>
       </c>
       <c r="Q132" t="s">
         <v>702</v>
       </c>
       <c r="R132" t="s">
-        <v>327</v>
+        <v>65</v>
       </c>
       <c r="S132" t="s">
         <v>703</v>
@@ -10614,631 +10590,623 @@
         <v>705</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>44647</v>
+        <v>44609</v>
       </c>
       <c r="D133" t="s">
         <v>706</v>
       </c>
       <c r="E133" t="s">
-        <v>707</v>
+        <v>53</v>
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>744</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>2609819</v>
+        <v>249149</v>
       </c>
       <c r="I133" t="n">
-        <v>361.489</v>
+        <v>27.322</v>
       </c>
       <c r="J133"/>
       <c r="K133"/>
-      <c r="L133" t="n">
-        <v>1763</v>
-      </c>
-      <c r="M133" t="n">
-        <v>0.244</v>
-      </c>
-      <c r="N133" t="n">
-        <v>0.0654</v>
-      </c>
-      <c r="O133" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="L133"/>
+      <c r="M133"/>
+      <c r="N133"/>
+      <c r="O133"/>
       <c r="P133" t="s">
-        <v>708</v>
+        <v>424</v>
       </c>
       <c r="Q133" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="R133" t="s">
-        <v>65</v>
+        <v>327</v>
       </c>
       <c r="S133" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
+        <v>708</v>
+      </c>
+      <c r="B134" t="s">
+        <v>709</v>
+      </c>
+      <c r="C134" s="1" t="n">
+        <v>44647</v>
+      </c>
+      <c r="D134" t="s">
+        <v>710</v>
+      </c>
+      <c r="E134" t="s">
         <v>711</v>
       </c>
-      <c r="B134" t="s">
-        <v>712</v>
-      </c>
-      <c r="C134" s="1" t="n">
-        <v>44651</v>
-      </c>
-      <c r="D134" t="s">
-        <v>713</v>
-      </c>
-      <c r="E134" t="s">
-        <v>218</v>
-      </c>
-      <c r="F134" t="s">
-        <v>714</v>
-      </c>
+      <c r="F134"/>
       <c r="G134" t="n">
-        <v>721</v>
+        <v>744</v>
       </c>
       <c r="H134" t="n">
-        <v>28736342</v>
+        <v>2609819</v>
       </c>
       <c r="I134" t="n">
-        <v>861.416</v>
+        <v>361.489</v>
       </c>
       <c r="J134"/>
       <c r="K134"/>
       <c r="L134" t="n">
-        <v>48159</v>
+        <v>1763</v>
       </c>
       <c r="M134" t="n">
-        <v>1.444</v>
+        <v>0.244</v>
       </c>
       <c r="N134" t="n">
-        <v>0.01</v>
+        <v>0.0654</v>
       </c>
       <c r="O134" t="n">
-        <v>100</v>
+        <v>15.3</v>
       </c>
       <c r="P134" t="s">
-        <v>218</v>
+        <v>712</v>
       </c>
       <c r="Q134" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R134" t="s">
         <v>65</v>
       </c>
       <c r="S134" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
+        <v>715</v>
+      </c>
+      <c r="B135" t="s">
+        <v>716</v>
+      </c>
+      <c r="C135" s="1" t="n">
+        <v>44651</v>
+      </c>
+      <c r="D135" t="s">
         <v>717</v>
       </c>
-      <c r="B135" t="s">
+      <c r="E135" t="s">
+        <v>218</v>
+      </c>
+      <c r="F135" t="s">
         <v>718</v>
       </c>
-      <c r="C135" s="1" t="n">
-        <v>44652</v>
-      </c>
-      <c r="D135" t="s">
+      <c r="G135" t="n">
+        <v>721</v>
+      </c>
+      <c r="H135" t="n">
+        <v>28736342</v>
+      </c>
+      <c r="I135" t="n">
+        <v>861.416</v>
+      </c>
+      <c r="J135"/>
+      <c r="K135"/>
+      <c r="L135" t="n">
+        <v>48159</v>
+      </c>
+      <c r="M135" t="n">
+        <v>1.444</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O135" t="n">
+        <v>100</v>
+      </c>
+      <c r="P135" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q135" t="s">
         <v>719</v>
       </c>
-      <c r="E135" t="s">
+      <c r="R135" t="s">
+        <v>65</v>
+      </c>
+      <c r="S135" t="s">
         <v>720</v>
-      </c>
-      <c r="F135"/>
-      <c r="G135" t="n">
-        <v>729</v>
-      </c>
-      <c r="H135" t="n">
-        <v>27289560</v>
-      </c>
-      <c r="I135" t="n">
-        <v>245.748</v>
-      </c>
-      <c r="J135" t="n">
-        <v>20030</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="L135" t="n">
-        <v>20857</v>
-      </c>
-      <c r="M135" t="n">
-        <v>0.188</v>
-      </c>
-      <c r="N135" t="n">
-        <v>0.0162</v>
-      </c>
-      <c r="O135" t="n">
-        <v>61.7</v>
-      </c>
-      <c r="P135" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q135" t="s">
-        <v>721</v>
-      </c>
-      <c r="R135" t="s">
-        <v>45</v>
-      </c>
-      <c r="S135" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
+        <v>721</v>
+      </c>
+      <c r="B136" t="s">
+        <v>722</v>
+      </c>
+      <c r="C136" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="D136" t="s">
         <v>723</v>
       </c>
-      <c r="B136" t="s">
+      <c r="E136" t="s">
         <v>724</v>
-      </c>
-      <c r="C136" s="1" t="n">
-        <v>44651</v>
-      </c>
-      <c r="D136" t="s">
-        <v>725</v>
-      </c>
-      <c r="E136" t="s">
-        <v>726</v>
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>108</v>
+        <v>729</v>
       </c>
       <c r="H136" t="n">
-        <v>36290058</v>
+        <v>27289560</v>
       </c>
       <c r="I136" t="n">
-        <v>960.131</v>
-      </c>
-      <c r="J136"/>
-      <c r="K136"/>
+        <v>245.748</v>
+      </c>
+      <c r="J136" t="n">
+        <v>20030</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.18</v>
+      </c>
       <c r="L136" t="n">
-        <v>42613</v>
+        <v>20857</v>
       </c>
       <c r="M136" t="n">
-        <v>1.127</v>
+        <v>0.188</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1276</v>
+        <v>0.0162</v>
       </c>
       <c r="O136" t="n">
-        <v>7.8</v>
+        <v>61.7</v>
       </c>
       <c r="P136" t="s">
-        <v>727</v>
+        <v>424</v>
       </c>
       <c r="Q136" t="s">
         <v>725</v>
       </c>
       <c r="R136" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="S136" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
+        <v>727</v>
+      </c>
+      <c r="B137" t="s">
+        <v>728</v>
+      </c>
+      <c r="C137" s="1" t="n">
+        <v>44658</v>
+      </c>
+      <c r="D137" t="s">
         <v>729</v>
       </c>
-      <c r="B137" t="s">
+      <c r="E137" t="s">
         <v>730</v>
-      </c>
-      <c r="C137" s="1" t="n">
-        <v>44660</v>
-      </c>
-      <c r="D137" t="s">
-        <v>731</v>
-      </c>
-      <c r="E137" t="s">
-        <v>53</v>
       </c>
       <c r="F137"/>
       <c r="G137" t="n">
-        <v>770</v>
+        <v>109</v>
       </c>
       <c r="H137" t="n">
-        <v>40464651</v>
+        <v>36407207</v>
       </c>
       <c r="I137" t="n">
-        <v>3979.638</v>
-      </c>
-      <c r="J137" t="n">
-        <v>31384</v>
-      </c>
-      <c r="K137" t="n">
-        <v>3.087</v>
-      </c>
+        <v>963.23</v>
+      </c>
+      <c r="J137"/>
+      <c r="K137"/>
       <c r="L137" t="n">
-        <v>42074</v>
+        <v>16740</v>
       </c>
       <c r="M137" t="n">
-        <v>4.138</v>
-      </c>
-      <c r="N137"/>
-      <c r="O137"/>
+        <v>0.443</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0.1033</v>
+      </c>
+      <c r="O137" t="n">
+        <v>9.7</v>
+      </c>
       <c r="P137" t="s">
+        <v>731</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>729</v>
+      </c>
+      <c r="R137" t="s">
+        <v>25</v>
+      </c>
+      <c r="S137" t="s">
         <v>732</v>
-      </c>
-      <c r="Q137" t="s">
-        <v>731</v>
-      </c>
-      <c r="R137" t="s">
-        <v>65</v>
-      </c>
-      <c r="S137" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
+        <v>733</v>
+      </c>
+      <c r="B138" t="s">
         <v>734</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" s="1" t="n">
+        <v>44664</v>
+      </c>
+      <c r="D138" t="s">
         <v>735</v>
       </c>
-      <c r="C138" s="1" t="n">
-        <v>44658</v>
-      </c>
-      <c r="D138" t="s">
-        <v>391</v>
-      </c>
       <c r="E138" t="s">
-        <v>392</v>
+        <v>53</v>
       </c>
       <c r="F138"/>
       <c r="G138" t="n">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="H138" t="n">
-        <v>2658071</v>
+        <v>40628701</v>
       </c>
       <c r="I138" t="n">
-        <v>939.83</v>
+        <v>3995.772</v>
       </c>
       <c r="J138" t="n">
-        <v>1825</v>
+        <v>46203</v>
       </c>
       <c r="K138" t="n">
-        <v>0.645</v>
+        <v>4.544</v>
       </c>
       <c r="L138" t="n">
-        <v>2451</v>
+        <v>41483</v>
       </c>
       <c r="M138" t="n">
-        <v>0.867</v>
-      </c>
-      <c r="N138"/>
-      <c r="O138"/>
+        <v>4.08</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0.2419</v>
+      </c>
+      <c r="O138" t="n">
+        <v>4.1</v>
+      </c>
       <c r="P138" t="s">
-        <v>392</v>
+        <v>736</v>
       </c>
       <c r="Q138" t="s">
-        <v>391</v>
+        <v>735</v>
       </c>
       <c r="R138" t="s">
-        <v>393</v>
+        <v>65</v>
       </c>
       <c r="S138" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B139" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>44661</v>
+        <v>44662</v>
       </c>
       <c r="D139" t="s">
-        <v>739</v>
+        <v>391</v>
       </c>
       <c r="E139" t="s">
-        <v>740</v>
+        <v>392</v>
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
-        <v>295</v>
+        <v>771</v>
       </c>
       <c r="H139" t="n">
-        <v>6557297</v>
+        <v>2668185</v>
       </c>
       <c r="I139" t="n">
-        <v>2237.585</v>
+        <v>943.406</v>
       </c>
       <c r="J139" t="n">
-        <v>15907</v>
+        <v>1357</v>
       </c>
       <c r="K139" t="n">
-        <v>5.428</v>
+        <v>0.48</v>
       </c>
       <c r="L139" t="n">
-        <v>14238</v>
+        <v>2477</v>
       </c>
       <c r="M139" t="n">
-        <v>4.859</v>
+        <v>0.876</v>
       </c>
       <c r="N139"/>
       <c r="O139"/>
       <c r="P139" t="s">
-        <v>741</v>
+        <v>392</v>
       </c>
       <c r="Q139" t="s">
-        <v>742</v>
+        <v>391</v>
       </c>
       <c r="R139" t="s">
-        <v>45</v>
+        <v>393</v>
       </c>
       <c r="S139" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
+        <v>741</v>
+      </c>
+      <c r="B140" t="s">
+        <v>742</v>
+      </c>
+      <c r="C140" s="1" t="n">
+        <v>44665</v>
+      </c>
+      <c r="D140" t="s">
+        <v>743</v>
+      </c>
+      <c r="E140" t="s">
         <v>744</v>
-      </c>
-      <c r="B140" t="s">
-        <v>745</v>
-      </c>
-      <c r="C140" s="1" t="n">
-        <v>44630</v>
-      </c>
-      <c r="D140" t="s">
-        <v>725</v>
-      </c>
-      <c r="E140" t="s">
-        <v>726</v>
       </c>
       <c r="F140"/>
       <c r="G140" t="n">
-        <v>104</v>
+        <v>299</v>
       </c>
       <c r="H140" t="n">
-        <v>21260367</v>
+        <v>6612365</v>
       </c>
       <c r="I140" t="n">
-        <v>1111.492</v>
-      </c>
-      <c r="J140"/>
-      <c r="K140"/>
+        <v>2256.376</v>
+      </c>
+      <c r="J140" t="n">
+        <v>13592</v>
+      </c>
+      <c r="K140" t="n">
+        <v>4.638</v>
+      </c>
       <c r="L140" t="n">
-        <v>75700</v>
+        <v>13666</v>
       </c>
       <c r="M140" t="n">
-        <v>3.958</v>
-      </c>
-      <c r="N140" t="n">
-        <v>0.0565</v>
-      </c>
-      <c r="O140" t="n">
-        <v>17.7</v>
-      </c>
+        <v>4.663</v>
+      </c>
+      <c r="N140"/>
+      <c r="O140"/>
       <c r="P140" t="s">
-        <v>727</v>
+        <v>745</v>
       </c>
       <c r="Q140" t="s">
-        <v>725</v>
+        <v>746</v>
       </c>
       <c r="R140" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="S140" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B141" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>44661</v>
+        <v>44630</v>
       </c>
       <c r="D141" t="s">
-        <v>749</v>
+        <v>729</v>
       </c>
       <c r="E141" t="s">
-        <v>750</v>
+        <v>730</v>
       </c>
       <c r="F141"/>
       <c r="G141" t="n">
-        <v>565</v>
+        <v>104</v>
       </c>
       <c r="H141" t="n">
-        <v>286845263</v>
+        <v>21260367</v>
       </c>
       <c r="I141" t="n">
-        <v>1965.878</v>
+        <v>1111.492</v>
       </c>
       <c r="J141"/>
       <c r="K141"/>
       <c r="L141" t="n">
-        <v>206486</v>
+        <v>75700</v>
       </c>
       <c r="M141" t="n">
-        <v>1.415</v>
+        <v>3.958</v>
       </c>
       <c r="N141" t="n">
-        <v>0.0677</v>
+        <v>0.0565</v>
       </c>
       <c r="O141" t="n">
-        <v>14.8</v>
+        <v>17.7</v>
       </c>
       <c r="P141" t="s">
-        <v>750</v>
+        <v>731</v>
       </c>
       <c r="Q141" t="s">
-        <v>751</v>
+        <v>729</v>
       </c>
       <c r="R141" t="s">
         <v>65</v>
       </c>
       <c r="S141" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
+        <v>751</v>
+      </c>
+      <c r="B142" t="s">
+        <v>752</v>
+      </c>
+      <c r="C142" s="1" t="n">
+        <v>44665</v>
+      </c>
+      <c r="D142" t="s">
         <v>753</v>
       </c>
-      <c r="B142" t="s">
+      <c r="E142" t="s">
         <v>754</v>
-      </c>
-      <c r="C142" s="1" t="n">
-        <v>44662</v>
-      </c>
-      <c r="D142" t="s">
-        <v>755</v>
-      </c>
-      <c r="E142" t="s">
-        <v>756</v>
       </c>
       <c r="F142"/>
       <c r="G142" t="n">
-        <v>612</v>
+        <v>566</v>
       </c>
       <c r="H142" t="n">
-        <v>5166836</v>
+        <v>287543270</v>
       </c>
       <c r="I142" t="n">
-        <v>389.171</v>
-      </c>
-      <c r="J142" t="n">
-        <v>3823</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.288</v>
-      </c>
+        <v>1970.662</v>
+      </c>
+      <c r="J142"/>
+      <c r="K142"/>
       <c r="L142" t="n">
-        <v>4705</v>
+        <v>190718</v>
       </c>
       <c r="M142" t="n">
-        <v>0.354</v>
+        <v>1.307</v>
       </c>
       <c r="N142"/>
       <c r="O142"/>
       <c r="P142" t="s">
+        <v>754</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>755</v>
+      </c>
+      <c r="R142" t="s">
+        <v>65</v>
+      </c>
+      <c r="S142" t="s">
         <v>756</v>
-      </c>
-      <c r="Q142" t="s">
-        <v>757</v>
-      </c>
-      <c r="R142" t="s">
-        <v>140</v>
-      </c>
-      <c r="S142" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
+        <v>757</v>
+      </c>
+      <c r="B143" t="s">
+        <v>758</v>
+      </c>
+      <c r="C143" s="1" t="n">
+        <v>44666</v>
+      </c>
+      <c r="D143" t="s">
         <v>759</v>
       </c>
-      <c r="B143" t="s">
+      <c r="E143" t="s">
         <v>760</v>
-      </c>
-      <c r="C143" s="1" t="n">
-        <v>44662</v>
-      </c>
-      <c r="D143" t="s">
-        <v>761</v>
-      </c>
-      <c r="E143" t="s">
-        <v>53</v>
       </c>
       <c r="F143"/>
       <c r="G143" t="n">
-        <v>137</v>
+        <v>616</v>
       </c>
       <c r="H143" t="n">
-        <v>68733</v>
+        <v>5182712</v>
       </c>
       <c r="I143" t="n">
-        <v>1283.625</v>
-      </c>
-      <c r="J143"/>
-      <c r="K143"/>
+        <v>390.367</v>
+      </c>
+      <c r="J143" t="n">
+        <v>4578</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0.345</v>
+      </c>
       <c r="L143" t="n">
-        <v>70</v>
+        <v>3709</v>
       </c>
       <c r="M143" t="n">
-        <v>1.307</v>
+        <v>0.279</v>
       </c>
       <c r="N143"/>
       <c r="O143"/>
       <c r="P143" t="s">
-        <v>53</v>
+        <v>760</v>
       </c>
       <c r="Q143" t="s">
+        <v>761</v>
+      </c>
+      <c r="R143" t="s">
+        <v>140</v>
+      </c>
+      <c r="S143" t="s">
         <v>762</v>
-      </c>
-      <c r="R143" t="s">
-        <v>327</v>
-      </c>
-      <c r="S143" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
+        <v>763</v>
+      </c>
+      <c r="B144" t="s">
         <v>764</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" s="1" t="n">
+        <v>44666</v>
+      </c>
+      <c r="D144" t="s">
         <v>765</v>
       </c>
-      <c r="C144" s="1" t="n">
-        <v>44661</v>
-      </c>
-      <c r="D144" t="s">
-        <v>766</v>
-      </c>
       <c r="E144" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="F144"/>
       <c r="G144" t="n">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="H144" t="n">
-        <v>141215</v>
+        <v>68972</v>
       </c>
       <c r="I144" t="n">
-        <v>765.804</v>
+        <v>1288.089</v>
       </c>
       <c r="J144"/>
       <c r="K144"/>
       <c r="L144" t="n">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="M144" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="N144" t="n">
-        <v>0.1372</v>
-      </c>
-      <c r="O144" t="n">
-        <v>7.3</v>
-      </c>
+        <v>1.233</v>
+      </c>
+      <c r="N144"/>
+      <c r="O144"/>
       <c r="P144" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="Q144" t="s">
         <v>766</v>
       </c>
       <c r="R144" t="s">
-        <v>25</v>
+        <v>327</v>
       </c>
       <c r="S144" t="s">
         <v>767</v>
@@ -11252,103 +11220,103 @@
         <v>769</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>44658</v>
+        <v>44662</v>
       </c>
       <c r="D145" t="s">
         <v>770</v>
       </c>
       <c r="E145" t="s">
-        <v>771</v>
+        <v>92</v>
       </c>
       <c r="F145"/>
       <c r="G145" t="n">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="H145" t="n">
-        <v>104547</v>
+        <v>141332</v>
       </c>
       <c r="I145" t="n">
-        <v>939.588</v>
-      </c>
-      <c r="J145"/>
-      <c r="K145"/>
+        <v>766.438</v>
+      </c>
+      <c r="J145" t="n">
+        <v>117</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0.634</v>
+      </c>
       <c r="L145" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="M145" t="n">
-        <v>0.306</v>
+        <v>0.488</v>
       </c>
       <c r="N145" t="n">
-        <v>0.0168</v>
+        <v>0.127</v>
       </c>
       <c r="O145" t="n">
-        <v>59.5</v>
+        <v>7.9</v>
       </c>
       <c r="P145" t="s">
-        <v>772</v>
+        <v>92</v>
       </c>
       <c r="Q145" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="R145" t="s">
         <v>25</v>
       </c>
       <c r="S145" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
+        <v>772</v>
+      </c>
+      <c r="B146" t="s">
+        <v>773</v>
+      </c>
+      <c r="C146" s="1" t="n">
+        <v>44658</v>
+      </c>
+      <c r="D146" t="s">
+        <v>774</v>
+      </c>
+      <c r="E146" t="s">
         <v>775</v>
-      </c>
-      <c r="B146" t="s">
-        <v>776</v>
-      </c>
-      <c r="C146" s="1" t="n">
-        <v>44661</v>
-      </c>
-      <c r="D146" t="s">
-        <v>777</v>
-      </c>
-      <c r="E146" t="s">
-        <v>53</v>
       </c>
       <c r="F146"/>
       <c r="G146" t="n">
-        <v>770</v>
+        <v>62</v>
       </c>
       <c r="H146" t="n">
-        <v>41680662</v>
+        <v>104547</v>
       </c>
       <c r="I146" t="n">
-        <v>1179.396</v>
-      </c>
-      <c r="J146" t="n">
-        <v>15836</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.448</v>
-      </c>
+        <v>939.588</v>
+      </c>
+      <c r="J146"/>
+      <c r="K146"/>
       <c r="L146" t="n">
-        <v>12659</v>
+        <v>34</v>
       </c>
       <c r="M146" t="n">
-        <v>0.358</v>
+        <v>0.306</v>
       </c>
       <c r="N146" t="n">
-        <v>0.0083</v>
+        <v>0.0168</v>
       </c>
       <c r="O146" t="n">
-        <v>120.2</v>
+        <v>59.5</v>
       </c>
       <c r="P146" t="s">
-        <v>53</v>
+        <v>776</v>
       </c>
       <c r="Q146" t="s">
         <v>777</v>
       </c>
       <c r="R146" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="S146" t="s">
         <v>778</v>
@@ -11362,40 +11330,40 @@
         <v>780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>44662</v>
+        <v>44665</v>
       </c>
       <c r="D147" t="s">
         <v>781</v>
       </c>
       <c r="E147" t="s">
-        <v>782</v>
+        <v>53</v>
       </c>
       <c r="F147"/>
       <c r="G147" t="n">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="H147" t="n">
-        <v>1083008</v>
+        <v>41727951</v>
       </c>
       <c r="I147" t="n">
-        <v>62.979</v>
+        <v>1180.734</v>
       </c>
       <c r="J147" t="n">
-        <v>918</v>
+        <v>11476</v>
       </c>
       <c r="K147" t="n">
-        <v>0.053</v>
+        <v>0.325</v>
       </c>
       <c r="L147" t="n">
-        <v>925</v>
+        <v>12016</v>
       </c>
       <c r="M147" t="n">
-        <v>0.054</v>
+        <v>0.34</v>
       </c>
       <c r="N147"/>
       <c r="O147"/>
       <c r="P147" t="s">
-        <v>782</v>
+        <v>53</v>
       </c>
       <c r="Q147" t="s">
         <v>781</v>
@@ -11404,219 +11372,209 @@
         <v>65</v>
       </c>
       <c r="S147" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
+        <v>783</v>
+      </c>
+      <c r="B148" t="s">
         <v>784</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" s="1" t="n">
+        <v>44665</v>
+      </c>
+      <c r="D148" t="s">
         <v>785</v>
       </c>
-      <c r="C148" s="1" t="n">
-        <v>44661</v>
-      </c>
-      <c r="D148" t="s">
+      <c r="E148" t="s">
         <v>786</v>
       </c>
-      <c r="E148" t="s">
-        <v>53</v>
-      </c>
-      <c r="F148" t="s">
+      <c r="F148"/>
+      <c r="G148" t="n">
+        <v>773</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1085151</v>
+      </c>
+      <c r="I148" t="n">
+        <v>63.104</v>
+      </c>
+      <c r="J148" t="n">
+        <v>729</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="L148" t="n">
+        <v>842</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="N148"/>
+      <c r="O148"/>
+      <c r="P148" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>785</v>
+      </c>
+      <c r="R148" t="s">
+        <v>65</v>
+      </c>
+      <c r="S148" t="s">
         <v>787</v>
-      </c>
-      <c r="G148" t="n">
-        <v>774</v>
-      </c>
-      <c r="H148" t="n">
-        <v>9302535</v>
-      </c>
-      <c r="I148" t="n">
-        <v>1353.776</v>
-      </c>
-      <c r="J148" t="n">
-        <v>7027</v>
-      </c>
-      <c r="K148" t="n">
-        <v>1.023</v>
-      </c>
-      <c r="L148" t="n">
-        <v>11520</v>
-      </c>
-      <c r="M148" t="n">
-        <v>1.676</v>
-      </c>
-      <c r="N148" t="n">
-        <v>0.1078</v>
-      </c>
-      <c r="O148" t="n">
-        <v>9.3</v>
-      </c>
-      <c r="P148" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q148" t="s">
-        <v>788</v>
-      </c>
-      <c r="R148" t="s">
-        <v>45</v>
-      </c>
-      <c r="S148" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
+        <v>788</v>
+      </c>
+      <c r="B149" t="s">
+        <v>789</v>
+      </c>
+      <c r="C149" s="1" t="n">
+        <v>44665</v>
+      </c>
+      <c r="D149" t="s">
         <v>790</v>
       </c>
-      <c r="B149" t="s">
+      <c r="E149" t="s">
+        <v>53</v>
+      </c>
+      <c r="F149" t="s">
         <v>791</v>
       </c>
-      <c r="C149" s="1" t="n">
-        <v>44658</v>
-      </c>
-      <c r="D149" t="s">
-        <v>35</v>
-      </c>
-      <c r="E149" t="s">
-        <v>36</v>
-      </c>
-      <c r="F149"/>
       <c r="G149" t="n">
-        <v>3</v>
+        <v>778</v>
       </c>
       <c r="H149" t="n">
-        <v>405779</v>
+        <v>9350216</v>
       </c>
       <c r="I149" t="n">
-        <v>49.842</v>
-      </c>
-      <c r="J149"/>
-      <c r="K149"/>
+        <v>1360.715</v>
+      </c>
+      <c r="J149" t="n">
+        <v>11521</v>
+      </c>
+      <c r="K149" t="n">
+        <v>1.677</v>
+      </c>
       <c r="L149" t="n">
-        <v>838</v>
+        <v>10702</v>
       </c>
       <c r="M149" t="n">
-        <v>0.103</v>
-      </c>
-      <c r="N149" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="O149" t="n">
-        <v>5860.1</v>
-      </c>
+        <v>1.557</v>
+      </c>
+      <c r="N149"/>
+      <c r="O149"/>
       <c r="P149" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="Q149" t="s">
-        <v>37</v>
+        <v>792</v>
       </c>
       <c r="R149" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="S149" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B150" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>44655</v>
+        <v>44658</v>
       </c>
       <c r="D150" t="s">
-        <v>795</v>
+        <v>35</v>
       </c>
       <c r="E150" t="s">
-        <v>796</v>
+        <v>36</v>
       </c>
       <c r="F150"/>
       <c r="G150" t="n">
-        <v>77</v>
-      </c>
-      <c r="H150"/>
-      <c r="I150"/>
-      <c r="J150" t="n">
-        <v>45800</v>
-      </c>
-      <c r="K150" t="n">
-        <v>8.398</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H150" t="n">
+        <v>405779</v>
+      </c>
+      <c r="I150" t="n">
+        <v>49.842</v>
+      </c>
+      <c r="J150"/>
+      <c r="K150"/>
       <c r="L150" t="n">
-        <v>45800</v>
+        <v>838</v>
       </c>
       <c r="M150" t="n">
-        <v>8.398</v>
+        <v>0.103</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1177</v>
+        <v>0.0002</v>
       </c>
       <c r="O150" t="n">
-        <v>8.5</v>
+        <v>5860.1</v>
       </c>
       <c r="P150" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="Q150" t="s">
-        <v>797</v>
+        <v>37</v>
       </c>
       <c r="R150" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="S150" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
+        <v>797</v>
+      </c>
+      <c r="B151" t="s">
+        <v>798</v>
+      </c>
+      <c r="C151" s="1" t="n">
+        <v>44662</v>
+      </c>
+      <c r="D151" t="s">
         <v>799</v>
       </c>
-      <c r="B151" t="s">
+      <c r="E151" t="s">
         <v>800</v>
       </c>
-      <c r="C151" s="1" t="n">
-        <v>44658</v>
-      </c>
-      <c r="D151" t="s">
-        <v>801</v>
-      </c>
-      <c r="E151" t="s">
-        <v>53</v>
-      </c>
-      <c r="F151" t="s">
-        <v>802</v>
-      </c>
+      <c r="F151"/>
       <c r="G151" t="n">
-        <v>763</v>
-      </c>
-      <c r="H151" t="n">
-        <v>50707732</v>
-      </c>
-      <c r="I151" t="n">
-        <v>9305.417</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="H151"/>
+      <c r="I151"/>
       <c r="J151" t="n">
-        <v>9037</v>
+        <v>34100</v>
       </c>
       <c r="K151" t="n">
-        <v>1.658</v>
+        <v>6.253</v>
       </c>
       <c r="L151" t="n">
-        <v>17955</v>
+        <v>34100</v>
       </c>
       <c r="M151" t="n">
-        <v>3.295</v>
+        <v>6.253</v>
       </c>
       <c r="N151" t="n">
-        <v>0.263</v>
+        <v>0.1291</v>
       </c>
       <c r="O151" t="n">
-        <v>3.8</v>
+        <v>7.7</v>
       </c>
       <c r="P151" t="s">
         <v>53</v>
@@ -11625,885 +11583,875 @@
         <v>801</v>
       </c>
       <c r="R151" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="S151" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
+        <v>803</v>
+      </c>
+      <c r="B152" t="s">
         <v>804</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" s="1" t="n">
+        <v>44663</v>
+      </c>
+      <c r="D152" t="s">
         <v>805</v>
       </c>
-      <c r="C152" s="1" t="n">
-        <v>44661</v>
-      </c>
-      <c r="D152" t="s">
+      <c r="E152" t="s">
+        <v>53</v>
+      </c>
+      <c r="F152" t="s">
         <v>806</v>
       </c>
-      <c r="E152" t="s">
-        <v>807</v>
-      </c>
-      <c r="F152" t="s">
-        <v>808</v>
-      </c>
       <c r="G152" t="n">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="H152" t="n">
-        <v>4920100</v>
+        <v>50773549</v>
       </c>
       <c r="I152" t="n">
-        <v>2366.886</v>
+        <v>9317.496</v>
       </c>
       <c r="J152" t="n">
-        <v>3790</v>
+        <v>7983</v>
       </c>
       <c r="K152" t="n">
-        <v>1.823</v>
+        <v>1.465</v>
       </c>
       <c r="L152" t="n">
-        <v>11168</v>
+        <v>12654</v>
       </c>
       <c r="M152" t="n">
-        <v>5.373</v>
+        <v>2.322</v>
       </c>
       <c r="N152" t="n">
-        <v>0.165</v>
+        <v>0.249</v>
       </c>
       <c r="O152" t="n">
-        <v>6.1</v>
+        <v>4</v>
       </c>
       <c r="P152" t="s">
-        <v>809</v>
+        <v>53</v>
       </c>
       <c r="Q152" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="R152" t="s">
         <v>65</v>
       </c>
       <c r="S152" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
+        <v>808</v>
+      </c>
+      <c r="B153" t="s">
+        <v>809</v>
+      </c>
+      <c r="C153" s="1" t="n">
+        <v>44665</v>
+      </c>
+      <c r="D153" t="s">
+        <v>810</v>
+      </c>
+      <c r="E153" t="s">
         <v>811</v>
       </c>
-      <c r="B153" t="s">
+      <c r="F153" t="s">
         <v>812</v>
       </c>
-      <c r="C153" s="1" t="n">
-        <v>44632</v>
-      </c>
-      <c r="D153" t="s">
-        <v>35</v>
-      </c>
-      <c r="E153" t="s">
-        <v>36</v>
-      </c>
-      <c r="F153"/>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>785</v>
       </c>
       <c r="H153" t="n">
-        <v>400466</v>
+        <v>4968841</v>
       </c>
       <c r="I153" t="n">
-        <v>24.479</v>
-      </c>
-      <c r="J153"/>
-      <c r="K153"/>
-      <c r="L153"/>
-      <c r="M153"/>
-      <c r="N153"/>
-      <c r="O153"/>
+        <v>2390.333</v>
+      </c>
+      <c r="J153" t="n">
+        <v>9028</v>
+      </c>
+      <c r="K153" t="n">
+        <v>4.343</v>
+      </c>
+      <c r="L153" t="n">
+        <v>9752</v>
+      </c>
+      <c r="M153" t="n">
+        <v>4.691</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="O153" t="n">
+        <v>6.6</v>
+      </c>
       <c r="P153" t="s">
-        <v>36</v>
+        <v>813</v>
       </c>
       <c r="Q153" t="s">
-        <v>37</v>
+        <v>810</v>
       </c>
       <c r="R153" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="S153" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B154" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>44661</v>
+        <v>44632</v>
       </c>
       <c r="D154" t="s">
-        <v>816</v>
+        <v>35</v>
       </c>
       <c r="E154" t="s">
+        <v>36</v>
+      </c>
+      <c r="F154"/>
+      <c r="G154" t="n">
+        <v>1</v>
+      </c>
+      <c r="H154" t="n">
+        <v>400466</v>
+      </c>
+      <c r="I154" t="n">
+        <v>24.479</v>
+      </c>
+      <c r="J154"/>
+      <c r="K154"/>
+      <c r="L154"/>
+      <c r="M154"/>
+      <c r="N154"/>
+      <c r="O154"/>
+      <c r="P154" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>37</v>
+      </c>
+      <c r="R154" t="s">
+        <v>25</v>
+      </c>
+      <c r="S154" t="s">
         <v>817</v>
-      </c>
-      <c r="F154" t="s">
-        <v>818</v>
-      </c>
-      <c r="G154" t="n">
-        <v>761</v>
-      </c>
-      <c r="H154" t="n">
-        <v>24060151</v>
-      </c>
-      <c r="I154" t="n">
-        <v>400.722</v>
-      </c>
-      <c r="J154" t="n">
-        <v>15739</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.262</v>
-      </c>
-      <c r="L154" t="n">
-        <v>21493</v>
-      </c>
-      <c r="M154" t="n">
-        <v>0.358</v>
-      </c>
-      <c r="N154" t="n">
-        <v>0.0606</v>
-      </c>
-      <c r="O154" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="P154" t="s">
-        <v>819</v>
-      </c>
-      <c r="Q154" t="s">
-        <v>816</v>
-      </c>
-      <c r="R154" t="s">
-        <v>45</v>
-      </c>
-      <c r="S154" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
+        <v>818</v>
+      </c>
+      <c r="B155" t="s">
+        <v>819</v>
+      </c>
+      <c r="C155" s="1" t="n">
+        <v>44665</v>
+      </c>
+      <c r="D155" t="s">
+        <v>820</v>
+      </c>
+      <c r="E155" t="s">
         <v>821</v>
       </c>
-      <c r="B155" t="s">
+      <c r="F155" t="s">
         <v>822</v>
       </c>
-      <c r="C155" s="1" t="n">
-        <v>44661</v>
-      </c>
-      <c r="D155" t="s">
+      <c r="G155" t="n">
+        <v>765</v>
+      </c>
+      <c r="H155" t="n">
+        <v>24139799</v>
+      </c>
+      <c r="I155" t="n">
+        <v>402.049</v>
+      </c>
+      <c r="J155" t="n">
+        <v>23385</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0.389</v>
+      </c>
+      <c r="L155" t="n">
+        <v>20488</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="N155"/>
+      <c r="O155"/>
+      <c r="P155" t="s">
         <v>823</v>
       </c>
-      <c r="E155" t="s">
-        <v>824</v>
-      </c>
-      <c r="F155" t="s">
-        <v>825</v>
-      </c>
-      <c r="G155" t="n">
-        <v>793</v>
-      </c>
-      <c r="H155" t="n">
-        <v>90672850</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1767.323</v>
-      </c>
-      <c r="J155" t="n">
-        <v>181012</v>
-      </c>
-      <c r="K155" t="n">
-        <v>3.528</v>
-      </c>
-      <c r="L155" t="n">
-        <v>324795</v>
-      </c>
-      <c r="M155" t="n">
-        <v>6.331</v>
-      </c>
-      <c r="N155" t="n">
-        <v>0.626</v>
-      </c>
-      <c r="O155" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P155" t="s">
-        <v>826</v>
-      </c>
       <c r="Q155" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="R155" t="s">
         <v>45</v>
       </c>
       <c r="S155" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
+        <v>825</v>
+      </c>
+      <c r="B156" t="s">
+        <v>826</v>
+      </c>
+      <c r="C156" s="1" t="n">
+        <v>44665</v>
+      </c>
+      <c r="D156" t="s">
+        <v>827</v>
+      </c>
+      <c r="E156" t="s">
+        <v>828</v>
+      </c>
+      <c r="F156" t="s">
         <v>829</v>
       </c>
-      <c r="B156" t="s">
+      <c r="G156" t="n">
+        <v>797</v>
+      </c>
+      <c r="H156" t="n">
+        <v>91803591</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1789.363</v>
+      </c>
+      <c r="J156" t="n">
+        <v>210605</v>
+      </c>
+      <c r="K156" t="n">
+        <v>4.105</v>
+      </c>
+      <c r="L156" t="n">
+        <v>278886</v>
+      </c>
+      <c r="M156" t="n">
+        <v>5.436</v>
+      </c>
+      <c r="N156"/>
+      <c r="O156"/>
+      <c r="P156" t="s">
         <v>830</v>
       </c>
-      <c r="C156" s="1" t="n">
-        <v>44658</v>
-      </c>
-      <c r="D156" t="s">
-        <v>35</v>
-      </c>
-      <c r="E156" t="s">
-        <v>36</v>
-      </c>
-      <c r="F156"/>
-      <c r="G156" t="n">
-        <v>164</v>
-      </c>
-      <c r="H156" t="n">
-        <v>364018</v>
-      </c>
-      <c r="I156" t="n">
-        <v>31.984</v>
-      </c>
-      <c r="J156"/>
-      <c r="K156"/>
-      <c r="L156" t="n">
-        <v>563</v>
-      </c>
-      <c r="M156" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="N156" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="O156" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="P156" t="s">
-        <v>36</v>
-      </c>
       <c r="Q156" t="s">
-        <v>37</v>
+        <v>831</v>
       </c>
       <c r="R156" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="S156" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B157" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="D157" t="s">
-        <v>834</v>
+        <v>35</v>
       </c>
       <c r="E157" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F157"/>
       <c r="G157" t="n">
-        <v>753</v>
+        <v>164</v>
       </c>
       <c r="H157" t="n">
-        <v>88940700</v>
+        <v>364018</v>
       </c>
       <c r="I157" t="n">
-        <v>1902.67</v>
-      </c>
-      <c r="J157" t="n">
-        <v>56587</v>
-      </c>
-      <c r="K157" t="n">
-        <v>1.211</v>
-      </c>
+        <v>31.984</v>
+      </c>
+      <c r="J157"/>
+      <c r="K157"/>
       <c r="L157" t="n">
-        <v>55317</v>
+        <v>563</v>
       </c>
       <c r="M157" t="n">
-        <v>1.183</v>
+        <v>0.049</v>
       </c>
       <c r="N157" t="n">
-        <v>0.181</v>
+        <v>0.015</v>
       </c>
       <c r="O157" t="n">
-        <v>5.5</v>
+        <v>66.8</v>
       </c>
       <c r="P157" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>37</v>
+      </c>
+      <c r="R157" t="s">
+        <v>25</v>
+      </c>
+      <c r="S157" t="s">
         <v>835</v>
-      </c>
-      <c r="Q157" t="s">
-        <v>834</v>
-      </c>
-      <c r="R157" t="s">
-        <v>65</v>
-      </c>
-      <c r="S157" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
+        <v>836</v>
+      </c>
+      <c r="B158" t="s">
         <v>837</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" s="1" t="n">
+        <v>44662</v>
+      </c>
+      <c r="D158" t="s">
         <v>838</v>
       </c>
-      <c r="C158" s="1" t="n">
-        <v>44661</v>
-      </c>
-      <c r="D158" t="s">
-        <v>839</v>
-      </c>
       <c r="E158" t="s">
-        <v>840</v>
+        <v>53</v>
       </c>
       <c r="F158"/>
       <c r="G158" t="n">
-        <v>775</v>
+        <v>758</v>
       </c>
       <c r="H158" t="n">
-        <v>7589396</v>
+        <v>89210677</v>
       </c>
       <c r="I158" t="n">
-        <v>353.039</v>
+        <v>1908.445</v>
       </c>
       <c r="J158" t="n">
-        <v>3140</v>
+        <v>54894</v>
       </c>
       <c r="K158" t="n">
-        <v>0.146</v>
+        <v>1.174</v>
       </c>
       <c r="L158" t="n">
-        <v>3691</v>
+        <v>52525</v>
       </c>
       <c r="M158" t="n">
-        <v>0.172</v>
+        <v>1.124</v>
       </c>
       <c r="N158" t="n">
-        <v>0.0233</v>
+        <v>0.202</v>
       </c>
       <c r="O158" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="P158" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="Q158" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="R158" t="s">
         <v>65</v>
       </c>
       <c r="S158" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
+        <v>841</v>
+      </c>
+      <c r="B159" t="s">
         <v>842</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" s="1" t="n">
+        <v>44665</v>
+      </c>
+      <c r="D159" t="s">
         <v>843</v>
       </c>
-      <c r="C159" s="1" t="n">
-        <v>44605</v>
-      </c>
-      <c r="D159" t="s">
-        <v>35</v>
-      </c>
       <c r="E159" t="s">
-        <v>36</v>
+        <v>844</v>
       </c>
       <c r="F159"/>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>779</v>
       </c>
       <c r="H159" t="n">
-        <v>562941</v>
+        <v>7597915</v>
       </c>
       <c r="I159" t="n">
-        <v>12.535</v>
-      </c>
-      <c r="J159"/>
-      <c r="K159"/>
-      <c r="L159"/>
-      <c r="M159"/>
+        <v>353.436</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1444</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="L159" t="n">
+        <v>2663</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0.124</v>
+      </c>
       <c r="N159"/>
       <c r="O159"/>
       <c r="P159" t="s">
-        <v>36</v>
+        <v>844</v>
       </c>
       <c r="Q159" t="s">
-        <v>37</v>
+        <v>843</v>
       </c>
       <c r="R159" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="S159" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B160" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>44658</v>
+        <v>44605</v>
       </c>
       <c r="D160" t="s">
-        <v>847</v>
+        <v>35</v>
       </c>
       <c r="E160" t="s">
-        <v>848</v>
+        <v>36</v>
       </c>
       <c r="F160"/>
       <c r="G160" t="n">
-        <v>209</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
-        <v>81866</v>
+        <v>562941</v>
       </c>
       <c r="I160" t="n">
-        <v>138.334</v>
-      </c>
-      <c r="J160" t="n">
-        <v>103</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.174</v>
-      </c>
-      <c r="L160" t="n">
-        <v>15</v>
-      </c>
-      <c r="M160" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="N160" t="n">
-        <v>0.141</v>
-      </c>
-      <c r="O160" t="n">
-        <v>7.1</v>
-      </c>
+        <v>12.535</v>
+      </c>
+      <c r="J160"/>
+      <c r="K160"/>
+      <c r="L160"/>
+      <c r="M160"/>
+      <c r="N160"/>
+      <c r="O160"/>
       <c r="P160" t="s">
-        <v>848</v>
+        <v>36</v>
       </c>
       <c r="Q160" t="s">
-        <v>847</v>
+        <v>37</v>
       </c>
       <c r="R160" t="s">
         <v>25</v>
       </c>
       <c r="S160" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
+        <v>849</v>
+      </c>
+      <c r="B161" t="s">
         <v>850</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" s="1" t="n">
+        <v>44665</v>
+      </c>
+      <c r="D161" t="s">
         <v>851</v>
       </c>
-      <c r="C161" s="1" t="n">
-        <v>44654</v>
-      </c>
-      <c r="D161" t="s">
+      <c r="E161" t="s">
         <v>852</v>
-      </c>
-      <c r="E161" t="s">
-        <v>853</v>
       </c>
       <c r="F161"/>
       <c r="G161" t="n">
-        <v>644</v>
+        <v>210</v>
       </c>
       <c r="H161" t="n">
-        <v>18188429</v>
+        <v>82009</v>
       </c>
       <c r="I161" t="n">
-        <v>1790.172</v>
+        <v>138.576</v>
       </c>
       <c r="J161" t="n">
-        <v>4202</v>
+        <v>143</v>
       </c>
       <c r="K161" t="n">
-        <v>0.414</v>
+        <v>0.242</v>
       </c>
       <c r="L161" t="n">
-        <v>4202</v>
+        <v>20</v>
       </c>
       <c r="M161" t="n">
-        <v>0.414</v>
+        <v>0.034</v>
       </c>
       <c r="N161" t="n">
-        <v>0.2079</v>
+        <v>0.169</v>
       </c>
       <c r="O161" t="n">
-        <v>4.8</v>
+        <v>5.9</v>
       </c>
       <c r="P161" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="Q161" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="R161" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="S161" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
+        <v>854</v>
+      </c>
+      <c r="B162" t="s">
+        <v>855</v>
+      </c>
+      <c r="C162" s="1" t="n">
+        <v>44661</v>
+      </c>
+      <c r="D162" t="s">
+        <v>856</v>
+      </c>
+      <c r="E162" t="s">
         <v>857</v>
-      </c>
-      <c r="B162" t="s">
-        <v>858</v>
-      </c>
-      <c r="C162" s="1" t="n">
-        <v>44655</v>
-      </c>
-      <c r="D162" t="s">
-        <v>550</v>
-      </c>
-      <c r="E162" t="s">
-        <v>551</v>
       </c>
       <c r="F162"/>
       <c r="G162" t="n">
-        <v>682</v>
+        <v>651</v>
       </c>
       <c r="H162" t="n">
-        <v>20400357</v>
+        <v>18216786</v>
       </c>
       <c r="I162" t="n">
-        <v>2340.7</v>
+        <v>1792.963</v>
       </c>
       <c r="J162" t="n">
-        <v>20562</v>
+        <v>4051</v>
       </c>
       <c r="K162" t="n">
-        <v>2.359</v>
+        <v>0.399</v>
       </c>
       <c r="L162" t="n">
-        <v>26985</v>
+        <v>4051</v>
       </c>
       <c r="M162" t="n">
-        <v>3.096</v>
-      </c>
-      <c r="N162" t="n">
-        <v>0.352</v>
-      </c>
-      <c r="O162" t="n">
-        <v>2.8</v>
-      </c>
+        <v>0.399</v>
+      </c>
+      <c r="N162"/>
+      <c r="O162"/>
       <c r="P162" t="s">
-        <v>551</v>
+        <v>858</v>
       </c>
       <c r="Q162" t="s">
-        <v>552</v>
+        <v>859</v>
       </c>
       <c r="R162" t="s">
         <v>65</v>
       </c>
       <c r="S162" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B163" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>44632</v>
+        <v>44662</v>
       </c>
       <c r="D163" t="s">
-        <v>21</v>
+        <v>550</v>
       </c>
       <c r="E163" t="s">
-        <v>22</v>
+        <v>551</v>
       </c>
       <c r="F163"/>
       <c r="G163" t="n">
-        <v>2</v>
+        <v>689</v>
       </c>
       <c r="H163" t="n">
-        <v>158382</v>
+        <v>20548491</v>
       </c>
       <c r="I163" t="n">
-        <v>8.666</v>
-      </c>
-      <c r="J163"/>
-      <c r="K163"/>
+        <v>2357.697</v>
+      </c>
+      <c r="J163" t="n">
+        <v>19196</v>
+      </c>
+      <c r="K163" t="n">
+        <v>2.203</v>
+      </c>
       <c r="L163" t="n">
-        <v>157</v>
+        <v>20256</v>
       </c>
       <c r="M163" t="n">
-        <v>0.009</v>
+        <v>2.324</v>
       </c>
       <c r="N163" t="n">
-        <v>0.333</v>
+        <v>0.318</v>
       </c>
       <c r="O163" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P163" t="s">
-        <v>23</v>
+        <v>551</v>
       </c>
       <c r="Q163" t="s">
-        <v>24</v>
+        <v>552</v>
       </c>
       <c r="R163" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="S163" t="s">
-        <v>26</v>
+        <v>863</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B164" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>44660</v>
+        <v>44632</v>
       </c>
       <c r="D164" t="s">
-        <v>864</v>
+        <v>21</v>
       </c>
       <c r="E164" t="s">
-        <v>865</v>
+        <v>22</v>
       </c>
       <c r="F164"/>
       <c r="G164" t="n">
-        <v>814</v>
+        <v>2</v>
       </c>
       <c r="H164" t="n">
-        <v>7378410</v>
+        <v>158382</v>
       </c>
       <c r="I164" t="n">
-        <v>309.302</v>
-      </c>
-      <c r="J164" t="n">
-        <v>36618</v>
-      </c>
-      <c r="K164" t="n">
-        <v>1.535</v>
-      </c>
+        <v>8.666</v>
+      </c>
+      <c r="J164"/>
+      <c r="K164"/>
       <c r="L164" t="n">
-        <v>37396</v>
+        <v>157</v>
       </c>
       <c r="M164" t="n">
-        <v>1.568</v>
+        <v>0.009</v>
       </c>
       <c r="N164" t="n">
-        <v>0.0107</v>
+        <v>0.333</v>
       </c>
       <c r="O164" t="n">
-        <v>93.4</v>
+        <v>3</v>
       </c>
       <c r="P164" t="s">
-        <v>865</v>
+        <v>23</v>
       </c>
       <c r="Q164" t="s">
-        <v>864</v>
+        <v>24</v>
       </c>
       <c r="R164" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="S164" t="s">
-        <v>866</v>
+        <v>26</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
+        <v>866</v>
+      </c>
+      <c r="B165" t="s">
         <v>867</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C165" s="1" t="n">
+        <v>44664</v>
+      </c>
+      <c r="D165" t="s">
         <v>868</v>
       </c>
-      <c r="C165" s="1" t="n">
-        <v>44610</v>
-      </c>
-      <c r="D165" t="s">
+      <c r="E165" t="s">
         <v>869</v>
-      </c>
-      <c r="E165" t="s">
-        <v>53</v>
       </c>
       <c r="F165"/>
       <c r="G165" t="n">
-        <v>2</v>
+        <v>818</v>
       </c>
       <c r="H165" t="n">
-        <v>455776</v>
+        <v>7567702</v>
       </c>
       <c r="I165" t="n">
-        <v>7.411</v>
-      </c>
-      <c r="J165"/>
-      <c r="K165"/>
+        <v>317.237</v>
+      </c>
+      <c r="J165" t="n">
+        <v>50157</v>
+      </c>
+      <c r="K165" t="n">
+        <v>2.103</v>
+      </c>
       <c r="L165" t="n">
-        <v>1004</v>
+        <v>45643</v>
       </c>
       <c r="M165" t="n">
-        <v>0.016</v>
+        <v>1.913</v>
       </c>
       <c r="N165" t="n">
-        <v>0.0161</v>
+        <v>0.0137</v>
       </c>
       <c r="O165" t="n">
-        <v>62.2</v>
+        <v>73.1</v>
       </c>
       <c r="P165" t="s">
-        <v>36</v>
+        <v>869</v>
       </c>
       <c r="Q165" t="s">
+        <v>868</v>
+      </c>
+      <c r="R165" t="s">
+        <v>45</v>
+      </c>
+      <c r="S165" t="s">
         <v>870</v>
-      </c>
-      <c r="R165" t="s">
-        <v>25</v>
-      </c>
-      <c r="S165" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
+        <v>871</v>
+      </c>
+      <c r="B166" t="s">
         <v>872</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C166" s="1" t="n">
+        <v>44610</v>
+      </c>
+      <c r="D166" t="s">
         <v>873</v>
       </c>
-      <c r="C166" s="1" t="n">
-        <v>44653</v>
-      </c>
-      <c r="D166" t="s">
-        <v>874</v>
-      </c>
       <c r="E166" t="s">
-        <v>875</v>
+        <v>53</v>
       </c>
       <c r="F166"/>
       <c r="G166" t="n">
-        <v>819</v>
+        <v>2</v>
       </c>
       <c r="H166" t="n">
-        <v>22978475</v>
+        <v>455776</v>
       </c>
       <c r="I166" t="n">
-        <v>328.495</v>
-      </c>
-      <c r="J166" t="n">
-        <v>42568</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.609</v>
-      </c>
+        <v>7.411</v>
+      </c>
+      <c r="J166"/>
+      <c r="K166"/>
       <c r="L166" t="n">
-        <v>58781</v>
+        <v>1004</v>
       </c>
       <c r="M166" t="n">
-        <v>0.84</v>
+        <v>0.016</v>
       </c>
       <c r="N166" t="n">
-        <v>0.4436</v>
+        <v>0.0161</v>
       </c>
       <c r="O166" t="n">
-        <v>2.3</v>
+        <v>62.2</v>
       </c>
       <c r="P166" t="s">
-        <v>876</v>
+        <v>36</v>
       </c>
       <c r="Q166" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="R166" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="S166" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
+        <v>876</v>
+      </c>
+      <c r="B167" t="s">
+        <v>877</v>
+      </c>
+      <c r="C167" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="D167" t="s">
+        <v>878</v>
+      </c>
+      <c r="E167" t="s">
         <v>879</v>
-      </c>
-      <c r="B167" t="s">
-        <v>880</v>
-      </c>
-      <c r="C167" s="1" t="n">
-        <v>44660</v>
-      </c>
-      <c r="D167" t="s">
-        <v>881</v>
-      </c>
-      <c r="E167" t="s">
-        <v>53</v>
       </c>
       <c r="F167"/>
       <c r="G167" t="n">
-        <v>34</v>
+        <v>819</v>
       </c>
       <c r="H167" t="n">
-        <v>258938</v>
+        <v>22978475</v>
       </c>
       <c r="I167" t="n">
-        <v>192.68</v>
-      </c>
-      <c r="J167"/>
-      <c r="K167"/>
+        <v>328.495</v>
+      </c>
+      <c r="J167" t="n">
+        <v>42568</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0.609</v>
+      </c>
       <c r="L167" t="n">
-        <v>237</v>
+        <v>58781</v>
       </c>
       <c r="M167" t="n">
-        <v>0.176</v>
+        <v>0.84</v>
       </c>
       <c r="N167" t="n">
-        <v>0.006</v>
+        <v>0.4436</v>
       </c>
       <c r="O167" t="n">
-        <v>165.9</v>
+        <v>2.3</v>
       </c>
       <c r="P167" t="s">
-        <v>53</v>
+        <v>880</v>
       </c>
       <c r="Q167" t="s">
         <v>881</v>
       </c>
       <c r="R167" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="S167" t="s">
         <v>882</v>
@@ -12517,7 +12465,7 @@
         <v>884</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>44662</v>
+        <v>44660</v>
       </c>
       <c r="D168" t="s">
         <v>885</v>
@@ -12527,482 +12475,482 @@
       </c>
       <c r="F168"/>
       <c r="G168" t="n">
-        <v>746</v>
+        <v>34</v>
       </c>
       <c r="H168" t="n">
-        <v>723325</v>
+        <v>258938</v>
       </c>
       <c r="I168" t="n">
-        <v>85.315</v>
+        <v>192.68</v>
       </c>
       <c r="J168"/>
       <c r="K168"/>
       <c r="L168" t="n">
-        <v>383</v>
+        <v>237</v>
       </c>
       <c r="M168" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="N168"/>
-      <c r="O168"/>
+        <v>0.176</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="O168" t="n">
+        <v>165.9</v>
+      </c>
       <c r="P168" t="s">
-        <v>886</v>
+        <v>53</v>
       </c>
       <c r="Q168" t="s">
         <v>885</v>
       </c>
       <c r="R168" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="S168" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
+        <v>887</v>
+      </c>
+      <c r="B169" t="s">
         <v>888</v>
       </c>
-      <c r="B169" t="s">
+      <c r="C169" s="1" t="n">
+        <v>44666</v>
+      </c>
+      <c r="D169" t="s">
         <v>889</v>
-      </c>
-      <c r="C169" s="1" t="n">
-        <v>44661</v>
-      </c>
-      <c r="D169" t="s">
-        <v>890</v>
       </c>
       <c r="E169" t="s">
         <v>53</v>
       </c>
       <c r="F169"/>
       <c r="G169" t="n">
-        <v>447</v>
+        <v>747</v>
       </c>
       <c r="H169" t="n">
-        <v>682170</v>
+        <v>724655</v>
       </c>
       <c r="I169" t="n">
-        <v>486.093</v>
+        <v>85.472</v>
       </c>
       <c r="J169"/>
       <c r="K169"/>
       <c r="L169" t="n">
-        <v>928</v>
+        <v>316</v>
       </c>
       <c r="M169" t="n">
-        <v>0.661</v>
-      </c>
-      <c r="N169" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="O169" t="n">
-        <v>3.6</v>
-      </c>
+        <v>0.037</v>
+      </c>
+      <c r="N169"/>
+      <c r="O169"/>
       <c r="P169" t="s">
-        <v>53</v>
+        <v>890</v>
       </c>
       <c r="Q169" t="s">
+        <v>889</v>
+      </c>
+      <c r="R169" t="s">
+        <v>65</v>
+      </c>
+      <c r="S169" t="s">
         <v>891</v>
-      </c>
-      <c r="R169" t="s">
-        <v>45</v>
-      </c>
-      <c r="S169" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
+        <v>892</v>
+      </c>
+      <c r="B170" t="s">
         <v>893</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" s="1" t="n">
+        <v>44665</v>
+      </c>
+      <c r="D170" t="s">
         <v>894</v>
       </c>
-      <c r="C170" s="1" t="n">
-        <v>44654</v>
-      </c>
-      <c r="D170" t="s">
-        <v>895</v>
-      </c>
       <c r="E170" t="s">
-        <v>896</v>
+        <v>53</v>
       </c>
       <c r="F170"/>
       <c r="G170" t="n">
-        <v>178</v>
+        <v>450</v>
       </c>
       <c r="H170" t="n">
-        <v>4537900</v>
+        <v>687522</v>
       </c>
       <c r="I170" t="n">
-        <v>380.194</v>
-      </c>
-      <c r="J170"/>
-      <c r="K170"/>
+        <v>489.906</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1129</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0.804</v>
+      </c>
       <c r="L170" t="n">
-        <v>2289</v>
+        <v>994</v>
       </c>
       <c r="M170" t="n">
-        <v>0.192</v>
+        <v>0.708</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1344</v>
+        <v>0.263</v>
       </c>
       <c r="O170" t="n">
-        <v>7.4</v>
+        <v>3.8</v>
       </c>
       <c r="P170" t="s">
-        <v>897</v>
+        <v>53</v>
       </c>
       <c r="Q170" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="R170" t="s">
         <v>45</v>
       </c>
       <c r="S170" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
+        <v>897</v>
+      </c>
+      <c r="B171" t="s">
+        <v>898</v>
+      </c>
+      <c r="C171" s="1" t="n">
+        <v>44654</v>
+      </c>
+      <c r="D171" t="s">
+        <v>899</v>
+      </c>
+      <c r="E171" t="s">
         <v>900</v>
-      </c>
-      <c r="B171" t="s">
-        <v>901</v>
-      </c>
-      <c r="C171" s="1" t="n">
-        <v>44661</v>
-      </c>
-      <c r="D171" t="s">
-        <v>902</v>
-      </c>
-      <c r="E171" t="s">
-        <v>903</v>
       </c>
       <c r="F171"/>
       <c r="G171" t="n">
-        <v>745</v>
+        <v>178</v>
       </c>
       <c r="H171" t="n">
-        <v>156247470</v>
+        <v>4537900</v>
       </c>
       <c r="I171" t="n">
-        <v>1837.282</v>
-      </c>
-      <c r="J171" t="n">
-        <v>172461</v>
-      </c>
-      <c r="K171" t="n">
-        <v>2.028</v>
-      </c>
+        <v>380.194</v>
+      </c>
+      <c r="J171"/>
+      <c r="K171"/>
       <c r="L171" t="n">
-        <v>208641</v>
+        <v>2289</v>
       </c>
       <c r="M171" t="n">
-        <v>2.453</v>
+        <v>0.192</v>
       </c>
       <c r="N171" t="n">
-        <v>0.044</v>
+        <v>0.1344</v>
       </c>
       <c r="O171" t="n">
-        <v>22.7</v>
+        <v>7.4</v>
       </c>
       <c r="P171" t="s">
+        <v>901</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>902</v>
+      </c>
+      <c r="R171" t="s">
+        <v>45</v>
+      </c>
+      <c r="S171" t="s">
         <v>903</v>
-      </c>
-      <c r="Q171" t="s">
-        <v>904</v>
-      </c>
-      <c r="R171" t="s">
-        <v>65</v>
-      </c>
-      <c r="S171" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
+        <v>904</v>
+      </c>
+      <c r="B172" t="s">
+        <v>905</v>
+      </c>
+      <c r="C172" s="1" t="n">
+        <v>44665</v>
+      </c>
+      <c r="D172" t="s">
         <v>906</v>
       </c>
-      <c r="B172" t="s">
+      <c r="E172" t="s">
         <v>907</v>
-      </c>
-      <c r="C172" s="1" t="n">
-        <v>44661</v>
-      </c>
-      <c r="D172" t="s">
-        <v>35</v>
-      </c>
-      <c r="E172" t="s">
-        <v>36</v>
       </c>
       <c r="F172"/>
       <c r="G172" t="n">
-        <v>635</v>
+        <v>749</v>
       </c>
       <c r="H172" t="n">
-        <v>2577730</v>
+        <v>156987916</v>
       </c>
       <c r="I172" t="n">
-        <v>54.702</v>
-      </c>
-      <c r="J172"/>
-      <c r="K172"/>
+        <v>1845.989</v>
+      </c>
+      <c r="J172" t="n">
+        <v>182446</v>
+      </c>
+      <c r="K172" t="n">
+        <v>2.145</v>
+      </c>
       <c r="L172" t="n">
-        <v>2307</v>
+        <v>185241</v>
       </c>
       <c r="M172" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="N172" t="n">
-        <v>0.0035</v>
-      </c>
-      <c r="O172" t="n">
-        <v>283.3</v>
-      </c>
+        <v>2.178</v>
+      </c>
+      <c r="N172"/>
+      <c r="O172"/>
       <c r="P172" t="s">
-        <v>36</v>
+        <v>907</v>
       </c>
       <c r="Q172" t="s">
-        <v>37</v>
+        <v>908</v>
       </c>
       <c r="R172" t="s">
         <v>65</v>
       </c>
       <c r="S172" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B173" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>44610</v>
+        <v>44661</v>
       </c>
       <c r="D173" t="s">
-        <v>911</v>
+        <v>35</v>
       </c>
       <c r="E173" t="s">
-        <v>912</v>
+        <v>36</v>
       </c>
       <c r="F173"/>
       <c r="G173" t="n">
-        <v>556</v>
+        <v>635</v>
       </c>
       <c r="H173" t="n">
-        <v>19288823</v>
+        <v>2577730</v>
       </c>
       <c r="I173" t="n">
-        <v>443.76</v>
+        <v>54.702</v>
       </c>
       <c r="J173"/>
       <c r="K173"/>
       <c r="L173" t="n">
-        <v>52561</v>
+        <v>2307</v>
       </c>
       <c r="M173" t="n">
-        <v>1.209</v>
+        <v>0.049</v>
       </c>
       <c r="N173" t="n">
-        <v>0.6027</v>
+        <v>0.0035</v>
       </c>
       <c r="O173" t="n">
-        <v>1.7</v>
+        <v>283.3</v>
       </c>
       <c r="P173" t="s">
-        <v>912</v>
+        <v>36</v>
       </c>
       <c r="Q173" t="s">
-        <v>913</v>
+        <v>37</v>
       </c>
       <c r="R173" t="s">
         <v>65</v>
       </c>
       <c r="S173" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
+        <v>913</v>
+      </c>
+      <c r="B174" t="s">
+        <v>914</v>
+      </c>
+      <c r="C174" s="1" t="n">
+        <v>44610</v>
+      </c>
+      <c r="D174" t="s">
         <v>915</v>
       </c>
-      <c r="B174" t="s">
+      <c r="E174" t="s">
         <v>916</v>
-      </c>
-      <c r="C174" s="1" t="n">
-        <v>44662</v>
-      </c>
-      <c r="D174" t="s">
-        <v>917</v>
-      </c>
-      <c r="E174" t="s">
-        <v>918</v>
       </c>
       <c r="F174"/>
       <c r="G174" t="n">
-        <v>773</v>
+        <v>556</v>
       </c>
       <c r="H174" t="n">
-        <v>150750667</v>
+        <v>19288823</v>
       </c>
       <c r="I174" t="n">
-        <v>15088.521</v>
-      </c>
-      <c r="J174" t="n">
-        <v>207875</v>
-      </c>
-      <c r="K174" t="n">
-        <v>20.806</v>
-      </c>
+        <v>443.76</v>
+      </c>
+      <c r="J174"/>
+      <c r="K174"/>
       <c r="L174" t="n">
-        <v>230451</v>
+        <v>52561</v>
       </c>
       <c r="M174" t="n">
-        <v>23.066</v>
-      </c>
-      <c r="N174"/>
-      <c r="O174"/>
+        <v>1.209</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0.6027</v>
+      </c>
+      <c r="O174" t="n">
+        <v>1.7</v>
+      </c>
       <c r="P174" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="Q174" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="R174" t="s">
         <v>65</v>
       </c>
       <c r="S174" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
+        <v>919</v>
+      </c>
+      <c r="B175" t="s">
+        <v>920</v>
+      </c>
+      <c r="C175" s="1" t="n">
+        <v>44662</v>
+      </c>
+      <c r="D175" t="s">
         <v>921</v>
       </c>
-      <c r="B175" t="s">
+      <c r="E175" t="s">
         <v>922</v>
-      </c>
-      <c r="C175" s="1" t="n">
-        <v>44658</v>
-      </c>
-      <c r="D175" t="s">
-        <v>923</v>
-      </c>
-      <c r="E175" t="s">
-        <v>924</v>
       </c>
       <c r="F175"/>
       <c r="G175" t="n">
-        <v>736</v>
+        <v>773</v>
       </c>
       <c r="H175" t="n">
-        <v>490482056</v>
+        <v>150750667</v>
       </c>
       <c r="I175" t="n">
-        <v>7191.069</v>
+        <v>15088.521</v>
       </c>
       <c r="J175" t="n">
-        <v>517587</v>
+        <v>207875</v>
       </c>
       <c r="K175" t="n">
-        <v>7.588</v>
+        <v>20.806</v>
       </c>
       <c r="L175" t="n">
-        <v>537320</v>
+        <v>230451</v>
       </c>
       <c r="M175" t="n">
-        <v>7.878</v>
+        <v>23.066</v>
       </c>
       <c r="N175" t="n">
-        <v>0.0963</v>
+        <v>0.0009</v>
       </c>
       <c r="O175" t="n">
-        <v>10.4</v>
+        <v>1075.4</v>
       </c>
       <c r="P175" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="Q175" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="R175" t="s">
         <v>65</v>
       </c>
       <c r="S175" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
+        <v>925</v>
+      </c>
+      <c r="B176" t="s">
+        <v>926</v>
+      </c>
+      <c r="C176" s="1" t="n">
+        <v>44664</v>
+      </c>
+      <c r="D176" t="s">
+        <v>927</v>
+      </c>
+      <c r="E176" t="s">
         <v>928</v>
-      </c>
-      <c r="B176" t="s">
-        <v>929</v>
-      </c>
-      <c r="C176" s="1" t="n">
-        <v>44656</v>
-      </c>
-      <c r="D176" t="s">
-        <v>391</v>
-      </c>
-      <c r="E176" t="s">
-        <v>392</v>
       </c>
       <c r="F176"/>
       <c r="G176" t="n">
-        <v>766</v>
+        <v>742</v>
       </c>
       <c r="H176" t="n">
-        <v>853759606</v>
+        <v>492943055</v>
       </c>
       <c r="I176" t="n">
-        <v>2564.497</v>
+        <v>7227.15</v>
       </c>
       <c r="J176" t="n">
-        <v>609381</v>
+        <v>422782</v>
       </c>
       <c r="K176" t="n">
-        <v>1.83</v>
+        <v>6.199</v>
       </c>
       <c r="L176" t="n">
-        <v>635271</v>
+        <v>425512</v>
       </c>
       <c r="M176" t="n">
-        <v>1.908</v>
+        <v>6.239</v>
       </c>
       <c r="N176" t="n">
-        <v>0.031</v>
+        <v>0.0859</v>
       </c>
       <c r="O176" t="n">
-        <v>32.3</v>
+        <v>11.6</v>
       </c>
       <c r="P176" t="s">
-        <v>392</v>
+        <v>929</v>
       </c>
       <c r="Q176" t="s">
-        <v>391</v>
+        <v>930</v>
       </c>
       <c r="R176" t="s">
-        <v>393</v>
+        <v>65</v>
       </c>
       <c r="S176" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B177" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>44658</v>
+        <v>44660</v>
       </c>
       <c r="D177" t="s">
         <v>391</v>
@@ -13012,31 +12960,31 @@
       </c>
       <c r="F177"/>
       <c r="G177" t="n">
-        <v>729</v>
+        <v>770</v>
       </c>
       <c r="H177" t="n">
-        <v>109525</v>
+        <v>857179571</v>
       </c>
       <c r="I177" t="n">
-        <v>1050.922</v>
+        <v>2574.769</v>
       </c>
       <c r="J177" t="n">
-        <v>62</v>
+        <v>362796</v>
       </c>
       <c r="K177" t="n">
-        <v>0.595</v>
+        <v>1.09</v>
       </c>
       <c r="L177" t="n">
-        <v>54</v>
+        <v>606195</v>
       </c>
       <c r="M177" t="n">
-        <v>0.518</v>
+        <v>1.821</v>
       </c>
       <c r="N177" t="n">
-        <v>0.053</v>
+        <v>0.038</v>
       </c>
       <c r="O177" t="n">
-        <v>18.9</v>
+        <v>26.3</v>
       </c>
       <c r="P177" t="s">
         <v>392</v>
@@ -13048,61 +12996,61 @@
         <v>393</v>
       </c>
       <c r="S177" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B178" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>44661</v>
+        <v>44662</v>
       </c>
       <c r="D178" t="s">
-        <v>936</v>
+        <v>391</v>
       </c>
       <c r="E178" t="s">
-        <v>241</v>
+        <v>392</v>
       </c>
       <c r="F178"/>
       <c r="G178" t="n">
-        <v>750</v>
+        <v>733</v>
       </c>
       <c r="H178" t="n">
-        <v>6064516</v>
+        <v>109701</v>
       </c>
       <c r="I178" t="n">
-        <v>1740.101</v>
+        <v>1052.611</v>
       </c>
       <c r="J178" t="n">
-        <v>3466</v>
+        <v>28</v>
       </c>
       <c r="K178" t="n">
-        <v>0.995</v>
+        <v>0.269</v>
       </c>
       <c r="L178" t="n">
-        <v>6642</v>
+        <v>55</v>
       </c>
       <c r="M178" t="n">
-        <v>1.906</v>
+        <v>0.528</v>
       </c>
       <c r="N178" t="n">
-        <v>0.0945</v>
+        <v>0.081</v>
       </c>
       <c r="O178" t="n">
-        <v>10.6</v>
+        <v>12.3</v>
       </c>
       <c r="P178" t="s">
-        <v>241</v>
+        <v>392</v>
       </c>
       <c r="Q178" t="s">
-        <v>936</v>
+        <v>391</v>
       </c>
       <c r="R178" t="s">
-        <v>65</v>
+        <v>393</v>
       </c>
       <c r="S178" t="s">
         <v>937</v>
@@ -13116,257 +13064,310 @@
         <v>939</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>44619</v>
+        <v>44665</v>
       </c>
       <c r="D179" t="s">
         <v>940</v>
       </c>
       <c r="E179" t="s">
-        <v>53</v>
+        <v>241</v>
       </c>
       <c r="F179"/>
       <c r="G179" t="n">
-        <v>2</v>
+        <v>754</v>
       </c>
       <c r="H179" t="n">
-        <v>11989</v>
+        <v>6080291</v>
       </c>
       <c r="I179" t="n">
-        <v>38.125</v>
-      </c>
-      <c r="J179"/>
-      <c r="K179"/>
+        <v>1744.627</v>
+      </c>
+      <c r="J179" t="n">
+        <v>3178</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0.912</v>
+      </c>
       <c r="L179" t="n">
-        <v>76</v>
+        <v>4522</v>
       </c>
       <c r="M179" t="n">
-        <v>0.242</v>
-      </c>
-      <c r="N179" t="n">
-        <v>0.0132</v>
-      </c>
-      <c r="O179" t="n">
-        <v>76</v>
-      </c>
+        <v>1.298</v>
+      </c>
+      <c r="N179"/>
+      <c r="O179"/>
       <c r="P179" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>940</v>
+      </c>
+      <c r="R179" t="s">
+        <v>65</v>
+      </c>
+      <c r="S179" t="s">
         <v>941</v>
-      </c>
-      <c r="Q179" t="s">
-        <v>942</v>
-      </c>
-      <c r="R179" t="s">
-        <v>327</v>
-      </c>
-      <c r="S179" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
+        <v>942</v>
+      </c>
+      <c r="B180" t="s">
+        <v>943</v>
+      </c>
+      <c r="C180" s="1" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D180" t="s">
         <v>944</v>
       </c>
-      <c r="B180" t="s">
-        <v>945</v>
-      </c>
-      <c r="C180" s="1" t="n">
-        <v>44661</v>
-      </c>
-      <c r="D180" t="s">
-        <v>946</v>
-      </c>
       <c r="E180" t="s">
-        <v>947</v>
+        <v>53</v>
       </c>
       <c r="F180"/>
       <c r="G180" t="n">
-        <v>161</v>
+        <v>2</v>
       </c>
       <c r="H180" t="n">
-        <v>85007902</v>
+        <v>11989</v>
       </c>
       <c r="I180" t="n">
-        <v>865.936</v>
+        <v>38.125</v>
       </c>
       <c r="J180"/>
       <c r="K180"/>
       <c r="L180" t="n">
-        <v>62196</v>
+        <v>76</v>
       </c>
       <c r="M180" t="n">
-        <v>0.634</v>
+        <v>0.242</v>
       </c>
       <c r="N180" t="n">
-        <v>0.8726</v>
+        <v>0.0132</v>
       </c>
       <c r="O180" t="n">
-        <v>1.1</v>
+        <v>76</v>
       </c>
       <c r="P180" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="Q180" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="R180" t="s">
-        <v>45</v>
+        <v>327</v>
       </c>
       <c r="S180" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
+        <v>948</v>
+      </c>
+      <c r="B181" t="s">
+        <v>949</v>
+      </c>
+      <c r="C181" s="1" t="n">
+        <v>44665</v>
+      </c>
+      <c r="D181" t="s">
+        <v>950</v>
+      </c>
+      <c r="E181" t="s">
         <v>951</v>
-      </c>
-      <c r="B181" t="s">
-        <v>952</v>
-      </c>
-      <c r="C181" s="1" t="n">
-        <v>44632</v>
-      </c>
-      <c r="D181" t="s">
-        <v>21</v>
-      </c>
-      <c r="E181" t="s">
-        <v>22</v>
       </c>
       <c r="F181"/>
       <c r="G181" t="n">
-        <v>2</v>
+        <v>162</v>
       </c>
       <c r="H181" t="n">
-        <v>329592</v>
+        <v>85547798</v>
       </c>
       <c r="I181" t="n">
-        <v>10.81</v>
+        <v>871.435</v>
       </c>
       <c r="J181"/>
       <c r="K181"/>
       <c r="L181" t="n">
-        <v>0</v>
+        <v>100287</v>
       </c>
       <c r="M181" t="n">
-        <v>0</v>
+        <v>1.022</v>
       </c>
       <c r="N181"/>
       <c r="O181"/>
       <c r="P181" t="s">
-        <v>23</v>
+        <v>952</v>
       </c>
       <c r="Q181" t="s">
-        <v>24</v>
+        <v>953</v>
       </c>
       <c r="R181" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="S181" t="s">
-        <v>26</v>
+        <v>954</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="B182" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>44659</v>
+        <v>44632</v>
       </c>
       <c r="D182" t="s">
-        <v>955</v>
+        <v>21</v>
       </c>
       <c r="E182" t="s">
-        <v>956</v>
+        <v>22</v>
       </c>
       <c r="F182"/>
       <c r="G182" t="n">
-        <v>722</v>
+        <v>2</v>
       </c>
       <c r="H182" t="n">
-        <v>3376838</v>
+        <v>329592</v>
       </c>
       <c r="I182" t="n">
-        <v>178.474</v>
-      </c>
-      <c r="J182" t="n">
-        <v>2861</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.151</v>
-      </c>
+        <v>10.81</v>
+      </c>
+      <c r="J182"/>
+      <c r="K182"/>
       <c r="L182" t="n">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="M182" t="n">
-        <v>0.127</v>
+        <v>0</v>
       </c>
       <c r="N182"/>
       <c r="O182"/>
       <c r="P182" t="s">
-        <v>957</v>
+        <v>23</v>
       </c>
       <c r="Q182" t="s">
-        <v>955</v>
+        <v>24</v>
       </c>
       <c r="R182" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="S182" t="s">
-        <v>958</v>
+        <v>26</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
+        <v>957</v>
+      </c>
+      <c r="B183" t="s">
+        <v>958</v>
+      </c>
+      <c r="C183" s="1" t="n">
+        <v>44664</v>
+      </c>
+      <c r="D183" t="s">
         <v>959</v>
       </c>
-      <c r="B183" t="s">
+      <c r="E183" t="s">
         <v>960</v>
-      </c>
-      <c r="C183" s="1" t="n">
-        <v>44661</v>
-      </c>
-      <c r="D183" t="s">
-        <v>35</v>
-      </c>
-      <c r="E183" t="s">
-        <v>36</v>
       </c>
       <c r="F183"/>
       <c r="G183" t="n">
-        <v>657</v>
+        <v>727</v>
       </c>
       <c r="H183" t="n">
-        <v>2213383</v>
+        <v>3390279</v>
       </c>
       <c r="I183" t="n">
-        <v>146.658</v>
-      </c>
-      <c r="J183"/>
-      <c r="K183"/>
+        <v>179.184</v>
+      </c>
+      <c r="J183" t="n">
+        <v>3417</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0.181</v>
+      </c>
       <c r="L183" t="n">
-        <v>2968</v>
+        <v>2746</v>
       </c>
       <c r="M183" t="n">
-        <v>0.197</v>
+        <v>0.145</v>
       </c>
       <c r="N183" t="n">
-        <v>0.0208</v>
+        <v>0.0393</v>
       </c>
       <c r="O183" t="n">
-        <v>48</v>
+        <v>25.5</v>
       </c>
       <c r="P183" t="s">
-        <v>36</v>
+        <v>961</v>
       </c>
       <c r="Q183" t="s">
-        <v>37</v>
+        <v>959</v>
       </c>
       <c r="R183" t="s">
         <v>65</v>
       </c>
       <c r="S183" t="s">
-        <v>961</v>
+        <v>962</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>963</v>
+      </c>
+      <c r="B184" t="s">
+        <v>964</v>
+      </c>
+      <c r="C184" s="1" t="n">
+        <v>44661</v>
+      </c>
+      <c r="D184" t="s">
+        <v>35</v>
+      </c>
+      <c r="E184" t="s">
+        <v>36</v>
+      </c>
+      <c r="F184"/>
+      <c r="G184" t="n">
+        <v>657</v>
+      </c>
+      <c r="H184" t="n">
+        <v>2213383</v>
+      </c>
+      <c r="I184" t="n">
+        <v>146.658</v>
+      </c>
+      <c r="J184"/>
+      <c r="K184"/>
+      <c r="L184" t="n">
+        <v>2968</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="N184" t="n">
+        <v>0.0208</v>
+      </c>
+      <c r="O184" t="n">
+        <v>48</v>
+      </c>
+      <c r="P184" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>37</v>
+      </c>
+      <c r="R184" t="s">
+        <v>65</v>
+      </c>
+      <c r="S184" t="s">
+        <v>965</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -307,7 +307,7 @@
     <t xml:space="preserve">Bahamas - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bahamas.gov.bs/wps/wcm/connect/fa90b229-373f-46c7-b4a7-e42f3a117d18/Update+%23740+-+Ministry+of+Health+%26+Wellness+-+COVID-19+Report+%281%29.pdf?MOD=AJPERES</t>
+    <t xml:space="preserve">https://www.bahamas.gov.bs/wps/wcm/connect/6fb809a9-5c21-4abd-8316-f3defc3296ad/Update+%23748+-+Ministry+of+Health+%26+Wellness+-+COVID-19+Report+%284%29.pdf?MOD=AJPERES</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Wellness</t>
@@ -369,7 +369,7 @@
     <t xml:space="preserve">Barbados - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gisbarbados.gov.bb/blog/covid-19-update-for-april-9/</t>
+    <t xml:space="preserve">https://gisbarbados.gov.bb/blog/covid-19-update-saturday-april-16/</t>
   </si>
   <si>
     <t xml:space="preserve">https://gisbarbados.gov.bb/top-stories/</t>
@@ -826,7 +826,7 @@
     <t xml:space="preserve">Curacao - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MinistryofHealthCuracao/posts/3102830756634939</t>
+    <t xml:space="preserve">https://www.facebook.com/MinistryofHealthCuracao/posts/3108835009367847</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health Curacao</t>
@@ -916,7 +916,7 @@
     <t xml:space="preserve">Dominica - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.dominica.gov.dm/index.php/updates/1464-april-6th-dominica-coronavirus-update</t>
+    <t xml:space="preserve">https://covid19.dominica.gov.dm/index.php/updates/1467-april-13th-2022-dominica-coronavirus-update</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Wellness and New Health Investment</t>
@@ -1099,7 +1099,7 @@
     <t xml:space="preserve">Fiji - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.fj/15-04-2022/</t>
+    <t xml:space="preserve">https://www.health.gov.fj/18-04-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Fiji Ministry of Health &amp; Medical Services</t>
@@ -1507,7 +1507,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://irangov.ir/detail/384390</t>
+    <t xml:space="preserve">https://irangov.ir/detail/384736</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Medical Education</t>
@@ -1605,7 +1605,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-wednesday-april-13-2022/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-saturday-april-16-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -2146,7 +2146,7 @@
     <t xml:space="preserve">Nepal - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.mohp.gov.np/covid/englishSituationReport/625952d445592_SitRep796_COVID-19_15-04-2022_EN.pdf</t>
+    <t xml:space="preserve">https://covid19.mohp.gov.np/covid/englishSituationReport/625d2cb262f63_SitRep799_COVID-19_18-04-2022_EN.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -2248,7 +2248,7 @@
     <t xml:space="preserve">North Macedonia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://koronavirus.gov.mk/vesti/224048</t>
+    <t xml:space="preserve">https://koronavirus.gov.mk/vesti/224057</t>
   </si>
   <si>
     <t xml:space="preserve">https://koronavirus.gov.mk/stat</t>
@@ -2316,7 +2316,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/332559642304338</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/337166708510298</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -2338,7 +2338,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1514392149743349760</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1515899480075378695</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -2517,7 +2517,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=21260</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=21293</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -3183,7 +3183,7 @@
     <t xml:space="preserve">Vietnam - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.gov.vn/ngay-14-4-co-23012-ca-covid-19-moi-so-khoi-benh-gap-gan-4-lan-so-mac-171220414210736063.htm</t>
+    <t xml:space="preserve">https://covid19.gov.vn/ngay-17-4-so-mac-covid-19-giam-xuong-thap-nhat-trong-hon-2-thang-qua-con-14660-ca-171220418140026666.htm</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health of Vietnam</t>
@@ -4012,7 +4012,7 @@
         <v>62</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44664</v>
+        <v>44667</v>
       </c>
       <c r="D9" t="s">
         <v>63</v>
@@ -4022,31 +4022,31 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="H9" t="n">
-        <v>35601172</v>
+        <v>35628536</v>
       </c>
       <c r="I9" t="n">
-        <v>780.628</v>
+        <v>781.228</v>
       </c>
       <c r="J9" t="n">
-        <v>11709</v>
+        <v>5052</v>
       </c>
       <c r="K9" t="n">
-        <v>0.257</v>
+        <v>0.111</v>
       </c>
       <c r="L9" t="n">
-        <v>14154</v>
+        <v>10266</v>
       </c>
       <c r="M9" t="n">
-        <v>0.31</v>
+        <v>0.225</v>
       </c>
       <c r="N9" t="n">
-        <v>0.051</v>
+        <v>0.057</v>
       </c>
       <c r="O9" t="n">
-        <v>19.6</v>
+        <v>17.5</v>
       </c>
       <c r="P9" t="s">
         <v>64</v>
@@ -4069,7 +4069,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44665</v>
+        <v>44668</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
@@ -4079,25 +4079,25 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="H10" t="n">
-        <v>3012103</v>
+        <v>3018644</v>
       </c>
       <c r="I10" t="n">
-        <v>1014.816</v>
+        <v>1017.019</v>
       </c>
       <c r="J10" t="n">
-        <v>3171</v>
+        <v>1679</v>
       </c>
       <c r="K10" t="n">
-        <v>1.068</v>
+        <v>0.566</v>
       </c>
       <c r="L10" t="n">
-        <v>2544</v>
+        <v>2460</v>
       </c>
       <c r="M10" t="n">
-        <v>0.857</v>
+        <v>0.829</v>
       </c>
       <c r="N10" t="n">
         <v>0.005</v>
@@ -4126,7 +4126,7 @@
         <v>73</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44666</v>
+        <v>44669</v>
       </c>
       <c r="D11" t="s">
         <v>74</v>
@@ -4138,25 +4138,25 @@
         <v>76</v>
       </c>
       <c r="G11" t="n">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="H11" t="n">
-        <v>68170496</v>
+        <v>68374034</v>
       </c>
       <c r="I11" t="n">
-        <v>2643.475</v>
+        <v>2651.367</v>
       </c>
       <c r="J11" t="n">
-        <v>97573</v>
+        <v>59415</v>
       </c>
       <c r="K11" t="n">
-        <v>3.784</v>
+        <v>2.304</v>
       </c>
       <c r="L11" t="n">
-        <v>98888</v>
+        <v>87405</v>
       </c>
       <c r="M11" t="n">
-        <v>3.835</v>
+        <v>3.389</v>
       </c>
       <c r="N11"/>
       <c r="O11"/>
@@ -4181,7 +4181,7 @@
         <v>80</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44664</v>
+        <v>44669</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -4191,32 +4191,28 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="H12" t="n">
-        <v>179853312</v>
+        <v>180657934</v>
       </c>
       <c r="I12" t="n">
-        <v>19888.519</v>
+        <v>19977.496</v>
       </c>
       <c r="J12" t="n">
-        <v>185952</v>
+        <v>79772</v>
       </c>
       <c r="K12" t="n">
-        <v>20.563</v>
+        <v>8.821</v>
       </c>
       <c r="L12" t="n">
-        <v>298272</v>
+        <v>170300</v>
       </c>
       <c r="M12" t="n">
-        <v>32.983</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.0397</v>
-      </c>
-      <c r="O12" t="n">
-        <v>25.2</v>
-      </c>
+        <v>18.832</v>
+      </c>
+      <c r="N12"/>
+      <c r="O12"/>
       <c r="P12" t="s">
         <v>82</v>
       </c>
@@ -4238,7 +4234,7 @@
         <v>85</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44665</v>
+        <v>44668</v>
       </c>
       <c r="D13" t="s">
         <v>86</v>
@@ -4248,24 +4244,28 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H13" t="n">
-        <v>6759211</v>
+        <v>6771851</v>
       </c>
       <c r="I13" t="n">
-        <v>661.155</v>
+        <v>662.391</v>
       </c>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13" t="n">
-        <v>3433</v>
+        <v>3681</v>
       </c>
       <c r="M13" t="n">
-        <v>0.336</v>
-      </c>
-      <c r="N13"/>
-      <c r="O13"/>
+        <v>0.36</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0049</v>
+      </c>
+      <c r="O13" t="n">
+        <v>206.1</v>
+      </c>
       <c r="P13" t="s">
         <v>87</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>90</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44656</v>
+        <v>44664</v>
       </c>
       <c r="D14" t="s">
         <v>91</v>
@@ -4297,27 +4297,27 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H14" t="n">
-        <v>228587</v>
+        <v>229615</v>
       </c>
       <c r="I14" t="n">
-        <v>575.911</v>
+        <v>578.501</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14" t="n">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="M14" t="n">
-        <v>0.418</v>
+        <v>0.322</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0482</v>
+        <v>0.0591</v>
       </c>
       <c r="O14" t="n">
-        <v>20.8</v>
+        <v>16.9</v>
       </c>
       <c r="P14" t="s">
         <v>93</v>
@@ -4340,7 +4340,7 @@
         <v>97</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44666</v>
+        <v>44669</v>
       </c>
       <c r="D15" t="s">
         <v>98</v>
@@ -4350,21 +4350,21 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H15" t="n">
-        <v>9666687</v>
+        <v>9676557</v>
       </c>
       <c r="I15" t="n">
-        <v>5529.208</v>
+        <v>5534.854</v>
       </c>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15" t="n">
-        <v>4101</v>
+        <v>3913</v>
       </c>
       <c r="M15" t="n">
-        <v>2.346</v>
+        <v>2.238</v>
       </c>
       <c r="N15"/>
       <c r="O15"/>
@@ -4389,7 +4389,7 @@
         <v>104</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>44665</v>
+        <v>44669</v>
       </c>
       <c r="D16" t="s">
         <v>105</v>
@@ -4399,25 +4399,25 @@
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H16" t="n">
-        <v>13718358</v>
+        <v>13722551</v>
       </c>
       <c r="I16" t="n">
-        <v>82.49</v>
+        <v>82.515</v>
       </c>
       <c r="J16" t="n">
-        <v>6704</v>
+        <v>4193</v>
       </c>
       <c r="K16" t="n">
-        <v>0.04</v>
+        <v>0.025</v>
       </c>
       <c r="L16" t="n">
-        <v>1707</v>
+        <v>1317</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
       <c r="N16"/>
       <c r="O16"/>
@@ -4442,7 +4442,7 @@
         <v>109</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44660</v>
+        <v>44667</v>
       </c>
       <c r="D17" t="s">
         <v>110</v>
@@ -4452,27 +4452,27 @@
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H17" t="n">
-        <v>624286</v>
+        <v>632284</v>
       </c>
       <c r="I17" t="n">
-        <v>2169.86</v>
+        <v>2197.659</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17" t="n">
-        <v>1281</v>
+        <v>1143</v>
       </c>
       <c r="M17" t="n">
-        <v>4.452</v>
+        <v>3.973</v>
       </c>
       <c r="N17" t="n">
-        <v>0.2475</v>
+        <v>0.2993</v>
       </c>
       <c r="O17" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P17" t="s">
         <v>53</v>
@@ -4495,7 +4495,7 @@
         <v>114</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44666</v>
+        <v>44669</v>
       </c>
       <c r="D18" t="s">
         <v>115</v>
@@ -4505,21 +4505,21 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H18" t="n">
-        <v>13013839</v>
+        <v>13041946</v>
       </c>
       <c r="I18" t="n">
-        <v>1378.166</v>
+        <v>1381.143</v>
       </c>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18" t="n">
-        <v>10358</v>
+        <v>9702</v>
       </c>
       <c r="M18" t="n">
-        <v>1.097</v>
+        <v>1.027</v>
       </c>
       <c r="N18"/>
       <c r="O18"/>
@@ -4970,7 +4970,7 @@
         <v>165</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44665</v>
+        <v>44668</v>
       </c>
       <c r="D27" t="s">
         <v>166</v>
@@ -4980,24 +4980,28 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H27" t="n">
-        <v>9732779</v>
+        <v>9749280</v>
       </c>
       <c r="I27" t="n">
-        <v>1411.232</v>
+        <v>1413.624</v>
       </c>
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27" t="n">
-        <v>8811</v>
+        <v>8167</v>
       </c>
       <c r="M27" t="n">
-        <v>1.278</v>
-      </c>
-      <c r="N27"/>
-      <c r="O27"/>
+        <v>1.184</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.0707</v>
+      </c>
+      <c r="O27" t="n">
+        <v>14.2</v>
+      </c>
       <c r="P27" t="s">
         <v>168</v>
       </c>
@@ -5070,7 +5074,7 @@
         <v>175</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44658</v>
+        <v>44669</v>
       </c>
       <c r="D29" t="s">
         <v>35</v>
@@ -5080,28 +5084,24 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H29" t="n">
-        <v>1471494</v>
+        <v>1485730</v>
       </c>
       <c r="I29" t="n">
-        <v>120.069</v>
+        <v>121.23</v>
       </c>
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29" t="n">
-        <v>2200</v>
+        <v>1294</v>
       </c>
       <c r="M29" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0.0065</v>
-      </c>
-      <c r="O29" t="n">
-        <v>154</v>
-      </c>
+        <v>0.106</v>
+      </c>
+      <c r="N29"/>
+      <c r="O29"/>
       <c r="P29" t="s">
         <v>36</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>178</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44666</v>
+        <v>44669</v>
       </c>
       <c r="D30" t="s">
         <v>179</v>
@@ -5133,21 +5133,21 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H30" t="n">
-        <v>2942234</v>
+        <v>2944110</v>
       </c>
       <c r="I30" t="n">
-        <v>173.62</v>
+        <v>173.73</v>
       </c>
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30" t="n">
-        <v>842</v>
+        <v>721</v>
       </c>
       <c r="M30" t="n">
-        <v>0.05</v>
+        <v>0.043</v>
       </c>
       <c r="N30"/>
       <c r="O30"/>
@@ -5172,7 +5172,7 @@
         <v>183</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>44644</v>
+        <v>44669</v>
       </c>
       <c r="D31" t="s">
         <v>35</v>
@@ -5182,28 +5182,24 @@
       </c>
       <c r="F31"/>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H31" t="n">
-        <v>2524670</v>
+        <v>2591379</v>
       </c>
       <c r="I31" t="n">
-        <v>92.736</v>
+        <v>95.186</v>
       </c>
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31" t="n">
-        <v>1392</v>
+        <v>2668</v>
       </c>
       <c r="M31" t="n">
-        <v>0.051</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0.0133</v>
-      </c>
-      <c r="O31" t="n">
-        <v>75</v>
-      </c>
+        <v>0.098</v>
+      </c>
+      <c r="N31"/>
+      <c r="O31"/>
       <c r="P31" t="s">
         <v>36</v>
       </c>
@@ -5327,7 +5323,7 @@
         <v>198</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>44661</v>
+        <v>44669</v>
       </c>
       <c r="D34" t="s">
         <v>35</v>
@@ -5337,25 +5333,23 @@
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
-        <v>88886</v>
+        <v>89503</v>
       </c>
       <c r="I34" t="n">
-        <v>18.066</v>
+        <v>18.192</v>
       </c>
       <c r="J34"/>
       <c r="K34"/>
       <c r="L34" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M34" t="n">
         <v>0.016</v>
       </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
+      <c r="N34"/>
       <c r="O34"/>
       <c r="P34" t="s">
         <v>36</v>
@@ -5378,7 +5372,7 @@
         <v>201</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44658</v>
+        <v>44669</v>
       </c>
       <c r="D35" t="s">
         <v>35</v>
@@ -5388,28 +5382,24 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H35" t="n">
-        <v>210933</v>
+        <v>212076</v>
       </c>
       <c r="I35" t="n">
-        <v>12.47</v>
+        <v>12.538</v>
       </c>
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35" t="n">
-        <v>270</v>
+        <v>104</v>
       </c>
       <c r="M35" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0.0206</v>
-      </c>
-      <c r="O35" t="n">
-        <v>48.5</v>
-      </c>
+        <v>0.006</v>
+      </c>
+      <c r="N35"/>
+      <c r="O35"/>
       <c r="P35" t="s">
         <v>36</v>
       </c>
@@ -5431,7 +5421,7 @@
         <v>204</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44665</v>
+        <v>44668</v>
       </c>
       <c r="D36" t="s">
         <v>205</v>
@@ -5441,28 +5431,32 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="H36" t="n">
-        <v>36067535</v>
+        <v>36206758</v>
       </c>
       <c r="I36" t="n">
-        <v>1877.309</v>
+        <v>1884.555</v>
       </c>
       <c r="J36" t="n">
-        <v>64038</v>
+        <v>29580</v>
       </c>
       <c r="K36" t="n">
-        <v>3.333</v>
+        <v>1.54</v>
       </c>
       <c r="L36" t="n">
-        <v>54967</v>
+        <v>47438</v>
       </c>
       <c r="M36" t="n">
-        <v>2.861</v>
-      </c>
-      <c r="N36"/>
-      <c r="O36"/>
+        <v>2.469</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.0549</v>
+      </c>
+      <c r="O36" t="n">
+        <v>18.2</v>
+      </c>
       <c r="P36" t="s">
         <v>206</v>
       </c>
@@ -5537,7 +5531,7 @@
         <v>216</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>44665</v>
+        <v>44668</v>
       </c>
       <c r="D38" t="s">
         <v>217</v>
@@ -5547,25 +5541,25 @@
       </c>
       <c r="F38"/>
       <c r="G38" t="n">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="H38" t="n">
-        <v>34163815</v>
+        <v>34186750</v>
       </c>
       <c r="I38" t="n">
-        <v>666.405</v>
+        <v>666.852</v>
       </c>
       <c r="J38" t="n">
-        <v>21943</v>
+        <v>7178</v>
       </c>
       <c r="K38" t="n">
-        <v>0.428</v>
+        <v>0.14</v>
       </c>
       <c r="L38" t="n">
-        <v>21699</v>
+        <v>16284</v>
       </c>
       <c r="M38" t="n">
-        <v>0.423</v>
+        <v>0.318</v>
       </c>
       <c r="N38" t="n">
         <v>0.019</v>
@@ -5696,7 +5690,7 @@
         <v>230</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44661</v>
+        <v>44669</v>
       </c>
       <c r="D41" t="s">
         <v>35</v>
@@ -5706,28 +5700,24 @@
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H41" t="n">
-        <v>1481474</v>
+        <v>1488217</v>
       </c>
       <c r="I41" t="n">
-        <v>54.761</v>
+        <v>55.01</v>
       </c>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41" t="n">
-        <v>1057</v>
+        <v>843</v>
       </c>
       <c r="M41" t="n">
-        <v>0.039</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0.0091</v>
-      </c>
-      <c r="O41" t="n">
-        <v>110.4</v>
-      </c>
+        <v>0.031</v>
+      </c>
+      <c r="N41"/>
+      <c r="O41"/>
       <c r="P41" t="s">
         <v>36</v>
       </c>
@@ -5749,7 +5739,7 @@
         <v>233</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>44666</v>
+        <v>44669</v>
       </c>
       <c r="D42" t="s">
         <v>234</v>
@@ -5759,21 +5749,21 @@
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H42" t="n">
-        <v>4738252</v>
+        <v>4743521</v>
       </c>
       <c r="I42" t="n">
-        <v>1160.865</v>
+        <v>1162.156</v>
       </c>
       <c r="J42"/>
       <c r="K42"/>
       <c r="L42" t="n">
-        <v>3469</v>
+        <v>3060</v>
       </c>
       <c r="M42" t="n">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="N42"/>
       <c r="O42"/>
@@ -5857,7 +5847,7 @@
         <v>246</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>44659</v>
+        <v>44666</v>
       </c>
       <c r="D44" t="s">
         <v>247</v>
@@ -5867,28 +5857,32 @@
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H44" t="n">
-        <v>4642</v>
+        <v>8336</v>
       </c>
       <c r="I44" t="n">
-        <v>28.168</v>
+        <v>50.584</v>
       </c>
       <c r="J44" t="n">
-        <v>3300</v>
+        <v>3694</v>
       </c>
       <c r="K44" t="n">
-        <v>20.025</v>
+        <v>22.416</v>
       </c>
       <c r="L44" t="n">
-        <v>13</v>
+        <v>528</v>
       </c>
       <c r="M44" t="n">
-        <v>0.079</v>
-      </c>
-      <c r="N44"/>
-      <c r="O44"/>
+        <v>3.204</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.0414</v>
+      </c>
+      <c r="O44" t="n">
+        <v>24.2</v>
+      </c>
       <c r="P44" t="s">
         <v>53</v>
       </c>
@@ -5940,8 +5934,12 @@
       <c r="M45" t="n">
         <v>75.001</v>
       </c>
-      <c r="N45"/>
-      <c r="O45"/>
+      <c r="N45" t="n">
+        <v>0.0256</v>
+      </c>
+      <c r="O45" t="n">
+        <v>39.1</v>
+      </c>
       <c r="P45" t="s">
         <v>53</v>
       </c>
@@ -5963,7 +5961,7 @@
         <v>256</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>44665</v>
+        <v>44668</v>
       </c>
       <c r="D46" t="s">
         <v>257</v>
@@ -5973,31 +5971,31 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="H46" t="n">
-        <v>54089706</v>
+        <v>54110023</v>
       </c>
       <c r="I46" t="n">
-        <v>5043.539</v>
+        <v>5045.434</v>
       </c>
       <c r="J46" t="n">
-        <v>19019</v>
+        <v>4811</v>
       </c>
       <c r="K46" t="n">
-        <v>1.773</v>
+        <v>0.449</v>
       </c>
       <c r="L46" t="n">
-        <v>18749</v>
+        <v>15614</v>
       </c>
       <c r="M46" t="n">
-        <v>1.748</v>
+        <v>1.456</v>
       </c>
       <c r="N46" t="n">
-        <v>0.178</v>
+        <v>0.17</v>
       </c>
       <c r="O46" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="P46" t="s">
         <v>53</v>
@@ -6130,7 +6128,7 @@
         <v>271</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>44661</v>
+        <v>44669</v>
       </c>
       <c r="D49" t="s">
         <v>35</v>
@@ -6140,28 +6138,24 @@
       </c>
       <c r="F49"/>
       <c r="G49" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H49" t="n">
-        <v>300468</v>
+        <v>301567</v>
       </c>
       <c r="I49" t="n">
-        <v>299.809</v>
+        <v>300.906</v>
       </c>
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49" t="n">
-        <v>280</v>
+        <v>137</v>
       </c>
       <c r="M49" t="n">
-        <v>0.279</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="O49" t="n">
-        <v>490.4</v>
-      </c>
+        <v>0.137</v>
+      </c>
+      <c r="N49"/>
+      <c r="O49"/>
       <c r="P49" t="s">
         <v>36</v>
       </c>
@@ -6183,7 +6177,7 @@
         <v>274</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44657</v>
+        <v>44664</v>
       </c>
       <c r="D50" t="s">
         <v>275</v>
@@ -6193,27 +6187,27 @@
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H50" t="n">
-        <v>185863</v>
+        <v>187337</v>
       </c>
       <c r="I50" t="n">
-        <v>2575.279</v>
+        <v>2595.702</v>
       </c>
       <c r="J50"/>
       <c r="K50"/>
       <c r="L50" t="n">
-        <v>277</v>
+        <v>211</v>
       </c>
       <c r="M50" t="n">
-        <v>3.838</v>
+        <v>2.924</v>
       </c>
       <c r="N50" t="n">
-        <v>0.0299</v>
+        <v>0.0603</v>
       </c>
       <c r="O50" t="n">
-        <v>33.4</v>
+        <v>16.6</v>
       </c>
       <c r="P50" t="s">
         <v>276</v>
@@ -6293,7 +6287,7 @@
         <v>286</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44661</v>
+        <v>44665</v>
       </c>
       <c r="D52" t="s">
         <v>287</v>
@@ -6305,31 +6299,31 @@
         <v>289</v>
       </c>
       <c r="G52" t="n">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="H52" t="n">
-        <v>2680089</v>
+        <v>2692794</v>
       </c>
       <c r="I52" t="n">
-        <v>149.822</v>
+        <v>150.532</v>
       </c>
       <c r="J52" t="n">
-        <v>884</v>
+        <v>4672</v>
       </c>
       <c r="K52" t="n">
-        <v>0.049</v>
+        <v>0.261</v>
       </c>
       <c r="L52" t="n">
-        <v>3219</v>
+        <v>2910</v>
       </c>
       <c r="M52" t="n">
-        <v>0.18</v>
+        <v>0.163</v>
       </c>
       <c r="N52" t="n">
-        <v>0.136</v>
+        <v>0.13</v>
       </c>
       <c r="O52" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="P52" t="s">
         <v>290</v>
@@ -6560,7 +6554,7 @@
         <v>310</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44665</v>
+        <v>44668</v>
       </c>
       <c r="D57" t="s">
         <v>311</v>
@@ -6570,28 +6564,32 @@
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="H57" t="n">
-        <v>3308458</v>
+        <v>3313262</v>
       </c>
       <c r="I57" t="n">
-        <v>2496.595</v>
+        <v>2500.22</v>
       </c>
       <c r="J57" t="n">
-        <v>2762</v>
+        <v>1623</v>
       </c>
       <c r="K57" t="n">
-        <v>2.084</v>
+        <v>1.225</v>
       </c>
       <c r="L57" t="n">
-        <v>2925</v>
+        <v>2614</v>
       </c>
       <c r="M57" t="n">
-        <v>2.207</v>
-      </c>
-      <c r="N57"/>
-      <c r="O57"/>
+        <v>1.973</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.1876</v>
+      </c>
+      <c r="O57" t="n">
+        <v>5.3</v>
+      </c>
       <c r="P57" t="s">
         <v>312</v>
       </c>
@@ -6613,7 +6611,7 @@
         <v>315</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44661</v>
+        <v>44669</v>
       </c>
       <c r="D58" t="s">
         <v>35</v>
@@ -6623,28 +6621,24 @@
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H58" t="n">
-        <v>522740</v>
+        <v>525272</v>
       </c>
       <c r="I58" t="n">
-        <v>445.884</v>
+        <v>448.043</v>
       </c>
       <c r="J58"/>
       <c r="K58"/>
       <c r="L58" t="n">
-        <v>602</v>
+        <v>316</v>
       </c>
       <c r="M58" t="n">
-        <v>0.513</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0.0278</v>
-      </c>
-      <c r="O58" t="n">
-        <v>36</v>
-      </c>
+        <v>0.27</v>
+      </c>
+      <c r="N58"/>
+      <c r="O58"/>
       <c r="P58" t="s">
         <v>36</v>
       </c>
@@ -6666,7 +6660,7 @@
         <v>318</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44661</v>
+        <v>44669</v>
       </c>
       <c r="D59" t="s">
         <v>35</v>
@@ -6676,28 +6670,24 @@
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H59" t="n">
-        <v>4701084</v>
+        <v>4728446</v>
       </c>
       <c r="I59" t="n">
-        <v>39.882</v>
+        <v>40.114</v>
       </c>
       <c r="J59"/>
       <c r="K59"/>
       <c r="L59" t="n">
-        <v>4675</v>
+        <v>3420</v>
       </c>
       <c r="M59" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N59" t="n">
-        <v>0.0071</v>
-      </c>
-      <c r="O59" t="n">
-        <v>141.7</v>
-      </c>
+        <v>0.029</v>
+      </c>
+      <c r="N59"/>
+      <c r="O59"/>
       <c r="P59" t="s">
         <v>319</v>
       </c>
@@ -6772,7 +6762,7 @@
         <v>330</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>44665</v>
+        <v>44668</v>
       </c>
       <c r="D61" t="s">
         <v>331</v>
@@ -6782,21 +6772,21 @@
       </c>
       <c r="F61"/>
       <c r="G61" t="n">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H61" t="n">
-        <v>506199</v>
+        <v>506281</v>
       </c>
       <c r="I61" t="n">
-        <v>560.637</v>
+        <v>560.728</v>
       </c>
       <c r="J61"/>
       <c r="K61"/>
       <c r="L61" t="n">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="M61" t="n">
-        <v>0.07</v>
+        <v>0.053</v>
       </c>
       <c r="N61"/>
       <c r="O61"/>
@@ -6878,7 +6868,7 @@
         <v>343</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44662</v>
+        <v>44665</v>
       </c>
       <c r="D63" t="s">
         <v>344</v>
@@ -6888,28 +6878,28 @@
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="H63" t="n">
-        <v>264038488</v>
+        <v>265380484</v>
       </c>
       <c r="I63" t="n">
-        <v>3916.207</v>
+        <v>3936.111</v>
       </c>
       <c r="J63" t="n">
-        <v>612734</v>
+        <v>413411</v>
       </c>
       <c r="K63" t="n">
-        <v>9.088</v>
+        <v>6.132</v>
       </c>
       <c r="L63" t="n">
-        <v>439723</v>
+        <v>411153</v>
       </c>
       <c r="M63" t="n">
-        <v>6.522</v>
+        <v>6.098</v>
       </c>
       <c r="N63" t="n">
-        <v>0.322</v>
+        <v>0.32</v>
       </c>
       <c r="O63" t="n">
         <v>3.1</v>
@@ -6935,7 +6925,7 @@
         <v>348</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44661</v>
+        <v>44669</v>
       </c>
       <c r="D64" t="s">
         <v>35</v>
@@ -6945,28 +6935,24 @@
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H64" t="n">
-        <v>1589815</v>
+        <v>1591228</v>
       </c>
       <c r="I64" t="n">
-        <v>697.646</v>
+        <v>698.266</v>
       </c>
       <c r="J64"/>
       <c r="K64"/>
       <c r="L64" t="n">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="M64" t="n">
-        <v>0.072</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="O64" t="n">
-        <v>573.4</v>
-      </c>
+        <v>0.078</v>
+      </c>
+      <c r="N64"/>
+      <c r="O64"/>
       <c r="P64" t="s">
         <v>36</v>
       </c>
@@ -7071,8 +7057,12 @@
       <c r="M66" t="n">
         <v>0.877</v>
       </c>
-      <c r="N66"/>
-      <c r="O66"/>
+      <c r="N66" t="n">
+        <v>0.0706</v>
+      </c>
+      <c r="O66" t="n">
+        <v>14.2</v>
+      </c>
       <c r="P66" t="s">
         <v>359</v>
       </c>
@@ -7147,7 +7137,7 @@
         <v>369</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>44661</v>
+        <v>44669</v>
       </c>
       <c r="D68" t="s">
         <v>35</v>
@@ -7157,28 +7147,24 @@
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H68" t="n">
-        <v>2426051</v>
+        <v>2430490</v>
       </c>
       <c r="I68" t="n">
-        <v>76.454</v>
+        <v>76.594</v>
       </c>
       <c r="J68"/>
       <c r="K68"/>
       <c r="L68" t="n">
-        <v>645</v>
+        <v>555</v>
       </c>
       <c r="M68" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="N68" t="n">
-        <v>0.0171</v>
-      </c>
-      <c r="O68" t="n">
-        <v>58.6</v>
-      </c>
+        <v>0.017</v>
+      </c>
+      <c r="N68"/>
+      <c r="O68"/>
       <c r="P68" t="s">
         <v>36</v>
       </c>
@@ -7253,7 +7239,7 @@
         <v>377</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44665</v>
+        <v>44669</v>
       </c>
       <c r="D70" t="s">
         <v>378</v>
@@ -7263,21 +7249,21 @@
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H70" t="n">
-        <v>77364430</v>
+        <v>77990894</v>
       </c>
       <c r="I70" t="n">
-        <v>7459.871</v>
+        <v>7520.277</v>
       </c>
       <c r="J70"/>
       <c r="K70"/>
       <c r="L70" t="n">
-        <v>216895</v>
+        <v>180495</v>
       </c>
       <c r="M70" t="n">
-        <v>20.914</v>
+        <v>17.404</v>
       </c>
       <c r="N70"/>
       <c r="O70"/>
@@ -7355,7 +7341,7 @@
         <v>390</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>44661</v>
+        <v>44664</v>
       </c>
       <c r="D72" t="s">
         <v>391</v>
@@ -7365,31 +7351,31 @@
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="H72" t="n">
-        <v>281316</v>
+        <v>282366</v>
       </c>
       <c r="I72" t="n">
-        <v>1653.011</v>
+        <v>1659.181</v>
       </c>
       <c r="J72" t="n">
-        <v>100</v>
+        <v>302</v>
       </c>
       <c r="K72" t="n">
-        <v>0.588</v>
+        <v>1.775</v>
       </c>
       <c r="L72" t="n">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="M72" t="n">
-        <v>1.88</v>
+        <v>1.716</v>
       </c>
       <c r="N72" t="n">
-        <v>0.076</v>
+        <v>0.07</v>
       </c>
       <c r="O72" t="n">
-        <v>13.2</v>
+        <v>14.3</v>
       </c>
       <c r="P72" t="s">
         <v>392</v>
@@ -7522,7 +7508,7 @@
         <v>406</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44661</v>
+        <v>44669</v>
       </c>
       <c r="D75" t="s">
         <v>35</v>
@@ -7532,28 +7518,24 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H75" t="n">
-        <v>130662</v>
+        <v>131519</v>
       </c>
       <c r="I75" t="n">
-        <v>64.829</v>
+        <v>65.254</v>
       </c>
       <c r="J75"/>
       <c r="K75"/>
       <c r="L75" t="n">
-        <v>189</v>
+        <v>107</v>
       </c>
       <c r="M75" t="n">
-        <v>0.094</v>
-      </c>
-      <c r="N75" t="n">
-        <v>0.0166</v>
-      </c>
-      <c r="O75" t="n">
-        <v>60.1</v>
-      </c>
+        <v>0.053</v>
+      </c>
+      <c r="N75"/>
+      <c r="O75"/>
       <c r="P75" t="s">
         <v>36</v>
       </c>
@@ -7766,8 +7748,12 @@
       <c r="M79" t="n">
         <v>0.956</v>
       </c>
-      <c r="N79"/>
-      <c r="O79"/>
+      <c r="N79" t="n">
+        <v>0.2151</v>
+      </c>
+      <c r="O79" t="n">
+        <v>4.6</v>
+      </c>
       <c r="P79" t="s">
         <v>431</v>
       </c>
@@ -7842,7 +7828,7 @@
         <v>441</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>44665</v>
+        <v>44668</v>
       </c>
       <c r="D81" t="s">
         <v>442</v>
@@ -7854,28 +7840,32 @@
         <v>444</v>
       </c>
       <c r="G81" t="n">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="H81" t="n">
-        <v>830810157</v>
+        <v>831843406</v>
       </c>
       <c r="I81" t="n">
-        <v>596.243</v>
+        <v>596.984</v>
       </c>
       <c r="J81" t="n">
-        <v>35855632</v>
+        <v>365118</v>
       </c>
       <c r="K81" t="n">
-        <v>25.732</v>
+        <v>0.262</v>
       </c>
       <c r="L81" t="n">
-        <v>5471529</v>
+        <v>5427952</v>
       </c>
       <c r="M81" t="n">
-        <v>3.927</v>
-      </c>
-      <c r="N81"/>
-      <c r="O81"/>
+        <v>3.895</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="O81" t="n">
+        <v>4663.2</v>
+      </c>
       <c r="P81" t="s">
         <v>443</v>
       </c>
@@ -7954,7 +7944,7 @@
         <v>453</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44664</v>
+        <v>44669</v>
       </c>
       <c r="D83" t="s">
         <v>454</v>
@@ -7964,28 +7954,24 @@
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H83" t="n">
-        <v>50195632</v>
+        <v>50484026</v>
       </c>
       <c r="I83" t="n">
-        <v>590.337</v>
+        <v>593.729</v>
       </c>
       <c r="J83"/>
       <c r="K83"/>
       <c r="L83" t="n">
-        <v>59484</v>
+        <v>57719</v>
       </c>
       <c r="M83" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="N83" t="n">
-        <v>0.0477</v>
-      </c>
-      <c r="O83" t="n">
-        <v>21</v>
-      </c>
+        <v>0.679</v>
+      </c>
+      <c r="N83"/>
+      <c r="O83"/>
       <c r="P83" t="s">
         <v>456</v>
       </c>
@@ -8113,7 +8099,7 @@
         <v>468</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44665</v>
+        <v>44668</v>
       </c>
       <c r="D86" t="s">
         <v>469</v>
@@ -8123,31 +8109,31 @@
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="H86" t="n">
-        <v>49321915</v>
+        <v>49436058</v>
       </c>
       <c r="I86" t="n">
-        <v>5308.569</v>
+        <v>5320.854</v>
       </c>
       <c r="J86" t="n">
-        <v>55973</v>
+        <v>39608</v>
       </c>
       <c r="K86" t="n">
-        <v>6.024</v>
+        <v>4.263</v>
       </c>
       <c r="L86" t="n">
-        <v>51318</v>
+        <v>48936</v>
       </c>
       <c r="M86" t="n">
-        <v>5.523</v>
+        <v>5.267</v>
       </c>
       <c r="N86" t="n">
-        <v>0.11</v>
+        <v>0.093</v>
       </c>
       <c r="O86" t="n">
-        <v>9.1</v>
+        <v>10.8</v>
       </c>
       <c r="P86" t="s">
         <v>53</v>
@@ -8170,7 +8156,7 @@
         <v>474</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44665</v>
+        <v>44668</v>
       </c>
       <c r="D87" t="s">
         <v>475</v>
@@ -8182,28 +8168,32 @@
         <v>477</v>
       </c>
       <c r="G87" t="n">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="H87" t="n">
-        <v>208014099</v>
+        <v>209170287</v>
       </c>
       <c r="I87" t="n">
-        <v>3445.798</v>
+        <v>3464.95</v>
       </c>
       <c r="J87" t="n">
-        <v>438375</v>
+        <v>334224</v>
       </c>
       <c r="K87" t="n">
-        <v>7.262</v>
+        <v>5.536</v>
       </c>
       <c r="L87" t="n">
-        <v>406702</v>
+        <v>395765</v>
       </c>
       <c r="M87" t="n">
-        <v>6.737</v>
-      </c>
-      <c r="N87"/>
-      <c r="O87"/>
+        <v>6.556</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.1516</v>
+      </c>
+      <c r="O87" t="n">
+        <v>6.6</v>
+      </c>
       <c r="P87" t="s">
         <v>478</v>
       </c>
@@ -8225,7 +8215,7 @@
         <v>482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44664</v>
+        <v>44667</v>
       </c>
       <c r="D88" t="s">
         <v>483</v>
@@ -8235,31 +8225,31 @@
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="H88" t="n">
-        <v>959221</v>
+        <v>967084</v>
       </c>
       <c r="I88" t="n">
-        <v>322.594</v>
+        <v>325.238</v>
       </c>
       <c r="J88" t="n">
-        <v>2064</v>
+        <v>2798</v>
       </c>
       <c r="K88" t="n">
-        <v>0.694</v>
+        <v>0.941</v>
       </c>
       <c r="L88" t="n">
-        <v>2274</v>
+        <v>2577</v>
       </c>
       <c r="M88" t="n">
-        <v>0.765</v>
+        <v>0.867</v>
       </c>
       <c r="N88" t="n">
-        <v>0.0116</v>
+        <v>0.0128</v>
       </c>
       <c r="O88" t="n">
-        <v>86.5</v>
+        <v>78.1</v>
       </c>
       <c r="P88" t="s">
         <v>484</v>
@@ -8282,7 +8272,7 @@
         <v>488</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44665</v>
+        <v>44667</v>
       </c>
       <c r="D89" t="s">
         <v>489</v>
@@ -8292,28 +8282,32 @@
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="H89" t="n">
-        <v>43513239</v>
+        <v>43790575</v>
       </c>
       <c r="I89" t="n">
-        <v>345.204</v>
+        <v>347.404</v>
       </c>
       <c r="J89" t="n">
-        <v>169524</v>
+        <v>103641</v>
       </c>
       <c r="K89" t="n">
-        <v>1.345</v>
+        <v>0.822</v>
       </c>
       <c r="L89" t="n">
-        <v>129662</v>
+        <v>130093</v>
       </c>
       <c r="M89" t="n">
-        <v>1.029</v>
-      </c>
-      <c r="N89"/>
-      <c r="O89"/>
+        <v>1.032</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.3755</v>
+      </c>
+      <c r="O89" t="n">
+        <v>2.7</v>
+      </c>
       <c r="P89" t="s">
         <v>490</v>
       </c>
@@ -8335,7 +8329,7 @@
         <v>494</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44631</v>
+        <v>44666</v>
       </c>
       <c r="D90" t="s">
         <v>495</v>
@@ -8345,28 +8339,24 @@
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H90" t="n">
-        <v>16499905</v>
+        <v>16719174</v>
       </c>
       <c r="I90" t="n">
-        <v>1606.765</v>
+        <v>1628.117</v>
       </c>
       <c r="J90"/>
       <c r="K90"/>
       <c r="L90" t="n">
-        <v>18061</v>
+        <v>6265</v>
       </c>
       <c r="M90" t="n">
-        <v>1.759</v>
-      </c>
-      <c r="N90" t="n">
-        <v>0.1301</v>
-      </c>
-      <c r="O90" t="n">
-        <v>7.7</v>
-      </c>
+        <v>0.61</v>
+      </c>
+      <c r="N90"/>
+      <c r="O90"/>
       <c r="P90" t="s">
         <v>496</v>
       </c>
@@ -8445,7 +8435,7 @@
         <v>505</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44661</v>
+        <v>44669</v>
       </c>
       <c r="D92" t="s">
         <v>35</v>
@@ -8455,28 +8445,24 @@
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H92" t="n">
-        <v>3547755</v>
+        <v>3562960</v>
       </c>
       <c r="I92" t="n">
-        <v>64.521</v>
+        <v>64.798</v>
       </c>
       <c r="J92"/>
       <c r="K92"/>
       <c r="L92" t="n">
-        <v>3526</v>
+        <v>1901</v>
       </c>
       <c r="M92" t="n">
-        <v>0.064</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0.0035</v>
-      </c>
-      <c r="O92" t="n">
-        <v>283.7</v>
-      </c>
+        <v>0.035</v>
+      </c>
+      <c r="N92"/>
+      <c r="O92"/>
       <c r="P92" t="s">
         <v>36</v>
       </c>
@@ -8604,7 +8590,7 @@
         <v>520</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44666</v>
+        <v>44669</v>
       </c>
       <c r="D95" t="s">
         <v>521</v>
@@ -8614,25 +8600,25 @@
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H95" t="n">
-        <v>1017987</v>
+        <v>1019205</v>
       </c>
       <c r="I95" t="n">
-        <v>137.951</v>
+        <v>138.116</v>
       </c>
       <c r="J95" t="n">
-        <v>1350</v>
+        <v>1218</v>
       </c>
       <c r="K95" t="n">
-        <v>0.183</v>
+        <v>0.165</v>
       </c>
       <c r="L95" t="n">
-        <v>411</v>
+        <v>367</v>
       </c>
       <c r="M95" t="n">
-        <v>0.056</v>
+        <v>0.05</v>
       </c>
       <c r="N95"/>
       <c r="O95"/>
@@ -8657,7 +8643,7 @@
         <v>526</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>44666</v>
+        <v>44669</v>
       </c>
       <c r="D96" t="s">
         <v>527</v>
@@ -8669,25 +8655,25 @@
         <v>529</v>
       </c>
       <c r="G96" t="n">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="H96" t="n">
-        <v>7071932</v>
+        <v>7076544</v>
       </c>
       <c r="I96" t="n">
-        <v>3787.993</v>
+        <v>3790.463</v>
       </c>
       <c r="J96" t="n">
-        <v>4268</v>
+        <v>1233</v>
       </c>
       <c r="K96" t="n">
-        <v>2.286</v>
+        <v>0.66</v>
       </c>
       <c r="L96" t="n">
-        <v>4043</v>
+        <v>3496</v>
       </c>
       <c r="M96" t="n">
-        <v>2.166</v>
+        <v>1.873</v>
       </c>
       <c r="N96"/>
       <c r="O96"/>
@@ -8761,7 +8747,7 @@
         <v>537</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>44658</v>
+        <v>44669</v>
       </c>
       <c r="D98" t="s">
         <v>35</v>
@@ -8771,25 +8757,23 @@
       </c>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H98" t="n">
-        <v>435274</v>
+        <v>440602</v>
       </c>
       <c r="I98" t="n">
-        <v>201.603</v>
+        <v>204.071</v>
       </c>
       <c r="J98"/>
       <c r="K98"/>
       <c r="L98" t="n">
-        <v>716</v>
+        <v>484</v>
       </c>
       <c r="M98" t="n">
-        <v>0.332</v>
-      </c>
-      <c r="N98" t="n">
-        <v>0</v>
-      </c>
+        <v>0.224</v>
+      </c>
+      <c r="N98"/>
       <c r="O98"/>
       <c r="P98" t="s">
         <v>36</v>
@@ -8857,7 +8841,7 @@
         <v>543</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>44658</v>
+        <v>44665</v>
       </c>
       <c r="D100" t="s">
         <v>544</v>
@@ -8867,15 +8851,15 @@
       </c>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H100"/>
       <c r="I100"/>
       <c r="J100" t="n">
-        <v>1845</v>
+        <v>1757</v>
       </c>
       <c r="K100" t="n">
-        <v>0.265</v>
+        <v>0.252</v>
       </c>
       <c r="L100"/>
       <c r="M100"/>
@@ -8959,7 +8943,7 @@
         <v>555</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>44661</v>
+        <v>44668</v>
       </c>
       <c r="D102" t="s">
         <v>556</v>
@@ -8969,31 +8953,31 @@
       </c>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="H102" t="n">
-        <v>8543357</v>
+        <v>8587714</v>
       </c>
       <c r="I102" t="n">
-        <v>3176.132</v>
+        <v>3192.623</v>
       </c>
       <c r="J102" t="n">
-        <v>3388</v>
+        <v>2716</v>
       </c>
       <c r="K102" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="L102" t="n">
-        <v>7171</v>
+        <v>6268</v>
       </c>
       <c r="M102" t="n">
-        <v>2.666</v>
+        <v>2.33</v>
       </c>
       <c r="N102" t="n">
-        <v>0.254</v>
+        <v>0.22</v>
       </c>
       <c r="O102" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="P102" t="s">
         <v>557</v>
@@ -9016,7 +9000,7 @@
         <v>560</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44664</v>
+        <v>44665</v>
       </c>
       <c r="D103" t="s">
         <v>561</v>
@@ -9026,31 +9010,31 @@
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H103" t="n">
-        <v>4198150</v>
+        <v>4200517</v>
       </c>
       <c r="I103" t="n">
-        <v>6613.197</v>
+        <v>6616.926</v>
       </c>
       <c r="J103" t="n">
-        <v>2750</v>
+        <v>2367</v>
       </c>
       <c r="K103" t="n">
-        <v>4.332</v>
+        <v>3.729</v>
       </c>
       <c r="L103" t="n">
-        <v>2357</v>
+        <v>2276</v>
       </c>
       <c r="M103" t="n">
-        <v>3.713</v>
+        <v>3.585</v>
       </c>
       <c r="N103" t="n">
-        <v>0.347</v>
+        <v>0.354</v>
       </c>
       <c r="O103" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P103" t="s">
         <v>562</v>
@@ -9126,7 +9110,7 @@
         <v>568</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44661</v>
+        <v>44669</v>
       </c>
       <c r="D105" t="s">
         <v>35</v>
@@ -9136,28 +9120,24 @@
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H105" t="n">
-        <v>566101</v>
+        <v>568690</v>
       </c>
       <c r="I105" t="n">
-        <v>28.813</v>
+        <v>28.944</v>
       </c>
       <c r="J105"/>
       <c r="K105"/>
       <c r="L105" t="n">
-        <v>468</v>
+        <v>324</v>
       </c>
       <c r="M105" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="N105" t="n">
-        <v>0.0119</v>
-      </c>
-      <c r="O105" t="n">
-        <v>84</v>
-      </c>
+        <v>0.016</v>
+      </c>
+      <c r="N105"/>
+      <c r="O105"/>
       <c r="P105" t="s">
         <v>36</v>
       </c>
@@ -9179,7 +9159,7 @@
         <v>571</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44663</v>
+        <v>44664</v>
       </c>
       <c r="D106" t="s">
         <v>572</v>
@@ -9191,28 +9171,28 @@
         <v>574</v>
       </c>
       <c r="G106" t="n">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H106" t="n">
-        <v>57647844</v>
+        <v>57725182</v>
       </c>
       <c r="I106" t="n">
-        <v>1758.833</v>
+        <v>1761.192</v>
       </c>
       <c r="J106" t="n">
-        <v>80374</v>
+        <v>77338</v>
       </c>
       <c r="K106" t="n">
-        <v>2.452</v>
+        <v>2.36</v>
       </c>
       <c r="L106" t="n">
-        <v>81816</v>
+        <v>79124</v>
       </c>
       <c r="M106" t="n">
-        <v>2.496</v>
+        <v>2.414</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1293</v>
+        <v>0.13</v>
       </c>
       <c r="O106" t="n">
         <v>7.7</v>
@@ -9295,7 +9275,7 @@
         <v>584</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44661</v>
+        <v>44669</v>
       </c>
       <c r="D108" t="s">
         <v>35</v>
@@ -9305,28 +9285,24 @@
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H108" t="n">
-        <v>666071</v>
+        <v>671332</v>
       </c>
       <c r="I108" t="n">
-        <v>31.937</v>
+        <v>32.189</v>
       </c>
       <c r="J108"/>
       <c r="K108"/>
       <c r="L108" t="n">
-        <v>863</v>
+        <v>658</v>
       </c>
       <c r="M108" t="n">
-        <v>0.041</v>
-      </c>
-      <c r="N108" t="n">
-        <v>0.0118</v>
-      </c>
-      <c r="O108" t="n">
-        <v>85.1</v>
-      </c>
+        <v>0.032</v>
+      </c>
+      <c r="N108"/>
+      <c r="O108"/>
       <c r="P108" t="s">
         <v>36</v>
       </c>
@@ -9348,7 +9324,7 @@
         <v>587</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44666</v>
+        <v>44669</v>
       </c>
       <c r="D109" t="s">
         <v>588</v>
@@ -9358,25 +9334,25 @@
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="H109" t="n">
-        <v>1853069</v>
+        <v>1859492</v>
       </c>
       <c r="I109" t="n">
-        <v>3590.523</v>
+        <v>3602.968</v>
       </c>
       <c r="J109" t="n">
-        <v>2706</v>
+        <v>1949</v>
       </c>
       <c r="K109" t="n">
-        <v>5.243</v>
+        <v>3.776</v>
       </c>
       <c r="L109" t="n">
-        <v>3006</v>
+        <v>2607</v>
       </c>
       <c r="M109" t="n">
-        <v>5.824</v>
+        <v>5.051</v>
       </c>
       <c r="N109"/>
       <c r="O109"/>
@@ -9456,7 +9432,7 @@
         <v>597</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44661</v>
+        <v>44669</v>
       </c>
       <c r="D111" t="s">
         <v>35</v>
@@ -9466,28 +9442,24 @@
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H111" t="n">
-        <v>918770</v>
+        <v>921994</v>
       </c>
       <c r="I111" t="n">
-        <v>192.408</v>
+        <v>193.083</v>
       </c>
       <c r="J111"/>
       <c r="K111"/>
       <c r="L111" t="n">
-        <v>160</v>
+        <v>403</v>
       </c>
       <c r="M111" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="N111" t="n">
-        <v>0.0357</v>
-      </c>
-      <c r="O111" t="n">
-        <v>28</v>
-      </c>
+        <v>0.084</v>
+      </c>
+      <c r="N111"/>
+      <c r="O111"/>
       <c r="P111" t="s">
         <v>598</v>
       </c>
@@ -9554,7 +9526,7 @@
         <v>605</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44663</v>
+        <v>44667</v>
       </c>
       <c r="D113" t="s">
         <v>606</v>
@@ -9564,31 +9536,31 @@
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="H113" t="n">
-        <v>15009676</v>
+        <v>15027329</v>
       </c>
       <c r="I113" t="n">
-        <v>115.227</v>
+        <v>115.362</v>
       </c>
       <c r="J113" t="n">
-        <v>3233</v>
+        <v>376</v>
       </c>
       <c r="K113" t="n">
-        <v>0.025</v>
+        <v>0.003</v>
       </c>
       <c r="L113" t="n">
-        <v>4198</v>
+        <v>2760</v>
       </c>
       <c r="M113" t="n">
-        <v>0.032</v>
+        <v>0.021</v>
       </c>
       <c r="N113" t="n">
-        <v>0.08</v>
+        <v>0.102</v>
       </c>
       <c r="O113" t="n">
-        <v>12.5</v>
+        <v>9.8</v>
       </c>
       <c r="P113" t="s">
         <v>608</v>
@@ -9682,8 +9654,12 @@
       <c r="M115" t="n">
         <v>0.981</v>
       </c>
-      <c r="N115"/>
-      <c r="O115"/>
+      <c r="N115" t="n">
+        <v>0.0109</v>
+      </c>
+      <c r="O115" t="n">
+        <v>91.8</v>
+      </c>
       <c r="P115" t="s">
         <v>53</v>
       </c>
@@ -9705,7 +9681,7 @@
         <v>623</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44665</v>
+        <v>44668</v>
       </c>
       <c r="D116" t="s">
         <v>624</v>
@@ -9715,24 +9691,28 @@
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H116" t="n">
-        <v>11359870</v>
+        <v>11377550</v>
       </c>
       <c r="I116" t="n">
-        <v>304.189</v>
+        <v>304.662</v>
       </c>
       <c r="J116"/>
       <c r="K116"/>
       <c r="L116" t="n">
-        <v>5633</v>
+        <v>5776</v>
       </c>
       <c r="M116" t="n">
-        <v>0.151</v>
-      </c>
-      <c r="N116"/>
-      <c r="O116"/>
+        <v>0.155</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.0087</v>
+      </c>
+      <c r="O116" t="n">
+        <v>115.2</v>
+      </c>
       <c r="P116" t="s">
         <v>625</v>
       </c>
@@ -9754,7 +9734,7 @@
         <v>629</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44661</v>
+        <v>44669</v>
       </c>
       <c r="D117" t="s">
         <v>35</v>
@@ -9764,28 +9744,24 @@
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H117" t="n">
-        <v>1301946</v>
+        <v>1306062</v>
       </c>
       <c r="I117" t="n">
-        <v>40.48</v>
+        <v>40.608</v>
       </c>
       <c r="J117"/>
       <c r="K117"/>
       <c r="L117" t="n">
-        <v>633</v>
+        <v>514</v>
       </c>
       <c r="M117" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="N117" t="n">
-        <v>0.0061</v>
-      </c>
-      <c r="O117" t="n">
-        <v>164.1</v>
-      </c>
+        <v>0.016</v>
+      </c>
+      <c r="N117"/>
+      <c r="O117"/>
       <c r="P117" t="s">
         <v>36</v>
       </c>
@@ -9807,7 +9783,7 @@
         <v>632</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44665</v>
+        <v>44667</v>
       </c>
       <c r="D118" t="s">
         <v>633</v>
@@ -9817,24 +9793,28 @@
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H118" t="n">
-        <v>7811554</v>
+        <v>7828510</v>
       </c>
       <c r="I118" t="n">
-        <v>142.531</v>
+        <v>142.84</v>
       </c>
       <c r="J118"/>
       <c r="K118"/>
       <c r="L118" t="n">
-        <v>9300</v>
+        <v>8334</v>
       </c>
       <c r="M118" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="N118"/>
-      <c r="O118"/>
+        <v>0.152</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.0046</v>
+      </c>
+      <c r="O118" t="n">
+        <v>218.5</v>
+      </c>
       <c r="P118" t="s">
         <v>634</v>
       </c>
@@ -9856,7 +9836,7 @@
         <v>638</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44661</v>
+        <v>44669</v>
       </c>
       <c r="D119" t="s">
         <v>35</v>
@@ -9866,28 +9846,24 @@
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H119" t="n">
-        <v>990120</v>
+        <v>995110</v>
       </c>
       <c r="I119" t="n">
-        <v>382.678</v>
+        <v>384.607</v>
       </c>
       <c r="J119"/>
       <c r="K119"/>
       <c r="L119" t="n">
-        <v>698</v>
+        <v>624</v>
       </c>
       <c r="M119" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="N119" t="n">
-        <v>0.0512</v>
-      </c>
-      <c r="O119" t="n">
-        <v>19.5</v>
-      </c>
+        <v>0.241</v>
+      </c>
+      <c r="N119"/>
+      <c r="O119"/>
       <c r="P119" t="s">
         <v>639</v>
       </c>
@@ -9909,7 +9885,7 @@
         <v>643</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>44666</v>
+        <v>44669</v>
       </c>
       <c r="D120" t="s">
         <v>644</v>
@@ -9919,27 +9895,27 @@
       </c>
       <c r="F120"/>
       <c r="G120" t="n">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H120" t="n">
-        <v>6739954</v>
+        <v>6752177</v>
       </c>
       <c r="I120" t="n">
-        <v>227.126</v>
+        <v>227.538</v>
       </c>
       <c r="J120"/>
       <c r="K120"/>
       <c r="L120" t="n">
-        <v>4011</v>
+        <v>4037</v>
       </c>
       <c r="M120" t="n">
-        <v>0.135</v>
+        <v>0.136</v>
       </c>
       <c r="N120" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
       <c r="O120" t="n">
-        <v>166.7</v>
+        <v>250</v>
       </c>
       <c r="P120" t="s">
         <v>645</v>
@@ -9962,7 +9938,7 @@
         <v>649</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>44663</v>
+        <v>44664</v>
       </c>
       <c r="D121" t="s">
         <v>650</v>
@@ -9972,31 +9948,31 @@
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H121" t="n">
-        <v>30502136</v>
+        <v>30508980</v>
       </c>
       <c r="I121" t="n">
-        <v>1776.158</v>
+        <v>1776.557</v>
       </c>
       <c r="J121" t="n">
-        <v>7175</v>
+        <v>6844</v>
       </c>
       <c r="K121" t="n">
-        <v>0.418</v>
+        <v>0.399</v>
       </c>
       <c r="L121" t="n">
-        <v>12221</v>
+        <v>10515</v>
       </c>
       <c r="M121" t="n">
-        <v>0.712</v>
+        <v>0.612</v>
       </c>
       <c r="N121" t="n">
-        <v>0.607</v>
+        <v>0.602</v>
       </c>
       <c r="O121" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="P121" t="s">
         <v>651</v>
@@ -10019,7 +9995,7 @@
         <v>655</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44666</v>
+        <v>44669</v>
       </c>
       <c r="D122" t="s">
         <v>656</v>
@@ -10029,21 +10005,21 @@
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H122" t="n">
-        <v>6966982</v>
+        <v>6971077</v>
       </c>
       <c r="I122" t="n">
-        <v>1359.066</v>
+        <v>1359.865</v>
       </c>
       <c r="J122"/>
       <c r="K122"/>
       <c r="L122" t="n">
-        <v>2575</v>
+        <v>2387</v>
       </c>
       <c r="M122" t="n">
-        <v>0.502</v>
+        <v>0.466</v>
       </c>
       <c r="N122"/>
       <c r="O122"/>
@@ -10121,7 +10097,7 @@
         <v>665</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>44661</v>
+        <v>44669</v>
       </c>
       <c r="D124" t="s">
         <v>35</v>
@@ -10131,28 +10107,24 @@
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H124" t="n">
-        <v>243301</v>
+        <v>246945</v>
       </c>
       <c r="I124" t="n">
-        <v>9.681</v>
+        <v>9.826</v>
       </c>
       <c r="J124"/>
       <c r="K124"/>
       <c r="L124" t="n">
-        <v>288</v>
+        <v>456</v>
       </c>
       <c r="M124" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="N124" t="n">
-        <v>0.0055</v>
-      </c>
-      <c r="O124" t="n">
-        <v>183.3</v>
-      </c>
+        <v>0.018</v>
+      </c>
+      <c r="N124"/>
+      <c r="O124"/>
       <c r="P124" t="s">
         <v>36</v>
       </c>
@@ -10174,7 +10146,7 @@
         <v>668</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44658</v>
+        <v>44669</v>
       </c>
       <c r="D125" t="s">
         <v>35</v>
@@ -10184,28 +10156,24 @@
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H125" t="n">
-        <v>4906535</v>
+        <v>4977858</v>
       </c>
       <c r="I125" t="n">
-        <v>23.21</v>
+        <v>23.547</v>
       </c>
       <c r="J125"/>
       <c r="K125"/>
       <c r="L125" t="n">
-        <v>11318</v>
+        <v>6484</v>
       </c>
       <c r="M125" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="N125" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="O125" t="n">
-        <v>495.2</v>
-      </c>
+        <v>0.031</v>
+      </c>
+      <c r="N125"/>
+      <c r="O125"/>
       <c r="P125" t="s">
         <v>669</v>
       </c>
@@ -10227,7 +10195,7 @@
         <v>673</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>44665</v>
+        <v>44669</v>
       </c>
       <c r="D126" t="s">
         <v>674</v>
@@ -10237,21 +10205,21 @@
       </c>
       <c r="F126"/>
       <c r="G126" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H126" t="n">
-        <v>1990996</v>
+        <v>1997169</v>
       </c>
       <c r="I126" t="n">
-        <v>955.987</v>
+        <v>958.951</v>
       </c>
       <c r="J126"/>
       <c r="K126"/>
       <c r="L126" t="n">
-        <v>2032</v>
+        <v>1811</v>
       </c>
       <c r="M126" t="n">
-        <v>0.976</v>
+        <v>0.87</v>
       </c>
       <c r="N126"/>
       <c r="O126"/>
@@ -10333,7 +10301,7 @@
         <v>681</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44664</v>
+        <v>44668</v>
       </c>
       <c r="D128" t="s">
         <v>682</v>
@@ -10343,31 +10311,31 @@
       </c>
       <c r="F128"/>
       <c r="G128" t="n">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="H128" t="n">
-        <v>11052826</v>
+        <v>11056745</v>
       </c>
       <c r="I128" t="n">
-        <v>2022.242</v>
+        <v>2022.959</v>
       </c>
       <c r="J128" t="n">
-        <v>1625</v>
+        <v>638</v>
       </c>
       <c r="K128" t="n">
-        <v>0.297</v>
+        <v>0.117</v>
       </c>
       <c r="L128" t="n">
-        <v>2541</v>
+        <v>1675</v>
       </c>
       <c r="M128" t="n">
-        <v>0.465</v>
+        <v>0.306</v>
       </c>
       <c r="N128" t="n">
-        <v>0.262</v>
+        <v>0.144</v>
       </c>
       <c r="O128" t="n">
-        <v>3.8</v>
+        <v>6.9</v>
       </c>
       <c r="P128" t="s">
         <v>683</v>
@@ -10439,7 +10407,7 @@
         <v>688</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>44666</v>
+        <v>44669</v>
       </c>
       <c r="D130" t="s">
         <v>689</v>
@@ -10449,21 +10417,21 @@
       </c>
       <c r="F130"/>
       <c r="G130" t="n">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H130" t="n">
-        <v>27830633</v>
+        <v>27926021</v>
       </c>
       <c r="I130" t="n">
-        <v>123.582</v>
+        <v>124.005</v>
       </c>
       <c r="J130"/>
       <c r="K130"/>
       <c r="L130" t="n">
-        <v>20109</v>
+        <v>23272</v>
       </c>
       <c r="M130" t="n">
-        <v>0.089</v>
+        <v>0.103</v>
       </c>
       <c r="N130"/>
       <c r="O130"/>
@@ -10488,7 +10456,7 @@
         <v>693</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>44661</v>
+        <v>44668</v>
       </c>
       <c r="D131" t="s">
         <v>694</v>
@@ -10498,15 +10466,15 @@
       </c>
       <c r="F131"/>
       <c r="G131" t="n">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H131"/>
       <c r="I131"/>
       <c r="J131" t="n">
-        <v>4237</v>
+        <v>3045</v>
       </c>
       <c r="K131" t="n">
-        <v>0.811</v>
+        <v>0.583</v>
       </c>
       <c r="L131"/>
       <c r="M131"/>
@@ -10533,7 +10501,7 @@
         <v>699</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>44664</v>
+        <v>44668</v>
       </c>
       <c r="D132" t="s">
         <v>700</v>
@@ -10543,31 +10511,31 @@
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="H132" t="n">
-        <v>5770197</v>
+        <v>5786752</v>
       </c>
       <c r="I132" t="n">
-        <v>1316.921</v>
+        <v>1320.699</v>
       </c>
       <c r="J132" t="n">
-        <v>6554</v>
+        <v>3951</v>
       </c>
       <c r="K132" t="n">
-        <v>1.496</v>
+        <v>0.902</v>
       </c>
       <c r="L132" t="n">
-        <v>5419</v>
+        <v>4757</v>
       </c>
       <c r="M132" t="n">
-        <v>1.237</v>
+        <v>1.086</v>
       </c>
       <c r="N132" t="n">
-        <v>0.0502</v>
+        <v>0.0559</v>
       </c>
       <c r="O132" t="n">
-        <v>19.9</v>
+        <v>17.9</v>
       </c>
       <c r="P132" t="s">
         <v>701</v>
@@ -10743,7 +10711,7 @@
         <v>722</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>44652</v>
+        <v>44659</v>
       </c>
       <c r="D136" t="s">
         <v>723</v>
@@ -10753,31 +10721,31 @@
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="H136" t="n">
-        <v>27289560</v>
+        <v>27428880</v>
       </c>
       <c r="I136" t="n">
-        <v>245.748</v>
+        <v>247.003</v>
       </c>
       <c r="J136" t="n">
-        <v>20030</v>
+        <v>19712</v>
       </c>
       <c r="K136" t="n">
-        <v>0.18</v>
+        <v>0.178</v>
       </c>
       <c r="L136" t="n">
-        <v>20857</v>
+        <v>19717</v>
       </c>
       <c r="M136" t="n">
-        <v>0.188</v>
+        <v>0.178</v>
       </c>
       <c r="N136" t="n">
-        <v>0.0162</v>
+        <v>0.016</v>
       </c>
       <c r="O136" t="n">
-        <v>61.7</v>
+        <v>62.6</v>
       </c>
       <c r="P136" t="s">
         <v>424</v>
@@ -10853,7 +10821,7 @@
         <v>734</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>44664</v>
+        <v>44667</v>
       </c>
       <c r="D138" t="s">
         <v>735</v>
@@ -10863,32 +10831,28 @@
       </c>
       <c r="F138"/>
       <c r="G138" t="n">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="H138" t="n">
-        <v>40628701</v>
+        <v>40733478</v>
       </c>
       <c r="I138" t="n">
-        <v>3995.772</v>
+        <v>4006.077</v>
       </c>
       <c r="J138" t="n">
-        <v>46203</v>
+        <v>32670</v>
       </c>
       <c r="K138" t="n">
-        <v>4.544</v>
+        <v>3.213</v>
       </c>
       <c r="L138" t="n">
-        <v>41483</v>
+        <v>38404</v>
       </c>
       <c r="M138" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="N138" t="n">
-        <v>0.2419</v>
-      </c>
-      <c r="O138" t="n">
-        <v>4.1</v>
-      </c>
+        <v>3.777</v>
+      </c>
+      <c r="N138"/>
+      <c r="O138"/>
       <c r="P138" t="s">
         <v>736</v>
       </c>
@@ -10910,7 +10874,7 @@
         <v>739</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>44662</v>
+        <v>44664</v>
       </c>
       <c r="D139" t="s">
         <v>391</v>
@@ -10920,25 +10884,25 @@
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="H139" t="n">
-        <v>2668185</v>
+        <v>2689280</v>
       </c>
       <c r="I139" t="n">
-        <v>943.406</v>
+        <v>950.865</v>
       </c>
       <c r="J139" t="n">
-        <v>1357</v>
+        <v>3630</v>
       </c>
       <c r="K139" t="n">
-        <v>0.48</v>
+        <v>1.283</v>
       </c>
       <c r="L139" t="n">
-        <v>2477</v>
+        <v>2983</v>
       </c>
       <c r="M139" t="n">
-        <v>0.876</v>
+        <v>1.055</v>
       </c>
       <c r="N139"/>
       <c r="O139"/>
@@ -10963,7 +10927,7 @@
         <v>742</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>44665</v>
+        <v>44668</v>
       </c>
       <c r="D140" t="s">
         <v>743</v>
@@ -10973,25 +10937,25 @@
       </c>
       <c r="F140"/>
       <c r="G140" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="H140" t="n">
-        <v>6612365</v>
+        <v>6648219</v>
       </c>
       <c r="I140" t="n">
-        <v>2256.376</v>
+        <v>2268.611</v>
       </c>
       <c r="J140" t="n">
-        <v>13592</v>
+        <v>14232</v>
       </c>
       <c r="K140" t="n">
-        <v>4.638</v>
+        <v>4.856</v>
       </c>
       <c r="L140" t="n">
-        <v>13666</v>
+        <v>12989</v>
       </c>
       <c r="M140" t="n">
-        <v>4.663</v>
+        <v>4.432</v>
       </c>
       <c r="N140"/>
       <c r="O140"/>
@@ -11069,7 +11033,7 @@
         <v>752</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>44665</v>
+        <v>44668</v>
       </c>
       <c r="D142" t="s">
         <v>753</v>
@@ -11079,24 +11043,28 @@
       </c>
       <c r="F142"/>
       <c r="G142" t="n">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H142" t="n">
-        <v>287543270</v>
+        <v>288248763</v>
       </c>
       <c r="I142" t="n">
-        <v>1970.662</v>
+        <v>1975.497</v>
       </c>
       <c r="J142"/>
       <c r="K142"/>
       <c r="L142" t="n">
-        <v>190718</v>
+        <v>200500</v>
       </c>
       <c r="M142" t="n">
-        <v>1.307</v>
-      </c>
-      <c r="N142"/>
-      <c r="O142"/>
+        <v>1.374</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0.0551</v>
+      </c>
+      <c r="O142" t="n">
+        <v>18.1</v>
+      </c>
       <c r="P142" t="s">
         <v>754</v>
       </c>
@@ -11118,7 +11086,7 @@
         <v>758</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>44666</v>
+        <v>44669</v>
       </c>
       <c r="D143" t="s">
         <v>759</v>
@@ -11128,25 +11096,25 @@
       </c>
       <c r="F143"/>
       <c r="G143" t="n">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="H143" t="n">
-        <v>5182712</v>
+        <v>5196697</v>
       </c>
       <c r="I143" t="n">
-        <v>390.367</v>
+        <v>391.42</v>
       </c>
       <c r="J143" t="n">
-        <v>4578</v>
+        <v>3416</v>
       </c>
       <c r="K143" t="n">
-        <v>0.345</v>
+        <v>0.257</v>
       </c>
       <c r="L143" t="n">
-        <v>3709</v>
+        <v>4266</v>
       </c>
       <c r="M143" t="n">
-        <v>0.279</v>
+        <v>0.321</v>
       </c>
       <c r="N143"/>
       <c r="O143"/>
@@ -11197,8 +11165,12 @@
       <c r="M144" t="n">
         <v>1.233</v>
       </c>
-      <c r="N144"/>
-      <c r="O144"/>
+      <c r="N144" t="n">
+        <v>0.0065</v>
+      </c>
+      <c r="O144" t="n">
+        <v>153.8</v>
+      </c>
       <c r="P144" t="s">
         <v>53</v>
       </c>
@@ -11220,7 +11192,7 @@
         <v>769</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>44662</v>
+        <v>44666</v>
       </c>
       <c r="D145" t="s">
         <v>770</v>
@@ -11230,31 +11202,27 @@
       </c>
       <c r="F145"/>
       <c r="G145" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H145" t="n">
-        <v>141332</v>
+        <v>141628</v>
       </c>
       <c r="I145" t="n">
-        <v>766.438</v>
-      </c>
-      <c r="J145" t="n">
-        <v>117</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.634</v>
-      </c>
+        <v>768.044</v>
+      </c>
+      <c r="J145"/>
+      <c r="K145"/>
       <c r="L145" t="n">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="M145" t="n">
-        <v>0.488</v>
+        <v>0.548</v>
       </c>
       <c r="N145" t="n">
-        <v>0.127</v>
+        <v>0.0566</v>
       </c>
       <c r="O145" t="n">
-        <v>7.9</v>
+        <v>17.7</v>
       </c>
       <c r="P145" t="s">
         <v>92</v>
@@ -11330,7 +11298,7 @@
         <v>780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>44665</v>
+        <v>44668</v>
       </c>
       <c r="D147" t="s">
         <v>781</v>
@@ -11340,28 +11308,32 @@
       </c>
       <c r="F147"/>
       <c r="G147" t="n">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="H147" t="n">
-        <v>41727951</v>
+        <v>41759263</v>
       </c>
       <c r="I147" t="n">
-        <v>1180.734</v>
+        <v>1181.62</v>
       </c>
       <c r="J147" t="n">
-        <v>11476</v>
+        <v>11868</v>
       </c>
       <c r="K147" t="n">
-        <v>0.325</v>
+        <v>0.336</v>
       </c>
       <c r="L147" t="n">
-        <v>12016</v>
+        <v>11229</v>
       </c>
       <c r="M147" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="N147"/>
-      <c r="O147"/>
+        <v>0.318</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0.0097</v>
+      </c>
+      <c r="O147" t="n">
+        <v>103.6</v>
+      </c>
       <c r="P147" t="s">
         <v>53</v>
       </c>
@@ -11383,7 +11355,7 @@
         <v>784</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>44665</v>
+        <v>44669</v>
       </c>
       <c r="D148" t="s">
         <v>785</v>
@@ -11393,22 +11365,22 @@
       </c>
       <c r="F148"/>
       <c r="G148" t="n">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="H148" t="n">
-        <v>1085151</v>
+        <v>1088864</v>
       </c>
       <c r="I148" t="n">
-        <v>63.104</v>
+        <v>63.32</v>
       </c>
       <c r="J148" t="n">
-        <v>729</v>
+        <v>935</v>
       </c>
       <c r="K148" t="n">
-        <v>0.042</v>
+        <v>0.054</v>
       </c>
       <c r="L148" t="n">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="M148" t="n">
         <v>0.049</v>
@@ -11436,7 +11408,7 @@
         <v>789</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>44665</v>
+        <v>44668</v>
       </c>
       <c r="D149" t="s">
         <v>790</v>
@@ -11448,28 +11420,32 @@
         <v>791</v>
       </c>
       <c r="G149" t="n">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="H149" t="n">
-        <v>9350216</v>
+        <v>9373088</v>
       </c>
       <c r="I149" t="n">
-        <v>1360.715</v>
+        <v>1364.043</v>
       </c>
       <c r="J149" t="n">
-        <v>11521</v>
+        <v>5657</v>
       </c>
       <c r="K149" t="n">
-        <v>1.677</v>
+        <v>0.823</v>
       </c>
       <c r="L149" t="n">
-        <v>10702</v>
+        <v>10079</v>
       </c>
       <c r="M149" t="n">
-        <v>1.557</v>
-      </c>
-      <c r="N149"/>
-      <c r="O149"/>
+        <v>1.467</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0.0931</v>
+      </c>
+      <c r="O149" t="n">
+        <v>10.7</v>
+      </c>
       <c r="P149" t="s">
         <v>53</v>
       </c>
@@ -11656,7 +11632,7 @@
         <v>809</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>44665</v>
+        <v>44668</v>
       </c>
       <c r="D153" t="s">
         <v>810</v>
@@ -11668,31 +11644,31 @@
         <v>812</v>
       </c>
       <c r="G153" t="n">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="H153" t="n">
-        <v>4968841</v>
+        <v>4985853</v>
       </c>
       <c r="I153" t="n">
-        <v>2390.333</v>
+        <v>2398.517</v>
       </c>
       <c r="J153" t="n">
-        <v>9028</v>
+        <v>2332</v>
       </c>
       <c r="K153" t="n">
-        <v>4.343</v>
+        <v>1.122</v>
       </c>
       <c r="L153" t="n">
-        <v>9752</v>
+        <v>9065</v>
       </c>
       <c r="M153" t="n">
-        <v>4.691</v>
+        <v>4.361</v>
       </c>
       <c r="N153" t="n">
-        <v>0.151</v>
+        <v>0.148</v>
       </c>
       <c r="O153" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="P153" t="s">
         <v>813</v>
@@ -11760,7 +11736,7 @@
         <v>819</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>44665</v>
+        <v>44668</v>
       </c>
       <c r="D155" t="s">
         <v>820</v>
@@ -11772,28 +11748,32 @@
         <v>822</v>
       </c>
       <c r="G155" t="n">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="H155" t="n">
-        <v>24139799</v>
+        <v>24189010</v>
       </c>
       <c r="I155" t="n">
-        <v>402.049</v>
+        <v>402.868</v>
       </c>
       <c r="J155" t="n">
-        <v>23385</v>
+        <v>9884</v>
       </c>
       <c r="K155" t="n">
-        <v>0.389</v>
+        <v>0.165</v>
       </c>
       <c r="L155" t="n">
-        <v>20488</v>
+        <v>18408</v>
       </c>
       <c r="M155" t="n">
-        <v>0.341</v>
-      </c>
-      <c r="N155"/>
-      <c r="O155"/>
+        <v>0.307</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0.071</v>
+      </c>
+      <c r="O155" t="n">
+        <v>14.1</v>
+      </c>
       <c r="P155" t="s">
         <v>823</v>
       </c>
@@ -11815,7 +11795,7 @@
         <v>826</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>44665</v>
+        <v>44668</v>
       </c>
       <c r="D156" t="s">
         <v>827</v>
@@ -11827,28 +11807,32 @@
         <v>829</v>
       </c>
       <c r="G156" t="n">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="H156" t="n">
-        <v>91803591</v>
+        <v>92405644</v>
       </c>
       <c r="I156" t="n">
-        <v>1789.363</v>
+        <v>1801.098</v>
       </c>
       <c r="J156" t="n">
-        <v>210605</v>
+        <v>107125</v>
       </c>
       <c r="K156" t="n">
-        <v>4.105</v>
+        <v>2.088</v>
       </c>
       <c r="L156" t="n">
-        <v>278886</v>
+        <v>239924</v>
       </c>
       <c r="M156" t="n">
-        <v>5.436</v>
-      </c>
-      <c r="N156"/>
-      <c r="O156"/>
+        <v>4.676</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0.5531</v>
+      </c>
+      <c r="O156" t="n">
+        <v>1.8</v>
+      </c>
       <c r="P156" t="s">
         <v>830</v>
       </c>
@@ -11870,7 +11854,7 @@
         <v>834</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>44658</v>
+        <v>44669</v>
       </c>
       <c r="D157" t="s">
         <v>35</v>
@@ -11880,13 +11864,13 @@
       </c>
       <c r="F157"/>
       <c r="G157" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H157" t="n">
-        <v>364018</v>
+        <v>370216</v>
       </c>
       <c r="I157" t="n">
-        <v>31.984</v>
+        <v>32.528</v>
       </c>
       <c r="J157"/>
       <c r="K157"/>
@@ -11896,12 +11880,8 @@
       <c r="M157" t="n">
         <v>0.049</v>
       </c>
-      <c r="N157" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="O157" t="n">
-        <v>66.8</v>
-      </c>
+      <c r="N157"/>
+      <c r="O157"/>
       <c r="P157" t="s">
         <v>36</v>
       </c>
@@ -11923,7 +11903,7 @@
         <v>837</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>44662</v>
+        <v>44667</v>
       </c>
       <c r="D158" t="s">
         <v>838</v>
@@ -11933,31 +11913,31 @@
       </c>
       <c r="F158"/>
       <c r="G158" t="n">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="H158" t="n">
-        <v>89210677</v>
+        <v>89403198</v>
       </c>
       <c r="I158" t="n">
-        <v>1908.445</v>
+        <v>1912.564</v>
       </c>
       <c r="J158" t="n">
-        <v>54894</v>
+        <v>16945</v>
       </c>
       <c r="K158" t="n">
-        <v>1.174</v>
+        <v>0.362</v>
       </c>
       <c r="L158" t="n">
-        <v>52525</v>
+        <v>37839</v>
       </c>
       <c r="M158" t="n">
-        <v>1.124</v>
+        <v>0.809</v>
       </c>
       <c r="N158" t="n">
-        <v>0.202</v>
+        <v>0.244</v>
       </c>
       <c r="O158" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="P158" t="s">
         <v>839</v>
@@ -11980,7 +11960,7 @@
         <v>842</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>44665</v>
+        <v>44668</v>
       </c>
       <c r="D159" t="s">
         <v>843</v>
@@ -11990,28 +11970,32 @@
       </c>
       <c r="F159"/>
       <c r="G159" t="n">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="H159" t="n">
-        <v>7597915</v>
+        <v>7600803</v>
       </c>
       <c r="I159" t="n">
-        <v>353.436</v>
+        <v>353.57</v>
       </c>
       <c r="J159" t="n">
-        <v>1444</v>
+        <v>1471</v>
       </c>
       <c r="K159" t="n">
-        <v>0.067</v>
+        <v>0.068</v>
       </c>
       <c r="L159" t="n">
-        <v>2663</v>
+        <v>1799</v>
       </c>
       <c r="M159" t="n">
-        <v>0.124</v>
-      </c>
-      <c r="N159"/>
-      <c r="O159"/>
+        <v>0.084</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0.0187</v>
+      </c>
+      <c r="O159" t="n">
+        <v>53.6</v>
+      </c>
       <c r="P159" t="s">
         <v>844</v>
       </c>
@@ -12165,8 +12149,12 @@
       <c r="M162" t="n">
         <v>0.399</v>
       </c>
-      <c r="N162"/>
-      <c r="O162"/>
+      <c r="N162" t="n">
+        <v>0.1456</v>
+      </c>
+      <c r="O162" t="n">
+        <v>6.9</v>
+      </c>
       <c r="P162" t="s">
         <v>858</v>
       </c>
@@ -12298,7 +12286,7 @@
         <v>867</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>44664</v>
+        <v>44667</v>
       </c>
       <c r="D165" t="s">
         <v>868</v>
@@ -12308,31 +12296,31 @@
       </c>
       <c r="F165"/>
       <c r="G165" t="n">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="H165" t="n">
-        <v>7567702</v>
+        <v>7707493</v>
       </c>
       <c r="I165" t="n">
-        <v>317.237</v>
+        <v>323.097</v>
       </c>
       <c r="J165" t="n">
-        <v>50157</v>
+        <v>38603</v>
       </c>
       <c r="K165" t="n">
-        <v>2.103</v>
+        <v>1.618</v>
       </c>
       <c r="L165" t="n">
-        <v>45643</v>
+        <v>45861</v>
       </c>
       <c r="M165" t="n">
-        <v>1.913</v>
+        <v>1.922</v>
       </c>
       <c r="N165" t="n">
-        <v>0.0137</v>
+        <v>0.0198</v>
       </c>
       <c r="O165" t="n">
-        <v>73.1</v>
+        <v>50.4</v>
       </c>
       <c r="P165" t="s">
         <v>869</v>
@@ -12518,7 +12506,7 @@
         <v>888</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>44666</v>
+        <v>44669</v>
       </c>
       <c r="D169" t="s">
         <v>889</v>
@@ -12528,21 +12516,21 @@
       </c>
       <c r="F169"/>
       <c r="G169" t="n">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H169" t="n">
-        <v>724655</v>
+        <v>725919</v>
       </c>
       <c r="I169" t="n">
-        <v>85.472</v>
+        <v>85.621</v>
       </c>
       <c r="J169"/>
       <c r="K169"/>
       <c r="L169" t="n">
-        <v>316</v>
+        <v>371</v>
       </c>
       <c r="M169" t="n">
-        <v>0.037</v>
+        <v>0.044</v>
       </c>
       <c r="N169"/>
       <c r="O169"/>
@@ -12567,7 +12555,7 @@
         <v>893</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>44665</v>
+        <v>44668</v>
       </c>
       <c r="D170" t="s">
         <v>894</v>
@@ -12577,31 +12565,31 @@
       </c>
       <c r="F170"/>
       <c r="G170" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H170" t="n">
-        <v>687522</v>
+        <v>689350</v>
       </c>
       <c r="I170" t="n">
-        <v>489.906</v>
+        <v>491.209</v>
       </c>
       <c r="J170" t="n">
-        <v>1129</v>
+        <v>1072</v>
       </c>
       <c r="K170" t="n">
-        <v>0.804</v>
+        <v>0.764</v>
       </c>
       <c r="L170" t="n">
-        <v>994</v>
+        <v>1026</v>
       </c>
       <c r="M170" t="n">
-        <v>0.708</v>
+        <v>0.731</v>
       </c>
       <c r="N170" t="n">
-        <v>0.263</v>
+        <v>0.273</v>
       </c>
       <c r="O170" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="P170" t="s">
         <v>53</v>
@@ -12677,7 +12665,7 @@
         <v>905</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>44665</v>
+        <v>44668</v>
       </c>
       <c r="D172" t="s">
         <v>906</v>
@@ -12687,28 +12675,32 @@
       </c>
       <c r="F172"/>
       <c r="G172" t="n">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="H172" t="n">
-        <v>156987916</v>
+        <v>157475433</v>
       </c>
       <c r="I172" t="n">
-        <v>1845.989</v>
+        <v>1851.721</v>
       </c>
       <c r="J172" t="n">
-        <v>182446</v>
+        <v>153318</v>
       </c>
       <c r="K172" t="n">
-        <v>2.145</v>
+        <v>1.803</v>
       </c>
       <c r="L172" t="n">
-        <v>185241</v>
+        <v>175423</v>
       </c>
       <c r="M172" t="n">
-        <v>2.178</v>
-      </c>
-      <c r="N172"/>
-      <c r="O172"/>
+        <v>2.063</v>
+      </c>
+      <c r="N172" t="n">
+        <v>0.0293</v>
+      </c>
+      <c r="O172" t="n">
+        <v>34.1</v>
+      </c>
       <c r="P172" t="s">
         <v>907</v>
       </c>
@@ -12730,7 +12722,7 @@
         <v>911</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>44661</v>
+        <v>44669</v>
       </c>
       <c r="D173" t="s">
         <v>35</v>
@@ -12740,28 +12732,24 @@
       </c>
       <c r="F173"/>
       <c r="G173" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H173" t="n">
-        <v>2577730</v>
+        <v>2598861</v>
       </c>
       <c r="I173" t="n">
-        <v>54.702</v>
+        <v>55.15</v>
       </c>
       <c r="J173"/>
       <c r="K173"/>
       <c r="L173" t="n">
-        <v>2307</v>
+        <v>2641</v>
       </c>
       <c r="M173" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="N173" t="n">
-        <v>0.0035</v>
-      </c>
-      <c r="O173" t="n">
-        <v>283.3</v>
-      </c>
+        <v>0.056</v>
+      </c>
+      <c r="N173"/>
+      <c r="O173"/>
       <c r="P173" t="s">
         <v>36</v>
       </c>
@@ -12836,7 +12824,7 @@
         <v>920</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>44662</v>
+        <v>44669</v>
       </c>
       <c r="D175" t="s">
         <v>921</v>
@@ -12846,32 +12834,28 @@
       </c>
       <c r="F175"/>
       <c r="G175" t="n">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="H175" t="n">
-        <v>150750667</v>
+        <v>152660659</v>
       </c>
       <c r="I175" t="n">
-        <v>15088.521</v>
+        <v>15279.691</v>
       </c>
       <c r="J175" t="n">
-        <v>207875</v>
+        <v>243662</v>
       </c>
       <c r="K175" t="n">
-        <v>20.806</v>
+        <v>24.388</v>
       </c>
       <c r="L175" t="n">
-        <v>230451</v>
+        <v>272856</v>
       </c>
       <c r="M175" t="n">
-        <v>23.066</v>
-      </c>
-      <c r="N175" t="n">
-        <v>0.0009</v>
-      </c>
-      <c r="O175" t="n">
-        <v>1075.4</v>
-      </c>
+        <v>27.31</v>
+      </c>
+      <c r="N175"/>
+      <c r="O175"/>
       <c r="P175" t="s">
         <v>922</v>
       </c>
@@ -12950,7 +12934,7 @@
         <v>933</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>44660</v>
+        <v>44663</v>
       </c>
       <c r="D177" t="s">
         <v>391</v>
@@ -12960,31 +12944,31 @@
       </c>
       <c r="F177"/>
       <c r="G177" t="n">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="H177" t="n">
-        <v>857179571</v>
+        <v>860024452</v>
       </c>
       <c r="I177" t="n">
-        <v>2574.769</v>
+        <v>2583.315</v>
       </c>
       <c r="J177" t="n">
-        <v>362796</v>
+        <v>706745</v>
       </c>
       <c r="K177" t="n">
-        <v>1.09</v>
+        <v>2.123</v>
       </c>
       <c r="L177" t="n">
-        <v>606195</v>
+        <v>704464</v>
       </c>
       <c r="M177" t="n">
-        <v>1.821</v>
+        <v>2.116</v>
       </c>
       <c r="N177" t="n">
-        <v>0.038</v>
+        <v>0.041</v>
       </c>
       <c r="O177" t="n">
-        <v>26.3</v>
+        <v>24.4</v>
       </c>
       <c r="P177" t="s">
         <v>392</v>
@@ -13007,7 +12991,7 @@
         <v>936</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>44662</v>
+        <v>44665</v>
       </c>
       <c r="D178" t="s">
         <v>391</v>
@@ -13017,31 +13001,31 @@
       </c>
       <c r="F178"/>
       <c r="G178" t="n">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="H178" t="n">
-        <v>109701</v>
+        <v>109977</v>
       </c>
       <c r="I178" t="n">
-        <v>1052.611</v>
+        <v>1055.259</v>
       </c>
       <c r="J178" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="K178" t="n">
-        <v>0.269</v>
+        <v>0.537</v>
       </c>
       <c r="L178" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M178" t="n">
-        <v>0.528</v>
+        <v>0.557</v>
       </c>
       <c r="N178" t="n">
-        <v>0.081</v>
+        <v>0.108</v>
       </c>
       <c r="O178" t="n">
-        <v>12.3</v>
+        <v>9.3</v>
       </c>
       <c r="P178" t="s">
         <v>392</v>
@@ -13064,7 +13048,7 @@
         <v>939</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>44665</v>
+        <v>44668</v>
       </c>
       <c r="D179" t="s">
         <v>940</v>
@@ -13074,28 +13058,32 @@
       </c>
       <c r="F179"/>
       <c r="G179" t="n">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="H179" t="n">
-        <v>6080291</v>
+        <v>6086835</v>
       </c>
       <c r="I179" t="n">
-        <v>1744.627</v>
+        <v>1746.505</v>
       </c>
       <c r="J179" t="n">
-        <v>3178</v>
+        <v>2072</v>
       </c>
       <c r="K179" t="n">
-        <v>0.912</v>
+        <v>0.595</v>
       </c>
       <c r="L179" t="n">
-        <v>4522</v>
+        <v>3188</v>
       </c>
       <c r="M179" t="n">
-        <v>1.298</v>
-      </c>
-      <c r="N179"/>
-      <c r="O179"/>
+        <v>0.915</v>
+      </c>
+      <c r="N179" t="n">
+        <v>0.0836</v>
+      </c>
+      <c r="O179" t="n">
+        <v>12</v>
+      </c>
       <c r="P179" t="s">
         <v>241</v>
       </c>
@@ -13170,7 +13158,7 @@
         <v>949</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>44665</v>
+        <v>44668</v>
       </c>
       <c r="D181" t="s">
         <v>950</v>
@@ -13180,24 +13168,28 @@
       </c>
       <c r="F181"/>
       <c r="G181" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H181" t="n">
-        <v>85547798</v>
+        <v>85684619</v>
       </c>
       <c r="I181" t="n">
-        <v>871.435</v>
+        <v>872.829</v>
       </c>
       <c r="J181"/>
       <c r="K181"/>
       <c r="L181" t="n">
-        <v>100287</v>
+        <v>96674</v>
       </c>
       <c r="M181" t="n">
-        <v>1.022</v>
-      </c>
-      <c r="N181"/>
-      <c r="O181"/>
+        <v>0.985</v>
+      </c>
+      <c r="N181" t="n">
+        <v>0.3462</v>
+      </c>
+      <c r="O181" t="n">
+        <v>2.9</v>
+      </c>
       <c r="P181" t="s">
         <v>952</v>
       </c>
@@ -13325,7 +13317,7 @@
         <v>964</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>44661</v>
+        <v>44669</v>
       </c>
       <c r="D184" t="s">
         <v>35</v>
@@ -13335,28 +13327,24 @@
       </c>
       <c r="F184"/>
       <c r="G184" t="n">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H184" t="n">
-        <v>2213383</v>
+        <v>2226258</v>
       </c>
       <c r="I184" t="n">
-        <v>146.658</v>
+        <v>147.511</v>
       </c>
       <c r="J184"/>
       <c r="K184"/>
       <c r="L184" t="n">
-        <v>2968</v>
+        <v>1609</v>
       </c>
       <c r="M184" t="n">
-        <v>0.197</v>
-      </c>
-      <c r="N184" t="n">
-        <v>0.0208</v>
-      </c>
-      <c r="O184" t="n">
-        <v>48</v>
-      </c>
+        <v>0.107</v>
+      </c>
+      <c r="N184"/>
+      <c r="O184"/>
       <c r="P184" t="s">
         <v>36</v>
       </c>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="968">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">Albania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-1110-testime-48-qytetare-te-infektuar-asnje-humbje-jete-dhe-33-te-sheruar-ne-24-oret-e-fundit/</t>
+    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-1161-testime-71-qytetare-te-infektuar-asnje-humbje-jete-dhe-47-te-sheruar-ne-24-oret-e-fundit/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Protection</t>
@@ -307,7 +307,7 @@
     <t xml:space="preserve">Bahamas - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bahamas.gov.bs/wps/wcm/connect/6fb809a9-5c21-4abd-8316-f3defc3296ad/Update+%23748+-+Ministry+of+Health+%26+Wellness+-+COVID-19+Report+%284%29.pdf?MOD=AJPERES</t>
+    <t xml:space="preserve">https://www.bahamas.gov.bs/wps/wcm/connect/67fa6973-bfdd-4375-a32e-180a0318c8fa/Update+%23756+-+Ministry+of+Health+%26+Wellness+-+COVID-19+Report+%2816%29+%282%29.pdf?MOD=AJPERES</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Wellness</t>
@@ -369,7 +369,7 @@
     <t xml:space="preserve">Barbados - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gisbarbados.gov.bb/blog/covid-19-update-saturday-april-16/</t>
+    <t xml:space="preserve">https://gisbarbados.gov.bb/blog/covid-19-update-for-wednesday-april-20/</t>
   </si>
   <si>
     <t xml:space="preserve">https://gisbarbados.gov.bb/top-stories/</t>
@@ -644,7 +644,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-13-de-abril-de-2022/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-21-de-abril-de-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -916,7 +916,7 @@
     <t xml:space="preserve">Dominica - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.dominica.gov.dm/index.php/updates/1467-april-13th-2022-dominica-coronavirus-update</t>
+    <t xml:space="preserve">https://covid19.dominica.gov.dm/index.php/updates/1468-april-19th-2022-dominica-coronavirus-update</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Wellness and New Health Investment</t>
@@ -934,7 +934,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://coronavirusrd.gob.do/wp-content/uploads/2022/04/Boletin-especial-743-COVID-19.pdf</t>
+    <t xml:space="preserve">https://coronavirusrd.gob.do/wp-content/uploads/2022/04/Boletin-especial-754-COVID-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -1099,7 +1099,7 @@
     <t xml:space="preserve">Fiji - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.fj/18-04-2022/</t>
+    <t xml:space="preserve">https://www.health.gov.fj/20-04-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Fiji Ministry of Health &amp; Medical Services</t>
@@ -1282,7 +1282,7 @@
     <t xml:space="preserve">Grenada - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/gisgrenada/posts/290094169979003</t>
+    <t xml:space="preserve">https://www.facebook.com/gisgrenada/posts/295081062813647</t>
   </si>
   <si>
     <t xml:space="preserve">Government Information Service of Grenada</t>
@@ -1381,7 +1381,7 @@
     <t xml:space="preserve">Haiti - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://mspp.gouv.ht/site/downloads/Sitrep COVID-19_09-04-2022.pdf</t>
+    <t xml:space="preserve">https://mspp.gouv.ht/site/downloads/Sitrep COVID-19_13-04-2022.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Population</t>
@@ -1507,7 +1507,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://irangov.ir/detail/384736</t>
+    <t xml:space="preserve">https://irangov.ir/detail/384899</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Medical Education</t>
@@ -1605,7 +1605,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-saturday-april-16-2022/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-wednesday-april-20-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -2146,7 +2146,7 @@
     <t xml:space="preserve">Nepal - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.mohp.gov.np/covid/englishSituationReport/625d2cb262f63_SitRep799_COVID-19_18-04-2022_EN.pdf</t>
+    <t xml:space="preserve">https://covid19.mohp.gov.np/covid/englishSituationReport/626293a952cf1_SitRep803_COVID-19_22-04-2022_EN.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -2248,7 +2248,7 @@
     <t xml:space="preserve">North Macedonia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://koronavirus.gov.mk/vesti/224057</t>
+    <t xml:space="preserve">https://koronavirus.gov.mk/vesti/224069</t>
   </si>
   <si>
     <t xml:space="preserve">https://koronavirus.gov.mk/stat</t>
@@ -2338,7 +2338,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1515899480075378695</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1516910665041989632</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -2517,7 +2517,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=21293</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=21321</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2588,7 +2588,7 @@
     <t xml:space="preserve">Saint Vincent and the Grenadines - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://health.gov.vc/health/images/PDF/stories/COVID-19_Report-_Thu_Apr_7_2022.pdf</t>
+    <t xml:space="preserve">http://health.gov.vc/health/images/PDF/stories/COVID-19_Report-_Sat_Apr_16_2022_.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Wellness and the Environment</t>
@@ -2891,6 +2891,12 @@
   </si>
   <si>
     <t xml:space="preserve">Syria - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://reliefweb.int/sites/reliefweb.int/files/resources/covid-19_weekly_epidemiological_bulletin-_22w15-2.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHO Syrian Arab Republic</t>
   </si>
   <si>
     <t xml:space="preserve">TWN</t>
@@ -3183,7 +3189,7 @@
     <t xml:space="preserve">Vietnam - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.gov.vn/ngay-17-4-so-mac-covid-19-giam-xuong-thap-nhat-trong-hon-2-thang-qua-con-14660-ca-171220418140026666.htm</t>
+    <t xml:space="preserve">https://covid19.gov.vn/ngay-22-4-co-11160-ca-covid-19-moi-da-tiem-232567-lieu-vaccine-cho-tre-tu-5-duoi-12-tuoi-171220422185821096.htm</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health of Vietnam</t>
@@ -3698,7 +3704,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>44664</v>
+        <v>44671</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
@@ -3708,31 +3714,31 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H3" t="n">
-        <v>1603120</v>
+        <v>1604281</v>
       </c>
       <c r="I3" t="n">
-        <v>558.008</v>
+        <v>558.412</v>
       </c>
       <c r="J3" t="n">
-        <v>1110</v>
+        <v>1161</v>
       </c>
       <c r="K3" t="n">
-        <v>0.386</v>
+        <v>0.404</v>
       </c>
       <c r="L3" t="n">
-        <v>252</v>
+        <v>166</v>
       </c>
       <c r="M3" t="n">
-        <v>0.088</v>
+        <v>0.058</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1502</v>
+        <v>0.2461</v>
       </c>
       <c r="O3" t="n">
-        <v>6.7</v>
+        <v>4.1</v>
       </c>
       <c r="P3" t="s">
         <v>30</v>
@@ -4069,7 +4075,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44668</v>
+        <v>44672</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
@@ -4079,25 +4085,25 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="H10" t="n">
-        <v>3018644</v>
+        <v>3030852</v>
       </c>
       <c r="I10" t="n">
-        <v>1017.019</v>
+        <v>1021.133</v>
       </c>
       <c r="J10" t="n">
-        <v>1679</v>
+        <v>3123</v>
       </c>
       <c r="K10" t="n">
-        <v>0.566</v>
+        <v>1.052</v>
       </c>
       <c r="L10" t="n">
-        <v>2460</v>
+        <v>2678</v>
       </c>
       <c r="M10" t="n">
-        <v>0.829</v>
+        <v>0.902</v>
       </c>
       <c r="N10" t="n">
         <v>0.005</v>
@@ -4126,7 +4132,7 @@
         <v>73</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44669</v>
+        <v>44673</v>
       </c>
       <c r="D11" t="s">
         <v>74</v>
@@ -4138,25 +4144,25 @@
         <v>76</v>
       </c>
       <c r="G11" t="n">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="H11" t="n">
-        <v>68374034</v>
+        <v>68725615</v>
       </c>
       <c r="I11" t="n">
-        <v>2651.367</v>
+        <v>2665.001</v>
       </c>
       <c r="J11" t="n">
-        <v>59415</v>
+        <v>98973</v>
       </c>
       <c r="K11" t="n">
-        <v>2.304</v>
+        <v>3.838</v>
       </c>
       <c r="L11" t="n">
-        <v>87405</v>
+        <v>78901</v>
       </c>
       <c r="M11" t="n">
-        <v>3.389</v>
+        <v>3.06</v>
       </c>
       <c r="N11"/>
       <c r="O11"/>
@@ -4181,7 +4187,7 @@
         <v>80</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44669</v>
+        <v>44673</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -4191,25 +4197,25 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="H12" t="n">
-        <v>180657934</v>
+        <v>181611092</v>
       </c>
       <c r="I12" t="n">
-        <v>19977.496</v>
+        <v>20082.898</v>
       </c>
       <c r="J12" t="n">
-        <v>79772</v>
+        <v>259002</v>
       </c>
       <c r="K12" t="n">
-        <v>8.821</v>
+        <v>28.641</v>
       </c>
       <c r="L12" t="n">
-        <v>170300</v>
+        <v>195107</v>
       </c>
       <c r="M12" t="n">
-        <v>18.832</v>
+        <v>21.575</v>
       </c>
       <c r="N12"/>
       <c r="O12"/>
@@ -4234,7 +4240,7 @@
         <v>85</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44668</v>
+        <v>44672</v>
       </c>
       <c r="D13" t="s">
         <v>86</v>
@@ -4244,27 +4250,27 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H13" t="n">
-        <v>6771851</v>
+        <v>6788729</v>
       </c>
       <c r="I13" t="n">
-        <v>662.391</v>
+        <v>664.042</v>
       </c>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13" t="n">
-        <v>3681</v>
+        <v>4217</v>
       </c>
       <c r="M13" t="n">
-        <v>0.36</v>
+        <v>0.412</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0049</v>
+        <v>0.0042</v>
       </c>
       <c r="O13" t="n">
-        <v>206.1</v>
+        <v>236.2</v>
       </c>
       <c r="P13" t="s">
         <v>87</v>
@@ -4287,7 +4293,7 @@
         <v>90</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44664</v>
+        <v>44672</v>
       </c>
       <c r="D14" t="s">
         <v>91</v>
@@ -4297,27 +4303,27 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H14" t="n">
-        <v>229615</v>
+        <v>230514</v>
       </c>
       <c r="I14" t="n">
-        <v>578.501</v>
+        <v>580.766</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14" t="n">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="M14" t="n">
-        <v>0.322</v>
+        <v>0.282</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0591</v>
+        <v>0.074</v>
       </c>
       <c r="O14" t="n">
-        <v>16.9</v>
+        <v>13.5</v>
       </c>
       <c r="P14" t="s">
         <v>93</v>
@@ -4340,7 +4346,7 @@
         <v>97</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44669</v>
+        <v>44673</v>
       </c>
       <c r="D15" t="s">
         <v>98</v>
@@ -4350,21 +4356,21 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H15" t="n">
-        <v>9676557</v>
+        <v>9690419</v>
       </c>
       <c r="I15" t="n">
-        <v>5534.854</v>
+        <v>5542.783</v>
       </c>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15" t="n">
-        <v>3913</v>
+        <v>3390</v>
       </c>
       <c r="M15" t="n">
-        <v>2.238</v>
+        <v>1.939</v>
       </c>
       <c r="N15"/>
       <c r="O15"/>
@@ -4389,7 +4395,7 @@
         <v>104</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>44669</v>
+        <v>44673</v>
       </c>
       <c r="D16" t="s">
         <v>105</v>
@@ -4399,25 +4405,25 @@
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H16" t="n">
-        <v>13722551</v>
+        <v>13726472</v>
       </c>
       <c r="I16" t="n">
-        <v>82.515</v>
+        <v>82.539</v>
       </c>
       <c r="J16" t="n">
-        <v>4193</v>
+        <v>3921</v>
       </c>
       <c r="K16" t="n">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="L16" t="n">
-        <v>1317</v>
+        <v>1009</v>
       </c>
       <c r="M16" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="N16"/>
       <c r="O16"/>
@@ -4442,7 +4448,7 @@
         <v>109</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44667</v>
+        <v>44671</v>
       </c>
       <c r="D17" t="s">
         <v>110</v>
@@ -4452,27 +4458,27 @@
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H17" t="n">
-        <v>632284</v>
+        <v>637232</v>
       </c>
       <c r="I17" t="n">
-        <v>2197.659</v>
+        <v>2214.857</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17" t="n">
-        <v>1143</v>
+        <v>1128</v>
       </c>
       <c r="M17" t="n">
-        <v>3.973</v>
+        <v>3.921</v>
       </c>
       <c r="N17" t="n">
-        <v>0.2993</v>
+        <v>0.3549</v>
       </c>
       <c r="O17" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="P17" t="s">
         <v>53</v>
@@ -4495,7 +4501,7 @@
         <v>114</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44669</v>
+        <v>44673</v>
       </c>
       <c r="D18" t="s">
         <v>115</v>
@@ -4505,21 +4511,21 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H18" t="n">
-        <v>13041946</v>
+        <v>13083013</v>
       </c>
       <c r="I18" t="n">
-        <v>1381.143</v>
+        <v>1385.492</v>
       </c>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18" t="n">
-        <v>9702</v>
+        <v>9882</v>
       </c>
       <c r="M18" t="n">
-        <v>1.027</v>
+        <v>1.047</v>
       </c>
       <c r="N18"/>
       <c r="O18"/>
@@ -4544,7 +4550,7 @@
         <v>121</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>44664</v>
+        <v>44671</v>
       </c>
       <c r="D19" t="s">
         <v>122</v>
@@ -4554,31 +4560,31 @@
       </c>
       <c r="F19"/>
       <c r="G19" t="n">
-        <v>774</v>
+        <v>781</v>
       </c>
       <c r="H19" t="n">
-        <v>33313021</v>
+        <v>33455431</v>
       </c>
       <c r="I19" t="n">
-        <v>2863.829</v>
+        <v>2876.072</v>
       </c>
       <c r="J19" t="n">
-        <v>28800</v>
+        <v>26379</v>
       </c>
       <c r="K19" t="n">
-        <v>2.476</v>
+        <v>2.268</v>
       </c>
       <c r="L19" t="n">
-        <v>27653</v>
+        <v>20272</v>
       </c>
       <c r="M19" t="n">
-        <v>2.377</v>
+        <v>1.743</v>
       </c>
       <c r="N19" t="n">
-        <v>0.319</v>
+        <v>0.328</v>
       </c>
       <c r="O19" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P19" t="s">
         <v>124</v>
@@ -4601,7 +4607,7 @@
         <v>128</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>44655</v>
+        <v>44670</v>
       </c>
       <c r="D20" t="s">
         <v>129</v>
@@ -4611,27 +4617,27 @@
       </c>
       <c r="F20"/>
       <c r="G20" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H20" t="n">
-        <v>524451</v>
+        <v>532846</v>
       </c>
       <c r="I20" t="n">
-        <v>1295.213</v>
+        <v>1315.945</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20" t="n">
-        <v>604</v>
+        <v>560</v>
       </c>
       <c r="M20" t="n">
-        <v>1.492</v>
+        <v>1.383</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0118</v>
+        <v>0.0171</v>
       </c>
       <c r="O20" t="n">
-        <v>84.6</v>
+        <v>58.5</v>
       </c>
       <c r="P20" t="s">
         <v>130</v>
@@ -4947,8 +4953,12 @@
       <c r="M26" t="n">
         <v>0.567</v>
       </c>
-      <c r="N26"/>
-      <c r="O26"/>
+      <c r="N26" t="n">
+        <v>0.3944</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2.5</v>
+      </c>
       <c r="P26" t="s">
         <v>161</v>
       </c>
@@ -4970,7 +4980,7 @@
         <v>165</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44668</v>
+        <v>44672</v>
       </c>
       <c r="D27" t="s">
         <v>166</v>
@@ -4980,24 +4990,24 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H27" t="n">
-        <v>9749280</v>
+        <v>9788010</v>
       </c>
       <c r="I27" t="n">
-        <v>1413.624</v>
+        <v>1419.24</v>
       </c>
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27" t="n">
-        <v>8167</v>
+        <v>7890</v>
       </c>
       <c r="M27" t="n">
-        <v>1.184</v>
+        <v>1.144</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0707</v>
+        <v>0.0704</v>
       </c>
       <c r="O27" t="n">
         <v>14.2</v>
@@ -5100,8 +5110,12 @@
       <c r="M29" t="n">
         <v>0.106</v>
       </c>
-      <c r="N29"/>
-      <c r="O29"/>
+      <c r="N29" t="n">
+        <v>0.0026</v>
+      </c>
+      <c r="O29" t="n">
+        <v>377.4</v>
+      </c>
       <c r="P29" t="s">
         <v>36</v>
       </c>
@@ -5123,7 +5137,7 @@
         <v>178</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44669</v>
+        <v>44673</v>
       </c>
       <c r="D30" t="s">
         <v>179</v>
@@ -5133,21 +5147,21 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H30" t="n">
-        <v>2944110</v>
+        <v>2947537</v>
       </c>
       <c r="I30" t="n">
-        <v>173.73</v>
+        <v>173.932</v>
       </c>
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30" t="n">
-        <v>721</v>
+        <v>758</v>
       </c>
       <c r="M30" t="n">
-        <v>0.043</v>
+        <v>0.045</v>
       </c>
       <c r="N30"/>
       <c r="O30"/>
@@ -5198,7 +5212,9 @@
       <c r="M31" t="n">
         <v>0.098</v>
       </c>
-      <c r="N31"/>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
       <c r="O31"/>
       <c r="P31" t="s">
         <v>36</v>
@@ -5221,7 +5237,7 @@
         <v>186</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44664</v>
+        <v>44672</v>
       </c>
       <c r="D32" t="s">
         <v>187</v>
@@ -5231,31 +5247,31 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="H32" t="n">
-        <v>60149136</v>
+        <v>60536359</v>
       </c>
       <c r="I32" t="n">
-        <v>1580.048</v>
+        <v>1590.22</v>
       </c>
       <c r="J32" t="n">
-        <v>66100</v>
+        <v>51282</v>
       </c>
       <c r="K32" t="n">
-        <v>1.736</v>
+        <v>1.347</v>
       </c>
       <c r="L32" t="n">
-        <v>51561</v>
+        <v>46987</v>
       </c>
       <c r="M32" t="n">
-        <v>1.354</v>
+        <v>1.234</v>
       </c>
       <c r="N32" t="n">
-        <v>0.2256</v>
+        <v>0.1809</v>
       </c>
       <c r="O32" t="n">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
       <c r="P32" t="s">
         <v>188</v>
@@ -5278,7 +5294,7 @@
         <v>192</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44663</v>
+        <v>44671</v>
       </c>
       <c r="D33" t="s">
         <v>193</v>
@@ -5288,15 +5304,15 @@
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33" t="n">
-        <v>234</v>
+        <v>290</v>
       </c>
       <c r="K33" t="n">
-        <v>0.416</v>
+        <v>0.516</v>
       </c>
       <c r="L33"/>
       <c r="M33"/>
@@ -5349,7 +5365,9 @@
       <c r="M34" t="n">
         <v>0.016</v>
       </c>
-      <c r="N34"/>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
       <c r="O34"/>
       <c r="P34" t="s">
         <v>36</v>
@@ -5398,8 +5416,12 @@
       <c r="M35" t="n">
         <v>0.006</v>
       </c>
-      <c r="N35"/>
-      <c r="O35"/>
+      <c r="N35" t="n">
+        <v>0.0247</v>
+      </c>
+      <c r="O35" t="n">
+        <v>40.5</v>
+      </c>
       <c r="P35" t="s">
         <v>36</v>
       </c>
@@ -5421,7 +5443,7 @@
         <v>204</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44668</v>
+        <v>44672</v>
       </c>
       <c r="D36" t="s">
         <v>205</v>
@@ -5431,31 +5453,31 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="H36" t="n">
-        <v>36206758</v>
+        <v>36363665</v>
       </c>
       <c r="I36" t="n">
-        <v>1884.555</v>
+        <v>1892.722</v>
       </c>
       <c r="J36" t="n">
-        <v>29580</v>
+        <v>60971</v>
       </c>
       <c r="K36" t="n">
-        <v>1.54</v>
+        <v>3.174</v>
       </c>
       <c r="L36" t="n">
-        <v>47438</v>
+        <v>42304</v>
       </c>
       <c r="M36" t="n">
-        <v>2.469</v>
+        <v>2.202</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0549</v>
+        <v>0.0555</v>
       </c>
       <c r="O36" t="n">
-        <v>18.2</v>
+        <v>18</v>
       </c>
       <c r="P36" t="s">
         <v>206</v>
@@ -5531,7 +5553,7 @@
         <v>216</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>44668</v>
+        <v>44672</v>
       </c>
       <c r="D38" t="s">
         <v>217</v>
@@ -5541,31 +5563,31 @@
       </c>
       <c r="F38"/>
       <c r="G38" t="n">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="H38" t="n">
-        <v>34186750</v>
+        <v>34265156</v>
       </c>
       <c r="I38" t="n">
-        <v>666.852</v>
+        <v>668.382</v>
       </c>
       <c r="J38" t="n">
-        <v>7178</v>
+        <v>21223</v>
       </c>
       <c r="K38" t="n">
-        <v>0.14</v>
+        <v>0.414</v>
       </c>
       <c r="L38" t="n">
-        <v>16284</v>
+        <v>14477</v>
       </c>
       <c r="M38" t="n">
-        <v>0.318</v>
+        <v>0.282</v>
       </c>
       <c r="N38" t="n">
-        <v>0.019</v>
+        <v>0.016</v>
       </c>
       <c r="O38" t="n">
-        <v>52.6</v>
+        <v>62.5</v>
       </c>
       <c r="P38" t="s">
         <v>218</v>
@@ -5716,8 +5738,12 @@
       <c r="M41" t="n">
         <v>0.031</v>
       </c>
-      <c r="N41"/>
-      <c r="O41"/>
+      <c r="N41" t="n">
+        <v>0.0054</v>
+      </c>
+      <c r="O41" t="n">
+        <v>184.4</v>
+      </c>
       <c r="P41" t="s">
         <v>36</v>
       </c>
@@ -5739,7 +5765,7 @@
         <v>233</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>44669</v>
+        <v>44673</v>
       </c>
       <c r="D42" t="s">
         <v>234</v>
@@ -5749,21 +5775,21 @@
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H42" t="n">
-        <v>4743521</v>
+        <v>4758247</v>
       </c>
       <c r="I42" t="n">
-        <v>1162.156</v>
+        <v>1165.764</v>
       </c>
       <c r="J42"/>
       <c r="K42"/>
       <c r="L42" t="n">
-        <v>3060</v>
+        <v>2856</v>
       </c>
       <c r="M42" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="N42"/>
       <c r="O42"/>
@@ -5961,7 +5987,7 @@
         <v>256</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>44668</v>
+        <v>44672</v>
       </c>
       <c r="D46" t="s">
         <v>257</v>
@@ -5971,31 +5997,31 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="H46" t="n">
-        <v>54110023</v>
+        <v>54176700</v>
       </c>
       <c r="I46" t="n">
-        <v>5045.434</v>
+        <v>5051.651</v>
       </c>
       <c r="J46" t="n">
-        <v>4811</v>
+        <v>15742</v>
       </c>
       <c r="K46" t="n">
-        <v>0.449</v>
+        <v>1.468</v>
       </c>
       <c r="L46" t="n">
-        <v>15614</v>
+        <v>12114</v>
       </c>
       <c r="M46" t="n">
-        <v>1.456</v>
+        <v>1.13</v>
       </c>
       <c r="N46" t="n">
-        <v>0.17</v>
+        <v>0.155</v>
       </c>
       <c r="O46" t="n">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="P46" t="s">
         <v>53</v>
@@ -6071,7 +6097,7 @@
         <v>266</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>44663</v>
+        <v>44672</v>
       </c>
       <c r="D48" t="s">
         <v>267</v>
@@ -6081,31 +6107,31 @@
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="H48" t="n">
-        <v>66852397</v>
+        <v>66975604</v>
       </c>
       <c r="I48" t="n">
-        <v>11499.901</v>
+        <v>11521.095</v>
       </c>
       <c r="J48" t="n">
-        <v>15782</v>
+        <v>13878</v>
       </c>
       <c r="K48" t="n">
-        <v>2.715</v>
+        <v>2.387</v>
       </c>
       <c r="L48" t="n">
-        <v>18575</v>
+        <v>13441</v>
       </c>
       <c r="M48" t="n">
-        <v>3.195</v>
+        <v>2.312</v>
       </c>
       <c r="N48" t="n">
-        <v>0.1331</v>
+        <v>0.1262</v>
       </c>
       <c r="O48" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="P48" t="s">
         <v>268</v>
@@ -6154,8 +6180,12 @@
       <c r="M49" t="n">
         <v>0.137</v>
       </c>
-      <c r="N49"/>
-      <c r="O49"/>
+      <c r="N49" t="n">
+        <v>0.0031</v>
+      </c>
+      <c r="O49" t="n">
+        <v>319.3</v>
+      </c>
       <c r="P49" t="s">
         <v>36</v>
       </c>
@@ -6177,7 +6207,7 @@
         <v>274</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44664</v>
+        <v>44670</v>
       </c>
       <c r="D50" t="s">
         <v>275</v>
@@ -6187,27 +6217,27 @@
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H50" t="n">
-        <v>187337</v>
+        <v>187690</v>
       </c>
       <c r="I50" t="n">
-        <v>2595.702</v>
+        <v>2600.593</v>
       </c>
       <c r="J50"/>
       <c r="K50"/>
       <c r="L50" t="n">
-        <v>211</v>
+        <v>68</v>
       </c>
       <c r="M50" t="n">
-        <v>2.924</v>
+        <v>0.942</v>
       </c>
       <c r="N50" t="n">
-        <v>0.0603</v>
+        <v>0.0147</v>
       </c>
       <c r="O50" t="n">
-        <v>16.6</v>
+        <v>68</v>
       </c>
       <c r="P50" t="s">
         <v>276</v>
@@ -6230,7 +6260,7 @@
         <v>280</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>44652</v>
+        <v>44663</v>
       </c>
       <c r="D51" t="s">
         <v>281</v>
@@ -6240,31 +6270,27 @@
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="H51" t="n">
-        <v>3228620</v>
+        <v>3251191</v>
       </c>
       <c r="I51" t="n">
-        <v>294.751</v>
-      </c>
-      <c r="J51" t="n">
-        <v>3418</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.312</v>
-      </c>
+        <v>296.812</v>
+      </c>
+      <c r="J51"/>
+      <c r="K51"/>
       <c r="L51" t="n">
-        <v>2810</v>
+        <v>1809</v>
       </c>
       <c r="M51" t="n">
-        <v>0.257</v>
+        <v>0.165</v>
       </c>
       <c r="N51" t="n">
-        <v>0.0232</v>
+        <v>0.0242</v>
       </c>
       <c r="O51" t="n">
-        <v>43</v>
+        <v>41.2</v>
       </c>
       <c r="P51" t="s">
         <v>282</v>
@@ -6287,7 +6313,7 @@
         <v>286</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44665</v>
+        <v>44669</v>
       </c>
       <c r="D52" t="s">
         <v>287</v>
@@ -6299,31 +6325,31 @@
         <v>289</v>
       </c>
       <c r="G52" t="n">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="H52" t="n">
-        <v>2692794</v>
+        <v>2699318</v>
       </c>
       <c r="I52" t="n">
-        <v>150.532</v>
+        <v>150.897</v>
       </c>
       <c r="J52" t="n">
-        <v>4672</v>
+        <v>3634</v>
       </c>
       <c r="K52" t="n">
-        <v>0.261</v>
+        <v>0.203</v>
       </c>
       <c r="L52" t="n">
-        <v>2910</v>
+        <v>2400</v>
       </c>
       <c r="M52" t="n">
-        <v>0.163</v>
+        <v>0.134</v>
       </c>
       <c r="N52" t="n">
-        <v>0.13</v>
+        <v>0.094</v>
       </c>
       <c r="O52" t="n">
-        <v>7.7</v>
+        <v>10.6</v>
       </c>
       <c r="P52" t="s">
         <v>290</v>
@@ -6456,7 +6482,7 @@
         <v>302</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44652</v>
+        <v>44673</v>
       </c>
       <c r="D55" t="s">
         <v>303</v>
@@ -6466,28 +6492,24 @@
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H55" t="n">
-        <v>473409</v>
+        <v>476752</v>
       </c>
       <c r="I55" t="n">
-        <v>326.514</v>
+        <v>328.819</v>
       </c>
       <c r="J55"/>
       <c r="K55"/>
       <c r="L55" t="n">
-        <v>246</v>
+        <v>159</v>
       </c>
       <c r="M55" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0.0006</v>
-      </c>
-      <c r="O55" t="n">
-        <v>1720.3</v>
-      </c>
+        <v>0.11</v>
+      </c>
+      <c r="N55"/>
+      <c r="O55"/>
       <c r="P55" t="s">
         <v>36</v>
       </c>
@@ -6554,7 +6576,7 @@
         <v>310</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44668</v>
+        <v>44672</v>
       </c>
       <c r="D57" t="s">
         <v>311</v>
@@ -6564,31 +6586,31 @@
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="H57" t="n">
-        <v>3313262</v>
+        <v>3326100</v>
       </c>
       <c r="I57" t="n">
-        <v>2500.22</v>
+        <v>2509.908</v>
       </c>
       <c r="J57" t="n">
-        <v>1623</v>
+        <v>2752</v>
       </c>
       <c r="K57" t="n">
-        <v>1.225</v>
+        <v>2.077</v>
       </c>
       <c r="L57" t="n">
-        <v>2614</v>
+        <v>2521</v>
       </c>
       <c r="M57" t="n">
-        <v>1.973</v>
+        <v>1.902</v>
       </c>
       <c r="N57" t="n">
-        <v>0.1876</v>
+        <v>0.1632</v>
       </c>
       <c r="O57" t="n">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
       <c r="P57" t="s">
         <v>312</v>
@@ -6637,8 +6659,12 @@
       <c r="M58" t="n">
         <v>0.27</v>
       </c>
-      <c r="N58"/>
-      <c r="O58"/>
+      <c r="N58" t="n">
+        <v>0.0506</v>
+      </c>
+      <c r="O58" t="n">
+        <v>19.8</v>
+      </c>
       <c r="P58" t="s">
         <v>36</v>
       </c>
@@ -6686,8 +6712,12 @@
       <c r="M59" t="n">
         <v>0.029</v>
       </c>
-      <c r="N59"/>
-      <c r="O59"/>
+      <c r="N59" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="O59" t="n">
+        <v>124.7</v>
+      </c>
       <c r="P59" t="s">
         <v>319</v>
       </c>
@@ -6762,7 +6792,7 @@
         <v>330</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>44668</v>
+        <v>44670</v>
       </c>
       <c r="D61" t="s">
         <v>331</v>
@@ -6772,24 +6802,28 @@
       </c>
       <c r="F61"/>
       <c r="G61" t="n">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H61" t="n">
-        <v>506281</v>
+        <v>506642</v>
       </c>
       <c r="I61" t="n">
-        <v>560.728</v>
+        <v>561.128</v>
       </c>
       <c r="J61"/>
       <c r="K61"/>
       <c r="L61" t="n">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="M61" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="N61"/>
-      <c r="O61"/>
+        <v>0.09</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.0247</v>
+      </c>
+      <c r="O61" t="n">
+        <v>40.5</v>
+      </c>
       <c r="P61" t="s">
         <v>332</v>
       </c>
@@ -6811,7 +6845,7 @@
         <v>336</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44663</v>
+        <v>44670</v>
       </c>
       <c r="D62" t="s">
         <v>337</v>
@@ -6821,31 +6855,31 @@
       </c>
       <c r="F62"/>
       <c r="G62" t="n">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="H62" t="n">
-        <v>10591036</v>
+        <v>10644343</v>
       </c>
       <c r="I62" t="n">
-        <v>1908.858</v>
+        <v>1918.466</v>
       </c>
       <c r="J62" t="n">
-        <v>12203</v>
+        <v>8320</v>
       </c>
       <c r="K62" t="n">
-        <v>2.199</v>
+        <v>1.5</v>
       </c>
       <c r="L62" t="n">
-        <v>10693</v>
+        <v>6991</v>
       </c>
       <c r="M62" t="n">
-        <v>1.927</v>
+        <v>1.26</v>
       </c>
       <c r="N62" t="n">
-        <v>0.388</v>
+        <v>0.435</v>
       </c>
       <c r="O62" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="P62" t="s">
         <v>339</v>
@@ -6868,7 +6902,7 @@
         <v>343</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44665</v>
+        <v>44669</v>
       </c>
       <c r="D63" t="s">
         <v>344</v>
@@ -6878,31 +6912,31 @@
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="H63" t="n">
-        <v>265380484</v>
+        <v>266263906</v>
       </c>
       <c r="I63" t="n">
-        <v>3936.111</v>
+        <v>3949.214</v>
       </c>
       <c r="J63" t="n">
-        <v>413411</v>
+        <v>109622</v>
       </c>
       <c r="K63" t="n">
-        <v>6.132</v>
+        <v>1.626</v>
       </c>
       <c r="L63" t="n">
-        <v>411153</v>
+        <v>316907</v>
       </c>
       <c r="M63" t="n">
-        <v>6.098</v>
+        <v>4.7</v>
       </c>
       <c r="N63" t="n">
-        <v>0.32</v>
+        <v>0.301</v>
       </c>
       <c r="O63" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P63" t="s">
         <v>345</v>
@@ -6951,8 +6985,12 @@
       <c r="M64" t="n">
         <v>0.078</v>
       </c>
-      <c r="N64"/>
-      <c r="O64"/>
+      <c r="N64" t="n">
+        <v>0.0048</v>
+      </c>
+      <c r="O64" t="n">
+        <v>206.5</v>
+      </c>
       <c r="P64" t="s">
         <v>36</v>
       </c>
@@ -7084,7 +7122,7 @@
         <v>363</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>44654</v>
+        <v>44668</v>
       </c>
       <c r="D67" t="s">
         <v>364</v>
@@ -7094,27 +7132,27 @@
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H67" t="n">
-        <v>122262891</v>
+        <v>124987432</v>
       </c>
       <c r="I67" t="n">
-        <v>1457.237</v>
+        <v>1489.711</v>
       </c>
       <c r="J67"/>
       <c r="K67"/>
       <c r="L67" t="n">
-        <v>277585</v>
+        <v>162673</v>
       </c>
       <c r="M67" t="n">
-        <v>3.309</v>
+        <v>1.939</v>
       </c>
       <c r="N67" t="n">
-        <v>0.519</v>
+        <v>0.547</v>
       </c>
       <c r="O67" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="P67" t="s">
         <v>365</v>
@@ -7163,8 +7201,12 @@
       <c r="M68" t="n">
         <v>0.017</v>
       </c>
-      <c r="N68"/>
-      <c r="O68"/>
+      <c r="N68" t="n">
+        <v>0.0077</v>
+      </c>
+      <c r="O68" t="n">
+        <v>129.5</v>
+      </c>
       <c r="P68" t="s">
         <v>36</v>
       </c>
@@ -7239,7 +7281,7 @@
         <v>377</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44669</v>
+        <v>44673</v>
       </c>
       <c r="D70" t="s">
         <v>378</v>
@@ -7249,21 +7291,21 @@
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H70" t="n">
-        <v>77990894</v>
+        <v>78799329</v>
       </c>
       <c r="I70" t="n">
-        <v>7520.277</v>
+        <v>7598.231</v>
       </c>
       <c r="J70"/>
       <c r="K70"/>
       <c r="L70" t="n">
-        <v>180495</v>
+        <v>182612</v>
       </c>
       <c r="M70" t="n">
-        <v>17.404</v>
+        <v>17.608</v>
       </c>
       <c r="N70"/>
       <c r="O70"/>
@@ -7288,7 +7330,7 @@
         <v>384</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44664</v>
+        <v>44671</v>
       </c>
       <c r="D71" t="s">
         <v>385</v>
@@ -7298,27 +7340,31 @@
       </c>
       <c r="F71"/>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H71" t="n">
-        <v>146475</v>
+        <v>147982</v>
       </c>
       <c r="I71" t="n">
-        <v>1296.067</v>
-      </c>
-      <c r="J71"/>
-      <c r="K71"/>
+        <v>1309.401</v>
+      </c>
+      <c r="J71" t="n">
+        <v>392</v>
+      </c>
+      <c r="K71" t="n">
+        <v>3.469</v>
+      </c>
       <c r="L71" t="n">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="M71" t="n">
-        <v>1.77</v>
+        <v>1.902</v>
       </c>
       <c r="N71" t="n">
-        <v>0.0486</v>
+        <v>0.1296</v>
       </c>
       <c r="O71" t="n">
-        <v>20.6</v>
+        <v>7.7</v>
       </c>
       <c r="P71" t="s">
         <v>386</v>
@@ -7341,7 +7387,7 @@
         <v>390</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>44664</v>
+        <v>44668</v>
       </c>
       <c r="D72" t="s">
         <v>391</v>
@@ -7351,31 +7397,31 @@
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="H72" t="n">
-        <v>282366</v>
+        <v>284436</v>
       </c>
       <c r="I72" t="n">
-        <v>1659.181</v>
+        <v>1671.344</v>
       </c>
       <c r="J72" t="n">
-        <v>302</v>
+        <v>55</v>
       </c>
       <c r="K72" t="n">
-        <v>1.775</v>
+        <v>0.323</v>
       </c>
       <c r="L72" t="n">
-        <v>292</v>
+        <v>398</v>
       </c>
       <c r="M72" t="n">
-        <v>1.716</v>
+        <v>2.339</v>
       </c>
       <c r="N72" t="n">
-        <v>0.07</v>
+        <v>0.053</v>
       </c>
       <c r="O72" t="n">
-        <v>14.3</v>
+        <v>18.9</v>
       </c>
       <c r="P72" t="s">
         <v>392</v>
@@ -7534,8 +7580,12 @@
       <c r="M75" t="n">
         <v>0.053</v>
       </c>
-      <c r="N75"/>
-      <c r="O75"/>
+      <c r="N75" t="n">
+        <v>0.0067</v>
+      </c>
+      <c r="O75" t="n">
+        <v>149.9</v>
+      </c>
       <c r="P75" t="s">
         <v>36</v>
       </c>
@@ -7610,7 +7660,7 @@
         <v>415</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>44660</v>
+        <v>44664</v>
       </c>
       <c r="D77" t="s">
         <v>416</v>
@@ -7620,27 +7670,27 @@
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H77" t="n">
-        <v>191744</v>
+        <v>193793</v>
       </c>
       <c r="I77" t="n">
-        <v>16.613</v>
+        <v>16.791</v>
       </c>
       <c r="J77"/>
       <c r="K77"/>
       <c r="L77" t="n">
-        <v>215</v>
+        <v>385</v>
       </c>
       <c r="M77" t="n">
-        <v>0.019</v>
+        <v>0.033</v>
       </c>
       <c r="N77" t="n">
-        <v>0.0239</v>
+        <v>0.0041</v>
       </c>
       <c r="O77" t="n">
-        <v>41.8</v>
+        <v>245.1</v>
       </c>
       <c r="P77" t="s">
         <v>418</v>
@@ -7716,7 +7766,7 @@
         <v>429</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>44665</v>
+        <v>44673</v>
       </c>
       <c r="D79" t="s">
         <v>430</v>
@@ -7728,32 +7778,28 @@
         <v>432</v>
       </c>
       <c r="G79" t="n">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="H79" t="n">
-        <v>10793737</v>
+        <v>10844283</v>
       </c>
       <c r="I79" t="n">
-        <v>1120.361</v>
+        <v>1125.607</v>
       </c>
       <c r="J79" t="n">
-        <v>11211</v>
+        <v>9592</v>
       </c>
       <c r="K79" t="n">
-        <v>1.164</v>
+        <v>0.996</v>
       </c>
       <c r="L79" t="n">
-        <v>9214</v>
+        <v>6344</v>
       </c>
       <c r="M79" t="n">
-        <v>0.956</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0.2151</v>
-      </c>
-      <c r="O79" t="n">
-        <v>4.6</v>
-      </c>
+        <v>0.658</v>
+      </c>
+      <c r="N79"/>
+      <c r="O79"/>
       <c r="P79" t="s">
         <v>431</v>
       </c>
@@ -7775,7 +7821,7 @@
         <v>436</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44662</v>
+        <v>44672</v>
       </c>
       <c r="D80" t="s">
         <v>437</v>
@@ -7785,28 +7831,32 @@
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>771</v>
+        <v>781</v>
       </c>
       <c r="H80" t="n">
-        <v>1306152</v>
+        <v>1315837</v>
       </c>
       <c r="I80" t="n">
-        <v>3541.704</v>
+        <v>3567.965</v>
       </c>
       <c r="J80" t="n">
-        <v>1048</v>
+        <v>843</v>
       </c>
       <c r="K80" t="n">
-        <v>2.842</v>
+        <v>2.286</v>
       </c>
       <c r="L80" t="n">
-        <v>1126</v>
+        <v>916</v>
       </c>
       <c r="M80" t="n">
-        <v>3.053</v>
-      </c>
-      <c r="N80"/>
-      <c r="O80"/>
+        <v>2.484</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="O80" t="n">
+        <v>13.3</v>
+      </c>
       <c r="P80" t="s">
         <v>438</v>
       </c>
@@ -7828,7 +7878,7 @@
         <v>441</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>44668</v>
+        <v>44672</v>
       </c>
       <c r="D81" t="s">
         <v>442</v>
@@ -7840,31 +7890,31 @@
         <v>444</v>
       </c>
       <c r="G81" t="n">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="H81" t="n">
-        <v>831843406</v>
+        <v>833377052</v>
       </c>
       <c r="I81" t="n">
-        <v>596.984</v>
+        <v>598.085</v>
       </c>
       <c r="J81" t="n">
-        <v>365118</v>
+        <v>449114</v>
       </c>
       <c r="K81" t="n">
-        <v>0.262</v>
+        <v>0.322</v>
       </c>
       <c r="L81" t="n">
-        <v>5427952</v>
+        <v>366699</v>
       </c>
       <c r="M81" t="n">
-        <v>3.895</v>
+        <v>0.263</v>
       </c>
       <c r="N81" t="n">
-        <v>0.0002</v>
+        <v>0.0049</v>
       </c>
       <c r="O81" t="n">
-        <v>4663.2</v>
+        <v>206.1</v>
       </c>
       <c r="P81" t="s">
         <v>443</v>
@@ -7944,7 +7994,7 @@
         <v>453</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44669</v>
+        <v>44671</v>
       </c>
       <c r="D83" t="s">
         <v>454</v>
@@ -7954,24 +8004,28 @@
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H83" t="n">
-        <v>50484026</v>
+        <v>50601607</v>
       </c>
       <c r="I83" t="n">
-        <v>593.729</v>
+        <v>595.112</v>
       </c>
       <c r="J83"/>
       <c r="K83"/>
       <c r="L83" t="n">
-        <v>57719</v>
+        <v>57996</v>
       </c>
       <c r="M83" t="n">
-        <v>0.679</v>
-      </c>
-      <c r="N83"/>
-      <c r="O83"/>
+        <v>0.682</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.0309</v>
+      </c>
+      <c r="O83" t="n">
+        <v>32.4</v>
+      </c>
       <c r="P83" t="s">
         <v>456</v>
       </c>
@@ -8046,7 +8100,7 @@
         <v>462</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44666</v>
+        <v>44673</v>
       </c>
       <c r="D85" t="s">
         <v>463</v>
@@ -8056,25 +8110,25 @@
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="H85" t="n">
-        <v>11971043</v>
+        <v>12016948</v>
       </c>
       <c r="I85" t="n">
-        <v>2402.423</v>
+        <v>2411.635</v>
       </c>
       <c r="J85" t="n">
-        <v>7260</v>
+        <v>6415</v>
       </c>
       <c r="K85" t="n">
-        <v>1.457</v>
+        <v>1.287</v>
       </c>
       <c r="L85" t="n">
-        <v>8446</v>
+        <v>6351</v>
       </c>
       <c r="M85" t="n">
-        <v>1.695</v>
+        <v>1.275</v>
       </c>
       <c r="N85"/>
       <c r="O85"/>
@@ -8099,7 +8153,7 @@
         <v>468</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44668</v>
+        <v>44671</v>
       </c>
       <c r="D86" t="s">
         <v>469</v>
@@ -8109,31 +8163,31 @@
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="H86" t="n">
-        <v>49436058</v>
+        <v>49588260</v>
       </c>
       <c r="I86" t="n">
-        <v>5320.854</v>
+        <v>5337.236</v>
       </c>
       <c r="J86" t="n">
-        <v>39608</v>
+        <v>52109</v>
       </c>
       <c r="K86" t="n">
-        <v>4.263</v>
+        <v>5.609</v>
       </c>
       <c r="L86" t="n">
-        <v>48936</v>
+        <v>45992</v>
       </c>
       <c r="M86" t="n">
-        <v>5.267</v>
+        <v>4.95</v>
       </c>
       <c r="N86" t="n">
-        <v>0.093</v>
+        <v>0.087</v>
       </c>
       <c r="O86" t="n">
-        <v>10.8</v>
+        <v>11.5</v>
       </c>
       <c r="P86" t="s">
         <v>53</v>
@@ -8156,7 +8210,7 @@
         <v>474</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44668</v>
+        <v>44672</v>
       </c>
       <c r="D87" t="s">
         <v>475</v>
@@ -8168,31 +8222,31 @@
         <v>477</v>
       </c>
       <c r="G87" t="n">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="H87" t="n">
-        <v>209170287</v>
+        <v>210506904</v>
       </c>
       <c r="I87" t="n">
-        <v>3464.95</v>
+        <v>3487.092</v>
       </c>
       <c r="J87" t="n">
-        <v>334224</v>
+        <v>446180</v>
       </c>
       <c r="K87" t="n">
-        <v>5.536</v>
+        <v>7.391</v>
       </c>
       <c r="L87" t="n">
-        <v>395765</v>
+        <v>356115</v>
       </c>
       <c r="M87" t="n">
-        <v>6.556</v>
+        <v>5.899</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1516</v>
+        <v>0.161</v>
       </c>
       <c r="O87" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="P87" t="s">
         <v>478</v>
@@ -8215,7 +8269,7 @@
         <v>482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44667</v>
+        <v>44671</v>
       </c>
       <c r="D88" t="s">
         <v>483</v>
@@ -8225,31 +8279,27 @@
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="H88" t="n">
-        <v>967084</v>
+        <v>975768</v>
       </c>
       <c r="I88" t="n">
-        <v>325.238</v>
-      </c>
-      <c r="J88" t="n">
-        <v>2798</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.941</v>
-      </c>
+        <v>328.159</v>
+      </c>
+      <c r="J88"/>
+      <c r="K88"/>
       <c r="L88" t="n">
-        <v>2577</v>
+        <v>2364</v>
       </c>
       <c r="M88" t="n">
-        <v>0.867</v>
+        <v>0.795</v>
       </c>
       <c r="N88" t="n">
-        <v>0.0128</v>
+        <v>0.0144</v>
       </c>
       <c r="O88" t="n">
-        <v>78.1</v>
+        <v>69.2</v>
       </c>
       <c r="P88" t="s">
         <v>484</v>
@@ -8272,7 +8322,7 @@
         <v>488</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44667</v>
+        <v>44672</v>
       </c>
       <c r="D89" t="s">
         <v>489</v>
@@ -8282,31 +8332,31 @@
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="H89" t="n">
-        <v>43790575</v>
+        <v>44500652</v>
       </c>
       <c r="I89" t="n">
-        <v>347.404</v>
+        <v>353.037</v>
       </c>
       <c r="J89" t="n">
-        <v>103641</v>
+        <v>135695</v>
       </c>
       <c r="K89" t="n">
-        <v>0.822</v>
+        <v>1.077</v>
       </c>
       <c r="L89" t="n">
-        <v>130093</v>
+        <v>141059</v>
       </c>
       <c r="M89" t="n">
-        <v>1.032</v>
+        <v>1.119</v>
       </c>
       <c r="N89" t="n">
-        <v>0.3755</v>
+        <v>0.3001</v>
       </c>
       <c r="O89" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="P89" t="s">
         <v>490</v>
@@ -8355,8 +8405,12 @@
       <c r="M90" t="n">
         <v>0.61</v>
       </c>
-      <c r="N90"/>
-      <c r="O90"/>
+      <c r="N90" t="n">
+        <v>0.0169</v>
+      </c>
+      <c r="O90" t="n">
+        <v>59.2</v>
+      </c>
       <c r="P90" t="s">
         <v>496</v>
       </c>
@@ -8461,8 +8515,12 @@
       <c r="M92" t="n">
         <v>0.035</v>
       </c>
-      <c r="N92"/>
-      <c r="O92"/>
+      <c r="N92" t="n">
+        <v>0.0046</v>
+      </c>
+      <c r="O92" t="n">
+        <v>218.2</v>
+      </c>
       <c r="P92" t="s">
         <v>36</v>
       </c>
@@ -8643,7 +8701,7 @@
         <v>526</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>44669</v>
+        <v>44673</v>
       </c>
       <c r="D96" t="s">
         <v>527</v>
@@ -8655,25 +8713,25 @@
         <v>529</v>
       </c>
       <c r="G96" t="n">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="H96" t="n">
-        <v>7076544</v>
+        <v>7096004</v>
       </c>
       <c r="I96" t="n">
-        <v>3790.463</v>
+        <v>3800.886</v>
       </c>
       <c r="J96" t="n">
-        <v>1233</v>
+        <v>5194</v>
       </c>
       <c r="K96" t="n">
-        <v>0.66</v>
+        <v>2.782</v>
       </c>
       <c r="L96" t="n">
-        <v>3496</v>
+        <v>3439</v>
       </c>
       <c r="M96" t="n">
-        <v>1.873</v>
+        <v>1.842</v>
       </c>
       <c r="N96"/>
       <c r="O96"/>
@@ -8724,8 +8782,12 @@
       <c r="M97" t="n">
         <v>2.17</v>
       </c>
-      <c r="N97"/>
-      <c r="O97"/>
+      <c r="N97" t="n">
+        <v>0.0091</v>
+      </c>
+      <c r="O97" t="n">
+        <v>110.4</v>
+      </c>
       <c r="P97" t="s">
         <v>534</v>
       </c>
@@ -8773,7 +8835,9 @@
       <c r="M98" t="n">
         <v>0.224</v>
       </c>
-      <c r="N98"/>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
       <c r="O98"/>
       <c r="P98" t="s">
         <v>36</v>
@@ -9000,7 +9064,7 @@
         <v>560</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44665</v>
+        <v>44671</v>
       </c>
       <c r="D103" t="s">
         <v>561</v>
@@ -9010,31 +9074,31 @@
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="H103" t="n">
-        <v>4200517</v>
+        <v>4211394</v>
       </c>
       <c r="I103" t="n">
-        <v>6616.926</v>
+        <v>6634.06</v>
       </c>
       <c r="J103" t="n">
-        <v>2367</v>
+        <v>3710</v>
       </c>
       <c r="K103" t="n">
-        <v>3.729</v>
+        <v>5.844</v>
       </c>
       <c r="L103" t="n">
-        <v>2276</v>
+        <v>1892</v>
       </c>
       <c r="M103" t="n">
-        <v>3.585</v>
+        <v>2.98</v>
       </c>
       <c r="N103" t="n">
-        <v>0.354</v>
+        <v>0.347</v>
       </c>
       <c r="O103" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P103" t="s">
         <v>562</v>
@@ -9136,8 +9200,12 @@
       <c r="M105" t="n">
         <v>0.016</v>
       </c>
-      <c r="N105"/>
-      <c r="O105"/>
+      <c r="N105" t="n">
+        <v>0.0101</v>
+      </c>
+      <c r="O105" t="n">
+        <v>98.6</v>
+      </c>
       <c r="P105" t="s">
         <v>36</v>
       </c>
@@ -9159,7 +9227,7 @@
         <v>571</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44664</v>
+        <v>44670</v>
       </c>
       <c r="D106" t="s">
         <v>572</v>
@@ -9171,31 +9239,31 @@
         <v>574</v>
       </c>
       <c r="G106" t="n">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="H106" t="n">
-        <v>57725182</v>
+        <v>58103722</v>
       </c>
       <c r="I106" t="n">
-        <v>1761.192</v>
+        <v>1772.742</v>
       </c>
       <c r="J106" t="n">
-        <v>77338</v>
+        <v>58132</v>
       </c>
       <c r="K106" t="n">
-        <v>2.36</v>
+        <v>1.774</v>
       </c>
       <c r="L106" t="n">
-        <v>79124</v>
+        <v>65125</v>
       </c>
       <c r="M106" t="n">
-        <v>2.414</v>
+        <v>1.987</v>
       </c>
       <c r="N106" t="n">
-        <v>0.13</v>
+        <v>0.1309</v>
       </c>
       <c r="O106" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="P106" t="s">
         <v>53</v>
@@ -9218,7 +9286,7 @@
         <v>578</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44634</v>
+        <v>44671</v>
       </c>
       <c r="D107" t="s">
         <v>579</v>
@@ -9228,13 +9296,13 @@
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H107" t="n">
-        <v>2209010</v>
+        <v>2211113</v>
       </c>
       <c r="I107" t="n">
-        <v>4063.519</v>
+        <v>4067.387</v>
       </c>
       <c r="J107" t="n">
         <v>2103</v>
@@ -9243,17 +9311,13 @@
         <v>3.869</v>
       </c>
       <c r="L107" t="n">
-        <v>1873</v>
+        <v>57</v>
       </c>
       <c r="M107" t="n">
-        <v>3.445</v>
-      </c>
-      <c r="N107" t="n">
-        <v>0.1216</v>
-      </c>
-      <c r="O107" t="n">
-        <v>8.2</v>
-      </c>
+        <v>0.105</v>
+      </c>
+      <c r="N107"/>
+      <c r="O107"/>
       <c r="P107" t="s">
         <v>580</v>
       </c>
@@ -9301,8 +9365,12 @@
       <c r="M108" t="n">
         <v>0.032</v>
       </c>
-      <c r="N108"/>
-      <c r="O108"/>
+      <c r="N108" t="n">
+        <v>0.0198</v>
+      </c>
+      <c r="O108" t="n">
+        <v>50.6</v>
+      </c>
       <c r="P108" t="s">
         <v>36</v>
       </c>
@@ -9324,7 +9392,7 @@
         <v>587</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44669</v>
+        <v>44673</v>
       </c>
       <c r="D109" t="s">
         <v>588</v>
@@ -9334,25 +9402,25 @@
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="H109" t="n">
-        <v>1859492</v>
+        <v>1868587</v>
       </c>
       <c r="I109" t="n">
-        <v>3602.968</v>
+        <v>3620.591</v>
       </c>
       <c r="J109" t="n">
-        <v>1949</v>
+        <v>2038</v>
       </c>
       <c r="K109" t="n">
-        <v>3.776</v>
+        <v>3.949</v>
       </c>
       <c r="L109" t="n">
-        <v>2607</v>
+        <v>2217</v>
       </c>
       <c r="M109" t="n">
-        <v>5.051</v>
+        <v>4.296</v>
       </c>
       <c r="N109"/>
       <c r="O109"/>
@@ -9458,8 +9526,12 @@
       <c r="M111" t="n">
         <v>0.084</v>
       </c>
-      <c r="N111"/>
-      <c r="O111"/>
+      <c r="N111" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="O111" t="n">
+        <v>705.8</v>
+      </c>
       <c r="P111" t="s">
         <v>598</v>
       </c>
@@ -9526,7 +9598,7 @@
         <v>605</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44667</v>
+        <v>44671</v>
       </c>
       <c r="D113" t="s">
         <v>606</v>
@@ -9536,31 +9608,31 @@
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="H113" t="n">
-        <v>15027329</v>
+        <v>15058367</v>
       </c>
       <c r="I113" t="n">
-        <v>115.362</v>
+        <v>115.6</v>
       </c>
       <c r="J113" t="n">
-        <v>376</v>
+        <v>2256</v>
       </c>
       <c r="K113" t="n">
-        <v>0.003</v>
+        <v>0.017</v>
       </c>
       <c r="L113" t="n">
-        <v>2760</v>
+        <v>2880</v>
       </c>
       <c r="M113" t="n">
-        <v>0.021</v>
+        <v>0.022</v>
       </c>
       <c r="N113" t="n">
-        <v>0.102</v>
+        <v>0.104</v>
       </c>
       <c r="O113" t="n">
-        <v>9.8</v>
+        <v>9.6</v>
       </c>
       <c r="P113" t="s">
         <v>608</v>
@@ -9628,7 +9700,7 @@
         <v>618</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>44666</v>
+        <v>44672</v>
       </c>
       <c r="D115" t="s">
         <v>619</v>
@@ -9638,27 +9710,27 @@
       </c>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H115" t="n">
-        <v>7368559</v>
+        <v>7388718</v>
       </c>
       <c r="I115" t="n">
-        <v>2213.258</v>
+        <v>2219.313</v>
       </c>
       <c r="J115"/>
       <c r="K115"/>
       <c r="L115" t="n">
-        <v>3266</v>
+        <v>3328</v>
       </c>
       <c r="M115" t="n">
-        <v>0.981</v>
+        <v>1</v>
       </c>
       <c r="N115" t="n">
-        <v>0.0109</v>
+        <v>0.0091</v>
       </c>
       <c r="O115" t="n">
-        <v>91.8</v>
+        <v>109.4</v>
       </c>
       <c r="P115" t="s">
         <v>53</v>
@@ -9681,7 +9753,7 @@
         <v>623</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44668</v>
+        <v>44672</v>
       </c>
       <c r="D116" t="s">
         <v>624</v>
@@ -9691,27 +9763,27 @@
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H116" t="n">
-        <v>11377550</v>
+        <v>11406182</v>
       </c>
       <c r="I116" t="n">
-        <v>304.662</v>
+        <v>305.429</v>
       </c>
       <c r="J116"/>
       <c r="K116"/>
       <c r="L116" t="n">
-        <v>5776</v>
+        <v>6616</v>
       </c>
       <c r="M116" t="n">
-        <v>0.155</v>
+        <v>0.177</v>
       </c>
       <c r="N116" t="n">
-        <v>0.0087</v>
+        <v>0.0067</v>
       </c>
       <c r="O116" t="n">
-        <v>115.2</v>
+        <v>150.4</v>
       </c>
       <c r="P116" t="s">
         <v>625</v>
@@ -9760,8 +9832,12 @@
       <c r="M117" t="n">
         <v>0.016</v>
       </c>
-      <c r="N117"/>
-      <c r="O117"/>
+      <c r="N117" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O117" t="n">
+        <v>99.9</v>
+      </c>
       <c r="P117" t="s">
         <v>36</v>
       </c>
@@ -9783,7 +9859,7 @@
         <v>632</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44667</v>
+        <v>44673</v>
       </c>
       <c r="D118" t="s">
         <v>633</v>
@@ -9793,28 +9869,24 @@
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H118" t="n">
-        <v>7828510</v>
+        <v>7882371</v>
       </c>
       <c r="I118" t="n">
-        <v>142.84</v>
+        <v>143.823</v>
       </c>
       <c r="J118"/>
       <c r="K118"/>
       <c r="L118" t="n">
-        <v>8334</v>
+        <v>8906</v>
       </c>
       <c r="M118" t="n">
-        <v>0.152</v>
-      </c>
-      <c r="N118" t="n">
-        <v>0.0046</v>
-      </c>
-      <c r="O118" t="n">
-        <v>218.5</v>
-      </c>
+        <v>0.163</v>
+      </c>
+      <c r="N118"/>
+      <c r="O118"/>
       <c r="P118" t="s">
         <v>634</v>
       </c>
@@ -9862,8 +9934,12 @@
       <c r="M119" t="n">
         <v>0.241</v>
       </c>
-      <c r="N119"/>
-      <c r="O119"/>
+      <c r="N119" t="n">
+        <v>0.0408</v>
+      </c>
+      <c r="O119" t="n">
+        <v>24.5</v>
+      </c>
       <c r="P119" t="s">
         <v>639</v>
       </c>
@@ -9885,7 +9961,7 @@
         <v>643</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>44669</v>
+        <v>44673</v>
       </c>
       <c r="D120" t="s">
         <v>644</v>
@@ -9895,21 +9971,21 @@
       </c>
       <c r="F120"/>
       <c r="G120" t="n">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H120" t="n">
-        <v>6752177</v>
+        <v>6767655</v>
       </c>
       <c r="I120" t="n">
-        <v>227.538</v>
+        <v>228.06</v>
       </c>
       <c r="J120"/>
       <c r="K120"/>
       <c r="L120" t="n">
-        <v>4037</v>
+        <v>3957</v>
       </c>
       <c r="M120" t="n">
-        <v>0.136</v>
+        <v>0.133</v>
       </c>
       <c r="N120" t="n">
         <v>0.004</v>
@@ -9938,7 +10014,7 @@
         <v>649</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>44664</v>
+        <v>44671</v>
       </c>
       <c r="D121" t="s">
         <v>650</v>
@@ -9948,28 +10024,28 @@
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="H121" t="n">
-        <v>30508980</v>
+        <v>30539843</v>
       </c>
       <c r="I121" t="n">
-        <v>1776.557</v>
+        <v>1778.354</v>
       </c>
       <c r="J121" t="n">
-        <v>6844</v>
+        <v>4448</v>
       </c>
       <c r="K121" t="n">
-        <v>0.399</v>
+        <v>0.259</v>
       </c>
       <c r="L121" t="n">
-        <v>10515</v>
+        <v>4409</v>
       </c>
       <c r="M121" t="n">
-        <v>0.612</v>
+        <v>0.257</v>
       </c>
       <c r="N121" t="n">
-        <v>0.602</v>
+        <v>0.582</v>
       </c>
       <c r="O121" t="n">
         <v>1.7</v>
@@ -9995,7 +10071,7 @@
         <v>655</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44669</v>
+        <v>44673</v>
       </c>
       <c r="D122" t="s">
         <v>656</v>
@@ -10005,21 +10081,21 @@
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H122" t="n">
-        <v>6971077</v>
+        <v>6980390</v>
       </c>
       <c r="I122" t="n">
-        <v>1359.865</v>
+        <v>1361.682</v>
       </c>
       <c r="J122"/>
       <c r="K122"/>
       <c r="L122" t="n">
-        <v>2387</v>
+        <v>1915</v>
       </c>
       <c r="M122" t="n">
-        <v>0.466</v>
+        <v>0.374</v>
       </c>
       <c r="N122"/>
       <c r="O122"/>
@@ -10123,8 +10199,12 @@
       <c r="M124" t="n">
         <v>0.018</v>
       </c>
-      <c r="N124"/>
-      <c r="O124"/>
+      <c r="N124" t="n">
+        <v>0.0116</v>
+      </c>
+      <c r="O124" t="n">
+        <v>86.3</v>
+      </c>
       <c r="P124" t="s">
         <v>36</v>
       </c>
@@ -10172,8 +10252,12 @@
       <c r="M125" t="n">
         <v>0.031</v>
       </c>
-      <c r="N125"/>
-      <c r="O125"/>
+      <c r="N125" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="O125" t="n">
+        <v>1008.6</v>
+      </c>
       <c r="P125" t="s">
         <v>669</v>
       </c>
@@ -10195,7 +10279,7 @@
         <v>673</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>44669</v>
+        <v>44672</v>
       </c>
       <c r="D126" t="s">
         <v>674</v>
@@ -10205,24 +10289,28 @@
       </c>
       <c r="F126"/>
       <c r="G126" t="n">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H126" t="n">
-        <v>1997169</v>
+        <v>2003269</v>
       </c>
       <c r="I126" t="n">
-        <v>958.951</v>
+        <v>961.88</v>
       </c>
       <c r="J126"/>
       <c r="K126"/>
       <c r="L126" t="n">
-        <v>1811</v>
+        <v>1753</v>
       </c>
       <c r="M126" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="N126"/>
-      <c r="O126"/>
+        <v>0.842</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.0546</v>
+      </c>
+      <c r="O126" t="n">
+        <v>18.3</v>
+      </c>
       <c r="P126" t="s">
         <v>53</v>
       </c>
@@ -10301,7 +10389,7 @@
         <v>681</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44668</v>
+        <v>44671</v>
       </c>
       <c r="D128" t="s">
         <v>682</v>
@@ -10311,31 +10399,31 @@
       </c>
       <c r="F128"/>
       <c r="G128" t="n">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="H128" t="n">
-        <v>11056745</v>
+        <v>11065175</v>
       </c>
       <c r="I128" t="n">
-        <v>2022.959</v>
+        <v>2024.502</v>
       </c>
       <c r="J128" t="n">
-        <v>638</v>
+        <v>2472</v>
       </c>
       <c r="K128" t="n">
-        <v>0.117</v>
+        <v>0.452</v>
       </c>
       <c r="L128" t="n">
-        <v>1675</v>
+        <v>1722</v>
       </c>
       <c r="M128" t="n">
-        <v>0.306</v>
+        <v>0.315</v>
       </c>
       <c r="N128" t="n">
-        <v>0.144</v>
+        <v>0.268</v>
       </c>
       <c r="O128" t="n">
-        <v>6.9</v>
+        <v>3.7</v>
       </c>
       <c r="P128" t="s">
         <v>683</v>
@@ -10407,7 +10495,7 @@
         <v>688</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>44669</v>
+        <v>44673</v>
       </c>
       <c r="D130" t="s">
         <v>689</v>
@@ -10417,21 +10505,21 @@
       </c>
       <c r="F130"/>
       <c r="G130" t="n">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H130" t="n">
-        <v>27926021</v>
+        <v>28008999</v>
       </c>
       <c r="I130" t="n">
-        <v>124.005</v>
+        <v>124.374</v>
       </c>
       <c r="J130"/>
       <c r="K130"/>
       <c r="L130" t="n">
-        <v>23272</v>
+        <v>25481</v>
       </c>
       <c r="M130" t="n">
-        <v>0.103</v>
+        <v>0.113</v>
       </c>
       <c r="N130"/>
       <c r="O130"/>
@@ -10501,7 +10589,7 @@
         <v>699</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>44668</v>
+        <v>44671</v>
       </c>
       <c r="D132" t="s">
         <v>700</v>
@@ -10511,31 +10599,27 @@
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="H132" t="n">
-        <v>5786752</v>
+        <v>5804304</v>
       </c>
       <c r="I132" t="n">
-        <v>1320.699</v>
-      </c>
-      <c r="J132" t="n">
-        <v>3951</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.902</v>
-      </c>
+        <v>1324.705</v>
+      </c>
+      <c r="J132"/>
+      <c r="K132"/>
       <c r="L132" t="n">
-        <v>4757</v>
+        <v>4872</v>
       </c>
       <c r="M132" t="n">
-        <v>1.086</v>
+        <v>1.112</v>
       </c>
       <c r="N132" t="n">
-        <v>0.0559</v>
+        <v>0.0628</v>
       </c>
       <c r="O132" t="n">
-        <v>17.9</v>
+        <v>15.9</v>
       </c>
       <c r="P132" t="s">
         <v>701</v>
@@ -10768,7 +10852,7 @@
         <v>728</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>44658</v>
+        <v>44665</v>
       </c>
       <c r="D137" t="s">
         <v>729</v>
@@ -10778,27 +10862,27 @@
       </c>
       <c r="F137"/>
       <c r="G137" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H137" t="n">
-        <v>36407207</v>
+        <v>36496005</v>
       </c>
       <c r="I137" t="n">
-        <v>963.23</v>
+        <v>965.579</v>
       </c>
       <c r="J137"/>
       <c r="K137"/>
       <c r="L137" t="n">
-        <v>16740</v>
+        <v>12685</v>
       </c>
       <c r="M137" t="n">
-        <v>0.443</v>
+        <v>0.336</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1033</v>
+        <v>0.0859</v>
       </c>
       <c r="O137" t="n">
-        <v>9.7</v>
+        <v>11.6</v>
       </c>
       <c r="P137" t="s">
         <v>731</v>
@@ -10821,7 +10905,7 @@
         <v>734</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>44667</v>
+        <v>44671</v>
       </c>
       <c r="D138" t="s">
         <v>735</v>
@@ -10831,28 +10915,32 @@
       </c>
       <c r="F138"/>
       <c r="G138" t="n">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="H138" t="n">
-        <v>40733478</v>
+        <v>40899884</v>
       </c>
       <c r="I138" t="n">
-        <v>4006.077</v>
+        <v>4022.442</v>
       </c>
       <c r="J138" t="n">
-        <v>32670</v>
+        <v>48559</v>
       </c>
       <c r="K138" t="n">
-        <v>3.213</v>
+        <v>4.776</v>
       </c>
       <c r="L138" t="n">
-        <v>38404</v>
+        <v>38740</v>
       </c>
       <c r="M138" t="n">
-        <v>3.777</v>
-      </c>
-      <c r="N138"/>
-      <c r="O138"/>
+        <v>3.81</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0.1791</v>
+      </c>
+      <c r="O138" t="n">
+        <v>5.6</v>
+      </c>
       <c r="P138" t="s">
         <v>736</v>
       </c>
@@ -10874,7 +10962,7 @@
         <v>739</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>44664</v>
+        <v>44669</v>
       </c>
       <c r="D139" t="s">
         <v>391</v>
@@ -10884,25 +10972,25 @@
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="H139" t="n">
-        <v>2689280</v>
+        <v>2697659</v>
       </c>
       <c r="I139" t="n">
-        <v>950.865</v>
+        <v>953.828</v>
       </c>
       <c r="J139" t="n">
-        <v>3630</v>
+        <v>2184</v>
       </c>
       <c r="K139" t="n">
-        <v>1.283</v>
+        <v>0.772</v>
       </c>
       <c r="L139" t="n">
-        <v>2983</v>
+        <v>2347</v>
       </c>
       <c r="M139" t="n">
-        <v>1.055</v>
+        <v>0.83</v>
       </c>
       <c r="N139"/>
       <c r="O139"/>
@@ -10927,7 +11015,7 @@
         <v>742</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>44668</v>
+        <v>44672</v>
       </c>
       <c r="D140" t="s">
         <v>743</v>
@@ -10937,28 +11025,32 @@
       </c>
       <c r="F140"/>
       <c r="G140" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="H140" t="n">
-        <v>6648219</v>
+        <v>6695888</v>
       </c>
       <c r="I140" t="n">
-        <v>2268.611</v>
+        <v>2284.877</v>
       </c>
       <c r="J140" t="n">
-        <v>14232</v>
+        <v>11929</v>
       </c>
       <c r="K140" t="n">
-        <v>4.856</v>
+        <v>4.071</v>
       </c>
       <c r="L140" t="n">
-        <v>12989</v>
+        <v>11932</v>
       </c>
       <c r="M140" t="n">
-        <v>4.432</v>
-      </c>
-      <c r="N140"/>
-      <c r="O140"/>
+        <v>4.072</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0.0077</v>
+      </c>
+      <c r="O140" t="n">
+        <v>129.1</v>
+      </c>
       <c r="P140" t="s">
         <v>745</v>
       </c>
@@ -11033,7 +11125,7 @@
         <v>752</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>44668</v>
+        <v>44672</v>
       </c>
       <c r="D142" t="s">
         <v>753</v>
@@ -11043,27 +11135,27 @@
       </c>
       <c r="F142"/>
       <c r="G142" t="n">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H142" t="n">
-        <v>288248763</v>
+        <v>288916418</v>
       </c>
       <c r="I142" t="n">
-        <v>1975.497</v>
+        <v>1980.073</v>
       </c>
       <c r="J142"/>
       <c r="K142"/>
       <c r="L142" t="n">
-        <v>200500</v>
+        <v>196164</v>
       </c>
       <c r="M142" t="n">
-        <v>1.374</v>
+        <v>1.344</v>
       </c>
       <c r="N142" t="n">
-        <v>0.0551</v>
+        <v>0.0494</v>
       </c>
       <c r="O142" t="n">
-        <v>18.1</v>
+        <v>20.2</v>
       </c>
       <c r="P142" t="s">
         <v>754</v>
@@ -11086,7 +11178,7 @@
         <v>758</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>44669</v>
+        <v>44673</v>
       </c>
       <c r="D143" t="s">
         <v>759</v>
@@ -11096,25 +11188,25 @@
       </c>
       <c r="F143"/>
       <c r="G143" t="n">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="H143" t="n">
-        <v>5196697</v>
+        <v>5218611</v>
       </c>
       <c r="I143" t="n">
-        <v>391.42</v>
+        <v>393.071</v>
       </c>
       <c r="J143" t="n">
-        <v>3416</v>
+        <v>5746</v>
       </c>
       <c r="K143" t="n">
-        <v>0.257</v>
+        <v>0.433</v>
       </c>
       <c r="L143" t="n">
-        <v>4266</v>
+        <v>5128</v>
       </c>
       <c r="M143" t="n">
-        <v>0.321</v>
+        <v>0.386</v>
       </c>
       <c r="N143"/>
       <c r="O143"/>
@@ -11139,7 +11231,7 @@
         <v>764</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>44666</v>
+        <v>44673</v>
       </c>
       <c r="D144" t="s">
         <v>765</v>
@@ -11149,28 +11241,24 @@
       </c>
       <c r="F144"/>
       <c r="G144" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H144" t="n">
-        <v>68972</v>
+        <v>69289</v>
       </c>
       <c r="I144" t="n">
-        <v>1288.089</v>
+        <v>1294.009</v>
       </c>
       <c r="J144"/>
       <c r="K144"/>
       <c r="L144" t="n">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="M144" t="n">
-        <v>1.233</v>
-      </c>
-      <c r="N144" t="n">
-        <v>0.0065</v>
-      </c>
-      <c r="O144" t="n">
-        <v>153.8</v>
-      </c>
+        <v>0.84</v>
+      </c>
+      <c r="N144"/>
+      <c r="O144"/>
       <c r="P144" t="s">
         <v>53</v>
       </c>
@@ -11192,7 +11280,7 @@
         <v>769</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>44666</v>
+        <v>44672</v>
       </c>
       <c r="D145" t="s">
         <v>770</v>
@@ -11202,27 +11290,27 @@
       </c>
       <c r="F145"/>
       <c r="G145" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H145" t="n">
-        <v>141628</v>
+        <v>142292</v>
       </c>
       <c r="I145" t="n">
-        <v>768.044</v>
+        <v>771.644</v>
       </c>
       <c r="J145"/>
       <c r="K145"/>
       <c r="L145" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M145" t="n">
-        <v>0.548</v>
+        <v>0.569</v>
       </c>
       <c r="N145" t="n">
-        <v>0.0566</v>
+        <v>0.151</v>
       </c>
       <c r="O145" t="n">
-        <v>17.7</v>
+        <v>6.6</v>
       </c>
       <c r="P145" t="s">
         <v>92</v>
@@ -11245,7 +11333,7 @@
         <v>773</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>44658</v>
+        <v>44667</v>
       </c>
       <c r="D146" t="s">
         <v>774</v>
@@ -11255,27 +11343,27 @@
       </c>
       <c r="F146"/>
       <c r="G146" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H146" t="n">
-        <v>104547</v>
+        <v>104787</v>
       </c>
       <c r="I146" t="n">
-        <v>939.588</v>
+        <v>941.745</v>
       </c>
       <c r="J146"/>
       <c r="K146"/>
       <c r="L146" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M146" t="n">
-        <v>0.306</v>
+        <v>0.243</v>
       </c>
       <c r="N146" t="n">
-        <v>0.0168</v>
+        <v>0.0476</v>
       </c>
       <c r="O146" t="n">
-        <v>59.5</v>
+        <v>21</v>
       </c>
       <c r="P146" t="s">
         <v>776</v>
@@ -11298,7 +11386,7 @@
         <v>780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>44668</v>
+        <v>44672</v>
       </c>
       <c r="D147" t="s">
         <v>781</v>
@@ -11308,31 +11396,31 @@
       </c>
       <c r="F147"/>
       <c r="G147" t="n">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="H147" t="n">
-        <v>41759263</v>
+        <v>41807813</v>
       </c>
       <c r="I147" t="n">
-        <v>1181.62</v>
+        <v>1182.994</v>
       </c>
       <c r="J147" t="n">
-        <v>11868</v>
+        <v>10984</v>
       </c>
       <c r="K147" t="n">
-        <v>0.336</v>
+        <v>0.311</v>
       </c>
       <c r="L147" t="n">
-        <v>11229</v>
+        <v>11409</v>
       </c>
       <c r="M147" t="n">
-        <v>0.318</v>
+        <v>0.323</v>
       </c>
       <c r="N147" t="n">
-        <v>0.0097</v>
+        <v>0.0104</v>
       </c>
       <c r="O147" t="n">
-        <v>103.6</v>
+        <v>95.9</v>
       </c>
       <c r="P147" t="s">
         <v>53</v>
@@ -11385,8 +11473,12 @@
       <c r="M148" t="n">
         <v>0.049</v>
       </c>
-      <c r="N148"/>
-      <c r="O148"/>
+      <c r="N148" t="n">
+        <v>0.0032</v>
+      </c>
+      <c r="O148" t="n">
+        <v>308.4</v>
+      </c>
       <c r="P148" t="s">
         <v>786</v>
       </c>
@@ -11408,7 +11500,7 @@
         <v>789</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>44668</v>
+        <v>44672</v>
       </c>
       <c r="D149" t="s">
         <v>790</v>
@@ -11420,28 +11512,28 @@
         <v>791</v>
       </c>
       <c r="G149" t="n">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="H149" t="n">
-        <v>9373088</v>
+        <v>9415165</v>
       </c>
       <c r="I149" t="n">
-        <v>1364.043</v>
+        <v>1370.167</v>
       </c>
       <c r="J149" t="n">
-        <v>5657</v>
+        <v>9560</v>
       </c>
       <c r="K149" t="n">
-        <v>0.823</v>
+        <v>1.391</v>
       </c>
       <c r="L149" t="n">
-        <v>10079</v>
+        <v>9278</v>
       </c>
       <c r="M149" t="n">
-        <v>1.467</v>
+        <v>1.35</v>
       </c>
       <c r="N149" t="n">
-        <v>0.0931</v>
+        <v>0.0938</v>
       </c>
       <c r="O149" t="n">
         <v>10.7</v>
@@ -11520,7 +11612,7 @@
         <v>798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>44662</v>
+        <v>44669</v>
       </c>
       <c r="D151" t="s">
         <v>799</v>
@@ -11530,27 +11622,27 @@
       </c>
       <c r="F151"/>
       <c r="G151" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H151"/>
       <c r="I151"/>
       <c r="J151" t="n">
-        <v>34100</v>
+        <v>33700</v>
       </c>
       <c r="K151" t="n">
-        <v>6.253</v>
+        <v>6.179</v>
       </c>
       <c r="L151" t="n">
-        <v>34100</v>
+        <v>33700</v>
       </c>
       <c r="M151" t="n">
-        <v>6.253</v>
+        <v>6.179</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1291</v>
+        <v>0.0942</v>
       </c>
       <c r="O151" t="n">
-        <v>7.7</v>
+        <v>10.6</v>
       </c>
       <c r="P151" t="s">
         <v>53</v>
@@ -11632,7 +11724,7 @@
         <v>809</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>44668</v>
+        <v>44672</v>
       </c>
       <c r="D153" t="s">
         <v>810</v>
@@ -11644,31 +11736,31 @@
         <v>812</v>
       </c>
       <c r="G153" t="n">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="H153" t="n">
-        <v>4985853</v>
+        <v>5027126</v>
       </c>
       <c r="I153" t="n">
-        <v>2398.517</v>
+        <v>2418.372</v>
       </c>
       <c r="J153" t="n">
-        <v>2332</v>
+        <v>9672</v>
       </c>
       <c r="K153" t="n">
-        <v>1.122</v>
+        <v>4.653</v>
       </c>
       <c r="L153" t="n">
-        <v>9065</v>
+        <v>8048</v>
       </c>
       <c r="M153" t="n">
-        <v>4.361</v>
+        <v>3.872</v>
       </c>
       <c r="N153" t="n">
-        <v>0.148</v>
+        <v>0.13</v>
       </c>
       <c r="O153" t="n">
-        <v>6.8</v>
+        <v>7.7</v>
       </c>
       <c r="P153" t="s">
         <v>813</v>
@@ -11736,7 +11828,7 @@
         <v>819</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>44668</v>
+        <v>44672</v>
       </c>
       <c r="D155" t="s">
         <v>820</v>
@@ -11748,31 +11840,31 @@
         <v>822</v>
       </c>
       <c r="G155" t="n">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="H155" t="n">
-        <v>24189010</v>
+        <v>24262108</v>
       </c>
       <c r="I155" t="n">
-        <v>402.868</v>
+        <v>404.086</v>
       </c>
       <c r="J155" t="n">
-        <v>9884</v>
+        <v>27875</v>
       </c>
       <c r="K155" t="n">
-        <v>0.165</v>
+        <v>0.464</v>
       </c>
       <c r="L155" t="n">
-        <v>18408</v>
+        <v>17473</v>
       </c>
       <c r="M155" t="n">
-        <v>0.307</v>
+        <v>0.291</v>
       </c>
       <c r="N155" t="n">
-        <v>0.071</v>
+        <v>0.1102</v>
       </c>
       <c r="O155" t="n">
-        <v>14.1</v>
+        <v>9.1</v>
       </c>
       <c r="P155" t="s">
         <v>823</v>
@@ -11795,7 +11887,7 @@
         <v>826</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>44668</v>
+        <v>44671</v>
       </c>
       <c r="D156" t="s">
         <v>827</v>
@@ -11807,31 +11899,31 @@
         <v>829</v>
       </c>
       <c r="G156" t="n">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="H156" t="n">
-        <v>92405644</v>
+        <v>93035363</v>
       </c>
       <c r="I156" t="n">
-        <v>1801.098</v>
+        <v>1813.372</v>
       </c>
       <c r="J156" t="n">
-        <v>107125</v>
+        <v>201070</v>
       </c>
       <c r="K156" t="n">
-        <v>2.088</v>
+        <v>3.919</v>
       </c>
       <c r="L156" t="n">
-        <v>239924</v>
+        <v>205696</v>
       </c>
       <c r="M156" t="n">
-        <v>4.676</v>
+        <v>4.009</v>
       </c>
       <c r="N156" t="n">
-        <v>0.5531</v>
+        <v>0.4827</v>
       </c>
       <c r="O156" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="P156" t="s">
         <v>830</v>
@@ -11880,8 +11972,12 @@
       <c r="M157" t="n">
         <v>0.049</v>
       </c>
-      <c r="N157"/>
-      <c r="O157"/>
+      <c r="N157" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="O157" t="n">
+        <v>71.7</v>
+      </c>
       <c r="P157" t="s">
         <v>36</v>
       </c>
@@ -11903,7 +11999,7 @@
         <v>837</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>44667</v>
+        <v>44671</v>
       </c>
       <c r="D158" t="s">
         <v>838</v>
@@ -11913,31 +12009,31 @@
       </c>
       <c r="F158"/>
       <c r="G158" t="n">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="H158" t="n">
-        <v>89403198</v>
+        <v>89693762</v>
       </c>
       <c r="I158" t="n">
-        <v>1912.564</v>
+        <v>1918.78</v>
       </c>
       <c r="J158" t="n">
-        <v>16945</v>
+        <v>63816</v>
       </c>
       <c r="K158" t="n">
-        <v>0.362</v>
+        <v>1.365</v>
       </c>
       <c r="L158" t="n">
-        <v>37839</v>
+        <v>46433</v>
       </c>
       <c r="M158" t="n">
-        <v>0.809</v>
+        <v>0.993</v>
       </c>
       <c r="N158" t="n">
-        <v>0.244</v>
+        <v>0.256</v>
       </c>
       <c r="O158" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="P158" t="s">
         <v>839</v>
@@ -11960,7 +12056,7 @@
         <v>842</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>44668</v>
+        <v>44672</v>
       </c>
       <c r="D159" t="s">
         <v>843</v>
@@ -11970,31 +12066,31 @@
       </c>
       <c r="F159"/>
       <c r="G159" t="n">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="H159" t="n">
-        <v>7600803</v>
+        <v>7612433</v>
       </c>
       <c r="I159" t="n">
-        <v>353.57</v>
+        <v>354.111</v>
       </c>
       <c r="J159" t="n">
-        <v>1471</v>
+        <v>2309</v>
       </c>
       <c r="K159" t="n">
-        <v>0.068</v>
+        <v>0.107</v>
       </c>
       <c r="L159" t="n">
-        <v>1799</v>
+        <v>2074</v>
       </c>
       <c r="M159" t="n">
-        <v>0.084</v>
+        <v>0.096</v>
       </c>
       <c r="N159" t="n">
-        <v>0.0187</v>
+        <v>0.0183</v>
       </c>
       <c r="O159" t="n">
-        <v>53.6</v>
+        <v>54.6</v>
       </c>
       <c r="P159" t="s">
         <v>844</v>
@@ -12062,7 +12158,7 @@
         <v>850</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>44665</v>
+        <v>44672</v>
       </c>
       <c r="D161" t="s">
         <v>851</v>
@@ -12072,31 +12168,31 @@
       </c>
       <c r="F161"/>
       <c r="G161" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H161" t="n">
-        <v>82009</v>
+        <v>82126</v>
       </c>
       <c r="I161" t="n">
-        <v>138.576</v>
+        <v>138.774</v>
       </c>
       <c r="J161" t="n">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="K161" t="n">
-        <v>0.242</v>
+        <v>0.198</v>
       </c>
       <c r="L161" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M161" t="n">
-        <v>0.034</v>
+        <v>0.029</v>
       </c>
       <c r="N161" t="n">
-        <v>0.169</v>
+        <v>0.18</v>
       </c>
       <c r="O161" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="P161" t="s">
         <v>852</v>
@@ -12119,7 +12215,7 @@
         <v>855</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>44661</v>
+        <v>44668</v>
       </c>
       <c r="D162" t="s">
         <v>856</v>
@@ -12129,31 +12225,31 @@
       </c>
       <c r="F162"/>
       <c r="G162" t="n">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="H162" t="n">
-        <v>18216786</v>
+        <v>18239711</v>
       </c>
       <c r="I162" t="n">
-        <v>1792.963</v>
+        <v>1795.219</v>
       </c>
       <c r="J162" t="n">
-        <v>4051</v>
+        <v>3275</v>
       </c>
       <c r="K162" t="n">
-        <v>0.399</v>
+        <v>0.322</v>
       </c>
       <c r="L162" t="n">
-        <v>4051</v>
+        <v>3275</v>
       </c>
       <c r="M162" t="n">
-        <v>0.399</v>
+        <v>0.322</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1456</v>
+        <v>0.1752</v>
       </c>
       <c r="O162" t="n">
-        <v>6.9</v>
+        <v>5.7</v>
       </c>
       <c r="P162" t="s">
         <v>858</v>
@@ -12176,7 +12272,7 @@
         <v>862</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>44662</v>
+        <v>44669</v>
       </c>
       <c r="D163" t="s">
         <v>550</v>
@@ -12186,31 +12282,31 @@
       </c>
       <c r="F163"/>
       <c r="G163" t="n">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="H163" t="n">
-        <v>20548491</v>
+        <v>20666182</v>
       </c>
       <c r="I163" t="n">
-        <v>2357.697</v>
+        <v>2371.2</v>
       </c>
       <c r="J163" t="n">
-        <v>19196</v>
+        <v>7879</v>
       </c>
       <c r="K163" t="n">
-        <v>2.203</v>
+        <v>0.904</v>
       </c>
       <c r="L163" t="n">
-        <v>20256</v>
+        <v>16028</v>
       </c>
       <c r="M163" t="n">
-        <v>2.324</v>
+        <v>1.839</v>
       </c>
       <c r="N163" t="n">
-        <v>0.318</v>
+        <v>0.282</v>
       </c>
       <c r="O163" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P163" t="s">
         <v>551</v>
@@ -12233,37 +12329,37 @@
         <v>865</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>44632</v>
+        <v>44667</v>
       </c>
       <c r="D164" t="s">
-        <v>21</v>
+        <v>866</v>
       </c>
       <c r="E164" t="s">
-        <v>22</v>
+        <v>867</v>
       </c>
       <c r="F164"/>
       <c r="G164" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H164" t="n">
-        <v>158382</v>
+        <v>167560</v>
       </c>
       <c r="I164" t="n">
-        <v>8.666</v>
+        <v>9.168</v>
       </c>
       <c r="J164"/>
       <c r="K164"/>
       <c r="L164" t="n">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="M164" t="n">
-        <v>0.009</v>
+        <v>0.004</v>
       </c>
       <c r="N164" t="n">
-        <v>0.333</v>
+        <v>0.0604</v>
       </c>
       <c r="O164" t="n">
-        <v>3</v>
+        <v>16.6</v>
       </c>
       <c r="P164" t="s">
         <v>23</v>
@@ -12280,73 +12376,73 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B165" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>44667</v>
+        <v>44672</v>
       </c>
       <c r="D165" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="E165" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="F165"/>
       <c r="G165" t="n">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="H165" t="n">
-        <v>7707493</v>
+        <v>7951753</v>
       </c>
       <c r="I165" t="n">
-        <v>323.097</v>
+        <v>333.337</v>
       </c>
       <c r="J165" t="n">
-        <v>38603</v>
+        <v>30768</v>
       </c>
       <c r="K165" t="n">
-        <v>1.618</v>
+        <v>1.29</v>
       </c>
       <c r="L165" t="n">
-        <v>45861</v>
+        <v>46691</v>
       </c>
       <c r="M165" t="n">
-        <v>1.922</v>
+        <v>1.957</v>
       </c>
       <c r="N165" t="n">
-        <v>0.0198</v>
+        <v>0.0388</v>
       </c>
       <c r="O165" t="n">
-        <v>50.4</v>
+        <v>25.8</v>
       </c>
       <c r="P165" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="Q165" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="R165" t="s">
         <v>45</v>
       </c>
       <c r="S165" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="B166" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="C166" s="1" t="n">
         <v>44610</v>
       </c>
       <c r="D166" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="E166" t="s">
         <v>53</v>
@@ -12379,30 +12475,30 @@
         <v>36</v>
       </c>
       <c r="Q166" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="R166" t="s">
         <v>25</v>
       </c>
       <c r="S166" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B167" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C167" s="1" t="n">
         <v>44653</v>
       </c>
       <c r="D167" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="E167" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="F167"/>
       <c r="G167" t="n">
@@ -12433,30 +12529,30 @@
         <v>2.3</v>
       </c>
       <c r="P167" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="Q167" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="R167" t="s">
         <v>65</v>
       </c>
       <c r="S167" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B168" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="C168" s="1" t="n">
         <v>44660</v>
       </c>
       <c r="D168" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="E168" t="s">
         <v>53</v>
@@ -12489,76 +12585,80 @@
         <v>53</v>
       </c>
       <c r="Q168" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="R168" t="s">
         <v>25</v>
       </c>
       <c r="S168" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="B169" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>44669</v>
+        <v>44672</v>
       </c>
       <c r="D169" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="E169" t="s">
         <v>53</v>
       </c>
       <c r="F169"/>
       <c r="G169" t="n">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H169" t="n">
-        <v>725919</v>
+        <v>727399</v>
       </c>
       <c r="I169" t="n">
-        <v>85.621</v>
+        <v>85.796</v>
       </c>
       <c r="J169"/>
       <c r="K169"/>
       <c r="L169" t="n">
-        <v>371</v>
+        <v>440</v>
       </c>
       <c r="M169" t="n">
-        <v>0.044</v>
-      </c>
-      <c r="N169"/>
-      <c r="O169"/>
+        <v>0.052</v>
+      </c>
+      <c r="N169" t="n">
+        <v>0.0042</v>
+      </c>
+      <c r="O169" t="n">
+        <v>236.9</v>
+      </c>
       <c r="P169" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="Q169" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="R169" t="s">
         <v>65</v>
       </c>
       <c r="S169" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B170" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>44668</v>
+        <v>44671</v>
       </c>
       <c r="D170" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="E170" t="s">
         <v>53</v>
@@ -12568,158 +12668,158 @@
         <v>452</v>
       </c>
       <c r="H170" t="n">
-        <v>689350</v>
+        <v>692757</v>
       </c>
       <c r="I170" t="n">
-        <v>491.209</v>
+        <v>493.637</v>
       </c>
       <c r="J170" t="n">
-        <v>1072</v>
+        <v>2572</v>
       </c>
       <c r="K170" t="n">
-        <v>0.764</v>
+        <v>1.833</v>
       </c>
       <c r="L170" t="n">
-        <v>1026</v>
+        <v>909</v>
       </c>
       <c r="M170" t="n">
-        <v>0.731</v>
+        <v>0.648</v>
       </c>
       <c r="N170" t="n">
-        <v>0.273</v>
+        <v>0.277</v>
       </c>
       <c r="O170" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="P170" t="s">
         <v>53</v>
       </c>
       <c r="Q170" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="R170" t="s">
         <v>45</v>
       </c>
       <c r="S170" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="B171" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>44654</v>
+        <v>44668</v>
       </c>
       <c r="D171" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="E171" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="F171"/>
       <c r="G171" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H171" t="n">
-        <v>4537900</v>
+        <v>4563397</v>
       </c>
       <c r="I171" t="n">
-        <v>380.194</v>
+        <v>382.33</v>
       </c>
       <c r="J171"/>
       <c r="K171"/>
       <c r="L171" t="n">
-        <v>2289</v>
+        <v>1821</v>
       </c>
       <c r="M171" t="n">
-        <v>0.192</v>
+        <v>0.153</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1344</v>
+        <v>0.1028</v>
       </c>
       <c r="O171" t="n">
-        <v>7.4</v>
+        <v>9.7</v>
       </c>
       <c r="P171" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="Q171" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="R171" t="s">
         <v>45</v>
       </c>
       <c r="S171" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B172" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>44668</v>
+        <v>44672</v>
       </c>
       <c r="D172" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="E172" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="F172"/>
       <c r="G172" t="n">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="H172" t="n">
-        <v>157475433</v>
+        <v>158115037</v>
       </c>
       <c r="I172" t="n">
-        <v>1851.721</v>
+        <v>1859.242</v>
       </c>
       <c r="J172" t="n">
-        <v>153318</v>
+        <v>153733</v>
       </c>
       <c r="K172" t="n">
-        <v>1.803</v>
+        <v>1.808</v>
       </c>
       <c r="L172" t="n">
-        <v>175423</v>
+        <v>161017</v>
       </c>
       <c r="M172" t="n">
-        <v>2.063</v>
+        <v>1.893</v>
       </c>
       <c r="N172" t="n">
-        <v>0.0293</v>
+        <v>0.0245</v>
       </c>
       <c r="O172" t="n">
-        <v>34.1</v>
+        <v>40.9</v>
       </c>
       <c r="P172" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="Q172" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="R172" t="s">
         <v>65</v>
       </c>
       <c r="S172" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B173" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="C173" s="1" t="n">
         <v>44669</v>
@@ -12748,8 +12848,12 @@
       <c r="M173" t="n">
         <v>0.056</v>
       </c>
-      <c r="N173"/>
-      <c r="O173"/>
+      <c r="N173" t="n">
+        <v>0.0032</v>
+      </c>
+      <c r="O173" t="n">
+        <v>313.3</v>
+      </c>
       <c r="P173" t="s">
         <v>36</v>
       </c>
@@ -12760,24 +12864,24 @@
         <v>65</v>
       </c>
       <c r="S173" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="B174" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="C174" s="1" t="n">
         <v>44610</v>
       </c>
       <c r="D174" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="E174" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="F174"/>
       <c r="G174" t="n">
@@ -12804,137 +12908,137 @@
         <v>1.7</v>
       </c>
       <c r="P174" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="Q174" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="R174" t="s">
         <v>65</v>
       </c>
       <c r="S174" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B175" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>44669</v>
+        <v>44673</v>
       </c>
       <c r="D175" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="E175" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="F175"/>
       <c r="G175" t="n">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="H175" t="n">
-        <v>152660659</v>
+        <v>153818776</v>
       </c>
       <c r="I175" t="n">
-        <v>15279.691</v>
+        <v>15395.606</v>
       </c>
       <c r="J175" t="n">
-        <v>243662</v>
+        <v>264970</v>
       </c>
       <c r="K175" t="n">
-        <v>24.388</v>
+        <v>26.521</v>
       </c>
       <c r="L175" t="n">
-        <v>272856</v>
+        <v>275831</v>
       </c>
       <c r="M175" t="n">
-        <v>27.31</v>
+        <v>27.608</v>
       </c>
       <c r="N175"/>
       <c r="O175"/>
       <c r="P175" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="Q175" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="R175" t="s">
         <v>65</v>
       </c>
       <c r="S175" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="B176" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>44664</v>
+        <v>44671</v>
       </c>
       <c r="D176" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="E176" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="F176"/>
       <c r="G176" t="n">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="H176" t="n">
-        <v>492943055</v>
+        <v>495259875</v>
       </c>
       <c r="I176" t="n">
-        <v>7227.15</v>
+        <v>7261.118</v>
       </c>
       <c r="J176" t="n">
-        <v>422782</v>
+        <v>355965</v>
       </c>
       <c r="K176" t="n">
-        <v>6.199</v>
+        <v>5.219</v>
       </c>
       <c r="L176" t="n">
-        <v>425512</v>
+        <v>330974</v>
       </c>
       <c r="M176" t="n">
-        <v>6.239</v>
+        <v>4.852</v>
       </c>
       <c r="N176" t="n">
-        <v>0.0859</v>
+        <v>0.0761</v>
       </c>
       <c r="O176" t="n">
-        <v>11.6</v>
+        <v>13.1</v>
       </c>
       <c r="P176" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="Q176" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="R176" t="s">
         <v>65</v>
       </c>
       <c r="S176" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B177" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>44663</v>
+        <v>44667</v>
       </c>
       <c r="D177" t="s">
         <v>391</v>
@@ -12944,31 +13048,31 @@
       </c>
       <c r="F177"/>
       <c r="G177" t="n">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="H177" t="n">
-        <v>860024452</v>
+        <v>862700218</v>
       </c>
       <c r="I177" t="n">
-        <v>2583.315</v>
+        <v>2591.352</v>
       </c>
       <c r="J177" t="n">
-        <v>706745</v>
+        <v>304449</v>
       </c>
       <c r="K177" t="n">
-        <v>2.123</v>
+        <v>0.914</v>
       </c>
       <c r="L177" t="n">
-        <v>704464</v>
+        <v>584415</v>
       </c>
       <c r="M177" t="n">
-        <v>2.116</v>
+        <v>1.755</v>
       </c>
       <c r="N177" t="n">
-        <v>0.041</v>
+        <v>0.054</v>
       </c>
       <c r="O177" t="n">
-        <v>24.4</v>
+        <v>18.5</v>
       </c>
       <c r="P177" t="s">
         <v>392</v>
@@ -12980,18 +13084,18 @@
         <v>393</v>
       </c>
       <c r="S177" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B178" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>44665</v>
+        <v>44668</v>
       </c>
       <c r="D178" t="s">
         <v>391</v>
@@ -13001,31 +13105,31 @@
       </c>
       <c r="F178"/>
       <c r="G178" t="n">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="H178" t="n">
-        <v>109977</v>
+        <v>110096</v>
       </c>
       <c r="I178" t="n">
-        <v>1055.259</v>
+        <v>1056.401</v>
       </c>
       <c r="J178" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K178" t="n">
-        <v>0.537</v>
+        <v>0.499</v>
       </c>
       <c r="L178" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M178" t="n">
-        <v>0.557</v>
+        <v>0.576</v>
       </c>
       <c r="N178" t="n">
-        <v>0.108</v>
+        <v>0.1</v>
       </c>
       <c r="O178" t="n">
-        <v>9.3</v>
+        <v>10</v>
       </c>
       <c r="P178" t="s">
         <v>392</v>
@@ -13037,21 +13141,21 @@
         <v>393</v>
       </c>
       <c r="S178" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="B179" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="C179" s="1" t="n">
         <v>44668</v>
       </c>
       <c r="D179" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="E179" t="s">
         <v>241</v>
@@ -13088,27 +13192,27 @@
         <v>241</v>
       </c>
       <c r="Q179" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="R179" t="s">
         <v>65</v>
       </c>
       <c r="S179" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="B180" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="C180" s="1" t="n">
         <v>44619</v>
       </c>
       <c r="D180" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E180" t="s">
         <v>53</v>
@@ -13138,77 +13242,73 @@
         <v>76</v>
       </c>
       <c r="P180" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="Q180" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="R180" t="s">
         <v>327</v>
       </c>
       <c r="S180" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B181" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>44668</v>
+        <v>44673</v>
       </c>
       <c r="D181" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E181" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="F181"/>
       <c r="G181" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H181" t="n">
-        <v>85684619</v>
+        <v>85776230</v>
       </c>
       <c r="I181" t="n">
-        <v>872.829</v>
+        <v>873.762</v>
       </c>
       <c r="J181"/>
       <c r="K181"/>
       <c r="L181" t="n">
-        <v>96674</v>
+        <v>26118</v>
       </c>
       <c r="M181" t="n">
-        <v>0.985</v>
-      </c>
-      <c r="N181" t="n">
-        <v>0.3462</v>
-      </c>
-      <c r="O181" t="n">
-        <v>2.9</v>
-      </c>
+        <v>0.266</v>
+      </c>
+      <c r="N181"/>
+      <c r="O181"/>
       <c r="P181" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="Q181" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="R181" t="s">
         <v>45</v>
       </c>
       <c r="S181" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B182" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="C182" s="1" t="n">
         <v>44632</v>
@@ -13254,19 +13354,19 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B183" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="C183" s="1" t="n">
         <v>44664</v>
       </c>
       <c r="D183" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="E183" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="F183"/>
       <c r="G183" t="n">
@@ -13297,24 +13397,24 @@
         <v>25.5</v>
       </c>
       <c r="P183" t="s">
+        <v>963</v>
+      </c>
+      <c r="Q183" t="s">
         <v>961</v>
-      </c>
-      <c r="Q183" t="s">
-        <v>959</v>
       </c>
       <c r="R183" t="s">
         <v>65</v>
       </c>
       <c r="S183" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B184" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="C184" s="1" t="n">
         <v>44669</v>
@@ -13343,8 +13443,12 @@
       <c r="M184" t="n">
         <v>0.107</v>
       </c>
-      <c r="N184"/>
-      <c r="O184"/>
+      <c r="N184" t="n">
+        <v>0.0255</v>
+      </c>
+      <c r="O184" t="n">
+        <v>39.2</v>
+      </c>
       <c r="P184" t="s">
         <v>36</v>
       </c>
@@ -13355,7 +13459,7 @@
         <v>65</v>
       </c>
       <c r="S184" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="984">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">Albania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-1161-testime-71-qytetare-te-infektuar-asnje-humbje-jete-dhe-47-te-sheruar-ne-24-oret-e-fundit/</t>
+    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-1249-testime-67-qytetare-te-infektuar-asnje-humbje-jete-dhe-38-te-sheruar-ne-24-oret-e-fundit/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Protection</t>
@@ -307,7 +307,7 @@
     <t xml:space="preserve">Bahamas - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bahamas.gov.bs/wps/wcm/connect/67fa6973-bfdd-4375-a32e-180a0318c8fa/Update+%23756+-+Ministry+of+Health+%26+Wellness+-+COVID-19+Report+%2816%29+%282%29.pdf?MOD=AJPERES</t>
+    <t xml:space="preserve">https://www.bahamas.gov.bs/wps/wcm/connect/1f192a6a-08f7-454f-8a5d-c5e936d4cf07/Update+%23762+-+Ministry+of+Health+%26+Wellness+-+COVID-19+Report+%2816%29.pdf?MOD=AJPERES</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Wellness</t>
@@ -369,7 +369,7 @@
     <t xml:space="preserve">Barbados - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gisbarbados.gov.bb/blog/covid-19-update-for-saturday-april-23/</t>
+    <t xml:space="preserve">https://gisbarbados.gov.bb/blog/covid-19-update-for-wednesday-april-27/</t>
   </si>
   <si>
     <t xml:space="preserve">https://gisbarbados.gov.bb/top-stories/</t>
@@ -644,7 +644,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-21-de-abril-de-2022/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-27-de-abril-de-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -926,7 +926,7 @@
     <t xml:space="preserve">Dominica - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.dominica.gov.dm/index.php/updates/1468-april-19th-2022-dominica-coronavirus-update</t>
+    <t xml:space="preserve">https://covid19.dominica.gov.dm/index.php/updates/1469-april-19st-2022-dominica-coronavirus-update</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Wellness and New Health Investment</t>
@@ -944,7 +944,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://coronavirusrd.gob.do/wp-content/uploads/2022/04/Boletin-especial-763-COVID-19.pdf</t>
+    <t xml:space="preserve">https://coronavirusrd.gob.do/wp-content/uploads/2022/04/Boletin-especial-766-COVID-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -1109,7 +1109,7 @@
     <t xml:space="preserve">Fiji - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.fj/25-04-2022/</t>
+    <t xml:space="preserve">https://www.health.gov.fj/28-04-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Fiji Ministry of Health &amp; Medical Services</t>
@@ -1292,7 +1292,7 @@
     <t xml:space="preserve">Grenada - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/gisgrenada/posts/296789859309434</t>
+    <t xml:space="preserve">https://www.facebook.com/gisgrenada/posts/299548652366888</t>
   </si>
   <si>
     <t xml:space="preserve">Government Information Service of Grenada</t>
@@ -1391,7 +1391,7 @@
     <t xml:space="preserve">Haiti - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://mspp.gouv.ht/site/downloads/Sitrep COVID-19_13-04-2022.pdf</t>
+    <t xml:space="preserve">https://mspp.gouv.ht/site/downloads/Sitrep COVID-19_20-04-2022.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Population</t>
@@ -1517,7 +1517,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://irangov.ir/detail/385133</t>
+    <t xml:space="preserve">https://irangov.ir/detail/385422</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Medical Education</t>
@@ -1615,7 +1615,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-friday-april-22-2022/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-wednesday-april-27-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -2156,7 +2156,7 @@
     <t xml:space="preserve">Nepal - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.mohp.gov.np/covid/englishSituationReport/6266826429748_SitRep806_COVID-19_25-04-2022_EN.pdf</t>
+    <t xml:space="preserve">https://covid19.mohp.gov.np/covid/englishSituationReport/626baebf75b25_SitRep810_COVID-19_29-04-2022_EN.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -2223,7 +2223,7 @@
     <t xml:space="preserve">http://www.minsa.gob.ni/index.php/repository/Descargas-MINSA/COVID-19/Boletines-Epidemiol%C3%B3gico/Boletines-2022/</t>
   </si>
   <si>
-    <t xml:space="preserve">The number of tests performed unclear unclear The Nicaragua Ministry of Health publishes situation reports on its [website](http://www.minsa.gob.ni/index.php/repository/Descargas-MINSA/COVID-19/Boletines-Epidemiol%C3%B3gico/Boletines-2022/), from which we construct a time series of the number of laborartory tests performed.</t>
+    <t xml:space="preserve">The Nicaragua Ministry of Health publishes situation reports on its [website](http://www.minsa.gob.ni/index.php/repository/Descargas-MINSA/COVID-19/Boletines-Epidemiol%C3%B3gico/Boletines-2022/), from which we construct a time series of the number of laborartory tests performed.</t>
   </si>
   <si>
     <t xml:space="preserve">NER</t>
@@ -2258,7 +2258,7 @@
     <t xml:space="preserve">North Macedonia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://koronavirus.gov.mk/vesti/224071</t>
+    <t xml:space="preserve">https://koronavirus.gov.mk/vesti/224082</t>
   </si>
   <si>
     <t xml:space="preserve">https://koronavirus.gov.mk/stat</t>
@@ -2318,6 +2318,21 @@
 The figures sometimes shows important 1-day increases due to the inclusion of more labs.
 In November 2020, [press reports](https://www.dawn.com/news/1589575) noted that "the federal government has directed all the provinces to commence Rapid Antigen Testing (RAT) for diagnosis of COVID-19". However, it is unclear whether antigen tests are/would be included in the counts of confirmed cases and/or tests performed.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source. See our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palau - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.palauhealth.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Health and Human Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Palau Ministry of Health publishes situation reports on its [website](http://www.palauhealth.org/), from which we construct a time series of the number of tests performed.</t>
   </si>
   <si>
     <t xml:space="preserve">PSE</t>
@@ -2348,7 +2363,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1518361859266600960</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1519805695390060545</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -2527,7 +2542,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=21342</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=21389</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2598,7 +2613,7 @@
     <t xml:space="preserve">Saint Vincent and the Grenadines - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://health.gov.vc/health/images/PDF/stories/COVID-19_Report-_Sat_Apr_16_2022_.pdf</t>
+    <t xml:space="preserve">http://health.gov.vc/health/images/PDF/stories/COVID-19_Report-_Wed_Apr_27_2022.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Wellness and the Environment</t>
@@ -2619,7 +2634,7 @@
     <t xml:space="preserve">Sao Tome and Principe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MSaudeSTeP/posts/177597101290255</t>
+    <t xml:space="preserve">https://www.facebook.com/MSaudeSTeP/posts/179116491138316</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.facebook.com/MSaudeSTeP/</t>
@@ -3214,7 +3229,7 @@
     <t xml:space="preserve">Vietnam - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.gov.vn/ngay-24-4-co-8813-ca-covid-19-moi-rieng-tp-hcm-48-ca-171220424203912385.htm</t>
+    <t xml:space="preserve">https://covid19.gov.vn/ngay-28-4-ca-mac-covid-19-giam-con-7116-so-benh-nhan-khoi-nhieu-gap-11-lan-17122042822341635.htm</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health of Vietnam</t>
@@ -3739,7 +3754,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>44671</v>
+        <v>44678</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
@@ -3749,31 +3764,31 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H3" t="n">
-        <v>1604281</v>
+        <v>1605530</v>
       </c>
       <c r="I3" t="n">
-        <v>558.412</v>
+        <v>558.847</v>
       </c>
       <c r="J3" t="n">
-        <v>1161</v>
+        <v>1249</v>
       </c>
       <c r="K3" t="n">
-        <v>0.404</v>
+        <v>0.435</v>
       </c>
       <c r="L3" t="n">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="M3" t="n">
-        <v>0.058</v>
+        <v>0.062</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2461</v>
+        <v>0.2592</v>
       </c>
       <c r="O3" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="P3" t="s">
         <v>30</v>
@@ -4110,7 +4125,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44675</v>
+        <v>44679</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
@@ -4120,25 +4135,25 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="H10" t="n">
-        <v>3038391</v>
+        <v>3049532</v>
       </c>
       <c r="I10" t="n">
-        <v>1023.672</v>
+        <v>1027.426</v>
       </c>
       <c r="J10" t="n">
-        <v>2186</v>
+        <v>3177</v>
       </c>
       <c r="K10" t="n">
-        <v>0.736</v>
+        <v>1.07</v>
       </c>
       <c r="L10" t="n">
-        <v>2821</v>
+        <v>2669</v>
       </c>
       <c r="M10" t="n">
-        <v>0.95</v>
+        <v>0.899</v>
       </c>
       <c r="N10" t="n">
         <v>0.003</v>
@@ -4167,7 +4182,7 @@
         <v>73</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44675</v>
+        <v>44680</v>
       </c>
       <c r="D11" t="s">
         <v>74</v>
@@ -4179,32 +4194,28 @@
         <v>76</v>
       </c>
       <c r="G11" t="n">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="H11" t="n">
-        <v>68879615</v>
+        <v>69260659</v>
       </c>
       <c r="I11" t="n">
-        <v>2670.972</v>
+        <v>2685.748</v>
       </c>
       <c r="J11" t="n">
-        <v>69886</v>
+        <v>88132</v>
       </c>
       <c r="K11" t="n">
-        <v>2.71</v>
+        <v>3.418</v>
       </c>
       <c r="L11" t="n">
-        <v>80714</v>
+        <v>76435</v>
       </c>
       <c r="M11" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.5351</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.9</v>
-      </c>
+        <v>2.964</v>
+      </c>
+      <c r="N11"/>
+      <c r="O11"/>
       <c r="P11" t="s">
         <v>75</v>
       </c>
@@ -4226,7 +4237,7 @@
         <v>80</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44675</v>
+        <v>44680</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -4236,32 +4247,28 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="H12" t="n">
-        <v>181825734</v>
+        <v>182842386</v>
       </c>
       <c r="I12" t="n">
-        <v>20106.633</v>
+        <v>20219.057</v>
       </c>
       <c r="J12" t="n">
-        <v>101424</v>
+        <v>246143</v>
       </c>
       <c r="K12" t="n">
-        <v>11.216</v>
+        <v>27.219</v>
       </c>
       <c r="L12" t="n">
-        <v>178225</v>
+        <v>175899</v>
       </c>
       <c r="M12" t="n">
-        <v>19.708</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.0414</v>
-      </c>
-      <c r="O12" t="n">
-        <v>24.2</v>
-      </c>
+        <v>19.451</v>
+      </c>
+      <c r="N12"/>
+      <c r="O12"/>
       <c r="P12" t="s">
         <v>82</v>
       </c>
@@ -4336,7 +4343,7 @@
         <v>90</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44672</v>
+        <v>44678</v>
       </c>
       <c r="D14" t="s">
         <v>91</v>
@@ -4346,27 +4353,27 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H14" t="n">
-        <v>230514</v>
+        <v>231261</v>
       </c>
       <c r="I14" t="n">
-        <v>580.766</v>
+        <v>582.648</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14" t="n">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="M14" t="n">
-        <v>0.282</v>
+        <v>0.31</v>
       </c>
       <c r="N14" t="n">
-        <v>0.074</v>
+        <v>0.1045</v>
       </c>
       <c r="O14" t="n">
-        <v>13.5</v>
+        <v>9.6</v>
       </c>
       <c r="P14" t="s">
         <v>93</v>
@@ -4389,7 +4396,7 @@
         <v>97</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44676</v>
+        <v>44680</v>
       </c>
       <c r="D15" t="s">
         <v>98</v>
@@ -4399,21 +4406,21 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H15" t="n">
-        <v>9699812</v>
+        <v>9715743</v>
       </c>
       <c r="I15" t="n">
-        <v>5548.155</v>
+        <v>5557.268</v>
       </c>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15" t="n">
-        <v>3322</v>
+        <v>3618</v>
       </c>
       <c r="M15" t="n">
-        <v>1.9</v>
+        <v>2.069</v>
       </c>
       <c r="N15"/>
       <c r="O15"/>
@@ -4438,7 +4445,7 @@
         <v>104</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>44675</v>
+        <v>44679</v>
       </c>
       <c r="D16" t="s">
         <v>105</v>
@@ -4448,32 +4455,28 @@
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H16" t="n">
-        <v>13732723</v>
+        <v>13737654</v>
       </c>
       <c r="I16" t="n">
-        <v>82.576</v>
+        <v>82.606</v>
       </c>
       <c r="J16" t="n">
-        <v>6251</v>
+        <v>4931</v>
       </c>
       <c r="K16" t="n">
-        <v>0.038</v>
+        <v>0.03</v>
       </c>
       <c r="L16" t="n">
-        <v>1603</v>
+        <v>1737</v>
       </c>
       <c r="M16" t="n">
         <v>0.01</v>
       </c>
-      <c r="N16" t="n">
-        <v>0.0205</v>
-      </c>
-      <c r="O16" t="n">
-        <v>48.8</v>
-      </c>
+      <c r="N16"/>
+      <c r="O16"/>
       <c r="P16" t="s">
         <v>106</v>
       </c>
@@ -4495,7 +4498,7 @@
         <v>109</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44674</v>
+        <v>44678</v>
       </c>
       <c r="D17" t="s">
         <v>110</v>
@@ -4505,24 +4508,24 @@
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H17" t="n">
-        <v>641298</v>
+        <v>646867</v>
       </c>
       <c r="I17" t="n">
-        <v>2228.989</v>
+        <v>2248.346</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17" t="n">
-        <v>1288</v>
+        <v>1376</v>
       </c>
       <c r="M17" t="n">
-        <v>4.477</v>
+        <v>4.783</v>
       </c>
       <c r="N17" t="n">
-        <v>0.3225</v>
+        <v>0.3263</v>
       </c>
       <c r="O17" t="n">
         <v>3.1</v>
@@ -4548,7 +4551,7 @@
         <v>114</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44675</v>
+        <v>44680</v>
       </c>
       <c r="D18" t="s">
         <v>115</v>
@@ -4558,28 +4561,24 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H18" t="n">
-        <v>13103056</v>
+        <v>13147723</v>
       </c>
       <c r="I18" t="n">
-        <v>1387.614</v>
+        <v>1392.344</v>
       </c>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18" t="n">
-        <v>10068</v>
+        <v>9244</v>
       </c>
       <c r="M18" t="n">
-        <v>1.066</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.0473</v>
-      </c>
-      <c r="O18" t="n">
-        <v>21.1</v>
-      </c>
+        <v>0.979</v>
+      </c>
+      <c r="N18"/>
+      <c r="O18"/>
       <c r="P18" t="s">
         <v>117</v>
       </c>
@@ -4601,7 +4600,7 @@
         <v>121</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>44671</v>
+        <v>44678</v>
       </c>
       <c r="D19" t="s">
         <v>122</v>
@@ -4611,31 +4610,31 @@
       </c>
       <c r="F19"/>
       <c r="G19" t="n">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="H19" t="n">
-        <v>33455431</v>
+        <v>33578074</v>
       </c>
       <c r="I19" t="n">
-        <v>2876.072</v>
+        <v>2886.615</v>
       </c>
       <c r="J19" t="n">
-        <v>26379</v>
+        <v>18987</v>
       </c>
       <c r="K19" t="n">
-        <v>2.268</v>
+        <v>1.632</v>
       </c>
       <c r="L19" t="n">
-        <v>20272</v>
+        <v>20035</v>
       </c>
       <c r="M19" t="n">
-        <v>1.743</v>
+        <v>1.722</v>
       </c>
       <c r="N19" t="n">
-        <v>0.328</v>
+        <v>0.288</v>
       </c>
       <c r="O19" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P19" t="s">
         <v>124</v>
@@ -4658,7 +4657,7 @@
         <v>128</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>44670</v>
+        <v>44679</v>
       </c>
       <c r="D20" t="s">
         <v>129</v>
@@ -4668,28 +4667,24 @@
       </c>
       <c r="F20"/>
       <c r="G20" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H20" t="n">
-        <v>532846</v>
+        <v>538960</v>
       </c>
       <c r="I20" t="n">
-        <v>1315.945</v>
+        <v>1331.045</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20" t="n">
-        <v>560</v>
+        <v>679</v>
       </c>
       <c r="M20" t="n">
-        <v>1.383</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.0171</v>
-      </c>
-      <c r="O20" t="n">
-        <v>58.5</v>
-      </c>
+        <v>1.677</v>
+      </c>
+      <c r="N20"/>
+      <c r="O20"/>
       <c r="P20" t="s">
         <v>130</v>
       </c>
@@ -4813,7 +4808,7 @@
         <v>143</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44662</v>
+        <v>44676</v>
       </c>
       <c r="D23" t="s">
         <v>144</v>
@@ -4825,31 +4820,31 @@
         <v>146</v>
       </c>
       <c r="G23" t="n">
-        <v>748</v>
+        <v>762</v>
       </c>
       <c r="H23" t="n">
-        <v>4101672</v>
+        <v>4165086</v>
       </c>
       <c r="I23" t="n">
-        <v>346.632</v>
+        <v>351.991</v>
       </c>
       <c r="J23" t="n">
-        <v>4612</v>
+        <v>5195</v>
       </c>
       <c r="K23" t="n">
-        <v>0.39</v>
+        <v>0.439</v>
       </c>
       <c r="L23" t="n">
-        <v>4840</v>
+        <v>4940</v>
       </c>
       <c r="M23" t="n">
-        <v>0.409</v>
+        <v>0.417</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0289</v>
+        <v>0.0165</v>
       </c>
       <c r="O23" t="n">
-        <v>34.6</v>
+        <v>60.6</v>
       </c>
       <c r="P23" t="s">
         <v>53</v>
@@ -5031,7 +5026,7 @@
         <v>165</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44675</v>
+        <v>44679</v>
       </c>
       <c r="D27" t="s">
         <v>166</v>
@@ -5041,28 +5036,24 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H27" t="n">
-        <v>9799054</v>
+        <v>9834317</v>
       </c>
       <c r="I27" t="n">
-        <v>1420.842</v>
+        <v>1425.955</v>
       </c>
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27" t="n">
-        <v>7111</v>
+        <v>6615</v>
       </c>
       <c r="M27" t="n">
-        <v>1.031</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0.074</v>
-      </c>
-      <c r="O27" t="n">
-        <v>13.5</v>
-      </c>
+        <v>0.959</v>
+      </c>
+      <c r="N27"/>
+      <c r="O27"/>
       <c r="P27" t="s">
         <v>168</v>
       </c>
@@ -5135,7 +5126,7 @@
         <v>175</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44675</v>
+        <v>44679</v>
       </c>
       <c r="D29" t="s">
         <v>35</v>
@@ -5145,28 +5136,24 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H29" t="n">
-        <v>1493032</v>
+        <v>1504807</v>
       </c>
       <c r="I29" t="n">
-        <v>121.826</v>
+        <v>122.787</v>
       </c>
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29" t="n">
-        <v>1228</v>
+        <v>2204</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0.0192</v>
-      </c>
-      <c r="O29" t="n">
-        <v>52.1</v>
-      </c>
+        <v>0.18</v>
+      </c>
+      <c r="N29"/>
+      <c r="O29"/>
       <c r="P29" t="s">
         <v>36</v>
       </c>
@@ -5188,7 +5175,7 @@
         <v>178</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44673</v>
+        <v>44680</v>
       </c>
       <c r="D30" t="s">
         <v>179</v>
@@ -5198,28 +5185,24 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H30" t="n">
-        <v>2947537</v>
+        <v>2951058</v>
       </c>
       <c r="I30" t="n">
-        <v>173.932</v>
+        <v>174.14</v>
       </c>
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30" t="n">
-        <v>758</v>
+        <v>503</v>
       </c>
       <c r="M30" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0.0264</v>
-      </c>
-      <c r="O30" t="n">
-        <v>37.9</v>
-      </c>
+        <v>0.03</v>
+      </c>
+      <c r="N30"/>
+      <c r="O30"/>
       <c r="P30" t="s">
         <v>180</v>
       </c>
@@ -5292,7 +5275,7 @@
         <v>186</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44672</v>
+        <v>44679</v>
       </c>
       <c r="D32" t="s">
         <v>187</v>
@@ -5302,32 +5285,28 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="H32" t="n">
-        <v>60536359</v>
+        <v>60871310</v>
       </c>
       <c r="I32" t="n">
-        <v>1590.22</v>
+        <v>1599.019</v>
       </c>
       <c r="J32" t="n">
-        <v>51282</v>
+        <v>51739</v>
       </c>
       <c r="K32" t="n">
-        <v>1.347</v>
+        <v>1.359</v>
       </c>
       <c r="L32" t="n">
-        <v>46987</v>
+        <v>47850</v>
       </c>
       <c r="M32" t="n">
-        <v>1.234</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0.1809</v>
-      </c>
-      <c r="O32" t="n">
-        <v>5.5</v>
-      </c>
+        <v>1.257</v>
+      </c>
+      <c r="N32"/>
+      <c r="O32"/>
       <c r="P32" t="s">
         <v>188</v>
       </c>
@@ -5349,7 +5328,7 @@
         <v>192</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44671</v>
+        <v>44676</v>
       </c>
       <c r="D33" t="s">
         <v>193</v>
@@ -5359,15 +5338,15 @@
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33" t="n">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="K33" t="n">
-        <v>0.516</v>
+        <v>0.598</v>
       </c>
       <c r="L33"/>
       <c r="M33"/>
@@ -5394,7 +5373,7 @@
         <v>198</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>44669</v>
+        <v>44679</v>
       </c>
       <c r="D34" t="s">
         <v>35</v>
@@ -5404,25 +5383,23 @@
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H34" t="n">
-        <v>89503</v>
+        <v>90715</v>
       </c>
       <c r="I34" t="n">
-        <v>18.192</v>
+        <v>18.438</v>
       </c>
       <c r="J34"/>
       <c r="K34"/>
       <c r="L34" t="n">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="M34" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
+        <v>0.025</v>
+      </c>
+      <c r="N34"/>
       <c r="O34"/>
       <c r="P34" t="s">
         <v>36</v>
@@ -5445,7 +5422,7 @@
         <v>201</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44675</v>
+        <v>44679</v>
       </c>
       <c r="D35" t="s">
         <v>35</v>
@@ -5455,28 +5432,24 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H35" t="n">
-        <v>213179</v>
+        <v>214107</v>
       </c>
       <c r="I35" t="n">
-        <v>12.603</v>
+        <v>12.658</v>
       </c>
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35" t="n">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="M35" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0.0149</v>
-      </c>
-      <c r="O35" t="n">
-        <v>66.9</v>
-      </c>
+        <v>0.012</v>
+      </c>
+      <c r="N35"/>
+      <c r="O35"/>
       <c r="P35" t="s">
         <v>36</v>
       </c>
@@ -5498,7 +5471,7 @@
         <v>204</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44675</v>
+        <v>44679</v>
       </c>
       <c r="D36" t="s">
         <v>205</v>
@@ -5508,32 +5481,28 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="H36" t="n">
-        <v>36513983</v>
+        <v>36667741</v>
       </c>
       <c r="I36" t="n">
-        <v>1900.546</v>
+        <v>1908.549</v>
       </c>
       <c r="J36" t="n">
-        <v>43427</v>
+        <v>52614</v>
       </c>
       <c r="K36" t="n">
-        <v>2.26</v>
+        <v>2.739</v>
       </c>
       <c r="L36" t="n">
-        <v>43889</v>
+        <v>43439</v>
       </c>
       <c r="M36" t="n">
-        <v>2.284</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0.0528</v>
-      </c>
-      <c r="O36" t="n">
-        <v>18.9</v>
-      </c>
+        <v>2.261</v>
+      </c>
+      <c r="N36"/>
+      <c r="O36"/>
       <c r="P36" t="s">
         <v>206</v>
       </c>
@@ -5755,7 +5724,7 @@
         <v>228</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44659</v>
+        <v>44674</v>
       </c>
       <c r="D41" t="s">
         <v>229</v>
@@ -5765,31 +5734,31 @@
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>764</v>
+        <v>779</v>
       </c>
       <c r="H41" t="n">
-        <v>3233070</v>
+        <v>3332307</v>
       </c>
       <c r="I41" t="n">
-        <v>629.118</v>
+        <v>648.428</v>
       </c>
       <c r="J41" t="n">
-        <v>6051</v>
+        <v>7568</v>
       </c>
       <c r="K41" t="n">
-        <v>1.177</v>
+        <v>1.473</v>
       </c>
       <c r="L41" t="n">
-        <v>7472</v>
+        <v>7025</v>
       </c>
       <c r="M41" t="n">
-        <v>1.454</v>
+        <v>1.367</v>
       </c>
       <c r="N41" t="n">
-        <v>0.07</v>
+        <v>0.078</v>
       </c>
       <c r="O41" t="n">
-        <v>14.3</v>
+        <v>12.8</v>
       </c>
       <c r="P41" t="s">
         <v>230</v>
@@ -5812,7 +5781,7 @@
         <v>233</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>44675</v>
+        <v>44679</v>
       </c>
       <c r="D42" t="s">
         <v>35</v>
@@ -5822,28 +5791,24 @@
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H42" t="n">
-        <v>1494624</v>
+        <v>1498332</v>
       </c>
       <c r="I42" t="n">
-        <v>55.247</v>
+        <v>55.384</v>
       </c>
       <c r="J42"/>
       <c r="K42"/>
       <c r="L42" t="n">
-        <v>1036</v>
+        <v>987</v>
       </c>
       <c r="M42" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0.0041</v>
-      </c>
-      <c r="O42" t="n">
-        <v>241.7</v>
-      </c>
+        <v>0.036</v>
+      </c>
+      <c r="N42"/>
+      <c r="O42"/>
       <c r="P42" t="s">
         <v>36</v>
       </c>
@@ -5865,7 +5830,7 @@
         <v>236</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44676</v>
+        <v>44680</v>
       </c>
       <c r="D43" t="s">
         <v>237</v>
@@ -5875,21 +5840,21 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H43" t="n">
-        <v>4766333</v>
+        <v>4783774</v>
       </c>
       <c r="I43" t="n">
-        <v>1167.745</v>
+        <v>1172.018</v>
       </c>
       <c r="J43"/>
       <c r="K43"/>
       <c r="L43" t="n">
-        <v>3259</v>
+        <v>3647</v>
       </c>
       <c r="M43" t="n">
-        <v>0.798</v>
+        <v>0.894</v>
       </c>
       <c r="N43"/>
       <c r="O43"/>
@@ -6087,7 +6052,7 @@
         <v>259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44675</v>
+        <v>44679</v>
       </c>
       <c r="D47" t="s">
         <v>260</v>
@@ -6097,31 +6062,31 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="H47" t="n">
-        <v>54207573</v>
+        <v>54271268</v>
       </c>
       <c r="I47" t="n">
-        <v>5054.53</v>
+        <v>5060.469</v>
       </c>
       <c r="J47" t="n">
-        <v>5284</v>
+        <v>13982</v>
       </c>
       <c r="K47" t="n">
-        <v>0.493</v>
+        <v>1.304</v>
       </c>
       <c r="L47" t="n">
-        <v>13615</v>
+        <v>13343</v>
       </c>
       <c r="M47" t="n">
-        <v>1.27</v>
+        <v>1.244</v>
       </c>
       <c r="N47" t="n">
-        <v>0.144</v>
+        <v>0.119</v>
       </c>
       <c r="O47" t="n">
-        <v>6.9</v>
+        <v>8.4</v>
       </c>
       <c r="P47" t="s">
         <v>53</v>
@@ -6197,7 +6162,7 @@
         <v>269</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>44672</v>
+        <v>44679</v>
       </c>
       <c r="D49" t="s">
         <v>270</v>
@@ -6207,32 +6172,28 @@
       </c>
       <c r="F49"/>
       <c r="G49" t="n">
-        <v>794</v>
+        <v>801</v>
       </c>
       <c r="H49" t="n">
-        <v>66975604</v>
+        <v>67067363</v>
       </c>
       <c r="I49" t="n">
-        <v>11521.095</v>
+        <v>11536.879</v>
       </c>
       <c r="J49" t="n">
-        <v>13878</v>
+        <v>10404</v>
       </c>
       <c r="K49" t="n">
-        <v>2.387</v>
+        <v>1.79</v>
       </c>
       <c r="L49" t="n">
-        <v>13441</v>
+        <v>12720</v>
       </c>
       <c r="M49" t="n">
-        <v>2.312</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0.1262</v>
-      </c>
-      <c r="O49" t="n">
-        <v>7.9</v>
-      </c>
+        <v>2.188</v>
+      </c>
+      <c r="N49"/>
+      <c r="O49"/>
       <c r="P49" t="s">
         <v>271</v>
       </c>
@@ -6307,7 +6268,7 @@
         <v>277</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>44670</v>
+        <v>44672</v>
       </c>
       <c r="D51" t="s">
         <v>278</v>
@@ -6317,27 +6278,27 @@
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H51" t="n">
-        <v>187690</v>
+        <v>188110</v>
       </c>
       <c r="I51" t="n">
-        <v>2600.593</v>
+        <v>2606.412</v>
       </c>
       <c r="J51"/>
       <c r="K51"/>
       <c r="L51" t="n">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="M51" t="n">
-        <v>0.942</v>
+        <v>1.413</v>
       </c>
       <c r="N51" t="n">
-        <v>0.0147</v>
+        <v>0.0322</v>
       </c>
       <c r="O51" t="n">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="P51" t="s">
         <v>279</v>
@@ -6360,7 +6321,7 @@
         <v>283</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44672</v>
+        <v>44675</v>
       </c>
       <c r="D52" t="s">
         <v>284</v>
@@ -6370,31 +6331,27 @@
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H52" t="n">
-        <v>3261060</v>
+        <v>3265645</v>
       </c>
       <c r="I52" t="n">
-        <v>297.713</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2761</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.252</v>
-      </c>
+        <v>298.131</v>
+      </c>
+      <c r="J52"/>
+      <c r="K52"/>
       <c r="L52" t="n">
-        <v>1078</v>
+        <v>1485</v>
       </c>
       <c r="M52" t="n">
-        <v>0.098</v>
+        <v>0.136</v>
       </c>
       <c r="N52" t="n">
-        <v>0.0386</v>
+        <v>0.0367</v>
       </c>
       <c r="O52" t="n">
-        <v>25.9</v>
+        <v>27.3</v>
       </c>
       <c r="P52" t="s">
         <v>285</v>
@@ -6417,7 +6374,7 @@
         <v>289</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44669</v>
+        <v>44676</v>
       </c>
       <c r="D53" t="s">
         <v>290</v>
@@ -6429,31 +6386,31 @@
         <v>292</v>
       </c>
       <c r="G53" t="n">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="H53" t="n">
-        <v>2699318</v>
+        <v>2715636</v>
       </c>
       <c r="I53" t="n">
-        <v>150.897</v>
+        <v>151.809</v>
       </c>
       <c r="J53" t="n">
-        <v>3634</v>
+        <v>2720</v>
       </c>
       <c r="K53" t="n">
-        <v>0.203</v>
+        <v>0.152</v>
       </c>
       <c r="L53" t="n">
-        <v>2400</v>
+        <v>2331</v>
       </c>
       <c r="M53" t="n">
-        <v>0.134</v>
+        <v>0.13</v>
       </c>
       <c r="N53" t="n">
-        <v>0.094</v>
+        <v>0.086</v>
       </c>
       <c r="O53" t="n">
-        <v>10.6</v>
+        <v>11.6</v>
       </c>
       <c r="P53" t="s">
         <v>293</v>
@@ -6684,7 +6641,7 @@
         <v>313</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44675</v>
+        <v>44679</v>
       </c>
       <c r="D58" t="s">
         <v>314</v>
@@ -6694,32 +6651,28 @@
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="H58" t="n">
-        <v>3332007</v>
+        <v>3343160</v>
       </c>
       <c r="I58" t="n">
-        <v>2514.366</v>
+        <v>2522.782</v>
       </c>
       <c r="J58" t="n">
-        <v>1619</v>
+        <v>2406</v>
       </c>
       <c r="K58" t="n">
-        <v>1.222</v>
+        <v>1.816</v>
       </c>
       <c r="L58" t="n">
-        <v>2678</v>
+        <v>2437</v>
       </c>
       <c r="M58" t="n">
-        <v>2.021</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0.149</v>
-      </c>
-      <c r="O58" t="n">
-        <v>6.7</v>
-      </c>
+        <v>1.839</v>
+      </c>
+      <c r="N58"/>
+      <c r="O58"/>
       <c r="P58" t="s">
         <v>315</v>
       </c>
@@ -6741,7 +6694,7 @@
         <v>318</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44675</v>
+        <v>44679</v>
       </c>
       <c r="D59" t="s">
         <v>35</v>
@@ -6751,28 +6704,24 @@
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H59" t="n">
-        <v>528187</v>
+        <v>529611</v>
       </c>
       <c r="I59" t="n">
-        <v>450.53</v>
+        <v>451.744</v>
       </c>
       <c r="J59"/>
       <c r="K59"/>
       <c r="L59" t="n">
-        <v>462</v>
+        <v>412</v>
       </c>
       <c r="M59" t="n">
-        <v>0.394</v>
-      </c>
-      <c r="N59" t="n">
-        <v>0.0594</v>
-      </c>
-      <c r="O59" t="n">
-        <v>16.8</v>
-      </c>
+        <v>0.351</v>
+      </c>
+      <c r="N59"/>
+      <c r="O59"/>
       <c r="P59" t="s">
         <v>36</v>
       </c>
@@ -6794,7 +6743,7 @@
         <v>321</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44675</v>
+        <v>44679</v>
       </c>
       <c r="D60" t="s">
         <v>35</v>
@@ -6804,28 +6753,24 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H60" t="n">
-        <v>4763756</v>
+        <v>4777158</v>
       </c>
       <c r="I60" t="n">
-        <v>40.413</v>
+        <v>40.527</v>
       </c>
       <c r="J60"/>
       <c r="K60"/>
       <c r="L60" t="n">
-        <v>5533</v>
+        <v>4437</v>
       </c>
       <c r="M60" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="N60" t="n">
-        <v>0.0042</v>
-      </c>
-      <c r="O60" t="n">
-        <v>240.6</v>
-      </c>
+        <v>0.038</v>
+      </c>
+      <c r="N60"/>
+      <c r="O60"/>
       <c r="P60" t="s">
         <v>322</v>
       </c>
@@ -6900,7 +6845,7 @@
         <v>333</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44675</v>
+        <v>44678</v>
       </c>
       <c r="D62" t="s">
         <v>334</v>
@@ -6910,27 +6855,27 @@
       </c>
       <c r="F62"/>
       <c r="G62" t="n">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H62" t="n">
-        <v>506984</v>
+        <v>507722</v>
       </c>
       <c r="I62" t="n">
-        <v>561.507</v>
+        <v>562.324</v>
       </c>
       <c r="J62"/>
       <c r="K62"/>
       <c r="L62" t="n">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="M62" t="n">
-        <v>0.111</v>
+        <v>0.161</v>
       </c>
       <c r="N62" t="n">
-        <v>0.0214</v>
+        <v>0.0108</v>
       </c>
       <c r="O62" t="n">
-        <v>46.7</v>
+        <v>92.3</v>
       </c>
       <c r="P62" t="s">
         <v>335</v>
@@ -6953,7 +6898,7 @@
         <v>339</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44670</v>
+        <v>44677</v>
       </c>
       <c r="D63" t="s">
         <v>340</v>
@@ -6963,31 +6908,31 @@
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="H63" t="n">
-        <v>10644343</v>
+        <v>10719960</v>
       </c>
       <c r="I63" t="n">
-        <v>1918.466</v>
+        <v>1932.095</v>
       </c>
       <c r="J63" t="n">
-        <v>8320</v>
+        <v>9476</v>
       </c>
       <c r="K63" t="n">
-        <v>1.5</v>
+        <v>1.708</v>
       </c>
       <c r="L63" t="n">
-        <v>6991</v>
+        <v>8857</v>
       </c>
       <c r="M63" t="n">
-        <v>1.26</v>
+        <v>1.596</v>
       </c>
       <c r="N63" t="n">
-        <v>0.435</v>
+        <v>0.344</v>
       </c>
       <c r="O63" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="P63" t="s">
         <v>342</v>
@@ -7010,7 +6955,7 @@
         <v>346</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44672</v>
+        <v>44676</v>
       </c>
       <c r="D64" t="s">
         <v>347</v>
@@ -7020,32 +6965,28 @@
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="H64" t="n">
-        <v>267439860</v>
+        <v>268470519</v>
       </c>
       <c r="I64" t="n">
-        <v>3966.656</v>
+        <v>3981.942</v>
       </c>
       <c r="J64" t="n">
-        <v>315703</v>
+        <v>381061</v>
       </c>
       <c r="K64" t="n">
-        <v>4.682</v>
+        <v>5.652</v>
       </c>
       <c r="L64" t="n">
-        <v>293256</v>
+        <v>314265</v>
       </c>
       <c r="M64" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0.299</v>
-      </c>
-      <c r="O64" t="n">
-        <v>3.3</v>
-      </c>
+        <v>4.661</v>
+      </c>
+      <c r="N64"/>
+      <c r="O64"/>
       <c r="P64" t="s">
         <v>348</v>
       </c>
@@ -7283,7 +7224,7 @@
         <v>372</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>44675</v>
+        <v>44679</v>
       </c>
       <c r="D69" t="s">
         <v>35</v>
@@ -7293,28 +7234,24 @@
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H69" t="n">
-        <v>2433244</v>
+        <v>2435325</v>
       </c>
       <c r="I69" t="n">
-        <v>76.681</v>
+        <v>76.746</v>
       </c>
       <c r="J69"/>
       <c r="K69"/>
       <c r="L69" t="n">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="M69" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="N69" t="n">
-        <v>0.0069</v>
-      </c>
-      <c r="O69" t="n">
-        <v>143.9</v>
-      </c>
+        <v>0.016</v>
+      </c>
+      <c r="N69"/>
+      <c r="O69"/>
       <c r="P69" t="s">
         <v>36</v>
       </c>
@@ -7389,7 +7326,7 @@
         <v>380</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44674</v>
+        <v>44680</v>
       </c>
       <c r="D71" t="s">
         <v>381</v>
@@ -7399,32 +7336,24 @@
       </c>
       <c r="F71"/>
       <c r="G71" t="n">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H71" t="n">
-        <v>78872546</v>
+        <v>79660677</v>
       </c>
       <c r="I71" t="n">
-        <v>7605.291</v>
-      </c>
-      <c r="J71" t="n">
-        <v>73217</v>
-      </c>
-      <c r="K71" t="n">
-        <v>7.06</v>
-      </c>
+        <v>7681.286</v>
+      </c>
+      <c r="J71"/>
+      <c r="K71"/>
       <c r="L71" t="n">
-        <v>170698</v>
+        <v>123050</v>
       </c>
       <c r="M71" t="n">
-        <v>16.46</v>
-      </c>
-      <c r="N71" t="n">
-        <v>0.0377</v>
-      </c>
-      <c r="O71" t="n">
-        <v>26.5</v>
-      </c>
+        <v>11.865</v>
+      </c>
+      <c r="N71"/>
+      <c r="O71"/>
       <c r="P71" t="s">
         <v>383</v>
       </c>
@@ -7446,7 +7375,7 @@
         <v>387</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>44673</v>
+        <v>44678</v>
       </c>
       <c r="D72" t="s">
         <v>388</v>
@@ -7456,27 +7385,27 @@
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H72" t="n">
-        <v>148567</v>
+        <v>149943</v>
       </c>
       <c r="I72" t="n">
-        <v>1314.578</v>
+        <v>1326.753</v>
       </c>
       <c r="J72"/>
       <c r="K72"/>
       <c r="L72" t="n">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="M72" t="n">
-        <v>2.177</v>
+        <v>2.478</v>
       </c>
       <c r="N72" t="n">
-        <v>0.097</v>
+        <v>0.1184</v>
       </c>
       <c r="O72" t="n">
-        <v>10.3</v>
+        <v>8.4</v>
       </c>
       <c r="P72" t="s">
         <v>389</v>
@@ -7499,7 +7428,7 @@
         <v>393</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44671</v>
+        <v>44674</v>
       </c>
       <c r="D73" t="s">
         <v>394</v>
@@ -7509,31 +7438,31 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="H73" t="n">
-        <v>285277</v>
+        <v>285946</v>
       </c>
       <c r="I73" t="n">
-        <v>1676.286</v>
+        <v>1680.217</v>
       </c>
       <c r="J73" t="n">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="K73" t="n">
-        <v>1.158</v>
+        <v>0.905</v>
       </c>
       <c r="L73" t="n">
-        <v>373</v>
+        <v>198</v>
       </c>
       <c r="M73" t="n">
-        <v>2.192</v>
+        <v>1.163</v>
       </c>
       <c r="N73" t="n">
-        <v>0.054</v>
+        <v>0.06</v>
       </c>
       <c r="O73" t="n">
-        <v>18.5</v>
+        <v>16.7</v>
       </c>
       <c r="P73" t="s">
         <v>395</v>
@@ -7666,7 +7595,7 @@
         <v>409</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44675</v>
+        <v>44679</v>
       </c>
       <c r="D76" t="s">
         <v>35</v>
@@ -7676,28 +7605,24 @@
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H76" t="n">
-        <v>132611</v>
+        <v>133360</v>
       </c>
       <c r="I76" t="n">
-        <v>65.796</v>
+        <v>66.168</v>
       </c>
       <c r="J76"/>
       <c r="K76"/>
       <c r="L76" t="n">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="M76" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="N76" t="n">
-        <v>0.0058</v>
-      </c>
-      <c r="O76" t="n">
-        <v>171</v>
-      </c>
+        <v>0.092</v>
+      </c>
+      <c r="N76"/>
+      <c r="O76"/>
       <c r="P76" t="s">
         <v>36</v>
       </c>
@@ -7772,7 +7697,7 @@
         <v>418</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>44664</v>
+        <v>44671</v>
       </c>
       <c r="D78" t="s">
         <v>419</v>
@@ -7782,27 +7707,27 @@
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H78" t="n">
-        <v>193793</v>
+        <v>195388</v>
       </c>
       <c r="I78" t="n">
-        <v>16.791</v>
+        <v>16.929</v>
       </c>
       <c r="J78"/>
       <c r="K78"/>
       <c r="L78" t="n">
-        <v>385</v>
+        <v>228</v>
       </c>
       <c r="M78" t="n">
-        <v>0.033</v>
+        <v>0.02</v>
       </c>
       <c r="N78" t="n">
-        <v>0.0041</v>
+        <v>0.0182</v>
       </c>
       <c r="O78" t="n">
-        <v>245.1</v>
+        <v>55</v>
       </c>
       <c r="P78" t="s">
         <v>421</v>
@@ -7878,7 +7803,7 @@
         <v>432</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44676</v>
+        <v>44679</v>
       </c>
       <c r="D80" t="s">
         <v>433</v>
@@ -7890,25 +7815,25 @@
         <v>435</v>
       </c>
       <c r="G80" t="n">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="H80" t="n">
-        <v>10864342</v>
+        <v>10880615</v>
       </c>
       <c r="I80" t="n">
-        <v>1127.689</v>
+        <v>1129.378</v>
       </c>
       <c r="J80" t="n">
-        <v>20059</v>
+        <v>7191</v>
       </c>
       <c r="K80" t="n">
-        <v>2.082</v>
+        <v>0.746</v>
       </c>
       <c r="L80" t="n">
-        <v>6578</v>
+        <v>6561</v>
       </c>
       <c r="M80" t="n">
-        <v>0.683</v>
+        <v>0.681</v>
       </c>
       <c r="N80"/>
       <c r="O80"/>
@@ -7933,7 +7858,7 @@
         <v>439</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>44672</v>
+        <v>44679</v>
       </c>
       <c r="D81" t="s">
         <v>440</v>
@@ -7943,31 +7868,31 @@
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="H81" t="n">
-        <v>1315837</v>
+        <v>1320932</v>
       </c>
       <c r="I81" t="n">
-        <v>3567.965</v>
+        <v>3581.781</v>
       </c>
       <c r="J81" t="n">
-        <v>843</v>
+        <v>743</v>
       </c>
       <c r="K81" t="n">
-        <v>2.286</v>
+        <v>2.015</v>
       </c>
       <c r="L81" t="n">
-        <v>916</v>
+        <v>728</v>
       </c>
       <c r="M81" t="n">
-        <v>2.484</v>
+        <v>1.974</v>
       </c>
       <c r="N81" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="O81" t="n">
-        <v>13.3</v>
+        <v>12.5</v>
       </c>
       <c r="P81" t="s">
         <v>441</v>
@@ -7990,7 +7915,7 @@
         <v>444</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>44676</v>
+        <v>44680</v>
       </c>
       <c r="D82" t="s">
         <v>445</v>
@@ -8002,25 +7927,25 @@
         <v>447</v>
       </c>
       <c r="G82" t="n">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="H82" t="n">
-        <v>835019817</v>
+        <v>836945383</v>
       </c>
       <c r="I82" t="n">
-        <v>599.264</v>
+        <v>600.646</v>
       </c>
       <c r="J82" t="n">
-        <v>302115</v>
+        <v>473635</v>
       </c>
       <c r="K82" t="n">
-        <v>0.217</v>
+        <v>0.34</v>
       </c>
       <c r="L82" t="n">
-        <v>416424</v>
+        <v>445182</v>
       </c>
       <c r="M82" t="n">
-        <v>0.299</v>
+        <v>0.319</v>
       </c>
       <c r="N82"/>
       <c r="O82"/>
@@ -8102,7 +8027,7 @@
         <v>456</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44676</v>
+        <v>44679</v>
       </c>
       <c r="D84" t="s">
         <v>457</v>
@@ -8112,21 +8037,21 @@
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H84" t="n">
-        <v>50862245</v>
+        <v>51016132</v>
       </c>
       <c r="I84" t="n">
-        <v>598.177</v>
+        <v>599.987</v>
       </c>
       <c r="J84"/>
       <c r="K84"/>
       <c r="L84" t="n">
-        <v>54031</v>
+        <v>51771</v>
       </c>
       <c r="M84" t="n">
-        <v>0.635</v>
+        <v>0.609</v>
       </c>
       <c r="N84"/>
       <c r="O84"/>
@@ -8204,7 +8129,7 @@
         <v>465</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44676</v>
+        <v>44680</v>
       </c>
       <c r="D86" t="s">
         <v>466</v>
@@ -8214,25 +8139,25 @@
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="H86" t="n">
-        <v>12033762</v>
+        <v>12063637</v>
       </c>
       <c r="I86" t="n">
-        <v>2415.01</v>
+        <v>2421.005</v>
       </c>
       <c r="J86" t="n">
-        <v>4724</v>
+        <v>5643</v>
       </c>
       <c r="K86" t="n">
-        <v>0.948</v>
+        <v>1.132</v>
       </c>
       <c r="L86" t="n">
-        <v>6315</v>
+        <v>6514</v>
       </c>
       <c r="M86" t="n">
-        <v>1.267</v>
+        <v>1.307</v>
       </c>
       <c r="N86"/>
       <c r="O86"/>
@@ -8257,7 +8182,7 @@
         <v>471</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44675</v>
+        <v>44679</v>
       </c>
       <c r="D87" t="s">
         <v>472</v>
@@ -8267,31 +8192,31 @@
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="H87" t="n">
-        <v>49788576</v>
+        <v>50036948</v>
       </c>
       <c r="I87" t="n">
-        <v>5358.796</v>
+        <v>5385.529</v>
       </c>
       <c r="J87" t="n">
-        <v>63475</v>
+        <v>51809</v>
       </c>
       <c r="K87" t="n">
-        <v>6.832</v>
+        <v>5.576</v>
       </c>
       <c r="L87" t="n">
-        <v>50304</v>
+        <v>56017</v>
       </c>
       <c r="M87" t="n">
-        <v>5.414</v>
+        <v>6.029</v>
       </c>
       <c r="N87" t="n">
-        <v>0.072</v>
+        <v>0.056</v>
       </c>
       <c r="O87" t="n">
-        <v>13.9</v>
+        <v>17.9</v>
       </c>
       <c r="P87" t="s">
         <v>53</v>
@@ -8314,7 +8239,7 @@
         <v>477</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44675</v>
+        <v>44679</v>
       </c>
       <c r="D88" t="s">
         <v>478</v>
@@ -8326,32 +8251,28 @@
         <v>480</v>
       </c>
       <c r="G88" t="n">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="H88" t="n">
-        <v>211691841</v>
+        <v>213009371</v>
       </c>
       <c r="I88" t="n">
-        <v>3506.72</v>
+        <v>3528.546</v>
       </c>
       <c r="J88" t="n">
-        <v>326211</v>
+        <v>441526</v>
       </c>
       <c r="K88" t="n">
-        <v>5.404</v>
+        <v>7.314</v>
       </c>
       <c r="L88" t="n">
-        <v>360222</v>
+        <v>357495</v>
       </c>
       <c r="M88" t="n">
-        <v>5.967</v>
-      </c>
-      <c r="N88" t="n">
-        <v>0.1681</v>
-      </c>
-      <c r="O88" t="n">
-        <v>5.9</v>
-      </c>
+        <v>5.922</v>
+      </c>
+      <c r="N88"/>
+      <c r="O88"/>
       <c r="P88" t="s">
         <v>481</v>
       </c>
@@ -8373,7 +8294,7 @@
         <v>485</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44673</v>
+        <v>44678</v>
       </c>
       <c r="D89" t="s">
         <v>486</v>
@@ -8383,27 +8304,27 @@
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="H89" t="n">
-        <v>981688</v>
+        <v>993904</v>
       </c>
       <c r="I89" t="n">
-        <v>330.15</v>
+        <v>334.258</v>
       </c>
       <c r="J89"/>
       <c r="K89"/>
       <c r="L89" t="n">
-        <v>2486</v>
+        <v>2591</v>
       </c>
       <c r="M89" t="n">
-        <v>0.836</v>
+        <v>0.871</v>
       </c>
       <c r="N89" t="n">
-        <v>0.0157</v>
+        <v>0.0221</v>
       </c>
       <c r="O89" t="n">
-        <v>63.7</v>
+        <v>45.3</v>
       </c>
       <c r="P89" t="s">
         <v>487</v>
@@ -8426,7 +8347,7 @@
         <v>491</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44675</v>
+        <v>44679</v>
       </c>
       <c r="D90" t="s">
         <v>492</v>
@@ -8436,32 +8357,28 @@
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="H90" t="n">
-        <v>44832046</v>
+        <v>46632157</v>
       </c>
       <c r="I90" t="n">
-        <v>355.667</v>
+        <v>369.947</v>
       </c>
       <c r="J90" t="n">
-        <v>54285</v>
+        <v>130850</v>
       </c>
       <c r="K90" t="n">
-        <v>0.431</v>
+        <v>1.038</v>
       </c>
       <c r="L90" t="n">
-        <v>141716</v>
+        <v>304501</v>
       </c>
       <c r="M90" t="n">
-        <v>1.124</v>
-      </c>
-      <c r="N90" t="n">
-        <v>0.2874</v>
-      </c>
-      <c r="O90" t="n">
-        <v>3.5</v>
-      </c>
+        <v>2.416</v>
+      </c>
+      <c r="N90"/>
+      <c r="O90"/>
       <c r="P90" t="s">
         <v>493</v>
       </c>
@@ -8593,7 +8510,7 @@
         <v>508</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>44675</v>
+        <v>44679</v>
       </c>
       <c r="D93" t="s">
         <v>35</v>
@@ -8603,28 +8520,24 @@
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H93" t="n">
-        <v>3581506</v>
+        <v>3588732</v>
       </c>
       <c r="I93" t="n">
-        <v>65.135</v>
+        <v>65.267</v>
       </c>
       <c r="J93"/>
       <c r="K93"/>
       <c r="L93" t="n">
-        <v>2921</v>
+        <v>2357</v>
       </c>
       <c r="M93" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0.0046</v>
-      </c>
-      <c r="O93" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0.043</v>
+      </c>
+      <c r="N93"/>
+      <c r="O93"/>
       <c r="P93" t="s">
         <v>36</v>
       </c>
@@ -8646,7 +8559,7 @@
         <v>511</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44674</v>
+        <v>44678</v>
       </c>
       <c r="D94" t="s">
         <v>512</v>
@@ -8656,27 +8569,27 @@
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H94" t="n">
-        <v>1820581</v>
+        <v>1823094</v>
       </c>
       <c r="I94" t="n">
-        <v>1021.584</v>
+        <v>1022.995</v>
       </c>
       <c r="J94"/>
       <c r="K94"/>
       <c r="L94" t="n">
-        <v>924</v>
+        <v>825</v>
       </c>
       <c r="M94" t="n">
-        <v>0.518</v>
+        <v>0.463</v>
       </c>
       <c r="N94" t="n">
-        <v>0.0178</v>
+        <v>0.0177</v>
       </c>
       <c r="O94" t="n">
-        <v>56.2</v>
+        <v>56.6</v>
       </c>
       <c r="P94" t="s">
         <v>514</v>
@@ -8752,7 +8665,7 @@
         <v>523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>44676</v>
+        <v>44680</v>
       </c>
       <c r="D96" t="s">
         <v>524</v>
@@ -8762,25 +8675,25 @@
       </c>
       <c r="F96"/>
       <c r="G96" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H96" t="n">
-        <v>1020657</v>
+        <v>1022629</v>
       </c>
       <c r="I96" t="n">
-        <v>138.312</v>
+        <v>138.58</v>
       </c>
       <c r="J96" t="n">
-        <v>1452</v>
+        <v>1972</v>
       </c>
       <c r="K96" t="n">
-        <v>0.197</v>
+        <v>0.267</v>
       </c>
       <c r="L96" t="n">
-        <v>207</v>
+        <v>371</v>
       </c>
       <c r="M96" t="n">
-        <v>0.028</v>
+        <v>0.05</v>
       </c>
       <c r="N96"/>
       <c r="O96"/>
@@ -8805,7 +8718,7 @@
         <v>529</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44676</v>
+        <v>44680</v>
       </c>
       <c r="D97" t="s">
         <v>530</v>
@@ -8817,25 +8730,25 @@
         <v>532</v>
       </c>
       <c r="G97" t="n">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="H97" t="n">
-        <v>7104305</v>
+        <v>7131043</v>
       </c>
       <c r="I97" t="n">
-        <v>3805.333</v>
+        <v>3819.655</v>
       </c>
       <c r="J97" t="n">
-        <v>1860</v>
+        <v>4174</v>
       </c>
       <c r="K97" t="n">
-        <v>0.996</v>
+        <v>2.236</v>
       </c>
       <c r="L97" t="n">
-        <v>3966</v>
+        <v>3898</v>
       </c>
       <c r="M97" t="n">
-        <v>2.124</v>
+        <v>2.088</v>
       </c>
       <c r="N97"/>
       <c r="O97"/>
@@ -9168,7 +9081,7 @@
         <v>563</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>44672</v>
+        <v>44678</v>
       </c>
       <c r="D104" t="s">
         <v>564</v>
@@ -9178,31 +9091,31 @@
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="H104" t="n">
-        <v>4213886</v>
+        <v>4225009</v>
       </c>
       <c r="I104" t="n">
-        <v>6637.985</v>
+        <v>6655.507</v>
       </c>
       <c r="J104" t="n">
-        <v>2491</v>
+        <v>2251</v>
       </c>
       <c r="K104" t="n">
-        <v>3.924</v>
+        <v>3.546</v>
       </c>
       <c r="L104" t="n">
-        <v>1910</v>
+        <v>1945</v>
       </c>
       <c r="M104" t="n">
-        <v>3.009</v>
+        <v>3.064</v>
       </c>
       <c r="N104" t="n">
-        <v>0.348</v>
+        <v>0.302</v>
       </c>
       <c r="O104" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P104" t="s">
         <v>565</v>
@@ -9278,7 +9191,7 @@
         <v>571</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44675</v>
+        <v>44679</v>
       </c>
       <c r="D106" t="s">
         <v>35</v>
@@ -9288,28 +9201,24 @@
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H106" t="n">
-        <v>571585</v>
+        <v>573085</v>
       </c>
       <c r="I106" t="n">
-        <v>29.092</v>
+        <v>29.168</v>
       </c>
       <c r="J106"/>
       <c r="K106"/>
       <c r="L106" t="n">
-        <v>460</v>
+        <v>421</v>
       </c>
       <c r="M106" t="n">
-        <v>0.023</v>
-      </c>
-      <c r="N106" t="n">
-        <v>0.0059</v>
-      </c>
-      <c r="O106" t="n">
-        <v>169.5</v>
-      </c>
+        <v>0.021</v>
+      </c>
+      <c r="N106"/>
+      <c r="O106"/>
       <c r="P106" t="s">
         <v>36</v>
       </c>
@@ -9331,7 +9240,7 @@
         <v>574</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44673</v>
+        <v>44676</v>
       </c>
       <c r="D107" t="s">
         <v>575</v>
@@ -9343,31 +9252,31 @@
         <v>577</v>
       </c>
       <c r="G107" t="n">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="H107" t="n">
-        <v>58287323</v>
+        <v>58450640</v>
       </c>
       <c r="I107" t="n">
-        <v>1778.343</v>
+        <v>1783.326</v>
       </c>
       <c r="J107" t="n">
-        <v>48493</v>
+        <v>74902</v>
       </c>
       <c r="K107" t="n">
-        <v>1.48</v>
+        <v>2.285</v>
       </c>
       <c r="L107" t="n">
-        <v>61303</v>
+        <v>57864</v>
       </c>
       <c r="M107" t="n">
-        <v>1.87</v>
+        <v>1.765</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1136</v>
+        <v>0.0923</v>
       </c>
       <c r="O107" t="n">
-        <v>8.8</v>
+        <v>10.8</v>
       </c>
       <c r="P107" t="s">
         <v>53</v>
@@ -9443,7 +9352,7 @@
         <v>587</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44675</v>
+        <v>44679</v>
       </c>
       <c r="D109" t="s">
         <v>35</v>
@@ -9453,28 +9362,24 @@
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H109" t="n">
-        <v>676257</v>
+        <v>677998</v>
       </c>
       <c r="I109" t="n">
-        <v>32.425</v>
+        <v>32.509</v>
       </c>
       <c r="J109"/>
       <c r="K109"/>
       <c r="L109" t="n">
-        <v>798</v>
+        <v>600</v>
       </c>
       <c r="M109" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="N109" t="n">
-        <v>0.0147</v>
-      </c>
-      <c r="O109" t="n">
-        <v>68.1</v>
-      </c>
+        <v>0.029</v>
+      </c>
+      <c r="N109"/>
+      <c r="O109"/>
       <c r="P109" t="s">
         <v>36</v>
       </c>
@@ -9496,7 +9401,7 @@
         <v>590</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>44676</v>
+        <v>44680</v>
       </c>
       <c r="D110" t="s">
         <v>591</v>
@@ -9506,25 +9411,25 @@
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="H110" t="n">
-        <v>1874109</v>
+        <v>1881640</v>
       </c>
       <c r="I110" t="n">
-        <v>3631.29</v>
+        <v>3645.883</v>
       </c>
       <c r="J110" t="n">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="K110" t="n">
-        <v>3.185</v>
+        <v>3.187</v>
       </c>
       <c r="L110" t="n">
-        <v>2088</v>
+        <v>1865</v>
       </c>
       <c r="M110" t="n">
-        <v>4.046</v>
+        <v>3.614</v>
       </c>
       <c r="N110"/>
       <c r="O110"/>
@@ -9702,7 +9607,7 @@
         <v>608</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44673</v>
+        <v>44677</v>
       </c>
       <c r="D114" t="s">
         <v>609</v>
@@ -9712,31 +9617,31 @@
       </c>
       <c r="F114"/>
       <c r="G114" t="n">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="H114" t="n">
-        <v>15078255</v>
+        <v>15103666</v>
       </c>
       <c r="I114" t="n">
-        <v>115.753</v>
+        <v>115.948</v>
       </c>
       <c r="J114" t="n">
-        <v>3652</v>
+        <v>4427</v>
       </c>
       <c r="K114" t="n">
-        <v>0.028</v>
+        <v>0.034</v>
       </c>
       <c r="L114" t="n">
-        <v>4281</v>
+        <v>4550</v>
       </c>
       <c r="M114" t="n">
-        <v>0.033</v>
+        <v>0.035</v>
       </c>
       <c r="N114" t="n">
-        <v>0.098</v>
+        <v>0.103</v>
       </c>
       <c r="O114" t="n">
-        <v>10.2</v>
+        <v>9.7</v>
       </c>
       <c r="P114" t="s">
         <v>611</v>
@@ -9830,8 +9735,12 @@
       <c r="M116" t="n">
         <v>0.938</v>
       </c>
-      <c r="N116"/>
-      <c r="O116"/>
+      <c r="N116" t="n">
+        <v>0.0145</v>
+      </c>
+      <c r="O116" t="n">
+        <v>68.9</v>
+      </c>
       <c r="P116" t="s">
         <v>53</v>
       </c>
@@ -9853,7 +9762,7 @@
         <v>626</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44675</v>
+        <v>44679</v>
       </c>
       <c r="D117" t="s">
         <v>627</v>
@@ -9863,28 +9772,24 @@
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H117" t="n">
-        <v>11427802</v>
+        <v>11451409</v>
       </c>
       <c r="I117" t="n">
-        <v>306.008</v>
+        <v>306.64</v>
       </c>
       <c r="J117"/>
       <c r="K117"/>
       <c r="L117" t="n">
-        <v>7179</v>
+        <v>6461</v>
       </c>
       <c r="M117" t="n">
-        <v>0.192</v>
-      </c>
-      <c r="N117" t="n">
-        <v>0.0063</v>
-      </c>
-      <c r="O117" t="n">
-        <v>157.5</v>
-      </c>
+        <v>0.173</v>
+      </c>
+      <c r="N117"/>
+      <c r="O117"/>
       <c r="P117" t="s">
         <v>628</v>
       </c>
@@ -9906,7 +9811,7 @@
         <v>632</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44675</v>
+        <v>44679</v>
       </c>
       <c r="D118" t="s">
         <v>35</v>
@@ -9916,28 +9821,24 @@
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H118" t="n">
-        <v>1309638</v>
+        <v>1311366</v>
       </c>
       <c r="I118" t="n">
-        <v>40.719</v>
+        <v>40.772</v>
       </c>
       <c r="J118"/>
       <c r="K118"/>
       <c r="L118" t="n">
-        <v>584</v>
+        <v>502</v>
       </c>
       <c r="M118" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="N118" t="n">
-        <v>0.0088</v>
-      </c>
-      <c r="O118" t="n">
-        <v>113.6</v>
-      </c>
+        <v>0.016</v>
+      </c>
+      <c r="N118"/>
+      <c r="O118"/>
       <c r="P118" t="s">
         <v>36</v>
       </c>
@@ -10016,7 +9917,7 @@
         <v>641</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>44675</v>
+        <v>44679</v>
       </c>
       <c r="D120" t="s">
         <v>35</v>
@@ -10026,28 +9927,24 @@
       </c>
       <c r="F120"/>
       <c r="G120" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H120" t="n">
-        <v>1001841</v>
+        <v>1003847</v>
       </c>
       <c r="I120" t="n">
-        <v>387.208</v>
+        <v>387.984</v>
       </c>
       <c r="J120"/>
       <c r="K120"/>
       <c r="L120" t="n">
-        <v>1051</v>
+        <v>767</v>
       </c>
       <c r="M120" t="n">
-        <v>0.406</v>
-      </c>
-      <c r="N120" t="n">
-        <v>0.0386</v>
-      </c>
-      <c r="O120" t="n">
-        <v>25.9</v>
-      </c>
+        <v>0.296</v>
+      </c>
+      <c r="N120"/>
+      <c r="O120"/>
       <c r="P120" t="s">
         <v>642</v>
       </c>
@@ -10069,7 +9966,7 @@
         <v>646</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>44676</v>
+        <v>44680</v>
       </c>
       <c r="D121" t="s">
         <v>647</v>
@@ -10079,27 +9976,27 @@
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H121" t="n">
-        <v>6781632</v>
+        <v>6801395</v>
       </c>
       <c r="I121" t="n">
-        <v>228.531</v>
+        <v>229.197</v>
       </c>
       <c r="J121"/>
       <c r="K121"/>
       <c r="L121" t="n">
-        <v>4208</v>
+        <v>4820</v>
       </c>
       <c r="M121" t="n">
-        <v>0.142</v>
+        <v>0.162</v>
       </c>
       <c r="N121" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="O121" t="n">
-        <v>250</v>
+        <v>333.3</v>
       </c>
       <c r="P121" t="s">
         <v>648</v>
@@ -10122,7 +10019,7 @@
         <v>652</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44671</v>
+        <v>44678</v>
       </c>
       <c r="D122" t="s">
         <v>653</v>
@@ -10132,31 +10029,31 @@
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="H122" t="n">
-        <v>30539843</v>
+        <v>30558553</v>
       </c>
       <c r="I122" t="n">
-        <v>1778.354</v>
+        <v>1779.444</v>
       </c>
       <c r="J122" t="n">
-        <v>4448</v>
+        <v>1774</v>
       </c>
       <c r="K122" t="n">
-        <v>0.259</v>
+        <v>0.103</v>
       </c>
       <c r="L122" t="n">
-        <v>4409</v>
+        <v>2673</v>
       </c>
       <c r="M122" t="n">
-        <v>0.257</v>
+        <v>0.156</v>
       </c>
       <c r="N122" t="n">
-        <v>0.582</v>
+        <v>0.524</v>
       </c>
       <c r="O122" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="P122" t="s">
         <v>654</v>
@@ -10179,7 +10076,7 @@
         <v>658</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>44676</v>
+        <v>44680</v>
       </c>
       <c r="D123" t="s">
         <v>659</v>
@@ -10189,21 +10086,21 @@
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H123" t="n">
-        <v>6985911</v>
+        <v>7075276</v>
       </c>
       <c r="I123" t="n">
-        <v>1362.759</v>
+        <v>1380.192</v>
       </c>
       <c r="J123"/>
       <c r="K123"/>
       <c r="L123" t="n">
-        <v>2119</v>
+        <v>13555</v>
       </c>
       <c r="M123" t="n">
-        <v>0.413</v>
+        <v>2.644</v>
       </c>
       <c r="N123"/>
       <c r="O123"/>
@@ -10281,7 +10178,7 @@
         <v>668</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44675</v>
+        <v>44679</v>
       </c>
       <c r="D125" t="s">
         <v>35</v>
@@ -10291,28 +10188,24 @@
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H125" t="n">
-        <v>249026</v>
+        <v>249920</v>
       </c>
       <c r="I125" t="n">
-        <v>9.909</v>
+        <v>9.945</v>
       </c>
       <c r="J125"/>
       <c r="K125"/>
       <c r="L125" t="n">
-        <v>362</v>
+        <v>276</v>
       </c>
       <c r="M125" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="N125" t="n">
-        <v>0.0146</v>
-      </c>
-      <c r="O125" t="n">
-        <v>68.5</v>
-      </c>
+        <v>0.011</v>
+      </c>
+      <c r="N125"/>
+      <c r="O125"/>
       <c r="P125" t="s">
         <v>36</v>
       </c>
@@ -10334,7 +10227,7 @@
         <v>671</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>44675</v>
+        <v>44679</v>
       </c>
       <c r="D126" t="s">
         <v>35</v>
@@ -10344,28 +10237,24 @@
       </c>
       <c r="F126"/>
       <c r="G126" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H126" t="n">
-        <v>5036813</v>
+        <v>5075820</v>
       </c>
       <c r="I126" t="n">
-        <v>23.826</v>
+        <v>24.01</v>
       </c>
       <c r="J126"/>
       <c r="K126"/>
       <c r="L126" t="n">
-        <v>9348</v>
+        <v>9784</v>
       </c>
       <c r="M126" t="n">
-        <v>0.044</v>
-      </c>
-      <c r="N126" t="n">
-        <v>0.0006</v>
-      </c>
-      <c r="O126" t="n">
-        <v>1768.4</v>
-      </c>
+        <v>0.046</v>
+      </c>
+      <c r="N126"/>
+      <c r="O126"/>
       <c r="P126" t="s">
         <v>672</v>
       </c>
@@ -10387,7 +10276,7 @@
         <v>676</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44673</v>
+        <v>44679</v>
       </c>
       <c r="D127" t="s">
         <v>677</v>
@@ -10397,32 +10286,24 @@
       </c>
       <c r="F127"/>
       <c r="G127" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H127" t="n">
-        <v>2007553</v>
+        <v>2015726</v>
       </c>
       <c r="I127" t="n">
-        <v>963.937</v>
-      </c>
-      <c r="J127" t="n">
-        <v>4284</v>
-      </c>
-      <c r="K127" t="n">
-        <v>2.057</v>
-      </c>
+        <v>967.861</v>
+      </c>
+      <c r="J127"/>
+      <c r="K127"/>
       <c r="L127" t="n">
-        <v>2145</v>
+        <v>1780</v>
       </c>
       <c r="M127" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N127" t="n">
-        <v>0.0448</v>
-      </c>
-      <c r="O127" t="n">
-        <v>22.3</v>
-      </c>
+        <v>0.855</v>
+      </c>
+      <c r="N127"/>
+      <c r="O127"/>
       <c r="P127" t="s">
         <v>53</v>
       </c>
@@ -10501,7 +10382,7 @@
         <v>684</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>44675</v>
+        <v>44679</v>
       </c>
       <c r="D129" t="s">
         <v>685</v>
@@ -10511,31 +10392,31 @@
       </c>
       <c r="F129"/>
       <c r="G129" t="n">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="H129" t="n">
-        <v>11070856</v>
+        <v>11079168</v>
       </c>
       <c r="I129" t="n">
-        <v>2025.541</v>
+        <v>2027.062</v>
       </c>
       <c r="J129" t="n">
-        <v>500</v>
+        <v>922</v>
       </c>
       <c r="K129" t="n">
-        <v>0.091</v>
+        <v>0.169</v>
       </c>
       <c r="L129" t="n">
-        <v>1908</v>
+        <v>1584</v>
       </c>
       <c r="M129" t="n">
-        <v>0.349</v>
+        <v>0.29</v>
       </c>
       <c r="N129" t="n">
-        <v>0.078</v>
+        <v>0.121</v>
       </c>
       <c r="O129" t="n">
-        <v>12.8</v>
+        <v>8.3</v>
       </c>
       <c r="P129" t="s">
         <v>686</v>
@@ -10607,7 +10488,7 @@
         <v>691</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>44676</v>
+        <v>44680</v>
       </c>
       <c r="D131" t="s">
         <v>692</v>
@@ -10628,10 +10509,10 @@
       <c r="J131"/>
       <c r="K131"/>
       <c r="L131" t="n">
-        <v>20133</v>
+        <v>8279</v>
       </c>
       <c r="M131" t="n">
-        <v>0.089</v>
+        <v>0.037</v>
       </c>
       <c r="N131"/>
       <c r="O131"/>
@@ -10656,407 +10537,395 @@
         <v>696</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>44675</v>
+        <v>44676</v>
       </c>
       <c r="D132" t="s">
         <v>697</v>
       </c>
       <c r="E132" t="s">
-        <v>53</v>
+        <v>698</v>
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>558</v>
-      </c>
-      <c r="H132"/>
-      <c r="I132"/>
-      <c r="J132" t="n">
-        <v>2386</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.457</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H132" t="n">
+        <v>44992</v>
+      </c>
+      <c r="I132" t="n">
+        <v>2475.625</v>
+      </c>
+      <c r="J132"/>
+      <c r="K132"/>
       <c r="L132"/>
       <c r="M132"/>
       <c r="N132"/>
       <c r="O132"/>
       <c r="P132" t="s">
-        <v>698</v>
+        <v>53</v>
       </c>
       <c r="Q132" t="s">
+        <v>697</v>
+      </c>
+      <c r="R132" t="s">
+        <v>25</v>
+      </c>
+      <c r="S132" t="s">
         <v>699</v>
-      </c>
-      <c r="R132" t="s">
-        <v>65</v>
-      </c>
-      <c r="S132" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
+        <v>700</v>
+      </c>
+      <c r="B133" t="s">
         <v>701</v>
-      </c>
-      <c r="B133" t="s">
-        <v>702</v>
       </c>
       <c r="C133" s="1" t="n">
         <v>44675</v>
       </c>
       <c r="D133" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E133" t="s">
-        <v>704</v>
+        <v>53</v>
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>755</v>
-      </c>
-      <c r="H133" t="n">
-        <v>5828470</v>
-      </c>
-      <c r="I133" t="n">
-        <v>1330.22</v>
-      </c>
-      <c r="J133"/>
-      <c r="K133"/>
-      <c r="L133" t="n">
-        <v>5960</v>
-      </c>
-      <c r="M133" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="N133" t="n">
-        <v>0.0725</v>
-      </c>
-      <c r="O133" t="n">
-        <v>13.8</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="H133"/>
+      <c r="I133"/>
+      <c r="J133" t="n">
+        <v>2386</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="L133"/>
+      <c r="M133"/>
+      <c r="N133"/>
+      <c r="O133"/>
       <c r="P133" t="s">
+        <v>703</v>
+      </c>
+      <c r="Q133" t="s">
         <v>704</v>
-      </c>
-      <c r="Q133" t="s">
-        <v>705</v>
       </c>
       <c r="R133" t="s">
         <v>65</v>
       </c>
       <c r="S133" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
+        <v>706</v>
+      </c>
+      <c r="B134" t="s">
         <v>707</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" s="1" t="n">
+        <v>44679</v>
+      </c>
+      <c r="D134" t="s">
         <v>708</v>
       </c>
-      <c r="C134" s="1" t="n">
-        <v>44609</v>
-      </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
         <v>709</v>
-      </c>
-      <c r="E134" t="s">
-        <v>53</v>
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>757</v>
       </c>
       <c r="H134" t="n">
-        <v>249149</v>
+        <v>5854469</v>
       </c>
       <c r="I134" t="n">
-        <v>27.322</v>
+        <v>1336.154</v>
       </c>
       <c r="J134"/>
       <c r="K134"/>
-      <c r="L134"/>
-      <c r="M134"/>
+      <c r="L134" t="n">
+        <v>6265</v>
+      </c>
+      <c r="M134" t="n">
+        <v>1.43</v>
+      </c>
       <c r="N134"/>
       <c r="O134"/>
       <c r="P134" t="s">
-        <v>427</v>
+        <v>709</v>
       </c>
       <c r="Q134" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="R134" t="s">
-        <v>330</v>
+        <v>65</v>
       </c>
       <c r="S134" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B135" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>44647</v>
+        <v>44609</v>
       </c>
       <c r="D135" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E135" t="s">
-        <v>714</v>
+        <v>53</v>
       </c>
       <c r="F135"/>
       <c r="G135" t="n">
-        <v>744</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>2609819</v>
+        <v>249149</v>
       </c>
       <c r="I135" t="n">
-        <v>361.489</v>
+        <v>27.322</v>
       </c>
       <c r="J135"/>
       <c r="K135"/>
-      <c r="L135" t="n">
-        <v>1763</v>
-      </c>
-      <c r="M135" t="n">
-        <v>0.244</v>
-      </c>
-      <c r="N135" t="n">
-        <v>0.0654</v>
-      </c>
-      <c r="O135" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="L135"/>
+      <c r="M135"/>
+      <c r="N135"/>
+      <c r="O135"/>
       <c r="P135" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>714</v>
+      </c>
+      <c r="R135" t="s">
+        <v>330</v>
+      </c>
+      <c r="S135" t="s">
         <v>715</v>
-      </c>
-      <c r="Q135" t="s">
-        <v>716</v>
-      </c>
-      <c r="R135" t="s">
-        <v>65</v>
-      </c>
-      <c r="S135" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
+        <v>716</v>
+      </c>
+      <c r="B136" t="s">
+        <v>717</v>
+      </c>
+      <c r="C136" s="1" t="n">
+        <v>44647</v>
+      </c>
+      <c r="D136" t="s">
         <v>718</v>
       </c>
-      <c r="B136" t="s">
+      <c r="E136" t="s">
         <v>719</v>
       </c>
-      <c r="C136" s="1" t="n">
-        <v>44651</v>
-      </c>
-      <c r="D136" t="s">
-        <v>720</v>
-      </c>
-      <c r="E136" t="s">
-        <v>218</v>
-      </c>
-      <c r="F136" t="s">
-        <v>721</v>
-      </c>
+      <c r="F136"/>
       <c r="G136" t="n">
-        <v>721</v>
+        <v>744</v>
       </c>
       <c r="H136" t="n">
-        <v>28736342</v>
+        <v>2609819</v>
       </c>
       <c r="I136" t="n">
-        <v>861.416</v>
+        <v>361.489</v>
       </c>
       <c r="J136"/>
       <c r="K136"/>
       <c r="L136" t="n">
-        <v>48159</v>
+        <v>1763</v>
       </c>
       <c r="M136" t="n">
-        <v>1.444</v>
+        <v>0.244</v>
       </c>
       <c r="N136" t="n">
-        <v>0.01</v>
+        <v>0.0654</v>
       </c>
       <c r="O136" t="n">
-        <v>100</v>
+        <v>15.3</v>
       </c>
       <c r="P136" t="s">
-        <v>218</v>
+        <v>720</v>
       </c>
       <c r="Q136" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="R136" t="s">
         <v>65</v>
       </c>
       <c r="S136" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
+        <v>723</v>
+      </c>
+      <c r="B137" t="s">
         <v>724</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" s="1" t="n">
+        <v>44651</v>
+      </c>
+      <c r="D137" t="s">
         <v>725</v>
       </c>
-      <c r="C137" s="1" t="n">
-        <v>44666</v>
-      </c>
-      <c r="D137" t="s">
+      <c r="E137" t="s">
+        <v>218</v>
+      </c>
+      <c r="F137" t="s">
         <v>726</v>
       </c>
-      <c r="E137" t="s">
+      <c r="G137" t="n">
+        <v>721</v>
+      </c>
+      <c r="H137" t="n">
+        <v>28736342</v>
+      </c>
+      <c r="I137" t="n">
+        <v>861.416</v>
+      </c>
+      <c r="J137"/>
+      <c r="K137"/>
+      <c r="L137" t="n">
+        <v>48159</v>
+      </c>
+      <c r="M137" t="n">
+        <v>1.444</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O137" t="n">
+        <v>100</v>
+      </c>
+      <c r="P137" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q137" t="s">
         <v>727</v>
       </c>
-      <c r="F137"/>
-      <c r="G137" t="n">
-        <v>743</v>
-      </c>
-      <c r="H137" t="n">
-        <v>27548371</v>
-      </c>
-      <c r="I137" t="n">
-        <v>248.079</v>
-      </c>
-      <c r="J137" t="n">
-        <v>10570</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.095</v>
-      </c>
-      <c r="L137" t="n">
-        <v>16896</v>
-      </c>
-      <c r="M137" t="n">
-        <v>0.152</v>
-      </c>
-      <c r="N137" t="n">
-        <v>0.0154</v>
-      </c>
-      <c r="O137" t="n">
-        <v>64.9</v>
-      </c>
-      <c r="P137" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q137" t="s">
+      <c r="R137" t="s">
+        <v>65</v>
+      </c>
+      <c r="S137" t="s">
         <v>728</v>
-      </c>
-      <c r="R137" t="s">
-        <v>45</v>
-      </c>
-      <c r="S137" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
+        <v>729</v>
+      </c>
+      <c r="B138" t="s">
         <v>730</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" s="1" t="n">
+        <v>44666</v>
+      </c>
+      <c r="D138" t="s">
         <v>731</v>
       </c>
-      <c r="C138" s="1" t="n">
-        <v>44665</v>
-      </c>
-      <c r="D138" t="s">
+      <c r="E138" t="s">
         <v>732</v>
-      </c>
-      <c r="E138" t="s">
-        <v>733</v>
       </c>
       <c r="F138"/>
       <c r="G138" t="n">
-        <v>110</v>
+        <v>743</v>
       </c>
       <c r="H138" t="n">
-        <v>36496005</v>
+        <v>27548371</v>
       </c>
       <c r="I138" t="n">
-        <v>965.579</v>
-      </c>
-      <c r="J138"/>
-      <c r="K138"/>
+        <v>248.079</v>
+      </c>
+      <c r="J138" t="n">
+        <v>10570</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.095</v>
+      </c>
       <c r="L138" t="n">
-        <v>12685</v>
+        <v>16896</v>
       </c>
       <c r="M138" t="n">
-        <v>0.336</v>
+        <v>0.152</v>
       </c>
       <c r="N138" t="n">
-        <v>0.0859</v>
+        <v>0.0154</v>
       </c>
       <c r="O138" t="n">
-        <v>11.6</v>
+        <v>64.9</v>
       </c>
       <c r="P138" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>733</v>
+      </c>
+      <c r="R138" t="s">
+        <v>45</v>
+      </c>
+      <c r="S138" t="s">
         <v>734</v>
-      </c>
-      <c r="Q138" t="s">
-        <v>732</v>
-      </c>
-      <c r="R138" t="s">
-        <v>25</v>
-      </c>
-      <c r="S138" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
+        <v>735</v>
+      </c>
+      <c r="B139" t="s">
         <v>736</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" s="1" t="n">
+        <v>44672</v>
+      </c>
+      <c r="D139" t="s">
         <v>737</v>
       </c>
-      <c r="C139" s="1" t="n">
-        <v>44675</v>
-      </c>
-      <c r="D139" t="s">
+      <c r="E139" t="s">
         <v>738</v>
-      </c>
-      <c r="E139" t="s">
-        <v>53</v>
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
-        <v>785</v>
+        <v>111</v>
       </c>
       <c r="H139" t="n">
-        <v>41038444</v>
+        <v>36580416</v>
       </c>
       <c r="I139" t="n">
-        <v>4036.07</v>
-      </c>
-      <c r="J139" t="n">
-        <v>16766</v>
-      </c>
-      <c r="K139" t="n">
-        <v>1.649</v>
-      </c>
+        <v>967.813</v>
+      </c>
+      <c r="J139"/>
+      <c r="K139"/>
       <c r="L139" t="n">
-        <v>41439</v>
+        <v>12059</v>
       </c>
       <c r="M139" t="n">
-        <v>4.075</v>
-      </c>
-      <c r="N139"/>
-      <c r="O139"/>
+        <v>0.319</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0.0693</v>
+      </c>
+      <c r="O139" t="n">
+        <v>14.4</v>
+      </c>
       <c r="P139" t="s">
         <v>739</v>
       </c>
       <c r="Q139" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="R139" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="S139" t="s">
         <v>740</v>
@@ -11070,311 +10939,311 @@
         <v>742</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>44672</v>
+        <v>44679</v>
       </c>
       <c r="D140" t="s">
-        <v>394</v>
+        <v>743</v>
       </c>
       <c r="E140" t="s">
-        <v>395</v>
+        <v>53</v>
       </c>
       <c r="F140"/>
       <c r="G140" t="n">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="H140" t="n">
-        <v>2712791</v>
+        <v>41218424</v>
       </c>
       <c r="I140" t="n">
-        <v>959.178</v>
+        <v>4053.77</v>
       </c>
       <c r="J140" t="n">
-        <v>2033</v>
+        <v>52569</v>
       </c>
       <c r="K140" t="n">
-        <v>0.719</v>
+        <v>5.17</v>
       </c>
       <c r="L140" t="n">
-        <v>2419</v>
+        <v>38484</v>
       </c>
       <c r="M140" t="n">
-        <v>0.855</v>
+        <v>3.785</v>
       </c>
       <c r="N140"/>
       <c r="O140"/>
       <c r="P140" t="s">
-        <v>395</v>
+        <v>744</v>
       </c>
       <c r="Q140" t="s">
-        <v>394</v>
+        <v>743</v>
       </c>
       <c r="R140" t="s">
-        <v>396</v>
+        <v>65</v>
       </c>
       <c r="S140" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B141" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>44675</v>
+        <v>44676</v>
       </c>
       <c r="D141" t="s">
-        <v>746</v>
+        <v>394</v>
       </c>
       <c r="E141" t="s">
-        <v>747</v>
+        <v>395</v>
       </c>
       <c r="F141"/>
       <c r="G141" t="n">
-        <v>309</v>
+        <v>785</v>
       </c>
       <c r="H141" t="n">
-        <v>6729901</v>
+        <v>2727507</v>
       </c>
       <c r="I141" t="n">
-        <v>2296.484</v>
+        <v>964.381</v>
       </c>
       <c r="J141" t="n">
-        <v>12910</v>
+        <v>2040</v>
       </c>
       <c r="K141" t="n">
-        <v>4.405</v>
+        <v>0.721</v>
       </c>
       <c r="L141" t="n">
-        <v>11669</v>
+        <v>3120</v>
       </c>
       <c r="M141" t="n">
-        <v>3.982</v>
-      </c>
-      <c r="N141" t="n">
-        <v>0.0079</v>
-      </c>
-      <c r="O141" t="n">
-        <v>126.8</v>
-      </c>
+        <v>1.103</v>
+      </c>
+      <c r="N141"/>
+      <c r="O141"/>
       <c r="P141" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>394</v>
+      </c>
+      <c r="R141" t="s">
+        <v>396</v>
+      </c>
+      <c r="S141" t="s">
         <v>748</v>
-      </c>
-      <c r="Q141" t="s">
-        <v>749</v>
-      </c>
-      <c r="R141" t="s">
-        <v>45</v>
-      </c>
-      <c r="S141" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
+        <v>749</v>
+      </c>
+      <c r="B142" t="s">
+        <v>750</v>
+      </c>
+      <c r="C142" s="1" t="n">
+        <v>44679</v>
+      </c>
+      <c r="D142" t="s">
         <v>751</v>
       </c>
-      <c r="B142" t="s">
+      <c r="E142" t="s">
         <v>752</v>
-      </c>
-      <c r="C142" s="1" t="n">
-        <v>44630</v>
-      </c>
-      <c r="D142" t="s">
-        <v>732</v>
-      </c>
-      <c r="E142" t="s">
-        <v>733</v>
       </c>
       <c r="F142"/>
       <c r="G142" t="n">
-        <v>104</v>
+        <v>313</v>
       </c>
       <c r="H142" t="n">
-        <v>21260367</v>
+        <v>6779799</v>
       </c>
       <c r="I142" t="n">
-        <v>1111.492</v>
-      </c>
-      <c r="J142"/>
-      <c r="K142"/>
+        <v>2313.511</v>
+      </c>
+      <c r="J142" t="n">
+        <v>12993</v>
+      </c>
+      <c r="K142" t="n">
+        <v>4.434</v>
+      </c>
       <c r="L142" t="n">
-        <v>75700</v>
+        <v>11987</v>
       </c>
       <c r="M142" t="n">
-        <v>3.958</v>
-      </c>
-      <c r="N142" t="n">
-        <v>0.0565</v>
-      </c>
-      <c r="O142" t="n">
-        <v>17.7</v>
-      </c>
+        <v>4.09</v>
+      </c>
+      <c r="N142"/>
+      <c r="O142"/>
       <c r="P142" t="s">
-        <v>734</v>
+        <v>753</v>
       </c>
       <c r="Q142" t="s">
-        <v>732</v>
+        <v>754</v>
       </c>
       <c r="R142" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="S142" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B143" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>44675</v>
+        <v>44630</v>
       </c>
       <c r="D143" t="s">
-        <v>756</v>
+        <v>737</v>
       </c>
       <c r="E143" t="s">
-        <v>757</v>
+        <v>738</v>
       </c>
       <c r="F143"/>
       <c r="G143" t="n">
-        <v>569</v>
+        <v>104</v>
       </c>
       <c r="H143" t="n">
-        <v>289507298</v>
+        <v>21260367</v>
       </c>
       <c r="I143" t="n">
-        <v>1984.122</v>
+        <v>1111.492</v>
       </c>
       <c r="J143"/>
       <c r="K143"/>
       <c r="L143" t="n">
-        <v>179791</v>
+        <v>75700</v>
       </c>
       <c r="M143" t="n">
-        <v>1.232</v>
+        <v>3.958</v>
       </c>
       <c r="N143" t="n">
-        <v>0.0488</v>
+        <v>0.0565</v>
       </c>
       <c r="O143" t="n">
-        <v>20.5</v>
+        <v>17.7</v>
       </c>
       <c r="P143" t="s">
-        <v>757</v>
+        <v>739</v>
       </c>
       <c r="Q143" t="s">
-        <v>758</v>
+        <v>737</v>
       </c>
       <c r="R143" t="s">
         <v>65</v>
       </c>
       <c r="S143" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
+        <v>759</v>
+      </c>
+      <c r="B144" t="s">
         <v>760</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" s="1" t="n">
+        <v>44680</v>
+      </c>
+      <c r="D144" t="s">
         <v>761</v>
       </c>
-      <c r="C144" s="1" t="n">
-        <v>44676</v>
-      </c>
-      <c r="D144" t="s">
+      <c r="E144" t="s">
         <v>762</v>
-      </c>
-      <c r="E144" t="s">
-        <v>763</v>
       </c>
       <c r="F144"/>
       <c r="G144" t="n">
-        <v>625</v>
+        <v>570</v>
       </c>
       <c r="H144" t="n">
-        <v>5233320</v>
+        <v>290285503</v>
       </c>
       <c r="I144" t="n">
-        <v>394.179</v>
-      </c>
-      <c r="J144" t="n">
-        <v>3018</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.227</v>
-      </c>
+        <v>1989.456</v>
+      </c>
+      <c r="J144"/>
+      <c r="K144"/>
       <c r="L144" t="n">
-        <v>5232</v>
+        <v>167446</v>
       </c>
       <c r="M144" t="n">
-        <v>0.394</v>
+        <v>1.148</v>
       </c>
       <c r="N144"/>
       <c r="O144"/>
       <c r="P144" t="s">
+        <v>762</v>
+      </c>
+      <c r="Q144" t="s">
         <v>763</v>
       </c>
-      <c r="Q144" t="s">
+      <c r="R144" t="s">
+        <v>65</v>
+      </c>
+      <c r="S144" t="s">
         <v>764</v>
-      </c>
-      <c r="R144" t="s">
-        <v>140</v>
-      </c>
-      <c r="S144" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
+        <v>765</v>
+      </c>
+      <c r="B145" t="s">
         <v>766</v>
-      </c>
-      <c r="B145" t="s">
-        <v>767</v>
       </c>
       <c r="C145" s="1" t="n">
         <v>44676</v>
       </c>
       <c r="D145" t="s">
+        <v>767</v>
+      </c>
+      <c r="E145" t="s">
         <v>768</v>
-      </c>
-      <c r="E145" t="s">
-        <v>53</v>
       </c>
       <c r="F145"/>
       <c r="G145" t="n">
-        <v>140</v>
+        <v>625</v>
       </c>
       <c r="H145" t="n">
-        <v>69987</v>
+        <v>5233320</v>
       </c>
       <c r="I145" t="n">
-        <v>1307.044</v>
-      </c>
-      <c r="J145"/>
-      <c r="K145"/>
+        <v>394.179</v>
+      </c>
+      <c r="J145" t="n">
+        <v>3018</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0.227</v>
+      </c>
       <c r="L145" t="n">
-        <v>126</v>
+        <v>5232</v>
       </c>
       <c r="M145" t="n">
-        <v>2.353</v>
-      </c>
-      <c r="N145"/>
-      <c r="O145"/>
+        <v>0.394</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="O145" t="n">
+        <v>1465.1</v>
+      </c>
       <c r="P145" t="s">
-        <v>53</v>
+        <v>768</v>
       </c>
       <c r="Q145" t="s">
         <v>769</v>
       </c>
       <c r="R145" t="s">
-        <v>330</v>
+        <v>140</v>
       </c>
       <c r="S145" t="s">
         <v>770</v>
@@ -11388,142 +11257,138 @@
         <v>772</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>44675</v>
+        <v>44680</v>
       </c>
       <c r="D146" t="s">
         <v>773</v>
       </c>
       <c r="E146" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="F146"/>
       <c r="G146" t="n">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="H146" t="n">
-        <v>142773</v>
+        <v>71365</v>
       </c>
       <c r="I146" t="n">
-        <v>774.253</v>
+        <v>1332.779</v>
       </c>
       <c r="J146"/>
       <c r="K146"/>
       <c r="L146" t="n">
-        <v>132</v>
+        <v>297</v>
       </c>
       <c r="M146" t="n">
-        <v>0.716</v>
-      </c>
-      <c r="N146" t="n">
-        <v>0.1569</v>
-      </c>
-      <c r="O146" t="n">
-        <v>6.4</v>
-      </c>
+        <v>5.547</v>
+      </c>
+      <c r="N146"/>
+      <c r="O146"/>
       <c r="P146" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="Q146" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="R146" t="s">
-        <v>25</v>
+        <v>330</v>
       </c>
       <c r="S146" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B147" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>44667</v>
+        <v>44679</v>
       </c>
       <c r="D147" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E147" t="s">
-        <v>778</v>
+        <v>92</v>
       </c>
       <c r="F147"/>
       <c r="G147" t="n">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="H147" t="n">
-        <v>104787</v>
+        <v>143281</v>
       </c>
       <c r="I147" t="n">
-        <v>941.745</v>
+        <v>777.008</v>
       </c>
       <c r="J147"/>
       <c r="K147"/>
       <c r="L147" t="n">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="M147" t="n">
-        <v>0.243</v>
-      </c>
-      <c r="N147" t="n">
-        <v>0.0476</v>
-      </c>
-      <c r="O147" t="n">
-        <v>21</v>
-      </c>
+        <v>0.765</v>
+      </c>
+      <c r="N147"/>
+      <c r="O147"/>
       <c r="P147" t="s">
-        <v>779</v>
+        <v>92</v>
       </c>
       <c r="Q147" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="R147" t="s">
         <v>25</v>
       </c>
       <c r="S147" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
+        <v>780</v>
+      </c>
+      <c r="B148" t="s">
+        <v>781</v>
+      </c>
+      <c r="C148" s="1" t="n">
+        <v>44678</v>
+      </c>
+      <c r="D148" t="s">
         <v>782</v>
       </c>
-      <c r="B148" t="s">
+      <c r="E148" t="s">
         <v>783</v>
-      </c>
-      <c r="C148" s="1" t="n">
-        <v>44668</v>
-      </c>
-      <c r="D148" t="s">
-        <v>784</v>
-      </c>
-      <c r="E148" t="s">
-        <v>53</v>
       </c>
       <c r="F148"/>
       <c r="G148" t="n">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="H148" t="n">
-        <v>771</v>
+        <v>105380</v>
       </c>
       <c r="I148" t="n">
-        <v>3.452</v>
-      </c>
-      <c r="J148" t="n">
-        <v>376</v>
-      </c>
-      <c r="K148" t="n">
-        <v>1.683</v>
-      </c>
-      <c r="L148"/>
-      <c r="M148"/>
-      <c r="N148"/>
-      <c r="O148"/>
+        <v>947.074</v>
+      </c>
+      <c r="J148"/>
+      <c r="K148"/>
+      <c r="L148" t="n">
+        <v>54</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0.1349</v>
+      </c>
+      <c r="O148" t="n">
+        <v>7.4</v>
+      </c>
       <c r="P148" t="s">
-        <v>53</v>
+        <v>784</v>
       </c>
       <c r="Q148" t="s">
         <v>785</v>
@@ -11553,90 +11418,90 @@
       </c>
       <c r="F149"/>
       <c r="G149" t="n">
-        <v>784</v>
+        <v>3</v>
       </c>
       <c r="H149" t="n">
-        <v>41838185</v>
+        <v>1220</v>
       </c>
       <c r="I149" t="n">
-        <v>1183.853</v>
+        <v>5.462</v>
       </c>
       <c r="J149" t="n">
-        <v>11076</v>
+        <v>449</v>
       </c>
       <c r="K149" t="n">
-        <v>0.313</v>
+        <v>2.01</v>
       </c>
       <c r="L149" t="n">
-        <v>11275</v>
+        <v>64</v>
       </c>
       <c r="M149" t="n">
-        <v>0.319</v>
+        <v>0.287</v>
       </c>
       <c r="N149" t="n">
-        <v>0.0107</v>
+        <v>0.0112</v>
       </c>
       <c r="O149" t="n">
-        <v>93.4</v>
+        <v>89.6</v>
       </c>
       <c r="P149" t="s">
         <v>53</v>
       </c>
       <c r="Q149" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="R149" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="S149" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B150" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>44676</v>
+        <v>44679</v>
       </c>
       <c r="D150" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E150" t="s">
-        <v>794</v>
+        <v>53</v>
       </c>
       <c r="F150"/>
       <c r="G150" t="n">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="H150" t="n">
-        <v>1094774</v>
+        <v>41883167</v>
       </c>
       <c r="I150" t="n">
-        <v>63.663</v>
+        <v>1185.126</v>
       </c>
       <c r="J150" t="n">
-        <v>811</v>
+        <v>10947</v>
       </c>
       <c r="K150" t="n">
-        <v>0.047</v>
+        <v>0.31</v>
       </c>
       <c r="L150" t="n">
-        <v>844</v>
+        <v>10765</v>
       </c>
       <c r="M150" t="n">
-        <v>0.049</v>
+        <v>0.305</v>
       </c>
       <c r="N150"/>
       <c r="O150"/>
       <c r="P150" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q150" t="s">
         <v>794</v>
-      </c>
-      <c r="Q150" t="s">
-        <v>793</v>
       </c>
       <c r="R150" t="s">
         <v>65</v>
@@ -11653,217 +11518,203 @@
         <v>797</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>44675</v>
+        <v>44679</v>
       </c>
       <c r="D151" t="s">
         <v>798</v>
       </c>
       <c r="E151" t="s">
-        <v>53</v>
-      </c>
-      <c r="F151" t="s">
         <v>799</v>
       </c>
+      <c r="F151"/>
       <c r="G151" t="n">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H151" t="n">
-        <v>9432261</v>
+        <v>1096835</v>
       </c>
       <c r="I151" t="n">
-        <v>1372.655</v>
+        <v>63.783</v>
       </c>
       <c r="J151" t="n">
-        <v>4599</v>
+        <v>686</v>
       </c>
       <c r="K151" t="n">
-        <v>0.669</v>
+        <v>0.04</v>
       </c>
       <c r="L151" t="n">
-        <v>8453</v>
+        <v>815</v>
       </c>
       <c r="M151" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="N151" t="n">
-        <v>0.0958</v>
-      </c>
-      <c r="O151" t="n">
-        <v>10.4</v>
-      </c>
+        <v>0.047</v>
+      </c>
+      <c r="N151"/>
+      <c r="O151"/>
       <c r="P151" t="s">
-        <v>53</v>
+        <v>799</v>
       </c>
       <c r="Q151" t="s">
+        <v>798</v>
+      </c>
+      <c r="R151" t="s">
+        <v>65</v>
+      </c>
+      <c r="S151" t="s">
         <v>800</v>
-      </c>
-      <c r="R151" t="s">
-        <v>45</v>
-      </c>
-      <c r="S151" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
+        <v>801</v>
+      </c>
+      <c r="B152" t="s">
         <v>802</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" s="1" t="n">
+        <v>44679</v>
+      </c>
+      <c r="D152" t="s">
         <v>803</v>
       </c>
-      <c r="C152" s="1" t="n">
-        <v>44658</v>
-      </c>
-      <c r="D152" t="s">
-        <v>35</v>
-      </c>
       <c r="E152" t="s">
-        <v>36</v>
-      </c>
-      <c r="F152"/>
+        <v>53</v>
+      </c>
+      <c r="F152" t="s">
+        <v>804</v>
+      </c>
       <c r="G152" t="n">
-        <v>3</v>
+        <v>792</v>
       </c>
       <c r="H152" t="n">
-        <v>405779</v>
+        <v>9471803</v>
       </c>
       <c r="I152" t="n">
-        <v>49.842</v>
-      </c>
-      <c r="J152"/>
-      <c r="K152"/>
+        <v>1378.409</v>
+      </c>
+      <c r="J152" t="n">
+        <v>10046</v>
+      </c>
+      <c r="K152" t="n">
+        <v>1.462</v>
+      </c>
       <c r="L152" t="n">
-        <v>838</v>
+        <v>8091</v>
       </c>
       <c r="M152" t="n">
-        <v>0.103</v>
-      </c>
-      <c r="N152" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="O152" t="n">
-        <v>5860.1</v>
-      </c>
+        <v>1.177</v>
+      </c>
+      <c r="N152"/>
+      <c r="O152"/>
       <c r="P152" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="Q152" t="s">
-        <v>37</v>
+        <v>805</v>
       </c>
       <c r="R152" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="S152" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B153" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>44669</v>
+        <v>44679</v>
       </c>
       <c r="D153" t="s">
-        <v>807</v>
+        <v>35</v>
       </c>
       <c r="E153" t="s">
-        <v>808</v>
+        <v>36</v>
       </c>
       <c r="F153"/>
       <c r="G153" t="n">
-        <v>91</v>
-      </c>
-      <c r="H153"/>
-      <c r="I153"/>
-      <c r="J153" t="n">
-        <v>33700</v>
-      </c>
-      <c r="K153" t="n">
-        <v>6.179</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H153" t="n">
+        <v>412416</v>
+      </c>
+      <c r="I153" t="n">
+        <v>50.657</v>
+      </c>
+      <c r="J153"/>
+      <c r="K153"/>
       <c r="L153" t="n">
-        <v>33700</v>
+        <v>316</v>
       </c>
       <c r="M153" t="n">
-        <v>6.179</v>
-      </c>
-      <c r="N153" t="n">
-        <v>0.0942</v>
-      </c>
-      <c r="O153" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0.039</v>
+      </c>
+      <c r="N153"/>
+      <c r="O153"/>
       <c r="P153" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="Q153" t="s">
+        <v>37</v>
+      </c>
+      <c r="R153" t="s">
+        <v>25</v>
+      </c>
+      <c r="S153" t="s">
         <v>809</v>
-      </c>
-      <c r="R153" t="s">
-        <v>140</v>
-      </c>
-      <c r="S153" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
+        <v>810</v>
+      </c>
+      <c r="B154" t="s">
         <v>811</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" s="1" t="n">
+        <v>44676</v>
+      </c>
+      <c r="D154" t="s">
         <v>812</v>
       </c>
-      <c r="C154" s="1" t="n">
-        <v>44663</v>
-      </c>
-      <c r="D154" t="s">
+      <c r="E154" t="s">
         <v>813</v>
       </c>
-      <c r="E154" t="s">
-        <v>53</v>
-      </c>
-      <c r="F154" t="s">
-        <v>814</v>
-      </c>
+      <c r="F154"/>
       <c r="G154" t="n">
-        <v>768</v>
-      </c>
-      <c r="H154" t="n">
-        <v>50773549</v>
-      </c>
-      <c r="I154" t="n">
-        <v>9317.496</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="H154"/>
+      <c r="I154"/>
       <c r="J154" t="n">
-        <v>7983</v>
+        <v>32900</v>
       </c>
       <c r="K154" t="n">
-        <v>1.465</v>
+        <v>6.033</v>
       </c>
       <c r="L154" t="n">
-        <v>12654</v>
+        <v>32900</v>
       </c>
       <c r="M154" t="n">
-        <v>2.322</v>
+        <v>6.033</v>
       </c>
       <c r="N154" t="n">
-        <v>0.249</v>
+        <v>0.0931</v>
       </c>
       <c r="O154" t="n">
-        <v>4</v>
+        <v>10.7</v>
       </c>
       <c r="P154" t="s">
         <v>53</v>
       </c>
       <c r="Q154" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="R154" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="S154" t="s">
         <v>815</v>
@@ -11877,46 +11728,46 @@
         <v>817</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>44675</v>
+        <v>44678</v>
       </c>
       <c r="D155" t="s">
         <v>818</v>
       </c>
       <c r="E155" t="s">
+        <v>53</v>
+      </c>
+      <c r="F155" t="s">
         <v>819</v>
       </c>
-      <c r="F155" t="s">
-        <v>820</v>
-      </c>
       <c r="G155" t="n">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="H155" t="n">
-        <v>5046821</v>
+        <v>51008339</v>
       </c>
       <c r="I155" t="n">
-        <v>2427.847</v>
+        <v>9360.582</v>
       </c>
       <c r="J155" t="n">
-        <v>3317</v>
+        <v>11014</v>
       </c>
       <c r="K155" t="n">
-        <v>1.596</v>
+        <v>2.021</v>
       </c>
       <c r="L155" t="n">
-        <v>8291</v>
+        <v>11970</v>
       </c>
       <c r="M155" t="n">
-        <v>3.989</v>
+        <v>2.197</v>
       </c>
       <c r="N155" t="n">
-        <v>0.119</v>
+        <v>0.124</v>
       </c>
       <c r="O155" t="n">
-        <v>8.4</v>
+        <v>8.1</v>
       </c>
       <c r="P155" t="s">
-        <v>821</v>
+        <v>53</v>
       </c>
       <c r="Q155" t="s">
         <v>818</v>
@@ -11925,277 +11776,267 @@
         <v>65</v>
       </c>
       <c r="S155" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
+        <v>821</v>
+      </c>
+      <c r="B156" t="s">
+        <v>822</v>
+      </c>
+      <c r="C156" s="1" t="n">
+        <v>44679</v>
+      </c>
+      <c r="D156" t="s">
         <v>823</v>
       </c>
-      <c r="B156" t="s">
+      <c r="E156" t="s">
         <v>824</v>
       </c>
-      <c r="C156" s="1" t="n">
-        <v>44632</v>
-      </c>
-      <c r="D156" t="s">
-        <v>35</v>
-      </c>
-      <c r="E156" t="s">
-        <v>36</v>
-      </c>
-      <c r="F156"/>
+      <c r="F156" t="s">
+        <v>825</v>
+      </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>799</v>
       </c>
       <c r="H156" t="n">
-        <v>400466</v>
+        <v>5088732</v>
       </c>
       <c r="I156" t="n">
-        <v>24.479</v>
-      </c>
-      <c r="J156"/>
-      <c r="K156"/>
-      <c r="L156"/>
-      <c r="M156"/>
-      <c r="N156"/>
-      <c r="O156"/>
+        <v>2448.009</v>
+      </c>
+      <c r="J156" t="n">
+        <v>9528</v>
+      </c>
+      <c r="K156" t="n">
+        <v>4.584</v>
+      </c>
+      <c r="L156" t="n">
+        <v>8513</v>
+      </c>
+      <c r="M156" t="n">
+        <v>4.095</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="O156" t="n">
+        <v>9.7</v>
+      </c>
       <c r="P156" t="s">
-        <v>36</v>
+        <v>826</v>
       </c>
       <c r="Q156" t="s">
-        <v>37</v>
+        <v>823</v>
       </c>
       <c r="R156" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="S156" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B157" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>44675</v>
+        <v>44632</v>
       </c>
       <c r="D157" t="s">
-        <v>828</v>
+        <v>35</v>
       </c>
       <c r="E157" t="s">
-        <v>829</v>
-      </c>
-      <c r="F157" t="s">
+        <v>36</v>
+      </c>
+      <c r="F157"/>
+      <c r="G157" t="n">
+        <v>1</v>
+      </c>
+      <c r="H157" t="n">
+        <v>400466</v>
+      </c>
+      <c r="I157" t="n">
+        <v>24.479</v>
+      </c>
+      <c r="J157"/>
+      <c r="K157"/>
+      <c r="L157"/>
+      <c r="M157"/>
+      <c r="N157"/>
+      <c r="O157"/>
+      <c r="P157" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>37</v>
+      </c>
+      <c r="R157" t="s">
+        <v>25</v>
+      </c>
+      <c r="S157" t="s">
         <v>830</v>
-      </c>
-      <c r="G157" t="n">
-        <v>775</v>
-      </c>
-      <c r="H157" t="n">
-        <v>24332659</v>
-      </c>
-      <c r="I157" t="n">
-        <v>405.261</v>
-      </c>
-      <c r="J157" t="n">
-        <v>19325</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.322</v>
-      </c>
-      <c r="L157" t="n">
-        <v>20521</v>
-      </c>
-      <c r="M157" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="N157" t="n">
-        <v>0.1509</v>
-      </c>
-      <c r="O157" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="P157" t="s">
-        <v>831</v>
-      </c>
-      <c r="Q157" t="s">
-        <v>828</v>
-      </c>
-      <c r="R157" t="s">
-        <v>45</v>
-      </c>
-      <c r="S157" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
+        <v>831</v>
+      </c>
+      <c r="B158" t="s">
+        <v>832</v>
+      </c>
+      <c r="C158" s="1" t="n">
+        <v>44679</v>
+      </c>
+      <c r="D158" t="s">
         <v>833</v>
       </c>
-      <c r="B158" t="s">
+      <c r="E158" t="s">
         <v>834</v>
       </c>
-      <c r="C158" s="1" t="n">
-        <v>44675</v>
-      </c>
-      <c r="D158" t="s">
+      <c r="F158" t="s">
         <v>835</v>
       </c>
-      <c r="E158" t="s">
+      <c r="G158" t="n">
+        <v>779</v>
+      </c>
+      <c r="H158" t="n">
+        <v>24423181</v>
+      </c>
+      <c r="I158" t="n">
+        <v>406.768</v>
+      </c>
+      <c r="J158" t="n">
+        <v>22710</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0.378</v>
+      </c>
+      <c r="L158" t="n">
+        <v>23010</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0.383</v>
+      </c>
+      <c r="N158"/>
+      <c r="O158"/>
+      <c r="P158" t="s">
         <v>836</v>
       </c>
-      <c r="F158" t="s">
-        <v>837</v>
-      </c>
-      <c r="G158" t="n">
-        <v>391</v>
-      </c>
-      <c r="H158" t="n">
-        <v>44264195</v>
-      </c>
-      <c r="I158" t="n">
-        <v>862.763</v>
-      </c>
-      <c r="J158" t="n">
-        <v>87718</v>
-      </c>
-      <c r="K158" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="L158" t="n">
-        <v>181594</v>
-      </c>
-      <c r="M158" t="n">
-        <v>3.539</v>
-      </c>
-      <c r="N158" t="n">
-        <v>0.4532</v>
-      </c>
-      <c r="O158" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="P158" t="s">
-        <v>838</v>
-      </c>
       <c r="Q158" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="R158" t="s">
         <v>45</v>
       </c>
       <c r="S158" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
+        <v>838</v>
+      </c>
+      <c r="B159" t="s">
+        <v>839</v>
+      </c>
+      <c r="C159" s="1" t="n">
+        <v>44679</v>
+      </c>
+      <c r="D159" t="s">
+        <v>840</v>
+      </c>
+      <c r="E159" t="s">
         <v>841</v>
       </c>
-      <c r="B159" t="s">
+      <c r="F159" t="s">
         <v>842</v>
       </c>
-      <c r="C159" s="1" t="n">
-        <v>44675</v>
-      </c>
-      <c r="D159" t="s">
-        <v>35</v>
-      </c>
-      <c r="E159" t="s">
-        <v>36</v>
-      </c>
-      <c r="F159"/>
       <c r="G159" t="n">
-        <v>166</v>
+        <v>395</v>
       </c>
       <c r="H159" t="n">
-        <v>376391</v>
+        <v>44910917</v>
       </c>
       <c r="I159" t="n">
-        <v>33.071</v>
-      </c>
-      <c r="J159"/>
-      <c r="K159"/>
+        <v>875.368</v>
+      </c>
+      <c r="J159" t="n">
+        <v>117873</v>
+      </c>
+      <c r="K159" t="n">
+        <v>2.297</v>
+      </c>
       <c r="L159" t="n">
-        <v>963</v>
+        <v>163271</v>
       </c>
       <c r="M159" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="N159" t="n">
-        <v>0.0079</v>
-      </c>
-      <c r="O159" t="n">
-        <v>127.2</v>
-      </c>
+        <v>3.182</v>
+      </c>
+      <c r="N159"/>
+      <c r="O159"/>
       <c r="P159" t="s">
-        <v>36</v>
+        <v>843</v>
       </c>
       <c r="Q159" t="s">
-        <v>37</v>
+        <v>844</v>
       </c>
       <c r="R159" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="S159" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B160" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>44671</v>
+        <v>44679</v>
       </c>
       <c r="D160" t="s">
-        <v>846</v>
+        <v>35</v>
       </c>
       <c r="E160" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F160"/>
       <c r="G160" t="n">
-        <v>767</v>
+        <v>167</v>
       </c>
       <c r="H160" t="n">
-        <v>89693762</v>
+        <v>379731</v>
       </c>
       <c r="I160" t="n">
-        <v>1918.78</v>
-      </c>
-      <c r="J160" t="n">
-        <v>63816</v>
-      </c>
-      <c r="K160" t="n">
-        <v>1.365</v>
-      </c>
+        <v>33.364</v>
+      </c>
+      <c r="J160"/>
+      <c r="K160"/>
       <c r="L160" t="n">
-        <v>46433</v>
+        <v>918</v>
       </c>
       <c r="M160" t="n">
-        <v>0.993</v>
-      </c>
-      <c r="N160" t="n">
-        <v>0.256</v>
-      </c>
-      <c r="O160" t="n">
-        <v>3.9</v>
-      </c>
+        <v>0.081</v>
+      </c>
+      <c r="N160"/>
+      <c r="O160"/>
       <c r="P160" t="s">
-        <v>847</v>
+        <v>36</v>
       </c>
       <c r="Q160" t="s">
-        <v>846</v>
+        <v>37</v>
       </c>
       <c r="R160" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="S160" t="s">
         <v>848</v>
@@ -12209,41 +12050,41 @@
         <v>850</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>44675</v>
+        <v>44677</v>
       </c>
       <c r="D161" t="s">
         <v>851</v>
       </c>
       <c r="E161" t="s">
-        <v>852</v>
+        <v>53</v>
       </c>
       <c r="F161"/>
       <c r="G161" t="n">
-        <v>789</v>
+        <v>773</v>
       </c>
       <c r="H161" t="n">
-        <v>7619202</v>
+        <v>90054580</v>
       </c>
       <c r="I161" t="n">
-        <v>354.426</v>
+        <v>1926.499</v>
       </c>
       <c r="J161" t="n">
-        <v>1563</v>
+        <v>66683</v>
       </c>
       <c r="K161" t="n">
-        <v>0.073</v>
+        <v>1.427</v>
       </c>
       <c r="L161" t="n">
-        <v>2459</v>
+        <v>58642</v>
       </c>
       <c r="M161" t="n">
-        <v>0.114</v>
+        <v>1.255</v>
       </c>
       <c r="N161" t="n">
-        <v>0.0177</v>
+        <v>0.284</v>
       </c>
       <c r="O161" t="n">
-        <v>56.6</v>
+        <v>3.5</v>
       </c>
       <c r="P161" t="s">
         <v>852</v>
@@ -12266,92 +12107,88 @@
         <v>855</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>44605</v>
+        <v>44679</v>
       </c>
       <c r="D162" t="s">
-        <v>35</v>
+        <v>856</v>
       </c>
       <c r="E162" t="s">
-        <v>36</v>
+        <v>857</v>
       </c>
       <c r="F162"/>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>793</v>
       </c>
       <c r="H162" t="n">
-        <v>562941</v>
+        <v>7626465</v>
       </c>
       <c r="I162" t="n">
-        <v>12.535</v>
-      </c>
-      <c r="J162"/>
-      <c r="K162"/>
-      <c r="L162"/>
-      <c r="M162"/>
+        <v>354.764</v>
+      </c>
+      <c r="J162" t="n">
+        <v>1692</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="L162" t="n">
+        <v>2005</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0.093</v>
+      </c>
       <c r="N162"/>
       <c r="O162"/>
       <c r="P162" t="s">
-        <v>36</v>
+        <v>857</v>
       </c>
       <c r="Q162" t="s">
-        <v>37</v>
+        <v>856</v>
       </c>
       <c r="R162" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="S162" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B163" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>44672</v>
+        <v>44605</v>
       </c>
       <c r="D163" t="s">
-        <v>859</v>
+        <v>35</v>
       </c>
       <c r="E163" t="s">
-        <v>860</v>
+        <v>36</v>
       </c>
       <c r="F163"/>
       <c r="G163" t="n">
-        <v>211</v>
+        <v>1</v>
       </c>
       <c r="H163" t="n">
-        <v>82126</v>
+        <v>562941</v>
       </c>
       <c r="I163" t="n">
-        <v>138.774</v>
-      </c>
-      <c r="J163" t="n">
-        <v>117</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.198</v>
-      </c>
-      <c r="L163" t="n">
-        <v>17</v>
-      </c>
-      <c r="M163" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="N163" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="O163" t="n">
-        <v>5.6</v>
-      </c>
+        <v>12.535</v>
+      </c>
+      <c r="J163"/>
+      <c r="K163"/>
+      <c r="L163"/>
+      <c r="M163"/>
+      <c r="N163"/>
+      <c r="O163"/>
       <c r="P163" t="s">
-        <v>860</v>
+        <v>36</v>
       </c>
       <c r="Q163" t="s">
-        <v>859</v>
+        <v>37</v>
       </c>
       <c r="R163" t="s">
         <v>25</v>
@@ -12368,7 +12205,7 @@
         <v>863</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>44668</v>
+        <v>44679</v>
       </c>
       <c r="D164" t="s">
         <v>864</v>
@@ -12378,210 +12215,206 @@
       </c>
       <c r="F164"/>
       <c r="G164" t="n">
-        <v>658</v>
+        <v>212</v>
       </c>
       <c r="H164" t="n">
-        <v>18239711</v>
+        <v>82252</v>
       </c>
       <c r="I164" t="n">
-        <v>1795.219</v>
+        <v>138.987</v>
       </c>
       <c r="J164" t="n">
-        <v>3275</v>
+        <v>126</v>
       </c>
       <c r="K164" t="n">
-        <v>0.322</v>
+        <v>0.213</v>
       </c>
       <c r="L164" t="n">
-        <v>3275</v>
+        <v>18</v>
       </c>
       <c r="M164" t="n">
-        <v>0.322</v>
+        <v>0.03</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1752</v>
+        <v>0.193</v>
       </c>
       <c r="O164" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="P164" t="s">
+        <v>865</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>864</v>
+      </c>
+      <c r="R164" t="s">
+        <v>25</v>
+      </c>
+      <c r="S164" t="s">
         <v>866</v>
-      </c>
-      <c r="Q164" t="s">
-        <v>867</v>
-      </c>
-      <c r="R164" t="s">
-        <v>65</v>
-      </c>
-      <c r="S164" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
+        <v>867</v>
+      </c>
+      <c r="B165" t="s">
+        <v>868</v>
+      </c>
+      <c r="C165" s="1" t="n">
+        <v>44675</v>
+      </c>
+      <c r="D165" t="s">
         <v>869</v>
       </c>
-      <c r="B165" t="s">
+      <c r="E165" t="s">
         <v>870</v>
-      </c>
-      <c r="C165" s="1" t="n">
-        <v>44669</v>
-      </c>
-      <c r="D165" t="s">
-        <v>553</v>
-      </c>
-      <c r="E165" t="s">
-        <v>554</v>
       </c>
       <c r="F165"/>
       <c r="G165" t="n">
-        <v>696</v>
+        <v>665</v>
       </c>
       <c r="H165" t="n">
-        <v>20666182</v>
+        <v>18261285</v>
       </c>
       <c r="I165" t="n">
-        <v>2371.2</v>
+        <v>1797.342</v>
       </c>
       <c r="J165" t="n">
-        <v>7879</v>
+        <v>3082</v>
       </c>
       <c r="K165" t="n">
-        <v>0.904</v>
+        <v>0.303</v>
       </c>
       <c r="L165" t="n">
-        <v>16028</v>
+        <v>3082</v>
       </c>
       <c r="M165" t="n">
-        <v>1.839</v>
-      </c>
-      <c r="N165" t="n">
-        <v>0.282</v>
-      </c>
-      <c r="O165" t="n">
-        <v>3.5</v>
-      </c>
+        <v>0.303</v>
+      </c>
+      <c r="N165"/>
+      <c r="O165"/>
       <c r="P165" t="s">
-        <v>554</v>
+        <v>871</v>
       </c>
       <c r="Q165" t="s">
-        <v>555</v>
+        <v>872</v>
       </c>
       <c r="R165" t="s">
         <v>65</v>
       </c>
       <c r="S165" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="B166" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>44667</v>
+        <v>44676</v>
       </c>
       <c r="D166" t="s">
-        <v>874</v>
+        <v>553</v>
       </c>
       <c r="E166" t="s">
-        <v>875</v>
+        <v>554</v>
       </c>
       <c r="F166"/>
       <c r="G166" t="n">
-        <v>7</v>
+        <v>703</v>
       </c>
       <c r="H166" t="n">
-        <v>167560</v>
+        <v>20767523</v>
       </c>
       <c r="I166" t="n">
-        <v>9.168</v>
-      </c>
-      <c r="J166"/>
-      <c r="K166"/>
+        <v>2382.828</v>
+      </c>
+      <c r="J166" t="n">
+        <v>12350</v>
+      </c>
+      <c r="K166" t="n">
+        <v>1.417</v>
+      </c>
       <c r="L166" t="n">
-        <v>71</v>
+        <v>14056</v>
       </c>
       <c r="M166" t="n">
-        <v>0.004</v>
+        <v>1.613</v>
       </c>
       <c r="N166" t="n">
-        <v>0.0604</v>
+        <v>0.272</v>
       </c>
       <c r="O166" t="n">
-        <v>16.6</v>
+        <v>3.7</v>
       </c>
       <c r="P166" t="s">
-        <v>23</v>
+        <v>554</v>
       </c>
       <c r="Q166" t="s">
-        <v>24</v>
+        <v>555</v>
       </c>
       <c r="R166" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="S166" t="s">
-        <v>26</v>
+        <v>876</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B167" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>44675</v>
+        <v>44667</v>
       </c>
       <c r="D167" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E167" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="F167"/>
       <c r="G167" t="n">
-        <v>829</v>
+        <v>7</v>
       </c>
       <c r="H167" t="n">
-        <v>8109513</v>
+        <v>167560</v>
       </c>
       <c r="I167" t="n">
-        <v>339.95</v>
-      </c>
-      <c r="J167" t="n">
-        <v>23644</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.991</v>
-      </c>
+        <v>9.168</v>
+      </c>
+      <c r="J167"/>
+      <c r="K167"/>
       <c r="L167" t="n">
-        <v>51144</v>
+        <v>71</v>
       </c>
       <c r="M167" t="n">
-        <v>2.144</v>
+        <v>0.004</v>
       </c>
       <c r="N167" t="n">
-        <v>0.0613</v>
+        <v>0.0604</v>
       </c>
       <c r="O167" t="n">
-        <v>16.3</v>
+        <v>16.6</v>
       </c>
       <c r="P167" t="s">
-        <v>879</v>
+        <v>23</v>
       </c>
       <c r="Q167" t="s">
-        <v>878</v>
+        <v>24</v>
       </c>
       <c r="R167" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="S167" t="s">
-        <v>880</v>
+        <v>26</v>
       </c>
     </row>
     <row r="168">
@@ -12592,46 +12425,46 @@
         <v>882</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>44610</v>
+        <v>44679</v>
       </c>
       <c r="D168" t="s">
         <v>883</v>
       </c>
       <c r="E168" t="s">
-        <v>53</v>
+        <v>884</v>
       </c>
       <c r="F168"/>
       <c r="G168" t="n">
-        <v>2</v>
+        <v>833</v>
       </c>
       <c r="H168" t="n">
-        <v>455776</v>
+        <v>8371327</v>
       </c>
       <c r="I168" t="n">
-        <v>7.411</v>
-      </c>
-      <c r="J168"/>
-      <c r="K168"/>
+        <v>350.925</v>
+      </c>
+      <c r="J168" t="n">
+        <v>33674</v>
+      </c>
+      <c r="K168" t="n">
+        <v>1.412</v>
+      </c>
       <c r="L168" t="n">
-        <v>1004</v>
+        <v>55499</v>
       </c>
       <c r="M168" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="N168" t="n">
-        <v>0.0161</v>
-      </c>
-      <c r="O168" t="n">
-        <v>62.2</v>
-      </c>
+        <v>2.327</v>
+      </c>
+      <c r="N168"/>
+      <c r="O168"/>
       <c r="P168" t="s">
-        <v>36</v>
+        <v>884</v>
       </c>
       <c r="Q168" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="R168" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="S168" t="s">
         <v>885</v>
@@ -12645,152 +12478,156 @@
         <v>887</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>44674</v>
+        <v>44610</v>
       </c>
       <c r="D169" t="s">
         <v>888</v>
       </c>
       <c r="E169" t="s">
-        <v>889</v>
+        <v>53</v>
       </c>
       <c r="F169"/>
       <c r="G169" t="n">
-        <v>840</v>
+        <v>2</v>
       </c>
       <c r="H169" t="n">
-        <v>23931655</v>
+        <v>455776</v>
       </c>
       <c r="I169" t="n">
-        <v>342.121</v>
-      </c>
-      <c r="J169" t="n">
-        <v>27588</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.394</v>
-      </c>
+        <v>7.411</v>
+      </c>
+      <c r="J169"/>
+      <c r="K169"/>
       <c r="L169" t="n">
-        <v>44167</v>
+        <v>1004</v>
       </c>
       <c r="M169" t="n">
-        <v>0.631</v>
+        <v>0.016</v>
       </c>
       <c r="N169" t="n">
-        <v>0.4396</v>
+        <v>0.0161</v>
       </c>
       <c r="O169" t="n">
-        <v>2.3</v>
+        <v>62.2</v>
       </c>
       <c r="P169" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>889</v>
+      </c>
+      <c r="R169" t="s">
+        <v>25</v>
+      </c>
+      <c r="S169" t="s">
         <v>890</v>
-      </c>
-      <c r="Q169" t="s">
-        <v>891</v>
-      </c>
-      <c r="R169" t="s">
-        <v>65</v>
-      </c>
-      <c r="S169" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
+        <v>891</v>
+      </c>
+      <c r="B170" t="s">
+        <v>892</v>
+      </c>
+      <c r="C170" s="1" t="n">
+        <v>44674</v>
+      </c>
+      <c r="D170" t="s">
         <v>893</v>
       </c>
-      <c r="B170" t="s">
+      <c r="E170" t="s">
         <v>894</v>
-      </c>
-      <c r="C170" s="1" t="n">
-        <v>44660</v>
-      </c>
-      <c r="D170" t="s">
-        <v>895</v>
-      </c>
-      <c r="E170" t="s">
-        <v>53</v>
       </c>
       <c r="F170"/>
       <c r="G170" t="n">
-        <v>34</v>
+        <v>840</v>
       </c>
       <c r="H170" t="n">
-        <v>258938</v>
+        <v>23931655</v>
       </c>
       <c r="I170" t="n">
-        <v>192.68</v>
-      </c>
-      <c r="J170"/>
-      <c r="K170"/>
+        <v>342.121</v>
+      </c>
+      <c r="J170" t="n">
+        <v>27588</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0.394</v>
+      </c>
       <c r="L170" t="n">
-        <v>237</v>
+        <v>44167</v>
       </c>
       <c r="M170" t="n">
-        <v>0.176</v>
+        <v>0.631</v>
       </c>
       <c r="N170" t="n">
-        <v>0.006</v>
+        <v>0.4396</v>
       </c>
       <c r="O170" t="n">
-        <v>165.9</v>
+        <v>2.3</v>
       </c>
       <c r="P170" t="s">
-        <v>53</v>
+        <v>895</v>
       </c>
       <c r="Q170" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="R170" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="S170" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B171" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>44676</v>
+        <v>44660</v>
       </c>
       <c r="D171" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E171" t="s">
         <v>53</v>
       </c>
       <c r="F171"/>
       <c r="G171" t="n">
-        <v>750</v>
+        <v>34</v>
       </c>
       <c r="H171" t="n">
-        <v>728536</v>
+        <v>258938</v>
       </c>
       <c r="I171" t="n">
-        <v>85.93</v>
+        <v>192.68</v>
       </c>
       <c r="J171"/>
       <c r="K171"/>
       <c r="L171" t="n">
-        <v>374</v>
+        <v>237</v>
       </c>
       <c r="M171" t="n">
-        <v>0.044</v>
-      </c>
-      <c r="N171"/>
-      <c r="O171"/>
+        <v>0.176</v>
+      </c>
+      <c r="N171" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="O171" t="n">
+        <v>165.9</v>
+      </c>
       <c r="P171" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q171" t="s">
         <v>900</v>
       </c>
-      <c r="Q171" t="s">
-        <v>899</v>
-      </c>
       <c r="R171" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="S171" t="s">
         <v>901</v>
@@ -12804,7 +12641,7 @@
         <v>903</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>44674</v>
+        <v>44679</v>
       </c>
       <c r="D172" t="s">
         <v>904</v>
@@ -12814,40 +12651,32 @@
       </c>
       <c r="F172"/>
       <c r="G172" t="n">
-        <v>455</v>
+        <v>751</v>
       </c>
       <c r="H172" t="n">
-        <v>696148</v>
+        <v>729891</v>
       </c>
       <c r="I172" t="n">
-        <v>496.053</v>
-      </c>
-      <c r="J172" t="n">
-        <v>1142</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.814</v>
-      </c>
+        <v>86.09</v>
+      </c>
+      <c r="J172"/>
+      <c r="K172"/>
       <c r="L172" t="n">
-        <v>1355</v>
+        <v>356</v>
       </c>
       <c r="M172" t="n">
-        <v>0.966</v>
-      </c>
-      <c r="N172" t="n">
-        <v>0.312</v>
-      </c>
-      <c r="O172" t="n">
-        <v>3.2</v>
-      </c>
+        <v>0.042</v>
+      </c>
+      <c r="N172"/>
+      <c r="O172"/>
       <c r="P172" t="s">
-        <v>53</v>
+        <v>905</v>
       </c>
       <c r="Q172" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="R172" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="S172" t="s">
         <v>906</v>
@@ -12861,390 +12690,386 @@
         <v>908</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>44668</v>
+        <v>44678</v>
       </c>
       <c r="D173" t="s">
         <v>909</v>
       </c>
       <c r="E173" t="s">
-        <v>910</v>
+        <v>53</v>
       </c>
       <c r="F173"/>
       <c r="G173" t="n">
-        <v>179</v>
+        <v>459</v>
       </c>
       <c r="H173" t="n">
-        <v>4563397</v>
+        <v>702227</v>
       </c>
       <c r="I173" t="n">
-        <v>382.33</v>
-      </c>
-      <c r="J173"/>
-      <c r="K173"/>
+        <v>500.385</v>
+      </c>
+      <c r="J173" t="n">
+        <v>3246</v>
+      </c>
+      <c r="K173" t="n">
+        <v>2.313</v>
+      </c>
       <c r="L173" t="n">
-        <v>1821</v>
+        <v>1353</v>
       </c>
       <c r="M173" t="n">
-        <v>0.153</v>
+        <v>0.964</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1028</v>
+        <v>0.34</v>
       </c>
       <c r="O173" t="n">
-        <v>9.7</v>
+        <v>2.9</v>
       </c>
       <c r="P173" t="s">
-        <v>911</v>
+        <v>53</v>
       </c>
       <c r="Q173" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="R173" t="s">
         <v>45</v>
       </c>
       <c r="S173" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B174" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C174" s="1" t="n">
         <v>44675</v>
       </c>
       <c r="D174" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E174" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="F174"/>
       <c r="G174" t="n">
-        <v>759</v>
+        <v>180</v>
       </c>
       <c r="H174" t="n">
-        <v>158529395</v>
+        <v>4572976</v>
       </c>
       <c r="I174" t="n">
-        <v>1864.114</v>
-      </c>
-      <c r="J174" t="n">
-        <v>127253</v>
-      </c>
-      <c r="K174" t="n">
-        <v>1.496</v>
-      </c>
+        <v>383.132</v>
+      </c>
+      <c r="J174"/>
+      <c r="K174"/>
       <c r="L174" t="n">
-        <v>150566</v>
+        <v>1368</v>
       </c>
       <c r="M174" t="n">
-        <v>1.77</v>
+        <v>0.115</v>
       </c>
       <c r="N174" t="n">
-        <v>0.0224</v>
+        <v>0.0902</v>
       </c>
       <c r="O174" t="n">
-        <v>44.6</v>
+        <v>11.1</v>
       </c>
       <c r="P174" t="s">
+        <v>916</v>
+      </c>
+      <c r="Q174" t="s">
         <v>917</v>
       </c>
-      <c r="Q174" t="s">
+      <c r="R174" t="s">
+        <v>45</v>
+      </c>
+      <c r="S174" t="s">
         <v>918</v>
-      </c>
-      <c r="R174" t="s">
-        <v>65</v>
-      </c>
-      <c r="S174" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
+        <v>919</v>
+      </c>
+      <c r="B175" t="s">
         <v>920</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C175" s="1" t="n">
+        <v>44679</v>
+      </c>
+      <c r="D175" t="s">
         <v>921</v>
       </c>
-      <c r="C175" s="1" t="n">
-        <v>44675</v>
-      </c>
-      <c r="D175" t="s">
-        <v>35</v>
-      </c>
       <c r="E175" t="s">
-        <v>36</v>
+        <v>922</v>
       </c>
       <c r="F175"/>
       <c r="G175" t="n">
-        <v>637</v>
+        <v>763</v>
       </c>
       <c r="H175" t="n">
-        <v>2612795</v>
+        <v>159069274</v>
       </c>
       <c r="I175" t="n">
-        <v>55.446</v>
-      </c>
-      <c r="J175"/>
-      <c r="K175"/>
+        <v>1870.463</v>
+      </c>
+      <c r="J175" t="n">
+        <v>135253</v>
+      </c>
+      <c r="K175" t="n">
+        <v>1.59</v>
+      </c>
       <c r="L175" t="n">
-        <v>2368</v>
+        <v>136320</v>
       </c>
       <c r="M175" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N175" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="O175" t="n">
-        <v>921</v>
-      </c>
+        <v>1.603</v>
+      </c>
+      <c r="N175"/>
+      <c r="O175"/>
       <c r="P175" t="s">
-        <v>36</v>
+        <v>922</v>
       </c>
       <c r="Q175" t="s">
-        <v>37</v>
+        <v>923</v>
       </c>
       <c r="R175" t="s">
         <v>65</v>
       </c>
       <c r="S175" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="B176" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>44610</v>
+        <v>44675</v>
       </c>
       <c r="D176" t="s">
-        <v>925</v>
+        <v>35</v>
       </c>
       <c r="E176" t="s">
-        <v>926</v>
+        <v>36</v>
       </c>
       <c r="F176"/>
       <c r="G176" t="n">
-        <v>556</v>
+        <v>637</v>
       </c>
       <c r="H176" t="n">
-        <v>19288823</v>
+        <v>2612795</v>
       </c>
       <c r="I176" t="n">
-        <v>443.76</v>
+        <v>55.446</v>
       </c>
       <c r="J176"/>
       <c r="K176"/>
       <c r="L176" t="n">
-        <v>52561</v>
+        <v>2368</v>
       </c>
       <c r="M176" t="n">
-        <v>1.209</v>
+        <v>0.05</v>
       </c>
       <c r="N176" t="n">
-        <v>0.6027</v>
+        <v>0.0011</v>
       </c>
       <c r="O176" t="n">
-        <v>1.7</v>
+        <v>921</v>
       </c>
       <c r="P176" t="s">
-        <v>926</v>
+        <v>36</v>
       </c>
       <c r="Q176" t="s">
-        <v>927</v>
+        <v>37</v>
       </c>
       <c r="R176" t="s">
         <v>65</v>
       </c>
       <c r="S176" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
+        <v>928</v>
+      </c>
+      <c r="B177" t="s">
         <v>929</v>
       </c>
-      <c r="B177" t="s">
+      <c r="C177" s="1" t="n">
+        <v>44610</v>
+      </c>
+      <c r="D177" t="s">
         <v>930</v>
       </c>
-      <c r="C177" s="1" t="n">
-        <v>44676</v>
-      </c>
-      <c r="D177" t="s">
+      <c r="E177" t="s">
         <v>931</v>
-      </c>
-      <c r="E177" t="s">
-        <v>932</v>
       </c>
       <c r="F177"/>
       <c r="G177" t="n">
-        <v>787</v>
+        <v>556</v>
       </c>
       <c r="H177" t="n">
-        <v>154649867</v>
+        <v>19288823</v>
       </c>
       <c r="I177" t="n">
-        <v>15478.789</v>
-      </c>
-      <c r="J177" t="n">
-        <v>279109</v>
-      </c>
-      <c r="K177" t="n">
-        <v>27.936</v>
-      </c>
+        <v>443.76</v>
+      </c>
+      <c r="J177"/>
+      <c r="K177"/>
       <c r="L177" t="n">
-        <v>284173</v>
+        <v>52561</v>
       </c>
       <c r="M177" t="n">
-        <v>28.443</v>
-      </c>
-      <c r="N177"/>
-      <c r="O177"/>
+        <v>1.209</v>
+      </c>
+      <c r="N177" t="n">
+        <v>0.6027</v>
+      </c>
+      <c r="O177" t="n">
+        <v>1.7</v>
+      </c>
       <c r="P177" t="s">
+        <v>931</v>
+      </c>
+      <c r="Q177" t="s">
         <v>932</v>
-      </c>
-      <c r="Q177" t="s">
-        <v>933</v>
       </c>
       <c r="R177" t="s">
         <v>65</v>
       </c>
       <c r="S177" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
+        <v>934</v>
+      </c>
+      <c r="B178" t="s">
         <v>935</v>
       </c>
-      <c r="B178" t="s">
+      <c r="C178" s="1" t="n">
+        <v>44680</v>
+      </c>
+      <c r="D178" t="s">
         <v>936</v>
       </c>
-      <c r="C178" s="1" t="n">
-        <v>44672</v>
-      </c>
-      <c r="D178" t="s">
+      <c r="E178" t="s">
         <v>937</v>
-      </c>
-      <c r="E178" t="s">
-        <v>938</v>
       </c>
       <c r="F178"/>
       <c r="G178" t="n">
-        <v>750</v>
+        <v>791</v>
       </c>
       <c r="H178" t="n">
-        <v>495663266</v>
+        <v>155620890</v>
       </c>
       <c r="I178" t="n">
-        <v>7267.032</v>
+        <v>15575.978</v>
       </c>
       <c r="J178" t="n">
-        <v>398218</v>
+        <v>232493</v>
       </c>
       <c r="K178" t="n">
-        <v>5.838</v>
+        <v>23.27</v>
       </c>
       <c r="L178" t="n">
-        <v>333200</v>
+        <v>257445</v>
       </c>
       <c r="M178" t="n">
-        <v>4.885</v>
-      </c>
-      <c r="N178" t="n">
-        <v>0.0699</v>
-      </c>
-      <c r="O178" t="n">
-        <v>14.3</v>
-      </c>
+        <v>25.767</v>
+      </c>
+      <c r="N178"/>
+      <c r="O178"/>
       <c r="P178" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="Q178" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="R178" t="s">
         <v>65</v>
       </c>
       <c r="S178" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
+        <v>940</v>
+      </c>
+      <c r="B179" t="s">
+        <v>941</v>
+      </c>
+      <c r="C179" s="1" t="n">
+        <v>44678</v>
+      </c>
+      <c r="D179" t="s">
         <v>942</v>
       </c>
-      <c r="B179" t="s">
+      <c r="E179" t="s">
         <v>943</v>
-      </c>
-      <c r="C179" s="1" t="n">
-        <v>44670</v>
-      </c>
-      <c r="D179" t="s">
-        <v>394</v>
-      </c>
-      <c r="E179" t="s">
-        <v>395</v>
       </c>
       <c r="F179"/>
       <c r="G179" t="n">
-        <v>780</v>
+        <v>756</v>
       </c>
       <c r="H179" t="n">
-        <v>864452706</v>
+        <v>497515388</v>
       </c>
       <c r="I179" t="n">
-        <v>2596.616</v>
+        <v>7294.186</v>
       </c>
       <c r="J179" t="n">
-        <v>448475</v>
+        <v>317334</v>
       </c>
       <c r="K179" t="n">
-        <v>1.347</v>
+        <v>4.653</v>
       </c>
       <c r="L179" t="n">
-        <v>544007</v>
+        <v>321477</v>
       </c>
       <c r="M179" t="n">
-        <v>1.634</v>
+        <v>4.713</v>
       </c>
       <c r="N179" t="n">
-        <v>0.057</v>
+        <v>0.0546</v>
       </c>
       <c r="O179" t="n">
-        <v>17.5</v>
+        <v>18.3</v>
       </c>
       <c r="P179" t="s">
-        <v>395</v>
+        <v>944</v>
       </c>
       <c r="Q179" t="s">
-        <v>394</v>
+        <v>945</v>
       </c>
       <c r="R179" t="s">
-        <v>396</v>
+        <v>65</v>
       </c>
       <c r="S179" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B180" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>44672</v>
+        <v>44674</v>
       </c>
       <c r="D180" t="s">
         <v>394</v>
@@ -13254,31 +13079,31 @@
       </c>
       <c r="F180"/>
       <c r="G180" t="n">
-        <v>743</v>
+        <v>784</v>
       </c>
       <c r="H180" t="n">
-        <v>110293</v>
+        <v>866550167</v>
       </c>
       <c r="I180" t="n">
-        <v>1058.291</v>
+        <v>2602.917</v>
       </c>
       <c r="J180" t="n">
-        <v>58</v>
+        <v>245051</v>
       </c>
       <c r="K180" t="n">
-        <v>0.557</v>
+        <v>0.736</v>
       </c>
       <c r="L180" t="n">
-        <v>45</v>
+        <v>417978</v>
       </c>
       <c r="M180" t="n">
-        <v>0.432</v>
+        <v>1.256</v>
       </c>
       <c r="N180" t="n">
-        <v>0.137</v>
+        <v>0.067</v>
       </c>
       <c r="O180" t="n">
-        <v>7.3</v>
+        <v>14.9</v>
       </c>
       <c r="P180" t="s">
         <v>395</v>
@@ -13290,366 +13115,419 @@
         <v>396</v>
       </c>
       <c r="S180" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B181" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>44668</v>
+        <v>44676</v>
       </c>
       <c r="D181" t="s">
-        <v>950</v>
+        <v>394</v>
       </c>
       <c r="E181" t="s">
-        <v>244</v>
+        <v>395</v>
       </c>
       <c r="F181"/>
       <c r="G181" t="n">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="H181" t="n">
-        <v>6086835</v>
+        <v>110473</v>
       </c>
       <c r="I181" t="n">
-        <v>1746.505</v>
+        <v>1060.018</v>
       </c>
       <c r="J181" t="n">
-        <v>2072</v>
+        <v>56</v>
       </c>
       <c r="K181" t="n">
-        <v>0.595</v>
+        <v>0.537</v>
       </c>
       <c r="L181" t="n">
-        <v>3188</v>
+        <v>53</v>
       </c>
       <c r="M181" t="n">
-        <v>0.915</v>
+        <v>0.509</v>
       </c>
       <c r="N181" t="n">
-        <v>0.0836</v>
+        <v>0.178</v>
       </c>
       <c r="O181" t="n">
-        <v>12</v>
+        <v>5.6</v>
       </c>
       <c r="P181" t="s">
-        <v>244</v>
+        <v>395</v>
       </c>
       <c r="Q181" t="s">
-        <v>950</v>
+        <v>394</v>
       </c>
       <c r="R181" t="s">
-        <v>65</v>
+        <v>396</v>
       </c>
       <c r="S181" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B182" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>44619</v>
+        <v>44668</v>
       </c>
       <c r="D182" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E182" t="s">
-        <v>53</v>
+        <v>244</v>
       </c>
       <c r="F182"/>
       <c r="G182" t="n">
-        <v>2</v>
+        <v>757</v>
       </c>
       <c r="H182" t="n">
-        <v>11989</v>
+        <v>6086835</v>
       </c>
       <c r="I182" t="n">
-        <v>38.125</v>
-      </c>
-      <c r="J182"/>
-      <c r="K182"/>
+        <v>1746.505</v>
+      </c>
+      <c r="J182" t="n">
+        <v>2072</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0.595</v>
+      </c>
       <c r="L182" t="n">
-        <v>76</v>
+        <v>3188</v>
       </c>
       <c r="M182" t="n">
-        <v>0.242</v>
+        <v>0.915</v>
       </c>
       <c r="N182" t="n">
-        <v>0.0132</v>
+        <v>0.0836</v>
       </c>
       <c r="O182" t="n">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="P182" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q182" t="s">
         <v>955</v>
       </c>
-      <c r="Q182" t="s">
+      <c r="R182" t="s">
+        <v>65</v>
+      </c>
+      <c r="S182" t="s">
         <v>956</v>
-      </c>
-      <c r="R182" t="s">
-        <v>330</v>
-      </c>
-      <c r="S182" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
+        <v>957</v>
+      </c>
+      <c r="B183" t="s">
         <v>958</v>
       </c>
-      <c r="B183" t="s">
+      <c r="C183" s="1" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D183" t="s">
         <v>959</v>
       </c>
-      <c r="C183" s="1" t="n">
-        <v>44675</v>
-      </c>
-      <c r="D183" t="s">
-        <v>960</v>
-      </c>
       <c r="E183" t="s">
-        <v>961</v>
+        <v>53</v>
       </c>
       <c r="F183"/>
       <c r="G183" t="n">
-        <v>165</v>
+        <v>2</v>
       </c>
       <c r="H183" t="n">
-        <v>85789114</v>
+        <v>11989</v>
       </c>
       <c r="I183" t="n">
-        <v>873.894</v>
+        <v>38.125</v>
       </c>
       <c r="J183"/>
       <c r="K183"/>
       <c r="L183" t="n">
-        <v>14928</v>
+        <v>76</v>
       </c>
       <c r="M183" t="n">
-        <v>0.152</v>
-      </c>
-      <c r="N183"/>
-      <c r="O183"/>
+        <v>0.242</v>
+      </c>
+      <c r="N183" t="n">
+        <v>0.0132</v>
+      </c>
+      <c r="O183" t="n">
+        <v>76</v>
+      </c>
       <c r="P183" t="s">
+        <v>960</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>961</v>
+      </c>
+      <c r="R183" t="s">
+        <v>330</v>
+      </c>
+      <c r="S183" t="s">
         <v>962</v>
-      </c>
-      <c r="Q183" t="s">
-        <v>963</v>
-      </c>
-      <c r="R183" t="s">
-        <v>45</v>
-      </c>
-      <c r="S183" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
+        <v>963</v>
+      </c>
+      <c r="B184" t="s">
+        <v>964</v>
+      </c>
+      <c r="C184" s="1" t="n">
+        <v>44679</v>
+      </c>
+      <c r="D184" t="s">
         <v>965</v>
       </c>
-      <c r="B184" t="s">
+      <c r="E184" t="s">
         <v>966</v>
-      </c>
-      <c r="C184" s="1" t="n">
-        <v>44671</v>
-      </c>
-      <c r="D184" t="s">
-        <v>35</v>
-      </c>
-      <c r="E184" t="s">
-        <v>36</v>
       </c>
       <c r="F184"/>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="H184" t="n">
-        <v>3943</v>
+        <v>85795583</v>
       </c>
       <c r="I184" t="n">
-        <v>6.444</v>
+        <v>873.96</v>
       </c>
       <c r="J184"/>
       <c r="K184"/>
-      <c r="L184"/>
-      <c r="M184"/>
+      <c r="L184" t="n">
+        <v>5382</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0.055</v>
+      </c>
       <c r="N184"/>
       <c r="O184"/>
       <c r="P184" t="s">
-        <v>36</v>
+        <v>967</v>
       </c>
       <c r="Q184" t="s">
-        <v>37</v>
+        <v>968</v>
       </c>
       <c r="R184" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="S184" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B185" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>44632</v>
+        <v>44671</v>
       </c>
       <c r="D185" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E185" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F185"/>
       <c r="G185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H185" t="n">
-        <v>329592</v>
+        <v>3943</v>
       </c>
       <c r="I185" t="n">
-        <v>10.81</v>
+        <v>6.444</v>
       </c>
       <c r="J185"/>
       <c r="K185"/>
-      <c r="L185" t="n">
-        <v>0</v>
-      </c>
-      <c r="M185" t="n">
-        <v>0</v>
-      </c>
+      <c r="L185"/>
+      <c r="M185"/>
       <c r="N185"/>
       <c r="O185"/>
       <c r="P185" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="Q185" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="R185" t="s">
         <v>25</v>
       </c>
       <c r="S185" t="s">
-        <v>26</v>
+        <v>972</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="B186" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>44673</v>
+        <v>44632</v>
       </c>
       <c r="D186" t="s">
-        <v>972</v>
+        <v>21</v>
       </c>
       <c r="E186" t="s">
-        <v>973</v>
+        <v>22</v>
       </c>
       <c r="F186"/>
       <c r="G186" t="n">
-        <v>736</v>
+        <v>2</v>
       </c>
       <c r="H186" t="n">
-        <v>3411364</v>
+        <v>329592</v>
       </c>
       <c r="I186" t="n">
-        <v>180.298</v>
-      </c>
-      <c r="J186" t="n">
-        <v>2923</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.154</v>
-      </c>
+        <v>10.81</v>
+      </c>
+      <c r="J186"/>
+      <c r="K186"/>
       <c r="L186" t="n">
-        <v>2111</v>
+        <v>0</v>
       </c>
       <c r="M186" t="n">
-        <v>0.112</v>
+        <v>0</v>
       </c>
       <c r="N186"/>
       <c r="O186"/>
       <c r="P186" t="s">
-        <v>974</v>
+        <v>23</v>
       </c>
       <c r="Q186" t="s">
-        <v>972</v>
+        <v>24</v>
       </c>
       <c r="R186" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="S186" t="s">
-        <v>975</v>
+        <v>26</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
+        <v>975</v>
+      </c>
+      <c r="B187" t="s">
         <v>976</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C187" s="1" t="n">
+        <v>44678</v>
+      </c>
+      <c r="D187" t="s">
         <v>977</v>
       </c>
-      <c r="C187" s="1" t="n">
-        <v>44675</v>
-      </c>
-      <c r="D187" t="s">
-        <v>35</v>
-      </c>
       <c r="E187" t="s">
-        <v>36</v>
+        <v>978</v>
       </c>
       <c r="F187"/>
       <c r="G187" t="n">
-        <v>659</v>
+        <v>740</v>
       </c>
       <c r="H187" t="n">
-        <v>2236758</v>
+        <v>3421227</v>
       </c>
       <c r="I187" t="n">
-        <v>148.207</v>
-      </c>
-      <c r="J187"/>
-      <c r="K187"/>
+        <v>180.82</v>
+      </c>
+      <c r="J187" t="n">
+        <v>2082</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0.11</v>
+      </c>
       <c r="L187" t="n">
-        <v>1730</v>
+        <v>2185</v>
       </c>
       <c r="M187" t="n">
         <v>0.115</v>
       </c>
-      <c r="N187" t="n">
-        <v>0.0203</v>
-      </c>
-      <c r="O187" t="n">
-        <v>49.2</v>
-      </c>
+      <c r="N187"/>
+      <c r="O187"/>
       <c r="P187" t="s">
-        <v>36</v>
+        <v>979</v>
       </c>
       <c r="Q187" t="s">
-        <v>37</v>
+        <v>977</v>
       </c>
       <c r="R187" t="s">
         <v>65</v>
       </c>
       <c r="S187" t="s">
-        <v>978</v>
+        <v>980</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>981</v>
+      </c>
+      <c r="B188" t="s">
+        <v>982</v>
+      </c>
+      <c r="C188" s="1" t="n">
+        <v>44679</v>
+      </c>
+      <c r="D188" t="s">
+        <v>35</v>
+      </c>
+      <c r="E188" t="s">
+        <v>36</v>
+      </c>
+      <c r="F188"/>
+      <c r="G188" t="n">
+        <v>660</v>
+      </c>
+      <c r="H188" t="n">
+        <v>2248962</v>
+      </c>
+      <c r="I188" t="n">
+        <v>149.015</v>
+      </c>
+      <c r="J188"/>
+      <c r="K188"/>
+      <c r="L188" t="n">
+        <v>2493</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="N188"/>
+      <c r="O188"/>
+      <c r="P188" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>37</v>
+      </c>
+      <c r="R188" t="s">
+        <v>65</v>
+      </c>
+      <c r="S188" t="s">
+        <v>983</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -369,7 +369,7 @@
     <t xml:space="preserve">Barbados - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gisbarbados.gov.bb/blog/covid-19-update-for-wednesday-april-27/</t>
+    <t xml:space="preserve">https://gisbarbados.gov.bb/blog/covid-19-update-for-saturday-april-30/</t>
   </si>
   <si>
     <t xml:space="preserve">https://gisbarbados.gov.bb/top-stories/</t>
@@ -1517,7 +1517,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://irangov.ir/detail/385422</t>
+    <t xml:space="preserve">https://irangov.ir/detail/385534</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Medical Education</t>
@@ -2156,7 +2156,7 @@
     <t xml:space="preserve">Nepal - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.mohp.gov.np/covid/englishSituationReport/626baebf75b25_SitRep810_COVID-19_29-04-2022_EN.pdf</t>
+    <t xml:space="preserve">https://covid19.mohp.gov.np/covid/englishSituationReport/626fac1a7960a_SitRep813_COVID-19_02-05-2022_EN.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -2258,7 +2258,7 @@
     <t xml:space="preserve">North Macedonia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://koronavirus.gov.mk/vesti/224082</t>
+    <t xml:space="preserve">https://koronavirus.gov.mk/vesti/224084</t>
   </si>
   <si>
     <t xml:space="preserve">https://koronavirus.gov.mk/stat</t>
@@ -2542,7 +2542,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=21389</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=21415</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -3229,7 +3229,7 @@
     <t xml:space="preserve">Vietnam - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.gov.vn/ngay-28-4-ca-mac-covid-19-giam-con-7116-so-benh-nhan-khoi-nhieu-gap-11-lan-17122042822341635.htm</t>
+    <t xml:space="preserve">https://covid19.gov.vn/ngay-1-5-chi-con-3717-ca-covid-19-giam-xuong-thap-nhat-trong-khoang-270-ngay-qua-171220501193717993.htm</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health of Vietnam</t>
@@ -4068,7 +4068,7 @@
         <v>62</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44674</v>
+        <v>44681</v>
       </c>
       <c r="D9" t="s">
         <v>63</v>
@@ -4078,31 +4078,31 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>828</v>
+        <v>835</v>
       </c>
       <c r="H9" t="n">
-        <v>35746579</v>
+        <v>35852214</v>
       </c>
       <c r="I9" t="n">
-        <v>783.816</v>
+        <v>786.132</v>
       </c>
       <c r="J9" t="n">
-        <v>4977</v>
+        <v>4178</v>
       </c>
       <c r="K9" t="n">
-        <v>0.109</v>
+        <v>0.092</v>
       </c>
       <c r="L9" t="n">
-        <v>10797</v>
+        <v>9722</v>
       </c>
       <c r="M9" t="n">
-        <v>0.237</v>
+        <v>0.213</v>
       </c>
       <c r="N9" t="n">
-        <v>0.072</v>
+        <v>0.098</v>
       </c>
       <c r="O9" t="n">
-        <v>13.9</v>
+        <v>10.2</v>
       </c>
       <c r="P9" t="s">
         <v>64</v>
@@ -4125,7 +4125,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44679</v>
+        <v>44682</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
@@ -4135,31 +4135,31 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="H10" t="n">
-        <v>3049532</v>
+        <v>3057058</v>
       </c>
       <c r="I10" t="n">
-        <v>1027.426</v>
+        <v>1029.962</v>
       </c>
       <c r="J10" t="n">
-        <v>3177</v>
+        <v>2064</v>
       </c>
       <c r="K10" t="n">
-        <v>1.07</v>
+        <v>0.695</v>
       </c>
       <c r="L10" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
       <c r="M10" t="n">
         <v>0.899</v>
       </c>
       <c r="N10" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="O10" t="n">
-        <v>333.3</v>
+        <v>500</v>
       </c>
       <c r="P10" t="s">
         <v>53</v>
@@ -4182,7 +4182,7 @@
         <v>73</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44680</v>
+        <v>44683</v>
       </c>
       <c r="D11" t="s">
         <v>74</v>
@@ -4194,25 +4194,25 @@
         <v>76</v>
       </c>
       <c r="G11" t="n">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="H11" t="n">
-        <v>69260659</v>
+        <v>69472088</v>
       </c>
       <c r="I11" t="n">
-        <v>2685.748</v>
+        <v>2693.947</v>
       </c>
       <c r="J11" t="n">
-        <v>88132</v>
+        <v>55518</v>
       </c>
       <c r="K11" t="n">
-        <v>3.418</v>
+        <v>2.153</v>
       </c>
       <c r="L11" t="n">
-        <v>76435</v>
+        <v>76567</v>
       </c>
       <c r="M11" t="n">
-        <v>2.964</v>
+        <v>2.969</v>
       </c>
       <c r="N11"/>
       <c r="O11"/>
@@ -4237,7 +4237,7 @@
         <v>80</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -4247,28 +4247,32 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="H12" t="n">
-        <v>182842386</v>
+        <v>183086157</v>
       </c>
       <c r="I12" t="n">
-        <v>20219.057</v>
+        <v>20246.013</v>
       </c>
       <c r="J12" t="n">
-        <v>246143</v>
+        <v>83714</v>
       </c>
       <c r="K12" t="n">
-        <v>27.219</v>
+        <v>9.257</v>
       </c>
       <c r="L12" t="n">
-        <v>175899</v>
+        <v>180060</v>
       </c>
       <c r="M12" t="n">
-        <v>19.451</v>
-      </c>
-      <c r="N12"/>
-      <c r="O12"/>
+        <v>19.911</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.0318</v>
+      </c>
+      <c r="O12" t="n">
+        <v>31.5</v>
+      </c>
       <c r="P12" t="s">
         <v>82</v>
       </c>
@@ -4290,7 +4294,7 @@
         <v>85</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44675</v>
+        <v>44682</v>
       </c>
       <c r="D13" t="s">
         <v>86</v>
@@ -4300,27 +4304,27 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H13" t="n">
-        <v>6794952</v>
+        <v>6817342</v>
       </c>
       <c r="I13" t="n">
-        <v>664.651</v>
+        <v>666.841</v>
       </c>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13" t="n">
-        <v>3300</v>
+        <v>3199</v>
       </c>
       <c r="M13" t="n">
-        <v>0.323</v>
+        <v>0.313</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0058</v>
+        <v>0.0048</v>
       </c>
       <c r="O13" t="n">
-        <v>172.4</v>
+        <v>209.3</v>
       </c>
       <c r="P13" t="s">
         <v>87</v>
@@ -4396,7 +4400,7 @@
         <v>97</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44680</v>
+        <v>44683</v>
       </c>
       <c r="D15" t="s">
         <v>98</v>
@@ -4406,21 +4410,21 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H15" t="n">
-        <v>9715743</v>
+        <v>9724966</v>
       </c>
       <c r="I15" t="n">
-        <v>5557.268</v>
+        <v>5562.543</v>
       </c>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15" t="n">
-        <v>3618</v>
+        <v>3593</v>
       </c>
       <c r="M15" t="n">
-        <v>2.069</v>
+        <v>2.055</v>
       </c>
       <c r="N15"/>
       <c r="O15"/>
@@ -4445,7 +4449,7 @@
         <v>104</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>44679</v>
+        <v>44682</v>
       </c>
       <c r="D16" t="s">
         <v>105</v>
@@ -4455,28 +4459,32 @@
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H16" t="n">
-        <v>13737654</v>
+        <v>13740592</v>
       </c>
       <c r="I16" t="n">
-        <v>82.606</v>
+        <v>82.624</v>
       </c>
       <c r="J16" t="n">
-        <v>4931</v>
+        <v>2938</v>
       </c>
       <c r="K16" t="n">
-        <v>0.03</v>
+        <v>0.018</v>
       </c>
       <c r="L16" t="n">
-        <v>1737</v>
+        <v>1124</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="N16"/>
-      <c r="O16"/>
+        <v>0.007</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0203</v>
+      </c>
+      <c r="O16" t="n">
+        <v>49.2</v>
+      </c>
       <c r="P16" t="s">
         <v>106</v>
       </c>
@@ -4498,7 +4506,7 @@
         <v>109</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44678</v>
+        <v>44681</v>
       </c>
       <c r="D17" t="s">
         <v>110</v>
@@ -4508,27 +4516,27 @@
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H17" t="n">
-        <v>646867</v>
+        <v>650288</v>
       </c>
       <c r="I17" t="n">
-        <v>2248.346</v>
+        <v>2260.236</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17" t="n">
-        <v>1376</v>
+        <v>1284</v>
       </c>
       <c r="M17" t="n">
-        <v>4.783</v>
+        <v>4.463</v>
       </c>
       <c r="N17" t="n">
-        <v>0.3263</v>
+        <v>0.3142</v>
       </c>
       <c r="O17" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P17" t="s">
         <v>53</v>
@@ -4551,7 +4559,7 @@
         <v>114</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44680</v>
+        <v>44681</v>
       </c>
       <c r="D18" t="s">
         <v>115</v>
@@ -4561,24 +4569,32 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H18" t="n">
-        <v>13147723</v>
+        <v>13157373</v>
       </c>
       <c r="I18" t="n">
-        <v>1392.344</v>
-      </c>
-      <c r="J18"/>
-      <c r="K18"/>
+        <v>1393.366</v>
+      </c>
+      <c r="J18" t="n">
+        <v>9650</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.022</v>
+      </c>
       <c r="L18" t="n">
-        <v>9244</v>
+        <v>9191</v>
       </c>
       <c r="M18" t="n">
-        <v>0.979</v>
-      </c>
-      <c r="N18"/>
-      <c r="O18"/>
+        <v>0.973</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.0452</v>
+      </c>
+      <c r="O18" t="n">
+        <v>22.1</v>
+      </c>
       <c r="P18" t="s">
         <v>117</v>
       </c>
@@ -4683,8 +4699,12 @@
       <c r="M20" t="n">
         <v>1.677</v>
       </c>
-      <c r="N20"/>
-      <c r="O20"/>
+      <c r="N20" t="n">
+        <v>0.0179</v>
+      </c>
+      <c r="O20" t="n">
+        <v>55.9</v>
+      </c>
       <c r="P20" t="s">
         <v>130</v>
       </c>
@@ -5026,7 +5046,7 @@
         <v>165</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44679</v>
+        <v>44682</v>
       </c>
       <c r="D27" t="s">
         <v>166</v>
@@ -5036,24 +5056,28 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H27" t="n">
-        <v>9834317</v>
+        <v>9851635</v>
       </c>
       <c r="I27" t="n">
-        <v>1425.955</v>
+        <v>1428.466</v>
       </c>
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27" t="n">
-        <v>6615</v>
+        <v>7512</v>
       </c>
       <c r="M27" t="n">
-        <v>0.959</v>
-      </c>
-      <c r="N27"/>
-      <c r="O27"/>
+        <v>1.089</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.0731</v>
+      </c>
+      <c r="O27" t="n">
+        <v>13.7</v>
+      </c>
       <c r="P27" t="s">
         <v>168</v>
       </c>
@@ -5152,8 +5176,12 @@
       <c r="M29" t="n">
         <v>0.18</v>
       </c>
-      <c r="N29"/>
-      <c r="O29"/>
+      <c r="N29" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="O29" t="n">
+        <v>16.4</v>
+      </c>
       <c r="P29" t="s">
         <v>36</v>
       </c>
@@ -5175,7 +5203,7 @@
         <v>178</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44680</v>
+        <v>44683</v>
       </c>
       <c r="D30" t="s">
         <v>179</v>
@@ -5185,21 +5213,21 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H30" t="n">
-        <v>2951058</v>
+        <v>2953579</v>
       </c>
       <c r="I30" t="n">
-        <v>174.14</v>
+        <v>174.289</v>
       </c>
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30" t="n">
-        <v>503</v>
+        <v>648</v>
       </c>
       <c r="M30" t="n">
-        <v>0.03</v>
+        <v>0.038</v>
       </c>
       <c r="N30"/>
       <c r="O30"/>
@@ -5305,8 +5333,12 @@
       <c r="M32" t="n">
         <v>1.257</v>
       </c>
-      <c r="N32"/>
-      <c r="O32"/>
+      <c r="N32" t="n">
+        <v>0.1784</v>
+      </c>
+      <c r="O32" t="n">
+        <v>5.6</v>
+      </c>
       <c r="P32" t="s">
         <v>188</v>
       </c>
@@ -5373,7 +5405,7 @@
         <v>198</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>44679</v>
+        <v>44682</v>
       </c>
       <c r="D34" t="s">
         <v>35</v>
@@ -5383,23 +5415,25 @@
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H34" t="n">
-        <v>90715</v>
+        <v>90855</v>
       </c>
       <c r="I34" t="n">
-        <v>18.438</v>
+        <v>18.467</v>
       </c>
       <c r="J34"/>
       <c r="K34"/>
       <c r="L34" t="n">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="M34" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="N34"/>
+        <v>0.018</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
       <c r="O34"/>
       <c r="P34" t="s">
         <v>36</v>
@@ -5448,8 +5482,12 @@
       <c r="M35" t="n">
         <v>0.012</v>
       </c>
-      <c r="N35"/>
-      <c r="O35"/>
+      <c r="N35" t="n">
+        <v>0.0102</v>
+      </c>
+      <c r="O35" t="n">
+        <v>98.5</v>
+      </c>
       <c r="P35" t="s">
         <v>36</v>
       </c>
@@ -5471,7 +5509,7 @@
         <v>204</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44679</v>
+        <v>44682</v>
       </c>
       <c r="D36" t="s">
         <v>205</v>
@@ -5481,28 +5519,32 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="H36" t="n">
-        <v>36667741</v>
+        <v>36808974</v>
       </c>
       <c r="I36" t="n">
-        <v>1908.549</v>
+        <v>1915.901</v>
       </c>
       <c r="J36" t="n">
-        <v>52614</v>
+        <v>48384</v>
       </c>
       <c r="K36" t="n">
-        <v>2.739</v>
+        <v>2.518</v>
       </c>
       <c r="L36" t="n">
-        <v>43439</v>
+        <v>42142</v>
       </c>
       <c r="M36" t="n">
-        <v>2.261</v>
-      </c>
-      <c r="N36"/>
-      <c r="O36"/>
+        <v>2.193</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.0492</v>
+      </c>
+      <c r="O36" t="n">
+        <v>20.3</v>
+      </c>
       <c r="P36" t="s">
         <v>206</v>
       </c>
@@ -5577,7 +5619,7 @@
         <v>216</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>44675</v>
+        <v>44681</v>
       </c>
       <c r="D38" t="s">
         <v>217</v>
@@ -5587,25 +5629,25 @@
       </c>
       <c r="F38"/>
       <c r="G38" t="n">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="H38" t="n">
-        <v>34308894</v>
+        <v>34411712</v>
       </c>
       <c r="I38" t="n">
-        <v>669.235</v>
+        <v>671.241</v>
       </c>
       <c r="J38" t="n">
-        <v>9848</v>
+        <v>9497</v>
       </c>
       <c r="K38" t="n">
-        <v>0.192</v>
+        <v>0.185</v>
       </c>
       <c r="L38" t="n">
-        <v>17449</v>
+        <v>16095</v>
       </c>
       <c r="M38" t="n">
-        <v>0.34</v>
+        <v>0.314</v>
       </c>
       <c r="N38" t="n">
         <v>0.017</v>
@@ -5679,7 +5721,7 @@
         <v>225</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>44671</v>
+        <v>44682</v>
       </c>
       <c r="D40" t="s">
         <v>35</v>
@@ -5689,19 +5731,25 @@
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
-        <v>388006</v>
+        <v>395040</v>
       </c>
       <c r="I40" t="n">
-        <v>68.588</v>
+        <v>69.832</v>
       </c>
       <c r="J40"/>
       <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
+      <c r="L40" t="n">
+        <v>639</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
       <c r="O40"/>
       <c r="P40" t="s">
         <v>36</v>
@@ -5724,7 +5772,7 @@
         <v>228</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44674</v>
+        <v>44675</v>
       </c>
       <c r="D41" t="s">
         <v>229</v>
@@ -5734,25 +5782,25 @@
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H41" t="n">
-        <v>3332307</v>
+        <v>3338945</v>
       </c>
       <c r="I41" t="n">
-        <v>648.428</v>
+        <v>649.72</v>
       </c>
       <c r="J41" t="n">
-        <v>7568</v>
+        <v>6638</v>
       </c>
       <c r="K41" t="n">
-        <v>1.473</v>
+        <v>1.292</v>
       </c>
       <c r="L41" t="n">
-        <v>7025</v>
+        <v>7172</v>
       </c>
       <c r="M41" t="n">
-        <v>1.367</v>
+        <v>1.396</v>
       </c>
       <c r="N41" t="n">
         <v>0.078</v>
@@ -5781,7 +5829,7 @@
         <v>233</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>44679</v>
+        <v>44682</v>
       </c>
       <c r="D42" t="s">
         <v>35</v>
@@ -5791,24 +5839,28 @@
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H42" t="n">
-        <v>1498332</v>
+        <v>1500074</v>
       </c>
       <c r="I42" t="n">
-        <v>55.384</v>
+        <v>55.448</v>
       </c>
       <c r="J42"/>
       <c r="K42"/>
       <c r="L42" t="n">
-        <v>987</v>
+        <v>779</v>
       </c>
       <c r="M42" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="N42"/>
-      <c r="O42"/>
+        <v>0.029</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.0128</v>
+      </c>
+      <c r="O42" t="n">
+        <v>77.9</v>
+      </c>
       <c r="P42" t="s">
         <v>36</v>
       </c>
@@ -5830,7 +5882,7 @@
         <v>236</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44680</v>
+        <v>44683</v>
       </c>
       <c r="D43" t="s">
         <v>237</v>
@@ -5840,21 +5892,21 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H43" t="n">
-        <v>4783774</v>
+        <v>4790822</v>
       </c>
       <c r="I43" t="n">
-        <v>1172.018</v>
+        <v>1173.744</v>
       </c>
       <c r="J43"/>
       <c r="K43"/>
       <c r="L43" t="n">
-        <v>3647</v>
+        <v>3498</v>
       </c>
       <c r="M43" t="n">
-        <v>0.894</v>
+        <v>0.857</v>
       </c>
       <c r="N43"/>
       <c r="O43"/>
@@ -6052,7 +6104,7 @@
         <v>259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44679</v>
+        <v>44682</v>
       </c>
       <c r="D47" t="s">
         <v>260</v>
@@ -6062,31 +6114,31 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="H47" t="n">
-        <v>54271268</v>
+        <v>54296241</v>
       </c>
       <c r="I47" t="n">
-        <v>5060.469</v>
+        <v>5062.798</v>
       </c>
       <c r="J47" t="n">
-        <v>13982</v>
+        <v>4366</v>
       </c>
       <c r="K47" t="n">
-        <v>1.304</v>
+        <v>0.407</v>
       </c>
       <c r="L47" t="n">
-        <v>13343</v>
+        <v>12463</v>
       </c>
       <c r="M47" t="n">
-        <v>1.244</v>
+        <v>1.162</v>
       </c>
       <c r="N47" t="n">
-        <v>0.119</v>
+        <v>0.114</v>
       </c>
       <c r="O47" t="n">
-        <v>8.4</v>
+        <v>8.8</v>
       </c>
       <c r="P47" t="s">
         <v>53</v>
@@ -6192,8 +6244,12 @@
       <c r="M49" t="n">
         <v>2.188</v>
       </c>
-      <c r="N49"/>
-      <c r="O49"/>
+      <c r="N49" t="n">
+        <v>0.0983</v>
+      </c>
+      <c r="O49" t="n">
+        <v>10.2</v>
+      </c>
       <c r="P49" t="s">
         <v>271</v>
       </c>
@@ -6215,7 +6271,7 @@
         <v>274</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44675</v>
+        <v>44682</v>
       </c>
       <c r="D50" t="s">
         <v>35</v>
@@ -6225,27 +6281,27 @@
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H50" t="n">
-        <v>303924</v>
+        <v>305941</v>
       </c>
       <c r="I50" t="n">
-        <v>303.258</v>
+        <v>305.27</v>
       </c>
       <c r="J50"/>
       <c r="K50"/>
       <c r="L50" t="n">
-        <v>356</v>
+        <v>288</v>
       </c>
       <c r="M50" t="n">
-        <v>0.355</v>
+        <v>0.287</v>
       </c>
       <c r="N50" t="n">
-        <v>0.0052</v>
+        <v>0.0099</v>
       </c>
       <c r="O50" t="n">
-        <v>191.7</v>
+        <v>100.8</v>
       </c>
       <c r="P50" t="s">
         <v>36</v>
@@ -6374,7 +6430,7 @@
         <v>289</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44676</v>
+        <v>44678</v>
       </c>
       <c r="D53" t="s">
         <v>290</v>
@@ -6386,31 +6442,31 @@
         <v>292</v>
       </c>
       <c r="G53" t="n">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H53" t="n">
-        <v>2715636</v>
+        <v>2720826</v>
       </c>
       <c r="I53" t="n">
-        <v>151.809</v>
+        <v>152.099</v>
       </c>
       <c r="J53" t="n">
-        <v>2720</v>
+        <v>2731</v>
       </c>
       <c r="K53" t="n">
-        <v>0.152</v>
+        <v>0.153</v>
       </c>
       <c r="L53" t="n">
-        <v>2331</v>
+        <v>2138</v>
       </c>
       <c r="M53" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="N53" t="n">
-        <v>0.086</v>
+        <v>0.094</v>
       </c>
       <c r="O53" t="n">
-        <v>11.6</v>
+        <v>10.6</v>
       </c>
       <c r="P53" t="s">
         <v>293</v>
@@ -6433,7 +6489,7 @@
         <v>297</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="D54" t="s">
         <v>35</v>
@@ -6443,28 +6499,26 @@
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H54" t="n">
-        <v>6122287</v>
+        <v>11954884</v>
       </c>
       <c r="I54" t="n">
-        <v>58.722</v>
+        <v>114.666</v>
       </c>
       <c r="J54"/>
       <c r="K54"/>
       <c r="L54" t="n">
-        <v>13672</v>
+        <v>194420</v>
       </c>
       <c r="M54" t="n">
-        <v>0.131</v>
+        <v>1.865</v>
       </c>
       <c r="N54" t="n">
-        <v>0.0457</v>
-      </c>
-      <c r="O54" t="n">
-        <v>21.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O54"/>
       <c r="P54" t="s">
         <v>36</v>
       </c>
@@ -6641,7 +6695,7 @@
         <v>313</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44679</v>
+        <v>44680</v>
       </c>
       <c r="D58" t="s">
         <v>314</v>
@@ -6651,28 +6705,32 @@
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H58" t="n">
-        <v>3343160</v>
+        <v>3345343</v>
       </c>
       <c r="I58" t="n">
-        <v>2522.782</v>
+        <v>2524.429</v>
       </c>
       <c r="J58" t="n">
-        <v>2406</v>
+        <v>2182</v>
       </c>
       <c r="K58" t="n">
-        <v>1.816</v>
+        <v>1.647</v>
       </c>
       <c r="L58" t="n">
-        <v>2437</v>
+        <v>2349</v>
       </c>
       <c r="M58" t="n">
-        <v>1.839</v>
-      </c>
-      <c r="N58"/>
-      <c r="O58"/>
+        <v>1.773</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.1335</v>
+      </c>
+      <c r="O58" t="n">
+        <v>7.5</v>
+      </c>
       <c r="P58" t="s">
         <v>315</v>
       </c>
@@ -6694,7 +6752,7 @@
         <v>318</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44679</v>
+        <v>44682</v>
       </c>
       <c r="D59" t="s">
         <v>35</v>
@@ -6704,24 +6762,28 @@
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H59" t="n">
-        <v>529611</v>
+        <v>531002</v>
       </c>
       <c r="I59" t="n">
-        <v>451.744</v>
+        <v>452.931</v>
       </c>
       <c r="J59"/>
       <c r="K59"/>
       <c r="L59" t="n">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="M59" t="n">
-        <v>0.351</v>
-      </c>
-      <c r="N59"/>
-      <c r="O59"/>
+        <v>0.343</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="O59" t="n">
+        <v>7.8</v>
+      </c>
       <c r="P59" t="s">
         <v>36</v>
       </c>
@@ -6743,7 +6805,7 @@
         <v>321</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44679</v>
+        <v>44682</v>
       </c>
       <c r="D60" t="s">
         <v>35</v>
@@ -6753,24 +6815,28 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H60" t="n">
-        <v>4777158</v>
+        <v>4789701</v>
       </c>
       <c r="I60" t="n">
-        <v>40.527</v>
+        <v>40.633</v>
       </c>
       <c r="J60"/>
       <c r="K60"/>
       <c r="L60" t="n">
-        <v>4437</v>
+        <v>3706</v>
       </c>
       <c r="M60" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="N60"/>
-      <c r="O60"/>
+        <v>0.031</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.0057</v>
+      </c>
+      <c r="O60" t="n">
+        <v>176.5</v>
+      </c>
       <c r="P60" t="s">
         <v>322</v>
       </c>
@@ -6955,7 +7021,7 @@
         <v>346</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44676</v>
+        <v>44679</v>
       </c>
       <c r="D64" t="s">
         <v>347</v>
@@ -6965,25 +7031,25 @@
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="H64" t="n">
-        <v>268470519</v>
+        <v>269250591</v>
       </c>
       <c r="I64" t="n">
-        <v>3981.942</v>
+        <v>3993.512</v>
       </c>
       <c r="J64" t="n">
-        <v>381061</v>
+        <v>233767</v>
       </c>
       <c r="K64" t="n">
-        <v>5.652</v>
+        <v>3.467</v>
       </c>
       <c r="L64" t="n">
-        <v>314265</v>
+        <v>257709</v>
       </c>
       <c r="M64" t="n">
-        <v>4.661</v>
+        <v>3.822</v>
       </c>
       <c r="N64"/>
       <c r="O64"/>
@@ -7008,7 +7074,7 @@
         <v>351</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44675</v>
+        <v>44682</v>
       </c>
       <c r="D65" t="s">
         <v>35</v>
@@ -7018,27 +7084,27 @@
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H65" t="n">
-        <v>1592493</v>
+        <v>1593622</v>
       </c>
       <c r="I65" t="n">
-        <v>698.821</v>
+        <v>699.316</v>
       </c>
       <c r="J65"/>
       <c r="K65"/>
       <c r="L65" t="n">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="M65" t="n">
-        <v>0.09</v>
+        <v>0.071</v>
       </c>
       <c r="N65" t="n">
-        <v>0.0021</v>
+        <v>0.0044</v>
       </c>
       <c r="O65" t="n">
-        <v>480.2</v>
+        <v>225.5</v>
       </c>
       <c r="P65" t="s">
         <v>36</v>
@@ -7224,7 +7290,7 @@
         <v>372</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>44679</v>
+        <v>44682</v>
       </c>
       <c r="D69" t="s">
         <v>35</v>
@@ -7234,24 +7300,28 @@
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H69" t="n">
-        <v>2435325</v>
+        <v>2435846</v>
       </c>
       <c r="I69" t="n">
-        <v>76.746</v>
+        <v>76.763</v>
       </c>
       <c r="J69"/>
       <c r="K69"/>
       <c r="L69" t="n">
-        <v>494</v>
+        <v>372</v>
       </c>
       <c r="M69" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="N69"/>
-      <c r="O69"/>
+        <v>0.012</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.0307</v>
+      </c>
+      <c r="O69" t="n">
+        <v>32.5</v>
+      </c>
       <c r="P69" t="s">
         <v>36</v>
       </c>
@@ -7326,7 +7396,7 @@
         <v>380</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="D71" t="s">
         <v>381</v>
@@ -7336,24 +7406,28 @@
       </c>
       <c r="F71"/>
       <c r="G71" t="n">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H71" t="n">
-        <v>79660677</v>
+        <v>79914290</v>
       </c>
       <c r="I71" t="n">
-        <v>7681.286</v>
+        <v>7705.741</v>
       </c>
       <c r="J71"/>
       <c r="K71"/>
       <c r="L71" t="n">
-        <v>123050</v>
+        <v>130056</v>
       </c>
       <c r="M71" t="n">
-        <v>11.865</v>
-      </c>
-      <c r="N71"/>
-      <c r="O71"/>
+        <v>12.541</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.0561</v>
+      </c>
+      <c r="O71" t="n">
+        <v>17.8</v>
+      </c>
       <c r="P71" t="s">
         <v>383</v>
       </c>
@@ -7428,7 +7502,7 @@
         <v>393</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44674</v>
+        <v>44678</v>
       </c>
       <c r="D73" t="s">
         <v>394</v>
@@ -7438,31 +7512,31 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="H73" t="n">
-        <v>285946</v>
+        <v>287295</v>
       </c>
       <c r="I73" t="n">
-        <v>1680.217</v>
+        <v>1688.143</v>
       </c>
       <c r="J73" t="n">
-        <v>154</v>
+        <v>376</v>
       </c>
       <c r="K73" t="n">
-        <v>0.905</v>
+        <v>2.209</v>
       </c>
       <c r="L73" t="n">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="M73" t="n">
-        <v>1.163</v>
+        <v>1.545</v>
       </c>
       <c r="N73" t="n">
-        <v>0.06</v>
+        <v>0.075</v>
       </c>
       <c r="O73" t="n">
-        <v>16.7</v>
+        <v>13.3</v>
       </c>
       <c r="P73" t="s">
         <v>395</v>
@@ -7595,7 +7669,7 @@
         <v>409</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44679</v>
+        <v>44682</v>
       </c>
       <c r="D76" t="s">
         <v>35</v>
@@ -7605,24 +7679,28 @@
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H76" t="n">
-        <v>133360</v>
+        <v>134285</v>
       </c>
       <c r="I76" t="n">
-        <v>66.168</v>
+        <v>66.626</v>
       </c>
       <c r="J76"/>
       <c r="K76"/>
       <c r="L76" t="n">
-        <v>185</v>
+        <v>239</v>
       </c>
       <c r="M76" t="n">
-        <v>0.092</v>
-      </c>
-      <c r="N76"/>
-      <c r="O76"/>
+        <v>0.119</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.0102</v>
+      </c>
+      <c r="O76" t="n">
+        <v>98.4</v>
+      </c>
       <c r="P76" t="s">
         <v>36</v>
       </c>
@@ -7803,7 +7881,7 @@
         <v>432</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44679</v>
+        <v>44683</v>
       </c>
       <c r="D80" t="s">
         <v>433</v>
@@ -7815,25 +7893,25 @@
         <v>435</v>
       </c>
       <c r="G80" t="n">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="H80" t="n">
-        <v>10880615</v>
+        <v>10904626</v>
       </c>
       <c r="I80" t="n">
-        <v>1129.378</v>
+        <v>1131.871</v>
       </c>
       <c r="J80" t="n">
-        <v>7191</v>
+        <v>16016</v>
       </c>
       <c r="K80" t="n">
-        <v>0.746</v>
+        <v>1.662</v>
       </c>
       <c r="L80" t="n">
-        <v>6561</v>
+        <v>5755</v>
       </c>
       <c r="M80" t="n">
-        <v>0.681</v>
+        <v>0.597</v>
       </c>
       <c r="N80"/>
       <c r="O80"/>
@@ -7915,7 +7993,7 @@
         <v>444</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>44680</v>
+        <v>44681</v>
       </c>
       <c r="D82" t="s">
         <v>445</v>
@@ -7927,28 +8005,32 @@
         <v>447</v>
       </c>
       <c r="G82" t="n">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H82" t="n">
-        <v>836945383</v>
+        <v>837442023</v>
       </c>
       <c r="I82" t="n">
-        <v>600.646</v>
+        <v>601.002</v>
       </c>
       <c r="J82" t="n">
-        <v>473635</v>
+        <v>496640</v>
       </c>
       <c r="K82" t="n">
-        <v>0.34</v>
+        <v>0.356</v>
       </c>
       <c r="L82" t="n">
-        <v>445182</v>
+        <v>451550</v>
       </c>
       <c r="M82" t="n">
-        <v>0.319</v>
-      </c>
-      <c r="N82"/>
-      <c r="O82"/>
+        <v>0.324</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.0068</v>
+      </c>
+      <c r="O82" t="n">
+        <v>146</v>
+      </c>
       <c r="P82" t="s">
         <v>446</v>
       </c>
@@ -8027,7 +8109,7 @@
         <v>456</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44679</v>
+        <v>44681</v>
       </c>
       <c r="D84" t="s">
         <v>457</v>
@@ -8037,24 +8119,28 @@
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H84" t="n">
-        <v>51016132</v>
+        <v>51116782</v>
       </c>
       <c r="I84" t="n">
-        <v>599.987</v>
+        <v>601.17</v>
       </c>
       <c r="J84"/>
       <c r="K84"/>
       <c r="L84" t="n">
-        <v>51771</v>
+        <v>51256</v>
       </c>
       <c r="M84" t="n">
-        <v>0.609</v>
-      </c>
-      <c r="N84"/>
-      <c r="O84"/>
+        <v>0.603</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.0171</v>
+      </c>
+      <c r="O84" t="n">
+        <v>58.4</v>
+      </c>
       <c r="P84" t="s">
         <v>459</v>
       </c>
@@ -8159,8 +8245,12 @@
       <c r="M86" t="n">
         <v>1.307</v>
       </c>
-      <c r="N86"/>
-      <c r="O86"/>
+      <c r="N86" t="n">
+        <v>0.1661</v>
+      </c>
+      <c r="O86" t="n">
+        <v>6</v>
+      </c>
       <c r="P86" t="s">
         <v>467</v>
       </c>
@@ -8182,7 +8272,7 @@
         <v>471</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44679</v>
+        <v>44682</v>
       </c>
       <c r="D87" t="s">
         <v>472</v>
@@ -8192,31 +8282,31 @@
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="H87" t="n">
-        <v>50036948</v>
+        <v>50154126</v>
       </c>
       <c r="I87" t="n">
-        <v>5385.529</v>
+        <v>5398.141</v>
       </c>
       <c r="J87" t="n">
-        <v>51809</v>
+        <v>42826</v>
       </c>
       <c r="K87" t="n">
-        <v>5.576</v>
+        <v>4.609</v>
       </c>
       <c r="L87" t="n">
-        <v>56017</v>
+        <v>52031</v>
       </c>
       <c r="M87" t="n">
-        <v>6.029</v>
+        <v>5.6</v>
       </c>
       <c r="N87" t="n">
-        <v>0.056</v>
+        <v>0.053</v>
       </c>
       <c r="O87" t="n">
-        <v>17.9</v>
+        <v>18.9</v>
       </c>
       <c r="P87" t="s">
         <v>53</v>
@@ -8239,7 +8329,7 @@
         <v>477</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44679</v>
+        <v>44682</v>
       </c>
       <c r="D88" t="s">
         <v>478</v>
@@ -8251,28 +8341,32 @@
         <v>480</v>
       </c>
       <c r="G88" t="n">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="H88" t="n">
-        <v>213009371</v>
+        <v>214061284</v>
       </c>
       <c r="I88" t="n">
-        <v>3528.546</v>
+        <v>3545.971</v>
       </c>
       <c r="J88" t="n">
-        <v>441526</v>
+        <v>287601</v>
       </c>
       <c r="K88" t="n">
-        <v>7.314</v>
+        <v>4.764</v>
       </c>
       <c r="L88" t="n">
-        <v>357495</v>
+        <v>338492</v>
       </c>
       <c r="M88" t="n">
-        <v>5.922</v>
-      </c>
-      <c r="N88"/>
-      <c r="O88"/>
+        <v>5.607</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.1556</v>
+      </c>
+      <c r="O88" t="n">
+        <v>6.4</v>
+      </c>
       <c r="P88" t="s">
         <v>481</v>
       </c>
@@ -8347,7 +8441,7 @@
         <v>491</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44679</v>
+        <v>44682</v>
       </c>
       <c r="D90" t="s">
         <v>492</v>
@@ -8357,28 +8451,32 @@
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="H90" t="n">
-        <v>46632157</v>
+        <v>46822449</v>
       </c>
       <c r="I90" t="n">
-        <v>369.947</v>
+        <v>371.457</v>
       </c>
       <c r="J90" t="n">
-        <v>130850</v>
+        <v>45549</v>
       </c>
       <c r="K90" t="n">
-        <v>1.038</v>
+        <v>0.361</v>
       </c>
       <c r="L90" t="n">
-        <v>304501</v>
+        <v>284343</v>
       </c>
       <c r="M90" t="n">
-        <v>2.416</v>
-      </c>
-      <c r="N90"/>
-      <c r="O90"/>
+        <v>2.256</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.1213</v>
+      </c>
+      <c r="O90" t="n">
+        <v>8.2</v>
+      </c>
       <c r="P90" t="s">
         <v>493</v>
       </c>
@@ -8510,7 +8608,7 @@
         <v>508</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>44679</v>
+        <v>44682</v>
       </c>
       <c r="D93" t="s">
         <v>35</v>
@@ -8520,24 +8618,28 @@
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H93" t="n">
-        <v>3588732</v>
+        <v>3598809</v>
       </c>
       <c r="I93" t="n">
-        <v>65.267</v>
+        <v>65.45</v>
       </c>
       <c r="J93"/>
       <c r="K93"/>
       <c r="L93" t="n">
-        <v>2357</v>
+        <v>2472</v>
       </c>
       <c r="M93" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="N93"/>
-      <c r="O93"/>
+        <v>0.045</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.0044</v>
+      </c>
+      <c r="O93" t="n">
+        <v>224.7</v>
+      </c>
       <c r="P93" t="s">
         <v>36</v>
       </c>
@@ -8559,7 +8661,7 @@
         <v>511</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44678</v>
+        <v>44681</v>
       </c>
       <c r="D94" t="s">
         <v>512</v>
@@ -8569,27 +8671,27 @@
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H94" t="n">
-        <v>1823094</v>
+        <v>1825307</v>
       </c>
       <c r="I94" t="n">
-        <v>1022.995</v>
+        <v>1024.236</v>
       </c>
       <c r="J94"/>
       <c r="K94"/>
       <c r="L94" t="n">
-        <v>825</v>
+        <v>675</v>
       </c>
       <c r="M94" t="n">
-        <v>0.463</v>
+        <v>0.379</v>
       </c>
       <c r="N94" t="n">
-        <v>0.0177</v>
+        <v>0.0254</v>
       </c>
       <c r="O94" t="n">
-        <v>56.6</v>
+        <v>39.4</v>
       </c>
       <c r="P94" t="s">
         <v>514</v>
@@ -8718,7 +8820,7 @@
         <v>529</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44680</v>
+        <v>44683</v>
       </c>
       <c r="D97" t="s">
         <v>530</v>
@@ -8730,25 +8832,25 @@
         <v>532</v>
       </c>
       <c r="G97" t="n">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="H97" t="n">
-        <v>7131043</v>
+        <v>7138331</v>
       </c>
       <c r="I97" t="n">
-        <v>3819.655</v>
+        <v>3823.558</v>
       </c>
       <c r="J97" t="n">
-        <v>4174</v>
+        <v>1712</v>
       </c>
       <c r="K97" t="n">
-        <v>2.236</v>
+        <v>0.917</v>
       </c>
       <c r="L97" t="n">
-        <v>3898</v>
+        <v>3754</v>
       </c>
       <c r="M97" t="n">
-        <v>2.088</v>
+        <v>2.011</v>
       </c>
       <c r="N97"/>
       <c r="O97"/>
@@ -8826,7 +8928,7 @@
         <v>540</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44675</v>
+        <v>44682</v>
       </c>
       <c r="D99" t="s">
         <v>35</v>
@@ -8836,26 +8938,28 @@
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H99" t="n">
-        <v>442447</v>
+        <v>445262</v>
       </c>
       <c r="I99" t="n">
-        <v>204.925</v>
+        <v>206.229</v>
       </c>
       <c r="J99"/>
       <c r="K99"/>
       <c r="L99" t="n">
-        <v>333</v>
+        <v>402</v>
       </c>
       <c r="M99" t="n">
-        <v>0.154</v>
+        <v>0.186</v>
       </c>
       <c r="N99" t="n">
-        <v>0</v>
-      </c>
-      <c r="O99"/>
+        <v>0.0167</v>
+      </c>
+      <c r="O99" t="n">
+        <v>59.9</v>
+      </c>
       <c r="P99" t="s">
         <v>36</v>
       </c>
@@ -8922,7 +9026,7 @@
         <v>546</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44672</v>
+        <v>44679</v>
       </c>
       <c r="D101" t="s">
         <v>547</v>
@@ -8932,15 +9036,15 @@
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H101"/>
       <c r="I101"/>
       <c r="J101" t="n">
-        <v>1554</v>
+        <v>1281</v>
       </c>
       <c r="K101" t="n">
-        <v>0.223</v>
+        <v>0.184</v>
       </c>
       <c r="L101"/>
       <c r="M101"/>
@@ -9024,7 +9128,7 @@
         <v>558</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44675</v>
+        <v>44679</v>
       </c>
       <c r="D103" t="s">
         <v>559</v>
@@ -9034,31 +9138,31 @@
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="H103" t="n">
-        <v>8625657</v>
+        <v>8650417</v>
       </c>
       <c r="I103" t="n">
-        <v>3206.728</v>
+        <v>3215.933</v>
       </c>
       <c r="J103" t="n">
-        <v>2379</v>
+        <v>4629</v>
       </c>
       <c r="K103" t="n">
-        <v>0.884</v>
+        <v>1.721</v>
       </c>
       <c r="L103" t="n">
-        <v>5363</v>
+        <v>5193</v>
       </c>
       <c r="M103" t="n">
-        <v>1.994</v>
+        <v>1.931</v>
       </c>
       <c r="N103" t="n">
-        <v>0.169</v>
+        <v>0.146</v>
       </c>
       <c r="O103" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="P103" t="s">
         <v>560</v>
@@ -9081,7 +9185,7 @@
         <v>563</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>44678</v>
+        <v>44679</v>
       </c>
       <c r="D104" t="s">
         <v>564</v>
@@ -9091,31 +9195,31 @@
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H104" t="n">
-        <v>4225009</v>
+        <v>4227288</v>
       </c>
       <c r="I104" t="n">
-        <v>6655.507</v>
+        <v>6659.097</v>
       </c>
       <c r="J104" t="n">
-        <v>2251</v>
+        <v>2279</v>
       </c>
       <c r="K104" t="n">
-        <v>3.546</v>
+        <v>3.59</v>
       </c>
       <c r="L104" t="n">
-        <v>1945</v>
+        <v>1915</v>
       </c>
       <c r="M104" t="n">
-        <v>3.064</v>
+        <v>3.017</v>
       </c>
       <c r="N104" t="n">
-        <v>0.302</v>
+        <v>0.29</v>
       </c>
       <c r="O104" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P104" t="s">
         <v>565</v>
@@ -9191,7 +9295,7 @@
         <v>571</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44679</v>
+        <v>44682</v>
       </c>
       <c r="D106" t="s">
         <v>35</v>
@@ -9201,24 +9305,28 @@
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H106" t="n">
-        <v>573085</v>
+        <v>574139</v>
       </c>
       <c r="I106" t="n">
-        <v>29.168</v>
+        <v>29.222</v>
       </c>
       <c r="J106"/>
       <c r="K106"/>
       <c r="L106" t="n">
-        <v>421</v>
+        <v>365</v>
       </c>
       <c r="M106" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="N106"/>
-      <c r="O106"/>
+        <v>0.019</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.0133</v>
+      </c>
+      <c r="O106" t="n">
+        <v>75.1</v>
+      </c>
       <c r="P106" t="s">
         <v>36</v>
       </c>
@@ -9240,7 +9348,7 @@
         <v>574</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44676</v>
+        <v>44680</v>
       </c>
       <c r="D107" t="s">
         <v>575</v>
@@ -9252,31 +9360,31 @@
         <v>577</v>
       </c>
       <c r="G107" t="n">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="H107" t="n">
-        <v>58450640</v>
+        <v>58654081</v>
       </c>
       <c r="I107" t="n">
-        <v>1783.326</v>
+        <v>1789.533</v>
       </c>
       <c r="J107" t="n">
-        <v>74902</v>
+        <v>39041</v>
       </c>
       <c r="K107" t="n">
-        <v>2.285</v>
+        <v>1.191</v>
       </c>
       <c r="L107" t="n">
-        <v>57864</v>
+        <v>52394</v>
       </c>
       <c r="M107" t="n">
-        <v>1.765</v>
+        <v>1.599</v>
       </c>
       <c r="N107" t="n">
-        <v>0.0923</v>
+        <v>0.0667</v>
       </c>
       <c r="O107" t="n">
-        <v>10.8</v>
+        <v>15</v>
       </c>
       <c r="P107" t="s">
         <v>53</v>
@@ -9352,7 +9460,7 @@
         <v>587</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44679</v>
+        <v>44682</v>
       </c>
       <c r="D109" t="s">
         <v>35</v>
@@ -9362,24 +9470,28 @@
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H109" t="n">
-        <v>677998</v>
+        <v>679316</v>
       </c>
       <c r="I109" t="n">
-        <v>32.509</v>
+        <v>32.572</v>
       </c>
       <c r="J109"/>
       <c r="K109"/>
       <c r="L109" t="n">
-        <v>600</v>
+        <v>437</v>
       </c>
       <c r="M109" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="N109"/>
-      <c r="O109"/>
+        <v>0.021</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.0337</v>
+      </c>
+      <c r="O109" t="n">
+        <v>29.7</v>
+      </c>
       <c r="P109" t="s">
         <v>36</v>
       </c>
@@ -9401,7 +9513,7 @@
         <v>590</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="D110" t="s">
         <v>591</v>
@@ -9411,28 +9523,32 @@
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="H110" t="n">
-        <v>1881640</v>
+        <v>1884723</v>
       </c>
       <c r="I110" t="n">
-        <v>3645.883</v>
+        <v>3651.856</v>
       </c>
       <c r="J110" t="n">
-        <v>1645</v>
+        <v>1620</v>
       </c>
       <c r="K110" t="n">
-        <v>3.187</v>
+        <v>3.139</v>
       </c>
       <c r="L110" t="n">
-        <v>1865</v>
+        <v>1751</v>
       </c>
       <c r="M110" t="n">
-        <v>3.614</v>
-      </c>
-      <c r="N110"/>
-      <c r="O110"/>
+        <v>3.393</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.1033</v>
+      </c>
+      <c r="O110" t="n">
+        <v>9.7</v>
+      </c>
       <c r="P110" t="s">
         <v>593</v>
       </c>
@@ -9607,7 +9723,7 @@
         <v>608</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44677</v>
+        <v>44680</v>
       </c>
       <c r="D114" t="s">
         <v>609</v>
@@ -9617,25 +9733,25 @@
       </c>
       <c r="F114"/>
       <c r="G114" t="n">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="H114" t="n">
-        <v>15103666</v>
+        <v>15122005</v>
       </c>
       <c r="I114" t="n">
-        <v>115.948</v>
+        <v>116.089</v>
       </c>
       <c r="J114" t="n">
-        <v>4427</v>
+        <v>3242</v>
       </c>
       <c r="K114" t="n">
-        <v>0.034</v>
+        <v>0.025</v>
       </c>
       <c r="L114" t="n">
-        <v>4550</v>
+        <v>4256</v>
       </c>
       <c r="M114" t="n">
-        <v>0.035</v>
+        <v>0.033</v>
       </c>
       <c r="N114" t="n">
         <v>0.103</v>
@@ -9762,7 +9878,7 @@
         <v>626</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44679</v>
+        <v>44682</v>
       </c>
       <c r="D117" t="s">
         <v>627</v>
@@ -9772,24 +9888,28 @@
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H117" t="n">
-        <v>11451409</v>
+        <v>11468924</v>
       </c>
       <c r="I117" t="n">
-        <v>306.64</v>
+        <v>307.109</v>
       </c>
       <c r="J117"/>
       <c r="K117"/>
       <c r="L117" t="n">
-        <v>6461</v>
+        <v>5875</v>
       </c>
       <c r="M117" t="n">
-        <v>0.173</v>
-      </c>
-      <c r="N117"/>
-      <c r="O117"/>
+        <v>0.157</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.0066</v>
+      </c>
+      <c r="O117" t="n">
+        <v>150.6</v>
+      </c>
       <c r="P117" t="s">
         <v>628</v>
       </c>
@@ -9811,7 +9931,7 @@
         <v>632</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44679</v>
+        <v>44682</v>
       </c>
       <c r="D118" t="s">
         <v>35</v>
@@ -9821,24 +9941,28 @@
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H118" t="n">
-        <v>1311366</v>
+        <v>1313202</v>
       </c>
       <c r="I118" t="n">
-        <v>40.772</v>
+        <v>40.83</v>
       </c>
       <c r="J118"/>
       <c r="K118"/>
       <c r="L118" t="n">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="M118" t="n">
         <v>0.016</v>
       </c>
-      <c r="N118"/>
-      <c r="O118"/>
+      <c r="N118" t="n">
+        <v>0.0059</v>
+      </c>
+      <c r="O118" t="n">
+        <v>169.7</v>
+      </c>
       <c r="P118" t="s">
         <v>36</v>
       </c>
@@ -9860,7 +9984,7 @@
         <v>635</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44674</v>
+        <v>44682</v>
       </c>
       <c r="D119" t="s">
         <v>636</v>
@@ -9870,31 +9994,27 @@
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H119" t="n">
-        <v>7898754</v>
+        <v>7962713</v>
       </c>
       <c r="I119" t="n">
-        <v>144.122</v>
-      </c>
-      <c r="J119" t="n">
-        <v>16383</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.299</v>
-      </c>
+        <v>145.289</v>
+      </c>
+      <c r="J119"/>
+      <c r="K119"/>
       <c r="L119" t="n">
-        <v>10035</v>
+        <v>7995</v>
       </c>
       <c r="M119" t="n">
-        <v>0.183</v>
+        <v>0.146</v>
       </c>
       <c r="N119" t="n">
         <v>0.0027</v>
       </c>
       <c r="O119" t="n">
-        <v>373.6</v>
+        <v>370.6</v>
       </c>
       <c r="P119" t="s">
         <v>637</v>
@@ -9917,7 +10037,7 @@
         <v>641</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>44679</v>
+        <v>44682</v>
       </c>
       <c r="D120" t="s">
         <v>35</v>
@@ -9927,24 +10047,28 @@
       </c>
       <c r="F120"/>
       <c r="G120" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H120" t="n">
-        <v>1003847</v>
+        <v>1006854</v>
       </c>
       <c r="I120" t="n">
-        <v>387.984</v>
+        <v>389.146</v>
       </c>
       <c r="J120"/>
       <c r="K120"/>
       <c r="L120" t="n">
-        <v>767</v>
+        <v>716</v>
       </c>
       <c r="M120" t="n">
-        <v>0.296</v>
-      </c>
-      <c r="N120"/>
-      <c r="O120"/>
+        <v>0.277</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.0904</v>
+      </c>
+      <c r="O120" t="n">
+        <v>11.1</v>
+      </c>
       <c r="P120" t="s">
         <v>642</v>
       </c>
@@ -9966,7 +10090,7 @@
         <v>646</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>44680</v>
+        <v>44683</v>
       </c>
       <c r="D121" t="s">
         <v>647</v>
@@ -9976,21 +10100,21 @@
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H121" t="n">
-        <v>6801395</v>
+        <v>6811086</v>
       </c>
       <c r="I121" t="n">
-        <v>229.197</v>
+        <v>229.523</v>
       </c>
       <c r="J121"/>
       <c r="K121"/>
       <c r="L121" t="n">
-        <v>4820</v>
+        <v>4208</v>
       </c>
       <c r="M121" t="n">
-        <v>0.162</v>
+        <v>0.142</v>
       </c>
       <c r="N121" t="n">
         <v>0.003</v>
@@ -10076,7 +10200,7 @@
         <v>658</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>44680</v>
+        <v>44683</v>
       </c>
       <c r="D123" t="s">
         <v>659</v>
@@ -10086,21 +10210,21 @@
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H123" t="n">
-        <v>7075276</v>
+        <v>7083851</v>
       </c>
       <c r="I123" t="n">
-        <v>1380.192</v>
+        <v>1381.864</v>
       </c>
       <c r="J123"/>
       <c r="K123"/>
       <c r="L123" t="n">
-        <v>13555</v>
+        <v>13991</v>
       </c>
       <c r="M123" t="n">
-        <v>2.644</v>
+        <v>2.729</v>
       </c>
       <c r="N123"/>
       <c r="O123"/>
@@ -10178,7 +10302,7 @@
         <v>668</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44679</v>
+        <v>44682</v>
       </c>
       <c r="D125" t="s">
         <v>35</v>
@@ -10188,24 +10312,28 @@
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H125" t="n">
-        <v>249920</v>
+        <v>250347</v>
       </c>
       <c r="I125" t="n">
-        <v>9.945</v>
+        <v>9.962</v>
       </c>
       <c r="J125"/>
       <c r="K125"/>
       <c r="L125" t="n">
-        <v>276</v>
+        <v>189</v>
       </c>
       <c r="M125" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="N125"/>
-      <c r="O125"/>
+        <v>0.008</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.0204</v>
+      </c>
+      <c r="O125" t="n">
+        <v>49</v>
+      </c>
       <c r="P125" t="s">
         <v>36</v>
       </c>
@@ -10253,8 +10381,12 @@
       <c r="M126" t="n">
         <v>0.046</v>
       </c>
-      <c r="N126"/>
-      <c r="O126"/>
+      <c r="N126" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="O126" t="n">
+        <v>1850.9</v>
+      </c>
       <c r="P126" t="s">
         <v>672</v>
       </c>
@@ -10276,7 +10408,7 @@
         <v>676</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44679</v>
+        <v>44680</v>
       </c>
       <c r="D127" t="s">
         <v>677</v>
@@ -10286,24 +10418,32 @@
       </c>
       <c r="F127"/>
       <c r="G127" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H127" t="n">
-        <v>2015726</v>
+        <v>2018029</v>
       </c>
       <c r="I127" t="n">
-        <v>967.861</v>
-      </c>
-      <c r="J127"/>
-      <c r="K127"/>
+        <v>968.967</v>
+      </c>
+      <c r="J127" t="n">
+        <v>2303</v>
+      </c>
+      <c r="K127" t="n">
+        <v>1.106</v>
+      </c>
       <c r="L127" t="n">
-        <v>1780</v>
+        <v>1497</v>
       </c>
       <c r="M127" t="n">
-        <v>0.855</v>
-      </c>
-      <c r="N127"/>
-      <c r="O127"/>
+        <v>0.719</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.0486</v>
+      </c>
+      <c r="O127" t="n">
+        <v>20.6</v>
+      </c>
       <c r="P127" t="s">
         <v>53</v>
       </c>
@@ -10514,8 +10654,12 @@
       <c r="M131" t="n">
         <v>0.037</v>
       </c>
-      <c r="N131"/>
-      <c r="O131"/>
+      <c r="N131" t="n">
+        <v>0.0035</v>
+      </c>
+      <c r="O131" t="n">
+        <v>282.7</v>
+      </c>
       <c r="P131" t="s">
         <v>693</v>
       </c>
@@ -10537,7 +10681,7 @@
         <v>696</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>44676</v>
+        <v>44680</v>
       </c>
       <c r="D132" t="s">
         <v>697</v>
@@ -10547,13 +10691,13 @@
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H132" t="n">
-        <v>44992</v>
+        <v>46016</v>
       </c>
       <c r="I132" t="n">
-        <v>2475.625</v>
+        <v>2531.969</v>
       </c>
       <c r="J132"/>
       <c r="K132"/>
@@ -10653,8 +10797,12 @@
       <c r="M134" t="n">
         <v>1.43</v>
       </c>
-      <c r="N134"/>
-      <c r="O134"/>
+      <c r="N134" t="n">
+        <v>0.0932</v>
+      </c>
+      <c r="O134" t="n">
+        <v>10.7</v>
+      </c>
       <c r="P134" t="s">
         <v>709</v>
       </c>
@@ -10829,7 +10977,7 @@
         <v>730</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>44666</v>
+        <v>44673</v>
       </c>
       <c r="D138" t="s">
         <v>731</v>
@@ -10839,31 +10987,31 @@
       </c>
       <c r="F138"/>
       <c r="G138" t="n">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="H138" t="n">
-        <v>27548371</v>
+        <v>27689872</v>
       </c>
       <c r="I138" t="n">
-        <v>248.079</v>
+        <v>249.353</v>
       </c>
       <c r="J138" t="n">
-        <v>10570</v>
+        <v>21219</v>
       </c>
       <c r="K138" t="n">
-        <v>0.095</v>
+        <v>0.191</v>
       </c>
       <c r="L138" t="n">
-        <v>16896</v>
+        <v>19826</v>
       </c>
       <c r="M138" t="n">
-        <v>0.152</v>
+        <v>0.179</v>
       </c>
       <c r="N138" t="n">
-        <v>0.0154</v>
+        <v>0.0106</v>
       </c>
       <c r="O138" t="n">
-        <v>64.9</v>
+        <v>94.3</v>
       </c>
       <c r="P138" t="s">
         <v>427</v>
@@ -10939,7 +11087,7 @@
         <v>742</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>44679</v>
+        <v>44681</v>
       </c>
       <c r="D140" t="s">
         <v>743</v>
@@ -10949,25 +11097,25 @@
       </c>
       <c r="F140"/>
       <c r="G140" t="n">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="H140" t="n">
-        <v>41218424</v>
+        <v>41320769</v>
       </c>
       <c r="I140" t="n">
-        <v>4053.77</v>
+        <v>4063.836</v>
       </c>
       <c r="J140" t="n">
-        <v>52569</v>
+        <v>42390</v>
       </c>
       <c r="K140" t="n">
-        <v>5.17</v>
+        <v>4.169</v>
       </c>
       <c r="L140" t="n">
-        <v>38484</v>
+        <v>42727</v>
       </c>
       <c r="M140" t="n">
-        <v>3.785</v>
+        <v>4.202</v>
       </c>
       <c r="N140"/>
       <c r="O140"/>
@@ -10992,7 +11140,7 @@
         <v>747</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>44676</v>
+        <v>44679</v>
       </c>
       <c r="D141" t="s">
         <v>394</v>
@@ -11002,25 +11150,25 @@
       </c>
       <c r="F141"/>
       <c r="G141" t="n">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="H141" t="n">
-        <v>2727507</v>
+        <v>2758226</v>
       </c>
       <c r="I141" t="n">
-        <v>964.381</v>
+        <v>975.243</v>
       </c>
       <c r="J141" t="n">
-        <v>2040</v>
+        <v>4339</v>
       </c>
       <c r="K141" t="n">
-        <v>0.721</v>
+        <v>1.534</v>
       </c>
       <c r="L141" t="n">
-        <v>3120</v>
+        <v>5200</v>
       </c>
       <c r="M141" t="n">
-        <v>1.103</v>
+        <v>1.839</v>
       </c>
       <c r="N141"/>
       <c r="O141"/>
@@ -11045,7 +11193,7 @@
         <v>750</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>44679</v>
+        <v>44682</v>
       </c>
       <c r="D142" t="s">
         <v>751</v>
@@ -11055,28 +11203,32 @@
       </c>
       <c r="F142"/>
       <c r="G142" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H142" t="n">
-        <v>6779799</v>
+        <v>6812800</v>
       </c>
       <c r="I142" t="n">
-        <v>2313.511</v>
+        <v>2324.772</v>
       </c>
       <c r="J142" t="n">
-        <v>12993</v>
+        <v>11660</v>
       </c>
       <c r="K142" t="n">
-        <v>4.434</v>
+        <v>3.979</v>
       </c>
       <c r="L142" t="n">
-        <v>11987</v>
+        <v>11843</v>
       </c>
       <c r="M142" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="N142"/>
-      <c r="O142"/>
+        <v>4.041</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0.0056</v>
+      </c>
+      <c r="O142" t="n">
+        <v>177.1</v>
+      </c>
       <c r="P142" t="s">
         <v>753</v>
       </c>
@@ -11151,7 +11303,7 @@
         <v>760</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="D144" t="s">
         <v>761</v>
@@ -11161,24 +11313,28 @@
       </c>
       <c r="F144"/>
       <c r="G144" t="n">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H144" t="n">
-        <v>290285503</v>
+        <v>290642858</v>
       </c>
       <c r="I144" t="n">
-        <v>1989.456</v>
+        <v>1991.905</v>
       </c>
       <c r="J144"/>
       <c r="K144"/>
       <c r="L144" t="n">
-        <v>167446</v>
+        <v>162223</v>
       </c>
       <c r="M144" t="n">
-        <v>1.148</v>
-      </c>
-      <c r="N144"/>
-      <c r="O144"/>
+        <v>1.112</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0.0454</v>
+      </c>
+      <c r="O144" t="n">
+        <v>22</v>
+      </c>
       <c r="P144" t="s">
         <v>762</v>
       </c>
@@ -11257,7 +11413,7 @@
         <v>772</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>44680</v>
+        <v>44683</v>
       </c>
       <c r="D146" t="s">
         <v>773</v>
@@ -11267,21 +11423,21 @@
       </c>
       <c r="F146"/>
       <c r="G146" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H146" t="n">
-        <v>71365</v>
+        <v>71641</v>
       </c>
       <c r="I146" t="n">
-        <v>1332.779</v>
+        <v>1337.934</v>
       </c>
       <c r="J146"/>
       <c r="K146"/>
       <c r="L146" t="n">
-        <v>297</v>
+        <v>236</v>
       </c>
       <c r="M146" t="n">
-        <v>5.547</v>
+        <v>4.407</v>
       </c>
       <c r="N146"/>
       <c r="O146"/>
@@ -11319,21 +11475,25 @@
         <v>23</v>
       </c>
       <c r="H147" t="n">
-        <v>143281</v>
+        <v>144590</v>
       </c>
       <c r="I147" t="n">
-        <v>777.008</v>
+        <v>784.106</v>
       </c>
       <c r="J147"/>
       <c r="K147"/>
       <c r="L147" t="n">
-        <v>141</v>
+        <v>328</v>
       </c>
       <c r="M147" t="n">
-        <v>0.765</v>
-      </c>
-      <c r="N147"/>
-      <c r="O147"/>
+        <v>1.779</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0.0871</v>
+      </c>
+      <c r="O147" t="n">
+        <v>11.5</v>
+      </c>
       <c r="P147" t="s">
         <v>92</v>
       </c>
@@ -11465,7 +11625,7 @@
         <v>793</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>44679</v>
+        <v>44682</v>
       </c>
       <c r="D150" t="s">
         <v>794</v>
@@ -11475,28 +11635,32 @@
       </c>
       <c r="F150"/>
       <c r="G150" t="n">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="H150" t="n">
-        <v>41883167</v>
+        <v>41912766</v>
       </c>
       <c r="I150" t="n">
-        <v>1185.126</v>
+        <v>1185.964</v>
       </c>
       <c r="J150" t="n">
-        <v>10947</v>
+        <v>10301</v>
       </c>
       <c r="K150" t="n">
-        <v>0.31</v>
+        <v>0.291</v>
       </c>
       <c r="L150" t="n">
-        <v>10765</v>
+        <v>10654</v>
       </c>
       <c r="M150" t="n">
-        <v>0.305</v>
-      </c>
-      <c r="N150"/>
-      <c r="O150"/>
+        <v>0.301</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0.0093</v>
+      </c>
+      <c r="O150" t="n">
+        <v>107.6</v>
+      </c>
       <c r="P150" t="s">
         <v>53</v>
       </c>
@@ -11518,7 +11682,7 @@
         <v>797</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>44679</v>
+        <v>44680</v>
       </c>
       <c r="D151" t="s">
         <v>798</v>
@@ -11528,28 +11692,32 @@
       </c>
       <c r="F151"/>
       <c r="G151" t="n">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H151" t="n">
-        <v>1096835</v>
+        <v>1097611</v>
       </c>
       <c r="I151" t="n">
-        <v>63.783</v>
+        <v>63.828</v>
       </c>
       <c r="J151" t="n">
-        <v>686</v>
+        <v>776</v>
       </c>
       <c r="K151" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="L151" t="n">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="M151" t="n">
         <v>0.047</v>
       </c>
-      <c r="N151"/>
-      <c r="O151"/>
+      <c r="N151" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="O151" t="n">
+        <v>437.8</v>
+      </c>
       <c r="P151" t="s">
         <v>799</v>
       </c>
@@ -11571,7 +11739,7 @@
         <v>802</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>44679</v>
+        <v>44682</v>
       </c>
       <c r="D152" t="s">
         <v>803</v>
@@ -11583,28 +11751,32 @@
         <v>804</v>
       </c>
       <c r="G152" t="n">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="H152" t="n">
-        <v>9471803</v>
+        <v>9491908</v>
       </c>
       <c r="I152" t="n">
-        <v>1378.409</v>
+        <v>1381.335</v>
       </c>
       <c r="J152" t="n">
-        <v>10046</v>
+        <v>3978</v>
       </c>
       <c r="K152" t="n">
-        <v>1.462</v>
+        <v>0.579</v>
       </c>
       <c r="L152" t="n">
-        <v>8091</v>
+        <v>8521</v>
       </c>
       <c r="M152" t="n">
-        <v>1.177</v>
-      </c>
-      <c r="N152"/>
-      <c r="O152"/>
+        <v>1.24</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0.0845</v>
+      </c>
+      <c r="O152" t="n">
+        <v>11.8</v>
+      </c>
       <c r="P152" t="s">
         <v>53</v>
       </c>
@@ -11652,7 +11824,9 @@
       <c r="M153" t="n">
         <v>0.039</v>
       </c>
-      <c r="N153"/>
+      <c r="N153" t="n">
+        <v>0</v>
+      </c>
       <c r="O153"/>
       <c r="P153" t="s">
         <v>36</v>
@@ -11728,7 +11902,7 @@
         <v>817</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>44678</v>
+        <v>44681</v>
       </c>
       <c r="D155" t="s">
         <v>818</v>
@@ -11740,31 +11914,31 @@
         <v>819</v>
       </c>
       <c r="G155" t="n">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="H155" t="n">
-        <v>51008339</v>
+        <v>51038061</v>
       </c>
       <c r="I155" t="n">
-        <v>9360.582</v>
+        <v>9366.036</v>
       </c>
       <c r="J155" t="n">
-        <v>11014</v>
+        <v>5676</v>
       </c>
       <c r="K155" t="n">
-        <v>2.021</v>
+        <v>1.042</v>
       </c>
       <c r="L155" t="n">
-        <v>11970</v>
+        <v>11049</v>
       </c>
       <c r="M155" t="n">
-        <v>2.197</v>
+        <v>2.028</v>
       </c>
       <c r="N155" t="n">
-        <v>0.124</v>
+        <v>0.109</v>
       </c>
       <c r="O155" t="n">
-        <v>8.1</v>
+        <v>9.2</v>
       </c>
       <c r="P155" t="s">
         <v>53</v>
@@ -11787,7 +11961,7 @@
         <v>822</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>44679</v>
+        <v>44682</v>
       </c>
       <c r="D156" t="s">
         <v>823</v>
@@ -11799,31 +11973,31 @@
         <v>825</v>
       </c>
       <c r="G156" t="n">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="H156" t="n">
-        <v>5088732</v>
+        <v>5104520</v>
       </c>
       <c r="I156" t="n">
-        <v>2448.009</v>
+        <v>2455.604</v>
       </c>
       <c r="J156" t="n">
-        <v>9528</v>
+        <v>2121</v>
       </c>
       <c r="K156" t="n">
-        <v>4.584</v>
+        <v>1.02</v>
       </c>
       <c r="L156" t="n">
-        <v>8513</v>
+        <v>7791</v>
       </c>
       <c r="M156" t="n">
-        <v>4.095</v>
+        <v>3.748</v>
       </c>
       <c r="N156" t="n">
-        <v>0.103</v>
+        <v>0.109</v>
       </c>
       <c r="O156" t="n">
-        <v>9.7</v>
+        <v>9.2</v>
       </c>
       <c r="P156" t="s">
         <v>826</v>
@@ -11891,7 +12065,7 @@
         <v>832</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>44679</v>
+        <v>44682</v>
       </c>
       <c r="D158" t="s">
         <v>833</v>
@@ -11903,28 +12077,32 @@
         <v>835</v>
       </c>
       <c r="G158" t="n">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="H158" t="n">
-        <v>24423181</v>
+        <v>24492958</v>
       </c>
       <c r="I158" t="n">
-        <v>406.768</v>
+        <v>407.93</v>
       </c>
       <c r="J158" t="n">
-        <v>22710</v>
+        <v>17473</v>
       </c>
       <c r="K158" t="n">
-        <v>0.378</v>
+        <v>0.291</v>
       </c>
       <c r="L158" t="n">
-        <v>23010</v>
+        <v>22900</v>
       </c>
       <c r="M158" t="n">
-        <v>0.383</v>
-      </c>
-      <c r="N158"/>
-      <c r="O158"/>
+        <v>0.381</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0.2049</v>
+      </c>
+      <c r="O158" t="n">
+        <v>4.9</v>
+      </c>
       <c r="P158" t="s">
         <v>836</v>
       </c>
@@ -11946,7 +12124,7 @@
         <v>839</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>44679</v>
+        <v>44681</v>
       </c>
       <c r="D159" t="s">
         <v>840</v>
@@ -11958,28 +12136,32 @@
         <v>842</v>
       </c>
       <c r="G159" t="n">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H159" t="n">
-        <v>44910917</v>
+        <v>45258374</v>
       </c>
       <c r="I159" t="n">
-        <v>875.368</v>
+        <v>882.14</v>
       </c>
       <c r="J159" t="n">
-        <v>117873</v>
+        <v>146621</v>
       </c>
       <c r="K159" t="n">
-        <v>2.297</v>
+        <v>2.858</v>
       </c>
       <c r="L159" t="n">
-        <v>163271</v>
+        <v>153933</v>
       </c>
       <c r="M159" t="n">
-        <v>3.182</v>
-      </c>
-      <c r="N159"/>
-      <c r="O159"/>
+        <v>3</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0.3531</v>
+      </c>
+      <c r="O159" t="n">
+        <v>2.8</v>
+      </c>
       <c r="P159" t="s">
         <v>843</v>
       </c>
@@ -12001,7 +12183,7 @@
         <v>847</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>44679</v>
+        <v>44682</v>
       </c>
       <c r="D160" t="s">
         <v>35</v>
@@ -12011,24 +12193,28 @@
       </c>
       <c r="F160"/>
       <c r="G160" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H160" t="n">
-        <v>379731</v>
+        <v>381528</v>
       </c>
       <c r="I160" t="n">
-        <v>33.364</v>
+        <v>33.522</v>
       </c>
       <c r="J160"/>
       <c r="K160"/>
       <c r="L160" t="n">
-        <v>918</v>
+        <v>734</v>
       </c>
       <c r="M160" t="n">
-        <v>0.081</v>
-      </c>
-      <c r="N160"/>
-      <c r="O160"/>
+        <v>0.064</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0.0076</v>
+      </c>
+      <c r="O160" t="n">
+        <v>131.8</v>
+      </c>
       <c r="P160" t="s">
         <v>36</v>
       </c>
@@ -12107,7 +12293,7 @@
         <v>855</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>44679</v>
+        <v>44682</v>
       </c>
       <c r="D162" t="s">
         <v>856</v>
@@ -12117,28 +12303,32 @@
       </c>
       <c r="F162"/>
       <c r="G162" t="n">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="H162" t="n">
-        <v>7626465</v>
+        <v>7631061</v>
       </c>
       <c r="I162" t="n">
-        <v>354.764</v>
+        <v>354.978</v>
       </c>
       <c r="J162" t="n">
-        <v>1692</v>
+        <v>1532</v>
       </c>
       <c r="K162" t="n">
-        <v>0.079</v>
+        <v>0.071</v>
       </c>
       <c r="L162" t="n">
-        <v>2005</v>
+        <v>1864</v>
       </c>
       <c r="M162" t="n">
-        <v>0.093</v>
-      </c>
-      <c r="N162"/>
-      <c r="O162"/>
+        <v>0.087</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0.0185</v>
+      </c>
+      <c r="O162" t="n">
+        <v>53.9</v>
+      </c>
       <c r="P162" t="s">
         <v>857</v>
       </c>
@@ -12292,8 +12482,12 @@
       <c r="M165" t="n">
         <v>0.303</v>
       </c>
-      <c r="N165"/>
-      <c r="O165"/>
+      <c r="N165" t="n">
+        <v>0.1109</v>
+      </c>
+      <c r="O165" t="n">
+        <v>9</v>
+      </c>
       <c r="P165" t="s">
         <v>871</v>
       </c>
@@ -12425,7 +12619,7 @@
         <v>882</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>44679</v>
+        <v>44682</v>
       </c>
       <c r="D168" t="s">
         <v>883</v>
@@ -12435,28 +12629,32 @@
       </c>
       <c r="F168"/>
       <c r="G168" t="n">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="H168" t="n">
-        <v>8371327</v>
+        <v>8537161</v>
       </c>
       <c r="I168" t="n">
-        <v>350.925</v>
+        <v>357.877</v>
       </c>
       <c r="J168" t="n">
-        <v>33674</v>
+        <v>29913</v>
       </c>
       <c r="K168" t="n">
-        <v>1.412</v>
+        <v>1.254</v>
       </c>
       <c r="L168" t="n">
-        <v>55499</v>
+        <v>56769</v>
       </c>
       <c r="M168" t="n">
-        <v>2.327</v>
-      </c>
-      <c r="N168"/>
-      <c r="O168"/>
+        <v>2.38</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0.1925</v>
+      </c>
+      <c r="O168" t="n">
+        <v>5.2</v>
+      </c>
       <c r="P168" t="s">
         <v>884</v>
       </c>
@@ -12641,7 +12839,7 @@
         <v>903</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>44679</v>
+        <v>44682</v>
       </c>
       <c r="D172" t="s">
         <v>904</v>
@@ -12651,24 +12849,28 @@
       </c>
       <c r="F172"/>
       <c r="G172" t="n">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H172" t="n">
-        <v>729891</v>
+        <v>731018</v>
       </c>
       <c r="I172" t="n">
-        <v>86.09</v>
+        <v>86.223</v>
       </c>
       <c r="J172"/>
       <c r="K172"/>
       <c r="L172" t="n">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="M172" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="N172"/>
-      <c r="O172"/>
+        <v>0.047</v>
+      </c>
+      <c r="N172" t="n">
+        <v>0.0043</v>
+      </c>
+      <c r="O172" t="n">
+        <v>230.5</v>
+      </c>
       <c r="P172" t="s">
         <v>905</v>
       </c>
@@ -12690,7 +12892,7 @@
         <v>908</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>44678</v>
+        <v>44683</v>
       </c>
       <c r="D173" t="s">
         <v>909</v>
@@ -12700,31 +12902,27 @@
       </c>
       <c r="F173"/>
       <c r="G173" t="n">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="H173" t="n">
-        <v>702227</v>
+        <v>706736</v>
       </c>
       <c r="I173" t="n">
-        <v>500.385</v>
-      </c>
-      <c r="J173" t="n">
-        <v>3246</v>
-      </c>
-      <c r="K173" t="n">
-        <v>2.313</v>
-      </c>
+        <v>503.598</v>
+      </c>
+      <c r="J173"/>
+      <c r="K173"/>
       <c r="L173" t="n">
-        <v>1353</v>
+        <v>1287</v>
       </c>
       <c r="M173" t="n">
-        <v>0.964</v>
+        <v>0.917</v>
       </c>
       <c r="N173" t="n">
-        <v>0.34</v>
+        <v>0.371</v>
       </c>
       <c r="O173" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P173" t="s">
         <v>53</v>
@@ -12800,7 +12998,7 @@
         <v>920</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>44679</v>
+        <v>44682</v>
       </c>
       <c r="D175" t="s">
         <v>921</v>
@@ -12810,28 +13008,32 @@
       </c>
       <c r="F175"/>
       <c r="G175" t="n">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="H175" t="n">
-        <v>159069274</v>
+        <v>159424435</v>
       </c>
       <c r="I175" t="n">
-        <v>1870.463</v>
+        <v>1874.639</v>
       </c>
       <c r="J175" t="n">
-        <v>135253</v>
+        <v>108802</v>
       </c>
       <c r="K175" t="n">
-        <v>1.59</v>
+        <v>1.279</v>
       </c>
       <c r="L175" t="n">
-        <v>136320</v>
+        <v>127863</v>
       </c>
       <c r="M175" t="n">
-        <v>1.603</v>
-      </c>
-      <c r="N175"/>
-      <c r="O175"/>
+        <v>1.504</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0.0168</v>
+      </c>
+      <c r="O175" t="n">
+        <v>59.6</v>
+      </c>
       <c r="P175" t="s">
         <v>922</v>
       </c>
@@ -12959,7 +13161,7 @@
         <v>935</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="D178" t="s">
         <v>936</v>
@@ -12969,28 +13171,32 @@
       </c>
       <c r="F178"/>
       <c r="G178" t="n">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="H178" t="n">
-        <v>155620890</v>
+        <v>156106978</v>
       </c>
       <c r="I178" t="n">
-        <v>15575.978</v>
+        <v>15624.63</v>
       </c>
       <c r="J178" t="n">
-        <v>232493</v>
+        <v>231652</v>
       </c>
       <c r="K178" t="n">
-        <v>23.27</v>
+        <v>23.186</v>
       </c>
       <c r="L178" t="n">
-        <v>257445</v>
+        <v>248031</v>
       </c>
       <c r="M178" t="n">
-        <v>25.767</v>
-      </c>
-      <c r="N178"/>
-      <c r="O178"/>
+        <v>24.825</v>
+      </c>
+      <c r="N178" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="O178" t="n">
+        <v>1036.5</v>
+      </c>
       <c r="P178" t="s">
         <v>937</v>
       </c>
@@ -13012,7 +13218,7 @@
         <v>941</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>44678</v>
+        <v>44679</v>
       </c>
       <c r="D179" t="s">
         <v>942</v>
@@ -13022,31 +13228,31 @@
       </c>
       <c r="F179"/>
       <c r="G179" t="n">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H179" t="n">
-        <v>497515388</v>
+        <v>497860030</v>
       </c>
       <c r="I179" t="n">
-        <v>7294.186</v>
+        <v>7299.239</v>
       </c>
       <c r="J179" t="n">
-        <v>317334</v>
+        <v>344642</v>
       </c>
       <c r="K179" t="n">
-        <v>4.653</v>
+        <v>5.053</v>
       </c>
       <c r="L179" t="n">
-        <v>321477</v>
+        <v>313823</v>
       </c>
       <c r="M179" t="n">
-        <v>4.713</v>
+        <v>4.601</v>
       </c>
       <c r="N179" t="n">
-        <v>0.0546</v>
+        <v>0.0534</v>
       </c>
       <c r="O179" t="n">
-        <v>18.3</v>
+        <v>18.7</v>
       </c>
       <c r="P179" t="s">
         <v>944</v>
@@ -13069,7 +13275,7 @@
         <v>948</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>44674</v>
+        <v>44677</v>
       </c>
       <c r="D180" t="s">
         <v>394</v>
@@ -13079,25 +13285,25 @@
       </c>
       <c r="F180"/>
       <c r="G180" t="n">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="H180" t="n">
-        <v>866550167</v>
+        <v>869230133</v>
       </c>
       <c r="I180" t="n">
-        <v>2602.917</v>
+        <v>2610.967</v>
       </c>
       <c r="J180" t="n">
-        <v>245051</v>
+        <v>719487</v>
       </c>
       <c r="K180" t="n">
-        <v>0.736</v>
+        <v>2.161</v>
       </c>
       <c r="L180" t="n">
-        <v>417978</v>
+        <v>551422</v>
       </c>
       <c r="M180" t="n">
-        <v>1.256</v>
+        <v>1.656</v>
       </c>
       <c r="N180" t="n">
         <v>0.067</v>
@@ -13126,7 +13332,7 @@
         <v>951</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>44676</v>
+        <v>44678</v>
       </c>
       <c r="D181" t="s">
         <v>394</v>
@@ -13136,28 +13342,28 @@
       </c>
       <c r="F181"/>
       <c r="G181" t="n">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="H181" t="n">
-        <v>110473</v>
+        <v>110795</v>
       </c>
       <c r="I181" t="n">
-        <v>1060.018</v>
+        <v>1063.108</v>
       </c>
       <c r="J181" t="n">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="K181" t="n">
-        <v>0.537</v>
+        <v>1.123</v>
       </c>
       <c r="L181" t="n">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="M181" t="n">
-        <v>0.509</v>
+        <v>0.768</v>
       </c>
       <c r="N181" t="n">
-        <v>0.178</v>
+        <v>0.177</v>
       </c>
       <c r="O181" t="n">
         <v>5.6</v>
@@ -13293,7 +13499,7 @@
         <v>964</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>44679</v>
+        <v>44682</v>
       </c>
       <c r="D184" t="s">
         <v>965</v>
@@ -13303,21 +13509,21 @@
       </c>
       <c r="F184"/>
       <c r="G184" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H184" t="n">
-        <v>85795583</v>
+        <v>85799603</v>
       </c>
       <c r="I184" t="n">
-        <v>873.96</v>
+        <v>874</v>
       </c>
       <c r="J184"/>
       <c r="K184"/>
       <c r="L184" t="n">
-        <v>5382</v>
+        <v>1498</v>
       </c>
       <c r="M184" t="n">
-        <v>0.055</v>
+        <v>0.015</v>
       </c>
       <c r="N184"/>
       <c r="O184"/>
@@ -13466,8 +13672,12 @@
       <c r="M187" t="n">
         <v>0.115</v>
       </c>
-      <c r="N187"/>
-      <c r="O187"/>
+      <c r="N187" t="n">
+        <v>0.0517</v>
+      </c>
+      <c r="O187" t="n">
+        <v>19.3</v>
+      </c>
       <c r="P187" t="s">
         <v>979</v>
       </c>
@@ -13489,7 +13699,7 @@
         <v>982</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>44679</v>
+        <v>44682</v>
       </c>
       <c r="D188" t="s">
         <v>35</v>
@@ -13499,24 +13709,28 @@
       </c>
       <c r="F188"/>
       <c r="G188" t="n">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H188" t="n">
-        <v>2248962</v>
+        <v>2251091</v>
       </c>
       <c r="I188" t="n">
-        <v>149.015</v>
+        <v>149.156</v>
       </c>
       <c r="J188"/>
       <c r="K188"/>
       <c r="L188" t="n">
-        <v>2493</v>
+        <v>2048</v>
       </c>
       <c r="M188" t="n">
-        <v>0.165</v>
-      </c>
-      <c r="N188"/>
-      <c r="O188"/>
+        <v>0.136</v>
+      </c>
+      <c r="N188" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="O188" t="n">
+        <v>37</v>
+      </c>
       <c r="P188" t="s">
         <v>36</v>
       </c>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -101,7 +101,7 @@
     <t xml:space="preserve">Albania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-1249-testime-67-qytetare-te-infektuar-asnje-humbje-jete-dhe-38-te-sheruar-ne-24-oret-e-fundit/</t>
+    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-642-testime-20-qytetare-te-infektuar-asnje-humbje-jete-dhe-85-te-sheruar-ne-24-oret-e-fundit/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Protection</t>
@@ -307,7 +307,7 @@
     <t xml:space="preserve">Bahamas - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bahamas.gov.bs/wps/wcm/connect/1f192a6a-08f7-454f-8a5d-c5e936d4cf07/Update+%23762+-+Ministry+of+Health+%26+Wellness+-+COVID-19+Report+%2816%29.pdf?MOD=AJPERES</t>
+    <t xml:space="preserve">https://www.bahamas.gov.bs/wps/wcm/connect/09c2ec36-0d22-4dd4-b790-7d5cf2edddd7/Update+%23767+-+Ministry+of+Health+%26+Wellness+-+COVID-19+Report+%2819%29.pdf?MOD=AJPERES</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Wellness</t>
@@ -644,7 +644,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-27-de-abril-de-2022/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-04-de-maio-de-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -699,10 +699,10 @@
     <t xml:space="preserve">China - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.gov.cn/xinwen/2020-08/06/content_5532720.htm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Health Commission</t>
+    <t xml:space="preserve">https://www.ccdi.gov.cn/yaowenn/202204/t20220411_185407.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Commission for Discipline Inspection</t>
   </si>
   <si>
     <t xml:space="preserve">National Health Commission of the People's Republic of China</t>
@@ -836,7 +836,7 @@
     <t xml:space="preserve">Curacao - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MinistryofHealthCuracao/posts/3114958468755501</t>
+    <t xml:space="preserve">https://www.facebook.com/MinistryofHealthCuracao/posts/3121954024722612</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health Curacao</t>
@@ -944,7 +944,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://coronavirusrd.gob.do/wp-content/uploads/2022/04/Boletin-especial-766-COVID-19.pdf</t>
+    <t xml:space="preserve">https://coronavirusrd.gob.do/wp-content/uploads/2022/05/Boletin-especial-772-COVID-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -1109,7 +1109,7 @@
     <t xml:space="preserve">Fiji - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.fj/28-04-2022/</t>
+    <t xml:space="preserve">https://www.health.gov.fj/05-05-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Fiji Ministry of Health &amp; Medical Services</t>
@@ -1292,7 +1292,7 @@
     <t xml:space="preserve">Grenada - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/gisgrenada/posts/299548652366888</t>
+    <t xml:space="preserve">https://www.facebook.com/gisgrenada/posts/304574251864328</t>
   </si>
   <si>
     <t xml:space="preserve">Government Information Service of Grenada</t>
@@ -1391,7 +1391,7 @@
     <t xml:space="preserve">Haiti - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://mspp.gouv.ht/site/downloads/Sitrep COVID-19_20-04-2022.pdf</t>
+    <t xml:space="preserve">https://mspp.gouv.ht/site/downloads/Sitrep COVID-19_28-04-2022.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Population</t>
@@ -1517,7 +1517,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://irangov.ir/detail/385534</t>
+    <t xml:space="preserve">https://irangov.ir/detail/385779</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Medical Education</t>
@@ -1615,7 +1615,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-wednesday-april-27-2022/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-tuesday-may-3-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -2156,7 +2156,7 @@
     <t xml:space="preserve">Nepal - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.mohp.gov.np/covid/englishSituationReport/626fac1a7960a_SitRep813_COVID-19_02-05-2022_EN.pdf</t>
+    <t xml:space="preserve">https://covid19.mohp.gov.np/covid/englishSituationReport/6273a41cd5124_SitRep816_COVID-19_05-05-2022_EN.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -2258,7 +2258,7 @@
     <t xml:space="preserve">North Macedonia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://koronavirus.gov.mk/vesti/224084</t>
+    <t xml:space="preserve">https://koronavirus.gov.mk/vesti/224104</t>
   </si>
   <si>
     <t xml:space="preserve">https://koronavirus.gov.mk/stat</t>
@@ -2363,7 +2363,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1519805695390060545</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1521985325094129665</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -2542,7 +2542,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=21415</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=21434</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2634,7 +2634,7 @@
     <t xml:space="preserve">Sao Tome and Principe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MSaudeSTeP/posts/179116491138316</t>
+    <t xml:space="preserve">https://www.facebook.com/MSaudeSTeP/posts/180696757646956</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.facebook.com/MSaudeSTeP/</t>
@@ -3229,7 +3229,7 @@
     <t xml:space="preserve">Vietnam - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.gov.vn/ngay-1-5-chi-con-3717-ca-covid-19-giam-xuong-thap-nhat-trong-khoang-270-ngay-qua-171220501193717993.htm</t>
+    <t xml:space="preserve">https://covid19.gov.vn/ngay-4-5-co-3088-ca-covid-19-so-khoi-benh-gap-14-lan-f0-mac-moi-171220504193910117.htm</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health of Vietnam</t>
@@ -3754,7 +3754,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>44678</v>
+        <v>44685</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
@@ -3764,31 +3764,31 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H3" t="n">
-        <v>1605530</v>
+        <v>1606172</v>
       </c>
       <c r="I3" t="n">
-        <v>558.847</v>
+        <v>559.07</v>
       </c>
       <c r="J3" t="n">
-        <v>1249</v>
+        <v>642</v>
       </c>
       <c r="K3" t="n">
-        <v>0.435</v>
+        <v>0.223</v>
       </c>
       <c r="L3" t="n">
-        <v>178</v>
+        <v>92</v>
       </c>
       <c r="M3" t="n">
-        <v>0.062</v>
+        <v>0.032</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2592</v>
+        <v>0.4379</v>
       </c>
       <c r="O3" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="P3" t="s">
         <v>30</v>
@@ -4125,7 +4125,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44682</v>
+        <v>44684</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
@@ -4135,31 +4135,31 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H10" t="n">
-        <v>3057058</v>
+        <v>3060433</v>
       </c>
       <c r="I10" t="n">
-        <v>1029.962</v>
+        <v>1031.099</v>
       </c>
       <c r="J10" t="n">
-        <v>2064</v>
+        <v>1630</v>
       </c>
       <c r="K10" t="n">
-        <v>0.695</v>
+        <v>0.549</v>
       </c>
       <c r="L10" t="n">
-        <v>2667</v>
+        <v>2375</v>
       </c>
       <c r="M10" t="n">
-        <v>0.899</v>
+        <v>0.8</v>
       </c>
       <c r="N10" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="O10" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="P10" t="s">
         <v>53</v>
@@ -4182,7 +4182,7 @@
         <v>73</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44683</v>
+        <v>44686</v>
       </c>
       <c r="D11" t="s">
         <v>74</v>
@@ -4194,28 +4194,32 @@
         <v>76</v>
       </c>
       <c r="G11" t="n">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="H11" t="n">
-        <v>69472088</v>
+        <v>69731892</v>
       </c>
       <c r="I11" t="n">
-        <v>2693.947</v>
+        <v>2704.021</v>
       </c>
       <c r="J11" t="n">
-        <v>55518</v>
+        <v>98474</v>
       </c>
       <c r="K11" t="n">
-        <v>2.153</v>
+        <v>3.819</v>
       </c>
       <c r="L11" t="n">
-        <v>76567</v>
+        <v>79909</v>
       </c>
       <c r="M11" t="n">
-        <v>2.969</v>
-      </c>
-      <c r="N11"/>
-      <c r="O11"/>
+        <v>3.099</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="O11" t="n">
+        <v>5</v>
+      </c>
       <c r="P11" t="s">
         <v>75</v>
       </c>
@@ -4237,7 +4241,7 @@
         <v>80</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44682</v>
+        <v>44686</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -4247,32 +4251,28 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="H12" t="n">
-        <v>183086157</v>
+        <v>183682889</v>
       </c>
       <c r="I12" t="n">
-        <v>20246.013</v>
+        <v>20312.001</v>
       </c>
       <c r="J12" t="n">
-        <v>83714</v>
+        <v>160209</v>
       </c>
       <c r="K12" t="n">
-        <v>9.257</v>
+        <v>17.716</v>
       </c>
       <c r="L12" t="n">
-        <v>180060</v>
+        <v>155235</v>
       </c>
       <c r="M12" t="n">
-        <v>19.911</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.0318</v>
-      </c>
-      <c r="O12" t="n">
-        <v>31.5</v>
-      </c>
+        <v>17.166</v>
+      </c>
+      <c r="N12"/>
+      <c r="O12"/>
       <c r="P12" t="s">
         <v>82</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>85</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="D13" t="s">
         <v>86</v>
@@ -4304,27 +4304,27 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H13" t="n">
-        <v>6817342</v>
+        <v>6826926</v>
       </c>
       <c r="I13" t="n">
-        <v>666.841</v>
+        <v>667.778</v>
       </c>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13" t="n">
-        <v>3199</v>
+        <v>3197</v>
       </c>
       <c r="M13" t="n">
         <v>0.313</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0048</v>
+        <v>0.004</v>
       </c>
       <c r="O13" t="n">
-        <v>209.3</v>
+        <v>251.5</v>
       </c>
       <c r="P13" t="s">
         <v>87</v>
@@ -4347,7 +4347,7 @@
         <v>90</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44678</v>
+        <v>44683</v>
       </c>
       <c r="D14" t="s">
         <v>91</v>
@@ -4357,27 +4357,27 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H14" t="n">
-        <v>231261</v>
+        <v>231838</v>
       </c>
       <c r="I14" t="n">
-        <v>582.648</v>
+        <v>584.101</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14" t="n">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="M14" t="n">
-        <v>0.31</v>
+        <v>0.297</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1045</v>
+        <v>0.1138</v>
       </c>
       <c r="O14" t="n">
-        <v>9.6</v>
+        <v>8.8</v>
       </c>
       <c r="P14" t="s">
         <v>93</v>
@@ -4400,7 +4400,7 @@
         <v>97</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44683</v>
+        <v>44686</v>
       </c>
       <c r="D15" t="s">
         <v>98</v>
@@ -4410,21 +4410,21 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H15" t="n">
-        <v>9724966</v>
+        <v>9733630</v>
       </c>
       <c r="I15" t="n">
-        <v>5562.543</v>
+        <v>5567.499</v>
       </c>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15" t="n">
-        <v>3593</v>
+        <v>3124</v>
       </c>
       <c r="M15" t="n">
-        <v>2.055</v>
+        <v>1.787</v>
       </c>
       <c r="N15"/>
       <c r="O15"/>
@@ -4449,7 +4449,7 @@
         <v>104</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>44682</v>
+        <v>44686</v>
       </c>
       <c r="D16" t="s">
         <v>105</v>
@@ -4459,32 +4459,28 @@
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H16" t="n">
-        <v>13740592</v>
+        <v>13742804</v>
       </c>
       <c r="I16" t="n">
-        <v>82.624</v>
+        <v>82.637</v>
       </c>
       <c r="J16" t="n">
-        <v>2938</v>
+        <v>2212</v>
       </c>
       <c r="K16" t="n">
-        <v>0.018</v>
+        <v>0.013</v>
       </c>
       <c r="L16" t="n">
-        <v>1124</v>
+        <v>736</v>
       </c>
       <c r="M16" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.0203</v>
-      </c>
-      <c r="O16" t="n">
-        <v>49.2</v>
-      </c>
+        <v>0.004</v>
+      </c>
+      <c r="N16"/>
+      <c r="O16"/>
       <c r="P16" t="s">
         <v>106</v>
       </c>
@@ -4559,7 +4555,7 @@
         <v>114</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44681</v>
+        <v>44686</v>
       </c>
       <c r="D18" t="s">
         <v>115</v>
@@ -4569,32 +4565,24 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H18" t="n">
-        <v>13157373</v>
+        <v>13180098</v>
       </c>
       <c r="I18" t="n">
-        <v>1393.366</v>
-      </c>
-      <c r="J18" t="n">
-        <v>9650</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1.022</v>
-      </c>
+        <v>1395.773</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18"/>
       <c r="L18" t="n">
-        <v>9191</v>
+        <v>5901</v>
       </c>
       <c r="M18" t="n">
-        <v>0.973</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.0452</v>
-      </c>
-      <c r="O18" t="n">
-        <v>22.1</v>
-      </c>
+        <v>0.625</v>
+      </c>
+      <c r="N18"/>
+      <c r="O18"/>
       <c r="P18" t="s">
         <v>117</v>
       </c>
@@ -4616,7 +4604,7 @@
         <v>121</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>44678</v>
+        <v>44682</v>
       </c>
       <c r="D19" t="s">
         <v>122</v>
@@ -4626,31 +4614,31 @@
       </c>
       <c r="F19"/>
       <c r="G19" t="n">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="H19" t="n">
-        <v>33578074</v>
+        <v>33642749</v>
       </c>
       <c r="I19" t="n">
-        <v>2886.615</v>
+        <v>2892.175</v>
       </c>
       <c r="J19" t="n">
-        <v>18987</v>
+        <v>7853</v>
       </c>
       <c r="K19" t="n">
-        <v>1.632</v>
+        <v>0.675</v>
       </c>
       <c r="L19" t="n">
-        <v>20035</v>
+        <v>19095</v>
       </c>
       <c r="M19" t="n">
-        <v>1.722</v>
+        <v>1.642</v>
       </c>
       <c r="N19" t="n">
-        <v>0.288</v>
+        <v>0.267</v>
       </c>
       <c r="O19" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="P19" t="s">
         <v>124</v>
@@ -5046,7 +5034,7 @@
         <v>165</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="D27" t="s">
         <v>166</v>
@@ -5056,27 +5044,27 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H27" t="n">
-        <v>9851635</v>
+        <v>9871453</v>
       </c>
       <c r="I27" t="n">
-        <v>1428.466</v>
+        <v>1431.339</v>
       </c>
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27" t="n">
-        <v>7512</v>
+        <v>6565</v>
       </c>
       <c r="M27" t="n">
-        <v>1.089</v>
+        <v>0.952</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0731</v>
+        <v>0.0646</v>
       </c>
       <c r="O27" t="n">
-        <v>13.7</v>
+        <v>15.5</v>
       </c>
       <c r="P27" t="s">
         <v>168</v>
@@ -5229,8 +5217,12 @@
       <c r="M30" t="n">
         <v>0.038</v>
       </c>
-      <c r="N30"/>
-      <c r="O30"/>
+      <c r="N30" t="n">
+        <v>0.0057</v>
+      </c>
+      <c r="O30" t="n">
+        <v>174.5</v>
+      </c>
       <c r="P30" t="s">
         <v>180</v>
       </c>
@@ -5360,7 +5352,7 @@
         <v>192</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44676</v>
+        <v>44684</v>
       </c>
       <c r="D33" t="s">
         <v>193</v>
@@ -5370,15 +5362,15 @@
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33" t="n">
-        <v>336</v>
+        <v>243</v>
       </c>
       <c r="K33" t="n">
-        <v>0.598</v>
+        <v>0.432</v>
       </c>
       <c r="L33"/>
       <c r="M33"/>
@@ -5456,7 +5448,7 @@
         <v>201</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44679</v>
+        <v>44685</v>
       </c>
       <c r="D35" t="s">
         <v>35</v>
@@ -5466,27 +5458,27 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H35" t="n">
-        <v>214107</v>
+        <v>214802</v>
       </c>
       <c r="I35" t="n">
-        <v>12.658</v>
+        <v>12.699</v>
       </c>
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35" t="n">
-        <v>211</v>
+        <v>132</v>
       </c>
       <c r="M35" t="n">
-        <v>0.012</v>
+        <v>0.008</v>
       </c>
       <c r="N35" t="n">
-        <v>0.0102</v>
+        <v>0.0011</v>
       </c>
       <c r="O35" t="n">
-        <v>98.5</v>
+        <v>923.1</v>
       </c>
       <c r="P35" t="s">
         <v>36</v>
@@ -5509,7 +5501,7 @@
         <v>204</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="D36" t="s">
         <v>205</v>
@@ -5519,31 +5511,31 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="H36" t="n">
-        <v>36808974</v>
+        <v>36912065</v>
       </c>
       <c r="I36" t="n">
-        <v>1915.901</v>
+        <v>1921.266</v>
       </c>
       <c r="J36" t="n">
-        <v>48384</v>
+        <v>47646</v>
       </c>
       <c r="K36" t="n">
-        <v>2.518</v>
+        <v>2.48</v>
       </c>
       <c r="L36" t="n">
-        <v>42142</v>
+        <v>42420</v>
       </c>
       <c r="M36" t="n">
-        <v>2.193</v>
+        <v>2.208</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0492</v>
+        <v>0.0498</v>
       </c>
       <c r="O36" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="P36" t="s">
         <v>206</v>
@@ -5566,7 +5558,7 @@
         <v>209</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>44049</v>
+        <v>44662</v>
       </c>
       <c r="D37" t="s">
         <v>210</v>
@@ -5576,27 +5568,27 @@
       </c>
       <c r="F37"/>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
-        <v>160000000</v>
+        <v>9214000000</v>
       </c>
       <c r="I37" t="n">
-        <v>110.787</v>
+        <v>6379.932</v>
       </c>
       <c r="J37"/>
       <c r="K37"/>
       <c r="L37" t="n">
-        <v>1627907</v>
+        <v>14769984</v>
       </c>
       <c r="M37" t="n">
-        <v>1.127</v>
+        <v>10.227</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="O37" t="n">
-        <v>32651.5</v>
+        <v>619.5</v>
       </c>
       <c r="P37" t="s">
         <v>212</v>
@@ -5829,7 +5821,7 @@
         <v>233</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="D42" t="s">
         <v>35</v>
@@ -5839,27 +5831,27 @@
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H42" t="n">
-        <v>1500074</v>
+        <v>1502805</v>
       </c>
       <c r="I42" t="n">
-        <v>55.448</v>
+        <v>55.549</v>
       </c>
       <c r="J42"/>
       <c r="K42"/>
       <c r="L42" t="n">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="M42" t="n">
-        <v>0.029</v>
+        <v>0.028</v>
       </c>
       <c r="N42" t="n">
-        <v>0.0128</v>
+        <v>0.01</v>
       </c>
       <c r="O42" t="n">
-        <v>77.9</v>
+        <v>99.9</v>
       </c>
       <c r="P42" t="s">
         <v>36</v>
@@ -5882,7 +5874,7 @@
         <v>236</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44683</v>
+        <v>44686</v>
       </c>
       <c r="D43" t="s">
         <v>237</v>
@@ -5892,21 +5884,21 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H43" t="n">
-        <v>4790822</v>
+        <v>4804096</v>
       </c>
       <c r="I43" t="n">
-        <v>1173.744</v>
+        <v>1176.996</v>
       </c>
       <c r="J43"/>
       <c r="K43"/>
       <c r="L43" t="n">
-        <v>3498</v>
+        <v>3526</v>
       </c>
       <c r="M43" t="n">
-        <v>0.857</v>
+        <v>0.864</v>
       </c>
       <c r="N43"/>
       <c r="O43"/>
@@ -5990,7 +5982,7 @@
         <v>249</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>44674</v>
+        <v>44680</v>
       </c>
       <c r="D45" t="s">
         <v>250</v>
@@ -6000,31 +5992,31 @@
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H45" t="n">
-        <v>10934</v>
+        <v>13347</v>
       </c>
       <c r="I45" t="n">
-        <v>66.349</v>
+        <v>80.991</v>
       </c>
       <c r="J45" t="n">
-        <v>2598</v>
+        <v>2413</v>
       </c>
       <c r="K45" t="n">
-        <v>15.765</v>
+        <v>14.642</v>
       </c>
       <c r="L45" t="n">
-        <v>325</v>
+        <v>391</v>
       </c>
       <c r="M45" t="n">
-        <v>1.972</v>
+        <v>2.373</v>
       </c>
       <c r="N45" t="n">
-        <v>0.138</v>
+        <v>0.1871</v>
       </c>
       <c r="O45" t="n">
-        <v>7.2</v>
+        <v>5.3</v>
       </c>
       <c r="P45" t="s">
         <v>53</v>
@@ -6104,7 +6096,7 @@
         <v>259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="D47" t="s">
         <v>260</v>
@@ -6114,31 +6106,31 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="H47" t="n">
-        <v>54296241</v>
+        <v>54336121</v>
       </c>
       <c r="I47" t="n">
-        <v>5062.798</v>
+        <v>5066.516</v>
       </c>
       <c r="J47" t="n">
-        <v>4366</v>
+        <v>10947</v>
       </c>
       <c r="K47" t="n">
-        <v>0.407</v>
+        <v>1.021</v>
       </c>
       <c r="L47" t="n">
-        <v>12463</v>
+        <v>11185</v>
       </c>
       <c r="M47" t="n">
-        <v>1.162</v>
+        <v>1.043</v>
       </c>
       <c r="N47" t="n">
-        <v>0.114</v>
+        <v>0.105</v>
       </c>
       <c r="O47" t="n">
-        <v>8.8</v>
+        <v>9.5</v>
       </c>
       <c r="P47" t="s">
         <v>53</v>
@@ -6214,7 +6206,7 @@
         <v>269</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>44679</v>
+        <v>44685</v>
       </c>
       <c r="D49" t="s">
         <v>270</v>
@@ -6224,31 +6216,31 @@
       </c>
       <c r="F49"/>
       <c r="G49" t="n">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="H49" t="n">
-        <v>67067363</v>
+        <v>67134292</v>
       </c>
       <c r="I49" t="n">
-        <v>11536.879</v>
+        <v>11548.392</v>
       </c>
       <c r="J49" t="n">
-        <v>10404</v>
+        <v>9399</v>
       </c>
       <c r="K49" t="n">
-        <v>1.79</v>
+        <v>1.617</v>
       </c>
       <c r="L49" t="n">
-        <v>12720</v>
+        <v>11033</v>
       </c>
       <c r="M49" t="n">
-        <v>2.188</v>
+        <v>1.898</v>
       </c>
       <c r="N49" t="n">
-        <v>0.0983</v>
+        <v>0.0825</v>
       </c>
       <c r="O49" t="n">
-        <v>10.2</v>
+        <v>12.1</v>
       </c>
       <c r="P49" t="s">
         <v>271</v>
@@ -6377,7 +6369,7 @@
         <v>283</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44675</v>
+        <v>44681</v>
       </c>
       <c r="D52" t="s">
         <v>284</v>
@@ -6387,27 +6379,27 @@
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="H52" t="n">
-        <v>3265645</v>
+        <v>3279736</v>
       </c>
       <c r="I52" t="n">
-        <v>298.131</v>
+        <v>299.418</v>
       </c>
       <c r="J52"/>
       <c r="K52"/>
       <c r="L52" t="n">
-        <v>1485</v>
+        <v>2209</v>
       </c>
       <c r="M52" t="n">
-        <v>0.136</v>
+        <v>0.202</v>
       </c>
       <c r="N52" t="n">
-        <v>0.0367</v>
+        <v>0.019</v>
       </c>
       <c r="O52" t="n">
-        <v>27.3</v>
+        <v>52.6</v>
       </c>
       <c r="P52" t="s">
         <v>285</v>
@@ -6430,7 +6422,7 @@
         <v>289</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44678</v>
+        <v>44683</v>
       </c>
       <c r="D53" t="s">
         <v>290</v>
@@ -6442,31 +6434,31 @@
         <v>292</v>
       </c>
       <c r="G53" t="n">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="H53" t="n">
-        <v>2720826</v>
+        <v>2728366</v>
       </c>
       <c r="I53" t="n">
-        <v>152.099</v>
+        <v>152.521</v>
       </c>
       <c r="J53" t="n">
-        <v>2731</v>
+        <v>549</v>
       </c>
       <c r="K53" t="n">
-        <v>0.153</v>
+        <v>0.031</v>
       </c>
       <c r="L53" t="n">
-        <v>2138</v>
+        <v>1819</v>
       </c>
       <c r="M53" t="n">
-        <v>0.12</v>
+        <v>0.102</v>
       </c>
       <c r="N53" t="n">
-        <v>0.094</v>
+        <v>0.109</v>
       </c>
       <c r="O53" t="n">
-        <v>10.6</v>
+        <v>9.2</v>
       </c>
       <c r="P53" t="s">
         <v>293</v>
@@ -6597,7 +6589,7 @@
         <v>305</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44673</v>
+        <v>44686</v>
       </c>
       <c r="D56" t="s">
         <v>306</v>
@@ -6607,28 +6599,24 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H56" t="n">
-        <v>476752</v>
+        <v>479991</v>
       </c>
       <c r="I56" t="n">
-        <v>328.819</v>
+        <v>331.053</v>
       </c>
       <c r="J56"/>
       <c r="K56"/>
       <c r="L56" t="n">
-        <v>159</v>
+        <v>249</v>
       </c>
       <c r="M56" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0.0009</v>
-      </c>
-      <c r="O56" t="n">
-        <v>1111.9</v>
-      </c>
+        <v>0.172</v>
+      </c>
+      <c r="N56"/>
+      <c r="O56"/>
       <c r="P56" t="s">
         <v>36</v>
       </c>
@@ -6695,7 +6683,7 @@
         <v>313</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44680</v>
+        <v>44683</v>
       </c>
       <c r="D58" t="s">
         <v>314</v>
@@ -6705,31 +6693,31 @@
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="H58" t="n">
-        <v>3345343</v>
+        <v>3353041</v>
       </c>
       <c r="I58" t="n">
-        <v>2524.429</v>
+        <v>2530.238</v>
       </c>
       <c r="J58" t="n">
-        <v>2182</v>
+        <v>4634</v>
       </c>
       <c r="K58" t="n">
-        <v>1.647</v>
+        <v>3.497</v>
       </c>
       <c r="L58" t="n">
-        <v>2349</v>
+        <v>2489</v>
       </c>
       <c r="M58" t="n">
-        <v>1.773</v>
+        <v>1.878</v>
       </c>
       <c r="N58" t="n">
-        <v>0.1335</v>
+        <v>0.1026</v>
       </c>
       <c r="O58" t="n">
-        <v>7.5</v>
+        <v>9.7</v>
       </c>
       <c r="P58" t="s">
         <v>315</v>
@@ -6752,7 +6740,7 @@
         <v>318</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="D59" t="s">
         <v>35</v>
@@ -6762,27 +6750,27 @@
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H59" t="n">
-        <v>531002</v>
+        <v>532024</v>
       </c>
       <c r="I59" t="n">
-        <v>452.931</v>
+        <v>453.803</v>
       </c>
       <c r="J59"/>
       <c r="K59"/>
       <c r="L59" t="n">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="M59" t="n">
-        <v>0.343</v>
+        <v>0.338</v>
       </c>
       <c r="N59" t="n">
-        <v>0.129</v>
+        <v>0.136</v>
       </c>
       <c r="O59" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="P59" t="s">
         <v>36</v>
@@ -6805,7 +6793,7 @@
         <v>321</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="D60" t="s">
         <v>35</v>
@@ -6815,27 +6803,27 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H60" t="n">
-        <v>4789701</v>
+        <v>4796596</v>
       </c>
       <c r="I60" t="n">
-        <v>40.633</v>
+        <v>40.692</v>
       </c>
       <c r="J60"/>
       <c r="K60"/>
       <c r="L60" t="n">
-        <v>3706</v>
+        <v>3256</v>
       </c>
       <c r="M60" t="n">
-        <v>0.031</v>
+        <v>0.028</v>
       </c>
       <c r="N60" t="n">
-        <v>0.0057</v>
+        <v>0.0068</v>
       </c>
       <c r="O60" t="n">
-        <v>176.5</v>
+        <v>147</v>
       </c>
       <c r="P60" t="s">
         <v>322</v>
@@ -6911,7 +6899,7 @@
         <v>333</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44678</v>
+        <v>44685</v>
       </c>
       <c r="D62" t="s">
         <v>334</v>
@@ -6921,27 +6909,27 @@
       </c>
       <c r="F62"/>
       <c r="G62" t="n">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H62" t="n">
-        <v>507722</v>
+        <v>508406</v>
       </c>
       <c r="I62" t="n">
-        <v>562.324</v>
+        <v>563.082</v>
       </c>
       <c r="J62"/>
       <c r="K62"/>
       <c r="L62" t="n">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="M62" t="n">
-        <v>0.161</v>
+        <v>0.109</v>
       </c>
       <c r="N62" t="n">
-        <v>0.0108</v>
+        <v>0.1618</v>
       </c>
       <c r="O62" t="n">
-        <v>92.3</v>
+        <v>6.2</v>
       </c>
       <c r="P62" t="s">
         <v>335</v>
@@ -6964,7 +6952,7 @@
         <v>339</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44677</v>
+        <v>44684</v>
       </c>
       <c r="D63" t="s">
         <v>340</v>
@@ -6974,28 +6962,28 @@
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="H63" t="n">
-        <v>10719960</v>
+        <v>10773318</v>
       </c>
       <c r="I63" t="n">
-        <v>1932.095</v>
+        <v>1941.712</v>
       </c>
       <c r="J63" t="n">
-        <v>9476</v>
+        <v>7543</v>
       </c>
       <c r="K63" t="n">
-        <v>1.708</v>
+        <v>1.36</v>
       </c>
       <c r="L63" t="n">
-        <v>8857</v>
+        <v>6794</v>
       </c>
       <c r="M63" t="n">
-        <v>1.596</v>
+        <v>1.225</v>
       </c>
       <c r="N63" t="n">
-        <v>0.344</v>
+        <v>0.349</v>
       </c>
       <c r="O63" t="n">
         <v>2.9</v>
@@ -7021,7 +7009,7 @@
         <v>346</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44679</v>
+        <v>44681</v>
       </c>
       <c r="D64" t="s">
         <v>347</v>
@@ -7031,25 +7019,25 @@
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="H64" t="n">
-        <v>269250591</v>
+        <v>269682746</v>
       </c>
       <c r="I64" t="n">
-        <v>3993.512</v>
+        <v>3999.922</v>
       </c>
       <c r="J64" t="n">
-        <v>233767</v>
+        <v>194665</v>
       </c>
       <c r="K64" t="n">
-        <v>3.467</v>
+        <v>2.887</v>
       </c>
       <c r="L64" t="n">
-        <v>257709</v>
+        <v>238012</v>
       </c>
       <c r="M64" t="n">
-        <v>3.822</v>
+        <v>3.53</v>
       </c>
       <c r="N64"/>
       <c r="O64"/>
@@ -7290,7 +7278,7 @@
         <v>372</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="D69" t="s">
         <v>35</v>
@@ -7300,27 +7288,27 @@
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H69" t="n">
-        <v>2435846</v>
+        <v>2438498</v>
       </c>
       <c r="I69" t="n">
-        <v>76.763</v>
+        <v>76.846</v>
       </c>
       <c r="J69"/>
       <c r="K69"/>
       <c r="L69" t="n">
-        <v>372</v>
+        <v>528</v>
       </c>
       <c r="M69" t="n">
-        <v>0.012</v>
+        <v>0.017</v>
       </c>
       <c r="N69" t="n">
-        <v>0.0307</v>
+        <v>0.0124</v>
       </c>
       <c r="O69" t="n">
-        <v>32.5</v>
+        <v>80.4</v>
       </c>
       <c r="P69" t="s">
         <v>36</v>
@@ -7396,7 +7384,7 @@
         <v>380</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44682</v>
+        <v>44686</v>
       </c>
       <c r="D71" t="s">
         <v>381</v>
@@ -7406,28 +7394,24 @@
       </c>
       <c r="F71"/>
       <c r="G71" t="n">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H71" t="n">
-        <v>79914290</v>
+        <v>80328232</v>
       </c>
       <c r="I71" t="n">
-        <v>7705.741</v>
+        <v>7745.655</v>
       </c>
       <c r="J71"/>
       <c r="K71"/>
       <c r="L71" t="n">
-        <v>130056</v>
+        <v>114130</v>
       </c>
       <c r="M71" t="n">
-        <v>12.541</v>
-      </c>
-      <c r="N71" t="n">
-        <v>0.0561</v>
-      </c>
-      <c r="O71" t="n">
-        <v>17.8</v>
-      </c>
+        <v>11.005</v>
+      </c>
+      <c r="N71"/>
+      <c r="O71"/>
       <c r="P71" t="s">
         <v>383</v>
       </c>
@@ -7449,7 +7433,7 @@
         <v>387</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>44678</v>
+        <v>44685</v>
       </c>
       <c r="D72" t="s">
         <v>388</v>
@@ -7459,27 +7443,31 @@
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H72" t="n">
-        <v>149943</v>
+        <v>152457</v>
       </c>
       <c r="I72" t="n">
-        <v>1326.753</v>
-      </c>
-      <c r="J72"/>
-      <c r="K72"/>
+        <v>1348.998</v>
+      </c>
+      <c r="J72" t="n">
+        <v>723</v>
+      </c>
+      <c r="K72" t="n">
+        <v>6.397</v>
+      </c>
       <c r="L72" t="n">
-        <v>280</v>
+        <v>359</v>
       </c>
       <c r="M72" t="n">
-        <v>2.478</v>
+        <v>3.177</v>
       </c>
       <c r="N72" t="n">
-        <v>0.1184</v>
+        <v>0.185</v>
       </c>
       <c r="O72" t="n">
-        <v>8.4</v>
+        <v>5.4</v>
       </c>
       <c r="P72" t="s">
         <v>389</v>
@@ -7502,7 +7490,7 @@
         <v>393</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44678</v>
+        <v>44681</v>
       </c>
       <c r="D73" t="s">
         <v>394</v>
@@ -7512,31 +7500,31 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="H73" t="n">
-        <v>287295</v>
+        <v>288336</v>
       </c>
       <c r="I73" t="n">
-        <v>1688.143</v>
+        <v>1694.26</v>
       </c>
       <c r="J73" t="n">
-        <v>376</v>
+        <v>222</v>
       </c>
       <c r="K73" t="n">
-        <v>2.209</v>
+        <v>1.304</v>
       </c>
       <c r="L73" t="n">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="M73" t="n">
-        <v>1.545</v>
+        <v>1.827</v>
       </c>
       <c r="N73" t="n">
-        <v>0.075</v>
+        <v>0.07</v>
       </c>
       <c r="O73" t="n">
-        <v>13.3</v>
+        <v>14.3</v>
       </c>
       <c r="P73" t="s">
         <v>395</v>
@@ -7775,7 +7763,7 @@
         <v>418</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>44671</v>
+        <v>44679</v>
       </c>
       <c r="D78" t="s">
         <v>419</v>
@@ -7785,27 +7773,27 @@
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H78" t="n">
-        <v>195388</v>
+        <v>196826</v>
       </c>
       <c r="I78" t="n">
-        <v>16.929</v>
+        <v>17.053</v>
       </c>
       <c r="J78"/>
       <c r="K78"/>
       <c r="L78" t="n">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02</v>
+        <v>0.016</v>
       </c>
       <c r="N78" t="n">
-        <v>0.0182</v>
+        <v>0.0317</v>
       </c>
       <c r="O78" t="n">
-        <v>55</v>
+        <v>31.5</v>
       </c>
       <c r="P78" t="s">
         <v>421</v>
@@ -7913,8 +7901,12 @@
       <c r="M80" t="n">
         <v>0.597</v>
       </c>
-      <c r="N80"/>
-      <c r="O80"/>
+      <c r="N80" t="n">
+        <v>0.2215</v>
+      </c>
+      <c r="O80" t="n">
+        <v>4.5</v>
+      </c>
       <c r="P80" t="s">
         <v>434</v>
       </c>
@@ -7936,7 +7928,7 @@
         <v>439</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>44679</v>
+        <v>44683</v>
       </c>
       <c r="D81" t="s">
         <v>440</v>
@@ -7946,31 +7938,31 @@
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="H81" t="n">
-        <v>1320932</v>
+        <v>1323043</v>
       </c>
       <c r="I81" t="n">
-        <v>3581.781</v>
+        <v>3587.505</v>
       </c>
       <c r="J81" t="n">
-        <v>743</v>
+        <v>355</v>
       </c>
       <c r="K81" t="n">
-        <v>2.015</v>
+        <v>0.963</v>
       </c>
       <c r="L81" t="n">
-        <v>728</v>
+        <v>564</v>
       </c>
       <c r="M81" t="n">
-        <v>1.974</v>
+        <v>1.529</v>
       </c>
       <c r="N81" t="n">
-        <v>0.08</v>
+        <v>0.089</v>
       </c>
       <c r="O81" t="n">
-        <v>12.5</v>
+        <v>11.2</v>
       </c>
       <c r="P81" t="s">
         <v>441</v>
@@ -7993,7 +7985,7 @@
         <v>444</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>44681</v>
+        <v>44686</v>
       </c>
       <c r="D82" t="s">
         <v>445</v>
@@ -8005,32 +7997,28 @@
         <v>447</v>
       </c>
       <c r="G82" t="n">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="H82" t="n">
-        <v>837442023</v>
+        <v>839379007</v>
       </c>
       <c r="I82" t="n">
-        <v>601.002</v>
+        <v>602.392</v>
       </c>
       <c r="J82" t="n">
-        <v>496640</v>
+        <v>423430</v>
       </c>
       <c r="K82" t="n">
-        <v>0.356</v>
+        <v>0.304</v>
       </c>
       <c r="L82" t="n">
-        <v>451550</v>
+        <v>415323</v>
       </c>
       <c r="M82" t="n">
-        <v>0.324</v>
-      </c>
-      <c r="N82" t="n">
-        <v>0.0068</v>
-      </c>
-      <c r="O82" t="n">
-        <v>146</v>
-      </c>
+        <v>0.298</v>
+      </c>
+      <c r="N82"/>
+      <c r="O82"/>
       <c r="P82" t="s">
         <v>446</v>
       </c>
@@ -8109,7 +8097,7 @@
         <v>456</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44681</v>
+        <v>44685</v>
       </c>
       <c r="D84" t="s">
         <v>457</v>
@@ -8119,27 +8107,27 @@
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H84" t="n">
-        <v>51116782</v>
+        <v>51307950</v>
       </c>
       <c r="I84" t="n">
-        <v>601.17</v>
+        <v>603.419</v>
       </c>
       <c r="J84"/>
       <c r="K84"/>
       <c r="L84" t="n">
-        <v>51256</v>
+        <v>49016</v>
       </c>
       <c r="M84" t="n">
-        <v>0.603</v>
+        <v>0.576</v>
       </c>
       <c r="N84" t="n">
-        <v>0.0171</v>
+        <v>0.0128</v>
       </c>
       <c r="O84" t="n">
-        <v>58.4</v>
+        <v>78.1</v>
       </c>
       <c r="P84" t="s">
         <v>459</v>
@@ -8215,7 +8203,7 @@
         <v>465</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44680</v>
+        <v>44686</v>
       </c>
       <c r="D86" t="s">
         <v>466</v>
@@ -8225,32 +8213,28 @@
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="H86" t="n">
-        <v>12063637</v>
+        <v>12096220</v>
       </c>
       <c r="I86" t="n">
-        <v>2421.005</v>
+        <v>2427.544</v>
       </c>
       <c r="J86" t="n">
-        <v>5643</v>
+        <v>6370</v>
       </c>
       <c r="K86" t="n">
-        <v>1.132</v>
+        <v>1.278</v>
       </c>
       <c r="L86" t="n">
-        <v>6514</v>
+        <v>5454</v>
       </c>
       <c r="M86" t="n">
-        <v>1.307</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0.1661</v>
-      </c>
-      <c r="O86" t="n">
-        <v>6</v>
-      </c>
+        <v>1.095</v>
+      </c>
+      <c r="N86"/>
+      <c r="O86"/>
       <c r="P86" t="s">
         <v>467</v>
       </c>
@@ -8272,7 +8256,7 @@
         <v>471</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44682</v>
+        <v>44684</v>
       </c>
       <c r="D87" t="s">
         <v>472</v>
@@ -8282,31 +8266,31 @@
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="H87" t="n">
-        <v>50154126</v>
+        <v>50272238</v>
       </c>
       <c r="I87" t="n">
-        <v>5398.141</v>
+        <v>5410.853</v>
       </c>
       <c r="J87" t="n">
-        <v>42826</v>
+        <v>49011</v>
       </c>
       <c r="K87" t="n">
-        <v>4.609</v>
+        <v>5.275</v>
       </c>
       <c r="L87" t="n">
-        <v>52031</v>
+        <v>49119</v>
       </c>
       <c r="M87" t="n">
-        <v>5.6</v>
+        <v>5.287</v>
       </c>
       <c r="N87" t="n">
-        <v>0.053</v>
+        <v>0.048</v>
       </c>
       <c r="O87" t="n">
-        <v>18.9</v>
+        <v>20.8</v>
       </c>
       <c r="P87" t="s">
         <v>53</v>
@@ -8329,7 +8313,7 @@
         <v>477</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44682</v>
+        <v>44686</v>
       </c>
       <c r="D88" t="s">
         <v>478</v>
@@ -8341,32 +8325,28 @@
         <v>480</v>
       </c>
       <c r="G88" t="n">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="H88" t="n">
-        <v>214061284</v>
+        <v>215257228</v>
       </c>
       <c r="I88" t="n">
-        <v>3545.971</v>
+        <v>3565.782</v>
       </c>
       <c r="J88" t="n">
-        <v>287601</v>
+        <v>327178</v>
       </c>
       <c r="K88" t="n">
-        <v>4.764</v>
+        <v>5.42</v>
       </c>
       <c r="L88" t="n">
-        <v>338492</v>
+        <v>321122</v>
       </c>
       <c r="M88" t="n">
-        <v>5.607</v>
-      </c>
-      <c r="N88" t="n">
-        <v>0.1556</v>
-      </c>
-      <c r="O88" t="n">
-        <v>6.4</v>
-      </c>
+        <v>5.319</v>
+      </c>
+      <c r="N88"/>
+      <c r="O88"/>
       <c r="P88" t="s">
         <v>481</v>
       </c>
@@ -8388,7 +8368,7 @@
         <v>485</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44678</v>
+        <v>44684</v>
       </c>
       <c r="D89" t="s">
         <v>486</v>
@@ -8398,27 +8378,31 @@
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="H89" t="n">
-        <v>993904</v>
+        <v>1008811</v>
       </c>
       <c r="I89" t="n">
-        <v>334.258</v>
-      </c>
-      <c r="J89"/>
-      <c r="K89"/>
+        <v>339.272</v>
+      </c>
+      <c r="J89" t="n">
+        <v>2463</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.828</v>
+      </c>
       <c r="L89" t="n">
-        <v>2591</v>
+        <v>2458</v>
       </c>
       <c r="M89" t="n">
-        <v>0.871</v>
+        <v>0.827</v>
       </c>
       <c r="N89" t="n">
-        <v>0.0221</v>
+        <v>0.0411</v>
       </c>
       <c r="O89" t="n">
-        <v>45.3</v>
+        <v>24.3</v>
       </c>
       <c r="P89" t="s">
         <v>487</v>
@@ -8441,7 +8425,7 @@
         <v>491</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="D90" t="s">
         <v>492</v>
@@ -8451,31 +8435,31 @@
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="H90" t="n">
-        <v>46822449</v>
+        <v>47095704</v>
       </c>
       <c r="I90" t="n">
-        <v>371.457</v>
+        <v>373.625</v>
       </c>
       <c r="J90" t="n">
-        <v>45549</v>
+        <v>92663</v>
       </c>
       <c r="K90" t="n">
-        <v>0.361</v>
+        <v>0.735</v>
       </c>
       <c r="L90" t="n">
-        <v>284343</v>
+        <v>84914</v>
       </c>
       <c r="M90" t="n">
-        <v>2.256</v>
+        <v>0.674</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1213</v>
+        <v>0.347</v>
       </c>
       <c r="O90" t="n">
-        <v>8.2</v>
+        <v>2.9</v>
       </c>
       <c r="P90" t="s">
         <v>493</v>
@@ -8608,7 +8592,7 @@
         <v>508</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="D93" t="s">
         <v>35</v>
@@ -8618,27 +8602,27 @@
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H93" t="n">
-        <v>3598809</v>
+        <v>3603531</v>
       </c>
       <c r="I93" t="n">
-        <v>65.45</v>
+        <v>65.536</v>
       </c>
       <c r="J93"/>
       <c r="K93"/>
       <c r="L93" t="n">
-        <v>2472</v>
+        <v>2372</v>
       </c>
       <c r="M93" t="n">
-        <v>0.045</v>
+        <v>0.043</v>
       </c>
       <c r="N93" t="n">
-        <v>0.0044</v>
+        <v>0.0049</v>
       </c>
       <c r="O93" t="n">
-        <v>224.7</v>
+        <v>202.5</v>
       </c>
       <c r="P93" t="s">
         <v>36</v>
@@ -8767,7 +8751,7 @@
         <v>523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>44680</v>
+        <v>44686</v>
       </c>
       <c r="D96" t="s">
         <v>524</v>
@@ -8777,25 +8761,25 @@
       </c>
       <c r="F96"/>
       <c r="G96" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H96" t="n">
-        <v>1022629</v>
+        <v>1024952</v>
       </c>
       <c r="I96" t="n">
-        <v>138.58</v>
+        <v>138.894</v>
       </c>
       <c r="J96" t="n">
-        <v>1972</v>
+        <v>2323</v>
       </c>
       <c r="K96" t="n">
-        <v>0.267</v>
+        <v>0.315</v>
       </c>
       <c r="L96" t="n">
-        <v>371</v>
+        <v>402</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05</v>
+        <v>0.054</v>
       </c>
       <c r="N96"/>
       <c r="O96"/>
@@ -8820,7 +8804,7 @@
         <v>529</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44683</v>
+        <v>44685</v>
       </c>
       <c r="D97" t="s">
         <v>530</v>
@@ -8832,25 +8816,25 @@
         <v>532</v>
       </c>
       <c r="G97" t="n">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="H97" t="n">
-        <v>7138331</v>
+        <v>7147014</v>
       </c>
       <c r="I97" t="n">
-        <v>3823.558</v>
+        <v>3828.209</v>
       </c>
       <c r="J97" t="n">
-        <v>1712</v>
+        <v>4447</v>
       </c>
       <c r="K97" t="n">
-        <v>0.917</v>
+        <v>2.382</v>
       </c>
       <c r="L97" t="n">
-        <v>3754</v>
+        <v>3540</v>
       </c>
       <c r="M97" t="n">
-        <v>2.011</v>
+        <v>1.896</v>
       </c>
       <c r="N97"/>
       <c r="O97"/>
@@ -8928,7 +8912,7 @@
         <v>540</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="D99" t="s">
         <v>35</v>
@@ -8938,28 +8922,24 @@
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H99" t="n">
-        <v>445262</v>
+        <v>445669</v>
       </c>
       <c r="I99" t="n">
-        <v>206.229</v>
+        <v>206.417</v>
       </c>
       <c r="J99"/>
       <c r="K99"/>
       <c r="L99" t="n">
-        <v>402</v>
+        <v>288</v>
       </c>
       <c r="M99" t="n">
-        <v>0.186</v>
-      </c>
-      <c r="N99" t="n">
-        <v>0.0167</v>
-      </c>
-      <c r="O99" t="n">
-        <v>59.9</v>
-      </c>
+        <v>0.133</v>
+      </c>
+      <c r="N99"/>
+      <c r="O99"/>
       <c r="P99" t="s">
         <v>36</v>
       </c>
@@ -9128,7 +9108,7 @@
         <v>558</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44679</v>
+        <v>44685</v>
       </c>
       <c r="D103" t="s">
         <v>559</v>
@@ -9138,31 +9118,31 @@
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="H103" t="n">
-        <v>8650417</v>
+        <v>8667174</v>
       </c>
       <c r="I103" t="n">
-        <v>3215.933</v>
+        <v>3222.163</v>
       </c>
       <c r="J103" t="n">
-        <v>4629</v>
+        <v>1721</v>
       </c>
       <c r="K103" t="n">
-        <v>1.721</v>
+        <v>0.64</v>
       </c>
       <c r="L103" t="n">
-        <v>5193</v>
+        <v>3035</v>
       </c>
       <c r="M103" t="n">
-        <v>1.931</v>
+        <v>1.128</v>
       </c>
       <c r="N103" t="n">
-        <v>0.146</v>
+        <v>0.11</v>
       </c>
       <c r="O103" t="n">
-        <v>6.8</v>
+        <v>9.1</v>
       </c>
       <c r="P103" t="s">
         <v>560</v>
@@ -9185,7 +9165,7 @@
         <v>563</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>44679</v>
+        <v>44684</v>
       </c>
       <c r="D104" t="s">
         <v>564</v>
@@ -9195,25 +9175,25 @@
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="H104" t="n">
-        <v>4227288</v>
+        <v>4234646</v>
       </c>
       <c r="I104" t="n">
-        <v>6659.097</v>
+        <v>6670.688</v>
       </c>
       <c r="J104" t="n">
-        <v>2279</v>
+        <v>2374</v>
       </c>
       <c r="K104" t="n">
-        <v>3.59</v>
+        <v>3.74</v>
       </c>
       <c r="L104" t="n">
-        <v>1915</v>
+        <v>1699</v>
       </c>
       <c r="M104" t="n">
-        <v>3.017</v>
+        <v>2.676</v>
       </c>
       <c r="N104" t="n">
         <v>0.29</v>
@@ -9242,7 +9222,7 @@
         <v>568</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44632</v>
+        <v>44685</v>
       </c>
       <c r="D105" t="s">
         <v>35</v>
@@ -9252,27 +9232,27 @@
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H105" t="n">
-        <v>404843</v>
+        <v>428492</v>
       </c>
       <c r="I105" t="n">
-        <v>14.241</v>
+        <v>15.073</v>
       </c>
       <c r="J105"/>
       <c r="K105"/>
       <c r="L105" t="n">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="M105" t="n">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
       <c r="N105" t="n">
-        <v>0.0264</v>
+        <v>0.0093</v>
       </c>
       <c r="O105" t="n">
-        <v>37.8</v>
+        <v>107.7</v>
       </c>
       <c r="P105" t="s">
         <v>36</v>
@@ -9295,7 +9275,7 @@
         <v>571</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="D106" t="s">
         <v>35</v>
@@ -9305,27 +9285,27 @@
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H106" t="n">
-        <v>574139</v>
+        <v>574956</v>
       </c>
       <c r="I106" t="n">
-        <v>29.222</v>
+        <v>29.263</v>
       </c>
       <c r="J106"/>
       <c r="K106"/>
       <c r="L106" t="n">
-        <v>365</v>
+        <v>321</v>
       </c>
       <c r="M106" t="n">
-        <v>0.019</v>
+        <v>0.016</v>
       </c>
       <c r="N106" t="n">
-        <v>0.0133</v>
+        <v>0.0151</v>
       </c>
       <c r="O106" t="n">
-        <v>75.1</v>
+        <v>66.1</v>
       </c>
       <c r="P106" t="s">
         <v>36</v>
@@ -9348,7 +9328,7 @@
         <v>574</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44680</v>
+        <v>44683</v>
       </c>
       <c r="D107" t="s">
         <v>575</v>
@@ -9360,31 +9340,31 @@
         <v>577</v>
       </c>
       <c r="G107" t="n">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="H107" t="n">
-        <v>58654081</v>
+        <v>58724704</v>
       </c>
       <c r="I107" t="n">
-        <v>1789.533</v>
+        <v>1791.688</v>
       </c>
       <c r="J107" t="n">
-        <v>39041</v>
+        <v>16369</v>
       </c>
       <c r="K107" t="n">
-        <v>1.191</v>
+        <v>0.499</v>
       </c>
       <c r="L107" t="n">
-        <v>52394</v>
+        <v>39152</v>
       </c>
       <c r="M107" t="n">
-        <v>1.599</v>
+        <v>1.195</v>
       </c>
       <c r="N107" t="n">
-        <v>0.0667</v>
+        <v>0.0632</v>
       </c>
       <c r="O107" t="n">
-        <v>15</v>
+        <v>15.8</v>
       </c>
       <c r="P107" t="s">
         <v>53</v>
@@ -9460,7 +9440,7 @@
         <v>587</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="D109" t="s">
         <v>35</v>
@@ -9470,27 +9450,27 @@
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H109" t="n">
-        <v>679316</v>
+        <v>680249</v>
       </c>
       <c r="I109" t="n">
-        <v>32.572</v>
+        <v>32.617</v>
       </c>
       <c r="J109"/>
       <c r="K109"/>
       <c r="L109" t="n">
-        <v>437</v>
+        <v>384</v>
       </c>
       <c r="M109" t="n">
-        <v>0.021</v>
+        <v>0.018</v>
       </c>
       <c r="N109" t="n">
-        <v>0.0337</v>
+        <v>0.0331</v>
       </c>
       <c r="O109" t="n">
-        <v>29.7</v>
+        <v>30.2</v>
       </c>
       <c r="P109" t="s">
         <v>36</v>
@@ -9513,7 +9493,7 @@
         <v>590</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>44682</v>
+        <v>44686</v>
       </c>
       <c r="D110" t="s">
         <v>591</v>
@@ -9523,32 +9503,28 @@
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="H110" t="n">
-        <v>1884723</v>
+        <v>1891415</v>
       </c>
       <c r="I110" t="n">
-        <v>3651.856</v>
+        <v>3664.823</v>
       </c>
       <c r="J110" t="n">
-        <v>1620</v>
+        <v>1704</v>
       </c>
       <c r="K110" t="n">
-        <v>3.139</v>
+        <v>3.302</v>
       </c>
       <c r="L110" t="n">
-        <v>1751</v>
+        <v>1631</v>
       </c>
       <c r="M110" t="n">
-        <v>3.393</v>
-      </c>
-      <c r="N110" t="n">
-        <v>0.1033</v>
-      </c>
-      <c r="O110" t="n">
-        <v>9.7</v>
-      </c>
+        <v>3.16</v>
+      </c>
+      <c r="N110"/>
+      <c r="O110"/>
       <c r="P110" t="s">
         <v>593</v>
       </c>
@@ -9583,22 +9559,22 @@
         <v>22</v>
       </c>
       <c r="H111" t="n">
-        <v>1639</v>
+        <v>3184</v>
       </c>
       <c r="I111" t="n">
-        <v>27.492</v>
+        <v>53.407</v>
       </c>
       <c r="J111" t="n">
-        <v>196</v>
+        <v>392</v>
       </c>
       <c r="K111" t="n">
-        <v>3.288</v>
+        <v>6.575</v>
       </c>
       <c r="L111" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M111" t="n">
-        <v>0.117</v>
+        <v>0.235</v>
       </c>
       <c r="N111" t="n">
         <v>0</v>
@@ -9878,7 +9854,7 @@
         <v>626</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="D117" t="s">
         <v>627</v>
@@ -9888,27 +9864,27 @@
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H117" t="n">
-        <v>11468924</v>
+        <v>11480289</v>
       </c>
       <c r="I117" t="n">
-        <v>307.109</v>
+        <v>307.413</v>
       </c>
       <c r="J117"/>
       <c r="K117"/>
       <c r="L117" t="n">
-        <v>5875</v>
+        <v>4969</v>
       </c>
       <c r="M117" t="n">
-        <v>0.157</v>
+        <v>0.133</v>
       </c>
       <c r="N117" t="n">
-        <v>0.0066</v>
+        <v>0.0058</v>
       </c>
       <c r="O117" t="n">
-        <v>150.6</v>
+        <v>173.1</v>
       </c>
       <c r="P117" t="s">
         <v>628</v>
@@ -9931,7 +9907,7 @@
         <v>632</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="D118" t="s">
         <v>35</v>
@@ -9941,27 +9917,27 @@
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H118" t="n">
-        <v>1313202</v>
+        <v>1313881</v>
       </c>
       <c r="I118" t="n">
-        <v>40.83</v>
+        <v>40.851</v>
       </c>
       <c r="J118"/>
       <c r="K118"/>
       <c r="L118" t="n">
-        <v>509</v>
+        <v>421</v>
       </c>
       <c r="M118" t="n">
-        <v>0.016</v>
+        <v>0.013</v>
       </c>
       <c r="N118" t="n">
-        <v>0.0059</v>
+        <v>0.0085</v>
       </c>
       <c r="O118" t="n">
-        <v>169.7</v>
+        <v>117.9</v>
       </c>
       <c r="P118" t="s">
         <v>36</v>
@@ -9984,7 +9960,7 @@
         <v>635</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44682</v>
+        <v>44686</v>
       </c>
       <c r="D119" t="s">
         <v>636</v>
@@ -9994,28 +9970,24 @@
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H119" t="n">
-        <v>7962713</v>
+        <v>7998369</v>
       </c>
       <c r="I119" t="n">
-        <v>145.289</v>
+        <v>145.94</v>
       </c>
       <c r="J119"/>
       <c r="K119"/>
       <c r="L119" t="n">
-        <v>7995</v>
+        <v>8520</v>
       </c>
       <c r="M119" t="n">
-        <v>0.146</v>
-      </c>
-      <c r="N119" t="n">
-        <v>0.0027</v>
-      </c>
-      <c r="O119" t="n">
-        <v>370.6</v>
-      </c>
+        <v>0.155</v>
+      </c>
+      <c r="N119"/>
+      <c r="O119"/>
       <c r="P119" t="s">
         <v>637</v>
       </c>
@@ -10037,7 +10009,7 @@
         <v>641</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="D120" t="s">
         <v>35</v>
@@ -10047,27 +10019,27 @@
       </c>
       <c r="F120"/>
       <c r="G120" t="n">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H120" t="n">
-        <v>1006854</v>
+        <v>1008685</v>
       </c>
       <c r="I120" t="n">
-        <v>389.146</v>
+        <v>389.853</v>
       </c>
       <c r="J120"/>
       <c r="K120"/>
       <c r="L120" t="n">
-        <v>716</v>
+        <v>763</v>
       </c>
       <c r="M120" t="n">
-        <v>0.277</v>
+        <v>0.295</v>
       </c>
       <c r="N120" t="n">
-        <v>0.0904</v>
+        <v>0.0861</v>
       </c>
       <c r="O120" t="n">
-        <v>11.1</v>
+        <v>11.6</v>
       </c>
       <c r="P120" t="s">
         <v>642</v>
@@ -10090,7 +10062,7 @@
         <v>646</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>44683</v>
+        <v>44686</v>
       </c>
       <c r="D121" t="s">
         <v>647</v>
@@ -10100,27 +10072,27 @@
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H121" t="n">
-        <v>6811086</v>
+        <v>6821812</v>
       </c>
       <c r="I121" t="n">
-        <v>229.523</v>
+        <v>229.885</v>
       </c>
       <c r="J121"/>
       <c r="K121"/>
       <c r="L121" t="n">
-        <v>4208</v>
+        <v>3623</v>
       </c>
       <c r="M121" t="n">
-        <v>0.142</v>
+        <v>0.122</v>
       </c>
       <c r="N121" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="O121" t="n">
-        <v>333.3</v>
+        <v>250</v>
       </c>
       <c r="P121" t="s">
         <v>648</v>
@@ -10143,7 +10115,7 @@
         <v>652</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44678</v>
+        <v>44683</v>
       </c>
       <c r="D122" t="s">
         <v>653</v>
@@ -10153,28 +10125,28 @@
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="H122" t="n">
-        <v>30558553</v>
+        <v>30570200</v>
       </c>
       <c r="I122" t="n">
-        <v>1779.444</v>
+        <v>1780.122</v>
       </c>
       <c r="J122" t="n">
-        <v>1774</v>
+        <v>2766</v>
       </c>
       <c r="K122" t="n">
-        <v>0.103</v>
+        <v>0.161</v>
       </c>
       <c r="L122" t="n">
-        <v>2673</v>
+        <v>2300</v>
       </c>
       <c r="M122" t="n">
-        <v>0.156</v>
+        <v>0.134</v>
       </c>
       <c r="N122" t="n">
-        <v>0.524</v>
+        <v>0.514</v>
       </c>
       <c r="O122" t="n">
         <v>1.9</v>
@@ -10200,7 +10172,7 @@
         <v>658</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>44683</v>
+        <v>44686</v>
       </c>
       <c r="D123" t="s">
         <v>659</v>
@@ -10210,21 +10182,21 @@
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H123" t="n">
-        <v>7083851</v>
+        <v>7095449</v>
       </c>
       <c r="I123" t="n">
-        <v>1381.864</v>
+        <v>1384.127</v>
       </c>
       <c r="J123"/>
       <c r="K123"/>
       <c r="L123" t="n">
-        <v>13991</v>
+        <v>6073</v>
       </c>
       <c r="M123" t="n">
-        <v>2.729</v>
+        <v>1.185</v>
       </c>
       <c r="N123"/>
       <c r="O123"/>
@@ -10302,7 +10274,7 @@
         <v>668</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="D125" t="s">
         <v>35</v>
@@ -10312,27 +10284,27 @@
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H125" t="n">
-        <v>250347</v>
+        <v>250696</v>
       </c>
       <c r="I125" t="n">
-        <v>9.962</v>
+        <v>9.976</v>
       </c>
       <c r="J125"/>
       <c r="K125"/>
       <c r="L125" t="n">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="M125" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="N125" t="n">
-        <v>0.0204</v>
+        <v>0.033</v>
       </c>
       <c r="O125" t="n">
-        <v>49</v>
+        <v>30.3</v>
       </c>
       <c r="P125" t="s">
         <v>36</v>
@@ -10408,7 +10380,7 @@
         <v>676</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44680</v>
+        <v>44686</v>
       </c>
       <c r="D127" t="s">
         <v>677</v>
@@ -10418,32 +10390,24 @@
       </c>
       <c r="F127"/>
       <c r="G127" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H127" t="n">
-        <v>2018029</v>
+        <v>2026507</v>
       </c>
       <c r="I127" t="n">
-        <v>968.967</v>
-      </c>
-      <c r="J127" t="n">
-        <v>2303</v>
-      </c>
-      <c r="K127" t="n">
-        <v>1.106</v>
-      </c>
+        <v>973.037</v>
+      </c>
+      <c r="J127"/>
+      <c r="K127"/>
       <c r="L127" t="n">
-        <v>1497</v>
+        <v>1540</v>
       </c>
       <c r="M127" t="n">
-        <v>0.719</v>
-      </c>
-      <c r="N127" t="n">
-        <v>0.0486</v>
-      </c>
-      <c r="O127" t="n">
-        <v>20.6</v>
-      </c>
+        <v>0.739</v>
+      </c>
+      <c r="N127"/>
+      <c r="O127"/>
       <c r="P127" t="s">
         <v>53</v>
       </c>
@@ -10522,7 +10486,7 @@
         <v>684</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>44679</v>
+        <v>44685</v>
       </c>
       <c r="D129" t="s">
         <v>685</v>
@@ -10532,31 +10496,31 @@
       </c>
       <c r="F129"/>
       <c r="G129" t="n">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="H129" t="n">
-        <v>11079168</v>
+        <v>11087987</v>
       </c>
       <c r="I129" t="n">
-        <v>2027.062</v>
+        <v>2028.675</v>
       </c>
       <c r="J129" t="n">
-        <v>922</v>
+        <v>871</v>
       </c>
       <c r="K129" t="n">
-        <v>0.169</v>
+        <v>0.159</v>
       </c>
       <c r="L129" t="n">
-        <v>1584</v>
+        <v>1346</v>
       </c>
       <c r="M129" t="n">
-        <v>0.29</v>
+        <v>0.246</v>
       </c>
       <c r="N129" t="n">
-        <v>0.121</v>
+        <v>0.137</v>
       </c>
       <c r="O129" t="n">
-        <v>8.3</v>
+        <v>7.3</v>
       </c>
       <c r="P129" t="s">
         <v>686</v>
@@ -10681,7 +10645,7 @@
         <v>696</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>44680</v>
+        <v>44684</v>
       </c>
       <c r="D132" t="s">
         <v>697</v>
@@ -10691,20 +10655,28 @@
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H132" t="n">
-        <v>46016</v>
+        <v>46722</v>
       </c>
       <c r="I132" t="n">
-        <v>2531.969</v>
+        <v>2570.815</v>
       </c>
       <c r="J132"/>
       <c r="K132"/>
-      <c r="L132"/>
-      <c r="M132"/>
-      <c r="N132"/>
-      <c r="O132"/>
+      <c r="L132" t="n">
+        <v>211</v>
+      </c>
+      <c r="M132" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0.1381</v>
+      </c>
+      <c r="O132" t="n">
+        <v>7.2</v>
+      </c>
       <c r="P132" t="s">
         <v>53</v>
       </c>
@@ -10771,7 +10743,7 @@
         <v>707</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>44679</v>
+        <v>44685</v>
       </c>
       <c r="D134" t="s">
         <v>708</v>
@@ -10781,27 +10753,27 @@
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="H134" t="n">
-        <v>5854469</v>
+        <v>5894400</v>
       </c>
       <c r="I134" t="n">
-        <v>1336.154</v>
+        <v>1345.267</v>
       </c>
       <c r="J134"/>
       <c r="K134"/>
       <c r="L134" t="n">
-        <v>6265</v>
+        <v>6755</v>
       </c>
       <c r="M134" t="n">
-        <v>1.43</v>
+        <v>1.542</v>
       </c>
       <c r="N134" t="n">
-        <v>0.0932</v>
+        <v>0.1369</v>
       </c>
       <c r="O134" t="n">
-        <v>10.7</v>
+        <v>7.3</v>
       </c>
       <c r="P134" t="s">
         <v>709</v>
@@ -11087,7 +11059,7 @@
         <v>742</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>44681</v>
+        <v>44684</v>
       </c>
       <c r="D140" t="s">
         <v>743</v>
@@ -11097,28 +11069,32 @@
       </c>
       <c r="F140"/>
       <c r="G140" t="n">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="H140" t="n">
-        <v>41320769</v>
+        <v>41418112</v>
       </c>
       <c r="I140" t="n">
-        <v>4063.836</v>
+        <v>4073.409</v>
       </c>
       <c r="J140" t="n">
-        <v>42390</v>
+        <v>41238</v>
       </c>
       <c r="K140" t="n">
-        <v>4.169</v>
+        <v>4.056</v>
       </c>
       <c r="L140" t="n">
-        <v>42727</v>
+        <v>43575</v>
       </c>
       <c r="M140" t="n">
-        <v>4.202</v>
-      </c>
-      <c r="N140"/>
-      <c r="O140"/>
+        <v>4.286</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0.2858</v>
+      </c>
+      <c r="O140" t="n">
+        <v>3.5</v>
+      </c>
       <c r="P140" t="s">
         <v>744</v>
       </c>
@@ -11140,7 +11116,7 @@
         <v>747</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>44679</v>
+        <v>44681</v>
       </c>
       <c r="D141" t="s">
         <v>394</v>
@@ -11150,25 +11126,25 @@
       </c>
       <c r="F141"/>
       <c r="G141" t="n">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="H141" t="n">
-        <v>2758226</v>
+        <v>2776182</v>
       </c>
       <c r="I141" t="n">
-        <v>975.243</v>
+        <v>981.591</v>
       </c>
       <c r="J141" t="n">
-        <v>4339</v>
+        <v>3549</v>
       </c>
       <c r="K141" t="n">
-        <v>1.534</v>
+        <v>1.255</v>
       </c>
       <c r="L141" t="n">
-        <v>5200</v>
+        <v>6568</v>
       </c>
       <c r="M141" t="n">
-        <v>1.839</v>
+        <v>2.322</v>
       </c>
       <c r="N141"/>
       <c r="O141"/>
@@ -11193,7 +11169,7 @@
         <v>750</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="D142" t="s">
         <v>751</v>
@@ -11203,31 +11179,31 @@
       </c>
       <c r="F142"/>
       <c r="G142" t="n">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H142" t="n">
-        <v>6812800</v>
+        <v>6840257</v>
       </c>
       <c r="I142" t="n">
-        <v>2324.772</v>
+        <v>2334.141</v>
       </c>
       <c r="J142" t="n">
-        <v>11660</v>
+        <v>10446</v>
       </c>
       <c r="K142" t="n">
-        <v>3.979</v>
+        <v>3.565</v>
       </c>
       <c r="L142" t="n">
-        <v>11843</v>
+        <v>10493</v>
       </c>
       <c r="M142" t="n">
-        <v>4.041</v>
+        <v>3.581</v>
       </c>
       <c r="N142" t="n">
-        <v>0.0056</v>
+        <v>0.0055</v>
       </c>
       <c r="O142" t="n">
-        <v>177.1</v>
+        <v>181.4</v>
       </c>
       <c r="P142" t="s">
         <v>753</v>
@@ -11303,7 +11279,7 @@
         <v>760</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="D144" t="s">
         <v>761</v>
@@ -11313,27 +11289,27 @@
       </c>
       <c r="F144"/>
       <c r="G144" t="n">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H144" t="n">
-        <v>290642858</v>
+        <v>290896765</v>
       </c>
       <c r="I144" t="n">
-        <v>1991.905</v>
+        <v>1993.645</v>
       </c>
       <c r="J144"/>
       <c r="K144"/>
       <c r="L144" t="n">
-        <v>162223</v>
+        <v>131792</v>
       </c>
       <c r="M144" t="n">
-        <v>1.112</v>
+        <v>0.903</v>
       </c>
       <c r="N144" t="n">
-        <v>0.0454</v>
+        <v>0.0497</v>
       </c>
       <c r="O144" t="n">
-        <v>22</v>
+        <v>20.1</v>
       </c>
       <c r="P144" t="s">
         <v>762</v>
@@ -11356,7 +11332,7 @@
         <v>766</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>44676</v>
+        <v>44686</v>
       </c>
       <c r="D145" t="s">
         <v>767</v>
@@ -11366,32 +11342,24 @@
       </c>
       <c r="F145"/>
       <c r="G145" t="n">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="H145" t="n">
-        <v>5233320</v>
+        <v>5285642</v>
       </c>
       <c r="I145" t="n">
-        <v>394.179</v>
-      </c>
-      <c r="J145" t="n">
-        <v>3018</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.227</v>
-      </c>
+        <v>398.12</v>
+      </c>
+      <c r="J145"/>
+      <c r="K145"/>
       <c r="L145" t="n">
-        <v>5232</v>
+        <v>4726</v>
       </c>
       <c r="M145" t="n">
-        <v>0.394</v>
-      </c>
-      <c r="N145" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="O145" t="n">
-        <v>1465.1</v>
-      </c>
+        <v>0.356</v>
+      </c>
+      <c r="N145"/>
+      <c r="O145"/>
       <c r="P145" t="s">
         <v>768</v>
       </c>
@@ -11413,7 +11381,7 @@
         <v>772</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>44683</v>
+        <v>44686</v>
       </c>
       <c r="D146" t="s">
         <v>773</v>
@@ -11423,21 +11391,21 @@
       </c>
       <c r="F146"/>
       <c r="G146" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H146" t="n">
-        <v>71641</v>
+        <v>72640</v>
       </c>
       <c r="I146" t="n">
-        <v>1337.934</v>
+        <v>1356.591</v>
       </c>
       <c r="J146"/>
       <c r="K146"/>
       <c r="L146" t="n">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="M146" t="n">
-        <v>4.407</v>
+        <v>4.314</v>
       </c>
       <c r="N146"/>
       <c r="O146"/>
@@ -11462,7 +11430,7 @@
         <v>777</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>44679</v>
+        <v>44685</v>
       </c>
       <c r="D147" t="s">
         <v>778</v>
@@ -11472,27 +11440,27 @@
       </c>
       <c r="F147"/>
       <c r="G147" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H147" t="n">
-        <v>144590</v>
+        <v>150920</v>
       </c>
       <c r="I147" t="n">
-        <v>784.106</v>
+        <v>818.434</v>
       </c>
       <c r="J147"/>
       <c r="K147"/>
       <c r="L147" t="n">
-        <v>328</v>
+        <v>969</v>
       </c>
       <c r="M147" t="n">
-        <v>1.779</v>
+        <v>5.255</v>
       </c>
       <c r="N147" t="n">
-        <v>0.0871</v>
+        <v>0.0373</v>
       </c>
       <c r="O147" t="n">
-        <v>11.5</v>
+        <v>26.8</v>
       </c>
       <c r="P147" t="s">
         <v>92</v>
@@ -11568,7 +11536,7 @@
         <v>788</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>44675</v>
+        <v>44682</v>
       </c>
       <c r="D149" t="s">
         <v>789</v>
@@ -11578,31 +11546,31 @@
       </c>
       <c r="F149"/>
       <c r="G149" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H149" t="n">
-        <v>1220</v>
+        <v>1571</v>
       </c>
       <c r="I149" t="n">
-        <v>5.462</v>
+        <v>7.033</v>
       </c>
       <c r="J149" t="n">
-        <v>449</v>
+        <v>351</v>
       </c>
       <c r="K149" t="n">
-        <v>2.01</v>
+        <v>1.571</v>
       </c>
       <c r="L149" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="M149" t="n">
-        <v>0.287</v>
+        <v>0.224</v>
       </c>
       <c r="N149" t="n">
-        <v>0.0112</v>
+        <v>0.0114</v>
       </c>
       <c r="O149" t="n">
-        <v>89.6</v>
+        <v>87.6</v>
       </c>
       <c r="P149" t="s">
         <v>53</v>
@@ -11625,7 +11593,7 @@
         <v>793</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="D150" t="s">
         <v>794</v>
@@ -11635,31 +11603,31 @@
       </c>
       <c r="F150"/>
       <c r="G150" t="n">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="H150" t="n">
-        <v>41912766</v>
+        <v>41940947</v>
       </c>
       <c r="I150" t="n">
-        <v>1185.964</v>
+        <v>1186.761</v>
       </c>
       <c r="J150" t="n">
-        <v>10301</v>
+        <v>10398</v>
       </c>
       <c r="K150" t="n">
-        <v>0.291</v>
+        <v>0.294</v>
       </c>
       <c r="L150" t="n">
-        <v>10654</v>
+        <v>9818</v>
       </c>
       <c r="M150" t="n">
-        <v>0.301</v>
+        <v>0.278</v>
       </c>
       <c r="N150" t="n">
-        <v>0.0093</v>
+        <v>0.0107</v>
       </c>
       <c r="O150" t="n">
-        <v>107.6</v>
+        <v>93.6</v>
       </c>
       <c r="P150" t="s">
         <v>53</v>
@@ -11682,7 +11650,7 @@
         <v>797</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>44680</v>
+        <v>44686</v>
       </c>
       <c r="D151" t="s">
         <v>798</v>
@@ -11692,32 +11660,28 @@
       </c>
       <c r="F151"/>
       <c r="G151" t="n">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="H151" t="n">
-        <v>1097611</v>
+        <v>1102099</v>
       </c>
       <c r="I151" t="n">
-        <v>63.828</v>
+        <v>64.089</v>
       </c>
       <c r="J151" t="n">
-        <v>776</v>
+        <v>814</v>
       </c>
       <c r="K151" t="n">
-        <v>0.045</v>
+        <v>0.047</v>
       </c>
       <c r="L151" t="n">
-        <v>813</v>
+        <v>752</v>
       </c>
       <c r="M151" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="N151" t="n">
-        <v>0.0023</v>
-      </c>
-      <c r="O151" t="n">
-        <v>437.8</v>
-      </c>
+        <v>0.044</v>
+      </c>
+      <c r="N151"/>
+      <c r="O151"/>
       <c r="P151" t="s">
         <v>799</v>
       </c>
@@ -11739,7 +11703,7 @@
         <v>802</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>44682</v>
+        <v>44686</v>
       </c>
       <c r="D152" t="s">
         <v>803</v>
@@ -11751,32 +11715,28 @@
         <v>804</v>
       </c>
       <c r="G152" t="n">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="H152" t="n">
-        <v>9491908</v>
+        <v>9522660</v>
       </c>
       <c r="I152" t="n">
-        <v>1381.335</v>
+        <v>1385.81</v>
       </c>
       <c r="J152" t="n">
-        <v>3978</v>
+        <v>9181</v>
       </c>
       <c r="K152" t="n">
-        <v>0.579</v>
+        <v>1.336</v>
       </c>
       <c r="L152" t="n">
-        <v>8521</v>
+        <v>7265</v>
       </c>
       <c r="M152" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="N152" t="n">
-        <v>0.0845</v>
-      </c>
-      <c r="O152" t="n">
-        <v>11.8</v>
-      </c>
+        <v>1.057</v>
+      </c>
+      <c r="N152"/>
+      <c r="O152"/>
       <c r="P152" t="s">
         <v>53</v>
       </c>
@@ -11849,7 +11809,7 @@
         <v>811</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>44676</v>
+        <v>44683</v>
       </c>
       <c r="D154" t="s">
         <v>812</v>
@@ -11859,27 +11819,27 @@
       </c>
       <c r="F154"/>
       <c r="G154" t="n">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H154"/>
       <c r="I154"/>
       <c r="J154" t="n">
-        <v>32900</v>
+        <v>28000</v>
       </c>
       <c r="K154" t="n">
-        <v>6.033</v>
+        <v>5.134</v>
       </c>
       <c r="L154" t="n">
-        <v>32900</v>
+        <v>28000</v>
       </c>
       <c r="M154" t="n">
-        <v>6.033</v>
+        <v>5.134</v>
       </c>
       <c r="N154" t="n">
-        <v>0.0931</v>
+        <v>0.0855</v>
       </c>
       <c r="O154" t="n">
-        <v>10.7</v>
+        <v>11.7</v>
       </c>
       <c r="P154" t="s">
         <v>53</v>
@@ -11902,7 +11862,7 @@
         <v>817</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>44681</v>
+        <v>44684</v>
       </c>
       <c r="D155" t="s">
         <v>818</v>
@@ -11914,31 +11874,31 @@
         <v>819</v>
       </c>
       <c r="G155" t="n">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="H155" t="n">
-        <v>51038061</v>
+        <v>51049517</v>
       </c>
       <c r="I155" t="n">
-        <v>9366.036</v>
+        <v>9368.139</v>
       </c>
       <c r="J155" t="n">
-        <v>5676</v>
+        <v>4240</v>
       </c>
       <c r="K155" t="n">
-        <v>1.042</v>
+        <v>0.778</v>
       </c>
       <c r="L155" t="n">
-        <v>11049</v>
+        <v>7349</v>
       </c>
       <c r="M155" t="n">
-        <v>2.028</v>
+        <v>1.349</v>
       </c>
       <c r="N155" t="n">
-        <v>0.109</v>
+        <v>0.119</v>
       </c>
       <c r="O155" t="n">
-        <v>9.2</v>
+        <v>8.4</v>
       </c>
       <c r="P155" t="s">
         <v>53</v>
@@ -11961,7 +11921,7 @@
         <v>822</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="D156" t="s">
         <v>823</v>
@@ -11973,31 +11933,31 @@
         <v>825</v>
       </c>
       <c r="G156" t="n">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="H156" t="n">
-        <v>5104520</v>
+        <v>5129777</v>
       </c>
       <c r="I156" t="n">
-        <v>2455.604</v>
+        <v>2467.754</v>
       </c>
       <c r="J156" t="n">
-        <v>2121</v>
+        <v>7701</v>
       </c>
       <c r="K156" t="n">
-        <v>1.02</v>
+        <v>3.705</v>
       </c>
       <c r="L156" t="n">
-        <v>7791</v>
+        <v>6809</v>
       </c>
       <c r="M156" t="n">
-        <v>3.748</v>
+        <v>3.276</v>
       </c>
       <c r="N156" t="n">
-        <v>0.109</v>
+        <v>0.127</v>
       </c>
       <c r="O156" t="n">
-        <v>9.2</v>
+        <v>7.9</v>
       </c>
       <c r="P156" t="s">
         <v>826</v>
@@ -12065,7 +12025,7 @@
         <v>832</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="D158" t="s">
         <v>833</v>
@@ -12077,31 +12037,31 @@
         <v>835</v>
       </c>
       <c r="G158" t="n">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="H158" t="n">
-        <v>24492958</v>
+        <v>24554412</v>
       </c>
       <c r="I158" t="n">
-        <v>407.93</v>
+        <v>408.954</v>
       </c>
       <c r="J158" t="n">
-        <v>17473</v>
+        <v>27310</v>
       </c>
       <c r="K158" t="n">
-        <v>0.291</v>
+        <v>0.455</v>
       </c>
       <c r="L158" t="n">
-        <v>22900</v>
+        <v>21992</v>
       </c>
       <c r="M158" t="n">
-        <v>0.381</v>
+        <v>0.366</v>
       </c>
       <c r="N158" t="n">
-        <v>0.2049</v>
+        <v>0.2083</v>
       </c>
       <c r="O158" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="P158" t="s">
         <v>836</v>
@@ -12124,7 +12084,7 @@
         <v>839</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>44681</v>
+        <v>44685</v>
       </c>
       <c r="D159" t="s">
         <v>840</v>
@@ -12136,28 +12096,28 @@
         <v>842</v>
       </c>
       <c r="G159" t="n">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="H159" t="n">
-        <v>45258374</v>
+        <v>45762630</v>
       </c>
       <c r="I159" t="n">
-        <v>882.14</v>
+        <v>891.969</v>
       </c>
       <c r="J159" t="n">
-        <v>146621</v>
+        <v>145416</v>
       </c>
       <c r="K159" t="n">
-        <v>2.858</v>
+        <v>2.834</v>
       </c>
       <c r="L159" t="n">
-        <v>153933</v>
+        <v>138405</v>
       </c>
       <c r="M159" t="n">
-        <v>3</v>
+        <v>2.698</v>
       </c>
       <c r="N159" t="n">
-        <v>0.3531</v>
+        <v>0.3627</v>
       </c>
       <c r="O159" t="n">
         <v>2.8</v>
@@ -12236,7 +12196,7 @@
         <v>850</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>44677</v>
+        <v>44684</v>
       </c>
       <c r="D161" t="s">
         <v>851</v>
@@ -12246,31 +12206,31 @@
       </c>
       <c r="F161"/>
       <c r="G161" t="n">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="H161" t="n">
-        <v>90054580</v>
+        <v>90519126</v>
       </c>
       <c r="I161" t="n">
-        <v>1926.499</v>
+        <v>1936.436</v>
       </c>
       <c r="J161" t="n">
-        <v>66683</v>
+        <v>73036</v>
       </c>
       <c r="K161" t="n">
-        <v>1.427</v>
+        <v>1.562</v>
       </c>
       <c r="L161" t="n">
-        <v>58642</v>
+        <v>58817</v>
       </c>
       <c r="M161" t="n">
-        <v>1.255</v>
+        <v>1.258</v>
       </c>
       <c r="N161" t="n">
-        <v>0.284</v>
+        <v>0.308</v>
       </c>
       <c r="O161" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P161" t="s">
         <v>852</v>
@@ -12293,7 +12253,7 @@
         <v>855</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="D162" t="s">
         <v>856</v>
@@ -12303,31 +12263,31 @@
       </c>
       <c r="F162"/>
       <c r="G162" t="n">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="H162" t="n">
-        <v>7631061</v>
+        <v>7636772</v>
       </c>
       <c r="I162" t="n">
-        <v>354.978</v>
+        <v>355.243</v>
       </c>
       <c r="J162" t="n">
-        <v>1532</v>
+        <v>1511</v>
       </c>
       <c r="K162" t="n">
-        <v>0.071</v>
+        <v>0.07</v>
       </c>
       <c r="L162" t="n">
-        <v>1864</v>
+        <v>1714</v>
       </c>
       <c r="M162" t="n">
-        <v>0.087</v>
+        <v>0.08</v>
       </c>
       <c r="N162" t="n">
-        <v>0.0185</v>
+        <v>0.0192</v>
       </c>
       <c r="O162" t="n">
-        <v>53.9</v>
+        <v>52.2</v>
       </c>
       <c r="P162" t="s">
         <v>857</v>
@@ -12395,7 +12355,7 @@
         <v>863</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>44679</v>
+        <v>44685</v>
       </c>
       <c r="D164" t="s">
         <v>864</v>
@@ -12405,31 +12365,31 @@
       </c>
       <c r="F164"/>
       <c r="G164" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H164" t="n">
-        <v>82252</v>
+        <v>82368</v>
       </c>
       <c r="I164" t="n">
-        <v>138.987</v>
+        <v>139.183</v>
       </c>
       <c r="J164" t="n">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="K164" t="n">
-        <v>0.213</v>
+        <v>0.196</v>
       </c>
       <c r="L164" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M164" t="n">
-        <v>0.03</v>
+        <v>0.032</v>
       </c>
       <c r="N164" t="n">
-        <v>0.193</v>
+        <v>0.272</v>
       </c>
       <c r="O164" t="n">
-        <v>5.2</v>
+        <v>3.7</v>
       </c>
       <c r="P164" t="s">
         <v>865</v>
@@ -12452,7 +12412,7 @@
         <v>868</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>44675</v>
+        <v>44682</v>
       </c>
       <c r="D165" t="s">
         <v>869</v>
@@ -12462,32 +12422,28 @@
       </c>
       <c r="F165"/>
       <c r="G165" t="n">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="H165" t="n">
-        <v>18261285</v>
+        <v>18283111</v>
       </c>
       <c r="I165" t="n">
-        <v>1797.342</v>
+        <v>1799.491</v>
       </c>
       <c r="J165" t="n">
-        <v>3082</v>
+        <v>3118</v>
       </c>
       <c r="K165" t="n">
-        <v>0.303</v>
+        <v>0.307</v>
       </c>
       <c r="L165" t="n">
-        <v>3082</v>
+        <v>3118</v>
       </c>
       <c r="M165" t="n">
-        <v>0.303</v>
-      </c>
-      <c r="N165" t="n">
-        <v>0.1109</v>
-      </c>
-      <c r="O165" t="n">
-        <v>9</v>
-      </c>
+        <v>0.307</v>
+      </c>
+      <c r="N165"/>
+      <c r="O165"/>
       <c r="P165" t="s">
         <v>871</v>
       </c>
@@ -12509,7 +12465,7 @@
         <v>875</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>44676</v>
+        <v>44683</v>
       </c>
       <c r="D166" t="s">
         <v>553</v>
@@ -12519,31 +12475,31 @@
       </c>
       <c r="F166"/>
       <c r="G166" t="n">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="H166" t="n">
-        <v>20767523</v>
+        <v>20851897</v>
       </c>
       <c r="I166" t="n">
-        <v>2382.828</v>
+        <v>2392.509</v>
       </c>
       <c r="J166" t="n">
-        <v>12350</v>
+        <v>11230</v>
       </c>
       <c r="K166" t="n">
-        <v>1.417</v>
+        <v>1.289</v>
       </c>
       <c r="L166" t="n">
-        <v>14056</v>
+        <v>11382</v>
       </c>
       <c r="M166" t="n">
-        <v>1.613</v>
+        <v>1.306</v>
       </c>
       <c r="N166" t="n">
-        <v>0.272</v>
+        <v>0.232</v>
       </c>
       <c r="O166" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="P166" t="s">
         <v>554</v>
@@ -12619,7 +12575,7 @@
         <v>882</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="D168" t="s">
         <v>883</v>
@@ -12629,31 +12585,31 @@
       </c>
       <c r="F168"/>
       <c r="G168" t="n">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="H168" t="n">
-        <v>8537161</v>
+        <v>8740454</v>
       </c>
       <c r="I168" t="n">
-        <v>357.877</v>
+        <v>366.399</v>
       </c>
       <c r="J168" t="n">
-        <v>29913</v>
+        <v>45873</v>
       </c>
       <c r="K168" t="n">
-        <v>1.254</v>
+        <v>1.923</v>
       </c>
       <c r="L168" t="n">
-        <v>56769</v>
+        <v>57325</v>
       </c>
       <c r="M168" t="n">
-        <v>2.38</v>
+        <v>2.403</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1925</v>
+        <v>0.3127</v>
       </c>
       <c r="O168" t="n">
-        <v>5.2</v>
+        <v>3.2</v>
       </c>
       <c r="P168" t="s">
         <v>884</v>
@@ -12786,7 +12742,7 @@
         <v>899</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>44660</v>
+        <v>44682</v>
       </c>
       <c r="D171" t="s">
         <v>900</v>
@@ -12796,27 +12752,27 @@
       </c>
       <c r="F171"/>
       <c r="G171" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H171" t="n">
-        <v>258938</v>
+        <v>262824</v>
       </c>
       <c r="I171" t="n">
-        <v>192.68</v>
+        <v>195.572</v>
       </c>
       <c r="J171"/>
       <c r="K171"/>
       <c r="L171" t="n">
-        <v>237</v>
+        <v>177</v>
       </c>
       <c r="M171" t="n">
-        <v>0.176</v>
+        <v>0.132</v>
       </c>
       <c r="N171" t="n">
-        <v>0.006</v>
+        <v>0.0089</v>
       </c>
       <c r="O171" t="n">
-        <v>165.9</v>
+        <v>112.7</v>
       </c>
       <c r="P171" t="s">
         <v>53</v>
@@ -12839,7 +12795,7 @@
         <v>903</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>44682</v>
+        <v>44686</v>
       </c>
       <c r="D172" t="s">
         <v>904</v>
@@ -12849,28 +12805,24 @@
       </c>
       <c r="F172"/>
       <c r="G172" t="n">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H172" t="n">
-        <v>731018</v>
+        <v>731826</v>
       </c>
       <c r="I172" t="n">
-        <v>86.223</v>
+        <v>86.318</v>
       </c>
       <c r="J172"/>
       <c r="K172"/>
       <c r="L172" t="n">
-        <v>395</v>
+        <v>276</v>
       </c>
       <c r="M172" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="N172" t="n">
-        <v>0.0043</v>
-      </c>
-      <c r="O172" t="n">
-        <v>230.5</v>
-      </c>
+        <v>0.033</v>
+      </c>
+      <c r="N172"/>
+      <c r="O172"/>
       <c r="P172" t="s">
         <v>905</v>
       </c>
@@ -12892,7 +12844,7 @@
         <v>908</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>44683</v>
+        <v>44685</v>
       </c>
       <c r="D173" t="s">
         <v>909</v>
@@ -12902,27 +12854,31 @@
       </c>
       <c r="F173"/>
       <c r="G173" t="n">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H173" t="n">
-        <v>706736</v>
+        <v>712717</v>
       </c>
       <c r="I173" t="n">
-        <v>503.598</v>
-      </c>
-      <c r="J173"/>
-      <c r="K173"/>
+        <v>507.86</v>
+      </c>
+      <c r="J173" t="n">
+        <v>3776</v>
+      </c>
+      <c r="K173" t="n">
+        <v>2.691</v>
+      </c>
       <c r="L173" t="n">
-        <v>1287</v>
+        <v>1499</v>
       </c>
       <c r="M173" t="n">
-        <v>0.917</v>
+        <v>1.068</v>
       </c>
       <c r="N173" t="n">
-        <v>0.371</v>
+        <v>0.323</v>
       </c>
       <c r="O173" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="P173" t="s">
         <v>53</v>
@@ -12945,7 +12901,7 @@
         <v>913</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>44675</v>
+        <v>44682</v>
       </c>
       <c r="D174" t="s">
         <v>914</v>
@@ -12955,27 +12911,27 @@
       </c>
       <c r="F174"/>
       <c r="G174" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H174" t="n">
-        <v>4572976</v>
+        <v>4584296</v>
       </c>
       <c r="I174" t="n">
-        <v>383.132</v>
+        <v>384.081</v>
       </c>
       <c r="J174"/>
       <c r="K174"/>
       <c r="L174" t="n">
-        <v>1368</v>
+        <v>1617</v>
       </c>
       <c r="M174" t="n">
-        <v>0.115</v>
+        <v>0.135</v>
       </c>
       <c r="N174" t="n">
-        <v>0.0902</v>
+        <v>0.0584</v>
       </c>
       <c r="O174" t="n">
-        <v>11.1</v>
+        <v>17.1</v>
       </c>
       <c r="P174" t="s">
         <v>916</v>
@@ -12998,7 +12954,7 @@
         <v>920</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="D175" t="s">
         <v>921</v>
@@ -13008,31 +12964,31 @@
       </c>
       <c r="F175"/>
       <c r="G175" t="n">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="H175" t="n">
-        <v>159424435</v>
+        <v>159705081</v>
       </c>
       <c r="I175" t="n">
-        <v>1874.639</v>
+        <v>1877.939</v>
       </c>
       <c r="J175" t="n">
-        <v>108802</v>
+        <v>90301</v>
       </c>
       <c r="K175" t="n">
-        <v>1.279</v>
+        <v>1.062</v>
       </c>
       <c r="L175" t="n">
-        <v>127863</v>
+        <v>110151</v>
       </c>
       <c r="M175" t="n">
-        <v>1.504</v>
+        <v>1.295</v>
       </c>
       <c r="N175" t="n">
-        <v>0.0168</v>
+        <v>0.0144</v>
       </c>
       <c r="O175" t="n">
-        <v>59.6</v>
+        <v>69.5</v>
       </c>
       <c r="P175" t="s">
         <v>922</v>
@@ -13055,7 +13011,7 @@
         <v>926</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>44675</v>
+        <v>44685</v>
       </c>
       <c r="D176" t="s">
         <v>35</v>
@@ -13065,27 +13021,27 @@
       </c>
       <c r="F176"/>
       <c r="G176" t="n">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H176" t="n">
-        <v>2612795</v>
+        <v>2651965</v>
       </c>
       <c r="I176" t="n">
-        <v>55.446</v>
+        <v>56.277</v>
       </c>
       <c r="J176"/>
       <c r="K176"/>
       <c r="L176" t="n">
-        <v>2368</v>
+        <v>3917</v>
       </c>
       <c r="M176" t="n">
-        <v>0.05</v>
+        <v>0.083</v>
       </c>
       <c r="N176" t="n">
-        <v>0.0011</v>
+        <v>0.0013</v>
       </c>
       <c r="O176" t="n">
-        <v>921</v>
+        <v>783.4</v>
       </c>
       <c r="P176" t="s">
         <v>36</v>
@@ -13161,7 +13117,7 @@
         <v>935</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>44682</v>
+        <v>44686</v>
       </c>
       <c r="D178" t="s">
         <v>936</v>
@@ -13171,32 +13127,28 @@
       </c>
       <c r="F178"/>
       <c r="G178" t="n">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="H178" t="n">
-        <v>156106978</v>
+        <v>156735245</v>
       </c>
       <c r="I178" t="n">
-        <v>15624.63</v>
+        <v>15687.513</v>
       </c>
       <c r="J178" t="n">
-        <v>231652</v>
+        <v>203719</v>
       </c>
       <c r="K178" t="n">
-        <v>23.186</v>
+        <v>20.39</v>
       </c>
       <c r="L178" t="n">
-        <v>248031</v>
+        <v>192407</v>
       </c>
       <c r="M178" t="n">
-        <v>24.825</v>
-      </c>
-      <c r="N178" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="O178" t="n">
-        <v>1036.5</v>
-      </c>
+        <v>19.258</v>
+      </c>
+      <c r="N178"/>
+      <c r="O178"/>
       <c r="P178" t="s">
         <v>937</v>
       </c>
@@ -13218,7 +13170,7 @@
         <v>941</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>44679</v>
+        <v>44684</v>
       </c>
       <c r="D179" t="s">
         <v>942</v>
@@ -13228,31 +13180,31 @@
       </c>
       <c r="F179"/>
       <c r="G179" t="n">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="H179" t="n">
-        <v>497860030</v>
+        <v>499092297</v>
       </c>
       <c r="I179" t="n">
-        <v>7299.239</v>
+        <v>7317.306</v>
       </c>
       <c r="J179" t="n">
-        <v>344642</v>
+        <v>324962</v>
       </c>
       <c r="K179" t="n">
-        <v>5.053</v>
+        <v>4.764</v>
       </c>
       <c r="L179" t="n">
-        <v>313823</v>
+        <v>270606</v>
       </c>
       <c r="M179" t="n">
-        <v>4.601</v>
+        <v>3.967</v>
       </c>
       <c r="N179" t="n">
-        <v>0.0534</v>
+        <v>0.0421</v>
       </c>
       <c r="O179" t="n">
-        <v>18.7</v>
+        <v>23.8</v>
       </c>
       <c r="P179" t="s">
         <v>944</v>
@@ -13275,7 +13227,7 @@
         <v>948</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>44677</v>
+        <v>44680</v>
       </c>
       <c r="D180" t="s">
         <v>394</v>
@@ -13285,31 +13237,31 @@
       </c>
       <c r="F180"/>
       <c r="G180" t="n">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="H180" t="n">
-        <v>869230133</v>
+        <v>872144197</v>
       </c>
       <c r="I180" t="n">
-        <v>2610.967</v>
+        <v>2619.72</v>
       </c>
       <c r="J180" t="n">
-        <v>719487</v>
+        <v>518751</v>
       </c>
       <c r="K180" t="n">
-        <v>2.161</v>
+        <v>1.558</v>
       </c>
       <c r="L180" t="n">
-        <v>551422</v>
+        <v>627429</v>
       </c>
       <c r="M180" t="n">
-        <v>1.656</v>
+        <v>1.885</v>
       </c>
       <c r="N180" t="n">
-        <v>0.067</v>
+        <v>0.074</v>
       </c>
       <c r="O180" t="n">
-        <v>14.9</v>
+        <v>13.5</v>
       </c>
       <c r="P180" t="s">
         <v>395</v>
@@ -13332,7 +13284,7 @@
         <v>951</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>44678</v>
+        <v>44681</v>
       </c>
       <c r="D181" t="s">
         <v>394</v>
@@ -13342,31 +13294,31 @@
       </c>
       <c r="F181"/>
       <c r="G181" t="n">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="H181" t="n">
-        <v>110795</v>
+        <v>110986</v>
       </c>
       <c r="I181" t="n">
-        <v>1063.108</v>
+        <v>1064.941</v>
       </c>
       <c r="J181" t="n">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="K181" t="n">
-        <v>1.123</v>
+        <v>0.365</v>
       </c>
       <c r="L181" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M181" t="n">
-        <v>0.768</v>
+        <v>0.787</v>
       </c>
       <c r="N181" t="n">
-        <v>0.177</v>
+        <v>0.173</v>
       </c>
       <c r="O181" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="P181" t="s">
         <v>395</v>
@@ -13499,7 +13451,7 @@
         <v>964</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="D184" t="s">
         <v>965</v>
@@ -13509,21 +13461,21 @@
       </c>
       <c r="F184"/>
       <c r="G184" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H184" t="n">
-        <v>85799603</v>
+        <v>85802635</v>
       </c>
       <c r="I184" t="n">
-        <v>874</v>
+        <v>874.031</v>
       </c>
       <c r="J184"/>
       <c r="K184"/>
       <c r="L184" t="n">
-        <v>1498</v>
+        <v>1238</v>
       </c>
       <c r="M184" t="n">
-        <v>0.015</v>
+        <v>0.013</v>
       </c>
       <c r="N184"/>
       <c r="O184"/>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -101,7 +101,7 @@
     <t xml:space="preserve">Albania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-642-testime-20-qytetare-te-infektuar-asnje-humbje-jete-dhe-85-te-sheruar-ne-24-oret-e-fundit/</t>
+    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-735-testime-25-qytetare-te-infektuar-nje-humbje-jete-dhe-22-te-sheruar-ne-24-oret-e-fundit/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Protection</t>
@@ -369,7 +369,7 @@
     <t xml:space="preserve">Barbados - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gisbarbados.gov.bb/blog/covid-19-update-for-saturday-april-30/</t>
+    <t xml:space="preserve">https://gisbarbados.gov.bb/blog/covid-19-update-for-may-7/</t>
   </si>
   <si>
     <t xml:space="preserve">https://gisbarbados.gov.bb/top-stories/</t>
@@ -644,7 +644,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-04-de-maio-de-2022/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-08-de-maio-de-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -836,7 +836,7 @@
     <t xml:space="preserve">Curacao - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MinistryofHealthCuracao/posts/3121954024722612</t>
+    <t xml:space="preserve">https://www.facebook.com/MinistryofHealthCuracao/posts/3126008477650500</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health Curacao</t>
@@ -926,7 +926,7 @@
     <t xml:space="preserve">Dominica - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.dominica.gov.dm/index.php/updates/1469-april-19st-2022-dominica-coronavirus-update</t>
+    <t xml:space="preserve">https://covid19.dominica.gov.dm/index.php/updates/1473-may-6th-2022-dominica-coronavirus-update</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Wellness and New Health Investment</t>
@@ -944,7 +944,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://coronavirusrd.gob.do/wp-content/uploads/2022/05/Boletin-especial-772-COVID-19.pdf</t>
+    <t xml:space="preserve">https://coronavirusrd.gob.do/wp-content/uploads/2022/05/Boletin-especial-777%E2%80%93-COVID-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -1109,7 +1109,7 @@
     <t xml:space="preserve">Fiji - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.fj/05-05-2022/</t>
+    <t xml:space="preserve">https://www.health.gov.fj/09-05-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Fiji Ministry of Health &amp; Medical Services</t>
@@ -1292,7 +1292,7 @@
     <t xml:space="preserve">Grenada - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/gisgrenada/posts/304574251864328</t>
+    <t xml:space="preserve">https://www.facebook.com/gisgrenada/posts/306422508346169</t>
   </si>
   <si>
     <t xml:space="preserve">Government Information Service of Grenada</t>
@@ -1391,7 +1391,7 @@
     <t xml:space="preserve">Haiti - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://mspp.gouv.ht/site/downloads/Sitrep COVID-19_28-04-2022.pdf</t>
+    <t xml:space="preserve">https://mspp.gouv.ht/site/downloads/Sitrep COVID-19_02-05-2022.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Population</t>
@@ -1517,7 +1517,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://irangov.ir/detail/385779</t>
+    <t xml:space="preserve">https://irangov.ir/detail/386149</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Medical Education</t>
@@ -1615,7 +1615,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-tuesday-may-3-2022/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-saturday-may-7-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -2156,7 +2156,7 @@
     <t xml:space="preserve">Nepal - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.mohp.gov.np/covid/englishSituationReport/6273a41cd5124_SitRep816_COVID-19_05-05-2022_EN.pdf</t>
+    <t xml:space="preserve">https://covid19.mohp.gov.np/covid/englishSituationReport/6278f70b2b4ff_SitRep820_COVID-19_09-05-2022_EN.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -2258,7 +2258,7 @@
     <t xml:space="preserve">North Macedonia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://koronavirus.gov.mk/vesti/224104</t>
+    <t xml:space="preserve">https://koronavirus.gov.mk/vesti/224108</t>
   </si>
   <si>
     <t xml:space="preserve">https://koronavirus.gov.mk/stat</t>
@@ -2341,7 +2341,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/341704114723224</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/351503563743279</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -2363,7 +2363,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1521985325094129665</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1523434250627784705</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -2542,7 +2542,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=21434</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=21463</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -3229,7 +3229,7 @@
     <t xml:space="preserve">Vietnam - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.gov.vn/ngay-4-5-co-3088-ca-covid-19-so-khoi-benh-gap-14-lan-f0-mac-moi-171220504193910117.htm</t>
+    <t xml:space="preserve">https://covid19.gov.vn/ngay-8-5-so-mac-moi-covid-19-giam-sau-con-2269-ca-thap-nhat-trong-gan-300-ngay-qua-171220508213406385.htm</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health of Vietnam</t>
@@ -3754,7 +3754,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>44685</v>
+        <v>44690</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
@@ -3764,32 +3764,28 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H3" t="n">
-        <v>1606172</v>
+        <v>1606907</v>
       </c>
       <c r="I3" t="n">
-        <v>559.07</v>
+        <v>559.326</v>
       </c>
       <c r="J3" t="n">
-        <v>642</v>
+        <v>735</v>
       </c>
       <c r="K3" t="n">
-        <v>0.223</v>
+        <v>0.256</v>
       </c>
       <c r="L3" t="n">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="M3" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.4379</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2.3</v>
-      </c>
+        <v>0.046</v>
+      </c>
+      <c r="N3"/>
+      <c r="O3"/>
       <c r="P3" t="s">
         <v>30</v>
       </c>
@@ -4068,7 +4064,7 @@
         <v>62</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44681</v>
+        <v>44688</v>
       </c>
       <c r="D9" t="s">
         <v>63</v>
@@ -4078,31 +4074,31 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>835</v>
+        <v>842</v>
       </c>
       <c r="H9" t="n">
-        <v>35852214</v>
+        <v>35951115</v>
       </c>
       <c r="I9" t="n">
-        <v>786.132</v>
+        <v>788.301</v>
       </c>
       <c r="J9" t="n">
-        <v>4178</v>
+        <v>5612</v>
       </c>
       <c r="K9" t="n">
-        <v>0.092</v>
+        <v>0.123</v>
       </c>
       <c r="L9" t="n">
-        <v>9722</v>
+        <v>10415</v>
       </c>
       <c r="M9" t="n">
-        <v>0.213</v>
+        <v>0.228</v>
       </c>
       <c r="N9" t="n">
-        <v>0.098</v>
+        <v>0.179</v>
       </c>
       <c r="O9" t="n">
-        <v>10.2</v>
+        <v>5.6</v>
       </c>
       <c r="P9" t="s">
         <v>64</v>
@@ -4125,7 +4121,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44684</v>
+        <v>44689</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
@@ -4135,31 +4131,31 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="H10" t="n">
-        <v>3060433</v>
+        <v>3069318</v>
       </c>
       <c r="I10" t="n">
-        <v>1031.099</v>
+        <v>1034.092</v>
       </c>
       <c r="J10" t="n">
-        <v>1630</v>
+        <v>1403</v>
       </c>
       <c r="K10" t="n">
-        <v>0.549</v>
+        <v>0.473</v>
       </c>
       <c r="L10" t="n">
-        <v>2375</v>
+        <v>1751</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8</v>
+        <v>0.59</v>
       </c>
       <c r="N10" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="O10" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="P10" t="s">
         <v>53</v>
@@ -4182,7 +4178,7 @@
         <v>73</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44686</v>
+        <v>44689</v>
       </c>
       <c r="D11" t="s">
         <v>74</v>
@@ -4194,31 +4190,31 @@
         <v>76</v>
       </c>
       <c r="G11" t="n">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="H11" t="n">
-        <v>69731892</v>
+        <v>69970822</v>
       </c>
       <c r="I11" t="n">
-        <v>2704.021</v>
+        <v>2713.287</v>
       </c>
       <c r="J11" t="n">
-        <v>98474</v>
+        <v>71113</v>
       </c>
       <c r="K11" t="n">
-        <v>3.819</v>
+        <v>2.758</v>
       </c>
       <c r="L11" t="n">
-        <v>79909</v>
+        <v>79179</v>
       </c>
       <c r="M11" t="n">
-        <v>3.099</v>
+        <v>3.07</v>
       </c>
       <c r="N11" t="n">
-        <v>0.202</v>
+        <v>0.192</v>
       </c>
       <c r="O11" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="P11" t="s">
         <v>75</v>
@@ -4241,7 +4237,7 @@
         <v>80</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44686</v>
+        <v>44689</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -4251,28 +4247,32 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="H12" t="n">
-        <v>183682889</v>
+        <v>184147092</v>
       </c>
       <c r="I12" t="n">
-        <v>20312.001</v>
+        <v>20363.334</v>
       </c>
       <c r="J12" t="n">
-        <v>160209</v>
+        <v>77696</v>
       </c>
       <c r="K12" t="n">
-        <v>17.716</v>
+        <v>8.592</v>
       </c>
       <c r="L12" t="n">
-        <v>155235</v>
+        <v>151562</v>
       </c>
       <c r="M12" t="n">
-        <v>17.166</v>
-      </c>
-      <c r="N12"/>
-      <c r="O12"/>
+        <v>16.76</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.0345</v>
+      </c>
+      <c r="O12" t="n">
+        <v>29</v>
+      </c>
       <c r="P12" t="s">
         <v>82</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>85</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44685</v>
+        <v>44689</v>
       </c>
       <c r="D13" t="s">
         <v>86</v>
@@ -4304,27 +4304,27 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H13" t="n">
-        <v>6826926</v>
+        <v>6834816</v>
       </c>
       <c r="I13" t="n">
-        <v>667.778</v>
+        <v>668.55</v>
       </c>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13" t="n">
-        <v>3197</v>
+        <v>2496</v>
       </c>
       <c r="M13" t="n">
-        <v>0.313</v>
+        <v>0.244</v>
       </c>
       <c r="N13" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="O13" t="n">
-        <v>251.5</v>
+        <v>336</v>
       </c>
       <c r="P13" t="s">
         <v>87</v>
@@ -4400,7 +4400,7 @@
         <v>97</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44686</v>
+        <v>44690</v>
       </c>
       <c r="D15" t="s">
         <v>98</v>
@@ -4410,21 +4410,21 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H15" t="n">
-        <v>9733630</v>
+        <v>9751534</v>
       </c>
       <c r="I15" t="n">
-        <v>5567.499</v>
+        <v>5577.739</v>
       </c>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15" t="n">
-        <v>3124</v>
+        <v>3795</v>
       </c>
       <c r="M15" t="n">
-        <v>1.787</v>
+        <v>2.171</v>
       </c>
       <c r="N15"/>
       <c r="O15"/>
@@ -4449,7 +4449,7 @@
         <v>104</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>44686</v>
+        <v>44689</v>
       </c>
       <c r="D16" t="s">
         <v>105</v>
@@ -4459,28 +4459,32 @@
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H16" t="n">
-        <v>13742804</v>
+        <v>13748403</v>
       </c>
       <c r="I16" t="n">
-        <v>82.637</v>
+        <v>82.671</v>
       </c>
       <c r="J16" t="n">
-        <v>2212</v>
+        <v>5599</v>
       </c>
       <c r="K16" t="n">
-        <v>0.013</v>
+        <v>0.034</v>
       </c>
       <c r="L16" t="n">
-        <v>736</v>
+        <v>1116</v>
       </c>
       <c r="M16" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="N16"/>
-      <c r="O16"/>
+        <v>0.007</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0106</v>
+      </c>
+      <c r="O16" t="n">
+        <v>94.1</v>
+      </c>
       <c r="P16" t="s">
         <v>106</v>
       </c>
@@ -4502,7 +4506,7 @@
         <v>109</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44681</v>
+        <v>44688</v>
       </c>
       <c r="D17" t="s">
         <v>110</v>
@@ -4512,27 +4516,27 @@
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H17" t="n">
-        <v>650288</v>
+        <v>659902</v>
       </c>
       <c r="I17" t="n">
-        <v>2260.236</v>
+        <v>2293.652</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17" t="n">
-        <v>1284</v>
+        <v>1373</v>
       </c>
       <c r="M17" t="n">
-        <v>4.463</v>
+        <v>4.772</v>
       </c>
       <c r="N17" t="n">
-        <v>0.3142</v>
+        <v>0.3244</v>
       </c>
       <c r="O17" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P17" t="s">
         <v>53</v>
@@ -4555,7 +4559,7 @@
         <v>114</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44686</v>
+        <v>44688</v>
       </c>
       <c r="D18" t="s">
         <v>115</v>
@@ -4565,24 +4569,28 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H18" t="n">
-        <v>13180098</v>
+        <v>13202907</v>
       </c>
       <c r="I18" t="n">
-        <v>1395.773</v>
+        <v>1398.188</v>
       </c>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18" t="n">
-        <v>5901</v>
+        <v>6505</v>
       </c>
       <c r="M18" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="N18"/>
-      <c r="O18"/>
+        <v>0.689</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.0328</v>
+      </c>
+      <c r="O18" t="n">
+        <v>30.5</v>
+      </c>
       <c r="P18" t="s">
         <v>117</v>
       </c>
@@ -4604,7 +4612,7 @@
         <v>121</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="D19" t="s">
         <v>122</v>
@@ -4614,31 +4622,31 @@
       </c>
       <c r="F19"/>
       <c r="G19" t="n">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="H19" t="n">
-        <v>33642749</v>
+        <v>33713127</v>
       </c>
       <c r="I19" t="n">
-        <v>2892.175</v>
+        <v>2898.225</v>
       </c>
       <c r="J19" t="n">
-        <v>7853</v>
+        <v>22456</v>
       </c>
       <c r="K19" t="n">
-        <v>0.675</v>
+        <v>1.93</v>
       </c>
       <c r="L19" t="n">
-        <v>19095</v>
+        <v>18728</v>
       </c>
       <c r="M19" t="n">
-        <v>1.642</v>
+        <v>1.61</v>
       </c>
       <c r="N19" t="n">
-        <v>0.267</v>
+        <v>0.254</v>
       </c>
       <c r="O19" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="P19" t="s">
         <v>124</v>
@@ -4928,7 +4936,7 @@
         <v>156</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44640</v>
+        <v>44689</v>
       </c>
       <c r="D25" t="s">
         <v>35</v>
@@ -4938,25 +4946,23 @@
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H25" t="n">
-        <v>2219469</v>
+        <v>2276591</v>
       </c>
       <c r="I25" t="n">
-        <v>925.843</v>
+        <v>949.672</v>
       </c>
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25" t="n">
-        <v>1355</v>
+        <v>1166</v>
       </c>
       <c r="M25" t="n">
-        <v>0.565</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
+        <v>0.486</v>
+      </c>
+      <c r="N25"/>
       <c r="O25"/>
       <c r="P25" t="s">
         <v>36</v>
@@ -5007,12 +5013,8 @@
       <c r="M26" t="n">
         <v>0.567</v>
       </c>
-      <c r="N26" t="n">
-        <v>0.3944</v>
-      </c>
-      <c r="O26" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="N26"/>
+      <c r="O26"/>
       <c r="P26" t="s">
         <v>161</v>
       </c>
@@ -5034,7 +5036,7 @@
         <v>165</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44685</v>
+        <v>44689</v>
       </c>
       <c r="D27" t="s">
         <v>166</v>
@@ -5044,27 +5046,27 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H27" t="n">
-        <v>9871453</v>
+        <v>9886322</v>
       </c>
       <c r="I27" t="n">
-        <v>1431.339</v>
+        <v>1433.495</v>
       </c>
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27" t="n">
-        <v>6565</v>
+        <v>4955</v>
       </c>
       <c r="M27" t="n">
-        <v>0.952</v>
+        <v>0.718</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0646</v>
+        <v>0.0672</v>
       </c>
       <c r="O27" t="n">
-        <v>15.5</v>
+        <v>14.9</v>
       </c>
       <c r="P27" t="s">
         <v>168</v>
@@ -5138,7 +5140,7 @@
         <v>175</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44679</v>
+        <v>44689</v>
       </c>
       <c r="D29" t="s">
         <v>35</v>
@@ -5148,27 +5150,27 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H29" t="n">
-        <v>1504807</v>
+        <v>1528022</v>
       </c>
       <c r="I29" t="n">
-        <v>122.787</v>
+        <v>124.681</v>
       </c>
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29" t="n">
-        <v>2204</v>
+        <v>2322</v>
       </c>
       <c r="M29" t="n">
-        <v>0.18</v>
+        <v>0.189</v>
       </c>
       <c r="N29" t="n">
-        <v>0.061</v>
+        <v>0.0454</v>
       </c>
       <c r="O29" t="n">
-        <v>16.4</v>
+        <v>22</v>
       </c>
       <c r="P29" t="s">
         <v>36</v>
@@ -5191,7 +5193,7 @@
         <v>178</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44683</v>
+        <v>44690</v>
       </c>
       <c r="D30" t="s">
         <v>179</v>
@@ -5201,28 +5203,24 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H30" t="n">
-        <v>2953579</v>
+        <v>2957581</v>
       </c>
       <c r="I30" t="n">
-        <v>174.289</v>
+        <v>174.525</v>
       </c>
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30" t="n">
-        <v>648</v>
+        <v>572</v>
       </c>
       <c r="M30" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0.0057</v>
-      </c>
-      <c r="O30" t="n">
-        <v>174.5</v>
-      </c>
+        <v>0.034</v>
+      </c>
+      <c r="N30"/>
+      <c r="O30"/>
       <c r="P30" t="s">
         <v>180</v>
       </c>
@@ -5295,7 +5293,7 @@
         <v>186</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44679</v>
+        <v>44688</v>
       </c>
       <c r="D32" t="s">
         <v>187</v>
@@ -5305,31 +5303,31 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>795</v>
+        <v>804</v>
       </c>
       <c r="H32" t="n">
-        <v>60871310</v>
+        <v>61223661</v>
       </c>
       <c r="I32" t="n">
-        <v>1599.019</v>
+        <v>1608.275</v>
       </c>
       <c r="J32" t="n">
-        <v>51739</v>
+        <v>23606</v>
       </c>
       <c r="K32" t="n">
-        <v>1.359</v>
+        <v>0.62</v>
       </c>
       <c r="L32" t="n">
-        <v>47850</v>
+        <v>40480</v>
       </c>
       <c r="M32" t="n">
-        <v>1.257</v>
+        <v>1.063</v>
       </c>
       <c r="N32" t="n">
-        <v>0.1784</v>
+        <v>0.1419</v>
       </c>
       <c r="O32" t="n">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="P32" t="s">
         <v>188</v>
@@ -5352,7 +5350,7 @@
         <v>192</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44684</v>
+        <v>44688</v>
       </c>
       <c r="D33" t="s">
         <v>193</v>
@@ -5362,15 +5360,15 @@
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33" t="n">
-        <v>243</v>
+        <v>152</v>
       </c>
       <c r="K33" t="n">
-        <v>0.432</v>
+        <v>0.271</v>
       </c>
       <c r="L33"/>
       <c r="M33"/>
@@ -5397,7 +5395,7 @@
         <v>198</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>44682</v>
+        <v>44689</v>
       </c>
       <c r="D34" t="s">
         <v>35</v>
@@ -5407,21 +5405,21 @@
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H34" t="n">
-        <v>90855</v>
+        <v>91439</v>
       </c>
       <c r="I34" t="n">
-        <v>18.467</v>
+        <v>18.585</v>
       </c>
       <c r="J34"/>
       <c r="K34"/>
       <c r="L34" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="M34" t="n">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -5501,7 +5499,7 @@
         <v>204</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44685</v>
+        <v>44688</v>
       </c>
       <c r="D36" t="s">
         <v>205</v>
@@ -5511,31 +5509,31 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="H36" t="n">
-        <v>36912065</v>
+        <v>37071725</v>
       </c>
       <c r="I36" t="n">
-        <v>1921.266</v>
+        <v>1929.577</v>
       </c>
       <c r="J36" t="n">
-        <v>47646</v>
+        <v>49868</v>
       </c>
       <c r="K36" t="n">
-        <v>2.48</v>
+        <v>2.596</v>
       </c>
       <c r="L36" t="n">
-        <v>42420</v>
+        <v>44448</v>
       </c>
       <c r="M36" t="n">
-        <v>2.208</v>
+        <v>2.314</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0498</v>
+        <v>0.0563</v>
       </c>
       <c r="O36" t="n">
-        <v>20.1</v>
+        <v>17.8</v>
       </c>
       <c r="P36" t="s">
         <v>206</v>
@@ -5611,7 +5609,7 @@
         <v>216</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>44681</v>
+        <v>44686</v>
       </c>
       <c r="D38" t="s">
         <v>217</v>
@@ -5621,31 +5619,27 @@
       </c>
       <c r="F38"/>
       <c r="G38" t="n">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H38" t="n">
-        <v>34411712</v>
+        <v>34497425</v>
       </c>
       <c r="I38" t="n">
-        <v>671.241</v>
-      </c>
-      <c r="J38" t="n">
-        <v>9497</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.185</v>
-      </c>
+        <v>672.912</v>
+      </c>
+      <c r="J38"/>
+      <c r="K38"/>
       <c r="L38" t="n">
-        <v>16095</v>
+        <v>16220</v>
       </c>
       <c r="M38" t="n">
-        <v>0.314</v>
+        <v>0.316</v>
       </c>
       <c r="N38" t="n">
-        <v>0.017</v>
+        <v>0.019</v>
       </c>
       <c r="O38" t="n">
-        <v>58.8</v>
+        <v>52.6</v>
       </c>
       <c r="P38" t="s">
         <v>218</v>
@@ -5821,7 +5815,7 @@
         <v>233</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>44685</v>
+        <v>44689</v>
       </c>
       <c r="D42" t="s">
         <v>35</v>
@@ -5831,27 +5825,27 @@
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H42" t="n">
-        <v>1502805</v>
+        <v>1505532</v>
       </c>
       <c r="I42" t="n">
-        <v>55.549</v>
+        <v>55.65</v>
       </c>
       <c r="J42"/>
       <c r="K42"/>
       <c r="L42" t="n">
-        <v>771</v>
+        <v>780</v>
       </c>
       <c r="M42" t="n">
-        <v>0.028</v>
+        <v>0.029</v>
       </c>
       <c r="N42" t="n">
-        <v>0.01</v>
+        <v>0.0031</v>
       </c>
       <c r="O42" t="n">
-        <v>99.9</v>
+        <v>321.1</v>
       </c>
       <c r="P42" t="s">
         <v>36</v>
@@ -5874,7 +5868,7 @@
         <v>236</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44686</v>
+        <v>44690</v>
       </c>
       <c r="D43" t="s">
         <v>237</v>
@@ -5884,21 +5878,21 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H43" t="n">
-        <v>4804096</v>
+        <v>4815061</v>
       </c>
       <c r="I43" t="n">
-        <v>1176.996</v>
+        <v>1179.683</v>
       </c>
       <c r="J43"/>
       <c r="K43"/>
       <c r="L43" t="n">
-        <v>3526</v>
+        <v>3463</v>
       </c>
       <c r="M43" t="n">
-        <v>0.864</v>
+        <v>0.848</v>
       </c>
       <c r="N43"/>
       <c r="O43"/>
@@ -5982,7 +5976,7 @@
         <v>249</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>44680</v>
+        <v>44687</v>
       </c>
       <c r="D45" t="s">
         <v>250</v>
@@ -5992,31 +5986,31 @@
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H45" t="n">
-        <v>13347</v>
+        <v>15375</v>
       </c>
       <c r="I45" t="n">
-        <v>80.991</v>
+        <v>93.297</v>
       </c>
       <c r="J45" t="n">
-        <v>2413</v>
+        <v>2028</v>
       </c>
       <c r="K45" t="n">
-        <v>14.642</v>
+        <v>12.306</v>
       </c>
       <c r="L45" t="n">
-        <v>391</v>
+        <v>290</v>
       </c>
       <c r="M45" t="n">
-        <v>2.373</v>
+        <v>1.76</v>
       </c>
       <c r="N45" t="n">
-        <v>0.1871</v>
+        <v>0.0438</v>
       </c>
       <c r="O45" t="n">
-        <v>5.3</v>
+        <v>22.8</v>
       </c>
       <c r="P45" t="s">
         <v>53</v>
@@ -6096,7 +6090,7 @@
         <v>259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44685</v>
+        <v>44689</v>
       </c>
       <c r="D47" t="s">
         <v>260</v>
@@ -6106,31 +6100,31 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="H47" t="n">
-        <v>54336121</v>
+        <v>54363942</v>
       </c>
       <c r="I47" t="n">
-        <v>5066.516</v>
+        <v>5069.11</v>
       </c>
       <c r="J47" t="n">
-        <v>10947</v>
+        <v>3158</v>
       </c>
       <c r="K47" t="n">
-        <v>1.021</v>
+        <v>0.294</v>
       </c>
       <c r="L47" t="n">
-        <v>11185</v>
+        <v>9518</v>
       </c>
       <c r="M47" t="n">
-        <v>1.043</v>
+        <v>0.887</v>
       </c>
       <c r="N47" t="n">
-        <v>0.105</v>
+        <v>0.095</v>
       </c>
       <c r="O47" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="P47" t="s">
         <v>53</v>
@@ -6206,7 +6200,7 @@
         <v>269</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>44685</v>
+        <v>44686</v>
       </c>
       <c r="D49" t="s">
         <v>270</v>
@@ -6216,28 +6210,28 @@
       </c>
       <c r="F49"/>
       <c r="G49" t="n">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H49" t="n">
-        <v>67134292</v>
+        <v>67144437</v>
       </c>
       <c r="I49" t="n">
-        <v>11548.392</v>
+        <v>11550.137</v>
       </c>
       <c r="J49" t="n">
-        <v>9399</v>
+        <v>8829</v>
       </c>
       <c r="K49" t="n">
-        <v>1.617</v>
+        <v>1.519</v>
       </c>
       <c r="L49" t="n">
-        <v>11033</v>
+        <v>10638</v>
       </c>
       <c r="M49" t="n">
-        <v>1.898</v>
+        <v>1.83</v>
       </c>
       <c r="N49" t="n">
-        <v>0.0825</v>
+        <v>0.0826</v>
       </c>
       <c r="O49" t="n">
         <v>12.1</v>
@@ -6316,7 +6310,7 @@
         <v>277</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>44672</v>
+        <v>44687</v>
       </c>
       <c r="D51" t="s">
         <v>278</v>
@@ -6326,27 +6320,27 @@
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H51" t="n">
-        <v>188110</v>
+        <v>192785</v>
       </c>
       <c r="I51" t="n">
-        <v>2606.412</v>
+        <v>2671.188</v>
       </c>
       <c r="J51"/>
       <c r="K51"/>
       <c r="L51" t="n">
-        <v>102</v>
+        <v>202</v>
       </c>
       <c r="M51" t="n">
-        <v>1.413</v>
+        <v>2.799</v>
       </c>
       <c r="N51" t="n">
-        <v>0.0322</v>
+        <v>0.2496</v>
       </c>
       <c r="O51" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="P51" t="s">
         <v>279</v>
@@ -6369,7 +6363,7 @@
         <v>283</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44681</v>
+        <v>44686</v>
       </c>
       <c r="D52" t="s">
         <v>284</v>
@@ -6379,27 +6373,31 @@
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="H52" t="n">
-        <v>3279736</v>
+        <v>3287147</v>
       </c>
       <c r="I52" t="n">
-        <v>299.418</v>
-      </c>
-      <c r="J52"/>
-      <c r="K52"/>
+        <v>300.094</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1305</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.119</v>
+      </c>
       <c r="L52" t="n">
-        <v>2209</v>
+        <v>1656</v>
       </c>
       <c r="M52" t="n">
-        <v>0.202</v>
+        <v>0.151</v>
       </c>
       <c r="N52" t="n">
-        <v>0.019</v>
+        <v>0.028</v>
       </c>
       <c r="O52" t="n">
-        <v>52.6</v>
+        <v>35.8</v>
       </c>
       <c r="P52" t="s">
         <v>285</v>
@@ -6422,7 +6420,7 @@
         <v>289</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44683</v>
+        <v>44687</v>
       </c>
       <c r="D53" t="s">
         <v>290</v>
@@ -6434,31 +6432,31 @@
         <v>292</v>
       </c>
       <c r="G53" t="n">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="H53" t="n">
-        <v>2728366</v>
+        <v>2738703</v>
       </c>
       <c r="I53" t="n">
-        <v>152.521</v>
+        <v>153.099</v>
       </c>
       <c r="J53" t="n">
-        <v>549</v>
+        <v>2483</v>
       </c>
       <c r="K53" t="n">
-        <v>0.031</v>
+        <v>0.139</v>
       </c>
       <c r="L53" t="n">
-        <v>1819</v>
+        <v>1687</v>
       </c>
       <c r="M53" t="n">
-        <v>0.102</v>
+        <v>0.094</v>
       </c>
       <c r="N53" t="n">
-        <v>0.109</v>
+        <v>0.106</v>
       </c>
       <c r="O53" t="n">
-        <v>9.2</v>
+        <v>9.4</v>
       </c>
       <c r="P53" t="s">
         <v>293</v>
@@ -6615,8 +6613,12 @@
       <c r="M56" t="n">
         <v>0.172</v>
       </c>
-      <c r="N56"/>
-      <c r="O56"/>
+      <c r="N56" t="n">
+        <v>0.0017</v>
+      </c>
+      <c r="O56" t="n">
+        <v>580.4</v>
+      </c>
       <c r="P56" t="s">
         <v>36</v>
       </c>
@@ -6740,7 +6742,7 @@
         <v>318</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44685</v>
+        <v>44689</v>
       </c>
       <c r="D59" t="s">
         <v>35</v>
@@ -6750,27 +6752,27 @@
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H59" t="n">
-        <v>532024</v>
+        <v>534073</v>
       </c>
       <c r="I59" t="n">
-        <v>453.803</v>
+        <v>455.55</v>
       </c>
       <c r="J59"/>
       <c r="K59"/>
       <c r="L59" t="n">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="M59" t="n">
-        <v>0.338</v>
+        <v>0.374</v>
       </c>
       <c r="N59" t="n">
-        <v>0.136</v>
+        <v>0.1448</v>
       </c>
       <c r="O59" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="P59" t="s">
         <v>36</v>
@@ -6793,7 +6795,7 @@
         <v>321</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44685</v>
+        <v>44689</v>
       </c>
       <c r="D60" t="s">
         <v>35</v>
@@ -6803,27 +6805,27 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H60" t="n">
-        <v>4796596</v>
+        <v>4810790</v>
       </c>
       <c r="I60" t="n">
-        <v>40.692</v>
+        <v>40.812</v>
       </c>
       <c r="J60"/>
       <c r="K60"/>
       <c r="L60" t="n">
-        <v>3256</v>
+        <v>3013</v>
       </c>
       <c r="M60" t="n">
-        <v>0.028</v>
+        <v>0.026</v>
       </c>
       <c r="N60" t="n">
-        <v>0.0068</v>
+        <v>0.0075</v>
       </c>
       <c r="O60" t="n">
-        <v>147</v>
+        <v>132.6</v>
       </c>
       <c r="P60" t="s">
         <v>322</v>
@@ -6899,7 +6901,7 @@
         <v>333</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44685</v>
+        <v>44689</v>
       </c>
       <c r="D62" t="s">
         <v>334</v>
@@ -6909,28 +6911,24 @@
       </c>
       <c r="F62"/>
       <c r="G62" t="n">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H62" t="n">
-        <v>508406</v>
+        <v>514379</v>
       </c>
       <c r="I62" t="n">
-        <v>563.082</v>
+        <v>569.697</v>
       </c>
       <c r="J62"/>
       <c r="K62"/>
       <c r="L62" t="n">
-        <v>98</v>
+        <v>895</v>
       </c>
       <c r="M62" t="n">
-        <v>0.109</v>
-      </c>
-      <c r="N62" t="n">
-        <v>0.1618</v>
-      </c>
-      <c r="O62" t="n">
-        <v>6.2</v>
-      </c>
+        <v>0.991</v>
+      </c>
+      <c r="N62"/>
+      <c r="O62"/>
       <c r="P62" t="s">
         <v>335</v>
       </c>
@@ -7009,7 +7007,7 @@
         <v>346</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44681</v>
+        <v>44686</v>
       </c>
       <c r="D64" t="s">
         <v>347</v>
@@ -7019,25 +7017,25 @@
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="H64" t="n">
-        <v>269682746</v>
+        <v>270720475</v>
       </c>
       <c r="I64" t="n">
-        <v>3999.922</v>
+        <v>4015.314</v>
       </c>
       <c r="J64" t="n">
-        <v>194665</v>
+        <v>202119</v>
       </c>
       <c r="K64" t="n">
-        <v>2.887</v>
+        <v>2.998</v>
       </c>
       <c r="L64" t="n">
-        <v>238012</v>
+        <v>209286</v>
       </c>
       <c r="M64" t="n">
-        <v>3.53</v>
+        <v>3.104</v>
       </c>
       <c r="N64"/>
       <c r="O64"/>
@@ -7225,7 +7223,7 @@
         <v>366</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>44668</v>
+        <v>44682</v>
       </c>
       <c r="D68" t="s">
         <v>367</v>
@@ -7235,27 +7233,27 @@
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H68" t="n">
-        <v>124987432</v>
+        <v>127148605</v>
       </c>
       <c r="I68" t="n">
-        <v>1489.711</v>
+        <v>1515.47</v>
       </c>
       <c r="J68"/>
       <c r="K68"/>
       <c r="L68" t="n">
-        <v>162673</v>
+        <v>153104</v>
       </c>
       <c r="M68" t="n">
-        <v>1.939</v>
+        <v>1.825</v>
       </c>
       <c r="N68" t="n">
-        <v>0.547</v>
+        <v>0.418</v>
       </c>
       <c r="O68" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="P68" t="s">
         <v>368</v>
@@ -7278,7 +7276,7 @@
         <v>372</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>44685</v>
+        <v>44689</v>
       </c>
       <c r="D69" t="s">
         <v>35</v>
@@ -7288,27 +7286,27 @@
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H69" t="n">
-        <v>2438498</v>
+        <v>2438745</v>
       </c>
       <c r="I69" t="n">
-        <v>76.846</v>
+        <v>76.854</v>
       </c>
       <c r="J69"/>
       <c r="K69"/>
       <c r="L69" t="n">
-        <v>528</v>
+        <v>414</v>
       </c>
       <c r="M69" t="n">
-        <v>0.017</v>
+        <v>0.013</v>
       </c>
       <c r="N69" t="n">
-        <v>0.0124</v>
+        <v>0.0062</v>
       </c>
       <c r="O69" t="n">
-        <v>80.4</v>
+        <v>161</v>
       </c>
       <c r="P69" t="s">
         <v>36</v>
@@ -7384,7 +7382,7 @@
         <v>380</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44686</v>
+        <v>44689</v>
       </c>
       <c r="D71" t="s">
         <v>381</v>
@@ -7394,24 +7392,28 @@
       </c>
       <c r="F71"/>
       <c r="G71" t="n">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H71" t="n">
-        <v>80328232</v>
+        <v>80579733</v>
       </c>
       <c r="I71" t="n">
-        <v>7745.655</v>
+        <v>7769.906</v>
       </c>
       <c r="J71"/>
       <c r="K71"/>
       <c r="L71" t="n">
-        <v>114130</v>
+        <v>95063</v>
       </c>
       <c r="M71" t="n">
-        <v>11.005</v>
-      </c>
-      <c r="N71"/>
-      <c r="O71"/>
+        <v>9.166</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.0498</v>
+      </c>
+      <c r="O71" t="n">
+        <v>20.1</v>
+      </c>
       <c r="P71" t="s">
         <v>383</v>
       </c>
@@ -7433,7 +7435,7 @@
         <v>387</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>44685</v>
+        <v>44687</v>
       </c>
       <c r="D72" t="s">
         <v>388</v>
@@ -7443,31 +7445,27 @@
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H72" t="n">
-        <v>152457</v>
+        <v>153692</v>
       </c>
       <c r="I72" t="n">
-        <v>1348.998</v>
-      </c>
-      <c r="J72" t="n">
-        <v>723</v>
-      </c>
-      <c r="K72" t="n">
-        <v>6.397</v>
-      </c>
+        <v>1359.926</v>
+      </c>
+      <c r="J72"/>
+      <c r="K72"/>
       <c r="L72" t="n">
-        <v>359</v>
+        <v>422</v>
       </c>
       <c r="M72" t="n">
-        <v>3.177</v>
+        <v>3.734</v>
       </c>
       <c r="N72" t="n">
-        <v>0.185</v>
+        <v>0.2282</v>
       </c>
       <c r="O72" t="n">
-        <v>5.4</v>
+        <v>4.4</v>
       </c>
       <c r="P72" t="s">
         <v>389</v>
@@ -7490,7 +7488,7 @@
         <v>393</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44681</v>
+        <v>44685</v>
       </c>
       <c r="D73" t="s">
         <v>394</v>
@@ -7500,31 +7498,31 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="H73" t="n">
-        <v>288336</v>
+        <v>290046</v>
       </c>
       <c r="I73" t="n">
-        <v>1694.26</v>
+        <v>1704.308</v>
       </c>
       <c r="J73" t="n">
-        <v>222</v>
+        <v>420</v>
       </c>
       <c r="K73" t="n">
-        <v>1.304</v>
+        <v>2.468</v>
       </c>
       <c r="L73" t="n">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="M73" t="n">
-        <v>1.827</v>
+        <v>2.086</v>
       </c>
       <c r="N73" t="n">
-        <v>0.07</v>
+        <v>0.04</v>
       </c>
       <c r="O73" t="n">
-        <v>14.3</v>
+        <v>25</v>
       </c>
       <c r="P73" t="s">
         <v>395</v>
@@ -7657,7 +7655,7 @@
         <v>409</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44682</v>
+        <v>44689</v>
       </c>
       <c r="D76" t="s">
         <v>35</v>
@@ -7667,27 +7665,27 @@
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H76" t="n">
-        <v>134285</v>
+        <v>135355</v>
       </c>
       <c r="I76" t="n">
-        <v>66.626</v>
+        <v>67.157</v>
       </c>
       <c r="J76"/>
       <c r="K76"/>
       <c r="L76" t="n">
-        <v>239</v>
+        <v>153</v>
       </c>
       <c r="M76" t="n">
-        <v>0.119</v>
+        <v>0.076</v>
       </c>
       <c r="N76" t="n">
-        <v>0.0102</v>
+        <v>0.0103</v>
       </c>
       <c r="O76" t="n">
-        <v>98.4</v>
+        <v>97.4</v>
       </c>
       <c r="P76" t="s">
         <v>36</v>
@@ -7763,7 +7761,7 @@
         <v>418</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>44679</v>
+        <v>44683</v>
       </c>
       <c r="D78" t="s">
         <v>419</v>
@@ -7773,27 +7771,27 @@
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H78" t="n">
-        <v>196826</v>
+        <v>197452</v>
       </c>
       <c r="I78" t="n">
-        <v>17.053</v>
+        <v>17.108</v>
       </c>
       <c r="J78"/>
       <c r="K78"/>
       <c r="L78" t="n">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="M78" t="n">
-        <v>0.016</v>
+        <v>0.014</v>
       </c>
       <c r="N78" t="n">
-        <v>0.0317</v>
+        <v>0.0491</v>
       </c>
       <c r="O78" t="n">
-        <v>31.5</v>
+        <v>20.4</v>
       </c>
       <c r="P78" t="s">
         <v>421</v>
@@ -7928,7 +7926,7 @@
         <v>439</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>44683</v>
+        <v>44686</v>
       </c>
       <c r="D81" t="s">
         <v>440</v>
@@ -7938,32 +7936,28 @@
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="H81" t="n">
-        <v>1323043</v>
+        <v>1324925</v>
       </c>
       <c r="I81" t="n">
-        <v>3587.505</v>
+        <v>3592.608</v>
       </c>
       <c r="J81" t="n">
-        <v>355</v>
+        <v>621</v>
       </c>
       <c r="K81" t="n">
-        <v>0.963</v>
+        <v>1.684</v>
       </c>
       <c r="L81" t="n">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="M81" t="n">
-        <v>1.529</v>
-      </c>
-      <c r="N81" t="n">
-        <v>0.089</v>
-      </c>
-      <c r="O81" t="n">
-        <v>11.2</v>
-      </c>
+        <v>1.546</v>
+      </c>
+      <c r="N81"/>
+      <c r="O81"/>
       <c r="P81" t="s">
         <v>441</v>
       </c>
@@ -7985,7 +7979,7 @@
         <v>444</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>44686</v>
+        <v>44690</v>
       </c>
       <c r="D82" t="s">
         <v>445</v>
@@ -7997,25 +7991,25 @@
         <v>447</v>
       </c>
       <c r="G82" t="n">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="H82" t="n">
-        <v>839379007</v>
+        <v>841029858</v>
       </c>
       <c r="I82" t="n">
-        <v>602.392</v>
+        <v>603.577</v>
       </c>
       <c r="J82" t="n">
-        <v>423430</v>
+        <v>336776</v>
       </c>
       <c r="K82" t="n">
-        <v>0.304</v>
+        <v>0.242</v>
       </c>
       <c r="L82" t="n">
-        <v>415323</v>
+        <v>403023</v>
       </c>
       <c r="M82" t="n">
-        <v>0.298</v>
+        <v>0.289</v>
       </c>
       <c r="N82"/>
       <c r="O82"/>
@@ -8097,7 +8091,7 @@
         <v>456</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44685</v>
+        <v>44690</v>
       </c>
       <c r="D84" t="s">
         <v>457</v>
@@ -8107,28 +8101,24 @@
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H84" t="n">
-        <v>51307950</v>
+        <v>51539372</v>
       </c>
       <c r="I84" t="n">
-        <v>603.419</v>
+        <v>606.14</v>
       </c>
       <c r="J84"/>
       <c r="K84"/>
       <c r="L84" t="n">
-        <v>49016</v>
+        <v>46715</v>
       </c>
       <c r="M84" t="n">
-        <v>0.576</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0.0128</v>
-      </c>
-      <c r="O84" t="n">
-        <v>78.1</v>
-      </c>
+        <v>0.549</v>
+      </c>
+      <c r="N84"/>
+      <c r="O84"/>
       <c r="P84" t="s">
         <v>459</v>
       </c>
@@ -8203,7 +8193,7 @@
         <v>465</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44686</v>
+        <v>44690</v>
       </c>
       <c r="D86" t="s">
         <v>466</v>
@@ -8213,25 +8203,25 @@
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="H86" t="n">
-        <v>12096220</v>
+        <v>12118172</v>
       </c>
       <c r="I86" t="n">
-        <v>2427.544</v>
+        <v>2431.95</v>
       </c>
       <c r="J86" t="n">
-        <v>6370</v>
+        <v>4377</v>
       </c>
       <c r="K86" t="n">
-        <v>1.278</v>
+        <v>0.878</v>
       </c>
       <c r="L86" t="n">
-        <v>5454</v>
+        <v>5789</v>
       </c>
       <c r="M86" t="n">
-        <v>1.095</v>
+        <v>1.162</v>
       </c>
       <c r="N86"/>
       <c r="O86"/>
@@ -8256,7 +8246,7 @@
         <v>471</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44684</v>
+        <v>44689</v>
       </c>
       <c r="D87" t="s">
         <v>472</v>
@@ -8266,31 +8256,31 @@
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="H87" t="n">
-        <v>50272238</v>
+        <v>50496653</v>
       </c>
       <c r="I87" t="n">
-        <v>5410.853</v>
+        <v>5435.007</v>
       </c>
       <c r="J87" t="n">
-        <v>49011</v>
+        <v>63587</v>
       </c>
       <c r="K87" t="n">
-        <v>5.275</v>
+        <v>6.844</v>
       </c>
       <c r="L87" t="n">
-        <v>49119</v>
+        <v>47530</v>
       </c>
       <c r="M87" t="n">
-        <v>5.287</v>
+        <v>5.116</v>
       </c>
       <c r="N87" t="n">
-        <v>0.048</v>
+        <v>0.044</v>
       </c>
       <c r="O87" t="n">
-        <v>20.8</v>
+        <v>22.7</v>
       </c>
       <c r="P87" t="s">
         <v>53</v>
@@ -8313,7 +8303,7 @@
         <v>477</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44686</v>
+        <v>44689</v>
       </c>
       <c r="D88" t="s">
         <v>478</v>
@@ -8325,28 +8315,32 @@
         <v>480</v>
       </c>
       <c r="G88" t="n">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="H88" t="n">
-        <v>215257228</v>
+        <v>216068651</v>
       </c>
       <c r="I88" t="n">
-        <v>3565.782</v>
+        <v>3579.223</v>
       </c>
       <c r="J88" t="n">
-        <v>327178</v>
+        <v>203454</v>
       </c>
       <c r="K88" t="n">
-        <v>5.42</v>
+        <v>3.37</v>
       </c>
       <c r="L88" t="n">
-        <v>321122</v>
+        <v>286767</v>
       </c>
       <c r="M88" t="n">
-        <v>5.319</v>
-      </c>
-      <c r="N88"/>
-      <c r="O88"/>
+        <v>4.75</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.1466</v>
+      </c>
+      <c r="O88" t="n">
+        <v>6.8</v>
+      </c>
       <c r="P88" t="s">
         <v>481</v>
       </c>
@@ -8368,7 +8362,7 @@
         <v>485</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44684</v>
+        <v>44688</v>
       </c>
       <c r="D89" t="s">
         <v>486</v>
@@ -8378,31 +8372,27 @@
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H89" t="n">
-        <v>1008811</v>
+        <v>1019394</v>
       </c>
       <c r="I89" t="n">
-        <v>339.272</v>
-      </c>
-      <c r="J89" t="n">
-        <v>2463</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.828</v>
-      </c>
+        <v>342.831</v>
+      </c>
+      <c r="J89"/>
+      <c r="K89"/>
       <c r="L89" t="n">
-        <v>2458</v>
+        <v>2577</v>
       </c>
       <c r="M89" t="n">
-        <v>0.827</v>
+        <v>0.867</v>
       </c>
       <c r="N89" t="n">
-        <v>0.0411</v>
+        <v>0.0448</v>
       </c>
       <c r="O89" t="n">
-        <v>24.3</v>
+        <v>22.3</v>
       </c>
       <c r="P89" t="s">
         <v>487</v>
@@ -8425,7 +8415,7 @@
         <v>491</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44685</v>
+        <v>44687</v>
       </c>
       <c r="D90" t="s">
         <v>492</v>
@@ -8435,31 +8425,31 @@
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="H90" t="n">
-        <v>47095704</v>
+        <v>47349231</v>
       </c>
       <c r="I90" t="n">
-        <v>373.625</v>
+        <v>375.636</v>
       </c>
       <c r="J90" t="n">
-        <v>92663</v>
+        <v>215284</v>
       </c>
       <c r="K90" t="n">
-        <v>0.735</v>
+        <v>1.708</v>
       </c>
       <c r="L90" t="n">
-        <v>84914</v>
+        <v>91081</v>
       </c>
       <c r="M90" t="n">
-        <v>0.674</v>
+        <v>0.723</v>
       </c>
       <c r="N90" t="n">
-        <v>0.347</v>
+        <v>0.267</v>
       </c>
       <c r="O90" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="P90" t="s">
         <v>493</v>
@@ -8482,7 +8472,7 @@
         <v>497</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>44666</v>
+        <v>44687</v>
       </c>
       <c r="D91" t="s">
         <v>498</v>
@@ -8492,28 +8482,24 @@
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H91" t="n">
-        <v>16719174</v>
+        <v>16765117</v>
       </c>
       <c r="I91" t="n">
-        <v>1628.117</v>
+        <v>1632.591</v>
       </c>
       <c r="J91"/>
       <c r="K91"/>
       <c r="L91" t="n">
-        <v>6265</v>
+        <v>2188</v>
       </c>
       <c r="M91" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="N91" t="n">
-        <v>0.0169</v>
-      </c>
-      <c r="O91" t="n">
-        <v>59.2</v>
-      </c>
+        <v>0.213</v>
+      </c>
+      <c r="N91"/>
+      <c r="O91"/>
       <c r="P91" t="s">
         <v>499</v>
       </c>
@@ -8592,7 +8578,7 @@
         <v>508</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>44685</v>
+        <v>44689</v>
       </c>
       <c r="D93" t="s">
         <v>35</v>
@@ -8602,27 +8588,27 @@
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H93" t="n">
-        <v>3603531</v>
+        <v>3613499</v>
       </c>
       <c r="I93" t="n">
-        <v>65.536</v>
+        <v>65.717</v>
       </c>
       <c r="J93"/>
       <c r="K93"/>
       <c r="L93" t="n">
-        <v>2372</v>
+        <v>2099</v>
       </c>
       <c r="M93" t="n">
-        <v>0.043</v>
+        <v>0.038</v>
       </c>
       <c r="N93" t="n">
-        <v>0.0049</v>
+        <v>0.0065</v>
       </c>
       <c r="O93" t="n">
-        <v>202.5</v>
+        <v>154.7</v>
       </c>
       <c r="P93" t="s">
         <v>36</v>
@@ -8645,7 +8631,7 @@
         <v>511</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44681</v>
+        <v>44688</v>
       </c>
       <c r="D94" t="s">
         <v>512</v>
@@ -8655,27 +8641,27 @@
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H94" t="n">
-        <v>1825307</v>
+        <v>1829618</v>
       </c>
       <c r="I94" t="n">
-        <v>1024.236</v>
+        <v>1026.655</v>
       </c>
       <c r="J94"/>
       <c r="K94"/>
       <c r="L94" t="n">
-        <v>675</v>
+        <v>616</v>
       </c>
       <c r="M94" t="n">
-        <v>0.379</v>
+        <v>0.346</v>
       </c>
       <c r="N94" t="n">
-        <v>0.0254</v>
+        <v>0.0151</v>
       </c>
       <c r="O94" t="n">
-        <v>39.4</v>
+        <v>66.3</v>
       </c>
       <c r="P94" t="s">
         <v>514</v>
@@ -8751,7 +8737,7 @@
         <v>523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>44686</v>
+        <v>44690</v>
       </c>
       <c r="D96" t="s">
         <v>524</v>
@@ -8761,25 +8747,25 @@
       </c>
       <c r="F96"/>
       <c r="G96" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H96" t="n">
-        <v>1024952</v>
+        <v>1026199</v>
       </c>
       <c r="I96" t="n">
-        <v>138.894</v>
+        <v>139.063</v>
       </c>
       <c r="J96" t="n">
-        <v>2323</v>
+        <v>1247</v>
       </c>
       <c r="K96" t="n">
-        <v>0.315</v>
+        <v>0.169</v>
       </c>
       <c r="L96" t="n">
-        <v>402</v>
+        <v>344</v>
       </c>
       <c r="M96" t="n">
-        <v>0.054</v>
+        <v>0.047</v>
       </c>
       <c r="N96"/>
       <c r="O96"/>
@@ -8804,7 +8790,7 @@
         <v>529</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44685</v>
+        <v>44690</v>
       </c>
       <c r="D97" t="s">
         <v>530</v>
@@ -8816,25 +8802,25 @@
         <v>532</v>
       </c>
       <c r="G97" t="n">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="H97" t="n">
-        <v>7147014</v>
+        <v>7159741</v>
       </c>
       <c r="I97" t="n">
-        <v>3828.209</v>
+        <v>3835.026</v>
       </c>
       <c r="J97" t="n">
-        <v>4447</v>
+        <v>1672</v>
       </c>
       <c r="K97" t="n">
-        <v>2.382</v>
+        <v>0.896</v>
       </c>
       <c r="L97" t="n">
-        <v>3540</v>
+        <v>3059</v>
       </c>
       <c r="M97" t="n">
-        <v>1.896</v>
+        <v>1.639</v>
       </c>
       <c r="N97"/>
       <c r="O97"/>
@@ -8885,12 +8871,8 @@
       <c r="M98" t="n">
         <v>2.17</v>
       </c>
-      <c r="N98" t="n">
-        <v>0.0091</v>
-      </c>
-      <c r="O98" t="n">
-        <v>110.4</v>
-      </c>
+      <c r="N98"/>
+      <c r="O98"/>
       <c r="P98" t="s">
         <v>537</v>
       </c>
@@ -8912,7 +8894,7 @@
         <v>540</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44685</v>
+        <v>44689</v>
       </c>
       <c r="D99" t="s">
         <v>35</v>
@@ -8922,24 +8904,28 @@
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H99" t="n">
-        <v>445669</v>
+        <v>447797</v>
       </c>
       <c r="I99" t="n">
-        <v>206.417</v>
+        <v>207.403</v>
       </c>
       <c r="J99"/>
       <c r="K99"/>
       <c r="L99" t="n">
-        <v>288</v>
+        <v>362</v>
       </c>
       <c r="M99" t="n">
-        <v>0.133</v>
-      </c>
-      <c r="N99"/>
-      <c r="O99"/>
+        <v>0.168</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.0537</v>
+      </c>
+      <c r="O99" t="n">
+        <v>18.6</v>
+      </c>
       <c r="P99" t="s">
         <v>36</v>
       </c>
@@ -9165,7 +9151,7 @@
         <v>563</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>44684</v>
+        <v>44686</v>
       </c>
       <c r="D104" t="s">
         <v>564</v>
@@ -9175,31 +9161,31 @@
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="H104" t="n">
-        <v>4234646</v>
+        <v>4238251</v>
       </c>
       <c r="I104" t="n">
-        <v>6670.688</v>
+        <v>6676.367</v>
       </c>
       <c r="J104" t="n">
-        <v>2374</v>
+        <v>1698</v>
       </c>
       <c r="K104" t="n">
-        <v>3.74</v>
+        <v>2.675</v>
       </c>
       <c r="L104" t="n">
-        <v>1699</v>
+        <v>1567</v>
       </c>
       <c r="M104" t="n">
-        <v>2.676</v>
+        <v>2.468</v>
       </c>
       <c r="N104" t="n">
-        <v>0.29</v>
+        <v>0.301</v>
       </c>
       <c r="O104" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P104" t="s">
         <v>565</v>
@@ -9275,7 +9261,7 @@
         <v>571</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44685</v>
+        <v>44689</v>
       </c>
       <c r="D106" t="s">
         <v>35</v>
@@ -9285,27 +9271,27 @@
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H106" t="n">
-        <v>574956</v>
+        <v>576216</v>
       </c>
       <c r="I106" t="n">
-        <v>29.263</v>
+        <v>29.327</v>
       </c>
       <c r="J106"/>
       <c r="K106"/>
       <c r="L106" t="n">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="M106" t="n">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="N106" t="n">
-        <v>0.0151</v>
+        <v>0.0144</v>
       </c>
       <c r="O106" t="n">
-        <v>66.1</v>
+        <v>69.3</v>
       </c>
       <c r="P106" t="s">
         <v>36</v>
@@ -9328,7 +9314,7 @@
         <v>574</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44683</v>
+        <v>44685</v>
       </c>
       <c r="D107" t="s">
         <v>575</v>
@@ -9340,31 +9326,31 @@
         <v>577</v>
       </c>
       <c r="G107" t="n">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="H107" t="n">
-        <v>58724704</v>
+        <v>58767736</v>
       </c>
       <c r="I107" t="n">
-        <v>1791.688</v>
+        <v>1793.001</v>
       </c>
       <c r="J107" t="n">
-        <v>16369</v>
+        <v>22009</v>
       </c>
       <c r="K107" t="n">
-        <v>0.499</v>
+        <v>0.671</v>
       </c>
       <c r="L107" t="n">
-        <v>39152</v>
+        <v>29119</v>
       </c>
       <c r="M107" t="n">
-        <v>1.195</v>
+        <v>0.888</v>
       </c>
       <c r="N107" t="n">
-        <v>0.0632</v>
+        <v>0.0611</v>
       </c>
       <c r="O107" t="n">
-        <v>15.8</v>
+        <v>16.4</v>
       </c>
       <c r="P107" t="s">
         <v>53</v>
@@ -9440,7 +9426,7 @@
         <v>587</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44685</v>
+        <v>44689</v>
       </c>
       <c r="D109" t="s">
         <v>35</v>
@@ -9450,27 +9436,27 @@
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H109" t="n">
-        <v>680249</v>
+        <v>682967</v>
       </c>
       <c r="I109" t="n">
-        <v>32.617</v>
+        <v>32.747</v>
       </c>
       <c r="J109"/>
       <c r="K109"/>
       <c r="L109" t="n">
-        <v>384</v>
+        <v>522</v>
       </c>
       <c r="M109" t="n">
-        <v>0.018</v>
+        <v>0.025</v>
       </c>
       <c r="N109" t="n">
-        <v>0.0331</v>
+        <v>0.0257</v>
       </c>
       <c r="O109" t="n">
-        <v>30.2</v>
+        <v>38.9</v>
       </c>
       <c r="P109" t="s">
         <v>36</v>
@@ -9493,7 +9479,7 @@
         <v>590</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>44686</v>
+        <v>44690</v>
       </c>
       <c r="D110" t="s">
         <v>591</v>
@@ -9503,25 +9489,25 @@
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="H110" t="n">
-        <v>1891415</v>
+        <v>1896860</v>
       </c>
       <c r="I110" t="n">
-        <v>3664.823</v>
+        <v>3675.373</v>
       </c>
       <c r="J110" t="n">
-        <v>1704</v>
+        <v>1159</v>
       </c>
       <c r="K110" t="n">
-        <v>3.302</v>
+        <v>2.246</v>
       </c>
       <c r="L110" t="n">
-        <v>1631</v>
+        <v>1545</v>
       </c>
       <c r="M110" t="n">
-        <v>3.16</v>
+        <v>2.994</v>
       </c>
       <c r="N110"/>
       <c r="O110"/>
@@ -9712,28 +9698,28 @@
         <v>850</v>
       </c>
       <c r="H114" t="n">
-        <v>15122005</v>
+        <v>15119415</v>
       </c>
       <c r="I114" t="n">
-        <v>116.089</v>
+        <v>116.069</v>
       </c>
       <c r="J114" t="n">
-        <v>3242</v>
+        <v>1923</v>
       </c>
       <c r="K114" t="n">
-        <v>0.025</v>
+        <v>0.015</v>
       </c>
       <c r="L114" t="n">
-        <v>4256</v>
+        <v>4005</v>
       </c>
       <c r="M114" t="n">
-        <v>0.033</v>
+        <v>0.031</v>
       </c>
       <c r="N114" t="n">
-        <v>0.103</v>
+        <v>0.107</v>
       </c>
       <c r="O114" t="n">
-        <v>9.7</v>
+        <v>9.3</v>
       </c>
       <c r="P114" t="s">
         <v>611</v>
@@ -9854,7 +9840,7 @@
         <v>626</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44685</v>
+        <v>44689</v>
       </c>
       <c r="D117" t="s">
         <v>627</v>
@@ -9864,27 +9850,27 @@
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H117" t="n">
-        <v>11480289</v>
+        <v>11512857</v>
       </c>
       <c r="I117" t="n">
-        <v>307.413</v>
+        <v>308.286</v>
       </c>
       <c r="J117"/>
       <c r="K117"/>
       <c r="L117" t="n">
-        <v>4969</v>
+        <v>6276</v>
       </c>
       <c r="M117" t="n">
-        <